--- a/data/klinische_aspekte.xlsx
+++ b/data/klinische_aspekte.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20367"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EEDA994-B196-4990-9F38-5BC2BAD485E9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20368"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Wissdaten\RKI_nCoV-Lage\3.Kommunikation\3.7.Lageberichte\2020-12-22\Webmaster\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A0C099E-A7DA-4F93-B009-079059AA5914}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6525" activeTab="1" xr2:uid="{E7020DAF-D42D-4B3D-9581-E23C135CB659}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6525" xr2:uid="{E7020DAF-D42D-4B3D-9581-E23C135CB659}"/>
   </bookViews>
   <sheets>
     <sheet name="Erläuterung" sheetId="1" r:id="rId1"/>
@@ -22,9 +27,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>Die Tabelle zeigt die dem RKI übermittelten COVID-19-Fälle nach Meldewoche und nach Geschlecht sowie Anteile mit für COVID-19 relevanten Symptomen, Anteile Hospitalisierter und Verstorbener für die Meldewochen KW 10 – 50. Eine grafische Darstellung der Daten befindt sich im Lagebericht unter dem Abschnitt "klinische Aspekte".</t>
-  </si>
   <si>
     <t>KW</t>
   </si>
@@ -62,7 +64,10 @@
     <t>Anteil Verstorben</t>
   </si>
   <si>
-    <t>Die dem RKI übermittelten COVID-19-Fälle nach Meldewoche und nach Geschlecht sowie Anteile mit für COVID-19 relevanten Symptomen, Anteile Hospitalisierter und Verstorbener für die Meldewochen KW 10 – 49</t>
+    <t>Die dem RKI übermittelten COVID-19-Fälle nach Meldewoche und nach Geschlecht sowie Anteile mit für COVID-19 relevanten Symptomen, Anteile Hospitalisierter und Verstorbener für die Meldewochen KW 10 – 51</t>
+  </si>
+  <si>
+    <t>Die Tabelle zeigt die dem RKI übermittelten COVID-19-Fälle nach Meldewoche und nach Geschlecht sowie Anteile mit für COVID-19 relevanten Symptomen, Anteile Hospitalisierter und Verstorbener für die Meldewochen KW 10 – 51. Eine grafische Darstellung der Daten befindt sich im Lagebericht unter dem Abschnitt "klinische Aspekte".</t>
   </si>
 </sst>
 </file>
@@ -559,8 +564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{350C8C98-0330-4D2B-AF77-1BF3FE48346F}">
   <dimension ref="B4:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -575,7 +580,7 @@
     </row>
     <row r="5" spans="2:2" ht="60" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.25">
@@ -589,55 +594,55 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DEDA6CE-9876-49C2-92B7-5A16179ED11F}">
-  <dimension ref="A1:N44"/>
+  <dimension ref="A1:N45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="C3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="M3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="N3" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -683,37 +688,37 @@
         <v>11</v>
       </c>
       <c r="D5" s="12">
-        <v>6435</v>
+        <v>6433</v>
       </c>
       <c r="E5" s="13">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" s="14">
-        <v>0.5631898025804446</v>
+        <v>0.56320945420618873</v>
       </c>
       <c r="G5" s="14">
-        <v>0.4368101974195554</v>
+        <v>0.43679054579381121</v>
       </c>
       <c r="H5" s="12">
-        <v>5777</v>
+        <v>5779</v>
       </c>
       <c r="I5" s="15">
-        <v>5.2795568634239225E-2</v>
+        <v>5.3123377747015053E-2</v>
       </c>
       <c r="J5" s="12">
-        <v>5612</v>
+        <v>5611</v>
       </c>
       <c r="K5" s="13">
         <v>519</v>
       </c>
       <c r="L5" s="14">
-        <v>9.2480399144689945E-2</v>
+        <v>9.249688112635894E-2</v>
       </c>
       <c r="M5" s="13">
         <v>85</v>
       </c>
       <c r="N5" s="16">
-        <v>1.32090132E-2</v>
+        <v>1.321311985E-2</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -727,16 +732,16 @@
         <v>45</v>
       </c>
       <c r="F6" s="7">
-        <v>0.54980595084087969</v>
+        <v>0.54985055984297626</v>
       </c>
       <c r="G6" s="7">
-        <v>0.45019404915912031</v>
+        <v>0.45014944015702368</v>
       </c>
       <c r="H6" s="8">
-        <v>20207</v>
+        <v>20209</v>
       </c>
       <c r="I6" s="9">
-        <v>3.8501509377938337E-2</v>
+        <v>3.8497699044979961E-2</v>
       </c>
       <c r="J6" s="8">
         <v>19342</v>
@@ -759,37 +764,37 @@
         <v>13</v>
       </c>
       <c r="D7" s="12">
-        <v>34025</v>
+        <v>34027</v>
       </c>
       <c r="E7" s="13">
         <v>48</v>
       </c>
       <c r="F7" s="14">
-        <v>0.49492632136239301</v>
+        <v>0.49495603070497929</v>
       </c>
       <c r="G7" s="14">
-        <v>0.50507367863760699</v>
+        <v>0.50504396929502071</v>
       </c>
       <c r="H7" s="12">
-        <v>30850</v>
+        <v>30854</v>
       </c>
       <c r="I7" s="15">
-        <v>3.2350081037277149E-2</v>
+        <v>3.2410708498087769E-2</v>
       </c>
       <c r="J7" s="12">
-        <v>29454</v>
+        <v>29458</v>
       </c>
       <c r="K7" s="12">
-        <v>5108</v>
+        <v>5109</v>
       </c>
       <c r="L7" s="14">
-        <v>0.17342296462280166</v>
+        <v>0.1734333627537511</v>
       </c>
       <c r="M7" s="12">
-        <v>1453</v>
+        <v>1457</v>
       </c>
       <c r="N7" s="16">
-        <v>4.2703894190000001E-2</v>
+        <v>4.2818937899999999E-2</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -797,37 +802,37 @@
         <v>14</v>
       </c>
       <c r="D8" s="8">
-        <v>36094</v>
+        <v>36092</v>
       </c>
       <c r="E8" s="6">
         <v>51</v>
       </c>
       <c r="F8" s="7">
-        <v>0.45065187239944521</v>
+        <v>0.45063663347110877</v>
       </c>
       <c r="G8" s="7">
-        <v>0.54934812760055474</v>
+        <v>0.54936336652889128</v>
       </c>
       <c r="H8" s="8">
-        <v>31986</v>
+        <v>31983</v>
       </c>
       <c r="I8" s="9">
-        <v>5.3148252360407676E-2</v>
+        <v>5.318450426789232E-2</v>
       </c>
       <c r="J8" s="8">
-        <v>31487</v>
+        <v>31485</v>
       </c>
       <c r="K8" s="8">
-        <v>6065</v>
+        <v>6064</v>
       </c>
       <c r="L8" s="7">
-        <v>0.19261917616794233</v>
+        <v>0.19259965062728282</v>
       </c>
       <c r="M8" s="8">
-        <v>2250</v>
+        <v>2252</v>
       </c>
       <c r="N8" s="10">
-        <v>6.2337230559999998E-2</v>
+        <v>6.2396098849999998E-2</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -835,37 +840,37 @@
         <v>15</v>
       </c>
       <c r="D9" s="12">
-        <v>27183</v>
+        <v>27185</v>
       </c>
       <c r="E9" s="13">
         <v>52</v>
       </c>
       <c r="F9" s="14">
-        <v>0.43519439837847795</v>
+        <v>0.43519917455872059</v>
       </c>
       <c r="G9" s="14">
-        <v>0.56480560162152205</v>
+        <v>0.56480082544127941</v>
       </c>
       <c r="H9" s="12">
         <v>23571</v>
       </c>
       <c r="I9" s="15">
-        <v>8.3195452038521911E-2</v>
+        <v>8.3280302066098169E-2</v>
       </c>
       <c r="J9" s="12">
-        <v>24046</v>
+        <v>24047</v>
       </c>
       <c r="K9" s="12">
         <v>4711</v>
       </c>
       <c r="L9" s="14">
-        <v>0.19591616069200699</v>
+        <v>0.19590801347361417</v>
       </c>
       <c r="M9" s="12">
-        <v>1869</v>
+        <v>1870</v>
       </c>
       <c r="N9" s="16">
-        <v>6.8756207920000006E-2</v>
+        <v>6.8787934519999996E-2</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -873,16 +878,16 @@
         <v>16</v>
       </c>
       <c r="D10" s="8">
-        <v>17354</v>
+        <v>17361</v>
       </c>
       <c r="E10" s="6">
         <v>51</v>
       </c>
       <c r="F10" s="7">
-        <v>0.4474063816282961</v>
+        <v>0.44722574691429229</v>
       </c>
       <c r="G10" s="7">
-        <v>0.55259361837170384</v>
+        <v>0.55277425308570771</v>
       </c>
       <c r="H10" s="8">
         <v>14859</v>
@@ -891,19 +896,19 @@
         <v>0.11292819166834915</v>
       </c>
       <c r="J10" s="8">
-        <v>15504</v>
+        <v>15510</v>
       </c>
       <c r="K10" s="8">
         <v>3356</v>
       </c>
       <c r="L10" s="7">
-        <v>0.21646026831785345</v>
+        <v>0.2163765312701483</v>
       </c>
       <c r="M10" s="8">
         <v>1212</v>
       </c>
       <c r="N10" s="10">
-        <v>6.9839806379999994E-2</v>
+        <v>6.9811646790000001E-2</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -911,37 +916,37 @@
         <v>17</v>
       </c>
       <c r="D11" s="12">
-        <v>12384</v>
+        <v>12381</v>
       </c>
       <c r="E11" s="13">
         <v>50</v>
       </c>
       <c r="F11" s="14">
-        <v>0.44976541012781102</v>
+        <v>0.44971275993203336</v>
       </c>
       <c r="G11" s="14">
-        <v>0.55023458987218898</v>
+        <v>0.5502872400679667</v>
       </c>
       <c r="H11" s="12">
-        <v>10283</v>
+        <v>10282</v>
       </c>
       <c r="I11" s="15">
-        <v>0.13955071477195372</v>
+        <v>0.13956428710367633</v>
       </c>
       <c r="J11" s="12">
-        <v>10951</v>
+        <v>10948</v>
       </c>
       <c r="K11" s="12">
         <v>2224</v>
       </c>
       <c r="L11" s="14">
-        <v>0.20308647612090219</v>
+        <v>0.20314212641578369</v>
       </c>
       <c r="M11" s="13">
         <v>717</v>
       </c>
       <c r="N11" s="16">
-        <v>5.7897286819999998E-2</v>
+        <v>5.7911315720000002E-2</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -949,37 +954,37 @@
         <v>18</v>
       </c>
       <c r="D12" s="8">
-        <v>7442</v>
+        <v>7443</v>
       </c>
       <c r="E12" s="6">
         <v>48</v>
       </c>
       <c r="F12" s="7">
-        <v>0.47828425440365741</v>
+        <v>0.47808550685668189</v>
       </c>
       <c r="G12" s="7">
-        <v>0.52171574559634259</v>
+        <v>0.52191449314331806</v>
       </c>
       <c r="H12" s="8">
-        <v>6239</v>
+        <v>6242</v>
       </c>
       <c r="I12" s="9">
-        <v>0.17711171662125341</v>
+        <v>0.17702659404037169</v>
       </c>
       <c r="J12" s="8">
-        <v>6593</v>
+        <v>6594</v>
       </c>
       <c r="K12" s="8">
         <v>1358</v>
       </c>
       <c r="L12" s="7">
-        <v>0.20597603518883664</v>
+        <v>0.20594479830148621</v>
       </c>
       <c r="M12" s="6">
         <v>378</v>
       </c>
       <c r="N12" s="10">
-        <v>5.0792797629999997E-2</v>
+        <v>5.0785973390000003E-2</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -987,37 +992,37 @@
         <v>19</v>
       </c>
       <c r="D13" s="12">
-        <v>6227</v>
+        <v>6229</v>
       </c>
       <c r="E13" s="13">
         <v>47</v>
       </c>
       <c r="F13" s="14">
-        <v>0.47990999678559948</v>
+        <v>0.47991645244215936</v>
       </c>
       <c r="G13" s="14">
-        <v>0.52009000321440046</v>
+        <v>0.52008354755784059</v>
       </c>
       <c r="H13" s="12">
-        <v>5230</v>
+        <v>5231</v>
       </c>
       <c r="I13" s="15">
-        <v>0.19694072657743786</v>
+        <v>0.19690307780539093</v>
       </c>
       <c r="J13" s="12">
-        <v>5610</v>
+        <v>5612</v>
       </c>
       <c r="K13" s="12">
         <v>1069</v>
       </c>
       <c r="L13" s="14">
-        <v>0.19055258467023173</v>
+        <v>0.1904846756949394</v>
       </c>
       <c r="M13" s="13">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="N13" s="16">
-        <v>4.046892564E-2</v>
+        <v>4.0616471340000002E-2</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1025,16 +1030,16 @@
         <v>20</v>
       </c>
       <c r="D14" s="8">
-        <v>4734</v>
+        <v>4736</v>
       </c>
       <c r="E14" s="6">
         <v>45</v>
       </c>
       <c r="F14" s="7">
-        <v>0.49428934010152287</v>
+        <v>0.49408033826638476</v>
       </c>
       <c r="G14" s="7">
-        <v>0.50571065989847719</v>
+        <v>0.50591966173361524</v>
       </c>
       <c r="H14" s="8">
         <v>3933</v>
@@ -1043,19 +1048,19 @@
         <v>0.23290109331299264</v>
       </c>
       <c r="J14" s="8">
-        <v>4205</v>
+        <v>4207</v>
       </c>
       <c r="K14" s="6">
         <v>733</v>
       </c>
       <c r="L14" s="7">
-        <v>0.17431629013079666</v>
+        <v>0.17423342048966009</v>
       </c>
       <c r="M14" s="6">
         <v>159</v>
       </c>
       <c r="N14" s="10">
-        <v>3.3586818749999997E-2</v>
+        <v>3.357263513E-2</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1139,22 +1144,22 @@
         <v>23</v>
       </c>
       <c r="D17" s="12">
-        <v>2359</v>
+        <v>2360</v>
       </c>
       <c r="E17" s="13">
         <v>39</v>
       </c>
       <c r="F17" s="14">
-        <v>0.50679694137638065</v>
+        <v>0.50700636942675159</v>
       </c>
       <c r="G17" s="14">
-        <v>0.49320305862361935</v>
+        <v>0.49299363057324841</v>
       </c>
       <c r="H17" s="12">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="I17" s="15">
-        <v>0.23177366702937977</v>
+        <v>0.23164763458401305</v>
       </c>
       <c r="J17" s="12">
         <v>2081</v>
@@ -1169,7 +1174,7 @@
         <v>45</v>
       </c>
       <c r="N17" s="16">
-        <v>1.9075879609999999E-2</v>
+        <v>1.906779661E-2</v>
       </c>
     </row>
     <row r="18" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1177,16 +1182,16 @@
         <v>24</v>
       </c>
       <c r="D18" s="8">
-        <v>2344</v>
+        <v>2345</v>
       </c>
       <c r="E18" s="6">
         <v>37</v>
       </c>
       <c r="F18" s="7">
-        <v>0.53621945992284614</v>
+        <v>0.5364181662382177</v>
       </c>
       <c r="G18" s="7">
-        <v>0.46378054007715386</v>
+        <v>0.46358183376178236</v>
       </c>
       <c r="H18" s="8">
         <v>1735</v>
@@ -1195,19 +1200,19 @@
         <v>0.24495677233429394</v>
       </c>
       <c r="J18" s="8">
-        <v>2083</v>
+        <v>2084</v>
       </c>
       <c r="K18" s="6">
         <v>283</v>
       </c>
       <c r="L18" s="7">
-        <v>0.1358617378780605</v>
+        <v>0.13579654510556621</v>
       </c>
       <c r="M18" s="6">
         <v>32</v>
       </c>
       <c r="N18" s="10">
-        <v>1.365187713E-2</v>
+        <v>1.364605543E-2</v>
       </c>
     </row>
     <row r="19" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1215,37 +1220,37 @@
         <v>25</v>
       </c>
       <c r="D19" s="12">
-        <v>4093</v>
+        <v>4094</v>
       </c>
       <c r="E19" s="13">
         <v>36</v>
       </c>
       <c r="F19" s="14">
-        <v>0.58702570379436969</v>
+        <v>0.587126774351444</v>
       </c>
       <c r="G19" s="14">
-        <v>0.41297429620563036</v>
+        <v>0.41287322564855605</v>
       </c>
       <c r="H19" s="12">
-        <v>2934</v>
+        <v>2936</v>
       </c>
       <c r="I19" s="15">
-        <v>0.2505112474437628</v>
+        <v>0.25034059945504089</v>
       </c>
       <c r="J19" s="12">
-        <v>3738</v>
+        <v>3739</v>
       </c>
       <c r="K19" s="13">
         <v>317</v>
       </c>
       <c r="L19" s="14">
-        <v>8.4804708400214021E-2</v>
+        <v>8.4782027280021391E-2</v>
       </c>
       <c r="M19" s="13">
         <v>38</v>
       </c>
       <c r="N19" s="16">
-        <v>9.2841436499999999E-3</v>
+        <v>9.2818759099999992E-3</v>
       </c>
     </row>
     <row r="20" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1253,37 +1258,37 @@
         <v>26</v>
       </c>
       <c r="D20" s="8">
-        <v>3203</v>
+        <v>3206</v>
       </c>
       <c r="E20" s="6">
         <v>37</v>
       </c>
       <c r="F20" s="7">
-        <v>0.55173491716161305</v>
+        <v>0.55153029356652095</v>
       </c>
       <c r="G20" s="7">
-        <v>0.44826508283838701</v>
+        <v>0.44846970643347905</v>
       </c>
       <c r="H20" s="8">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="I20" s="9">
-        <v>0.23316062176165803</v>
+        <v>0.23339085418464192</v>
       </c>
       <c r="J20" s="8">
-        <v>2849</v>
+        <v>2851</v>
       </c>
       <c r="K20" s="6">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="L20" s="7">
-        <v>0.10179010179010178</v>
+        <v>0.10242020343739039</v>
       </c>
       <c r="M20" s="6">
         <v>23</v>
       </c>
       <c r="N20" s="10">
-        <v>7.1807680199999996E-3</v>
+        <v>7.1740486499999997E-3</v>
       </c>
     </row>
     <row r="21" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1291,37 +1296,37 @@
         <v>27</v>
       </c>
       <c r="D21" s="12">
-        <v>2693</v>
+        <v>2694</v>
       </c>
       <c r="E21" s="13">
         <v>36</v>
       </c>
       <c r="F21" s="14">
-        <v>0.52191679049034179</v>
+        <v>0.52209431860378763</v>
       </c>
       <c r="G21" s="14">
-        <v>0.47808320950965827</v>
+        <v>0.47790568139621242</v>
       </c>
       <c r="H21" s="12">
-        <v>2062</v>
+        <v>2063</v>
       </c>
       <c r="I21" s="15">
-        <v>0.26818622696411254</v>
+        <v>0.26854095976732911</v>
       </c>
       <c r="J21" s="12">
-        <v>2466</v>
+        <v>2467</v>
       </c>
       <c r="K21" s="13">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L21" s="14">
-        <v>0.10421735604217357</v>
+        <v>0.10458046209971625</v>
       </c>
       <c r="M21" s="13">
         <v>26</v>
       </c>
       <c r="N21" s="16">
-        <v>9.6546602300000006E-3</v>
+        <v>9.6510764599999996E-3</v>
       </c>
     </row>
     <row r="22" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1329,22 +1334,22 @@
         <v>28</v>
       </c>
       <c r="D22" s="8">
-        <v>2423</v>
+        <v>2425</v>
       </c>
       <c r="E22" s="6">
         <v>36</v>
       </c>
       <c r="F22" s="7">
-        <v>0.55978485726106741</v>
+        <v>0.55991735537190079</v>
       </c>
       <c r="G22" s="7">
-        <v>0.44021514273893259</v>
+        <v>0.44008264462809915</v>
       </c>
       <c r="H22" s="8">
-        <v>1922</v>
+        <v>1923</v>
       </c>
       <c r="I22" s="9">
-        <v>0.23985431841831426</v>
+        <v>0.24024960998439937</v>
       </c>
       <c r="J22" s="8">
         <v>2189</v>
@@ -1359,7 +1364,7 @@
         <v>25</v>
       </c>
       <c r="N22" s="10">
-        <v>1.031778786E-2</v>
+        <v>1.0309278349999999E-2</v>
       </c>
     </row>
     <row r="23" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1367,37 +1372,37 @@
         <v>29</v>
       </c>
       <c r="D23" s="12">
-        <v>3025</v>
+        <v>3024</v>
       </c>
       <c r="E23" s="13">
         <v>36</v>
       </c>
       <c r="F23" s="14">
-        <v>0.52453580901856767</v>
+        <v>0.52436194895591648</v>
       </c>
       <c r="G23" s="14">
-        <v>0.47546419098143233</v>
+        <v>0.47563805104408352</v>
       </c>
       <c r="H23" s="12">
-        <v>2358</v>
+        <v>2359</v>
       </c>
       <c r="I23" s="15">
-        <v>0.2285835453774385</v>
+        <v>0.22891055532005086</v>
       </c>
       <c r="J23" s="12">
-        <v>2636</v>
+        <v>2635</v>
       </c>
       <c r="K23" s="13">
         <v>317</v>
       </c>
       <c r="L23" s="14">
-        <v>0.12025796661608498</v>
+        <v>0.12030360531309298</v>
       </c>
       <c r="M23" s="13">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N23" s="16">
-        <v>1.0247933880000001E-2</v>
+        <v>9.9206349199999991E-3</v>
       </c>
     </row>
     <row r="24" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1405,37 +1410,37 @@
         <v>30</v>
       </c>
       <c r="D24" s="8">
-        <v>3934</v>
+        <v>3936</v>
       </c>
       <c r="E24" s="6">
         <v>36</v>
       </c>
       <c r="F24" s="7">
-        <v>0.52382165605095543</v>
+        <v>0.52355487649605292</v>
       </c>
       <c r="G24" s="7">
-        <v>0.47617834394904457</v>
+        <v>0.47644512350394702</v>
       </c>
       <c r="H24" s="8">
-        <v>3173</v>
+        <v>3175</v>
       </c>
       <c r="I24" s="9">
-        <v>0.27009139615505828</v>
+        <v>0.27023622047244095</v>
       </c>
       <c r="J24" s="8">
-        <v>3453</v>
+        <v>3454</v>
       </c>
       <c r="K24" s="6">
         <v>332</v>
       </c>
       <c r="L24" s="7">
-        <v>9.6148276860700835E-2</v>
+        <v>9.6120440069484656E-2</v>
       </c>
       <c r="M24" s="6">
         <v>32</v>
       </c>
       <c r="N24" s="10">
-        <v>8.1342145299999995E-3</v>
+        <v>8.1300812999999996E-3</v>
       </c>
     </row>
     <row r="25" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1443,37 +1448,37 @@
         <v>31</v>
       </c>
       <c r="D25" s="12">
-        <v>4820</v>
+        <v>4822</v>
       </c>
       <c r="E25" s="13">
         <v>36</v>
       </c>
       <c r="F25" s="14">
-        <v>0.50332917186849768</v>
+        <v>0.5031198003327787</v>
       </c>
       <c r="G25" s="14">
-        <v>0.49667082813150226</v>
+        <v>0.4968801996672213</v>
       </c>
       <c r="H25" s="12">
-        <v>3686</v>
+        <v>3689</v>
       </c>
       <c r="I25" s="15">
-        <v>0.2444384156266956</v>
+        <v>0.24423963133640553</v>
       </c>
       <c r="J25" s="12">
-        <v>4126</v>
+        <v>4128</v>
       </c>
       <c r="K25" s="13">
         <v>383</v>
       </c>
       <c r="L25" s="14">
-        <v>9.2825981580222983E-2</v>
+        <v>9.2781007751937983E-2</v>
       </c>
       <c r="M25" s="13">
         <v>32</v>
       </c>
       <c r="N25" s="16">
-        <v>6.6390041399999999E-3</v>
+        <v>6.6362505100000004E-3</v>
       </c>
     </row>
     <row r="26" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1481,37 +1486,37 @@
         <v>32</v>
       </c>
       <c r="D26" s="8">
-        <v>6051</v>
+        <v>6062</v>
       </c>
       <c r="E26" s="6">
         <v>34</v>
       </c>
       <c r="F26" s="7">
-        <v>0.53709837694600859</v>
+        <v>0.53694825591006778</v>
       </c>
       <c r="G26" s="7">
-        <v>0.46290162305399141</v>
+        <v>0.46305174408993222</v>
       </c>
       <c r="H26" s="8">
-        <v>4515</v>
+        <v>4525</v>
       </c>
       <c r="I26" s="9">
-        <v>0.30033222591362124</v>
+        <v>0.2996685082872928</v>
       </c>
       <c r="J26" s="8">
-        <v>5245</v>
+        <v>5256</v>
       </c>
       <c r="K26" s="6">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="L26" s="7">
-        <v>7.5500476644423262E-2</v>
+        <v>7.5532724505327248E-2</v>
       </c>
       <c r="M26" s="6">
         <v>30</v>
       </c>
       <c r="N26" s="10">
-        <v>4.9578582E-3</v>
+        <v>4.9488617600000001E-3</v>
       </c>
     </row>
     <row r="27" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1519,37 +1524,37 @@
         <v>33</v>
       </c>
       <c r="D27" s="12">
-        <v>7952</v>
+        <v>7953</v>
       </c>
       <c r="E27" s="13">
         <v>32</v>
       </c>
       <c r="F27" s="14">
-        <v>0.5330646177100391</v>
+        <v>0.53324937027707808</v>
       </c>
       <c r="G27" s="14">
-        <v>0.46693538228996095</v>
+        <v>0.46675062972292192</v>
       </c>
       <c r="H27" s="12">
-        <v>5807</v>
+        <v>5808</v>
       </c>
       <c r="I27" s="15">
-        <v>0.33545720681935592</v>
+        <v>0.33230027548209368</v>
       </c>
       <c r="J27" s="12">
-        <v>6932</v>
+        <v>6961</v>
       </c>
       <c r="K27" s="13">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="L27" s="14">
-        <v>6.1021350259665319E-2</v>
+        <v>6.1485418761672177E-2</v>
       </c>
       <c r="M27" s="13">
         <v>30</v>
       </c>
       <c r="N27" s="16">
-        <v>3.7726358100000001E-3</v>
+        <v>3.77216144E-3</v>
       </c>
     </row>
     <row r="28" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1563,31 +1568,31 @@
         <v>32</v>
       </c>
       <c r="F28" s="7">
-        <v>0.54768649669499525</v>
+        <v>0.54789633826461026</v>
       </c>
       <c r="G28" s="7">
-        <v>0.45231350330500469</v>
+        <v>0.45210366173538979</v>
       </c>
       <c r="H28" s="8">
-        <v>7126</v>
+        <v>7155</v>
       </c>
       <c r="I28" s="9">
-        <v>0.34802133033960148</v>
+        <v>0.34479385045422783</v>
       </c>
       <c r="J28" s="8">
-        <v>8175</v>
+        <v>8224</v>
       </c>
       <c r="K28" s="6">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="L28" s="7">
-        <v>5.1376146788990829E-2</v>
+        <v>5.2042801556420236E-2</v>
       </c>
       <c r="M28" s="6">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N28" s="10">
-        <v>3.0233527899999999E-3</v>
+        <v>3.1276063300000002E-3</v>
       </c>
     </row>
     <row r="29" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1595,37 +1600,37 @@
         <v>35</v>
       </c>
       <c r="D29" s="12">
-        <v>8813</v>
+        <v>8816</v>
       </c>
       <c r="E29" s="13">
         <v>32</v>
       </c>
       <c r="F29" s="14">
-        <v>0.53033938978402473</v>
+        <v>0.53027187571395928</v>
       </c>
       <c r="G29" s="14">
-        <v>0.46966061021597533</v>
+        <v>0.46972812428604066</v>
       </c>
       <c r="H29" s="12">
         <v>6811</v>
       </c>
       <c r="I29" s="15">
-        <v>0.30861841139333429</v>
+        <v>0.308177947437968</v>
       </c>
       <c r="J29" s="12">
-        <v>7303</v>
+        <v>7311</v>
       </c>
       <c r="K29" s="13">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="L29" s="14">
-        <v>4.943174038066548E-2</v>
+        <v>4.9514430310491041E-2</v>
       </c>
       <c r="M29" s="13">
         <v>19</v>
       </c>
       <c r="N29" s="16">
-        <v>2.1559060399999998E-3</v>
+        <v>2.15517241E-3</v>
       </c>
     </row>
     <row r="30" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1633,37 +1638,37 @@
         <v>36</v>
       </c>
       <c r="D30" s="8">
-        <v>8610</v>
+        <v>8614</v>
       </c>
       <c r="E30" s="6">
         <v>33</v>
       </c>
       <c r="F30" s="7">
-        <v>0.5366651097617936</v>
+        <v>0.53688141923436039</v>
       </c>
       <c r="G30" s="7">
-        <v>0.46333489023820645</v>
+        <v>0.46311858076563961</v>
       </c>
       <c r="H30" s="8">
-        <v>6564</v>
+        <v>6570</v>
       </c>
       <c r="I30" s="9">
-        <v>0.27010968921389394</v>
+        <v>0.27077625570776254</v>
       </c>
       <c r="J30" s="8">
-        <v>6966</v>
+        <v>6969</v>
       </c>
       <c r="K30" s="6">
         <v>391</v>
       </c>
       <c r="L30" s="7">
-        <v>5.6129773184036752E-2</v>
+        <v>5.6105610561056105E-2</v>
       </c>
       <c r="M30" s="6">
         <v>35</v>
       </c>
       <c r="N30" s="10">
-        <v>4.0650406499999998E-3</v>
+        <v>4.0631529999999999E-3</v>
       </c>
     </row>
     <row r="31" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1671,37 +1676,37 @@
         <v>37</v>
       </c>
       <c r="D31" s="12">
-        <v>9766</v>
+        <v>9767</v>
       </c>
       <c r="E31" s="13">
         <v>35</v>
       </c>
       <c r="F31" s="14">
-        <v>0.51894953656024712</v>
+        <v>0.51879312120275978</v>
       </c>
       <c r="G31" s="14">
-        <v>0.48105046343975283</v>
+        <v>0.48120687879724022</v>
       </c>
       <c r="H31" s="12">
-        <v>7483</v>
+        <v>7485</v>
       </c>
       <c r="I31" s="15">
-        <v>0.20526526794066552</v>
+        <v>0.20507682030728122</v>
       </c>
       <c r="J31" s="12">
-        <v>7875</v>
+        <v>7877</v>
       </c>
       <c r="K31" s="13">
         <v>459</v>
       </c>
       <c r="L31" s="14">
-        <v>5.8285714285714288E-2</v>
+        <v>5.8270915323092545E-2</v>
       </c>
       <c r="M31" s="13">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="N31" s="16">
-        <v>6.1437640700000001E-3</v>
+        <v>6.2455206300000001E-3</v>
       </c>
     </row>
     <row r="32" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1709,37 +1714,37 @@
         <v>38</v>
       </c>
       <c r="D32" s="8">
-        <v>12268</v>
+        <v>12271</v>
       </c>
       <c r="E32" s="6">
         <v>36</v>
       </c>
       <c r="F32" s="7">
-        <v>0.5118832978200295</v>
+        <v>0.51175747644408032</v>
       </c>
       <c r="G32" s="7">
-        <v>0.4881167021799705</v>
+        <v>0.48824252355591968</v>
       </c>
       <c r="H32" s="8">
-        <v>9530</v>
+        <v>9548</v>
       </c>
       <c r="I32" s="9">
-        <v>0.18646379853095488</v>
+        <v>0.18695014662756598</v>
       </c>
       <c r="J32" s="8">
-        <v>9860</v>
+        <v>9869</v>
       </c>
       <c r="K32" s="6">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="L32" s="7">
-        <v>6.6024340770791071E-2</v>
+        <v>6.636943965953998E-2</v>
       </c>
       <c r="M32" s="6">
         <v>76</v>
       </c>
       <c r="N32" s="10">
-        <v>6.1949787999999997E-3</v>
+        <v>6.1934642599999999E-3</v>
       </c>
     </row>
     <row r="33" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1747,37 +1752,37 @@
         <v>39</v>
       </c>
       <c r="D33" s="12">
-        <v>13053</v>
+        <v>13057</v>
       </c>
       <c r="E33" s="13">
         <v>37</v>
       </c>
       <c r="F33" s="14">
-        <v>0.51598243857351922</v>
+        <v>0.51613151613151609</v>
       </c>
       <c r="G33" s="14">
-        <v>0.48401756142648078</v>
+        <v>0.48386848386848386</v>
       </c>
       <c r="H33" s="12">
-        <v>10126</v>
+        <v>10173</v>
       </c>
       <c r="I33" s="15">
-        <v>0.18408058463361643</v>
+        <v>0.18450801140273274</v>
       </c>
       <c r="J33" s="12">
-        <v>10643</v>
+        <v>10650</v>
       </c>
       <c r="K33" s="13">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="L33" s="14">
-        <v>7.0186977356008651E-2</v>
+        <v>7.0422535211267609E-2</v>
       </c>
       <c r="M33" s="13">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N33" s="16">
-        <v>8.0441277800000002E-3</v>
+        <v>8.1182507399999992E-3</v>
       </c>
     </row>
     <row r="34" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1785,37 +1790,37 @@
         <v>40</v>
       </c>
       <c r="D34" s="8">
-        <v>15906</v>
+        <v>15913</v>
       </c>
       <c r="E34" s="6">
         <v>38</v>
       </c>
       <c r="F34" s="7">
-        <v>0.51978042778724209</v>
+        <v>0.51967709384460137</v>
       </c>
       <c r="G34" s="7">
-        <v>0.48021957221275791</v>
+        <v>0.48032290615539858</v>
       </c>
       <c r="H34" s="8">
-        <v>12082</v>
+        <v>12201</v>
       </c>
       <c r="I34" s="9">
-        <v>0.17455719251779506</v>
+        <v>0.17514957790345054</v>
       </c>
       <c r="J34" s="8">
-        <v>13136</v>
+        <v>13159</v>
       </c>
       <c r="K34" s="6">
-        <v>846</v>
+        <v>851</v>
       </c>
       <c r="L34" s="7">
-        <v>6.4403166869671138E-2</v>
+        <v>6.4670567672315521E-2</v>
       </c>
       <c r="M34" s="6">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="N34" s="10">
-        <v>7.2299761000000004E-3</v>
+        <v>7.4153207999999998E-3</v>
       </c>
     </row>
     <row r="35" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1823,37 +1828,37 @@
         <v>41</v>
       </c>
       <c r="D35" s="18">
-        <v>26143</v>
+        <v>26154</v>
       </c>
       <c r="E35" s="19">
         <v>39</v>
       </c>
       <c r="F35" s="20">
-        <v>0.51039704808394515</v>
+        <v>0.51035383610588192</v>
       </c>
       <c r="G35" s="20">
-        <v>0.48960295191605491</v>
+        <v>0.48964616389411808</v>
       </c>
       <c r="H35" s="18">
-        <v>18602</v>
+        <v>19152</v>
       </c>
       <c r="I35" s="21">
-        <v>0.1658961401999785</v>
+        <v>0.16468253968253968</v>
       </c>
       <c r="J35" s="18">
-        <v>20447</v>
+        <v>20830</v>
       </c>
       <c r="K35" s="19">
-        <v>1456</v>
+        <v>1504</v>
       </c>
       <c r="L35" s="20">
-        <v>7.120849024306744E-2</v>
+        <v>7.2203552568410947E-2</v>
       </c>
       <c r="M35" s="19">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N35" s="22">
-        <v>8.6830126599999995E-3</v>
+        <v>8.7175957699999994E-3</v>
       </c>
     </row>
     <row r="36" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1861,37 +1866,37 @@
         <v>42</v>
       </c>
       <c r="D36" s="8">
-        <v>42027</v>
+        <v>42059</v>
       </c>
       <c r="E36" s="6">
         <v>39</v>
       </c>
       <c r="F36" s="7">
-        <v>0.50871731008717314</v>
+        <v>0.50865060183301825</v>
       </c>
       <c r="G36" s="7">
-        <v>0.49128268991282692</v>
+        <v>0.49134939816698175</v>
       </c>
       <c r="H36" s="8">
-        <v>28994</v>
+        <v>29175</v>
       </c>
       <c r="I36" s="9">
-        <v>0.15844657515348004</v>
+        <v>0.15883461868037704</v>
       </c>
       <c r="J36" s="8">
-        <v>32137</v>
+        <v>32267</v>
       </c>
       <c r="K36" s="6">
-        <v>2187</v>
+        <v>2203</v>
       </c>
       <c r="L36" s="7">
-        <v>6.8052400659675757E-2</v>
+        <v>6.8274088077602504E-2</v>
       </c>
       <c r="M36" s="6">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="N36" s="10">
-        <v>1.0088752459999999E-2</v>
+        <v>1.01999572E-2</v>
       </c>
     </row>
     <row r="37" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1899,37 +1904,37 @@
         <v>43</v>
       </c>
       <c r="D37" s="12">
-        <v>74757</v>
+        <v>74802</v>
       </c>
       <c r="E37" s="13">
         <v>40</v>
       </c>
       <c r="F37" s="14">
-        <v>0.50197208125243986</v>
+        <v>0.50192380132379055</v>
       </c>
       <c r="G37" s="14">
-        <v>0.49802791874756014</v>
+        <v>0.49807619867620945</v>
       </c>
       <c r="H37" s="12">
-        <v>46448</v>
+        <v>47392</v>
       </c>
       <c r="I37" s="15">
-        <v>0.15303134688253531</v>
+        <v>0.15335921674544226</v>
       </c>
       <c r="J37" s="12">
-        <v>53487</v>
+        <v>54133</v>
       </c>
       <c r="K37" s="13">
-        <v>3737</v>
+        <v>3800</v>
       </c>
       <c r="L37" s="14">
-        <v>6.9867444425748312E-2</v>
+        <v>7.019747658544695E-2</v>
       </c>
       <c r="M37" s="13">
-        <v>879</v>
+        <v>909</v>
       </c>
       <c r="N37" s="16">
-        <v>1.1758096230000001E-2</v>
+        <v>1.2152081489999999E-2</v>
       </c>
     </row>
     <row r="38" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1937,37 +1942,37 @@
         <v>44</v>
       </c>
       <c r="D38" s="8">
-        <v>111134</v>
+        <v>111168</v>
       </c>
       <c r="E38" s="6">
         <v>41</v>
       </c>
       <c r="F38" s="7">
-        <v>0.49728327422149254</v>
+        <v>0.49722980386467297</v>
       </c>
       <c r="G38" s="7">
-        <v>0.50271672577850746</v>
+        <v>0.50277019613532703</v>
       </c>
       <c r="H38" s="8">
-        <v>65787</v>
+        <v>66226</v>
       </c>
       <c r="I38" s="9">
-        <v>0.15515223372398801</v>
+        <v>0.15534684262978288</v>
       </c>
       <c r="J38" s="8">
-        <v>76141</v>
+        <v>76638</v>
       </c>
       <c r="K38" s="6">
-        <v>5289</v>
+        <v>5334</v>
       </c>
       <c r="L38" s="7">
-        <v>6.946323268672594E-2</v>
+        <v>6.9599937367885389E-2</v>
       </c>
       <c r="M38" s="6">
-        <v>1371</v>
+        <v>1434</v>
       </c>
       <c r="N38" s="10">
-        <v>1.2336458680000001E-2</v>
+        <v>1.2899395500000001E-2</v>
       </c>
     </row>
     <row r="39" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1975,37 +1980,37 @@
         <v>45</v>
       </c>
       <c r="D39" s="18">
-        <v>125742</v>
+        <v>125751</v>
       </c>
       <c r="E39" s="19">
         <v>41</v>
       </c>
       <c r="F39" s="20">
-        <v>0.4912917737789203</v>
+        <v>0.49127752879379305</v>
       </c>
       <c r="G39" s="20">
-        <v>0.5087082262210797</v>
+        <v>0.50872247120620695</v>
       </c>
       <c r="H39" s="18">
-        <v>72777</v>
+        <v>73572</v>
       </c>
       <c r="I39" s="21">
-        <v>0.14775272407491377</v>
+        <v>0.14824933398575546</v>
       </c>
       <c r="J39" s="18">
-        <v>83152</v>
+        <v>83911</v>
       </c>
       <c r="K39" s="19">
-        <v>6032</v>
+        <v>6093</v>
       </c>
       <c r="L39" s="20">
-        <v>7.2541851067923796E-2</v>
+        <v>7.2612649116325631E-2</v>
       </c>
       <c r="M39" s="19">
-        <v>1537</v>
+        <v>1626</v>
       </c>
       <c r="N39" s="22">
-        <v>1.222344165E-2</v>
+        <v>1.2930314659999999E-2</v>
       </c>
     </row>
     <row r="40" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2013,37 +2018,37 @@
         <v>46</v>
       </c>
       <c r="D40" s="8">
-        <v>127759</v>
+        <v>127786</v>
       </c>
       <c r="E40" s="6">
         <v>42</v>
       </c>
       <c r="F40" s="7">
-        <v>0.48467432950191569</v>
+        <v>0.48466408166495212</v>
       </c>
       <c r="G40" s="7">
-        <v>0.51532567049808431</v>
+        <v>0.51533591833504788</v>
       </c>
       <c r="H40" s="8">
-        <v>72745</v>
+        <v>73960</v>
       </c>
       <c r="I40" s="9">
-        <v>0.14689669393085436</v>
+        <v>0.14649810708491076</v>
       </c>
       <c r="J40" s="8">
-        <v>83596</v>
+        <v>84782</v>
       </c>
       <c r="K40" s="6">
-        <v>6506</v>
+        <v>6594</v>
       </c>
       <c r="L40" s="7">
-        <v>7.7826690272261828E-2</v>
+        <v>7.7775943006770307E-2</v>
       </c>
       <c r="M40" s="6">
-        <v>1956</v>
+        <v>2084</v>
       </c>
       <c r="N40" s="10">
-        <v>1.5310076000000001E-2</v>
+        <v>1.6308515789999999E-2</v>
       </c>
     </row>
     <row r="41" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2051,37 +2056,37 @@
         <v>47</v>
       </c>
       <c r="D41" s="18">
-        <v>128472</v>
+        <v>128491</v>
       </c>
       <c r="E41" s="19">
         <v>43</v>
       </c>
       <c r="F41" s="20">
-        <v>0.47466147224229477</v>
+        <v>0.47462763911025962</v>
       </c>
       <c r="G41" s="20">
-        <v>0.52533852775770529</v>
+        <v>0.52537236088974038</v>
       </c>
       <c r="H41" s="18">
-        <v>73756</v>
+        <v>74776</v>
       </c>
       <c r="I41" s="21">
-        <v>0.14819133358642009</v>
+        <v>0.14777468706536856</v>
       </c>
       <c r="J41" s="18">
-        <v>83009</v>
+        <v>83936</v>
       </c>
       <c r="K41" s="19">
-        <v>6817</v>
+        <v>6990</v>
       </c>
       <c r="L41" s="20">
-        <v>8.2123625149080226E-2</v>
+        <v>8.3277735417460919E-2</v>
       </c>
       <c r="M41" s="19">
-        <v>2215</v>
+        <v>2513</v>
       </c>
       <c r="N41" s="22">
-        <v>1.7241110899999999E-2</v>
+        <v>1.9557790030000001E-2</v>
       </c>
     </row>
     <row r="42" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2089,37 +2094,37 @@
         <v>48</v>
       </c>
       <c r="D42" s="23">
-        <v>123366</v>
+        <v>123367</v>
       </c>
       <c r="E42" s="24">
         <v>44</v>
       </c>
       <c r="F42" s="25">
-        <v>0.46566166897308453</v>
+        <v>0.46569241475295753</v>
       </c>
       <c r="G42" s="25">
-        <v>0.53433833102691553</v>
+        <v>0.53430758524704247</v>
       </c>
       <c r="H42" s="23">
-        <v>68322</v>
+        <v>70117</v>
       </c>
       <c r="I42" s="26">
-        <v>0.1539474839729516</v>
+        <v>0.15371450575466719</v>
       </c>
       <c r="J42" s="23">
-        <v>78213</v>
+        <v>79750</v>
       </c>
       <c r="K42" s="24">
-        <v>6741</v>
+        <v>7034</v>
       </c>
       <c r="L42" s="25">
-        <v>8.6187718154271023E-2</v>
+        <v>8.8200626959247644E-2</v>
       </c>
       <c r="M42" s="24">
-        <v>1933</v>
+        <v>2522</v>
       </c>
       <c r="N42" s="27">
-        <v>1.566882285E-2</v>
+        <v>2.0443068240000001E-2</v>
       </c>
     </row>
     <row r="43" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2127,37 +2132,37 @@
         <v>49</v>
       </c>
       <c r="D43" s="18">
-        <v>128163</v>
+        <v>128270</v>
       </c>
       <c r="E43" s="19">
         <v>45</v>
       </c>
       <c r="F43" s="20">
-        <v>0.45991883692525903</v>
+        <v>0.45973339208989755</v>
       </c>
       <c r="G43" s="20">
-        <v>0.54008116307474097</v>
+        <v>0.5402666079101025</v>
       </c>
       <c r="H43" s="18">
-        <v>68034</v>
+        <v>71897</v>
       </c>
       <c r="I43" s="21">
-        <v>0.14472175676867449</v>
+        <v>0.14395593696538103</v>
       </c>
       <c r="J43" s="18">
-        <v>78478</v>
+        <v>81407</v>
       </c>
       <c r="K43" s="19">
-        <v>6696</v>
+        <v>7402</v>
       </c>
       <c r="L43" s="20">
-        <v>8.5323275312826519E-2</v>
+        <v>9.0925841758079773E-2</v>
       </c>
       <c r="M43" s="19">
-        <v>1441</v>
+        <v>2477</v>
       </c>
       <c r="N43" s="22">
-        <v>1.124349461E-2</v>
+        <v>1.9310828719999999E-2</v>
       </c>
     </row>
     <row r="44" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2165,37 +2170,75 @@
         <v>50</v>
       </c>
       <c r="D44" s="23">
-        <v>151864</v>
+        <v>155803</v>
       </c>
       <c r="E44" s="24">
         <v>46</v>
       </c>
       <c r="F44" s="25">
-        <v>0.45467438128782683</v>
+        <v>0.45378091369111256</v>
       </c>
       <c r="G44" s="25">
-        <v>0.54532561871217322</v>
+        <v>0.54621908630888749</v>
       </c>
       <c r="H44" s="23">
-        <v>67560</v>
+        <v>83207</v>
       </c>
       <c r="I44" s="26">
-        <v>0.15626110124333925</v>
+        <v>0.1500114173086399</v>
       </c>
       <c r="J44" s="23">
-        <v>82450</v>
+        <v>94503</v>
       </c>
       <c r="K44" s="24">
-        <v>6037</v>
+        <v>8191</v>
       </c>
       <c r="L44" s="25">
-        <v>7.3220133414190425E-2</v>
+        <v>8.6674497105911977E-2</v>
       </c>
       <c r="M44" s="24">
-        <v>647</v>
+        <v>2076</v>
       </c>
       <c r="N44" s="27">
-        <v>4.2603908700000002E-3</v>
+        <v>1.3324518780000001E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C45" s="17">
+        <v>51</v>
+      </c>
+      <c r="D45" s="18">
+        <v>171262</v>
+      </c>
+      <c r="E45" s="19">
+        <v>46</v>
+      </c>
+      <c r="F45" s="20">
+        <v>0.45243739900687641</v>
+      </c>
+      <c r="G45" s="20">
+        <v>0.54756260099312359</v>
+      </c>
+      <c r="H45" s="18">
+        <v>77568</v>
+      </c>
+      <c r="I45" s="21">
+        <v>0.15533467409240925</v>
+      </c>
+      <c r="J45" s="18">
+        <v>92356</v>
+      </c>
+      <c r="K45" s="19">
+        <v>7201</v>
+      </c>
+      <c r="L45" s="20">
+        <v>7.7970029018147174E-2</v>
+      </c>
+      <c r="M45" s="19">
+        <v>842</v>
+      </c>
+      <c r="N45" s="22">
+        <v>4.9164438099999997E-3</v>
       </c>
     </row>
   </sheetData>

--- a/data/klinische_aspekte.xlsx
+++ b/data/klinische_aspekte.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20368"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Wissdaten\RKI_nCoV-Lage\3.Kommunikation\3.7.Lageberichte\2020-12-22\Webmaster\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A0C099E-A7DA-4F93-B009-079059AA5914}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20367"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{713DB5FF-39F4-44A0-9D24-2F5B6B4041F7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6525" xr2:uid="{E7020DAF-D42D-4B3D-9581-E23C135CB659}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" activeTab="1" xr2:uid="{E7020DAF-D42D-4B3D-9581-E23C135CB659}"/>
   </bookViews>
   <sheets>
     <sheet name="Erläuterung" sheetId="1" r:id="rId1"/>
-    <sheet name="Daten" sheetId="2" r:id="rId2"/>
+    <sheet name="Daten" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -64,10 +59,10 @@
     <t>Anteil Verstorben</t>
   </si>
   <si>
-    <t>Die dem RKI übermittelten COVID-19-Fälle nach Meldewoche und nach Geschlecht sowie Anteile mit für COVID-19 relevanten Symptomen, Anteile Hospitalisierter und Verstorbener für die Meldewochen KW 10 – 51</t>
+    <t>Die Tabelle zeigt die dem RKI übermittelten COVID-19-Fälle nach Meldewoche und nach Geschlecht sowie Anteile mit für COVID-19 relevanten Symptomen, Anteile Hospitalisierter und Verstorbener für die Meldewochen KW 10 – 51. Eine grafische Darstellung der Daten befindt sich im Lagebericht unter dem Abschnitt "klinische Aspekte".</t>
   </si>
   <si>
-    <t>Die Tabelle zeigt die dem RKI übermittelten COVID-19-Fälle nach Meldewoche und nach Geschlecht sowie Anteile mit für COVID-19 relevanten Symptomen, Anteile Hospitalisierter und Verstorbener für die Meldewochen KW 10 – 51. Eine grafische Darstellung der Daten befindt sich im Lagebericht unter dem Abschnitt "klinische Aspekte".</t>
+    <t>Die dem RKI übermittelten COVID-19-Fälle nach Meldewoche und nach Geschlecht sowie Anteile mit für COVID-19 relevanten Symptomen, Anteile Hospitalisierter und Verstorbener für die Meldewochen KW 10 – 52</t>
   </si>
 </sst>
 </file>
@@ -113,7 +108,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -135,12 +130,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD3DFEE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -166,7 +155,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -230,21 +219,6 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -564,7 +538,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{350C8C98-0330-4D2B-AF77-1BF3FE48346F}">
   <dimension ref="B4:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -580,7 +554,7 @@
     </row>
     <row r="5" spans="2:2" ht="60" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.25">
@@ -593,18 +567,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DEDA6CE-9876-49C2-92B7-5A16179ED11F}">
-  <dimension ref="A1:N45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92EDE9B5-504F-438C-AC14-C6D857721167}">
+  <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
-        <v>12</v>
+      <c r="A1" s="23" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="60" x14ac:dyDescent="0.25">
@@ -650,16 +624,16 @@
         <v>10</v>
       </c>
       <c r="D4" s="6">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="E4" s="6">
         <v>42</v>
       </c>
       <c r="F4" s="7">
-        <v>0.53527435610302354</v>
+        <v>0.53579418344519014</v>
       </c>
       <c r="G4" s="7">
-        <v>0.46472564389697646</v>
+        <v>0.46420581655480986</v>
       </c>
       <c r="H4" s="8">
         <v>832</v>
@@ -680,7 +654,7 @@
         <v>12</v>
       </c>
       <c r="N4" s="10">
-        <v>1.343784994E-2</v>
+        <v>1.3422818790000001E-2</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -691,7 +665,7 @@
         <v>6433</v>
       </c>
       <c r="E5" s="13">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" s="14">
         <v>0.56320945420618873</v>
@@ -726,37 +700,37 @@
         <v>12</v>
       </c>
       <c r="D6" s="8">
-        <v>22430</v>
+        <v>22431</v>
       </c>
       <c r="E6" s="6">
         <v>45</v>
       </c>
       <c r="F6" s="7">
-        <v>0.54985055984297626</v>
+        <v>0.54973681862788826</v>
       </c>
       <c r="G6" s="7">
-        <v>0.45014944015702368</v>
+        <v>0.45026318137211169</v>
       </c>
       <c r="H6" s="8">
-        <v>20209</v>
+        <v>20210</v>
       </c>
       <c r="I6" s="9">
-        <v>3.8497699044979961E-2</v>
+        <v>3.8545274616526473E-2</v>
       </c>
       <c r="J6" s="8">
-        <v>19342</v>
+        <v>19343</v>
       </c>
       <c r="K6" s="8">
         <v>2204</v>
       </c>
       <c r="L6" s="7">
-        <v>0.11394891944990176</v>
+        <v>0.11394302848575712</v>
       </c>
       <c r="M6" s="6">
         <v>478</v>
       </c>
       <c r="N6" s="10">
-        <v>2.1310744529999998E-2</v>
+        <v>2.1309794480000002E-2</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -764,37 +738,37 @@
         <v>13</v>
       </c>
       <c r="D7" s="12">
-        <v>34027</v>
+        <v>34028</v>
       </c>
       <c r="E7" s="13">
         <v>48</v>
       </c>
       <c r="F7" s="14">
-        <v>0.49495603070497929</v>
+        <v>0.49494147403093935</v>
       </c>
       <c r="G7" s="14">
-        <v>0.50504396929502071</v>
+        <v>0.50505852596906065</v>
       </c>
       <c r="H7" s="12">
-        <v>30854</v>
+        <v>30858</v>
       </c>
       <c r="I7" s="15">
-        <v>3.2410708498087769E-2</v>
+        <v>3.2438913733877764E-2</v>
       </c>
       <c r="J7" s="12">
-        <v>29458</v>
+        <v>29460</v>
       </c>
       <c r="K7" s="12">
-        <v>5109</v>
+        <v>5110</v>
       </c>
       <c r="L7" s="14">
-        <v>0.1734333627537511</v>
+        <v>0.17345553292600135</v>
       </c>
       <c r="M7" s="12">
         <v>1457</v>
       </c>
       <c r="N7" s="16">
-        <v>4.2818937899999999E-2</v>
+        <v>4.2817679550000001E-2</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -802,37 +776,37 @@
         <v>14</v>
       </c>
       <c r="D8" s="8">
-        <v>36092</v>
+        <v>36094</v>
       </c>
       <c r="E8" s="6">
         <v>51</v>
       </c>
       <c r="F8" s="7">
-        <v>0.45063663347110877</v>
+        <v>0.45063937200077669</v>
       </c>
       <c r="G8" s="7">
-        <v>0.54936336652889128</v>
+        <v>0.54936062799922336</v>
       </c>
       <c r="H8" s="8">
         <v>31983</v>
       </c>
       <c r="I8" s="9">
-        <v>5.318450426789232E-2</v>
+        <v>5.3215770878279084E-2</v>
       </c>
       <c r="J8" s="8">
-        <v>31485</v>
+        <v>31484</v>
       </c>
       <c r="K8" s="8">
         <v>6064</v>
       </c>
       <c r="L8" s="7">
-        <v>0.19259965062728282</v>
+        <v>0.1926057680091475</v>
       </c>
       <c r="M8" s="8">
-        <v>2252</v>
+        <v>2253</v>
       </c>
       <c r="N8" s="10">
-        <v>6.2396098849999998E-2</v>
+        <v>6.2420346869999997E-2</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -840,37 +814,37 @@
         <v>15</v>
       </c>
       <c r="D9" s="12">
-        <v>27185</v>
+        <v>27188</v>
       </c>
       <c r="E9" s="13">
         <v>52</v>
       </c>
       <c r="F9" s="14">
-        <v>0.43519917455872059</v>
+        <v>0.43518791451731759</v>
       </c>
       <c r="G9" s="14">
-        <v>0.56480082544127941</v>
+        <v>0.56481208548268236</v>
       </c>
       <c r="H9" s="12">
-        <v>23571</v>
+        <v>23575</v>
       </c>
       <c r="I9" s="15">
-        <v>8.3280302066098169E-2</v>
+        <v>8.3266171792152704E-2</v>
       </c>
       <c r="J9" s="12">
-        <v>24047</v>
+        <v>24049</v>
       </c>
       <c r="K9" s="12">
-        <v>4711</v>
+        <v>4710</v>
       </c>
       <c r="L9" s="14">
-        <v>0.19590801347361417</v>
+        <v>0.19585013929893136</v>
       </c>
       <c r="M9" s="12">
         <v>1870</v>
       </c>
       <c r="N9" s="16">
-        <v>6.8787934519999996E-2</v>
+        <v>6.8780344260000001E-2</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -878,37 +852,37 @@
         <v>16</v>
       </c>
       <c r="D10" s="8">
-        <v>17361</v>
+        <v>17363</v>
       </c>
       <c r="E10" s="6">
         <v>51</v>
       </c>
       <c r="F10" s="7">
-        <v>0.44722574691429229</v>
+        <v>0.44723183391003463</v>
       </c>
       <c r="G10" s="7">
-        <v>0.55277425308570771</v>
+        <v>0.55276816608996537</v>
       </c>
       <c r="H10" s="8">
-        <v>14859</v>
+        <v>14861</v>
       </c>
       <c r="I10" s="9">
-        <v>0.11292819166834915</v>
+        <v>0.11291299374200929</v>
       </c>
       <c r="J10" s="8">
-        <v>15510</v>
+        <v>15512</v>
       </c>
       <c r="K10" s="8">
-        <v>3356</v>
+        <v>3357</v>
       </c>
       <c r="L10" s="7">
-        <v>0.2163765312701483</v>
+        <v>0.21641309953584323</v>
       </c>
       <c r="M10" s="8">
         <v>1212</v>
       </c>
       <c r="N10" s="10">
-        <v>6.9811646790000001E-2</v>
+        <v>6.9803605360000007E-2</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -922,31 +896,31 @@
         <v>50</v>
       </c>
       <c r="F11" s="14">
-        <v>0.44971275993203336</v>
+        <v>0.44963184723683147</v>
       </c>
       <c r="G11" s="14">
-        <v>0.5502872400679667</v>
+        <v>0.55036815276316853</v>
       </c>
       <c r="H11" s="12">
-        <v>10282</v>
+        <v>10280</v>
       </c>
       <c r="I11" s="15">
-        <v>0.13956428710367633</v>
+        <v>0.13939688715953308</v>
       </c>
       <c r="J11" s="12">
-        <v>10948</v>
+        <v>10949</v>
       </c>
       <c r="K11" s="12">
-        <v>2224</v>
+        <v>2225</v>
       </c>
       <c r="L11" s="14">
-        <v>0.20314212641578369</v>
+        <v>0.20321490547081925</v>
       </c>
       <c r="M11" s="13">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="N11" s="16">
-        <v>5.7911315720000002E-2</v>
+        <v>5.7992084639999997E-2</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -954,22 +928,22 @@
         <v>18</v>
       </c>
       <c r="D12" s="8">
-        <v>7443</v>
+        <v>7442</v>
       </c>
       <c r="E12" s="6">
         <v>48</v>
       </c>
       <c r="F12" s="7">
-        <v>0.47808550685668189</v>
+        <v>0.47814979158262738</v>
       </c>
       <c r="G12" s="7">
-        <v>0.52191449314331806</v>
+        <v>0.52185020841737262</v>
       </c>
       <c r="H12" s="8">
-        <v>6242</v>
+        <v>6243</v>
       </c>
       <c r="I12" s="9">
-        <v>0.17702659404037169</v>
+        <v>0.17683805862566074</v>
       </c>
       <c r="J12" s="8">
         <v>6594</v>
@@ -981,10 +955,10 @@
         <v>0.20594479830148621</v>
       </c>
       <c r="M12" s="6">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="N12" s="10">
-        <v>5.0785973390000003E-2</v>
+        <v>5.1061542590000002E-2</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1004,19 +978,19 @@
         <v>0.52008354755784059</v>
       </c>
       <c r="H13" s="12">
-        <v>5231</v>
+        <v>5232</v>
       </c>
       <c r="I13" s="15">
-        <v>0.19690307780539093</v>
+        <v>0.19667431192660551</v>
       </c>
       <c r="J13" s="12">
-        <v>5612</v>
+        <v>5614</v>
       </c>
       <c r="K13" s="12">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="L13" s="14">
-        <v>0.1904846756949394</v>
+        <v>0.19059494121838261</v>
       </c>
       <c r="M13" s="13">
         <v>253</v>
@@ -1030,37 +1004,37 @@
         <v>20</v>
       </c>
       <c r="D14" s="8">
-        <v>4736</v>
+        <v>4735</v>
       </c>
       <c r="E14" s="6">
         <v>45</v>
       </c>
       <c r="F14" s="7">
-        <v>0.49408033826638476</v>
+        <v>0.49407783417935702</v>
       </c>
       <c r="G14" s="7">
-        <v>0.50591966173361524</v>
+        <v>0.50592216582064298</v>
       </c>
       <c r="H14" s="8">
-        <v>3933</v>
+        <v>3936</v>
       </c>
       <c r="I14" s="9">
-        <v>0.23290109331299264</v>
+        <v>0.23272357723577236</v>
       </c>
       <c r="J14" s="8">
-        <v>4207</v>
+        <v>4206</v>
       </c>
       <c r="K14" s="6">
         <v>733</v>
       </c>
       <c r="L14" s="7">
-        <v>0.17423342048966009</v>
+        <v>0.17427484545886829</v>
       </c>
       <c r="M14" s="6">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="N14" s="10">
-        <v>3.357263513E-2</v>
+        <v>3.421330517E-2</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1068,37 +1042,37 @@
         <v>21</v>
       </c>
       <c r="D15" s="12">
-        <v>3618</v>
+        <v>3617</v>
       </c>
       <c r="E15" s="13">
         <v>43</v>
       </c>
       <c r="F15" s="14">
-        <v>0.50235914515681379</v>
+        <v>0.50249861188228762</v>
       </c>
       <c r="G15" s="14">
-        <v>0.49764085484318621</v>
+        <v>0.49750138811771238</v>
       </c>
       <c r="H15" s="12">
-        <v>2820</v>
+        <v>2821</v>
       </c>
       <c r="I15" s="15">
-        <v>0.26312056737588652</v>
+        <v>0.26338177951081176</v>
       </c>
       <c r="J15" s="12">
-        <v>3111</v>
+        <v>3110</v>
       </c>
       <c r="K15" s="13">
         <v>508</v>
       </c>
       <c r="L15" s="14">
-        <v>0.16329154612664737</v>
+        <v>0.16334405144694533</v>
       </c>
       <c r="M15" s="13">
         <v>109</v>
       </c>
       <c r="N15" s="16">
-        <v>3.0127142060000001E-2</v>
+        <v>3.0135471380000001E-2</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1106,37 +1080,37 @@
         <v>22</v>
       </c>
       <c r="D16" s="8">
-        <v>3209</v>
+        <v>3211</v>
       </c>
       <c r="E16" s="6">
         <v>42</v>
       </c>
       <c r="F16" s="7">
-        <v>0.51454488583046609</v>
+        <v>0.51453579243513603</v>
       </c>
       <c r="G16" s="7">
-        <v>0.48545511416953396</v>
+        <v>0.48546420756486403</v>
       </c>
       <c r="H16" s="8">
-        <v>2540</v>
+        <v>2542</v>
       </c>
       <c r="I16" s="9">
-        <v>0.23385826771653542</v>
+        <v>0.23328088119590873</v>
       </c>
       <c r="J16" s="8">
-        <v>2765</v>
+        <v>2767</v>
       </c>
       <c r="K16" s="6">
         <v>416</v>
       </c>
       <c r="L16" s="7">
-        <v>0.15045207956600362</v>
+        <v>0.15034333212865919</v>
       </c>
       <c r="M16" s="6">
         <v>66</v>
       </c>
       <c r="N16" s="10">
-        <v>2.056715487E-2</v>
+        <v>2.055434444E-2</v>
       </c>
     </row>
     <row r="17" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1162,13 +1136,13 @@
         <v>0.23164763458401305</v>
       </c>
       <c r="J17" s="12">
-        <v>2081</v>
+        <v>2082</v>
       </c>
       <c r="K17" s="13">
         <v>310</v>
       </c>
       <c r="L17" s="14">
-        <v>0.14896684286400769</v>
+        <v>0.148895292987512</v>
       </c>
       <c r="M17" s="13">
         <v>45</v>
@@ -1194,19 +1168,19 @@
         <v>0.46358183376178236</v>
       </c>
       <c r="H18" s="8">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="I18" s="9">
-        <v>0.24495677233429394</v>
+        <v>0.24481566820276499</v>
       </c>
       <c r="J18" s="8">
-        <v>2084</v>
+        <v>2085</v>
       </c>
       <c r="K18" s="6">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L18" s="7">
-        <v>0.13579654510556621</v>
+        <v>0.13621103117505995</v>
       </c>
       <c r="M18" s="6">
         <v>32</v>
@@ -1220,37 +1194,37 @@
         <v>25</v>
       </c>
       <c r="D19" s="12">
-        <v>4094</v>
+        <v>4095</v>
       </c>
       <c r="E19" s="13">
         <v>36</v>
       </c>
       <c r="F19" s="14">
-        <v>0.587126774351444</v>
+        <v>0.58698311720088081</v>
       </c>
       <c r="G19" s="14">
-        <v>0.41287322564855605</v>
+        <v>0.41301688279911913</v>
       </c>
       <c r="H19" s="12">
-        <v>2936</v>
+        <v>2937</v>
       </c>
       <c r="I19" s="15">
-        <v>0.25034059945504089</v>
+        <v>0.25059584610146407</v>
       </c>
       <c r="J19" s="12">
-        <v>3739</v>
+        <v>3740</v>
       </c>
       <c r="K19" s="13">
         <v>317</v>
       </c>
       <c r="L19" s="14">
-        <v>8.4782027280021391E-2</v>
+        <v>8.4759358288770056E-2</v>
       </c>
       <c r="M19" s="13">
         <v>38</v>
       </c>
       <c r="N19" s="16">
-        <v>9.2818759099999992E-3</v>
+        <v>9.2796092699999992E-3</v>
       </c>
     </row>
     <row r="20" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1258,16 +1232,16 @@
         <v>26</v>
       </c>
       <c r="D20" s="8">
-        <v>3206</v>
+        <v>3207</v>
       </c>
       <c r="E20" s="6">
         <v>37</v>
       </c>
       <c r="F20" s="7">
-        <v>0.55153029356652095</v>
+        <v>0.55135810177958167</v>
       </c>
       <c r="G20" s="7">
-        <v>0.44846970643347905</v>
+        <v>0.44864189822041833</v>
       </c>
       <c r="H20" s="8">
         <v>2318</v>
@@ -1276,19 +1250,19 @@
         <v>0.23339085418464192</v>
       </c>
       <c r="J20" s="8">
-        <v>2851</v>
+        <v>2854</v>
       </c>
       <c r="K20" s="6">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L20" s="7">
-        <v>0.10242020343739039</v>
+        <v>0.10266292922214436</v>
       </c>
       <c r="M20" s="6">
         <v>23</v>
       </c>
       <c r="N20" s="10">
-        <v>7.1740486499999997E-3</v>
+        <v>7.1718116600000001E-3</v>
       </c>
     </row>
     <row r="21" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1308,19 +1282,19 @@
         <v>0.47790568139621242</v>
       </c>
       <c r="H21" s="12">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="I21" s="15">
-        <v>0.26854095976732911</v>
+        <v>0.26867119301648884</v>
       </c>
       <c r="J21" s="12">
-        <v>2467</v>
+        <v>2468</v>
       </c>
       <c r="K21" s="13">
         <v>258</v>
       </c>
       <c r="L21" s="14">
-        <v>0.10458046209971625</v>
+        <v>0.10453808752025932</v>
       </c>
       <c r="M21" s="13">
         <v>26</v>
@@ -1352,13 +1326,13 @@
         <v>0.24024960998439937</v>
       </c>
       <c r="J22" s="8">
-        <v>2189</v>
+        <v>2190</v>
       </c>
       <c r="K22" s="6">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L22" s="7">
-        <v>0.11466423024211969</v>
+        <v>0.11506849315068493</v>
       </c>
       <c r="M22" s="6">
         <v>25</v>
@@ -1378,25 +1352,25 @@
         <v>36</v>
       </c>
       <c r="F23" s="14">
-        <v>0.52436194895591648</v>
+        <v>0.52403049386808087</v>
       </c>
       <c r="G23" s="14">
-        <v>0.47563805104408352</v>
+        <v>0.47596950613191913</v>
       </c>
       <c r="H23" s="12">
-        <v>2359</v>
+        <v>2360</v>
       </c>
       <c r="I23" s="15">
-        <v>0.22891055532005086</v>
+        <v>0.2288135593220339</v>
       </c>
       <c r="J23" s="12">
-        <v>2635</v>
+        <v>2639</v>
       </c>
       <c r="K23" s="13">
         <v>317</v>
       </c>
       <c r="L23" s="14">
-        <v>0.12030360531309298</v>
+        <v>0.12012125805229254</v>
       </c>
       <c r="M23" s="13">
         <v>30</v>
@@ -1410,37 +1384,37 @@
         <v>30</v>
       </c>
       <c r="D24" s="8">
-        <v>3936</v>
+        <v>3938</v>
       </c>
       <c r="E24" s="6">
         <v>36</v>
       </c>
       <c r="F24" s="7">
-        <v>0.52355487649605292</v>
+        <v>0.52342158859470467</v>
       </c>
       <c r="G24" s="7">
-        <v>0.47644512350394702</v>
+        <v>0.47657841140529533</v>
       </c>
       <c r="H24" s="8">
-        <v>3175</v>
+        <v>3176</v>
       </c>
       <c r="I24" s="9">
-        <v>0.27023622047244095</v>
+        <v>0.27015113350125947</v>
       </c>
       <c r="J24" s="8">
-        <v>3454</v>
+        <v>3457</v>
       </c>
       <c r="K24" s="6">
         <v>332</v>
       </c>
       <c r="L24" s="7">
-        <v>9.6120440069484656E-2</v>
+        <v>9.6037026323401789E-2</v>
       </c>
       <c r="M24" s="6">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N24" s="10">
-        <v>8.1300812999999996E-3</v>
+        <v>8.3798882599999992E-3</v>
       </c>
     </row>
     <row r="25" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1448,37 +1422,37 @@
         <v>31</v>
       </c>
       <c r="D25" s="12">
-        <v>4822</v>
+        <v>4824</v>
       </c>
       <c r="E25" s="13">
         <v>36</v>
       </c>
       <c r="F25" s="14">
-        <v>0.5031198003327787</v>
+        <v>0.50311850311850315</v>
       </c>
       <c r="G25" s="14">
-        <v>0.4968801996672213</v>
+        <v>0.49688149688149691</v>
       </c>
       <c r="H25" s="12">
-        <v>3689</v>
+        <v>3688</v>
       </c>
       <c r="I25" s="15">
-        <v>0.24423963133640553</v>
+        <v>0.2440347071583514</v>
       </c>
       <c r="J25" s="12">
-        <v>4128</v>
+        <v>4129</v>
       </c>
       <c r="K25" s="13">
         <v>383</v>
       </c>
       <c r="L25" s="14">
-        <v>9.2781007751937983E-2</v>
+        <v>9.2758537176071687E-2</v>
       </c>
       <c r="M25" s="13">
         <v>32</v>
       </c>
       <c r="N25" s="16">
-        <v>6.6362505100000004E-3</v>
+        <v>6.6334991700000004E-3</v>
       </c>
     </row>
     <row r="26" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1486,37 +1460,37 @@
         <v>32</v>
       </c>
       <c r="D26" s="8">
-        <v>6062</v>
+        <v>6063</v>
       </c>
       <c r="E26" s="6">
         <v>34</v>
       </c>
       <c r="F26" s="7">
-        <v>0.53694825591006778</v>
+        <v>0.53685950413223138</v>
       </c>
       <c r="G26" s="7">
-        <v>0.46305174408993222</v>
+        <v>0.46314049586776862</v>
       </c>
       <c r="H26" s="8">
-        <v>4525</v>
+        <v>4531</v>
       </c>
       <c r="I26" s="9">
-        <v>0.2996685082872928</v>
+        <v>0.29949238578680204</v>
       </c>
       <c r="J26" s="8">
-        <v>5256</v>
+        <v>5264</v>
       </c>
       <c r="K26" s="6">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="L26" s="7">
-        <v>7.5532724505327248E-2</v>
+        <v>7.560790273556231E-2</v>
       </c>
       <c r="M26" s="6">
         <v>30</v>
       </c>
       <c r="N26" s="10">
-        <v>4.9488617600000001E-3</v>
+        <v>4.9480455200000004E-3</v>
       </c>
     </row>
     <row r="27" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1524,37 +1498,37 @@
         <v>33</v>
       </c>
       <c r="D27" s="12">
-        <v>7953</v>
+        <v>7956</v>
       </c>
       <c r="E27" s="13">
         <v>32</v>
       </c>
       <c r="F27" s="14">
-        <v>0.53324937027707808</v>
+        <v>0.53318221886412287</v>
       </c>
       <c r="G27" s="14">
-        <v>0.46675062972292192</v>
+        <v>0.46681778113587707</v>
       </c>
       <c r="H27" s="12">
-        <v>5808</v>
+        <v>5813</v>
       </c>
       <c r="I27" s="15">
-        <v>0.33230027548209368</v>
+        <v>0.33184242215723381</v>
       </c>
       <c r="J27" s="12">
-        <v>6961</v>
+        <v>6966</v>
       </c>
       <c r="K27" s="13">
         <v>428</v>
       </c>
       <c r="L27" s="14">
-        <v>6.1485418761672177E-2</v>
+        <v>6.1441286247487799E-2</v>
       </c>
       <c r="M27" s="13">
         <v>30</v>
       </c>
       <c r="N27" s="16">
-        <v>3.77216144E-3</v>
+        <v>3.7707390600000001E-3</v>
       </c>
     </row>
     <row r="28" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1562,37 +1536,37 @@
         <v>34</v>
       </c>
       <c r="D28" s="8">
-        <v>9592</v>
+        <v>9587</v>
       </c>
       <c r="E28" s="6">
         <v>32</v>
       </c>
       <c r="F28" s="7">
-        <v>0.54789633826461026</v>
+        <v>0.54744908671005665</v>
       </c>
       <c r="G28" s="7">
-        <v>0.45210366173538979</v>
+        <v>0.45255091328994329</v>
       </c>
       <c r="H28" s="8">
-        <v>7155</v>
+        <v>7161</v>
       </c>
       <c r="I28" s="9">
-        <v>0.34479385045422783</v>
+        <v>0.34464460270911884</v>
       </c>
       <c r="J28" s="8">
-        <v>8224</v>
+        <v>8232</v>
       </c>
       <c r="K28" s="6">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="L28" s="7">
-        <v>5.2042801556420236E-2</v>
+        <v>5.2113702623906709E-2</v>
       </c>
       <c r="M28" s="6">
         <v>30</v>
       </c>
       <c r="N28" s="10">
-        <v>3.1276063300000002E-3</v>
+        <v>3.1292375000000002E-3</v>
       </c>
     </row>
     <row r="29" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1600,37 +1574,37 @@
         <v>35</v>
       </c>
       <c r="D29" s="12">
-        <v>8816</v>
+        <v>8819</v>
       </c>
       <c r="E29" s="13">
         <v>32</v>
       </c>
       <c r="F29" s="14">
-        <v>0.53027187571395928</v>
+        <v>0.53020440790224965</v>
       </c>
       <c r="G29" s="14">
-        <v>0.46972812428604066</v>
+        <v>0.46979559209775035</v>
       </c>
       <c r="H29" s="12">
-        <v>6811</v>
+        <v>6828</v>
       </c>
       <c r="I29" s="15">
-        <v>0.308177947437968</v>
+        <v>0.30726420620972467</v>
       </c>
       <c r="J29" s="12">
-        <v>7311</v>
+        <v>7337</v>
       </c>
       <c r="K29" s="13">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="L29" s="14">
-        <v>4.9514430310491041E-2</v>
+        <v>4.9611557857434922E-2</v>
       </c>
       <c r="M29" s="13">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N29" s="16">
-        <v>2.15517241E-3</v>
+        <v>2.26783081E-3</v>
       </c>
     </row>
     <row r="30" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1638,37 +1612,37 @@
         <v>36</v>
       </c>
       <c r="D30" s="8">
-        <v>8614</v>
+        <v>8616</v>
       </c>
       <c r="E30" s="6">
         <v>33</v>
       </c>
       <c r="F30" s="7">
-        <v>0.53688141923436039</v>
+        <v>0.53658536585365857</v>
       </c>
       <c r="G30" s="7">
-        <v>0.46311858076563961</v>
+        <v>0.46341463414634149</v>
       </c>
       <c r="H30" s="8">
-        <v>6570</v>
+        <v>6574</v>
       </c>
       <c r="I30" s="9">
-        <v>0.27077625570776254</v>
+        <v>0.26969881350775782</v>
       </c>
       <c r="J30" s="8">
-        <v>6969</v>
+        <v>6981</v>
       </c>
       <c r="K30" s="6">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="L30" s="7">
-        <v>5.6105610561056105E-2</v>
+        <v>5.6152413694313133E-2</v>
       </c>
       <c r="M30" s="6">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N30" s="10">
-        <v>4.0631529999999999E-3</v>
+        <v>4.1782729799999998E-3</v>
       </c>
     </row>
     <row r="31" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1676,37 +1650,37 @@
         <v>37</v>
       </c>
       <c r="D31" s="12">
-        <v>9767</v>
+        <v>9766</v>
       </c>
       <c r="E31" s="13">
         <v>35</v>
       </c>
       <c r="F31" s="14">
-        <v>0.51879312120275978</v>
+        <v>0.51884654994850665</v>
       </c>
       <c r="G31" s="14">
-        <v>0.48120687879724022</v>
+        <v>0.48115345005149329</v>
       </c>
       <c r="H31" s="12">
-        <v>7485</v>
+        <v>7487</v>
       </c>
       <c r="I31" s="15">
-        <v>0.20507682030728122</v>
+        <v>0.20488847335381327</v>
       </c>
       <c r="J31" s="12">
         <v>7877</v>
       </c>
       <c r="K31" s="13">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="L31" s="14">
-        <v>5.8270915323092545E-2</v>
+        <v>5.8143963437857049E-2</v>
       </c>
       <c r="M31" s="13">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N31" s="16">
-        <v>6.2455206300000001E-3</v>
+        <v>6.34855621E-3</v>
       </c>
     </row>
     <row r="32" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1714,37 +1688,37 @@
         <v>38</v>
       </c>
       <c r="D32" s="8">
-        <v>12271</v>
+        <v>12278</v>
       </c>
       <c r="E32" s="6">
         <v>36</v>
       </c>
       <c r="F32" s="7">
-        <v>0.51175747644408032</v>
+        <v>0.51162790697674421</v>
       </c>
       <c r="G32" s="7">
-        <v>0.48824252355591968</v>
+        <v>0.48837209302325579</v>
       </c>
       <c r="H32" s="8">
-        <v>9548</v>
+        <v>9555</v>
       </c>
       <c r="I32" s="9">
-        <v>0.18695014662756598</v>
+        <v>0.1870225013082156</v>
       </c>
       <c r="J32" s="8">
-        <v>9869</v>
+        <v>9876</v>
       </c>
       <c r="K32" s="6">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="L32" s="7">
-        <v>6.636943965953998E-2</v>
+        <v>6.6423653300931557E-2</v>
       </c>
       <c r="M32" s="6">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="N32" s="10">
-        <v>6.1934642599999999E-3</v>
+        <v>6.3528261899999999E-3</v>
       </c>
     </row>
     <row r="33" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1752,37 +1726,37 @@
         <v>39</v>
       </c>
       <c r="D33" s="12">
-        <v>13057</v>
+        <v>13058</v>
       </c>
       <c r="E33" s="13">
         <v>37</v>
       </c>
       <c r="F33" s="14">
-        <v>0.51613151613151609</v>
+        <v>0.51609177702494613</v>
       </c>
       <c r="G33" s="14">
-        <v>0.48386848386848386</v>
+        <v>0.48390822297505387</v>
       </c>
       <c r="H33" s="12">
-        <v>10173</v>
+        <v>10182</v>
       </c>
       <c r="I33" s="15">
-        <v>0.18450801140273274</v>
+        <v>0.184639560007857</v>
       </c>
       <c r="J33" s="12">
-        <v>10650</v>
+        <v>10656</v>
       </c>
       <c r="K33" s="13">
         <v>750</v>
       </c>
       <c r="L33" s="14">
-        <v>7.0422535211267609E-2</v>
+        <v>7.0382882882882886E-2</v>
       </c>
       <c r="M33" s="13">
         <v>106</v>
       </c>
       <c r="N33" s="16">
-        <v>8.1182507399999992E-3</v>
+        <v>8.1176290300000002E-3</v>
       </c>
     </row>
     <row r="34" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1790,37 +1764,37 @@
         <v>40</v>
       </c>
       <c r="D34" s="8">
-        <v>15913</v>
+        <v>15914</v>
       </c>
       <c r="E34" s="6">
         <v>38</v>
       </c>
       <c r="F34" s="7">
-        <v>0.51967709384460137</v>
+        <v>0.51970738475121403</v>
       </c>
       <c r="G34" s="7">
-        <v>0.48032290615539858</v>
+        <v>0.48029261524878603</v>
       </c>
       <c r="H34" s="8">
-        <v>12201</v>
+        <v>12235</v>
       </c>
       <c r="I34" s="9">
-        <v>0.17514957790345054</v>
+        <v>0.174989783408255</v>
       </c>
       <c r="J34" s="8">
-        <v>13159</v>
+        <v>13172</v>
       </c>
       <c r="K34" s="6">
-        <v>851</v>
+        <v>854</v>
       </c>
       <c r="L34" s="7">
-        <v>6.4670567672315521E-2</v>
+        <v>6.4834497418767081E-2</v>
       </c>
       <c r="M34" s="6">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N34" s="10">
-        <v>7.4153207999999998E-3</v>
+        <v>7.4776925899999996E-3</v>
       </c>
     </row>
     <row r="35" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1828,37 +1802,37 @@
         <v>41</v>
       </c>
       <c r="D35" s="18">
-        <v>26154</v>
+        <v>26158</v>
       </c>
       <c r="E35" s="19">
         <v>39</v>
       </c>
       <c r="F35" s="20">
-        <v>0.51035383610588192</v>
+        <v>0.51035224522721157</v>
       </c>
       <c r="G35" s="20">
-        <v>0.48964616389411808</v>
+        <v>0.48964775477278838</v>
       </c>
       <c r="H35" s="18">
-        <v>19152</v>
+        <v>19292</v>
       </c>
       <c r="I35" s="21">
-        <v>0.16468253968253968</v>
+        <v>0.16483516483516483</v>
       </c>
       <c r="J35" s="18">
-        <v>20830</v>
+        <v>20930</v>
       </c>
       <c r="K35" s="19">
-        <v>1504</v>
+        <v>1522</v>
       </c>
       <c r="L35" s="20">
-        <v>7.2203552568410947E-2</v>
+        <v>7.2718585762064025E-2</v>
       </c>
       <c r="M35" s="19">
         <v>228</v>
       </c>
       <c r="N35" s="22">
-        <v>8.7175957699999994E-3</v>
+        <v>8.7162627100000004E-3</v>
       </c>
     </row>
     <row r="36" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1866,37 +1840,37 @@
         <v>42</v>
       </c>
       <c r="D36" s="8">
-        <v>42059</v>
+        <v>42068</v>
       </c>
       <c r="E36" s="6">
         <v>39</v>
       </c>
       <c r="F36" s="7">
-        <v>0.50865060183301825</v>
+        <v>0.5085650031101967</v>
       </c>
       <c r="G36" s="7">
-        <v>0.49134939816698175</v>
+        <v>0.49143499688980335</v>
       </c>
       <c r="H36" s="8">
-        <v>29175</v>
+        <v>29335</v>
       </c>
       <c r="I36" s="9">
-        <v>0.15883461868037704</v>
+        <v>0.15844554286688256</v>
       </c>
       <c r="J36" s="8">
-        <v>32267</v>
+        <v>32432</v>
       </c>
       <c r="K36" s="6">
-        <v>2203</v>
+        <v>2223</v>
       </c>
       <c r="L36" s="7">
-        <v>6.8274088077602504E-2</v>
+        <v>6.8543413912185491E-2</v>
       </c>
       <c r="M36" s="6">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="N36" s="10">
-        <v>1.01999572E-2</v>
+        <v>1.0364172289999999E-2</v>
       </c>
     </row>
     <row r="37" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1904,37 +1878,37 @@
         <v>43</v>
       </c>
       <c r="D37" s="12">
-        <v>74802</v>
+        <v>74826</v>
       </c>
       <c r="E37" s="13">
         <v>40</v>
       </c>
       <c r="F37" s="14">
-        <v>0.50192380132379055</v>
+        <v>0.50192987882781714</v>
       </c>
       <c r="G37" s="14">
-        <v>0.49807619867620945</v>
+        <v>0.49807012117218286</v>
       </c>
       <c r="H37" s="12">
-        <v>47392</v>
+        <v>47816</v>
       </c>
       <c r="I37" s="15">
-        <v>0.15335921674544226</v>
+        <v>0.15365149740672579</v>
       </c>
       <c r="J37" s="12">
-        <v>54133</v>
+        <v>54399</v>
       </c>
       <c r="K37" s="13">
-        <v>3800</v>
+        <v>3832</v>
       </c>
       <c r="L37" s="14">
-        <v>7.019747658544695E-2</v>
+        <v>7.0442471368958995E-2</v>
       </c>
       <c r="M37" s="13">
-        <v>909</v>
+        <v>917</v>
       </c>
       <c r="N37" s="16">
-        <v>1.2152081489999999E-2</v>
+        <v>1.225509849E-2</v>
       </c>
     </row>
     <row r="38" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1942,37 +1916,37 @@
         <v>44</v>
       </c>
       <c r="D38" s="8">
-        <v>111168</v>
+        <v>111161</v>
       </c>
       <c r="E38" s="6">
         <v>41</v>
       </c>
       <c r="F38" s="7">
-        <v>0.49722980386467297</v>
+        <v>0.49724328049620953</v>
       </c>
       <c r="G38" s="7">
-        <v>0.50277019613532703</v>
+        <v>0.50275671950379053</v>
       </c>
       <c r="H38" s="8">
-        <v>66226</v>
+        <v>67643</v>
       </c>
       <c r="I38" s="9">
-        <v>0.15534684262978288</v>
+        <v>0.15499016897535592</v>
       </c>
       <c r="J38" s="8">
-        <v>76638</v>
+        <v>77867</v>
       </c>
       <c r="K38" s="6">
-        <v>5334</v>
+        <v>5444</v>
       </c>
       <c r="L38" s="7">
-        <v>6.9599937367885389E-2</v>
+        <v>6.9914084271899518E-2</v>
       </c>
       <c r="M38" s="6">
-        <v>1434</v>
+        <v>1455</v>
       </c>
       <c r="N38" s="10">
-        <v>1.2899395500000001E-2</v>
+        <v>1.3089122979999999E-2</v>
       </c>
     </row>
     <row r="39" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1980,37 +1954,37 @@
         <v>45</v>
       </c>
       <c r="D39" s="18">
-        <v>125751</v>
+        <v>125775</v>
       </c>
       <c r="E39" s="19">
         <v>41</v>
       </c>
       <c r="F39" s="20">
-        <v>0.49127752879379305</v>
+        <v>0.49124342554302003</v>
       </c>
       <c r="G39" s="20">
-        <v>0.50872247120620695</v>
+        <v>0.50875657445697997</v>
       </c>
       <c r="H39" s="18">
-        <v>73572</v>
+        <v>73811</v>
       </c>
       <c r="I39" s="21">
-        <v>0.14824933398575546</v>
+        <v>0.14871767080787415</v>
       </c>
       <c r="J39" s="18">
-        <v>83911</v>
+        <v>84191</v>
       </c>
       <c r="K39" s="19">
-        <v>6093</v>
+        <v>6121</v>
       </c>
       <c r="L39" s="20">
-        <v>7.2612649116325631E-2</v>
+        <v>7.2703733178130683E-2</v>
       </c>
       <c r="M39" s="19">
-        <v>1626</v>
+        <v>1659</v>
       </c>
       <c r="N39" s="22">
-        <v>1.2930314659999999E-2</v>
+        <v>1.3190220630000001E-2</v>
       </c>
     </row>
     <row r="40" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2018,37 +1992,37 @@
         <v>46</v>
       </c>
       <c r="D40" s="8">
-        <v>127786</v>
+        <v>127842</v>
       </c>
       <c r="E40" s="6">
         <v>42</v>
       </c>
       <c r="F40" s="7">
-        <v>0.48466408166495212</v>
+        <v>0.48466369273601617</v>
       </c>
       <c r="G40" s="7">
-        <v>0.51533591833504788</v>
+        <v>0.51533630726398383</v>
       </c>
       <c r="H40" s="8">
-        <v>73960</v>
+        <v>74502</v>
       </c>
       <c r="I40" s="9">
-        <v>0.14649810708491076</v>
+        <v>0.14669404848191994</v>
       </c>
       <c r="J40" s="8">
-        <v>84782</v>
+        <v>85313</v>
       </c>
       <c r="K40" s="6">
-        <v>6594</v>
+        <v>6648</v>
       </c>
       <c r="L40" s="7">
-        <v>7.7775943006770307E-2</v>
+        <v>7.7924818023044559E-2</v>
       </c>
       <c r="M40" s="6">
-        <v>2084</v>
+        <v>2164</v>
       </c>
       <c r="N40" s="10">
-        <v>1.6308515789999999E-2</v>
+        <v>1.692714444E-2</v>
       </c>
     </row>
     <row r="41" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2056,75 +2030,75 @@
         <v>47</v>
       </c>
       <c r="D41" s="18">
-        <v>128491</v>
+        <v>128532</v>
       </c>
       <c r="E41" s="19">
         <v>43</v>
       </c>
       <c r="F41" s="20">
-        <v>0.47462763911025962</v>
+        <v>0.47459462853375611</v>
       </c>
       <c r="G41" s="20">
-        <v>0.52537236088974038</v>
+        <v>0.52540537146624389</v>
       </c>
       <c r="H41" s="18">
-        <v>74776</v>
+        <v>75458</v>
       </c>
       <c r="I41" s="21">
-        <v>0.14777468706536856</v>
+        <v>0.1472607278220997</v>
       </c>
       <c r="J41" s="18">
-        <v>83936</v>
+        <v>84886</v>
       </c>
       <c r="K41" s="19">
-        <v>6990</v>
+        <v>7088</v>
       </c>
       <c r="L41" s="20">
-        <v>8.3277735417460919E-2</v>
+        <v>8.3500223829606771E-2</v>
       </c>
       <c r="M41" s="19">
-        <v>2513</v>
+        <v>2620</v>
       </c>
       <c r="N41" s="22">
-        <v>1.9557790030000001E-2</v>
+        <v>2.0384028870000001E-2</v>
       </c>
     </row>
     <row r="42" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C42" s="5">
         <v>48</v>
       </c>
-      <c r="D42" s="23">
-        <v>123367</v>
-      </c>
-      <c r="E42" s="24">
+      <c r="D42" s="8">
+        <v>123357</v>
+      </c>
+      <c r="E42" s="6">
         <v>44</v>
       </c>
-      <c r="F42" s="25">
-        <v>0.46569241475295753</v>
-      </c>
-      <c r="G42" s="25">
-        <v>0.53430758524704247</v>
-      </c>
-      <c r="H42" s="23">
-        <v>70117</v>
-      </c>
-      <c r="I42" s="26">
-        <v>0.15371450575466719</v>
-      </c>
-      <c r="J42" s="23">
-        <v>79750</v>
-      </c>
-      <c r="K42" s="24">
-        <v>7034</v>
-      </c>
-      <c r="L42" s="25">
-        <v>8.8200626959247644E-2</v>
-      </c>
-      <c r="M42" s="24">
-        <v>2522</v>
-      </c>
-      <c r="N42" s="27">
-        <v>2.0443068240000001E-2</v>
+      <c r="F42" s="7">
+        <v>0.46568478963871401</v>
+      </c>
+      <c r="G42" s="7">
+        <v>0.53431521036128604</v>
+      </c>
+      <c r="H42" s="8">
+        <v>70830</v>
+      </c>
+      <c r="I42" s="9">
+        <v>0.1540590145418608</v>
+      </c>
+      <c r="J42" s="8">
+        <v>80434</v>
+      </c>
+      <c r="K42" s="6">
+        <v>7181</v>
+      </c>
+      <c r="L42" s="7">
+        <v>8.9278165949722751E-2</v>
+      </c>
+      <c r="M42" s="6">
+        <v>2728</v>
+      </c>
+      <c r="N42" s="10">
+        <v>2.211467529E-2</v>
       </c>
     </row>
     <row r="43" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2132,75 +2106,75 @@
         <v>49</v>
       </c>
       <c r="D43" s="18">
-        <v>128270</v>
+        <v>128304</v>
       </c>
       <c r="E43" s="19">
         <v>45</v>
       </c>
       <c r="F43" s="20">
-        <v>0.45973339208989755</v>
+        <v>0.45960529524199067</v>
       </c>
       <c r="G43" s="20">
-        <v>0.5402666079101025</v>
+        <v>0.54039470475800933</v>
       </c>
       <c r="H43" s="18">
-        <v>71897</v>
+        <v>73303</v>
       </c>
       <c r="I43" s="21">
-        <v>0.14395593696538103</v>
+        <v>0.14385495818725019</v>
       </c>
       <c r="J43" s="18">
-        <v>81407</v>
+        <v>82678</v>
       </c>
       <c r="K43" s="19">
-        <v>7402</v>
+        <v>7620</v>
       </c>
       <c r="L43" s="20">
-        <v>9.0925841758079773E-2</v>
+        <v>9.2164783860277225E-2</v>
       </c>
       <c r="M43" s="19">
-        <v>2477</v>
+        <v>2956</v>
       </c>
       <c r="N43" s="22">
-        <v>1.9310828719999999E-2</v>
+        <v>2.3039032290000001E-2</v>
       </c>
     </row>
     <row r="44" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C44" s="5">
         <v>50</v>
       </c>
-      <c r="D44" s="23">
-        <v>155803</v>
-      </c>
-      <c r="E44" s="24">
+      <c r="D44" s="8">
+        <v>155956</v>
+      </c>
+      <c r="E44" s="6">
         <v>46</v>
       </c>
-      <c r="F44" s="25">
-        <v>0.45378091369111256</v>
-      </c>
-      <c r="G44" s="25">
-        <v>0.54621908630888749</v>
-      </c>
-      <c r="H44" s="23">
-        <v>83207</v>
-      </c>
-      <c r="I44" s="26">
-        <v>0.1500114173086399</v>
-      </c>
-      <c r="J44" s="23">
-        <v>94503</v>
-      </c>
-      <c r="K44" s="24">
-        <v>8191</v>
-      </c>
-      <c r="L44" s="25">
-        <v>8.6674497105911977E-2</v>
-      </c>
-      <c r="M44" s="24">
-        <v>2076</v>
-      </c>
-      <c r="N44" s="27">
-        <v>1.3324518780000001E-2</v>
+      <c r="F44" s="7">
+        <v>0.45375073604110183</v>
+      </c>
+      <c r="G44" s="7">
+        <v>0.54624926395889817</v>
+      </c>
+      <c r="H44" s="8">
+        <v>86334</v>
+      </c>
+      <c r="I44" s="9">
+        <v>0.14894479579308267</v>
+      </c>
+      <c r="J44" s="8">
+        <v>97363</v>
+      </c>
+      <c r="K44" s="6">
+        <v>8883</v>
+      </c>
+      <c r="L44" s="7">
+        <v>9.1235890430656413E-2</v>
+      </c>
+      <c r="M44" s="6">
+        <v>3064</v>
+      </c>
+      <c r="N44" s="10">
+        <v>1.9646566979999999E-2</v>
       </c>
     </row>
     <row r="45" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2208,37 +2182,75 @@
         <v>51</v>
       </c>
       <c r="D45" s="18">
-        <v>171262</v>
+        <v>173481</v>
       </c>
       <c r="E45" s="19">
         <v>46</v>
       </c>
       <c r="F45" s="20">
-        <v>0.45243739900687641</v>
+        <v>0.45225701007962499</v>
       </c>
       <c r="G45" s="20">
-        <v>0.54756260099312359</v>
+        <v>0.54774298992037507</v>
       </c>
       <c r="H45" s="18">
-        <v>77568</v>
+        <v>89081</v>
       </c>
       <c r="I45" s="21">
-        <v>0.15533467409240925</v>
+        <v>0.14788787732513106</v>
       </c>
       <c r="J45" s="18">
-        <v>92356</v>
+        <v>101764</v>
       </c>
       <c r="K45" s="19">
-        <v>7201</v>
+        <v>8899</v>
       </c>
       <c r="L45" s="20">
-        <v>7.7970029018147174E-2</v>
+        <v>8.7447427380999171E-2</v>
       </c>
       <c r="M45" s="19">
-        <v>842</v>
+        <v>2118</v>
       </c>
       <c r="N45" s="22">
-        <v>4.9164438099999997E-3</v>
+        <v>1.220882978E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C46" s="5">
+        <v>52</v>
+      </c>
+      <c r="D46" s="8">
+        <v>135974</v>
+      </c>
+      <c r="E46" s="6">
+        <v>48</v>
+      </c>
+      <c r="F46" s="7">
+        <v>0.44564085784824059</v>
+      </c>
+      <c r="G46" s="7">
+        <v>0.55435914215175941</v>
+      </c>
+      <c r="H46" s="8">
+        <v>56966</v>
+      </c>
+      <c r="I46" s="9">
+        <v>0.16200891759997191</v>
+      </c>
+      <c r="J46" s="8">
+        <v>71416</v>
+      </c>
+      <c r="K46" s="6">
+        <v>5983</v>
+      </c>
+      <c r="L46" s="7">
+        <v>8.3776744707068446E-2</v>
+      </c>
+      <c r="M46" s="6">
+        <v>732</v>
+      </c>
+      <c r="N46" s="10">
+        <v>5.3833821100000004E-3</v>
       </c>
     </row>
   </sheetData>

--- a/data/klinische_aspekte.xlsx
+++ b/data/klinische_aspekte.xlsx
@@ -1,9 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20367"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{713DB5FF-39F4-44A0-9D24-2F5B6B4041F7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20368"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Wissdaten\RKI_nCoV-Lage\3.Kommunikation\3.7.Lageberichte\2021-01-05\Dienstagstabellen für Webmaster\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF18C822-CAF0-420F-B7F2-BCDD0010CCFA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" activeTab="1" xr2:uid="{E7020DAF-D42D-4B3D-9581-E23C135CB659}"/>
   </bookViews>
@@ -21,10 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>KW</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Fälle gesamt</t>
   </si>
@@ -59,10 +61,16 @@
     <t>Anteil Verstorben</t>
   </si>
   <si>
-    <t>Die Tabelle zeigt die dem RKI übermittelten COVID-19-Fälle nach Meldewoche und nach Geschlecht sowie Anteile mit für COVID-19 relevanten Symptomen, Anteile Hospitalisierter und Verstorbener für die Meldewochen KW 10 – 51. Eine grafische Darstellung der Daten befindt sich im Lagebericht unter dem Abschnitt "klinische Aspekte".</t>
+    <t>Die dem RKI übermittelten COVID-19-Fälle nach Meldewoche und nach Geschlecht sowie Anteile mit für COVID-19 relevanten Symptomen, Anteile Hospitalisierter und Verstorbener für die Meldewochen KW 10 – 52</t>
   </si>
   <si>
-    <t>Die dem RKI übermittelten COVID-19-Fälle nach Meldewoche und nach Geschlecht sowie Anteile mit für COVID-19 relevanten Symptomen, Anteile Hospitalisierter und Verstorbener für die Meldewochen KW 10 – 52</t>
+    <t>Meldejahr</t>
+  </si>
+  <si>
+    <t>MW</t>
+  </si>
+  <si>
+    <t>Die Tabelle zeigt die dem RKI übermittelten COVID-19-Fälle nach Meldewoche und nach Geschlecht sowie Anteile mit für COVID-19 relevanten Symptomen, Anteile Hospitalisierter und Verstorbener für die Meldewochen KW 10 – 53. Eine grafische Darstellung der Daten befindt sich im Lagebericht unter dem Abschnitt "klinische Aspekte".</t>
   </si>
 </sst>
 </file>
@@ -554,7 +562,7 @@
     </row>
     <row r="5" spans="2:2" ht="60" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.25">
@@ -568,72 +576,78 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92EDE9B5-504F-438C-AC14-C6D857721167}">
-  <dimension ref="A1:N46"/>
+  <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48:XFD48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="M3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="N3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="4" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="5">
+        <v>2020</v>
+      </c>
       <c r="C4" s="5">
         <v>10</v>
       </c>
       <c r="D4" s="6">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="E4" s="6">
         <v>42</v>
       </c>
       <c r="F4" s="7">
-        <v>0.53579418344519014</v>
+        <v>0.53527435610302354</v>
       </c>
       <c r="G4" s="7">
-        <v>0.46420581655480986</v>
+        <v>0.46472564389697646</v>
       </c>
       <c r="H4" s="8">
         <v>832</v>
@@ -654,48 +668,54 @@
         <v>12</v>
       </c>
       <c r="N4" s="10">
-        <v>1.3422818790000001E-2</v>
+        <v>1.343784994E-2</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="11">
+        <v>2020</v>
+      </c>
       <c r="C5" s="11">
         <v>11</v>
       </c>
       <c r="D5" s="12">
-        <v>6433</v>
+        <v>6434</v>
       </c>
       <c r="E5" s="13">
         <v>45</v>
       </c>
       <c r="F5" s="14">
-        <v>0.56320945420618873</v>
+        <v>0.56312189054726369</v>
       </c>
       <c r="G5" s="14">
-        <v>0.43679054579381121</v>
+        <v>0.43687810945273631</v>
       </c>
       <c r="H5" s="12">
-        <v>5779</v>
+        <v>5780</v>
       </c>
       <c r="I5" s="15">
-        <v>5.3123377747015053E-2</v>
+        <v>5.3114186851211075E-2</v>
       </c>
       <c r="J5" s="12">
-        <v>5611</v>
+        <v>5614</v>
       </c>
       <c r="K5" s="13">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="L5" s="14">
-        <v>9.249688112635894E-2</v>
+        <v>9.2625578909868181E-2</v>
       </c>
       <c r="M5" s="13">
         <v>85</v>
       </c>
       <c r="N5" s="16">
-        <v>1.321311985E-2</v>
+        <v>1.3211066210000001E-2</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="5">
+        <v>2020</v>
+      </c>
       <c r="C6" s="5">
         <v>12</v>
       </c>
@@ -706,25 +726,25 @@
         <v>45</v>
       </c>
       <c r="F6" s="7">
-        <v>0.54973681862788826</v>
+        <v>0.54978142564011068</v>
       </c>
       <c r="G6" s="7">
-        <v>0.45026318137211169</v>
+        <v>0.45021857435988938</v>
       </c>
       <c r="H6" s="8">
         <v>20210</v>
       </c>
       <c r="I6" s="9">
-        <v>3.8545274616526473E-2</v>
+        <v>3.8594755071746659E-2</v>
       </c>
       <c r="J6" s="8">
-        <v>19343</v>
+        <v>19344</v>
       </c>
       <c r="K6" s="8">
         <v>2204</v>
       </c>
       <c r="L6" s="7">
-        <v>0.11394302848575712</v>
+        <v>0.11393713813068652</v>
       </c>
       <c r="M6" s="6">
         <v>478</v>
@@ -734,26 +754,29 @@
       </c>
     </row>
     <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="11">
+        <v>2020</v>
+      </c>
       <c r="C7" s="11">
         <v>13</v>
       </c>
       <c r="D7" s="12">
-        <v>34028</v>
+        <v>34029</v>
       </c>
       <c r="E7" s="13">
         <v>48</v>
       </c>
       <c r="F7" s="14">
-        <v>0.49494147403093935</v>
+        <v>0.49492691821309887</v>
       </c>
       <c r="G7" s="14">
-        <v>0.50505852596906065</v>
+        <v>0.50507308178690113</v>
       </c>
       <c r="H7" s="12">
-        <v>30858</v>
+        <v>30859</v>
       </c>
       <c r="I7" s="15">
-        <v>3.2438913733877764E-2</v>
+        <v>3.2470267993130041E-2</v>
       </c>
       <c r="J7" s="12">
         <v>29460</v>
@@ -765,13 +788,16 @@
         <v>0.17345553292600135</v>
       </c>
       <c r="M7" s="12">
-        <v>1457</v>
+        <v>1459</v>
       </c>
       <c r="N7" s="16">
-        <v>4.2817679550000001E-2</v>
+        <v>4.2875194679999999E-2</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="5">
+        <v>2020</v>
+      </c>
       <c r="C8" s="5">
         <v>14</v>
       </c>
@@ -782,86 +808,92 @@
         <v>51</v>
       </c>
       <c r="F8" s="7">
-        <v>0.45063937200077669</v>
+        <v>0.45066711048237218</v>
       </c>
       <c r="G8" s="7">
-        <v>0.54936062799922336</v>
+        <v>0.54933288951762782</v>
       </c>
       <c r="H8" s="8">
-        <v>31983</v>
+        <v>31984</v>
       </c>
       <c r="I8" s="9">
-        <v>5.3215770878279084E-2</v>
+        <v>5.3214107053526763E-2</v>
       </c>
       <c r="J8" s="8">
-        <v>31484</v>
+        <v>31485</v>
       </c>
       <c r="K8" s="8">
         <v>6064</v>
       </c>
       <c r="L8" s="7">
-        <v>0.1926057680091475</v>
+        <v>0.19259965062728282</v>
       </c>
       <c r="M8" s="8">
-        <v>2253</v>
+        <v>2254</v>
       </c>
       <c r="N8" s="10">
-        <v>6.2420346869999997E-2</v>
+        <v>6.2448052300000001E-2</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="11">
+        <v>2020</v>
+      </c>
       <c r="C9" s="11">
         <v>15</v>
       </c>
       <c r="D9" s="12">
-        <v>27188</v>
+        <v>27185</v>
       </c>
       <c r="E9" s="13">
         <v>52</v>
       </c>
       <c r="F9" s="14">
-        <v>0.43518791451731759</v>
+        <v>0.43516232450160297</v>
       </c>
       <c r="G9" s="14">
-        <v>0.56481208548268236</v>
+        <v>0.56483767549839703</v>
       </c>
       <c r="H9" s="12">
-        <v>23575</v>
+        <v>23574</v>
       </c>
       <c r="I9" s="15">
-        <v>8.3266171792152704E-2</v>
+        <v>8.3269703911088483E-2</v>
       </c>
       <c r="J9" s="12">
-        <v>24049</v>
+        <v>24047</v>
       </c>
       <c r="K9" s="12">
         <v>4710</v>
       </c>
       <c r="L9" s="14">
-        <v>0.19585013929893136</v>
+        <v>0.19586642824468747</v>
       </c>
       <c r="M9" s="12">
         <v>1870</v>
       </c>
       <c r="N9" s="16">
-        <v>6.8780344260000001E-2</v>
+        <v>6.8787934519999996E-2</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="5">
+        <v>2020</v>
+      </c>
       <c r="C10" s="5">
         <v>16</v>
       </c>
       <c r="D10" s="8">
-        <v>17363</v>
+        <v>17362</v>
       </c>
       <c r="E10" s="6">
         <v>51</v>
       </c>
       <c r="F10" s="7">
-        <v>0.44723183391003463</v>
+        <v>0.44728342369362095</v>
       </c>
       <c r="G10" s="7">
-        <v>0.55276816608996537</v>
+        <v>0.55271657630637905</v>
       </c>
       <c r="H10" s="8">
         <v>14861</v>
@@ -882,68 +914,74 @@
         <v>1212</v>
       </c>
       <c r="N10" s="10">
-        <v>6.9803605360000007E-2</v>
+        <v>6.9807625839999998E-2</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="11">
+        <v>2020</v>
+      </c>
       <c r="C11" s="11">
         <v>17</v>
       </c>
       <c r="D11" s="12">
-        <v>12381</v>
+        <v>12382</v>
       </c>
       <c r="E11" s="13">
         <v>50</v>
       </c>
       <c r="F11" s="14">
-        <v>0.44963184723683147</v>
+        <v>0.44967637540453076</v>
       </c>
       <c r="G11" s="14">
-        <v>0.55036815276316853</v>
+        <v>0.55032362459546924</v>
       </c>
       <c r="H11" s="12">
-        <v>10280</v>
+        <v>10282</v>
       </c>
       <c r="I11" s="15">
-        <v>0.13939688715953308</v>
+        <v>0.13936977241781753</v>
       </c>
       <c r="J11" s="12">
-        <v>10949</v>
+        <v>10950</v>
       </c>
       <c r="K11" s="12">
         <v>2225</v>
       </c>
       <c r="L11" s="14">
-        <v>0.20321490547081925</v>
+        <v>0.20319634703196346</v>
       </c>
       <c r="M11" s="13">
         <v>718</v>
       </c>
       <c r="N11" s="16">
-        <v>5.7992084639999997E-2</v>
+        <v>5.7987401059999999E-2</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="5">
+        <v>2020</v>
+      </c>
       <c r="C12" s="5">
         <v>18</v>
       </c>
       <c r="D12" s="8">
-        <v>7442</v>
+        <v>7443</v>
       </c>
       <c r="E12" s="6">
         <v>48</v>
       </c>
       <c r="F12" s="7">
-        <v>0.47814979158262738</v>
+        <v>0.47808550685668189</v>
       </c>
       <c r="G12" s="7">
-        <v>0.52185020841737262</v>
+        <v>0.52191449314331806</v>
       </c>
       <c r="H12" s="8">
-        <v>6243</v>
+        <v>6244</v>
       </c>
       <c r="I12" s="9">
-        <v>0.17683805862566074</v>
+        <v>0.17664958360025623</v>
       </c>
       <c r="J12" s="8">
         <v>6594</v>
@@ -955,13 +993,16 @@
         <v>0.20594479830148621</v>
       </c>
       <c r="M12" s="6">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="N12" s="10">
-        <v>5.1061542590000002E-2</v>
+        <v>5.118903667E-2</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="11">
+        <v>2020</v>
+      </c>
       <c r="C13" s="11">
         <v>19</v>
       </c>
@@ -1000,82 +1041,91 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="5">
+        <v>2020</v>
+      </c>
       <c r="C14" s="5">
         <v>20</v>
       </c>
       <c r="D14" s="8">
-        <v>4735</v>
+        <v>4734</v>
       </c>
       <c r="E14" s="6">
         <v>45</v>
       </c>
       <c r="F14" s="7">
-        <v>0.49407783417935702</v>
+        <v>0.49418235667442351</v>
       </c>
       <c r="G14" s="7">
-        <v>0.50592216582064298</v>
+        <v>0.50581764332557644</v>
       </c>
       <c r="H14" s="8">
-        <v>3936</v>
+        <v>3935</v>
       </c>
       <c r="I14" s="9">
-        <v>0.23272357723577236</v>
+        <v>0.23278271918678525</v>
       </c>
       <c r="J14" s="8">
-        <v>4206</v>
+        <v>4205</v>
       </c>
       <c r="K14" s="6">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="L14" s="7">
-        <v>0.17427484545886829</v>
+        <v>0.17455410225921522</v>
       </c>
       <c r="M14" s="6">
         <v>162</v>
       </c>
       <c r="N14" s="10">
-        <v>3.421330517E-2</v>
+        <v>3.4220532310000003E-2</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="11">
+        <v>2020</v>
+      </c>
       <c r="C15" s="11">
         <v>21</v>
       </c>
       <c r="D15" s="12">
-        <v>3617</v>
+        <v>3618</v>
       </c>
       <c r="E15" s="13">
         <v>43</v>
       </c>
       <c r="F15" s="14">
-        <v>0.50249861188228762</v>
+        <v>0.50263669164585068</v>
       </c>
       <c r="G15" s="14">
-        <v>0.49750138811771238</v>
+        <v>0.49736330835414932</v>
       </c>
       <c r="H15" s="12">
-        <v>2821</v>
+        <v>2822</v>
       </c>
       <c r="I15" s="15">
-        <v>0.26338177951081176</v>
+        <v>0.26293408929836998</v>
       </c>
       <c r="J15" s="12">
-        <v>3110</v>
+        <v>3111</v>
       </c>
       <c r="K15" s="13">
         <v>508</v>
       </c>
       <c r="L15" s="14">
-        <v>0.16334405144694533</v>
+        <v>0.16329154612664737</v>
       </c>
       <c r="M15" s="13">
         <v>109</v>
       </c>
       <c r="N15" s="16">
-        <v>3.0135471380000001E-2</v>
+        <v>3.0127142060000001E-2</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="5">
+        <v>2020</v>
+      </c>
       <c r="C16" s="5">
         <v>22</v>
       </c>
@@ -1113,7 +1163,10 @@
         <v>2.055434444E-2</v>
       </c>
     </row>
-    <row r="17" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="11">
+        <v>2020</v>
+      </c>
       <c r="C17" s="11">
         <v>23</v>
       </c>
@@ -1145,13 +1198,16 @@
         <v>0.148895292987512</v>
       </c>
       <c r="M17" s="13">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N17" s="16">
-        <v>1.906779661E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1.9491525419999999E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="5">
+        <v>2020</v>
+      </c>
       <c r="C18" s="5">
         <v>24</v>
       </c>
@@ -1168,10 +1224,10 @@
         <v>0.46358183376178236</v>
       </c>
       <c r="H18" s="8">
-        <v>1736</v>
+        <v>1737</v>
       </c>
       <c r="I18" s="9">
-        <v>0.24481566820276499</v>
+        <v>0.24467472654001152</v>
       </c>
       <c r="J18" s="8">
         <v>2085</v>
@@ -1189,12 +1245,15 @@
         <v>1.364605543E-2</v>
       </c>
     </row>
-    <row r="19" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="11">
+        <v>2020</v>
+      </c>
       <c r="C19" s="11">
         <v>25</v>
       </c>
       <c r="D19" s="12">
-        <v>4095</v>
+        <v>4096</v>
       </c>
       <c r="E19" s="13">
         <v>36</v>
@@ -1206,10 +1265,10 @@
         <v>0.41301688279911913</v>
       </c>
       <c r="H19" s="12">
-        <v>2937</v>
+        <v>2938</v>
       </c>
       <c r="I19" s="15">
-        <v>0.25059584610146407</v>
+        <v>0.25017018379850237</v>
       </c>
       <c r="J19" s="12">
         <v>3740</v>
@@ -1224,10 +1283,13 @@
         <v>38</v>
       </c>
       <c r="N19" s="16">
-        <v>9.2796092699999992E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>9.27734375E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="5">
+        <v>2020</v>
+      </c>
       <c r="C20" s="5">
         <v>26</v>
       </c>
@@ -1265,21 +1327,24 @@
         <v>7.1718116600000001E-3</v>
       </c>
     </row>
-    <row r="21" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="11">
+        <v>2020</v>
+      </c>
       <c r="C21" s="11">
         <v>27</v>
       </c>
       <c r="D21" s="12">
-        <v>2694</v>
+        <v>2695</v>
       </c>
       <c r="E21" s="13">
         <v>36</v>
       </c>
       <c r="F21" s="14">
-        <v>0.52209431860378763</v>
+        <v>0.52227171492204905</v>
       </c>
       <c r="G21" s="14">
-        <v>0.47790568139621242</v>
+        <v>0.47772828507795101</v>
       </c>
       <c r="H21" s="12">
         <v>2062</v>
@@ -1300,24 +1365,27 @@
         <v>26</v>
       </c>
       <c r="N21" s="16">
-        <v>9.6510764599999996E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>9.6474953599999993E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="5">
+        <v>2020</v>
+      </c>
       <c r="C22" s="5">
         <v>28</v>
       </c>
       <c r="D22" s="8">
-        <v>2425</v>
+        <v>2426</v>
       </c>
       <c r="E22" s="6">
         <v>36</v>
       </c>
       <c r="F22" s="7">
-        <v>0.55991735537190079</v>
+        <v>0.5596860801321768</v>
       </c>
       <c r="G22" s="7">
-        <v>0.44008264462809915</v>
+        <v>0.4403139198678232</v>
       </c>
       <c r="H22" s="8">
         <v>1923</v>
@@ -1326,22 +1394,25 @@
         <v>0.24024960998439937</v>
       </c>
       <c r="J22" s="8">
-        <v>2190</v>
+        <v>2191</v>
       </c>
       <c r="K22" s="6">
         <v>252</v>
       </c>
       <c r="L22" s="7">
-        <v>0.11506849315068493</v>
+        <v>0.11501597444089456</v>
       </c>
       <c r="M22" s="6">
         <v>25</v>
       </c>
       <c r="N22" s="10">
-        <v>1.0309278349999999E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1.030502885E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="11">
+        <v>2020</v>
+      </c>
       <c r="C23" s="11">
         <v>29</v>
       </c>
@@ -1379,45 +1450,51 @@
         <v>9.9206349199999991E-3</v>
       </c>
     </row>
-    <row r="24" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="5">
+        <v>2020</v>
+      </c>
       <c r="C24" s="5">
         <v>30</v>
       </c>
       <c r="D24" s="8">
-        <v>3938</v>
+        <v>3942</v>
       </c>
       <c r="E24" s="6">
         <v>36</v>
       </c>
       <c r="F24" s="7">
-        <v>0.52342158859470467</v>
+        <v>0.52339776195320442</v>
       </c>
       <c r="G24" s="7">
-        <v>0.47657841140529533</v>
+        <v>0.47660223804679552</v>
       </c>
       <c r="H24" s="8">
-        <v>3176</v>
+        <v>3178</v>
       </c>
       <c r="I24" s="9">
-        <v>0.27015113350125947</v>
+        <v>0.27029578351164252</v>
       </c>
       <c r="J24" s="8">
-        <v>3457</v>
+        <v>3460</v>
       </c>
       <c r="K24" s="6">
         <v>332</v>
       </c>
       <c r="L24" s="7">
-        <v>9.6037026323401789E-2</v>
+        <v>9.595375722543352E-2</v>
       </c>
       <c r="M24" s="6">
         <v>33</v>
       </c>
       <c r="N24" s="10">
-        <v>8.3798882599999992E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>8.37138508E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="11">
+        <v>2020</v>
+      </c>
       <c r="C25" s="11">
         <v>31</v>
       </c>
@@ -1443,10 +1520,10 @@
         <v>4129</v>
       </c>
       <c r="K25" s="13">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="L25" s="14">
-        <v>9.2758537176071687E-2</v>
+        <v>9.3000726568176317E-2</v>
       </c>
       <c r="M25" s="13">
         <v>32</v>
@@ -1455,7 +1532,10 @@
         <v>6.6334991700000004E-3</v>
       </c>
     </row>
-    <row r="26" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="5">
+        <v>2020</v>
+      </c>
       <c r="C26" s="5">
         <v>32</v>
       </c>
@@ -1466,25 +1546,25 @@
         <v>34</v>
       </c>
       <c r="F26" s="7">
-        <v>0.53685950413223138</v>
+        <v>0.53669421487603308</v>
       </c>
       <c r="G26" s="7">
-        <v>0.46314049586776862</v>
+        <v>0.46330578512396692</v>
       </c>
       <c r="H26" s="8">
-        <v>4531</v>
+        <v>4533</v>
       </c>
       <c r="I26" s="9">
-        <v>0.29949238578680204</v>
+        <v>0.29958085153320096</v>
       </c>
       <c r="J26" s="8">
-        <v>5264</v>
+        <v>5265</v>
       </c>
       <c r="K26" s="6">
         <v>398</v>
       </c>
       <c r="L26" s="7">
-        <v>7.560790273556231E-2</v>
+        <v>7.5593542260208924E-2</v>
       </c>
       <c r="M26" s="6">
         <v>30</v>
@@ -1493,27 +1573,30 @@
         <v>4.9480455200000004E-3</v>
       </c>
     </row>
-    <row r="27" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="11">
+        <v>2020</v>
+      </c>
       <c r="C27" s="11">
         <v>33</v>
       </c>
       <c r="D27" s="12">
-        <v>7956</v>
+        <v>7955</v>
       </c>
       <c r="E27" s="13">
         <v>32</v>
       </c>
       <c r="F27" s="14">
-        <v>0.53318221886412287</v>
+        <v>0.53324937027707808</v>
       </c>
       <c r="G27" s="14">
-        <v>0.46681778113587707</v>
+        <v>0.46675062972292192</v>
       </c>
       <c r="H27" s="12">
-        <v>5813</v>
+        <v>5812</v>
       </c>
       <c r="I27" s="15">
-        <v>0.33184242215723381</v>
+        <v>0.33189951823812802</v>
       </c>
       <c r="J27" s="12">
         <v>6966</v>
@@ -1528,733 +1611,830 @@
         <v>30</v>
       </c>
       <c r="N27" s="16">
-        <v>3.7707390600000001E-3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3.77121307E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="5">
+        <v>2020</v>
+      </c>
       <c r="C28" s="5">
         <v>34</v>
       </c>
       <c r="D28" s="8">
-        <v>9587</v>
+        <v>9603</v>
       </c>
       <c r="E28" s="6">
         <v>32</v>
       </c>
       <c r="F28" s="7">
-        <v>0.54744908671005665</v>
+        <v>0.54768392370572205</v>
       </c>
       <c r="G28" s="7">
-        <v>0.45255091328994329</v>
+        <v>0.45231607629427795</v>
       </c>
       <c r="H28" s="8">
-        <v>7161</v>
+        <v>7165</v>
       </c>
       <c r="I28" s="9">
-        <v>0.34464460270911884</v>
+        <v>0.34445219818562456</v>
       </c>
       <c r="J28" s="8">
-        <v>8232</v>
+        <v>8238</v>
       </c>
       <c r="K28" s="6">
         <v>429</v>
       </c>
       <c r="L28" s="7">
-        <v>5.2113702623906709E-2</v>
+        <v>5.2075746540422435E-2</v>
       </c>
       <c r="M28" s="6">
         <v>30</v>
       </c>
       <c r="N28" s="10">
-        <v>3.1292375000000002E-3</v>
-      </c>
-    </row>
-    <row r="29" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3.1240237400000002E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="11">
+        <v>2020</v>
+      </c>
       <c r="C29" s="11">
         <v>35</v>
       </c>
       <c r="D29" s="12">
-        <v>8819</v>
+        <v>8821</v>
       </c>
       <c r="E29" s="13">
         <v>32</v>
       </c>
       <c r="F29" s="14">
-        <v>0.53020440790224965</v>
+        <v>0.53019751113140767</v>
       </c>
       <c r="G29" s="14">
-        <v>0.46979559209775035</v>
+        <v>0.46980248886859233</v>
       </c>
       <c r="H29" s="12">
-        <v>6828</v>
+        <v>6834</v>
       </c>
       <c r="I29" s="15">
-        <v>0.30726420620972467</v>
+        <v>0.307140766754463</v>
       </c>
       <c r="J29" s="12">
-        <v>7337</v>
+        <v>7344</v>
       </c>
       <c r="K29" s="13">
         <v>364</v>
       </c>
       <c r="L29" s="14">
-        <v>4.9611557857434922E-2</v>
+        <v>4.9564270152505446E-2</v>
       </c>
       <c r="M29" s="13">
         <v>20</v>
       </c>
       <c r="N29" s="16">
-        <v>2.26783081E-3</v>
-      </c>
-    </row>
-    <row r="30" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2.2673166300000002E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="5">
+        <v>2020</v>
+      </c>
       <c r="C30" s="5">
         <v>36</v>
       </c>
       <c r="D30" s="8">
-        <v>8616</v>
+        <v>8619</v>
       </c>
       <c r="E30" s="6">
         <v>33</v>
       </c>
       <c r="F30" s="7">
-        <v>0.53658536585365857</v>
+        <v>0.53651423238450768</v>
       </c>
       <c r="G30" s="7">
-        <v>0.46341463414634149</v>
+        <v>0.46348576761549232</v>
       </c>
       <c r="H30" s="8">
-        <v>6574</v>
+        <v>6601</v>
       </c>
       <c r="I30" s="9">
-        <v>0.26969881350775782</v>
+        <v>0.26844417512498109</v>
       </c>
       <c r="J30" s="8">
-        <v>6981</v>
+        <v>7007</v>
       </c>
       <c r="K30" s="6">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="L30" s="7">
-        <v>5.6152413694313133E-2</v>
+        <v>5.6372199229342085E-2</v>
       </c>
       <c r="M30" s="6">
         <v>36</v>
       </c>
       <c r="N30" s="10">
-        <v>4.1782729799999998E-3</v>
-      </c>
-    </row>
-    <row r="31" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>4.1768186499999997E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="11">
+        <v>2020</v>
+      </c>
       <c r="C31" s="11">
         <v>37</v>
       </c>
       <c r="D31" s="12">
-        <v>9766</v>
+        <v>9767</v>
       </c>
       <c r="E31" s="13">
         <v>35</v>
       </c>
       <c r="F31" s="14">
-        <v>0.51884654994850665</v>
+        <v>0.51899907321594063</v>
       </c>
       <c r="G31" s="14">
-        <v>0.48115345005149329</v>
+        <v>0.48100092678405931</v>
       </c>
       <c r="H31" s="12">
-        <v>7487</v>
+        <v>7527</v>
       </c>
       <c r="I31" s="15">
-        <v>0.20488847335381327</v>
+        <v>0.20273681413577788</v>
       </c>
       <c r="J31" s="12">
-        <v>7877</v>
+        <v>7938</v>
       </c>
       <c r="K31" s="13">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="L31" s="14">
-        <v>5.8143963437857049E-2</v>
+        <v>5.8327034517510708E-2</v>
       </c>
       <c r="M31" s="13">
         <v>62</v>
       </c>
       <c r="N31" s="16">
-        <v>6.34855621E-3</v>
-      </c>
-    </row>
-    <row r="32" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>6.3479062100000004E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="5">
+        <v>2020</v>
+      </c>
       <c r="C32" s="5">
         <v>38</v>
       </c>
       <c r="D32" s="8">
-        <v>12278</v>
+        <v>12279</v>
       </c>
       <c r="E32" s="6">
         <v>36</v>
       </c>
       <c r="F32" s="7">
-        <v>0.51162790697674421</v>
+        <v>0.5115860149021535</v>
       </c>
       <c r="G32" s="7">
-        <v>0.48837209302325579</v>
+        <v>0.48841398509784656</v>
       </c>
       <c r="H32" s="8">
-        <v>9555</v>
+        <v>9590</v>
       </c>
       <c r="I32" s="9">
-        <v>0.1870225013082156</v>
+        <v>0.18633993743482793</v>
       </c>
       <c r="J32" s="8">
-        <v>9876</v>
+        <v>9929</v>
       </c>
       <c r="K32" s="6">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="L32" s="7">
-        <v>6.6423653300931557E-2</v>
+        <v>6.6471950851042405E-2</v>
       </c>
       <c r="M32" s="6">
         <v>78</v>
       </c>
       <c r="N32" s="10">
-        <v>6.3528261899999999E-3</v>
-      </c>
-    </row>
-    <row r="33" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>6.3523088100000003E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="11">
+        <v>2020</v>
+      </c>
       <c r="C33" s="11">
         <v>39</v>
       </c>
       <c r="D33" s="12">
-        <v>13058</v>
+        <v>13070</v>
       </c>
       <c r="E33" s="13">
         <v>37</v>
       </c>
       <c r="F33" s="14">
-        <v>0.51609177702494613</v>
+        <v>0.51623076923076927</v>
       </c>
       <c r="G33" s="14">
-        <v>0.48390822297505387</v>
+        <v>0.48376923076923078</v>
       </c>
       <c r="H33" s="12">
-        <v>10182</v>
+        <v>10216</v>
       </c>
       <c r="I33" s="15">
-        <v>0.184639560007857</v>
+        <v>0.18382928739232576</v>
       </c>
       <c r="J33" s="12">
-        <v>10656</v>
+        <v>10686</v>
       </c>
       <c r="K33" s="13">
-        <v>750</v>
+        <v>754</v>
       </c>
       <c r="L33" s="14">
-        <v>7.0382882882882886E-2</v>
+        <v>7.0559610705596104E-2</v>
       </c>
       <c r="M33" s="13">
         <v>106</v>
       </c>
       <c r="N33" s="16">
-        <v>8.1176290300000002E-3</v>
-      </c>
-    </row>
-    <row r="34" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>8.1101759699999994E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="5">
+        <v>2020</v>
+      </c>
       <c r="C34" s="5">
         <v>40</v>
       </c>
       <c r="D34" s="8">
-        <v>15914</v>
+        <v>15920</v>
       </c>
       <c r="E34" s="6">
         <v>38</v>
       </c>
       <c r="F34" s="7">
-        <v>0.51970738475121403</v>
+        <v>0.51969993065624409</v>
       </c>
       <c r="G34" s="7">
-        <v>0.48029261524878603</v>
+        <v>0.48030006934375591</v>
       </c>
       <c r="H34" s="8">
-        <v>12235</v>
+        <v>12308</v>
       </c>
       <c r="I34" s="9">
-        <v>0.174989783408255</v>
+        <v>0.17541436464088397</v>
       </c>
       <c r="J34" s="8">
-        <v>13172</v>
+        <v>13214</v>
       </c>
       <c r="K34" s="6">
-        <v>854</v>
+        <v>858</v>
       </c>
       <c r="L34" s="7">
-        <v>6.4834497418767081E-2</v>
+        <v>6.4931133646132885E-2</v>
       </c>
       <c r="M34" s="6">
         <v>119</v>
       </c>
       <c r="N34" s="10">
-        <v>7.4776925899999996E-3</v>
-      </c>
-    </row>
-    <row r="35" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>7.4748743699999997E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="17">
+        <v>2020</v>
+      </c>
       <c r="C35" s="17">
         <v>41</v>
       </c>
       <c r="D35" s="18">
-        <v>26158</v>
+        <v>26164</v>
       </c>
       <c r="E35" s="19">
         <v>39</v>
       </c>
       <c r="F35" s="20">
-        <v>0.51035224522721157</v>
+        <v>0.51031145589308347</v>
       </c>
       <c r="G35" s="20">
-        <v>0.48964775477278838</v>
+        <v>0.48968854410691653</v>
       </c>
       <c r="H35" s="18">
-        <v>19292</v>
+        <v>19329</v>
       </c>
       <c r="I35" s="21">
-        <v>0.16483516483516483</v>
+        <v>0.16514046251746081</v>
       </c>
       <c r="J35" s="18">
-        <v>20930</v>
+        <v>20955</v>
       </c>
       <c r="K35" s="19">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="L35" s="20">
-        <v>7.2718585762064025E-2</v>
+        <v>7.2679551419708902E-2</v>
       </c>
       <c r="M35" s="19">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="N35" s="22">
-        <v>8.7162627100000004E-3</v>
-      </c>
-    </row>
-    <row r="36" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>8.7907047800000002E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="5">
+        <v>2020</v>
+      </c>
       <c r="C36" s="5">
         <v>42</v>
       </c>
       <c r="D36" s="8">
-        <v>42068</v>
+        <v>42069</v>
       </c>
       <c r="E36" s="6">
         <v>39</v>
       </c>
       <c r="F36" s="7">
-        <v>0.5085650031101967</v>
+        <v>0.50852891217493246</v>
       </c>
       <c r="G36" s="7">
-        <v>0.49143499688980335</v>
+        <v>0.4914710878250676</v>
       </c>
       <c r="H36" s="8">
-        <v>29335</v>
+        <v>29373</v>
       </c>
       <c r="I36" s="9">
-        <v>0.15844554286688256</v>
+        <v>0.15844483028631737</v>
       </c>
       <c r="J36" s="8">
-        <v>32432</v>
+        <v>32448</v>
       </c>
       <c r="K36" s="6">
-        <v>2223</v>
+        <v>2224</v>
       </c>
       <c r="L36" s="7">
-        <v>6.8543413912185491E-2</v>
+        <v>6.8540433925049313E-2</v>
       </c>
       <c r="M36" s="6">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="N36" s="10">
-        <v>1.0364172289999999E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1.03876964E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="17">
+        <v>2020</v>
+      </c>
       <c r="C37" s="17">
         <v>43</v>
       </c>
       <c r="D37" s="12">
-        <v>74826</v>
+        <v>74835</v>
       </c>
       <c r="E37" s="13">
         <v>40</v>
       </c>
       <c r="F37" s="14">
-        <v>0.50192987882781714</v>
+        <v>0.50186233511274858</v>
       </c>
       <c r="G37" s="14">
-        <v>0.49807012117218286</v>
+        <v>0.49813766488725142</v>
       </c>
       <c r="H37" s="12">
-        <v>47816</v>
+        <v>48165</v>
       </c>
       <c r="I37" s="15">
-        <v>0.15365149740672579</v>
+        <v>0.15357624831309041</v>
       </c>
       <c r="J37" s="12">
-        <v>54399</v>
+        <v>54686</v>
       </c>
       <c r="K37" s="13">
-        <v>3832</v>
+        <v>3857</v>
       </c>
       <c r="L37" s="14">
-        <v>7.0442471368958995E-2</v>
+        <v>7.0529934535347255E-2</v>
       </c>
       <c r="M37" s="13">
-        <v>917</v>
+        <v>924</v>
       </c>
       <c r="N37" s="16">
-        <v>1.225509849E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1.234716376E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="5">
+        <v>2020</v>
+      </c>
       <c r="C38" s="5">
         <v>44</v>
       </c>
       <c r="D38" s="8">
-        <v>111161</v>
+        <v>111149</v>
       </c>
       <c r="E38" s="6">
         <v>41</v>
       </c>
       <c r="F38" s="7">
-        <v>0.49724328049620953</v>
+        <v>0.49723401168063264</v>
       </c>
       <c r="G38" s="7">
-        <v>0.50275671950379053</v>
+        <v>0.50276598831936736</v>
       </c>
       <c r="H38" s="8">
-        <v>67643</v>
+        <v>68766</v>
       </c>
       <c r="I38" s="9">
-        <v>0.15499016897535592</v>
+        <v>0.15577465608003954</v>
       </c>
       <c r="J38" s="8">
-        <v>77867</v>
+        <v>78570</v>
       </c>
       <c r="K38" s="6">
-        <v>5444</v>
+        <v>5512</v>
       </c>
       <c r="L38" s="7">
-        <v>6.9914084271899518E-2</v>
+        <v>7.0154002800050907E-2</v>
       </c>
       <c r="M38" s="6">
-        <v>1455</v>
+        <v>1467</v>
       </c>
       <c r="N38" s="10">
-        <v>1.3089122979999999E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1.319849931E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="17">
+        <v>2020</v>
+      </c>
       <c r="C39" s="17">
         <v>45</v>
       </c>
       <c r="D39" s="18">
-        <v>125775</v>
+        <v>125794</v>
       </c>
       <c r="E39" s="19">
         <v>41</v>
       </c>
       <c r="F39" s="20">
-        <v>0.49124342554302003</v>
+        <v>0.49130567419158022</v>
       </c>
       <c r="G39" s="20">
-        <v>0.50875657445697997</v>
+        <v>0.50869432580841978</v>
       </c>
       <c r="H39" s="18">
-        <v>73811</v>
+        <v>74342</v>
       </c>
       <c r="I39" s="21">
-        <v>0.14871767080787415</v>
+        <v>0.14883914879879476</v>
       </c>
       <c r="J39" s="18">
-        <v>84191</v>
+        <v>84517</v>
       </c>
       <c r="K39" s="19">
-        <v>6121</v>
+        <v>6163</v>
       </c>
       <c r="L39" s="20">
-        <v>7.2703733178130683E-2</v>
+        <v>7.2920240898280822E-2</v>
       </c>
       <c r="M39" s="19">
-        <v>1659</v>
+        <v>1684</v>
       </c>
       <c r="N39" s="22">
-        <v>1.3190220630000001E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1.3386965989999999E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="5">
+        <v>2020</v>
+      </c>
       <c r="C40" s="5">
         <v>46</v>
       </c>
       <c r="D40" s="8">
-        <v>127842</v>
+        <v>127875</v>
       </c>
       <c r="E40" s="6">
         <v>42</v>
       </c>
       <c r="F40" s="7">
-        <v>0.48466369273601617</v>
+        <v>0.48459281867997184</v>
       </c>
       <c r="G40" s="7">
-        <v>0.51533630726398383</v>
+        <v>0.51540718132002816</v>
       </c>
       <c r="H40" s="8">
-        <v>74502</v>
+        <v>74878</v>
       </c>
       <c r="I40" s="9">
-        <v>0.14669404848191994</v>
+        <v>0.14671866235743475</v>
       </c>
       <c r="J40" s="8">
-        <v>85313</v>
+        <v>85689</v>
       </c>
       <c r="K40" s="6">
-        <v>6648</v>
+        <v>6690</v>
       </c>
       <c r="L40" s="7">
-        <v>7.7924818023044559E-2</v>
+        <v>7.8073031544305574E-2</v>
       </c>
       <c r="M40" s="6">
-        <v>2164</v>
+        <v>2197</v>
       </c>
       <c r="N40" s="10">
-        <v>1.692714444E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1.7180840659999998E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="17">
+        <v>2020</v>
+      </c>
       <c r="C41" s="17">
         <v>47</v>
       </c>
       <c r="D41" s="18">
-        <v>128532</v>
+        <v>128528</v>
       </c>
       <c r="E41" s="19">
         <v>43</v>
       </c>
       <c r="F41" s="20">
-        <v>0.47459462853375611</v>
+        <v>0.47457108324046021</v>
       </c>
       <c r="G41" s="20">
-        <v>0.52540537146624389</v>
+        <v>0.52542891675953973</v>
       </c>
       <c r="H41" s="18">
-        <v>75458</v>
+        <v>75998</v>
       </c>
       <c r="I41" s="21">
-        <v>0.1472607278220997</v>
+        <v>0.14699071028184951</v>
       </c>
       <c r="J41" s="18">
-        <v>84886</v>
+        <v>85457</v>
       </c>
       <c r="K41" s="19">
-        <v>7088</v>
+        <v>7158</v>
       </c>
       <c r="L41" s="20">
-        <v>8.3500223829606771E-2</v>
+        <v>8.3761423873995114E-2</v>
       </c>
       <c r="M41" s="19">
-        <v>2620</v>
+        <v>2729</v>
       </c>
       <c r="N41" s="22">
-        <v>2.0384028870000001E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2.1232727489999999E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="5">
+        <v>2020</v>
+      </c>
       <c r="C42" s="5">
         <v>48</v>
       </c>
       <c r="D42" s="8">
-        <v>123357</v>
+        <v>123370</v>
       </c>
       <c r="E42" s="6">
         <v>44</v>
       </c>
       <c r="F42" s="7">
-        <v>0.46568478963871401</v>
+        <v>0.46567953377205906</v>
       </c>
       <c r="G42" s="7">
-        <v>0.53431521036128604</v>
+        <v>0.53432046622794094</v>
       </c>
       <c r="H42" s="8">
-        <v>70830</v>
+        <v>71397</v>
       </c>
       <c r="I42" s="9">
-        <v>0.1540590145418608</v>
+        <v>0.1535078504699077</v>
       </c>
       <c r="J42" s="8">
-        <v>80434</v>
+        <v>81099</v>
       </c>
       <c r="K42" s="6">
-        <v>7181</v>
+        <v>7266</v>
       </c>
       <c r="L42" s="7">
-        <v>8.9278165949722751E-2</v>
+        <v>8.959419968187031E-2</v>
       </c>
       <c r="M42" s="6">
-        <v>2728</v>
+        <v>2845</v>
       </c>
       <c r="N42" s="10">
-        <v>2.211467529E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2.3060711679999998E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="17">
+        <v>2020</v>
+      </c>
       <c r="C43" s="17">
         <v>49</v>
       </c>
       <c r="D43" s="18">
-        <v>128304</v>
+        <v>128337</v>
       </c>
       <c r="E43" s="19">
         <v>45</v>
       </c>
       <c r="F43" s="20">
-        <v>0.45960529524199067</v>
+        <v>0.45946243492757499</v>
       </c>
       <c r="G43" s="20">
-        <v>0.54039470475800933</v>
+        <v>0.54053756507242501</v>
       </c>
       <c r="H43" s="18">
-        <v>73303</v>
+        <v>74347</v>
       </c>
       <c r="I43" s="21">
-        <v>0.14385495818725019</v>
+        <v>0.14371797113535179</v>
       </c>
       <c r="J43" s="18">
-        <v>82678</v>
+        <v>83590</v>
       </c>
       <c r="K43" s="19">
-        <v>7620</v>
+        <v>7774</v>
       </c>
       <c r="L43" s="20">
-        <v>9.2164783860277225E-2</v>
+        <v>9.3001555209953346E-2</v>
       </c>
       <c r="M43" s="19">
-        <v>2956</v>
+        <v>3252</v>
       </c>
       <c r="N43" s="22">
-        <v>2.3039032290000001E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2.5339535749999999E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="5">
+        <v>2020</v>
+      </c>
       <c r="C44" s="5">
         <v>50</v>
       </c>
       <c r="D44" s="8">
-        <v>155956</v>
+        <v>156115</v>
       </c>
       <c r="E44" s="6">
         <v>46</v>
       </c>
       <c r="F44" s="7">
-        <v>0.45375073604110183</v>
+        <v>0.45373931140569151</v>
       </c>
       <c r="G44" s="7">
-        <v>0.54624926395889817</v>
+        <v>0.54626068859430843</v>
       </c>
       <c r="H44" s="8">
-        <v>86334</v>
+        <v>88394</v>
       </c>
       <c r="I44" s="9">
-        <v>0.14894479579308267</v>
+        <v>0.14822273004955089</v>
       </c>
       <c r="J44" s="8">
-        <v>97363</v>
+        <v>99388</v>
       </c>
       <c r="K44" s="6">
-        <v>8883</v>
+        <v>9283</v>
       </c>
       <c r="L44" s="7">
-        <v>9.1235890430656413E-2</v>
+        <v>9.3401617901557529E-2</v>
       </c>
       <c r="M44" s="6">
-        <v>3064</v>
+        <v>3770</v>
       </c>
       <c r="N44" s="10">
-        <v>1.9646566979999999E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2.4148864610000001E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="17">
+        <v>2020</v>
+      </c>
       <c r="C45" s="17">
         <v>51</v>
       </c>
       <c r="D45" s="18">
-        <v>173481</v>
+        <v>174066</v>
       </c>
       <c r="E45" s="19">
         <v>46</v>
       </c>
       <c r="F45" s="20">
-        <v>0.45225701007962499</v>
+        <v>0.45204399782097199</v>
       </c>
       <c r="G45" s="20">
-        <v>0.54774298992037507</v>
+        <v>0.54795600217902807</v>
       </c>
       <c r="H45" s="18">
-        <v>89081</v>
+        <v>92973</v>
       </c>
       <c r="I45" s="21">
-        <v>0.14788787732513106</v>
+        <v>0.14763425940864552</v>
       </c>
       <c r="J45" s="18">
-        <v>101764</v>
+        <v>105501</v>
       </c>
       <c r="K45" s="19">
-        <v>8899</v>
+        <v>9792</v>
       </c>
       <c r="L45" s="20">
-        <v>8.7447427380999171E-2</v>
+        <v>9.2814286120510708E-2</v>
       </c>
       <c r="M45" s="19">
-        <v>2118</v>
+        <v>3367</v>
       </c>
       <c r="N45" s="22">
-        <v>1.220882978E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1.9343237619999998E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="5">
+        <v>2020</v>
+      </c>
       <c r="C46" s="5">
         <v>52</v>
       </c>
       <c r="D46" s="8">
-        <v>135974</v>
+        <v>138246</v>
       </c>
       <c r="E46" s="6">
         <v>48</v>
       </c>
       <c r="F46" s="7">
-        <v>0.44564085784824059</v>
+        <v>0.44503443792773512</v>
       </c>
       <c r="G46" s="7">
-        <v>0.55435914215175941</v>
+        <v>0.55496556207226488</v>
       </c>
       <c r="H46" s="8">
-        <v>56966</v>
+        <v>68033</v>
       </c>
       <c r="I46" s="9">
-        <v>0.16200891759997191</v>
+        <v>0.15630649831699323</v>
       </c>
       <c r="J46" s="8">
-        <v>71416</v>
+        <v>80723</v>
       </c>
       <c r="K46" s="6">
-        <v>5983</v>
+        <v>7682</v>
       </c>
       <c r="L46" s="7">
-        <v>8.3776744707068446E-2</v>
+        <v>9.5164946793355049E-2</v>
       </c>
       <c r="M46" s="6">
-        <v>732</v>
+        <v>1895</v>
       </c>
       <c r="N46" s="10">
-        <v>5.3833821100000004E-3</v>
+        <v>1.370744904E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="17">
+        <v>2020</v>
+      </c>
+      <c r="C47" s="17">
+        <v>53</v>
+      </c>
+      <c r="D47" s="18">
+        <v>120472</v>
+      </c>
+      <c r="E47" s="19">
+        <v>49</v>
+      </c>
+      <c r="F47" s="20">
+        <v>0.44145135151021503</v>
+      </c>
+      <c r="G47" s="20">
+        <v>0.55854864848978492</v>
+      </c>
+      <c r="H47" s="18">
+        <v>53848</v>
+      </c>
+      <c r="I47" s="21">
+        <v>0.13584534244540186</v>
+      </c>
+      <c r="J47" s="18">
+        <v>66197</v>
+      </c>
+      <c r="K47" s="19">
+        <v>6128</v>
+      </c>
+      <c r="L47" s="20">
+        <v>9.2572170944302618E-2</v>
+      </c>
+      <c r="M47" s="19">
+        <v>837</v>
+      </c>
+      <c r="N47" s="22">
+        <v>6.94767248E-3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/klinische_aspekte.xlsx
+++ b/data/klinische_aspekte.xlsx
@@ -2,13 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20368"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Wissdaten\RKI_nCoV-Lage\3.Kommunikation\3.7.Lageberichte\2021-01-05\Dienstagstabellen für Webmaster\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF18C822-CAF0-420F-B7F2-BCDD0010CCFA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B97BDD7-A8B3-4D0B-9CFB-5677BBBDBED2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" activeTab="1" xr2:uid="{E7020DAF-D42D-4B3D-9581-E23C135CB659}"/>
   </bookViews>
@@ -70,7 +65,7 @@
     <t>MW</t>
   </si>
   <si>
-    <t>Die Tabelle zeigt die dem RKI übermittelten COVID-19-Fälle nach Meldewoche und nach Geschlecht sowie Anteile mit für COVID-19 relevanten Symptomen, Anteile Hospitalisierter und Verstorbener für die Meldewochen KW 10 – 53. Eine grafische Darstellung der Daten befindt sich im Lagebericht unter dem Abschnitt "klinische Aspekte".</t>
+    <t>Die Tabelle zeigt die dem RKI übermittelten COVID-19-Fälle nach Meldewoche und nach Geschlecht sowie Anteile mit für COVID-19 relevanten Symptomen, Anteile Hospitalisierter und Verstorbener für die Meldewochen KW 10 – 53, 2020 und KW 01, 2021. Eine grafische Darstellung der Daten befindt sich im Lagebericht unter dem Abschnitt "klinische Aspekte".</t>
   </si>
 </sst>
 </file>
@@ -116,7 +111,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -138,6 +133,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD3DFEE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -163,7 +164,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -230,6 +231,39 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -547,10 +581,10 @@
   <dimension ref="B4:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="2"/>
     <col min="2" max="2" width="99.7109375" style="2" customWidth="1"/>
@@ -576,10 +610,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92EDE9B5-504F-438C-AC14-C6D857721167}">
-  <dimension ref="A1:N47"/>
+  <dimension ref="A1:N48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48:XFD48"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="O36" sqref="O36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -631,44 +665,44 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="5">
-        <v>2020</v>
-      </c>
-      <c r="C4" s="5">
+      <c r="B4" s="24">
+        <v>2020</v>
+      </c>
+      <c r="C4" s="25">
         <v>10</v>
       </c>
       <c r="D4" s="6">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="E4" s="6">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F4" s="7">
-        <v>0.53527435610302354</v>
+        <v>0.53296089385474865</v>
       </c>
       <c r="G4" s="7">
-        <v>0.46472564389697646</v>
+        <v>0.4670391061452514</v>
       </c>
       <c r="H4" s="8">
-        <v>832</v>
+        <v>835</v>
       </c>
       <c r="I4" s="9">
-        <v>7.6923076923076927E-2</v>
+        <v>7.7844311377245512E-2</v>
       </c>
       <c r="J4" s="6">
-        <v>800</v>
-      </c>
-      <c r="K4" s="6">
+        <v>802</v>
+      </c>
+      <c r="K4" s="26">
         <v>162</v>
       </c>
       <c r="L4" s="7">
-        <v>0.20250000000000001</v>
-      </c>
-      <c r="M4" s="6">
+        <v>0.20199501246882792</v>
+      </c>
+      <c r="M4" s="26">
         <v>12</v>
       </c>
       <c r="N4" s="10">
-        <v>1.343784994E-2</v>
+        <v>1.3407821219999999E-2</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -679,37 +713,37 @@
         <v>11</v>
       </c>
       <c r="D5" s="12">
-        <v>6434</v>
+        <v>6435</v>
       </c>
       <c r="E5" s="13">
         <v>45</v>
       </c>
       <c r="F5" s="14">
-        <v>0.56312189054726369</v>
+        <v>0.56287890564277943</v>
       </c>
       <c r="G5" s="14">
-        <v>0.43687810945273631</v>
+        <v>0.43712109435722057</v>
       </c>
       <c r="H5" s="12">
         <v>5780</v>
       </c>
       <c r="I5" s="15">
-        <v>5.3114186851211075E-2</v>
+        <v>5.3287197231833908E-2</v>
       </c>
       <c r="J5" s="12">
-        <v>5614</v>
+        <v>5615</v>
       </c>
       <c r="K5" s="13">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="L5" s="14">
-        <v>9.2625578909868181E-2</v>
+        <v>9.2787177203918075E-2</v>
       </c>
       <c r="M5" s="13">
         <v>85</v>
       </c>
       <c r="N5" s="16">
-        <v>1.3211066210000001E-2</v>
+        <v>1.32090132E-2</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -720,16 +754,16 @@
         <v>12</v>
       </c>
       <c r="D6" s="8">
-        <v>22431</v>
+        <v>22432</v>
       </c>
       <c r="E6" s="6">
         <v>45</v>
       </c>
       <c r="F6" s="7">
-        <v>0.54978142564011068</v>
+        <v>0.54980150764976132</v>
       </c>
       <c r="G6" s="7">
-        <v>0.45021857435988938</v>
+        <v>0.45019849235023862</v>
       </c>
       <c r="H6" s="8">
         <v>20210</v>
@@ -738,19 +772,19 @@
         <v>3.8594755071746659E-2</v>
       </c>
       <c r="J6" s="8">
-        <v>19344</v>
+        <v>19346</v>
       </c>
       <c r="K6" s="8">
         <v>2204</v>
       </c>
       <c r="L6" s="7">
-        <v>0.11393713813068652</v>
+        <v>0.11392535924738964</v>
       </c>
       <c r="M6" s="6">
         <v>478</v>
       </c>
       <c r="N6" s="10">
-        <v>2.1309794480000002E-2</v>
+        <v>2.13088445E-2</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -767,25 +801,25 @@
         <v>48</v>
       </c>
       <c r="F7" s="14">
-        <v>0.49492691821309887</v>
+        <v>0.49495632738287798</v>
       </c>
       <c r="G7" s="14">
-        <v>0.50507308178690113</v>
+        <v>0.50504367261712202</v>
       </c>
       <c r="H7" s="12">
-        <v>30859</v>
+        <v>30866</v>
       </c>
       <c r="I7" s="15">
-        <v>3.2470267993130041E-2</v>
+        <v>3.2462904166396682E-2</v>
       </c>
       <c r="J7" s="12">
-        <v>29460</v>
+        <v>29470</v>
       </c>
       <c r="K7" s="12">
         <v>5110</v>
       </c>
       <c r="L7" s="14">
-        <v>0.17345553292600135</v>
+        <v>0.17339667458432304</v>
       </c>
       <c r="M7" s="12">
         <v>1459</v>
@@ -802,37 +836,37 @@
         <v>14</v>
       </c>
       <c r="D8" s="8">
-        <v>36094</v>
+        <v>36093</v>
       </c>
       <c r="E8" s="6">
         <v>51</v>
       </c>
       <c r="F8" s="7">
-        <v>0.45066711048237218</v>
+        <v>0.45073509015256585</v>
       </c>
       <c r="G8" s="7">
-        <v>0.54933288951762782</v>
+        <v>0.54926490984743415</v>
       </c>
       <c r="H8" s="8">
-        <v>31984</v>
+        <v>31986</v>
       </c>
       <c r="I8" s="9">
-        <v>5.3214107053526763E-2</v>
+        <v>5.3210779716125804E-2</v>
       </c>
       <c r="J8" s="8">
-        <v>31485</v>
+        <v>31488</v>
       </c>
       <c r="K8" s="8">
-        <v>6064</v>
+        <v>6063</v>
       </c>
       <c r="L8" s="7">
-        <v>0.19259965062728282</v>
+        <v>0.19254954268292682</v>
       </c>
       <c r="M8" s="8">
-        <v>2254</v>
+        <v>2256</v>
       </c>
       <c r="N8" s="10">
-        <v>6.2448052300000001E-2</v>
+        <v>6.2505194910000006E-2</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -849,25 +883,25 @@
         <v>52</v>
       </c>
       <c r="F9" s="14">
-        <v>0.43516232450160297</v>
+        <v>0.43523602461583816</v>
       </c>
       <c r="G9" s="14">
-        <v>0.56483767549839703</v>
+        <v>0.5647639753841619</v>
       </c>
       <c r="H9" s="12">
-        <v>23574</v>
+        <v>23576</v>
       </c>
       <c r="I9" s="15">
-        <v>8.3269703911088483E-2</v>
+        <v>8.3220223956566003E-2</v>
       </c>
       <c r="J9" s="12">
-        <v>24047</v>
+        <v>24050</v>
       </c>
       <c r="K9" s="12">
-        <v>4710</v>
+        <v>4704</v>
       </c>
       <c r="L9" s="14">
-        <v>0.19586642824468747</v>
+        <v>0.19559251559251559</v>
       </c>
       <c r="M9" s="12">
         <v>1870</v>
@@ -884,37 +918,37 @@
         <v>16</v>
       </c>
       <c r="D10" s="8">
-        <v>17362</v>
+        <v>17368</v>
       </c>
       <c r="E10" s="6">
         <v>51</v>
       </c>
       <c r="F10" s="7">
-        <v>0.44728342369362095</v>
+        <v>0.44712869003690037</v>
       </c>
       <c r="G10" s="7">
-        <v>0.55271657630637905</v>
+        <v>0.55287130996309963</v>
       </c>
       <c r="H10" s="8">
-        <v>14861</v>
+        <v>14865</v>
       </c>
       <c r="I10" s="9">
-        <v>0.11291299374200929</v>
+        <v>0.11288261015808947</v>
       </c>
       <c r="J10" s="8">
-        <v>15512</v>
+        <v>15515</v>
       </c>
       <c r="K10" s="8">
-        <v>3357</v>
+        <v>3358</v>
       </c>
       <c r="L10" s="7">
-        <v>0.21641309953584323</v>
+        <v>0.21643570737995488</v>
       </c>
       <c r="M10" s="8">
         <v>1212</v>
       </c>
       <c r="N10" s="10">
-        <v>6.9807625839999998E-2</v>
+        <v>6.9783509899999999E-2</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -925,37 +959,37 @@
         <v>17</v>
       </c>
       <c r="D11" s="12">
-        <v>12382</v>
+        <v>12381</v>
       </c>
       <c r="E11" s="13">
         <v>50</v>
       </c>
       <c r="F11" s="14">
-        <v>0.44967637540453076</v>
+        <v>0.44971275993203336</v>
       </c>
       <c r="G11" s="14">
-        <v>0.55032362459546924</v>
+        <v>0.5502872400679667</v>
       </c>
       <c r="H11" s="12">
-        <v>10282</v>
+        <v>10283</v>
       </c>
       <c r="I11" s="15">
-        <v>0.13936977241781753</v>
+        <v>0.13935621900223671</v>
       </c>
       <c r="J11" s="12">
-        <v>10950</v>
+        <v>10953</v>
       </c>
       <c r="K11" s="12">
         <v>2225</v>
       </c>
       <c r="L11" s="14">
-        <v>0.20319634703196346</v>
+        <v>0.20314069204784077</v>
       </c>
       <c r="M11" s="13">
         <v>718</v>
       </c>
       <c r="N11" s="16">
-        <v>5.7987401059999999E-2</v>
+        <v>5.7992084639999997E-2</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -972,31 +1006,31 @@
         <v>48</v>
       </c>
       <c r="F12" s="7">
-        <v>0.47808550685668189</v>
+        <v>0.47821995159989245</v>
       </c>
       <c r="G12" s="7">
-        <v>0.52191449314331806</v>
+        <v>0.52178004840010761</v>
       </c>
       <c r="H12" s="8">
-        <v>6244</v>
+        <v>6247</v>
       </c>
       <c r="I12" s="9">
-        <v>0.17664958360025623</v>
+        <v>0.17640467424363696</v>
       </c>
       <c r="J12" s="8">
-        <v>6594</v>
+        <v>6595</v>
       </c>
       <c r="K12" s="8">
-        <v>1358</v>
+        <v>1360</v>
       </c>
       <c r="L12" s="7">
-        <v>0.20594479830148621</v>
+        <v>0.20621683093252463</v>
       </c>
       <c r="M12" s="6">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="N12" s="10">
-        <v>5.118903667E-2</v>
+        <v>5.1323391099999997E-2</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1007,37 +1041,37 @@
         <v>19</v>
       </c>
       <c r="D13" s="12">
-        <v>6229</v>
+        <v>6230</v>
       </c>
       <c r="E13" s="13">
         <v>47</v>
       </c>
       <c r="F13" s="14">
-        <v>0.47991645244215936</v>
+        <v>0.47983935742971889</v>
       </c>
       <c r="G13" s="14">
-        <v>0.52008354755784059</v>
+        <v>0.52016064257028116</v>
       </c>
       <c r="H13" s="12">
-        <v>5232</v>
+        <v>5234</v>
       </c>
       <c r="I13" s="15">
-        <v>0.19667431192660551</v>
+        <v>0.19659915934275887</v>
       </c>
       <c r="J13" s="12">
-        <v>5614</v>
+        <v>5616</v>
       </c>
       <c r="K13" s="12">
         <v>1070</v>
       </c>
       <c r="L13" s="14">
-        <v>0.19059494121838261</v>
+        <v>0.19052706552706553</v>
       </c>
       <c r="M13" s="13">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N13" s="16">
-        <v>4.0616471340000002E-2</v>
+        <v>4.0770465479999997E-2</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1060,19 +1094,19 @@
         <v>0.50581764332557644</v>
       </c>
       <c r="H14" s="8">
-        <v>3935</v>
+        <v>3937</v>
       </c>
       <c r="I14" s="9">
-        <v>0.23278271918678525</v>
+        <v>0.23291846583693168</v>
       </c>
       <c r="J14" s="8">
-        <v>4205</v>
+        <v>4206</v>
       </c>
       <c r="K14" s="6">
         <v>734</v>
       </c>
       <c r="L14" s="7">
-        <v>0.17455410225921522</v>
+        <v>0.17451260104612459</v>
       </c>
       <c r="M14" s="6">
         <v>162</v>
@@ -1095,16 +1129,16 @@
         <v>43</v>
       </c>
       <c r="F15" s="14">
-        <v>0.50263669164585068</v>
+        <v>0.50235914515681379</v>
       </c>
       <c r="G15" s="14">
-        <v>0.49736330835414932</v>
+        <v>0.49764085484318621</v>
       </c>
       <c r="H15" s="12">
-        <v>2822</v>
+        <v>2825</v>
       </c>
       <c r="I15" s="15">
-        <v>0.26293408929836998</v>
+        <v>0.26265486725663717</v>
       </c>
       <c r="J15" s="12">
         <v>3111</v>
@@ -1116,10 +1150,10 @@
         <v>0.16329154612664737</v>
       </c>
       <c r="M15" s="13">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="N15" s="16">
-        <v>3.0127142060000001E-2</v>
+        <v>3.0679933659999999E-2</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1130,37 +1164,37 @@
         <v>22</v>
       </c>
       <c r="D16" s="8">
-        <v>3211</v>
+        <v>3212</v>
       </c>
       <c r="E16" s="6">
         <v>42</v>
       </c>
       <c r="F16" s="7">
-        <v>0.51453579243513603</v>
+        <v>0.51468749999999996</v>
       </c>
       <c r="G16" s="7">
-        <v>0.48546420756486403</v>
+        <v>0.48531249999999998</v>
       </c>
       <c r="H16" s="8">
-        <v>2542</v>
+        <v>2544</v>
       </c>
       <c r="I16" s="9">
-        <v>0.23328088119590873</v>
+        <v>0.23309748427672955</v>
       </c>
       <c r="J16" s="8">
-        <v>2767</v>
+        <v>2768</v>
       </c>
       <c r="K16" s="6">
         <v>416</v>
       </c>
       <c r="L16" s="7">
-        <v>0.15034333212865919</v>
+        <v>0.15028901734104047</v>
       </c>
       <c r="M16" s="6">
         <v>66</v>
       </c>
       <c r="N16" s="10">
-        <v>2.055434444E-2</v>
+        <v>2.0547945200000001E-2</v>
       </c>
     </row>
     <row r="17" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1171,37 +1205,37 @@
         <v>23</v>
       </c>
       <c r="D17" s="12">
-        <v>2360</v>
+        <v>2361</v>
       </c>
       <c r="E17" s="13">
         <v>39</v>
       </c>
       <c r="F17" s="14">
-        <v>0.50700636942675159</v>
+        <v>0.50721561969439732</v>
       </c>
       <c r="G17" s="14">
-        <v>0.49299363057324841</v>
+        <v>0.49278438030560273</v>
       </c>
       <c r="H17" s="12">
-        <v>1839</v>
+        <v>1841</v>
       </c>
       <c r="I17" s="15">
-        <v>0.23164763458401305</v>
+        <v>0.2313959804454101</v>
       </c>
       <c r="J17" s="12">
-        <v>2082</v>
+        <v>2084</v>
       </c>
       <c r="K17" s="13">
         <v>310</v>
       </c>
       <c r="L17" s="14">
-        <v>0.148895292987512</v>
+        <v>0.14875239923224567</v>
       </c>
       <c r="M17" s="13">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N17" s="16">
-        <v>1.9491525419999999E-2</v>
+        <v>1.9059720450000001E-2</v>
       </c>
     </row>
     <row r="18" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1224,10 +1258,10 @@
         <v>0.46358183376178236</v>
       </c>
       <c r="H18" s="8">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="I18" s="9">
-        <v>0.24467472654001152</v>
+        <v>0.24453394706559264</v>
       </c>
       <c r="J18" s="8">
         <v>2085</v>
@@ -1253,37 +1287,37 @@
         <v>25</v>
       </c>
       <c r="D19" s="12">
-        <v>4096</v>
+        <v>4140</v>
       </c>
       <c r="E19" s="13">
         <v>36</v>
       </c>
       <c r="F19" s="14">
-        <v>0.58698311720088081</v>
+        <v>0.58968772694262894</v>
       </c>
       <c r="G19" s="14">
-        <v>0.41301688279911913</v>
+        <v>0.41031227305737111</v>
       </c>
       <c r="H19" s="12">
         <v>2938</v>
       </c>
       <c r="I19" s="15">
-        <v>0.25017018379850237</v>
+        <v>0.25051055139550715</v>
       </c>
       <c r="J19" s="12">
-        <v>3740</v>
+        <v>3785</v>
       </c>
       <c r="K19" s="13">
         <v>317</v>
       </c>
       <c r="L19" s="14">
-        <v>8.4759358288770056E-2</v>
+        <v>8.3751651254953763E-2</v>
       </c>
       <c r="M19" s="13">
         <v>38</v>
       </c>
       <c r="N19" s="16">
-        <v>9.27734375E-3</v>
+        <v>9.1787439599999993E-3</v>
       </c>
     </row>
     <row r="20" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1294,37 +1328,37 @@
         <v>26</v>
       </c>
       <c r="D20" s="8">
-        <v>3207</v>
+        <v>3218</v>
       </c>
       <c r="E20" s="6">
         <v>37</v>
       </c>
       <c r="F20" s="7">
-        <v>0.55135810177958167</v>
+        <v>0.55102675793403855</v>
       </c>
       <c r="G20" s="7">
-        <v>0.44864189822041833</v>
+        <v>0.4489732420659614</v>
       </c>
       <c r="H20" s="8">
-        <v>2318</v>
+        <v>2321</v>
       </c>
       <c r="I20" s="9">
-        <v>0.23339085418464192</v>
+        <v>0.23308918569582077</v>
       </c>
       <c r="J20" s="8">
-        <v>2854</v>
+        <v>2865</v>
       </c>
       <c r="K20" s="6">
         <v>293</v>
       </c>
       <c r="L20" s="7">
-        <v>0.10266292922214436</v>
+        <v>0.10226876090750436</v>
       </c>
       <c r="M20" s="6">
         <v>23</v>
       </c>
       <c r="N20" s="10">
-        <v>7.1718116600000001E-3</v>
+        <v>7.14729645E-3</v>
       </c>
     </row>
     <row r="21" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1335,37 +1369,37 @@
         <v>27</v>
       </c>
       <c r="D21" s="12">
-        <v>2695</v>
+        <v>2696</v>
       </c>
       <c r="E21" s="13">
         <v>36</v>
       </c>
       <c r="F21" s="14">
-        <v>0.52227171492204905</v>
+        <v>0.52244897959183678</v>
       </c>
       <c r="G21" s="14">
-        <v>0.47772828507795101</v>
+        <v>0.47755102040816327</v>
       </c>
       <c r="H21" s="12">
-        <v>2062</v>
+        <v>2063</v>
       </c>
       <c r="I21" s="15">
-        <v>0.26867119301648884</v>
+        <v>0.2690256907416384</v>
       </c>
       <c r="J21" s="12">
-        <v>2468</v>
+        <v>2470</v>
       </c>
       <c r="K21" s="13">
         <v>258</v>
       </c>
       <c r="L21" s="14">
-        <v>0.10453808752025932</v>
+        <v>0.10445344129554655</v>
       </c>
       <c r="M21" s="13">
         <v>26</v>
       </c>
       <c r="N21" s="16">
-        <v>9.6474953599999993E-3</v>
+        <v>9.6439169099999996E-3</v>
       </c>
     </row>
     <row r="22" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1376,37 +1410,37 @@
         <v>28</v>
       </c>
       <c r="D22" s="8">
-        <v>2426</v>
+        <v>2428</v>
       </c>
       <c r="E22" s="6">
         <v>36</v>
       </c>
       <c r="F22" s="7">
-        <v>0.5596860801321768</v>
+        <v>0.55963681386710684</v>
       </c>
       <c r="G22" s="7">
-        <v>0.4403139198678232</v>
+        <v>0.4403631861328931</v>
       </c>
       <c r="H22" s="8">
-        <v>1923</v>
+        <v>1925</v>
       </c>
       <c r="I22" s="9">
-        <v>0.24024960998439937</v>
+        <v>0.24051948051948052</v>
       </c>
       <c r="J22" s="8">
-        <v>2191</v>
+        <v>2192</v>
       </c>
       <c r="K22" s="6">
         <v>252</v>
       </c>
       <c r="L22" s="7">
-        <v>0.11501597444089456</v>
+        <v>0.11496350364963503</v>
       </c>
       <c r="M22" s="6">
         <v>25</v>
       </c>
       <c r="N22" s="10">
-        <v>1.030502885E-2</v>
+        <v>1.029654036E-2</v>
       </c>
     </row>
     <row r="23" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1464,25 +1498,25 @@
         <v>36</v>
       </c>
       <c r="F24" s="7">
-        <v>0.52339776195320442</v>
+        <v>0.52314343845371314</v>
       </c>
       <c r="G24" s="7">
-        <v>0.47660223804679552</v>
+        <v>0.47685656154628686</v>
       </c>
       <c r="H24" s="8">
-        <v>3178</v>
+        <v>3181</v>
       </c>
       <c r="I24" s="9">
-        <v>0.27029578351164252</v>
+        <v>0.27066960075447971</v>
       </c>
       <c r="J24" s="8">
-        <v>3460</v>
+        <v>3461</v>
       </c>
       <c r="K24" s="6">
         <v>332</v>
       </c>
       <c r="L24" s="7">
-        <v>9.595375722543352E-2</v>
+        <v>9.5926032938457098E-2</v>
       </c>
       <c r="M24" s="6">
         <v>33</v>
@@ -1505,16 +1539,16 @@
         <v>36</v>
       </c>
       <c r="F25" s="14">
-        <v>0.50311850311850315</v>
+        <v>0.50301392641862397</v>
       </c>
       <c r="G25" s="14">
-        <v>0.49688149688149691</v>
+        <v>0.49698607358137603</v>
       </c>
       <c r="H25" s="12">
-        <v>3688</v>
+        <v>3698</v>
       </c>
       <c r="I25" s="15">
-        <v>0.2440347071583514</v>
+        <v>0.24553812871822606</v>
       </c>
       <c r="J25" s="12">
         <v>4129</v>
@@ -1540,37 +1574,37 @@
         <v>32</v>
       </c>
       <c r="D26" s="8">
-        <v>6063</v>
+        <v>6062</v>
       </c>
       <c r="E26" s="6">
         <v>34</v>
       </c>
       <c r="F26" s="7">
-        <v>0.53669421487603308</v>
+        <v>0.53661762274756153</v>
       </c>
       <c r="G26" s="7">
-        <v>0.46330578512396692</v>
+        <v>0.46338237725243842</v>
       </c>
       <c r="H26" s="8">
-        <v>4533</v>
+        <v>4544</v>
       </c>
       <c r="I26" s="9">
-        <v>0.29958085153320096</v>
+        <v>0.30039612676056338</v>
       </c>
       <c r="J26" s="8">
-        <v>5265</v>
+        <v>5267</v>
       </c>
       <c r="K26" s="6">
         <v>398</v>
       </c>
       <c r="L26" s="7">
-        <v>7.5593542260208924E-2</v>
+        <v>7.5564837668502E-2</v>
       </c>
       <c r="M26" s="6">
         <v>30</v>
       </c>
       <c r="N26" s="10">
-        <v>4.9480455200000004E-3</v>
+        <v>4.9488617600000001E-3</v>
       </c>
     </row>
     <row r="27" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1587,25 +1621,25 @@
         <v>32</v>
       </c>
       <c r="F27" s="14">
-        <v>0.53324937027707808</v>
+        <v>0.53319057815845827</v>
       </c>
       <c r="G27" s="14">
-        <v>0.46675062972292192</v>
+        <v>0.46680942184154178</v>
       </c>
       <c r="H27" s="12">
-        <v>5812</v>
+        <v>5819</v>
       </c>
       <c r="I27" s="15">
-        <v>0.33189951823812802</v>
+        <v>0.33201581027667987</v>
       </c>
       <c r="J27" s="12">
-        <v>6966</v>
+        <v>6970</v>
       </c>
       <c r="K27" s="13">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="L27" s="14">
-        <v>6.1441286247487799E-2</v>
+        <v>6.1549497847919653E-2</v>
       </c>
       <c r="M27" s="13">
         <v>30</v>
@@ -1634,19 +1668,19 @@
         <v>0.45231607629427795</v>
       </c>
       <c r="H28" s="8">
-        <v>7165</v>
+        <v>7167</v>
       </c>
       <c r="I28" s="9">
-        <v>0.34445219818562456</v>
+        <v>0.34449560485558811</v>
       </c>
       <c r="J28" s="8">
-        <v>8238</v>
+        <v>8240</v>
       </c>
       <c r="K28" s="6">
         <v>429</v>
       </c>
       <c r="L28" s="7">
-        <v>5.2075746540422435E-2</v>
+        <v>5.2063106796116504E-2</v>
       </c>
       <c r="M28" s="6">
         <v>30</v>
@@ -1663,37 +1697,37 @@
         <v>35</v>
       </c>
       <c r="D29" s="12">
-        <v>8821</v>
+        <v>8822</v>
       </c>
       <c r="E29" s="13">
         <v>32</v>
       </c>
       <c r="F29" s="14">
-        <v>0.53019751113140767</v>
+        <v>0.53025114155251141</v>
       </c>
       <c r="G29" s="14">
-        <v>0.46980248886859233</v>
+        <v>0.46974885844748859</v>
       </c>
       <c r="H29" s="12">
-        <v>6834</v>
+        <v>6840</v>
       </c>
       <c r="I29" s="15">
-        <v>0.307140766754463</v>
+        <v>0.30716374269005847</v>
       </c>
       <c r="J29" s="12">
-        <v>7344</v>
+        <v>7355</v>
       </c>
       <c r="K29" s="13">
         <v>364</v>
       </c>
       <c r="L29" s="14">
-        <v>4.9564270152505446E-2</v>
+        <v>4.9490142760027195E-2</v>
       </c>
       <c r="M29" s="13">
         <v>20</v>
       </c>
       <c r="N29" s="16">
-        <v>2.2673166300000002E-3</v>
+        <v>2.2670596200000002E-3</v>
       </c>
     </row>
     <row r="30" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1704,37 +1738,37 @@
         <v>36</v>
       </c>
       <c r="D30" s="8">
-        <v>8619</v>
+        <v>8621</v>
       </c>
       <c r="E30" s="6">
         <v>33</v>
       </c>
       <c r="F30" s="7">
-        <v>0.53651423238450768</v>
+        <v>0.53650571495218102</v>
       </c>
       <c r="G30" s="7">
-        <v>0.46348576761549232</v>
+        <v>0.46349428504781898</v>
       </c>
       <c r="H30" s="8">
-        <v>6601</v>
+        <v>6608</v>
       </c>
       <c r="I30" s="9">
-        <v>0.26844417512498109</v>
+        <v>0.26831113801452783</v>
       </c>
       <c r="J30" s="8">
-        <v>7007</v>
+        <v>7012</v>
       </c>
       <c r="K30" s="6">
         <v>395</v>
       </c>
       <c r="L30" s="7">
-        <v>5.6372199229342085E-2</v>
+        <v>5.6332002281802622E-2</v>
       </c>
       <c r="M30" s="6">
         <v>36</v>
       </c>
       <c r="N30" s="10">
-        <v>4.1768186499999997E-3</v>
+        <v>4.1758496599999997E-3</v>
       </c>
     </row>
     <row r="31" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1745,37 +1779,37 @@
         <v>37</v>
       </c>
       <c r="D31" s="12">
-        <v>9767</v>
+        <v>9773</v>
       </c>
       <c r="E31" s="13">
         <v>35</v>
       </c>
       <c r="F31" s="14">
-        <v>0.51899907321594063</v>
+        <v>0.51878151692909336</v>
       </c>
       <c r="G31" s="14">
-        <v>0.48100092678405931</v>
+        <v>0.48121848307090664</v>
       </c>
       <c r="H31" s="12">
-        <v>7527</v>
+        <v>7536</v>
       </c>
       <c r="I31" s="15">
-        <v>0.20273681413577788</v>
+        <v>0.20249469214437368</v>
       </c>
       <c r="J31" s="12">
-        <v>7938</v>
+        <v>7944</v>
       </c>
       <c r="K31" s="13">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="L31" s="14">
-        <v>5.8327034517510708E-2</v>
+        <v>5.8157099697885198E-2</v>
       </c>
       <c r="M31" s="13">
         <v>62</v>
       </c>
       <c r="N31" s="16">
-        <v>6.3479062100000004E-3</v>
+        <v>6.3440090000000003E-3</v>
       </c>
     </row>
     <row r="32" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1798,19 +1832,19 @@
         <v>0.48841398509784656</v>
       </c>
       <c r="H32" s="8">
-        <v>9590</v>
+        <v>9630</v>
       </c>
       <c r="I32" s="9">
-        <v>0.18633993743482793</v>
+        <v>0.18566978193146416</v>
       </c>
       <c r="J32" s="8">
-        <v>9929</v>
+        <v>9963</v>
       </c>
       <c r="K32" s="6">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="L32" s="7">
-        <v>6.6471950851042405E-2</v>
+        <v>6.6546221017765736E-2</v>
       </c>
       <c r="M32" s="6">
         <v>78</v>
@@ -1833,25 +1867,25 @@
         <v>37</v>
       </c>
       <c r="F33" s="14">
-        <v>0.51623076923076927</v>
+        <v>0.51619106222598266</v>
       </c>
       <c r="G33" s="14">
-        <v>0.48376923076923078</v>
+        <v>0.4838089377740174</v>
       </c>
       <c r="H33" s="12">
-        <v>10216</v>
+        <v>10265</v>
       </c>
       <c r="I33" s="15">
-        <v>0.18382928739232576</v>
+        <v>0.18246468582562103</v>
       </c>
       <c r="J33" s="12">
-        <v>10686</v>
+        <v>10753</v>
       </c>
       <c r="K33" s="13">
-        <v>754</v>
+        <v>757</v>
       </c>
       <c r="L33" s="14">
-        <v>7.0559610705596104E-2</v>
+        <v>7.0398958430205522E-2</v>
       </c>
       <c r="M33" s="13">
         <v>106</v>
@@ -1868,37 +1902,37 @@
         <v>40</v>
       </c>
       <c r="D34" s="8">
-        <v>15920</v>
+        <v>15921</v>
       </c>
       <c r="E34" s="6">
         <v>38</v>
       </c>
       <c r="F34" s="7">
-        <v>0.51969993065624409</v>
+        <v>0.51960413514876447</v>
       </c>
       <c r="G34" s="7">
-        <v>0.48030006934375591</v>
+        <v>0.48039586485123548</v>
       </c>
       <c r="H34" s="8">
-        <v>12308</v>
+        <v>12355</v>
       </c>
       <c r="I34" s="9">
-        <v>0.17541436464088397</v>
+        <v>0.17474706596519626</v>
       </c>
       <c r="J34" s="8">
-        <v>13214</v>
+        <v>13249</v>
       </c>
       <c r="K34" s="6">
-        <v>858</v>
+        <v>862</v>
       </c>
       <c r="L34" s="7">
-        <v>6.4931133646132885E-2</v>
+        <v>6.5061514076534072E-2</v>
       </c>
       <c r="M34" s="6">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N34" s="10">
-        <v>7.4748743699999997E-3</v>
+        <v>7.5372149899999999E-3</v>
       </c>
     </row>
     <row r="35" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1909,37 +1943,37 @@
         <v>41</v>
       </c>
       <c r="D35" s="18">
-        <v>26164</v>
+        <v>26169</v>
       </c>
       <c r="E35" s="19">
         <v>39</v>
       </c>
       <c r="F35" s="20">
-        <v>0.51031145589308347</v>
+        <v>0.51034429816144011</v>
       </c>
       <c r="G35" s="20">
-        <v>0.48968854410691653</v>
+        <v>0.48965570183855983</v>
       </c>
       <c r="H35" s="18">
-        <v>19329</v>
+        <v>19496</v>
       </c>
       <c r="I35" s="21">
-        <v>0.16514046251746081</v>
+        <v>0.1652133771029955</v>
       </c>
       <c r="J35" s="18">
-        <v>20955</v>
+        <v>21091</v>
       </c>
       <c r="K35" s="19">
-        <v>1523</v>
+        <v>1539</v>
       </c>
       <c r="L35" s="20">
-        <v>7.2679551419708902E-2</v>
+        <v>7.2969513062443703E-2</v>
       </c>
       <c r="M35" s="19">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="N35" s="22">
-        <v>8.7907047800000002E-3</v>
+        <v>8.8654514799999997E-3</v>
       </c>
     </row>
     <row r="36" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1950,37 +1984,37 @@
         <v>42</v>
       </c>
       <c r="D36" s="8">
-        <v>42069</v>
+        <v>42075</v>
       </c>
       <c r="E36" s="6">
         <v>39</v>
       </c>
       <c r="F36" s="7">
-        <v>0.50852891217493246</v>
+        <v>0.50850254717658028</v>
       </c>
       <c r="G36" s="7">
-        <v>0.4914710878250676</v>
+        <v>0.49149745282341967</v>
       </c>
       <c r="H36" s="8">
-        <v>29373</v>
+        <v>29632</v>
       </c>
       <c r="I36" s="9">
-        <v>0.15844483028631737</v>
+        <v>0.15854481641468682</v>
       </c>
       <c r="J36" s="8">
-        <v>32448</v>
+        <v>32695</v>
       </c>
       <c r="K36" s="6">
-        <v>2224</v>
+        <v>2235</v>
       </c>
       <c r="L36" s="7">
-        <v>6.8540433925049313E-2</v>
+        <v>6.8359076311362593E-2</v>
       </c>
       <c r="M36" s="6">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="N36" s="10">
-        <v>1.03876964E-2</v>
+        <v>1.0433749250000001E-2</v>
       </c>
     </row>
     <row r="37" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1991,37 +2025,37 @@
         <v>43</v>
       </c>
       <c r="D37" s="12">
-        <v>74835</v>
+        <v>74819</v>
       </c>
       <c r="E37" s="13">
         <v>40</v>
       </c>
       <c r="F37" s="14">
-        <v>0.50186233511274858</v>
+        <v>0.5018352447665273</v>
       </c>
       <c r="G37" s="14">
-        <v>0.49813766488725142</v>
+        <v>0.4981647552334727</v>
       </c>
       <c r="H37" s="12">
-        <v>48165</v>
+        <v>48777</v>
       </c>
       <c r="I37" s="15">
-        <v>0.15357624831309041</v>
+        <v>0.1543965393525637</v>
       </c>
       <c r="J37" s="12">
-        <v>54686</v>
+        <v>55254</v>
       </c>
       <c r="K37" s="13">
-        <v>3857</v>
+        <v>3887</v>
       </c>
       <c r="L37" s="14">
-        <v>7.0529934535347255E-2</v>
+        <v>7.0347848119593145E-2</v>
       </c>
       <c r="M37" s="13">
-        <v>924</v>
+        <v>935</v>
       </c>
       <c r="N37" s="16">
-        <v>1.234716376E-2</v>
+        <v>1.249682567E-2</v>
       </c>
     </row>
     <row r="38" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2032,37 +2066,37 @@
         <v>44</v>
       </c>
       <c r="D38" s="8">
-        <v>111149</v>
+        <v>111143</v>
       </c>
       <c r="E38" s="6">
         <v>41</v>
       </c>
       <c r="F38" s="7">
-        <v>0.49723401168063264</v>
+        <v>0.4971852818797422</v>
       </c>
       <c r="G38" s="7">
-        <v>0.50276598831936736</v>
+        <v>0.5028147181202578</v>
       </c>
       <c r="H38" s="8">
-        <v>68766</v>
+        <v>69289</v>
       </c>
       <c r="I38" s="9">
-        <v>0.15577465608003954</v>
+        <v>0.15656164759196986</v>
       </c>
       <c r="J38" s="8">
-        <v>78570</v>
+        <v>79183</v>
       </c>
       <c r="K38" s="6">
-        <v>5512</v>
+        <v>5548</v>
       </c>
       <c r="L38" s="7">
-        <v>7.0154002800050907E-2</v>
+        <v>7.0065544371898006E-2</v>
       </c>
       <c r="M38" s="6">
-        <v>1467</v>
+        <v>1484</v>
       </c>
       <c r="N38" s="10">
-        <v>1.319849931E-2</v>
+        <v>1.335216792E-2</v>
       </c>
     </row>
     <row r="39" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2073,37 +2107,37 @@
         <v>45</v>
       </c>
       <c r="D39" s="18">
-        <v>125794</v>
+        <v>125811</v>
       </c>
       <c r="E39" s="19">
         <v>41</v>
       </c>
       <c r="F39" s="20">
-        <v>0.49130567419158022</v>
+        <v>0.49134589923208394</v>
       </c>
       <c r="G39" s="20">
-        <v>0.50869432580841978</v>
+        <v>0.50865410076791606</v>
       </c>
       <c r="H39" s="18">
-        <v>74342</v>
+        <v>75787</v>
       </c>
       <c r="I39" s="21">
-        <v>0.14883914879879476</v>
+        <v>0.1492868170002771</v>
       </c>
       <c r="J39" s="18">
-        <v>84517</v>
+        <v>85841</v>
       </c>
       <c r="K39" s="19">
-        <v>6163</v>
+        <v>6253</v>
       </c>
       <c r="L39" s="20">
-        <v>7.2920240898280822E-2</v>
+        <v>7.2843978984401397E-2</v>
       </c>
       <c r="M39" s="19">
-        <v>1684</v>
+        <v>1720</v>
       </c>
       <c r="N39" s="22">
-        <v>1.3386965989999999E-2</v>
+        <v>1.36713006E-2</v>
       </c>
     </row>
     <row r="40" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2114,37 +2148,37 @@
         <v>46</v>
       </c>
       <c r="D40" s="8">
-        <v>127875</v>
+        <v>127891</v>
       </c>
       <c r="E40" s="6">
         <v>42</v>
       </c>
       <c r="F40" s="7">
-        <v>0.48459281867997184</v>
+        <v>0.48458017439700218</v>
       </c>
       <c r="G40" s="7">
-        <v>0.51540718132002816</v>
+        <v>0.51541982560299782</v>
       </c>
       <c r="H40" s="8">
-        <v>74878</v>
+        <v>75889</v>
       </c>
       <c r="I40" s="9">
-        <v>0.14671866235743475</v>
+        <v>0.14721501139822635</v>
       </c>
       <c r="J40" s="8">
-        <v>85689</v>
+        <v>86805</v>
       </c>
       <c r="K40" s="6">
-        <v>6690</v>
+        <v>6749</v>
       </c>
       <c r="L40" s="7">
-        <v>7.8073031544305574E-2</v>
+        <v>7.77489775934566E-2</v>
       </c>
       <c r="M40" s="6">
-        <v>2197</v>
+        <v>2263</v>
       </c>
       <c r="N40" s="10">
-        <v>1.7180840659999998E-2</v>
+        <v>1.7694755690000001E-2</v>
       </c>
     </row>
     <row r="41" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2161,31 +2195,31 @@
         <v>43</v>
       </c>
       <c r="F41" s="20">
-        <v>0.47457108324046021</v>
+        <v>0.47456337188318926</v>
       </c>
       <c r="G41" s="20">
-        <v>0.52542891675953973</v>
+        <v>0.5254366281168108</v>
       </c>
       <c r="H41" s="18">
-        <v>75998</v>
+        <v>76647</v>
       </c>
       <c r="I41" s="21">
-        <v>0.14699071028184951</v>
+        <v>0.1478074810494866</v>
       </c>
       <c r="J41" s="18">
-        <v>85457</v>
+        <v>86402</v>
       </c>
       <c r="K41" s="19">
-        <v>7158</v>
+        <v>7213</v>
       </c>
       <c r="L41" s="20">
-        <v>8.3761423873995114E-2</v>
+        <v>8.3481863845744311E-2</v>
       </c>
       <c r="M41" s="19">
-        <v>2729</v>
+        <v>2824</v>
       </c>
       <c r="N41" s="22">
-        <v>2.1232727489999999E-2</v>
+        <v>2.197186605E-2</v>
       </c>
     </row>
     <row r="42" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2196,37 +2230,37 @@
         <v>48</v>
       </c>
       <c r="D42" s="8">
-        <v>123370</v>
+        <v>123359</v>
       </c>
       <c r="E42" s="6">
         <v>44</v>
       </c>
       <c r="F42" s="7">
-        <v>0.46567953377205906</v>
+        <v>0.46567752917491856</v>
       </c>
       <c r="G42" s="7">
-        <v>0.53432046622794094</v>
+        <v>0.53432247082508144</v>
       </c>
       <c r="H42" s="8">
-        <v>71397</v>
+        <v>72144</v>
       </c>
       <c r="I42" s="9">
-        <v>0.1535078504699077</v>
+        <v>0.15372033710357064</v>
       </c>
       <c r="J42" s="8">
-        <v>81099</v>
+        <v>82010</v>
       </c>
       <c r="K42" s="6">
-        <v>7266</v>
+        <v>7385</v>
       </c>
       <c r="L42" s="7">
-        <v>8.959419968187031E-2</v>
+        <v>9.0049993903182537E-2</v>
       </c>
       <c r="M42" s="6">
-        <v>2845</v>
+        <v>3017</v>
       </c>
       <c r="N42" s="10">
-        <v>2.3060711679999998E-2</v>
+        <v>2.4457072440000002E-2</v>
       </c>
     </row>
     <row r="43" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2237,37 +2271,37 @@
         <v>49</v>
       </c>
       <c r="D43" s="18">
-        <v>128337</v>
+        <v>128327</v>
       </c>
       <c r="E43" s="19">
         <v>45</v>
       </c>
       <c r="F43" s="20">
-        <v>0.45946243492757499</v>
+        <v>0.45950430119364022</v>
       </c>
       <c r="G43" s="20">
-        <v>0.54053756507242501</v>
+        <v>0.54049569880635984</v>
       </c>
       <c r="H43" s="18">
-        <v>74347</v>
+        <v>75412</v>
       </c>
       <c r="I43" s="21">
-        <v>0.14371797113535179</v>
+        <v>0.14359783588818756</v>
       </c>
       <c r="J43" s="18">
-        <v>83590</v>
+        <v>84793</v>
       </c>
       <c r="K43" s="19">
-        <v>7774</v>
+        <v>7985</v>
       </c>
       <c r="L43" s="20">
-        <v>9.3001555209953346E-2</v>
+        <v>9.4170509358083798E-2</v>
       </c>
       <c r="M43" s="19">
-        <v>3252</v>
+        <v>3575</v>
       </c>
       <c r="N43" s="22">
-        <v>2.5339535749999999E-2</v>
+        <v>2.7858517690000001E-2</v>
       </c>
     </row>
     <row r="44" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2278,37 +2312,37 @@
         <v>50</v>
       </c>
       <c r="D44" s="8">
-        <v>156115</v>
+        <v>156158</v>
       </c>
       <c r="E44" s="6">
         <v>46</v>
       </c>
       <c r="F44" s="7">
-        <v>0.45373931140569151</v>
+        <v>0.45385773258480683</v>
       </c>
       <c r="G44" s="7">
-        <v>0.54626068859430843</v>
+        <v>0.54614226741519323</v>
       </c>
       <c r="H44" s="8">
-        <v>88394</v>
+        <v>91419</v>
       </c>
       <c r="I44" s="9">
-        <v>0.14822273004955089</v>
+        <v>0.14822958028418601</v>
       </c>
       <c r="J44" s="8">
-        <v>99388</v>
+        <v>101657</v>
       </c>
       <c r="K44" s="6">
-        <v>9283</v>
+        <v>9643</v>
       </c>
       <c r="L44" s="7">
-        <v>9.3401617901557529E-2</v>
+        <v>9.4858199632096171E-2</v>
       </c>
       <c r="M44" s="6">
-        <v>3770</v>
+        <v>4369</v>
       </c>
       <c r="N44" s="10">
-        <v>2.4148864610000001E-2</v>
+        <v>2.7978073480000001E-2</v>
       </c>
     </row>
     <row r="45" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2319,37 +2353,37 @@
         <v>51</v>
       </c>
       <c r="D45" s="18">
-        <v>174066</v>
+        <v>174316</v>
       </c>
       <c r="E45" s="19">
         <v>46</v>
       </c>
       <c r="F45" s="20">
-        <v>0.45204399782097199</v>
+        <v>0.45203180518743996</v>
       </c>
       <c r="G45" s="20">
-        <v>0.54795600217902807</v>
+        <v>0.54796819481256009</v>
       </c>
       <c r="H45" s="18">
-        <v>92973</v>
+        <v>97711</v>
       </c>
       <c r="I45" s="21">
-        <v>0.14763425940864552</v>
+        <v>0.14823305462025771</v>
       </c>
       <c r="J45" s="18">
-        <v>105501</v>
+        <v>109786</v>
       </c>
       <c r="K45" s="19">
-        <v>9792</v>
+        <v>10430</v>
       </c>
       <c r="L45" s="20">
-        <v>9.2814286120510708E-2</v>
+        <v>9.5003005847740143E-2</v>
       </c>
       <c r="M45" s="19">
-        <v>3367</v>
+        <v>4427</v>
       </c>
       <c r="N45" s="22">
-        <v>1.9343237619999998E-2</v>
+        <v>2.5396406520000001E-2</v>
       </c>
     </row>
     <row r="46" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2360,81 +2394,123 @@
         <v>52</v>
       </c>
       <c r="D46" s="8">
-        <v>138246</v>
+        <v>138538</v>
       </c>
       <c r="E46" s="6">
         <v>48</v>
       </c>
       <c r="F46" s="7">
-        <v>0.44503443792773512</v>
+        <v>0.44519485061088893</v>
       </c>
       <c r="G46" s="7">
-        <v>0.55496556207226488</v>
+        <v>0.55480514938911107</v>
       </c>
       <c r="H46" s="8">
-        <v>68033</v>
+        <v>73397</v>
       </c>
       <c r="I46" s="9">
-        <v>0.15630649831699323</v>
+        <v>0.15529245064512173</v>
       </c>
       <c r="J46" s="8">
-        <v>80723</v>
+        <v>85535</v>
       </c>
       <c r="K46" s="6">
-        <v>7682</v>
+        <v>8723</v>
       </c>
       <c r="L46" s="7">
-        <v>9.5164946793355049E-2</v>
+        <v>0.10198164494066757</v>
       </c>
       <c r="M46" s="6">
-        <v>1895</v>
+        <v>3235</v>
       </c>
       <c r="N46" s="10">
-        <v>1.370744904E-2</v>
+        <v>2.3350993949999999E-2</v>
       </c>
     </row>
     <row r="47" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B47" s="17">
         <v>2020</v>
       </c>
-      <c r="C47" s="17">
+      <c r="C47" s="27">
         <v>53</v>
       </c>
       <c r="D47" s="18">
-        <v>120472</v>
+        <v>122530</v>
       </c>
       <c r="E47" s="19">
         <v>49</v>
       </c>
       <c r="F47" s="20">
-        <v>0.44145135151021503</v>
+        <v>0.44124318483631236</v>
       </c>
       <c r="G47" s="20">
-        <v>0.55854864848978492</v>
+        <v>0.55875681516368769</v>
       </c>
       <c r="H47" s="18">
-        <v>53848</v>
+        <v>65882</v>
       </c>
       <c r="I47" s="21">
-        <v>0.13584534244540186</v>
+        <v>0.12950426520142072</v>
       </c>
       <c r="J47" s="18">
-        <v>66197</v>
+        <v>76108</v>
       </c>
       <c r="K47" s="19">
-        <v>6128</v>
+        <v>8084</v>
       </c>
       <c r="L47" s="20">
-        <v>9.2572170944302618E-2</v>
+        <v>0.10621748042255742</v>
       </c>
       <c r="M47" s="19">
-        <v>837</v>
+        <v>2284</v>
       </c>
       <c r="N47" s="22">
-        <v>6.94767248E-3</v>
+        <v>1.864033297E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="28">
+        <v>2021</v>
+      </c>
+      <c r="C48" s="29">
+        <v>1</v>
+      </c>
+      <c r="D48" s="30">
+        <v>143198</v>
+      </c>
+      <c r="E48" s="31">
+        <v>48</v>
+      </c>
+      <c r="F48" s="32">
+        <v>0.45212886422828674</v>
+      </c>
+      <c r="G48" s="32">
+        <v>0.54787113577171331</v>
+      </c>
+      <c r="H48" s="30">
+        <v>69724</v>
+      </c>
+      <c r="I48" s="33">
+        <v>0.13802994664677873</v>
+      </c>
+      <c r="J48" s="30">
+        <v>81373</v>
+      </c>
+      <c r="K48" s="31">
+        <v>6368</v>
+      </c>
+      <c r="L48" s="32">
+        <v>7.825691568456368E-2</v>
+      </c>
+      <c r="M48" s="31">
+        <v>880</v>
+      </c>
+      <c r="N48" s="34">
+        <v>6.1453372199999998E-3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/klinische_aspekte.xlsx
+++ b/data/klinische_aspekte.xlsx
@@ -2,16 +2,21 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20368"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B66C5C71-36F4-45BD-9FE1-EBB4D7329612}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Wissdaten\RKI_nCoV-Lage\3.Kommunikation\3.7.Lageberichte\2021-01-26\Tabellen für webmaster\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03D06E26-2A23-4DFC-B1A2-1F777A015EB7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" activeTab="1" xr2:uid="{E7020DAF-D42D-4B3D-9581-E23C135CB659}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14028" activeTab="1" xr2:uid="{E7020DAF-D42D-4B3D-9581-E23C135CB659}"/>
   </bookViews>
   <sheets>
     <sheet name="Erläuterung" sheetId="1" r:id="rId1"/>
     <sheet name="Daten" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -62,10 +67,10 @@
     <t>MW</t>
   </si>
   <si>
-    <t>Die Tabelle zeigt die dem RKI übermittelten COVID-19-Fälle nach Meldewoche und nach Geschlecht sowie Anteile mit für COVID-19 relevanten Symptomen, Anteile Hospitalisierter und Verstorbener für die Meldewochen KW 10 – 53, 2020 und KW 01 und 02, 2021. Eine grafische Darstellung der Daten befindt sich im Lagebericht unter dem Abschnitt "klinische Aspekte".</t>
+    <t>Die dem RKI übermittelten COVID-19-Fälle nach Meldewoche und nach Geschlecht sowie Anteile mit für COVID-19 relevanten Symptomen, Anteile Hospitalisierter und Verstorbener für die Meldewochen KW 10 – 53/2020 und KW 01 - 03/2021</t>
   </si>
   <si>
-    <t>Die dem RKI übermittelten COVID-19-Fälle nach Meldewoche und nach Geschlecht sowie Anteile mit für COVID-19 relevanten Symptomen, Anteile Hospitalisierter und Verstorbener für die Meldewochen KW 10 – 53/2020 und KW 01 und 02/2021</t>
+    <t>Die Tabelle zeigt die dem RKI übermittelten COVID-19-Fälle nach Meldewoche und nach Geschlecht sowie Anteile mit für COVID-19 relevanten Symptomen, Anteile Hospitalisierter und Verstorbener für die Meldewochen KW 10 – 53, 2020 und KW 01 - 03, 2021. Eine grafische Darstellung der Daten befindt sich im Lagebericht unter dem Abschnitt "klinische Aspekte".</t>
   </si>
 </sst>
 </file>
@@ -120,6 +125,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -197,91 +203,91 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -605,25 +611,25 @@
   <dimension ref="B4:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="2"/>
-    <col min="2" max="2" width="99.7109375" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="11.42578125" style="2"/>
+    <col min="1" max="1" width="11.44140625" style="2"/>
+    <col min="2" max="2" width="99.6640625" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="11.44140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
     </row>
-    <row r="5" spans="2:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
     </row>
   </sheetData>
@@ -634,20 +640,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92EDE9B5-504F-438C-AC14-C6D857721167}">
-  <dimension ref="A1:N49"/>
+  <dimension ref="A1:N50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:N49"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="60" x14ac:dyDescent="0.3">
       <c r="B3" s="4" t="s">
         <v>11</v>
       </c>
@@ -688,7 +694,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="6">
         <v>2020</v>
       </c>
@@ -696,40 +702,40 @@
         <v>10</v>
       </c>
       <c r="D4" s="8">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="E4" s="8">
         <v>43</v>
       </c>
       <c r="F4" s="9">
-        <v>0.53243847874720363</v>
+        <v>0.53296089385474865</v>
       </c>
       <c r="G4" s="9">
-        <v>0.46756152125279643</v>
+        <v>0.4670391061452514</v>
       </c>
       <c r="H4" s="10">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="I4" s="11">
-        <v>7.6738609112709827E-2</v>
+        <v>7.7844311377245512E-2</v>
       </c>
       <c r="J4" s="8">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="K4" s="12">
         <v>162</v>
       </c>
       <c r="L4" s="9">
-        <v>0.20224719101123595</v>
+        <v>0.20199501246882792</v>
       </c>
       <c r="M4" s="12">
         <v>12</v>
       </c>
       <c r="N4" s="13">
-        <v>1.3422818790000001E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1.3407821219999999E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="14">
         <v>2020</v>
       </c>
@@ -737,40 +743,40 @@
         <v>11</v>
       </c>
       <c r="D5" s="15">
-        <v>6434</v>
+        <v>6433</v>
       </c>
       <c r="E5" s="16">
         <v>45</v>
       </c>
       <c r="F5" s="17">
-        <v>0.56296641791044777</v>
+        <v>0.56289846058155812</v>
       </c>
       <c r="G5" s="17">
-        <v>0.43703358208955223</v>
+        <v>0.43710153941844193</v>
       </c>
       <c r="H5" s="15">
-        <v>5779</v>
+        <v>5778</v>
       </c>
       <c r="I5" s="18">
-        <v>5.3296418065409239E-2</v>
+        <v>5.3132571824160611E-2</v>
       </c>
       <c r="J5" s="15">
-        <v>5614</v>
+        <v>5616</v>
       </c>
       <c r="K5" s="16">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="L5" s="17">
-        <v>9.2803705023156394E-2</v>
+        <v>9.2948717948717952E-2</v>
       </c>
       <c r="M5" s="16">
         <v>85</v>
       </c>
       <c r="N5" s="19">
-        <v>1.3211066210000001E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1.321311985E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="20">
         <v>2020</v>
       </c>
@@ -778,40 +784,40 @@
         <v>12</v>
       </c>
       <c r="D6" s="10">
-        <v>22434</v>
+        <v>22439</v>
       </c>
       <c r="E6" s="8">
         <v>45</v>
       </c>
       <c r="F6" s="9">
-        <v>0.5500646715133134</v>
+        <v>0.55007580486934804</v>
       </c>
       <c r="G6" s="9">
-        <v>0.4499353284866866</v>
+        <v>0.4499241951306519</v>
       </c>
       <c r="H6" s="10">
-        <v>20208</v>
+        <v>20207</v>
       </c>
       <c r="I6" s="11">
-        <v>3.8549089469517024E-2</v>
+        <v>3.8550997179195329E-2</v>
       </c>
       <c r="J6" s="10">
-        <v>19347</v>
+        <v>19349</v>
       </c>
       <c r="K6" s="10">
-        <v>2204</v>
+        <v>2206</v>
       </c>
       <c r="L6" s="9">
-        <v>0.11391947071897451</v>
+        <v>0.11401106000310093</v>
       </c>
       <c r="M6" s="8">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="N6" s="13">
-        <v>2.1306944809999999E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2.1257631799999999E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="14">
         <v>2020</v>
       </c>
@@ -819,40 +825,40 @@
         <v>13</v>
       </c>
       <c r="D7" s="15">
-        <v>34029</v>
+        <v>34026</v>
       </c>
       <c r="E7" s="16">
         <v>48</v>
       </c>
       <c r="F7" s="17">
-        <v>0.49502999647100343</v>
+        <v>0.49513249610305582</v>
       </c>
       <c r="G7" s="17">
-        <v>0.50497000352899657</v>
+        <v>0.50486750389694424</v>
       </c>
       <c r="H7" s="15">
-        <v>30867</v>
+        <v>30864</v>
       </c>
       <c r="I7" s="18">
-        <v>3.2397058347102083E-2</v>
+        <v>3.2400207361327114E-2</v>
       </c>
       <c r="J7" s="15">
         <v>29471</v>
       </c>
       <c r="K7" s="15">
-        <v>5112</v>
+        <v>5118</v>
       </c>
       <c r="L7" s="17">
-        <v>0.17345865427029961</v>
+        <v>0.17366224424010043</v>
       </c>
       <c r="M7" s="15">
-        <v>1459</v>
+        <v>1462</v>
       </c>
       <c r="N7" s="19">
-        <v>4.2875194679999999E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>4.2967142770000001E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="20">
         <v>2020</v>
       </c>
@@ -860,40 +866,40 @@
         <v>14</v>
       </c>
       <c r="D8" s="10">
-        <v>36101</v>
+        <v>36099</v>
       </c>
       <c r="E8" s="8">
         <v>51</v>
       </c>
       <c r="F8" s="9">
-        <v>0.45052415552720615</v>
+        <v>0.45050617112744418</v>
       </c>
       <c r="G8" s="9">
-        <v>0.54947584447279385</v>
+        <v>0.54949382887255582</v>
       </c>
       <c r="H8" s="10">
-        <v>31995</v>
+        <v>32006</v>
       </c>
       <c r="I8" s="11">
-        <v>5.3258321612751992E-2</v>
+        <v>5.3271261638442792E-2</v>
       </c>
       <c r="J8" s="10">
-        <v>31501</v>
+        <v>31514</v>
       </c>
       <c r="K8" s="10">
-        <v>6068</v>
+        <v>6073</v>
       </c>
       <c r="L8" s="9">
-        <v>0.19262880543474811</v>
+        <v>0.19270800279240971</v>
       </c>
       <c r="M8" s="10">
         <v>2259</v>
       </c>
       <c r="N8" s="13">
-        <v>6.257444392E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>6.2577910740000006E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="14">
         <v>2020</v>
       </c>
@@ -901,40 +907,40 @@
         <v>15</v>
       </c>
       <c r="D9" s="15">
-        <v>27181</v>
+        <v>27185</v>
       </c>
       <c r="E9" s="16">
         <v>52</v>
       </c>
       <c r="F9" s="17">
-        <v>0.43515276600449637</v>
+        <v>0.43505177433025022</v>
       </c>
       <c r="G9" s="17">
-        <v>0.56484723399550363</v>
+        <v>0.56494822566974978</v>
       </c>
       <c r="H9" s="15">
-        <v>23579</v>
+        <v>23587</v>
       </c>
       <c r="I9" s="18">
-        <v>8.3167225073158324E-2</v>
+        <v>8.3139017255267733E-2</v>
       </c>
       <c r="J9" s="15">
-        <v>24051</v>
+        <v>24060</v>
       </c>
       <c r="K9" s="15">
-        <v>4705</v>
+        <v>4710</v>
       </c>
       <c r="L9" s="17">
-        <v>0.19562596149848238</v>
+        <v>0.19576059850374064</v>
       </c>
       <c r="M9" s="15">
-        <v>1871</v>
+        <v>1872</v>
       </c>
       <c r="N9" s="19">
-        <v>6.8834847869999993E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>6.8861504500000004E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="20">
         <v>2020</v>
       </c>
@@ -942,40 +948,40 @@
         <v>16</v>
       </c>
       <c r="D10" s="10">
-        <v>17370</v>
+        <v>17371</v>
       </c>
       <c r="E10" s="8">
         <v>51</v>
       </c>
       <c r="F10" s="9">
-        <v>0.44722430391422147</v>
+        <v>0.44725616785796635</v>
       </c>
       <c r="G10" s="9">
-        <v>0.55277569608577848</v>
+        <v>0.55274383214203371</v>
       </c>
       <c r="H10" s="10">
-        <v>14866</v>
+        <v>14869</v>
       </c>
       <c r="I10" s="11">
-        <v>0.11287501681689761</v>
+        <v>0.11312125899522496</v>
       </c>
       <c r="J10" s="10">
-        <v>15518</v>
+        <v>15521</v>
       </c>
       <c r="K10" s="10">
-        <v>3362</v>
+        <v>3364</v>
       </c>
       <c r="L10" s="9">
-        <v>0.21665163036473772</v>
+        <v>0.21673861220282198</v>
       </c>
       <c r="M10" s="10">
-        <v>1213</v>
+        <v>1217</v>
       </c>
       <c r="N10" s="13">
-        <v>6.9833045479999994E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>7.0059294219999999E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="14">
         <v>2020</v>
       </c>
@@ -983,16 +989,16 @@
         <v>17</v>
       </c>
       <c r="D11" s="15">
-        <v>12382</v>
+        <v>12380</v>
       </c>
       <c r="E11" s="16">
         <v>50</v>
       </c>
       <c r="F11" s="17">
-        <v>0.44983818770226536</v>
+        <v>0.44974915034795276</v>
       </c>
       <c r="G11" s="17">
-        <v>0.55016181229773464</v>
+        <v>0.55025084965204729</v>
       </c>
       <c r="H11" s="15">
         <v>10293</v>
@@ -1001,22 +1007,22 @@
         <v>0.1395122899057612</v>
       </c>
       <c r="J11" s="15">
-        <v>10958</v>
+        <v>10960</v>
       </c>
       <c r="K11" s="15">
-        <v>2228</v>
+        <v>2231</v>
       </c>
       <c r="L11" s="17">
-        <v>0.20332177404635882</v>
+        <v>0.20355839416058394</v>
       </c>
       <c r="M11" s="16">
         <v>718</v>
       </c>
       <c r="N11" s="19">
-        <v>5.7987401059999999E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>5.7996768980000002E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="20">
         <v>2020</v>
       </c>
@@ -1024,40 +1030,40 @@
         <v>18</v>
       </c>
       <c r="D12" s="10">
-        <v>7445</v>
+        <v>7447</v>
       </c>
       <c r="E12" s="8">
         <v>48</v>
       </c>
       <c r="F12" s="9">
-        <v>0.47822580645161289</v>
+        <v>0.47796291319537759</v>
       </c>
       <c r="G12" s="9">
-        <v>0.52177419354838706</v>
+        <v>0.52203708680462246</v>
       </c>
       <c r="H12" s="10">
-        <v>6250</v>
+        <v>6254</v>
       </c>
       <c r="I12" s="11">
-        <v>0.17632</v>
+        <v>0.17604732970898626</v>
       </c>
       <c r="J12" s="10">
-        <v>6598</v>
+        <v>6600</v>
       </c>
       <c r="K12" s="10">
         <v>1360</v>
       </c>
       <c r="L12" s="9">
-        <v>0.20612306759624127</v>
+        <v>0.20606060606060606</v>
       </c>
       <c r="M12" s="8">
         <v>382</v>
       </c>
       <c r="N12" s="13">
-        <v>5.1309603760000003E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>5.1295823820000003E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="14">
         <v>2020</v>
       </c>
@@ -1077,19 +1083,19 @@
         <v>0.52022471910112356</v>
       </c>
       <c r="H13" s="15">
-        <v>5241</v>
+        <v>5243</v>
       </c>
       <c r="I13" s="18">
-        <v>0.19652738027094066</v>
+        <v>0.19645241274079725</v>
       </c>
       <c r="J13" s="15">
         <v>5623</v>
       </c>
       <c r="K13" s="15">
-        <v>1072</v>
+        <v>1074</v>
       </c>
       <c r="L13" s="17">
-        <v>0.1906455628667971</v>
+        <v>0.19100124488707096</v>
       </c>
       <c r="M13" s="16">
         <v>254</v>
@@ -1098,7 +1104,7 @@
         <v>4.0737770639999997E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="20">
         <v>2020</v>
       </c>
@@ -1106,16 +1112,16 @@
         <v>20</v>
       </c>
       <c r="D14" s="10">
-        <v>4755</v>
+        <v>4756</v>
       </c>
       <c r="E14" s="8">
         <v>45</v>
       </c>
       <c r="F14" s="9">
-        <v>0.4941027801179444</v>
+        <v>0.49420930722257317</v>
       </c>
       <c r="G14" s="9">
-        <v>0.5058972198820556</v>
+        <v>0.50579069277742683</v>
       </c>
       <c r="H14" s="10">
         <v>3957</v>
@@ -1127,19 +1133,19 @@
         <v>4226</v>
       </c>
       <c r="K14" s="8">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="L14" s="9">
-        <v>0.17463322290582112</v>
+        <v>0.17486985328916232</v>
       </c>
       <c r="M14" s="8">
         <v>162</v>
       </c>
       <c r="N14" s="13">
-        <v>3.4069400630000003E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3.4062237170000002E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="14">
         <v>2020</v>
       </c>
@@ -1147,40 +1153,40 @@
         <v>21</v>
       </c>
       <c r="D15" s="15">
-        <v>3618</v>
+        <v>3620</v>
       </c>
       <c r="E15" s="16">
         <v>43</v>
       </c>
       <c r="F15" s="17">
-        <v>0.50208159866777691</v>
+        <v>0.50208044382801664</v>
       </c>
       <c r="G15" s="17">
-        <v>0.49791840133222315</v>
+        <v>0.49791955617198336</v>
       </c>
       <c r="H15" s="15">
-        <v>2825</v>
+        <v>2830</v>
       </c>
       <c r="I15" s="18">
-        <v>0.26265486725663717</v>
+        <v>0.26219081272084804</v>
       </c>
       <c r="J15" s="15">
-        <v>3115</v>
+        <v>3118</v>
       </c>
       <c r="K15" s="16">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="L15" s="17">
-        <v>0.16340288924558588</v>
+        <v>0.16388710711994869</v>
       </c>
       <c r="M15" s="16">
         <v>111</v>
       </c>
       <c r="N15" s="19">
-        <v>3.0679933659999999E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3.0662983420000001E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="20">
         <v>2020</v>
       </c>
@@ -1188,22 +1194,22 @@
         <v>22</v>
       </c>
       <c r="D16" s="10">
-        <v>3212</v>
+        <v>3210</v>
       </c>
       <c r="E16" s="8">
         <v>42</v>
       </c>
       <c r="F16" s="9">
-        <v>0.51468749999999996</v>
+        <v>0.51500938086303938</v>
       </c>
       <c r="G16" s="9">
-        <v>0.48531249999999998</v>
+        <v>0.48499061913696062</v>
       </c>
       <c r="H16" s="10">
         <v>2547</v>
       </c>
       <c r="I16" s="11">
-        <v>0.23282292893600315</v>
+        <v>0.23243031016882607</v>
       </c>
       <c r="J16" s="10">
         <v>2770</v>
@@ -1218,10 +1224,10 @@
         <v>66</v>
       </c>
       <c r="N16" s="13">
-        <v>2.0547945200000001E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2.056074766E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="14">
         <v>2020</v>
       </c>
@@ -1235,25 +1241,25 @@
         <v>39</v>
       </c>
       <c r="F17" s="17">
-        <v>0.50700636942675159</v>
+        <v>0.50743099787685775</v>
       </c>
       <c r="G17" s="17">
-        <v>0.49299363057324841</v>
+        <v>0.49256900212314225</v>
       </c>
       <c r="H17" s="15">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="I17" s="18">
-        <v>0.23193916349809887</v>
+        <v>0.23235613463626492</v>
       </c>
       <c r="J17" s="15">
-        <v>2083</v>
+        <v>2084</v>
       </c>
       <c r="K17" s="16">
         <v>310</v>
       </c>
       <c r="L17" s="17">
-        <v>0.14882381180988957</v>
+        <v>0.14875239923224567</v>
       </c>
       <c r="M17" s="16">
         <v>45</v>
@@ -1262,7 +1268,7 @@
         <v>1.906779661E-2</v>
       </c>
     </row>
-    <row r="18" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="20">
         <v>2020</v>
       </c>
@@ -1282,19 +1288,19 @@
         <v>0.46358183376178236</v>
       </c>
       <c r="H18" s="10">
-        <v>1738</v>
+        <v>1741</v>
       </c>
       <c r="I18" s="11">
-        <v>0.24453394706559264</v>
+        <v>0.24411257897759908</v>
       </c>
       <c r="J18" s="10">
-        <v>2085</v>
+        <v>2087</v>
       </c>
       <c r="K18" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L18" s="9">
-        <v>0.13621103117505995</v>
+        <v>0.13560134163871587</v>
       </c>
       <c r="M18" s="8">
         <v>32</v>
@@ -1303,7 +1309,7 @@
         <v>1.364605543E-2</v>
       </c>
     </row>
-    <row r="19" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="14">
         <v>2020</v>
       </c>
@@ -1311,40 +1317,40 @@
         <v>25</v>
       </c>
       <c r="D19" s="15">
-        <v>4135</v>
+        <v>4131</v>
       </c>
       <c r="E19" s="16">
         <v>36</v>
       </c>
       <c r="F19" s="17">
-        <v>0.58894813378574895</v>
+        <v>0.58879184861717615</v>
       </c>
       <c r="G19" s="17">
-        <v>0.4110518662142511</v>
+        <v>0.41120815138282385</v>
       </c>
       <c r="H19" s="15">
         <v>2937</v>
       </c>
       <c r="I19" s="18">
-        <v>0.25093632958801498</v>
+        <v>0.2512768130745659</v>
       </c>
       <c r="J19" s="15">
-        <v>3779</v>
+        <v>3775</v>
       </c>
       <c r="K19" s="16">
         <v>318</v>
       </c>
       <c r="L19" s="17">
-        <v>8.4149245832230754E-2</v>
+        <v>8.4238410596026492E-2</v>
       </c>
       <c r="M19" s="16">
         <v>39</v>
       </c>
       <c r="N19" s="19">
-        <v>9.4316807700000008E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>9.4408133599999996E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="20">
         <v>2020</v>
       </c>
@@ -1352,40 +1358,40 @@
         <v>26</v>
       </c>
       <c r="D20" s="10">
-        <v>3214</v>
+        <v>3212</v>
       </c>
       <c r="E20" s="8">
         <v>37</v>
       </c>
       <c r="F20" s="9">
-        <v>0.55109034267912771</v>
+        <v>0.55143391521197005</v>
       </c>
       <c r="G20" s="9">
-        <v>0.44890965732087229</v>
+        <v>0.44856608478802995</v>
       </c>
       <c r="H20" s="10">
-        <v>2321</v>
+        <v>2320</v>
       </c>
       <c r="I20" s="11">
-        <v>0.23308918569582077</v>
+        <v>0.2331896551724138</v>
       </c>
       <c r="J20" s="10">
-        <v>2862</v>
+        <v>2860</v>
       </c>
       <c r="K20" s="8">
         <v>293</v>
       </c>
       <c r="L20" s="9">
-        <v>0.10237596086652691</v>
+        <v>0.10244755244755245</v>
       </c>
       <c r="M20" s="8">
         <v>23</v>
       </c>
       <c r="N20" s="13">
-        <v>7.1561916600000001E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>7.1606475700000003E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="14">
         <v>2020</v>
       </c>
@@ -1393,22 +1399,22 @@
         <v>27</v>
       </c>
       <c r="D21" s="15">
-        <v>2697</v>
+        <v>2695</v>
       </c>
       <c r="E21" s="16">
         <v>36</v>
       </c>
       <c r="F21" s="17">
-        <v>0.52225519287833833</v>
+        <v>0.52227171492204905</v>
       </c>
       <c r="G21" s="17">
-        <v>0.47774480712166173</v>
+        <v>0.47772828507795101</v>
       </c>
       <c r="H21" s="15">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="I21" s="18">
-        <v>0.26854095976732911</v>
+        <v>0.26818622696411254</v>
       </c>
       <c r="J21" s="15">
         <v>2470</v>
@@ -1423,10 +1429,10 @@
         <v>26</v>
       </c>
       <c r="N21" s="19">
-        <v>9.6403411100000006E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>9.6474953599999993E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="20">
         <v>2020</v>
       </c>
@@ -1467,7 +1473,7 @@
         <v>1.029654036E-2</v>
       </c>
     </row>
-    <row r="23" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="14">
         <v>2020</v>
       </c>
@@ -1475,40 +1481,40 @@
         <v>29</v>
       </c>
       <c r="D23" s="15">
-        <v>3024</v>
+        <v>3026</v>
       </c>
       <c r="E23" s="16">
         <v>36</v>
       </c>
       <c r="F23" s="17">
-        <v>0.52403049386808087</v>
+        <v>0.52401457436237164</v>
       </c>
       <c r="G23" s="17">
-        <v>0.47596950613191913</v>
+        <v>0.47598542563762836</v>
       </c>
       <c r="H23" s="15">
-        <v>2360</v>
+        <v>2362</v>
       </c>
       <c r="I23" s="18">
-        <v>0.2288135593220339</v>
+        <v>0.22861981371718881</v>
       </c>
       <c r="J23" s="15">
-        <v>2639</v>
+        <v>2640</v>
       </c>
       <c r="K23" s="16">
         <v>317</v>
       </c>
       <c r="L23" s="17">
-        <v>0.12012125805229254</v>
+        <v>0.12007575757575757</v>
       </c>
       <c r="M23" s="16">
         <v>30</v>
       </c>
       <c r="N23" s="19">
-        <v>9.9206349199999991E-3</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>9.9140779900000007E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="20">
         <v>2020</v>
       </c>
@@ -1516,40 +1522,40 @@
         <v>30</v>
       </c>
       <c r="D24" s="10">
-        <v>3943</v>
+        <v>3944</v>
       </c>
       <c r="E24" s="8">
         <v>36</v>
       </c>
       <c r="F24" s="9">
-        <v>0.52314343845371314</v>
+        <v>0.52338586680223687</v>
       </c>
       <c r="G24" s="9">
-        <v>0.47685656154628686</v>
+        <v>0.47661413319776308</v>
       </c>
       <c r="H24" s="10">
-        <v>3183</v>
+        <v>3184</v>
       </c>
       <c r="I24" s="11">
-        <v>0.2704995287464656</v>
+        <v>0.27041457286432163</v>
       </c>
       <c r="J24" s="10">
-        <v>3461</v>
+        <v>3463</v>
       </c>
       <c r="K24" s="8">
         <v>332</v>
       </c>
       <c r="L24" s="9">
-        <v>9.5926032938457098E-2</v>
+        <v>9.5870632399653474E-2</v>
       </c>
       <c r="M24" s="8">
         <v>33</v>
       </c>
       <c r="N24" s="13">
-        <v>8.3692619800000007E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>8.3671399499999997E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="14">
         <v>2020</v>
       </c>
@@ -1557,40 +1563,40 @@
         <v>31</v>
       </c>
       <c r="D25" s="15">
-        <v>4825</v>
+        <v>4824</v>
       </c>
       <c r="E25" s="16">
         <v>36</v>
       </c>
       <c r="F25" s="17">
-        <v>0.50290939318370742</v>
+        <v>0.50280606942423611</v>
       </c>
       <c r="G25" s="17">
-        <v>0.49709060681629258</v>
+        <v>0.49719393057576389</v>
       </c>
       <c r="H25" s="15">
         <v>3703</v>
       </c>
       <c r="I25" s="18">
-        <v>0.24520658925195787</v>
+        <v>0.24493653794220901</v>
       </c>
       <c r="J25" s="15">
-        <v>4136</v>
+        <v>4147</v>
       </c>
       <c r="K25" s="16">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="L25" s="17">
-        <v>9.3085106382978719E-2</v>
+        <v>9.3079334458644802E-2</v>
       </c>
       <c r="M25" s="16">
         <v>32</v>
       </c>
       <c r="N25" s="19">
-        <v>6.63212435E-3</v>
-      </c>
-    </row>
-    <row r="26" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>6.6334991700000004E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="20">
         <v>2020</v>
       </c>
@@ -1598,40 +1604,40 @@
         <v>32</v>
       </c>
       <c r="D26" s="10">
-        <v>6063</v>
+        <v>6062</v>
       </c>
       <c r="E26" s="8">
         <v>34</v>
       </c>
       <c r="F26" s="9">
-        <v>0.53652892561983467</v>
+        <v>0.53670634920634919</v>
       </c>
       <c r="G26" s="9">
-        <v>0.46347107438016527</v>
+        <v>0.46329365079365081</v>
       </c>
       <c r="H26" s="10">
-        <v>4547</v>
+        <v>4545</v>
       </c>
       <c r="I26" s="11">
-        <v>0.30041785792830439</v>
+        <v>0.30055005500550053</v>
       </c>
       <c r="J26" s="10">
-        <v>5270</v>
+        <v>5273</v>
       </c>
       <c r="K26" s="8">
         <v>398</v>
       </c>
       <c r="L26" s="9">
-        <v>7.5521821631878552E-2</v>
+        <v>7.5478854542006452E-2</v>
       </c>
       <c r="M26" s="8">
         <v>30</v>
       </c>
       <c r="N26" s="13">
-        <v>4.9480455200000004E-3</v>
-      </c>
-    </row>
-    <row r="27" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>4.9488617600000001E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B27" s="14">
         <v>2020</v>
       </c>
@@ -1639,40 +1645,40 @@
         <v>33</v>
       </c>
       <c r="D27" s="15">
-        <v>7960</v>
+        <v>7959</v>
       </c>
       <c r="E27" s="16">
         <v>32</v>
       </c>
       <c r="F27" s="17">
-        <v>0.53335850956696873</v>
+        <v>0.53342565781190987</v>
       </c>
       <c r="G27" s="17">
-        <v>0.46664149043303121</v>
+        <v>0.46657434218809013</v>
       </c>
       <c r="H27" s="15">
-        <v>5824</v>
+        <v>5826</v>
       </c>
       <c r="I27" s="18">
-        <v>0.33190247252747251</v>
+        <v>0.3317885341572262</v>
       </c>
       <c r="J27" s="15">
-        <v>6972</v>
+        <v>6973</v>
       </c>
       <c r="K27" s="16">
         <v>430</v>
       </c>
       <c r="L27" s="17">
-        <v>6.1675272518646011E-2</v>
+        <v>6.1666427649505237E-2</v>
       </c>
       <c r="M27" s="16">
         <v>30</v>
       </c>
       <c r="N27" s="19">
-        <v>3.7688442199999999E-3</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3.7693177499999999E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="20">
         <v>2020</v>
       </c>
@@ -1680,22 +1686,22 @@
         <v>34</v>
       </c>
       <c r="D28" s="10">
-        <v>9606</v>
+        <v>9604</v>
       </c>
       <c r="E28" s="8">
         <v>32</v>
       </c>
       <c r="F28" s="9">
-        <v>0.54755918709407081</v>
+        <v>0.54746437552388938</v>
       </c>
       <c r="G28" s="9">
-        <v>0.45244081290592919</v>
+        <v>0.45253562447611062</v>
       </c>
       <c r="H28" s="10">
-        <v>7178</v>
+        <v>7179</v>
       </c>
       <c r="I28" s="11">
-        <v>0.34424630816383395</v>
+        <v>0.34433765148349355</v>
       </c>
       <c r="J28" s="10">
         <v>8251</v>
@@ -1710,10 +1716,10 @@
         <v>30</v>
       </c>
       <c r="N28" s="13">
-        <v>3.1230480899999999E-3</v>
-      </c>
-    </row>
-    <row r="29" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3.1236984500000002E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="14">
         <v>2020</v>
       </c>
@@ -1721,40 +1727,40 @@
         <v>35</v>
       </c>
       <c r="D29" s="15">
-        <v>8821</v>
+        <v>8819</v>
       </c>
       <c r="E29" s="16">
         <v>32</v>
       </c>
       <c r="F29" s="17">
-        <v>0.53025114155251141</v>
+        <v>0.53043279661984699</v>
       </c>
       <c r="G29" s="17">
-        <v>0.46974885844748859</v>
+        <v>0.46956720338015301</v>
       </c>
       <c r="H29" s="15">
-        <v>6849</v>
+        <v>6852</v>
       </c>
       <c r="I29" s="18">
-        <v>0.30676011096510442</v>
+        <v>0.30677174547577352</v>
       </c>
       <c r="J29" s="15">
-        <v>7369</v>
+        <v>7373</v>
       </c>
       <c r="K29" s="16">
         <v>365</v>
       </c>
       <c r="L29" s="17">
-        <v>4.953182249966074E-2</v>
+        <v>4.9504950495049507E-2</v>
       </c>
       <c r="M29" s="16">
         <v>20</v>
       </c>
       <c r="N29" s="19">
-        <v>2.2673166300000002E-3</v>
-      </c>
-    </row>
-    <row r="30" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2.26783081E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B30" s="20">
         <v>2020</v>
       </c>
@@ -1762,40 +1768,40 @@
         <v>36</v>
       </c>
       <c r="D30" s="10">
-        <v>8624</v>
+        <v>8626</v>
       </c>
       <c r="E30" s="8">
         <v>33</v>
       </c>
       <c r="F30" s="9">
-        <v>0.53666783257549255</v>
+        <v>0.53630959319267979</v>
       </c>
       <c r="G30" s="9">
-        <v>0.46333216742450739</v>
+        <v>0.46369040680732021</v>
       </c>
       <c r="H30" s="10">
-        <v>6613</v>
+        <v>6626</v>
       </c>
       <c r="I30" s="11">
-        <v>0.26825948888552853</v>
+        <v>0.2677331723513432</v>
       </c>
       <c r="J30" s="10">
-        <v>7022</v>
+        <v>7046</v>
       </c>
       <c r="K30" s="8">
         <v>395</v>
       </c>
       <c r="L30" s="9">
-        <v>5.6251780119624041E-2</v>
+        <v>5.6060175986375249E-2</v>
       </c>
       <c r="M30" s="8">
         <v>36</v>
       </c>
       <c r="N30" s="13">
-        <v>4.1743970299999997E-3</v>
-      </c>
-    </row>
-    <row r="31" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>4.1734291600000004E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B31" s="14">
         <v>2020</v>
       </c>
@@ -1803,40 +1809,40 @@
         <v>37</v>
       </c>
       <c r="D31" s="15">
-        <v>9775</v>
+        <v>9774</v>
       </c>
       <c r="E31" s="16">
         <v>35</v>
       </c>
       <c r="F31" s="17">
-        <v>0.51881941587823943</v>
+        <v>0.51887277589221437</v>
       </c>
       <c r="G31" s="17">
-        <v>0.48118058412176057</v>
+        <v>0.48112722410778569</v>
       </c>
       <c r="H31" s="15">
-        <v>7551</v>
+        <v>7576</v>
       </c>
       <c r="I31" s="18">
-        <v>0.20248973645874718</v>
+        <v>0.20195353748680042</v>
       </c>
       <c r="J31" s="15">
-        <v>7964</v>
+        <v>8000</v>
       </c>
       <c r="K31" s="16">
         <v>463</v>
       </c>
       <c r="L31" s="17">
-        <v>5.8136614766449018E-2</v>
+        <v>5.7875000000000003E-2</v>
       </c>
       <c r="M31" s="16">
         <v>65</v>
       </c>
       <c r="N31" s="19">
-        <v>6.64961636E-3</v>
-      </c>
-    </row>
-    <row r="32" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>6.6502966999999998E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B32" s="20">
         <v>2020</v>
       </c>
@@ -1844,40 +1850,40 @@
         <v>38</v>
       </c>
       <c r="D32" s="10">
-        <v>12288</v>
+        <v>12292</v>
       </c>
       <c r="E32" s="8">
         <v>36</v>
       </c>
       <c r="F32" s="9">
-        <v>0.51198560091630529</v>
+        <v>0.51206346609961562</v>
       </c>
       <c r="G32" s="9">
-        <v>0.48801439908369465</v>
+        <v>0.48793653390038438</v>
       </c>
       <c r="H32" s="10">
-        <v>9648</v>
+        <v>9663</v>
       </c>
       <c r="I32" s="11">
-        <v>0.18584162520729686</v>
+        <v>0.18576011590603334</v>
       </c>
       <c r="J32" s="10">
-        <v>9982</v>
+        <v>10012</v>
       </c>
       <c r="K32" s="8">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="L32" s="9">
-        <v>6.6619915848527347E-2</v>
+        <v>6.6520175789053143E-2</v>
       </c>
       <c r="M32" s="8">
         <v>78</v>
       </c>
       <c r="N32" s="13">
-        <v>6.34765625E-3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>6.34559062E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B33" s="14">
         <v>2020</v>
       </c>
@@ -1885,40 +1891,40 @@
         <v>39</v>
       </c>
       <c r="D33" s="15">
-        <v>13076</v>
+        <v>13077</v>
       </c>
       <c r="E33" s="16">
         <v>37</v>
       </c>
       <c r="F33" s="17">
-        <v>0.51629766297662971</v>
+        <v>0.51626047512877682</v>
       </c>
       <c r="G33" s="17">
-        <v>0.48370233702337023</v>
+        <v>0.48373952487122318</v>
       </c>
       <c r="H33" s="15">
-        <v>10282</v>
+        <v>10315</v>
       </c>
       <c r="I33" s="18">
-        <v>0.18264929002139663</v>
+        <v>0.18225884634028114</v>
       </c>
       <c r="J33" s="15">
-        <v>10768</v>
+        <v>10805</v>
       </c>
       <c r="K33" s="16">
-        <v>758</v>
+        <v>763</v>
       </c>
       <c r="L33" s="17">
-        <v>7.0393759286775631E-2</v>
+        <v>7.0615455807496536E-2</v>
       </c>
       <c r="M33" s="16">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N33" s="19">
-        <v>8.1064545699999994E-3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>8.1823047999999999E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B34" s="20">
         <v>2020</v>
       </c>
@@ -1926,40 +1932,40 @@
         <v>40</v>
       </c>
       <c r="D34" s="10">
-        <v>15925</v>
+        <v>15926</v>
       </c>
       <c r="E34" s="8">
         <v>38</v>
       </c>
       <c r="F34" s="9">
-        <v>0.51956645031192894</v>
+        <v>0.51959672337744167</v>
       </c>
       <c r="G34" s="9">
-        <v>0.48043354968807106</v>
+        <v>0.48040327662255827</v>
       </c>
       <c r="H34" s="10">
-        <v>12451</v>
+        <v>12493</v>
       </c>
       <c r="I34" s="11">
-        <v>0.17524696811501084</v>
+        <v>0.17513807732330106</v>
       </c>
       <c r="J34" s="10">
-        <v>13338</v>
+        <v>13373</v>
       </c>
       <c r="K34" s="8">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="L34" s="9">
-        <v>6.5077222971959808E-2</v>
+        <v>6.5056457040305091E-2</v>
       </c>
       <c r="M34" s="8">
         <v>121</v>
       </c>
       <c r="N34" s="13">
-        <v>7.5981161599999996E-3</v>
-      </c>
-    </row>
-    <row r="35" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>7.5976390800000003E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B35" s="21">
         <v>2020</v>
       </c>
@@ -1967,40 +1973,40 @@
         <v>41</v>
       </c>
       <c r="D35" s="22">
-        <v>26167</v>
+        <v>26155</v>
       </c>
       <c r="E35" s="23">
         <v>39</v>
       </c>
       <c r="F35" s="24">
-        <v>0.51038188447514876</v>
+        <v>0.51029027799109195</v>
       </c>
       <c r="G35" s="24">
-        <v>0.48961811552485129</v>
+        <v>0.489709722008908</v>
       </c>
       <c r="H35" s="22">
-        <v>19663</v>
+        <v>19814</v>
       </c>
       <c r="I35" s="25">
-        <v>0.16472562681177846</v>
+        <v>0.16453013021096194</v>
       </c>
       <c r="J35" s="22">
-        <v>21212</v>
+        <v>21355</v>
       </c>
       <c r="K35" s="23">
-        <v>1546</v>
+        <v>1564</v>
       </c>
       <c r="L35" s="24">
-        <v>7.288327361870639E-2</v>
+        <v>7.3238117536876604E-2</v>
       </c>
       <c r="M35" s="23">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N35" s="26">
-        <v>8.9425612400000007E-3</v>
-      </c>
-    </row>
-    <row r="36" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>8.9848977199999992E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B36" s="20">
         <v>2020</v>
       </c>
@@ -2008,40 +2014,40 @@
         <v>42</v>
       </c>
       <c r="D36" s="10">
-        <v>42086</v>
+        <v>42085</v>
       </c>
       <c r="E36" s="8">
         <v>39</v>
       </c>
       <c r="F36" s="9">
-        <v>0.50845188284518827</v>
+        <v>0.50846363505953229</v>
       </c>
       <c r="G36" s="9">
-        <v>0.49154811715481173</v>
+        <v>0.49153636494046765</v>
       </c>
       <c r="H36" s="10">
-        <v>29825</v>
+        <v>30102</v>
       </c>
       <c r="I36" s="11">
-        <v>0.15835708298407378</v>
+        <v>0.15932496179655836</v>
       </c>
       <c r="J36" s="10">
-        <v>32763</v>
+        <v>33069</v>
       </c>
       <c r="K36" s="8">
-        <v>2238</v>
+        <v>2269</v>
       </c>
       <c r="L36" s="9">
-        <v>6.8308762933797271E-2</v>
+        <v>6.861410989143911E-2</v>
       </c>
       <c r="M36" s="8">
-        <v>440</v>
+        <v>449</v>
       </c>
       <c r="N36" s="13">
-        <v>1.045478306E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1.06688844E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="21">
         <v>2020</v>
       </c>
@@ -2049,40 +2055,40 @@
         <v>43</v>
       </c>
       <c r="D37" s="15">
-        <v>74822</v>
+        <v>74845</v>
       </c>
       <c r="E37" s="16">
         <v>40</v>
       </c>
       <c r="F37" s="17">
-        <v>0.5017408487814059</v>
+        <v>0.50162603811110817</v>
       </c>
       <c r="G37" s="17">
-        <v>0.49825915121859415</v>
+        <v>0.49837396188889188</v>
       </c>
       <c r="H37" s="15">
-        <v>49578</v>
+        <v>50093</v>
       </c>
       <c r="I37" s="18">
-        <v>0.15480656742910162</v>
+        <v>0.15483201245683029</v>
       </c>
       <c r="J37" s="15">
-        <v>55841</v>
+        <v>56220</v>
       </c>
       <c r="K37" s="16">
-        <v>3922</v>
+        <v>3955</v>
       </c>
       <c r="L37" s="17">
-        <v>7.0235131892337169E-2</v>
+        <v>7.0348630380647453E-2</v>
       </c>
       <c r="M37" s="16">
-        <v>944</v>
+        <v>954</v>
       </c>
       <c r="N37" s="19">
-        <v>1.261661008E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1.2746342440000001E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B38" s="20">
         <v>2020</v>
       </c>
@@ -2090,40 +2096,40 @@
         <v>44</v>
       </c>
       <c r="D38" s="10">
-        <v>111156</v>
+        <v>111147</v>
       </c>
       <c r="E38" s="8">
         <v>41</v>
       </c>
       <c r="F38" s="9">
-        <v>0.49709149556928767</v>
+        <v>0.49709652579607738</v>
       </c>
       <c r="G38" s="9">
-        <v>0.50290850443071233</v>
+        <v>0.50290347420392267</v>
       </c>
       <c r="H38" s="10">
-        <v>70385</v>
+        <v>71745</v>
       </c>
       <c r="I38" s="11">
-        <v>0.15818711373161895</v>
+        <v>0.15921667015123006</v>
       </c>
       <c r="J38" s="10">
-        <v>80198</v>
+        <v>81216</v>
       </c>
       <c r="K38" s="8">
-        <v>5608</v>
+        <v>5682</v>
       </c>
       <c r="L38" s="9">
-        <v>6.9926930846155769E-2</v>
+        <v>6.9961583924349882E-2</v>
       </c>
       <c r="M38" s="8">
-        <v>1504</v>
+        <v>1520</v>
       </c>
       <c r="N38" s="13">
-        <v>1.353053366E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1.3675582780000001E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B39" s="21">
         <v>2020</v>
       </c>
@@ -2131,40 +2137,40 @@
         <v>45</v>
       </c>
       <c r="D39" s="22">
-        <v>125812</v>
+        <v>125795</v>
       </c>
       <c r="E39" s="23">
         <v>41</v>
       </c>
       <c r="F39" s="24">
-        <v>0.49139231164163777</v>
+        <v>0.49134653941775602</v>
       </c>
       <c r="G39" s="24">
-        <v>0.50860768835836223</v>
+        <v>0.50865346058224392</v>
       </c>
       <c r="H39" s="22">
-        <v>77512</v>
+        <v>79736</v>
       </c>
       <c r="I39" s="25">
-        <v>0.15051862937351637</v>
+        <v>0.15246563660078258</v>
       </c>
       <c r="J39" s="22">
-        <v>87273</v>
+        <v>88812</v>
       </c>
       <c r="K39" s="23">
-        <v>6369</v>
+        <v>6461</v>
       </c>
       <c r="L39" s="24">
-        <v>7.2977896944072043E-2</v>
+        <v>7.2749178039003742E-2</v>
       </c>
       <c r="M39" s="23">
-        <v>1749</v>
+        <v>1781</v>
       </c>
       <c r="N39" s="26">
-        <v>1.3901694589999999E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1.41579554E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B40" s="20">
         <v>2020</v>
       </c>
@@ -2172,40 +2178,40 @@
         <v>46</v>
       </c>
       <c r="D40" s="10">
-        <v>127902</v>
+        <v>127858</v>
       </c>
       <c r="E40" s="8">
         <v>42</v>
       </c>
       <c r="F40" s="9">
-        <v>0.48460085511289547</v>
+        <v>0.48450007506973586</v>
       </c>
       <c r="G40" s="9">
-        <v>0.51539914488710459</v>
+        <v>0.5154999249302642</v>
       </c>
       <c r="H40" s="10">
-        <v>77223</v>
+        <v>79971</v>
       </c>
       <c r="I40" s="11">
-        <v>0.14737837172863008</v>
+        <v>0.14869140063272937</v>
       </c>
       <c r="J40" s="10">
-        <v>87963</v>
+        <v>90149</v>
       </c>
       <c r="K40" s="8">
-        <v>6849</v>
+        <v>7080</v>
       </c>
       <c r="L40" s="9">
-        <v>7.7862283005354527E-2</v>
+        <v>7.8536644887907792E-2</v>
       </c>
       <c r="M40" s="8">
-        <v>2313</v>
+        <v>2345</v>
       </c>
       <c r="N40" s="13">
-        <v>1.808415818E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1.8340659160000002E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B41" s="21">
         <v>2020</v>
       </c>
@@ -2213,40 +2219,40 @@
         <v>47</v>
       </c>
       <c r="D41" s="22">
-        <v>128533</v>
+        <v>128513</v>
       </c>
       <c r="E41" s="23">
         <v>43</v>
       </c>
       <c r="F41" s="24">
-        <v>0.47456643318247066</v>
+        <v>0.47448959583362743</v>
       </c>
       <c r="G41" s="24">
-        <v>0.5254335668175294</v>
+        <v>0.52551040416637251</v>
       </c>
       <c r="H41" s="22">
-        <v>77462</v>
+        <v>79468</v>
       </c>
       <c r="I41" s="25">
-        <v>0.14778859311662493</v>
+        <v>0.14753108169326018</v>
       </c>
       <c r="J41" s="22">
-        <v>87403</v>
+        <v>89091</v>
       </c>
       <c r="K41" s="23">
-        <v>7296</v>
+        <v>7474</v>
       </c>
       <c r="L41" s="24">
-        <v>8.3475395581387363E-2</v>
+        <v>8.3891751130866193E-2</v>
       </c>
       <c r="M41" s="23">
-        <v>2918</v>
+        <v>2960</v>
       </c>
       <c r="N41" s="26">
-        <v>2.270234103E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2.3032689290000002E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B42" s="20">
         <v>2020</v>
       </c>
@@ -2254,40 +2260,40 @@
         <v>48</v>
       </c>
       <c r="D42" s="10">
-        <v>123379</v>
+        <v>123363</v>
       </c>
       <c r="E42" s="8">
         <v>44</v>
       </c>
       <c r="F42" s="9">
-        <v>0.46554203087983009</v>
+        <v>0.46561723957652595</v>
       </c>
       <c r="G42" s="9">
-        <v>0.53445796912016996</v>
+        <v>0.5343827604234741</v>
       </c>
       <c r="H42" s="10">
-        <v>73185</v>
+        <v>74686</v>
       </c>
       <c r="I42" s="11">
-        <v>0.15359704857552778</v>
+        <v>0.15396459845218649</v>
       </c>
       <c r="J42" s="10">
-        <v>82949</v>
+        <v>84260</v>
       </c>
       <c r="K42" s="8">
-        <v>7494</v>
+        <v>7631</v>
       </c>
       <c r="L42" s="9">
-        <v>9.0344669616270232E-2</v>
+        <v>9.0564918110610015E-2</v>
       </c>
       <c r="M42" s="8">
-        <v>3141</v>
+        <v>3237</v>
       </c>
       <c r="N42" s="13">
-        <v>2.545814117E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2.6239634250000001E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B43" s="21">
         <v>2020</v>
       </c>
@@ -2295,40 +2301,40 @@
         <v>49</v>
       </c>
       <c r="D43" s="22">
-        <v>128389</v>
+        <v>128465</v>
       </c>
       <c r="E43" s="23">
         <v>45</v>
       </c>
       <c r="F43" s="24">
-        <v>0.45938023121478139</v>
+        <v>0.45916508300482167</v>
       </c>
       <c r="G43" s="24">
-        <v>0.54061976878521856</v>
+        <v>0.54083491699517838</v>
       </c>
       <c r="H43" s="22">
-        <v>76679</v>
+        <v>78097</v>
       </c>
       <c r="I43" s="25">
-        <v>0.14314219016940752</v>
+        <v>0.14300165179200225</v>
       </c>
       <c r="J43" s="22">
-        <v>85965</v>
+        <v>87254</v>
       </c>
       <c r="K43" s="23">
-        <v>8153</v>
+        <v>8302</v>
       </c>
       <c r="L43" s="24">
-        <v>9.484092363171058E-2</v>
+        <v>9.5147500401127738E-2</v>
       </c>
       <c r="M43" s="23">
-        <v>3825</v>
+        <v>3978</v>
       </c>
       <c r="N43" s="26">
-        <v>2.9792271919999998E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3.0965632659999999E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B44" s="20">
         <v>2020</v>
       </c>
@@ -2336,40 +2342,40 @@
         <v>50</v>
       </c>
       <c r="D44" s="10">
-        <v>156276</v>
+        <v>156406</v>
       </c>
       <c r="E44" s="8">
         <v>46</v>
       </c>
       <c r="F44" s="9">
-        <v>0.45388432525214722</v>
+        <v>0.45385279822604974</v>
       </c>
       <c r="G44" s="9">
-        <v>0.54611567474785283</v>
+        <v>0.54614720177395026</v>
       </c>
       <c r="H44" s="10">
-        <v>93861</v>
+        <v>95851</v>
       </c>
       <c r="I44" s="11">
-        <v>0.14777170496798459</v>
+        <v>0.14804227394602038</v>
       </c>
       <c r="J44" s="10">
-        <v>103467</v>
+        <v>105441</v>
       </c>
       <c r="K44" s="8">
-        <v>9903</v>
+        <v>10149</v>
       </c>
       <c r="L44" s="9">
-        <v>9.5711676186610223E-2</v>
+        <v>9.625288075795943E-2</v>
       </c>
       <c r="M44" s="8">
-        <v>4767</v>
+        <v>5021</v>
       </c>
       <c r="N44" s="13">
-        <v>3.050372418E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3.2102349010000003E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B45" s="21">
         <v>2020</v>
       </c>
@@ -2377,40 +2383,40 @@
         <v>51</v>
       </c>
       <c r="D45" s="22">
-        <v>174652</v>
+        <v>174793</v>
       </c>
       <c r="E45" s="23">
         <v>46</v>
       </c>
       <c r="F45" s="24">
-        <v>0.45194500741972549</v>
+        <v>0.45188475182418597</v>
       </c>
       <c r="G45" s="24">
-        <v>0.54805499258027446</v>
+        <v>0.54811524817581403</v>
       </c>
       <c r="H45" s="22">
-        <v>102244</v>
+        <v>105065</v>
       </c>
       <c r="I45" s="25">
-        <v>0.14620906850279722</v>
+        <v>0.14563365535620806</v>
       </c>
       <c r="J45" s="22">
-        <v>112828</v>
+        <v>115231</v>
       </c>
       <c r="K45" s="23">
-        <v>10752</v>
+        <v>11105</v>
       </c>
       <c r="L45" s="24">
-        <v>9.5295494026305522E-2</v>
+        <v>9.6371636104867611E-2</v>
       </c>
       <c r="M45" s="23">
-        <v>5117</v>
+        <v>5473</v>
       </c>
       <c r="N45" s="26">
-        <v>2.929826168E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3.1311322529999998E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B46" s="20">
         <v>2020</v>
       </c>
@@ -2418,40 +2424,40 @@
         <v>52</v>
       </c>
       <c r="D46" s="10">
-        <v>138815</v>
+        <v>138973</v>
       </c>
       <c r="E46" s="8">
         <v>48</v>
       </c>
       <c r="F46" s="9">
-        <v>0.44503234246674905</v>
+        <v>0.4449855568942242</v>
       </c>
       <c r="G46" s="9">
-        <v>0.55496765753325095</v>
+        <v>0.55501444310577575</v>
       </c>
       <c r="H46" s="10">
-        <v>77919</v>
+        <v>81052</v>
       </c>
       <c r="I46" s="11">
-        <v>0.15767656155751486</v>
+        <v>0.15677589695504121</v>
       </c>
       <c r="J46" s="10">
-        <v>89423</v>
+        <v>91656</v>
       </c>
       <c r="K46" s="8">
-        <v>9408</v>
+        <v>9730</v>
       </c>
       <c r="L46" s="9">
-        <v>0.1052078324368451</v>
+        <v>0.10615780745395828</v>
       </c>
       <c r="M46" s="8">
-        <v>4120</v>
+        <v>4627</v>
       </c>
       <c r="N46" s="13">
-        <v>2.9679789639999999E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3.3294237009999998E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B47" s="21">
         <v>2020</v>
       </c>
@@ -2459,40 +2465,40 @@
         <v>53</v>
       </c>
       <c r="D47" s="22">
-        <v>122936</v>
+        <v>123143</v>
       </c>
       <c r="E47" s="23">
         <v>49</v>
       </c>
       <c r="F47" s="24">
-        <v>0.44111896155110086</v>
+        <v>0.44128980421736136</v>
       </c>
       <c r="G47" s="24">
-        <v>0.55888103844889914</v>
+        <v>0.55871019578263859</v>
       </c>
       <c r="H47" s="22">
-        <v>70266</v>
+        <v>74244</v>
       </c>
       <c r="I47" s="25">
-        <v>0.13182762644806878</v>
+        <v>0.13316901029039382</v>
       </c>
       <c r="J47" s="22">
-        <v>79748</v>
+        <v>82913</v>
       </c>
       <c r="K47" s="23">
-        <v>9017</v>
+        <v>9576</v>
       </c>
       <c r="L47" s="24">
-        <v>0.11306866629884135</v>
+        <v>0.11549455453306477</v>
       </c>
       <c r="M47" s="23">
-        <v>3528</v>
+        <v>4287</v>
       </c>
       <c r="N47" s="26">
-        <v>2.8697859039999999E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3.4813184669999997E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B48" s="28">
         <v>2021</v>
       </c>
@@ -2500,40 +2506,40 @@
         <v>1</v>
       </c>
       <c r="D48" s="30">
-        <v>144821</v>
+        <v>145427</v>
       </c>
       <c r="E48" s="31">
         <v>48</v>
       </c>
       <c r="F48" s="32">
-        <v>0.45132372654155495</v>
+        <v>0.45126341246455776</v>
       </c>
       <c r="G48" s="32">
-        <v>0.54867627345844505</v>
+        <v>0.5487365875354423</v>
       </c>
       <c r="H48" s="30">
-        <v>82601</v>
+        <v>87981</v>
       </c>
       <c r="I48" s="33">
-        <v>0.13255287466253435</v>
+        <v>0.13311965083370272</v>
       </c>
       <c r="J48" s="30">
-        <v>91356</v>
+        <v>95548</v>
       </c>
       <c r="K48" s="31">
-        <v>8197</v>
+        <v>9162</v>
       </c>
       <c r="L48" s="32">
-        <v>8.9725907439029723E-2</v>
+        <v>9.5888977267970021E-2</v>
       </c>
       <c r="M48" s="31">
-        <v>2361</v>
+        <v>3558</v>
       </c>
       <c r="N48" s="34">
-        <v>1.630288425E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2.4465883220000002E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B49" s="21">
         <v>2021</v>
       </c>
@@ -2541,41 +2547,81 @@
         <v>2</v>
       </c>
       <c r="D49" s="22">
-        <v>117939</v>
+        <v>118979</v>
       </c>
       <c r="E49" s="23">
         <v>48</v>
       </c>
       <c r="F49" s="24">
-        <v>0.45526693665574675</v>
+        <v>0.45454932189834429</v>
       </c>
       <c r="G49" s="24">
-        <v>0.54473306334425331</v>
+        <v>0.54545067810165571</v>
       </c>
       <c r="H49" s="22">
-        <v>59294</v>
+        <v>68611</v>
       </c>
       <c r="I49" s="25">
-        <v>0.15983067426721084</v>
+        <v>0.15805045838130913</v>
       </c>
       <c r="J49" s="22">
-        <v>69543</v>
+        <v>77091</v>
       </c>
       <c r="K49" s="23">
-        <v>5805</v>
+        <v>7495</v>
       </c>
       <c r="L49" s="24">
-        <v>8.3473534360036239E-2</v>
+        <v>9.7222762709006233E-2</v>
       </c>
       <c r="M49" s="23">
-        <v>758</v>
+        <v>2016</v>
       </c>
       <c r="N49" s="26">
-        <v>6.4270512700000003E-3</v>
+        <v>1.6944166609999999E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B50" s="20">
+        <v>2021</v>
+      </c>
+      <c r="C50" s="20">
+        <v>3</v>
+      </c>
+      <c r="D50" s="10">
+        <v>94934</v>
+      </c>
+      <c r="E50" s="8">
+        <v>48</v>
+      </c>
+      <c r="F50" s="9">
+        <v>0.45861352373847714</v>
+      </c>
+      <c r="G50" s="9">
+        <v>0.54138647626152292</v>
+      </c>
+      <c r="H50" s="10">
+        <v>50670</v>
+      </c>
+      <c r="I50" s="11">
+        <v>0.15796329188869154</v>
+      </c>
+      <c r="J50" s="10">
+        <v>59571</v>
+      </c>
+      <c r="K50" s="8">
+        <v>5406</v>
+      </c>
+      <c r="L50" s="9">
+        <v>9.0748854308304372E-2</v>
+      </c>
+      <c r="M50" s="8">
+        <v>646</v>
+      </c>
+      <c r="N50" s="13">
+        <v>6.8047274899999998E-3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/klinische_aspekte.xlsx
+++ b/data/klinische_aspekte.xlsx
@@ -1,14 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20367"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Wissdaten\RKI_nCoV-Lage\3.Kommunikation\3.7.Lageberichte\2021-02-09\Tabellen_für_webmaster\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7F02522-6F8F-4839-865D-EF7359CA27D4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20368"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{910D8063-D7FD-4E44-A3DD-C23B3ECF272F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6825" xr2:uid="{57D9C569-8452-4477-9604-638877EA1117}"/>
   </bookViews>
@@ -66,7 +61,7 @@
     <t>Anteil Verstorben</t>
   </si>
   <si>
-    <t>Die dem RKI übermittelte COVID-19-Fälle nach Meldewoche und  Geschlecht sowie Anteile mit für COVID-19 relevanten Symptomen, Anteile Hospitalisierter und Verstorbener für die Meldewochen KW 10 – 53/2020 und KW 01 - 05/2021</t>
+    <t>Die dem RKI übermittelte COVID-19-Fälle nach Meldewoche und  Geschlecht sowie Anteile mit für COVID-19 relevanten Symptomen, Anteile Hospitalisierter und Verstorbener für die Meldewochen KW 10 – 53/2020 und KW 01 - 06/2021</t>
   </si>
 </sst>
 </file>
@@ -560,10 +555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15BEC8A3-BADA-461B-AF50-F9671B454C26}">
-  <dimension ref="A1:M52"/>
+  <dimension ref="A1:M53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -663,37 +658,37 @@
         <v>11</v>
       </c>
       <c r="C5" s="12">
-        <v>6429</v>
+        <v>6428</v>
       </c>
       <c r="D5" s="13">
         <v>45</v>
       </c>
       <c r="E5" s="14">
-        <v>0.56262641979150463</v>
+        <v>0.56286959228135702</v>
       </c>
       <c r="F5" s="14">
-        <v>0.43737358020849543</v>
+        <v>0.43713040771864303</v>
       </c>
       <c r="G5" s="12">
-        <v>5775</v>
+        <v>5773</v>
       </c>
       <c r="H5" s="15">
-        <v>5.2987012987012985E-2</v>
+        <v>5.3005369825047638E-2</v>
       </c>
       <c r="I5" s="12">
-        <v>5614</v>
+        <v>5615</v>
       </c>
       <c r="J5" s="13">
         <v>523</v>
       </c>
       <c r="K5" s="14">
-        <v>9.3159957249732805E-2</v>
+        <v>9.3143365983971507E-2</v>
       </c>
       <c r="L5" s="13">
         <v>85</v>
       </c>
       <c r="M5" s="16">
-        <v>1.3221340789999999E-2</v>
+        <v>1.322339763E-2</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -704,37 +699,37 @@
         <v>12</v>
       </c>
       <c r="C6" s="7">
-        <v>22438</v>
+        <v>22432</v>
       </c>
       <c r="D6" s="5">
         <v>45</v>
       </c>
       <c r="E6" s="6">
-        <v>0.54996655518394644</v>
+        <v>0.54997992773986348</v>
       </c>
       <c r="F6" s="6">
-        <v>0.45003344481605351</v>
+        <v>0.45002007226013652</v>
       </c>
       <c r="G6" s="7">
-        <v>20205</v>
+        <v>20201</v>
       </c>
       <c r="H6" s="8">
-        <v>3.8604305864884926E-2</v>
+        <v>3.8661452403346369E-2</v>
       </c>
       <c r="I6" s="7">
-        <v>19353</v>
+        <v>19349</v>
       </c>
       <c r="J6" s="7">
         <v>2211</v>
       </c>
       <c r="K6" s="6">
-        <v>0.11424585335606882</v>
+        <v>0.11426947129050596</v>
       </c>
       <c r="L6" s="5">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="M6" s="10">
-        <v>2.1258579190000002E-2</v>
+        <v>2.13088445E-2</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -745,37 +740,37 @@
         <v>13</v>
       </c>
       <c r="C7" s="12">
-        <v>34015</v>
+        <v>34011</v>
       </c>
       <c r="D7" s="13">
         <v>48</v>
       </c>
       <c r="E7" s="14">
-        <v>0.49499852897911151</v>
+        <v>0.49504222202606879</v>
       </c>
       <c r="F7" s="14">
-        <v>0.50500147102088855</v>
+        <v>0.50495777797393115</v>
       </c>
       <c r="G7" s="12">
-        <v>30864</v>
+        <v>30860</v>
       </c>
       <c r="H7" s="15">
-        <v>3.2432607568688439E-2</v>
+        <v>3.2436811406351261E-2</v>
       </c>
       <c r="I7" s="12">
-        <v>29475</v>
+        <v>29472</v>
       </c>
       <c r="J7" s="12">
-        <v>5130</v>
+        <v>5131</v>
       </c>
       <c r="K7" s="14">
-        <v>0.17404580152671756</v>
+        <v>0.17409744842562433</v>
       </c>
       <c r="L7" s="12">
         <v>1464</v>
       </c>
       <c r="M7" s="16">
-        <v>4.3039835360000001E-2</v>
+        <v>4.3044897229999997E-2</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -786,37 +781,37 @@
         <v>14</v>
       </c>
       <c r="C8" s="7">
-        <v>36096</v>
+        <v>36093</v>
       </c>
       <c r="D8" s="5">
         <v>51</v>
       </c>
       <c r="E8" s="6">
-        <v>0.45061437328377668</v>
+        <v>0.45055188862388373</v>
       </c>
       <c r="F8" s="6">
-        <v>0.54938562671622337</v>
+        <v>0.54944811137611627</v>
       </c>
       <c r="G8" s="7">
-        <v>32041</v>
+        <v>32053</v>
       </c>
       <c r="H8" s="8">
-        <v>5.3712430947848069E-2</v>
+        <v>5.4066702024771471E-2</v>
       </c>
       <c r="I8" s="7">
-        <v>31524</v>
+        <v>31527</v>
       </c>
       <c r="J8" s="7">
-        <v>6076</v>
+        <v>6077</v>
       </c>
       <c r="K8" s="6">
-        <v>0.19274203781246035</v>
+        <v>0.19275541599264123</v>
       </c>
       <c r="L8" s="7">
         <v>2259</v>
       </c>
       <c r="M8" s="10">
-        <v>6.2583111699999999E-2</v>
+        <v>6.2588313519999994E-2</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -827,37 +822,37 @@
         <v>15</v>
       </c>
       <c r="C9" s="12">
-        <v>27188</v>
+        <v>27186</v>
       </c>
       <c r="D9" s="13">
         <v>52</v>
       </c>
       <c r="E9" s="14">
-        <v>0.43518791451731759</v>
+        <v>0.4351606248157972</v>
       </c>
       <c r="F9" s="14">
-        <v>0.56481208548268236</v>
+        <v>0.5648393751842028</v>
       </c>
       <c r="G9" s="12">
-        <v>23601</v>
+        <v>23605</v>
       </c>
       <c r="H9" s="15">
-        <v>8.355578153468074E-2</v>
+        <v>8.3753442067358616E-2</v>
       </c>
       <c r="I9" s="12">
-        <v>24066</v>
+        <v>24078</v>
       </c>
       <c r="J9" s="12">
-        <v>4721</v>
+        <v>4719</v>
       </c>
       <c r="K9" s="14">
-        <v>0.19616886894373806</v>
+        <v>0.19598803887366059</v>
       </c>
       <c r="L9" s="12">
         <v>1875</v>
       </c>
       <c r="M9" s="16">
-        <v>6.8964248929999999E-2</v>
+        <v>6.8969322439999994E-2</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -868,37 +863,37 @@
         <v>16</v>
       </c>
       <c r="C10" s="7">
-        <v>17371</v>
+        <v>17370</v>
       </c>
       <c r="D10" s="5">
         <v>51</v>
       </c>
       <c r="E10" s="6">
-        <v>0.44719852432557067</v>
+        <v>0.44720461095100866</v>
       </c>
       <c r="F10" s="6">
-        <v>0.55280147567442928</v>
+        <v>0.55279538904899139</v>
       </c>
       <c r="G10" s="7">
-        <v>14880</v>
+        <v>14881</v>
       </c>
       <c r="H10" s="8">
-        <v>0.11384408602150538</v>
+        <v>0.11397083529332706</v>
       </c>
       <c r="I10" s="7">
-        <v>15524</v>
+        <v>15525</v>
       </c>
       <c r="J10" s="7">
-        <v>3374</v>
+        <v>3372</v>
       </c>
       <c r="K10" s="6">
-        <v>0.21734089152280339</v>
+        <v>0.21719806763285024</v>
       </c>
       <c r="L10" s="7">
         <v>1218</v>
       </c>
       <c r="M10" s="10">
-        <v>7.0116861429999996E-2</v>
+        <v>7.0120898099999995E-2</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -909,37 +904,37 @@
         <v>17</v>
       </c>
       <c r="C11" s="12">
-        <v>12381</v>
+        <v>12377</v>
       </c>
       <c r="D11" s="13">
         <v>50</v>
       </c>
       <c r="E11" s="14">
-        <v>0.44963184723683147</v>
+        <v>0.44991909385113271</v>
       </c>
       <c r="F11" s="14">
-        <v>0.55036815276316853</v>
+        <v>0.55008090614886729</v>
       </c>
       <c r="G11" s="12">
-        <v>10299</v>
+        <v>10301</v>
       </c>
       <c r="H11" s="15">
-        <v>0.13952810952519662</v>
+        <v>0.13988933113289972</v>
       </c>
       <c r="I11" s="12">
-        <v>10968</v>
+        <v>10971</v>
       </c>
       <c r="J11" s="12">
-        <v>2238</v>
+        <v>2236</v>
       </c>
       <c r="K11" s="14">
-        <v>0.20404814004376368</v>
+        <v>0.20381004466320299</v>
       </c>
       <c r="L11" s="13">
         <v>717</v>
       </c>
       <c r="M11" s="16">
-        <v>5.7911315720000002E-2</v>
+        <v>5.793003151E-2</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -962,19 +957,19 @@
         <v>0.52210724365004701</v>
       </c>
       <c r="G12" s="7">
-        <v>6261</v>
+        <v>6265</v>
       </c>
       <c r="H12" s="8">
-        <v>0.1763296597987542</v>
+        <v>0.17605746209098164</v>
       </c>
       <c r="I12" s="7">
-        <v>6599</v>
+        <v>6612</v>
       </c>
       <c r="J12" s="7">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="K12" s="6">
-        <v>0.20594029398393696</v>
+        <v>0.20568663036902601</v>
       </c>
       <c r="L12" s="5">
         <v>384</v>
@@ -991,37 +986,37 @@
         <v>19</v>
       </c>
       <c r="C13" s="12">
-        <v>6237</v>
+        <v>6239</v>
       </c>
       <c r="D13" s="13">
         <v>47</v>
       </c>
       <c r="E13" s="14">
-        <v>0.47985877066281496</v>
+        <v>0.48002566982191563</v>
       </c>
       <c r="F13" s="14">
-        <v>0.5201412293371851</v>
+        <v>0.51997433017808437</v>
       </c>
       <c r="G13" s="12">
-        <v>5246</v>
+        <v>5248</v>
       </c>
       <c r="H13" s="15">
-        <v>0.19595882577201679</v>
+        <v>0.19626524390243902</v>
       </c>
       <c r="I13" s="12">
-        <v>5624</v>
+        <v>5630</v>
       </c>
       <c r="J13" s="12">
         <v>1079</v>
       </c>
       <c r="K13" s="14">
-        <v>0.19185633001422475</v>
+        <v>0.19165186500888098</v>
       </c>
       <c r="L13" s="13">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M13" s="16">
-        <v>4.0724707390000003E-2</v>
+        <v>4.08719346E-2</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1032,16 +1027,16 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>4755</v>
+        <v>4756</v>
       </c>
       <c r="D14" s="5">
         <v>45</v>
       </c>
       <c r="E14" s="6">
-        <v>0.49431339511373212</v>
+        <v>0.49420930722257317</v>
       </c>
       <c r="F14" s="6">
-        <v>0.50568660488626793</v>
+        <v>0.50579069277742683</v>
       </c>
       <c r="G14" s="7">
         <v>3958</v>
@@ -1050,19 +1045,19 @@
         <v>0.2314300151591713</v>
       </c>
       <c r="I14" s="7">
-        <v>4226</v>
+        <v>4228</v>
       </c>
       <c r="J14" s="5">
         <v>741</v>
       </c>
       <c r="K14" s="6">
-        <v>0.17534311405584477</v>
+        <v>0.17526017029328286</v>
       </c>
       <c r="L14" s="5">
         <v>162</v>
       </c>
       <c r="M14" s="10">
-        <v>3.4069400630000003E-2</v>
+        <v>3.4062237170000002E-2</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1100,10 +1095,10 @@
         <v>0.16378205128205128</v>
       </c>
       <c r="L15" s="13">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M15" s="16">
-        <v>3.0939226510000001E-2</v>
+        <v>3.0662983420000001E-2</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1114,37 +1109,37 @@
         <v>22</v>
       </c>
       <c r="C16" s="7">
-        <v>3208</v>
+        <v>3207</v>
       </c>
       <c r="D16" s="5">
         <v>42</v>
       </c>
       <c r="E16" s="6">
-        <v>0.51533166458072588</v>
+        <v>0.51549295774647885</v>
       </c>
       <c r="F16" s="6">
-        <v>0.48466833541927407</v>
+        <v>0.48450704225352115</v>
       </c>
       <c r="G16" s="7">
         <v>2548</v>
       </c>
       <c r="H16" s="8">
-        <v>0.23155416012558869</v>
+        <v>0.23194662480376765</v>
       </c>
       <c r="I16" s="7">
-        <v>2769</v>
+        <v>2768</v>
       </c>
       <c r="J16" s="5">
         <v>417</v>
       </c>
       <c r="K16" s="6">
-        <v>0.15059588299024917</v>
+        <v>0.15065028901734104</v>
       </c>
       <c r="L16" s="5">
         <v>66</v>
       </c>
       <c r="M16" s="10">
-        <v>2.0573566080000001E-2</v>
+        <v>2.057998129E-2</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1208,19 +1203,19 @@
         <v>0.46312178387650088</v>
       </c>
       <c r="G18" s="7">
-        <v>1742</v>
+        <v>1743</v>
       </c>
       <c r="H18" s="8">
-        <v>0.24397244546498278</v>
+        <v>0.24325874928284566</v>
       </c>
       <c r="I18" s="7">
-        <v>2085</v>
+        <v>2086</v>
       </c>
       <c r="J18" s="5">
         <v>286</v>
       </c>
       <c r="K18" s="6">
-        <v>0.13717026378896882</v>
+        <v>0.137104506232023</v>
       </c>
       <c r="L18" s="5">
         <v>32</v>
@@ -1252,7 +1247,7 @@
         <v>2937</v>
       </c>
       <c r="H19" s="15">
-        <v>0.25093632958801498</v>
+        <v>0.25059584610146407</v>
       </c>
       <c r="I19" s="12">
         <v>3775</v>
@@ -1278,37 +1273,37 @@
         <v>26</v>
       </c>
       <c r="C20" s="7">
-        <v>3213</v>
+        <v>3214</v>
       </c>
       <c r="D20" s="5">
         <v>37</v>
       </c>
       <c r="E20" s="6">
-        <v>0.55126207541290118</v>
+        <v>0.55140186915887845</v>
       </c>
       <c r="F20" s="6">
-        <v>0.44873792458709877</v>
+        <v>0.44859813084112149</v>
       </c>
       <c r="G20" s="7">
-        <v>2323</v>
+        <v>2326</v>
       </c>
       <c r="H20" s="8">
-        <v>0.23288850624192853</v>
+        <v>0.23301805674978504</v>
       </c>
       <c r="I20" s="7">
-        <v>2864</v>
+        <v>2865</v>
       </c>
       <c r="J20" s="5">
         <v>295</v>
       </c>
       <c r="K20" s="6">
-        <v>0.10300279329608938</v>
+        <v>0.10296684118673648</v>
       </c>
       <c r="L20" s="5">
         <v>23</v>
       </c>
       <c r="M20" s="10">
-        <v>7.1584189200000004E-3</v>
+        <v>7.1561916600000001E-3</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1319,22 +1314,22 @@
         <v>27</v>
       </c>
       <c r="C21" s="12">
-        <v>2696</v>
+        <v>2695</v>
       </c>
       <c r="D21" s="13">
         <v>36</v>
       </c>
       <c r="E21" s="14">
-        <v>0.52244897959183678</v>
+        <v>0.52190051967334816</v>
       </c>
       <c r="F21" s="14">
-        <v>0.47755102040816327</v>
+        <v>0.47809948032665184</v>
       </c>
       <c r="G21" s="12">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="H21" s="15">
-        <v>0.26695736434108525</v>
+        <v>0.26660203587009212</v>
       </c>
       <c r="I21" s="12">
         <v>2470</v>
@@ -1349,7 +1344,7 @@
         <v>26</v>
       </c>
       <c r="M21" s="16">
-        <v>9.6439169099999996E-3</v>
+        <v>9.6474953599999993E-3</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1372,19 +1367,19 @@
         <v>0.44054500412881914</v>
       </c>
       <c r="G22" s="7">
-        <v>1924</v>
+        <v>1925</v>
       </c>
       <c r="H22" s="8">
-        <v>0.2396049896049896</v>
+        <v>0.24</v>
       </c>
       <c r="I22" s="7">
-        <v>2193</v>
+        <v>2194</v>
       </c>
       <c r="J22" s="5">
         <v>255</v>
       </c>
       <c r="K22" s="6">
-        <v>0.11627906976744186</v>
+        <v>0.1162260711030082</v>
       </c>
       <c r="L22" s="5">
         <v>25</v>
@@ -1416,16 +1411,16 @@
         <v>2365</v>
       </c>
       <c r="H23" s="15">
-        <v>0.22959830866807612</v>
+        <v>0.22917547568710359</v>
       </c>
       <c r="I23" s="12">
-        <v>2639</v>
+        <v>2644</v>
       </c>
       <c r="J23" s="13">
         <v>318</v>
       </c>
       <c r="K23" s="14">
-        <v>0.1205001894657067</v>
+        <v>0.12027231467473525</v>
       </c>
       <c r="L23" s="13">
         <v>30</v>
@@ -1442,37 +1437,37 @@
         <v>30</v>
       </c>
       <c r="C24" s="7">
-        <v>3939</v>
+        <v>3940</v>
       </c>
       <c r="D24" s="5">
         <v>36</v>
       </c>
       <c r="E24" s="6">
-        <v>0.52354288623059297</v>
+        <v>0.52340966921119592</v>
       </c>
       <c r="F24" s="6">
-        <v>0.47645711376940697</v>
+        <v>0.47659033078880408</v>
       </c>
       <c r="G24" s="7">
-        <v>3185</v>
+        <v>3188</v>
       </c>
       <c r="H24" s="8">
-        <v>0.27001569858712715</v>
+        <v>0.2697616060225847</v>
       </c>
       <c r="I24" s="7">
-        <v>3460</v>
+        <v>3464</v>
       </c>
       <c r="J24" s="5">
         <v>333</v>
       </c>
       <c r="K24" s="6">
-        <v>9.6242774566473982E-2</v>
+        <v>9.6131639722863746E-2</v>
       </c>
       <c r="L24" s="5">
         <v>33</v>
       </c>
       <c r="M24" s="10">
-        <v>8.3777608500000007E-3</v>
+        <v>8.3756345100000004E-3</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1483,37 +1478,37 @@
         <v>31</v>
       </c>
       <c r="C25" s="12">
-        <v>4823</v>
+        <v>4824</v>
       </c>
       <c r="D25" s="13">
         <v>36</v>
       </c>
       <c r="E25" s="14">
-        <v>0.50291060291060286</v>
+        <v>0.50301392641862397</v>
       </c>
       <c r="F25" s="14">
-        <v>0.49708939708939709</v>
+        <v>0.49698607358137603</v>
       </c>
       <c r="G25" s="12">
-        <v>3704</v>
+        <v>3706</v>
       </c>
       <c r="H25" s="15">
-        <v>0.24514038876889849</v>
+        <v>0.24473826227738801</v>
       </c>
       <c r="I25" s="12">
-        <v>4147</v>
+        <v>4153</v>
       </c>
       <c r="J25" s="13">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="K25" s="14">
-        <v>9.3320472630817455E-2</v>
+        <v>9.3667228509511202E-2</v>
       </c>
       <c r="L25" s="13">
         <v>32</v>
       </c>
       <c r="M25" s="16">
-        <v>6.6348745500000002E-3</v>
+        <v>6.6334991700000004E-3</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1530,25 +1525,25 @@
         <v>34</v>
       </c>
       <c r="E26" s="6">
-        <v>0.53646436249379859</v>
+        <v>0.53654100529100535</v>
       </c>
       <c r="F26" s="6">
-        <v>0.46353563750620141</v>
+        <v>0.46345899470899471</v>
       </c>
       <c r="G26" s="7">
-        <v>4548</v>
+        <v>4550</v>
       </c>
       <c r="H26" s="8">
-        <v>0.30079155672823221</v>
+        <v>0.3</v>
       </c>
       <c r="I26" s="7">
-        <v>5277</v>
+        <v>5281</v>
       </c>
       <c r="J26" s="5">
         <v>399</v>
       </c>
       <c r="K26" s="6">
-        <v>7.5611142694712904E-2</v>
+        <v>7.5553872372656691E-2</v>
       </c>
       <c r="L26" s="5">
         <v>31</v>
@@ -1565,37 +1560,37 @@
         <v>33</v>
       </c>
       <c r="C27" s="12">
-        <v>7960</v>
+        <v>7957</v>
       </c>
       <c r="D27" s="13">
         <v>32</v>
       </c>
       <c r="E27" s="14">
-        <v>0.53361027190332322</v>
+        <v>0.53356000503714895</v>
       </c>
       <c r="F27" s="14">
-        <v>0.46638972809667673</v>
+        <v>0.46643999496285105</v>
       </c>
       <c r="G27" s="12">
-        <v>5845</v>
+        <v>5854</v>
       </c>
       <c r="H27" s="15">
-        <v>0.3320786997433704</v>
+        <v>0.33190980526135977</v>
       </c>
       <c r="I27" s="12">
-        <v>6984</v>
+        <v>7001</v>
       </c>
       <c r="J27" s="13">
         <v>438</v>
       </c>
       <c r="K27" s="14">
-        <v>6.2714776632302405E-2</v>
+        <v>6.2562491072703896E-2</v>
       </c>
       <c r="L27" s="13">
         <v>30</v>
       </c>
       <c r="M27" s="16">
-        <v>3.7688442199999999E-3</v>
+        <v>3.7702651699999998E-3</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1606,37 +1601,37 @@
         <v>34</v>
       </c>
       <c r="C28" s="7">
-        <v>9601</v>
+        <v>9605</v>
       </c>
       <c r="D28" s="5">
         <v>32</v>
       </c>
       <c r="E28" s="6">
-        <v>0.54732208363903156</v>
+        <v>0.54734967525665201</v>
       </c>
       <c r="F28" s="6">
-        <v>0.45267791636096844</v>
+        <v>0.45265032474334799</v>
       </c>
       <c r="G28" s="7">
-        <v>7199</v>
+        <v>7209</v>
       </c>
       <c r="H28" s="8">
-        <v>0.34477010695929988</v>
+        <v>0.34443057289499235</v>
       </c>
       <c r="I28" s="7">
-        <v>8254</v>
+        <v>8268</v>
       </c>
       <c r="J28" s="5">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="K28" s="6">
-        <v>5.2459413617639929E-2</v>
+        <v>5.2491533623609095E-2</v>
       </c>
       <c r="L28" s="5">
         <v>30</v>
       </c>
       <c r="M28" s="10">
-        <v>3.1246745100000002E-3</v>
+        <v>3.1233732399999999E-3</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1653,31 +1648,31 @@
         <v>32</v>
       </c>
       <c r="E29" s="14">
-        <v>0.53052607554490472</v>
+        <v>0.53062621193110526</v>
       </c>
       <c r="F29" s="14">
-        <v>0.46947392445509528</v>
+        <v>0.46937378806889474</v>
       </c>
       <c r="G29" s="12">
-        <v>6861</v>
+        <v>6870</v>
       </c>
       <c r="H29" s="15">
-        <v>0.30666083661273869</v>
+        <v>0.30698689956331876</v>
       </c>
       <c r="I29" s="12">
-        <v>7381</v>
+        <v>7403</v>
       </c>
       <c r="J29" s="13">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="K29" s="14">
-        <v>4.9451293862620239E-2</v>
+        <v>4.9169255707145754E-2</v>
       </c>
       <c r="L29" s="13">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M29" s="16">
-        <v>2.2670596200000002E-3</v>
+        <v>2.1537066400000001E-3</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1700,19 +1695,19 @@
         <v>0.46346579652721126</v>
       </c>
       <c r="G30" s="7">
-        <v>6655</v>
+        <v>6656</v>
       </c>
       <c r="H30" s="8">
-        <v>0.26987227648384671</v>
+        <v>0.27013221153846156</v>
       </c>
       <c r="I30" s="7">
-        <v>7056</v>
+        <v>7077</v>
       </c>
       <c r="J30" s="5">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="K30" s="6">
-        <v>5.5980725623582764E-2</v>
+        <v>5.6097216334605057E-2</v>
       </c>
       <c r="L30" s="5">
         <v>36</v>
@@ -1729,37 +1724,37 @@
         <v>37</v>
       </c>
       <c r="C31" s="12">
-        <v>9777</v>
+        <v>9778</v>
       </c>
       <c r="D31" s="13">
         <v>35</v>
       </c>
       <c r="E31" s="14">
-        <v>0.51876220828621367</v>
+        <v>0.51881167763157898</v>
       </c>
       <c r="F31" s="14">
-        <v>0.48123779171378639</v>
+        <v>0.48118832236842107</v>
       </c>
       <c r="G31" s="12">
-        <v>7591</v>
+        <v>7601</v>
       </c>
       <c r="H31" s="15">
-        <v>0.2020814121986563</v>
+        <v>0.20247335876858308</v>
       </c>
       <c r="I31" s="12">
-        <v>8010</v>
+        <v>8023</v>
       </c>
       <c r="J31" s="13">
         <v>463</v>
       </c>
       <c r="K31" s="14">
-        <v>5.7802746566791512E-2</v>
+        <v>5.7709086376667079E-2</v>
       </c>
       <c r="L31" s="13">
         <v>65</v>
       </c>
       <c r="M31" s="16">
-        <v>6.6482561100000004E-3</v>
+        <v>6.6475761899999998E-3</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1776,25 +1771,25 @@
         <v>36</v>
       </c>
       <c r="E32" s="6">
-        <v>0.51201569396763125</v>
+        <v>0.51209743338237701</v>
       </c>
       <c r="F32" s="6">
-        <v>0.48798430603236881</v>
+        <v>0.48790256661762299</v>
       </c>
       <c r="G32" s="7">
-        <v>9738</v>
+        <v>9747</v>
       </c>
       <c r="H32" s="8">
-        <v>0.18617785993017047</v>
+        <v>0.18682671591258848</v>
       </c>
       <c r="I32" s="7">
-        <v>10021</v>
+        <v>10037</v>
       </c>
       <c r="J32" s="5">
         <v>673</v>
       </c>
       <c r="K32" s="6">
-        <v>6.7158966171040821E-2</v>
+        <v>6.7051907940619701E-2</v>
       </c>
       <c r="L32" s="5">
         <v>79</v>
@@ -1811,37 +1806,37 @@
         <v>39</v>
       </c>
       <c r="C33" s="12">
-        <v>13078</v>
+        <v>13077</v>
       </c>
       <c r="D33" s="13">
         <v>37</v>
       </c>
       <c r="E33" s="14">
-        <v>0.51621829362029203</v>
+        <v>0.51633233417877178</v>
       </c>
       <c r="F33" s="14">
-        <v>0.48378170637970791</v>
+        <v>0.48366766582122817</v>
       </c>
       <c r="G33" s="12">
-        <v>10344</v>
+        <v>10352</v>
       </c>
       <c r="H33" s="15">
-        <v>0.18290796597061099</v>
+        <v>0.18315301391035549</v>
       </c>
       <c r="I33" s="12">
-        <v>10816</v>
+        <v>10823</v>
       </c>
       <c r="J33" s="13">
         <v>770</v>
       </c>
       <c r="K33" s="14">
-        <v>7.119082840236686E-2</v>
+        <v>7.1144784255751645E-2</v>
       </c>
       <c r="L33" s="13">
         <v>108</v>
       </c>
       <c r="M33" s="16">
-        <v>8.2581434400000008E-3</v>
+        <v>8.2587749399999997E-3</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1858,25 +1853,25 @@
         <v>38</v>
       </c>
       <c r="E34" s="6">
-        <v>0.51964982995339459</v>
+        <v>0.51942817557780718</v>
       </c>
       <c r="F34" s="6">
-        <v>0.48035017004660535</v>
+        <v>0.48057182442219282</v>
       </c>
       <c r="G34" s="7">
-        <v>12561</v>
+        <v>12582</v>
       </c>
       <c r="H34" s="8">
-        <v>0.17522490247591752</v>
+        <v>0.17564775075504691</v>
       </c>
       <c r="I34" s="7">
-        <v>13426</v>
+        <v>13438</v>
       </c>
       <c r="J34" s="5">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="K34" s="6">
-        <v>6.4948607180098317E-2</v>
+        <v>6.4965024557225776E-2</v>
       </c>
       <c r="L34" s="5">
         <v>121</v>
@@ -1893,37 +1888,37 @@
         <v>41</v>
       </c>
       <c r="C35" s="19">
-        <v>26154</v>
+        <v>26152</v>
       </c>
       <c r="D35" s="20">
         <v>39</v>
       </c>
       <c r="E35" s="21">
-        <v>0.51040307101727445</v>
+        <v>0.51045944804820942</v>
       </c>
       <c r="F35" s="21">
-        <v>0.48959692898272555</v>
+        <v>0.48954055195179058</v>
       </c>
       <c r="G35" s="19">
-        <v>19982</v>
+        <v>20042</v>
       </c>
       <c r="H35" s="22">
-        <v>0.16544890401361226</v>
+        <v>0.16595150184612315</v>
       </c>
       <c r="I35" s="19">
-        <v>21439</v>
+        <v>21500</v>
       </c>
       <c r="J35" s="20">
-        <v>1576</v>
+        <v>1585</v>
       </c>
       <c r="K35" s="21">
-        <v>7.3510891366201786E-2</v>
+        <v>7.3720930232558143E-2</v>
       </c>
       <c r="L35" s="20">
         <v>237</v>
       </c>
       <c r="M35" s="23">
-        <v>9.0617114000000002E-3</v>
+        <v>9.0624043999999997E-3</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1940,31 +1935,31 @@
         <v>39</v>
       </c>
       <c r="E36" s="6">
-        <v>0.50838629521670564</v>
+        <v>0.50845595260844645</v>
       </c>
       <c r="F36" s="6">
-        <v>0.4916137047832943</v>
+        <v>0.49154404739155361</v>
       </c>
       <c r="G36" s="7">
-        <v>30538</v>
+        <v>30681</v>
       </c>
       <c r="H36" s="8">
-        <v>0.15911323596830179</v>
+        <v>0.15993611681496692</v>
       </c>
       <c r="I36" s="7">
-        <v>33461</v>
+        <v>33546</v>
       </c>
       <c r="J36" s="5">
-        <v>2303</v>
+        <v>2311</v>
       </c>
       <c r="K36" s="6">
-        <v>6.8826394907504265E-2</v>
+        <v>6.8890478745603057E-2</v>
       </c>
       <c r="L36" s="5">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="M36" s="10">
-        <v>1.07606062E-2</v>
+        <v>1.083186849E-2</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1975,37 +1970,37 @@
         <v>43</v>
       </c>
       <c r="C37" s="12">
-        <v>74872</v>
+        <v>74859</v>
       </c>
       <c r="D37" s="13">
         <v>40</v>
       </c>
       <c r="E37" s="14">
-        <v>0.50157110245736536</v>
+        <v>0.50161138713575937</v>
       </c>
       <c r="F37" s="14">
-        <v>0.49842889754263464</v>
+        <v>0.49838861286424063</v>
       </c>
       <c r="G37" s="12">
-        <v>51146</v>
+        <v>51447</v>
       </c>
       <c r="H37" s="15">
-        <v>0.15545692722793572</v>
+        <v>0.15600520924446518</v>
       </c>
       <c r="I37" s="12">
-        <v>57208</v>
+        <v>57501</v>
       </c>
       <c r="J37" s="13">
-        <v>4037</v>
+        <v>4053</v>
       </c>
       <c r="K37" s="14">
-        <v>7.0567053558942799E-2</v>
+        <v>7.0485730682944642E-2</v>
       </c>
       <c r="L37" s="13">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="M37" s="16">
-        <v>1.2995512339999999E-2</v>
+        <v>1.3024486030000001E-2</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2016,37 +2011,37 @@
         <v>44</v>
       </c>
       <c r="C38" s="7">
-        <v>111173</v>
+        <v>111151</v>
       </c>
       <c r="D38" s="5">
         <v>41</v>
       </c>
       <c r="E38" s="6">
-        <v>0.49715708465368946</v>
+        <v>0.49711202447989283</v>
       </c>
       <c r="F38" s="6">
-        <v>0.50284291534631054</v>
+        <v>0.50288797552010722</v>
       </c>
       <c r="G38" s="7">
-        <v>73628</v>
+        <v>74016</v>
       </c>
       <c r="H38" s="8">
-        <v>0.15844515673385126</v>
+        <v>0.15862786424556852</v>
       </c>
       <c r="I38" s="7">
-        <v>82677</v>
+        <v>82927</v>
       </c>
       <c r="J38" s="5">
-        <v>5800</v>
+        <v>5829</v>
       </c>
       <c r="K38" s="6">
-        <v>7.0152521257423467E-2</v>
+        <v>7.029073763671663E-2</v>
       </c>
       <c r="L38" s="5">
-        <v>1557</v>
+        <v>1563</v>
       </c>
       <c r="M38" s="10">
-        <v>1.4005199100000001E-2</v>
+        <v>1.4061951749999999E-2</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2057,37 +2052,37 @@
         <v>45</v>
       </c>
       <c r="C39" s="19">
-        <v>125830</v>
+        <v>125813</v>
       </c>
       <c r="D39" s="20">
         <v>41</v>
       </c>
       <c r="E39" s="21">
-        <v>0.49131891562595187</v>
+        <v>0.49138905139321865</v>
       </c>
       <c r="F39" s="21">
-        <v>0.50868108437404813</v>
+        <v>0.50861094860678135</v>
       </c>
       <c r="G39" s="19">
-        <v>81675</v>
+        <v>82615</v>
       </c>
       <c r="H39" s="22">
-        <v>0.15289868380777472</v>
+        <v>0.15318041517884162</v>
       </c>
       <c r="I39" s="19">
-        <v>90402</v>
+        <v>91257</v>
       </c>
       <c r="J39" s="20">
-        <v>6589</v>
+        <v>6650</v>
       </c>
       <c r="K39" s="21">
-        <v>7.2885555629300242E-2</v>
+        <v>7.2871122215282122E-2</v>
       </c>
       <c r="L39" s="20">
-        <v>1814</v>
+        <v>1828</v>
       </c>
       <c r="M39" s="23">
-        <v>1.4416275920000001E-2</v>
+        <v>1.4529500129999999E-2</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2098,37 +2093,37 @@
         <v>46</v>
       </c>
       <c r="C40" s="7">
-        <v>127897</v>
+        <v>127886</v>
       </c>
       <c r="D40" s="5">
         <v>42</v>
       </c>
       <c r="E40" s="6">
-        <v>0.48443138834269106</v>
+        <v>0.48449034050985684</v>
       </c>
       <c r="F40" s="6">
-        <v>0.51556861165730894</v>
+        <v>0.51550965949014316</v>
       </c>
       <c r="G40" s="7">
-        <v>82273</v>
+        <v>83164</v>
       </c>
       <c r="H40" s="8">
-        <v>0.14764260449965358</v>
+        <v>0.14820114472608339</v>
       </c>
       <c r="I40" s="7">
-        <v>91995</v>
+        <v>92841</v>
       </c>
       <c r="J40" s="5">
-        <v>7258</v>
+        <v>7307</v>
       </c>
       <c r="K40" s="6">
-        <v>7.8895592151747379E-2</v>
+        <v>7.8704451696987324E-2</v>
       </c>
       <c r="L40" s="5">
-        <v>2405</v>
+        <v>2417</v>
       </c>
       <c r="M40" s="10">
-        <v>1.8804193989999999E-2</v>
+        <v>1.8899644989999999E-2</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2139,37 +2134,37 @@
         <v>47</v>
       </c>
       <c r="C41" s="19">
-        <v>128503</v>
+        <v>128490</v>
       </c>
       <c r="D41" s="20">
         <v>43</v>
       </c>
       <c r="E41" s="21">
-        <v>0.47447419187879358</v>
+        <v>0.4744583924664999</v>
       </c>
       <c r="F41" s="21">
-        <v>0.52552580812120642</v>
+        <v>0.5255416075335001</v>
       </c>
       <c r="G41" s="19">
-        <v>82810</v>
+        <v>83484</v>
       </c>
       <c r="H41" s="22">
-        <v>0.14808597995411182</v>
+        <v>0.14759714436299171</v>
       </c>
       <c r="I41" s="19">
-        <v>91684</v>
+        <v>92223</v>
       </c>
       <c r="J41" s="20">
-        <v>7741</v>
+        <v>7795</v>
       </c>
       <c r="K41" s="21">
-        <v>8.4431307534575284E-2</v>
+        <v>8.4523383537729202E-2</v>
       </c>
       <c r="L41" s="20">
-        <v>3036</v>
+        <v>3061</v>
       </c>
       <c r="M41" s="23">
-        <v>2.3625907559999999E-2</v>
+        <v>2.3822865589999999E-2</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2180,37 +2175,37 @@
         <v>48</v>
       </c>
       <c r="C42" s="7">
-        <v>123351</v>
+        <v>123330</v>
       </c>
       <c r="D42" s="5">
         <v>44</v>
       </c>
       <c r="E42" s="6">
-        <v>0.46553906715777954</v>
+        <v>0.46552948957678397</v>
       </c>
       <c r="F42" s="6">
-        <v>0.53446093284222052</v>
+        <v>0.53447051042321603</v>
       </c>
       <c r="G42" s="7">
-        <v>78336</v>
+        <v>79278</v>
       </c>
       <c r="H42" s="8">
-        <v>0.15459048202614378</v>
+        <v>0.15422942052019475</v>
       </c>
       <c r="I42" s="7">
-        <v>87137</v>
+        <v>88010</v>
       </c>
       <c r="J42" s="5">
-        <v>7975</v>
+        <v>8052</v>
       </c>
       <c r="K42" s="6">
-        <v>9.1522544957939794E-2</v>
+        <v>9.148960345415294E-2</v>
       </c>
       <c r="L42" s="5">
-        <v>3355</v>
+        <v>3389</v>
       </c>
       <c r="M42" s="10">
-        <v>2.7198806650000001E-2</v>
+        <v>2.7479121049999999E-2</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2221,37 +2216,37 @@
         <v>49</v>
       </c>
       <c r="C43" s="19">
-        <v>128508</v>
+        <v>128501</v>
       </c>
       <c r="D43" s="20">
         <v>45</v>
       </c>
       <c r="E43" s="21">
-        <v>0.45902192507494077</v>
+        <v>0.45903517099079733</v>
       </c>
       <c r="F43" s="21">
-        <v>0.54097807492505923</v>
+        <v>0.54096482900920262</v>
       </c>
       <c r="G43" s="19">
-        <v>82296</v>
+        <v>84201</v>
       </c>
       <c r="H43" s="22">
-        <v>0.14182949353553029</v>
+        <v>0.14105533188441943</v>
       </c>
       <c r="I43" s="19">
-        <v>90187</v>
+        <v>91791</v>
       </c>
       <c r="J43" s="20">
-        <v>8661</v>
+        <v>8806</v>
       </c>
       <c r="K43" s="21">
-        <v>9.6033796445163938E-2</v>
+        <v>9.5935331350568143E-2</v>
       </c>
       <c r="L43" s="20">
-        <v>4167</v>
+        <v>4208</v>
       </c>
       <c r="M43" s="23">
-        <v>3.2425996819999997E-2</v>
+        <v>3.2746826870000002E-2</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2262,37 +2257,37 @@
         <v>50</v>
       </c>
       <c r="C44" s="7">
-        <v>156495</v>
+        <v>156484</v>
       </c>
       <c r="D44" s="5">
         <v>46</v>
       </c>
       <c r="E44" s="6">
-        <v>0.45384228965943635</v>
+        <v>0.45385828799536426</v>
       </c>
       <c r="F44" s="6">
-        <v>0.54615771034056371</v>
+        <v>0.54614171200463579</v>
       </c>
       <c r="G44" s="7">
-        <v>100144</v>
+        <v>102222</v>
       </c>
       <c r="H44" s="8">
-        <v>0.14588991851733504</v>
+        <v>0.14562422961789048</v>
       </c>
       <c r="I44" s="7">
-        <v>108468</v>
+        <v>110307</v>
       </c>
       <c r="J44" s="5">
-        <v>10505</v>
+        <v>10701</v>
       </c>
       <c r="K44" s="6">
-        <v>9.6848840210937787E-2</v>
+        <v>9.7011069107128284E-2</v>
       </c>
       <c r="L44" s="5">
-        <v>5279</v>
+        <v>5361</v>
       </c>
       <c r="M44" s="10">
-        <v>3.3732707110000003E-2</v>
+        <v>3.4259093579999997E-2</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2303,37 +2298,37 @@
         <v>51</v>
       </c>
       <c r="C45" s="19">
-        <v>175072</v>
+        <v>175010</v>
       </c>
       <c r="D45" s="20">
         <v>46</v>
       </c>
       <c r="E45" s="21">
-        <v>0.4518307426597582</v>
+        <v>0.4517620371809708</v>
       </c>
       <c r="F45" s="21">
-        <v>0.5481692573402418</v>
+        <v>0.54823796281902915</v>
       </c>
       <c r="G45" s="19">
-        <v>109779</v>
+        <v>111542</v>
       </c>
       <c r="H45" s="22">
-        <v>0.14517348491059309</v>
+        <v>0.14469885782933783</v>
       </c>
       <c r="I45" s="19">
-        <v>118335</v>
+        <v>120083</v>
       </c>
       <c r="J45" s="20">
-        <v>11564</v>
+        <v>11772</v>
       </c>
       <c r="K45" s="21">
-        <v>9.7722567287784681E-2</v>
+        <v>9.8032194398874117E-2</v>
       </c>
       <c r="L45" s="20">
-        <v>5901</v>
+        <v>5988</v>
       </c>
       <c r="M45" s="23">
-        <v>3.3706132329999999E-2</v>
+        <v>3.4215187699999997E-2</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2344,37 +2339,37 @@
         <v>52</v>
       </c>
       <c r="C46" s="7">
-        <v>139432</v>
+        <v>139360</v>
       </c>
       <c r="D46" s="5">
         <v>48</v>
       </c>
       <c r="E46" s="6">
-        <v>0.44500603773039182</v>
+        <v>0.44495558834591903</v>
       </c>
       <c r="F46" s="6">
-        <v>0.55499396226960818</v>
+        <v>0.55504441165408092</v>
       </c>
       <c r="G46" s="7">
-        <v>85508</v>
+        <v>86964</v>
       </c>
       <c r="H46" s="8">
-        <v>0.15602048931094167</v>
+        <v>0.15563911503610689</v>
       </c>
       <c r="I46" s="7">
-        <v>94453</v>
+        <v>95583</v>
       </c>
       <c r="J46" s="5">
-        <v>10243</v>
+        <v>10461</v>
       </c>
       <c r="K46" s="6">
-        <v>0.10844547023387294</v>
+        <v>0.10944414801795298</v>
       </c>
       <c r="L46" s="5">
-        <v>5159</v>
+        <v>5289</v>
       </c>
       <c r="M46" s="10">
-        <v>3.700011475E-2</v>
+        <v>3.795206659E-2</v>
       </c>
     </row>
     <row r="47" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2385,37 +2380,37 @@
         <v>53</v>
       </c>
       <c r="C47" s="19">
-        <v>123372</v>
+        <v>123311</v>
       </c>
       <c r="D47" s="20">
         <v>49</v>
       </c>
       <c r="E47" s="21">
-        <v>0.44113050380080354</v>
+        <v>0.4412015059747913</v>
       </c>
       <c r="F47" s="21">
-        <v>0.55886949619919646</v>
+        <v>0.55879849402520876</v>
       </c>
       <c r="G47" s="19">
-        <v>78160</v>
+        <v>79499</v>
       </c>
       <c r="H47" s="22">
-        <v>0.13346980552712384</v>
+        <v>0.13327211663039787</v>
       </c>
       <c r="I47" s="19">
-        <v>85518</v>
+        <v>86401</v>
       </c>
       <c r="J47" s="20">
-        <v>10086</v>
+        <v>10279</v>
       </c>
       <c r="K47" s="21">
-        <v>0.11794008278958816</v>
+        <v>0.11896853045682342</v>
       </c>
       <c r="L47" s="20">
-        <v>5013</v>
+        <v>5202</v>
       </c>
       <c r="M47" s="23">
-        <v>4.0633206880000002E-2</v>
+        <v>4.2186017460000003E-2</v>
       </c>
     </row>
     <row r="48" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2426,37 +2421,37 @@
         <v>1</v>
       </c>
       <c r="C48" s="27">
-        <v>145701</v>
+        <v>145634</v>
       </c>
       <c r="D48" s="28">
         <v>48</v>
       </c>
       <c r="E48" s="29">
-        <v>0.4509503435937619</v>
+        <v>0.45101126401065367</v>
       </c>
       <c r="F48" s="29">
-        <v>0.54904965640623804</v>
+        <v>0.54898873598934639</v>
       </c>
       <c r="G48" s="27">
-        <v>93416</v>
+        <v>94705</v>
       </c>
       <c r="H48" s="30">
-        <v>0.13414190288601524</v>
+        <v>0.13390000527955229</v>
       </c>
       <c r="I48" s="27">
-        <v>99829</v>
+        <v>101105</v>
       </c>
       <c r="J48" s="28">
-        <v>10043</v>
+        <v>10277</v>
       </c>
       <c r="K48" s="29">
-        <v>0.10060202947039437</v>
+        <v>0.1016468028287424</v>
       </c>
       <c r="L48" s="28">
-        <v>4836</v>
+        <v>5112</v>
       </c>
       <c r="M48" s="31">
-        <v>3.3191261549999997E-2</v>
+        <v>3.5101693279999999E-2</v>
       </c>
     </row>
     <row r="49" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2467,37 +2462,37 @@
         <v>2</v>
       </c>
       <c r="C49" s="19">
-        <v>119233</v>
+        <v>119193</v>
       </c>
       <c r="D49" s="20">
         <v>48</v>
       </c>
       <c r="E49" s="21">
-        <v>0.45459868136343967</v>
+        <v>0.45450149314510657</v>
       </c>
       <c r="F49" s="21">
-        <v>0.54540131863656038</v>
+        <v>0.54549850685489343</v>
       </c>
       <c r="G49" s="19">
-        <v>74302</v>
+        <v>76124</v>
       </c>
       <c r="H49" s="22">
-        <v>0.15999569325186402</v>
+        <v>0.15931900583258893</v>
       </c>
       <c r="I49" s="19">
-        <v>81646</v>
+        <v>83231</v>
       </c>
       <c r="J49" s="20">
-        <v>8781</v>
+        <v>9033</v>
       </c>
       <c r="K49" s="21">
-        <v>0.10754966562966956</v>
+        <v>0.10852927394840865</v>
       </c>
       <c r="L49" s="20">
-        <v>3880</v>
+        <v>4333</v>
       </c>
       <c r="M49" s="23">
-        <v>3.254132664E-2</v>
+        <v>3.6352805949999997E-2</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2508,37 +2503,37 @@
         <v>3</v>
       </c>
       <c r="C50" s="7">
-        <v>95768</v>
+        <v>95727</v>
       </c>
       <c r="D50" s="5">
         <v>48</v>
       </c>
       <c r="E50" s="6">
-        <v>0.45837112662686946</v>
+        <v>0.45808241138192518</v>
       </c>
       <c r="F50" s="6">
-        <v>0.54162887337313059</v>
+        <v>0.54191758861807482</v>
       </c>
       <c r="G50" s="7">
-        <v>60577</v>
+        <v>62314</v>
       </c>
       <c r="H50" s="8">
-        <v>0.16011027287584398</v>
+        <v>0.15871232788779407</v>
       </c>
       <c r="I50" s="7">
-        <v>67489</v>
+        <v>68924</v>
       </c>
       <c r="J50" s="5">
-        <v>7526</v>
+        <v>7867</v>
       </c>
       <c r="K50" s="6">
-        <v>0.11151446902458179</v>
+        <v>0.11414021240786953</v>
       </c>
       <c r="L50" s="5">
-        <v>2581</v>
+        <v>3125</v>
       </c>
       <c r="M50" s="10">
-        <v>2.695054715E-2</v>
+        <v>3.264491731E-2</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2549,37 +2544,37 @@
         <v>4</v>
       </c>
       <c r="C51" s="19">
-        <v>78515</v>
+        <v>78529</v>
       </c>
       <c r="D51" s="20">
         <v>48</v>
       </c>
       <c r="E51" s="21">
-        <v>0.46352196402377827</v>
+        <v>0.46365576468168263</v>
       </c>
       <c r="F51" s="21">
-        <v>0.53647803597622168</v>
+        <v>0.53634423531831743</v>
       </c>
       <c r="G51" s="19">
-        <v>48960</v>
+        <v>50970</v>
       </c>
       <c r="H51" s="22">
-        <v>0.16049836601307191</v>
+        <v>0.15974102413184227</v>
       </c>
       <c r="I51" s="19">
-        <v>55670</v>
+        <v>57530</v>
       </c>
       <c r="J51" s="20">
-        <v>5946</v>
+        <v>6531</v>
       </c>
       <c r="K51" s="21">
-        <v>0.10680797557032513</v>
+        <v>0.11352337910655311</v>
       </c>
       <c r="L51" s="20">
-        <v>1234</v>
+        <v>1912</v>
       </c>
       <c r="M51" s="23">
-        <v>1.571674202E-2</v>
+        <v>2.4347693199999999E-2</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2590,37 +2585,78 @@
         <v>5</v>
       </c>
       <c r="C52" s="7">
-        <v>64440</v>
+        <v>64905</v>
       </c>
       <c r="D52" s="5">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E52" s="6">
-        <v>0.47424478062114145</v>
+        <v>0.47395159656531971</v>
       </c>
       <c r="F52" s="6">
-        <v>0.52575521937885861</v>
+        <v>0.52604840343468029</v>
       </c>
       <c r="G52" s="7">
-        <v>36085</v>
+        <v>41569</v>
       </c>
       <c r="H52" s="8">
-        <v>0.16258833310239712</v>
+        <v>0.15930140248743055</v>
       </c>
       <c r="I52" s="7">
-        <v>43062</v>
+        <v>47341</v>
       </c>
       <c r="J52" s="5">
-        <v>4173</v>
+        <v>5237</v>
       </c>
       <c r="K52" s="6">
-        <v>9.6906785564999307E-2</v>
+        <v>0.11062292727234321</v>
       </c>
       <c r="L52" s="5">
-        <v>377</v>
+        <v>978</v>
       </c>
       <c r="M52" s="10">
-        <v>5.8504034700000004E-3</v>
+        <v>1.506817656E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="18">
+        <v>2021</v>
+      </c>
+      <c r="B53" s="18">
+        <v>6</v>
+      </c>
+      <c r="C53" s="19">
+        <v>50479</v>
+      </c>
+      <c r="D53" s="20">
+        <v>45</v>
+      </c>
+      <c r="E53" s="21">
+        <v>0.48477070842774356</v>
+      </c>
+      <c r="F53" s="21">
+        <v>0.51522929157225639</v>
+      </c>
+      <c r="G53" s="19">
+        <v>30143</v>
+      </c>
+      <c r="H53" s="22">
+        <v>0.16607504229837775</v>
+      </c>
+      <c r="I53" s="19">
+        <v>34773</v>
+      </c>
+      <c r="J53" s="20">
+        <v>3399</v>
+      </c>
+      <c r="K53" s="21">
+        <v>9.7748252954878781E-2</v>
+      </c>
+      <c r="L53" s="20">
+        <v>271</v>
+      </c>
+      <c r="M53" s="23">
+        <v>5.3685690999999997E-3</v>
       </c>
     </row>
   </sheetData>

--- a/data/klinische_aspekte.xlsx
+++ b/data/klinische_aspekte.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20368"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20371"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{910D8063-D7FD-4E44-A3DD-C23B3ECF272F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8F6153B-1DD1-4BB7-B621-A347B9E2D399}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6825" xr2:uid="{57D9C569-8452-4477-9604-638877EA1117}"/>
   </bookViews>
@@ -61,7 +61,7 @@
     <t>Anteil Verstorben</t>
   </si>
   <si>
-    <t>Die dem RKI übermittelte COVID-19-Fälle nach Meldewoche und  Geschlecht sowie Anteile mit für COVID-19 relevanten Symptomen, Anteile Hospitalisierter und Verstorbener für die Meldewochen KW 10 – 53/2020 und KW 01 - 06/2021</t>
+    <t>Die dem RKI übermittelte COVID-19-Fälle nach Meldewoche und  Geschlecht sowie Anteile mit für COVID-19 relevanten Symptomen, Anteile Hospitalisierter und Verstorbener für die Meldewochen KW 10 – 53/2020 und KW 01 - 07/2021</t>
   </si>
 </sst>
 </file>
@@ -555,10 +555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15BEC8A3-BADA-461B-AF50-F9671B454C26}">
-  <dimension ref="A1:M53"/>
+  <dimension ref="A1:M54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -617,37 +617,37 @@
         <v>10</v>
       </c>
       <c r="C4" s="5">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="D4" s="5">
         <v>43</v>
       </c>
       <c r="E4" s="6">
-        <v>0.53131991051454142</v>
+        <v>0.53079507278835392</v>
       </c>
       <c r="F4" s="6">
-        <v>0.46868008948545864</v>
+        <v>0.46920492721164614</v>
       </c>
       <c r="G4" s="7">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="H4" s="8">
-        <v>7.7937649880095924E-2</v>
+        <v>7.9231692677070822E-2</v>
       </c>
       <c r="I4" s="5">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="J4" s="9">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K4" s="6">
-        <v>0.20224719101123595</v>
+        <v>0.20074812967581046</v>
       </c>
       <c r="L4" s="9">
         <v>12</v>
       </c>
       <c r="M4" s="10">
-        <v>1.3422818790000001E-2</v>
+        <v>1.343784994E-2</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -658,16 +658,16 @@
         <v>11</v>
       </c>
       <c r="C5" s="12">
-        <v>6428</v>
+        <v>6427</v>
       </c>
       <c r="D5" s="13">
         <v>45</v>
       </c>
       <c r="E5" s="14">
-        <v>0.56286959228135702</v>
+        <v>0.56295719844357972</v>
       </c>
       <c r="F5" s="14">
-        <v>0.43713040771864303</v>
+        <v>0.43704280155642022</v>
       </c>
       <c r="G5" s="12">
         <v>5773</v>
@@ -676,19 +676,19 @@
         <v>5.3005369825047638E-2</v>
       </c>
       <c r="I5" s="12">
-        <v>5615</v>
+        <v>5621</v>
       </c>
       <c r="J5" s="13">
         <v>523</v>
       </c>
       <c r="K5" s="14">
-        <v>9.3143365983971507E-2</v>
+        <v>9.3043942359010853E-2</v>
       </c>
       <c r="L5" s="13">
         <v>85</v>
       </c>
       <c r="M5" s="16">
-        <v>1.322339763E-2</v>
+        <v>1.3225455109999999E-2</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -699,7 +699,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="7">
-        <v>22432</v>
+        <v>22431</v>
       </c>
       <c r="D6" s="5">
         <v>45</v>
@@ -714,22 +714,22 @@
         <v>20201</v>
       </c>
       <c r="H6" s="8">
-        <v>3.8661452403346369E-2</v>
+        <v>3.8710954903222614E-2</v>
       </c>
       <c r="I6" s="7">
-        <v>19349</v>
+        <v>19363</v>
       </c>
       <c r="J6" s="7">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="K6" s="6">
-        <v>0.11426947129050596</v>
+        <v>0.1141352063213345</v>
       </c>
       <c r="L6" s="5">
         <v>478</v>
       </c>
       <c r="M6" s="10">
-        <v>2.13088445E-2</v>
+        <v>2.1309794480000002E-2</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -746,25 +746,25 @@
         <v>48</v>
       </c>
       <c r="E7" s="14">
-        <v>0.49504222202606879</v>
+        <v>0.49507193503780633</v>
       </c>
       <c r="F7" s="14">
-        <v>0.50495777797393115</v>
+        <v>0.50492806496219367</v>
       </c>
       <c r="G7" s="12">
-        <v>30860</v>
+        <v>30861</v>
       </c>
       <c r="H7" s="15">
-        <v>3.2436811406351261E-2</v>
+        <v>3.2468163701759499E-2</v>
       </c>
       <c r="I7" s="12">
-        <v>29472</v>
+        <v>29511</v>
       </c>
       <c r="J7" s="12">
         <v>5131</v>
       </c>
       <c r="K7" s="14">
-        <v>0.17409744842562433</v>
+        <v>0.17386737148859746</v>
       </c>
       <c r="L7" s="12">
         <v>1464</v>
@@ -781,37 +781,37 @@
         <v>14</v>
       </c>
       <c r="C8" s="7">
-        <v>36093</v>
+        <v>36089</v>
       </c>
       <c r="D8" s="5">
         <v>51</v>
       </c>
       <c r="E8" s="6">
-        <v>0.45055188862388373</v>
+        <v>0.45068079088211643</v>
       </c>
       <c r="F8" s="6">
-        <v>0.54944811137611627</v>
+        <v>0.54931920911788357</v>
       </c>
       <c r="G8" s="7">
-        <v>32053</v>
+        <v>32065</v>
       </c>
       <c r="H8" s="8">
-        <v>5.4066702024771471E-2</v>
+        <v>5.4451894589115861E-2</v>
       </c>
       <c r="I8" s="7">
-        <v>31527</v>
+        <v>31611</v>
       </c>
       <c r="J8" s="7">
-        <v>6077</v>
+        <v>6078</v>
       </c>
       <c r="K8" s="6">
-        <v>0.19275541599264123</v>
+        <v>0.19227484103634809</v>
       </c>
       <c r="L8" s="7">
-        <v>2259</v>
+        <v>2258</v>
       </c>
       <c r="M8" s="10">
-        <v>6.2588313519999994E-2</v>
+        <v>6.2567541350000005E-2</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -822,37 +822,37 @@
         <v>15</v>
       </c>
       <c r="C9" s="12">
-        <v>27186</v>
+        <v>27188</v>
       </c>
       <c r="D9" s="13">
         <v>52</v>
       </c>
       <c r="E9" s="14">
-        <v>0.4351606248157972</v>
+        <v>0.43498434910697847</v>
       </c>
       <c r="F9" s="14">
-        <v>0.5648393751842028</v>
+        <v>0.56501565089302153</v>
       </c>
       <c r="G9" s="12">
         <v>23605</v>
       </c>
       <c r="H9" s="15">
-        <v>8.3753442067358616E-2</v>
+        <v>8.3795805973310739E-2</v>
       </c>
       <c r="I9" s="12">
-        <v>24078</v>
+        <v>24135</v>
       </c>
       <c r="J9" s="12">
-        <v>4719</v>
+        <v>4720</v>
       </c>
       <c r="K9" s="14">
-        <v>0.19598803887366059</v>
+        <v>0.19556660451626268</v>
       </c>
       <c r="L9" s="12">
-        <v>1875</v>
+        <v>1876</v>
       </c>
       <c r="M9" s="16">
-        <v>6.8969322439999994E-2</v>
+        <v>6.9001029859999993E-2</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -863,7 +863,7 @@
         <v>16</v>
       </c>
       <c r="C10" s="7">
-        <v>17370</v>
+        <v>17369</v>
       </c>
       <c r="D10" s="5">
         <v>51</v>
@@ -878,22 +878,22 @@
         <v>14881</v>
       </c>
       <c r="H10" s="8">
-        <v>0.11397083529332706</v>
+        <v>0.11390363550836638</v>
       </c>
       <c r="I10" s="7">
-        <v>15525</v>
+        <v>15530</v>
       </c>
       <c r="J10" s="7">
         <v>3372</v>
       </c>
       <c r="K10" s="6">
-        <v>0.21719806763285024</v>
+        <v>0.21712813908564069</v>
       </c>
       <c r="L10" s="7">
         <v>1218</v>
       </c>
       <c r="M10" s="10">
-        <v>7.0120898099999995E-2</v>
+        <v>7.0124935220000004E-2</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -904,37 +904,37 @@
         <v>17</v>
       </c>
       <c r="C11" s="12">
-        <v>12377</v>
+        <v>12376</v>
       </c>
       <c r="D11" s="13">
         <v>50</v>
       </c>
       <c r="E11" s="14">
-        <v>0.44991909385113271</v>
+        <v>0.44995549801763896</v>
       </c>
       <c r="F11" s="14">
-        <v>0.55008090614886729</v>
+        <v>0.55004450198236099</v>
       </c>
       <c r="G11" s="12">
-        <v>10301</v>
+        <v>10284</v>
       </c>
       <c r="H11" s="15">
-        <v>0.13988933113289972</v>
+        <v>0.13866199922209257</v>
       </c>
       <c r="I11" s="12">
-        <v>10971</v>
+        <v>10984</v>
       </c>
       <c r="J11" s="12">
-        <v>2236</v>
+        <v>2234</v>
       </c>
       <c r="K11" s="14">
-        <v>0.20381004466320299</v>
+        <v>0.20338674435542609</v>
       </c>
       <c r="L11" s="13">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="M11" s="16">
-        <v>5.793003151E-2</v>
+        <v>5.8015513890000002E-2</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -945,37 +945,37 @@
         <v>18</v>
       </c>
       <c r="C12" s="7">
-        <v>7446</v>
+        <v>7447</v>
       </c>
       <c r="D12" s="5">
         <v>48</v>
       </c>
       <c r="E12" s="6">
-        <v>0.47789275634995299</v>
+        <v>0.47776434233507992</v>
       </c>
       <c r="F12" s="6">
-        <v>0.52210724365004701</v>
+        <v>0.52223565766492008</v>
       </c>
       <c r="G12" s="7">
-        <v>6265</v>
+        <v>6259</v>
       </c>
       <c r="H12" s="8">
-        <v>0.17605746209098164</v>
+        <v>0.17526761463492571</v>
       </c>
       <c r="I12" s="7">
-        <v>6612</v>
+        <v>6613</v>
       </c>
       <c r="J12" s="7">
         <v>1360</v>
       </c>
       <c r="K12" s="6">
-        <v>0.20568663036902601</v>
+        <v>0.20565552699228792</v>
       </c>
       <c r="L12" s="5">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="M12" s="10">
-        <v>5.1571313450000003E-2</v>
+        <v>5.1832952860000003E-2</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -986,37 +986,37 @@
         <v>19</v>
       </c>
       <c r="C13" s="12">
-        <v>6239</v>
+        <v>6240</v>
       </c>
       <c r="D13" s="13">
         <v>47</v>
       </c>
       <c r="E13" s="14">
-        <v>0.48002566982191563</v>
+        <v>0.48010907924286172</v>
       </c>
       <c r="F13" s="14">
-        <v>0.51997433017808437</v>
+        <v>0.51989092075713828</v>
       </c>
       <c r="G13" s="12">
         <v>5248</v>
       </c>
       <c r="H13" s="15">
-        <v>0.19626524390243902</v>
+        <v>0.19645579268292682</v>
       </c>
       <c r="I13" s="12">
         <v>5630</v>
       </c>
       <c r="J13" s="12">
-        <v>1079</v>
+        <v>1081</v>
       </c>
       <c r="K13" s="14">
-        <v>0.19165186500888098</v>
+        <v>0.19200710479573713</v>
       </c>
       <c r="L13" s="13">
         <v>255</v>
       </c>
       <c r="M13" s="16">
-        <v>4.08719346E-2</v>
+        <v>4.086538461E-2</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1027,37 +1027,37 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>4756</v>
+        <v>4757</v>
       </c>
       <c r="D14" s="5">
         <v>45</v>
       </c>
       <c r="E14" s="6">
-        <v>0.49420930722257317</v>
+        <v>0.49410526315789471</v>
       </c>
       <c r="F14" s="6">
-        <v>0.50579069277742683</v>
+        <v>0.50589473684210529</v>
       </c>
       <c r="G14" s="7">
-        <v>3958</v>
+        <v>3959</v>
       </c>
       <c r="H14" s="8">
-        <v>0.2314300151591713</v>
+        <v>0.23137155847436222</v>
       </c>
       <c r="I14" s="7">
-        <v>4228</v>
+        <v>4229</v>
       </c>
       <c r="J14" s="5">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="K14" s="6">
-        <v>0.17526017029328286</v>
+        <v>0.17545519035232915</v>
       </c>
       <c r="L14" s="5">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M14" s="10">
-        <v>3.4062237170000002E-2</v>
+        <v>3.4265293250000002E-2</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1068,16 +1068,16 @@
         <v>21</v>
       </c>
       <c r="C15" s="12">
-        <v>3620</v>
+        <v>3621</v>
       </c>
       <c r="D15" s="13">
         <v>43</v>
       </c>
       <c r="E15" s="14">
-        <v>0.50208044382801664</v>
+        <v>0.50221852468108708</v>
       </c>
       <c r="F15" s="14">
-        <v>0.49791955617198336</v>
+        <v>0.49778147531891292</v>
       </c>
       <c r="G15" s="12">
         <v>2836</v>
@@ -1086,19 +1086,19 @@
         <v>0.26269393511988715</v>
       </c>
       <c r="I15" s="12">
-        <v>3120</v>
+        <v>3121</v>
       </c>
       <c r="J15" s="13">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="K15" s="14">
-        <v>0.16378205128205128</v>
+        <v>0.1643703941044537</v>
       </c>
       <c r="L15" s="13">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M15" s="16">
-        <v>3.0662983420000001E-2</v>
+        <v>3.0930682130000001E-2</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1109,37 +1109,37 @@
         <v>22</v>
       </c>
       <c r="C16" s="7">
-        <v>3207</v>
+        <v>3208</v>
       </c>
       <c r="D16" s="5">
         <v>42</v>
       </c>
       <c r="E16" s="6">
-        <v>0.51549295774647885</v>
+        <v>0.51564455569461831</v>
       </c>
       <c r="F16" s="6">
-        <v>0.48450704225352115</v>
+        <v>0.48435544430538174</v>
       </c>
       <c r="G16" s="7">
-        <v>2548</v>
+        <v>2549</v>
       </c>
       <c r="H16" s="8">
-        <v>0.23194662480376765</v>
+        <v>0.23185562965868969</v>
       </c>
       <c r="I16" s="7">
-        <v>2768</v>
+        <v>2771</v>
       </c>
       <c r="J16" s="5">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="K16" s="6">
-        <v>0.15065028901734104</v>
+        <v>0.15120894983760375</v>
       </c>
       <c r="L16" s="5">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M16" s="10">
-        <v>2.057998129E-2</v>
+        <v>2.0261845380000001E-2</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1150,37 +1150,37 @@
         <v>23</v>
       </c>
       <c r="C17" s="12">
-        <v>2360</v>
+        <v>2359</v>
       </c>
       <c r="D17" s="13">
         <v>39</v>
       </c>
       <c r="E17" s="14">
-        <v>0.50700636942675159</v>
+        <v>0.50679694137638065</v>
       </c>
       <c r="F17" s="14">
-        <v>0.49299363057324841</v>
+        <v>0.49320305862361935</v>
       </c>
       <c r="G17" s="12">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="H17" s="15">
-        <v>0.2313959804454101</v>
+        <v>0.23152173913043478</v>
       </c>
       <c r="I17" s="12">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="J17" s="13">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="K17" s="14">
-        <v>0.14834373499759962</v>
+        <v>0.14793467819404418</v>
       </c>
       <c r="L17" s="13">
         <v>45</v>
       </c>
       <c r="M17" s="16">
-        <v>1.906779661E-2</v>
+        <v>1.9075879609999999E-2</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1191,37 +1191,37 @@
         <v>24</v>
       </c>
       <c r="C18" s="7">
-        <v>2343</v>
+        <v>2342</v>
       </c>
       <c r="D18" s="5">
         <v>37</v>
       </c>
       <c r="E18" s="6">
-        <v>0.53687821612349917</v>
+        <v>0.53667953667953672</v>
       </c>
       <c r="F18" s="6">
-        <v>0.46312178387650088</v>
+        <v>0.46332046332046334</v>
       </c>
       <c r="G18" s="7">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="H18" s="8">
-        <v>0.24325874928284566</v>
+        <v>0.24454649827784156</v>
       </c>
       <c r="I18" s="7">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="J18" s="5">
         <v>286</v>
       </c>
       <c r="K18" s="6">
-        <v>0.137104506232023</v>
+        <v>0.13717026378896882</v>
       </c>
       <c r="L18" s="5">
         <v>32</v>
       </c>
       <c r="M18" s="10">
-        <v>1.365770379E-2</v>
+        <v>1.366353543E-2</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1232,7 +1232,7 @@
         <v>25</v>
       </c>
       <c r="C19" s="12">
-        <v>4131</v>
+        <v>4130</v>
       </c>
       <c r="D19" s="13">
         <v>36</v>
@@ -1244,10 +1244,10 @@
         <v>0.41155059451589421</v>
       </c>
       <c r="G19" s="12">
-        <v>2937</v>
+        <v>2936</v>
       </c>
       <c r="H19" s="15">
-        <v>0.25059584610146407</v>
+        <v>0.25068119891008173</v>
       </c>
       <c r="I19" s="12">
         <v>3775</v>
@@ -1259,10 +1259,10 @@
         <v>8.4503311258278146E-2</v>
       </c>
       <c r="L19" s="13">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M19" s="16">
-        <v>9.6828854899999994E-3</v>
+        <v>9.9273607699999992E-3</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1291,13 +1291,13 @@
         <v>0.23301805674978504</v>
       </c>
       <c r="I20" s="7">
-        <v>2865</v>
+        <v>2866</v>
       </c>
       <c r="J20" s="5">
         <v>295</v>
       </c>
       <c r="K20" s="6">
-        <v>0.10296684118673648</v>
+        <v>0.10293091416608513</v>
       </c>
       <c r="L20" s="5">
         <v>23</v>
@@ -1314,22 +1314,22 @@
         <v>27</v>
       </c>
       <c r="C21" s="12">
-        <v>2695</v>
+        <v>2696</v>
       </c>
       <c r="D21" s="13">
         <v>36</v>
       </c>
       <c r="E21" s="14">
-        <v>0.52190051967334816</v>
+        <v>0.52170686456400739</v>
       </c>
       <c r="F21" s="14">
-        <v>0.47809948032665184</v>
+        <v>0.47829313543599256</v>
       </c>
       <c r="G21" s="12">
         <v>2063</v>
       </c>
       <c r="H21" s="15">
-        <v>0.26660203587009212</v>
+        <v>0.26611730489578284</v>
       </c>
       <c r="I21" s="12">
         <v>2470</v>
@@ -1344,7 +1344,7 @@
         <v>26</v>
       </c>
       <c r="M21" s="16">
-        <v>9.6474953599999993E-3</v>
+        <v>9.6439169099999996E-3</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1355,37 +1355,37 @@
         <v>28</v>
       </c>
       <c r="C22" s="7">
-        <v>2427</v>
+        <v>2428</v>
       </c>
       <c r="D22" s="5">
         <v>36</v>
       </c>
       <c r="E22" s="6">
-        <v>0.55945499587118086</v>
+        <v>0.55963681386710684</v>
       </c>
       <c r="F22" s="6">
-        <v>0.44054500412881914</v>
+        <v>0.4403631861328931</v>
       </c>
       <c r="G22" s="7">
-        <v>1925</v>
+        <v>1926</v>
       </c>
       <c r="H22" s="8">
-        <v>0.24</v>
+        <v>0.23987538940809969</v>
       </c>
       <c r="I22" s="7">
-        <v>2194</v>
+        <v>2195</v>
       </c>
       <c r="J22" s="5">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K22" s="6">
-        <v>0.1162260711030082</v>
+        <v>0.11662870159453304</v>
       </c>
       <c r="L22" s="5">
         <v>25</v>
       </c>
       <c r="M22" s="10">
-        <v>1.0300782850000001E-2</v>
+        <v>1.029654036E-2</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1396,37 +1396,37 @@
         <v>29</v>
       </c>
       <c r="C23" s="12">
-        <v>3025</v>
+        <v>3022</v>
       </c>
       <c r="D23" s="13">
         <v>36</v>
       </c>
       <c r="E23" s="14">
-        <v>0.52418820410868128</v>
+        <v>0.52437810945273633</v>
       </c>
       <c r="F23" s="14">
-        <v>0.47581179589131878</v>
+        <v>0.47562189054726367</v>
       </c>
       <c r="G23" s="12">
         <v>2365</v>
       </c>
       <c r="H23" s="15">
-        <v>0.22917547568710359</v>
+        <v>0.23002114164904863</v>
       </c>
       <c r="I23" s="12">
-        <v>2644</v>
+        <v>2652</v>
       </c>
       <c r="J23" s="13">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="K23" s="14">
-        <v>0.12027231467473525</v>
+        <v>0.12028657616892911</v>
       </c>
       <c r="L23" s="13">
         <v>30</v>
       </c>
       <c r="M23" s="16">
-        <v>9.9173553700000004E-3</v>
+        <v>9.9272005200000003E-3</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1437,37 +1437,37 @@
         <v>30</v>
       </c>
       <c r="C24" s="7">
-        <v>3940</v>
+        <v>3936</v>
       </c>
       <c r="D24" s="5">
         <v>36</v>
       </c>
       <c r="E24" s="6">
-        <v>0.52340966921119592</v>
+        <v>0.52317880794701987</v>
       </c>
       <c r="F24" s="6">
-        <v>0.47659033078880408</v>
+        <v>0.47682119205298013</v>
       </c>
       <c r="G24" s="7">
         <v>3188</v>
       </c>
       <c r="H24" s="8">
-        <v>0.2697616060225847</v>
+        <v>0.27132998745294856</v>
       </c>
       <c r="I24" s="7">
-        <v>3464</v>
+        <v>3475</v>
       </c>
       <c r="J24" s="5">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K24" s="6">
-        <v>9.6131639722863746E-2</v>
+        <v>9.6115107913669062E-2</v>
       </c>
       <c r="L24" s="5">
         <v>33</v>
       </c>
       <c r="M24" s="10">
-        <v>8.3756345100000004E-3</v>
+        <v>8.3841463400000007E-3</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1478,37 +1478,37 @@
         <v>31</v>
       </c>
       <c r="C25" s="12">
-        <v>4824</v>
+        <v>4823</v>
       </c>
       <c r="D25" s="13">
         <v>36</v>
       </c>
       <c r="E25" s="14">
-        <v>0.50301392641862397</v>
+        <v>0.50270045700041543</v>
       </c>
       <c r="F25" s="14">
-        <v>0.49698607358137603</v>
+        <v>0.49729954299958457</v>
       </c>
       <c r="G25" s="12">
-        <v>3706</v>
+        <v>3705</v>
       </c>
       <c r="H25" s="15">
-        <v>0.24473826227738801</v>
+        <v>0.24480431848852902</v>
       </c>
       <c r="I25" s="12">
-        <v>4153</v>
+        <v>4156</v>
       </c>
       <c r="J25" s="13">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="K25" s="14">
-        <v>9.3667228509511202E-2</v>
+        <v>9.4080846968238693E-2</v>
       </c>
       <c r="L25" s="13">
         <v>32</v>
       </c>
       <c r="M25" s="16">
-        <v>6.6334991700000004E-3</v>
+        <v>6.6348745500000002E-3</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1525,16 +1525,16 @@
         <v>34</v>
       </c>
       <c r="E26" s="6">
-        <v>0.53654100529100535</v>
+        <v>0.53636363636363638</v>
       </c>
       <c r="F26" s="6">
-        <v>0.46345899470899471</v>
+        <v>0.46363636363636362</v>
       </c>
       <c r="G26" s="7">
-        <v>4550</v>
+        <v>4551</v>
       </c>
       <c r="H26" s="8">
-        <v>0.3</v>
+        <v>0.2999340804218853</v>
       </c>
       <c r="I26" s="7">
         <v>5281</v>
@@ -1560,16 +1560,16 @@
         <v>33</v>
       </c>
       <c r="C27" s="12">
-        <v>7957</v>
+        <v>7955</v>
       </c>
       <c r="D27" s="13">
         <v>32</v>
       </c>
       <c r="E27" s="14">
-        <v>0.53356000503714895</v>
+        <v>0.53344249905529662</v>
       </c>
       <c r="F27" s="14">
-        <v>0.46643999496285105</v>
+        <v>0.46655750094470338</v>
       </c>
       <c r="G27" s="12">
         <v>5854</v>
@@ -1578,19 +1578,19 @@
         <v>0.33190980526135977</v>
       </c>
       <c r="I27" s="12">
-        <v>7001</v>
+        <v>7000</v>
       </c>
       <c r="J27" s="13">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="K27" s="14">
-        <v>6.2562491072703896E-2</v>
+        <v>6.242857142857143E-2</v>
       </c>
       <c r="L27" s="13">
         <v>30</v>
       </c>
       <c r="M27" s="16">
-        <v>3.7702651699999998E-3</v>
+        <v>3.77121307E-3</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1601,37 +1601,37 @@
         <v>34</v>
       </c>
       <c r="C28" s="7">
-        <v>9605</v>
+        <v>9600</v>
       </c>
       <c r="D28" s="5">
         <v>32</v>
       </c>
       <c r="E28" s="6">
-        <v>0.54734967525665201</v>
+        <v>0.54719748559455217</v>
       </c>
       <c r="F28" s="6">
-        <v>0.45265032474334799</v>
+        <v>0.45280251440544789</v>
       </c>
       <c r="G28" s="7">
-        <v>7209</v>
+        <v>7206</v>
       </c>
       <c r="H28" s="8">
-        <v>0.34443057289499235</v>
+        <v>0.34512905911740216</v>
       </c>
       <c r="I28" s="7">
-        <v>8268</v>
+        <v>8288</v>
       </c>
       <c r="J28" s="5">
         <v>434</v>
       </c>
       <c r="K28" s="6">
-        <v>5.2491533623609095E-2</v>
+        <v>5.2364864864864864E-2</v>
       </c>
       <c r="L28" s="5">
         <v>30</v>
       </c>
       <c r="M28" s="10">
-        <v>3.1233732399999999E-3</v>
+        <v>3.1250000000000002E-3</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1642,37 +1642,37 @@
         <v>35</v>
       </c>
       <c r="C29" s="12">
-        <v>8822</v>
+        <v>8820</v>
       </c>
       <c r="D29" s="13">
         <v>32</v>
       </c>
       <c r="E29" s="14">
-        <v>0.53062621193110526</v>
+        <v>0.53057266712297513</v>
       </c>
       <c r="F29" s="14">
-        <v>0.46937378806889474</v>
+        <v>0.46942733287702487</v>
       </c>
       <c r="G29" s="12">
-        <v>6870</v>
+        <v>6868</v>
       </c>
       <c r="H29" s="15">
-        <v>0.30698689956331876</v>
+        <v>0.30693069306930693</v>
       </c>
       <c r="I29" s="12">
-        <v>7403</v>
+        <v>7414</v>
       </c>
       <c r="J29" s="13">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="K29" s="14">
-        <v>4.9169255707145754E-2</v>
+        <v>4.9500944159697871E-2</v>
       </c>
       <c r="L29" s="13">
         <v>19</v>
       </c>
       <c r="M29" s="16">
-        <v>2.1537066400000001E-3</v>
+        <v>2.1541950100000002E-3</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1683,37 +1683,37 @@
         <v>36</v>
       </c>
       <c r="C30" s="7">
-        <v>8626</v>
+        <v>8627</v>
       </c>
       <c r="D30" s="5">
         <v>33</v>
       </c>
       <c r="E30" s="6">
-        <v>0.53653420347278868</v>
+        <v>0.53658820787695172</v>
       </c>
       <c r="F30" s="6">
-        <v>0.46346579652721126</v>
+        <v>0.46341179212304823</v>
       </c>
       <c r="G30" s="7">
-        <v>6656</v>
+        <v>6658</v>
       </c>
       <c r="H30" s="8">
-        <v>0.27013221153846156</v>
+        <v>0.27110243316311206</v>
       </c>
       <c r="I30" s="7">
-        <v>7077</v>
+        <v>7081</v>
       </c>
       <c r="J30" s="5">
         <v>397</v>
       </c>
       <c r="K30" s="6">
-        <v>5.6097216334605057E-2</v>
+        <v>5.6065527467871766E-2</v>
       </c>
       <c r="L30" s="5">
         <v>36</v>
       </c>
       <c r="M30" s="10">
-        <v>4.1734291600000004E-3</v>
+        <v>4.1729454000000001E-3</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1724,37 +1724,37 @@
         <v>37</v>
       </c>
       <c r="C31" s="12">
-        <v>9778</v>
+        <v>9774</v>
       </c>
       <c r="D31" s="13">
         <v>35</v>
       </c>
       <c r="E31" s="14">
-        <v>0.51881167763157898</v>
+        <v>0.51881941587823943</v>
       </c>
       <c r="F31" s="14">
-        <v>0.48118832236842107</v>
+        <v>0.48118058412176057</v>
       </c>
       <c r="G31" s="12">
         <v>7601</v>
       </c>
       <c r="H31" s="15">
-        <v>0.20247335876858308</v>
+        <v>0.20352585186159716</v>
       </c>
       <c r="I31" s="12">
-        <v>8023</v>
+        <v>8019</v>
       </c>
       <c r="J31" s="13">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="K31" s="14">
-        <v>5.7709086376667079E-2</v>
+        <v>5.7862576381094898E-2</v>
       </c>
       <c r="L31" s="13">
         <v>65</v>
       </c>
       <c r="M31" s="16">
-        <v>6.6475761899999998E-3</v>
+        <v>6.6502966999999998E-3</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1765,37 +1765,37 @@
         <v>38</v>
       </c>
       <c r="C32" s="7">
-        <v>12298</v>
+        <v>12295</v>
       </c>
       <c r="D32" s="5">
         <v>36</v>
       </c>
       <c r="E32" s="6">
-        <v>0.51209743338237701</v>
+        <v>0.51226291693917592</v>
       </c>
       <c r="F32" s="6">
-        <v>0.48790256661762299</v>
+        <v>0.48773708306082408</v>
       </c>
       <c r="G32" s="7">
-        <v>9747</v>
+        <v>9751</v>
       </c>
       <c r="H32" s="8">
-        <v>0.18682671591258848</v>
+        <v>0.1863398625781971</v>
       </c>
       <c r="I32" s="7">
-        <v>10037</v>
+        <v>10034</v>
       </c>
       <c r="J32" s="5">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="K32" s="6">
-        <v>6.7051907940619701E-2</v>
+        <v>6.7171616503886783E-2</v>
       </c>
       <c r="L32" s="5">
         <v>79</v>
       </c>
       <c r="M32" s="10">
-        <v>6.4238087400000001E-3</v>
+        <v>6.4253761600000002E-3</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1806,37 +1806,37 @@
         <v>39</v>
       </c>
       <c r="C33" s="12">
-        <v>13077</v>
+        <v>13073</v>
       </c>
       <c r="D33" s="13">
         <v>37</v>
       </c>
       <c r="E33" s="14">
-        <v>0.51633233417877178</v>
+        <v>0.51637453874538741</v>
       </c>
       <c r="F33" s="14">
-        <v>0.48366766582122817</v>
+        <v>0.48362546125461253</v>
       </c>
       <c r="G33" s="12">
-        <v>10352</v>
+        <v>10354</v>
       </c>
       <c r="H33" s="15">
-        <v>0.18315301391035549</v>
+        <v>0.18224840641298048</v>
       </c>
       <c r="I33" s="12">
-        <v>10823</v>
+        <v>10824</v>
       </c>
       <c r="J33" s="13">
         <v>770</v>
       </c>
       <c r="K33" s="14">
-        <v>7.1144784255751645E-2</v>
+        <v>7.113821138211382E-2</v>
       </c>
       <c r="L33" s="13">
         <v>108</v>
       </c>
       <c r="M33" s="16">
-        <v>8.2587749399999997E-3</v>
+        <v>8.2613019099999994E-3</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1847,37 +1847,37 @@
         <v>40</v>
       </c>
       <c r="C34" s="7">
-        <v>15933</v>
+        <v>15922</v>
       </c>
       <c r="D34" s="5">
         <v>38</v>
       </c>
       <c r="E34" s="6">
-        <v>0.51942817557780718</v>
+        <v>0.51965725806451613</v>
       </c>
       <c r="F34" s="6">
-        <v>0.48057182442219282</v>
+        <v>0.48034274193548387</v>
       </c>
       <c r="G34" s="7">
-        <v>12582</v>
+        <v>12585</v>
       </c>
       <c r="H34" s="8">
-        <v>0.17564775075504691</v>
+        <v>0.17616209773539929</v>
       </c>
       <c r="I34" s="7">
-        <v>13438</v>
+        <v>13435</v>
       </c>
       <c r="J34" s="5">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="K34" s="6">
-        <v>6.4965024557225776E-2</v>
+        <v>6.4756233717900999E-2</v>
       </c>
       <c r="L34" s="5">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M34" s="10">
-        <v>7.5943011299999998E-3</v>
+        <v>7.5367416099999997E-3</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1888,37 +1888,37 @@
         <v>41</v>
       </c>
       <c r="C35" s="19">
-        <v>26152</v>
+        <v>26141</v>
       </c>
       <c r="D35" s="20">
         <v>39</v>
       </c>
       <c r="E35" s="21">
-        <v>0.51045944804820942</v>
+        <v>0.51050105586484928</v>
       </c>
       <c r="F35" s="21">
-        <v>0.48954055195179058</v>
+        <v>0.48949894413515072</v>
       </c>
       <c r="G35" s="19">
-        <v>20042</v>
+        <v>20053</v>
       </c>
       <c r="H35" s="22">
-        <v>0.16595150184612315</v>
+        <v>0.16586046975514884</v>
       </c>
       <c r="I35" s="19">
-        <v>21500</v>
+        <v>21514</v>
       </c>
       <c r="J35" s="20">
-        <v>1585</v>
+        <v>1582</v>
       </c>
       <c r="K35" s="21">
-        <v>7.3720930232558143E-2</v>
+        <v>7.3533513061262434E-2</v>
       </c>
       <c r="L35" s="20">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M35" s="23">
-        <v>9.0624043999999997E-3</v>
+        <v>9.1044718999999993E-3</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1929,37 +1929,37 @@
         <v>42</v>
       </c>
       <c r="C36" s="7">
-        <v>42098</v>
+        <v>42085</v>
       </c>
       <c r="D36" s="5">
         <v>39</v>
       </c>
       <c r="E36" s="6">
-        <v>0.50845595260844645</v>
+        <v>0.50852720584722688</v>
       </c>
       <c r="F36" s="6">
-        <v>0.49154404739155361</v>
+        <v>0.49147279415277312</v>
       </c>
       <c r="G36" s="7">
-        <v>30681</v>
+        <v>30777</v>
       </c>
       <c r="H36" s="8">
-        <v>0.15993611681496692</v>
+        <v>0.1599896026253371</v>
       </c>
       <c r="I36" s="7">
-        <v>33546</v>
+        <v>33574</v>
       </c>
       <c r="J36" s="5">
-        <v>2311</v>
+        <v>2312</v>
       </c>
       <c r="K36" s="6">
-        <v>6.8890478745603057E-2</v>
+        <v>6.8862810508131297E-2</v>
       </c>
       <c r="L36" s="5">
         <v>456</v>
       </c>
       <c r="M36" s="10">
-        <v>1.083186849E-2</v>
+        <v>1.0835214439999999E-2</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1970,37 +1970,37 @@
         <v>43</v>
       </c>
       <c r="C37" s="12">
-        <v>74859</v>
+        <v>74857</v>
       </c>
       <c r="D37" s="13">
         <v>40</v>
       </c>
       <c r="E37" s="14">
-        <v>0.50161138713575937</v>
+        <v>0.50165809647839099</v>
       </c>
       <c r="F37" s="14">
-        <v>0.49838861286424063</v>
+        <v>0.49834190352160895</v>
       </c>
       <c r="G37" s="12">
-        <v>51447</v>
+        <v>51705</v>
       </c>
       <c r="H37" s="15">
-        <v>0.15600520924446518</v>
+        <v>0.15549753408761241</v>
       </c>
       <c r="I37" s="12">
-        <v>57501</v>
+        <v>57691</v>
       </c>
       <c r="J37" s="13">
-        <v>4053</v>
+        <v>4068</v>
       </c>
       <c r="K37" s="14">
-        <v>7.0485730682944642E-2</v>
+        <v>7.0513598308228315E-2</v>
       </c>
       <c r="L37" s="13">
         <v>975</v>
       </c>
       <c r="M37" s="16">
-        <v>1.3024486030000001E-2</v>
+        <v>1.302483401E-2</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2011,37 +2011,37 @@
         <v>44</v>
       </c>
       <c r="C38" s="7">
-        <v>111151</v>
+        <v>111147</v>
       </c>
       <c r="D38" s="5">
         <v>41</v>
       </c>
       <c r="E38" s="6">
-        <v>0.49711202447989283</v>
+        <v>0.49718521468394755</v>
       </c>
       <c r="F38" s="6">
-        <v>0.50288797552010722</v>
+        <v>0.50281478531605239</v>
       </c>
       <c r="G38" s="7">
-        <v>74016</v>
+        <v>74369</v>
       </c>
       <c r="H38" s="8">
-        <v>0.15862786424556852</v>
+        <v>0.15878928047976978</v>
       </c>
       <c r="I38" s="7">
-        <v>82927</v>
+        <v>83171</v>
       </c>
       <c r="J38" s="5">
-        <v>5829</v>
+        <v>5849</v>
       </c>
       <c r="K38" s="6">
-        <v>7.029073763671663E-2</v>
+        <v>7.0324993086532561E-2</v>
       </c>
       <c r="L38" s="5">
-        <v>1563</v>
+        <v>1568</v>
       </c>
       <c r="M38" s="10">
-        <v>1.4061951749999999E-2</v>
+        <v>1.410744329E-2</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2052,37 +2052,37 @@
         <v>45</v>
       </c>
       <c r="C39" s="19">
-        <v>125813</v>
+        <v>125831</v>
       </c>
       <c r="D39" s="20">
         <v>41</v>
       </c>
       <c r="E39" s="21">
-        <v>0.49138905139321865</v>
+        <v>0.49130184054976211</v>
       </c>
       <c r="F39" s="21">
-        <v>0.50861094860678135</v>
+        <v>0.50869815945023789</v>
       </c>
       <c r="G39" s="19">
-        <v>82615</v>
+        <v>83335</v>
       </c>
       <c r="H39" s="22">
-        <v>0.15318041517884162</v>
+        <v>0.15326093478130437</v>
       </c>
       <c r="I39" s="19">
-        <v>91257</v>
+        <v>91759</v>
       </c>
       <c r="J39" s="20">
-        <v>6650</v>
+        <v>6711</v>
       </c>
       <c r="K39" s="21">
-        <v>7.2871122215282122E-2</v>
+        <v>7.3137239943765739E-2</v>
       </c>
       <c r="L39" s="20">
-        <v>1828</v>
+        <v>1832</v>
       </c>
       <c r="M39" s="23">
-        <v>1.4529500129999999E-2</v>
+        <v>1.455921036E-2</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2093,37 +2093,37 @@
         <v>46</v>
       </c>
       <c r="C40" s="7">
-        <v>127886</v>
+        <v>127910</v>
       </c>
       <c r="D40" s="5">
         <v>42</v>
       </c>
       <c r="E40" s="6">
-        <v>0.48449034050985684</v>
+        <v>0.48452689054412323</v>
       </c>
       <c r="F40" s="6">
-        <v>0.51550965949014316</v>
+        <v>0.51547310945587677</v>
       </c>
       <c r="G40" s="7">
-        <v>83164</v>
+        <v>83826</v>
       </c>
       <c r="H40" s="8">
-        <v>0.14820114472608339</v>
+        <v>0.14883210459761886</v>
       </c>
       <c r="I40" s="7">
-        <v>92841</v>
+        <v>93442</v>
       </c>
       <c r="J40" s="5">
-        <v>7307</v>
+        <v>7374</v>
       </c>
       <c r="K40" s="6">
-        <v>7.8704451696987324E-2</v>
+        <v>7.8915262943858228E-2</v>
       </c>
       <c r="L40" s="5">
-        <v>2417</v>
+        <v>2426</v>
       </c>
       <c r="M40" s="10">
-        <v>1.8899644989999999E-2</v>
+        <v>1.896646079E-2</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2134,37 +2134,37 @@
         <v>47</v>
       </c>
       <c r="C41" s="19">
-        <v>128490</v>
+        <v>128492</v>
       </c>
       <c r="D41" s="20">
         <v>43</v>
       </c>
       <c r="E41" s="21">
-        <v>0.4744583924664999</v>
+        <v>0.47450559270087866</v>
       </c>
       <c r="F41" s="21">
-        <v>0.5255416075335001</v>
+        <v>0.52549440729912134</v>
       </c>
       <c r="G41" s="19">
-        <v>83484</v>
+        <v>84435</v>
       </c>
       <c r="H41" s="22">
-        <v>0.14759714436299171</v>
+        <v>0.14809024693551254</v>
       </c>
       <c r="I41" s="19">
-        <v>92223</v>
+        <v>92865</v>
       </c>
       <c r="J41" s="20">
-        <v>7795</v>
+        <v>7869</v>
       </c>
       <c r="K41" s="21">
-        <v>8.4523383537729202E-2</v>
+        <v>8.4735906961718621E-2</v>
       </c>
       <c r="L41" s="20">
-        <v>3061</v>
+        <v>3076</v>
       </c>
       <c r="M41" s="23">
-        <v>2.3822865589999999E-2</v>
+        <v>2.3939233569999999E-2</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2175,37 +2175,37 @@
         <v>48</v>
       </c>
       <c r="C42" s="7">
-        <v>123330</v>
+        <v>123327</v>
       </c>
       <c r="D42" s="5">
         <v>44</v>
       </c>
       <c r="E42" s="6">
-        <v>0.46552948957678397</v>
+        <v>0.46552385616913594</v>
       </c>
       <c r="F42" s="6">
-        <v>0.53447051042321603</v>
+        <v>0.53447614383086406</v>
       </c>
       <c r="G42" s="7">
-        <v>79278</v>
+        <v>79939</v>
       </c>
       <c r="H42" s="8">
-        <v>0.15422942052019475</v>
+        <v>0.15391736198851624</v>
       </c>
       <c r="I42" s="7">
-        <v>88010</v>
+        <v>88382</v>
       </c>
       <c r="J42" s="5">
-        <v>8052</v>
+        <v>8098</v>
       </c>
       <c r="K42" s="6">
-        <v>9.148960345415294E-2</v>
+        <v>9.1624991514109203E-2</v>
       </c>
       <c r="L42" s="5">
-        <v>3389</v>
+        <v>3418</v>
       </c>
       <c r="M42" s="10">
-        <v>2.7479121049999999E-2</v>
+        <v>2.7714936709999999E-2</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2216,37 +2216,37 @@
         <v>49</v>
       </c>
       <c r="C43" s="19">
-        <v>128501</v>
+        <v>128495</v>
       </c>
       <c r="D43" s="20">
         <v>45</v>
       </c>
       <c r="E43" s="21">
-        <v>0.45903517099079733</v>
+        <v>0.45907283521689007</v>
       </c>
       <c r="F43" s="21">
-        <v>0.54096482900920262</v>
+        <v>0.54092716478310998</v>
       </c>
       <c r="G43" s="19">
-        <v>84201</v>
+        <v>85072</v>
       </c>
       <c r="H43" s="22">
-        <v>0.14105533188441943</v>
+        <v>0.14085715629114162</v>
       </c>
       <c r="I43" s="19">
-        <v>91791</v>
+        <v>92489</v>
       </c>
       <c r="J43" s="20">
-        <v>8806</v>
+        <v>8890</v>
       </c>
       <c r="K43" s="21">
-        <v>9.5935331350568143E-2</v>
+        <v>9.6119538539718233E-2</v>
       </c>
       <c r="L43" s="20">
-        <v>4208</v>
+        <v>4244</v>
       </c>
       <c r="M43" s="23">
-        <v>3.2746826870000002E-2</v>
+        <v>3.3028522509999998E-2</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2257,37 +2257,37 @@
         <v>50</v>
       </c>
       <c r="C44" s="7">
-        <v>156484</v>
+        <v>156492</v>
       </c>
       <c r="D44" s="5">
         <v>46</v>
       </c>
       <c r="E44" s="6">
-        <v>0.45385828799536426</v>
+        <v>0.45383630149770549</v>
       </c>
       <c r="F44" s="6">
-        <v>0.54614171200463579</v>
+        <v>0.54616369850229451</v>
       </c>
       <c r="G44" s="7">
-        <v>102222</v>
+        <v>104092</v>
       </c>
       <c r="H44" s="8">
-        <v>0.14562422961789048</v>
+        <v>0.14460285132382891</v>
       </c>
       <c r="I44" s="7">
-        <v>110307</v>
+        <v>112136</v>
       </c>
       <c r="J44" s="5">
-        <v>10701</v>
+        <v>10891</v>
       </c>
       <c r="K44" s="6">
-        <v>9.7011069107128284E-2</v>
+        <v>9.7123136191767143E-2</v>
       </c>
       <c r="L44" s="5">
-        <v>5361</v>
+        <v>5420</v>
       </c>
       <c r="M44" s="10">
-        <v>3.4259093579999997E-2</v>
+        <v>3.4634358300000001E-2</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2298,37 +2298,37 @@
         <v>51</v>
       </c>
       <c r="C45" s="19">
-        <v>175010</v>
+        <v>174967</v>
       </c>
       <c r="D45" s="20">
         <v>46</v>
       </c>
       <c r="E45" s="21">
-        <v>0.4517620371809708</v>
+        <v>0.45175888076458059</v>
       </c>
       <c r="F45" s="21">
-        <v>0.54823796281902915</v>
+        <v>0.54824111923541941</v>
       </c>
       <c r="G45" s="19">
-        <v>111542</v>
+        <v>113177</v>
       </c>
       <c r="H45" s="22">
-        <v>0.14469885782933783</v>
+        <v>0.14435795258753986</v>
       </c>
       <c r="I45" s="19">
-        <v>120083</v>
+        <v>121732</v>
       </c>
       <c r="J45" s="20">
-        <v>11772</v>
+        <v>11958</v>
       </c>
       <c r="K45" s="21">
-        <v>9.8032194398874117E-2</v>
+        <v>9.8232182170669993E-2</v>
       </c>
       <c r="L45" s="20">
-        <v>5988</v>
+        <v>6070</v>
       </c>
       <c r="M45" s="23">
-        <v>3.4215187699999997E-2</v>
+        <v>3.4692256249999998E-2</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2339,37 +2339,37 @@
         <v>52</v>
       </c>
       <c r="C46" s="7">
-        <v>139360</v>
+        <v>139341</v>
       </c>
       <c r="D46" s="5">
         <v>48</v>
       </c>
       <c r="E46" s="6">
-        <v>0.44495558834591903</v>
+        <v>0.44490167858770097</v>
       </c>
       <c r="F46" s="6">
-        <v>0.55504441165408092</v>
+        <v>0.55509832141229909</v>
       </c>
       <c r="G46" s="7">
-        <v>86964</v>
+        <v>87646</v>
       </c>
       <c r="H46" s="8">
-        <v>0.15563911503610689</v>
+        <v>0.15623074641170162</v>
       </c>
       <c r="I46" s="7">
-        <v>95583</v>
+        <v>96080</v>
       </c>
       <c r="J46" s="5">
-        <v>10461</v>
+        <v>10540</v>
       </c>
       <c r="K46" s="6">
-        <v>0.10944414801795298</v>
+        <v>0.10970024979184013</v>
       </c>
       <c r="L46" s="5">
-        <v>5289</v>
+        <v>5378</v>
       </c>
       <c r="M46" s="10">
-        <v>3.795206659E-2</v>
+        <v>3.8595962419999998E-2</v>
       </c>
     </row>
     <row r="47" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2380,37 +2380,37 @@
         <v>53</v>
       </c>
       <c r="C47" s="19">
-        <v>123311</v>
+        <v>123282</v>
       </c>
       <c r="D47" s="20">
         <v>49</v>
       </c>
       <c r="E47" s="21">
-        <v>0.4412015059747913</v>
+        <v>0.44123881781946456</v>
       </c>
       <c r="F47" s="21">
-        <v>0.55879849402520876</v>
+        <v>0.55876118218053539</v>
       </c>
       <c r="G47" s="19">
-        <v>79499</v>
+        <v>80723</v>
       </c>
       <c r="H47" s="22">
-        <v>0.13327211663039787</v>
+        <v>0.13343161180828264</v>
       </c>
       <c r="I47" s="19">
-        <v>86401</v>
+        <v>87224</v>
       </c>
       <c r="J47" s="20">
-        <v>10279</v>
+        <v>10395</v>
       </c>
       <c r="K47" s="21">
-        <v>0.11896853045682342</v>
+        <v>0.11917591488581124</v>
       </c>
       <c r="L47" s="20">
-        <v>5202</v>
+        <v>5318</v>
       </c>
       <c r="M47" s="23">
-        <v>4.2186017460000003E-2</v>
+        <v>4.313687318E-2</v>
       </c>
     </row>
     <row r="48" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2421,37 +2421,37 @@
         <v>1</v>
       </c>
       <c r="C48" s="27">
-        <v>145634</v>
+        <v>145583</v>
       </c>
       <c r="D48" s="28">
         <v>48</v>
       </c>
       <c r="E48" s="29">
-        <v>0.45101126401065367</v>
+        <v>0.45092599015051676</v>
       </c>
       <c r="F48" s="29">
-        <v>0.54898873598934639</v>
+        <v>0.54907400984948329</v>
       </c>
       <c r="G48" s="27">
-        <v>94705</v>
+        <v>95761</v>
       </c>
       <c r="H48" s="30">
-        <v>0.13390000527955229</v>
+        <v>0.13370787690187028</v>
       </c>
       <c r="I48" s="27">
-        <v>101105</v>
+        <v>102171</v>
       </c>
       <c r="J48" s="28">
-        <v>10277</v>
+        <v>10431</v>
       </c>
       <c r="K48" s="29">
-        <v>0.1016468028287424</v>
+        <v>0.10209354905012186</v>
       </c>
       <c r="L48" s="28">
-        <v>5112</v>
+        <v>5252</v>
       </c>
       <c r="M48" s="31">
-        <v>3.5101693279999999E-2</v>
+        <v>3.6075640690000001E-2</v>
       </c>
     </row>
     <row r="49" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2462,37 +2462,37 @@
         <v>2</v>
       </c>
       <c r="C49" s="19">
-        <v>119193</v>
+        <v>119120</v>
       </c>
       <c r="D49" s="20">
         <v>48</v>
       </c>
       <c r="E49" s="21">
-        <v>0.45450149314510657</v>
+        <v>0.45451845314369604</v>
       </c>
       <c r="F49" s="21">
-        <v>0.54549850685489343</v>
+        <v>0.5454815468563039</v>
       </c>
       <c r="G49" s="19">
-        <v>76124</v>
+        <v>76971</v>
       </c>
       <c r="H49" s="22">
-        <v>0.15931900583258893</v>
+        <v>0.15904691377271959</v>
       </c>
       <c r="I49" s="19">
-        <v>83231</v>
+        <v>84032</v>
       </c>
       <c r="J49" s="20">
-        <v>9033</v>
+        <v>9181</v>
       </c>
       <c r="K49" s="21">
-        <v>0.10852927394840865</v>
+        <v>0.10925599771515614</v>
       </c>
       <c r="L49" s="20">
-        <v>4333</v>
+        <v>4554</v>
       </c>
       <c r="M49" s="23">
-        <v>3.6352805949999997E-2</v>
+        <v>3.8230355940000002E-2</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2503,37 +2503,37 @@
         <v>3</v>
       </c>
       <c r="C50" s="7">
-        <v>95727</v>
+        <v>95686</v>
       </c>
       <c r="D50" s="5">
         <v>48</v>
       </c>
       <c r="E50" s="6">
-        <v>0.45808241138192518</v>
+        <v>0.45808064294980644</v>
       </c>
       <c r="F50" s="6">
-        <v>0.54191758861807482</v>
+        <v>0.54191935705019356</v>
       </c>
       <c r="G50" s="7">
-        <v>62314</v>
+        <v>63280</v>
       </c>
       <c r="H50" s="8">
-        <v>0.15871232788779407</v>
+        <v>0.15897597977243996</v>
       </c>
       <c r="I50" s="7">
-        <v>68924</v>
+        <v>69688</v>
       </c>
       <c r="J50" s="5">
-        <v>7867</v>
+        <v>8072</v>
       </c>
       <c r="K50" s="6">
-        <v>0.11414021240786953</v>
+        <v>0.11583055906325336</v>
       </c>
       <c r="L50" s="5">
-        <v>3125</v>
+        <v>3452</v>
       </c>
       <c r="M50" s="10">
-        <v>3.264491731E-2</v>
+        <v>3.6076333000000002E-2</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2544,37 +2544,37 @@
         <v>4</v>
       </c>
       <c r="C51" s="19">
-        <v>78529</v>
+        <v>78452</v>
       </c>
       <c r="D51" s="20">
         <v>48</v>
       </c>
       <c r="E51" s="21">
-        <v>0.46365576468168263</v>
+        <v>0.46348491670418729</v>
       </c>
       <c r="F51" s="21">
-        <v>0.53634423531831743</v>
+        <v>0.53651508329581266</v>
       </c>
       <c r="G51" s="19">
-        <v>50970</v>
+        <v>52422</v>
       </c>
       <c r="H51" s="22">
-        <v>0.15974102413184227</v>
+        <v>0.15890275075350044</v>
       </c>
       <c r="I51" s="19">
-        <v>57530</v>
+        <v>58725</v>
       </c>
       <c r="J51" s="20">
-        <v>6531</v>
+        <v>6828</v>
       </c>
       <c r="K51" s="21">
-        <v>0.11352337910655311</v>
+        <v>0.11627075351213283</v>
       </c>
       <c r="L51" s="20">
-        <v>1912</v>
+        <v>2368</v>
       </c>
       <c r="M51" s="23">
-        <v>2.4347693199999999E-2</v>
+        <v>3.0184061589999998E-2</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2585,37 +2585,37 @@
         <v>5</v>
       </c>
       <c r="C52" s="7">
-        <v>64905</v>
+        <v>64786</v>
       </c>
       <c r="D52" s="5">
         <v>47</v>
       </c>
       <c r="E52" s="6">
-        <v>0.47395159656531971</v>
+        <v>0.47383689193193695</v>
       </c>
       <c r="F52" s="6">
-        <v>0.52604840343468029</v>
+        <v>0.5261631080680631</v>
       </c>
       <c r="G52" s="7">
-        <v>41569</v>
+        <v>43284</v>
       </c>
       <c r="H52" s="8">
-        <v>0.15930140248743055</v>
+        <v>0.15915811847333888</v>
       </c>
       <c r="I52" s="7">
-        <v>47341</v>
+        <v>48629</v>
       </c>
       <c r="J52" s="5">
-        <v>5237</v>
+        <v>5657</v>
       </c>
       <c r="K52" s="6">
-        <v>0.11062292727234321</v>
+        <v>0.11632976207612741</v>
       </c>
       <c r="L52" s="5">
-        <v>978</v>
+        <v>1452</v>
       </c>
       <c r="M52" s="10">
-        <v>1.506817656E-2</v>
+        <v>2.241224956E-2</v>
       </c>
     </row>
     <row r="53" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2626,37 +2626,78 @@
         <v>6</v>
       </c>
       <c r="C53" s="19">
-        <v>50479</v>
+        <v>50834</v>
       </c>
       <c r="D53" s="20">
         <v>45</v>
       </c>
       <c r="E53" s="21">
-        <v>0.48477070842774356</v>
+        <v>0.48425322093208206</v>
       </c>
       <c r="F53" s="21">
-        <v>0.51522929157225639</v>
+        <v>0.51574677906791788</v>
       </c>
       <c r="G53" s="19">
-        <v>30143</v>
+        <v>33777</v>
       </c>
       <c r="H53" s="22">
-        <v>0.16607504229837775</v>
+        <v>0.16478668916718478</v>
       </c>
       <c r="I53" s="19">
-        <v>34773</v>
+        <v>37840</v>
       </c>
       <c r="J53" s="20">
-        <v>3399</v>
+        <v>4201</v>
       </c>
       <c r="K53" s="21">
-        <v>9.7748252954878781E-2</v>
+        <v>0.11102008456659619</v>
       </c>
       <c r="L53" s="20">
-        <v>271</v>
+        <v>705</v>
       </c>
       <c r="M53" s="23">
-        <v>5.3685690999999997E-3</v>
+        <v>1.386867057E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="17">
+        <v>2021</v>
+      </c>
+      <c r="B54" s="17">
+        <v>7</v>
+      </c>
+      <c r="C54" s="7">
+        <v>52154</v>
+      </c>
+      <c r="D54" s="5">
+        <v>44</v>
+      </c>
+      <c r="E54" s="6">
+        <v>0.49260873777002812</v>
+      </c>
+      <c r="F54" s="6">
+        <v>0.50739126222997188</v>
+      </c>
+      <c r="G54" s="7">
+        <v>31549</v>
+      </c>
+      <c r="H54" s="8">
+        <v>0.16986275317759675</v>
+      </c>
+      <c r="I54" s="7">
+        <v>36836</v>
+      </c>
+      <c r="J54" s="5">
+        <v>3416</v>
+      </c>
+      <c r="K54" s="6">
+        <v>9.273536757519818E-2</v>
+      </c>
+      <c r="L54" s="5">
+        <v>212</v>
+      </c>
+      <c r="M54" s="10">
+        <v>4.0648847599999999E-3</v>
       </c>
     </row>
   </sheetData>

--- a/data/klinische_aspekte.xlsx
+++ b/data/klinische_aspekte.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20371"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20367"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8F6153B-1DD1-4BB7-B621-A347B9E2D399}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE14F308-0C1C-488F-A95B-508E2C59C25B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6825" xr2:uid="{57D9C569-8452-4477-9604-638877EA1117}"/>
   </bookViews>
@@ -61,7 +61,7 @@
     <t>Anteil Verstorben</t>
   </si>
   <si>
-    <t>Die dem RKI übermittelte COVID-19-Fälle nach Meldewoche und  Geschlecht sowie Anteile mit für COVID-19 relevanten Symptomen, Anteile Hospitalisierter und Verstorbener für die Meldewochen KW 10 – 53/2020 und KW 01 - 07/2021</t>
+    <t>Die dem RKI übermittelte COVID-19-Fälle nach Meldewoche und  Geschlecht sowie Anteile mit für COVID-19 relevanten Symptomen, Anteile Hospitalisierter und Verstorbener für die Meldewochen KW 10 – 53/2020 und KW 01 - 08/2021</t>
   </si>
 </sst>
 </file>
@@ -555,10 +555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15BEC8A3-BADA-461B-AF50-F9671B454C26}">
-  <dimension ref="A1:M54"/>
+  <dimension ref="A1:M55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55:M55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -617,37 +617,37 @@
         <v>10</v>
       </c>
       <c r="C4" s="5">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="D4" s="5">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E4" s="6">
-        <v>0.53079507278835392</v>
+        <v>0.53072625698324027</v>
       </c>
       <c r="F4" s="6">
-        <v>0.46920492721164614</v>
+        <v>0.46927374301675978</v>
       </c>
       <c r="G4" s="7">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="H4" s="8">
-        <v>7.9231692677070822E-2</v>
+        <v>8.1437125748502995E-2</v>
       </c>
       <c r="I4" s="5">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="J4" s="9">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K4" s="6">
-        <v>0.20074812967581046</v>
+        <v>0.20124223602484473</v>
       </c>
       <c r="L4" s="9">
         <v>12</v>
       </c>
       <c r="M4" s="10">
-        <v>1.343784994E-2</v>
+        <v>1.3407821219999999E-2</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -658,37 +658,37 @@
         <v>11</v>
       </c>
       <c r="C5" s="12">
-        <v>6427</v>
+        <v>6426</v>
       </c>
       <c r="D5" s="13">
         <v>45</v>
       </c>
       <c r="E5" s="14">
-        <v>0.56295719844357972</v>
+        <v>0.56288916562889169</v>
       </c>
       <c r="F5" s="14">
-        <v>0.43704280155642022</v>
+        <v>0.43711083437110837</v>
       </c>
       <c r="G5" s="12">
-        <v>5773</v>
+        <v>5772</v>
       </c>
       <c r="H5" s="15">
-        <v>5.3005369825047638E-2</v>
+        <v>5.3014553014553017E-2</v>
       </c>
       <c r="I5" s="12">
         <v>5621</v>
       </c>
       <c r="J5" s="13">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="K5" s="14">
-        <v>9.3043942359010853E-2</v>
+        <v>9.3221846646504181E-2</v>
       </c>
       <c r="L5" s="13">
         <v>85</v>
       </c>
       <c r="M5" s="16">
-        <v>1.3225455109999999E-2</v>
+        <v>1.3227513220000001E-2</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -699,37 +699,37 @@
         <v>12</v>
       </c>
       <c r="C6" s="7">
-        <v>22431</v>
+        <v>22433</v>
       </c>
       <c r="D6" s="5">
         <v>45</v>
       </c>
       <c r="E6" s="6">
-        <v>0.54997992773986348</v>
+        <v>0.54997546942598452</v>
       </c>
       <c r="F6" s="6">
-        <v>0.45002007226013652</v>
+        <v>0.45002453057401542</v>
       </c>
       <c r="G6" s="7">
-        <v>20201</v>
+        <v>20203</v>
       </c>
       <c r="H6" s="8">
-        <v>3.8710954903222614E-2</v>
+        <v>3.8707122704548833E-2</v>
       </c>
       <c r="I6" s="7">
-        <v>19363</v>
+        <v>19369</v>
       </c>
       <c r="J6" s="7">
         <v>2210</v>
       </c>
       <c r="K6" s="6">
-        <v>0.1141352063213345</v>
+        <v>0.11409985027621457</v>
       </c>
       <c r="L6" s="5">
         <v>478</v>
       </c>
       <c r="M6" s="10">
-        <v>2.1309794480000002E-2</v>
+        <v>2.1307894609999999E-2</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -740,37 +740,37 @@
         <v>13</v>
       </c>
       <c r="C7" s="12">
-        <v>34011</v>
+        <v>34006</v>
       </c>
       <c r="D7" s="13">
         <v>48</v>
       </c>
       <c r="E7" s="14">
-        <v>0.49507193503780633</v>
+        <v>0.49502707156308851</v>
       </c>
       <c r="F7" s="14">
-        <v>0.50492806496219367</v>
+        <v>0.50497292843691144</v>
       </c>
       <c r="G7" s="12">
-        <v>30861</v>
+        <v>30869</v>
       </c>
       <c r="H7" s="15">
-        <v>3.2468163701759499E-2</v>
+        <v>3.2783698856457932E-2</v>
       </c>
       <c r="I7" s="12">
-        <v>29511</v>
+        <v>29521</v>
       </c>
       <c r="J7" s="12">
-        <v>5131</v>
+        <v>5132</v>
       </c>
       <c r="K7" s="14">
-        <v>0.17386737148859746</v>
+        <v>0.17384234951390534</v>
       </c>
       <c r="L7" s="12">
         <v>1464</v>
       </c>
       <c r="M7" s="16">
-        <v>4.3044897229999997E-2</v>
+        <v>4.3051226249999998E-2</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -781,37 +781,37 @@
         <v>14</v>
       </c>
       <c r="C8" s="7">
-        <v>36089</v>
+        <v>36086</v>
       </c>
       <c r="D8" s="5">
         <v>51</v>
       </c>
       <c r="E8" s="6">
-        <v>0.45068079088211643</v>
+        <v>0.45071828720394919</v>
       </c>
       <c r="F8" s="6">
-        <v>0.54931920911788357</v>
+        <v>0.54928171279605076</v>
       </c>
       <c r="G8" s="7">
-        <v>32065</v>
+        <v>32070</v>
       </c>
       <c r="H8" s="8">
-        <v>5.4451894589115861E-2</v>
+        <v>5.4817586529466791E-2</v>
       </c>
       <c r="I8" s="7">
-        <v>31611</v>
+        <v>31622</v>
       </c>
       <c r="J8" s="7">
-        <v>6078</v>
+        <v>6080</v>
       </c>
       <c r="K8" s="6">
-        <v>0.19227484103634809</v>
+        <v>0.19227120359243566</v>
       </c>
       <c r="L8" s="7">
         <v>2258</v>
       </c>
       <c r="M8" s="10">
-        <v>6.2567541350000005E-2</v>
+        <v>6.2572742890000005E-2</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -822,37 +822,37 @@
         <v>15</v>
       </c>
       <c r="C9" s="12">
-        <v>27188</v>
+        <v>27187</v>
       </c>
       <c r="D9" s="13">
         <v>52</v>
       </c>
       <c r="E9" s="14">
-        <v>0.43498434910697847</v>
+        <v>0.4349635412830522</v>
       </c>
       <c r="F9" s="14">
-        <v>0.56501565089302153</v>
+        <v>0.56503645871694774</v>
       </c>
       <c r="G9" s="12">
         <v>23605</v>
       </c>
       <c r="H9" s="15">
-        <v>8.3795805973310739E-2</v>
+        <v>8.4007625503071379E-2</v>
       </c>
       <c r="I9" s="12">
-        <v>24135</v>
+        <v>24136</v>
       </c>
       <c r="J9" s="12">
-        <v>4720</v>
+        <v>4719</v>
       </c>
       <c r="K9" s="14">
-        <v>0.19556660451626268</v>
+        <v>0.19551706993702353</v>
       </c>
       <c r="L9" s="12">
         <v>1876</v>
       </c>
       <c r="M9" s="16">
-        <v>6.9001029859999993E-2</v>
+        <v>6.9003567880000005E-2</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -863,37 +863,37 @@
         <v>16</v>
       </c>
       <c r="C10" s="7">
-        <v>17369</v>
+        <v>17368</v>
       </c>
       <c r="D10" s="5">
         <v>51</v>
       </c>
       <c r="E10" s="6">
-        <v>0.44720461095100866</v>
+        <v>0.44705746728918094</v>
       </c>
       <c r="F10" s="6">
-        <v>0.55279538904899139</v>
+        <v>0.55294253271081906</v>
       </c>
       <c r="G10" s="7">
-        <v>14881</v>
+        <v>14879</v>
       </c>
       <c r="H10" s="8">
-        <v>0.11390363550836638</v>
+        <v>0.11385173734794005</v>
       </c>
       <c r="I10" s="7">
-        <v>15530</v>
+        <v>15537</v>
       </c>
       <c r="J10" s="7">
-        <v>3372</v>
+        <v>3371</v>
       </c>
       <c r="K10" s="6">
-        <v>0.21712813908564069</v>
+        <v>0.21696595224303275</v>
       </c>
       <c r="L10" s="7">
         <v>1218</v>
       </c>
       <c r="M10" s="10">
-        <v>7.0124935220000004E-2</v>
+        <v>7.0128972819999996E-2</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -904,37 +904,37 @@
         <v>17</v>
       </c>
       <c r="C11" s="12">
-        <v>12376</v>
+        <v>12377</v>
       </c>
       <c r="D11" s="13">
         <v>50</v>
       </c>
       <c r="E11" s="14">
-        <v>0.44995549801763896</v>
+        <v>0.45</v>
       </c>
       <c r="F11" s="14">
-        <v>0.55004450198236099</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="G11" s="12">
-        <v>10284</v>
+        <v>10285</v>
       </c>
       <c r="H11" s="15">
-        <v>0.13866199922209257</v>
+        <v>0.13884297520661157</v>
       </c>
       <c r="I11" s="12">
-        <v>10984</v>
+        <v>10990</v>
       </c>
       <c r="J11" s="12">
         <v>2234</v>
       </c>
       <c r="K11" s="14">
-        <v>0.20338674435542609</v>
+        <v>0.20327570518653321</v>
       </c>
       <c r="L11" s="13">
         <v>718</v>
       </c>
       <c r="M11" s="16">
-        <v>5.8015513890000002E-2</v>
+        <v>5.8010826529999997E-2</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -945,37 +945,37 @@
         <v>18</v>
       </c>
       <c r="C12" s="7">
-        <v>7447</v>
+        <v>7445</v>
       </c>
       <c r="D12" s="5">
         <v>48</v>
       </c>
       <c r="E12" s="6">
-        <v>0.47776434233507992</v>
+        <v>0.47775836581104691</v>
       </c>
       <c r="F12" s="6">
-        <v>0.52223565766492008</v>
+        <v>0.52224163418895309</v>
       </c>
       <c r="G12" s="7">
-        <v>6259</v>
+        <v>6257</v>
       </c>
       <c r="H12" s="8">
-        <v>0.17526761463492571</v>
+        <v>0.17532363752597091</v>
       </c>
       <c r="I12" s="7">
-        <v>6613</v>
+        <v>6611</v>
       </c>
       <c r="J12" s="7">
         <v>1360</v>
       </c>
       <c r="K12" s="6">
-        <v>0.20565552699228792</v>
+        <v>0.20571774315534716</v>
       </c>
       <c r="L12" s="5">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="M12" s="10">
-        <v>5.1832952860000003E-2</v>
+        <v>5.1712558759999999E-2</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1004,13 +1004,13 @@
         <v>0.19645579268292682</v>
       </c>
       <c r="I13" s="12">
-        <v>5630</v>
+        <v>5631</v>
       </c>
       <c r="J13" s="12">
         <v>1081</v>
       </c>
       <c r="K13" s="14">
-        <v>0.19200710479573713</v>
+        <v>0.19197300657076896</v>
       </c>
       <c r="L13" s="13">
         <v>255</v>
@@ -1027,22 +1027,22 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>4757</v>
+        <v>4755</v>
       </c>
       <c r="D14" s="5">
         <v>45</v>
       </c>
       <c r="E14" s="6">
-        <v>0.49410526315789471</v>
+        <v>0.49399873657612131</v>
       </c>
       <c r="F14" s="6">
-        <v>0.50589473684210529</v>
+        <v>0.50600126342387874</v>
       </c>
       <c r="G14" s="7">
-        <v>3959</v>
+        <v>3958</v>
       </c>
       <c r="H14" s="8">
-        <v>0.23137155847436222</v>
+        <v>0.23092470944921678</v>
       </c>
       <c r="I14" s="7">
         <v>4229</v>
@@ -1057,7 +1057,7 @@
         <v>163</v>
       </c>
       <c r="M14" s="10">
-        <v>3.4265293250000002E-2</v>
+        <v>3.4279705569999999E-2</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1074,10 +1074,10 @@
         <v>43</v>
       </c>
       <c r="E15" s="14">
-        <v>0.50221852468108708</v>
+        <v>0.50249584026622296</v>
       </c>
       <c r="F15" s="14">
-        <v>0.49778147531891292</v>
+        <v>0.49750415973377704</v>
       </c>
       <c r="G15" s="12">
         <v>2836</v>
@@ -1086,19 +1086,19 @@
         <v>0.26269393511988715</v>
       </c>
       <c r="I15" s="12">
-        <v>3121</v>
+        <v>3122</v>
       </c>
       <c r="J15" s="13">
         <v>513</v>
       </c>
       <c r="K15" s="14">
-        <v>0.1643703941044537</v>
+        <v>0.16431774503523383</v>
       </c>
       <c r="L15" s="13">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M15" s="16">
-        <v>3.0930682130000001E-2</v>
+        <v>3.1206848929999999E-2</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1191,37 +1191,37 @@
         <v>24</v>
       </c>
       <c r="C18" s="7">
-        <v>2342</v>
+        <v>2344</v>
       </c>
       <c r="D18" s="5">
         <v>37</v>
       </c>
       <c r="E18" s="6">
-        <v>0.53667953667953672</v>
+        <v>0.53664809258465496</v>
       </c>
       <c r="F18" s="6">
-        <v>0.46332046332046334</v>
+        <v>0.46335190741534504</v>
       </c>
       <c r="G18" s="7">
-        <v>1742</v>
+        <v>1743</v>
       </c>
       <c r="H18" s="8">
-        <v>0.24454649827784156</v>
+        <v>0.24440619621342513</v>
       </c>
       <c r="I18" s="7">
-        <v>2085</v>
+        <v>2087</v>
       </c>
       <c r="J18" s="5">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="K18" s="6">
-        <v>0.13717026378896882</v>
+        <v>0.13751796837565883</v>
       </c>
       <c r="L18" s="5">
         <v>32</v>
       </c>
       <c r="M18" s="10">
-        <v>1.366353543E-2</v>
+        <v>1.365187713E-2</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1232,37 +1232,37 @@
         <v>25</v>
       </c>
       <c r="C19" s="12">
-        <v>4130</v>
+        <v>4129</v>
       </c>
       <c r="D19" s="13">
         <v>36</v>
       </c>
       <c r="E19" s="14">
-        <v>0.58844940548410585</v>
+        <v>0.5883495145631068</v>
       </c>
       <c r="F19" s="14">
-        <v>0.41155059451589421</v>
+        <v>0.4116504854368932</v>
       </c>
       <c r="G19" s="12">
         <v>2936</v>
       </c>
       <c r="H19" s="15">
-        <v>0.25068119891008173</v>
+        <v>0.25102179836512262</v>
       </c>
       <c r="I19" s="12">
-        <v>3775</v>
+        <v>3774</v>
       </c>
       <c r="J19" s="13">
         <v>319</v>
       </c>
       <c r="K19" s="14">
-        <v>8.4503311258278146E-2</v>
+        <v>8.4525702172760994E-2</v>
       </c>
       <c r="L19" s="13">
         <v>41</v>
       </c>
       <c r="M19" s="16">
-        <v>9.9273607699999992E-3</v>
+        <v>9.9297650700000007E-3</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1273,37 +1273,37 @@
         <v>26</v>
       </c>
       <c r="C20" s="7">
-        <v>3214</v>
+        <v>3216</v>
       </c>
       <c r="D20" s="5">
         <v>37</v>
       </c>
       <c r="E20" s="6">
-        <v>0.55140186915887845</v>
+        <v>0.55136986301369861</v>
       </c>
       <c r="F20" s="6">
-        <v>0.44859813084112149</v>
+        <v>0.44863013698630139</v>
       </c>
       <c r="G20" s="7">
-        <v>2326</v>
+        <v>2327</v>
       </c>
       <c r="H20" s="8">
-        <v>0.23301805674978504</v>
+        <v>0.23291792006875806</v>
       </c>
       <c r="I20" s="7">
-        <v>2866</v>
+        <v>2868</v>
       </c>
       <c r="J20" s="5">
         <v>295</v>
       </c>
       <c r="K20" s="6">
-        <v>0.10293091416608513</v>
+        <v>0.10285913528591353</v>
       </c>
       <c r="L20" s="5">
         <v>23</v>
       </c>
       <c r="M20" s="10">
-        <v>7.1561916600000001E-3</v>
+        <v>7.1517412900000002E-3</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1326,10 +1326,10 @@
         <v>0.47829313543599256</v>
       </c>
       <c r="G21" s="12">
-        <v>2063</v>
+        <v>2065</v>
       </c>
       <c r="H21" s="15">
-        <v>0.26611730489578284</v>
+        <v>0.26731234866828085</v>
       </c>
       <c r="I21" s="12">
         <v>2470</v>
@@ -1396,37 +1396,37 @@
         <v>29</v>
       </c>
       <c r="C23" s="12">
-        <v>3022</v>
+        <v>3019</v>
       </c>
       <c r="D23" s="13">
         <v>36</v>
       </c>
       <c r="E23" s="14">
-        <v>0.52437810945273633</v>
+        <v>0.52456839309428949</v>
       </c>
       <c r="F23" s="14">
-        <v>0.47562189054726367</v>
+        <v>0.47543160690571051</v>
       </c>
       <c r="G23" s="12">
-        <v>2365</v>
+        <v>2362</v>
       </c>
       <c r="H23" s="15">
-        <v>0.23002114164904863</v>
+        <v>0.22946655376799321</v>
       </c>
       <c r="I23" s="12">
-        <v>2652</v>
+        <v>2649</v>
       </c>
       <c r="J23" s="13">
         <v>319</v>
       </c>
       <c r="K23" s="14">
-        <v>0.12028657616892911</v>
+        <v>0.12042280105700265</v>
       </c>
       <c r="L23" s="13">
         <v>30</v>
       </c>
       <c r="M23" s="16">
-        <v>9.9272005200000003E-3</v>
+        <v>9.93706525E-3</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1478,37 +1478,37 @@
         <v>31</v>
       </c>
       <c r="C25" s="12">
-        <v>4823</v>
+        <v>4822</v>
       </c>
       <c r="D25" s="13">
         <v>36</v>
       </c>
       <c r="E25" s="14">
-        <v>0.50270045700041543</v>
+        <v>0.50280490338666117</v>
       </c>
       <c r="F25" s="14">
-        <v>0.49729954299958457</v>
+        <v>0.49719509661333888</v>
       </c>
       <c r="G25" s="12">
-        <v>3705</v>
+        <v>3706</v>
       </c>
       <c r="H25" s="15">
-        <v>0.24480431848852902</v>
+        <v>0.2450080949811117</v>
       </c>
       <c r="I25" s="12">
-        <v>4156</v>
+        <v>4155</v>
       </c>
       <c r="J25" s="13">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="K25" s="14">
-        <v>9.4080846968238693E-2</v>
+        <v>9.3862815884476536E-2</v>
       </c>
       <c r="L25" s="13">
         <v>32</v>
       </c>
       <c r="M25" s="16">
-        <v>6.6348745500000002E-3</v>
+        <v>6.6362505100000004E-3</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1519,37 +1519,37 @@
         <v>32</v>
       </c>
       <c r="C26" s="7">
-        <v>6061</v>
+        <v>6059</v>
       </c>
       <c r="D26" s="5">
         <v>34</v>
       </c>
       <c r="E26" s="6">
-        <v>0.53636363636363638</v>
+        <v>0.53637566137566139</v>
       </c>
       <c r="F26" s="6">
-        <v>0.46363636363636362</v>
+        <v>0.46362433862433861</v>
       </c>
       <c r="G26" s="7">
-        <v>4551</v>
+        <v>4550</v>
       </c>
       <c r="H26" s="8">
-        <v>0.2999340804218853</v>
+        <v>0.29978021978021979</v>
       </c>
       <c r="I26" s="7">
-        <v>5281</v>
+        <v>5279</v>
       </c>
       <c r="J26" s="5">
         <v>399</v>
       </c>
       <c r="K26" s="6">
-        <v>7.5553872372656691E-2</v>
+        <v>7.5582496684978212E-2</v>
       </c>
       <c r="L26" s="5">
         <v>31</v>
       </c>
       <c r="M26" s="10">
-        <v>5.1146675400000003E-3</v>
+        <v>5.1163558299999997E-3</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1560,16 +1560,16 @@
         <v>33</v>
       </c>
       <c r="C27" s="12">
-        <v>7955</v>
+        <v>7954</v>
       </c>
       <c r="D27" s="13">
         <v>32</v>
       </c>
       <c r="E27" s="14">
-        <v>0.53344249905529662</v>
+        <v>0.53338372385991428</v>
       </c>
       <c r="F27" s="14">
-        <v>0.46655750094470338</v>
+        <v>0.46661627614008566</v>
       </c>
       <c r="G27" s="12">
         <v>5854</v>
@@ -1578,19 +1578,19 @@
         <v>0.33190980526135977</v>
       </c>
       <c r="I27" s="12">
-        <v>7000</v>
+        <v>7007</v>
       </c>
       <c r="J27" s="13">
         <v>437</v>
       </c>
       <c r="K27" s="14">
-        <v>6.242857142857143E-2</v>
+        <v>6.2366205223348077E-2</v>
       </c>
       <c r="L27" s="13">
         <v>30</v>
       </c>
       <c r="M27" s="16">
-        <v>3.77121307E-3</v>
+        <v>3.7716872000000002E-3</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1607,25 +1607,25 @@
         <v>32</v>
       </c>
       <c r="E28" s="6">
-        <v>0.54719748559455217</v>
+        <v>0.54709271870089049</v>
       </c>
       <c r="F28" s="6">
-        <v>0.45280251440544789</v>
+        <v>0.45290728129910945</v>
       </c>
       <c r="G28" s="7">
-        <v>7206</v>
+        <v>7205</v>
       </c>
       <c r="H28" s="8">
-        <v>0.34512905911740216</v>
+        <v>0.34517696044413604</v>
       </c>
       <c r="I28" s="7">
-        <v>8288</v>
+        <v>8305</v>
       </c>
       <c r="J28" s="5">
         <v>434</v>
       </c>
       <c r="K28" s="6">
-        <v>5.2364864864864864E-2</v>
+        <v>5.2257676098735703E-2</v>
       </c>
       <c r="L28" s="5">
         <v>30</v>
@@ -1654,19 +1654,19 @@
         <v>0.46942733287702487</v>
       </c>
       <c r="G29" s="12">
-        <v>6868</v>
+        <v>6872</v>
       </c>
       <c r="H29" s="15">
-        <v>0.30693069306930693</v>
+        <v>0.30704307334109432</v>
       </c>
       <c r="I29" s="12">
-        <v>7414</v>
+        <v>7416</v>
       </c>
       <c r="J29" s="13">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="K29" s="14">
-        <v>4.9500944159697871E-2</v>
+        <v>4.9352750809061485E-2</v>
       </c>
       <c r="L29" s="13">
         <v>19</v>
@@ -1683,37 +1683,37 @@
         <v>36</v>
       </c>
       <c r="C30" s="7">
-        <v>8627</v>
+        <v>8624</v>
       </c>
       <c r="D30" s="5">
         <v>33</v>
       </c>
       <c r="E30" s="6">
-        <v>0.53658820787695172</v>
+        <v>0.53654272059680619</v>
       </c>
       <c r="F30" s="6">
-        <v>0.46341179212304823</v>
+        <v>0.46345727940319387</v>
       </c>
       <c r="G30" s="7">
         <v>6658</v>
       </c>
       <c r="H30" s="8">
-        <v>0.27110243316311206</v>
+        <v>0.27125262841694203</v>
       </c>
       <c r="I30" s="7">
-        <v>7081</v>
+        <v>7079</v>
       </c>
       <c r="J30" s="5">
         <v>397</v>
       </c>
       <c r="K30" s="6">
-        <v>5.6065527467871766E-2</v>
+        <v>5.6081367424777512E-2</v>
       </c>
       <c r="L30" s="5">
         <v>36</v>
       </c>
       <c r="M30" s="10">
-        <v>4.1729454000000001E-3</v>
+        <v>4.1743970299999997E-3</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1736,19 +1736,19 @@
         <v>0.48118058412176057</v>
       </c>
       <c r="G31" s="12">
-        <v>7601</v>
+        <v>7603</v>
       </c>
       <c r="H31" s="15">
-        <v>0.20352585186159716</v>
+        <v>0.20386689464684993</v>
       </c>
       <c r="I31" s="12">
-        <v>8019</v>
+        <v>8022</v>
       </c>
       <c r="J31" s="13">
         <v>464</v>
       </c>
       <c r="K31" s="14">
-        <v>5.7862576381094898E-2</v>
+        <v>5.7840937422089254E-2</v>
       </c>
       <c r="L31" s="13">
         <v>65</v>
@@ -1765,37 +1765,37 @@
         <v>38</v>
       </c>
       <c r="C32" s="7">
-        <v>12295</v>
+        <v>12294</v>
       </c>
       <c r="D32" s="5">
         <v>36</v>
       </c>
       <c r="E32" s="6">
-        <v>0.51226291693917592</v>
+        <v>0.51230479928051675</v>
       </c>
       <c r="F32" s="6">
-        <v>0.48773708306082408</v>
+        <v>0.4876952007194833</v>
       </c>
       <c r="G32" s="7">
-        <v>9751</v>
+        <v>9752</v>
       </c>
       <c r="H32" s="8">
-        <v>0.1863398625781971</v>
+        <v>0.18673092698933552</v>
       </c>
       <c r="I32" s="7">
-        <v>10034</v>
+        <v>10039</v>
       </c>
       <c r="J32" s="5">
         <v>674</v>
       </c>
       <c r="K32" s="6">
-        <v>6.7171616503886783E-2</v>
+        <v>6.7138161171431412E-2</v>
       </c>
       <c r="L32" s="5">
         <v>79</v>
       </c>
       <c r="M32" s="10">
-        <v>6.4253761600000002E-3</v>
+        <v>6.4258988100000004E-3</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1812,25 +1812,25 @@
         <v>37</v>
       </c>
       <c r="E33" s="14">
-        <v>0.51637453874538741</v>
+        <v>0.51633484510723349</v>
       </c>
       <c r="F33" s="14">
-        <v>0.48362546125461253</v>
+        <v>0.48366515489276657</v>
       </c>
       <c r="G33" s="12">
-        <v>10354</v>
+        <v>10356</v>
       </c>
       <c r="H33" s="15">
-        <v>0.18224840641298048</v>
+        <v>0.18202008497489378</v>
       </c>
       <c r="I33" s="12">
-        <v>10824</v>
+        <v>10826</v>
       </c>
       <c r="J33" s="13">
         <v>770</v>
       </c>
       <c r="K33" s="14">
-        <v>7.113821138211382E-2</v>
+        <v>7.1125069277664876E-2</v>
       </c>
       <c r="L33" s="13">
         <v>108</v>
@@ -1847,37 +1847,37 @@
         <v>40</v>
       </c>
       <c r="C34" s="7">
-        <v>15922</v>
+        <v>15930</v>
       </c>
       <c r="D34" s="5">
         <v>38</v>
       </c>
       <c r="E34" s="6">
-        <v>0.51965725806451613</v>
+        <v>0.51964735516372795</v>
       </c>
       <c r="F34" s="6">
-        <v>0.48034274193548387</v>
+        <v>0.48035264483627205</v>
       </c>
       <c r="G34" s="7">
-        <v>12585</v>
+        <v>12594</v>
       </c>
       <c r="H34" s="8">
-        <v>0.17616209773539929</v>
+        <v>0.17532158170557408</v>
       </c>
       <c r="I34" s="7">
-        <v>13435</v>
+        <v>13444</v>
       </c>
       <c r="J34" s="5">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="K34" s="6">
-        <v>6.4756233717900999E-2</v>
+        <v>6.4861648318952692E-2</v>
       </c>
       <c r="L34" s="5">
         <v>120</v>
       </c>
       <c r="M34" s="10">
-        <v>7.5367416099999997E-3</v>
+        <v>7.5329566800000003E-3</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1888,37 +1888,37 @@
         <v>41</v>
       </c>
       <c r="C35" s="19">
-        <v>26141</v>
+        <v>26135</v>
       </c>
       <c r="D35" s="20">
         <v>39</v>
       </c>
       <c r="E35" s="21">
-        <v>0.51050105586484928</v>
+        <v>0.51046507162333421</v>
       </c>
       <c r="F35" s="21">
-        <v>0.48949894413515072</v>
+        <v>0.48953492837666579</v>
       </c>
       <c r="G35" s="19">
-        <v>20053</v>
+        <v>20058</v>
       </c>
       <c r="H35" s="22">
-        <v>0.16586046975514884</v>
+        <v>0.16586897995812144</v>
       </c>
       <c r="I35" s="19">
-        <v>21514</v>
+        <v>21517</v>
       </c>
       <c r="J35" s="20">
         <v>1582</v>
       </c>
       <c r="K35" s="21">
-        <v>7.3533513061262434E-2</v>
+        <v>7.3523260677603758E-2</v>
       </c>
       <c r="L35" s="20">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M35" s="23">
-        <v>9.1044718999999993E-3</v>
+        <v>9.1448249400000008E-3</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1929,37 +1929,37 @@
         <v>42</v>
       </c>
       <c r="C36" s="7">
-        <v>42085</v>
+        <v>42090</v>
       </c>
       <c r="D36" s="5">
         <v>39</v>
       </c>
       <c r="E36" s="6">
-        <v>0.50852720584722688</v>
+        <v>0.5085737485670615</v>
       </c>
       <c r="F36" s="6">
-        <v>0.49147279415277312</v>
+        <v>0.4914262514329385</v>
       </c>
       <c r="G36" s="7">
-        <v>30777</v>
+        <v>30798</v>
       </c>
       <c r="H36" s="8">
-        <v>0.1599896026253371</v>
+        <v>0.16020520813039807</v>
       </c>
       <c r="I36" s="7">
-        <v>33574</v>
+        <v>33595</v>
       </c>
       <c r="J36" s="5">
-        <v>2312</v>
+        <v>2317</v>
       </c>
       <c r="K36" s="6">
-        <v>6.8862810508131297E-2</v>
+        <v>6.8968596517338887E-2</v>
       </c>
       <c r="L36" s="5">
         <v>456</v>
       </c>
       <c r="M36" s="10">
-        <v>1.0835214439999999E-2</v>
+        <v>1.083392729E-2</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1970,37 +1970,37 @@
         <v>43</v>
       </c>
       <c r="C37" s="12">
-        <v>74857</v>
+        <v>74861</v>
       </c>
       <c r="D37" s="13">
         <v>40</v>
       </c>
       <c r="E37" s="14">
-        <v>0.50165809647839099</v>
+        <v>0.50167129797430632</v>
       </c>
       <c r="F37" s="14">
-        <v>0.49834190352160895</v>
+        <v>0.49832870202569368</v>
       </c>
       <c r="G37" s="12">
-        <v>51705</v>
+        <v>51882</v>
       </c>
       <c r="H37" s="15">
-        <v>0.15549753408761241</v>
+        <v>0.15573802089356617</v>
       </c>
       <c r="I37" s="12">
-        <v>57691</v>
+        <v>57801</v>
       </c>
       <c r="J37" s="13">
-        <v>4068</v>
+        <v>4077</v>
       </c>
       <c r="K37" s="14">
-        <v>7.0513598308228315E-2</v>
+        <v>7.0535111849275967E-2</v>
       </c>
       <c r="L37" s="13">
-        <v>975</v>
+        <v>980</v>
       </c>
       <c r="M37" s="16">
-        <v>1.302483401E-2</v>
+        <v>1.309092852E-2</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2011,37 +2011,37 @@
         <v>44</v>
       </c>
       <c r="C38" s="7">
-        <v>111147</v>
+        <v>111150</v>
       </c>
       <c r="D38" s="5">
         <v>41</v>
       </c>
       <c r="E38" s="6">
-        <v>0.49718521468394755</v>
+        <v>0.49725801780931006</v>
       </c>
       <c r="F38" s="6">
-        <v>0.50281478531605239</v>
+        <v>0.50274198219068988</v>
       </c>
       <c r="G38" s="7">
-        <v>74369</v>
+        <v>74757</v>
       </c>
       <c r="H38" s="8">
-        <v>0.15878928047976978</v>
+        <v>0.15904865096245169</v>
       </c>
       <c r="I38" s="7">
-        <v>83171</v>
+        <v>83420</v>
       </c>
       <c r="J38" s="5">
-        <v>5849</v>
+        <v>5868</v>
       </c>
       <c r="K38" s="6">
-        <v>7.0324993086532561E-2</v>
+        <v>7.0342843442819464E-2</v>
       </c>
       <c r="L38" s="5">
-        <v>1568</v>
+        <v>1572</v>
       </c>
       <c r="M38" s="10">
-        <v>1.410744329E-2</v>
+        <v>1.414304993E-2</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2052,37 +2052,37 @@
         <v>45</v>
       </c>
       <c r="C39" s="19">
-        <v>125831</v>
+        <v>125834</v>
       </c>
       <c r="D39" s="20">
         <v>41</v>
       </c>
       <c r="E39" s="21">
-        <v>0.49130184054976211</v>
+        <v>0.49132670222478497</v>
       </c>
       <c r="F39" s="21">
-        <v>0.50869815945023789</v>
+        <v>0.50867329777521508</v>
       </c>
       <c r="G39" s="19">
-        <v>83335</v>
+        <v>83900</v>
       </c>
       <c r="H39" s="22">
-        <v>0.15326093478130437</v>
+        <v>0.1531108462455304</v>
       </c>
       <c r="I39" s="19">
-        <v>91759</v>
+        <v>91971</v>
       </c>
       <c r="J39" s="20">
-        <v>6711</v>
+        <v>6744</v>
       </c>
       <c r="K39" s="21">
-        <v>7.3137239943765739E-2</v>
+        <v>7.3327461917343517E-2</v>
       </c>
       <c r="L39" s="20">
-        <v>1832</v>
+        <v>1836</v>
       </c>
       <c r="M39" s="23">
-        <v>1.455921036E-2</v>
+        <v>1.459065117E-2</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2093,37 +2093,37 @@
         <v>46</v>
       </c>
       <c r="C40" s="7">
-        <v>127910</v>
+        <v>127915</v>
       </c>
       <c r="D40" s="5">
         <v>42</v>
       </c>
       <c r="E40" s="6">
-        <v>0.48452689054412323</v>
+        <v>0.48454437869822486</v>
       </c>
       <c r="F40" s="6">
-        <v>0.51547310945587677</v>
+        <v>0.51545562130177514</v>
       </c>
       <c r="G40" s="7">
-        <v>83826</v>
+        <v>84367</v>
       </c>
       <c r="H40" s="8">
-        <v>0.14883210459761886</v>
+        <v>0.14883781573363994</v>
       </c>
       <c r="I40" s="7">
-        <v>93442</v>
+        <v>93790</v>
       </c>
       <c r="J40" s="5">
-        <v>7374</v>
+        <v>7403</v>
       </c>
       <c r="K40" s="6">
-        <v>7.8915262943858228E-2</v>
+        <v>7.8931655826847205E-2</v>
       </c>
       <c r="L40" s="5">
-        <v>2426</v>
+        <v>2432</v>
       </c>
       <c r="M40" s="10">
-        <v>1.896646079E-2</v>
+        <v>1.901262557E-2</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2134,37 +2134,37 @@
         <v>47</v>
       </c>
       <c r="C41" s="19">
-        <v>128492</v>
+        <v>128497</v>
       </c>
       <c r="D41" s="20">
         <v>43</v>
       </c>
       <c r="E41" s="21">
-        <v>0.47450559270087866</v>
+        <v>0.47452446450824104</v>
       </c>
       <c r="F41" s="21">
-        <v>0.52549440729912134</v>
+        <v>0.52547553549175896</v>
       </c>
       <c r="G41" s="19">
-        <v>84435</v>
+        <v>85027</v>
       </c>
       <c r="H41" s="22">
-        <v>0.14809024693551254</v>
+        <v>0.14872922718665835</v>
       </c>
       <c r="I41" s="19">
-        <v>92865</v>
+        <v>93247</v>
       </c>
       <c r="J41" s="20">
-        <v>7869</v>
+        <v>7916</v>
       </c>
       <c r="K41" s="21">
-        <v>8.4735906961718621E-2</v>
+        <v>8.4892811564983323E-2</v>
       </c>
       <c r="L41" s="20">
-        <v>3076</v>
+        <v>3087</v>
       </c>
       <c r="M41" s="23">
-        <v>2.3939233569999999E-2</v>
+        <v>2.4023907170000001E-2</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2175,37 +2175,37 @@
         <v>48</v>
       </c>
       <c r="C42" s="7">
-        <v>123327</v>
+        <v>123330</v>
       </c>
       <c r="D42" s="5">
         <v>44</v>
       </c>
       <c r="E42" s="6">
-        <v>0.46552385616913594</v>
+        <v>0.46546137207688854</v>
       </c>
       <c r="F42" s="6">
-        <v>0.53447614383086406</v>
+        <v>0.53453862792311146</v>
       </c>
       <c r="G42" s="7">
-        <v>79939</v>
+        <v>80541</v>
       </c>
       <c r="H42" s="8">
-        <v>0.15391736198851624</v>
+        <v>0.15444307868042365</v>
       </c>
       <c r="I42" s="7">
-        <v>88382</v>
+        <v>88775</v>
       </c>
       <c r="J42" s="5">
-        <v>8098</v>
+        <v>8139</v>
       </c>
       <c r="K42" s="6">
-        <v>9.1624991514109203E-2</v>
+        <v>9.1681216558715861E-2</v>
       </c>
       <c r="L42" s="5">
-        <v>3418</v>
+        <v>3448</v>
       </c>
       <c r="M42" s="10">
-        <v>2.7714936709999999E-2</v>
+        <v>2.7957512359999999E-2</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2216,37 +2216,37 @@
         <v>49</v>
       </c>
       <c r="C43" s="19">
-        <v>128495</v>
+        <v>128498</v>
       </c>
       <c r="D43" s="20">
         <v>45</v>
       </c>
       <c r="E43" s="21">
-        <v>0.45907283521689007</v>
+        <v>0.45916190954143404</v>
       </c>
       <c r="F43" s="21">
-        <v>0.54092716478310998</v>
+        <v>0.54083809045856601</v>
       </c>
       <c r="G43" s="19">
-        <v>85072</v>
+        <v>85534</v>
       </c>
       <c r="H43" s="22">
-        <v>0.14085715629114162</v>
+        <v>0.14075104636752636</v>
       </c>
       <c r="I43" s="19">
-        <v>92489</v>
+        <v>92784</v>
       </c>
       <c r="J43" s="20">
-        <v>8890</v>
+        <v>8936</v>
       </c>
       <c r="K43" s="21">
-        <v>9.6119538539718233E-2</v>
+        <v>9.6309708570443187E-2</v>
       </c>
       <c r="L43" s="20">
-        <v>4244</v>
+        <v>4285</v>
       </c>
       <c r="M43" s="23">
-        <v>3.3028522509999998E-2</v>
+        <v>3.3346822509999999E-2</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2257,37 +2257,37 @@
         <v>50</v>
       </c>
       <c r="C44" s="7">
-        <v>156492</v>
+        <v>156528</v>
       </c>
       <c r="D44" s="5">
         <v>46</v>
       </c>
       <c r="E44" s="6">
-        <v>0.45383630149770549</v>
+        <v>0.45387812347203993</v>
       </c>
       <c r="F44" s="6">
-        <v>0.54616369850229451</v>
+        <v>0.54612187652796007</v>
       </c>
       <c r="G44" s="7">
-        <v>104092</v>
+        <v>104766</v>
       </c>
       <c r="H44" s="8">
-        <v>0.14460285132382891</v>
+        <v>0.14424527041215662</v>
       </c>
       <c r="I44" s="7">
-        <v>112136</v>
+        <v>112764</v>
       </c>
       <c r="J44" s="5">
-        <v>10891</v>
+        <v>10964</v>
       </c>
       <c r="K44" s="6">
-        <v>9.7123136191767143E-2</v>
+        <v>9.7229612287609526E-2</v>
       </c>
       <c r="L44" s="5">
-        <v>5420</v>
+        <v>5490</v>
       </c>
       <c r="M44" s="10">
-        <v>3.4634358300000001E-2</v>
+        <v>3.5073597050000002E-2</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2298,37 +2298,37 @@
         <v>51</v>
       </c>
       <c r="C45" s="19">
-        <v>174967</v>
+        <v>174973</v>
       </c>
       <c r="D45" s="20">
         <v>46</v>
       </c>
       <c r="E45" s="21">
-        <v>0.45175888076458059</v>
+        <v>0.4518153088068525</v>
       </c>
       <c r="F45" s="21">
-        <v>0.54824111923541941</v>
+        <v>0.5481846911931475</v>
       </c>
       <c r="G45" s="19">
-        <v>113177</v>
+        <v>115137</v>
       </c>
       <c r="H45" s="22">
-        <v>0.14435795258753986</v>
+        <v>0.14356809713645483</v>
       </c>
       <c r="I45" s="19">
-        <v>121732</v>
+        <v>123646</v>
       </c>
       <c r="J45" s="20">
-        <v>11958</v>
+        <v>12128</v>
       </c>
       <c r="K45" s="21">
-        <v>9.8232182170669993E-2</v>
+        <v>9.8086472671982922E-2</v>
       </c>
       <c r="L45" s="20">
-        <v>6070</v>
+        <v>6127</v>
       </c>
       <c r="M45" s="23">
-        <v>3.4692256249999998E-2</v>
+        <v>3.5016831159999998E-2</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2339,37 +2339,37 @@
         <v>52</v>
       </c>
       <c r="C46" s="7">
-        <v>139341</v>
+        <v>139309</v>
       </c>
       <c r="D46" s="5">
         <v>48</v>
       </c>
       <c r="E46" s="6">
-        <v>0.44490167858770097</v>
+        <v>0.44494998083141046</v>
       </c>
       <c r="F46" s="6">
-        <v>0.55509832141229909</v>
+        <v>0.55505001916858954</v>
       </c>
       <c r="G46" s="7">
-        <v>87646</v>
+        <v>88322</v>
       </c>
       <c r="H46" s="8">
-        <v>0.15623074641170162</v>
+        <v>0.15624646181019453</v>
       </c>
       <c r="I46" s="7">
-        <v>96080</v>
+        <v>96792</v>
       </c>
       <c r="J46" s="5">
-        <v>10540</v>
+        <v>10641</v>
       </c>
       <c r="K46" s="6">
-        <v>0.10970024979184013</v>
+        <v>0.10993677163401934</v>
       </c>
       <c r="L46" s="5">
-        <v>5378</v>
+        <v>5432</v>
       </c>
       <c r="M46" s="10">
-        <v>3.8595962419999998E-2</v>
+        <v>3.8992455619999998E-2</v>
       </c>
     </row>
     <row r="47" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2380,37 +2380,37 @@
         <v>53</v>
       </c>
       <c r="C47" s="19">
-        <v>123282</v>
+        <v>123238</v>
       </c>
       <c r="D47" s="20">
         <v>49</v>
       </c>
       <c r="E47" s="21">
-        <v>0.44123881781946456</v>
+        <v>0.44122269884410098</v>
       </c>
       <c r="F47" s="21">
-        <v>0.55876118218053539</v>
+        <v>0.55877730115589896</v>
       </c>
       <c r="G47" s="19">
-        <v>80723</v>
+        <v>81556</v>
       </c>
       <c r="H47" s="22">
-        <v>0.13343161180828264</v>
+        <v>0.1332581293834911</v>
       </c>
       <c r="I47" s="19">
-        <v>87224</v>
+        <v>87672</v>
       </c>
       <c r="J47" s="20">
-        <v>10395</v>
+        <v>10480</v>
       </c>
       <c r="K47" s="21">
-        <v>0.11917591488581124</v>
+        <v>0.119536454056027</v>
       </c>
       <c r="L47" s="20">
-        <v>5318</v>
+        <v>5378</v>
       </c>
       <c r="M47" s="23">
-        <v>4.313687318E-2</v>
+        <v>4.3639137270000003E-2</v>
       </c>
     </row>
     <row r="48" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2421,37 +2421,37 @@
         <v>1</v>
       </c>
       <c r="C48" s="27">
-        <v>145583</v>
+        <v>145531</v>
       </c>
       <c r="D48" s="28">
         <v>48</v>
       </c>
       <c r="E48" s="29">
-        <v>0.45092599015051676</v>
+        <v>0.4508706208810267</v>
       </c>
       <c r="F48" s="29">
-        <v>0.54907400984948329</v>
+        <v>0.5491293791189733</v>
       </c>
       <c r="G48" s="27">
-        <v>95761</v>
+        <v>97040</v>
       </c>
       <c r="H48" s="30">
-        <v>0.13370787690187028</v>
+        <v>0.13362530915086562</v>
       </c>
       <c r="I48" s="27">
-        <v>102171</v>
+        <v>103164</v>
       </c>
       <c r="J48" s="28">
-        <v>10431</v>
+        <v>10533</v>
       </c>
       <c r="K48" s="29">
-        <v>0.10209354905012186</v>
+        <v>0.10209956961730836</v>
       </c>
       <c r="L48" s="28">
-        <v>5252</v>
+        <v>5341</v>
       </c>
       <c r="M48" s="31">
-        <v>3.6075640690000001E-2</v>
+        <v>3.6700084510000001E-2</v>
       </c>
     </row>
     <row r="49" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2462,37 +2462,37 @@
         <v>2</v>
       </c>
       <c r="C49" s="19">
-        <v>119120</v>
+        <v>119050</v>
       </c>
       <c r="D49" s="20">
         <v>48</v>
       </c>
       <c r="E49" s="21">
-        <v>0.45451845314369604</v>
+        <v>0.4543926376201311</v>
       </c>
       <c r="F49" s="21">
-        <v>0.5454815468563039</v>
+        <v>0.54560736237986895</v>
       </c>
       <c r="G49" s="19">
-        <v>76971</v>
+        <v>77683</v>
       </c>
       <c r="H49" s="22">
-        <v>0.15904691377271959</v>
+        <v>0.15923689867796043</v>
       </c>
       <c r="I49" s="19">
-        <v>84032</v>
+        <v>84609</v>
       </c>
       <c r="J49" s="20">
-        <v>9181</v>
+        <v>9289</v>
       </c>
       <c r="K49" s="21">
-        <v>0.10925599771515614</v>
+        <v>0.10978737486555804</v>
       </c>
       <c r="L49" s="20">
-        <v>4554</v>
+        <v>4660</v>
       </c>
       <c r="M49" s="23">
-        <v>3.8230355940000002E-2</v>
+        <v>3.9143217129999998E-2</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2503,37 +2503,37 @@
         <v>3</v>
       </c>
       <c r="C50" s="7">
-        <v>95686</v>
+        <v>95632</v>
       </c>
       <c r="D50" s="5">
         <v>48</v>
       </c>
       <c r="E50" s="6">
-        <v>0.45808064294980644</v>
+        <v>0.45806206539975308</v>
       </c>
       <c r="F50" s="6">
-        <v>0.54191935705019356</v>
+        <v>0.54193793460024686</v>
       </c>
       <c r="G50" s="7">
-        <v>63280</v>
+        <v>64112</v>
       </c>
       <c r="H50" s="8">
-        <v>0.15897597977243996</v>
+        <v>0.15900299475917146</v>
       </c>
       <c r="I50" s="7">
-        <v>69688</v>
+        <v>70338</v>
       </c>
       <c r="J50" s="5">
-        <v>8072</v>
+        <v>8222</v>
       </c>
       <c r="K50" s="6">
-        <v>0.11583055906325336</v>
+        <v>0.11689271801870967</v>
       </c>
       <c r="L50" s="5">
-        <v>3452</v>
+        <v>3622</v>
       </c>
       <c r="M50" s="10">
-        <v>3.6076333000000002E-2</v>
+        <v>3.7874351680000001E-2</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2544,37 +2544,37 @@
         <v>4</v>
       </c>
       <c r="C51" s="19">
-        <v>78452</v>
+        <v>78358</v>
       </c>
       <c r="D51" s="20">
         <v>48</v>
       </c>
       <c r="E51" s="21">
-        <v>0.46348491670418729</v>
+        <v>0.4634224860604968</v>
       </c>
       <c r="F51" s="21">
-        <v>0.53651508329581266</v>
+        <v>0.53657751393950315</v>
       </c>
       <c r="G51" s="19">
-        <v>52422</v>
+        <v>53168</v>
       </c>
       <c r="H51" s="22">
-        <v>0.15890275075350044</v>
+        <v>0.15956966596448993</v>
       </c>
       <c r="I51" s="19">
-        <v>58725</v>
+        <v>59244</v>
       </c>
       <c r="J51" s="20">
-        <v>6828</v>
+        <v>6948</v>
       </c>
       <c r="K51" s="21">
-        <v>0.11627075351213283</v>
+        <v>0.11727769900749443</v>
       </c>
       <c r="L51" s="20">
-        <v>2368</v>
+        <v>2612</v>
       </c>
       <c r="M51" s="23">
-        <v>3.0184061589999998E-2</v>
+        <v>3.3334184119999999E-2</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2585,37 +2585,37 @@
         <v>5</v>
       </c>
       <c r="C52" s="7">
-        <v>64786</v>
+        <v>64699</v>
       </c>
       <c r="D52" s="5">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E52" s="6">
-        <v>0.47383689193193695</v>
+        <v>0.47393971559246367</v>
       </c>
       <c r="F52" s="6">
-        <v>0.5261631080680631</v>
+        <v>0.52606028440753638</v>
       </c>
       <c r="G52" s="7">
-        <v>43284</v>
+        <v>44438</v>
       </c>
       <c r="H52" s="8">
-        <v>0.15915811847333888</v>
+        <v>0.15918808227192943</v>
       </c>
       <c r="I52" s="7">
-        <v>48629</v>
+        <v>49353</v>
       </c>
       <c r="J52" s="5">
-        <v>5657</v>
+        <v>5877</v>
       </c>
       <c r="K52" s="6">
-        <v>0.11632976207612741</v>
+        <v>0.11908090693574859</v>
       </c>
       <c r="L52" s="5">
-        <v>1452</v>
+        <v>1746</v>
       </c>
       <c r="M52" s="10">
-        <v>2.241224956E-2</v>
+        <v>2.6986506739999999E-2</v>
       </c>
     </row>
     <row r="53" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2626,37 +2626,37 @@
         <v>6</v>
       </c>
       <c r="C53" s="19">
-        <v>50834</v>
+        <v>50878</v>
       </c>
       <c r="D53" s="20">
         <v>45</v>
       </c>
       <c r="E53" s="21">
-        <v>0.48425322093208206</v>
+        <v>0.48378716062114513</v>
       </c>
       <c r="F53" s="21">
-        <v>0.51574677906791788</v>
+        <v>0.51621283937885487</v>
       </c>
       <c r="G53" s="19">
-        <v>33777</v>
+        <v>35175</v>
       </c>
       <c r="H53" s="22">
-        <v>0.16478668916718478</v>
+        <v>0.16446339729921819</v>
       </c>
       <c r="I53" s="19">
-        <v>37840</v>
+        <v>38777</v>
       </c>
       <c r="J53" s="20">
-        <v>4201</v>
+        <v>4528</v>
       </c>
       <c r="K53" s="21">
-        <v>0.11102008456659619</v>
+        <v>0.1167702504061686</v>
       </c>
       <c r="L53" s="20">
-        <v>705</v>
+        <v>1086</v>
       </c>
       <c r="M53" s="23">
-        <v>1.386867057E-2</v>
+        <v>2.1345178659999998E-2</v>
       </c>
     </row>
     <row r="54" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2667,37 +2667,78 @@
         <v>7</v>
       </c>
       <c r="C54" s="7">
-        <v>52154</v>
+        <v>52471</v>
       </c>
       <c r="D54" s="5">
         <v>44</v>
       </c>
       <c r="E54" s="6">
-        <v>0.49260873777002812</v>
+        <v>0.49202383240438208</v>
       </c>
       <c r="F54" s="6">
-        <v>0.50739126222997188</v>
+        <v>0.50797616759561792</v>
       </c>
       <c r="G54" s="7">
-        <v>31549</v>
+        <v>35401</v>
       </c>
       <c r="H54" s="8">
-        <v>0.16986275317759675</v>
+        <v>0.16471286121860965</v>
       </c>
       <c r="I54" s="7">
-        <v>36836</v>
+        <v>39682</v>
       </c>
       <c r="J54" s="5">
-        <v>3416</v>
+        <v>4160</v>
       </c>
       <c r="K54" s="6">
-        <v>9.273536757519818E-2</v>
+        <v>0.10483342573458999</v>
       </c>
       <c r="L54" s="5">
-        <v>212</v>
+        <v>578</v>
       </c>
       <c r="M54" s="10">
-        <v>4.0648847599999999E-3</v>
+        <v>1.1015608620000001E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="18">
+        <v>2021</v>
+      </c>
+      <c r="B55" s="18">
+        <v>8</v>
+      </c>
+      <c r="C55" s="19">
+        <v>56078</v>
+      </c>
+      <c r="D55" s="20">
+        <v>42</v>
+      </c>
+      <c r="E55" s="21">
+        <v>0.49736430203479481</v>
+      </c>
+      <c r="F55" s="21">
+        <v>0.50263569796520524</v>
+      </c>
+      <c r="G55" s="19">
+        <v>33660</v>
+      </c>
+      <c r="H55" s="22">
+        <v>0.16033868092691622</v>
+      </c>
+      <c r="I55" s="19">
+        <v>38627</v>
+      </c>
+      <c r="J55" s="20">
+        <v>2995</v>
+      </c>
+      <c r="K55" s="21">
+        <v>7.7536438242679986E-2</v>
+      </c>
+      <c r="L55" s="20">
+        <v>157</v>
+      </c>
+      <c r="M55" s="23">
+        <v>2.7996718800000001E-3</v>
       </c>
     </row>
   </sheetData>

--- a/data/klinische_aspekte.xlsx
+++ b/data/klinische_aspekte.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20371"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95BADAC3-50F2-40C8-BA4D-BEF534A17F0D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B5728A9-FC4B-4A04-B3CA-11077BA80541}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" xr2:uid="{7A96F809-61A3-46BE-921C-258450650152}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" activeTab="1" xr2:uid="{7A96F809-61A3-46BE-921C-258450650152}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Klinische Aspekte" sheetId="1" r:id="rId1"/>
+    <sheet name="Fälle_Hospitalisierung_Alter" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="51">
   <si>
     <t>Meldejahr</t>
   </si>
@@ -61,7 +62,118 @@
     <t>Anteil Verstorben</t>
   </si>
   <si>
-    <t>Die dem RKI übermittelte COVID-19-Fälle nach Meldewoche und  Geschlecht sowie Anteile mit für COVID-19 relevanten Symptomen, Anteile Hospitalisierter und Verstorbener für die Meldewochen KW 10 – 53/2020 und KW 01 - 09/2021</t>
+    <t>Die dem RKI übermittelte COVID-19-Fälle nach Meldewoche und  Geschlecht sowie Anteile mit für COVID-19 relevanten Symptomen, Anteile Hospitalisierter und Verstorbener für die Meldewochen KW 10 – 53/2020 und KW 01 - 11/2021</t>
+  </si>
+  <si>
+    <t>0 - 4 Jährige</t>
+  </si>
+  <si>
+    <t>5 - 14 Jährige</t>
+  </si>
+  <si>
+    <t>15 - 34 Jährige</t>
+  </si>
+  <si>
+    <t>35 - 59 Jährige</t>
+  </si>
+  <si>
+    <t>60 - 79 Jährige</t>
+  </si>
+  <si>
+    <t>80+ Jährige</t>
+  </si>
+  <si>
+    <t>Meldewoche</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>2021</t>
   </si>
 </sst>
 </file>
@@ -555,9 +667,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B954E3B8-F82B-4D64-BB14-6BD6AE52A778}">
-  <dimension ref="A1:M56"/>
+  <dimension ref="A1:M57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -615,22 +729,22 @@
         <v>10</v>
       </c>
       <c r="C3" s="5">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="D3" s="5">
         <v>43</v>
       </c>
       <c r="E3" s="6">
-        <v>0.53125</v>
+        <v>0.53072625698324027</v>
       </c>
       <c r="F3" s="6">
-        <v>0.46875</v>
+        <v>0.46927374301675978</v>
       </c>
       <c r="G3" s="7">
         <v>836</v>
       </c>
       <c r="H3" s="8">
-        <v>8.1339712918660281E-2</v>
+        <v>8.3732057416267949E-2</v>
       </c>
       <c r="I3" s="5">
         <v>806</v>
@@ -645,7 +759,7 @@
         <v>12</v>
       </c>
       <c r="M3" s="10">
-        <v>1.3392857140000001E-2</v>
+        <v>1.3407821219999999E-2</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -697,37 +811,37 @@
         <v>12</v>
       </c>
       <c r="C5" s="7">
-        <v>22429</v>
+        <v>22433</v>
       </c>
       <c r="D5" s="5">
         <v>45</v>
       </c>
       <c r="E5" s="6">
-        <v>0.54993977784716952</v>
+        <v>0.54997546942598452</v>
       </c>
       <c r="F5" s="6">
-        <v>0.45006022215283042</v>
+        <v>0.45002453057401542</v>
       </c>
       <c r="G5" s="7">
-        <v>20200</v>
+        <v>20202</v>
       </c>
       <c r="H5" s="8">
-        <v>3.8762376237623762E-2</v>
+        <v>3.8956538956538958E-2</v>
       </c>
       <c r="I5" s="7">
-        <v>19385</v>
+        <v>19390</v>
       </c>
       <c r="J5" s="7">
         <v>2210</v>
       </c>
       <c r="K5" s="6">
-        <v>0.1140056744905855</v>
+        <v>0.11397627643115008</v>
       </c>
       <c r="L5" s="5">
         <v>478</v>
       </c>
       <c r="M5" s="10">
-        <v>2.131169468E-2</v>
+        <v>2.1307894609999999E-2</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -744,25 +858,25 @@
         <v>48</v>
       </c>
       <c r="E6" s="14">
-        <v>0.49501221198834711</v>
+        <v>0.49498278551040226</v>
       </c>
       <c r="F6" s="14">
-        <v>0.50498778801165289</v>
+        <v>0.50501721448959769</v>
       </c>
       <c r="G6" s="12">
         <v>30867</v>
       </c>
       <c r="H6" s="15">
-        <v>3.2818220105614408E-2</v>
+        <v>3.2915411280655719E-2</v>
       </c>
       <c r="I6" s="12">
         <v>29548</v>
       </c>
       <c r="J6" s="12">
-        <v>5133</v>
+        <v>5132</v>
       </c>
       <c r="K6" s="14">
-        <v>0.17371734127521321</v>
+        <v>0.17368349803709218</v>
       </c>
       <c r="L6" s="12">
         <v>1465</v>
@@ -779,37 +893,37 @@
         <v>14</v>
       </c>
       <c r="C7" s="7">
-        <v>36086</v>
+        <v>36084</v>
       </c>
       <c r="D7" s="5">
         <v>51</v>
       </c>
       <c r="E7" s="6">
-        <v>0.45071828720394919</v>
+        <v>0.45066008431329041</v>
       </c>
       <c r="F7" s="6">
-        <v>0.54928171279605076</v>
+        <v>0.54933991568670959</v>
       </c>
       <c r="G7" s="7">
-        <v>32073</v>
+        <v>32076</v>
       </c>
       <c r="H7" s="8">
-        <v>5.5030711190097586E-2</v>
+        <v>5.5430851727148026E-2</v>
       </c>
       <c r="I7" s="7">
-        <v>31640</v>
+        <v>31637</v>
       </c>
       <c r="J7" s="7">
-        <v>6081</v>
+        <v>6082</v>
       </c>
       <c r="K7" s="6">
-        <v>0.19219342604298356</v>
+        <v>0.19224325947466575</v>
       </c>
       <c r="L7" s="7">
-        <v>2260</v>
+        <v>2259</v>
       </c>
       <c r="M7" s="10">
-        <v>6.2628166040000002E-2</v>
+        <v>6.2603924170000005E-2</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -820,37 +934,37 @@
         <v>15</v>
       </c>
       <c r="C8" s="12">
-        <v>27190</v>
+        <v>27192</v>
       </c>
       <c r="D8" s="13">
         <v>52</v>
       </c>
       <c r="E8" s="14">
-        <v>0.43491549140184849</v>
+        <v>0.43499392466585662</v>
       </c>
       <c r="F8" s="14">
-        <v>0.56508450859815151</v>
+        <v>0.56500607533414338</v>
       </c>
       <c r="G8" s="12">
-        <v>23605</v>
+        <v>23611</v>
       </c>
       <c r="H8" s="15">
-        <v>8.4177081126879896E-2</v>
+        <v>8.4494515268307147E-2</v>
       </c>
       <c r="I8" s="12">
-        <v>24166</v>
+        <v>24168</v>
       </c>
       <c r="J8" s="12">
-        <v>4720</v>
+        <v>4722</v>
       </c>
       <c r="K8" s="14">
-        <v>0.19531573284780271</v>
+        <v>0.19538232373386297</v>
       </c>
       <c r="L8" s="12">
         <v>1879</v>
       </c>
       <c r="M8" s="16">
-        <v>6.9106289069999993E-2</v>
+        <v>6.9101206230000004E-2</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -861,37 +975,37 @@
         <v>16</v>
       </c>
       <c r="C9" s="7">
-        <v>17371</v>
+        <v>17368</v>
       </c>
       <c r="D9" s="5">
         <v>51</v>
       </c>
       <c r="E9" s="6">
-        <v>0.44715306592899956</v>
+        <v>0.44717274770880167</v>
       </c>
       <c r="F9" s="6">
-        <v>0.5528469340710005</v>
+        <v>0.55282725229119833</v>
       </c>
       <c r="G9" s="7">
-        <v>14885</v>
+        <v>14892</v>
       </c>
       <c r="H9" s="8">
-        <v>0.113873026536782</v>
+        <v>0.11435670158474348</v>
       </c>
       <c r="I9" s="7">
-        <v>15544</v>
+        <v>15541</v>
       </c>
       <c r="J9" s="7">
-        <v>3372</v>
+        <v>3371</v>
       </c>
       <c r="K9" s="6">
-        <v>0.21693257848687597</v>
+        <v>0.21691010874461103</v>
       </c>
       <c r="L9" s="7">
         <v>1217</v>
       </c>
       <c r="M9" s="10">
-        <v>7.0059294219999999E-2</v>
+        <v>7.0071395669999995E-2</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -902,37 +1016,37 @@
         <v>17</v>
       </c>
       <c r="C10" s="12">
-        <v>12376</v>
+        <v>12375</v>
       </c>
       <c r="D10" s="13">
         <v>50</v>
       </c>
       <c r="E10" s="14">
-        <v>0.44995549801763896</v>
+        <v>0.44974915034795276</v>
       </c>
       <c r="F10" s="14">
-        <v>0.55004450198236099</v>
+        <v>0.55025084965204729</v>
       </c>
       <c r="G10" s="12">
-        <v>10281</v>
+        <v>10283</v>
       </c>
       <c r="H10" s="15">
-        <v>0.13889699445579223</v>
+        <v>0.13896722746280268</v>
       </c>
       <c r="I10" s="12">
-        <v>10992</v>
+        <v>10993</v>
       </c>
       <c r="J10" s="12">
         <v>2234</v>
       </c>
       <c r="K10" s="14">
-        <v>0.2032387190684134</v>
+        <v>0.20322023105612663</v>
       </c>
       <c r="L10" s="13">
         <v>720</v>
       </c>
       <c r="M10" s="16">
-        <v>5.8177117E-2</v>
+        <v>5.8181818179999997E-2</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -949,10 +1063,10 @@
         <v>48</v>
       </c>
       <c r="E11" s="6">
-        <v>0.47775836581104691</v>
+        <v>0.47789275634995299</v>
       </c>
       <c r="F11" s="6">
-        <v>0.52224163418895309</v>
+        <v>0.52210724365004701</v>
       </c>
       <c r="G11" s="7">
         <v>6256</v>
@@ -984,37 +1098,37 @@
         <v>19</v>
       </c>
       <c r="C12" s="12">
-        <v>6239</v>
+        <v>6240</v>
       </c>
       <c r="D12" s="13">
         <v>47</v>
       </c>
       <c r="E12" s="14">
-        <v>0.48002566982191563</v>
+        <v>0.48010907924286172</v>
       </c>
       <c r="F12" s="14">
-        <v>0.51997433017808437</v>
+        <v>0.51989092075713828</v>
       </c>
       <c r="G12" s="12">
-        <v>5248</v>
+        <v>5249</v>
       </c>
       <c r="H12" s="15">
-        <v>0.19645579268292682</v>
+        <v>0.19641836540293389</v>
       </c>
       <c r="I12" s="12">
-        <v>5632</v>
+        <v>5633</v>
       </c>
       <c r="J12" s="12">
         <v>1080</v>
       </c>
       <c r="K12" s="14">
-        <v>0.19176136363636365</v>
+        <v>0.19172732114326291</v>
       </c>
       <c r="L12" s="13">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M12" s="16">
-        <v>4.08719346E-2</v>
+        <v>4.1025641020000003E-2</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1066,16 +1180,16 @@
         <v>21</v>
       </c>
       <c r="C14" s="12">
-        <v>3621</v>
+        <v>3620</v>
       </c>
       <c r="D14" s="13">
         <v>43</v>
       </c>
       <c r="E14" s="14">
-        <v>0.50249584026622296</v>
+        <v>0.50235783633841891</v>
       </c>
       <c r="F14" s="14">
-        <v>0.49750415973377704</v>
+        <v>0.49764216366158115</v>
       </c>
       <c r="G14" s="12">
         <v>2836</v>
@@ -1084,19 +1198,19 @@
         <v>0.2630465444287729</v>
       </c>
       <c r="I14" s="12">
-        <v>3123</v>
+        <v>3122</v>
       </c>
       <c r="J14" s="13">
         <v>513</v>
       </c>
       <c r="K14" s="14">
-        <v>0.16426512968299711</v>
+        <v>0.16431774503523383</v>
       </c>
       <c r="L14" s="13">
         <v>113</v>
       </c>
       <c r="M14" s="16">
-        <v>3.1206848929999999E-2</v>
+        <v>3.1215469610000001E-2</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1107,16 +1221,16 @@
         <v>22</v>
       </c>
       <c r="C15" s="7">
-        <v>3208</v>
+        <v>3207</v>
       </c>
       <c r="D15" s="5">
         <v>42</v>
       </c>
       <c r="E15" s="6">
-        <v>0.51564455569461831</v>
+        <v>0.51549295774647885</v>
       </c>
       <c r="F15" s="6">
-        <v>0.48435544430538174</v>
+        <v>0.48450704225352115</v>
       </c>
       <c r="G15" s="7">
         <v>2549</v>
@@ -1125,19 +1239,19 @@
         <v>0.23185562965868969</v>
       </c>
       <c r="I15" s="7">
-        <v>2771</v>
+        <v>2770</v>
       </c>
       <c r="J15" s="5">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="K15" s="6">
-        <v>0.15120894983760375</v>
+        <v>0.15162454873646208</v>
       </c>
       <c r="L15" s="5">
         <v>65</v>
       </c>
       <c r="M15" s="10">
-        <v>2.0261845380000001E-2</v>
+        <v>2.026816339E-2</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1216,10 +1330,10 @@
         <v>0.13751796837565883</v>
       </c>
       <c r="L17" s="5">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M17" s="10">
-        <v>1.365187713E-2</v>
+        <v>1.407849829E-2</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1245,7 +1359,7 @@
         <v>2937</v>
       </c>
       <c r="H18" s="15">
-        <v>0.25093632958801498</v>
+        <v>0.2512768130745659</v>
       </c>
       <c r="I18" s="12">
         <v>3775</v>
@@ -1283,10 +1397,10 @@
         <v>0.44835096453018047</v>
       </c>
       <c r="G19" s="7">
-        <v>2329</v>
+        <v>2330</v>
       </c>
       <c r="H19" s="8">
-        <v>0.23271790468012021</v>
+        <v>0.23304721030042919</v>
       </c>
       <c r="I19" s="7">
         <v>2870</v>
@@ -1353,37 +1467,37 @@
         <v>28</v>
       </c>
       <c r="C21" s="7">
-        <v>2427</v>
+        <v>2428</v>
       </c>
       <c r="D21" s="5">
         <v>36</v>
       </c>
       <c r="E21" s="6">
-        <v>0.56028075970272506</v>
+        <v>0.56004952538175812</v>
       </c>
       <c r="F21" s="6">
-        <v>0.43971924029727499</v>
+        <v>0.43995047461824183</v>
       </c>
       <c r="G21" s="7">
-        <v>1933</v>
+        <v>1934</v>
       </c>
       <c r="H21" s="8">
-        <v>0.23900672529746508</v>
+        <v>0.23888314374353672</v>
       </c>
       <c r="I21" s="7">
-        <v>2194</v>
+        <v>2195</v>
       </c>
       <c r="J21" s="5">
         <v>256</v>
       </c>
       <c r="K21" s="6">
-        <v>0.11668185961713765</v>
+        <v>0.11662870159453304</v>
       </c>
       <c r="L21" s="5">
         <v>25</v>
       </c>
       <c r="M21" s="10">
-        <v>1.0300782850000001E-2</v>
+        <v>1.029654036E-2</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1435,37 +1549,37 @@
         <v>30</v>
       </c>
       <c r="C23" s="7">
-        <v>3932</v>
+        <v>3933</v>
       </c>
       <c r="D23" s="5">
         <v>36</v>
       </c>
       <c r="E23" s="6">
-        <v>0.52371239163691996</v>
+        <v>0.52357889370379807</v>
       </c>
       <c r="F23" s="6">
-        <v>0.47628760836308004</v>
+        <v>0.47642110629620188</v>
       </c>
       <c r="G23" s="7">
-        <v>3183</v>
+        <v>3184</v>
       </c>
       <c r="H23" s="8">
-        <v>0.27426955702167766</v>
+        <v>0.27449748743718594</v>
       </c>
       <c r="I23" s="7">
-        <v>3480</v>
+        <v>3481</v>
       </c>
       <c r="J23" s="5">
         <v>334</v>
       </c>
       <c r="K23" s="6">
-        <v>9.5977011494252876E-2</v>
+        <v>9.5949439816144788E-2</v>
       </c>
       <c r="L23" s="5">
         <v>33</v>
       </c>
       <c r="M23" s="10">
-        <v>8.3926754800000003E-3</v>
+        <v>8.3905415699999999E-3</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1599,7 +1713,7 @@
         <v>34</v>
       </c>
       <c r="C27" s="7">
-        <v>9592</v>
+        <v>9593</v>
       </c>
       <c r="D27" s="5">
         <v>32</v>
@@ -1617,19 +1731,19 @@
         <v>0.34564643799472294</v>
       </c>
       <c r="I27" s="7">
-        <v>8307</v>
+        <v>8308</v>
       </c>
       <c r="J27" s="5">
         <v>434</v>
       </c>
       <c r="K27" s="6">
-        <v>5.2245094498615627E-2</v>
+        <v>5.2238805970149252E-2</v>
       </c>
       <c r="L27" s="5">
         <v>30</v>
       </c>
       <c r="M27" s="10">
-        <v>3.1276063300000002E-3</v>
+        <v>3.1272803000000002E-3</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1640,37 +1754,37 @@
         <v>35</v>
       </c>
       <c r="C28" s="12">
-        <v>8820</v>
+        <v>8822</v>
       </c>
       <c r="D28" s="13">
         <v>32</v>
       </c>
       <c r="E28" s="14">
-        <v>0.53057266712297513</v>
+        <v>0.53067974452554745</v>
       </c>
       <c r="F28" s="14">
-        <v>0.46942733287702487</v>
+        <v>0.46932025547445255</v>
       </c>
       <c r="G28" s="12">
-        <v>6871</v>
+        <v>6870</v>
       </c>
       <c r="H28" s="15">
-        <v>0.30723329937418137</v>
+        <v>0.30727802037845708</v>
       </c>
       <c r="I28" s="12">
-        <v>7421</v>
+        <v>7422</v>
       </c>
       <c r="J28" s="13">
         <v>367</v>
       </c>
       <c r="K28" s="14">
-        <v>4.9454251448591835E-2</v>
+        <v>4.9447588251145244E-2</v>
       </c>
       <c r="L28" s="13">
         <v>19</v>
       </c>
       <c r="M28" s="16">
-        <v>2.1541950100000002E-3</v>
+        <v>2.1537066400000001E-3</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1681,37 +1795,37 @@
         <v>36</v>
       </c>
       <c r="C29" s="7">
-        <v>8623</v>
+        <v>8620</v>
       </c>
       <c r="D29" s="5">
         <v>33</v>
       </c>
       <c r="E29" s="6">
-        <v>0.53660526929354158</v>
+        <v>0.53667638483965019</v>
       </c>
       <c r="F29" s="6">
-        <v>0.46339473070645837</v>
+        <v>0.46332361516034987</v>
       </c>
       <c r="G29" s="7">
-        <v>6657</v>
+        <v>6656</v>
       </c>
       <c r="H29" s="8">
-        <v>0.27174402884182064</v>
+        <v>0.27178485576923078</v>
       </c>
       <c r="I29" s="7">
-        <v>7087</v>
+        <v>7085</v>
       </c>
       <c r="J29" s="5">
         <v>397</v>
       </c>
       <c r="K29" s="6">
-        <v>5.6018061238888105E-2</v>
+        <v>5.6033874382498239E-2</v>
       </c>
       <c r="L29" s="5">
         <v>36</v>
       </c>
       <c r="M29" s="10">
-        <v>4.1748811300000004E-3</v>
+        <v>4.1763340999999999E-3</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1722,37 +1836,37 @@
         <v>37</v>
       </c>
       <c r="C30" s="12">
-        <v>9775</v>
+        <v>9772</v>
       </c>
       <c r="D30" s="13">
         <v>35</v>
       </c>
       <c r="E30" s="14">
-        <v>0.51856041131105401</v>
+        <v>0.51841184941370089</v>
       </c>
       <c r="F30" s="14">
-        <v>0.48143958868894604</v>
+        <v>0.48158815058629911</v>
       </c>
       <c r="G30" s="12">
-        <v>7600</v>
+        <v>7603</v>
       </c>
       <c r="H30" s="15">
-        <v>0.20434210526315791</v>
+        <v>0.20452452979087202</v>
       </c>
       <c r="I30" s="12">
-        <v>8029</v>
+        <v>8032</v>
       </c>
       <c r="J30" s="13">
         <v>463</v>
       </c>
       <c r="K30" s="14">
-        <v>5.7665960891767343E-2</v>
+        <v>5.7644422310756969E-2</v>
       </c>
       <c r="L30" s="13">
         <v>65</v>
       </c>
       <c r="M30" s="16">
-        <v>6.64961636E-3</v>
+        <v>6.6516577900000004E-3</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1763,37 +1877,37 @@
         <v>38</v>
       </c>
       <c r="C31" s="7">
-        <v>12294</v>
+        <v>12296</v>
       </c>
       <c r="D31" s="5">
         <v>36</v>
       </c>
       <c r="E31" s="6">
-        <v>0.51230479928051675</v>
+        <v>0.51230278754189484</v>
       </c>
       <c r="F31" s="6">
-        <v>0.4876952007194833</v>
+        <v>0.4876972124581051</v>
       </c>
       <c r="G31" s="7">
-        <v>9753</v>
+        <v>9759</v>
       </c>
       <c r="H31" s="8">
-        <v>0.18681431354455039</v>
+        <v>0.18700686545752637</v>
       </c>
       <c r="I31" s="7">
-        <v>10043</v>
+        <v>10056</v>
       </c>
       <c r="J31" s="5">
         <v>674</v>
       </c>
       <c r="K31" s="6">
-        <v>6.711142089017226E-2</v>
+        <v>6.7024661893396981E-2</v>
       </c>
       <c r="L31" s="5">
         <v>79</v>
       </c>
       <c r="M31" s="10">
-        <v>6.4258988100000004E-3</v>
+        <v>6.4248536099999996E-3</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1810,25 +1924,25 @@
         <v>37</v>
       </c>
       <c r="E32" s="14">
-        <v>0.51641928785664848</v>
+        <v>0.51634238252710918</v>
       </c>
       <c r="F32" s="14">
-        <v>0.48358071214335152</v>
+        <v>0.48365761747289088</v>
       </c>
       <c r="G32" s="12">
-        <v>10352</v>
+        <v>10357</v>
       </c>
       <c r="H32" s="15">
-        <v>0.18199381761978362</v>
+        <v>0.18190595732354928</v>
       </c>
       <c r="I32" s="12">
-        <v>10825</v>
+        <v>10839</v>
       </c>
       <c r="J32" s="13">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="K32" s="14">
-        <v>7.1131639722863738E-2</v>
+        <v>7.122428268290433E-2</v>
       </c>
       <c r="L32" s="13">
         <v>108</v>
@@ -1845,37 +1959,37 @@
         <v>40</v>
       </c>
       <c r="C33" s="7">
-        <v>15933</v>
+        <v>15931</v>
       </c>
       <c r="D33" s="5">
         <v>38</v>
       </c>
       <c r="E33" s="6">
-        <v>0.51970536388818933</v>
+        <v>0.51951895227301348</v>
       </c>
       <c r="F33" s="6">
-        <v>0.48029463611181061</v>
+        <v>0.48048104772698652</v>
       </c>
       <c r="G33" s="7">
-        <v>12597</v>
+        <v>12601</v>
       </c>
       <c r="H33" s="8">
-        <v>0.17527982853060253</v>
+        <v>0.17530354733751288</v>
       </c>
       <c r="I33" s="7">
-        <v>13454</v>
+        <v>13459</v>
       </c>
       <c r="J33" s="5">
         <v>873</v>
       </c>
       <c r="K33" s="6">
-        <v>6.4887765720231902E-2</v>
+        <v>6.4863660004457979E-2</v>
       </c>
       <c r="L33" s="5">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M33" s="10">
-        <v>7.5315383099999996E-3</v>
+        <v>7.5952545299999997E-3</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1886,37 +2000,37 @@
         <v>41</v>
       </c>
       <c r="C34" s="19">
-        <v>26131</v>
+        <v>26129</v>
       </c>
       <c r="D34" s="20">
         <v>39</v>
       </c>
       <c r="E34" s="21">
-        <v>0.51038985980410989</v>
+        <v>0.51035224522721157</v>
       </c>
       <c r="F34" s="21">
-        <v>0.48961014019589016</v>
+        <v>0.48964775477278838</v>
       </c>
       <c r="G34" s="19">
-        <v>20084</v>
+        <v>20083</v>
       </c>
       <c r="H34" s="22">
-        <v>0.16615216092411869</v>
+        <v>0.16616043419807797</v>
       </c>
       <c r="I34" s="19">
-        <v>21533</v>
+        <v>21532</v>
       </c>
       <c r="J34" s="20">
-        <v>1584</v>
+        <v>1585</v>
       </c>
       <c r="K34" s="21">
-        <v>7.3561510240096592E-2</v>
+        <v>7.3611369125023224E-2</v>
       </c>
       <c r="L34" s="20">
         <v>239</v>
       </c>
       <c r="M34" s="23">
-        <v>9.1462247900000009E-3</v>
+        <v>9.1469248699999998E-3</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1927,37 +2041,37 @@
         <v>42</v>
       </c>
       <c r="C35" s="7">
-        <v>42084</v>
+        <v>42086</v>
       </c>
       <c r="D35" s="5">
         <v>39</v>
       </c>
       <c r="E35" s="6">
-        <v>0.50852679850960159</v>
+        <v>0.50855027465966085</v>
       </c>
       <c r="F35" s="6">
-        <v>0.49147320149039841</v>
+        <v>0.49144972534033915</v>
       </c>
       <c r="G35" s="7">
-        <v>30829</v>
+        <v>30836</v>
       </c>
       <c r="H35" s="8">
-        <v>0.15975218138765448</v>
+        <v>0.15974834608898689</v>
       </c>
       <c r="I35" s="7">
-        <v>33650</v>
+        <v>33655</v>
       </c>
       <c r="J35" s="5">
-        <v>2320</v>
+        <v>2321</v>
       </c>
       <c r="K35" s="6">
-        <v>6.894502228826152E-2</v>
+        <v>6.8964492645966421E-2</v>
       </c>
       <c r="L35" s="5">
         <v>456</v>
       </c>
       <c r="M35" s="10">
-        <v>1.083547191E-2</v>
+        <v>1.083495699E-2</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1968,37 +2082,37 @@
         <v>43</v>
       </c>
       <c r="C36" s="12">
-        <v>74854</v>
+        <v>74840</v>
       </c>
       <c r="D36" s="13">
         <v>40</v>
       </c>
       <c r="E36" s="14">
-        <v>0.50169159305104316</v>
+        <v>0.5017119838872105</v>
       </c>
       <c r="F36" s="14">
-        <v>0.49830840694895684</v>
+        <v>0.4982880161127895</v>
       </c>
       <c r="G36" s="12">
-        <v>51982</v>
+        <v>52279</v>
       </c>
       <c r="H36" s="15">
-        <v>0.15597706898541802</v>
+        <v>0.15507182616346907</v>
       </c>
       <c r="I36" s="12">
-        <v>57970</v>
+        <v>58054</v>
       </c>
       <c r="J36" s="13">
-        <v>4087</v>
+        <v>4093</v>
       </c>
       <c r="K36" s="14">
-        <v>7.0501983784716227E-2</v>
+        <v>7.0503324490991143E-2</v>
       </c>
       <c r="L36" s="13">
-        <v>979</v>
+        <v>986</v>
       </c>
       <c r="M36" s="16">
-        <v>1.307879338E-2</v>
+        <v>1.317477284E-2</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2009,37 +2123,37 @@
         <v>44</v>
       </c>
       <c r="C37" s="7">
-        <v>111126</v>
+        <v>111107</v>
       </c>
       <c r="D37" s="5">
         <v>41</v>
       </c>
       <c r="E37" s="6">
-        <v>0.49731628062743821</v>
+        <v>0.49732039397450756</v>
       </c>
       <c r="F37" s="6">
-        <v>0.50268371937256184</v>
+        <v>0.50267960602549244</v>
       </c>
       <c r="G37" s="7">
-        <v>75041</v>
+        <v>75175</v>
       </c>
       <c r="H37" s="8">
-        <v>0.1586466065217681</v>
+        <v>0.15832391087462588</v>
       </c>
       <c r="I37" s="7">
-        <v>83784</v>
+        <v>83859</v>
       </c>
       <c r="J37" s="5">
-        <v>5889</v>
+        <v>5900</v>
       </c>
       <c r="K37" s="6">
-        <v>7.0287883128043543E-2</v>
+        <v>7.0356193133712538E-2</v>
       </c>
       <c r="L37" s="5">
-        <v>1575</v>
+        <v>1576</v>
       </c>
       <c r="M37" s="10">
-        <v>1.41731008E-2</v>
+        <v>1.4184524820000001E-2</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2050,37 +2164,37 @@
         <v>45</v>
       </c>
       <c r="C38" s="19">
-        <v>125834</v>
+        <v>125815</v>
       </c>
       <c r="D38" s="20">
         <v>41</v>
       </c>
       <c r="E38" s="21">
-        <v>0.49133920062783787</v>
+        <v>0.49133401678733901</v>
       </c>
       <c r="F38" s="21">
-        <v>0.50866079937216213</v>
+        <v>0.50866598321266099</v>
       </c>
       <c r="G38" s="19">
-        <v>84407</v>
+        <v>84523</v>
       </c>
       <c r="H38" s="22">
-        <v>0.15275984219318303</v>
+        <v>0.15265667333151922</v>
       </c>
       <c r="I38" s="19">
-        <v>92171</v>
+        <v>92422</v>
       </c>
       <c r="J38" s="20">
-        <v>6768</v>
+        <v>6805</v>
       </c>
       <c r="K38" s="21">
-        <v>7.3428735719477931E-2</v>
+        <v>7.3629655276882131E-2</v>
       </c>
       <c r="L38" s="20">
-        <v>1841</v>
+        <v>1844</v>
       </c>
       <c r="M38" s="23">
-        <v>1.463038606E-2</v>
+        <v>1.4656440010000001E-2</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2091,37 +2205,37 @@
         <v>46</v>
       </c>
       <c r="C39" s="7">
-        <v>127907</v>
+        <v>127889</v>
       </c>
       <c r="D39" s="5">
         <v>42</v>
       </c>
       <c r="E39" s="6">
-        <v>0.48456829083564756</v>
+        <v>0.48459790430501198</v>
       </c>
       <c r="F39" s="6">
-        <v>0.51543170916435244</v>
+        <v>0.51540209569498796</v>
       </c>
       <c r="G39" s="7">
-        <v>85033</v>
+        <v>85271</v>
       </c>
       <c r="H39" s="8">
-        <v>0.14846000964331496</v>
+        <v>0.14858509927173366</v>
       </c>
       <c r="I39" s="7">
-        <v>94168</v>
+        <v>94210</v>
       </c>
       <c r="J39" s="5">
-        <v>7436</v>
+        <v>7445</v>
       </c>
       <c r="K39" s="6">
-        <v>7.8965253589329709E-2</v>
+        <v>7.9025581148498031E-2</v>
       </c>
       <c r="L39" s="5">
-        <v>2439</v>
+        <v>2443</v>
       </c>
       <c r="M39" s="10">
-        <v>1.9068541979999999E-2</v>
+        <v>1.9102502949999999E-2</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2132,37 +2246,37 @@
         <v>47</v>
       </c>
       <c r="C40" s="19">
-        <v>128502</v>
+        <v>128500</v>
       </c>
       <c r="D40" s="20">
         <v>43</v>
       </c>
       <c r="E40" s="21">
-        <v>0.47449591323360002</v>
+        <v>0.47452765870745794</v>
       </c>
       <c r="F40" s="21">
-        <v>0.52550408676639992</v>
+        <v>0.52547234129254206</v>
       </c>
       <c r="G40" s="19">
-        <v>85571</v>
+        <v>85888</v>
       </c>
       <c r="H40" s="22">
-        <v>0.14843813908917741</v>
+        <v>0.14853064456035767</v>
       </c>
       <c r="I40" s="19">
-        <v>93669</v>
+        <v>93770</v>
       </c>
       <c r="J40" s="20">
-        <v>7973</v>
+        <v>7990</v>
       </c>
       <c r="K40" s="21">
-        <v>8.5118876042233824E-2</v>
+        <v>8.5208488855710779E-2</v>
       </c>
       <c r="L40" s="20">
-        <v>3112</v>
+        <v>3123</v>
       </c>
       <c r="M40" s="23">
-        <v>2.42175219E-2</v>
+        <v>2.430350194E-2</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2173,37 +2287,37 @@
         <v>48</v>
       </c>
       <c r="C41" s="7">
-        <v>123314</v>
+        <v>123297</v>
       </c>
       <c r="D41" s="5">
         <v>44</v>
       </c>
       <c r="E41" s="6">
-        <v>0.46553483246949351</v>
+        <v>0.46558423535942273</v>
       </c>
       <c r="F41" s="6">
-        <v>0.53446516753050644</v>
+        <v>0.53441576464057727</v>
       </c>
       <c r="G41" s="7">
-        <v>81621</v>
+        <v>81802</v>
       </c>
       <c r="H41" s="8">
-        <v>0.15518065203807843</v>
+        <v>0.15522847852130756</v>
       </c>
       <c r="I41" s="7">
-        <v>89379</v>
+        <v>89468</v>
       </c>
       <c r="J41" s="5">
-        <v>8198</v>
+        <v>8219</v>
       </c>
       <c r="K41" s="6">
-        <v>9.1721769095648872E-2</v>
+        <v>9.186524790986722E-2</v>
       </c>
       <c r="L41" s="5">
-        <v>3469</v>
+        <v>3477</v>
       </c>
       <c r="M41" s="10">
-        <v>2.813143681E-2</v>
+        <v>2.8200199509999999E-2</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2214,37 +2328,37 @@
         <v>49</v>
       </c>
       <c r="C42" s="19">
-        <v>128513</v>
+        <v>128503</v>
       </c>
       <c r="D42" s="20">
         <v>45</v>
       </c>
       <c r="E42" s="21">
-        <v>0.45917151413474655</v>
+        <v>0.45915327322618582</v>
       </c>
       <c r="F42" s="21">
-        <v>0.54082848586525345</v>
+        <v>0.54084672677381418</v>
       </c>
       <c r="G42" s="19">
-        <v>86328</v>
+        <v>86662</v>
       </c>
       <c r="H42" s="22">
-        <v>0.14084653878231859</v>
+        <v>0.14131914795412059</v>
       </c>
       <c r="I42" s="19">
-        <v>93228</v>
+        <v>93441</v>
       </c>
       <c r="J42" s="20">
-        <v>9003</v>
+        <v>9036</v>
       </c>
       <c r="K42" s="21">
-        <v>9.6569700090101684E-2</v>
+        <v>9.6702732205348835E-2</v>
       </c>
       <c r="L42" s="20">
-        <v>4318</v>
+        <v>4337</v>
       </c>
       <c r="M42" s="23">
-        <v>3.3599713640000001E-2</v>
+        <v>3.3750184820000001E-2</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2255,37 +2369,37 @@
         <v>50</v>
       </c>
       <c r="C43" s="7">
-        <v>156566</v>
+        <v>156550</v>
       </c>
       <c r="D43" s="5">
         <v>46</v>
       </c>
       <c r="E43" s="6">
-        <v>0.45386490362662313</v>
+        <v>0.45390636557175662</v>
       </c>
       <c r="F43" s="6">
-        <v>0.54613509637337687</v>
+        <v>0.54609363442824344</v>
       </c>
       <c r="G43" s="7">
-        <v>105478</v>
+        <v>105773</v>
       </c>
       <c r="H43" s="8">
-        <v>0.14394470884923871</v>
+        <v>0.14394032503568963</v>
       </c>
       <c r="I43" s="7">
-        <v>113189</v>
+        <v>113331</v>
       </c>
       <c r="J43" s="5">
-        <v>11032</v>
+        <v>11051</v>
       </c>
       <c r="K43" s="6">
-        <v>9.7465301398545798E-2</v>
+        <v>9.7510831105346293E-2</v>
       </c>
       <c r="L43" s="5">
-        <v>5542</v>
+        <v>5561</v>
       </c>
       <c r="M43" s="10">
-        <v>3.5397212669999997E-2</v>
+        <v>3.5522197380000002E-2</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2296,37 +2410,37 @@
         <v>51</v>
       </c>
       <c r="C44" s="19">
-        <v>174963</v>
+        <v>174941</v>
       </c>
       <c r="D44" s="20">
         <v>46</v>
       </c>
       <c r="E44" s="21">
-        <v>0.45182012847965741</v>
+        <v>0.45181253490072365</v>
       </c>
       <c r="F44" s="21">
-        <v>0.54817987152034264</v>
+        <v>0.54818746509927641</v>
       </c>
       <c r="G44" s="19">
-        <v>116461</v>
+        <v>116790</v>
       </c>
       <c r="H44" s="22">
-        <v>0.14335271034938735</v>
+        <v>0.14363387276307904</v>
       </c>
       <c r="I44" s="19">
-        <v>125104</v>
+        <v>125263</v>
       </c>
       <c r="J44" s="20">
-        <v>12277</v>
+        <v>12293</v>
       </c>
       <c r="K44" s="21">
-        <v>9.8134352218953835E-2</v>
+        <v>9.8137518660737805E-2</v>
       </c>
       <c r="L44" s="20">
-        <v>6189</v>
+        <v>6215</v>
       </c>
       <c r="M44" s="23">
-        <v>3.5373193179999998E-2</v>
+        <v>3.552626314E-2</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2337,37 +2451,37 @@
         <v>52</v>
       </c>
       <c r="C45" s="7">
-        <v>139274</v>
+        <v>139258</v>
       </c>
       <c r="D45" s="5">
         <v>48</v>
       </c>
       <c r="E45" s="6">
-        <v>0.4449034218331766</v>
+        <v>0.44488416848746182</v>
       </c>
       <c r="F45" s="6">
-        <v>0.55509657816682345</v>
+        <v>0.55511583151253818</v>
       </c>
       <c r="G45" s="7">
-        <v>89581</v>
+        <v>90208</v>
       </c>
       <c r="H45" s="8">
-        <v>0.1565175651086726</v>
+        <v>0.15713683930471797</v>
       </c>
       <c r="I45" s="7">
-        <v>98105</v>
+        <v>98823</v>
       </c>
       <c r="J45" s="5">
-        <v>10762</v>
+        <v>10845</v>
       </c>
       <c r="K45" s="6">
-        <v>0.10969879211049385</v>
+        <v>0.10974165933031785</v>
       </c>
       <c r="L45" s="5">
-        <v>5494</v>
+        <v>5522</v>
       </c>
       <c r="M45" s="10">
-        <v>3.9447420189999999E-2</v>
+        <v>3.9653018130000002E-2</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2378,37 +2492,37 @@
         <v>53</v>
       </c>
       <c r="C46" s="19">
-        <v>123215</v>
+        <v>123200</v>
       </c>
       <c r="D46" s="20">
         <v>49</v>
       </c>
       <c r="E46" s="21">
-        <v>0.44124268347591178</v>
+        <v>0.44124437167417108</v>
       </c>
       <c r="F46" s="21">
-        <v>0.55875731652408822</v>
+        <v>0.55875562832582892</v>
       </c>
       <c r="G46" s="19">
-        <v>82704</v>
+        <v>82828</v>
       </c>
       <c r="H46" s="22">
-        <v>0.134141033081834</v>
+        <v>0.13412131163374705</v>
       </c>
       <c r="I46" s="19">
-        <v>88840</v>
+        <v>89019</v>
       </c>
       <c r="J46" s="20">
-        <v>10617</v>
+        <v>10653</v>
       </c>
       <c r="K46" s="21">
-        <v>0.1195069788383611</v>
+        <v>0.11967108145452095</v>
       </c>
       <c r="L46" s="20">
-        <v>5463</v>
+        <v>5484</v>
       </c>
       <c r="M46" s="23">
-        <v>4.4337134270000002E-2</v>
+        <v>4.4512987009999998E-2</v>
       </c>
     </row>
     <row r="47" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2419,37 +2533,37 @@
         <v>1</v>
       </c>
       <c r="C47" s="27">
-        <v>145530</v>
+        <v>145497</v>
       </c>
       <c r="D47" s="28">
         <v>48</v>
       </c>
       <c r="E47" s="29">
-        <v>0.45081353252049439</v>
+        <v>0.45085077308324606</v>
       </c>
       <c r="F47" s="29">
-        <v>0.54918646747950561</v>
+        <v>0.54914922691675394</v>
       </c>
       <c r="G47" s="27">
-        <v>98993</v>
+        <v>99708</v>
       </c>
       <c r="H47" s="30">
-        <v>0.13281747194246057</v>
+        <v>0.13220604164159344</v>
       </c>
       <c r="I47" s="27">
-        <v>104782</v>
+        <v>105274</v>
       </c>
       <c r="J47" s="28">
-        <v>10666</v>
+        <v>10707</v>
       </c>
       <c r="K47" s="29">
-        <v>0.10179229256933443</v>
+        <v>0.10170602427949921</v>
       </c>
       <c r="L47" s="28">
-        <v>5427</v>
+        <v>5456</v>
       </c>
       <c r="M47" s="31">
-        <v>3.7291280140000001E-2</v>
+        <v>3.749905496E-2</v>
       </c>
     </row>
     <row r="48" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2460,37 +2574,37 @@
         <v>2</v>
       </c>
       <c r="C48" s="19">
-        <v>119002</v>
+        <v>118990</v>
       </c>
       <c r="D48" s="20">
         <v>48</v>
       </c>
       <c r="E48" s="21">
-        <v>0.45437565796176183</v>
+        <v>0.45433320881583861</v>
       </c>
       <c r="F48" s="21">
-        <v>0.54562434203823817</v>
+        <v>0.54566679118416139</v>
       </c>
       <c r="G48" s="19">
-        <v>79514</v>
+        <v>79856</v>
       </c>
       <c r="H48" s="22">
-        <v>0.15834947304877128</v>
+        <v>0.15793428170707274</v>
       </c>
       <c r="I48" s="19">
-        <v>86010</v>
+        <v>86284</v>
       </c>
       <c r="J48" s="20">
-        <v>9440</v>
+        <v>9474</v>
       </c>
       <c r="K48" s="21">
-        <v>0.10975467968840832</v>
+        <v>0.10980019470585509</v>
       </c>
       <c r="L48" s="20">
-        <v>4812</v>
+        <v>4839</v>
       </c>
       <c r="M48" s="23">
-        <v>4.0436295179999998E-2</v>
+        <v>4.0667282960000002E-2</v>
       </c>
     </row>
     <row r="49" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2501,37 +2615,37 @@
         <v>3</v>
       </c>
       <c r="C49" s="7">
-        <v>95581</v>
+        <v>95591</v>
       </c>
       <c r="D49" s="5">
         <v>48</v>
       </c>
       <c r="E49" s="6">
-        <v>0.45812532322923155</v>
+        <v>0.4580928362650234</v>
       </c>
       <c r="F49" s="6">
-        <v>0.5418746767707685</v>
+        <v>0.5419071637349766</v>
       </c>
       <c r="G49" s="7">
-        <v>65361</v>
+        <v>65755</v>
       </c>
       <c r="H49" s="8">
-        <v>0.15841250898854056</v>
+        <v>0.15791954984411832</v>
       </c>
       <c r="I49" s="7">
-        <v>71498</v>
+        <v>71748</v>
       </c>
       <c r="J49" s="5">
-        <v>8397</v>
+        <v>8433</v>
       </c>
       <c r="K49" s="6">
-        <v>0.11744384458306525</v>
+        <v>0.11753637732062218</v>
       </c>
       <c r="L49" s="5">
-        <v>3793</v>
+        <v>3847</v>
       </c>
       <c r="M49" s="10">
-        <v>3.9683619119999999E-2</v>
+        <v>4.0244374469999997E-2</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2542,37 +2656,37 @@
         <v>4</v>
       </c>
       <c r="C50" s="19">
-        <v>78283</v>
+        <v>78268</v>
       </c>
       <c r="D50" s="20">
         <v>48</v>
       </c>
       <c r="E50" s="21">
-        <v>0.46331374671408693</v>
+        <v>0.46328418990669623</v>
       </c>
       <c r="F50" s="21">
-        <v>0.53668625328591313</v>
+        <v>0.53671581009330382</v>
       </c>
       <c r="G50" s="19">
-        <v>53989</v>
+        <v>54307</v>
       </c>
       <c r="H50" s="22">
-        <v>0.15884717257219064</v>
+        <v>0.15907709871655587</v>
       </c>
       <c r="I50" s="19">
-        <v>60076</v>
+        <v>60316</v>
       </c>
       <c r="J50" s="20">
-        <v>7069</v>
+        <v>7111</v>
       </c>
       <c r="K50" s="21">
-        <v>0.11766762101338304</v>
+        <v>0.11789574905497711</v>
       </c>
       <c r="L50" s="20">
-        <v>2830</v>
+        <v>2872</v>
       </c>
       <c r="M50" s="23">
-        <v>3.6150888440000001E-2</v>
+        <v>3.6694434499999998E-2</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2583,37 +2697,37 @@
         <v>5</v>
       </c>
       <c r="C51" s="7">
-        <v>64654</v>
+        <v>64661</v>
       </c>
       <c r="D51" s="5">
         <v>46</v>
       </c>
       <c r="E51" s="6">
-        <v>0.47375653939251972</v>
+        <v>0.47376227575762309</v>
       </c>
       <c r="F51" s="6">
-        <v>0.52624346060748028</v>
+        <v>0.52623772424237691</v>
       </c>
       <c r="G51" s="7">
-        <v>45301</v>
+        <v>45538</v>
       </c>
       <c r="H51" s="8">
-        <v>0.15922385819297588</v>
+        <v>0.15918573499055733</v>
       </c>
       <c r="I51" s="7">
-        <v>50186</v>
+        <v>50396</v>
       </c>
       <c r="J51" s="5">
-        <v>6020</v>
+        <v>6049</v>
       </c>
       <c r="K51" s="6">
-        <v>0.119953771968278</v>
+        <v>0.12002936741011191</v>
       </c>
       <c r="L51" s="5">
-        <v>1989</v>
+        <v>2044</v>
       </c>
       <c r="M51" s="10">
-        <v>3.0763757839999999E-2</v>
+        <v>3.1611017460000002E-2</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2624,37 +2738,37 @@
         <v>6</v>
       </c>
       <c r="C52" s="19">
-        <v>50863</v>
+        <v>50870</v>
       </c>
       <c r="D52" s="20">
         <v>45</v>
       </c>
       <c r="E52" s="21">
-        <v>0.48374112701748823</v>
+        <v>0.48384539147670963</v>
       </c>
       <c r="F52" s="21">
-        <v>0.51625887298251183</v>
+        <v>0.51615460852329043</v>
       </c>
       <c r="G52" s="19">
-        <v>36353</v>
+        <v>36586</v>
       </c>
       <c r="H52" s="22">
-        <v>0.16422303523780707</v>
+        <v>0.16443448313562564</v>
       </c>
       <c r="I52" s="19">
-        <v>39720</v>
+        <v>39926</v>
       </c>
       <c r="J52" s="20">
-        <v>4780</v>
+        <v>4818</v>
       </c>
       <c r="K52" s="21">
-        <v>0.1203423967774421</v>
+        <v>0.12067324550418274</v>
       </c>
       <c r="L52" s="20">
-        <v>1389</v>
+        <v>1479</v>
       </c>
       <c r="M52" s="23">
-        <v>2.7308652650000001E-2</v>
+        <v>2.9074110470000001E-2</v>
       </c>
     </row>
     <row r="53" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2665,37 +2779,37 @@
         <v>7</v>
       </c>
       <c r="C53" s="7">
-        <v>52498</v>
+        <v>52497</v>
       </c>
       <c r="D53" s="5">
         <v>44</v>
       </c>
       <c r="E53" s="6">
-        <v>0.49192031627835564</v>
+        <v>0.49183630398495809</v>
       </c>
       <c r="F53" s="6">
-        <v>0.50807968372164436</v>
+        <v>0.50816369601504197</v>
       </c>
       <c r="G53" s="7">
-        <v>37787</v>
+        <v>38093</v>
       </c>
       <c r="H53" s="8">
-        <v>0.16373355916055787</v>
+        <v>0.16378337227312104</v>
       </c>
       <c r="I53" s="7">
-        <v>41312</v>
+        <v>41581</v>
       </c>
       <c r="J53" s="5">
-        <v>4700</v>
+        <v>4765</v>
       </c>
       <c r="K53" s="6">
-        <v>0.11376839659178931</v>
+        <v>0.11459560857122243</v>
       </c>
       <c r="L53" s="5">
-        <v>1132</v>
+        <v>1224</v>
       </c>
       <c r="M53" s="10">
-        <v>2.1562726189999999E-2</v>
+        <v>2.3315618029999999E-2</v>
       </c>
     </row>
     <row r="54" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2706,37 +2820,37 @@
         <v>8</v>
       </c>
       <c r="C54" s="19">
-        <v>56482</v>
+        <v>56486</v>
       </c>
       <c r="D54" s="20">
         <v>42</v>
       </c>
       <c r="E54" s="21">
-        <v>0.4970080142475512</v>
+        <v>0.49715984971242366</v>
       </c>
       <c r="F54" s="21">
-        <v>0.50299198575244874</v>
+        <v>0.50284015028757634</v>
       </c>
       <c r="G54" s="19">
-        <v>39635</v>
+        <v>40743</v>
       </c>
       <c r="H54" s="22">
-        <v>0.15743660905765106</v>
+        <v>0.15813759418795867</v>
       </c>
       <c r="I54" s="19">
-        <v>43474</v>
+        <v>44130</v>
       </c>
       <c r="J54" s="20">
-        <v>4219</v>
+        <v>4372</v>
       </c>
       <c r="K54" s="21">
-        <v>9.704651055803469E-2</v>
+        <v>9.9070926807160661E-2</v>
       </c>
       <c r="L54" s="20">
-        <v>750</v>
+        <v>919</v>
       </c>
       <c r="M54" s="23">
-        <v>1.327856662E-2</v>
+        <v>1.6269518109999999E-2</v>
       </c>
     </row>
     <row r="55" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2747,37 +2861,37 @@
         <v>9</v>
       </c>
       <c r="C55" s="7">
-        <v>58441</v>
+        <v>58495</v>
       </c>
       <c r="D55" s="5">
         <v>40</v>
       </c>
       <c r="E55" s="6">
-        <v>0.50741174848317705</v>
+        <v>0.50722593076870137</v>
       </c>
       <c r="F55" s="6">
-        <v>0.49258825151682295</v>
+        <v>0.49277406923129863</v>
       </c>
       <c r="G55" s="7">
-        <v>39453</v>
+        <v>41266</v>
       </c>
       <c r="H55" s="8">
-        <v>0.15517197678250069</v>
+        <v>0.15545485387486066</v>
       </c>
       <c r="I55" s="7">
-        <v>43674</v>
+        <v>44823</v>
       </c>
       <c r="J55" s="5">
-        <v>3423</v>
+        <v>3774</v>
       </c>
       <c r="K55" s="6">
-        <v>7.8376150570133266E-2</v>
+        <v>8.4197844856435305E-2</v>
       </c>
       <c r="L55" s="5">
-        <v>371</v>
+        <v>589</v>
       </c>
       <c r="M55" s="10">
-        <v>6.3482828800000002E-3</v>
+        <v>1.006923668E-2</v>
       </c>
     </row>
     <row r="56" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2788,37 +2902,848 @@
         <v>10</v>
       </c>
       <c r="C56" s="19">
-        <v>70689</v>
+        <v>71302</v>
       </c>
       <c r="D56" s="20">
         <v>39</v>
       </c>
       <c r="E56" s="21">
-        <v>0.50348359776248586</v>
+        <v>0.50275828901210817</v>
       </c>
       <c r="F56" s="21">
-        <v>0.49651640223751414</v>
+        <v>0.49724171098789183</v>
       </c>
       <c r="G56" s="19">
-        <v>40811</v>
+        <v>47210</v>
       </c>
       <c r="H56" s="22">
-        <v>0.15819264414006029</v>
+        <v>0.15384452446515567</v>
       </c>
       <c r="I56" s="19">
-        <v>46473</v>
+        <v>51282</v>
       </c>
       <c r="J56" s="20">
-        <v>2760</v>
+        <v>3694</v>
       </c>
       <c r="K56" s="21">
-        <v>5.9389322832612487E-2</v>
+        <v>7.2033072033072035E-2</v>
       </c>
       <c r="L56" s="20">
-        <v>140</v>
+        <v>384</v>
       </c>
       <c r="M56" s="23">
-        <v>1.9805061600000002E-3</v>
+        <v>5.3855431799999997E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="18">
+        <v>2021</v>
+      </c>
+      <c r="B57" s="18">
+        <v>11</v>
+      </c>
+      <c r="C57" s="19">
+        <v>91523</v>
+      </c>
+      <c r="D57" s="20">
+        <v>39</v>
+      </c>
+      <c r="E57" s="21">
+        <v>0.50414279418245922</v>
+      </c>
+      <c r="F57" s="21">
+        <v>0.49585720581754078</v>
+      </c>
+      <c r="G57" s="19">
+        <v>52624</v>
+      </c>
+      <c r="H57" s="22">
+        <v>0.15808376406202493</v>
+      </c>
+      <c r="I57" s="19">
+        <v>59912</v>
+      </c>
+      <c r="J57" s="20">
+        <v>3138</v>
+      </c>
+      <c r="K57" s="21">
+        <v>5.23768193350247E-2</v>
+      </c>
+      <c r="L57" s="20">
+        <v>137</v>
+      </c>
+      <c r="M57" s="23">
+        <v>1.49689149E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F2B208C-555F-44C6-980F-40400D13B2EF}">
+  <dimension ref="A1:H29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2">
+        <v>12</v>
+      </c>
+      <c r="D2">
+        <v>12</v>
+      </c>
+      <c r="E2">
+        <v>50</v>
+      </c>
+      <c r="F2">
+        <v>156</v>
+      </c>
+      <c r="G2">
+        <v>136</v>
+      </c>
+      <c r="H2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>77</v>
+      </c>
+      <c r="F3">
+        <v>235</v>
+      </c>
+      <c r="G3">
+        <v>206</v>
+      </c>
+      <c r="H3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4">
+        <v>9</v>
+      </c>
+      <c r="D4">
+        <v>7</v>
+      </c>
+      <c r="E4">
+        <v>112</v>
+      </c>
+      <c r="F4">
+        <v>237</v>
+      </c>
+      <c r="G4">
+        <v>254</v>
+      </c>
+      <c r="H4">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5">
+        <v>15</v>
+      </c>
+      <c r="D5">
+        <v>9</v>
+      </c>
+      <c r="E5">
+        <v>115</v>
+      </c>
+      <c r="F5">
+        <v>274</v>
+      </c>
+      <c r="G5">
+        <v>285</v>
+      </c>
+      <c r="H5">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6">
+        <v>21</v>
+      </c>
+      <c r="D6">
+        <v>17</v>
+      </c>
+      <c r="E6">
+        <v>206</v>
+      </c>
+      <c r="F6">
+        <v>488</v>
+      </c>
+      <c r="G6">
+        <v>500</v>
+      </c>
+      <c r="H6">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7">
+        <v>24</v>
+      </c>
+      <c r="D7">
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <v>261</v>
+      </c>
+      <c r="F7">
+        <v>672</v>
+      </c>
+      <c r="G7">
+        <v>779</v>
+      </c>
+      <c r="H7">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8">
+        <v>50</v>
+      </c>
+      <c r="D8">
+        <v>30</v>
+      </c>
+      <c r="E8">
+        <v>428</v>
+      </c>
+      <c r="F8">
+        <v>1045</v>
+      </c>
+      <c r="G8">
+        <v>1410</v>
+      </c>
+      <c r="H8">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9">
+        <v>63</v>
+      </c>
+      <c r="D9">
+        <v>49</v>
+      </c>
+      <c r="E9">
+        <v>539</v>
+      </c>
+      <c r="F9">
+        <v>1489</v>
+      </c>
+      <c r="G9">
+        <v>2075</v>
+      </c>
+      <c r="H9">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10">
+        <v>65</v>
+      </c>
+      <c r="D10">
+        <v>58</v>
+      </c>
+      <c r="E10">
+        <v>597</v>
+      </c>
+      <c r="F10">
+        <v>1674</v>
+      </c>
+      <c r="G10">
+        <v>2373</v>
+      </c>
+      <c r="H10">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11">
+        <v>64</v>
+      </c>
+      <c r="D11">
+        <v>67</v>
+      </c>
+      <c r="E11">
+        <v>567</v>
+      </c>
+      <c r="F11">
+        <v>1703</v>
+      </c>
+      <c r="G11">
+        <v>2548</v>
+      </c>
+      <c r="H11">
+        <v>2485</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12">
+        <v>54</v>
+      </c>
+      <c r="D12">
+        <v>52</v>
+      </c>
+      <c r="E12">
+        <v>595</v>
+      </c>
+      <c r="F12">
+        <v>1652</v>
+      </c>
+      <c r="G12">
+        <v>2833</v>
+      </c>
+      <c r="H12">
+        <v>2797</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13">
+        <v>63</v>
+      </c>
+      <c r="D13">
+        <v>68</v>
+      </c>
+      <c r="E13">
+        <v>554</v>
+      </c>
+      <c r="F13">
+        <v>1669</v>
+      </c>
+      <c r="G13">
+        <v>2832</v>
+      </c>
+      <c r="H13">
+        <v>3028</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14">
+        <v>56</v>
+      </c>
+      <c r="D14">
+        <v>58</v>
+      </c>
+      <c r="E14">
+        <v>586</v>
+      </c>
+      <c r="F14">
+        <v>1643</v>
+      </c>
+      <c r="G14">
+        <v>3127</v>
+      </c>
+      <c r="H14">
+        <v>3558</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15">
+        <v>69</v>
+      </c>
+      <c r="D15">
+        <v>66</v>
+      </c>
+      <c r="E15">
+        <v>662</v>
+      </c>
+      <c r="F15">
+        <v>1925</v>
+      </c>
+      <c r="G15">
+        <v>3867</v>
+      </c>
+      <c r="H15">
+        <v>4453</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16">
+        <v>78</v>
+      </c>
+      <c r="D16">
+        <v>83</v>
+      </c>
+      <c r="E16">
+        <v>691</v>
+      </c>
+      <c r="F16">
+        <v>2138</v>
+      </c>
+      <c r="G16">
+        <v>4293</v>
+      </c>
+      <c r="H16">
+        <v>5002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17">
+        <v>53</v>
+      </c>
+      <c r="D17">
+        <v>49</v>
+      </c>
+      <c r="E17">
+        <v>594</v>
+      </c>
+      <c r="F17">
+        <v>1812</v>
+      </c>
+      <c r="G17">
+        <v>3822</v>
+      </c>
+      <c r="H17">
+        <v>4499</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18">
+        <v>74</v>
+      </c>
+      <c r="D18">
+        <v>51</v>
+      </c>
+      <c r="E18">
+        <v>597</v>
+      </c>
+      <c r="F18">
+        <v>1836</v>
+      </c>
+      <c r="G18">
+        <v>3736</v>
+      </c>
+      <c r="H18">
+        <v>4343</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19">
+        <v>61</v>
+      </c>
+      <c r="D19">
+        <v>33</v>
+      </c>
+      <c r="E19">
+        <v>560</v>
+      </c>
+      <c r="F19">
+        <v>1720</v>
+      </c>
+      <c r="G19">
+        <v>3814</v>
+      </c>
+      <c r="H19">
+        <v>4517</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20">
+        <v>57</v>
+      </c>
+      <c r="D20">
+        <v>46</v>
+      </c>
+      <c r="E20">
+        <v>502</v>
+      </c>
+      <c r="F20">
+        <v>1538</v>
+      </c>
+      <c r="G20">
+        <v>3255</v>
+      </c>
+      <c r="H20">
+        <v>4072</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21">
+        <v>39</v>
+      </c>
+      <c r="D21">
+        <v>36</v>
+      </c>
+      <c r="E21">
+        <v>384</v>
+      </c>
+      <c r="F21">
+        <v>1393</v>
+      </c>
+      <c r="G21">
+        <v>3032</v>
+      </c>
+      <c r="H21">
+        <v>3546</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22">
+        <v>34</v>
+      </c>
+      <c r="D22">
+        <v>30</v>
+      </c>
+      <c r="E22">
+        <v>385</v>
+      </c>
+      <c r="F22">
+        <v>1164</v>
+      </c>
+      <c r="G22">
+        <v>2641</v>
+      </c>
+      <c r="H22">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23">
+        <v>41</v>
+      </c>
+      <c r="D23">
+        <v>37</v>
+      </c>
+      <c r="E23">
+        <v>336</v>
+      </c>
+      <c r="F23">
+        <v>1068</v>
+      </c>
+      <c r="G23">
+        <v>2212</v>
+      </c>
+      <c r="H23">
+        <v>2353</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24">
+        <v>36</v>
+      </c>
+      <c r="D24">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>278</v>
+      </c>
+      <c r="F24">
+        <v>901</v>
+      </c>
+      <c r="G24">
+        <v>1806</v>
+      </c>
+      <c r="H24">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25">
+        <v>36</v>
+      </c>
+      <c r="D25">
+        <v>22</v>
+      </c>
+      <c r="E25">
+        <v>293</v>
+      </c>
+      <c r="F25">
+        <v>972</v>
+      </c>
+      <c r="G25">
+        <v>1865</v>
+      </c>
+      <c r="H25">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26">
+        <v>43</v>
+      </c>
+      <c r="D26">
+        <v>31</v>
+      </c>
+      <c r="E26">
+        <v>296</v>
+      </c>
+      <c r="F26">
+        <v>989</v>
+      </c>
+      <c r="G26">
+        <v>1628</v>
+      </c>
+      <c r="H26">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27">
+        <v>48</v>
+      </c>
+      <c r="D27">
+        <v>27</v>
+      </c>
+      <c r="E27">
+        <v>300</v>
+      </c>
+      <c r="F27">
+        <v>883</v>
+      </c>
+      <c r="G27">
+        <v>1421</v>
+      </c>
+      <c r="H27">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28">
+        <v>46</v>
+      </c>
+      <c r="D28">
+        <v>30</v>
+      </c>
+      <c r="E28">
+        <v>329</v>
+      </c>
+      <c r="F28">
+        <v>965</v>
+      </c>
+      <c r="G28">
+        <v>1308</v>
+      </c>
+      <c r="H28">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29">
+        <v>62</v>
+      </c>
+      <c r="D29">
+        <v>53</v>
+      </c>
+      <c r="E29">
+        <v>306</v>
+      </c>
+      <c r="F29">
+        <v>762</v>
+      </c>
+      <c r="G29">
+        <v>1114</v>
+      </c>
+      <c r="H29">
+        <v>836</v>
       </c>
     </row>
   </sheetData>

--- a/data/klinische_aspekte.xlsx
+++ b/data/klinische_aspekte.xlsx
@@ -1,9 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20371"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B5728A9-FC4B-4A04-B3CA-11077BA80541}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20367"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Wissdaten\RKI_nCoV-Lage\3.Kommunikation\3.7.Lageberichte\2021-03-30\Webmaster_Tabellen\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAB86D14-DF6A-4948-B9DA-DFA5950DEC03}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" activeTab="1" xr2:uid="{7A96F809-61A3-46BE-921C-258450650152}"/>
   </bookViews>
@@ -21,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="52">
   <si>
     <t>Meldejahr</t>
   </si>
@@ -62,9 +67,6 @@
     <t>Anteil Verstorben</t>
   </si>
   <si>
-    <t>Die dem RKI übermittelte COVID-19-Fälle nach Meldewoche und  Geschlecht sowie Anteile mit für COVID-19 relevanten Symptomen, Anteile Hospitalisierter und Verstorbener für die Meldewochen KW 10 – 53/2020 und KW 01 - 11/2021</t>
-  </si>
-  <si>
     <t>0 - 4 Jährige</t>
   </si>
   <si>
@@ -174,6 +176,12 @@
   </si>
   <si>
     <t>2021</t>
+  </si>
+  <si>
+    <t>Die dem RKI übermittelte COVID-19-Fälle nach Meldewoche und  Geschlecht sowie Anteile mit für COVID-19 relevanten Symptomen, Anteile Hospitalisierter und Verstorbener für die Meldewochen KW 10 – 53/2020 und KW 01 - 12/2021</t>
+  </si>
+  <si>
+    <t>12</t>
   </si>
 </sst>
 </file>
@@ -258,7 +266,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -353,6 +361,7 @@
     <xf numFmtId="10" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -667,17 +676,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B954E3B8-F82B-4D64-BB14-6BD6AE52A778}">
-  <dimension ref="A1:M57"/>
+  <dimension ref="A1:M58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="A58" sqref="A58:M58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="60" x14ac:dyDescent="0.25">
@@ -747,13 +756,13 @@
         <v>8.3732057416267949E-2</v>
       </c>
       <c r="I3" s="5">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="J3" s="9">
         <v>162</v>
       </c>
       <c r="K3" s="6">
-        <v>0.20099255583126552</v>
+        <v>0.20074349442379183</v>
       </c>
       <c r="L3" s="9">
         <v>12</v>
@@ -770,37 +779,37 @@
         <v>11</v>
       </c>
       <c r="C4" s="12">
-        <v>6425</v>
+        <v>6431</v>
       </c>
       <c r="D4" s="13">
         <v>45</v>
       </c>
       <c r="E4" s="14">
-        <v>0.56282111163007942</v>
+        <v>0.56276248250116656</v>
       </c>
       <c r="F4" s="14">
-        <v>0.43717888836992058</v>
+        <v>0.43723751749883338</v>
       </c>
       <c r="G4" s="12">
-        <v>5770</v>
+        <v>5771</v>
       </c>
       <c r="H4" s="15">
-        <v>5.3032928942807624E-2</v>
+        <v>5.3023739386588116E-2</v>
       </c>
       <c r="I4" s="12">
-        <v>5625</v>
+        <v>5631</v>
       </c>
       <c r="J4" s="13">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="K4" s="14">
-        <v>9.2977777777777784E-2</v>
+        <v>9.394423725803587E-2</v>
       </c>
       <c r="L4" s="13">
         <v>85</v>
       </c>
       <c r="M4" s="16">
-        <v>1.322957198E-2</v>
+        <v>1.321722904E-2</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -811,37 +820,37 @@
         <v>12</v>
       </c>
       <c r="C5" s="7">
-        <v>22433</v>
+        <v>22440</v>
       </c>
       <c r="D5" s="5">
         <v>45</v>
       </c>
       <c r="E5" s="6">
-        <v>0.54997546942598452</v>
+        <v>0.54993757802746568</v>
       </c>
       <c r="F5" s="6">
-        <v>0.45002453057401542</v>
+        <v>0.45006242197253432</v>
       </c>
       <c r="G5" s="7">
-        <v>20202</v>
+        <v>20197</v>
       </c>
       <c r="H5" s="8">
-        <v>3.8956538956538958E-2</v>
+        <v>3.8966183096499483E-2</v>
       </c>
       <c r="I5" s="7">
-        <v>19390</v>
+        <v>19396</v>
       </c>
       <c r="J5" s="7">
-        <v>2210</v>
+        <v>2218</v>
       </c>
       <c r="K5" s="6">
-        <v>0.11397627643115008</v>
+        <v>0.11435347494328728</v>
       </c>
       <c r="L5" s="5">
         <v>478</v>
       </c>
       <c r="M5" s="10">
-        <v>2.1307894609999999E-2</v>
+        <v>2.130124777E-2</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -852,37 +861,37 @@
         <v>13</v>
       </c>
       <c r="C6" s="12">
-        <v>34005</v>
+        <v>33999</v>
       </c>
       <c r="D6" s="13">
         <v>48</v>
       </c>
       <c r="E6" s="14">
-        <v>0.49498278551040226</v>
+        <v>0.49501133119463164</v>
       </c>
       <c r="F6" s="14">
-        <v>0.50501721448959769</v>
+        <v>0.5049886688053683</v>
       </c>
       <c r="G6" s="12">
-        <v>30867</v>
+        <v>30856</v>
       </c>
       <c r="H6" s="15">
-        <v>3.2915411280655719E-2</v>
+        <v>3.2927145449831476E-2</v>
       </c>
       <c r="I6" s="12">
-        <v>29548</v>
+        <v>29541</v>
       </c>
       <c r="J6" s="12">
-        <v>5132</v>
+        <v>5137</v>
       </c>
       <c r="K6" s="14">
-        <v>0.17368349803709218</v>
+        <v>0.1738939101587624</v>
       </c>
       <c r="L6" s="12">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="M6" s="16">
-        <v>4.3081899719999997E-2</v>
+        <v>4.3118915260000001E-2</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -893,37 +902,37 @@
         <v>14</v>
       </c>
       <c r="C7" s="7">
-        <v>36084</v>
+        <v>36083</v>
       </c>
       <c r="D7" s="5">
         <v>51</v>
       </c>
       <c r="E7" s="6">
-        <v>0.45066008431329041</v>
+        <v>0.45070031895714879</v>
       </c>
       <c r="F7" s="6">
-        <v>0.54933991568670959</v>
+        <v>0.54929968104285121</v>
       </c>
       <c r="G7" s="7">
-        <v>32076</v>
+        <v>32068</v>
       </c>
       <c r="H7" s="8">
-        <v>5.5430851727148026E-2</v>
+        <v>5.5475863789447424E-2</v>
       </c>
       <c r="I7" s="7">
         <v>31637</v>
       </c>
       <c r="J7" s="7">
-        <v>6082</v>
+        <v>6086</v>
       </c>
       <c r="K7" s="6">
-        <v>0.19224325947466575</v>
+        <v>0.19236969371305748</v>
       </c>
       <c r="L7" s="7">
-        <v>2259</v>
+        <v>2258</v>
       </c>
       <c r="M7" s="10">
-        <v>6.2603924170000005E-2</v>
+        <v>6.2577945290000006E-2</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -934,37 +943,37 @@
         <v>15</v>
       </c>
       <c r="C8" s="12">
-        <v>27192</v>
+        <v>27181</v>
       </c>
       <c r="D8" s="13">
         <v>52</v>
       </c>
       <c r="E8" s="14">
-        <v>0.43499392466585662</v>
+        <v>0.43494916752615292</v>
       </c>
       <c r="F8" s="14">
-        <v>0.56500607533414338</v>
+        <v>0.56505083247384702</v>
       </c>
       <c r="G8" s="12">
-        <v>23611</v>
+        <v>23607</v>
       </c>
       <c r="H8" s="15">
-        <v>8.4494515268307147E-2</v>
+        <v>8.4593552759774648E-2</v>
       </c>
       <c r="I8" s="12">
-        <v>24168</v>
+        <v>24163</v>
       </c>
       <c r="J8" s="12">
-        <v>4722</v>
+        <v>4726</v>
       </c>
       <c r="K8" s="14">
-        <v>0.19538232373386297</v>
+        <v>0.19558829615527873</v>
       </c>
       <c r="L8" s="12">
         <v>1879</v>
       </c>
       <c r="M8" s="16">
-        <v>6.9101206230000004E-2</v>
+        <v>6.9129171109999998E-2</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -975,37 +984,37 @@
         <v>16</v>
       </c>
       <c r="C9" s="7">
-        <v>17368</v>
+        <v>17365</v>
       </c>
       <c r="D9" s="5">
         <v>51</v>
       </c>
       <c r="E9" s="6">
-        <v>0.44717274770880167</v>
+        <v>0.44719243629655253</v>
       </c>
       <c r="F9" s="6">
-        <v>0.55282725229119833</v>
+        <v>0.55280756370344752</v>
       </c>
       <c r="G9" s="7">
-        <v>14892</v>
+        <v>14890</v>
       </c>
       <c r="H9" s="8">
-        <v>0.11435670158474348</v>
+        <v>0.1145063801208865</v>
       </c>
       <c r="I9" s="7">
         <v>15541</v>
       </c>
       <c r="J9" s="7">
-        <v>3371</v>
+        <v>3374</v>
       </c>
       <c r="K9" s="6">
-        <v>0.21691010874461103</v>
+        <v>0.21710314651566823</v>
       </c>
       <c r="L9" s="7">
         <v>1217</v>
       </c>
       <c r="M9" s="10">
-        <v>7.0071395669999995E-2</v>
+        <v>7.0083501290000003E-2</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1022,25 +1031,25 @@
         <v>50</v>
       </c>
       <c r="E10" s="14">
-        <v>0.44974915034795276</v>
+        <v>0.44966823110535686</v>
       </c>
       <c r="F10" s="14">
-        <v>0.55025084965204729</v>
+        <v>0.55033176889464319</v>
       </c>
       <c r="G10" s="12">
-        <v>10283</v>
+        <v>10284</v>
       </c>
       <c r="H10" s="15">
-        <v>0.13896722746280268</v>
+        <v>0.13905095293660055</v>
       </c>
       <c r="I10" s="12">
         <v>10993</v>
       </c>
       <c r="J10" s="12">
-        <v>2234</v>
+        <v>2235</v>
       </c>
       <c r="K10" s="14">
-        <v>0.20322023105612663</v>
+        <v>0.20331119803511324</v>
       </c>
       <c r="L10" s="13">
         <v>720</v>
@@ -1057,37 +1066,37 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>7445</v>
+        <v>7444</v>
       </c>
       <c r="D11" s="5">
         <v>48</v>
       </c>
       <c r="E11" s="6">
-        <v>0.47789275634995299</v>
+        <v>0.47761795940314561</v>
       </c>
       <c r="F11" s="6">
-        <v>0.52210724365004701</v>
+        <v>0.52238204059685445</v>
       </c>
       <c r="G11" s="7">
-        <v>6256</v>
+        <v>6259</v>
       </c>
       <c r="H11" s="8">
-        <v>0.17535166240409208</v>
+        <v>0.17558715449752357</v>
       </c>
       <c r="I11" s="7">
         <v>6612</v>
       </c>
       <c r="J11" s="7">
-        <v>1360</v>
+        <v>1362</v>
       </c>
       <c r="K11" s="6">
-        <v>0.20568663036902601</v>
+        <v>0.20598911070780399</v>
       </c>
       <c r="L11" s="5">
         <v>386</v>
       </c>
       <c r="M11" s="10">
-        <v>5.184687709E-2</v>
+        <v>5.1853842019999999E-2</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1098,37 +1107,37 @@
         <v>19</v>
       </c>
       <c r="C12" s="12">
-        <v>6240</v>
+        <v>6239</v>
       </c>
       <c r="D12" s="13">
         <v>47</v>
       </c>
       <c r="E12" s="14">
-        <v>0.48010907924286172</v>
+        <v>0.48002566982191563</v>
       </c>
       <c r="F12" s="14">
-        <v>0.51989092075713828</v>
+        <v>0.51997433017808437</v>
       </c>
       <c r="G12" s="12">
-        <v>5249</v>
+        <v>5248</v>
       </c>
       <c r="H12" s="15">
-        <v>0.19641836540293389</v>
+        <v>0.19645579268292682</v>
       </c>
       <c r="I12" s="12">
-        <v>5633</v>
+        <v>5632</v>
       </c>
       <c r="J12" s="12">
         <v>1080</v>
       </c>
       <c r="K12" s="14">
-        <v>0.19172732114326291</v>
+        <v>0.19176136363636365</v>
       </c>
       <c r="L12" s="13">
         <v>256</v>
       </c>
       <c r="M12" s="16">
-        <v>4.1025641020000003E-2</v>
+        <v>4.1032216699999999E-2</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1139,37 +1148,37 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>4753</v>
+        <v>4758</v>
       </c>
       <c r="D13" s="5">
         <v>45</v>
       </c>
       <c r="E13" s="6">
-        <v>0.49399620813145145</v>
+        <v>0.49452861952861954</v>
       </c>
       <c r="F13" s="6">
-        <v>0.5060037918685486</v>
+        <v>0.50547138047138052</v>
       </c>
       <c r="G13" s="7">
-        <v>3955</v>
+        <v>3953</v>
       </c>
       <c r="H13" s="8">
-        <v>0.23109987357774969</v>
+        <v>0.23096382494308121</v>
       </c>
       <c r="I13" s="7">
-        <v>4228</v>
+        <v>4235</v>
       </c>
       <c r="J13" s="5">
-        <v>742</v>
+        <v>750</v>
       </c>
       <c r="K13" s="6">
-        <v>0.17549668874172186</v>
+        <v>0.17709563164108619</v>
       </c>
       <c r="L13" s="5">
         <v>163</v>
       </c>
       <c r="M13" s="10">
-        <v>3.4294130020000001E-2</v>
+        <v>3.4258091630000001E-2</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1180,37 +1189,37 @@
         <v>21</v>
       </c>
       <c r="C14" s="12">
-        <v>3620</v>
+        <v>3621</v>
       </c>
       <c r="D14" s="13">
         <v>43</v>
       </c>
       <c r="E14" s="14">
-        <v>0.50235783633841891</v>
+        <v>0.50277161862527719</v>
       </c>
       <c r="F14" s="14">
-        <v>0.49764216366158115</v>
+        <v>0.49722838137472286</v>
       </c>
       <c r="G14" s="12">
-        <v>2836</v>
+        <v>2835</v>
       </c>
       <c r="H14" s="15">
-        <v>0.2630465444287729</v>
+        <v>0.26313932980599647</v>
       </c>
       <c r="I14" s="12">
         <v>3122</v>
       </c>
       <c r="J14" s="13">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="K14" s="14">
-        <v>0.16431774503523383</v>
+        <v>0.16463805253042921</v>
       </c>
       <c r="L14" s="13">
         <v>113</v>
       </c>
       <c r="M14" s="16">
-        <v>3.1215469610000001E-2</v>
+        <v>3.1206848929999999E-2</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1221,37 +1230,37 @@
         <v>22</v>
       </c>
       <c r="C15" s="7">
-        <v>3207</v>
+        <v>3205</v>
       </c>
       <c r="D15" s="5">
         <v>42</v>
       </c>
       <c r="E15" s="6">
-        <v>0.51549295774647885</v>
+        <v>0.51581584716567497</v>
       </c>
       <c r="F15" s="6">
-        <v>0.48450704225352115</v>
+        <v>0.48418415283432509</v>
       </c>
       <c r="G15" s="7">
-        <v>2549</v>
+        <v>2547</v>
       </c>
       <c r="H15" s="8">
-        <v>0.23185562965868969</v>
+        <v>0.23164507263447193</v>
       </c>
       <c r="I15" s="7">
-        <v>2770</v>
+        <v>2769</v>
       </c>
       <c r="J15" s="5">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K15" s="6">
-        <v>0.15162454873646208</v>
+        <v>0.15131816540267246</v>
       </c>
       <c r="L15" s="5">
         <v>65</v>
       </c>
       <c r="M15" s="10">
-        <v>2.026816339E-2</v>
+        <v>2.0280811230000001E-2</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1262,22 +1271,22 @@
         <v>23</v>
       </c>
       <c r="C16" s="12">
-        <v>2357</v>
+        <v>2352</v>
       </c>
       <c r="D16" s="13">
         <v>39</v>
       </c>
       <c r="E16" s="14">
-        <v>0.50722789115646261</v>
+        <v>0.50660417554324666</v>
       </c>
       <c r="F16" s="14">
-        <v>0.49277210884353739</v>
+        <v>0.49339582445675328</v>
       </c>
       <c r="G16" s="12">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="H16" s="15">
-        <v>0.23177366702937977</v>
+        <v>0.23189983669025585</v>
       </c>
       <c r="I16" s="12">
         <v>2080</v>
@@ -1292,7 +1301,7 @@
         <v>45</v>
       </c>
       <c r="M16" s="16">
-        <v>1.9092066179999999E-2</v>
+        <v>1.9132653060000001E-2</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1303,16 +1312,16 @@
         <v>24</v>
       </c>
       <c r="C17" s="7">
-        <v>2344</v>
+        <v>2342</v>
       </c>
       <c r="D17" s="5">
         <v>37</v>
       </c>
       <c r="E17" s="6">
-        <v>0.53664809258465496</v>
+        <v>0.5358215358215358</v>
       </c>
       <c r="F17" s="6">
-        <v>0.46335190741534504</v>
+        <v>0.4641784641784642</v>
       </c>
       <c r="G17" s="7">
         <v>1743</v>
@@ -1321,19 +1330,19 @@
         <v>0.24440619621342513</v>
       </c>
       <c r="I17" s="7">
-        <v>2087</v>
+        <v>2088</v>
       </c>
       <c r="J17" s="5">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K17" s="6">
-        <v>0.13751796837565883</v>
+        <v>0.13793103448275862</v>
       </c>
       <c r="L17" s="5">
         <v>33</v>
       </c>
       <c r="M17" s="10">
-        <v>1.407849829E-2</v>
+        <v>1.409052092E-2</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1344,37 +1353,37 @@
         <v>25</v>
       </c>
       <c r="C18" s="12">
-        <v>4129</v>
+        <v>4125</v>
       </c>
       <c r="D18" s="13">
         <v>36</v>
       </c>
       <c r="E18" s="14">
-        <v>0.58859223300970875</v>
+        <v>0.58829244595579311</v>
       </c>
       <c r="F18" s="14">
-        <v>0.41140776699029125</v>
+        <v>0.41170755404420695</v>
       </c>
       <c r="G18" s="12">
-        <v>2937</v>
+        <v>2935</v>
       </c>
       <c r="H18" s="15">
-        <v>0.2512768130745659</v>
+        <v>0.25144804088586031</v>
       </c>
       <c r="I18" s="12">
-        <v>3775</v>
+        <v>3771</v>
       </c>
       <c r="J18" s="13">
         <v>319</v>
       </c>
       <c r="K18" s="14">
-        <v>8.4503311258278146E-2</v>
+        <v>8.4592946168125169E-2</v>
       </c>
       <c r="L18" s="13">
         <v>41</v>
       </c>
       <c r="M18" s="16">
-        <v>9.9297650700000007E-3</v>
+        <v>9.9393939300000001E-3</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1385,37 +1394,37 @@
         <v>26</v>
       </c>
       <c r="C19" s="7">
-        <v>3218</v>
+        <v>3213</v>
       </c>
       <c r="D19" s="5">
         <v>37</v>
       </c>
       <c r="E19" s="6">
-        <v>0.55164903546981958</v>
+        <v>0.55126207541290118</v>
       </c>
       <c r="F19" s="6">
-        <v>0.44835096453018047</v>
+        <v>0.44873792458709877</v>
       </c>
       <c r="G19" s="7">
-        <v>2330</v>
+        <v>2331</v>
       </c>
       <c r="H19" s="8">
-        <v>0.23304721030042919</v>
+        <v>0.23294723294723294</v>
       </c>
       <c r="I19" s="7">
-        <v>2870</v>
+        <v>2864</v>
       </c>
       <c r="J19" s="5">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="K19" s="6">
-        <v>0.10278745644599303</v>
+        <v>0.10335195530726257</v>
       </c>
       <c r="L19" s="5">
         <v>23</v>
       </c>
       <c r="M19" s="10">
-        <v>7.14729645E-3</v>
+        <v>7.1584189200000004E-3</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1426,16 +1435,16 @@
         <v>27</v>
       </c>
       <c r="C20" s="12">
-        <v>2697</v>
+        <v>2691</v>
       </c>
       <c r="D20" s="13">
         <v>36</v>
       </c>
       <c r="E20" s="14">
-        <v>0.52188427299703266</v>
+        <v>0.52118959107806695</v>
       </c>
       <c r="F20" s="14">
-        <v>0.47811572700296734</v>
+        <v>0.47881040892193311</v>
       </c>
       <c r="G20" s="12">
         <v>2065</v>
@@ -1444,19 +1453,19 @@
         <v>0.26731234866828085</v>
       </c>
       <c r="I20" s="12">
-        <v>2472</v>
+        <v>2466</v>
       </c>
       <c r="J20" s="13">
         <v>259</v>
       </c>
       <c r="K20" s="14">
-        <v>0.10477346278317153</v>
+        <v>0.10502838605028386</v>
       </c>
       <c r="L20" s="13">
         <v>26</v>
       </c>
       <c r="M20" s="16">
-        <v>9.6403411100000006E-3</v>
+        <v>9.6618357399999993E-3</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1473,10 +1482,10 @@
         <v>36</v>
       </c>
       <c r="E21" s="6">
-        <v>0.56004952538175812</v>
+        <v>0.55963681386710684</v>
       </c>
       <c r="F21" s="6">
-        <v>0.43995047461824183</v>
+        <v>0.4403631861328931</v>
       </c>
       <c r="G21" s="7">
         <v>1934</v>
@@ -1508,16 +1517,16 @@
         <v>29</v>
       </c>
       <c r="C22" s="12">
-        <v>3016</v>
+        <v>3015</v>
       </c>
       <c r="D22" s="13">
         <v>36</v>
       </c>
       <c r="E22" s="14">
-        <v>0.52475905616483887</v>
+        <v>0.52493351063829785</v>
       </c>
       <c r="F22" s="14">
-        <v>0.47524094383516119</v>
+        <v>0.47506648936170215</v>
       </c>
       <c r="G22" s="12">
         <v>2358</v>
@@ -1526,19 +1535,19 @@
         <v>0.22943172179813401</v>
       </c>
       <c r="I22" s="12">
-        <v>2647</v>
+        <v>2646</v>
       </c>
       <c r="J22" s="13">
         <v>318</v>
       </c>
       <c r="K22" s="14">
-        <v>0.12013600302228938</v>
+        <v>0.12018140589569161</v>
       </c>
       <c r="L22" s="13">
         <v>30</v>
       </c>
       <c r="M22" s="16">
-        <v>9.9469495999999994E-3</v>
+        <v>9.9502487499999997E-3</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1549,37 +1558,37 @@
         <v>30</v>
       </c>
       <c r="C23" s="7">
-        <v>3933</v>
+        <v>3929</v>
       </c>
       <c r="D23" s="5">
         <v>36</v>
       </c>
       <c r="E23" s="6">
-        <v>0.52357889370379807</v>
+        <v>0.52334779280428678</v>
       </c>
       <c r="F23" s="6">
-        <v>0.47642110629620188</v>
+        <v>0.47665220719571322</v>
       </c>
       <c r="G23" s="7">
-        <v>3184</v>
+        <v>3182</v>
       </c>
       <c r="H23" s="8">
-        <v>0.27449748743718594</v>
+        <v>0.27435575109993715</v>
       </c>
       <c r="I23" s="7">
-        <v>3481</v>
+        <v>3477</v>
       </c>
       <c r="J23" s="5">
         <v>334</v>
       </c>
       <c r="K23" s="6">
-        <v>9.5949439816144788E-2</v>
+        <v>9.6059821685360938E-2</v>
       </c>
       <c r="L23" s="5">
         <v>33</v>
       </c>
       <c r="M23" s="10">
-        <v>8.3905415699999999E-3</v>
+        <v>8.3990837299999996E-3</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1590,22 +1599,22 @@
         <v>31</v>
       </c>
       <c r="C24" s="12">
-        <v>4820</v>
+        <v>4817</v>
       </c>
       <c r="D24" s="13">
         <v>36</v>
       </c>
       <c r="E24" s="14">
-        <v>0.50301392641862397</v>
+        <v>0.50270382695507487</v>
       </c>
       <c r="F24" s="14">
-        <v>0.49698607358137603</v>
+        <v>0.49729617304492513</v>
       </c>
       <c r="G24" s="12">
-        <v>3704</v>
+        <v>3705</v>
       </c>
       <c r="H24" s="15">
-        <v>0.24514038876889849</v>
+        <v>0.24561403508771928</v>
       </c>
       <c r="I24" s="12">
         <v>4166</v>
@@ -1617,10 +1626,10 @@
         <v>9.3374939990398462E-2</v>
       </c>
       <c r="L24" s="13">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M24" s="16">
-        <v>6.6390041399999999E-3</v>
+        <v>6.4355407900000003E-3</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1637,25 +1646,25 @@
         <v>34</v>
       </c>
       <c r="E25" s="6">
-        <v>0.53655309295401921</v>
+        <v>0.53671849156467089</v>
       </c>
       <c r="F25" s="6">
-        <v>0.46344690704598079</v>
+        <v>0.46328150843532917</v>
       </c>
       <c r="G25" s="7">
-        <v>4546</v>
+        <v>4549</v>
       </c>
       <c r="H25" s="8">
-        <v>0.30004399472063353</v>
+        <v>0.29984612002637945</v>
       </c>
       <c r="I25" s="7">
-        <v>5282</v>
+        <v>5283</v>
       </c>
       <c r="J25" s="5">
         <v>399</v>
       </c>
       <c r="K25" s="6">
-        <v>7.5539568345323743E-2</v>
+        <v>7.5525269733106193E-2</v>
       </c>
       <c r="L25" s="5">
         <v>31</v>
@@ -1672,22 +1681,22 @@
         <v>33</v>
       </c>
       <c r="C26" s="12">
-        <v>7951</v>
+        <v>7949</v>
       </c>
       <c r="D26" s="13">
         <v>32</v>
       </c>
       <c r="E26" s="14">
-        <v>0.53358538122243226</v>
+        <v>0.5339720156309089</v>
       </c>
       <c r="F26" s="14">
-        <v>0.46641461877756774</v>
+        <v>0.46602798436909115</v>
       </c>
       <c r="G26" s="12">
-        <v>5850</v>
+        <v>5851</v>
       </c>
       <c r="H26" s="15">
-        <v>0.3323076923076923</v>
+        <v>0.33242180823790807</v>
       </c>
       <c r="I26" s="12">
         <v>7007</v>
@@ -1702,7 +1711,7 @@
         <v>30</v>
       </c>
       <c r="M26" s="16">
-        <v>3.7731103000000002E-3</v>
+        <v>3.7740596299999998E-3</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1713,37 +1722,37 @@
         <v>34</v>
       </c>
       <c r="C27" s="7">
-        <v>9593</v>
+        <v>9591</v>
       </c>
       <c r="D27" s="5">
         <v>32</v>
       </c>
       <c r="E27" s="6">
-        <v>0.54734193142497645</v>
+        <v>0.54729446308724827</v>
       </c>
       <c r="F27" s="6">
-        <v>0.45265806857502361</v>
+        <v>0.45270553691275167</v>
       </c>
       <c r="G27" s="7">
-        <v>7201</v>
+        <v>7202</v>
       </c>
       <c r="H27" s="8">
-        <v>0.34564643799472294</v>
+        <v>0.34559844487642322</v>
       </c>
       <c r="I27" s="7">
-        <v>8308</v>
+        <v>8307</v>
       </c>
       <c r="J27" s="5">
         <v>434</v>
       </c>
       <c r="K27" s="6">
-        <v>5.2238805970149252E-2</v>
+        <v>5.2245094498615627E-2</v>
       </c>
       <c r="L27" s="5">
         <v>30</v>
       </c>
       <c r="M27" s="10">
-        <v>3.1272803000000002E-3</v>
+        <v>3.12793243E-3</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1754,37 +1763,37 @@
         <v>35</v>
       </c>
       <c r="C28" s="12">
-        <v>8822</v>
+        <v>8821</v>
       </c>
       <c r="D28" s="13">
         <v>32</v>
       </c>
       <c r="E28" s="14">
-        <v>0.53067974452554745</v>
+        <v>0.53074027603513174</v>
       </c>
       <c r="F28" s="14">
-        <v>0.46932025547445255</v>
+        <v>0.46925972396486826</v>
       </c>
       <c r="G28" s="12">
-        <v>6870</v>
+        <v>6872</v>
       </c>
       <c r="H28" s="15">
-        <v>0.30727802037845708</v>
+        <v>0.30733410942956929</v>
       </c>
       <c r="I28" s="12">
-        <v>7422</v>
+        <v>7425</v>
       </c>
       <c r="J28" s="13">
         <v>367</v>
       </c>
       <c r="K28" s="14">
-        <v>4.9447588251145244E-2</v>
+        <v>4.9427609427609424E-2</v>
       </c>
       <c r="L28" s="13">
         <v>19</v>
       </c>
       <c r="M28" s="16">
-        <v>2.1537066400000001E-3</v>
+        <v>2.1539507899999998E-3</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1795,16 +1804,16 @@
         <v>36</v>
       </c>
       <c r="C29" s="7">
-        <v>8620</v>
+        <v>8619</v>
       </c>
       <c r="D29" s="5">
         <v>33</v>
       </c>
       <c r="E29" s="6">
-        <v>0.53667638483965019</v>
+        <v>0.53650571495218102</v>
       </c>
       <c r="F29" s="6">
-        <v>0.46332361516034987</v>
+        <v>0.46349428504781898</v>
       </c>
       <c r="G29" s="7">
         <v>6656</v>
@@ -1825,7 +1834,7 @@
         <v>36</v>
       </c>
       <c r="M29" s="10">
-        <v>4.1763340999999999E-3</v>
+        <v>4.1768186499999997E-3</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1836,37 +1845,37 @@
         <v>37</v>
       </c>
       <c r="C30" s="12">
-        <v>9772</v>
+        <v>9773</v>
       </c>
       <c r="D30" s="13">
         <v>35</v>
       </c>
       <c r="E30" s="14">
-        <v>0.51841184941370089</v>
+        <v>0.5182556824025506</v>
       </c>
       <c r="F30" s="14">
-        <v>0.48158815058629911</v>
+        <v>0.48174431759744935</v>
       </c>
       <c r="G30" s="12">
-        <v>7603</v>
+        <v>7606</v>
       </c>
       <c r="H30" s="15">
-        <v>0.20452452979087202</v>
+        <v>0.20496976071522482</v>
       </c>
       <c r="I30" s="12">
-        <v>8032</v>
+        <v>8035</v>
       </c>
       <c r="J30" s="13">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="K30" s="14">
-        <v>5.7644422310756969E-2</v>
+        <v>5.7747355320472933E-2</v>
       </c>
       <c r="L30" s="13">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M30" s="16">
-        <v>6.6516577900000004E-3</v>
+        <v>6.7532998999999998E-3</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1877,37 +1886,37 @@
         <v>38</v>
       </c>
       <c r="C31" s="7">
-        <v>12296</v>
+        <v>12294</v>
       </c>
       <c r="D31" s="5">
         <v>36</v>
       </c>
       <c r="E31" s="6">
-        <v>0.51230278754189484</v>
+        <v>0.51214128035320083</v>
       </c>
       <c r="F31" s="6">
-        <v>0.4876972124581051</v>
+        <v>0.48785871964679911</v>
       </c>
       <c r="G31" s="7">
-        <v>9759</v>
+        <v>9765</v>
       </c>
       <c r="H31" s="8">
-        <v>0.18700686545752637</v>
+        <v>0.18689196108550948</v>
       </c>
       <c r="I31" s="7">
-        <v>10056</v>
+        <v>10062</v>
       </c>
       <c r="J31" s="5">
         <v>674</v>
       </c>
       <c r="K31" s="6">
-        <v>6.7024661893396981E-2</v>
+        <v>6.6984694891671637E-2</v>
       </c>
       <c r="L31" s="5">
         <v>79</v>
       </c>
       <c r="M31" s="10">
-        <v>6.4248536099999996E-3</v>
+        <v>6.4258988100000004E-3</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1918,37 +1927,37 @@
         <v>39</v>
       </c>
       <c r="C32" s="12">
-        <v>13067</v>
+        <v>13063</v>
       </c>
       <c r="D32" s="13">
         <v>37</v>
       </c>
       <c r="E32" s="14">
-        <v>0.51634238252710918</v>
+        <v>0.51634741133933382</v>
       </c>
       <c r="F32" s="14">
-        <v>0.48365761747289088</v>
+        <v>0.48365258866066618</v>
       </c>
       <c r="G32" s="12">
-        <v>10357</v>
+        <v>10359</v>
       </c>
       <c r="H32" s="15">
-        <v>0.18190595732354928</v>
+        <v>0.18196737136789265</v>
       </c>
       <c r="I32" s="12">
-        <v>10839</v>
+        <v>10849</v>
       </c>
       <c r="J32" s="13">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="K32" s="14">
-        <v>7.122428268290433E-2</v>
+        <v>7.1066457738040378E-2</v>
       </c>
       <c r="L32" s="13">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M32" s="16">
-        <v>8.2650952699999999E-3</v>
+        <v>8.1910740199999995E-3</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1959,37 +1968,37 @@
         <v>40</v>
       </c>
       <c r="C33" s="7">
-        <v>15931</v>
+        <v>15930</v>
       </c>
       <c r="D33" s="5">
         <v>38</v>
       </c>
       <c r="E33" s="6">
-        <v>0.51951895227301348</v>
+        <v>0.51942572885838423</v>
       </c>
       <c r="F33" s="6">
-        <v>0.48048104772698652</v>
+        <v>0.48057427114161577</v>
       </c>
       <c r="G33" s="7">
-        <v>12601</v>
+        <v>12605</v>
       </c>
       <c r="H33" s="8">
-        <v>0.17530354733751288</v>
+        <v>0.17564458548195161</v>
       </c>
       <c r="I33" s="7">
-        <v>13459</v>
+        <v>13474</v>
       </c>
       <c r="J33" s="5">
         <v>873</v>
       </c>
       <c r="K33" s="6">
-        <v>6.4863660004457979E-2</v>
+        <v>6.4791450200385931E-2</v>
       </c>
       <c r="L33" s="5">
         <v>121</v>
       </c>
       <c r="M33" s="10">
-        <v>7.5952545299999997E-3</v>
+        <v>7.5957313200000001E-3</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2000,37 +2009,37 @@
         <v>41</v>
       </c>
       <c r="C34" s="19">
-        <v>26129</v>
+        <v>26126</v>
       </c>
       <c r="D34" s="20">
         <v>39</v>
       </c>
       <c r="E34" s="21">
-        <v>0.51035224522721157</v>
+        <v>0.51037264694583173</v>
       </c>
       <c r="F34" s="21">
-        <v>0.48964775477278838</v>
+        <v>0.48962735305416827</v>
       </c>
       <c r="G34" s="19">
-        <v>20083</v>
+        <v>20089</v>
       </c>
       <c r="H34" s="22">
-        <v>0.16616043419807797</v>
+        <v>0.16616058539499229</v>
       </c>
       <c r="I34" s="19">
-        <v>21532</v>
+        <v>21537</v>
       </c>
       <c r="J34" s="20">
-        <v>1585</v>
+        <v>1586</v>
       </c>
       <c r="K34" s="21">
-        <v>7.3611369125023224E-2</v>
+        <v>7.364071133398338E-2</v>
       </c>
       <c r="L34" s="20">
         <v>239</v>
       </c>
       <c r="M34" s="23">
-        <v>9.1469248699999998E-3</v>
+        <v>9.1479751899999993E-3</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2041,37 +2050,37 @@
         <v>42</v>
       </c>
       <c r="C35" s="7">
-        <v>42086</v>
+        <v>42087</v>
       </c>
       <c r="D35" s="5">
         <v>39</v>
       </c>
       <c r="E35" s="6">
-        <v>0.50855027465966085</v>
+        <v>0.50856242088418635</v>
       </c>
       <c r="F35" s="6">
-        <v>0.49144972534033915</v>
+        <v>0.49143757911581359</v>
       </c>
       <c r="G35" s="7">
-        <v>30836</v>
+        <v>30857</v>
       </c>
       <c r="H35" s="8">
-        <v>0.15974834608898689</v>
+        <v>0.15970444307612536</v>
       </c>
       <c r="I35" s="7">
-        <v>33655</v>
+        <v>33681</v>
       </c>
       <c r="J35" s="5">
-        <v>2321</v>
+        <v>2324</v>
       </c>
       <c r="K35" s="6">
-        <v>6.8964492645966421E-2</v>
+        <v>6.9000326593628453E-2</v>
       </c>
       <c r="L35" s="5">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="M35" s="10">
-        <v>1.083495699E-2</v>
+        <v>1.0810939239999999E-2</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2082,37 +2091,37 @@
         <v>43</v>
       </c>
       <c r="C36" s="12">
-        <v>74840</v>
+        <v>74828</v>
       </c>
       <c r="D36" s="13">
         <v>40</v>
       </c>
       <c r="E36" s="14">
-        <v>0.5017119838872105</v>
+        <v>0.50165180489901162</v>
       </c>
       <c r="F36" s="14">
-        <v>0.4982880161127895</v>
+        <v>0.49834819510098838</v>
       </c>
       <c r="G36" s="12">
-        <v>52279</v>
+        <v>52372</v>
       </c>
       <c r="H36" s="15">
-        <v>0.15507182616346907</v>
+        <v>0.1548537386389674</v>
       </c>
       <c r="I36" s="12">
-        <v>58054</v>
+        <v>58082</v>
       </c>
       <c r="J36" s="13">
-        <v>4093</v>
+        <v>4096</v>
       </c>
       <c r="K36" s="14">
-        <v>7.0503324490991143E-2</v>
+        <v>7.0520987569298574E-2</v>
       </c>
       <c r="L36" s="13">
         <v>986</v>
       </c>
       <c r="M36" s="16">
-        <v>1.317477284E-2</v>
+        <v>1.3176885649999999E-2</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2123,37 +2132,37 @@
         <v>44</v>
       </c>
       <c r="C37" s="7">
-        <v>111107</v>
+        <v>111096</v>
       </c>
       <c r="D37" s="5">
         <v>41</v>
       </c>
       <c r="E37" s="6">
-        <v>0.49732039397450756</v>
+        <v>0.49730199543693188</v>
       </c>
       <c r="F37" s="6">
-        <v>0.50267960602549244</v>
+        <v>0.50269800456306812</v>
       </c>
       <c r="G37" s="7">
-        <v>75175</v>
+        <v>75593</v>
       </c>
       <c r="H37" s="8">
-        <v>0.15832391087462588</v>
+        <v>0.15772624449353775</v>
       </c>
       <c r="I37" s="7">
-        <v>83859</v>
+        <v>83889</v>
       </c>
       <c r="J37" s="5">
-        <v>5900</v>
+        <v>5902</v>
       </c>
       <c r="K37" s="6">
-        <v>7.0356193133712538E-2</v>
+        <v>7.0354873702154042E-2</v>
       </c>
       <c r="L37" s="5">
-        <v>1576</v>
+        <v>1579</v>
       </c>
       <c r="M37" s="10">
-        <v>1.4184524820000001E-2</v>
+        <v>1.421293295E-2</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2164,37 +2173,37 @@
         <v>45</v>
       </c>
       <c r="C38" s="19">
-        <v>125815</v>
+        <v>125805</v>
       </c>
       <c r="D38" s="20">
         <v>41</v>
       </c>
       <c r="E38" s="21">
-        <v>0.49133401678733901</v>
+        <v>0.4912811886739557</v>
       </c>
       <c r="F38" s="21">
-        <v>0.50866598321266099</v>
+        <v>0.50871881132604424</v>
       </c>
       <c r="G38" s="19">
-        <v>84523</v>
+        <v>84713</v>
       </c>
       <c r="H38" s="22">
-        <v>0.15265667333151922</v>
+        <v>0.15264481248450651</v>
       </c>
       <c r="I38" s="19">
-        <v>92422</v>
+        <v>92597</v>
       </c>
       <c r="J38" s="20">
-        <v>6805</v>
+        <v>6820</v>
       </c>
       <c r="K38" s="21">
-        <v>7.3629655276882131E-2</v>
+        <v>7.3652494141278876E-2</v>
       </c>
       <c r="L38" s="20">
-        <v>1844</v>
+        <v>1847</v>
       </c>
       <c r="M38" s="23">
-        <v>1.4656440010000001E-2</v>
+        <v>1.4681451450000001E-2</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2205,37 +2214,37 @@
         <v>46</v>
       </c>
       <c r="C39" s="7">
-        <v>127889</v>
+        <v>127868</v>
       </c>
       <c r="D39" s="5">
         <v>42</v>
       </c>
       <c r="E39" s="6">
-        <v>0.48459790430501198</v>
+        <v>0.48458733841564466</v>
       </c>
       <c r="F39" s="6">
-        <v>0.51540209569498796</v>
+        <v>0.51541266158435528</v>
       </c>
       <c r="G39" s="7">
-        <v>85271</v>
+        <v>85460</v>
       </c>
       <c r="H39" s="8">
-        <v>0.14858509927173366</v>
+        <v>0.14871284811607768</v>
       </c>
       <c r="I39" s="7">
-        <v>94210</v>
+        <v>94318</v>
       </c>
       <c r="J39" s="5">
-        <v>7445</v>
+        <v>7462</v>
       </c>
       <c r="K39" s="6">
-        <v>7.9025581148498031E-2</v>
+        <v>7.9115333234377319E-2</v>
       </c>
       <c r="L39" s="5">
-        <v>2443</v>
+        <v>2449</v>
       </c>
       <c r="M39" s="10">
-        <v>1.9102502949999999E-2</v>
+        <v>1.915256358E-2</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2246,37 +2255,37 @@
         <v>47</v>
       </c>
       <c r="C40" s="19">
-        <v>128500</v>
+        <v>128476</v>
       </c>
       <c r="D40" s="20">
         <v>43</v>
       </c>
       <c r="E40" s="21">
-        <v>0.47452765870745794</v>
+        <v>0.47446840195317702</v>
       </c>
       <c r="F40" s="21">
-        <v>0.52547234129254206</v>
+        <v>0.52553159804682292</v>
       </c>
       <c r="G40" s="19">
-        <v>85888</v>
+        <v>86020</v>
       </c>
       <c r="H40" s="22">
-        <v>0.14853064456035767</v>
+        <v>0.1485119739595443</v>
       </c>
       <c r="I40" s="19">
-        <v>93770</v>
+        <v>93881</v>
       </c>
       <c r="J40" s="20">
-        <v>7990</v>
+        <v>8003</v>
       </c>
       <c r="K40" s="21">
-        <v>8.5208488855710779E-2</v>
+        <v>8.5246215954239937E-2</v>
       </c>
       <c r="L40" s="20">
-        <v>3123</v>
+        <v>3124</v>
       </c>
       <c r="M40" s="23">
-        <v>2.430350194E-2</v>
+        <v>2.4315825520000001E-2</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2287,37 +2296,37 @@
         <v>48</v>
       </c>
       <c r="C41" s="7">
-        <v>123297</v>
+        <v>123287</v>
       </c>
       <c r="D41" s="5">
         <v>44</v>
       </c>
       <c r="E41" s="6">
-        <v>0.46558423535942273</v>
+        <v>0.46551667836792004</v>
       </c>
       <c r="F41" s="6">
-        <v>0.53441576464057727</v>
+        <v>0.5344833216320799</v>
       </c>
       <c r="G41" s="7">
-        <v>81802</v>
+        <v>82179</v>
       </c>
       <c r="H41" s="8">
-        <v>0.15522847852130756</v>
+        <v>0.15480840604047263</v>
       </c>
       <c r="I41" s="7">
-        <v>89468</v>
+        <v>89610</v>
       </c>
       <c r="J41" s="5">
-        <v>8219</v>
+        <v>8234</v>
       </c>
       <c r="K41" s="6">
-        <v>9.186524790986722E-2</v>
+        <v>9.188706617565004E-2</v>
       </c>
       <c r="L41" s="5">
-        <v>3477</v>
+        <v>3485</v>
       </c>
       <c r="M41" s="10">
-        <v>2.8200199509999999E-2</v>
+        <v>2.826737612E-2</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2328,37 +2337,37 @@
         <v>49</v>
       </c>
       <c r="C42" s="19">
-        <v>128503</v>
+        <v>128502</v>
       </c>
       <c r="D42" s="20">
         <v>45</v>
       </c>
       <c r="E42" s="21">
-        <v>0.45915327322618582</v>
+        <v>0.45912615346018454</v>
       </c>
       <c r="F42" s="21">
-        <v>0.54084672677381418</v>
+        <v>0.54087384653981541</v>
       </c>
       <c r="G42" s="19">
-        <v>86662</v>
+        <v>87039</v>
       </c>
       <c r="H42" s="22">
-        <v>0.14131914795412059</v>
+        <v>0.14176403681108468</v>
       </c>
       <c r="I42" s="19">
-        <v>93441</v>
+        <v>93652</v>
       </c>
       <c r="J42" s="20">
-        <v>9036</v>
+        <v>9071</v>
       </c>
       <c r="K42" s="21">
-        <v>9.6702732205348835E-2</v>
+        <v>9.6858582838593943E-2</v>
       </c>
       <c r="L42" s="20">
-        <v>4337</v>
+        <v>4346</v>
       </c>
       <c r="M42" s="23">
-        <v>3.3750184820000001E-2</v>
+        <v>3.382048528E-2</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2369,37 +2378,37 @@
         <v>50</v>
       </c>
       <c r="C43" s="7">
-        <v>156550</v>
+        <v>156533</v>
       </c>
       <c r="D43" s="5">
         <v>46</v>
       </c>
       <c r="E43" s="6">
-        <v>0.45390636557175662</v>
+        <v>0.45386421381018238</v>
       </c>
       <c r="F43" s="6">
-        <v>0.54609363442824344</v>
+        <v>0.54613578618981762</v>
       </c>
       <c r="G43" s="7">
-        <v>105773</v>
+        <v>106251</v>
       </c>
       <c r="H43" s="8">
-        <v>0.14394032503568963</v>
+        <v>0.14459158031453823</v>
       </c>
       <c r="I43" s="7">
-        <v>113331</v>
+        <v>113575</v>
       </c>
       <c r="J43" s="5">
-        <v>11051</v>
+        <v>11079</v>
       </c>
       <c r="K43" s="6">
-        <v>9.7510831105346293E-2</v>
+        <v>9.7547875852960597E-2</v>
       </c>
       <c r="L43" s="5">
-        <v>5561</v>
+        <v>5570</v>
       </c>
       <c r="M43" s="10">
-        <v>3.5522197380000002E-2</v>
+        <v>3.5583551069999997E-2</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2410,37 +2419,37 @@
         <v>51</v>
       </c>
       <c r="C44" s="19">
-        <v>174941</v>
+        <v>174930</v>
       </c>
       <c r="D44" s="20">
         <v>46</v>
       </c>
       <c r="E44" s="21">
-        <v>0.45181253490072365</v>
+        <v>0.4518118069708798</v>
       </c>
       <c r="F44" s="21">
-        <v>0.54818746509927641</v>
+        <v>0.54818819302912014</v>
       </c>
       <c r="G44" s="19">
-        <v>116790</v>
+        <v>117184</v>
       </c>
       <c r="H44" s="22">
-        <v>0.14363387276307904</v>
+        <v>0.14391043145821955</v>
       </c>
       <c r="I44" s="19">
-        <v>125263</v>
+        <v>125367</v>
       </c>
       <c r="J44" s="20">
-        <v>12293</v>
+        <v>12313</v>
       </c>
       <c r="K44" s="21">
-        <v>9.8137518660737805E-2</v>
+        <v>9.8215638884235887E-2</v>
       </c>
       <c r="L44" s="20">
-        <v>6215</v>
+        <v>6233</v>
       </c>
       <c r="M44" s="23">
-        <v>3.552626314E-2</v>
+        <v>3.5631395410000002E-2</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2451,37 +2460,37 @@
         <v>52</v>
       </c>
       <c r="C45" s="7">
-        <v>139258</v>
+        <v>139245</v>
       </c>
       <c r="D45" s="5">
         <v>48</v>
       </c>
       <c r="E45" s="6">
-        <v>0.44488416848746182</v>
+        <v>0.44491556082948641</v>
       </c>
       <c r="F45" s="6">
-        <v>0.55511583151253818</v>
+        <v>0.55508443917051353</v>
       </c>
       <c r="G45" s="7">
-        <v>90208</v>
+        <v>90749</v>
       </c>
       <c r="H45" s="8">
-        <v>0.15713683930471797</v>
+        <v>0.15729098943239045</v>
       </c>
       <c r="I45" s="7">
-        <v>98823</v>
+        <v>99133</v>
       </c>
       <c r="J45" s="5">
-        <v>10845</v>
+        <v>10884</v>
       </c>
       <c r="K45" s="6">
-        <v>0.10974165933031785</v>
+        <v>0.10979189573603139</v>
       </c>
       <c r="L45" s="5">
-        <v>5522</v>
+        <v>5534</v>
       </c>
       <c r="M45" s="10">
-        <v>3.9653018130000002E-2</v>
+        <v>3.9742899200000001E-2</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2492,37 +2501,37 @@
         <v>53</v>
       </c>
       <c r="C46" s="19">
-        <v>123200</v>
+        <v>123184</v>
       </c>
       <c r="D46" s="20">
         <v>49</v>
       </c>
       <c r="E46" s="21">
-        <v>0.44124437167417108</v>
+        <v>0.44120946150634122</v>
       </c>
       <c r="F46" s="21">
-        <v>0.55875562832582892</v>
+        <v>0.55879053849365878</v>
       </c>
       <c r="G46" s="19">
-        <v>82828</v>
+        <v>83366</v>
       </c>
       <c r="H46" s="22">
-        <v>0.13412131163374705</v>
+        <v>0.13420339227023007</v>
       </c>
       <c r="I46" s="19">
-        <v>89019</v>
+        <v>89375</v>
       </c>
       <c r="J46" s="20">
-        <v>10653</v>
+        <v>10700</v>
       </c>
       <c r="K46" s="21">
-        <v>0.11967108145452095</v>
+        <v>0.11972027972027972</v>
       </c>
       <c r="L46" s="20">
-        <v>5484</v>
+        <v>5496</v>
       </c>
       <c r="M46" s="23">
-        <v>4.4512987009999998E-2</v>
+        <v>4.4616183910000003E-2</v>
       </c>
     </row>
     <row r="47" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2533,37 +2542,37 @@
         <v>1</v>
       </c>
       <c r="C47" s="27">
-        <v>145497</v>
+        <v>145482</v>
       </c>
       <c r="D47" s="28">
         <v>48</v>
       </c>
       <c r="E47" s="29">
-        <v>0.45085077308324606</v>
+        <v>0.45082410721718141</v>
       </c>
       <c r="F47" s="29">
-        <v>0.54914922691675394</v>
+        <v>0.54917589278281864</v>
       </c>
       <c r="G47" s="27">
-        <v>99708</v>
+        <v>100238</v>
       </c>
       <c r="H47" s="30">
-        <v>0.13220604164159344</v>
+        <v>0.13192601608172549</v>
       </c>
       <c r="I47" s="27">
-        <v>105274</v>
+        <v>105494</v>
       </c>
       <c r="J47" s="28">
-        <v>10707</v>
+        <v>10737</v>
       </c>
       <c r="K47" s="29">
-        <v>0.10170602427949921</v>
+        <v>0.10177830018768839</v>
       </c>
       <c r="L47" s="28">
-        <v>5456</v>
+        <v>5474</v>
       </c>
       <c r="M47" s="31">
-        <v>3.749905496E-2</v>
+        <v>3.7626647970000003E-2</v>
       </c>
     </row>
     <row r="48" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2574,37 +2583,37 @@
         <v>2</v>
       </c>
       <c r="C48" s="19">
-        <v>118990</v>
+        <v>118986</v>
       </c>
       <c r="D48" s="20">
         <v>48</v>
       </c>
       <c r="E48" s="21">
-        <v>0.45433320881583861</v>
+        <v>0.45434710631542308</v>
       </c>
       <c r="F48" s="21">
-        <v>0.54566679118416139</v>
+        <v>0.54565289368457692</v>
       </c>
       <c r="G48" s="19">
-        <v>79856</v>
+        <v>80139</v>
       </c>
       <c r="H48" s="22">
-        <v>0.15793428170707274</v>
+        <v>0.15757621133280925</v>
       </c>
       <c r="I48" s="19">
-        <v>86284</v>
+        <v>86517</v>
       </c>
       <c r="J48" s="20">
-        <v>9474</v>
+        <v>9499</v>
       </c>
       <c r="K48" s="21">
-        <v>0.10980019470585509</v>
+        <v>0.10979345099806974</v>
       </c>
       <c r="L48" s="20">
-        <v>4839</v>
+        <v>4856</v>
       </c>
       <c r="M48" s="23">
-        <v>4.0667282960000002E-2</v>
+        <v>4.0811524039999998E-2</v>
       </c>
     </row>
     <row r="49" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2615,37 +2624,37 @@
         <v>3</v>
       </c>
       <c r="C49" s="7">
-        <v>95591</v>
+        <v>95584</v>
       </c>
       <c r="D49" s="5">
         <v>48</v>
       </c>
       <c r="E49" s="6">
-        <v>0.4580928362650234</v>
+        <v>0.4581236084290945</v>
       </c>
       <c r="F49" s="6">
-        <v>0.5419071637349766</v>
+        <v>0.5418763915709055</v>
       </c>
       <c r="G49" s="7">
-        <v>65755</v>
+        <v>66118</v>
       </c>
       <c r="H49" s="8">
-        <v>0.15791954984411832</v>
+        <v>0.15693154662875466</v>
       </c>
       <c r="I49" s="7">
-        <v>71748</v>
+        <v>72063</v>
       </c>
       <c r="J49" s="5">
-        <v>8433</v>
+        <v>8471</v>
       </c>
       <c r="K49" s="6">
-        <v>0.11753637732062218</v>
+        <v>0.11754992159638095</v>
       </c>
       <c r="L49" s="5">
-        <v>3847</v>
+        <v>3864</v>
       </c>
       <c r="M49" s="10">
-        <v>4.0244374469999997E-2</v>
+        <v>4.0425175760000001E-2</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2656,37 +2665,37 @@
         <v>4</v>
       </c>
       <c r="C50" s="19">
-        <v>78268</v>
+        <v>78253</v>
       </c>
       <c r="D50" s="20">
         <v>48</v>
       </c>
       <c r="E50" s="21">
-        <v>0.46328418990669623</v>
+        <v>0.46321690939554067</v>
       </c>
       <c r="F50" s="21">
-        <v>0.53671581009330382</v>
+        <v>0.53678309060445939</v>
       </c>
       <c r="G50" s="19">
-        <v>54307</v>
+        <v>54595</v>
       </c>
       <c r="H50" s="22">
-        <v>0.15907709871655587</v>
+        <v>0.15876911805110358</v>
       </c>
       <c r="I50" s="19">
-        <v>60316</v>
+        <v>60457</v>
       </c>
       <c r="J50" s="20">
-        <v>7111</v>
+        <v>7135</v>
       </c>
       <c r="K50" s="21">
-        <v>0.11789574905497711</v>
+        <v>0.11801776469226062</v>
       </c>
       <c r="L50" s="20">
-        <v>2872</v>
+        <v>2905</v>
       </c>
       <c r="M50" s="23">
-        <v>3.6694434499999998E-2</v>
+        <v>3.7123177379999997E-2</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2697,37 +2706,37 @@
         <v>5</v>
       </c>
       <c r="C51" s="7">
-        <v>64661</v>
+        <v>64648</v>
       </c>
       <c r="D51" s="5">
         <v>46</v>
       </c>
       <c r="E51" s="6">
-        <v>0.47376227575762309</v>
+        <v>0.47373598575934545</v>
       </c>
       <c r="F51" s="6">
-        <v>0.52623772424237691</v>
+        <v>0.52626401424065461</v>
       </c>
       <c r="G51" s="7">
-        <v>45538</v>
+        <v>45783</v>
       </c>
       <c r="H51" s="8">
-        <v>0.15918573499055733</v>
+        <v>0.15955704082301292</v>
       </c>
       <c r="I51" s="7">
-        <v>50396</v>
+        <v>50559</v>
       </c>
       <c r="J51" s="5">
-        <v>6049</v>
+        <v>6088</v>
       </c>
       <c r="K51" s="6">
-        <v>0.12002936741011191</v>
+        <v>0.12041377400660615</v>
       </c>
       <c r="L51" s="5">
-        <v>2044</v>
+        <v>2071</v>
       </c>
       <c r="M51" s="10">
-        <v>3.1611017460000002E-2</v>
+        <v>3.2035020409999997E-2</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2738,37 +2747,37 @@
         <v>6</v>
       </c>
       <c r="C52" s="19">
-        <v>50870</v>
+        <v>50865</v>
       </c>
       <c r="D52" s="20">
         <v>45</v>
       </c>
       <c r="E52" s="21">
-        <v>0.48384539147670963</v>
+        <v>0.48387416496521102</v>
       </c>
       <c r="F52" s="21">
-        <v>0.51615460852329043</v>
+        <v>0.51612583503478904</v>
       </c>
       <c r="G52" s="19">
-        <v>36586</v>
+        <v>36694</v>
       </c>
       <c r="H52" s="22">
-        <v>0.16443448313562564</v>
+        <v>0.16405951926745516</v>
       </c>
       <c r="I52" s="19">
-        <v>39926</v>
+        <v>40016</v>
       </c>
       <c r="J52" s="20">
-        <v>4818</v>
+        <v>4858</v>
       </c>
       <c r="K52" s="21">
-        <v>0.12067324550418274</v>
+        <v>0.1214014394242303</v>
       </c>
       <c r="L52" s="20">
-        <v>1479</v>
+        <v>1531</v>
       </c>
       <c r="M52" s="23">
-        <v>2.9074110470000001E-2</v>
+        <v>3.0099282410000001E-2</v>
       </c>
     </row>
     <row r="53" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2779,37 +2788,37 @@
         <v>7</v>
       </c>
       <c r="C53" s="7">
-        <v>52497</v>
+        <v>52506</v>
       </c>
       <c r="D53" s="5">
         <v>44</v>
       </c>
       <c r="E53" s="6">
-        <v>0.49183630398495809</v>
+        <v>0.49183818310858762</v>
       </c>
       <c r="F53" s="6">
-        <v>0.50816369601504197</v>
+        <v>0.50816181689141238</v>
       </c>
       <c r="G53" s="7">
-        <v>38093</v>
+        <v>38264</v>
       </c>
       <c r="H53" s="8">
-        <v>0.16378337227312104</v>
+        <v>0.16294689525402467</v>
       </c>
       <c r="I53" s="7">
-        <v>41581</v>
+        <v>41751</v>
       </c>
       <c r="J53" s="5">
-        <v>4765</v>
+        <v>4804</v>
       </c>
       <c r="K53" s="6">
-        <v>0.11459560857122243</v>
+        <v>0.11506311226078417</v>
       </c>
       <c r="L53" s="5">
-        <v>1224</v>
+        <v>1288</v>
       </c>
       <c r="M53" s="10">
-        <v>2.3315618029999999E-2</v>
+        <v>2.4530529839999999E-2</v>
       </c>
     </row>
     <row r="54" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2820,37 +2829,37 @@
         <v>8</v>
       </c>
       <c r="C54" s="19">
-        <v>56486</v>
+        <v>56480</v>
       </c>
       <c r="D54" s="20">
         <v>42</v>
       </c>
       <c r="E54" s="21">
-        <v>0.49715984971242366</v>
+        <v>0.49720431639303392</v>
       </c>
       <c r="F54" s="21">
-        <v>0.50284015028757634</v>
+        <v>0.50279568360696603</v>
       </c>
       <c r="G54" s="19">
-        <v>40743</v>
+        <v>41042</v>
       </c>
       <c r="H54" s="22">
-        <v>0.15813759418795867</v>
+        <v>0.15791140782612934</v>
       </c>
       <c r="I54" s="19">
-        <v>44130</v>
+        <v>44398</v>
       </c>
       <c r="J54" s="20">
-        <v>4372</v>
+        <v>4430</v>
       </c>
       <c r="K54" s="21">
-        <v>9.9070926807160661E-2</v>
+        <v>9.9779269336456602E-2</v>
       </c>
       <c r="L54" s="20">
-        <v>919</v>
+        <v>998</v>
       </c>
       <c r="M54" s="23">
-        <v>1.6269518109999999E-2</v>
+        <v>1.766997167E-2</v>
       </c>
     </row>
     <row r="55" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2861,37 +2870,37 @@
         <v>9</v>
       </c>
       <c r="C55" s="7">
-        <v>58495</v>
+        <v>58492</v>
       </c>
       <c r="D55" s="5">
         <v>40</v>
       </c>
       <c r="E55" s="6">
-        <v>0.50722593076870137</v>
+        <v>0.50715612743411542</v>
       </c>
       <c r="F55" s="6">
-        <v>0.49277406923129863</v>
+        <v>0.49284387256588452</v>
       </c>
       <c r="G55" s="7">
-        <v>41266</v>
+        <v>42256</v>
       </c>
       <c r="H55" s="8">
-        <v>0.15545485387486066</v>
+        <v>0.15453426732298373</v>
       </c>
       <c r="I55" s="7">
-        <v>44823</v>
+        <v>45447</v>
       </c>
       <c r="J55" s="5">
-        <v>3774</v>
+        <v>3922</v>
       </c>
       <c r="K55" s="6">
-        <v>8.4197844856435305E-2</v>
+        <v>8.6298325522036659E-2</v>
       </c>
       <c r="L55" s="5">
-        <v>589</v>
+        <v>732</v>
       </c>
       <c r="M55" s="10">
-        <v>1.006923668E-2</v>
+        <v>1.25145319E-2</v>
       </c>
     </row>
     <row r="56" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2902,92 +2911,132 @@
         <v>10</v>
       </c>
       <c r="C56" s="19">
-        <v>71302</v>
+        <v>71416</v>
       </c>
       <c r="D56" s="20">
         <v>39</v>
       </c>
       <c r="E56" s="21">
-        <v>0.50275828901210817</v>
+        <v>0.50273008169081645</v>
       </c>
       <c r="F56" s="21">
-        <v>0.49724171098789183</v>
+        <v>0.49726991830918349</v>
       </c>
       <c r="G56" s="19">
-        <v>47210</v>
+        <v>49323</v>
       </c>
       <c r="H56" s="22">
-        <v>0.15384452446515567</v>
+        <v>0.15443099568152788</v>
       </c>
       <c r="I56" s="19">
-        <v>51282</v>
+        <v>52938</v>
       </c>
       <c r="J56" s="20">
-        <v>3694</v>
+        <v>4140</v>
       </c>
       <c r="K56" s="21">
-        <v>7.2033072033072035E-2</v>
+        <v>7.8204692281536897E-2</v>
       </c>
       <c r="L56" s="20">
-        <v>384</v>
+        <v>607</v>
       </c>
       <c r="M56" s="23">
-        <v>5.3855431799999997E-3</v>
+        <v>8.49949591E-3</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="18">
+      <c r="A57" s="17">
         <v>2021</v>
       </c>
-      <c r="B57" s="18">
+      <c r="B57" s="17">
         <v>11</v>
       </c>
-      <c r="C57" s="19">
-        <v>91523</v>
-      </c>
-      <c r="D57" s="20">
+      <c r="C57" s="7">
+        <v>92574</v>
+      </c>
+      <c r="D57" s="5">
         <v>39</v>
       </c>
-      <c r="E57" s="21">
-        <v>0.50414279418245922</v>
-      </c>
-      <c r="F57" s="21">
-        <v>0.49585720581754078</v>
-      </c>
-      <c r="G57" s="19">
-        <v>52624</v>
-      </c>
-      <c r="H57" s="22">
-        <v>0.15808376406202493</v>
-      </c>
-      <c r="I57" s="19">
-        <v>59912</v>
-      </c>
-      <c r="J57" s="20">
-        <v>3138</v>
-      </c>
-      <c r="K57" s="21">
-        <v>5.23768193350247E-2</v>
-      </c>
-      <c r="L57" s="20">
-        <v>137</v>
-      </c>
-      <c r="M57" s="23">
-        <v>1.49689149E-3</v>
+      <c r="E57" s="6">
+        <v>0.50411084043848964</v>
+      </c>
+      <c r="F57" s="6">
+        <v>0.49588915956151036</v>
+      </c>
+      <c r="G57" s="7">
+        <v>61469</v>
+      </c>
+      <c r="H57" s="8">
+        <v>0.15323171029299321</v>
+      </c>
+      <c r="I57" s="7">
+        <v>66438</v>
+      </c>
+      <c r="J57" s="5">
+        <v>4262</v>
+      </c>
+      <c r="K57" s="6">
+        <v>6.4150034618742288E-2</v>
+      </c>
+      <c r="L57" s="5">
+        <v>372</v>
+      </c>
+      <c r="M57" s="10">
+        <v>4.0184068900000003E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="18">
+        <v>2022</v>
+      </c>
+      <c r="B58" s="18">
+        <v>12</v>
+      </c>
+      <c r="C58" s="19">
+        <v>114770</v>
+      </c>
+      <c r="D58" s="20">
+        <v>38</v>
+      </c>
+      <c r="E58" s="21">
+        <v>0.50760349197409182</v>
+      </c>
+      <c r="F58" s="21">
+        <v>0.49239650802590818</v>
+      </c>
+      <c r="G58" s="19">
+        <v>62803</v>
+      </c>
+      <c r="H58" s="22">
+        <v>0.16226931834466507</v>
+      </c>
+      <c r="I58" s="19">
+        <v>74207</v>
+      </c>
+      <c r="J58" s="20">
+        <v>3627</v>
+      </c>
+      <c r="K58" s="21">
+        <v>4.8876790599269609E-2</v>
+      </c>
+      <c r="L58" s="20">
+        <v>142</v>
+      </c>
+      <c r="M58" s="23">
+        <v>1.23725712E-3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F2B208C-555F-44C6-980F-40400D13B2EF}">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2997,33 +3046,33 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>17</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>18</v>
-      </c>
-      <c r="H1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2">
         <v>12</v>
@@ -3038,7 +3087,7 @@
         <v>156</v>
       </c>
       <c r="G2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H2">
         <v>96</v>
@@ -3046,10 +3095,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3">
         <v>8</v>
@@ -3072,10 +3121,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C4">
         <v>9</v>
@@ -3090,7 +3139,7 @@
         <v>237</v>
       </c>
       <c r="G4">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H4">
         <v>153</v>
@@ -3098,10 +3147,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <v>15</v>
@@ -3124,10 +3173,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C6">
         <v>21</v>
@@ -3142,7 +3191,7 @@
         <v>488</v>
       </c>
       <c r="G6">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H6">
         <v>351</v>
@@ -3150,10 +3199,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C7">
         <v>24</v>
@@ -3162,24 +3211,24 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F7">
         <v>672</v>
       </c>
       <c r="G7">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="H7">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C8">
         <v>50</v>
@@ -3191,10 +3240,10 @@
         <v>428</v>
       </c>
       <c r="F8">
-        <v>1045</v>
+        <v>1047</v>
       </c>
       <c r="G8">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="H8">
         <v>1123</v>
@@ -3202,13 +3251,13 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C9">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D9">
         <v>49</v>
@@ -3217,21 +3266,21 @@
         <v>539</v>
       </c>
       <c r="F9">
-        <v>1489</v>
+        <v>1490</v>
       </c>
       <c r="G9">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="H9">
-        <v>1680</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C10">
         <v>65</v>
@@ -3240,50 +3289,50 @@
         <v>58</v>
       </c>
       <c r="E10">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="F10">
-        <v>1674</v>
+        <v>1680</v>
       </c>
       <c r="G10">
-        <v>2373</v>
+        <v>2376</v>
       </c>
       <c r="H10">
-        <v>2036</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E11">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="F11">
-        <v>1703</v>
+        <v>1704</v>
       </c>
       <c r="G11">
-        <v>2548</v>
+        <v>2558</v>
       </c>
       <c r="H11">
-        <v>2485</v>
+        <v>2489</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C12">
         <v>54</v>
@@ -3292,24 +3341,24 @@
         <v>52</v>
       </c>
       <c r="E12">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="F12">
-        <v>1652</v>
+        <v>1654</v>
       </c>
       <c r="G12">
-        <v>2833</v>
+        <v>2837</v>
       </c>
       <c r="H12">
-        <v>2797</v>
+        <v>2802</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C13">
         <v>63</v>
@@ -3318,76 +3367,76 @@
         <v>68</v>
       </c>
       <c r="E13">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="F13">
-        <v>1669</v>
+        <v>1670</v>
       </c>
       <c r="G13">
-        <v>2832</v>
+        <v>2840</v>
       </c>
       <c r="H13">
-        <v>3028</v>
+        <v>3032</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C14">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D14">
         <v>58</v>
       </c>
       <c r="E14">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="F14">
-        <v>1643</v>
+        <v>1648</v>
       </c>
       <c r="G14">
-        <v>3127</v>
+        <v>3140</v>
       </c>
       <c r="H14">
-        <v>3558</v>
+        <v>3572</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C15">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D15">
         <v>66</v>
       </c>
       <c r="E15">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="F15">
-        <v>1925</v>
+        <v>1928</v>
       </c>
       <c r="G15">
-        <v>3867</v>
+        <v>3879</v>
       </c>
       <c r="H15">
-        <v>4453</v>
+        <v>4463</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C16">
         <v>78</v>
@@ -3396,24 +3445,24 @@
         <v>83</v>
       </c>
       <c r="E16">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="F16">
-        <v>2138</v>
+        <v>2142</v>
       </c>
       <c r="G16">
-        <v>4293</v>
+        <v>4301</v>
       </c>
       <c r="H16">
-        <v>5002</v>
+        <v>5009</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C17">
         <v>53</v>
@@ -3425,21 +3474,21 @@
         <v>594</v>
       </c>
       <c r="F17">
-        <v>1812</v>
+        <v>1821</v>
       </c>
       <c r="G17">
-        <v>3822</v>
+        <v>3831</v>
       </c>
       <c r="H17">
-        <v>4499</v>
+        <v>4520</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C18">
         <v>74</v>
@@ -3448,50 +3497,50 @@
         <v>51</v>
       </c>
       <c r="E18">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="F18">
-        <v>1836</v>
+        <v>1847</v>
       </c>
       <c r="G18">
-        <v>3736</v>
+        <v>3752</v>
       </c>
       <c r="H18">
-        <v>4343</v>
+        <v>4361</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C19">
         <v>61</v>
       </c>
       <c r="D19">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E19">
         <v>560</v>
       </c>
       <c r="F19">
-        <v>1720</v>
+        <v>1727</v>
       </c>
       <c r="G19">
-        <v>3814</v>
+        <v>3823</v>
       </c>
       <c r="H19">
-        <v>4517</v>
+        <v>4532</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C20">
         <v>57</v>
@@ -3500,24 +3549,24 @@
         <v>46</v>
       </c>
       <c r="E20">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="F20">
-        <v>1538</v>
+        <v>1540</v>
       </c>
       <c r="G20">
-        <v>3255</v>
+        <v>3263</v>
       </c>
       <c r="H20">
-        <v>4072</v>
+        <v>4085</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C21">
         <v>39</v>
@@ -3526,24 +3575,24 @@
         <v>36</v>
       </c>
       <c r="E21">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="F21">
-        <v>1393</v>
+        <v>1405</v>
       </c>
       <c r="G21">
-        <v>3032</v>
+        <v>3044</v>
       </c>
       <c r="H21">
-        <v>3546</v>
+        <v>3559</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22">
         <v>34</v>
@@ -3555,99 +3604,99 @@
         <v>385</v>
       </c>
       <c r="F22">
-        <v>1164</v>
+        <v>1169</v>
       </c>
       <c r="G22">
-        <v>2641</v>
+        <v>2651</v>
       </c>
       <c r="H22">
-        <v>2855</v>
+        <v>2864</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D23">
         <v>37</v>
       </c>
       <c r="E23">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="F23">
-        <v>1068</v>
+        <v>1072</v>
       </c>
       <c r="G23">
-        <v>2212</v>
+        <v>2224</v>
       </c>
       <c r="H23">
-        <v>2353</v>
+        <v>2373</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C24">
         <v>36</v>
       </c>
       <c r="D24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E24">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F24">
-        <v>901</v>
+        <v>913</v>
       </c>
       <c r="G24">
-        <v>1806</v>
+        <v>1823</v>
       </c>
       <c r="H24">
-        <v>1774</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C25">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D25">
         <v>22</v>
       </c>
       <c r="E25">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="F25">
-        <v>972</v>
+        <v>979</v>
       </c>
       <c r="G25">
-        <v>1865</v>
+        <v>1882</v>
       </c>
       <c r="H25">
-        <v>1575</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C26">
         <v>43</v>
@@ -3656,98 +3705,124 @@
         <v>31</v>
       </c>
       <c r="E26">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F26">
-        <v>989</v>
+        <v>996</v>
       </c>
       <c r="G26">
-        <v>1628</v>
+        <v>1660</v>
       </c>
       <c r="H26">
-        <v>1385</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C27">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D27">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E27">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="F27">
-        <v>883</v>
+        <v>921</v>
       </c>
       <c r="G27">
-        <v>1421</v>
+        <v>1474</v>
       </c>
       <c r="H27">
-        <v>1094</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C28">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D28">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E28">
-        <v>329</v>
+        <v>354</v>
       </c>
       <c r="F28">
-        <v>965</v>
+        <v>1128</v>
       </c>
       <c r="G28">
-        <v>1308</v>
+        <v>1468</v>
       </c>
       <c r="H28">
-        <v>1015</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C29">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D29">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E29">
-        <v>306</v>
+        <v>378</v>
       </c>
       <c r="F29">
-        <v>762</v>
+        <v>1173</v>
       </c>
       <c r="G29">
-        <v>1114</v>
+        <v>1536</v>
       </c>
       <c r="H29">
-        <v>836</v>
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="32">
+        <v>2021</v>
+      </c>
+      <c r="B30" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30">
+        <v>63</v>
+      </c>
+      <c r="D30">
+        <v>60</v>
+      </c>
+      <c r="E30">
+        <v>369</v>
+      </c>
+      <c r="F30">
+        <v>952</v>
+      </c>
+      <c r="G30">
+        <v>1253</v>
+      </c>
+      <c r="H30">
+        <v>925</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/klinische_aspekte.xlsx
+++ b/data/klinische_aspekte.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20371"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20373"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82730AD2-C0F1-4A91-9B17-F2E3063BB02E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{949AEF4E-AF57-43B6-8A97-49DBCC66A3C1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{3677AF26-2CAB-4FDE-A93C-D8C0E4111944}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" activeTab="1" xr2:uid="{3677AF26-2CAB-4FDE-A93C-D8C0E4111944}"/>
   </bookViews>
   <sheets>
     <sheet name="Klinische_Aspekte" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
   <si>
     <t>Meldejahr</t>
   </si>
@@ -65,207 +65,102 @@
     <t>A80+</t>
   </si>
   <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
     <t>2020-KW37</t>
   </si>
   <si>
-    <t>38</t>
-  </si>
-  <si>
     <t>2020-KW38</t>
   </si>
   <si>
-    <t>39</t>
-  </si>
-  <si>
     <t>2020-KW39</t>
   </si>
   <si>
-    <t>40</t>
-  </si>
-  <si>
     <t>2020-KW40</t>
   </si>
   <si>
-    <t>41</t>
-  </si>
-  <si>
     <t>2020-KW41</t>
   </si>
   <si>
-    <t>42</t>
-  </si>
-  <si>
     <t>2020-KW42</t>
   </si>
   <si>
-    <t>43</t>
-  </si>
-  <si>
     <t>2020-KW43</t>
   </si>
   <si>
-    <t>44</t>
-  </si>
-  <si>
     <t>2020-KW44</t>
   </si>
   <si>
-    <t>45</t>
-  </si>
-  <si>
     <t>2020-KW45</t>
   </si>
   <si>
-    <t>46</t>
-  </si>
-  <si>
     <t>2020-KW46</t>
   </si>
   <si>
-    <t>47</t>
-  </si>
-  <si>
     <t>2020-KW47</t>
   </si>
   <si>
-    <t>48</t>
-  </si>
-  <si>
     <t>2020-KW48</t>
   </si>
   <si>
-    <t>49</t>
-  </si>
-  <si>
     <t>2020-KW49</t>
   </si>
   <si>
-    <t>50</t>
-  </si>
-  <si>
     <t>2020-KW50</t>
   </si>
   <si>
-    <t>51</t>
-  </si>
-  <si>
     <t>2020-KW51</t>
   </si>
   <si>
-    <t>52</t>
-  </si>
-  <si>
     <t>2020-KW52</t>
   </si>
   <si>
-    <t>53</t>
-  </si>
-  <si>
     <t>2020-KW53</t>
   </si>
   <si>
-    <t>2021</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
     <t>2021-KW01</t>
   </si>
   <si>
-    <t>02</t>
-  </si>
-  <si>
     <t>2021-KW02</t>
   </si>
   <si>
-    <t>03</t>
-  </si>
-  <si>
     <t>2021-KW03</t>
   </si>
   <si>
-    <t>04</t>
-  </si>
-  <si>
     <t>2021-KW04</t>
   </si>
   <si>
-    <t>05</t>
-  </si>
-  <si>
     <t>2021-KW05</t>
   </si>
   <si>
-    <t>06</t>
-  </si>
-  <si>
     <t>2021-KW06</t>
   </si>
   <si>
-    <t>07</t>
-  </si>
-  <si>
     <t>2021-KW07</t>
   </si>
   <si>
-    <t>08</t>
-  </si>
-  <si>
     <t>2021-KW08</t>
   </si>
   <si>
-    <t>09</t>
-  </si>
-  <si>
     <t>2021-KW09</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
     <t>2021-KW10</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
     <t>2021-KW11</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
     <t>2021-KW12</t>
   </si>
   <si>
-    <t>13</t>
-  </si>
-  <si>
     <t>2021-KW13</t>
   </si>
   <si>
-    <t>14</t>
-  </si>
-  <si>
     <t>2021-KW14</t>
   </si>
   <si>
-    <t>15</t>
-  </si>
-  <si>
     <t>2021-KW15</t>
   </si>
   <si>
-    <t>Die dem RKI übermittelten COVID-19-Fälle nach Meldewoche und  Geschlecht sowie Anteile mit für COVID-19 relevanten Symptomen, Anteile Hospitalisierter und Verstorbener für die Meldewochen KW 10 – 53/2020 und KW 01 - 15/2021</t>
-  </si>
-  <si>
     <t>MW</t>
   </si>
   <si>
@@ -300,6 +195,12 @@
   </si>
   <si>
     <t>Anteil Verstorben</t>
+  </si>
+  <si>
+    <t>Die dem RKI übermittelten COVID-19-Fälle nach Meldewoche und  Geschlecht sowie Anteile mit für COVID-19 relevanten Symptomen, Anteile Hospitalisierter und Verstorbener für die Meldewochen KW 10 – 53/2020 und KW 01 - 16/2021</t>
+  </si>
+  <si>
+    <t>2021-KW16</t>
   </si>
 </sst>
 </file>
@@ -384,7 +285,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -482,6 +383,11 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -796,17 +702,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{872BAA18-906B-41C7-A8B5-537096EA6980}">
-  <dimension ref="A1:M61"/>
+  <dimension ref="A1:M62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="60" x14ac:dyDescent="0.25">
@@ -814,40 +720,40 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>86</v>
+        <v>51</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>91</v>
+        <v>56</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>92</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -926,10 +832,10 @@
         <v>9.4654590658852775E-2</v>
       </c>
       <c r="L4" s="13">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M4" s="16">
-        <v>1.3221340789999999E-2</v>
+        <v>1.306579561E-2</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -940,37 +846,37 @@
         <v>12</v>
       </c>
       <c r="C5" s="7">
-        <v>22415</v>
+        <v>22410</v>
       </c>
       <c r="D5" s="5">
         <v>45</v>
       </c>
       <c r="E5" s="6">
-        <v>0.54992634914966743</v>
+        <v>0.5499151709974105</v>
       </c>
       <c r="F5" s="6">
-        <v>0.45007365085033252</v>
+        <v>0.4500848290025895</v>
       </c>
       <c r="G5" s="7">
-        <v>20159</v>
+        <v>20156</v>
       </c>
       <c r="H5" s="8">
-        <v>3.8940423632124611E-2</v>
+        <v>3.8896606469537603E-2</v>
       </c>
       <c r="I5" s="7">
-        <v>19381</v>
+        <v>19377</v>
       </c>
       <c r="J5" s="7">
-        <v>2229</v>
+        <v>2230</v>
       </c>
       <c r="K5" s="6">
-        <v>0.11500954543109231</v>
+        <v>0.1150848944625071</v>
       </c>
       <c r="L5" s="5">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="M5" s="10">
-        <v>2.132500557E-2</v>
+        <v>2.1195894680000001E-2</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -981,37 +887,37 @@
         <v>13</v>
       </c>
       <c r="C6" s="12">
-        <v>33971</v>
+        <v>33970</v>
       </c>
       <c r="D6" s="13">
         <v>48</v>
       </c>
       <c r="E6" s="14">
-        <v>0.49488909181960117</v>
+        <v>0.49490367053555645</v>
       </c>
       <c r="F6" s="14">
-        <v>0.50511090818039883</v>
+        <v>0.50509632946444349</v>
       </c>
       <c r="G6" s="12">
         <v>30824</v>
       </c>
       <c r="H6" s="15">
-        <v>3.2928886581884247E-2</v>
+        <v>3.2961328834674279E-2</v>
       </c>
       <c r="I6" s="12">
-        <v>29520</v>
+        <v>29519</v>
       </c>
       <c r="J6" s="12">
-        <v>5143</v>
+        <v>5144</v>
       </c>
       <c r="K6" s="14">
-        <v>0.17422086720867208</v>
+        <v>0.17426064568582947</v>
       </c>
       <c r="L6" s="12">
         <v>1463</v>
       </c>
       <c r="M6" s="16">
-        <v>4.3066144649999999E-2</v>
+        <v>4.3067412419999999E-2</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1022,37 +928,37 @@
         <v>14</v>
       </c>
       <c r="C7" s="7">
-        <v>36058</v>
+        <v>36053</v>
       </c>
       <c r="D7" s="5">
         <v>51</v>
       </c>
       <c r="E7" s="6">
-        <v>0.45076325284485153</v>
+        <v>0.45079805690492714</v>
       </c>
       <c r="F7" s="6">
-        <v>0.54923674715514847</v>
+        <v>0.54920194309507286</v>
       </c>
       <c r="G7" s="7">
-        <v>32041</v>
+        <v>32038</v>
       </c>
       <c r="H7" s="8">
-        <v>5.5522611653818547E-2</v>
+        <v>5.5527810724764343E-2</v>
       </c>
       <c r="I7" s="7">
-        <v>31619</v>
+        <v>31615</v>
       </c>
       <c r="J7" s="7">
-        <v>6091</v>
+        <v>6092</v>
       </c>
       <c r="K7" s="6">
-        <v>0.19263733830924445</v>
+        <v>0.19269334176814804</v>
       </c>
       <c r="L7" s="7">
-        <v>2260</v>
+        <v>2261</v>
       </c>
       <c r="M7" s="10">
-        <v>6.2676798490000005E-2</v>
+        <v>6.2713227740000002E-2</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1063,37 +969,37 @@
         <v>15</v>
       </c>
       <c r="C8" s="12">
-        <v>27160</v>
+        <v>27158</v>
       </c>
       <c r="D8" s="13">
         <v>52</v>
       </c>
       <c r="E8" s="14">
-        <v>0.43469605927673538</v>
+        <v>0.43469124423963135</v>
       </c>
       <c r="F8" s="14">
-        <v>0.56530394072326462</v>
+        <v>0.56530875576036865</v>
       </c>
       <c r="G8" s="12">
-        <v>23583</v>
+        <v>23580</v>
       </c>
       <c r="H8" s="15">
-        <v>8.4637238688886063E-2</v>
+        <v>8.4605597964376597E-2</v>
       </c>
       <c r="I8" s="12">
-        <v>24152</v>
+        <v>24151</v>
       </c>
       <c r="J8" s="12">
-        <v>4730</v>
+        <v>4731</v>
       </c>
       <c r="K8" s="14">
-        <v>0.19584299436899635</v>
+        <v>0.19589250962693056</v>
       </c>
       <c r="L8" s="12">
-        <v>1878</v>
+        <v>1876</v>
       </c>
       <c r="M8" s="16">
-        <v>6.9145802650000004E-2</v>
+        <v>6.9077251630000003E-2</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1104,37 +1010,37 @@
         <v>16</v>
       </c>
       <c r="C9" s="7">
-        <v>17345</v>
+        <v>17342</v>
       </c>
       <c r="D9" s="5">
         <v>51</v>
       </c>
       <c r="E9" s="6">
-        <v>0.44724691215514256</v>
+        <v>0.44720891300583038</v>
       </c>
       <c r="F9" s="6">
-        <v>0.55275308784485744</v>
+        <v>0.55279108699416957</v>
       </c>
       <c r="G9" s="7">
         <v>14877</v>
       </c>
       <c r="H9" s="8">
-        <v>0.11467365732338509</v>
+        <v>0.11474087517644686</v>
       </c>
       <c r="I9" s="7">
-        <v>15530</v>
+        <v>15528</v>
       </c>
       <c r="J9" s="7">
-        <v>3379</v>
+        <v>3378</v>
       </c>
       <c r="K9" s="6">
-        <v>0.2175788795878944</v>
+        <v>0.21754250386398763</v>
       </c>
       <c r="L9" s="7">
         <v>1217</v>
       </c>
       <c r="M9" s="10">
-        <v>7.0164312480000005E-2</v>
+        <v>7.0176450230000006E-2</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1145,37 +1051,37 @@
         <v>17</v>
       </c>
       <c r="C10" s="12">
-        <v>12360</v>
+        <v>12362</v>
       </c>
       <c r="D10" s="13">
         <v>50</v>
       </c>
       <c r="E10" s="14">
-        <v>0.44980960868508468</v>
+        <v>0.44981773997569868</v>
       </c>
       <c r="F10" s="14">
-        <v>0.55019039131491532</v>
+        <v>0.55018226002430137</v>
       </c>
       <c r="G10" s="12">
         <v>10270</v>
       </c>
       <c r="H10" s="15">
-        <v>0.13924050632911392</v>
+        <v>0.139143135345667</v>
       </c>
       <c r="I10" s="12">
-        <v>10983</v>
+        <v>10984</v>
       </c>
       <c r="J10" s="12">
         <v>2240</v>
       </c>
       <c r="K10" s="14">
-        <v>0.20395156150414276</v>
+        <v>0.20393299344501092</v>
       </c>
       <c r="L10" s="13">
         <v>721</v>
       </c>
       <c r="M10" s="16">
-        <v>5.8333333330000001E-2</v>
+        <v>5.8323895799999997E-2</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1192,25 +1098,25 @@
         <v>48</v>
       </c>
       <c r="E11" s="6">
-        <v>0.47779870828848225</v>
+        <v>0.47806781485468247</v>
       </c>
       <c r="F11" s="6">
-        <v>0.52220129171151775</v>
+        <v>0.52193218514531758</v>
       </c>
       <c r="G11" s="7">
         <v>6257</v>
       </c>
       <c r="H11" s="8">
-        <v>0.17564327952692985</v>
+        <v>0.1758031005274093</v>
       </c>
       <c r="I11" s="7">
         <v>6609</v>
       </c>
       <c r="J11" s="7">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="K11" s="6">
-        <v>0.20653654108034497</v>
+        <v>0.20638523225904071</v>
       </c>
       <c r="L11" s="5">
         <v>386</v>
@@ -1227,37 +1133,37 @@
         <v>19</v>
       </c>
       <c r="C12" s="12">
-        <v>6237</v>
+        <v>6238</v>
       </c>
       <c r="D12" s="13">
         <v>47</v>
       </c>
       <c r="E12" s="14">
-        <v>0.48017974642914463</v>
+        <v>0.48026315789473684</v>
       </c>
       <c r="F12" s="14">
-        <v>0.51982025357085537</v>
+        <v>0.51973684210526316</v>
       </c>
       <c r="G12" s="12">
-        <v>5252</v>
+        <v>5253</v>
       </c>
       <c r="H12" s="15">
-        <v>0.1966869763899467</v>
+        <v>0.19683990100894727</v>
       </c>
       <c r="I12" s="12">
-        <v>5630</v>
+        <v>5631</v>
       </c>
       <c r="J12" s="12">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="K12" s="14">
-        <v>0.19200710479573713</v>
+        <v>0.19215059492097319</v>
       </c>
       <c r="L12" s="13">
         <v>257</v>
       </c>
       <c r="M12" s="16">
-        <v>4.1205707869999997E-2</v>
+        <v>4.1199102270000003E-2</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1268,16 +1174,16 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>4762</v>
+        <v>4761</v>
       </c>
       <c r="D13" s="5">
         <v>45</v>
       </c>
       <c r="E13" s="6">
-        <v>0.49537426408746849</v>
+        <v>0.4952681388012618</v>
       </c>
       <c r="F13" s="6">
-        <v>0.50462573591253157</v>
+        <v>0.50473186119873814</v>
       </c>
       <c r="G13" s="7">
         <v>3946</v>
@@ -1286,19 +1192,19 @@
         <v>0.23162696401419158</v>
       </c>
       <c r="I13" s="7">
-        <v>4244</v>
+        <v>4243</v>
       </c>
       <c r="J13" s="5">
         <v>763</v>
       </c>
       <c r="K13" s="6">
-        <v>0.17978322337417529</v>
+        <v>0.17982559509780816</v>
       </c>
       <c r="L13" s="5">
         <v>164</v>
       </c>
       <c r="M13" s="10">
-        <v>3.4439311209999997E-2</v>
+        <v>3.4446544840000003E-2</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1309,16 +1215,16 @@
         <v>21</v>
       </c>
       <c r="C14" s="12">
-        <v>3609</v>
+        <v>3608</v>
       </c>
       <c r="D14" s="13">
         <v>43</v>
       </c>
       <c r="E14" s="14">
-        <v>0.50305725403001667</v>
+        <v>0.50319710870169587</v>
       </c>
       <c r="F14" s="14">
-        <v>0.49694274596998333</v>
+        <v>0.49680289129830413</v>
       </c>
       <c r="G14" s="12">
         <v>2837</v>
@@ -1339,7 +1245,7 @@
         <v>113</v>
       </c>
       <c r="M14" s="16">
-        <v>3.1310612350000003E-2</v>
+        <v>3.1319290460000003E-2</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1350,16 +1256,16 @@
         <v>22</v>
       </c>
       <c r="C15" s="7">
-        <v>3204</v>
+        <v>3205</v>
       </c>
       <c r="D15" s="5">
         <v>42</v>
       </c>
       <c r="E15" s="6">
-        <v>0.51566416040100249</v>
+        <v>0.51581584716567497</v>
       </c>
       <c r="F15" s="6">
-        <v>0.48433583959899751</v>
+        <v>0.48418415283432509</v>
       </c>
       <c r="G15" s="7">
         <v>2548</v>
@@ -1380,7 +1286,7 @@
         <v>65</v>
       </c>
       <c r="M15" s="10">
-        <v>2.028714107E-2</v>
+        <v>2.0280811230000001E-2</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1479,10 +1385,10 @@
         <v>36</v>
       </c>
       <c r="E18" s="14">
-        <v>0.58814958717824184</v>
+        <v>0.58790675084992716</v>
       </c>
       <c r="F18" s="14">
-        <v>0.41185041282175816</v>
+        <v>0.41209324915007284</v>
       </c>
       <c r="G18" s="12">
         <v>2937</v>
@@ -1596,37 +1502,37 @@
         <v>28</v>
       </c>
       <c r="C21" s="7">
-        <v>2427</v>
+        <v>2426</v>
       </c>
       <c r="D21" s="5">
         <v>36</v>
       </c>
       <c r="E21" s="6">
-        <v>0.5590421139554087</v>
+        <v>0.55885997521685249</v>
       </c>
       <c r="F21" s="6">
-        <v>0.44095788604459124</v>
+        <v>0.44114002478314746</v>
       </c>
       <c r="G21" s="7">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="H21" s="8">
-        <v>0.23875968992248062</v>
+        <v>0.23940020682523269</v>
       </c>
       <c r="I21" s="7">
-        <v>2193</v>
+        <v>2192</v>
       </c>
       <c r="J21" s="5">
         <v>256</v>
       </c>
       <c r="K21" s="6">
-        <v>0.11673506611947104</v>
+        <v>0.11678832116788321</v>
       </c>
       <c r="L21" s="5">
         <v>25</v>
       </c>
       <c r="M21" s="10">
-        <v>1.0300782850000001E-2</v>
+        <v>1.030502885E-2</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1637,37 +1543,37 @@
         <v>29</v>
       </c>
       <c r="C22" s="12">
-        <v>3014</v>
+        <v>3015</v>
       </c>
       <c r="D22" s="13">
         <v>36</v>
       </c>
       <c r="E22" s="14">
-        <v>0.52477552377785164</v>
+        <v>0.52460106382978722</v>
       </c>
       <c r="F22" s="14">
-        <v>0.47522447622214831</v>
+        <v>0.47539893617021278</v>
       </c>
       <c r="G22" s="12">
-        <v>2359</v>
+        <v>2360</v>
       </c>
       <c r="H22" s="15">
-        <v>0.22975837219160661</v>
+        <v>0.22966101694915253</v>
       </c>
       <c r="I22" s="12">
-        <v>2645</v>
+        <v>2646</v>
       </c>
       <c r="J22" s="13">
         <v>317</v>
       </c>
       <c r="K22" s="14">
-        <v>0.11984877126654064</v>
+        <v>0.11980347694633409</v>
       </c>
       <c r="L22" s="13">
         <v>30</v>
       </c>
       <c r="M22" s="16">
-        <v>9.9535500900000008E-3</v>
+        <v>9.9502487499999997E-3</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1719,16 +1625,16 @@
         <v>31</v>
       </c>
       <c r="C24" s="12">
-        <v>4822</v>
+        <v>4823</v>
       </c>
       <c r="D24" s="13">
         <v>36</v>
       </c>
       <c r="E24" s="14">
-        <v>0.5021815915229586</v>
+        <v>0.50207727461570417</v>
       </c>
       <c r="F24" s="14">
-        <v>0.49781840847704134</v>
+        <v>0.49792272538429583</v>
       </c>
       <c r="G24" s="12">
         <v>3715</v>
@@ -1749,7 +1655,7 @@
         <v>32</v>
       </c>
       <c r="M24" s="16">
-        <v>6.6362505100000004E-3</v>
+        <v>6.6348745500000002E-3</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1760,16 +1666,16 @@
         <v>32</v>
       </c>
       <c r="C25" s="7">
-        <v>6058</v>
+        <v>6057</v>
       </c>
       <c r="D25" s="5">
         <v>34</v>
       </c>
       <c r="E25" s="6">
-        <v>0.53670634920634919</v>
+        <v>0.53679510501074912</v>
       </c>
       <c r="F25" s="6">
-        <v>0.46329365079365081</v>
+        <v>0.46320489498925088</v>
       </c>
       <c r="G25" s="7">
         <v>4556</v>
@@ -1790,7 +1696,7 @@
         <v>31</v>
       </c>
       <c r="M25" s="10">
-        <v>5.1172003899999999E-3</v>
+        <v>5.1180452299999998E-3</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1842,16 +1748,16 @@
         <v>34</v>
       </c>
       <c r="C27" s="7">
-        <v>9591</v>
+        <v>9590</v>
       </c>
       <c r="D27" s="5">
         <v>32</v>
       </c>
       <c r="E27" s="6">
-        <v>0.54729446308724827</v>
+        <v>0.54735186156266391</v>
       </c>
       <c r="F27" s="6">
-        <v>0.45270553691275167</v>
+        <v>0.45264813843733614</v>
       </c>
       <c r="G27" s="7">
         <v>7211</v>
@@ -1860,19 +1766,19 @@
         <v>0.34530578283178476</v>
       </c>
       <c r="I27" s="7">
-        <v>8310</v>
+        <v>8309</v>
       </c>
       <c r="J27" s="5">
         <v>434</v>
       </c>
       <c r="K27" s="6">
-        <v>5.2226233453670279E-2</v>
+        <v>5.2232518955349617E-2</v>
       </c>
       <c r="L27" s="5">
         <v>30</v>
       </c>
       <c r="M27" s="10">
-        <v>3.12793243E-3</v>
+        <v>3.1282585999999999E-3</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1883,37 +1789,37 @@
         <v>35</v>
       </c>
       <c r="C28" s="12">
-        <v>8823</v>
+        <v>8821</v>
       </c>
       <c r="D28" s="13">
         <v>32</v>
       </c>
       <c r="E28" s="14">
-        <v>0.53118941726536661</v>
+        <v>0.53119653245123755</v>
       </c>
       <c r="F28" s="14">
-        <v>0.46881058273463339</v>
+        <v>0.4688034675487624</v>
       </c>
       <c r="G28" s="12">
         <v>6878</v>
       </c>
       <c r="H28" s="15">
-        <v>0.3073567897644664</v>
+        <v>0.30750218086653097</v>
       </c>
       <c r="I28" s="12">
-        <v>7429</v>
+        <v>7428</v>
       </c>
       <c r="J28" s="13">
         <v>366</v>
       </c>
       <c r="K28" s="14">
-        <v>4.9266388477587832E-2</v>
+        <v>4.9273021001615507E-2</v>
       </c>
       <c r="L28" s="13">
         <v>18</v>
       </c>
       <c r="M28" s="16">
-        <v>2.0401223999999998E-3</v>
+        <v>2.0405849599999999E-3</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1924,16 +1830,16 @@
         <v>36</v>
       </c>
       <c r="C29" s="7">
-        <v>8614</v>
+        <v>8615</v>
       </c>
       <c r="D29" s="5">
         <v>33</v>
       </c>
       <c r="E29" s="6">
-        <v>0.53670206558524913</v>
+        <v>0.53675612602100353</v>
       </c>
       <c r="F29" s="6">
-        <v>0.46329793441475087</v>
+        <v>0.46324387397899652</v>
       </c>
       <c r="G29" s="7">
         <v>6656</v>
@@ -1954,7 +1860,7 @@
         <v>36</v>
       </c>
       <c r="M29" s="10">
-        <v>4.1792430899999997E-3</v>
+        <v>4.1787579800000004E-3</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1965,37 +1871,37 @@
         <v>37</v>
       </c>
       <c r="C30" s="12">
-        <v>9769</v>
+        <v>9770</v>
       </c>
       <c r="D30" s="13">
         <v>35</v>
       </c>
       <c r="E30" s="14">
-        <v>0.51785163082621666</v>
+        <v>0.51779835390946505</v>
       </c>
       <c r="F30" s="14">
-        <v>0.48214836917378329</v>
+        <v>0.48220164609053495</v>
       </c>
       <c r="G30" s="12">
-        <v>7605</v>
+        <v>7613</v>
       </c>
       <c r="H30" s="15">
-        <v>0.20499671268902039</v>
+        <v>0.20517535794036518</v>
       </c>
       <c r="I30" s="12">
-        <v>8037</v>
+        <v>8038</v>
       </c>
       <c r="J30" s="13">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="K30" s="14">
-        <v>5.7857409481149681E-2</v>
+        <v>5.7974620552376212E-2</v>
       </c>
       <c r="L30" s="13">
         <v>66</v>
       </c>
       <c r="M30" s="16">
-        <v>6.7560650999999999E-3</v>
+        <v>6.7553735899999997E-3</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2018,19 +1924,19 @@
         <v>0.48794245074797676</v>
       </c>
       <c r="G31" s="7">
-        <v>9768</v>
+        <v>9770</v>
       </c>
       <c r="H31" s="8">
-        <v>0.18673218673218672</v>
+        <v>0.18669396110542477</v>
       </c>
       <c r="I31" s="7">
-        <v>10067</v>
+        <v>10068</v>
       </c>
       <c r="J31" s="5">
         <v>674</v>
       </c>
       <c r="K31" s="6">
-        <v>6.6951425449488428E-2</v>
+        <v>6.6944775526420336E-2</v>
       </c>
       <c r="L31" s="5">
         <v>79</v>
@@ -2059,19 +1965,19 @@
         <v>0.48365258866066618</v>
       </c>
       <c r="G32" s="12">
-        <v>10361</v>
+        <v>10369</v>
       </c>
       <c r="H32" s="15">
-        <v>0.18193224592220827</v>
+        <v>0.18188832095669785</v>
       </c>
       <c r="I32" s="12">
-        <v>10853</v>
+        <v>10856</v>
       </c>
       <c r="J32" s="13">
         <v>771</v>
       </c>
       <c r="K32" s="14">
-        <v>7.1040265364415364E-2</v>
+        <v>7.1020633750921144E-2</v>
       </c>
       <c r="L32" s="13">
         <v>107</v>
@@ -2088,37 +1994,37 @@
         <v>40</v>
       </c>
       <c r="C33" s="7">
-        <v>15932</v>
+        <v>15928</v>
       </c>
       <c r="D33" s="5">
         <v>38</v>
       </c>
       <c r="E33" s="6">
-        <v>0.51929736195932763</v>
+        <v>0.51923924680395495</v>
       </c>
       <c r="F33" s="6">
-        <v>0.48070263804067243</v>
+        <v>0.48076075319604511</v>
       </c>
       <c r="G33" s="7">
-        <v>12613</v>
+        <v>12616</v>
       </c>
       <c r="H33" s="8">
-        <v>0.17545389677317053</v>
+        <v>0.17541217501585288</v>
       </c>
       <c r="I33" s="7">
         <v>13481</v>
       </c>
       <c r="J33" s="5">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="K33" s="6">
-        <v>6.4906164231140123E-2</v>
+        <v>6.4831985757733107E-2</v>
       </c>
       <c r="L33" s="5">
         <v>121</v>
       </c>
       <c r="M33" s="10">
-        <v>7.5947777999999999E-3</v>
+        <v>7.5966850800000003E-3</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2129,37 +2035,37 @@
         <v>41</v>
       </c>
       <c r="C34" s="19">
-        <v>26126</v>
+        <v>26127</v>
       </c>
       <c r="D34" s="20">
         <v>39</v>
       </c>
       <c r="E34" s="21">
-        <v>0.51035304060543196</v>
+        <v>0.51029502151198525</v>
       </c>
       <c r="F34" s="21">
-        <v>0.48964695939456804</v>
+        <v>0.48970497848801475</v>
       </c>
       <c r="G34" s="19">
-        <v>20100</v>
+        <v>20102</v>
       </c>
       <c r="H34" s="22">
-        <v>0.16626865671641791</v>
+        <v>0.16625211421749081</v>
       </c>
       <c r="I34" s="19">
-        <v>21546</v>
+        <v>21549</v>
       </c>
       <c r="J34" s="20">
-        <v>1586</v>
+        <v>1587</v>
       </c>
       <c r="K34" s="21">
-        <v>7.3609950802933255E-2</v>
+        <v>7.3646108868160934E-2</v>
       </c>
       <c r="L34" s="20">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M34" s="23">
-        <v>9.1096991499999991E-3</v>
+        <v>9.1476250599999993E-3</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2170,37 +2076,37 @@
         <v>42</v>
       </c>
       <c r="C35" s="7">
-        <v>42087</v>
+        <v>42086</v>
       </c>
       <c r="D35" s="5">
         <v>39</v>
       </c>
       <c r="E35" s="6">
-        <v>0.50856242088418635</v>
+        <v>0.50857456768892706</v>
       </c>
       <c r="F35" s="6">
-        <v>0.49143757911581359</v>
+        <v>0.49142543231107289</v>
       </c>
       <c r="G35" s="7">
-        <v>30879</v>
+        <v>30890</v>
       </c>
       <c r="H35" s="8">
-        <v>0.15984973606658245</v>
+        <v>0.15995467788928455</v>
       </c>
       <c r="I35" s="7">
-        <v>33703</v>
+        <v>33713</v>
       </c>
       <c r="J35" s="5">
-        <v>2325</v>
+        <v>2327</v>
       </c>
       <c r="K35" s="6">
-        <v>6.8984956828768956E-2</v>
+        <v>6.9023818704950612E-2</v>
       </c>
       <c r="L35" s="5">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="M35" s="10">
-        <v>1.0882220160000001E-2</v>
+        <v>1.0930000469999999E-2</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2211,37 +2117,37 @@
         <v>43</v>
       </c>
       <c r="C36" s="12">
-        <v>74824</v>
+        <v>74817</v>
       </c>
       <c r="D36" s="13">
         <v>40</v>
       </c>
       <c r="E36" s="14">
-        <v>0.50150408250966905</v>
+        <v>0.50149750862914166</v>
       </c>
       <c r="F36" s="14">
-        <v>0.4984959174903309</v>
+        <v>0.49850249137085834</v>
       </c>
       <c r="G36" s="12">
-        <v>52396</v>
+        <v>52413</v>
       </c>
       <c r="H36" s="15">
-        <v>0.15476372242155889</v>
+        <v>0.15486615915898727</v>
       </c>
       <c r="I36" s="12">
-        <v>58134</v>
+        <v>58145</v>
       </c>
       <c r="J36" s="13">
         <v>4101</v>
       </c>
       <c r="K36" s="14">
-        <v>7.0543915780782326E-2</v>
+        <v>7.0530570126408121E-2</v>
       </c>
       <c r="L36" s="13">
         <v>991</v>
       </c>
       <c r="M36" s="16">
-        <v>1.324441355E-2</v>
+        <v>1.3245652720000001E-2</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2252,37 +2158,37 @@
         <v>44</v>
       </c>
       <c r="C37" s="7">
-        <v>111090</v>
+        <v>111077</v>
       </c>
       <c r="D37" s="5">
         <v>41</v>
       </c>
       <c r="E37" s="6">
-        <v>0.49726558255767628</v>
+        <v>0.49726078255593892</v>
       </c>
       <c r="F37" s="6">
-        <v>0.50273441744232372</v>
+        <v>0.50273921744406114</v>
       </c>
       <c r="G37" s="7">
-        <v>75617</v>
+        <v>75643</v>
       </c>
       <c r="H37" s="8">
-        <v>0.15770263300580556</v>
+        <v>0.15774096743915497</v>
       </c>
       <c r="I37" s="7">
-        <v>83939</v>
+        <v>83954</v>
       </c>
       <c r="J37" s="5">
-        <v>5907</v>
+        <v>5915</v>
       </c>
       <c r="K37" s="6">
-        <v>7.0372532434267748E-2</v>
+        <v>7.0455249303189846E-2</v>
       </c>
       <c r="L37" s="5">
-        <v>1586</v>
+        <v>1592</v>
       </c>
       <c r="M37" s="10">
-        <v>1.4276712570000001E-2</v>
+        <v>1.433240004E-2</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2293,37 +2199,37 @@
         <v>45</v>
       </c>
       <c r="C38" s="19">
-        <v>125803</v>
+        <v>125799</v>
       </c>
       <c r="D38" s="20">
         <v>41</v>
       </c>
       <c r="E38" s="21">
-        <v>0.49126095384566093</v>
+        <v>0.49125266345183355</v>
       </c>
       <c r="F38" s="21">
-        <v>0.50873904615433907</v>
+        <v>0.5087473365481664</v>
       </c>
       <c r="G38" s="19">
-        <v>85213</v>
+        <v>85229</v>
       </c>
       <c r="H38" s="22">
-        <v>0.15217161700679474</v>
+        <v>0.15217824918748313</v>
       </c>
       <c r="I38" s="19">
-        <v>92744</v>
+        <v>92757</v>
       </c>
       <c r="J38" s="20">
-        <v>6828</v>
+        <v>6834</v>
       </c>
       <c r="K38" s="21">
-        <v>7.3622013283878199E-2</v>
+        <v>7.3676380219282647E-2</v>
       </c>
       <c r="L38" s="20">
-        <v>1849</v>
+        <v>1856</v>
       </c>
       <c r="M38" s="23">
-        <v>1.469758272E-2</v>
+        <v>1.475369438E-2</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2340,31 +2246,31 @@
         <v>42</v>
       </c>
       <c r="E39" s="6">
-        <v>0.48455764540596857</v>
+        <v>0.48458181071972595</v>
       </c>
       <c r="F39" s="6">
-        <v>0.51544235459403143</v>
+        <v>0.51541818928027405</v>
       </c>
       <c r="G39" s="7">
-        <v>85770</v>
+        <v>85802</v>
       </c>
       <c r="H39" s="8">
-        <v>0.14843185262912439</v>
+        <v>0.14842311368033378</v>
       </c>
       <c r="I39" s="7">
-        <v>94452</v>
+        <v>94482</v>
       </c>
       <c r="J39" s="5">
-        <v>7470</v>
+        <v>7475</v>
       </c>
       <c r="K39" s="6">
-        <v>7.9087790623808912E-2</v>
+        <v>7.911559873838403E-2</v>
       </c>
       <c r="L39" s="5">
-        <v>2457</v>
+        <v>2468</v>
       </c>
       <c r="M39" s="10">
-        <v>1.9218434669999999E-2</v>
+        <v>1.930447569E-2</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2375,37 +2281,37 @@
         <v>47</v>
       </c>
       <c r="C40" s="19">
-        <v>128465</v>
+        <v>128456</v>
       </c>
       <c r="D40" s="20">
         <v>43</v>
       </c>
       <c r="E40" s="21">
-        <v>0.4744436867558649</v>
+        <v>0.47442268800852838</v>
       </c>
       <c r="F40" s="21">
-        <v>0.5255563132441351</v>
+        <v>0.52557731199147162</v>
       </c>
       <c r="G40" s="19">
-        <v>86386</v>
+        <v>86420</v>
       </c>
       <c r="H40" s="22">
-        <v>0.1480911258768782</v>
+        <v>0.14810229113631104</v>
       </c>
       <c r="I40" s="19">
-        <v>93960</v>
+        <v>93995</v>
       </c>
       <c r="J40" s="20">
-        <v>8011</v>
+        <v>8019</v>
       </c>
       <c r="K40" s="21">
-        <v>8.525968497232865E-2</v>
+        <v>8.5313048566413113E-2</v>
       </c>
       <c r="L40" s="20">
-        <v>3140</v>
+        <v>3149</v>
       </c>
       <c r="M40" s="23">
-        <v>2.444245514E-2</v>
+        <v>2.4514230549999998E-2</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2416,37 +2322,37 @@
         <v>48</v>
       </c>
       <c r="C41" s="7">
-        <v>123294</v>
+        <v>123290</v>
       </c>
       <c r="D41" s="5">
         <v>44</v>
       </c>
       <c r="E41" s="6">
-        <v>0.46552821902600688</v>
+        <v>0.46549936737276032</v>
       </c>
       <c r="F41" s="6">
-        <v>0.53447178097399306</v>
+        <v>0.53450063262723968</v>
       </c>
       <c r="G41" s="7">
-        <v>82373</v>
+        <v>82441</v>
       </c>
       <c r="H41" s="8">
-        <v>0.15466232867565829</v>
+        <v>0.15459540762484686</v>
       </c>
       <c r="I41" s="7">
-        <v>89759</v>
+        <v>89846</v>
       </c>
       <c r="J41" s="5">
-        <v>8250</v>
+        <v>8251</v>
       </c>
       <c r="K41" s="6">
-        <v>9.1912788689713573E-2</v>
+        <v>9.1834917525543708E-2</v>
       </c>
       <c r="L41" s="5">
-        <v>3496</v>
+        <v>3505</v>
       </c>
       <c r="M41" s="10">
-        <v>2.8354988880000001E-2</v>
+        <v>2.8428907449999999E-2</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2457,37 +2363,37 @@
         <v>49</v>
       </c>
       <c r="C42" s="19">
-        <v>128507</v>
+        <v>128506</v>
       </c>
       <c r="D42" s="20">
         <v>45</v>
       </c>
       <c r="E42" s="21">
-        <v>0.45915119779254987</v>
+        <v>0.45916687570550607</v>
       </c>
       <c r="F42" s="21">
-        <v>0.54084880220745013</v>
+        <v>0.54083312429449393</v>
       </c>
       <c r="G42" s="19">
-        <v>87341</v>
+        <v>87469</v>
       </c>
       <c r="H42" s="22">
-        <v>0.14206386462257131</v>
+        <v>0.14207319164503995</v>
       </c>
       <c r="I42" s="19">
-        <v>94106</v>
+        <v>94164</v>
       </c>
       <c r="J42" s="20">
-        <v>9083</v>
+        <v>9088</v>
       </c>
       <c r="K42" s="21">
-        <v>9.6518819203876477E-2</v>
+        <v>9.6512467609702224E-2</v>
       </c>
       <c r="L42" s="20">
-        <v>4357</v>
+        <v>4370</v>
       </c>
       <c r="M42" s="23">
-        <v>3.3904767830000002E-2</v>
+        <v>3.4006194259999997E-2</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2498,37 +2404,37 @@
         <v>50</v>
       </c>
       <c r="C43" s="7">
-        <v>156524</v>
+        <v>156512</v>
       </c>
       <c r="D43" s="5">
         <v>46</v>
       </c>
       <c r="E43" s="6">
-        <v>0.45385021097046413</v>
+        <v>0.45384491686231626</v>
       </c>
       <c r="F43" s="6">
-        <v>0.54614978902953581</v>
+        <v>0.54615508313768368</v>
       </c>
       <c r="G43" s="7">
-        <v>107266</v>
+        <v>107365</v>
       </c>
       <c r="H43" s="8">
-        <v>0.14648630507336902</v>
+        <v>0.14663065244725934</v>
       </c>
       <c r="I43" s="7">
-        <v>114606</v>
+        <v>114700</v>
       </c>
       <c r="J43" s="5">
-        <v>11140</v>
+        <v>11157</v>
       </c>
       <c r="K43" s="6">
-        <v>9.7202589742247353E-2</v>
+        <v>9.7271142109851785E-2</v>
       </c>
       <c r="L43" s="5">
-        <v>5589</v>
+        <v>5598</v>
       </c>
       <c r="M43" s="10">
-        <v>3.5706984230000002E-2</v>
+        <v>3.576722551E-2</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2539,37 +2445,37 @@
         <v>51</v>
       </c>
       <c r="C44" s="19">
-        <v>174927</v>
+        <v>174930</v>
       </c>
       <c r="D44" s="20">
         <v>46</v>
       </c>
       <c r="E44" s="21">
-        <v>0.45182161997248432</v>
+        <v>0.45178930160539238</v>
       </c>
       <c r="F44" s="21">
-        <v>0.54817838002751573</v>
+        <v>0.54821069839460768</v>
       </c>
       <c r="G44" s="19">
-        <v>117823</v>
+        <v>118103</v>
       </c>
       <c r="H44" s="22">
-        <v>0.14392775604084093</v>
+        <v>0.1444586504999873</v>
       </c>
       <c r="I44" s="19">
-        <v>126199</v>
+        <v>126478</v>
       </c>
       <c r="J44" s="20">
-        <v>12344</v>
+        <v>12395</v>
       </c>
       <c r="K44" s="21">
-        <v>9.7813770315137202E-2</v>
+        <v>9.8001233416088171E-2</v>
       </c>
       <c r="L44" s="20">
-        <v>6257</v>
+        <v>6265</v>
       </c>
       <c r="M44" s="23">
-        <v>3.5769206579999997E-2</v>
+        <v>3.5814325729999999E-2</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2580,37 +2486,37 @@
         <v>52</v>
       </c>
       <c r="C45" s="7">
-        <v>139207</v>
+        <v>139212</v>
       </c>
       <c r="D45" s="5">
         <v>48</v>
       </c>
       <c r="E45" s="6">
-        <v>0.44492021930649384</v>
+        <v>0.44487921307681183</v>
       </c>
       <c r="F45" s="6">
-        <v>0.55507978069350616</v>
+        <v>0.55512078692318823</v>
       </c>
       <c r="G45" s="7">
-        <v>91190</v>
+        <v>91379</v>
       </c>
       <c r="H45" s="8">
-        <v>0.15760500054830573</v>
+        <v>0.15780430952407007</v>
       </c>
       <c r="I45" s="7">
-        <v>99767</v>
+        <v>99948</v>
       </c>
       <c r="J45" s="5">
-        <v>10900</v>
+        <v>10916</v>
       </c>
       <c r="K45" s="6">
-        <v>0.10925456313209779</v>
+        <v>0.10921679273222075</v>
       </c>
       <c r="L45" s="5">
-        <v>5557</v>
+        <v>5559</v>
       </c>
       <c r="M45" s="10">
-        <v>3.9918969589999999E-2</v>
+        <v>3.9931902419999998E-2</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2621,37 +2527,37 @@
         <v>53</v>
       </c>
       <c r="C46" s="19">
-        <v>123196</v>
+        <v>123193</v>
       </c>
       <c r="D46" s="20">
         <v>49</v>
       </c>
       <c r="E46" s="21">
-        <v>0.44123449715525359</v>
+        <v>0.44119814008317232</v>
       </c>
       <c r="F46" s="21">
-        <v>0.55876550284474646</v>
+        <v>0.55880185991682763</v>
       </c>
       <c r="G46" s="19">
-        <v>84149</v>
+        <v>84273</v>
       </c>
       <c r="H46" s="22">
-        <v>0.13408358982281429</v>
+        <v>0.13417108682496173</v>
       </c>
       <c r="I46" s="19">
-        <v>90207</v>
+        <v>90311</v>
       </c>
       <c r="J46" s="20">
-        <v>10775</v>
+        <v>10790</v>
       </c>
       <c r="K46" s="21">
-        <v>0.11944749298834902</v>
+        <v>0.11947603281992226</v>
       </c>
       <c r="L46" s="20">
-        <v>5530</v>
+        <v>5541</v>
       </c>
       <c r="M46" s="23">
-        <v>4.4887821029999997E-2</v>
+        <v>4.4978204930000001E-2</v>
       </c>
     </row>
     <row r="47" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2662,37 +2568,37 @@
         <v>1</v>
       </c>
       <c r="C47" s="27">
-        <v>145489</v>
+        <v>145482</v>
       </c>
       <c r="D47" s="28">
         <v>48</v>
       </c>
       <c r="E47" s="29">
-        <v>0.45085270027533308</v>
+        <v>0.45082876759830781</v>
       </c>
       <c r="F47" s="29">
-        <v>0.54914729972466692</v>
+        <v>0.54917123240169219</v>
       </c>
       <c r="G47" s="27">
-        <v>101341</v>
+        <v>101571</v>
       </c>
       <c r="H47" s="30">
-        <v>0.13199988158790618</v>
+        <v>0.13187819357887587</v>
       </c>
       <c r="I47" s="27">
-        <v>106583</v>
+        <v>106772</v>
       </c>
       <c r="J47" s="28">
-        <v>10811</v>
+        <v>10832</v>
       </c>
       <c r="K47" s="29">
-        <v>0.10143268626328776</v>
+        <v>0.10144981830442439</v>
       </c>
       <c r="L47" s="28">
-        <v>5521</v>
+        <v>5534</v>
       </c>
       <c r="M47" s="31">
-        <v>3.7947886090000001E-2</v>
+        <v>3.8039070119999997E-2</v>
       </c>
     </row>
     <row r="48" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2703,37 +2609,37 @@
         <v>2</v>
       </c>
       <c r="C48" s="19">
-        <v>119012</v>
+        <v>119004</v>
       </c>
       <c r="D48" s="20">
         <v>48</v>
       </c>
       <c r="E48" s="21">
-        <v>0.45429934143526379</v>
+        <v>0.45425150005516468</v>
       </c>
       <c r="F48" s="21">
-        <v>0.54570065856473626</v>
+        <v>0.54574849994483532</v>
       </c>
       <c r="G48" s="19">
-        <v>81045</v>
+        <v>81142</v>
       </c>
       <c r="H48" s="22">
-        <v>0.15738170152384479</v>
+        <v>0.15761258041458184</v>
       </c>
       <c r="I48" s="19">
-        <v>87211</v>
+        <v>87319</v>
       </c>
       <c r="J48" s="20">
-        <v>9547</v>
+        <v>9563</v>
       </c>
       <c r="K48" s="21">
-        <v>0.10947013564802605</v>
+        <v>0.10951797432403028</v>
       </c>
       <c r="L48" s="20">
-        <v>4912</v>
+        <v>4921</v>
       </c>
       <c r="M48" s="23">
-        <v>4.1273148920000002E-2</v>
+        <v>4.1351551200000003E-2</v>
       </c>
     </row>
     <row r="49" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2744,37 +2650,37 @@
         <v>3</v>
       </c>
       <c r="C49" s="7">
-        <v>95580</v>
+        <v>95576</v>
       </c>
       <c r="D49" s="5">
         <v>48</v>
       </c>
       <c r="E49" s="6">
-        <v>0.45819440341028994</v>
+        <v>0.45815396302861483</v>
       </c>
       <c r="F49" s="6">
-        <v>0.54180559658971006</v>
+        <v>0.54184603697138511</v>
       </c>
       <c r="G49" s="7">
-        <v>66628</v>
+        <v>66808</v>
       </c>
       <c r="H49" s="8">
-        <v>0.15652578495527406</v>
+        <v>0.15670279008501975</v>
       </c>
       <c r="I49" s="7">
-        <v>72401</v>
+        <v>72476</v>
       </c>
       <c r="J49" s="5">
-        <v>8501</v>
+        <v>8509</v>
       </c>
       <c r="K49" s="6">
-        <v>0.11741550531070012</v>
+        <v>0.11740438214029472</v>
       </c>
       <c r="L49" s="5">
-        <v>3909</v>
+        <v>3923</v>
       </c>
       <c r="M49" s="10">
-        <v>4.089767733E-2</v>
+        <v>4.1045869249999999E-2</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2785,37 +2691,37 @@
         <v>4</v>
       </c>
       <c r="C50" s="19">
-        <v>78248</v>
+        <v>78244</v>
       </c>
       <c r="D50" s="20">
         <v>48</v>
       </c>
       <c r="E50" s="21">
-        <v>0.46310376823547605</v>
+        <v>0.46313334364208031</v>
       </c>
       <c r="F50" s="21">
-        <v>0.53689623176452395</v>
+        <v>0.53686665635791975</v>
       </c>
       <c r="G50" s="19">
-        <v>55045</v>
+        <v>55387</v>
       </c>
       <c r="H50" s="22">
-        <v>0.15894268325915159</v>
+        <v>0.15942369147995017</v>
       </c>
       <c r="I50" s="19">
-        <v>60909</v>
+        <v>61176</v>
       </c>
       <c r="J50" s="20">
-        <v>7181</v>
+        <v>7219</v>
       </c>
       <c r="K50" s="21">
-        <v>0.11789719089132969</v>
+        <v>0.11800379233686413</v>
       </c>
       <c r="L50" s="20">
-        <v>2959</v>
+        <v>2974</v>
       </c>
       <c r="M50" s="23">
-        <v>3.7815663020000001E-2</v>
+        <v>3.8009304219999998E-2</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2826,37 +2732,37 @@
         <v>5</v>
       </c>
       <c r="C51" s="7">
-        <v>64679</v>
+        <v>64669</v>
       </c>
       <c r="D51" s="5">
         <v>46</v>
       </c>
       <c r="E51" s="6">
-        <v>0.47374662568071529</v>
+        <v>0.47373841400617922</v>
       </c>
       <c r="F51" s="6">
-        <v>0.52625337431928476</v>
+        <v>0.52626158599382078</v>
       </c>
       <c r="G51" s="7">
-        <v>46412</v>
+        <v>46542</v>
       </c>
       <c r="H51" s="8">
-        <v>0.15991553908471948</v>
+        <v>0.15979115637488719</v>
       </c>
       <c r="I51" s="7">
-        <v>51002</v>
+        <v>51107</v>
       </c>
       <c r="J51" s="5">
-        <v>6152</v>
+        <v>6173</v>
       </c>
       <c r="K51" s="6">
-        <v>0.12062272067762049</v>
+        <v>0.12078580233627488</v>
       </c>
       <c r="L51" s="5">
-        <v>2117</v>
+        <v>2130</v>
       </c>
       <c r="M51" s="10">
-        <v>3.2730870910000001E-2</v>
+        <v>3.293695588E-2</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2867,37 +2773,37 @@
         <v>6</v>
       </c>
       <c r="C52" s="19">
-        <v>50855</v>
+        <v>50848</v>
       </c>
       <c r="D52" s="20">
         <v>45</v>
       </c>
       <c r="E52" s="21">
-        <v>0.48378399809689954</v>
+        <v>0.48375394009079553</v>
       </c>
       <c r="F52" s="21">
-        <v>0.51621600190310046</v>
+        <v>0.51624605990920447</v>
       </c>
       <c r="G52" s="19">
-        <v>37285</v>
+        <v>37393</v>
       </c>
       <c r="H52" s="22">
-        <v>0.16363148719324125</v>
+        <v>0.16337282379054904</v>
       </c>
       <c r="I52" s="19">
-        <v>40423</v>
+        <v>40456</v>
       </c>
       <c r="J52" s="20">
-        <v>4942</v>
+        <v>4950</v>
       </c>
       <c r="K52" s="21">
-        <v>0.1222571308413527</v>
+        <v>0.12235515127545976</v>
       </c>
       <c r="L52" s="20">
-        <v>1589</v>
+        <v>1598</v>
       </c>
       <c r="M52" s="23">
-        <v>3.1245698549999999E-2</v>
+        <v>3.142699811E-2</v>
       </c>
     </row>
     <row r="53" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2908,37 +2814,37 @@
         <v>7</v>
       </c>
       <c r="C53" s="7">
-        <v>52500</v>
+        <v>52492</v>
       </c>
       <c r="D53" s="5">
         <v>44</v>
       </c>
       <c r="E53" s="6">
-        <v>0.4917812685808543</v>
+        <v>0.49179919046979609</v>
       </c>
       <c r="F53" s="6">
-        <v>0.50821873141914575</v>
+        <v>0.50820080953020397</v>
       </c>
       <c r="G53" s="7">
-        <v>38562</v>
+        <v>38691</v>
       </c>
       <c r="H53" s="8">
-        <v>0.16264716560344381</v>
+        <v>0.16233749450776666</v>
       </c>
       <c r="I53" s="7">
-        <v>42042</v>
+        <v>42067</v>
       </c>
       <c r="J53" s="5">
-        <v>4868</v>
+        <v>4882</v>
       </c>
       <c r="K53" s="6">
-        <v>0.11578897293183008</v>
+        <v>0.11605296313024462</v>
       </c>
       <c r="L53" s="5">
-        <v>1368</v>
+        <v>1387</v>
       </c>
       <c r="M53" s="10">
-        <v>2.6057142849999999E-2</v>
+        <v>2.642307399E-2</v>
       </c>
     </row>
     <row r="54" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2949,37 +2855,37 @@
         <v>8</v>
       </c>
       <c r="C54" s="19">
-        <v>56479</v>
+        <v>56460</v>
       </c>
       <c r="D54" s="20">
         <v>42</v>
       </c>
       <c r="E54" s="21">
-        <v>0.49713329297389697</v>
+        <v>0.49708779366973621</v>
       </c>
       <c r="F54" s="21">
-        <v>0.50286670702610303</v>
+        <v>0.50291220633026379</v>
       </c>
       <c r="G54" s="19">
-        <v>41513</v>
+        <v>41547</v>
       </c>
       <c r="H54" s="22">
-        <v>0.15734830053236334</v>
+        <v>0.15738801838881267</v>
       </c>
       <c r="I54" s="19">
-        <v>44859</v>
+        <v>44892</v>
       </c>
       <c r="J54" s="20">
-        <v>4519</v>
+        <v>4516</v>
       </c>
       <c r="K54" s="21">
-        <v>0.10073786754051584</v>
+        <v>0.10059698832754166</v>
       </c>
       <c r="L54" s="20">
-        <v>1112</v>
+        <v>1127</v>
       </c>
       <c r="M54" s="23">
-        <v>1.9688733860000002E-2</v>
+        <v>1.9961034360000001E-2</v>
       </c>
     </row>
     <row r="55" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2990,37 +2896,37 @@
         <v>9</v>
       </c>
       <c r="C55" s="7">
-        <v>58521</v>
+        <v>58502</v>
       </c>
       <c r="D55" s="5">
         <v>40</v>
       </c>
       <c r="E55" s="6">
-        <v>0.50704031634144242</v>
+        <v>0.50705097337827609</v>
       </c>
       <c r="F55" s="6">
-        <v>0.49295968365855758</v>
+        <v>0.49294902662172385</v>
       </c>
       <c r="G55" s="7">
-        <v>43157</v>
+        <v>43205</v>
       </c>
       <c r="H55" s="8">
-        <v>0.15478369673517622</v>
+        <v>0.15470431663001968</v>
       </c>
       <c r="I55" s="7">
-        <v>46156</v>
+        <v>46193</v>
       </c>
       <c r="J55" s="5">
-        <v>4059</v>
+        <v>4076</v>
       </c>
       <c r="K55" s="6">
-        <v>8.794089609151573E-2</v>
+        <v>8.8238477691425107E-2</v>
       </c>
       <c r="L55" s="5">
-        <v>908</v>
+        <v>939</v>
       </c>
       <c r="M55" s="10">
-        <v>1.551579774E-2</v>
+        <v>1.6050733300000002E-2</v>
       </c>
     </row>
     <row r="56" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3031,37 +2937,37 @@
         <v>10</v>
       </c>
       <c r="C56" s="19">
-        <v>71470</v>
+        <v>71452</v>
       </c>
       <c r="D56" s="20">
         <v>39</v>
       </c>
       <c r="E56" s="21">
-        <v>0.50271968885632157</v>
+        <v>0.50269904582035485</v>
       </c>
       <c r="F56" s="21">
-        <v>0.49728031114367849</v>
+        <v>0.49730095417964509</v>
       </c>
       <c r="G56" s="19">
-        <v>51926</v>
+        <v>52136</v>
       </c>
       <c r="H56" s="22">
-        <v>0.15547124754458266</v>
+        <v>0.15597667638483964</v>
       </c>
       <c r="I56" s="19">
-        <v>54983</v>
+        <v>55073</v>
       </c>
       <c r="J56" s="32">
-        <v>4492</v>
+        <v>4516</v>
       </c>
       <c r="K56" s="21">
-        <v>8.1697979375443319E-2</v>
+        <v>8.2000254208051127E-2</v>
       </c>
       <c r="L56" s="32">
-        <v>932</v>
+        <v>970</v>
       </c>
       <c r="M56" s="23">
-        <v>1.304043654E-2</v>
+        <v>1.3575547219999999E-2</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3072,37 +2978,37 @@
         <v>11</v>
       </c>
       <c r="C57" s="7">
-        <v>92815</v>
+        <v>92789</v>
       </c>
       <c r="D57" s="5">
         <v>39</v>
       </c>
       <c r="E57" s="6">
-        <v>0.50400494250008132</v>
+        <v>0.50402246508803883</v>
       </c>
       <c r="F57" s="6">
-        <v>0.49599505749991873</v>
+        <v>0.49597753491196112</v>
       </c>
       <c r="G57" s="7">
-        <v>65879</v>
+        <v>66913</v>
       </c>
       <c r="H57" s="8">
-        <v>0.15268902078052188</v>
+        <v>0.15363232854602243</v>
       </c>
       <c r="I57" s="7">
-        <v>70094</v>
+        <v>70649</v>
       </c>
       <c r="J57" s="5">
-        <v>5135</v>
+        <v>5228</v>
       </c>
       <c r="K57" s="6">
-        <v>7.3258766798870084E-2</v>
+        <v>7.3999631983467568E-2</v>
       </c>
       <c r="L57" s="5">
-        <v>994</v>
+        <v>1092</v>
       </c>
       <c r="M57" s="10">
-        <v>1.0709475830000001E-2</v>
+        <v>1.1768636359999999E-2</v>
       </c>
     </row>
     <row r="58" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3113,37 +3019,37 @@
         <v>12</v>
       </c>
       <c r="C58" s="19">
-        <v>116666</v>
+        <v>116631</v>
       </c>
       <c r="D58" s="20">
         <v>38</v>
       </c>
       <c r="E58" s="21">
-        <v>0.50792883471595174</v>
+        <v>0.50801229472811726</v>
       </c>
       <c r="F58" s="21">
-        <v>0.49207116528404826</v>
+        <v>0.49198770527188274</v>
       </c>
       <c r="G58" s="19">
-        <v>78845</v>
+        <v>80233</v>
       </c>
       <c r="H58" s="22">
-        <v>0.1552793455513983</v>
+        <v>0.15568407014570065</v>
       </c>
       <c r="I58" s="19">
-        <v>86285</v>
+        <v>87289</v>
       </c>
       <c r="J58" s="32">
-        <v>5908</v>
+        <v>6071</v>
       </c>
       <c r="K58" s="21">
-        <v>6.8470765486469257E-2</v>
+        <v>6.9550573382671357E-2</v>
       </c>
       <c r="L58" s="32">
-        <v>1032</v>
+        <v>1213</v>
       </c>
       <c r="M58" s="23">
-        <v>8.84576483E-3</v>
+        <v>1.040032238E-2</v>
       </c>
     </row>
     <row r="59" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3154,37 +3060,37 @@
         <v>13</v>
       </c>
       <c r="C59" s="7">
-        <v>110482</v>
+        <v>110441</v>
       </c>
       <c r="D59" s="5">
         <v>39</v>
       </c>
       <c r="E59" s="6">
-        <v>0.51245259626604434</v>
+        <v>0.51235389580788093</v>
       </c>
       <c r="F59" s="6">
-        <v>0.48754740373395566</v>
+        <v>0.48764610419211901</v>
       </c>
       <c r="G59" s="7">
-        <v>71816</v>
+        <v>73414</v>
       </c>
       <c r="H59" s="8">
-        <v>0.15166536704912553</v>
+        <v>0.15215081592066909</v>
       </c>
       <c r="I59" s="7">
-        <v>79097</v>
+        <v>80286</v>
       </c>
       <c r="J59" s="5">
-        <v>5611</v>
+        <v>5868</v>
       </c>
       <c r="K59" s="6">
-        <v>7.0938215102974822E-2</v>
+        <v>7.3088707869367012E-2</v>
       </c>
       <c r="L59" s="5">
-        <v>857</v>
+        <v>1113</v>
       </c>
       <c r="M59" s="10">
-        <v>7.7569196700000001E-3</v>
+        <v>1.007777908E-2</v>
       </c>
     </row>
     <row r="60" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3195,1072 +3101,1148 @@
         <v>14</v>
       </c>
       <c r="C60" s="19">
-        <v>118417</v>
+        <v>118588</v>
       </c>
       <c r="D60" s="20">
         <v>39</v>
       </c>
       <c r="E60" s="21">
-        <v>0.5078737143002986</v>
+        <v>0.50755633288617952</v>
       </c>
       <c r="F60" s="21">
-        <v>0.4921262856997014</v>
+        <v>0.49244366711382043</v>
       </c>
       <c r="G60" s="19">
-        <v>74603</v>
+        <v>77964</v>
       </c>
       <c r="H60" s="22">
-        <v>0.13738053429486749</v>
+        <v>0.1378071930634652</v>
       </c>
       <c r="I60" s="19">
-        <v>82456</v>
+        <v>85169</v>
       </c>
       <c r="J60" s="32">
-        <v>5424</v>
+        <v>6070</v>
       </c>
       <c r="K60" s="21">
-        <v>6.5780537498787234E-2</v>
+        <v>7.1270063051110152E-2</v>
       </c>
       <c r="L60" s="32">
-        <v>496</v>
+        <v>849</v>
       </c>
       <c r="M60" s="23">
-        <v>4.18858778E-3</v>
+        <v>7.1592403900000001E-3</v>
       </c>
     </row>
     <row r="61" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="18">
+      <c r="A61" s="17">
         <v>2021</v>
       </c>
-      <c r="B61" s="18">
+      <c r="B61" s="17">
         <v>15</v>
       </c>
-      <c r="C61" s="19">
-        <v>140789</v>
-      </c>
-      <c r="D61" s="20">
+      <c r="C61" s="7">
+        <v>142522</v>
+      </c>
+      <c r="D61" s="5">
         <v>38</v>
       </c>
-      <c r="E61" s="21">
-        <v>0.5102487705065154</v>
-      </c>
-      <c r="F61" s="21">
-        <v>0.4897512294934846</v>
-      </c>
-      <c r="G61" s="19">
-        <v>74445</v>
-      </c>
-      <c r="H61" s="22">
-        <v>0.15658539861642823</v>
-      </c>
-      <c r="I61" s="19">
-        <v>89745</v>
-      </c>
-      <c r="J61" s="32">
-        <v>3965</v>
-      </c>
-      <c r="K61" s="21">
-        <v>4.4180734302746674E-2</v>
-      </c>
-      <c r="L61" s="32">
-        <v>180</v>
-      </c>
-      <c r="M61" s="23">
-        <v>1.2785089700000001E-3</v>
+      <c r="E61" s="6">
+        <v>0.51026303678266716</v>
+      </c>
+      <c r="F61" s="6">
+        <v>0.48973696321733279</v>
+      </c>
+      <c r="G61" s="7">
+        <v>87364</v>
+      </c>
+      <c r="H61" s="8">
+        <v>0.15506387070189093</v>
+      </c>
+      <c r="I61" s="7">
+        <v>99114</v>
+      </c>
+      <c r="J61" s="5">
+        <v>5536</v>
+      </c>
+      <c r="K61" s="6">
+        <v>5.5854874185281594E-2</v>
+      </c>
+      <c r="L61" s="5">
+        <v>535</v>
+      </c>
+      <c r="M61" s="10">
+        <v>3.7538064200000002E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="18">
+        <v>2021</v>
+      </c>
+      <c r="B62" s="18">
+        <v>16</v>
+      </c>
+      <c r="C62" s="19">
+        <v>144068</v>
+      </c>
+      <c r="D62" s="20">
+        <v>37</v>
+      </c>
+      <c r="E62" s="21">
+        <v>0.51943199853926425</v>
+      </c>
+      <c r="F62" s="21">
+        <v>0.48056800146073569</v>
+      </c>
+      <c r="G62" s="19">
+        <v>75752</v>
+      </c>
+      <c r="H62" s="22">
+        <v>0.16787675572922167</v>
+      </c>
+      <c r="I62" s="19">
+        <v>92276</v>
+      </c>
+      <c r="J62" s="32">
+        <v>4004</v>
+      </c>
+      <c r="K62" s="21">
+        <v>4.3391564437123414E-2</v>
+      </c>
+      <c r="L62" s="32">
+        <v>161</v>
+      </c>
+      <c r="M62" s="23">
+        <v>1.11752783E-3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29EE44EF-F204-44BC-9DFD-46318AB81991}">
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:I34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" style="33"/>
+    <col min="2" max="2" width="13.85546875" style="33" customWidth="1"/>
+    <col min="3" max="8" width="14.140625" style="33" customWidth="1"/>
+    <col min="9" max="16384" width="11.42578125" style="33"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C1" t="s">
+      <c r="C1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="33" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="33" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="35">
+        <v>2020</v>
+      </c>
+      <c r="B3" s="35">
+        <v>37</v>
+      </c>
+      <c r="C3" s="33">
+        <v>12</v>
+      </c>
+      <c r="D3" s="33">
+        <v>12</v>
+      </c>
+      <c r="E3" s="33">
+        <v>50</v>
+      </c>
+      <c r="F3" s="33">
+        <v>157</v>
+      </c>
+      <c r="G3" s="33">
+        <v>138</v>
+      </c>
+      <c r="H3" s="33">
+        <v>96</v>
+      </c>
+      <c r="I3" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="35">
+        <v>2020</v>
+      </c>
+      <c r="B4" s="35">
+        <v>38</v>
+      </c>
+      <c r="C4" s="33">
+        <v>8</v>
+      </c>
+      <c r="D4" s="33">
+        <v>10</v>
+      </c>
+      <c r="E4" s="33">
+        <v>77</v>
+      </c>
+      <c r="F4" s="33">
+        <v>235</v>
+      </c>
+      <c r="G4" s="33">
+        <v>206</v>
+      </c>
+      <c r="H4" s="33">
+        <v>138</v>
+      </c>
+      <c r="I4" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="C3">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="35">
+        <v>2020</v>
+      </c>
+      <c r="B5" s="35">
+        <v>39</v>
+      </c>
+      <c r="C5" s="33">
+        <v>9</v>
+      </c>
+      <c r="D5" s="33">
+        <v>7</v>
+      </c>
+      <c r="E5" s="33">
+        <v>112</v>
+      </c>
+      <c r="F5" s="33">
+        <v>237</v>
+      </c>
+      <c r="G5" s="33">
+        <v>253</v>
+      </c>
+      <c r="H5" s="33">
+        <v>153</v>
+      </c>
+      <c r="I5" s="34" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="35">
+        <v>2020</v>
+      </c>
+      <c r="B6" s="35">
+        <v>40</v>
+      </c>
+      <c r="C6" s="33">
+        <v>15</v>
+      </c>
+      <c r="D6" s="33">
+        <v>9</v>
+      </c>
+      <c r="E6" s="33">
+        <v>115</v>
+      </c>
+      <c r="F6" s="33">
+        <v>274</v>
+      </c>
+      <c r="G6" s="33">
+        <v>286</v>
+      </c>
+      <c r="H6" s="33">
+        <v>175</v>
+      </c>
+      <c r="I6" s="34" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="35">
+        <v>2020</v>
+      </c>
+      <c r="B7" s="35">
+        <v>41</v>
+      </c>
+      <c r="C7" s="33">
+        <v>21</v>
+      </c>
+      <c r="D7" s="33">
+        <v>17</v>
+      </c>
+      <c r="E7" s="33">
+        <v>207</v>
+      </c>
+      <c r="F7" s="33">
+        <v>488</v>
+      </c>
+      <c r="G7" s="33">
+        <v>502</v>
+      </c>
+      <c r="H7" s="33">
+        <v>351</v>
+      </c>
+      <c r="I7" s="34" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="35">
+        <v>2020</v>
+      </c>
+      <c r="B8" s="35">
+        <v>42</v>
+      </c>
+      <c r="C8" s="33">
+        <v>24</v>
+      </c>
+      <c r="D8" s="33">
+        <v>25</v>
+      </c>
+      <c r="E8" s="33">
+        <v>263</v>
+      </c>
+      <c r="F8" s="33">
+        <v>672</v>
+      </c>
+      <c r="G8" s="33">
+        <v>781</v>
+      </c>
+      <c r="H8" s="33">
+        <v>559</v>
+      </c>
+      <c r="I8" s="34" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="35">
+        <v>2020</v>
+      </c>
+      <c r="B9" s="35">
+        <v>43</v>
+      </c>
+      <c r="C9" s="33">
+        <v>50</v>
+      </c>
+      <c r="D9" s="33">
+        <v>30</v>
+      </c>
+      <c r="E9" s="33">
+        <v>429</v>
+      </c>
+      <c r="F9" s="33">
+        <v>1050</v>
+      </c>
+      <c r="G9" s="33">
+        <v>1412</v>
+      </c>
+      <c r="H9" s="33">
+        <v>1123</v>
+      </c>
+      <c r="I9" s="34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="35">
+        <v>2020</v>
+      </c>
+      <c r="B10" s="35">
+        <v>44</v>
+      </c>
+      <c r="C10" s="33">
+        <v>64</v>
+      </c>
+      <c r="D10" s="33">
+        <v>49</v>
+      </c>
+      <c r="E10" s="33">
+        <v>544</v>
+      </c>
+      <c r="F10" s="33">
+        <v>1492</v>
+      </c>
+      <c r="G10" s="33">
+        <v>2079</v>
+      </c>
+      <c r="H10" s="33">
+        <v>1682</v>
+      </c>
+      <c r="I10" s="34" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="35">
+        <v>2020</v>
+      </c>
+      <c r="B11" s="35">
+        <v>45</v>
+      </c>
+      <c r="C11" s="33">
+        <v>65</v>
+      </c>
+      <c r="D11" s="33">
+        <v>58</v>
+      </c>
+      <c r="E11" s="33">
+        <v>602</v>
+      </c>
+      <c r="F11" s="33">
+        <v>1683</v>
+      </c>
+      <c r="G11" s="33">
+        <v>2380</v>
+      </c>
+      <c r="H11" s="33">
+        <v>2044</v>
+      </c>
+      <c r="I11" s="34" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="35">
+        <v>2020</v>
+      </c>
+      <c r="B12" s="35">
+        <v>46</v>
+      </c>
+      <c r="C12" s="33">
+        <v>64</v>
+      </c>
+      <c r="D12" s="33">
+        <v>68</v>
+      </c>
+      <c r="E12" s="33">
+        <v>569</v>
+      </c>
+      <c r="F12" s="33">
+        <v>1707</v>
+      </c>
+      <c r="G12" s="33">
+        <v>2562</v>
+      </c>
+      <c r="H12" s="33">
+        <v>2494</v>
+      </c>
+      <c r="I12" s="34" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="35">
+        <v>2020</v>
+      </c>
+      <c r="B13" s="35">
+        <v>47</v>
+      </c>
+      <c r="C13" s="33">
+        <v>54</v>
+      </c>
+      <c r="D13" s="33">
+        <v>54</v>
+      </c>
+      <c r="E13" s="33">
+        <v>601</v>
+      </c>
+      <c r="F13" s="33">
+        <v>1658</v>
+      </c>
+      <c r="G13" s="33">
+        <v>2839</v>
+      </c>
+      <c r="H13" s="33">
+        <v>2807</v>
+      </c>
+      <c r="I13" s="34" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="35">
+        <v>2020</v>
+      </c>
+      <c r="B14" s="35">
+        <v>48</v>
+      </c>
+      <c r="C14" s="33">
+        <v>62</v>
+      </c>
+      <c r="D14" s="33">
+        <v>68</v>
+      </c>
+      <c r="E14" s="33">
+        <v>557</v>
+      </c>
+      <c r="F14" s="33">
+        <v>1678</v>
+      </c>
+      <c r="G14" s="33">
+        <v>2843</v>
+      </c>
+      <c r="H14" s="33">
+        <v>3038</v>
+      </c>
+      <c r="I14" s="34" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="35">
+        <v>2020</v>
+      </c>
+      <c r="B15" s="35">
+        <v>49</v>
+      </c>
+      <c r="C15" s="33">
+        <v>58</v>
+      </c>
+      <c r="D15" s="33">
+        <v>58</v>
+      </c>
+      <c r="E15" s="33">
+        <v>591</v>
+      </c>
+      <c r="F15" s="33">
+        <v>1653</v>
+      </c>
+      <c r="G15" s="33">
+        <v>3145</v>
+      </c>
+      <c r="H15" s="33">
+        <v>3576</v>
+      </c>
+      <c r="I15" s="34" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="35">
+        <v>2020</v>
+      </c>
+      <c r="B16" s="35">
+        <v>50</v>
+      </c>
+      <c r="C16" s="33">
+        <v>70</v>
+      </c>
+      <c r="D16" s="33">
+        <v>66</v>
+      </c>
+      <c r="E16" s="33">
+        <v>670</v>
+      </c>
+      <c r="F16" s="33">
+        <v>1946</v>
+      </c>
+      <c r="G16" s="33">
+        <v>3899</v>
+      </c>
+      <c r="H16" s="33">
+        <v>4498</v>
+      </c>
+      <c r="I16" s="34" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="35">
+        <v>2020</v>
+      </c>
+      <c r="B17" s="35">
+        <v>51</v>
+      </c>
+      <c r="C17" s="33">
+        <v>78</v>
+      </c>
+      <c r="D17" s="33">
+        <v>87</v>
+      </c>
+      <c r="E17" s="33">
+        <v>703</v>
+      </c>
+      <c r="F17" s="33">
+        <v>2159</v>
+      </c>
+      <c r="G17" s="33">
+        <v>4325</v>
+      </c>
+      <c r="H17" s="33">
+        <v>5037</v>
+      </c>
+      <c r="I17" s="34" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="35">
+        <v>2020</v>
+      </c>
+      <c r="B18" s="35">
+        <v>52</v>
+      </c>
+      <c r="C18" s="33">
+        <v>54</v>
+      </c>
+      <c r="D18" s="33">
+        <v>49</v>
+      </c>
+      <c r="E18" s="33">
+        <v>595</v>
+      </c>
+      <c r="F18" s="33">
+        <v>1828</v>
+      </c>
+      <c r="G18" s="33">
+        <v>3842</v>
+      </c>
+      <c r="H18" s="33">
+        <v>4534</v>
+      </c>
+      <c r="I18" s="34" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="35">
+        <v>2020</v>
+      </c>
+      <c r="B19" s="35">
+        <v>53</v>
+      </c>
+      <c r="C19" s="33">
+        <v>74</v>
+      </c>
+      <c r="D19" s="33">
+        <v>51</v>
+      </c>
+      <c r="E19" s="33">
+        <v>604</v>
+      </c>
+      <c r="F19" s="33">
+        <v>1869</v>
+      </c>
+      <c r="G19" s="33">
+        <v>3783</v>
+      </c>
+      <c r="H19" s="33">
+        <v>4395</v>
+      </c>
+      <c r="I19" s="34" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="35">
+        <v>2021</v>
+      </c>
+      <c r="B20" s="35">
+        <v>1</v>
+      </c>
+      <c r="C20" s="33">
+        <v>64</v>
+      </c>
+      <c r="D20" s="33">
+        <v>33</v>
+      </c>
+      <c r="E20" s="33">
+        <v>568</v>
+      </c>
+      <c r="F20" s="33">
+        <v>1754</v>
+      </c>
+      <c r="G20" s="33">
+        <v>3851</v>
+      </c>
+      <c r="H20" s="33">
+        <v>4560</v>
+      </c>
+      <c r="I20" s="34" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="35">
+        <v>2021</v>
+      </c>
+      <c r="B21" s="35">
+        <v>2</v>
+      </c>
+      <c r="C21" s="33">
+        <v>58</v>
+      </c>
+      <c r="D21" s="33">
+        <v>47</v>
+      </c>
+      <c r="E21" s="33">
+        <v>508</v>
+      </c>
+      <c r="F21" s="33">
+        <v>1546</v>
+      </c>
+      <c r="G21" s="33">
+        <v>3289</v>
+      </c>
+      <c r="H21" s="33">
+        <v>4111</v>
+      </c>
+      <c r="I21" s="34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="35">
+        <v>2021</v>
+      </c>
+      <c r="B22" s="35">
+        <v>3</v>
+      </c>
+      <c r="C22" s="33">
+        <v>39</v>
+      </c>
+      <c r="D22" s="33">
+        <v>36</v>
+      </c>
+      <c r="E22" s="33">
+        <v>388</v>
+      </c>
+      <c r="F22" s="33">
+        <v>1409</v>
+      </c>
+      <c r="G22" s="33">
+        <v>3049</v>
+      </c>
+      <c r="H22" s="33">
+        <v>3585</v>
+      </c>
+      <c r="I22" s="34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="35">
+        <v>2021</v>
+      </c>
+      <c r="B23" s="35">
+        <v>4</v>
+      </c>
+      <c r="C23" s="33">
+        <v>34</v>
+      </c>
+      <c r="D23" s="33">
+        <v>30</v>
+      </c>
+      <c r="E23" s="33">
+        <v>388</v>
+      </c>
+      <c r="F23" s="33">
+        <v>1179</v>
+      </c>
+      <c r="G23" s="33">
+        <v>2693</v>
+      </c>
+      <c r="H23" s="33">
+        <v>2893</v>
+      </c>
+      <c r="I23" s="34" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="35">
+        <v>2021</v>
+      </c>
+      <c r="B24" s="35">
+        <v>5</v>
+      </c>
+      <c r="C24" s="33">
+        <v>43</v>
+      </c>
+      <c r="D24" s="33">
+        <v>38</v>
+      </c>
+      <c r="E24" s="33">
+        <v>344</v>
+      </c>
+      <c r="F24" s="33">
+        <v>1080</v>
+      </c>
+      <c r="G24" s="33">
+        <v>2248</v>
+      </c>
+      <c r="H24" s="33">
+        <v>2418</v>
+      </c>
+      <c r="I24" s="34" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="35">
+        <v>2021</v>
+      </c>
+      <c r="B25" s="35">
+        <v>6</v>
+      </c>
+      <c r="C25" s="33">
+        <v>38</v>
+      </c>
+      <c r="D25" s="33">
+        <v>23</v>
+      </c>
+      <c r="E25" s="33">
+        <v>284</v>
+      </c>
+      <c r="F25" s="33">
+        <v>934</v>
+      </c>
+      <c r="G25" s="33">
+        <v>1859</v>
+      </c>
+      <c r="H25" s="33">
+        <v>1812</v>
+      </c>
+      <c r="I25" s="34" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="35">
+        <v>2021</v>
+      </c>
+      <c r="B26" s="35">
+        <v>7</v>
+      </c>
+      <c r="C26" s="33">
+        <v>35</v>
+      </c>
+      <c r="D26" s="33">
+        <v>22</v>
+      </c>
+      <c r="E26" s="33">
+        <v>298</v>
+      </c>
+      <c r="F26" s="33">
+        <v>992</v>
+      </c>
+      <c r="G26" s="33">
+        <v>1922</v>
+      </c>
+      <c r="H26" s="33">
+        <v>1612</v>
+      </c>
+      <c r="I26" s="34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="35">
+        <v>2021</v>
+      </c>
+      <c r="B27" s="35">
+        <v>8</v>
+      </c>
+      <c r="C27" s="33">
+        <v>43</v>
+      </c>
+      <c r="D27" s="33">
+        <v>31</v>
+      </c>
+      <c r="E27" s="33">
+        <v>303</v>
+      </c>
+      <c r="F27" s="33">
+        <v>1013</v>
+      </c>
+      <c r="G27" s="33">
+        <v>1700</v>
+      </c>
+      <c r="H27" s="33">
+        <v>1426</v>
+      </c>
+      <c r="I27" s="34" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="35">
+        <v>2021</v>
+      </c>
+      <c r="B28" s="35">
+        <v>9</v>
+      </c>
+      <c r="C28" s="33">
+        <v>49</v>
+      </c>
+      <c r="D28" s="33">
+        <v>28</v>
+      </c>
+      <c r="E28" s="33">
+        <v>314</v>
+      </c>
+      <c r="F28" s="33">
+        <v>967</v>
+      </c>
+      <c r="G28" s="33">
+        <v>1531</v>
+      </c>
+      <c r="H28" s="33">
+        <v>1187</v>
+      </c>
+      <c r="I28" s="34" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="35">
+        <v>2021</v>
+      </c>
+      <c r="B29" s="35">
+        <v>10</v>
+      </c>
+      <c r="C29" s="33">
+        <v>50</v>
+      </c>
+      <c r="D29" s="33">
+        <v>36</v>
+      </c>
+      <c r="E29" s="33">
+        <v>375</v>
+      </c>
+      <c r="F29" s="33">
+        <v>1247</v>
+      </c>
+      <c r="G29" s="33">
+        <v>1604</v>
+      </c>
+      <c r="H29" s="33">
+        <v>1204</v>
+      </c>
+      <c r="I29" s="34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="35">
+        <v>2021</v>
+      </c>
+      <c r="B30" s="35">
+        <v>11</v>
+      </c>
+      <c r="C30" s="33">
+        <v>74</v>
+      </c>
+      <c r="D30" s="33">
+        <v>65</v>
+      </c>
+      <c r="E30" s="33">
+        <v>438</v>
+      </c>
+      <c r="F30" s="33">
+        <v>1460</v>
+      </c>
+      <c r="G30" s="33">
+        <v>1968</v>
+      </c>
+      <c r="H30" s="33">
+        <v>1221</v>
+      </c>
+      <c r="I30" s="34" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="35">
+        <v>2021</v>
+      </c>
+      <c r="B31" s="35">
         <v>12</v>
       </c>
-      <c r="D3">
-        <v>12</v>
-      </c>
-      <c r="E3">
-        <v>50</v>
-      </c>
-      <c r="F3">
-        <v>156</v>
-      </c>
-      <c r="G3">
-        <v>138</v>
-      </c>
-      <c r="H3">
-        <v>96</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="C31" s="33">
+        <v>78</v>
+      </c>
+      <c r="D31" s="33">
+        <v>74</v>
+      </c>
+      <c r="E31" s="33">
+        <v>552</v>
+      </c>
+      <c r="F31" s="33">
+        <v>1728</v>
+      </c>
+      <c r="G31" s="33">
+        <v>2244</v>
+      </c>
+      <c r="H31" s="33">
+        <v>1394</v>
+      </c>
+      <c r="I31" s="34" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="35">
+        <v>2021</v>
+      </c>
+      <c r="B32" s="35">
+        <v>13</v>
+      </c>
+      <c r="C32" s="33">
+        <v>81</v>
+      </c>
+      <c r="D32" s="33">
+        <v>84</v>
+      </c>
+      <c r="E32" s="33">
+        <v>520</v>
+      </c>
+      <c r="F32" s="33">
+        <v>1695</v>
+      </c>
+      <c r="G32" s="33">
+        <v>2228</v>
+      </c>
+      <c r="H32" s="33">
+        <v>1259</v>
+      </c>
+      <c r="I32" s="34" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="35">
+        <v>2021</v>
+      </c>
+      <c r="B33" s="35">
+        <v>14</v>
+      </c>
+      <c r="C33" s="33">
+        <v>87</v>
+      </c>
+      <c r="D33" s="33">
+        <v>58</v>
+      </c>
+      <c r="E33" s="33">
+        <v>629</v>
+      </c>
+      <c r="F33" s="33">
+        <v>1845</v>
+      </c>
+      <c r="G33" s="33">
+        <v>2248</v>
+      </c>
+      <c r="H33" s="33">
+        <v>1201</v>
+      </c>
+      <c r="I33" s="34" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="35">
+        <v>2021</v>
+      </c>
+      <c r="B34" s="35">
+        <v>15</v>
+      </c>
+      <c r="C34" s="33">
+        <v>82</v>
+      </c>
+      <c r="D34" s="33">
+        <v>77</v>
+      </c>
+      <c r="E34" s="33">
+        <v>593</v>
+      </c>
+      <c r="F34" s="33">
+        <v>1585</v>
+      </c>
+      <c r="G34" s="33">
+        <v>2098</v>
+      </c>
+      <c r="H34" s="33">
+        <v>1096</v>
+      </c>
+      <c r="I34" s="34" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="35">
+        <v>2021</v>
+      </c>
+      <c r="B35" s="35">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4">
-        <v>8</v>
-      </c>
-      <c r="D4">
-        <v>10</v>
-      </c>
-      <c r="E4">
-        <v>77</v>
-      </c>
-      <c r="F4">
-        <v>235</v>
-      </c>
-      <c r="G4">
-        <v>206</v>
-      </c>
-      <c r="H4">
-        <v>138</v>
-      </c>
-      <c r="I4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5">
-        <v>9</v>
-      </c>
-      <c r="D5">
-        <v>7</v>
-      </c>
-      <c r="E5">
-        <v>112</v>
-      </c>
-      <c r="F5">
-        <v>237</v>
-      </c>
-      <c r="G5">
-        <v>253</v>
-      </c>
-      <c r="H5">
-        <v>153</v>
-      </c>
-      <c r="I5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6">
-        <v>15</v>
-      </c>
-      <c r="D6">
-        <v>9</v>
-      </c>
-      <c r="E6">
-        <v>115</v>
-      </c>
-      <c r="F6">
-        <v>274</v>
-      </c>
-      <c r="G6">
-        <v>287</v>
-      </c>
-      <c r="H6">
-        <v>175</v>
-      </c>
-      <c r="I6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7">
-        <v>21</v>
-      </c>
-      <c r="D7">
-        <v>17</v>
-      </c>
-      <c r="E7">
-        <v>206</v>
-      </c>
-      <c r="F7">
-        <v>488</v>
-      </c>
-      <c r="G7">
-        <v>502</v>
-      </c>
-      <c r="H7">
-        <v>351</v>
-      </c>
-      <c r="I7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8">
-        <v>24</v>
-      </c>
-      <c r="D8">
-        <v>25</v>
-      </c>
-      <c r="E8">
-        <v>262</v>
-      </c>
-      <c r="F8">
-        <v>672</v>
-      </c>
-      <c r="G8">
-        <v>780</v>
-      </c>
-      <c r="H8">
-        <v>559</v>
-      </c>
-      <c r="I8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9">
-        <v>50</v>
-      </c>
-      <c r="D9">
-        <v>30</v>
-      </c>
-      <c r="E9">
-        <v>428</v>
-      </c>
-      <c r="F9">
-        <v>1051</v>
-      </c>
-      <c r="G9">
-        <v>1412</v>
-      </c>
-      <c r="H9">
-        <v>1123</v>
-      </c>
-      <c r="I9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10">
-        <v>64</v>
-      </c>
-      <c r="D10">
-        <v>49</v>
-      </c>
-      <c r="E10">
-        <v>541</v>
-      </c>
-      <c r="F10">
-        <v>1490</v>
-      </c>
-      <c r="G10">
-        <v>2076</v>
-      </c>
-      <c r="H10">
-        <v>1682</v>
-      </c>
-      <c r="I10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11">
-        <v>65</v>
-      </c>
-      <c r="D11">
-        <v>58</v>
-      </c>
-      <c r="E11">
-        <v>601</v>
-      </c>
-      <c r="F11">
-        <v>1680</v>
-      </c>
-      <c r="G11">
-        <v>2378</v>
-      </c>
-      <c r="H11">
-        <v>2044</v>
-      </c>
-      <c r="I11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12">
-        <v>64</v>
-      </c>
-      <c r="D12">
-        <v>68</v>
-      </c>
-      <c r="E12">
-        <v>569</v>
-      </c>
-      <c r="F12">
-        <v>1707</v>
-      </c>
-      <c r="G12">
-        <v>2559</v>
-      </c>
-      <c r="H12">
-        <v>2492</v>
-      </c>
-      <c r="I12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13">
-        <v>54</v>
-      </c>
-      <c r="D13">
-        <v>54</v>
-      </c>
-      <c r="E13">
-        <v>598</v>
-      </c>
-      <c r="F13">
-        <v>1655</v>
-      </c>
-      <c r="G13">
-        <v>2838</v>
-      </c>
-      <c r="H13">
-        <v>2806</v>
-      </c>
-      <c r="I13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14">
+      <c r="C35" s="33">
+        <v>70</v>
+      </c>
+      <c r="D35" s="33">
         <v>63</v>
       </c>
-      <c r="D14">
-        <v>68</v>
-      </c>
-      <c r="E14">
-        <v>555</v>
-      </c>
-      <c r="F14">
-        <v>1675</v>
-      </c>
-      <c r="G14">
-        <v>2844</v>
-      </c>
-      <c r="H14">
-        <v>3040</v>
-      </c>
-      <c r="I14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15">
-        <v>58</v>
-      </c>
-      <c r="D15">
-        <v>58</v>
-      </c>
-      <c r="E15">
-        <v>591</v>
-      </c>
-      <c r="F15">
-        <v>1651</v>
-      </c>
-      <c r="G15">
-        <v>3144</v>
-      </c>
-      <c r="H15">
-        <v>3574</v>
-      </c>
-      <c r="I15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16">
-        <v>70</v>
-      </c>
-      <c r="D16">
-        <v>66</v>
-      </c>
-      <c r="E16">
-        <v>667</v>
-      </c>
-      <c r="F16">
-        <v>1940</v>
-      </c>
-      <c r="G16">
-        <v>3899</v>
-      </c>
-      <c r="H16">
-        <v>4490</v>
-      </c>
-      <c r="I16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17">
-        <v>78</v>
-      </c>
-      <c r="D17">
-        <v>83</v>
-      </c>
-      <c r="E17">
-        <v>694</v>
-      </c>
-      <c r="F17">
-        <v>2147</v>
-      </c>
-      <c r="G17">
-        <v>4311</v>
-      </c>
-      <c r="H17">
-        <v>5024</v>
-      </c>
-      <c r="I17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18">
-        <v>53</v>
-      </c>
-      <c r="D18">
-        <v>49</v>
-      </c>
-      <c r="E18">
-        <v>593</v>
-      </c>
-      <c r="F18">
-        <v>1827</v>
-      </c>
-      <c r="G18">
-        <v>3838</v>
-      </c>
-      <c r="H18">
-        <v>4526</v>
-      </c>
-      <c r="I18" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19">
-        <v>74</v>
-      </c>
-      <c r="D19">
-        <v>51</v>
-      </c>
-      <c r="E19">
-        <v>602</v>
-      </c>
-      <c r="F19">
-        <v>1863</v>
-      </c>
-      <c r="G19">
-        <v>3780</v>
-      </c>
-      <c r="H19">
-        <v>4391</v>
-      </c>
-      <c r="I19" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>49</v>
-      </c>
-      <c r="B20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20">
-        <v>64</v>
-      </c>
-      <c r="D20">
-        <v>32</v>
-      </c>
-      <c r="E20">
-        <v>563</v>
-      </c>
-      <c r="F20">
-        <v>1748</v>
-      </c>
-      <c r="G20">
-        <v>3847</v>
-      </c>
-      <c r="H20">
-        <v>4555</v>
-      </c>
-      <c r="I20" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>49</v>
-      </c>
-      <c r="B21" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21">
-        <v>58</v>
-      </c>
-      <c r="D21">
-        <v>46</v>
-      </c>
-      <c r="E21">
-        <v>506</v>
-      </c>
-      <c r="F21">
-        <v>1542</v>
-      </c>
-      <c r="G21">
-        <v>3283</v>
-      </c>
-      <c r="H21">
-        <v>4108</v>
-      </c>
-      <c r="I21" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>49</v>
-      </c>
-      <c r="B22" t="s">
-        <v>54</v>
-      </c>
-      <c r="C22">
-        <v>39</v>
-      </c>
-      <c r="D22">
-        <v>36</v>
-      </c>
-      <c r="E22">
-        <v>385</v>
-      </c>
-      <c r="F22">
-        <v>1409</v>
-      </c>
-      <c r="G22">
-        <v>3048</v>
-      </c>
-      <c r="H22">
-        <v>3581</v>
-      </c>
-      <c r="I22" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>49</v>
-      </c>
-      <c r="B23" t="s">
-        <v>56</v>
-      </c>
-      <c r="C23">
-        <v>33</v>
-      </c>
-      <c r="D23">
-        <v>30</v>
-      </c>
-      <c r="E23">
-        <v>388</v>
-      </c>
-      <c r="F23">
-        <v>1174</v>
-      </c>
-      <c r="G23">
-        <v>2678</v>
-      </c>
-      <c r="H23">
-        <v>2876</v>
-      </c>
-      <c r="I23" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>49</v>
-      </c>
-      <c r="B24" t="s">
-        <v>58</v>
-      </c>
-      <c r="C24">
-        <v>42</v>
-      </c>
-      <c r="D24">
-        <v>37</v>
-      </c>
-      <c r="E24">
-        <v>344</v>
-      </c>
-      <c r="F24">
-        <v>1078</v>
-      </c>
-      <c r="G24">
-        <v>2243</v>
-      </c>
-      <c r="H24">
-        <v>2406</v>
-      </c>
-      <c r="I24" t="s">
+      <c r="E35" s="33">
+        <v>437</v>
+      </c>
+      <c r="F35" s="33">
+        <v>1102</v>
+      </c>
+      <c r="G35" s="33">
+        <v>1522</v>
+      </c>
+      <c r="H35" s="33">
+        <v>807</v>
+      </c>
+      <c r="I35" s="34" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>49</v>
-      </c>
-      <c r="B25" t="s">
-        <v>60</v>
-      </c>
-      <c r="C25">
-        <v>38</v>
-      </c>
-      <c r="D25">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>283</v>
-      </c>
-      <c r="F25">
-        <v>933</v>
-      </c>
-      <c r="G25">
-        <v>1857</v>
-      </c>
-      <c r="H25">
-        <v>1808</v>
-      </c>
-      <c r="I25" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>49</v>
-      </c>
-      <c r="B26" t="s">
-        <v>62</v>
-      </c>
-      <c r="C26">
-        <v>35</v>
-      </c>
-      <c r="D26">
-        <v>22</v>
-      </c>
-      <c r="E26">
-        <v>299</v>
-      </c>
-      <c r="F26">
-        <v>989</v>
-      </c>
-      <c r="G26">
-        <v>1914</v>
-      </c>
-      <c r="H26">
-        <v>1608</v>
-      </c>
-      <c r="I26" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>49</v>
-      </c>
-      <c r="B27" t="s">
-        <v>64</v>
-      </c>
-      <c r="C27">
-        <v>43</v>
-      </c>
-      <c r="D27">
-        <v>31</v>
-      </c>
-      <c r="E27">
-        <v>302</v>
-      </c>
-      <c r="F27">
-        <v>1014</v>
-      </c>
-      <c r="G27">
-        <v>1704</v>
-      </c>
-      <c r="H27">
-        <v>1425</v>
-      </c>
-      <c r="I27" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>49</v>
-      </c>
-      <c r="B28" t="s">
-        <v>66</v>
-      </c>
-      <c r="C28">
-        <v>49</v>
-      </c>
-      <c r="D28">
-        <v>28</v>
-      </c>
-      <c r="E28">
-        <v>314</v>
-      </c>
-      <c r="F28">
-        <v>964</v>
-      </c>
-      <c r="G28">
-        <v>1520</v>
-      </c>
-      <c r="H28">
-        <v>1183</v>
-      </c>
-      <c r="I28" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>49</v>
-      </c>
-      <c r="B29" t="s">
-        <v>68</v>
-      </c>
-      <c r="C29">
-        <v>50</v>
-      </c>
-      <c r="D29">
-        <v>37</v>
-      </c>
-      <c r="E29">
-        <v>374</v>
-      </c>
-      <c r="F29">
-        <v>1241</v>
-      </c>
-      <c r="G29">
-        <v>1591</v>
-      </c>
-      <c r="H29">
-        <v>1199</v>
-      </c>
-      <c r="I29" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>49</v>
-      </c>
-      <c r="B30" t="s">
-        <v>70</v>
-      </c>
-      <c r="C30">
-        <v>74</v>
-      </c>
-      <c r="D30">
-        <v>65</v>
-      </c>
-      <c r="E30">
-        <v>430</v>
-      </c>
-      <c r="F30">
-        <v>1429</v>
-      </c>
-      <c r="G30">
-        <v>1927</v>
-      </c>
-      <c r="H30">
-        <v>1208</v>
-      </c>
-      <c r="I30" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>49</v>
-      </c>
-      <c r="B31" t="s">
-        <v>72</v>
-      </c>
-      <c r="C31">
-        <v>74</v>
-      </c>
-      <c r="D31">
-        <v>74</v>
-      </c>
-      <c r="E31">
-        <v>546</v>
-      </c>
-      <c r="F31">
-        <v>1674</v>
-      </c>
-      <c r="G31">
-        <v>2179</v>
-      </c>
-      <c r="H31">
-        <v>1358</v>
-      </c>
-      <c r="I31" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>49</v>
-      </c>
-      <c r="B32" t="s">
-        <v>74</v>
-      </c>
-      <c r="C32">
-        <v>81</v>
-      </c>
-      <c r="D32">
-        <v>84</v>
-      </c>
-      <c r="E32">
-        <v>504</v>
-      </c>
-      <c r="F32">
-        <v>1617</v>
-      </c>
-      <c r="G32">
-        <v>2111</v>
-      </c>
-      <c r="H32">
-        <v>1213</v>
-      </c>
-      <c r="I32" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>49</v>
-      </c>
-      <c r="B33" t="s">
-        <v>76</v>
-      </c>
-      <c r="C33">
-        <v>86</v>
-      </c>
-      <c r="D33">
-        <v>59</v>
-      </c>
-      <c r="E33">
-        <v>587</v>
-      </c>
-      <c r="F33">
-        <v>1607</v>
-      </c>
-      <c r="G33">
-        <v>1987</v>
-      </c>
-      <c r="H33">
-        <v>1095</v>
-      </c>
-      <c r="I33" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>49</v>
-      </c>
-      <c r="B34" t="s">
-        <v>78</v>
-      </c>
-      <c r="C34">
-        <v>69</v>
-      </c>
-      <c r="D34">
-        <v>69</v>
-      </c>
-      <c r="E34">
-        <v>455</v>
-      </c>
-      <c r="F34">
-        <v>1048</v>
-      </c>
-      <c r="G34">
-        <v>1465</v>
-      </c>
-      <c r="H34">
-        <v>852</v>
-      </c>
-      <c r="I34" t="s">
-        <v>79</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/klinische_aspekte.xlsx
+++ b/data/klinische_aspekte.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20373"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{949AEF4E-AF57-43B6-8A97-49DBCC66A3C1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94B99830-1146-4F2B-B351-A2F8CCC330C6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" activeTab="1" xr2:uid="{3677AF26-2CAB-4FDE-A93C-D8C0E4111944}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="97">
   <si>
     <t>Meldejahr</t>
   </si>
@@ -197,10 +197,121 @@
     <t>Anteil Verstorben</t>
   </si>
   <si>
-    <t>Die dem RKI übermittelten COVID-19-Fälle nach Meldewoche und  Geschlecht sowie Anteile mit für COVID-19 relevanten Symptomen, Anteile Hospitalisierter und Verstorbener für die Meldewochen KW 10 – 53/2020 und KW 01 - 16/2021</t>
-  </si>
-  <si>
     <t>2021-KW16</t>
+  </si>
+  <si>
+    <t>Die dem RKI übermittelten COVID-19-Fälle nach Meldewoche und  Geschlecht sowie Anteile mit für COVID-19 relevanten Symptomen, Anteile Hospitalisierter und Verstorbener für die Meldewochen KW 10 – 53/2020 und KW 01 - 17/2021</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>2021-KW17</t>
   </si>
 </sst>
 </file>
@@ -384,10 +495,12 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -702,17 +815,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{872BAA18-906B-41C7-A8B5-537096EA6980}">
-  <dimension ref="A1:M62"/>
+  <dimension ref="A1:M63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="60" x14ac:dyDescent="0.25">
@@ -826,10 +939,10 @@
         <v>5631</v>
       </c>
       <c r="J4" s="13">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="K4" s="14">
-        <v>9.4654590658852775E-2</v>
+        <v>9.4477002308648556E-2</v>
       </c>
       <c r="L4" s="13">
         <v>84</v>
@@ -846,37 +959,37 @@
         <v>12</v>
       </c>
       <c r="C5" s="7">
-        <v>22410</v>
+        <v>22408</v>
       </c>
       <c r="D5" s="5">
         <v>45</v>
       </c>
       <c r="E5" s="6">
-        <v>0.5499151709974105</v>
+        <v>0.54983032684407929</v>
       </c>
       <c r="F5" s="6">
-        <v>0.4500848290025895</v>
+        <v>0.45016967315592071</v>
       </c>
       <c r="G5" s="7">
-        <v>20156</v>
+        <v>20154</v>
       </c>
       <c r="H5" s="8">
-        <v>3.8896606469537603E-2</v>
+        <v>3.890046640865337E-2</v>
       </c>
       <c r="I5" s="7">
-        <v>19377</v>
+        <v>19375</v>
       </c>
       <c r="J5" s="7">
         <v>2230</v>
       </c>
       <c r="K5" s="6">
-        <v>0.1150848944625071</v>
+        <v>0.11509677419354838</v>
       </c>
       <c r="L5" s="5">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="M5" s="10">
-        <v>2.1195894680000001E-2</v>
+        <v>2.1153159580000001E-2</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -905,19 +1018,19 @@
         <v>3.2961328834674279E-2</v>
       </c>
       <c r="I6" s="12">
-        <v>29519</v>
+        <v>29528</v>
       </c>
       <c r="J6" s="12">
-        <v>5144</v>
+        <v>5145</v>
       </c>
       <c r="K6" s="14">
-        <v>0.17426064568582947</v>
+        <v>0.17424139799512328</v>
       </c>
       <c r="L6" s="12">
-        <v>1463</v>
+        <v>1460</v>
       </c>
       <c r="M6" s="16">
-        <v>4.3067412419999999E-2</v>
+        <v>4.2979099200000002E-2</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -928,7 +1041,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="7">
-        <v>36053</v>
+        <v>36052</v>
       </c>
       <c r="D7" s="5">
         <v>51</v>
@@ -940,25 +1053,25 @@
         <v>0.54920194309507286</v>
       </c>
       <c r="G7" s="7">
-        <v>32038</v>
+        <v>32035</v>
       </c>
       <c r="H7" s="8">
-        <v>5.5527810724764343E-2</v>
+        <v>5.553301076947089E-2</v>
       </c>
       <c r="I7" s="7">
-        <v>31615</v>
+        <v>31617</v>
       </c>
       <c r="J7" s="7">
-        <v>6092</v>
+        <v>6091</v>
       </c>
       <c r="K7" s="6">
-        <v>0.19269334176814804</v>
+        <v>0.19264952399025839</v>
       </c>
       <c r="L7" s="7">
-        <v>2261</v>
+        <v>2258</v>
       </c>
       <c r="M7" s="10">
-        <v>6.2713227740000002E-2</v>
+        <v>6.2631754129999995E-2</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -969,37 +1082,37 @@
         <v>15</v>
       </c>
       <c r="C8" s="12">
-        <v>27158</v>
+        <v>27156</v>
       </c>
       <c r="D8" s="13">
         <v>52</v>
       </c>
       <c r="E8" s="14">
-        <v>0.43469124423963135</v>
+        <v>0.43468642849242339</v>
       </c>
       <c r="F8" s="14">
-        <v>0.56530875576036865</v>
+        <v>0.56531357150757655</v>
       </c>
       <c r="G8" s="12">
-        <v>23580</v>
+        <v>23579</v>
       </c>
       <c r="H8" s="15">
-        <v>8.4605597964376597E-2</v>
+        <v>8.4609186140209514E-2</v>
       </c>
       <c r="I8" s="12">
-        <v>24151</v>
+        <v>24149</v>
       </c>
       <c r="J8" s="12">
-        <v>4731</v>
+        <v>4730</v>
       </c>
       <c r="K8" s="14">
-        <v>0.19589250962693056</v>
+        <v>0.19586732369870388</v>
       </c>
       <c r="L8" s="12">
         <v>1876</v>
       </c>
       <c r="M8" s="16">
-        <v>6.9077251630000003E-2</v>
+        <v>6.9082339069999998E-2</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1016,10 +1129,10 @@
         <v>51</v>
       </c>
       <c r="E9" s="6">
-        <v>0.44720891300583038</v>
+        <v>0.44709345956243146</v>
       </c>
       <c r="F9" s="6">
-        <v>0.55279108699416957</v>
+        <v>0.55290654043756859</v>
       </c>
       <c r="G9" s="7">
         <v>14877</v>
@@ -1028,13 +1141,13 @@
         <v>0.11474087517644686</v>
       </c>
       <c r="I9" s="7">
-        <v>15528</v>
+        <v>15529</v>
       </c>
       <c r="J9" s="7">
         <v>3378</v>
       </c>
       <c r="K9" s="6">
-        <v>0.21754250386398763</v>
+        <v>0.21752849507373301</v>
       </c>
       <c r="L9" s="7">
         <v>1217</v>
@@ -1051,37 +1164,37 @@
         <v>17</v>
       </c>
       <c r="C10" s="12">
-        <v>12362</v>
+        <v>12359</v>
       </c>
       <c r="D10" s="13">
         <v>50</v>
       </c>
       <c r="E10" s="14">
-        <v>0.44981773997569868</v>
+        <v>0.44976502997893369</v>
       </c>
       <c r="F10" s="14">
-        <v>0.55018226002430137</v>
+        <v>0.55023497002106625</v>
       </c>
       <c r="G10" s="12">
         <v>10270</v>
       </c>
       <c r="H10" s="15">
-        <v>0.139143135345667</v>
+        <v>0.13924050632911392</v>
       </c>
       <c r="I10" s="12">
-        <v>10984</v>
+        <v>10983</v>
       </c>
       <c r="J10" s="12">
         <v>2240</v>
       </c>
       <c r="K10" s="14">
-        <v>0.20393299344501092</v>
+        <v>0.20395156150414276</v>
       </c>
       <c r="L10" s="13">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="M10" s="16">
-        <v>5.8323895799999997E-2</v>
+        <v>5.8499878630000002E-2</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1092,37 +1205,37 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>7437</v>
+        <v>7438</v>
       </c>
       <c r="D11" s="5">
         <v>48</v>
       </c>
       <c r="E11" s="6">
-        <v>0.47806781485468247</v>
+        <v>0.4778689627337549</v>
       </c>
       <c r="F11" s="6">
-        <v>0.52193218514531758</v>
+        <v>0.5221310372662451</v>
       </c>
       <c r="G11" s="7">
-        <v>6257</v>
+        <v>6258</v>
       </c>
       <c r="H11" s="8">
-        <v>0.1758031005274093</v>
+        <v>0.17561521252796419</v>
       </c>
       <c r="I11" s="7">
-        <v>6609</v>
+        <v>6610</v>
       </c>
       <c r="J11" s="7">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="K11" s="6">
-        <v>0.20638523225904071</v>
+        <v>0.20650529500756429</v>
       </c>
       <c r="L11" s="5">
         <v>386</v>
       </c>
       <c r="M11" s="10">
-        <v>5.1902648910000002E-2</v>
+        <v>5.1895670870000001E-2</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1133,16 +1246,16 @@
         <v>19</v>
       </c>
       <c r="C12" s="12">
-        <v>6238</v>
+        <v>6239</v>
       </c>
       <c r="D12" s="13">
         <v>47</v>
       </c>
       <c r="E12" s="14">
-        <v>0.48026315789473684</v>
+        <v>0.48034654259586074</v>
       </c>
       <c r="F12" s="14">
-        <v>0.51973684210526316</v>
+        <v>0.51965345740413926</v>
       </c>
       <c r="G12" s="12">
         <v>5253</v>
@@ -1163,7 +1276,7 @@
         <v>257</v>
       </c>
       <c r="M12" s="16">
-        <v>4.1199102270000003E-2</v>
+        <v>4.1192498789999997E-2</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1215,37 +1328,37 @@
         <v>21</v>
       </c>
       <c r="C14" s="12">
-        <v>3608</v>
+        <v>3601</v>
       </c>
       <c r="D14" s="13">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E14" s="14">
-        <v>0.50319710870169587</v>
+        <v>0.50306406685236771</v>
       </c>
       <c r="F14" s="14">
-        <v>0.49680289129830413</v>
+        <v>0.49693593314763229</v>
       </c>
       <c r="G14" s="12">
-        <v>2837</v>
+        <v>2836</v>
       </c>
       <c r="H14" s="15">
-        <v>0.26471624955939371</v>
+        <v>0.26480959097320167</v>
       </c>
       <c r="I14" s="12">
-        <v>3120</v>
+        <v>3119</v>
       </c>
       <c r="J14" s="13">
         <v>513</v>
       </c>
       <c r="K14" s="14">
-        <v>0.16442307692307692</v>
+        <v>0.16447579352356526</v>
       </c>
       <c r="L14" s="13">
         <v>113</v>
       </c>
       <c r="M14" s="16">
-        <v>3.1319290460000003E-2</v>
+        <v>3.1380172169999998E-2</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1256,37 +1369,37 @@
         <v>22</v>
       </c>
       <c r="C15" s="7">
-        <v>3205</v>
+        <v>3207</v>
       </c>
       <c r="D15" s="5">
         <v>42</v>
       </c>
       <c r="E15" s="6">
-        <v>0.51581584716567497</v>
+        <v>0.51580594679186231</v>
       </c>
       <c r="F15" s="6">
-        <v>0.48418415283432509</v>
+        <v>0.48419405320813774</v>
       </c>
       <c r="G15" s="7">
-        <v>2548</v>
+        <v>2550</v>
       </c>
       <c r="H15" s="8">
-        <v>0.23233908948194662</v>
+        <v>0.23254901960784313</v>
       </c>
       <c r="I15" s="7">
-        <v>2769</v>
+        <v>2771</v>
       </c>
       <c r="J15" s="5">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="K15" s="6">
-        <v>0.15204044781509571</v>
+        <v>0.15229159148321905</v>
       </c>
       <c r="L15" s="5">
         <v>65</v>
       </c>
       <c r="M15" s="10">
-        <v>2.0280811230000001E-2</v>
+        <v>2.026816339E-2</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1297,16 +1410,16 @@
         <v>23</v>
       </c>
       <c r="C16" s="12">
-        <v>2352</v>
+        <v>2351</v>
       </c>
       <c r="D16" s="13">
         <v>39</v>
       </c>
       <c r="E16" s="14">
-        <v>0.50660417554324666</v>
+        <v>0.50639386189258317</v>
       </c>
       <c r="F16" s="14">
-        <v>0.49339582445675328</v>
+        <v>0.49360613810741688</v>
       </c>
       <c r="G16" s="12">
         <v>1838</v>
@@ -1327,7 +1440,7 @@
         <v>45</v>
       </c>
       <c r="M16" s="16">
-        <v>1.9132653060000001E-2</v>
+        <v>1.9140791149999999E-2</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1344,16 +1457,16 @@
         <v>37</v>
       </c>
       <c r="E17" s="6">
-        <v>0.5358215358215358</v>
+        <v>0.5353925353925354</v>
       </c>
       <c r="F17" s="6">
-        <v>0.4641784641784642</v>
+        <v>0.4646074646074646</v>
       </c>
       <c r="G17" s="7">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="H17" s="8">
-        <v>0.24440619621342513</v>
+        <v>0.24426605504587157</v>
       </c>
       <c r="I17" s="7">
         <v>2088</v>
@@ -1391,10 +1504,10 @@
         <v>0.41209324915007284</v>
       </c>
       <c r="G18" s="12">
-        <v>2937</v>
+        <v>2939</v>
       </c>
       <c r="H18" s="15">
-        <v>0.2512768130745659</v>
+        <v>0.25110581830554612</v>
       </c>
       <c r="I18" s="12">
         <v>3772</v>
@@ -1420,16 +1533,16 @@
         <v>26</v>
       </c>
       <c r="C19" s="7">
-        <v>3212</v>
+        <v>3211</v>
       </c>
       <c r="D19" s="5">
         <v>37</v>
       </c>
       <c r="E19" s="6">
-        <v>0.55143391521197005</v>
+        <v>0.55129404427814155</v>
       </c>
       <c r="F19" s="6">
-        <v>0.44856608478802995</v>
+        <v>0.44870595572185845</v>
       </c>
       <c r="G19" s="7">
         <v>2330</v>
@@ -1438,19 +1551,19 @@
         <v>0.23261802575107296</v>
       </c>
       <c r="I19" s="7">
-        <v>2863</v>
+        <v>2862</v>
       </c>
       <c r="J19" s="5">
         <v>296</v>
       </c>
       <c r="K19" s="6">
-        <v>0.10338805448829899</v>
+        <v>0.103424178895877</v>
       </c>
       <c r="L19" s="5">
         <v>23</v>
       </c>
       <c r="M19" s="10">
-        <v>7.1606475700000003E-3</v>
+        <v>7.1628776E-3</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1476,7 +1589,7 @@
         <v>2066</v>
       </c>
       <c r="H20" s="15">
-        <v>0.26718296224588578</v>
+        <v>0.26669893514036785</v>
       </c>
       <c r="I20" s="12">
         <v>2463</v>
@@ -1520,13 +1633,13 @@
         <v>0.23940020682523269</v>
       </c>
       <c r="I21" s="7">
-        <v>2192</v>
+        <v>2193</v>
       </c>
       <c r="J21" s="5">
         <v>256</v>
       </c>
       <c r="K21" s="6">
-        <v>0.11678832116788321</v>
+        <v>0.11673506611947104</v>
       </c>
       <c r="L21" s="5">
         <v>25</v>
@@ -1543,37 +1656,37 @@
         <v>29</v>
       </c>
       <c r="C22" s="12">
-        <v>3015</v>
+        <v>3016</v>
       </c>
       <c r="D22" s="13">
         <v>36</v>
       </c>
       <c r="E22" s="14">
-        <v>0.52460106382978722</v>
+        <v>0.52475905616483887</v>
       </c>
       <c r="F22" s="14">
-        <v>0.47539893617021278</v>
+        <v>0.47524094383516119</v>
       </c>
       <c r="G22" s="12">
-        <v>2360</v>
+        <v>2361</v>
       </c>
       <c r="H22" s="15">
-        <v>0.22966101694915253</v>
+        <v>0.22956374417619652</v>
       </c>
       <c r="I22" s="12">
-        <v>2646</v>
+        <v>2647</v>
       </c>
       <c r="J22" s="13">
         <v>317</v>
       </c>
       <c r="K22" s="14">
-        <v>0.11980347694633409</v>
+        <v>0.11975821684926331</v>
       </c>
       <c r="L22" s="13">
         <v>30</v>
       </c>
       <c r="M22" s="16">
-        <v>9.9502487499999997E-3</v>
+        <v>9.9469495999999994E-3</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1637,10 +1750,10 @@
         <v>0.49792272538429583</v>
       </c>
       <c r="G24" s="12">
-        <v>3715</v>
+        <v>3716</v>
       </c>
       <c r="H24" s="15">
-        <v>0.24576043068640646</v>
+        <v>0.24569429494079656</v>
       </c>
       <c r="I24" s="12">
         <v>4175</v>
@@ -1666,37 +1779,37 @@
         <v>32</v>
       </c>
       <c r="C25" s="7">
-        <v>6057</v>
+        <v>6054</v>
       </c>
       <c r="D25" s="5">
         <v>34</v>
       </c>
       <c r="E25" s="6">
-        <v>0.53679510501074912</v>
+        <v>0.53689609530112503</v>
       </c>
       <c r="F25" s="6">
-        <v>0.46320489498925088</v>
+        <v>0.46310390469887491</v>
       </c>
       <c r="G25" s="7">
-        <v>4556</v>
+        <v>4553</v>
       </c>
       <c r="H25" s="8">
-        <v>0.30026338893766463</v>
+        <v>0.30046123435097738</v>
       </c>
       <c r="I25" s="7">
-        <v>5287</v>
+        <v>5286</v>
       </c>
       <c r="J25" s="5">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="K25" s="6">
-        <v>7.5468129373936071E-2</v>
+        <v>7.5293227393113879E-2</v>
       </c>
       <c r="L25" s="5">
         <v>31</v>
       </c>
       <c r="M25" s="10">
-        <v>5.1180452299999998E-3</v>
+        <v>5.1205814299999999E-3</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1713,25 +1826,25 @@
         <v>32</v>
       </c>
       <c r="E26" s="14">
-        <v>0.53409807134753562</v>
+        <v>0.53422412706416234</v>
       </c>
       <c r="F26" s="14">
-        <v>0.46590192865246438</v>
+        <v>0.46577587293583766</v>
       </c>
       <c r="G26" s="12">
-        <v>5855</v>
+        <v>5856</v>
       </c>
       <c r="H26" s="15">
-        <v>0.33253629376601196</v>
+        <v>0.33247950819672129</v>
       </c>
       <c r="I26" s="12">
         <v>7009</v>
       </c>
       <c r="J26" s="13">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="K26" s="14">
-        <v>6.2633756598658871E-2</v>
+        <v>6.2491082893422742E-2</v>
       </c>
       <c r="L26" s="13">
         <v>30</v>
@@ -1748,37 +1861,37 @@
         <v>34</v>
       </c>
       <c r="C27" s="7">
-        <v>9590</v>
+        <v>9591</v>
       </c>
       <c r="D27" s="5">
         <v>32</v>
       </c>
       <c r="E27" s="6">
-        <v>0.54735186156266391</v>
+        <v>0.5473993288590604</v>
       </c>
       <c r="F27" s="6">
-        <v>0.45264813843733614</v>
+        <v>0.4526006711409396</v>
       </c>
       <c r="G27" s="7">
-        <v>7211</v>
+        <v>7213</v>
       </c>
       <c r="H27" s="8">
-        <v>0.34530578283178476</v>
+        <v>0.34521003743241369</v>
       </c>
       <c r="I27" s="7">
-        <v>8309</v>
+        <v>8310</v>
       </c>
       <c r="J27" s="5">
         <v>434</v>
       </c>
       <c r="K27" s="6">
-        <v>5.2232518955349617E-2</v>
+        <v>5.2226233453670279E-2</v>
       </c>
       <c r="L27" s="5">
         <v>30</v>
       </c>
       <c r="M27" s="10">
-        <v>3.1282585999999999E-3</v>
+        <v>3.12793243E-3</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1789,16 +1902,16 @@
         <v>35</v>
       </c>
       <c r="C28" s="12">
-        <v>8821</v>
+        <v>8820</v>
       </c>
       <c r="D28" s="13">
         <v>32</v>
       </c>
       <c r="E28" s="14">
-        <v>0.53119653245123755</v>
+        <v>0.53102897558749718</v>
       </c>
       <c r="F28" s="14">
-        <v>0.4688034675487624</v>
+        <v>0.46897102441250288</v>
       </c>
       <c r="G28" s="12">
         <v>6878</v>
@@ -1807,19 +1920,19 @@
         <v>0.30750218086653097</v>
       </c>
       <c r="I28" s="12">
-        <v>7428</v>
+        <v>7431</v>
       </c>
       <c r="J28" s="13">
         <v>366</v>
       </c>
       <c r="K28" s="14">
-        <v>4.9273021001615507E-2</v>
+        <v>4.9253128784820348E-2</v>
       </c>
       <c r="L28" s="13">
         <v>18</v>
       </c>
       <c r="M28" s="16">
-        <v>2.0405849599999999E-3</v>
+        <v>2.04081632E-3</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1836,25 +1949,25 @@
         <v>33</v>
       </c>
       <c r="E29" s="6">
-        <v>0.53675612602100353</v>
+        <v>0.53663943990665108</v>
       </c>
       <c r="F29" s="6">
-        <v>0.46324387397899652</v>
+        <v>0.46336056009334892</v>
       </c>
       <c r="G29" s="7">
         <v>6656</v>
       </c>
       <c r="H29" s="8">
-        <v>0.27223557692307693</v>
+        <v>0.27208533653846156</v>
       </c>
       <c r="I29" s="7">
-        <v>7081</v>
+        <v>7083</v>
       </c>
       <c r="J29" s="5">
         <v>397</v>
       </c>
       <c r="K29" s="6">
-        <v>5.6065527467871766E-2</v>
+        <v>5.6049696456303824E-2</v>
       </c>
       <c r="L29" s="5">
         <v>36</v>
@@ -1871,37 +1984,37 @@
         <v>37</v>
       </c>
       <c r="C30" s="12">
-        <v>9770</v>
+        <v>9768</v>
       </c>
       <c r="D30" s="13">
         <v>35</v>
       </c>
       <c r="E30" s="14">
-        <v>0.51779835390946505</v>
+        <v>0.51769911504424782</v>
       </c>
       <c r="F30" s="14">
-        <v>0.48220164609053495</v>
+        <v>0.48230088495575218</v>
       </c>
       <c r="G30" s="12">
-        <v>7613</v>
+        <v>7612</v>
       </c>
       <c r="H30" s="15">
-        <v>0.20517535794036518</v>
+        <v>0.20520231213872833</v>
       </c>
       <c r="I30" s="12">
-        <v>8038</v>
+        <v>8039</v>
       </c>
       <c r="J30" s="13">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="K30" s="14">
-        <v>5.7974620552376212E-2</v>
+        <v>5.8091802462992913E-2</v>
       </c>
       <c r="L30" s="13">
         <v>66</v>
       </c>
       <c r="M30" s="16">
-        <v>6.7553735899999997E-3</v>
+        <v>6.7567567499999997E-3</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1912,37 +2025,37 @@
         <v>38</v>
       </c>
       <c r="C31" s="7">
-        <v>12296</v>
+        <v>12294</v>
       </c>
       <c r="D31" s="5">
         <v>36</v>
       </c>
       <c r="E31" s="6">
-        <v>0.51205754925202318</v>
+        <v>0.51230479928051675</v>
       </c>
       <c r="F31" s="6">
-        <v>0.48794245074797676</v>
+        <v>0.4876952007194833</v>
       </c>
       <c r="G31" s="7">
-        <v>9770</v>
+        <v>9768</v>
       </c>
       <c r="H31" s="8">
-        <v>0.18669396110542477</v>
+        <v>0.18673218673218672</v>
       </c>
       <c r="I31" s="7">
-        <v>10068</v>
+        <v>10067</v>
       </c>
       <c r="J31" s="5">
         <v>674</v>
       </c>
       <c r="K31" s="6">
-        <v>6.6944775526420336E-2</v>
+        <v>6.6951425449488428E-2</v>
       </c>
       <c r="L31" s="5">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M31" s="10">
-        <v>6.4248536099999996E-3</v>
+        <v>6.5072393000000003E-3</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1953,16 +2066,16 @@
         <v>39</v>
       </c>
       <c r="C32" s="12">
-        <v>13063</v>
+        <v>13064</v>
       </c>
       <c r="D32" s="13">
         <v>37</v>
       </c>
       <c r="E32" s="14">
-        <v>0.51634741133933382</v>
+        <v>0.51630769230769236</v>
       </c>
       <c r="F32" s="14">
-        <v>0.48365258866066618</v>
+        <v>0.4836923076923077</v>
       </c>
       <c r="G32" s="12">
         <v>10369</v>
@@ -1971,19 +2084,19 @@
         <v>0.18188832095669785</v>
       </c>
       <c r="I32" s="12">
-        <v>10856</v>
+        <v>10858</v>
       </c>
       <c r="J32" s="13">
         <v>771</v>
       </c>
       <c r="K32" s="14">
-        <v>7.1020633750921144E-2</v>
+        <v>7.1007552035365629E-2</v>
       </c>
       <c r="L32" s="13">
         <v>107</v>
       </c>
       <c r="M32" s="16">
-        <v>8.1910740199999995E-3</v>
+        <v>8.1904470300000008E-3</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2000,25 +2113,25 @@
         <v>38</v>
       </c>
       <c r="E33" s="6">
-        <v>0.51923924680395495</v>
+        <v>0.51917627054600413</v>
       </c>
       <c r="F33" s="6">
-        <v>0.48076075319604511</v>
+        <v>0.48082372945399582</v>
       </c>
       <c r="G33" s="7">
-        <v>12616</v>
+        <v>12618</v>
       </c>
       <c r="H33" s="8">
-        <v>0.17541217501585288</v>
+        <v>0.17530511967031226</v>
       </c>
       <c r="I33" s="7">
-        <v>13481</v>
+        <v>13486</v>
       </c>
       <c r="J33" s="5">
         <v>874</v>
       </c>
       <c r="K33" s="6">
-        <v>6.4831985757733107E-2</v>
+        <v>6.4807948984131697E-2</v>
       </c>
       <c r="L33" s="5">
         <v>121</v>
@@ -2035,37 +2148,37 @@
         <v>41</v>
       </c>
       <c r="C34" s="19">
-        <v>26127</v>
+        <v>26126</v>
       </c>
       <c r="D34" s="20">
         <v>39</v>
       </c>
       <c r="E34" s="21">
-        <v>0.51029502151198525</v>
+        <v>0.510179778733866</v>
       </c>
       <c r="F34" s="21">
-        <v>0.48970497848801475</v>
+        <v>0.489820221266134</v>
       </c>
       <c r="G34" s="19">
-        <v>20102</v>
+        <v>20117</v>
       </c>
       <c r="H34" s="22">
-        <v>0.16625211421749081</v>
+        <v>0.16632698712531691</v>
       </c>
       <c r="I34" s="19">
-        <v>21549</v>
+        <v>21559</v>
       </c>
       <c r="J34" s="20">
         <v>1587</v>
       </c>
       <c r="K34" s="21">
-        <v>7.3646108868160934E-2</v>
+        <v>7.3611948606150557E-2</v>
       </c>
       <c r="L34" s="20">
         <v>239</v>
       </c>
       <c r="M34" s="23">
-        <v>9.1476250599999993E-3</v>
+        <v>9.1479751899999993E-3</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2082,31 +2195,31 @@
         <v>39</v>
       </c>
       <c r="E35" s="6">
-        <v>0.50857456768892706</v>
+        <v>0.50850291391993885</v>
       </c>
       <c r="F35" s="6">
-        <v>0.49142543231107289</v>
+        <v>0.49149708608006115</v>
       </c>
       <c r="G35" s="7">
-        <v>30890</v>
+        <v>30902</v>
       </c>
       <c r="H35" s="8">
-        <v>0.15995467788928455</v>
+        <v>0.15995728431816711</v>
       </c>
       <c r="I35" s="7">
-        <v>33713</v>
+        <v>33724</v>
       </c>
       <c r="J35" s="5">
-        <v>2327</v>
+        <v>2329</v>
       </c>
       <c r="K35" s="6">
-        <v>6.9023818704950612E-2</v>
+        <v>6.9060609654845215E-2</v>
       </c>
       <c r="L35" s="5">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="M35" s="10">
-        <v>1.0930000469999999E-2</v>
+        <v>1.0906239599999999E-2</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2117,37 +2230,37 @@
         <v>43</v>
       </c>
       <c r="C36" s="12">
-        <v>74817</v>
+        <v>74811</v>
       </c>
       <c r="D36" s="13">
         <v>40</v>
       </c>
       <c r="E36" s="14">
-        <v>0.50149750862914166</v>
+        <v>0.5014774619889325</v>
       </c>
       <c r="F36" s="14">
-        <v>0.49850249137085834</v>
+        <v>0.49852253801106755</v>
       </c>
       <c r="G36" s="12">
-        <v>52413</v>
+        <v>52419</v>
       </c>
       <c r="H36" s="15">
-        <v>0.15486615915898727</v>
+        <v>0.15471489345466338</v>
       </c>
       <c r="I36" s="12">
-        <v>58145</v>
+        <v>58160</v>
       </c>
       <c r="J36" s="13">
-        <v>4101</v>
+        <v>4102</v>
       </c>
       <c r="K36" s="14">
-        <v>7.0530570126408121E-2</v>
+        <v>7.0529573590096289E-2</v>
       </c>
       <c r="L36" s="13">
         <v>991</v>
       </c>
       <c r="M36" s="16">
-        <v>1.3245652720000001E-2</v>
+        <v>1.324671505E-2</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2158,37 +2271,37 @@
         <v>44</v>
       </c>
       <c r="C37" s="7">
-        <v>111077</v>
+        <v>111078</v>
       </c>
       <c r="D37" s="5">
         <v>41</v>
       </c>
       <c r="E37" s="6">
-        <v>0.49726078255593892</v>
+        <v>0.49723821942120322</v>
       </c>
       <c r="F37" s="6">
-        <v>0.50273921744406114</v>
+        <v>0.50276178057879672</v>
       </c>
       <c r="G37" s="7">
-        <v>75643</v>
+        <v>75661</v>
       </c>
       <c r="H37" s="8">
-        <v>0.15774096743915497</v>
+        <v>0.15769022349691386</v>
       </c>
       <c r="I37" s="7">
-        <v>83954</v>
+        <v>84005</v>
       </c>
       <c r="J37" s="5">
-        <v>5915</v>
+        <v>5920</v>
       </c>
       <c r="K37" s="6">
-        <v>7.0455249303189846E-2</v>
+        <v>7.0471995714540797E-2</v>
       </c>
       <c r="L37" s="5">
         <v>1592</v>
       </c>
       <c r="M37" s="10">
-        <v>1.433240004E-2</v>
+        <v>1.433227101E-2</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2199,37 +2312,37 @@
         <v>45</v>
       </c>
       <c r="C38" s="19">
-        <v>125799</v>
+        <v>125794</v>
       </c>
       <c r="D38" s="20">
         <v>41</v>
       </c>
       <c r="E38" s="21">
-        <v>0.49125266345183355</v>
+        <v>0.49126840444109776</v>
       </c>
       <c r="F38" s="21">
-        <v>0.5087473365481664</v>
+        <v>0.50873159555890224</v>
       </c>
       <c r="G38" s="19">
-        <v>85229</v>
+        <v>85257</v>
       </c>
       <c r="H38" s="22">
-        <v>0.15217824918748313</v>
+        <v>0.15221037568762683</v>
       </c>
       <c r="I38" s="19">
-        <v>92757</v>
+        <v>92804</v>
       </c>
       <c r="J38" s="20">
-        <v>6834</v>
+        <v>6835</v>
       </c>
       <c r="K38" s="21">
-        <v>7.3676380219282647E-2</v>
+        <v>7.364984267919486E-2</v>
       </c>
       <c r="L38" s="20">
-        <v>1856</v>
+        <v>1858</v>
       </c>
       <c r="M38" s="23">
-        <v>1.475369438E-2</v>
+        <v>1.4770179810000001E-2</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2240,37 +2353,37 @@
         <v>46</v>
       </c>
       <c r="C39" s="7">
-        <v>127846</v>
+        <v>127839</v>
       </c>
       <c r="D39" s="5">
         <v>42</v>
       </c>
       <c r="E39" s="6">
-        <v>0.48458181071972595</v>
+        <v>0.48455740163384509</v>
       </c>
       <c r="F39" s="6">
-        <v>0.51541818928027405</v>
+        <v>0.51544259836615491</v>
       </c>
       <c r="G39" s="7">
-        <v>85802</v>
+        <v>85820</v>
       </c>
       <c r="H39" s="8">
-        <v>0.14842311368033378</v>
+        <v>0.14838033092519226</v>
       </c>
       <c r="I39" s="7">
-        <v>94482</v>
+        <v>94573</v>
       </c>
       <c r="J39" s="5">
-        <v>7475</v>
+        <v>7479</v>
       </c>
       <c r="K39" s="6">
-        <v>7.911559873838403E-2</v>
+        <v>7.9081767523500365E-2</v>
       </c>
       <c r="L39" s="5">
-        <v>2468</v>
+        <v>2469</v>
       </c>
       <c r="M39" s="10">
-        <v>1.930447569E-2</v>
+        <v>1.931335507E-2</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2281,37 +2394,37 @@
         <v>47</v>
       </c>
       <c r="C40" s="19">
-        <v>128456</v>
+        <v>128445</v>
       </c>
       <c r="D40" s="20">
         <v>43</v>
       </c>
       <c r="E40" s="21">
-        <v>0.47442268800852838</v>
+        <v>0.47441736499251375</v>
       </c>
       <c r="F40" s="21">
-        <v>0.52557731199147162</v>
+        <v>0.52558263500748625</v>
       </c>
       <c r="G40" s="19">
-        <v>86420</v>
+        <v>86453</v>
       </c>
       <c r="H40" s="22">
-        <v>0.14810229113631104</v>
+        <v>0.14810359386024777</v>
       </c>
       <c r="I40" s="19">
-        <v>93995</v>
+        <v>94072</v>
       </c>
       <c r="J40" s="20">
-        <v>8019</v>
+        <v>8024</v>
       </c>
       <c r="K40" s="21">
-        <v>8.5313048566413113E-2</v>
+        <v>8.5296368738838335E-2</v>
       </c>
       <c r="L40" s="20">
-        <v>3149</v>
+        <v>3150</v>
       </c>
       <c r="M40" s="23">
-        <v>2.4514230549999998E-2</v>
+        <v>2.4524115379999999E-2</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2322,37 +2435,37 @@
         <v>48</v>
       </c>
       <c r="C41" s="7">
-        <v>123290</v>
+        <v>123288</v>
       </c>
       <c r="D41" s="5">
         <v>44</v>
       </c>
       <c r="E41" s="6">
-        <v>0.46549936737276032</v>
+        <v>0.4654667156442594</v>
       </c>
       <c r="F41" s="6">
-        <v>0.53450063262723968</v>
+        <v>0.53453328435574055</v>
       </c>
       <c r="G41" s="7">
-        <v>82441</v>
+        <v>82508</v>
       </c>
       <c r="H41" s="8">
-        <v>0.15459540762484686</v>
+        <v>0.15460318999369757</v>
       </c>
       <c r="I41" s="7">
-        <v>89846</v>
+        <v>89976</v>
       </c>
       <c r="J41" s="5">
-        <v>8251</v>
+        <v>8258</v>
       </c>
       <c r="K41" s="6">
-        <v>9.1834917525543708E-2</v>
+        <v>9.1780030230283638E-2</v>
       </c>
       <c r="L41" s="5">
-        <v>3505</v>
+        <v>3510</v>
       </c>
       <c r="M41" s="10">
-        <v>2.8428907449999999E-2</v>
+        <v>2.846992408E-2</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2363,37 +2476,37 @@
         <v>49</v>
       </c>
       <c r="C42" s="19">
-        <v>128506</v>
+        <v>128489</v>
       </c>
       <c r="D42" s="20">
         <v>45</v>
       </c>
       <c r="E42" s="21">
-        <v>0.45916687570550607</v>
+        <v>0.45914247410880182</v>
       </c>
       <c r="F42" s="21">
-        <v>0.54083312429449393</v>
+        <v>0.54085752589119818</v>
       </c>
       <c r="G42" s="19">
-        <v>87469</v>
+        <v>87636</v>
       </c>
       <c r="H42" s="22">
-        <v>0.14207319164503995</v>
+        <v>0.14193938564060432</v>
       </c>
       <c r="I42" s="19">
-        <v>94164</v>
+        <v>94308</v>
       </c>
       <c r="J42" s="20">
-        <v>9088</v>
+        <v>9090</v>
       </c>
       <c r="K42" s="21">
-        <v>9.6512467609702224E-2</v>
+        <v>9.638630869067312E-2</v>
       </c>
       <c r="L42" s="20">
-        <v>4370</v>
+        <v>4372</v>
       </c>
       <c r="M42" s="23">
-        <v>3.4006194259999997E-2</v>
+        <v>3.402625905E-2</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2404,37 +2517,37 @@
         <v>50</v>
       </c>
       <c r="C43" s="7">
-        <v>156512</v>
+        <v>156489</v>
       </c>
       <c r="D43" s="5">
         <v>46</v>
       </c>
       <c r="E43" s="6">
-        <v>0.45384491686231626</v>
+        <v>0.45385125094085937</v>
       </c>
       <c r="F43" s="6">
-        <v>0.54615508313768368</v>
+        <v>0.54614874905914068</v>
       </c>
       <c r="G43" s="7">
-        <v>107365</v>
+        <v>107606</v>
       </c>
       <c r="H43" s="8">
-        <v>0.14663065244725934</v>
+        <v>0.14682266788097317</v>
       </c>
       <c r="I43" s="7">
-        <v>114700</v>
+        <v>114817</v>
       </c>
       <c r="J43" s="5">
-        <v>11157</v>
+        <v>11162</v>
       </c>
       <c r="K43" s="6">
-        <v>9.7271142109851785E-2</v>
+        <v>9.7215569123039275E-2</v>
       </c>
       <c r="L43" s="5">
-        <v>5598</v>
+        <v>5604</v>
       </c>
       <c r="M43" s="10">
-        <v>3.576722551E-2</v>
+        <v>3.5810823759999999E-2</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2445,37 +2558,37 @@
         <v>51</v>
       </c>
       <c r="C44" s="19">
-        <v>174930</v>
+        <v>174879</v>
       </c>
       <c r="D44" s="20">
         <v>46</v>
       </c>
       <c r="E44" s="21">
-        <v>0.45178930160539238</v>
+        <v>0.45180067363330167</v>
       </c>
       <c r="F44" s="21">
-        <v>0.54821069839460768</v>
+        <v>0.54819932636669833</v>
       </c>
       <c r="G44" s="19">
-        <v>118103</v>
+        <v>118376</v>
       </c>
       <c r="H44" s="22">
-        <v>0.1444586504999873</v>
+        <v>0.14488578765966073</v>
       </c>
       <c r="I44" s="19">
-        <v>126478</v>
+        <v>126789</v>
       </c>
       <c r="J44" s="20">
-        <v>12395</v>
+        <v>12425</v>
       </c>
       <c r="K44" s="21">
-        <v>9.8001233416088171E-2</v>
+        <v>9.799746034750649E-2</v>
       </c>
       <c r="L44" s="20">
-        <v>6265</v>
+        <v>6278</v>
       </c>
       <c r="M44" s="23">
-        <v>3.5814325729999999E-2</v>
+        <v>3.5899107380000003E-2</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2486,37 +2599,37 @@
         <v>52</v>
       </c>
       <c r="C45" s="7">
-        <v>139212</v>
+        <v>139154</v>
       </c>
       <c r="D45" s="5">
         <v>48</v>
       </c>
       <c r="E45" s="6">
-        <v>0.44487921307681183</v>
+        <v>0.44490430881661303</v>
       </c>
       <c r="F45" s="6">
-        <v>0.55512078692318823</v>
+        <v>0.55509569118338697</v>
       </c>
       <c r="G45" s="7">
-        <v>91379</v>
+        <v>91500</v>
       </c>
       <c r="H45" s="8">
-        <v>0.15780430952407007</v>
+        <v>0.1578360655737705</v>
       </c>
       <c r="I45" s="7">
-        <v>99948</v>
+        <v>100129</v>
       </c>
       <c r="J45" s="5">
-        <v>10916</v>
+        <v>10918</v>
       </c>
       <c r="K45" s="6">
-        <v>0.10921679273222075</v>
+        <v>0.10903933925236445</v>
       </c>
       <c r="L45" s="5">
-        <v>5559</v>
+        <v>5567</v>
       </c>
       <c r="M45" s="10">
-        <v>3.9931902419999998E-2</v>
+        <v>4.0006036469999999E-2</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2527,37 +2640,37 @@
         <v>53</v>
       </c>
       <c r="C46" s="19">
-        <v>123193</v>
+        <v>123151</v>
       </c>
       <c r="D46" s="20">
         <v>49</v>
       </c>
       <c r="E46" s="21">
-        <v>0.44119814008317232</v>
+        <v>0.44123981492855097</v>
       </c>
       <c r="F46" s="21">
-        <v>0.55880185991682763</v>
+        <v>0.55876018507144909</v>
       </c>
       <c r="G46" s="19">
-        <v>84273</v>
+        <v>84388</v>
       </c>
       <c r="H46" s="22">
-        <v>0.13417108682496173</v>
+        <v>0.13408304498269896</v>
       </c>
       <c r="I46" s="19">
-        <v>90311</v>
+        <v>90417</v>
       </c>
       <c r="J46" s="20">
-        <v>10790</v>
+        <v>10796</v>
       </c>
       <c r="K46" s="21">
-        <v>0.11947603281992226</v>
+        <v>0.1194023247840561</v>
       </c>
       <c r="L46" s="20">
-        <v>5541</v>
+        <v>5549</v>
       </c>
       <c r="M46" s="23">
-        <v>4.4978204930000001E-2</v>
+        <v>4.5058505409999998E-2</v>
       </c>
     </row>
     <row r="47" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2568,37 +2681,37 @@
         <v>1</v>
       </c>
       <c r="C47" s="27">
-        <v>145482</v>
+        <v>145533</v>
       </c>
       <c r="D47" s="28">
         <v>48</v>
       </c>
       <c r="E47" s="29">
-        <v>0.45082876759830781</v>
+        <v>0.45075187709288056</v>
       </c>
       <c r="F47" s="29">
-        <v>0.54917123240169219</v>
+        <v>0.54924812290711944</v>
       </c>
       <c r="G47" s="27">
-        <v>101571</v>
+        <v>101868</v>
       </c>
       <c r="H47" s="30">
-        <v>0.13187819357887587</v>
+        <v>0.13163113048258532</v>
       </c>
       <c r="I47" s="27">
-        <v>106772</v>
+        <v>107114</v>
       </c>
       <c r="J47" s="28">
-        <v>10832</v>
+        <v>10870</v>
       </c>
       <c r="K47" s="29">
-        <v>0.10144981830442439</v>
+        <v>0.10148066545923035</v>
       </c>
       <c r="L47" s="28">
-        <v>5534</v>
+        <v>5540</v>
       </c>
       <c r="M47" s="31">
-        <v>3.8039070119999997E-2</v>
+        <v>3.8066967620000003E-2</v>
       </c>
     </row>
     <row r="48" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2609,37 +2722,37 @@
         <v>2</v>
       </c>
       <c r="C48" s="19">
-        <v>119004</v>
+        <v>119049</v>
       </c>
       <c r="D48" s="20">
         <v>48</v>
       </c>
       <c r="E48" s="21">
-        <v>0.45425150005516468</v>
+        <v>0.45421304465861273</v>
       </c>
       <c r="F48" s="21">
-        <v>0.54574849994483532</v>
+        <v>0.54578695534138721</v>
       </c>
       <c r="G48" s="19">
-        <v>81142</v>
+        <v>81219</v>
       </c>
       <c r="H48" s="22">
-        <v>0.15761258041458184</v>
+        <v>0.15754934190275674</v>
       </c>
       <c r="I48" s="19">
-        <v>87319</v>
+        <v>87471</v>
       </c>
       <c r="J48" s="20">
-        <v>9563</v>
+        <v>9577</v>
       </c>
       <c r="K48" s="21">
-        <v>0.10951797432403028</v>
+        <v>0.1094877159287078</v>
       </c>
       <c r="L48" s="20">
-        <v>4921</v>
+        <v>4936</v>
       </c>
       <c r="M48" s="23">
-        <v>4.1351551200000003E-2</v>
+        <v>4.1461919040000003E-2</v>
       </c>
     </row>
     <row r="49" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2650,37 +2763,37 @@
         <v>3</v>
       </c>
       <c r="C49" s="7">
-        <v>95576</v>
+        <v>95602</v>
       </c>
       <c r="D49" s="5">
         <v>48</v>
       </c>
       <c r="E49" s="6">
-        <v>0.45815396302861483</v>
+        <v>0.45801293208020843</v>
       </c>
       <c r="F49" s="6">
-        <v>0.54184603697138511</v>
+        <v>0.54198706791979157</v>
       </c>
       <c r="G49" s="7">
-        <v>66808</v>
+        <v>66919</v>
       </c>
       <c r="H49" s="8">
-        <v>0.15670279008501975</v>
+        <v>0.15674173254232729</v>
       </c>
       <c r="I49" s="7">
-        <v>72476</v>
+        <v>72567</v>
       </c>
       <c r="J49" s="5">
-        <v>8509</v>
+        <v>8521</v>
       </c>
       <c r="K49" s="6">
-        <v>0.11740438214029472</v>
+        <v>0.11742251987818154</v>
       </c>
       <c r="L49" s="5">
-        <v>3923</v>
+        <v>3928</v>
       </c>
       <c r="M49" s="10">
-        <v>4.1045869249999999E-2</v>
+        <v>4.1087006539999998E-2</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2691,37 +2804,37 @@
         <v>4</v>
       </c>
       <c r="C50" s="19">
-        <v>78244</v>
+        <v>78250</v>
       </c>
       <c r="D50" s="20">
         <v>48</v>
       </c>
       <c r="E50" s="21">
-        <v>0.46313334364208031</v>
+        <v>0.46314311115692364</v>
       </c>
       <c r="F50" s="21">
-        <v>0.53686665635791975</v>
+        <v>0.53685688884307636</v>
       </c>
       <c r="G50" s="19">
-        <v>55387</v>
+        <v>55437</v>
       </c>
       <c r="H50" s="22">
-        <v>0.15942369147995017</v>
+        <v>0.15958655771416203</v>
       </c>
       <c r="I50" s="19">
-        <v>61176</v>
+        <v>61286</v>
       </c>
       <c r="J50" s="20">
-        <v>7219</v>
+        <v>7235</v>
       </c>
       <c r="K50" s="21">
-        <v>0.11800379233686413</v>
+        <v>0.11805306268968443</v>
       </c>
       <c r="L50" s="20">
-        <v>2974</v>
+        <v>2989</v>
       </c>
       <c r="M50" s="23">
-        <v>3.8009304219999998E-2</v>
+        <v>3.8198083059999999E-2</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2738,31 +2851,31 @@
         <v>46</v>
       </c>
       <c r="E51" s="6">
-        <v>0.47373841400617922</v>
+        <v>0.4736061915833164</v>
       </c>
       <c r="F51" s="6">
-        <v>0.52626158599382078</v>
+        <v>0.5263938084166836</v>
       </c>
       <c r="G51" s="7">
-        <v>46542</v>
+        <v>46708</v>
       </c>
       <c r="H51" s="8">
-        <v>0.15979115637488719</v>
+        <v>0.16003682452684764</v>
       </c>
       <c r="I51" s="7">
-        <v>51107</v>
+        <v>51280</v>
       </c>
       <c r="J51" s="5">
-        <v>6173</v>
+        <v>6189</v>
       </c>
       <c r="K51" s="6">
-        <v>0.12078580233627488</v>
+        <v>0.12069032761310453</v>
       </c>
       <c r="L51" s="5">
-        <v>2130</v>
+        <v>2143</v>
       </c>
       <c r="M51" s="10">
-        <v>3.293695588E-2</v>
+        <v>3.3137979550000002E-2</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2773,37 +2886,37 @@
         <v>6</v>
       </c>
       <c r="C52" s="19">
-        <v>50848</v>
+        <v>50861</v>
       </c>
       <c r="D52" s="20">
         <v>45</v>
       </c>
       <c r="E52" s="21">
-        <v>0.48375394009079553</v>
+        <v>0.48369899122024695</v>
       </c>
       <c r="F52" s="21">
-        <v>0.51624605990920447</v>
+        <v>0.51630100877975305</v>
       </c>
       <c r="G52" s="19">
-        <v>37393</v>
+        <v>37430</v>
       </c>
       <c r="H52" s="22">
-        <v>0.16337282379054904</v>
+        <v>0.16334491049959926</v>
       </c>
       <c r="I52" s="19">
-        <v>40456</v>
+        <v>40510</v>
       </c>
       <c r="J52" s="20">
-        <v>4950</v>
+        <v>4967</v>
       </c>
       <c r="K52" s="21">
-        <v>0.12235515127545976</v>
+        <v>0.12261170081461367</v>
       </c>
       <c r="L52" s="20">
-        <v>1598</v>
+        <v>1612</v>
       </c>
       <c r="M52" s="23">
-        <v>3.142699811E-2</v>
+        <v>3.169422543E-2</v>
       </c>
     </row>
     <row r="53" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2814,37 +2927,37 @@
         <v>7</v>
       </c>
       <c r="C53" s="7">
-        <v>52492</v>
+        <v>52491</v>
       </c>
       <c r="D53" s="5">
         <v>44</v>
       </c>
       <c r="E53" s="6">
-        <v>0.49179919046979609</v>
+        <v>0.49175107427869857</v>
       </c>
       <c r="F53" s="6">
-        <v>0.50820080953020397</v>
+        <v>0.50824892572130143</v>
       </c>
       <c r="G53" s="7">
-        <v>38691</v>
+        <v>38866</v>
       </c>
       <c r="H53" s="8">
-        <v>0.16233749450776666</v>
+        <v>0.16235269901713581</v>
       </c>
       <c r="I53" s="7">
-        <v>42067</v>
+        <v>42093</v>
       </c>
       <c r="J53" s="5">
-        <v>4882</v>
+        <v>4896</v>
       </c>
       <c r="K53" s="6">
-        <v>0.11605296313024462</v>
+        <v>0.11631387641650631</v>
       </c>
       <c r="L53" s="5">
-        <v>1387</v>
+        <v>1399</v>
       </c>
       <c r="M53" s="10">
-        <v>2.642307399E-2</v>
+        <v>2.6652187989999999E-2</v>
       </c>
     </row>
     <row r="54" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2855,37 +2968,37 @@
         <v>8</v>
       </c>
       <c r="C54" s="19">
-        <v>56460</v>
+        <v>56450</v>
       </c>
       <c r="D54" s="20">
         <v>42</v>
       </c>
       <c r="E54" s="21">
-        <v>0.49708779366973621</v>
+        <v>0.4971050896976823</v>
       </c>
       <c r="F54" s="21">
-        <v>0.50291220633026379</v>
+        <v>0.5028949103023177</v>
       </c>
       <c r="G54" s="19">
-        <v>41547</v>
+        <v>41792</v>
       </c>
       <c r="H54" s="22">
-        <v>0.15738801838881267</v>
+        <v>0.15715926493108728</v>
       </c>
       <c r="I54" s="19">
-        <v>44892</v>
+        <v>44959</v>
       </c>
       <c r="J54" s="20">
-        <v>4516</v>
+        <v>4538</v>
       </c>
       <c r="K54" s="21">
-        <v>0.10059698832754166</v>
+        <v>0.10093640872795213</v>
       </c>
       <c r="L54" s="20">
-        <v>1127</v>
+        <v>1146</v>
       </c>
       <c r="M54" s="23">
-        <v>1.9961034360000001E-2</v>
+        <v>2.030115146E-2</v>
       </c>
     </row>
     <row r="55" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2896,37 +3009,37 @@
         <v>9</v>
       </c>
       <c r="C55" s="7">
-        <v>58502</v>
+        <v>58500</v>
       </c>
       <c r="D55" s="5">
         <v>40</v>
       </c>
       <c r="E55" s="6">
-        <v>0.50705097337827609</v>
+        <v>0.50700810015993947</v>
       </c>
       <c r="F55" s="6">
-        <v>0.49294902662172385</v>
+        <v>0.49299189984006053</v>
       </c>
       <c r="G55" s="7">
-        <v>43205</v>
+        <v>43481</v>
       </c>
       <c r="H55" s="8">
-        <v>0.15470431663001968</v>
+        <v>0.15432027782249719</v>
       </c>
       <c r="I55" s="7">
-        <v>46193</v>
+        <v>46285</v>
       </c>
       <c r="J55" s="5">
-        <v>4076</v>
+        <v>4097</v>
       </c>
       <c r="K55" s="6">
-        <v>8.8238477691425107E-2</v>
+        <v>8.8516798098736096E-2</v>
       </c>
       <c r="L55" s="5">
-        <v>939</v>
+        <v>954</v>
       </c>
       <c r="M55" s="10">
-        <v>1.6050733300000002E-2</v>
+        <v>1.6307692299999999E-2</v>
       </c>
     </row>
     <row r="56" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2937,37 +3050,37 @@
         <v>10</v>
       </c>
       <c r="C56" s="19">
-        <v>71452</v>
+        <v>71456</v>
       </c>
       <c r="D56" s="20">
         <v>39</v>
       </c>
       <c r="E56" s="21">
-        <v>0.50269904582035485</v>
+        <v>0.50264251990698328</v>
       </c>
       <c r="F56" s="21">
-        <v>0.49730095417964509</v>
+        <v>0.49735748009301672</v>
       </c>
       <c r="G56" s="19">
-        <v>52136</v>
+        <v>52352</v>
       </c>
       <c r="H56" s="22">
-        <v>0.15597667638483964</v>
+        <v>0.15577246332518338</v>
       </c>
       <c r="I56" s="19">
-        <v>55073</v>
+        <v>55244</v>
       </c>
       <c r="J56" s="32">
-        <v>4516</v>
+        <v>4543</v>
       </c>
       <c r="K56" s="21">
-        <v>8.2000254208051127E-2</v>
+        <v>8.2235174860618349E-2</v>
       </c>
       <c r="L56" s="32">
-        <v>970</v>
+        <v>995</v>
       </c>
       <c r="M56" s="23">
-        <v>1.3575547219999999E-2</v>
+        <v>1.392465293E-2</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2978,37 +3091,37 @@
         <v>11</v>
       </c>
       <c r="C57" s="7">
-        <v>92789</v>
+        <v>92775</v>
       </c>
       <c r="D57" s="5">
         <v>39</v>
       </c>
       <c r="E57" s="6">
-        <v>0.50402246508803883</v>
+        <v>0.50399566278124153</v>
       </c>
       <c r="F57" s="6">
-        <v>0.49597753491196112</v>
+        <v>0.49600433721875847</v>
       </c>
       <c r="G57" s="7">
-        <v>66913</v>
+        <v>67329</v>
       </c>
       <c r="H57" s="8">
-        <v>0.15363232854602243</v>
+        <v>0.15394555095129886</v>
       </c>
       <c r="I57" s="7">
-        <v>70649</v>
+        <v>70998</v>
       </c>
       <c r="J57" s="5">
-        <v>5228</v>
+        <v>5286</v>
       </c>
       <c r="K57" s="6">
-        <v>7.3999631983467568E-2</v>
+        <v>7.4452801487365841E-2</v>
       </c>
       <c r="L57" s="5">
-        <v>1092</v>
+        <v>1132</v>
       </c>
       <c r="M57" s="10">
-        <v>1.1768636359999999E-2</v>
+        <v>1.2201562920000001E-2</v>
       </c>
     </row>
     <row r="58" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3019,37 +3132,37 @@
         <v>12</v>
       </c>
       <c r="C58" s="19">
-        <v>116631</v>
+        <v>116596</v>
       </c>
       <c r="D58" s="20">
         <v>38</v>
       </c>
       <c r="E58" s="21">
-        <v>0.50801229472811726</v>
+        <v>0.50803533648241384</v>
       </c>
       <c r="F58" s="21">
-        <v>0.49198770527188274</v>
+        <v>0.49196466351758622</v>
       </c>
       <c r="G58" s="19">
-        <v>80233</v>
+        <v>81523</v>
       </c>
       <c r="H58" s="22">
-        <v>0.15568407014570065</v>
+        <v>0.15692503955938814</v>
       </c>
       <c r="I58" s="19">
-        <v>87289</v>
+        <v>88163</v>
       </c>
       <c r="J58" s="32">
-        <v>6071</v>
+        <v>6211</v>
       </c>
       <c r="K58" s="21">
-        <v>6.9550573382671357E-2</v>
+        <v>7.0449054592062424E-2</v>
       </c>
       <c r="L58" s="32">
-        <v>1213</v>
+        <v>1309</v>
       </c>
       <c r="M58" s="23">
-        <v>1.040032238E-2</v>
+        <v>1.122680023E-2</v>
       </c>
     </row>
     <row r="59" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3060,37 +3173,37 @@
         <v>13</v>
       </c>
       <c r="C59" s="7">
-        <v>110441</v>
+        <v>110406</v>
       </c>
       <c r="D59" s="5">
         <v>39</v>
       </c>
       <c r="E59" s="6">
-        <v>0.51235389580788093</v>
+        <v>0.51229676372158339</v>
       </c>
       <c r="F59" s="6">
-        <v>0.48764610419211901</v>
+        <v>0.48770323627841661</v>
       </c>
       <c r="G59" s="7">
-        <v>73414</v>
+        <v>74931</v>
       </c>
       <c r="H59" s="8">
-        <v>0.15215081592066909</v>
+        <v>0.15314088961844896</v>
       </c>
       <c r="I59" s="7">
-        <v>80286</v>
+        <v>81602</v>
       </c>
       <c r="J59" s="5">
-        <v>5868</v>
+        <v>6057</v>
       </c>
       <c r="K59" s="6">
-        <v>7.3088707869367012E-2</v>
+        <v>7.422612190877674E-2</v>
       </c>
       <c r="L59" s="5">
-        <v>1113</v>
+        <v>1247</v>
       </c>
       <c r="M59" s="10">
-        <v>1.007777908E-2</v>
+        <v>1.1294676010000001E-2</v>
       </c>
     </row>
     <row r="60" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3101,37 +3214,37 @@
         <v>14</v>
       </c>
       <c r="C60" s="19">
-        <v>118588</v>
+        <v>118519</v>
       </c>
       <c r="D60" s="20">
         <v>39</v>
       </c>
       <c r="E60" s="21">
-        <v>0.50755633288617952</v>
+        <v>0.50745685555102593</v>
       </c>
       <c r="F60" s="21">
-        <v>0.49244366711382043</v>
+        <v>0.49254314444897407</v>
       </c>
       <c r="G60" s="19">
-        <v>77964</v>
+        <v>79809</v>
       </c>
       <c r="H60" s="22">
-        <v>0.1378071930634652</v>
+        <v>0.13860592163791052</v>
       </c>
       <c r="I60" s="19">
-        <v>85169</v>
+        <v>86806</v>
       </c>
       <c r="J60" s="32">
-        <v>6070</v>
+        <v>6415</v>
       </c>
       <c r="K60" s="21">
-        <v>7.1270063051110152E-2</v>
+        <v>7.3900421629841256E-2</v>
       </c>
       <c r="L60" s="32">
-        <v>849</v>
+        <v>1092</v>
       </c>
       <c r="M60" s="23">
-        <v>7.1592403900000001E-3</v>
+        <v>9.2137125600000001E-3</v>
       </c>
     </row>
     <row r="61" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3142,37 +3255,37 @@
         <v>15</v>
       </c>
       <c r="C61" s="7">
-        <v>142522</v>
+        <v>142548</v>
       </c>
       <c r="D61" s="5">
         <v>38</v>
       </c>
       <c r="E61" s="6">
-        <v>0.51026303678266716</v>
+        <v>0.51020350420518767</v>
       </c>
       <c r="F61" s="6">
-        <v>0.48973696321733279</v>
+        <v>0.48979649579481233</v>
       </c>
       <c r="G61" s="7">
-        <v>87364</v>
+        <v>91504</v>
       </c>
       <c r="H61" s="8">
-        <v>0.15506387070189093</v>
+        <v>0.15574182549396748</v>
       </c>
       <c r="I61" s="7">
-        <v>99114</v>
+        <v>102046</v>
       </c>
       <c r="J61" s="5">
-        <v>5536</v>
+        <v>6382</v>
       </c>
       <c r="K61" s="6">
-        <v>5.5854874185281594E-2</v>
+        <v>6.2540422946514324E-2</v>
       </c>
       <c r="L61" s="5">
-        <v>535</v>
+        <v>936</v>
       </c>
       <c r="M61" s="10">
-        <v>3.7538064200000002E-3</v>
+        <v>6.5662092699999997E-3</v>
       </c>
     </row>
     <row r="62" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3183,37 +3296,78 @@
         <v>16</v>
       </c>
       <c r="C62" s="19">
-        <v>144068</v>
+        <v>145336</v>
       </c>
       <c r="D62" s="20">
         <v>37</v>
       </c>
       <c r="E62" s="21">
-        <v>0.51943199853926425</v>
+        <v>0.51936001779272867</v>
       </c>
       <c r="F62" s="21">
-        <v>0.48056800146073569</v>
+        <v>0.48063998220727139</v>
       </c>
       <c r="G62" s="19">
-        <v>75752</v>
+        <v>89223</v>
       </c>
       <c r="H62" s="22">
-        <v>0.16787675572922167</v>
+        <v>0.16311937504903445</v>
       </c>
       <c r="I62" s="19">
-        <v>92276</v>
+        <v>102023</v>
       </c>
       <c r="J62" s="32">
-        <v>4004</v>
+        <v>5759</v>
       </c>
       <c r="K62" s="21">
-        <v>4.3391564437123414E-2</v>
+        <v>5.6448055830548016E-2</v>
       </c>
       <c r="L62" s="32">
-        <v>161</v>
+        <v>530</v>
       </c>
       <c r="M62" s="23">
-        <v>1.11752783E-3</v>
+        <v>3.64672207E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="25">
+        <v>2021</v>
+      </c>
+      <c r="B63" s="25">
+        <v>17</v>
+      </c>
+      <c r="C63" s="27">
+        <v>124151</v>
+      </c>
+      <c r="D63" s="28">
+        <v>37</v>
+      </c>
+      <c r="E63" s="29">
+        <v>0.52079548324548042</v>
+      </c>
+      <c r="F63" s="29">
+        <v>0.47920451675451958</v>
+      </c>
+      <c r="G63" s="27">
+        <v>67889</v>
+      </c>
+      <c r="H63" s="30">
+        <v>0.16970348657367174</v>
+      </c>
+      <c r="I63" s="27">
+        <v>81126</v>
+      </c>
+      <c r="J63" s="34">
+        <v>3655</v>
+      </c>
+      <c r="K63" s="29">
+        <v>4.5053373764267927E-2</v>
+      </c>
+      <c r="L63" s="34">
+        <v>163</v>
+      </c>
+      <c r="M63" s="31">
+        <v>1.31291733E-3</v>
       </c>
     </row>
   </sheetData>
@@ -3224,13 +3378,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29EE44EF-F204-44BC-9DFD-46318AB81991}">
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="33"/>
     <col min="2" max="2" width="13.85546875" style="33" customWidth="1"/>
@@ -3285,960 +3439,989 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="35">
-        <v>2020</v>
-      </c>
-      <c r="B3" s="35">
+      <c r="A3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3">
+        <v>12</v>
+      </c>
+      <c r="D3">
+        <v>12</v>
+      </c>
+      <c r="E3">
+        <v>50</v>
+      </c>
+      <c r="F3">
+        <v>158</v>
+      </c>
+      <c r="G3">
+        <v>138</v>
+      </c>
+      <c r="H3">
+        <v>96</v>
+      </c>
+      <c r="I3" s="35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>77</v>
+      </c>
+      <c r="F4">
+        <v>235</v>
+      </c>
+      <c r="G4">
+        <v>206</v>
+      </c>
+      <c r="H4">
+        <v>138</v>
+      </c>
+      <c r="I4" s="35" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5">
+        <v>9</v>
+      </c>
+      <c r="D5">
+        <v>7</v>
+      </c>
+      <c r="E5">
+        <v>112</v>
+      </c>
+      <c r="F5">
+        <v>237</v>
+      </c>
+      <c r="G5">
+        <v>253</v>
+      </c>
+      <c r="H5">
+        <v>153</v>
+      </c>
+      <c r="I5" s="35" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6">
+        <v>15</v>
+      </c>
+      <c r="D6">
+        <v>9</v>
+      </c>
+      <c r="E6">
+        <v>115</v>
+      </c>
+      <c r="F6">
+        <v>274</v>
+      </c>
+      <c r="G6">
+        <v>286</v>
+      </c>
+      <c r="H6">
+        <v>175</v>
+      </c>
+      <c r="I6" s="35" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7">
+        <v>21</v>
+      </c>
+      <c r="D7">
+        <v>17</v>
+      </c>
+      <c r="E7">
+        <v>207</v>
+      </c>
+      <c r="F7">
+        <v>487</v>
+      </c>
+      <c r="G7">
+        <v>502</v>
+      </c>
+      <c r="H7">
+        <v>352</v>
+      </c>
+      <c r="I7" s="35" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8">
+        <v>24</v>
+      </c>
+      <c r="D8">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>263</v>
+      </c>
+      <c r="F8">
+        <v>674</v>
+      </c>
+      <c r="G8">
+        <v>781</v>
+      </c>
+      <c r="H8">
+        <v>559</v>
+      </c>
+      <c r="I8" s="35" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9">
+        <v>50</v>
+      </c>
+      <c r="D9">
+        <v>30</v>
+      </c>
+      <c r="E9">
+        <v>430</v>
+      </c>
+      <c r="F9">
+        <v>1050</v>
+      </c>
+      <c r="G9">
+        <v>1412</v>
+      </c>
+      <c r="H9">
+        <v>1123</v>
+      </c>
+      <c r="I9" s="35" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10">
+        <v>64</v>
+      </c>
+      <c r="D10">
+        <v>49</v>
+      </c>
+      <c r="E10">
+        <v>544</v>
+      </c>
+      <c r="F10">
+        <v>1492</v>
+      </c>
+      <c r="G10">
+        <v>2083</v>
+      </c>
+      <c r="H10">
+        <v>1683</v>
+      </c>
+      <c r="I10" s="35" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11">
+        <v>65</v>
+      </c>
+      <c r="D11">
+        <v>58</v>
+      </c>
+      <c r="E11">
+        <v>602</v>
+      </c>
+      <c r="F11">
+        <v>1685</v>
+      </c>
+      <c r="G11">
+        <v>2380</v>
+      </c>
+      <c r="H11">
+        <v>2043</v>
+      </c>
+      <c r="I11" s="35" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12">
+        <v>64</v>
+      </c>
+      <c r="D12">
+        <v>68</v>
+      </c>
+      <c r="E12">
+        <v>569</v>
+      </c>
+      <c r="F12">
+        <v>1711</v>
+      </c>
+      <c r="G12">
+        <v>2562</v>
+      </c>
+      <c r="H12">
+        <v>2494</v>
+      </c>
+      <c r="I12" s="35" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13">
+        <v>54</v>
+      </c>
+      <c r="D13">
+        <v>54</v>
+      </c>
+      <c r="E13">
+        <v>602</v>
+      </c>
+      <c r="F13">
+        <v>1660</v>
+      </c>
+      <c r="G13">
+        <v>2840</v>
+      </c>
+      <c r="H13">
+        <v>2808</v>
+      </c>
+      <c r="I13" s="35" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14">
+        <v>62</v>
+      </c>
+      <c r="D14">
+        <v>68</v>
+      </c>
+      <c r="E14">
+        <v>557</v>
+      </c>
+      <c r="F14">
+        <v>1682</v>
+      </c>
+      <c r="G14">
+        <v>2845</v>
+      </c>
+      <c r="H14">
+        <v>3039</v>
+      </c>
+      <c r="I14" s="35" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15">
+        <v>58</v>
+      </c>
+      <c r="D15">
+        <v>58</v>
+      </c>
+      <c r="E15">
+        <v>591</v>
+      </c>
+      <c r="F15">
+        <v>1656</v>
+      </c>
+      <c r="G15">
+        <v>3147</v>
+      </c>
+      <c r="H15">
+        <v>3573</v>
+      </c>
+      <c r="I15" s="35" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16">
+        <v>70</v>
+      </c>
+      <c r="D16">
+        <v>66</v>
+      </c>
+      <c r="E16">
+        <v>670</v>
+      </c>
+      <c r="F16">
+        <v>1949</v>
+      </c>
+      <c r="G16">
+        <v>3899</v>
+      </c>
+      <c r="H16">
+        <v>4500</v>
+      </c>
+      <c r="I16" s="35" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17">
+        <v>79</v>
+      </c>
+      <c r="D17">
+        <v>87</v>
+      </c>
+      <c r="E17">
+        <v>705</v>
+      </c>
+      <c r="F17">
+        <v>2166</v>
+      </c>
+      <c r="G17">
+        <v>4338</v>
+      </c>
+      <c r="H17">
+        <v>5044</v>
+      </c>
+      <c r="I17" s="35" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18">
+        <v>54</v>
+      </c>
+      <c r="D18">
+        <v>49</v>
+      </c>
+      <c r="E18">
+        <v>593</v>
+      </c>
+      <c r="F18">
+        <v>1830</v>
+      </c>
+      <c r="G18">
+        <v>3846</v>
+      </c>
+      <c r="H18">
+        <v>4532</v>
+      </c>
+      <c r="I18" s="35" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19">
+        <v>74</v>
+      </c>
+      <c r="D19">
+        <v>51</v>
+      </c>
+      <c r="E19">
+        <v>605</v>
+      </c>
+      <c r="F19">
+        <v>1869</v>
+      </c>
+      <c r="G19">
+        <v>3784</v>
+      </c>
+      <c r="H19">
+        <v>4399</v>
+      </c>
+      <c r="I19" s="35" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20">
+        <v>64</v>
+      </c>
+      <c r="D20">
+        <v>33</v>
+      </c>
+      <c r="E20">
+        <v>567</v>
+      </c>
+      <c r="F20">
+        <v>1770</v>
+      </c>
+      <c r="G20">
+        <v>3862</v>
+      </c>
+      <c r="H20">
+        <v>4573</v>
+      </c>
+      <c r="I20" s="35" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>78</v>
+      </c>
+      <c r="B21" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21">
+        <v>58</v>
+      </c>
+      <c r="D21">
+        <v>47</v>
+      </c>
+      <c r="E21">
+        <v>508</v>
+      </c>
+      <c r="F21">
+        <v>1547</v>
+      </c>
+      <c r="G21">
+        <v>3295</v>
+      </c>
+      <c r="H21">
+        <v>4118</v>
+      </c>
+      <c r="I21" s="35" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>78</v>
+      </c>
+      <c r="B22" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22">
+        <v>39</v>
+      </c>
+      <c r="D22">
+        <v>36</v>
+      </c>
+      <c r="E22">
+        <v>388</v>
+      </c>
+      <c r="F22">
+        <v>1411</v>
+      </c>
+      <c r="G22">
+        <v>3052</v>
+      </c>
+      <c r="H22">
+        <v>3592</v>
+      </c>
+      <c r="I22" s="35" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>78</v>
+      </c>
+      <c r="B23" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23">
+        <v>34</v>
+      </c>
+      <c r="D23">
+        <v>30</v>
+      </c>
+      <c r="E23">
+        <v>389</v>
+      </c>
+      <c r="F23">
+        <v>1182</v>
+      </c>
+      <c r="G23">
+        <v>2697</v>
+      </c>
+      <c r="H23">
+        <v>2901</v>
+      </c>
+      <c r="I23" s="35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24">
+        <v>43</v>
+      </c>
+      <c r="D24">
+        <v>38</v>
+      </c>
+      <c r="E24">
+        <v>346</v>
+      </c>
+      <c r="F24">
+        <v>1079</v>
+      </c>
+      <c r="G24">
+        <v>2255</v>
+      </c>
+      <c r="H24">
+        <v>2427</v>
+      </c>
+      <c r="I24" s="35" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>78</v>
+      </c>
+      <c r="B25" t="s">
+        <v>84</v>
+      </c>
+      <c r="C25">
+        <v>38</v>
+      </c>
+      <c r="D25">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>286</v>
+      </c>
+      <c r="F25">
+        <v>934</v>
+      </c>
+      <c r="G25">
+        <v>1865</v>
+      </c>
+      <c r="H25">
+        <v>1821</v>
+      </c>
+      <c r="I25" s="35" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>78</v>
+      </c>
+      <c r="B26" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26">
+        <v>35</v>
+      </c>
+      <c r="D26">
+        <v>22</v>
+      </c>
+      <c r="E26">
+        <v>298</v>
+      </c>
+      <c r="F26">
+        <v>998</v>
+      </c>
+      <c r="G26">
+        <v>1927</v>
+      </c>
+      <c r="H26">
+        <v>1615</v>
+      </c>
+      <c r="I26" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="33">
-        <v>12</v>
-      </c>
-      <c r="D3" s="33">
-        <v>12</v>
-      </c>
-      <c r="E3" s="33">
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>78</v>
+      </c>
+      <c r="B27" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27">
+        <v>44</v>
+      </c>
+      <c r="D27">
+        <v>31</v>
+      </c>
+      <c r="E27">
+        <v>305</v>
+      </c>
+      <c r="F27">
+        <v>1019</v>
+      </c>
+      <c r="G27">
+        <v>1706</v>
+      </c>
+      <c r="H27">
+        <v>1433</v>
+      </c>
+      <c r="I27" s="35" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" t="s">
+        <v>87</v>
+      </c>
+      <c r="C28">
+        <v>49</v>
+      </c>
+      <c r="D28">
+        <v>28</v>
+      </c>
+      <c r="E28">
+        <v>314</v>
+      </c>
+      <c r="F28">
+        <v>971</v>
+      </c>
+      <c r="G28">
+        <v>1539</v>
+      </c>
+      <c r="H28">
+        <v>1196</v>
+      </c>
+      <c r="I28" s="35" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29">
         <v>50</v>
       </c>
-      <c r="F3" s="33">
-        <v>157</v>
-      </c>
-      <c r="G3" s="33">
-        <v>138</v>
-      </c>
-      <c r="H3" s="33">
+      <c r="D29">
+        <v>36</v>
+      </c>
+      <c r="E29">
+        <v>376</v>
+      </c>
+      <c r="F29">
+        <v>1259</v>
+      </c>
+      <c r="G29">
+        <v>1614</v>
+      </c>
+      <c r="H29">
+        <v>1208</v>
+      </c>
+      <c r="I29" s="35" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>78</v>
+      </c>
+      <c r="B30" t="s">
+        <v>89</v>
+      </c>
+      <c r="C30">
+        <v>75</v>
+      </c>
+      <c r="D30">
+        <v>67</v>
+      </c>
+      <c r="E30">
+        <v>444</v>
+      </c>
+      <c r="F30">
+        <v>1479</v>
+      </c>
+      <c r="G30">
+        <v>1989</v>
+      </c>
+      <c r="H30">
+        <v>1230</v>
+      </c>
+      <c r="I30" s="35" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>78</v>
+      </c>
+      <c r="B31" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31">
+        <v>80</v>
+      </c>
+      <c r="D31">
+        <v>76</v>
+      </c>
+      <c r="E31">
+        <v>569</v>
+      </c>
+      <c r="F31">
+        <v>1764</v>
+      </c>
+      <c r="G31">
+        <v>2297</v>
+      </c>
+      <c r="H31">
+        <v>1424</v>
+      </c>
+      <c r="I31" s="35" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>78</v>
+      </c>
+      <c r="B32" t="s">
+        <v>91</v>
+      </c>
+      <c r="C32">
+        <v>82</v>
+      </c>
+      <c r="D32">
+        <v>86</v>
+      </c>
+      <c r="E32">
+        <v>529</v>
+      </c>
+      <c r="F32">
+        <v>1757</v>
+      </c>
+      <c r="G32">
+        <v>2315</v>
+      </c>
+      <c r="H32">
+        <v>1288</v>
+      </c>
+      <c r="I32" s="35" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>78</v>
+      </c>
+      <c r="B33" t="s">
+        <v>92</v>
+      </c>
+      <c r="C33">
+        <v>90</v>
+      </c>
+      <c r="D33">
+        <v>63</v>
+      </c>
+      <c r="E33">
+        <v>646</v>
+      </c>
+      <c r="F33">
+        <v>1965</v>
+      </c>
+      <c r="G33">
+        <v>2397</v>
+      </c>
+      <c r="H33">
+        <v>1252</v>
+      </c>
+      <c r="I33" s="35" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>78</v>
+      </c>
+      <c r="B34" t="s">
+        <v>93</v>
+      </c>
+      <c r="C34">
+        <v>85</v>
+      </c>
+      <c r="D34">
+        <v>78</v>
+      </c>
+      <c r="E34">
+        <v>657</v>
+      </c>
+      <c r="F34">
+        <v>1883</v>
+      </c>
+      <c r="G34">
+        <v>2462</v>
+      </c>
+      <c r="H34">
+        <v>1214</v>
+      </c>
+      <c r="I34" s="35" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>78</v>
+      </c>
+      <c r="B35" t="s">
+        <v>94</v>
+      </c>
+      <c r="C35">
+        <v>77</v>
+      </c>
+      <c r="D35">
+        <v>71</v>
+      </c>
+      <c r="E35">
+        <v>596</v>
+      </c>
+      <c r="F35">
+        <v>1758</v>
+      </c>
+      <c r="G35">
+        <v>2160</v>
+      </c>
+      <c r="H35">
+        <v>1094</v>
+      </c>
+      <c r="I35" s="35" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>78</v>
+      </c>
+      <c r="B36" t="s">
+        <v>95</v>
+      </c>
+      <c r="C36">
+        <v>50</v>
+      </c>
+      <c r="D36">
+        <v>74</v>
+      </c>
+      <c r="E36">
+        <v>388</v>
+      </c>
+      <c r="F36">
+        <v>1002</v>
+      </c>
+      <c r="G36">
+        <v>1420</v>
+      </c>
+      <c r="H36">
+        <v>718</v>
+      </c>
+      <c r="I36" s="35" t="s">
         <v>96</v>
-      </c>
-      <c r="I3" s="34" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="35">
-        <v>2020</v>
-      </c>
-      <c r="B4" s="35">
-        <v>38</v>
-      </c>
-      <c r="C4" s="33">
-        <v>8</v>
-      </c>
-      <c r="D4" s="33">
-        <v>10</v>
-      </c>
-      <c r="E4" s="33">
-        <v>77</v>
-      </c>
-      <c r="F4" s="33">
-        <v>235</v>
-      </c>
-      <c r="G4" s="33">
-        <v>206</v>
-      </c>
-      <c r="H4" s="33">
-        <v>138</v>
-      </c>
-      <c r="I4" s="34" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="35">
-        <v>2020</v>
-      </c>
-      <c r="B5" s="35">
-        <v>39</v>
-      </c>
-      <c r="C5" s="33">
-        <v>9</v>
-      </c>
-      <c r="D5" s="33">
-        <v>7</v>
-      </c>
-      <c r="E5" s="33">
-        <v>112</v>
-      </c>
-      <c r="F5" s="33">
-        <v>237</v>
-      </c>
-      <c r="G5" s="33">
-        <v>253</v>
-      </c>
-      <c r="H5" s="33">
-        <v>153</v>
-      </c>
-      <c r="I5" s="34" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="35">
-        <v>2020</v>
-      </c>
-      <c r="B6" s="35">
-        <v>40</v>
-      </c>
-      <c r="C6" s="33">
-        <v>15</v>
-      </c>
-      <c r="D6" s="33">
-        <v>9</v>
-      </c>
-      <c r="E6" s="33">
-        <v>115</v>
-      </c>
-      <c r="F6" s="33">
-        <v>274</v>
-      </c>
-      <c r="G6" s="33">
-        <v>286</v>
-      </c>
-      <c r="H6" s="33">
-        <v>175</v>
-      </c>
-      <c r="I6" s="34" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="35">
-        <v>2020</v>
-      </c>
-      <c r="B7" s="35">
-        <v>41</v>
-      </c>
-      <c r="C7" s="33">
-        <v>21</v>
-      </c>
-      <c r="D7" s="33">
-        <v>17</v>
-      </c>
-      <c r="E7" s="33">
-        <v>207</v>
-      </c>
-      <c r="F7" s="33">
-        <v>488</v>
-      </c>
-      <c r="G7" s="33">
-        <v>502</v>
-      </c>
-      <c r="H7" s="33">
-        <v>351</v>
-      </c>
-      <c r="I7" s="34" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="35">
-        <v>2020</v>
-      </c>
-      <c r="B8" s="35">
-        <v>42</v>
-      </c>
-      <c r="C8" s="33">
-        <v>24</v>
-      </c>
-      <c r="D8" s="33">
-        <v>25</v>
-      </c>
-      <c r="E8" s="33">
-        <v>263</v>
-      </c>
-      <c r="F8" s="33">
-        <v>672</v>
-      </c>
-      <c r="G8" s="33">
-        <v>781</v>
-      </c>
-      <c r="H8" s="33">
-        <v>559</v>
-      </c>
-      <c r="I8" s="34" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="35">
-        <v>2020</v>
-      </c>
-      <c r="B9" s="35">
-        <v>43</v>
-      </c>
-      <c r="C9" s="33">
-        <v>50</v>
-      </c>
-      <c r="D9" s="33">
-        <v>30</v>
-      </c>
-      <c r="E9" s="33">
-        <v>429</v>
-      </c>
-      <c r="F9" s="33">
-        <v>1050</v>
-      </c>
-      <c r="G9" s="33">
-        <v>1412</v>
-      </c>
-      <c r="H9" s="33">
-        <v>1123</v>
-      </c>
-      <c r="I9" s="34" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="35">
-        <v>2020</v>
-      </c>
-      <c r="B10" s="35">
-        <v>44</v>
-      </c>
-      <c r="C10" s="33">
-        <v>64</v>
-      </c>
-      <c r="D10" s="33">
-        <v>49</v>
-      </c>
-      <c r="E10" s="33">
-        <v>544</v>
-      </c>
-      <c r="F10" s="33">
-        <v>1492</v>
-      </c>
-      <c r="G10" s="33">
-        <v>2079</v>
-      </c>
-      <c r="H10" s="33">
-        <v>1682</v>
-      </c>
-      <c r="I10" s="34" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="35">
-        <v>2020</v>
-      </c>
-      <c r="B11" s="35">
-        <v>45</v>
-      </c>
-      <c r="C11" s="33">
-        <v>65</v>
-      </c>
-      <c r="D11" s="33">
-        <v>58</v>
-      </c>
-      <c r="E11" s="33">
-        <v>602</v>
-      </c>
-      <c r="F11" s="33">
-        <v>1683</v>
-      </c>
-      <c r="G11" s="33">
-        <v>2380</v>
-      </c>
-      <c r="H11" s="33">
-        <v>2044</v>
-      </c>
-      <c r="I11" s="34" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="35">
-        <v>2020</v>
-      </c>
-      <c r="B12" s="35">
-        <v>46</v>
-      </c>
-      <c r="C12" s="33">
-        <v>64</v>
-      </c>
-      <c r="D12" s="33">
-        <v>68</v>
-      </c>
-      <c r="E12" s="33">
-        <v>569</v>
-      </c>
-      <c r="F12" s="33">
-        <v>1707</v>
-      </c>
-      <c r="G12" s="33">
-        <v>2562</v>
-      </c>
-      <c r="H12" s="33">
-        <v>2494</v>
-      </c>
-      <c r="I12" s="34" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="35">
-        <v>2020</v>
-      </c>
-      <c r="B13" s="35">
-        <v>47</v>
-      </c>
-      <c r="C13" s="33">
-        <v>54</v>
-      </c>
-      <c r="D13" s="33">
-        <v>54</v>
-      </c>
-      <c r="E13" s="33">
-        <v>601</v>
-      </c>
-      <c r="F13" s="33">
-        <v>1658</v>
-      </c>
-      <c r="G13" s="33">
-        <v>2839</v>
-      </c>
-      <c r="H13" s="33">
-        <v>2807</v>
-      </c>
-      <c r="I13" s="34" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="35">
-        <v>2020</v>
-      </c>
-      <c r="B14" s="35">
-        <v>48</v>
-      </c>
-      <c r="C14" s="33">
-        <v>62</v>
-      </c>
-      <c r="D14" s="33">
-        <v>68</v>
-      </c>
-      <c r="E14" s="33">
-        <v>557</v>
-      </c>
-      <c r="F14" s="33">
-        <v>1678</v>
-      </c>
-      <c r="G14" s="33">
-        <v>2843</v>
-      </c>
-      <c r="H14" s="33">
-        <v>3038</v>
-      </c>
-      <c r="I14" s="34" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="35">
-        <v>2020</v>
-      </c>
-      <c r="B15" s="35">
-        <v>49</v>
-      </c>
-      <c r="C15" s="33">
-        <v>58</v>
-      </c>
-      <c r="D15" s="33">
-        <v>58</v>
-      </c>
-      <c r="E15" s="33">
-        <v>591</v>
-      </c>
-      <c r="F15" s="33">
-        <v>1653</v>
-      </c>
-      <c r="G15" s="33">
-        <v>3145</v>
-      </c>
-      <c r="H15" s="33">
-        <v>3576</v>
-      </c>
-      <c r="I15" s="34" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="35">
-        <v>2020</v>
-      </c>
-      <c r="B16" s="35">
-        <v>50</v>
-      </c>
-      <c r="C16" s="33">
-        <v>70</v>
-      </c>
-      <c r="D16" s="33">
-        <v>66</v>
-      </c>
-      <c r="E16" s="33">
-        <v>670</v>
-      </c>
-      <c r="F16" s="33">
-        <v>1946</v>
-      </c>
-      <c r="G16" s="33">
-        <v>3899</v>
-      </c>
-      <c r="H16" s="33">
-        <v>4498</v>
-      </c>
-      <c r="I16" s="34" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="35">
-        <v>2020</v>
-      </c>
-      <c r="B17" s="35">
-        <v>51</v>
-      </c>
-      <c r="C17" s="33">
-        <v>78</v>
-      </c>
-      <c r="D17" s="33">
-        <v>87</v>
-      </c>
-      <c r="E17" s="33">
-        <v>703</v>
-      </c>
-      <c r="F17" s="33">
-        <v>2159</v>
-      </c>
-      <c r="G17" s="33">
-        <v>4325</v>
-      </c>
-      <c r="H17" s="33">
-        <v>5037</v>
-      </c>
-      <c r="I17" s="34" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="35">
-        <v>2020</v>
-      </c>
-      <c r="B18" s="35">
-        <v>52</v>
-      </c>
-      <c r="C18" s="33">
-        <v>54</v>
-      </c>
-      <c r="D18" s="33">
-        <v>49</v>
-      </c>
-      <c r="E18" s="33">
-        <v>595</v>
-      </c>
-      <c r="F18" s="33">
-        <v>1828</v>
-      </c>
-      <c r="G18" s="33">
-        <v>3842</v>
-      </c>
-      <c r="H18" s="33">
-        <v>4534</v>
-      </c>
-      <c r="I18" s="34" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="35">
-        <v>2020</v>
-      </c>
-      <c r="B19" s="35">
-        <v>53</v>
-      </c>
-      <c r="C19" s="33">
-        <v>74</v>
-      </c>
-      <c r="D19" s="33">
-        <v>51</v>
-      </c>
-      <c r="E19" s="33">
-        <v>604</v>
-      </c>
-      <c r="F19" s="33">
-        <v>1869</v>
-      </c>
-      <c r="G19" s="33">
-        <v>3783</v>
-      </c>
-      <c r="H19" s="33">
-        <v>4395</v>
-      </c>
-      <c r="I19" s="34" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="35">
-        <v>2021</v>
-      </c>
-      <c r="B20" s="35">
-        <v>1</v>
-      </c>
-      <c r="C20" s="33">
-        <v>64</v>
-      </c>
-      <c r="D20" s="33">
-        <v>33</v>
-      </c>
-      <c r="E20" s="33">
-        <v>568</v>
-      </c>
-      <c r="F20" s="33">
-        <v>1754</v>
-      </c>
-      <c r="G20" s="33">
-        <v>3851</v>
-      </c>
-      <c r="H20" s="33">
-        <v>4560</v>
-      </c>
-      <c r="I20" s="34" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="35">
-        <v>2021</v>
-      </c>
-      <c r="B21" s="35">
-        <v>2</v>
-      </c>
-      <c r="C21" s="33">
-        <v>58</v>
-      </c>
-      <c r="D21" s="33">
-        <v>47</v>
-      </c>
-      <c r="E21" s="33">
-        <v>508</v>
-      </c>
-      <c r="F21" s="33">
-        <v>1546</v>
-      </c>
-      <c r="G21" s="33">
-        <v>3289</v>
-      </c>
-      <c r="H21" s="33">
-        <v>4111</v>
-      </c>
-      <c r="I21" s="34" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="35">
-        <v>2021</v>
-      </c>
-      <c r="B22" s="35">
-        <v>3</v>
-      </c>
-      <c r="C22" s="33">
-        <v>39</v>
-      </c>
-      <c r="D22" s="33">
-        <v>36</v>
-      </c>
-      <c r="E22" s="33">
-        <v>388</v>
-      </c>
-      <c r="F22" s="33">
-        <v>1409</v>
-      </c>
-      <c r="G22" s="33">
-        <v>3049</v>
-      </c>
-      <c r="H22" s="33">
-        <v>3585</v>
-      </c>
-      <c r="I22" s="34" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="35">
-        <v>2021</v>
-      </c>
-      <c r="B23" s="35">
-        <v>4</v>
-      </c>
-      <c r="C23" s="33">
-        <v>34</v>
-      </c>
-      <c r="D23" s="33">
-        <v>30</v>
-      </c>
-      <c r="E23" s="33">
-        <v>388</v>
-      </c>
-      <c r="F23" s="33">
-        <v>1179</v>
-      </c>
-      <c r="G23" s="33">
-        <v>2693</v>
-      </c>
-      <c r="H23" s="33">
-        <v>2893</v>
-      </c>
-      <c r="I23" s="34" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="35">
-        <v>2021</v>
-      </c>
-      <c r="B24" s="35">
-        <v>5</v>
-      </c>
-      <c r="C24" s="33">
-        <v>43</v>
-      </c>
-      <c r="D24" s="33">
-        <v>38</v>
-      </c>
-      <c r="E24" s="33">
-        <v>344</v>
-      </c>
-      <c r="F24" s="33">
-        <v>1080</v>
-      </c>
-      <c r="G24" s="33">
-        <v>2248</v>
-      </c>
-      <c r="H24" s="33">
-        <v>2418</v>
-      </c>
-      <c r="I24" s="34" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="35">
-        <v>2021</v>
-      </c>
-      <c r="B25" s="35">
-        <v>6</v>
-      </c>
-      <c r="C25" s="33">
-        <v>38</v>
-      </c>
-      <c r="D25" s="33">
-        <v>23</v>
-      </c>
-      <c r="E25" s="33">
-        <v>284</v>
-      </c>
-      <c r="F25" s="33">
-        <v>934</v>
-      </c>
-      <c r="G25" s="33">
-        <v>1859</v>
-      </c>
-      <c r="H25" s="33">
-        <v>1812</v>
-      </c>
-      <c r="I25" s="34" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="35">
-        <v>2021</v>
-      </c>
-      <c r="B26" s="35">
-        <v>7</v>
-      </c>
-      <c r="C26" s="33">
-        <v>35</v>
-      </c>
-      <c r="D26" s="33">
-        <v>22</v>
-      </c>
-      <c r="E26" s="33">
-        <v>298</v>
-      </c>
-      <c r="F26" s="33">
-        <v>992</v>
-      </c>
-      <c r="G26" s="33">
-        <v>1922</v>
-      </c>
-      <c r="H26" s="33">
-        <v>1612</v>
-      </c>
-      <c r="I26" s="34" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="35">
-        <v>2021</v>
-      </c>
-      <c r="B27" s="35">
-        <v>8</v>
-      </c>
-      <c r="C27" s="33">
-        <v>43</v>
-      </c>
-      <c r="D27" s="33">
-        <v>31</v>
-      </c>
-      <c r="E27" s="33">
-        <v>303</v>
-      </c>
-      <c r="F27" s="33">
-        <v>1013</v>
-      </c>
-      <c r="G27" s="33">
-        <v>1700</v>
-      </c>
-      <c r="H27" s="33">
-        <v>1426</v>
-      </c>
-      <c r="I27" s="34" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="35">
-        <v>2021</v>
-      </c>
-      <c r="B28" s="35">
-        <v>9</v>
-      </c>
-      <c r="C28" s="33">
-        <v>49</v>
-      </c>
-      <c r="D28" s="33">
-        <v>28</v>
-      </c>
-      <c r="E28" s="33">
-        <v>314</v>
-      </c>
-      <c r="F28" s="33">
-        <v>967</v>
-      </c>
-      <c r="G28" s="33">
-        <v>1531</v>
-      </c>
-      <c r="H28" s="33">
-        <v>1187</v>
-      </c>
-      <c r="I28" s="34" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="35">
-        <v>2021</v>
-      </c>
-      <c r="B29" s="35">
-        <v>10</v>
-      </c>
-      <c r="C29" s="33">
-        <v>50</v>
-      </c>
-      <c r="D29" s="33">
-        <v>36</v>
-      </c>
-      <c r="E29" s="33">
-        <v>375</v>
-      </c>
-      <c r="F29" s="33">
-        <v>1247</v>
-      </c>
-      <c r="G29" s="33">
-        <v>1604</v>
-      </c>
-      <c r="H29" s="33">
-        <v>1204</v>
-      </c>
-      <c r="I29" s="34" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="35">
-        <v>2021</v>
-      </c>
-      <c r="B30" s="35">
-        <v>11</v>
-      </c>
-      <c r="C30" s="33">
-        <v>74</v>
-      </c>
-      <c r="D30" s="33">
-        <v>65</v>
-      </c>
-      <c r="E30" s="33">
-        <v>438</v>
-      </c>
-      <c r="F30" s="33">
-        <v>1460</v>
-      </c>
-      <c r="G30" s="33">
-        <v>1968</v>
-      </c>
-      <c r="H30" s="33">
-        <v>1221</v>
-      </c>
-      <c r="I30" s="34" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="35">
-        <v>2021</v>
-      </c>
-      <c r="B31" s="35">
-        <v>12</v>
-      </c>
-      <c r="C31" s="33">
-        <v>78</v>
-      </c>
-      <c r="D31" s="33">
-        <v>74</v>
-      </c>
-      <c r="E31" s="33">
-        <v>552</v>
-      </c>
-      <c r="F31" s="33">
-        <v>1728</v>
-      </c>
-      <c r="G31" s="33">
-        <v>2244</v>
-      </c>
-      <c r="H31" s="33">
-        <v>1394</v>
-      </c>
-      <c r="I31" s="34" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="35">
-        <v>2021</v>
-      </c>
-      <c r="B32" s="35">
-        <v>13</v>
-      </c>
-      <c r="C32" s="33">
-        <v>81</v>
-      </c>
-      <c r="D32" s="33">
-        <v>84</v>
-      </c>
-      <c r="E32" s="33">
-        <v>520</v>
-      </c>
-      <c r="F32" s="33">
-        <v>1695</v>
-      </c>
-      <c r="G32" s="33">
-        <v>2228</v>
-      </c>
-      <c r="H32" s="33">
-        <v>1259</v>
-      </c>
-      <c r="I32" s="34" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="35">
-        <v>2021</v>
-      </c>
-      <c r="B33" s="35">
-        <v>14</v>
-      </c>
-      <c r="C33" s="33">
-        <v>87</v>
-      </c>
-      <c r="D33" s="33">
-        <v>58</v>
-      </c>
-      <c r="E33" s="33">
-        <v>629</v>
-      </c>
-      <c r="F33" s="33">
-        <v>1845</v>
-      </c>
-      <c r="G33" s="33">
-        <v>2248</v>
-      </c>
-      <c r="H33" s="33">
-        <v>1201</v>
-      </c>
-      <c r="I33" s="34" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="35">
-        <v>2021</v>
-      </c>
-      <c r="B34" s="35">
-        <v>15</v>
-      </c>
-      <c r="C34" s="33">
-        <v>82</v>
-      </c>
-      <c r="D34" s="33">
-        <v>77</v>
-      </c>
-      <c r="E34" s="33">
-        <v>593</v>
-      </c>
-      <c r="F34" s="33">
-        <v>1585</v>
-      </c>
-      <c r="G34" s="33">
-        <v>2098</v>
-      </c>
-      <c r="H34" s="33">
-        <v>1096</v>
-      </c>
-      <c r="I34" s="34" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="35">
-        <v>2021</v>
-      </c>
-      <c r="B35" s="35">
-        <v>16</v>
-      </c>
-      <c r="C35" s="33">
-        <v>70</v>
-      </c>
-      <c r="D35" s="33">
-        <v>63</v>
-      </c>
-      <c r="E35" s="33">
-        <v>437</v>
-      </c>
-      <c r="F35" s="33">
-        <v>1102</v>
-      </c>
-      <c r="G35" s="33">
-        <v>1522</v>
-      </c>
-      <c r="H35" s="33">
-        <v>807</v>
-      </c>
-      <c r="I35" s="34" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/data/klinische_aspekte.xlsx
+++ b/data/klinische_aspekte.xlsx
@@ -3,13 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20373"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94B99830-1146-4F2B-B351-A2F8CCC330C6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D5EE099-23AD-46C4-8872-4CAFBB78C315}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" activeTab="1" xr2:uid="{3677AF26-2CAB-4FDE-A93C-D8C0E4111944}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6936" activeTab="2" xr2:uid="{3677AF26-2CAB-4FDE-A93C-D8C0E4111944}"/>
   </bookViews>
   <sheets>
     <sheet name="Klinische_Aspekte" sheetId="2" r:id="rId1"/>
     <sheet name="Fälle_Hospitalisierung_Alter" sheetId="1" r:id="rId2"/>
+    <sheet name="Alter_Median_Mittelwert" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="106">
   <si>
     <t>Meldejahr</t>
   </si>
@@ -312,16 +313,44 @@
   </si>
   <si>
     <t>2021-KW17</t>
+  </si>
+  <si>
+    <t>Altersmedian alle COVID-19-Fälle</t>
+  </si>
+  <si>
+    <t>Altersmedian hospitalisierte Fälle</t>
+  </si>
+  <si>
+    <t>Altersmedian der Fälle auf Intensivstation</t>
+  </si>
+  <si>
+    <t>Altersmedian der verstorbenen COVID-19-Fälle</t>
+  </si>
+  <si>
+    <t>Anzahl COVID-19-Fälle</t>
+  </si>
+  <si>
+    <t>Mittelwert Alter alle COVID-19-Fälle</t>
+  </si>
+  <si>
+    <t>Mittelwert Alter hospitalisierte Fälle</t>
+  </si>
+  <si>
+    <t>Mittelwert Alter  Fälle auf Intensivstation</t>
+  </si>
+  <si>
+    <t>Mittelwert Alter der verstorbenen COVID-19-Fälle</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -346,6 +375,12 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -396,7 +431,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -500,6 +535,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -817,18 +862,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{872BAA18-906B-41C7-A8B5-537096EA6980}">
   <dimension ref="A1:M63"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="60" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -869,7 +914,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>2020</v>
       </c>
@@ -910,7 +955,7 @@
         <v>1.337792642E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="11">
         <v>2020</v>
       </c>
@@ -951,7 +996,7 @@
         <v>1.306579561E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="17">
         <v>2020</v>
       </c>
@@ -992,7 +1037,7 @@
         <v>2.1153159580000001E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="11">
         <v>2020</v>
       </c>
@@ -1033,7 +1078,7 @@
         <v>4.2979099200000002E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="17">
         <v>2020</v>
       </c>
@@ -1074,7 +1119,7 @@
         <v>6.2631754129999995E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="11">
         <v>2020</v>
       </c>
@@ -1115,7 +1160,7 @@
         <v>6.9082339069999998E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="17">
         <v>2020</v>
       </c>
@@ -1156,7 +1201,7 @@
         <v>7.0176450230000006E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11">
         <v>2020</v>
       </c>
@@ -1197,7 +1242,7 @@
         <v>5.8499878630000002E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="17">
         <v>2020</v>
       </c>
@@ -1238,7 +1283,7 @@
         <v>5.1895670870000001E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="11">
         <v>2020</v>
       </c>
@@ -1279,7 +1324,7 @@
         <v>4.1192498789999997E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="17">
         <v>2020</v>
       </c>
@@ -1320,7 +1365,7 @@
         <v>3.4446544840000003E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="11">
         <v>2020</v>
       </c>
@@ -1361,7 +1406,7 @@
         <v>3.1380172169999998E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="17">
         <v>2020</v>
       </c>
@@ -1402,7 +1447,7 @@
         <v>2.026816339E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="11">
         <v>2020</v>
       </c>
@@ -1443,7 +1488,7 @@
         <v>1.9140791149999999E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="17">
         <v>2020</v>
       </c>
@@ -1484,7 +1529,7 @@
         <v>1.409052092E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="11">
         <v>2020</v>
       </c>
@@ -1525,7 +1570,7 @@
         <v>9.9369849699999999E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="17">
         <v>2020</v>
       </c>
@@ -1566,7 +1611,7 @@
         <v>7.1628776E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="11">
         <v>2020</v>
       </c>
@@ -1607,7 +1652,7 @@
         <v>9.6654275000000005E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="17">
         <v>2020</v>
       </c>
@@ -1648,7 +1693,7 @@
         <v>1.030502885E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="11">
         <v>2020</v>
       </c>
@@ -1689,7 +1734,7 @@
         <v>9.9469495999999994E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="17">
         <v>2020</v>
       </c>
@@ -1730,7 +1775,7 @@
         <v>8.3990837299999996E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="11">
         <v>2020</v>
       </c>
@@ -1771,7 +1816,7 @@
         <v>6.6348745500000002E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="17">
         <v>2020</v>
       </c>
@@ -1812,7 +1857,7 @@
         <v>5.1205814299999999E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="11">
         <v>2020</v>
       </c>
@@ -1853,7 +1898,7 @@
         <v>3.7740596299999998E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="17">
         <v>2020</v>
       </c>
@@ -1894,7 +1939,7 @@
         <v>3.12793243E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="11">
         <v>2020</v>
       </c>
@@ -1935,7 +1980,7 @@
         <v>2.04081632E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="17">
         <v>2020</v>
       </c>
@@ -1976,7 +2021,7 @@
         <v>4.1787579800000004E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="11">
         <v>2020</v>
       </c>
@@ -2017,7 +2062,7 @@
         <v>6.7567567499999997E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="17">
         <v>2020</v>
       </c>
@@ -2058,7 +2103,7 @@
         <v>6.5072393000000003E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="11">
         <v>2020</v>
       </c>
@@ -2099,7 +2144,7 @@
         <v>8.1904470300000008E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="17">
         <v>2020</v>
       </c>
@@ -2140,7 +2185,7 @@
         <v>7.5966850800000003E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="18">
         <v>2020</v>
       </c>
@@ -2181,7 +2226,7 @@
         <v>9.1479751899999993E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="17">
         <v>2020</v>
       </c>
@@ -2222,7 +2267,7 @@
         <v>1.0906239599999999E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="18">
         <v>2020</v>
       </c>
@@ -2263,7 +2308,7 @@
         <v>1.324671505E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="17">
         <v>2020</v>
       </c>
@@ -2304,7 +2349,7 @@
         <v>1.433227101E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="18">
         <v>2020</v>
       </c>
@@ -2345,7 +2390,7 @@
         <v>1.4770179810000001E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="17">
         <v>2020</v>
       </c>
@@ -2386,7 +2431,7 @@
         <v>1.931335507E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="18">
         <v>2020</v>
       </c>
@@ -2427,7 +2472,7 @@
         <v>2.4524115379999999E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="17">
         <v>2020</v>
       </c>
@@ -2468,7 +2513,7 @@
         <v>2.846992408E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="18">
         <v>2020</v>
       </c>
@@ -2509,7 +2554,7 @@
         <v>3.402625905E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="17">
         <v>2020</v>
       </c>
@@ -2550,7 +2595,7 @@
         <v>3.5810823759999999E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="18">
         <v>2020</v>
       </c>
@@ -2591,7 +2636,7 @@
         <v>3.5899107380000003E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="17">
         <v>2020</v>
       </c>
@@ -2632,7 +2677,7 @@
         <v>4.0006036469999999E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="18">
         <v>2020</v>
       </c>
@@ -2673,7 +2718,7 @@
         <v>4.5058505409999998E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="25">
         <v>2021</v>
       </c>
@@ -2714,7 +2759,7 @@
         <v>3.8066967620000003E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="18">
         <v>2021</v>
       </c>
@@ -2755,7 +2800,7 @@
         <v>4.1461919040000003E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="17">
         <v>2021</v>
       </c>
@@ -2796,7 +2841,7 @@
         <v>4.1087006539999998E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="18">
         <v>2021</v>
       </c>
@@ -2837,7 +2882,7 @@
         <v>3.8198083059999999E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="17">
         <v>2021</v>
       </c>
@@ -2878,7 +2923,7 @@
         <v>3.3137979550000002E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="18">
         <v>2021</v>
       </c>
@@ -2919,7 +2964,7 @@
         <v>3.169422543E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="17">
         <v>2021</v>
       </c>
@@ -2960,7 +3005,7 @@
         <v>2.6652187989999999E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="18">
         <v>2021</v>
       </c>
@@ -3001,7 +3046,7 @@
         <v>2.030115146E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="17">
         <v>2021</v>
       </c>
@@ -3042,7 +3087,7 @@
         <v>1.6307692299999999E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="18">
         <v>2021</v>
       </c>
@@ -3083,7 +3128,7 @@
         <v>1.392465293E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="17">
         <v>2021</v>
       </c>
@@ -3124,7 +3169,7 @@
         <v>1.2201562920000001E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="18">
         <v>2021</v>
       </c>
@@ -3165,7 +3210,7 @@
         <v>1.122680023E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="17">
         <v>2021</v>
       </c>
@@ -3206,7 +3251,7 @@
         <v>1.1294676010000001E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="18">
         <v>2021</v>
       </c>
@@ -3247,7 +3292,7 @@
         <v>9.2137125600000001E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="17">
         <v>2021</v>
       </c>
@@ -3288,7 +3333,7 @@
         <v>6.5662092699999997E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="18">
         <v>2021</v>
       </c>
@@ -3329,7 +3374,7 @@
         <v>3.64672207E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="25">
         <v>2021</v>
       </c>
@@ -3372,7 +3417,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3380,19 +3425,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29EE44EF-F204-44BC-9DFD-46318AB81991}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="33"/>
-    <col min="2" max="2" width="13.85546875" style="33" customWidth="1"/>
-    <col min="3" max="8" width="14.140625" style="33" customWidth="1"/>
-    <col min="9" max="16384" width="11.42578125" style="33"/>
+    <col min="1" max="1" width="11.44140625" style="33"/>
+    <col min="2" max="2" width="13.88671875" style="33" customWidth="1"/>
+    <col min="3" max="8" width="14.109375" style="33" customWidth="1"/>
+    <col min="9" max="16384" width="11.44140625" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C1" s="33" t="s">
         <v>2</v>
       </c>
@@ -3412,7 +3457,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
         <v>0</v>
       </c>
@@ -3438,7 +3483,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>60</v>
       </c>
@@ -3467,7 +3512,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>60</v>
       </c>
@@ -3496,7 +3541,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>60</v>
       </c>
@@ -3525,7 +3570,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>60</v>
       </c>
@@ -3554,7 +3599,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>60</v>
       </c>
@@ -3583,7 +3628,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>60</v>
       </c>
@@ -3612,7 +3657,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>60</v>
       </c>
@@ -3641,7 +3686,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>60</v>
       </c>
@@ -3670,7 +3715,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>60</v>
       </c>
@@ -3699,7 +3744,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>60</v>
       </c>
@@ -3728,7 +3773,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>60</v>
       </c>
@@ -3757,7 +3802,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>60</v>
       </c>
@@ -3786,7 +3831,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>60</v>
       </c>
@@ -3815,7 +3860,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>60</v>
       </c>
@@ -3844,7 +3889,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>60</v>
       </c>
@@ -3873,7 +3918,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>60</v>
       </c>
@@ -3902,7 +3947,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>60</v>
       </c>
@@ -3931,7 +3976,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>78</v>
       </c>
@@ -3960,7 +4005,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>78</v>
       </c>
@@ -3989,7 +4034,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>78</v>
       </c>
@@ -4018,7 +4063,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>78</v>
       </c>
@@ -4047,7 +4092,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>78</v>
       </c>
@@ -4076,7 +4121,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>78</v>
       </c>
@@ -4105,7 +4150,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>78</v>
       </c>
@@ -4134,7 +4179,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>78</v>
       </c>
@@ -4163,7 +4208,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>78</v>
       </c>
@@ -4192,7 +4237,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>78</v>
       </c>
@@ -4221,7 +4266,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>78</v>
       </c>
@@ -4250,7 +4295,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>78</v>
       </c>
@@ -4279,7 +4324,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>78</v>
       </c>
@@ -4308,7 +4353,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>78</v>
       </c>
@@ -4337,7 +4382,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>78</v>
       </c>
@@ -4366,7 +4411,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>78</v>
       </c>
@@ -4395,7 +4440,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>78</v>
       </c>
@@ -4426,6 +4471,2649 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F87D2359-5081-43B1-AB89-5DA93CF5FD72}">
+  <dimension ref="A1:N63"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N63" sqref="A63:N63"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" customWidth="1"/>
+    <col min="6" max="7" width="17.44140625" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" customWidth="1"/>
+    <col min="9" max="9" width="13.109375" customWidth="1"/>
+    <col min="10" max="10" width="15" customWidth="1"/>
+    <col min="11" max="11" width="14.5546875" customWidth="1"/>
+    <col min="12" max="12" width="15.33203125" customWidth="1"/>
+    <col min="13" max="13" width="15.88671875" customWidth="1"/>
+    <col min="14" max="14" width="16.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="40.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A1" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="K1" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="L1" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="M1" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="N1" s="36" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="38">
+        <v>2020</v>
+      </c>
+      <c r="B2" s="38">
+        <v>10</v>
+      </c>
+      <c r="C2" s="39">
+        <v>45</v>
+      </c>
+      <c r="D2" s="39">
+        <v>51</v>
+      </c>
+      <c r="E2" s="37">
+        <v>69.5</v>
+      </c>
+      <c r="F2" s="39">
+        <v>79</v>
+      </c>
+      <c r="G2" s="39"/>
+      <c r="H2">
+        <v>2020</v>
+      </c>
+      <c r="I2">
+        <v>10</v>
+      </c>
+      <c r="J2">
+        <v>897</v>
+      </c>
+      <c r="K2">
+        <v>43</v>
+      </c>
+      <c r="L2">
+        <v>50</v>
+      </c>
+      <c r="M2">
+        <v>66</v>
+      </c>
+      <c r="N2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="38">
+        <v>2020</v>
+      </c>
+      <c r="B3" s="38">
+        <v>11</v>
+      </c>
+      <c r="C3" s="39">
+        <v>47</v>
+      </c>
+      <c r="D3" s="39">
+        <v>58</v>
+      </c>
+      <c r="E3" s="39">
+        <v>67</v>
+      </c>
+      <c r="F3" s="39">
+        <v>80</v>
+      </c>
+      <c r="G3" s="39"/>
+      <c r="H3">
+        <v>2020</v>
+      </c>
+      <c r="I3">
+        <v>11</v>
+      </c>
+      <c r="J3">
+        <v>6429</v>
+      </c>
+      <c r="K3">
+        <v>45</v>
+      </c>
+      <c r="L3">
+        <v>57</v>
+      </c>
+      <c r="M3">
+        <v>66</v>
+      </c>
+      <c r="N3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="38">
+        <v>2020</v>
+      </c>
+      <c r="B4" s="38">
+        <v>12</v>
+      </c>
+      <c r="C4" s="39">
+        <v>47</v>
+      </c>
+      <c r="D4" s="39">
+        <v>64</v>
+      </c>
+      <c r="E4" s="39">
+        <v>69</v>
+      </c>
+      <c r="F4" s="39">
+        <v>80</v>
+      </c>
+      <c r="G4" s="39"/>
+      <c r="H4">
+        <v>2020</v>
+      </c>
+      <c r="I4">
+        <v>12</v>
+      </c>
+      <c r="J4">
+        <v>22408</v>
+      </c>
+      <c r="K4">
+        <v>45</v>
+      </c>
+      <c r="L4">
+        <v>63</v>
+      </c>
+      <c r="M4">
+        <v>67</v>
+      </c>
+      <c r="N4">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="38">
+        <v>2020</v>
+      </c>
+      <c r="B5" s="38">
+        <v>13</v>
+      </c>
+      <c r="C5" s="39">
+        <v>49</v>
+      </c>
+      <c r="D5" s="39">
+        <v>69</v>
+      </c>
+      <c r="E5" s="39">
+        <v>70</v>
+      </c>
+      <c r="F5" s="39">
+        <v>80</v>
+      </c>
+      <c r="G5" s="39"/>
+      <c r="H5">
+        <v>2020</v>
+      </c>
+      <c r="I5">
+        <v>13</v>
+      </c>
+      <c r="J5">
+        <v>33970</v>
+      </c>
+      <c r="K5">
+        <v>48</v>
+      </c>
+      <c r="L5">
+        <v>65</v>
+      </c>
+      <c r="M5">
+        <v>68</v>
+      </c>
+      <c r="N5">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="38">
+        <v>2020</v>
+      </c>
+      <c r="B6" s="38">
+        <v>14</v>
+      </c>
+      <c r="C6" s="39">
+        <v>52</v>
+      </c>
+      <c r="D6" s="39">
+        <v>72</v>
+      </c>
+      <c r="E6" s="39">
+        <v>71</v>
+      </c>
+      <c r="F6" s="39">
+        <v>83</v>
+      </c>
+      <c r="G6" s="39"/>
+      <c r="H6">
+        <v>2020</v>
+      </c>
+      <c r="I6">
+        <v>14</v>
+      </c>
+      <c r="J6">
+        <v>36052</v>
+      </c>
+      <c r="K6">
+        <v>51</v>
+      </c>
+      <c r="L6">
+        <v>68</v>
+      </c>
+      <c r="M6">
+        <v>68</v>
+      </c>
+      <c r="N6">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="38">
+        <v>2020</v>
+      </c>
+      <c r="B7" s="38">
+        <v>15</v>
+      </c>
+      <c r="C7" s="39">
+        <v>52</v>
+      </c>
+      <c r="D7" s="39">
+        <v>74</v>
+      </c>
+      <c r="E7" s="39">
+        <v>71</v>
+      </c>
+      <c r="F7" s="39">
+        <v>83</v>
+      </c>
+      <c r="G7" s="39"/>
+      <c r="H7">
+        <v>2020</v>
+      </c>
+      <c r="I7">
+        <v>15</v>
+      </c>
+      <c r="J7">
+        <v>27156</v>
+      </c>
+      <c r="K7">
+        <v>52</v>
+      </c>
+      <c r="L7">
+        <v>69</v>
+      </c>
+      <c r="M7">
+        <v>69</v>
+      </c>
+      <c r="N7">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="38">
+        <v>2020</v>
+      </c>
+      <c r="B8" s="38">
+        <v>16</v>
+      </c>
+      <c r="C8" s="39">
+        <v>52</v>
+      </c>
+      <c r="D8" s="39">
+        <v>75</v>
+      </c>
+      <c r="E8" s="39">
+        <v>71</v>
+      </c>
+      <c r="F8" s="39">
+        <v>83</v>
+      </c>
+      <c r="G8" s="39"/>
+      <c r="H8">
+        <v>2020</v>
+      </c>
+      <c r="I8">
+        <v>16</v>
+      </c>
+      <c r="J8">
+        <v>17342</v>
+      </c>
+      <c r="K8">
+        <v>51</v>
+      </c>
+      <c r="L8">
+        <v>69</v>
+      </c>
+      <c r="M8">
+        <v>68</v>
+      </c>
+      <c r="N8">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="38">
+        <v>2020</v>
+      </c>
+      <c r="B9" s="38">
+        <v>17</v>
+      </c>
+      <c r="C9" s="39">
+        <v>50</v>
+      </c>
+      <c r="D9" s="37">
+        <v>74.5</v>
+      </c>
+      <c r="E9" s="39">
+        <v>71</v>
+      </c>
+      <c r="F9" s="39">
+        <v>84</v>
+      </c>
+      <c r="G9" s="39"/>
+      <c r="H9">
+        <v>2020</v>
+      </c>
+      <c r="I9">
+        <v>17</v>
+      </c>
+      <c r="J9">
+        <v>12359</v>
+      </c>
+      <c r="K9">
+        <v>50</v>
+      </c>
+      <c r="L9">
+        <v>67</v>
+      </c>
+      <c r="M9">
+        <v>68</v>
+      </c>
+      <c r="N9">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="38">
+        <v>2020</v>
+      </c>
+      <c r="B10" s="38">
+        <v>18</v>
+      </c>
+      <c r="C10" s="39">
+        <v>48</v>
+      </c>
+      <c r="D10" s="39">
+        <v>72</v>
+      </c>
+      <c r="E10" s="39">
+        <v>70</v>
+      </c>
+      <c r="F10" s="39">
+        <v>82</v>
+      </c>
+      <c r="G10" s="39"/>
+      <c r="H10">
+        <v>2020</v>
+      </c>
+      <c r="I10">
+        <v>18</v>
+      </c>
+      <c r="J10">
+        <v>7438</v>
+      </c>
+      <c r="K10">
+        <v>48</v>
+      </c>
+      <c r="L10">
+        <v>66</v>
+      </c>
+      <c r="M10">
+        <v>68</v>
+      </c>
+      <c r="N10">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="38">
+        <v>2020</v>
+      </c>
+      <c r="B11" s="38">
+        <v>19</v>
+      </c>
+      <c r="C11" s="39">
+        <v>46</v>
+      </c>
+      <c r="D11" s="39">
+        <v>71</v>
+      </c>
+      <c r="E11" s="39">
+        <v>71</v>
+      </c>
+      <c r="F11" s="39">
+        <v>82</v>
+      </c>
+      <c r="G11" s="39"/>
+      <c r="H11">
+        <v>2020</v>
+      </c>
+      <c r="I11">
+        <v>19</v>
+      </c>
+      <c r="J11">
+        <v>6239</v>
+      </c>
+      <c r="K11">
+        <v>47</v>
+      </c>
+      <c r="L11">
+        <v>66</v>
+      </c>
+      <c r="M11">
+        <v>69</v>
+      </c>
+      <c r="N11">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="38">
+        <v>2020</v>
+      </c>
+      <c r="B12" s="38">
+        <v>20</v>
+      </c>
+      <c r="C12" s="39">
+        <v>44</v>
+      </c>
+      <c r="D12" s="39">
+        <v>71</v>
+      </c>
+      <c r="E12" s="39">
+        <v>74</v>
+      </c>
+      <c r="F12" s="39">
+        <v>84</v>
+      </c>
+      <c r="G12" s="39"/>
+      <c r="H12">
+        <v>2020</v>
+      </c>
+      <c r="I12">
+        <v>20</v>
+      </c>
+      <c r="J12">
+        <v>4761</v>
+      </c>
+      <c r="K12">
+        <v>45</v>
+      </c>
+      <c r="L12">
+        <v>64</v>
+      </c>
+      <c r="M12">
+        <v>70</v>
+      </c>
+      <c r="N12">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="38">
+        <v>2020</v>
+      </c>
+      <c r="B13" s="38">
+        <v>21</v>
+      </c>
+      <c r="C13" s="39">
+        <v>41</v>
+      </c>
+      <c r="D13" s="39">
+        <v>69</v>
+      </c>
+      <c r="E13" s="39">
+        <v>72</v>
+      </c>
+      <c r="F13" s="39">
+        <v>84</v>
+      </c>
+      <c r="G13" s="39"/>
+      <c r="H13">
+        <v>2020</v>
+      </c>
+      <c r="I13">
+        <v>21</v>
+      </c>
+      <c r="J13">
+        <v>3601</v>
+      </c>
+      <c r="K13">
+        <v>44</v>
+      </c>
+      <c r="L13">
+        <v>65</v>
+      </c>
+      <c r="M13">
+        <v>72</v>
+      </c>
+      <c r="N13">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="38">
+        <v>2020</v>
+      </c>
+      <c r="B14" s="38">
+        <v>22</v>
+      </c>
+      <c r="C14" s="39">
+        <v>40</v>
+      </c>
+      <c r="D14" s="37">
+        <v>67.5</v>
+      </c>
+      <c r="E14" s="39">
+        <v>70</v>
+      </c>
+      <c r="F14" s="39">
+        <v>80</v>
+      </c>
+      <c r="G14" s="39"/>
+      <c r="H14">
+        <v>2020</v>
+      </c>
+      <c r="I14">
+        <v>22</v>
+      </c>
+      <c r="J14">
+        <v>3207</v>
+      </c>
+      <c r="K14">
+        <v>42</v>
+      </c>
+      <c r="L14">
+        <v>63</v>
+      </c>
+      <c r="M14">
+        <v>65</v>
+      </c>
+      <c r="N14">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="38">
+        <v>2020</v>
+      </c>
+      <c r="B15" s="38">
+        <v>23</v>
+      </c>
+      <c r="C15" s="39">
+        <v>36</v>
+      </c>
+      <c r="D15" s="39">
+        <v>63</v>
+      </c>
+      <c r="E15" s="39">
+        <v>60</v>
+      </c>
+      <c r="F15" s="39">
+        <v>80</v>
+      </c>
+      <c r="G15" s="39"/>
+      <c r="H15">
+        <v>2020</v>
+      </c>
+      <c r="I15">
+        <v>23</v>
+      </c>
+      <c r="J15">
+        <v>2351</v>
+      </c>
+      <c r="K15">
+        <v>39</v>
+      </c>
+      <c r="L15">
+        <v>60</v>
+      </c>
+      <c r="M15">
+        <v>58</v>
+      </c>
+      <c r="N15">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="38">
+        <v>2020</v>
+      </c>
+      <c r="B16" s="38">
+        <v>24</v>
+      </c>
+      <c r="C16" s="39">
+        <v>34</v>
+      </c>
+      <c r="D16" s="39">
+        <v>59</v>
+      </c>
+      <c r="E16" s="37">
+        <v>61.5</v>
+      </c>
+      <c r="F16" s="39">
+        <v>83</v>
+      </c>
+      <c r="G16" s="39"/>
+      <c r="H16">
+        <v>2020</v>
+      </c>
+      <c r="I16">
+        <v>24</v>
+      </c>
+      <c r="J16">
+        <v>2342</v>
+      </c>
+      <c r="K16">
+        <v>37</v>
+      </c>
+      <c r="L16">
+        <v>56</v>
+      </c>
+      <c r="M16">
+        <v>60</v>
+      </c>
+      <c r="N16">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" s="38">
+        <v>2020</v>
+      </c>
+      <c r="B17" s="38">
+        <v>25</v>
+      </c>
+      <c r="C17" s="39">
+        <v>36</v>
+      </c>
+      <c r="D17" s="39">
+        <v>55</v>
+      </c>
+      <c r="E17" s="37">
+        <v>62.5</v>
+      </c>
+      <c r="F17" s="39">
+        <v>76</v>
+      </c>
+      <c r="G17" s="39"/>
+      <c r="H17">
+        <v>2020</v>
+      </c>
+      <c r="I17">
+        <v>25</v>
+      </c>
+      <c r="J17">
+        <v>4126</v>
+      </c>
+      <c r="K17">
+        <v>36</v>
+      </c>
+      <c r="L17">
+        <v>56</v>
+      </c>
+      <c r="M17">
+        <v>65</v>
+      </c>
+      <c r="N17">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" s="38">
+        <v>2020</v>
+      </c>
+      <c r="B18" s="38">
+        <v>26</v>
+      </c>
+      <c r="C18" s="39">
+        <v>36</v>
+      </c>
+      <c r="D18" s="39">
+        <v>57</v>
+      </c>
+      <c r="E18" s="39">
+        <v>66</v>
+      </c>
+      <c r="F18" s="39">
+        <v>78</v>
+      </c>
+      <c r="G18" s="39"/>
+      <c r="H18">
+        <v>2020</v>
+      </c>
+      <c r="I18">
+        <v>26</v>
+      </c>
+      <c r="J18">
+        <v>3211</v>
+      </c>
+      <c r="K18">
+        <v>37</v>
+      </c>
+      <c r="L18">
+        <v>56</v>
+      </c>
+      <c r="M18">
+        <v>63</v>
+      </c>
+      <c r="N18">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="38">
+        <v>2020</v>
+      </c>
+      <c r="B19" s="38">
+        <v>27</v>
+      </c>
+      <c r="C19" s="39">
+        <v>35</v>
+      </c>
+      <c r="D19" s="39">
+        <v>53</v>
+      </c>
+      <c r="E19" s="39">
+        <v>66</v>
+      </c>
+      <c r="F19" s="37">
+        <v>77.5</v>
+      </c>
+      <c r="G19" s="37"/>
+      <c r="H19">
+        <v>2020</v>
+      </c>
+      <c r="I19">
+        <v>27</v>
+      </c>
+      <c r="J19">
+        <v>2690</v>
+      </c>
+      <c r="K19">
+        <v>36</v>
+      </c>
+      <c r="L19">
+        <v>54</v>
+      </c>
+      <c r="M19">
+        <v>63</v>
+      </c>
+      <c r="N19">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="38">
+        <v>2020</v>
+      </c>
+      <c r="B20" s="38">
+        <v>28</v>
+      </c>
+      <c r="C20" s="39">
+        <v>34</v>
+      </c>
+      <c r="D20" s="39">
+        <v>54</v>
+      </c>
+      <c r="E20" s="39">
+        <v>63</v>
+      </c>
+      <c r="F20" s="39">
+        <v>79</v>
+      </c>
+      <c r="G20" s="39"/>
+      <c r="H20">
+        <v>2020</v>
+      </c>
+      <c r="I20">
+        <v>28</v>
+      </c>
+      <c r="J20">
+        <v>2426</v>
+      </c>
+      <c r="K20">
+        <v>36</v>
+      </c>
+      <c r="L20">
+        <v>54</v>
+      </c>
+      <c r="M20">
+        <v>60</v>
+      </c>
+      <c r="N20">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" s="38">
+        <v>2020</v>
+      </c>
+      <c r="B21" s="38">
+        <v>29</v>
+      </c>
+      <c r="C21" s="39">
+        <v>34</v>
+      </c>
+      <c r="D21" s="39">
+        <v>54</v>
+      </c>
+      <c r="E21" s="39">
+        <v>65</v>
+      </c>
+      <c r="F21" s="39">
+        <v>81</v>
+      </c>
+      <c r="G21" s="39"/>
+      <c r="H21">
+        <v>2020</v>
+      </c>
+      <c r="I21">
+        <v>29</v>
+      </c>
+      <c r="J21">
+        <v>3016</v>
+      </c>
+      <c r="K21">
+        <v>36</v>
+      </c>
+      <c r="L21">
+        <v>53</v>
+      </c>
+      <c r="M21">
+        <v>64</v>
+      </c>
+      <c r="N21">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" s="38">
+        <v>2020</v>
+      </c>
+      <c r="B22" s="38">
+        <v>30</v>
+      </c>
+      <c r="C22" s="39">
+        <v>35</v>
+      </c>
+      <c r="D22" s="39">
+        <v>56</v>
+      </c>
+      <c r="E22" s="39">
+        <v>64</v>
+      </c>
+      <c r="F22" s="39">
+        <v>79</v>
+      </c>
+      <c r="G22" s="39"/>
+      <c r="H22">
+        <v>2020</v>
+      </c>
+      <c r="I22">
+        <v>30</v>
+      </c>
+      <c r="J22">
+        <v>3929</v>
+      </c>
+      <c r="K22">
+        <v>36</v>
+      </c>
+      <c r="L22">
+        <v>54</v>
+      </c>
+      <c r="M22">
+        <v>60</v>
+      </c>
+      <c r="N22">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" s="38">
+        <v>2020</v>
+      </c>
+      <c r="B23" s="38">
+        <v>31</v>
+      </c>
+      <c r="C23" s="39">
+        <v>34</v>
+      </c>
+      <c r="D23" s="39">
+        <v>58</v>
+      </c>
+      <c r="E23" s="39">
+        <v>59</v>
+      </c>
+      <c r="F23" s="37">
+        <v>82.5</v>
+      </c>
+      <c r="G23" s="37"/>
+      <c r="H23">
+        <v>2020</v>
+      </c>
+      <c r="I23">
+        <v>31</v>
+      </c>
+      <c r="J23">
+        <v>4823</v>
+      </c>
+      <c r="K23">
+        <v>36</v>
+      </c>
+      <c r="L23">
+        <v>57</v>
+      </c>
+      <c r="M23">
+        <v>60</v>
+      </c>
+      <c r="N23">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24" s="38">
+        <v>2020</v>
+      </c>
+      <c r="B24" s="38">
+        <v>32</v>
+      </c>
+      <c r="C24" s="39">
+        <v>32</v>
+      </c>
+      <c r="D24" s="39">
+        <v>56</v>
+      </c>
+      <c r="E24" s="39">
+        <v>72</v>
+      </c>
+      <c r="F24" s="39">
+        <v>85</v>
+      </c>
+      <c r="G24" s="39"/>
+      <c r="H24">
+        <v>2020</v>
+      </c>
+      <c r="I24">
+        <v>32</v>
+      </c>
+      <c r="J24">
+        <v>6054</v>
+      </c>
+      <c r="K24">
+        <v>34</v>
+      </c>
+      <c r="L24">
+        <v>54</v>
+      </c>
+      <c r="M24">
+        <v>68</v>
+      </c>
+      <c r="N24">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25" s="38">
+        <v>2020</v>
+      </c>
+      <c r="B25" s="38">
+        <v>33</v>
+      </c>
+      <c r="C25" s="39">
+        <v>30</v>
+      </c>
+      <c r="D25" s="39">
+        <v>56</v>
+      </c>
+      <c r="E25" s="37">
+        <v>62.5</v>
+      </c>
+      <c r="F25" s="39">
+        <v>83</v>
+      </c>
+      <c r="G25" s="39"/>
+      <c r="H25">
+        <v>2020</v>
+      </c>
+      <c r="I25">
+        <v>33</v>
+      </c>
+      <c r="J25">
+        <v>7949</v>
+      </c>
+      <c r="K25">
+        <v>32</v>
+      </c>
+      <c r="L25">
+        <v>53</v>
+      </c>
+      <c r="M25">
+        <v>61</v>
+      </c>
+      <c r="N25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26" s="38">
+        <v>2020</v>
+      </c>
+      <c r="B26" s="38">
+        <v>34</v>
+      </c>
+      <c r="C26" s="39">
+        <v>29</v>
+      </c>
+      <c r="D26" s="39">
+        <v>51</v>
+      </c>
+      <c r="E26" s="39">
+        <v>63</v>
+      </c>
+      <c r="F26" s="39">
+        <v>75</v>
+      </c>
+      <c r="G26" s="39"/>
+      <c r="H26">
+        <v>2020</v>
+      </c>
+      <c r="I26">
+        <v>34</v>
+      </c>
+      <c r="J26">
+        <v>9591</v>
+      </c>
+      <c r="K26">
+        <v>32</v>
+      </c>
+      <c r="L26">
+        <v>50</v>
+      </c>
+      <c r="M26">
+        <v>62</v>
+      </c>
+      <c r="N26">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A27" s="38">
+        <v>2020</v>
+      </c>
+      <c r="B27" s="38">
+        <v>35</v>
+      </c>
+      <c r="C27" s="39">
+        <v>29</v>
+      </c>
+      <c r="D27" s="37">
+        <v>51.5</v>
+      </c>
+      <c r="E27" s="37">
+        <v>57.5</v>
+      </c>
+      <c r="F27" s="37">
+        <v>76.5</v>
+      </c>
+      <c r="G27" s="37"/>
+      <c r="H27">
+        <v>2020</v>
+      </c>
+      <c r="I27">
+        <v>35</v>
+      </c>
+      <c r="J27">
+        <v>8820</v>
+      </c>
+      <c r="K27">
+        <v>32</v>
+      </c>
+      <c r="L27">
+        <v>51</v>
+      </c>
+      <c r="M27">
+        <v>58</v>
+      </c>
+      <c r="N27">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28" s="38">
+        <v>2020</v>
+      </c>
+      <c r="B28" s="38">
+        <v>36</v>
+      </c>
+      <c r="C28" s="39">
+        <v>30</v>
+      </c>
+      <c r="D28" s="39">
+        <v>55</v>
+      </c>
+      <c r="E28" s="39">
+        <v>64</v>
+      </c>
+      <c r="F28" s="37">
+        <v>78.5</v>
+      </c>
+      <c r="G28" s="37"/>
+      <c r="H28">
+        <v>2020</v>
+      </c>
+      <c r="I28">
+        <v>36</v>
+      </c>
+      <c r="J28">
+        <v>8615</v>
+      </c>
+      <c r="K28">
+        <v>33</v>
+      </c>
+      <c r="L28">
+        <v>54</v>
+      </c>
+      <c r="M28">
+        <v>64</v>
+      </c>
+      <c r="N28">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A29" s="38">
+        <v>2020</v>
+      </c>
+      <c r="B29" s="38">
+        <v>37</v>
+      </c>
+      <c r="C29" s="39">
+        <v>32</v>
+      </c>
+      <c r="D29" s="39">
+        <v>60</v>
+      </c>
+      <c r="E29" s="39">
+        <v>71</v>
+      </c>
+      <c r="F29" s="39">
+        <v>81</v>
+      </c>
+      <c r="G29" s="39"/>
+      <c r="H29">
+        <v>2020</v>
+      </c>
+      <c r="I29">
+        <v>37</v>
+      </c>
+      <c r="J29">
+        <v>9768</v>
+      </c>
+      <c r="K29">
+        <v>35</v>
+      </c>
+      <c r="L29">
+        <v>57</v>
+      </c>
+      <c r="M29">
+        <v>65</v>
+      </c>
+      <c r="N29">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A30" s="38">
+        <v>2020</v>
+      </c>
+      <c r="B30" s="38">
+        <v>38</v>
+      </c>
+      <c r="C30" s="39">
+        <v>33</v>
+      </c>
+      <c r="D30" s="39">
+        <v>60</v>
+      </c>
+      <c r="E30" s="37">
+        <v>61.5</v>
+      </c>
+      <c r="F30" s="39">
+        <v>81</v>
+      </c>
+      <c r="G30" s="39"/>
+      <c r="H30">
+        <v>2020</v>
+      </c>
+      <c r="I30">
+        <v>38</v>
+      </c>
+      <c r="J30">
+        <v>12294</v>
+      </c>
+      <c r="K30">
+        <v>36</v>
+      </c>
+      <c r="L30">
+        <v>59</v>
+      </c>
+      <c r="M30">
+        <v>60</v>
+      </c>
+      <c r="N30">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A31" s="38">
+        <v>2020</v>
+      </c>
+      <c r="B31" s="38">
+        <v>39</v>
+      </c>
+      <c r="C31" s="39">
+        <v>34</v>
+      </c>
+      <c r="D31" s="39">
+        <v>61</v>
+      </c>
+      <c r="E31" s="37">
+        <v>68.5</v>
+      </c>
+      <c r="F31" s="39">
+        <v>83</v>
+      </c>
+      <c r="G31" s="39"/>
+      <c r="H31">
+        <v>2020</v>
+      </c>
+      <c r="I31">
+        <v>39</v>
+      </c>
+      <c r="J31">
+        <v>13064</v>
+      </c>
+      <c r="K31">
+        <v>37</v>
+      </c>
+      <c r="L31">
+        <v>58</v>
+      </c>
+      <c r="M31">
+        <v>65</v>
+      </c>
+      <c r="N31">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A32" s="38">
+        <v>2020</v>
+      </c>
+      <c r="B32" s="38">
+        <v>40</v>
+      </c>
+      <c r="C32" s="39">
+        <v>35</v>
+      </c>
+      <c r="D32" s="39">
+        <v>61</v>
+      </c>
+      <c r="E32" s="39">
+        <v>68</v>
+      </c>
+      <c r="F32" s="39">
+        <v>82</v>
+      </c>
+      <c r="G32" s="39"/>
+      <c r="H32">
+        <v>2020</v>
+      </c>
+      <c r="I32">
+        <v>40</v>
+      </c>
+      <c r="J32">
+        <v>15928</v>
+      </c>
+      <c r="K32">
+        <v>38</v>
+      </c>
+      <c r="L32">
+        <v>58</v>
+      </c>
+      <c r="M32">
+        <v>66</v>
+      </c>
+      <c r="N32">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A33" s="38">
+        <v>2020</v>
+      </c>
+      <c r="B33" s="38">
+        <v>41</v>
+      </c>
+      <c r="C33" s="39">
+        <v>37</v>
+      </c>
+      <c r="D33" s="39">
+        <v>62</v>
+      </c>
+      <c r="E33" s="39">
+        <v>69</v>
+      </c>
+      <c r="F33" s="39">
+        <v>82</v>
+      </c>
+      <c r="G33" s="39"/>
+      <c r="H33">
+        <v>2020</v>
+      </c>
+      <c r="I33">
+        <v>41</v>
+      </c>
+      <c r="J33">
+        <v>26126</v>
+      </c>
+      <c r="K33">
+        <v>39</v>
+      </c>
+      <c r="L33">
+        <v>59</v>
+      </c>
+      <c r="M33">
+        <v>67</v>
+      </c>
+      <c r="N33">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A34" s="38">
+        <v>2020</v>
+      </c>
+      <c r="B34" s="38">
+        <v>42</v>
+      </c>
+      <c r="C34" s="39">
+        <v>37</v>
+      </c>
+      <c r="D34" s="39">
+        <v>65</v>
+      </c>
+      <c r="E34" s="39">
+        <v>69</v>
+      </c>
+      <c r="F34" s="39">
+        <v>83</v>
+      </c>
+      <c r="G34" s="39"/>
+      <c r="H34">
+        <v>2020</v>
+      </c>
+      <c r="I34">
+        <v>42</v>
+      </c>
+      <c r="J34">
+        <v>42086</v>
+      </c>
+      <c r="K34">
+        <v>39</v>
+      </c>
+      <c r="L34">
+        <v>61</v>
+      </c>
+      <c r="M34">
+        <v>66</v>
+      </c>
+      <c r="N34">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A35" s="38">
+        <v>2020</v>
+      </c>
+      <c r="B35" s="38">
+        <v>43</v>
+      </c>
+      <c r="C35" s="39">
+        <v>39</v>
+      </c>
+      <c r="D35" s="39">
+        <v>67</v>
+      </c>
+      <c r="E35" s="39">
+        <v>72</v>
+      </c>
+      <c r="F35" s="39">
+        <v>83</v>
+      </c>
+      <c r="G35" s="39"/>
+      <c r="H35">
+        <v>2020</v>
+      </c>
+      <c r="I35">
+        <v>43</v>
+      </c>
+      <c r="J35">
+        <v>74811</v>
+      </c>
+      <c r="K35">
+        <v>40</v>
+      </c>
+      <c r="L35">
+        <v>63</v>
+      </c>
+      <c r="M35">
+        <v>68</v>
+      </c>
+      <c r="N35">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A36" s="38">
+        <v>2020</v>
+      </c>
+      <c r="B36" s="38">
+        <v>44</v>
+      </c>
+      <c r="C36" s="39">
+        <v>40</v>
+      </c>
+      <c r="D36" s="39">
+        <v>68</v>
+      </c>
+      <c r="E36" s="39">
+        <v>71</v>
+      </c>
+      <c r="F36" s="39">
+        <v>83</v>
+      </c>
+      <c r="G36" s="39"/>
+      <c r="H36">
+        <v>2020</v>
+      </c>
+      <c r="I36">
+        <v>44</v>
+      </c>
+      <c r="J36">
+        <v>111078</v>
+      </c>
+      <c r="K36">
+        <v>41</v>
+      </c>
+      <c r="L36">
+        <v>64</v>
+      </c>
+      <c r="M36">
+        <v>68</v>
+      </c>
+      <c r="N36">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A37" s="38">
+        <v>2020</v>
+      </c>
+      <c r="B37" s="38">
+        <v>45</v>
+      </c>
+      <c r="C37" s="39">
+        <v>40</v>
+      </c>
+      <c r="D37" s="39">
+        <v>70</v>
+      </c>
+      <c r="E37" s="37">
+        <v>72.5</v>
+      </c>
+      <c r="F37" s="39">
+        <v>83</v>
+      </c>
+      <c r="G37" s="39"/>
+      <c r="H37">
+        <v>2020</v>
+      </c>
+      <c r="I37">
+        <v>45</v>
+      </c>
+      <c r="J37">
+        <v>125794</v>
+      </c>
+      <c r="K37">
+        <v>41</v>
+      </c>
+      <c r="L37">
+        <v>64</v>
+      </c>
+      <c r="M37">
+        <v>69</v>
+      </c>
+      <c r="N37">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A38" s="38">
+        <v>2020</v>
+      </c>
+      <c r="B38" s="38">
+        <v>46</v>
+      </c>
+      <c r="C38" s="39">
+        <v>41</v>
+      </c>
+      <c r="D38" s="39">
+        <v>72</v>
+      </c>
+      <c r="E38" s="39">
+        <v>73</v>
+      </c>
+      <c r="F38" s="39">
+        <v>84</v>
+      </c>
+      <c r="G38" s="39"/>
+      <c r="H38">
+        <v>2020</v>
+      </c>
+      <c r="I38">
+        <v>46</v>
+      </c>
+      <c r="J38">
+        <v>127839</v>
+      </c>
+      <c r="K38">
+        <v>42</v>
+      </c>
+      <c r="L38">
+        <v>66</v>
+      </c>
+      <c r="M38">
+        <v>70</v>
+      </c>
+      <c r="N38">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A39" s="38">
+        <v>2020</v>
+      </c>
+      <c r="B39" s="38">
+        <v>47</v>
+      </c>
+      <c r="C39" s="39">
+        <v>42</v>
+      </c>
+      <c r="D39" s="39">
+        <v>73</v>
+      </c>
+      <c r="E39" s="39">
+        <v>72</v>
+      </c>
+      <c r="F39" s="39">
+        <v>84</v>
+      </c>
+      <c r="G39" s="39"/>
+      <c r="H39">
+        <v>2020</v>
+      </c>
+      <c r="I39">
+        <v>47</v>
+      </c>
+      <c r="J39">
+        <v>128445</v>
+      </c>
+      <c r="K39">
+        <v>43</v>
+      </c>
+      <c r="L39">
+        <v>67</v>
+      </c>
+      <c r="M39">
+        <v>69</v>
+      </c>
+      <c r="N39">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A40" s="38">
+        <v>2020</v>
+      </c>
+      <c r="B40" s="38">
+        <v>48</v>
+      </c>
+      <c r="C40" s="39">
+        <v>43</v>
+      </c>
+      <c r="D40" s="39">
+        <v>73</v>
+      </c>
+      <c r="E40" s="39">
+        <v>71</v>
+      </c>
+      <c r="F40" s="39">
+        <v>84</v>
+      </c>
+      <c r="G40" s="39"/>
+      <c r="H40">
+        <v>2020</v>
+      </c>
+      <c r="I40">
+        <v>48</v>
+      </c>
+      <c r="J40">
+        <v>123288</v>
+      </c>
+      <c r="K40">
+        <v>44</v>
+      </c>
+      <c r="L40">
+        <v>67</v>
+      </c>
+      <c r="M40">
+        <v>69</v>
+      </c>
+      <c r="N40">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A41" s="38">
+        <v>2020</v>
+      </c>
+      <c r="B41" s="38">
+        <v>49</v>
+      </c>
+      <c r="C41" s="39">
+        <v>44</v>
+      </c>
+      <c r="D41" s="39">
+        <v>75</v>
+      </c>
+      <c r="E41" s="39">
+        <v>73</v>
+      </c>
+      <c r="F41" s="39">
+        <v>84</v>
+      </c>
+      <c r="G41" s="39"/>
+      <c r="H41">
+        <v>2020</v>
+      </c>
+      <c r="I41">
+        <v>49</v>
+      </c>
+      <c r="J41">
+        <v>128489</v>
+      </c>
+      <c r="K41">
+        <v>45</v>
+      </c>
+      <c r="L41">
+        <v>69</v>
+      </c>
+      <c r="M41">
+        <v>70</v>
+      </c>
+      <c r="N41">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A42" s="38">
+        <v>2020</v>
+      </c>
+      <c r="B42" s="38">
+        <v>50</v>
+      </c>
+      <c r="C42" s="39">
+        <v>45</v>
+      </c>
+      <c r="D42" s="39">
+        <v>76</v>
+      </c>
+      <c r="E42" s="39">
+        <v>73</v>
+      </c>
+      <c r="F42" s="39">
+        <v>84</v>
+      </c>
+      <c r="G42" s="39"/>
+      <c r="H42">
+        <v>2020</v>
+      </c>
+      <c r="I42">
+        <v>50</v>
+      </c>
+      <c r="J42">
+        <v>156489</v>
+      </c>
+      <c r="K42">
+        <v>46</v>
+      </c>
+      <c r="L42">
+        <v>69</v>
+      </c>
+      <c r="M42">
+        <v>70</v>
+      </c>
+      <c r="N42">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A43" s="38">
+        <v>2020</v>
+      </c>
+      <c r="B43" s="38">
+        <v>51</v>
+      </c>
+      <c r="C43" s="39">
+        <v>47</v>
+      </c>
+      <c r="D43" s="39">
+        <v>76</v>
+      </c>
+      <c r="E43" s="39">
+        <v>74</v>
+      </c>
+      <c r="F43" s="39">
+        <v>84</v>
+      </c>
+      <c r="G43" s="39"/>
+      <c r="H43">
+        <v>2020</v>
+      </c>
+      <c r="I43">
+        <v>51</v>
+      </c>
+      <c r="J43">
+        <v>174879</v>
+      </c>
+      <c r="K43">
+        <v>46</v>
+      </c>
+      <c r="L43">
+        <v>69</v>
+      </c>
+      <c r="M43">
+        <v>71</v>
+      </c>
+      <c r="N43">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A44" s="38">
+        <v>2020</v>
+      </c>
+      <c r="B44" s="38">
+        <v>52</v>
+      </c>
+      <c r="C44" s="39">
+        <v>48</v>
+      </c>
+      <c r="D44" s="39">
+        <v>77</v>
+      </c>
+      <c r="E44" s="39">
+        <v>73</v>
+      </c>
+      <c r="F44" s="39">
+        <v>84</v>
+      </c>
+      <c r="G44" s="39"/>
+      <c r="H44">
+        <v>2020</v>
+      </c>
+      <c r="I44">
+        <v>52</v>
+      </c>
+      <c r="J44">
+        <v>139154</v>
+      </c>
+      <c r="K44">
+        <v>48</v>
+      </c>
+      <c r="L44">
+        <v>70</v>
+      </c>
+      <c r="M44">
+        <v>71</v>
+      </c>
+      <c r="N44">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A45" s="38">
+        <v>2020</v>
+      </c>
+      <c r="B45" s="38">
+        <v>53</v>
+      </c>
+      <c r="C45" s="39">
+        <v>49</v>
+      </c>
+      <c r="D45" s="39">
+        <v>76</v>
+      </c>
+      <c r="E45" s="39">
+        <v>73</v>
+      </c>
+      <c r="F45" s="39">
+        <v>84</v>
+      </c>
+      <c r="G45" s="39"/>
+      <c r="H45">
+        <v>2020</v>
+      </c>
+      <c r="I45">
+        <v>53</v>
+      </c>
+      <c r="J45">
+        <v>123151</v>
+      </c>
+      <c r="K45">
+        <v>49</v>
+      </c>
+      <c r="L45">
+        <v>70</v>
+      </c>
+      <c r="M45">
+        <v>70</v>
+      </c>
+      <c r="N45">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A46" s="38">
+        <v>2021</v>
+      </c>
+      <c r="B46" s="38">
+        <v>1</v>
+      </c>
+      <c r="C46" s="39">
+        <v>48</v>
+      </c>
+      <c r="D46" s="39">
+        <v>77</v>
+      </c>
+      <c r="E46" s="39">
+        <v>73</v>
+      </c>
+      <c r="F46" s="39">
+        <v>84</v>
+      </c>
+      <c r="G46" s="39"/>
+      <c r="H46">
+        <v>2021</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+      <c r="J46">
+        <v>145533</v>
+      </c>
+      <c r="K46">
+        <v>48</v>
+      </c>
+      <c r="L46">
+        <v>70</v>
+      </c>
+      <c r="M46">
+        <v>71</v>
+      </c>
+      <c r="N46">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A47" s="38">
+        <v>2021</v>
+      </c>
+      <c r="B47" s="38">
+        <v>2</v>
+      </c>
+      <c r="C47" s="39">
+        <v>48</v>
+      </c>
+      <c r="D47" s="39">
+        <v>77</v>
+      </c>
+      <c r="E47" s="39">
+        <v>75</v>
+      </c>
+      <c r="F47" s="39">
+        <v>84</v>
+      </c>
+      <c r="G47" s="39"/>
+      <c r="H47">
+        <v>2021</v>
+      </c>
+      <c r="I47">
+        <v>2</v>
+      </c>
+      <c r="J47">
+        <v>119049</v>
+      </c>
+      <c r="K47">
+        <v>48</v>
+      </c>
+      <c r="L47">
+        <v>70</v>
+      </c>
+      <c r="M47">
+        <v>72</v>
+      </c>
+      <c r="N47">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A48" s="38">
+        <v>2021</v>
+      </c>
+      <c r="B48" s="38">
+        <v>3</v>
+      </c>
+      <c r="C48" s="39">
+        <v>49</v>
+      </c>
+      <c r="D48" s="39">
+        <v>77</v>
+      </c>
+      <c r="E48" s="39">
+        <v>74</v>
+      </c>
+      <c r="F48" s="39">
+        <v>84</v>
+      </c>
+      <c r="G48" s="39"/>
+      <c r="H48">
+        <v>2021</v>
+      </c>
+      <c r="I48">
+        <v>3</v>
+      </c>
+      <c r="J48">
+        <v>95602</v>
+      </c>
+      <c r="K48">
+        <v>48</v>
+      </c>
+      <c r="L48">
+        <v>71</v>
+      </c>
+      <c r="M48">
+        <v>71</v>
+      </c>
+      <c r="N48">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A49" s="38">
+        <v>2021</v>
+      </c>
+      <c r="B49" s="38">
+        <v>4</v>
+      </c>
+      <c r="C49" s="39">
+        <v>48</v>
+      </c>
+      <c r="D49" s="39">
+        <v>76</v>
+      </c>
+      <c r="E49" s="37">
+        <v>73.5</v>
+      </c>
+      <c r="F49" s="39">
+        <v>83</v>
+      </c>
+      <c r="G49" s="39"/>
+      <c r="H49">
+        <v>2021</v>
+      </c>
+      <c r="I49">
+        <v>4</v>
+      </c>
+      <c r="J49">
+        <v>78250</v>
+      </c>
+      <c r="K49">
+        <v>48</v>
+      </c>
+      <c r="L49">
+        <v>70</v>
+      </c>
+      <c r="M49">
+        <v>70</v>
+      </c>
+      <c r="N49">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A50" s="38">
+        <v>2021</v>
+      </c>
+      <c r="B50" s="38">
+        <v>5</v>
+      </c>
+      <c r="C50" s="39">
+        <v>47</v>
+      </c>
+      <c r="D50" s="39">
+        <v>76</v>
+      </c>
+      <c r="E50" s="39">
+        <v>73</v>
+      </c>
+      <c r="F50" s="39">
+        <v>84</v>
+      </c>
+      <c r="G50" s="39"/>
+      <c r="H50">
+        <v>2021</v>
+      </c>
+      <c r="I50">
+        <v>5</v>
+      </c>
+      <c r="J50">
+        <v>64669</v>
+      </c>
+      <c r="K50">
+        <v>46</v>
+      </c>
+      <c r="L50">
+        <v>69</v>
+      </c>
+      <c r="M50">
+        <v>70</v>
+      </c>
+      <c r="N50">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A51" s="38">
+        <v>2021</v>
+      </c>
+      <c r="B51" s="38">
+        <v>6</v>
+      </c>
+      <c r="C51" s="39">
+        <v>45</v>
+      </c>
+      <c r="D51" s="39">
+        <v>74</v>
+      </c>
+      <c r="E51" s="39">
+        <v>73</v>
+      </c>
+      <c r="F51" s="39">
+        <v>83</v>
+      </c>
+      <c r="G51" s="39"/>
+      <c r="H51">
+        <v>2021</v>
+      </c>
+      <c r="I51">
+        <v>6</v>
+      </c>
+      <c r="J51">
+        <v>50861</v>
+      </c>
+      <c r="K51">
+        <v>45</v>
+      </c>
+      <c r="L51">
+        <v>69</v>
+      </c>
+      <c r="M51">
+        <v>69</v>
+      </c>
+      <c r="N51">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A52" s="38">
+        <v>2021</v>
+      </c>
+      <c r="B52" s="38">
+        <v>7</v>
+      </c>
+      <c r="C52" s="39">
+        <v>44</v>
+      </c>
+      <c r="D52" s="39">
+        <v>73</v>
+      </c>
+      <c r="E52" s="39">
+        <v>74</v>
+      </c>
+      <c r="F52" s="39">
+        <v>82</v>
+      </c>
+      <c r="G52" s="39"/>
+      <c r="H52">
+        <v>2021</v>
+      </c>
+      <c r="I52">
+        <v>7</v>
+      </c>
+      <c r="J52">
+        <v>52491</v>
+      </c>
+      <c r="K52">
+        <v>44</v>
+      </c>
+      <c r="L52">
+        <v>67</v>
+      </c>
+      <c r="M52">
+        <v>69</v>
+      </c>
+      <c r="N52">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A53" s="38">
+        <v>2021</v>
+      </c>
+      <c r="B53" s="38">
+        <v>8</v>
+      </c>
+      <c r="C53" s="39">
+        <v>42</v>
+      </c>
+      <c r="D53" s="39">
+        <v>71</v>
+      </c>
+      <c r="E53" s="39">
+        <v>71</v>
+      </c>
+      <c r="F53" s="39">
+        <v>82</v>
+      </c>
+      <c r="G53" s="39"/>
+      <c r="H53">
+        <v>2021</v>
+      </c>
+      <c r="I53">
+        <v>8</v>
+      </c>
+      <c r="J53">
+        <v>56450</v>
+      </c>
+      <c r="K53">
+        <v>42</v>
+      </c>
+      <c r="L53">
+        <v>66</v>
+      </c>
+      <c r="M53">
+        <v>67</v>
+      </c>
+      <c r="N53">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A54" s="38">
+        <v>2021</v>
+      </c>
+      <c r="B54" s="38">
+        <v>9</v>
+      </c>
+      <c r="C54" s="39">
+        <v>40</v>
+      </c>
+      <c r="D54" s="39">
+        <v>69</v>
+      </c>
+      <c r="E54" s="39">
+        <v>68</v>
+      </c>
+      <c r="F54" s="39">
+        <v>81</v>
+      </c>
+      <c r="G54" s="39"/>
+      <c r="H54">
+        <v>2021</v>
+      </c>
+      <c r="I54">
+        <v>9</v>
+      </c>
+      <c r="J54">
+        <v>58500</v>
+      </c>
+      <c r="K54">
+        <v>40</v>
+      </c>
+      <c r="L54">
+        <v>65</v>
+      </c>
+      <c r="M54">
+        <v>66</v>
+      </c>
+      <c r="N54">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A55" s="38">
+        <v>2021</v>
+      </c>
+      <c r="B55" s="38">
+        <v>10</v>
+      </c>
+      <c r="C55" s="39">
+        <v>39</v>
+      </c>
+      <c r="D55" s="39">
+        <v>67</v>
+      </c>
+      <c r="E55" s="39">
+        <v>67</v>
+      </c>
+      <c r="F55" s="39">
+        <v>81</v>
+      </c>
+      <c r="G55" s="39"/>
+      <c r="H55">
+        <v>2021</v>
+      </c>
+      <c r="I55">
+        <v>10</v>
+      </c>
+      <c r="J55">
+        <v>71456</v>
+      </c>
+      <c r="K55">
+        <v>39</v>
+      </c>
+      <c r="L55">
+        <v>63</v>
+      </c>
+      <c r="M55">
+        <v>66</v>
+      </c>
+      <c r="N55">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A56" s="38">
+        <v>2021</v>
+      </c>
+      <c r="B56" s="38">
+        <v>11</v>
+      </c>
+      <c r="C56" s="39">
+        <v>38</v>
+      </c>
+      <c r="D56" s="39">
+        <v>66</v>
+      </c>
+      <c r="E56" s="39">
+        <v>66</v>
+      </c>
+      <c r="F56" s="39">
+        <v>80</v>
+      </c>
+      <c r="G56" s="39"/>
+      <c r="H56">
+        <v>2021</v>
+      </c>
+      <c r="I56">
+        <v>11</v>
+      </c>
+      <c r="J56">
+        <v>92775</v>
+      </c>
+      <c r="K56">
+        <v>39</v>
+      </c>
+      <c r="L56">
+        <v>62</v>
+      </c>
+      <c r="M56">
+        <v>64</v>
+      </c>
+      <c r="N56">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A57" s="38">
+        <v>2021</v>
+      </c>
+      <c r="B57" s="38">
+        <v>12</v>
+      </c>
+      <c r="C57" s="39">
+        <v>38</v>
+      </c>
+      <c r="D57" s="39">
+        <v>65</v>
+      </c>
+      <c r="E57" s="39">
+        <v>68</v>
+      </c>
+      <c r="F57" s="39">
+        <v>79</v>
+      </c>
+      <c r="G57" s="39"/>
+      <c r="H57">
+        <v>2021</v>
+      </c>
+      <c r="I57">
+        <v>12</v>
+      </c>
+      <c r="J57">
+        <v>116596</v>
+      </c>
+      <c r="K57">
+        <v>38</v>
+      </c>
+      <c r="L57">
+        <v>61</v>
+      </c>
+      <c r="M57">
+        <v>65</v>
+      </c>
+      <c r="N57">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A58" s="38">
+        <v>2021</v>
+      </c>
+      <c r="B58" s="38">
+        <v>13</v>
+      </c>
+      <c r="C58" s="39">
+        <v>39</v>
+      </c>
+      <c r="D58" s="39">
+        <v>65</v>
+      </c>
+      <c r="E58" s="39">
+        <v>67</v>
+      </c>
+      <c r="F58" s="39">
+        <v>79</v>
+      </c>
+      <c r="G58" s="39"/>
+      <c r="H58">
+        <v>2021</v>
+      </c>
+      <c r="I58">
+        <v>13</v>
+      </c>
+      <c r="J58">
+        <v>110406</v>
+      </c>
+      <c r="K58">
+        <v>39</v>
+      </c>
+      <c r="L58">
+        <v>61</v>
+      </c>
+      <c r="M58">
+        <v>65</v>
+      </c>
+      <c r="N58">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A59" s="38">
+        <v>2021</v>
+      </c>
+      <c r="B59" s="38">
+        <v>14</v>
+      </c>
+      <c r="C59" s="39">
+        <v>39</v>
+      </c>
+      <c r="D59" s="39">
+        <v>63</v>
+      </c>
+      <c r="E59" s="39">
+        <v>67</v>
+      </c>
+      <c r="F59" s="39">
+        <v>79</v>
+      </c>
+      <c r="G59" s="39"/>
+      <c r="H59">
+        <v>2021</v>
+      </c>
+      <c r="I59">
+        <v>14</v>
+      </c>
+      <c r="J59">
+        <v>118519</v>
+      </c>
+      <c r="K59">
+        <v>39</v>
+      </c>
+      <c r="L59">
+        <v>60</v>
+      </c>
+      <c r="M59">
+        <v>65</v>
+      </c>
+      <c r="N59">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A60" s="38">
+        <v>2021</v>
+      </c>
+      <c r="B60" s="38">
+        <v>15</v>
+      </c>
+      <c r="C60" s="39">
+        <v>37</v>
+      </c>
+      <c r="D60" s="39">
+        <v>64</v>
+      </c>
+      <c r="E60" s="39">
+        <v>67</v>
+      </c>
+      <c r="F60" s="39">
+        <v>80</v>
+      </c>
+      <c r="G60" s="39"/>
+      <c r="H60">
+        <v>2021</v>
+      </c>
+      <c r="I60">
+        <v>15</v>
+      </c>
+      <c r="J60">
+        <v>142548</v>
+      </c>
+      <c r="K60">
+        <v>38</v>
+      </c>
+      <c r="L60">
+        <v>60</v>
+      </c>
+      <c r="M60">
+        <v>65</v>
+      </c>
+      <c r="N60">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A61" s="38">
+        <v>2021</v>
+      </c>
+      <c r="B61" s="38">
+        <v>16</v>
+      </c>
+      <c r="C61" s="39">
+        <v>37</v>
+      </c>
+      <c r="D61" s="39">
+        <v>63</v>
+      </c>
+      <c r="E61" s="39">
+        <v>66</v>
+      </c>
+      <c r="F61" s="39">
+        <v>80</v>
+      </c>
+      <c r="G61" s="39"/>
+      <c r="H61">
+        <v>2021</v>
+      </c>
+      <c r="I61">
+        <v>16</v>
+      </c>
+      <c r="J61">
+        <v>145336</v>
+      </c>
+      <c r="K61">
+        <v>37</v>
+      </c>
+      <c r="L61">
+        <v>60</v>
+      </c>
+      <c r="M61">
+        <v>63</v>
+      </c>
+      <c r="N61">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A62" s="38">
+        <v>2021</v>
+      </c>
+      <c r="B62" s="38">
+        <v>17</v>
+      </c>
+      <c r="C62" s="39">
+        <v>37</v>
+      </c>
+      <c r="D62" s="39">
+        <v>64</v>
+      </c>
+      <c r="E62" s="39">
+        <v>67</v>
+      </c>
+      <c r="F62" s="39">
+        <v>80</v>
+      </c>
+      <c r="G62" s="39"/>
+      <c r="H62">
+        <v>2021</v>
+      </c>
+      <c r="I62">
+        <v>17</v>
+      </c>
+      <c r="J62">
+        <v>124151</v>
+      </c>
+      <c r="K62">
+        <v>37</v>
+      </c>
+      <c r="L62">
+        <v>60</v>
+      </c>
+      <c r="M62">
+        <v>64</v>
+      </c>
+      <c r="N62">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A63" s="38"/>
+      <c r="B63" s="38"/>
+      <c r="C63" s="39"/>
+      <c r="D63" s="37"/>
+      <c r="E63" s="39"/>
+      <c r="F63" s="39"/>
+      <c r="G63" s="39"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/klinische_aspekte.xlsx
+++ b/data/klinische_aspekte.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20373"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D08E9B4F-1620-4887-B1E9-FC867B927A00}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B34A60E8-3779-4776-9A53-BAADEF92EFF8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11925" xr2:uid="{FD8E6CFE-D9B9-40CD-8598-94DFDA62CC99}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11928" activeTab="2" xr2:uid="{FD8E6CFE-D9B9-40CD-8598-94DFDA62CC99}"/>
   </bookViews>
   <sheets>
     <sheet name="Klinische_Aspekte" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="161">
   <si>
     <t>Meldejahr</t>
   </si>
@@ -63,15 +63,6 @@
     <t>Anteil Verstorben</t>
   </si>
   <si>
-    <t>Die dem RKI übermittelten COVID-19-Fälle nach Meldewoche und  Geschlecht sowie Anteile mit für COVID-19 relevanten Symptomen, Anteile Hospitalisierter und Verstorbener für die Meldewochen KW 10 – 53/2020 und KW 01 - 22/2021</t>
-  </si>
-  <si>
-    <t>Die dem RKI übermittelten COVID-19-Fälle nach Meldewoche, Altersgruppe und Angabe, dass eine Hospitalisierung vorlag für die Meldewochen KW 10 – 53/2020 und KW 01 - 22/2021</t>
-  </si>
-  <si>
-    <t>Stand: 08.06.2021 05:49:56</t>
-  </si>
-  <si>
     <t>0 - 4 Jährige</t>
   </si>
   <si>
@@ -486,135 +477,6 @@
     <t>Altersmedian der verstorbenen COVID-19-Fälle</t>
   </si>
   <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>69.5</t>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>83</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>71.5</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>82</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>61.5</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>62.5</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>77.5</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>82.5</t>
-  </si>
-  <si>
-    <t>85</t>
-  </si>
-  <si>
-    <t>57.5</t>
-  </si>
-  <si>
-    <t>76.5</t>
-  </si>
-  <si>
-    <t>78.5</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>68.5</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>80.5</t>
-  </si>
-  <si>
     <t>Anzahl COVID-19-Fälle</t>
   </si>
   <si>
@@ -630,7 +492,19 @@
     <t>Mittelwert Alter der verstorbenen COVID-19-Fälle</t>
   </si>
   <si>
-    <t>Altersmedian/-mittelwert für Hospitalisierte, Patienten auf Intensivstation und Verstorbene von an das RKI übermittelten COVID-19-Fällen für die Meldewochen KW 10 – 53/2020 und KW 01 - 22/2021</t>
+    <t>Die dem RKI übermittelten COVID-19-Fälle nach Meldewoche und  Geschlecht sowie Anteile mit für COVID-19 relevanten Symptomen, Anteile Hospitalisierter und Verstorbener für die Meldewochen KW 10 – 53/2020 und KW 01 - 23/2021</t>
+  </si>
+  <si>
+    <t>Die dem RKI übermittelten COVID-19-Fälle nach Meldewoche, Altersgruppe und Angabe, dass eine Hospitalisierung vorlag für die Meldewochen KW 10 – 53/2020 und KW 01 - 23/2021</t>
+  </si>
+  <si>
+    <t>Stand: 15.06.2021 06:43:01</t>
+  </si>
+  <si>
+    <t>2021-KW23</t>
+  </si>
+  <si>
+    <t>Altersmedian/-mittelwert für Hospitalisierte, Patienten auf Intensivstation und Verstorbene von an das RKI übermittelten COVID-19-Fällen für die Meldewochen KW 10 – 53/2020 und KW 01 - 23/2021</t>
   </si>
 </sst>
 </file>
@@ -735,7 +609,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -845,6 +719,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1160,18 +1036,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C453F5ED-6EEE-40AE-A31F-8A2624984D94}">
-  <dimension ref="A1:M68"/>
+  <dimension ref="A1:M69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="84" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="60" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1212,7 +1088,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>2020</v>
       </c>
@@ -1253,7 +1129,7 @@
         <v>1.334816462E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="11">
         <v>2020</v>
       </c>
@@ -1261,40 +1137,40 @@
         <v>11</v>
       </c>
       <c r="C4" s="12">
-        <v>6429</v>
+        <v>6427</v>
       </c>
       <c r="D4" s="13">
         <v>45</v>
       </c>
       <c r="E4" s="14">
-        <v>0.56262641979150463</v>
+        <v>0.56264591439688716</v>
       </c>
       <c r="F4" s="14">
-        <v>0.43737358020849543</v>
+        <v>0.43735408560311284</v>
       </c>
       <c r="G4" s="12">
-        <v>5767</v>
+        <v>5754</v>
       </c>
       <c r="H4" s="15">
-        <v>5.3407317496098491E-2</v>
+        <v>5.2659019812304482E-2</v>
       </c>
       <c r="I4" s="12">
-        <v>5632</v>
+        <v>5677</v>
       </c>
       <c r="J4" s="13">
         <v>531</v>
       </c>
       <c r="K4" s="14">
-        <v>9.4282670454545456E-2</v>
+        <v>9.3535317949621277E-2</v>
       </c>
       <c r="L4" s="13">
         <v>84</v>
       </c>
       <c r="M4" s="16">
-        <v>1.306579561E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1.306986152E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="17">
         <v>2020</v>
       </c>
@@ -1302,40 +1178,40 @@
         <v>12</v>
       </c>
       <c r="C5" s="7">
-        <v>22399</v>
+        <v>22398</v>
       </c>
       <c r="D5" s="5">
         <v>45</v>
       </c>
       <c r="E5" s="6">
-        <v>0.54960468128824769</v>
+        <v>0.54949522022692754</v>
       </c>
       <c r="F5" s="6">
-        <v>0.45039531871175237</v>
+        <v>0.45050477977307246</v>
       </c>
       <c r="G5" s="7">
-        <v>20149</v>
+        <v>20124</v>
       </c>
       <c r="H5" s="8">
-        <v>3.8910119608913593E-2</v>
+        <v>3.8411846551381433E-2</v>
       </c>
       <c r="I5" s="7">
-        <v>19371</v>
+        <v>19506</v>
       </c>
       <c r="J5" s="7">
-        <v>2231</v>
+        <v>2230</v>
       </c>
       <c r="K5" s="6">
-        <v>0.11517216457591245</v>
+        <v>0.11432379780580335</v>
       </c>
       <c r="L5" s="5">
         <v>473</v>
       </c>
       <c r="M5" s="10">
-        <v>2.1117014149999998E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2.111795696E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="11">
         <v>2020</v>
       </c>
@@ -1343,40 +1219,40 @@
         <v>13</v>
       </c>
       <c r="C6" s="12">
-        <v>33971</v>
+        <v>33973</v>
       </c>
       <c r="D6" s="13">
         <v>48</v>
       </c>
       <c r="E6" s="14">
-        <v>0.49485963413556427</v>
+        <v>0.49485993696426994</v>
       </c>
       <c r="F6" s="14">
-        <v>0.50514036586443578</v>
+        <v>0.50514006303573011</v>
       </c>
       <c r="G6" s="12">
-        <v>30826</v>
+        <v>30792</v>
       </c>
       <c r="H6" s="15">
-        <v>3.2991630441834813E-2</v>
+        <v>3.2703299558326841E-2</v>
       </c>
       <c r="I6" s="12">
-        <v>29535</v>
+        <v>29779</v>
       </c>
       <c r="J6" s="12">
-        <v>5146</v>
+        <v>5151</v>
       </c>
       <c r="K6" s="14">
-        <v>0.17423395970882005</v>
+        <v>0.17297424359447933</v>
       </c>
       <c r="L6" s="12">
         <v>1459</v>
       </c>
       <c r="M6" s="16">
-        <v>4.2948397159999999E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>4.2945868769999999E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="17">
         <v>2020</v>
       </c>
@@ -1384,40 +1260,40 @@
         <v>14</v>
       </c>
       <c r="C7" s="7">
-        <v>36044</v>
+        <v>36047</v>
       </c>
       <c r="D7" s="5">
         <v>51</v>
       </c>
       <c r="E7" s="6">
-        <v>0.45083014048531289</v>
+        <v>0.45079259320951665</v>
       </c>
       <c r="F7" s="6">
-        <v>0.54916985951468711</v>
+        <v>0.5492074067904833</v>
       </c>
       <c r="G7" s="7">
-        <v>32027</v>
+        <v>32003</v>
       </c>
       <c r="H7" s="8">
-        <v>5.5640553283167325E-2</v>
+        <v>5.5088585445114517E-2</v>
       </c>
       <c r="I7" s="7">
-        <v>31619</v>
+        <v>31932</v>
       </c>
       <c r="J7" s="7">
-        <v>6094</v>
+        <v>6100</v>
       </c>
       <c r="K7" s="6">
-        <v>0.19273221797020779</v>
+        <v>0.19103094074909183</v>
       </c>
       <c r="L7" s="7">
         <v>2260</v>
       </c>
       <c r="M7" s="10">
-        <v>6.2701143040000004E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>6.2695924759999994E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="11">
         <v>2020</v>
       </c>
@@ -1425,40 +1301,40 @@
         <v>15</v>
       </c>
       <c r="C8" s="12">
-        <v>27155</v>
+        <v>27153</v>
       </c>
       <c r="D8" s="13">
         <v>52</v>
       </c>
       <c r="E8" s="14">
-        <v>0.4345758212587103</v>
+        <v>0.43460786844142912</v>
       </c>
       <c r="F8" s="14">
-        <v>0.5654241787412897</v>
+        <v>0.56539213155857082</v>
       </c>
       <c r="G8" s="12">
-        <v>23615</v>
+        <v>23604</v>
       </c>
       <c r="H8" s="15">
-        <v>8.520008469193309E-2</v>
+        <v>8.4858498559566176E-2</v>
       </c>
       <c r="I8" s="12">
-        <v>24159</v>
+        <v>24334</v>
       </c>
       <c r="J8" s="12">
-        <v>4735</v>
+        <v>4739</v>
       </c>
       <c r="K8" s="14">
-        <v>0.1959932116395546</v>
+        <v>0.19474808909344948</v>
       </c>
       <c r="L8" s="12">
         <v>1877</v>
       </c>
       <c r="M8" s="16">
-        <v>6.9121708700000006E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>6.912679998E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="17">
         <v>2020</v>
       </c>
@@ -1466,40 +1342,40 @@
         <v>16</v>
       </c>
       <c r="C9" s="7">
-        <v>17337</v>
+        <v>17334</v>
       </c>
       <c r="D9" s="5">
         <v>51</v>
       </c>
       <c r="E9" s="6">
-        <v>0.44722254301882436</v>
+        <v>0.44735778226970835</v>
       </c>
       <c r="F9" s="6">
-        <v>0.55277745698117564</v>
+        <v>0.55264221773029165</v>
       </c>
       <c r="G9" s="7">
-        <v>14875</v>
+        <v>14865</v>
       </c>
       <c r="H9" s="8">
-        <v>0.11509243697478992</v>
+        <v>0.11469895728220653</v>
       </c>
       <c r="I9" s="7">
-        <v>15525</v>
+        <v>15618</v>
       </c>
       <c r="J9" s="7">
-        <v>3381</v>
+        <v>3382</v>
       </c>
       <c r="K9" s="6">
-        <v>0.21777777777777776</v>
+        <v>0.21654501216545013</v>
       </c>
       <c r="L9" s="7">
         <v>1216</v>
       </c>
       <c r="M9" s="10">
-        <v>7.0139009050000006E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>7.0151148029999999E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11">
         <v>2020</v>
       </c>
@@ -1507,40 +1383,40 @@
         <v>17</v>
       </c>
       <c r="C10" s="12">
-        <v>12358</v>
+        <v>12356</v>
       </c>
       <c r="D10" s="13">
         <v>50</v>
       </c>
       <c r="E10" s="14">
-        <v>0.44947735191637633</v>
+        <v>0.44946916281708404</v>
       </c>
       <c r="F10" s="14">
-        <v>0.55052264808362372</v>
+        <v>0.55053083718291596</v>
       </c>
       <c r="G10" s="12">
-        <v>10280</v>
+        <v>10261</v>
       </c>
       <c r="H10" s="15">
-        <v>0.1396887159533074</v>
+        <v>0.13926517883247247</v>
       </c>
       <c r="I10" s="12">
-        <v>10990</v>
+        <v>11044</v>
       </c>
       <c r="J10" s="12">
-        <v>2246</v>
+        <v>2245</v>
       </c>
       <c r="K10" s="14">
-        <v>0.20436760691537761</v>
+        <v>0.20327779789931186</v>
       </c>
       <c r="L10" s="13">
         <v>723</v>
       </c>
       <c r="M10" s="16">
-        <v>5.8504612390000002E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>5.8514082219999999E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="17">
         <v>2020</v>
       </c>
@@ -1548,40 +1424,40 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>7439</v>
+        <v>7438</v>
       </c>
       <c r="D11" s="5">
         <v>48</v>
       </c>
       <c r="E11" s="6">
-        <v>0.47807371536185095</v>
+        <v>0.4781380330956545</v>
       </c>
       <c r="F11" s="6">
-        <v>0.52192628463814905</v>
+        <v>0.5218619669043455</v>
       </c>
       <c r="G11" s="7">
-        <v>6260</v>
+        <v>6240</v>
       </c>
       <c r="H11" s="8">
-        <v>0.17492012779552715</v>
+        <v>0.17403846153846153</v>
       </c>
       <c r="I11" s="7">
-        <v>6613</v>
+        <v>6672</v>
       </c>
       <c r="J11" s="7">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="K11" s="6">
-        <v>0.20656283078784213</v>
+        <v>0.20488609112709832</v>
       </c>
       <c r="L11" s="5">
         <v>387</v>
       </c>
       <c r="M11" s="10">
-        <v>5.2023121380000002E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>5.2030115619999998E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="11">
         <v>2020</v>
       </c>
@@ -1589,40 +1465,40 @@
         <v>19</v>
       </c>
       <c r="C12" s="12">
-        <v>6240</v>
+        <v>6239</v>
       </c>
       <c r="D12" s="13">
         <v>47</v>
       </c>
       <c r="E12" s="14">
-        <v>0.48026948989412899</v>
+        <v>0.48034654259586074</v>
       </c>
       <c r="F12" s="14">
-        <v>0.51973051010587101</v>
+        <v>0.51965345740413926</v>
       </c>
       <c r="G12" s="12">
-        <v>5255</v>
+        <v>5244</v>
       </c>
       <c r="H12" s="15">
-        <v>0.1961941008563273</v>
+        <v>0.19508009153318079</v>
       </c>
       <c r="I12" s="12">
-        <v>5630</v>
+        <v>5664</v>
       </c>
       <c r="J12" s="12">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="K12" s="14">
-        <v>0.19200710479573713</v>
+        <v>0.19103107344632769</v>
       </c>
       <c r="L12" s="13">
         <v>257</v>
       </c>
       <c r="M12" s="16">
-        <v>4.118589743E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>4.1192498789999997E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="17">
         <v>2020</v>
       </c>
@@ -1636,25 +1512,25 @@
         <v>45</v>
       </c>
       <c r="E13" s="6">
-        <v>0.49569056127811645</v>
+        <v>0.49590077780113517</v>
       </c>
       <c r="F13" s="6">
-        <v>0.5043094387218835</v>
+        <v>0.50409922219886483</v>
       </c>
       <c r="G13" s="7">
-        <v>3947</v>
+        <v>3943</v>
       </c>
       <c r="H13" s="8">
-        <v>0.23030149480618192</v>
+        <v>0.23002789753994421</v>
       </c>
       <c r="I13" s="7">
-        <v>4246</v>
+        <v>4265</v>
       </c>
       <c r="J13" s="5">
         <v>766</v>
       </c>
       <c r="K13" s="6">
-        <v>0.18040508714083844</v>
+        <v>0.17960140679953107</v>
       </c>
       <c r="L13" s="5">
         <v>163</v>
@@ -1663,7 +1539,7 @@
         <v>3.4222128910000003E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="11">
         <v>2020</v>
       </c>
@@ -1683,19 +1559,19 @@
         <v>0.49804905239687847</v>
       </c>
       <c r="G14" s="12">
-        <v>2840</v>
+        <v>2828</v>
       </c>
       <c r="H14" s="15">
-        <v>0.26619718309859153</v>
+        <v>0.26379066478076379</v>
       </c>
       <c r="I14" s="12">
-        <v>3118</v>
+        <v>3138</v>
       </c>
       <c r="J14" s="13">
         <v>513</v>
       </c>
       <c r="K14" s="14">
-        <v>0.16452854393842206</v>
+        <v>0.16347992351816443</v>
       </c>
       <c r="L14" s="13">
         <v>112</v>
@@ -1704,7 +1580,7 @@
         <v>3.1128404660000001E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="17">
         <v>2020</v>
       </c>
@@ -1724,19 +1600,19 @@
         <v>0.48433583959899751</v>
       </c>
       <c r="G15" s="7">
-        <v>2586</v>
+        <v>2580</v>
       </c>
       <c r="H15" s="8">
-        <v>0.242846094354215</v>
+        <v>0.24108527131782945</v>
       </c>
       <c r="I15" s="7">
-        <v>2781</v>
+        <v>2794</v>
       </c>
       <c r="J15" s="5">
         <v>421</v>
       </c>
       <c r="K15" s="6">
-        <v>0.15138439410284071</v>
+        <v>0.15068002863278454</v>
       </c>
       <c r="L15" s="5">
         <v>65</v>
@@ -1745,7 +1621,7 @@
         <v>2.028714107E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="11">
         <v>2020</v>
       </c>
@@ -1753,40 +1629,40 @@
         <v>23</v>
       </c>
       <c r="C16" s="12">
-        <v>2351</v>
+        <v>2352</v>
       </c>
       <c r="D16" s="13">
         <v>39</v>
       </c>
       <c r="E16" s="14">
-        <v>0.50639386189258317</v>
+        <v>0.50617809970174688</v>
       </c>
       <c r="F16" s="14">
-        <v>0.49360613810741688</v>
+        <v>0.49382190029825307</v>
       </c>
       <c r="G16" s="12">
-        <v>1843</v>
+        <v>1841</v>
       </c>
       <c r="H16" s="15">
-        <v>0.23331524688008681</v>
+        <v>0.23302552960347636</v>
       </c>
       <c r="I16" s="12">
-        <v>2083</v>
+        <v>2088</v>
       </c>
       <c r="J16" s="13">
         <v>308</v>
       </c>
       <c r="K16" s="14">
-        <v>0.14786365818530964</v>
+        <v>0.1475095785440613</v>
       </c>
       <c r="L16" s="13">
         <v>45</v>
       </c>
       <c r="M16" s="16">
-        <v>1.9140791149999999E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1.9132653060000001E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="17">
         <v>2020</v>
       </c>
@@ -1794,40 +1670,40 @@
         <v>24</v>
       </c>
       <c r="C17" s="7">
-        <v>2340</v>
+        <v>2344</v>
       </c>
       <c r="D17" s="5">
         <v>37</v>
       </c>
       <c r="E17" s="6">
-        <v>0.53456419063975957</v>
+        <v>0.53493356193741959</v>
       </c>
       <c r="F17" s="6">
-        <v>0.46543580936024043</v>
+        <v>0.46506643806258036</v>
       </c>
       <c r="G17" s="7">
-        <v>1768</v>
+        <v>1770</v>
       </c>
       <c r="H17" s="8">
-        <v>0.25565610859728505</v>
+        <v>0.25536723163841807</v>
       </c>
       <c r="I17" s="7">
-        <v>2088</v>
+        <v>2093</v>
       </c>
       <c r="J17" s="5">
         <v>288</v>
       </c>
       <c r="K17" s="6">
-        <v>0.13793103448275862</v>
+        <v>0.13760152890587674</v>
       </c>
       <c r="L17" s="5">
         <v>33</v>
       </c>
       <c r="M17" s="10">
-        <v>1.4102564099999999E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1.407849829E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="11">
         <v>2020</v>
       </c>
@@ -1835,16 +1711,16 @@
         <v>25</v>
       </c>
       <c r="C18" s="12">
-        <v>4121</v>
+        <v>4122</v>
       </c>
       <c r="D18" s="13">
         <v>36</v>
       </c>
       <c r="E18" s="14">
-        <v>0.5883783126671529</v>
+        <v>0.58823529411764708</v>
       </c>
       <c r="F18" s="14">
-        <v>0.4116216873328471</v>
+        <v>0.41176470588235292</v>
       </c>
       <c r="G18" s="12">
         <v>2942</v>
@@ -1853,22 +1729,22 @@
         <v>0.25186947654656694</v>
       </c>
       <c r="I18" s="12">
-        <v>3771</v>
+        <v>3774</v>
       </c>
       <c r="J18" s="13">
         <v>319</v>
       </c>
       <c r="K18" s="14">
-        <v>8.4592946168125169E-2</v>
+        <v>8.4525702172760994E-2</v>
       </c>
       <c r="L18" s="13">
         <v>41</v>
       </c>
       <c r="M18" s="16">
-        <v>9.9490414899999994E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>9.9466278500000005E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="17">
         <v>2020</v>
       </c>
@@ -1888,19 +1764,19 @@
         <v>0.44890965732087229</v>
       </c>
       <c r="G19" s="7">
-        <v>2337</v>
+        <v>2335</v>
       </c>
       <c r="H19" s="8">
-        <v>0.23791185280273855</v>
+        <v>0.23811563169164882</v>
       </c>
       <c r="I19" s="7">
-        <v>2876</v>
+        <v>2879</v>
       </c>
       <c r="J19" s="5">
         <v>298</v>
       </c>
       <c r="K19" s="6">
-        <v>0.10361613351877608</v>
+        <v>0.10350816255644321</v>
       </c>
       <c r="L19" s="5">
         <v>23</v>
@@ -1909,7 +1785,7 @@
         <v>7.1561916600000001E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="11">
         <v>2020</v>
       </c>
@@ -1929,19 +1805,19 @@
         <v>0.47879464285714285</v>
       </c>
       <c r="G20" s="12">
-        <v>2069</v>
+        <v>2061</v>
       </c>
       <c r="H20" s="15">
-        <v>0.26631222812953115</v>
+        <v>0.26589034449296456</v>
       </c>
       <c r="I20" s="12">
-        <v>2465</v>
+        <v>2469</v>
       </c>
       <c r="J20" s="13">
         <v>262</v>
       </c>
       <c r="K20" s="14">
-        <v>0.10628803245436105</v>
+        <v>0.1061158363710004</v>
       </c>
       <c r="L20" s="13">
         <v>26</v>
@@ -1950,7 +1826,7 @@
         <v>9.6690219399999996E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="17">
         <v>2020</v>
       </c>
@@ -1964,25 +1840,25 @@
         <v>35</v>
       </c>
       <c r="E21" s="6">
-        <v>0.55885997521685249</v>
+        <v>0.55844692275919039</v>
       </c>
       <c r="F21" s="6">
-        <v>0.44114002478314746</v>
+        <v>0.44155307724080961</v>
       </c>
       <c r="G21" s="7">
-        <v>1933</v>
+        <v>1920</v>
       </c>
       <c r="H21" s="8">
-        <v>0.23952405587170203</v>
+        <v>0.23906250000000001</v>
       </c>
       <c r="I21" s="7">
-        <v>2193</v>
+        <v>2196</v>
       </c>
       <c r="J21" s="5">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K21" s="6">
-        <v>0.11673506611947104</v>
+        <v>0.11748633879781421</v>
       </c>
       <c r="L21" s="5">
         <v>25</v>
@@ -1991,7 +1867,7 @@
         <v>1.030502885E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="11">
         <v>2020</v>
       </c>
@@ -1999,40 +1875,40 @@
         <v>29</v>
       </c>
       <c r="C22" s="12">
-        <v>3019</v>
+        <v>3020</v>
       </c>
       <c r="D22" s="13">
         <v>36</v>
       </c>
       <c r="E22" s="14">
-        <v>0.52423638778220449</v>
+        <v>0.52406239628277462</v>
       </c>
       <c r="F22" s="14">
-        <v>0.47576361221779551</v>
+        <v>0.47593760371722538</v>
       </c>
       <c r="G22" s="12">
-        <v>2364</v>
+        <v>2359</v>
       </c>
       <c r="H22" s="15">
-        <v>0.22927241962774958</v>
+        <v>0.22763883001271726</v>
       </c>
       <c r="I22" s="12">
-        <v>2651</v>
+        <v>2654</v>
       </c>
       <c r="J22" s="13">
         <v>320</v>
       </c>
       <c r="K22" s="14">
-        <v>0.12070916635231987</v>
+        <v>0.12057272042200452</v>
       </c>
       <c r="L22" s="13">
         <v>30</v>
       </c>
       <c r="M22" s="16">
-        <v>9.93706525E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>9.9337748300000004E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="17">
         <v>2020</v>
       </c>
@@ -2046,25 +1922,25 @@
         <v>36</v>
       </c>
       <c r="E23" s="6">
-        <v>0.52335971406688797</v>
+        <v>0.52334779280428678</v>
       </c>
       <c r="F23" s="6">
-        <v>0.47664028593311208</v>
+        <v>0.47665220719571322</v>
       </c>
       <c r="G23" s="7">
-        <v>3173</v>
+        <v>3169</v>
       </c>
       <c r="H23" s="8">
-        <v>0.27166719193192562</v>
+        <v>0.27106342694856422</v>
       </c>
       <c r="I23" s="7">
-        <v>3475</v>
+        <v>3478</v>
       </c>
       <c r="J23" s="5">
         <v>333</v>
       </c>
       <c r="K23" s="6">
-        <v>9.5827338129496398E-2</v>
+        <v>9.5744680851063829E-2</v>
       </c>
       <c r="L23" s="5">
         <v>33</v>
@@ -2073,7 +1949,7 @@
         <v>8.4055017799999996E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="11">
         <v>2020</v>
       </c>
@@ -2081,40 +1957,40 @@
         <v>31</v>
       </c>
       <c r="C24" s="12">
-        <v>4828</v>
+        <v>4827</v>
       </c>
       <c r="D24" s="13">
         <v>36</v>
       </c>
       <c r="E24" s="14">
-        <v>0.50197136335339287</v>
+        <v>0.50207555002075555</v>
       </c>
       <c r="F24" s="14">
-        <v>0.49802863664660718</v>
+        <v>0.49792444997924451</v>
       </c>
       <c r="G24" s="12">
-        <v>3774</v>
+        <v>3770</v>
       </c>
       <c r="H24" s="15">
-        <v>0.25278219395866453</v>
+        <v>0.25198938992042441</v>
       </c>
       <c r="I24" s="12">
-        <v>4221</v>
+        <v>4225</v>
       </c>
       <c r="J24" s="13">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="K24" s="14">
-        <v>9.2632077706704577E-2</v>
+        <v>9.2307692307692313E-2</v>
       </c>
       <c r="L24" s="13">
         <v>34</v>
       </c>
       <c r="M24" s="16">
-        <v>7.0422535199999997E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>7.0437124499999997E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="17">
         <v>2020</v>
       </c>
@@ -2122,40 +1998,40 @@
         <v>32</v>
       </c>
       <c r="C25" s="7">
-        <v>6055</v>
+        <v>6057</v>
       </c>
       <c r="D25" s="5">
         <v>34</v>
       </c>
       <c r="E25" s="6">
-        <v>0.53688389017532256</v>
+        <v>0.53703703703703709</v>
       </c>
       <c r="F25" s="6">
-        <v>0.46311610982467749</v>
+        <v>0.46296296296296297</v>
       </c>
       <c r="G25" s="7">
-        <v>4570</v>
+        <v>4568</v>
       </c>
       <c r="H25" s="8">
-        <v>0.30240700218818378</v>
+        <v>0.30166374781085814</v>
       </c>
       <c r="I25" s="7">
-        <v>5299</v>
+        <v>5307</v>
       </c>
       <c r="J25" s="5">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="K25" s="6">
-        <v>7.5108511039818832E-2</v>
+        <v>7.537214999057848E-2</v>
       </c>
       <c r="L25" s="5">
         <v>31</v>
       </c>
       <c r="M25" s="10">
-        <v>5.1197357499999999E-3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>5.1180452299999998E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="11">
         <v>2020</v>
       </c>
@@ -2163,40 +2039,40 @@
         <v>33</v>
       </c>
       <c r="C26" s="12">
-        <v>7950</v>
+        <v>7949</v>
       </c>
       <c r="D26" s="13">
         <v>32</v>
       </c>
       <c r="E26" s="14">
-        <v>0.5338374291115312</v>
+        <v>0.53371990419765536</v>
       </c>
       <c r="F26" s="14">
-        <v>0.4661625708884688</v>
+        <v>0.46628009580234464</v>
       </c>
       <c r="G26" s="12">
-        <v>5852</v>
+        <v>5845</v>
       </c>
       <c r="H26" s="15">
-        <v>0.33168147641831852</v>
+        <v>0.33173652694610778</v>
       </c>
       <c r="I26" s="12">
         <v>7013</v>
       </c>
       <c r="J26" s="13">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="K26" s="14">
-        <v>6.2598032225866254E-2</v>
+        <v>6.274062455439898E-2</v>
       </c>
       <c r="L26" s="13">
         <v>30</v>
       </c>
       <c r="M26" s="16">
-        <v>3.7735848999999998E-3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3.7740596299999998E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="17">
         <v>2020</v>
       </c>
@@ -2204,7 +2080,7 @@
         <v>34</v>
       </c>
       <c r="C27" s="7">
-        <v>9599</v>
+        <v>9598</v>
       </c>
       <c r="D27" s="5">
         <v>32</v>
@@ -2216,28 +2092,28 @@
         <v>0.45274518021793797</v>
       </c>
       <c r="G27" s="7">
-        <v>7219</v>
+        <v>7197</v>
       </c>
       <c r="H27" s="8">
-        <v>0.34616982961629034</v>
+        <v>0.34583854383771018</v>
       </c>
       <c r="I27" s="7">
-        <v>8322</v>
+        <v>8334</v>
       </c>
       <c r="J27" s="5">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="K27" s="6">
-        <v>5.2391252102859887E-2</v>
+        <v>5.2435805135589153E-2</v>
       </c>
       <c r="L27" s="5">
         <v>30</v>
       </c>
       <c r="M27" s="10">
-        <v>3.1253255499999999E-3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3.1256511699999999E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="11">
         <v>2020</v>
       </c>
@@ -2245,40 +2121,40 @@
         <v>35</v>
       </c>
       <c r="C28" s="12">
-        <v>8821</v>
+        <v>8820</v>
       </c>
       <c r="D28" s="13">
         <v>32</v>
       </c>
       <c r="E28" s="14">
-        <v>0.53090784671532842</v>
+        <v>0.53085434013915822</v>
       </c>
       <c r="F28" s="14">
-        <v>0.46909215328467152</v>
+        <v>0.46914565986084178</v>
       </c>
       <c r="G28" s="12">
-        <v>6881</v>
+        <v>6863</v>
       </c>
       <c r="H28" s="15">
-        <v>0.30664147652957419</v>
+        <v>0.30642576132886495</v>
       </c>
       <c r="I28" s="12">
-        <v>7442</v>
+        <v>7460</v>
       </c>
       <c r="J28" s="13">
         <v>368</v>
       </c>
       <c r="K28" s="14">
-        <v>4.9449072829884443E-2</v>
+        <v>4.9329758713136732E-2</v>
       </c>
       <c r="L28" s="13">
         <v>18</v>
       </c>
       <c r="M28" s="16">
-        <v>2.0405849599999999E-3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2.04081632E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="17">
         <v>2020</v>
       </c>
@@ -2286,40 +2162,40 @@
         <v>36</v>
       </c>
       <c r="C29" s="7">
-        <v>8621</v>
+        <v>8622</v>
       </c>
       <c r="D29" s="5">
         <v>33</v>
       </c>
       <c r="E29" s="6">
-        <v>0.53684701492537312</v>
+        <v>0.53690101434067861</v>
       </c>
       <c r="F29" s="6">
-        <v>0.46315298507462688</v>
+        <v>0.46309898565932145</v>
       </c>
       <c r="G29" s="7">
-        <v>6658</v>
+        <v>6617</v>
       </c>
       <c r="H29" s="8">
-        <v>0.27155301892460199</v>
+        <v>0.27142209460480582</v>
       </c>
       <c r="I29" s="7">
-        <v>7100</v>
+        <v>7129</v>
       </c>
       <c r="J29" s="5">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="K29" s="6">
-        <v>5.6338028169014086E-2</v>
+        <v>5.6389395427128633E-2</v>
       </c>
       <c r="L29" s="5">
         <v>36</v>
       </c>
       <c r="M29" s="10">
-        <v>4.1758496599999997E-3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>4.1753653399999998E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="11">
         <v>2020</v>
       </c>
@@ -2327,40 +2203,40 @@
         <v>37</v>
       </c>
       <c r="C30" s="12">
-        <v>9769</v>
+        <v>9767</v>
       </c>
       <c r="D30" s="13">
         <v>35</v>
       </c>
       <c r="E30" s="14">
-        <v>0.51795082810410453</v>
+        <v>0.5181107223708582</v>
       </c>
       <c r="F30" s="14">
-        <v>0.48204917189589547</v>
+        <v>0.4818892776291418</v>
       </c>
       <c r="G30" s="12">
-        <v>7622</v>
+        <v>7614</v>
       </c>
       <c r="H30" s="15">
-        <v>0.2051954867488848</v>
+        <v>0.20278434462831627</v>
       </c>
       <c r="I30" s="12">
-        <v>8049</v>
+        <v>8082</v>
       </c>
       <c r="J30" s="13">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="K30" s="14">
-        <v>5.8143868803578087E-2</v>
+        <v>5.8772581044295967E-2</v>
       </c>
       <c r="L30" s="13">
         <v>66</v>
       </c>
       <c r="M30" s="16">
-        <v>6.7560650999999999E-3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>6.7574485499999996E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="17">
         <v>2020</v>
       </c>
@@ -2380,19 +2256,19 @@
         <v>0.48785871964679911</v>
       </c>
       <c r="G31" s="7">
-        <v>9781</v>
+        <v>9759</v>
       </c>
       <c r="H31" s="8">
-        <v>0.18750638993967897</v>
+        <v>0.18557229224305768</v>
       </c>
       <c r="I31" s="7">
-        <v>10074</v>
+        <v>10125</v>
       </c>
       <c r="J31" s="5">
-        <v>676</v>
+        <v>681</v>
       </c>
       <c r="K31" s="6">
-        <v>6.7103434584077817E-2</v>
+        <v>6.7259259259259255E-2</v>
       </c>
       <c r="L31" s="5">
         <v>80</v>
@@ -2401,7 +2277,7 @@
         <v>6.5093572000000004E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="11">
         <v>2020</v>
       </c>
@@ -2409,40 +2285,40 @@
         <v>39</v>
       </c>
       <c r="C32" s="12">
-        <v>13059</v>
+        <v>13060</v>
       </c>
       <c r="D32" s="13">
         <v>37</v>
       </c>
       <c r="E32" s="14">
-        <v>0.51581377452866484</v>
+        <v>0.51569713758079405</v>
       </c>
       <c r="F32" s="14">
-        <v>0.48418622547133511</v>
+        <v>0.48430286241920589</v>
       </c>
       <c r="G32" s="12">
-        <v>10393</v>
+        <v>10377</v>
       </c>
       <c r="H32" s="15">
-        <v>0.18329644953333976</v>
+        <v>0.18203719764864604</v>
       </c>
       <c r="I32" s="12">
-        <v>10866</v>
+        <v>10921</v>
       </c>
       <c r="J32" s="13">
         <v>776</v>
       </c>
       <c r="K32" s="14">
-        <v>7.1415424259157007E-2</v>
+        <v>7.105576412416445E-2</v>
       </c>
       <c r="L32" s="13">
         <v>108</v>
       </c>
       <c r="M32" s="16">
-        <v>8.2701585100000002E-3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>8.2695252600000005E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="17">
         <v>2020</v>
       </c>
@@ -2450,40 +2326,40 @@
         <v>40</v>
       </c>
       <c r="C33" s="7">
-        <v>15921</v>
+        <v>15924</v>
       </c>
       <c r="D33" s="5">
         <v>38</v>
       </c>
       <c r="E33" s="6">
-        <v>0.51909022177419351</v>
+        <v>0.51905511811023619</v>
       </c>
       <c r="F33" s="6">
-        <v>0.48090977822580644</v>
+        <v>0.48094488188976375</v>
       </c>
       <c r="G33" s="7">
-        <v>12635</v>
+        <v>12616</v>
       </c>
       <c r="H33" s="8">
-        <v>0.17530668777206174</v>
+        <v>0.17374762206721622</v>
       </c>
       <c r="I33" s="7">
-        <v>13505</v>
+        <v>13572</v>
       </c>
       <c r="J33" s="5">
-        <v>879</v>
+        <v>884</v>
       </c>
       <c r="K33" s="6">
-        <v>6.5087004813032215E-2</v>
+        <v>6.5134099616858232E-2</v>
       </c>
       <c r="L33" s="5">
         <v>121</v>
       </c>
       <c r="M33" s="10">
-        <v>7.6000251200000002E-3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>7.5985933100000003E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="18">
         <v>2020</v>
       </c>
@@ -2491,40 +2367,40 @@
         <v>41</v>
       </c>
       <c r="C34" s="19">
-        <v>26122</v>
+        <v>26119</v>
       </c>
       <c r="D34" s="20">
         <v>39</v>
       </c>
       <c r="E34" s="21">
-        <v>0.50990783410138252</v>
+        <v>0.50987018972271292</v>
       </c>
       <c r="F34" s="21">
-        <v>0.49009216589861754</v>
+        <v>0.49012981027728703</v>
       </c>
       <c r="G34" s="19">
-        <v>20172</v>
+        <v>20127</v>
       </c>
       <c r="H34" s="22">
-        <v>0.16701368233194527</v>
+        <v>0.16510160480945993</v>
       </c>
       <c r="I34" s="19">
-        <v>21596</v>
+        <v>21651</v>
       </c>
       <c r="J34" s="20">
-        <v>1602</v>
+        <v>1608</v>
       </c>
       <c r="K34" s="21">
-        <v>7.4180403778477497E-2</v>
+        <v>7.4269086878204243E-2</v>
       </c>
       <c r="L34" s="20">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M34" s="23">
-        <v>9.2642217200000002E-3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>9.30357211E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="17">
         <v>2020</v>
       </c>
@@ -2532,40 +2408,40 @@
         <v>42</v>
       </c>
       <c r="C35" s="7">
-        <v>42066</v>
+        <v>42062</v>
       </c>
       <c r="D35" s="5">
         <v>39</v>
       </c>
       <c r="E35" s="6">
-        <v>0.50818301278222433</v>
+        <v>0.50818379489140042</v>
       </c>
       <c r="F35" s="6">
-        <v>0.49181698721777567</v>
+        <v>0.49181620510859958</v>
       </c>
       <c r="G35" s="7">
-        <v>31048</v>
+        <v>31046</v>
       </c>
       <c r="H35" s="8">
-        <v>0.16068667869105902</v>
+        <v>0.15995619403465824</v>
       </c>
       <c r="I35" s="7">
-        <v>33862</v>
+        <v>34013</v>
       </c>
       <c r="J35" s="5">
-        <v>2336</v>
+        <v>2344</v>
       </c>
       <c r="K35" s="6">
-        <v>6.8985883881637233E-2</v>
+        <v>6.8914826683914979E-2</v>
       </c>
       <c r="L35" s="5">
         <v>462</v>
       </c>
       <c r="M35" s="10">
-        <v>1.0982741400000001E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1.098378583E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="18">
         <v>2020</v>
       </c>
@@ -2573,40 +2449,40 @@
         <v>43</v>
       </c>
       <c r="C36" s="12">
-        <v>74815</v>
+        <v>74826</v>
       </c>
       <c r="D36" s="13">
         <v>40</v>
       </c>
       <c r="E36" s="14">
-        <v>0.50151041177181366</v>
+        <v>0.50148328120595465</v>
       </c>
       <c r="F36" s="14">
-        <v>0.49848958822818629</v>
+        <v>0.49851671879404541</v>
       </c>
       <c r="G36" s="12">
-        <v>52690</v>
+        <v>52675</v>
       </c>
       <c r="H36" s="15">
-        <v>0.15526665401404441</v>
+        <v>0.15400094921689605</v>
       </c>
       <c r="I36" s="12">
-        <v>58357</v>
+        <v>58454</v>
       </c>
       <c r="J36" s="13">
-        <v>4126</v>
+        <v>4150</v>
       </c>
       <c r="K36" s="14">
-        <v>7.0702743458368314E-2</v>
+        <v>7.0995996852225685E-2</v>
       </c>
       <c r="L36" s="13">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="M36" s="16">
-        <v>1.333957094E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1.336433859E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="17">
         <v>2020</v>
       </c>
@@ -2614,40 +2490,40 @@
         <v>44</v>
       </c>
       <c r="C37" s="7">
-        <v>111062</v>
+        <v>111040</v>
       </c>
       <c r="D37" s="5">
         <v>41</v>
       </c>
       <c r="E37" s="6">
-        <v>0.49704854509569596</v>
+        <v>0.49697106895458865</v>
       </c>
       <c r="F37" s="6">
-        <v>0.50295145490430404</v>
+        <v>0.50302893104541135</v>
       </c>
       <c r="G37" s="7">
-        <v>76019</v>
+        <v>75989</v>
       </c>
       <c r="H37" s="8">
-        <v>0.15618463805101357</v>
+        <v>0.15490399926305123</v>
       </c>
       <c r="I37" s="7">
-        <v>84289</v>
+        <v>84697</v>
       </c>
       <c r="J37" s="5">
-        <v>5978</v>
+        <v>5988</v>
       </c>
       <c r="K37" s="6">
-        <v>7.0922658947193587E-2</v>
+        <v>7.06990802507763E-2</v>
       </c>
       <c r="L37" s="5">
-        <v>1608</v>
+        <v>1610</v>
       </c>
       <c r="M37" s="10">
-        <v>1.447839945E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1.4499279530000001E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="18">
         <v>2020</v>
       </c>
@@ -2655,40 +2531,40 @@
         <v>45</v>
       </c>
       <c r="C38" s="19">
-        <v>125770</v>
+        <v>125773</v>
       </c>
       <c r="D38" s="20">
         <v>41</v>
       </c>
       <c r="E38" s="21">
-        <v>0.49111819448671334</v>
+        <v>0.4911311311311311</v>
       </c>
       <c r="F38" s="21">
-        <v>0.50888180551328666</v>
+        <v>0.50886886886886884</v>
       </c>
       <c r="G38" s="19">
-        <v>85843</v>
+        <v>85930</v>
       </c>
       <c r="H38" s="22">
-        <v>0.15211490744731662</v>
+        <v>0.15165832654486211</v>
       </c>
       <c r="I38" s="19">
-        <v>93145</v>
+        <v>93887</v>
       </c>
       <c r="J38" s="20">
-        <v>6868</v>
+        <v>6869</v>
       </c>
       <c r="K38" s="21">
-        <v>7.3734499973160131E-2</v>
+        <v>7.3162418652209571E-2</v>
       </c>
       <c r="L38" s="20">
-        <v>1872</v>
+        <v>1874</v>
       </c>
       <c r="M38" s="23">
-        <v>1.488431263E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1.4899859269999999E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="17">
         <v>2020</v>
       </c>
@@ -2696,40 +2572,40 @@
         <v>46</v>
       </c>
       <c r="C39" s="7">
-        <v>127805</v>
+        <v>127783</v>
       </c>
       <c r="D39" s="5">
         <v>42</v>
       </c>
       <c r="E39" s="6">
-        <v>0.48446180555555557</v>
+        <v>0.48443258857048149</v>
       </c>
       <c r="F39" s="6">
-        <v>0.51553819444444449</v>
+        <v>0.51556741142951845</v>
       </c>
       <c r="G39" s="7">
-        <v>86533</v>
+        <v>86623</v>
       </c>
       <c r="H39" s="8">
-        <v>0.14885650561057631</v>
+        <v>0.1483324290315505</v>
       </c>
       <c r="I39" s="7">
-        <v>95012</v>
+        <v>95699</v>
       </c>
       <c r="J39" s="5">
-        <v>7542</v>
+        <v>7557</v>
       </c>
       <c r="K39" s="6">
-        <v>7.9379446806719156E-2</v>
+        <v>7.8966342386022847E-2</v>
       </c>
       <c r="L39" s="5">
-        <v>2492</v>
+        <v>2497</v>
       </c>
       <c r="M39" s="10">
-        <v>1.9498454669999998E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1.9540940499999999E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="18">
         <v>2020</v>
       </c>
@@ -2737,40 +2613,40 @@
         <v>47</v>
       </c>
       <c r="C40" s="19">
-        <v>128424</v>
+        <v>128392</v>
       </c>
       <c r="D40" s="20">
         <v>43</v>
       </c>
       <c r="E40" s="21">
-        <v>0.47428893887499901</v>
+        <v>0.47423787537920059</v>
       </c>
       <c r="F40" s="21">
-        <v>0.52571106112500099</v>
+        <v>0.52576212462079941</v>
       </c>
       <c r="G40" s="19">
-        <v>87112</v>
+        <v>87183</v>
       </c>
       <c r="H40" s="22">
-        <v>0.14807374414546789</v>
+        <v>0.1470126056685363</v>
       </c>
       <c r="I40" s="19">
-        <v>94605</v>
+        <v>95345</v>
       </c>
       <c r="J40" s="20">
-        <v>8088</v>
+        <v>8091</v>
       </c>
       <c r="K40" s="21">
-        <v>8.5492310131599816E-2</v>
+        <v>8.4860244375688287E-2</v>
       </c>
       <c r="L40" s="20">
-        <v>3177</v>
+        <v>3179</v>
       </c>
       <c r="M40" s="23">
-        <v>2.473836666E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2.4760109660000001E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="17">
         <v>2020</v>
       </c>
@@ -2778,40 +2654,40 @@
         <v>48</v>
       </c>
       <c r="C41" s="7">
-        <v>123254</v>
+        <v>123234</v>
       </c>
       <c r="D41" s="5">
         <v>44</v>
       </c>
       <c r="E41" s="6">
-        <v>0.46546024438621836</v>
+        <v>0.46539858769745701</v>
       </c>
       <c r="F41" s="6">
-        <v>0.53453975561378164</v>
+        <v>0.53460141230254299</v>
       </c>
       <c r="G41" s="7">
-        <v>83187</v>
+        <v>83189</v>
       </c>
       <c r="H41" s="8">
-        <v>0.15460348371740776</v>
+        <v>0.15373426775174603</v>
       </c>
       <c r="I41" s="7">
-        <v>90701</v>
+        <v>91303</v>
       </c>
       <c r="J41" s="5">
-        <v>8343</v>
+        <v>8348</v>
       </c>
       <c r="K41" s="6">
-        <v>9.19835503467437E-2</v>
+        <v>9.1431825898382307E-2</v>
       </c>
       <c r="L41" s="5">
-        <v>3548</v>
+        <v>3552</v>
       </c>
       <c r="M41" s="10">
-        <v>2.8786084020000002E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2.8823214369999999E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="18">
         <v>2020</v>
       </c>
@@ -2819,40 +2695,40 @@
         <v>49</v>
       </c>
       <c r="C42" s="19">
-        <v>128447</v>
+        <v>128461</v>
       </c>
       <c r="D42" s="20">
         <v>45</v>
       </c>
       <c r="E42" s="21">
-        <v>0.45913606674350954</v>
+        <v>0.45907615598099627</v>
       </c>
       <c r="F42" s="21">
-        <v>0.54086393325649051</v>
+        <v>0.54092384401900373</v>
       </c>
       <c r="G42" s="19">
-        <v>88340</v>
+        <v>88278</v>
       </c>
       <c r="H42" s="22">
-        <v>0.14224586823635951</v>
+        <v>0.14185867373524547</v>
       </c>
       <c r="I42" s="19">
-        <v>95108</v>
+        <v>95852</v>
       </c>
       <c r="J42" s="20">
-        <v>9161</v>
+        <v>9174</v>
       </c>
       <c r="K42" s="21">
-        <v>9.6322075955755565E-2</v>
+        <v>9.5710052998372486E-2</v>
       </c>
       <c r="L42" s="20">
-        <v>4407</v>
+        <v>4411</v>
       </c>
       <c r="M42" s="23">
-        <v>3.4309870989999998E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3.4337269669999997E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="17">
         <v>2020</v>
       </c>
@@ -2860,40 +2736,40 @@
         <v>50</v>
       </c>
       <c r="C43" s="7">
-        <v>156392</v>
+        <v>156387</v>
       </c>
       <c r="D43" s="5">
         <v>46</v>
       </c>
       <c r="E43" s="6">
-        <v>0.45371526392339079</v>
+        <v>0.4536843392256163</v>
       </c>
       <c r="F43" s="6">
-        <v>0.54628473607660921</v>
+        <v>0.54631566077438365</v>
       </c>
       <c r="G43" s="7">
-        <v>108655</v>
+        <v>108847</v>
       </c>
       <c r="H43" s="8">
-        <v>0.14708941143987853</v>
+        <v>0.14645327845507916</v>
       </c>
       <c r="I43" s="7">
-        <v>115407</v>
+        <v>116462</v>
       </c>
       <c r="J43" s="5">
-        <v>11215</v>
+        <v>11262</v>
       </c>
       <c r="K43" s="6">
-        <v>9.7177814170717552E-2</v>
+        <v>9.6701069876869702E-2</v>
       </c>
       <c r="L43" s="5">
-        <v>5678</v>
+        <v>5683</v>
       </c>
       <c r="M43" s="10">
-        <v>3.6306204920000001E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3.6339337659999998E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="18">
         <v>2020</v>
       </c>
@@ -2901,40 +2777,40 @@
         <v>51</v>
       </c>
       <c r="C44" s="19">
-        <v>174799</v>
+        <v>174809</v>
       </c>
       <c r="D44" s="20">
         <v>46</v>
       </c>
       <c r="E44" s="21">
-        <v>0.45164113281632323</v>
+        <v>0.4516357399392209</v>
       </c>
       <c r="F44" s="21">
-        <v>0.54835886718367677</v>
+        <v>0.5483642600607791</v>
       </c>
       <c r="G44" s="19">
-        <v>119859</v>
+        <v>120084</v>
       </c>
       <c r="H44" s="22">
-        <v>0.14503708524182582</v>
+        <v>0.1447486759268512</v>
       </c>
       <c r="I44" s="19">
-        <v>127549</v>
+        <v>128642</v>
       </c>
       <c r="J44" s="20">
-        <v>12509</v>
+        <v>12528</v>
       </c>
       <c r="K44" s="21">
-        <v>9.8072113462277247E-2</v>
+        <v>9.7386545607188943E-2</v>
       </c>
       <c r="L44" s="20">
-        <v>6347</v>
+        <v>6354</v>
       </c>
       <c r="M44" s="23">
-        <v>3.6310276369999998E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3.6348242930000003E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="17">
         <v>2020</v>
       </c>
@@ -2942,40 +2818,40 @@
         <v>52</v>
       </c>
       <c r="C45" s="7">
-        <v>139065</v>
+        <v>139057</v>
       </c>
       <c r="D45" s="5">
         <v>48</v>
       </c>
       <c r="E45" s="6">
-        <v>0.44480310344578017</v>
+        <v>0.4447668528756259</v>
       </c>
       <c r="F45" s="6">
-        <v>0.55519689655421989</v>
+        <v>0.5552331471243741</v>
       </c>
       <c r="G45" s="7">
-        <v>93162</v>
+        <v>93439</v>
       </c>
       <c r="H45" s="8">
-        <v>0.15854103604473926</v>
+        <v>0.15850982994252935</v>
       </c>
       <c r="I45" s="7">
-        <v>101295</v>
+        <v>102111</v>
       </c>
       <c r="J45" s="5">
-        <v>11051</v>
+        <v>11071</v>
       </c>
       <c r="K45" s="6">
-        <v>0.10909719137173601</v>
+        <v>0.10842122787946451</v>
       </c>
       <c r="L45" s="5">
-        <v>5637</v>
+        <v>5641</v>
       </c>
       <c r="M45" s="10">
-        <v>4.0535001610000003E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>4.0566098789999998E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="18">
         <v>2020</v>
       </c>
@@ -2983,40 +2859,40 @@
         <v>53</v>
       </c>
       <c r="C46" s="19">
-        <v>123106</v>
+        <v>123110</v>
       </c>
       <c r="D46" s="20">
         <v>49</v>
       </c>
       <c r="E46" s="21">
-        <v>0.44113528607342017</v>
+        <v>0.44105900646534085</v>
       </c>
       <c r="F46" s="21">
-        <v>0.55886471392657977</v>
+        <v>0.55894099353465909</v>
       </c>
       <c r="G46" s="19">
-        <v>85505</v>
+        <v>85596</v>
       </c>
       <c r="H46" s="22">
-        <v>0.13464709666101399</v>
+        <v>0.13460909388289172</v>
       </c>
       <c r="I46" s="19">
-        <v>91430</v>
+        <v>92133</v>
       </c>
       <c r="J46" s="20">
-        <v>10920</v>
+        <v>10930</v>
       </c>
       <c r="K46" s="21">
-        <v>0.11943563381822159</v>
+        <v>0.11863284599437769</v>
       </c>
       <c r="L46" s="20">
-        <v>5620</v>
+        <v>5625</v>
       </c>
       <c r="M46" s="23">
-        <v>4.5651714779999998E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>4.569084558E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="25">
         <v>2021</v>
       </c>
@@ -3024,40 +2900,40 @@
         <v>1</v>
       </c>
       <c r="C47" s="27">
-        <v>145490</v>
+        <v>145541</v>
       </c>
       <c r="D47" s="28">
         <v>48</v>
       </c>
       <c r="E47" s="29">
-        <v>0.4503443402108997</v>
+        <v>0.45038257717266478</v>
       </c>
       <c r="F47" s="29">
-        <v>0.54965565978910025</v>
+        <v>0.54961742282733528</v>
       </c>
       <c r="G47" s="27">
-        <v>103749</v>
+        <v>104029</v>
       </c>
       <c r="H47" s="30">
-        <v>0.13083499599996146</v>
+        <v>0.13078083995808862</v>
       </c>
       <c r="I47" s="27">
-        <v>109032</v>
+        <v>109796</v>
       </c>
       <c r="J47" s="28">
-        <v>11093</v>
+        <v>11114</v>
       </c>
       <c r="K47" s="29">
-        <v>0.10174077335094284</v>
+        <v>0.10122408830922802</v>
       </c>
       <c r="L47" s="28">
-        <v>5613</v>
+        <v>5629</v>
       </c>
       <c r="M47" s="31">
-        <v>3.8579971130000001E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3.8676386719999997E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="18">
         <v>2021</v>
       </c>
@@ -3065,40 +2941,40 @@
         <v>2</v>
       </c>
       <c r="C48" s="19">
-        <v>119080</v>
+        <v>119037</v>
       </c>
       <c r="D48" s="20">
         <v>48</v>
       </c>
       <c r="E48" s="21">
-        <v>0.45367688163846115</v>
+        <v>0.45345757060282155</v>
       </c>
       <c r="F48" s="21">
-        <v>0.54632311836153891</v>
+        <v>0.54654242939717845</v>
       </c>
       <c r="G48" s="19">
-        <v>83506</v>
+        <v>83650</v>
       </c>
       <c r="H48" s="22">
-        <v>0.15766531746221829</v>
+        <v>0.15762104004781829</v>
       </c>
       <c r="I48" s="19">
-        <v>89800</v>
+        <v>90340</v>
       </c>
       <c r="J48" s="20">
-        <v>9837</v>
+        <v>9840</v>
       </c>
       <c r="K48" s="21">
-        <v>0.109543429844098</v>
+        <v>0.10892185078591986</v>
       </c>
       <c r="L48" s="20">
-        <v>4997</v>
+        <v>5000</v>
       </c>
       <c r="M48" s="23">
-        <v>4.1963385950000001E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>4.2003746729999999E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="17">
         <v>2021</v>
       </c>
@@ -3106,40 +2982,40 @@
         <v>3</v>
       </c>
       <c r="C49" s="7">
-        <v>95599</v>
+        <v>95593</v>
       </c>
       <c r="D49" s="5">
         <v>48</v>
       </c>
       <c r="E49" s="6">
-        <v>0.45760693129835361</v>
+        <v>0.45749362983553393</v>
       </c>
       <c r="F49" s="6">
-        <v>0.54239306870164639</v>
+        <v>0.54250637016446601</v>
       </c>
       <c r="G49" s="7">
-        <v>68189</v>
+        <v>68473</v>
       </c>
       <c r="H49" s="8">
-        <v>0.1565355115927789</v>
+        <v>0.15623676485622071</v>
       </c>
       <c r="I49" s="7">
-        <v>73662</v>
+        <v>74393</v>
       </c>
       <c r="J49" s="5">
-        <v>8642</v>
+        <v>8694</v>
       </c>
       <c r="K49" s="6">
-        <v>0.11731964920854715</v>
+        <v>0.11686583415106259</v>
       </c>
       <c r="L49" s="5">
-        <v>3986</v>
+        <v>3993</v>
       </c>
       <c r="M49" s="10">
-        <v>4.1694996800000002E-2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>4.177084096E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="18">
         <v>2021</v>
       </c>
@@ -3147,40 +3023,40 @@
         <v>4</v>
       </c>
       <c r="C50" s="19">
-        <v>78191</v>
+        <v>78171</v>
       </c>
       <c r="D50" s="20">
         <v>48</v>
       </c>
       <c r="E50" s="21">
-        <v>0.46298754010488474</v>
+        <v>0.46288142139822325</v>
       </c>
       <c r="F50" s="21">
-        <v>0.53701245989511526</v>
+        <v>0.5371185786017767</v>
       </c>
       <c r="G50" s="19">
-        <v>56282</v>
+        <v>56419</v>
       </c>
       <c r="H50" s="22">
-        <v>0.1599801002096585</v>
+        <v>0.15950300430705969</v>
       </c>
       <c r="I50" s="19">
-        <v>62036</v>
+        <v>62385</v>
       </c>
       <c r="J50" s="20">
-        <v>7340</v>
+        <v>7356</v>
       </c>
       <c r="K50" s="21">
-        <v>0.11831839577019795</v>
+        <v>0.11791295984611685</v>
       </c>
       <c r="L50" s="20">
-        <v>3034</v>
+        <v>3040</v>
       </c>
       <c r="M50" s="23">
-        <v>3.8802419710000001E-2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3.8889102090000002E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="17">
         <v>2021</v>
       </c>
@@ -3188,40 +3064,40 @@
         <v>5</v>
       </c>
       <c r="C51" s="7">
-        <v>64633</v>
+        <v>64609</v>
       </c>
       <c r="D51" s="5">
         <v>46</v>
       </c>
       <c r="E51" s="6">
-        <v>0.47329339822787969</v>
+        <v>0.47336171008934003</v>
       </c>
       <c r="F51" s="6">
-        <v>0.52670660177212025</v>
+        <v>0.52663828991065997</v>
       </c>
       <c r="G51" s="7">
-        <v>47989</v>
+        <v>48309</v>
       </c>
       <c r="H51" s="8">
-        <v>0.16024505615870305</v>
+        <v>0.15982529135357801</v>
       </c>
       <c r="I51" s="7">
-        <v>52823</v>
+        <v>53355</v>
       </c>
       <c r="J51" s="5">
-        <v>6368</v>
+        <v>6419</v>
       </c>
       <c r="K51" s="6">
-        <v>0.12055354675046855</v>
+        <v>0.12030737512885391</v>
       </c>
       <c r="L51" s="5">
-        <v>2194</v>
+        <v>2199</v>
       </c>
       <c r="M51" s="10">
-        <v>3.3945507710000003E-2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3.4035505879999997E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="18">
         <v>2021</v>
       </c>
@@ -3229,40 +3105,40 @@
         <v>6</v>
       </c>
       <c r="C52" s="19">
-        <v>50844</v>
+        <v>50833</v>
       </c>
       <c r="D52" s="20">
         <v>45</v>
       </c>
       <c r="E52" s="21">
-        <v>0.48338715749014327</v>
+        <v>0.48340959965135399</v>
       </c>
       <c r="F52" s="21">
-        <v>0.51661284250985673</v>
+        <v>0.51659040034864601</v>
       </c>
       <c r="G52" s="19">
-        <v>38276</v>
+        <v>38474</v>
       </c>
       <c r="H52" s="22">
-        <v>0.16383634653568815</v>
+        <v>0.16379892914695637</v>
       </c>
       <c r="I52" s="19">
-        <v>41443</v>
+        <v>41809</v>
       </c>
       <c r="J52" s="20">
-        <v>5048</v>
+        <v>5071</v>
       </c>
       <c r="K52" s="21">
-        <v>0.1218058538233236</v>
+        <v>0.12128967447200363</v>
       </c>
       <c r="L52" s="20">
-        <v>1643</v>
+        <v>1648</v>
       </c>
       <c r="M52" s="23">
-        <v>3.2314530719999998E-2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3.241988472E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="17">
         <v>2021</v>
       </c>
@@ -3270,40 +3146,40 @@
         <v>7</v>
       </c>
       <c r="C53" s="7">
-        <v>52468</v>
+        <v>52451</v>
       </c>
       <c r="D53" s="5">
         <v>44</v>
       </c>
       <c r="E53" s="6">
-        <v>0.49138889954355414</v>
+        <v>0.49120855943090524</v>
       </c>
       <c r="F53" s="6">
-        <v>0.50861110045644586</v>
+        <v>0.50879144056909476</v>
       </c>
       <c r="G53" s="7">
-        <v>39863</v>
+        <v>39957</v>
       </c>
       <c r="H53" s="8">
-        <v>0.1627323583272709</v>
+        <v>0.16244963335585755</v>
       </c>
       <c r="I53" s="7">
-        <v>42931</v>
+        <v>43155</v>
       </c>
       <c r="J53" s="5">
-        <v>4955</v>
+        <v>4965</v>
       </c>
       <c r="K53" s="6">
-        <v>0.11541776338776176</v>
+        <v>0.11505039972193257</v>
       </c>
       <c r="L53" s="5">
-        <v>1438</v>
+        <v>1443</v>
       </c>
       <c r="M53" s="10">
-        <v>2.7407181520000001E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2.7511391579999999E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="18">
         <v>2021</v>
       </c>
@@ -3311,40 +3187,40 @@
         <v>8</v>
       </c>
       <c r="C54" s="19">
-        <v>56410</v>
+        <v>56393</v>
       </c>
       <c r="D54" s="20">
         <v>42</v>
       </c>
       <c r="E54" s="21">
-        <v>0.49639992871145966</v>
+        <v>0.49639185360725552</v>
       </c>
       <c r="F54" s="21">
-        <v>0.50360007128854034</v>
+        <v>0.50360814639274454</v>
       </c>
       <c r="G54" s="19">
-        <v>42851</v>
+        <v>43044</v>
       </c>
       <c r="H54" s="22">
-        <v>0.15831602529695923</v>
+        <v>0.15797788309636651</v>
       </c>
       <c r="I54" s="19">
-        <v>45779</v>
+        <v>46188</v>
       </c>
       <c r="J54" s="20">
-        <v>4620</v>
+        <v>4638</v>
       </c>
       <c r="K54" s="21">
-        <v>0.10091963564079599</v>
+        <v>0.10041569238763315</v>
       </c>
       <c r="L54" s="20">
-        <v>1184</v>
+        <v>1188</v>
       </c>
       <c r="M54" s="23">
-        <v>2.0989186310000001E-2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2.1066444409999999E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="17">
         <v>2021</v>
       </c>
@@ -3352,40 +3228,40 @@
         <v>9</v>
       </c>
       <c r="C55" s="7">
-        <v>58435</v>
+        <v>58421</v>
       </c>
       <c r="D55" s="5">
         <v>40</v>
       </c>
       <c r="E55" s="6">
-        <v>0.50634218542932374</v>
+        <v>0.50622742129709275</v>
       </c>
       <c r="F55" s="6">
-        <v>0.4936578145706762</v>
+        <v>0.49377257870290725</v>
       </c>
       <c r="G55" s="7">
-        <v>44492</v>
+        <v>45018</v>
       </c>
       <c r="H55" s="8">
-        <v>0.1550166322035422</v>
+        <v>0.15631525167710694</v>
       </c>
       <c r="I55" s="7">
-        <v>47053</v>
+        <v>47732</v>
       </c>
       <c r="J55" s="5">
-        <v>4186</v>
+        <v>4211</v>
       </c>
       <c r="K55" s="6">
-        <v>8.896350923426774E-2</v>
+        <v>8.8221738037375347E-2</v>
       </c>
       <c r="L55" s="5">
-        <v>1010</v>
+        <v>1016</v>
       </c>
       <c r="M55" s="10">
-        <v>1.7284161879999999E-2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1.7391006649999999E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="18">
         <v>2021</v>
       </c>
@@ -3393,40 +3269,40 @@
         <v>10</v>
       </c>
       <c r="C56" s="19">
-        <v>71409</v>
+        <v>71391</v>
       </c>
       <c r="D56" s="20">
         <v>39</v>
       </c>
       <c r="E56" s="21">
-        <v>0.50212142142283245</v>
+        <v>0.50197260891619233</v>
       </c>
       <c r="F56" s="21">
-        <v>0.49787857857716761</v>
+        <v>0.49802739108380772</v>
       </c>
       <c r="G56" s="19">
-        <v>54170</v>
+        <v>54714</v>
       </c>
       <c r="H56" s="22">
-        <v>0.15611962340779029</v>
+        <v>0.15690682457871843</v>
       </c>
       <c r="I56" s="19">
-        <v>56525</v>
+        <v>57213</v>
       </c>
       <c r="J56" s="32">
-        <v>4644</v>
+        <v>4690</v>
       </c>
       <c r="K56" s="21">
-        <v>8.2158337019018132E-2</v>
+        <v>8.1974376452904063E-2</v>
       </c>
       <c r="L56" s="32">
-        <v>1067</v>
+        <v>1071</v>
       </c>
       <c r="M56" s="23">
-        <v>1.494209413E-2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1.5001890990000001E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="17">
         <v>2021</v>
       </c>
@@ -3434,40 +3310,40 @@
         <v>11</v>
       </c>
       <c r="C57" s="7">
-        <v>92661</v>
+        <v>92642</v>
       </c>
       <c r="D57" s="5">
         <v>39</v>
       </c>
       <c r="E57" s="6">
-        <v>0.50356487862049504</v>
+        <v>0.50362943914586111</v>
       </c>
       <c r="F57" s="6">
-        <v>0.49643512137950491</v>
+        <v>0.49637056085413889</v>
       </c>
       <c r="G57" s="7">
-        <v>70133</v>
+        <v>70671</v>
       </c>
       <c r="H57" s="8">
-        <v>0.15252448918483452</v>
+        <v>0.15290571804559155</v>
       </c>
       <c r="I57" s="7">
-        <v>73131</v>
+        <v>73868</v>
       </c>
       <c r="J57" s="5">
-        <v>5427</v>
+        <v>5464</v>
       </c>
       <c r="K57" s="6">
-        <v>7.4209295647536616E-2</v>
+        <v>7.3969783938918066E-2</v>
       </c>
       <c r="L57" s="5">
-        <v>1223</v>
+        <v>1228</v>
       </c>
       <c r="M57" s="10">
-        <v>1.319864883E-2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1.325532695E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="18">
         <v>2021</v>
       </c>
@@ -3475,40 +3351,40 @@
         <v>12</v>
       </c>
       <c r="C58" s="19">
-        <v>116453</v>
+        <v>116436</v>
       </c>
       <c r="D58" s="20">
         <v>38</v>
       </c>
       <c r="E58" s="21">
-        <v>0.50787285894533074</v>
+        <v>0.50797764359326547</v>
       </c>
       <c r="F58" s="21">
-        <v>0.49212714105466926</v>
+        <v>0.49202235640673458</v>
       </c>
       <c r="G58" s="19">
-        <v>86357</v>
+        <v>87178</v>
       </c>
       <c r="H58" s="22">
-        <v>0.15770580265641465</v>
+        <v>0.15830828878845579</v>
       </c>
       <c r="I58" s="19">
-        <v>91469</v>
+        <v>92521</v>
       </c>
       <c r="J58" s="32">
-        <v>6485</v>
+        <v>6538</v>
       </c>
       <c r="K58" s="21">
-        <v>7.0898337141545226E-2</v>
+        <v>7.0665038207542066E-2</v>
       </c>
       <c r="L58" s="32">
-        <v>1449</v>
+        <v>1459</v>
       </c>
       <c r="M58" s="23">
-        <v>1.244278807E-2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1.253048885E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="17">
         <v>2021</v>
       </c>
@@ -3516,40 +3392,40 @@
         <v>13</v>
       </c>
       <c r="C59" s="7">
-        <v>110197</v>
+        <v>110169</v>
       </c>
       <c r="D59" s="5">
         <v>39</v>
       </c>
       <c r="E59" s="6">
-        <v>0.51168843028033972</v>
+        <v>0.51161813981940529</v>
       </c>
       <c r="F59" s="6">
-        <v>0.48831156971966033</v>
+        <v>0.48838186018059476</v>
       </c>
       <c r="G59" s="7">
-        <v>80057</v>
+        <v>82588</v>
       </c>
       <c r="H59" s="8">
-        <v>0.15257878761382515</v>
+        <v>0.15360585072891947</v>
       </c>
       <c r="I59" s="7">
-        <v>84782</v>
+        <v>87440</v>
       </c>
       <c r="J59" s="5">
-        <v>6409</v>
+        <v>6643</v>
       </c>
       <c r="K59" s="6">
-        <v>7.559387605859734E-2</v>
+        <v>7.5972095150960664E-2</v>
       </c>
       <c r="L59" s="5">
-        <v>1486</v>
+        <v>1501</v>
       </c>
       <c r="M59" s="10">
-        <v>1.34849406E-2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1.362452232E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="18">
         <v>2021</v>
       </c>
@@ -3557,40 +3433,40 @@
         <v>14</v>
       </c>
       <c r="C60" s="19">
-        <v>118356</v>
+        <v>118317</v>
       </c>
       <c r="D60" s="20">
         <v>39</v>
       </c>
       <c r="E60" s="21">
-        <v>0.50730330391606726</v>
+        <v>0.50726300668927593</v>
       </c>
       <c r="F60" s="21">
-        <v>0.49269669608393274</v>
+        <v>0.49273699331072407</v>
       </c>
       <c r="G60" s="19">
-        <v>86122</v>
+        <v>88493</v>
       </c>
       <c r="H60" s="22">
-        <v>0.14015001973943941</v>
+        <v>0.14083599832755134</v>
       </c>
       <c r="I60" s="19">
-        <v>91171</v>
+        <v>93189</v>
       </c>
       <c r="J60" s="32">
-        <v>6901</v>
+        <v>7103</v>
       </c>
       <c r="K60" s="21">
-        <v>7.5692928672494539E-2</v>
+        <v>7.6221442444923751E-2</v>
       </c>
       <c r="L60" s="32">
-        <v>1459</v>
+        <v>1481</v>
       </c>
       <c r="M60" s="23">
-        <v>1.232721619E-2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1.251722068E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="17">
         <v>2021</v>
       </c>
@@ -3598,40 +3474,40 @@
         <v>15</v>
       </c>
       <c r="C61" s="7">
-        <v>142152</v>
+        <v>142116</v>
       </c>
       <c r="D61" s="5">
         <v>38</v>
       </c>
       <c r="E61" s="6">
-        <v>0.50982837544819382</v>
+        <v>0.50976019031840103</v>
       </c>
       <c r="F61" s="6">
-        <v>0.49017162455180624</v>
+        <v>0.49023980968159903</v>
       </c>
       <c r="G61" s="7">
-        <v>100896</v>
+        <v>103206</v>
       </c>
       <c r="H61" s="8">
-        <v>0.15989732001268633</v>
+        <v>0.16111466387613124</v>
       </c>
       <c r="I61" s="7">
-        <v>108761</v>
+        <v>111582</v>
       </c>
       <c r="J61" s="9">
-        <v>7170</v>
+        <v>7284</v>
       </c>
       <c r="K61" s="6">
-        <v>6.5924366270997875E-2</v>
+        <v>6.5279346131096413E-2</v>
       </c>
       <c r="L61" s="9">
-        <v>1481</v>
+        <v>1513</v>
       </c>
       <c r="M61" s="10">
-        <v>1.0418425340000001E-2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1.064623265E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="18">
         <v>2021</v>
       </c>
@@ -3639,40 +3515,40 @@
         <v>16</v>
       </c>
       <c r="C62" s="19">
-        <v>145006</v>
+        <v>144976</v>
       </c>
       <c r="D62" s="20">
         <v>37</v>
       </c>
       <c r="E62" s="21">
-        <v>0.51884870273916395</v>
+        <v>0.51871319853349629</v>
       </c>
       <c r="F62" s="21">
-        <v>0.481151297260836</v>
+        <v>0.48128680146650371</v>
       </c>
       <c r="G62" s="19">
-        <v>101735</v>
+        <v>103919</v>
       </c>
       <c r="H62" s="22">
-        <v>0.16909618125522191</v>
+        <v>0.17044043918821389</v>
       </c>
       <c r="I62" s="19">
-        <v>111010</v>
+        <v>113330</v>
       </c>
       <c r="J62" s="32">
-        <v>7208</v>
+        <v>7322</v>
       </c>
       <c r="K62" s="21">
-        <v>6.4931087289433378E-2</v>
+        <v>6.4607782581840648E-2</v>
       </c>
       <c r="L62" s="32">
-        <v>1393</v>
+        <v>1446</v>
       </c>
       <c r="M62" s="23">
-        <v>9.6064990400000008E-3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>9.9740646699999994E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="17">
         <v>2021</v>
       </c>
@@ -3680,40 +3556,40 @@
         <v>17</v>
       </c>
       <c r="C63" s="7">
-        <v>124919</v>
+        <v>124905</v>
       </c>
       <c r="D63" s="5">
         <v>37</v>
       </c>
       <c r="E63" s="6">
-        <v>0.52017336421820648</v>
+        <v>0.5202125686453184</v>
       </c>
       <c r="F63" s="6">
-        <v>0.47982663578179352</v>
+        <v>0.4797874313546816</v>
       </c>
       <c r="G63" s="7">
-        <v>87926</v>
+        <v>89689</v>
       </c>
       <c r="H63" s="8">
-        <v>0.16867593203375567</v>
+        <v>0.16922922543455718</v>
       </c>
       <c r="I63" s="7">
-        <v>94790</v>
+        <v>96467</v>
       </c>
       <c r="J63" s="5">
-        <v>6005</v>
+        <v>6099</v>
       </c>
       <c r="K63" s="6">
-        <v>6.3350564405528012E-2</v>
+        <v>6.3223693076388823E-2</v>
       </c>
       <c r="L63" s="5">
-        <v>1084</v>
+        <v>1143</v>
       </c>
       <c r="M63" s="10">
-        <v>8.6776230899999994E-3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>9.1509547199999999E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="18">
         <v>2021</v>
       </c>
@@ -3721,40 +3597,40 @@
         <v>18</v>
       </c>
       <c r="C64" s="19">
-        <v>101129</v>
+        <v>101112</v>
       </c>
       <c r="D64" s="20">
         <v>37</v>
       </c>
       <c r="E64" s="21">
-        <v>0.51260814097197305</v>
+        <v>0.5125963395933324</v>
       </c>
       <c r="F64" s="21">
-        <v>0.48739185902802695</v>
+        <v>0.4874036604066676</v>
       </c>
       <c r="G64" s="19">
-        <v>71111</v>
+        <v>72743</v>
       </c>
       <c r="H64" s="22">
-        <v>0.16612057206339384</v>
+        <v>0.16551420755261675</v>
       </c>
       <c r="I64" s="19">
-        <v>77505</v>
+        <v>78747</v>
       </c>
       <c r="J64" s="32">
-        <v>4872</v>
+        <v>4964</v>
       </c>
       <c r="K64" s="21">
-        <v>6.2860460615444161E-2</v>
+        <v>6.3037322056713266E-2</v>
       </c>
       <c r="L64" s="32">
-        <v>777</v>
+        <v>834</v>
       </c>
       <c r="M64" s="23">
-        <v>7.6832560300000002E-3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>8.2482791299999993E-3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="17">
         <v>2021</v>
       </c>
@@ -3762,40 +3638,40 @@
         <v>19</v>
       </c>
       <c r="C65" s="7">
-        <v>70916</v>
+        <v>70908</v>
       </c>
       <c r="D65" s="5">
         <v>37</v>
       </c>
       <c r="E65" s="6">
-        <v>0.51052818653586407</v>
+        <v>0.51057423267572821</v>
       </c>
       <c r="F65" s="6">
-        <v>0.48947181346413593</v>
+        <v>0.48942576732427173</v>
       </c>
       <c r="G65" s="7">
-        <v>49729</v>
+        <v>50775</v>
       </c>
       <c r="H65" s="8">
-        <v>0.17112751111021737</v>
+        <v>0.17152141802067947</v>
       </c>
       <c r="I65" s="7">
-        <v>54898</v>
+        <v>55767</v>
       </c>
       <c r="J65" s="9">
-        <v>3514</v>
+        <v>3585</v>
       </c>
       <c r="K65" s="6">
-        <v>6.4009617836715368E-2</v>
+        <v>6.4285330033891017E-2</v>
       </c>
       <c r="L65" s="9">
-        <v>473</v>
+        <v>521</v>
       </c>
       <c r="M65" s="10">
-        <v>6.6698629300000001E-3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>7.3475489300000004E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="18">
         <v>2021</v>
       </c>
@@ -3803,40 +3679,40 @@
         <v>20</v>
       </c>
       <c r="C66" s="19">
-        <v>52823</v>
+        <v>52844</v>
       </c>
       <c r="D66" s="20">
         <v>36</v>
       </c>
       <c r="E66" s="21">
-        <v>0.50666412067977851</v>
+        <v>0.50646453089244847</v>
       </c>
       <c r="F66" s="21">
-        <v>0.49333587932022149</v>
+        <v>0.49353546910755147</v>
       </c>
       <c r="G66" s="19">
-        <v>37184</v>
+        <v>37998</v>
       </c>
       <c r="H66" s="22">
-        <v>0.17338102409638553</v>
+        <v>0.17437759882099058</v>
       </c>
       <c r="I66" s="19">
-        <v>40861</v>
+        <v>41487</v>
       </c>
       <c r="J66" s="32">
-        <v>2378</v>
+        <v>2457</v>
       </c>
       <c r="K66" s="21">
-        <v>5.8197303051809791E-2</v>
+        <v>5.9223371176513127E-2</v>
       </c>
       <c r="L66" s="32">
-        <v>262</v>
+        <v>325</v>
       </c>
       <c r="M66" s="23">
-        <v>4.9599606200000004E-3</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>6.1501778799999997E-3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="17">
         <v>2021</v>
       </c>
@@ -3844,40 +3720,40 @@
         <v>21</v>
       </c>
       <c r="C67" s="7">
-        <v>29886</v>
+        <v>29935</v>
       </c>
       <c r="D67" s="5">
         <v>35</v>
       </c>
       <c r="E67" s="6">
-        <v>0.51467756646285845</v>
+        <v>0.51484848484848489</v>
       </c>
       <c r="F67" s="6">
-        <v>0.4853224335371415</v>
+        <v>0.48515151515151517</v>
       </c>
       <c r="G67" s="7">
-        <v>20250</v>
+        <v>21282</v>
       </c>
       <c r="H67" s="8">
-        <v>0.18212345679012346</v>
+        <v>0.18160887134667794</v>
       </c>
       <c r="I67" s="7">
-        <v>22773</v>
+        <v>23532</v>
       </c>
       <c r="J67" s="5">
-        <v>1350</v>
+        <v>1467</v>
       </c>
       <c r="K67" s="6">
-        <v>5.9280727176920039E-2</v>
+        <v>6.2340642529321776E-2</v>
       </c>
       <c r="L67" s="5">
-        <v>107</v>
+        <v>158</v>
       </c>
       <c r="M67" s="10">
-        <v>3.5802716900000002E-3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>5.2781025500000002E-3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="18">
         <v>2021</v>
       </c>
@@ -3885,37 +3761,78 @@
         <v>22</v>
       </c>
       <c r="C68" s="19">
-        <v>20558</v>
+        <v>20729</v>
       </c>
       <c r="D68" s="20">
         <v>34</v>
       </c>
       <c r="E68" s="21">
-        <v>0.51023622047244099</v>
+        <v>0.50918392204628504</v>
       </c>
       <c r="F68" s="21">
-        <v>0.48976377952755906</v>
+        <v>0.49081607795371496</v>
       </c>
       <c r="G68" s="19">
-        <v>12837</v>
+        <v>14262</v>
       </c>
       <c r="H68" s="22">
-        <v>0.19942354132585496</v>
+        <v>0.19597531902958912</v>
       </c>
       <c r="I68" s="19">
-        <v>14869</v>
+        <v>16088</v>
       </c>
       <c r="J68" s="32">
-        <v>717</v>
+        <v>901</v>
       </c>
       <c r="K68" s="21">
-        <v>4.8221131212589953E-2</v>
+        <v>5.6004475385380406E-2</v>
       </c>
       <c r="L68" s="32">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="M68" s="23">
-        <v>1.7025002399999999E-3</v>
+        <v>2.8944956300000001E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="17">
+        <v>2022</v>
+      </c>
+      <c r="B69" s="17">
+        <v>23</v>
+      </c>
+      <c r="C69" s="7">
+        <v>14029</v>
+      </c>
+      <c r="D69" s="5">
+        <v>33</v>
+      </c>
+      <c r="E69" s="6">
+        <v>0.51160940325497284</v>
+      </c>
+      <c r="F69" s="6">
+        <v>0.48839059674502711</v>
+      </c>
+      <c r="G69" s="7">
+        <v>9108</v>
+      </c>
+      <c r="H69" s="8">
+        <v>0.21903820816864294</v>
+      </c>
+      <c r="I69" s="7">
+        <v>10656</v>
+      </c>
+      <c r="J69" s="5">
+        <v>572</v>
+      </c>
+      <c r="K69" s="6">
+        <v>5.3678678678678676E-2</v>
+      </c>
+      <c r="L69" s="5">
+        <v>11</v>
+      </c>
+      <c r="M69" s="10">
+        <v>7.8409008999999995E-4</v>
       </c>
     </row>
   </sheetData>
@@ -3926,22 +3843,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A52A6F4-28A9-4D7F-8F28-545E4C7A120E}">
-  <dimension ref="A1:I73"/>
+  <dimension ref="A1:I74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P26" sqref="P26"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="33" t="s">
-        <v>15</v>
+        <v>158</v>
       </c>
       <c r="B4" s="33"/>
       <c r="C4" s="33"/>
@@ -3952,7 +3869,7 @@
       <c r="H4" s="33"/>
       <c r="I4" s="33"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="33"/>
       <c r="B5" s="33"/>
       <c r="C5" s="33"/>
@@ -3963,62 +3880,62 @@
       <c r="H5" s="33"/>
       <c r="I5" s="33"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="33"/>
       <c r="B6" s="33"/>
       <c r="C6" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="34" t="s">
+      <c r="G6" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="34" t="s">
+      <c r="H6" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="34" t="s">
-        <v>21</v>
-      </c>
       <c r="I6" s="33"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="35" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="F7" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="35" t="s">
+      <c r="G7" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="35" t="s">
+      <c r="H7" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="35" t="s">
+      <c r="I7" s="33"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="I7" s="33"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="33" t="s">
-        <v>29</v>
-      </c>
       <c r="B8" s="33" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C8" s="33">
         <v>2</v>
@@ -4039,15 +3956,15 @@
         <v>11</v>
       </c>
       <c r="I8" s="36" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="33" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C9" s="33">
         <v>2</v>
@@ -4068,15 +3985,15 @@
         <v>78</v>
       </c>
       <c r="I9" s="36" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="33" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C10" s="33">
         <v>14</v>
@@ -4088,7 +4005,7 @@
         <v>154</v>
       </c>
       <c r="F10" s="33">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="G10" s="33">
         <v>860</v>
@@ -4097,15 +4014,15 @@
         <v>471</v>
       </c>
       <c r="I10" s="36" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="33" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C11" s="33">
         <v>32</v>
@@ -4117,24 +4034,24 @@
         <v>263</v>
       </c>
       <c r="F11" s="33">
-        <v>1358</v>
+        <v>1360</v>
       </c>
       <c r="G11" s="33">
-        <v>2218</v>
+        <v>2221</v>
       </c>
       <c r="H11" s="33">
         <v>1259</v>
       </c>
       <c r="I11" s="36" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="33" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C12" s="33">
         <v>27</v>
@@ -4143,27 +4060,27 @@
         <v>17</v>
       </c>
       <c r="E12" s="33">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F12" s="33">
-        <v>1344</v>
+        <v>1346</v>
       </c>
       <c r="G12" s="33">
-        <v>2486</v>
+        <v>2484</v>
       </c>
       <c r="H12" s="33">
-        <v>1909</v>
+        <v>1913</v>
       </c>
       <c r="I12" s="36" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="33" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C13" s="33">
         <v>23</v>
@@ -4172,27 +4089,27 @@
         <v>9</v>
       </c>
       <c r="E13" s="33">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F13" s="33">
-        <v>978</v>
+        <v>981</v>
       </c>
       <c r="G13" s="33">
         <v>1764</v>
       </c>
       <c r="H13" s="33">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="I13" s="36" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="33" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C14" s="33">
         <v>9</v>
@@ -4204,7 +4121,7 @@
         <v>192</v>
       </c>
       <c r="F14" s="33">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="G14" s="33">
         <v>1276</v>
@@ -4213,15 +4130,15 @@
         <v>1258</v>
       </c>
       <c r="I14" s="36" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="33" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C15" s="33">
         <v>20</v>
@@ -4233,7 +4150,7 @@
         <v>184</v>
       </c>
       <c r="F15" s="33">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G15" s="33">
         <v>771</v>
@@ -4242,15 +4159,15 @@
         <v>836</v>
       </c>
       <c r="I15" s="36" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="33" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C16" s="33">
         <v>19</v>
@@ -4268,18 +4185,18 @@
         <v>513</v>
       </c>
       <c r="H16" s="33">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="I16" s="36" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="33" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C17" s="33">
         <v>10</v>
@@ -4291,7 +4208,7 @@
         <v>92</v>
       </c>
       <c r="F17" s="33">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G17" s="33">
         <v>382</v>
@@ -4300,15 +4217,15 @@
         <v>352</v>
       </c>
       <c r="I17" s="36" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="33" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C18" s="33">
         <v>7</v>
@@ -4329,15 +4246,15 @@
         <v>251</v>
       </c>
       <c r="I18" s="36" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="33" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C19" s="33">
         <v>4</v>
@@ -4358,15 +4275,15 @@
         <v>166</v>
       </c>
       <c r="I19" s="36" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="33" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B20" s="33" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C20" s="33">
         <v>4</v>
@@ -4385,15 +4302,15 @@
         <v>117</v>
       </c>
       <c r="I20" s="36" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="33" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B21" s="33" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C21" s="33">
         <v>3</v>
@@ -4414,15 +4331,15 @@
         <v>76</v>
       </c>
       <c r="I21" s="36" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="33" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B22" s="33" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C22" s="33">
         <v>10</v>
@@ -4443,15 +4360,15 @@
         <v>72</v>
       </c>
       <c r="I22" s="36" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="33" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C23" s="33">
         <v>5</v>
@@ -4472,15 +4389,15 @@
         <v>62</v>
       </c>
       <c r="I23" s="36" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="33" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C24" s="33">
         <v>3</v>
@@ -4501,15 +4418,15 @@
         <v>57</v>
       </c>
       <c r="I24" s="36" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="33" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B25" s="33" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C25" s="33">
         <v>3</v>
@@ -4530,15 +4447,15 @@
         <v>53</v>
       </c>
       <c r="I25" s="36" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="33" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B26" s="33" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C26" s="33">
         <v>7</v>
@@ -4547,10 +4464,10 @@
         <v>6</v>
       </c>
       <c r="E26" s="33">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F26" s="33">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G26" s="33">
         <v>80</v>
@@ -4559,15 +4476,15 @@
         <v>31</v>
       </c>
       <c r="I26" s="36" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="33" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B27" s="33" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C27" s="33">
         <v>9</v>
@@ -4588,15 +4505,15 @@
         <v>48</v>
       </c>
       <c r="I27" s="36" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="33" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B28" s="33" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C28" s="33">
         <v>10</v>
@@ -4617,15 +4534,15 @@
         <v>45</v>
       </c>
       <c r="I28" s="36" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="33" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B29" s="33" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C29" s="33">
         <v>2</v>
@@ -4634,7 +4551,7 @@
         <v>5</v>
       </c>
       <c r="E29" s="33">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F29" s="33">
         <v>147</v>
@@ -4646,15 +4563,15 @@
         <v>77</v>
       </c>
       <c r="I29" s="36" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="33" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B30" s="33" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C30" s="33">
         <v>4</v>
@@ -4663,10 +4580,10 @@
         <v>3</v>
       </c>
       <c r="E30" s="33">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F30" s="33">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G30" s="33">
         <v>113</v>
@@ -4675,15 +4592,15 @@
         <v>64</v>
       </c>
       <c r="I30" s="36" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="33" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B31" s="33" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C31" s="33">
         <v>11</v>
@@ -4692,7 +4609,7 @@
         <v>13</v>
       </c>
       <c r="E31" s="33">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F31" s="33">
         <v>150</v>
@@ -4704,15 +4621,15 @@
         <v>76</v>
       </c>
       <c r="I31" s="36" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="33" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B32" s="33" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C32" s="33">
         <v>9</v>
@@ -4721,27 +4638,27 @@
         <v>11</v>
       </c>
       <c r="E32" s="33">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F32" s="33">
         <v>172</v>
       </c>
       <c r="G32" s="33">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H32" s="33">
         <v>45</v>
       </c>
       <c r="I32" s="36" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="33" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B33" s="33" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C33" s="33">
         <v>5</v>
@@ -4762,27 +4679,27 @@
         <v>39</v>
       </c>
       <c r="I33" s="36" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="33" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B34" s="33" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C34" s="33">
         <v>4</v>
       </c>
       <c r="D34" s="33">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E34" s="33">
         <v>75</v>
       </c>
       <c r="F34" s="33">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G34" s="33">
         <v>121</v>
@@ -4791,15 +4708,15 @@
         <v>50</v>
       </c>
       <c r="I34" s="36" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="33" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B35" s="33" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C35" s="33">
         <v>12</v>
@@ -4808,27 +4725,27 @@
         <v>12</v>
       </c>
       <c r="E35" s="33">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F35" s="33">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G35" s="33">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H35" s="33">
         <v>96</v>
       </c>
       <c r="I35" s="36" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="33" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B36" s="33" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C36" s="33">
         <v>8</v>
@@ -4837,27 +4754,27 @@
         <v>10</v>
       </c>
       <c r="E36" s="33">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F36" s="33">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="G36" s="33">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H36" s="33">
         <v>139</v>
       </c>
       <c r="I36" s="36" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="33" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B37" s="33" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C37" s="33">
         <v>9</v>
@@ -4866,27 +4783,27 @@
         <v>7</v>
       </c>
       <c r="E37" s="33">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F37" s="33">
         <v>241</v>
       </c>
       <c r="G37" s="33">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H37" s="33">
         <v>153</v>
       </c>
       <c r="I37" s="36" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="33" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B38" s="33" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C38" s="33">
         <v>15</v>
@@ -4895,27 +4812,27 @@
         <v>9</v>
       </c>
       <c r="E38" s="33">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F38" s="33">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="G38" s="33">
         <v>289</v>
       </c>
       <c r="H38" s="33">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I38" s="36" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="33" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B39" s="33" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C39" s="33">
         <v>21</v>
@@ -4924,27 +4841,27 @@
         <v>17</v>
       </c>
       <c r="E39" s="33">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F39" s="33">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="G39" s="33">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="H39" s="33">
         <v>355</v>
       </c>
       <c r="I39" s="36" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="33" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B40" s="33" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C40" s="33">
         <v>24</v>
@@ -4953,10 +4870,10 @@
         <v>25</v>
       </c>
       <c r="E40" s="33">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="F40" s="33">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="G40" s="33">
         <v>783</v>
@@ -4965,102 +4882,102 @@
         <v>560</v>
       </c>
       <c r="I40" s="36" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="B41" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="C41" s="33">
+        <v>51</v>
+      </c>
+      <c r="D41" s="33">
+        <v>32</v>
+      </c>
+      <c r="E41" s="33">
+        <v>442</v>
+      </c>
+      <c r="F41" s="33">
+        <v>1067</v>
+      </c>
+      <c r="G41" s="33">
+        <v>1419</v>
+      </c>
+      <c r="H41" s="33">
+        <v>1132</v>
+      </c>
+      <c r="I41" s="36" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="B42" s="33" t="s">
         <v>104</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="B41" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="C41" s="33">
-        <v>50</v>
-      </c>
-      <c r="D41" s="33">
-        <v>30</v>
-      </c>
-      <c r="E41" s="33">
-        <v>434</v>
-      </c>
-      <c r="F41" s="33">
-        <v>1059</v>
-      </c>
-      <c r="G41" s="33">
-        <v>1415</v>
-      </c>
-      <c r="H41" s="33">
-        <v>1131</v>
-      </c>
-      <c r="I41" s="36" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="B42" s="33" t="s">
-        <v>107</v>
       </c>
       <c r="C42" s="33">
         <v>64</v>
       </c>
       <c r="D42" s="33">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E42" s="33">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="F42" s="33">
-        <v>1510</v>
+        <v>1512</v>
       </c>
       <c r="G42" s="33">
-        <v>2100</v>
+        <v>2102</v>
       </c>
       <c r="H42" s="33">
         <v>1692</v>
       </c>
       <c r="I42" s="36" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="33" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B43" s="33" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C43" s="33">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D43" s="33">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E43" s="33">
         <v>602</v>
       </c>
       <c r="F43" s="33">
-        <v>1692</v>
+        <v>1690</v>
       </c>
       <c r="G43" s="33">
         <v>2391</v>
       </c>
       <c r="H43" s="33">
-        <v>2059</v>
+        <v>2060</v>
       </c>
       <c r="I43" s="36" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="33" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B44" s="33" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C44" s="33">
         <v>64</v>
@@ -5072,82 +4989,82 @@
         <v>575</v>
       </c>
       <c r="F44" s="33">
-        <v>1723</v>
+        <v>1727</v>
       </c>
       <c r="G44" s="33">
-        <v>2588</v>
+        <v>2596</v>
       </c>
       <c r="H44" s="33">
-        <v>2512</v>
+        <v>2515</v>
       </c>
       <c r="I44" s="36" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="33" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B45" s="33" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C45" s="33">
         <v>53</v>
       </c>
       <c r="D45" s="33">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E45" s="33">
         <v>607</v>
       </c>
       <c r="F45" s="33">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="G45" s="33">
-        <v>2862</v>
+        <v>2865</v>
       </c>
       <c r="H45" s="33">
-        <v>2825</v>
+        <v>2827</v>
       </c>
       <c r="I45" s="36" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="B46" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="C46" s="33">
+        <v>63</v>
+      </c>
+      <c r="D46" s="33">
+        <v>68</v>
+      </c>
+      <c r="E46" s="33">
+        <v>565</v>
+      </c>
+      <c r="F46" s="33">
+        <v>1700</v>
+      </c>
+      <c r="G46" s="33">
+        <v>2872</v>
+      </c>
+      <c r="H46" s="33">
+        <v>3075</v>
+      </c>
+      <c r="I46" s="36" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="B47" s="33" t="s">
         <v>114</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="B46" s="33" t="s">
-        <v>115</v>
-      </c>
-      <c r="C46" s="33">
-        <v>62</v>
-      </c>
-      <c r="D46" s="33">
-        <v>69</v>
-      </c>
-      <c r="E46" s="33">
-        <v>566</v>
-      </c>
-      <c r="F46" s="33">
-        <v>1699</v>
-      </c>
-      <c r="G46" s="33">
-        <v>2869</v>
-      </c>
-      <c r="H46" s="33">
-        <v>3073</v>
-      </c>
-      <c r="I46" s="36" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="B47" s="33" t="s">
-        <v>117</v>
       </c>
       <c r="C47" s="33">
         <v>58</v>
@@ -5159,111 +5076,111 @@
         <v>598</v>
       </c>
       <c r="F47" s="33">
-        <v>1670</v>
+        <v>1675</v>
       </c>
       <c r="G47" s="33">
-        <v>3171</v>
+        <v>3176</v>
       </c>
       <c r="H47" s="33">
-        <v>3598</v>
+        <v>3601</v>
       </c>
       <c r="I47" s="36" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="33" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B48" s="33" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C48" s="33">
         <v>70</v>
       </c>
       <c r="D48" s="33">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E48" s="33">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="F48" s="33">
-        <v>1959</v>
+        <v>1976</v>
       </c>
       <c r="G48" s="33">
-        <v>3914</v>
+        <v>3933</v>
       </c>
       <c r="H48" s="33">
-        <v>4526</v>
+        <v>4534</v>
       </c>
       <c r="I48" s="36" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="33" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B49" s="33" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C49" s="33">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D49" s="33">
         <v>89</v>
       </c>
       <c r="E49" s="33">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="F49" s="33">
-        <v>2189</v>
+        <v>2192</v>
       </c>
       <c r="G49" s="33">
-        <v>4364</v>
+        <v>4374</v>
       </c>
       <c r="H49" s="33">
-        <v>5073</v>
+        <v>5078</v>
       </c>
       <c r="I49" s="36" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="33" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B50" s="33" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C50" s="33">
         <v>54</v>
       </c>
       <c r="D50" s="33">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E50" s="33">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="F50" s="33">
-        <v>1855</v>
+        <v>1857</v>
       </c>
       <c r="G50" s="33">
-        <v>3898</v>
+        <v>3909</v>
       </c>
       <c r="H50" s="33">
-        <v>4582</v>
+        <v>4586</v>
       </c>
       <c r="I50" s="36" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="33" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B51" s="33" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C51" s="33">
         <v>74</v>
@@ -5275,111 +5192,111 @@
         <v>616</v>
       </c>
       <c r="F51" s="33">
-        <v>1902</v>
+        <v>1903</v>
       </c>
       <c r="G51" s="33">
-        <v>3816</v>
+        <v>3821</v>
       </c>
       <c r="H51" s="33">
-        <v>4447</v>
+        <v>4451</v>
       </c>
       <c r="I51" s="36" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="33" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B52" s="33" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C52" s="33">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D52" s="33">
         <v>33</v>
       </c>
       <c r="E52" s="33">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="F52" s="33">
-        <v>1808</v>
+        <v>1815</v>
       </c>
       <c r="G52" s="33">
-        <v>3943</v>
+        <v>3950</v>
       </c>
       <c r="H52" s="33">
-        <v>4660</v>
+        <v>4664</v>
       </c>
       <c r="I52" s="36" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="33" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B53" s="33" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C53" s="33">
         <v>60</v>
       </c>
       <c r="D53" s="33">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E53" s="33">
         <v>532</v>
       </c>
       <c r="F53" s="33">
-        <v>1586</v>
+        <v>1584</v>
       </c>
       <c r="G53" s="33">
-        <v>3390</v>
+        <v>3393</v>
       </c>
       <c r="H53" s="33">
-        <v>4214</v>
+        <v>4217</v>
       </c>
       <c r="I53" s="36" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="33" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B54" s="33" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C54" s="33">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D54" s="33">
         <v>36</v>
       </c>
       <c r="E54" s="33">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="F54" s="33">
-        <v>1430</v>
+        <v>1439</v>
       </c>
       <c r="G54" s="33">
-        <v>3099</v>
+        <v>3115</v>
       </c>
       <c r="H54" s="33">
-        <v>3643</v>
+        <v>3666</v>
       </c>
       <c r="I54" s="36" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="33" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B55" s="33" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C55" s="33">
         <v>35</v>
@@ -5388,56 +5305,56 @@
         <v>30</v>
       </c>
       <c r="E55" s="33">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="F55" s="33">
-        <v>1200</v>
+        <v>1203</v>
       </c>
       <c r="G55" s="33">
-        <v>2733</v>
+        <v>2738</v>
       </c>
       <c r="H55" s="33">
-        <v>2944</v>
+        <v>2951</v>
       </c>
       <c r="I55" s="36" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="33" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B56" s="33" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C56" s="33">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D56" s="33">
         <v>38</v>
       </c>
       <c r="E56" s="33">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="F56" s="33">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="G56" s="33">
-        <v>2325</v>
+        <v>2335</v>
       </c>
       <c r="H56" s="33">
-        <v>2485</v>
+        <v>2513</v>
       </c>
       <c r="I56" s="36" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="33" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B57" s="33" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C57" s="33">
         <v>41</v>
@@ -5446,56 +5363,56 @@
         <v>23</v>
       </c>
       <c r="E57" s="33">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F57" s="33">
-        <v>955</v>
+        <v>961</v>
       </c>
       <c r="G57" s="33">
-        <v>1892</v>
+        <v>1902</v>
       </c>
       <c r="H57" s="33">
-        <v>1844</v>
+        <v>1852</v>
       </c>
       <c r="I57" s="36" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="33" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B58" s="33" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C58" s="33">
         <v>35</v>
       </c>
       <c r="D58" s="33">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E58" s="33">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F58" s="33">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="G58" s="33">
-        <v>1944</v>
+        <v>1949</v>
       </c>
       <c r="H58" s="33">
-        <v>1638</v>
+        <v>1641</v>
       </c>
       <c r="I58" s="36" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="33" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B59" s="33" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C59" s="33">
         <v>44</v>
@@ -5504,85 +5421,85 @@
         <v>31</v>
       </c>
       <c r="E59" s="33">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F59" s="33">
-        <v>1043</v>
+        <v>1049</v>
       </c>
       <c r="G59" s="33">
-        <v>1733</v>
+        <v>1740</v>
       </c>
       <c r="H59" s="33">
-        <v>1458</v>
+        <v>1461</v>
       </c>
       <c r="I59" s="36" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="33" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B60" s="33" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C60" s="33">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D60" s="33">
         <v>30</v>
       </c>
       <c r="E60" s="33">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="F60" s="33">
-        <v>1000</v>
+        <v>1008</v>
       </c>
       <c r="G60" s="33">
-        <v>1575</v>
+        <v>1585</v>
       </c>
       <c r="H60" s="33">
-        <v>1215</v>
+        <v>1218</v>
       </c>
       <c r="I60" s="36" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="33" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B61" s="33" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C61" s="33">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D61" s="33">
         <v>37</v>
       </c>
       <c r="E61" s="33">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="F61" s="33">
-        <v>1289</v>
+        <v>1303</v>
       </c>
       <c r="G61" s="33">
-        <v>1657</v>
+        <v>1673</v>
       </c>
       <c r="H61" s="33">
-        <v>1226</v>
+        <v>1235</v>
       </c>
       <c r="I61" s="36" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="33" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B62" s="33" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C62" s="33">
         <v>79</v>
@@ -5591,423 +5508,452 @@
         <v>69</v>
       </c>
       <c r="E62" s="33">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F62" s="33">
-        <v>1531</v>
+        <v>1541</v>
       </c>
       <c r="G62" s="33">
-        <v>2044</v>
+        <v>2060</v>
       </c>
       <c r="H62" s="33">
-        <v>1252</v>
+        <v>1256</v>
       </c>
       <c r="I62" s="36" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="33" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B63" s="33" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C63" s="33">
         <v>85</v>
       </c>
       <c r="D63" s="33">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E63" s="33">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="F63" s="33">
-        <v>1858</v>
+        <v>1873</v>
       </c>
       <c r="G63" s="33">
-        <v>2399</v>
+        <v>2422</v>
       </c>
       <c r="H63" s="33">
-        <v>1468</v>
+        <v>1477</v>
       </c>
       <c r="I63" s="36" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="33" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B64" s="33" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C64" s="33">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="D64" s="33">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E64" s="33">
-        <v>562</v>
+        <v>593</v>
       </c>
       <c r="F64" s="33">
-        <v>1867</v>
+        <v>1947</v>
       </c>
       <c r="G64" s="33">
-        <v>2469</v>
+        <v>2546</v>
       </c>
       <c r="H64" s="33">
-        <v>1339</v>
+        <v>1377</v>
       </c>
       <c r="I64" s="36" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="33" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B65" s="33" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C65" s="33">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D65" s="33">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E65" s="33">
-        <v>680</v>
+        <v>702</v>
       </c>
       <c r="F65" s="33">
-        <v>2125</v>
+        <v>2203</v>
       </c>
       <c r="G65" s="33">
-        <v>2595</v>
+        <v>2655</v>
       </c>
       <c r="H65" s="33">
-        <v>1328</v>
+        <v>1367</v>
       </c>
       <c r="I65" s="36" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="33" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B66" s="33" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C66" s="33">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D66" s="33">
         <v>84</v>
       </c>
       <c r="E66" s="33">
-        <v>709</v>
+        <v>722</v>
       </c>
       <c r="F66" s="33">
-        <v>2141</v>
+        <v>2182</v>
       </c>
       <c r="G66" s="33">
-        <v>2802</v>
+        <v>2849</v>
       </c>
       <c r="H66" s="33">
-        <v>1344</v>
+        <v>1356</v>
       </c>
       <c r="I66" s="36" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="33" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B67" s="33" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C67" s="33">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D67" s="33">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E67" s="33">
-        <v>712</v>
+        <v>725</v>
       </c>
       <c r="F67" s="33">
-        <v>2290</v>
+        <v>2333</v>
       </c>
       <c r="G67" s="33">
-        <v>2738</v>
+        <v>2780</v>
       </c>
       <c r="H67" s="33">
-        <v>1300</v>
+        <v>1318</v>
       </c>
       <c r="I67" s="36" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="33" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B68" s="33" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C68" s="33">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D68" s="33">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E68" s="33">
-        <v>589</v>
+        <v>597</v>
       </c>
       <c r="F68" s="33">
-        <v>1901</v>
+        <v>1927</v>
       </c>
       <c r="G68" s="33">
-        <v>2284</v>
+        <v>2326</v>
       </c>
       <c r="H68" s="33">
-        <v>1073</v>
+        <v>1088</v>
       </c>
       <c r="I68" s="36" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="33" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B69" s="33" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C69" s="33">
         <v>77</v>
       </c>
       <c r="D69" s="33">
+        <v>65</v>
+      </c>
+      <c r="E69" s="33">
+        <v>513</v>
+      </c>
+      <c r="F69" s="33">
+        <v>1538</v>
+      </c>
+      <c r="G69" s="33">
+        <v>1881</v>
+      </c>
+      <c r="H69" s="33">
+        <v>887</v>
+      </c>
+      <c r="I69" s="36" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A70" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="B70" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="C70" s="33">
         <v>63</v>
       </c>
-      <c r="E69" s="33">
-        <v>505</v>
-      </c>
-      <c r="F69" s="33">
-        <v>1506</v>
-      </c>
-      <c r="G69" s="33">
-        <v>1841</v>
-      </c>
-      <c r="H69" s="33">
-        <v>876</v>
-      </c>
-      <c r="I69" s="36" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="33" t="s">
-        <v>127</v>
-      </c>
-      <c r="B70" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="C70" s="33">
-        <v>61</v>
-      </c>
       <c r="D70" s="33">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E70" s="33">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="F70" s="33">
-        <v>1091</v>
+        <v>1101</v>
       </c>
       <c r="G70" s="33">
-        <v>1295</v>
+        <v>1330</v>
       </c>
       <c r="H70" s="33">
-        <v>622</v>
+        <v>639</v>
       </c>
       <c r="I70" s="36" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="33" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B71" s="33" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C71" s="33">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D71" s="33">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E71" s="33">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="F71" s="33">
-        <v>726</v>
+        <v>748</v>
       </c>
       <c r="G71" s="33">
-        <v>832</v>
+        <v>860</v>
       </c>
       <c r="H71" s="33">
-        <v>435</v>
+        <v>448</v>
       </c>
       <c r="I71" s="36" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="33" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B72" s="33" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C72" s="33">
         <v>26</v>
       </c>
       <c r="D72" s="33">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E72" s="33">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="F72" s="33">
-        <v>415</v>
+        <v>463</v>
       </c>
       <c r="G72" s="33">
-        <v>460</v>
+        <v>504</v>
       </c>
       <c r="H72" s="33">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="I72" s="36" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="33" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B73" s="33" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C73" s="33">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D73" s="33">
         <v>20</v>
       </c>
       <c r="E73" s="33">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="F73" s="33">
-        <v>212</v>
+        <v>294</v>
       </c>
       <c r="G73" s="33">
-        <v>227</v>
+        <v>289</v>
       </c>
       <c r="H73" s="33">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="I73" s="36" t="s">
-        <v>149</v>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A74" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="B74" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="C74" s="33">
+        <v>12</v>
+      </c>
+      <c r="D74" s="33">
+        <v>17</v>
+      </c>
+      <c r="E74" s="33">
+        <v>85</v>
+      </c>
+      <c r="F74" s="33">
+        <v>167</v>
+      </c>
+      <c r="G74" s="33">
+        <v>178</v>
+      </c>
+      <c r="H74" s="33">
+        <v>112</v>
+      </c>
+      <c r="I74" s="36" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{966505F7-57D9-403D-A39C-486A50D90732}">
-  <dimension ref="A1:P69"/>
+  <dimension ref="A1:P70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="11" max="11" width="13.5703125" customWidth="1"/>
+    <col min="11" max="11" width="13.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A3" s="35" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C3" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>148</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="F3" s="37" t="s">
         <v>150</v>
-      </c>
-      <c r="D3" s="37" t="s">
-        <v>151</v>
-      </c>
-      <c r="E3" s="37" t="s">
-        <v>152</v>
-      </c>
-      <c r="F3" s="37" t="s">
-        <v>153</v>
       </c>
       <c r="J3" s="38" t="s">
         <v>0</v>
       </c>
       <c r="K3" s="38" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L3" s="38" t="s">
-        <v>197</v>
+        <v>151</v>
       </c>
       <c r="M3" s="38" t="s">
-        <v>198</v>
+        <v>152</v>
       </c>
       <c r="N3" s="38" t="s">
-        <v>199</v>
+        <v>153</v>
       </c>
       <c r="O3" s="38" t="s">
-        <v>200</v>
+        <v>154</v>
       </c>
       <c r="P3" s="38" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D4" t="s">
-        <v>121</v>
-      </c>
-      <c r="E4" t="s">
-        <v>158</v>
-      </c>
-      <c r="F4" t="s">
-        <v>159</v>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="39">
+        <v>2020</v>
+      </c>
+      <c r="B4" s="39">
+        <v>10</v>
+      </c>
+      <c r="C4" s="39">
+        <v>45</v>
+      </c>
+      <c r="D4" s="40">
+        <v>51</v>
+      </c>
+      <c r="E4" s="40">
+        <v>69.5</v>
+      </c>
+      <c r="F4" s="40">
+        <v>79</v>
       </c>
       <c r="J4">
         <v>2020</v>
@@ -6031,24 +5977,24 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" t="s">
-        <v>113</v>
-      </c>
-      <c r="D5" t="s">
-        <v>160</v>
-      </c>
-      <c r="E5" t="s">
-        <v>161</v>
-      </c>
-      <c r="F5" t="s">
-        <v>162</v>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="39">
+        <v>2020</v>
+      </c>
+      <c r="B5" s="39">
+        <v>11</v>
+      </c>
+      <c r="C5" s="39">
+        <v>47</v>
+      </c>
+      <c r="D5" s="40">
+        <v>58</v>
+      </c>
+      <c r="E5" s="40">
+        <v>67</v>
+      </c>
+      <c r="F5" s="40">
+        <v>80</v>
       </c>
       <c r="J5">
         <v>2020</v>
@@ -6057,7 +6003,7 @@
         <v>11</v>
       </c>
       <c r="L5">
-        <v>6429</v>
+        <v>6427</v>
       </c>
       <c r="M5">
         <v>45</v>
@@ -6072,24 +6018,24 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" t="s">
-        <v>113</v>
-      </c>
-      <c r="D6" t="s">
-        <v>163</v>
-      </c>
-      <c r="E6" t="s">
-        <v>164</v>
-      </c>
-      <c r="F6" t="s">
-        <v>162</v>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="39">
+        <v>2020</v>
+      </c>
+      <c r="B6" s="39">
+        <v>12</v>
+      </c>
+      <c r="C6" s="39">
+        <v>47</v>
+      </c>
+      <c r="D6" s="40">
+        <v>64</v>
+      </c>
+      <c r="E6" s="40">
+        <v>69</v>
+      </c>
+      <c r="F6" s="40">
+        <v>80</v>
       </c>
       <c r="J6">
         <v>2020</v>
@@ -6098,7 +6044,7 @@
         <v>12</v>
       </c>
       <c r="L6">
-        <v>22399</v>
+        <v>22398</v>
       </c>
       <c r="M6">
         <v>45</v>
@@ -6113,24 +6059,24 @@
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" t="s">
-        <v>117</v>
-      </c>
-      <c r="D7" t="s">
-        <v>164</v>
-      </c>
-      <c r="E7" t="s">
-        <v>165</v>
-      </c>
-      <c r="F7" t="s">
-        <v>162</v>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" s="39">
+        <v>2020</v>
+      </c>
+      <c r="B7" s="39">
+        <v>13</v>
+      </c>
+      <c r="C7" s="39">
+        <v>49</v>
+      </c>
+      <c r="D7" s="40">
+        <v>69</v>
+      </c>
+      <c r="E7" s="40">
+        <v>70</v>
+      </c>
+      <c r="F7" s="40">
+        <v>80</v>
       </c>
       <c r="J7">
         <v>2020</v>
@@ -6139,7 +6085,7 @@
         <v>13</v>
       </c>
       <c r="L7">
-        <v>33971</v>
+        <v>33973</v>
       </c>
       <c r="M7">
         <v>48</v>
@@ -6154,24 +6100,24 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" t="s">
-        <v>123</v>
-      </c>
-      <c r="D8" t="s">
-        <v>155</v>
-      </c>
-      <c r="E8" t="s">
-        <v>166</v>
-      </c>
-      <c r="F8" t="s">
-        <v>167</v>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="39">
+        <v>2020</v>
+      </c>
+      <c r="B8" s="39">
+        <v>14</v>
+      </c>
+      <c r="C8" s="39">
+        <v>52</v>
+      </c>
+      <c r="D8" s="40">
+        <v>72</v>
+      </c>
+      <c r="E8" s="40">
+        <v>71</v>
+      </c>
+      <c r="F8" s="40">
+        <v>83</v>
       </c>
       <c r="J8">
         <v>2020</v>
@@ -6180,7 +6126,7 @@
         <v>14</v>
       </c>
       <c r="L8">
-        <v>36044</v>
+        <v>36047</v>
       </c>
       <c r="M8">
         <v>51</v>
@@ -6195,24 +6141,24 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" t="s">
-        <v>123</v>
-      </c>
-      <c r="D9" t="s">
-        <v>168</v>
-      </c>
-      <c r="E9" t="s">
-        <v>169</v>
-      </c>
-      <c r="F9" t="s">
-        <v>167</v>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="39">
+        <v>2020</v>
+      </c>
+      <c r="B9" s="39">
+        <v>15</v>
+      </c>
+      <c r="C9" s="39">
+        <v>52</v>
+      </c>
+      <c r="D9" s="40">
+        <v>74</v>
+      </c>
+      <c r="E9" s="40">
+        <v>71</v>
+      </c>
+      <c r="F9" s="40">
+        <v>83</v>
       </c>
       <c r="J9">
         <v>2020</v>
@@ -6221,7 +6167,7 @@
         <v>15</v>
       </c>
       <c r="L9">
-        <v>27155</v>
+        <v>27153</v>
       </c>
       <c r="M9">
         <v>52</v>
@@ -6236,24 +6182,24 @@
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" t="s">
-        <v>123</v>
-      </c>
-      <c r="D10" t="s">
-        <v>170</v>
-      </c>
-      <c r="E10" t="s">
-        <v>166</v>
-      </c>
-      <c r="F10" t="s">
-        <v>167</v>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" s="39">
+        <v>2020</v>
+      </c>
+      <c r="B10" s="39">
+        <v>16</v>
+      </c>
+      <c r="C10" s="39">
+        <v>52</v>
+      </c>
+      <c r="D10" s="40">
+        <v>75</v>
+      </c>
+      <c r="E10" s="40">
+        <v>71</v>
+      </c>
+      <c r="F10" s="40">
+        <v>83</v>
       </c>
       <c r="J10">
         <v>2020</v>
@@ -6262,7 +6208,7 @@
         <v>16</v>
       </c>
       <c r="L10">
-        <v>17337</v>
+        <v>17334</v>
       </c>
       <c r="M10">
         <v>51</v>
@@ -6277,24 +6223,24 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" t="s">
-        <v>119</v>
-      </c>
-      <c r="D11" t="s">
-        <v>170</v>
-      </c>
-      <c r="E11" t="s">
-        <v>166</v>
-      </c>
-      <c r="F11" t="s">
-        <v>156</v>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" s="39">
+        <v>2020</v>
+      </c>
+      <c r="B11" s="39">
+        <v>17</v>
+      </c>
+      <c r="C11" s="39">
+        <v>50</v>
+      </c>
+      <c r="D11" s="40">
+        <v>75</v>
+      </c>
+      <c r="E11" s="40">
+        <v>71</v>
+      </c>
+      <c r="F11" s="40">
+        <v>84</v>
       </c>
       <c r="J11">
         <v>2020</v>
@@ -6303,7 +6249,7 @@
         <v>17</v>
       </c>
       <c r="L11">
-        <v>12358</v>
+        <v>12356</v>
       </c>
       <c r="M11">
         <v>50</v>
@@ -6318,24 +6264,24 @@
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" t="s">
-        <v>115</v>
-      </c>
-      <c r="D12" t="s">
-        <v>155</v>
-      </c>
-      <c r="E12" t="s">
-        <v>165</v>
-      </c>
-      <c r="F12" t="s">
-        <v>171</v>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" s="39">
+        <v>2020</v>
+      </c>
+      <c r="B12" s="39">
+        <v>18</v>
+      </c>
+      <c r="C12" s="39">
+        <v>48</v>
+      </c>
+      <c r="D12" s="40">
+        <v>72</v>
+      </c>
+      <c r="E12" s="40">
+        <v>70</v>
+      </c>
+      <c r="F12" s="40">
+        <v>82</v>
       </c>
       <c r="J12">
         <v>2020</v>
@@ -6344,7 +6290,7 @@
         <v>18</v>
       </c>
       <c r="L12">
-        <v>7439</v>
+        <v>7438</v>
       </c>
       <c r="M12">
         <v>48</v>
@@ -6359,24 +6305,24 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13" t="s">
-        <v>111</v>
-      </c>
-      <c r="D13" t="s">
-        <v>166</v>
-      </c>
-      <c r="E13" t="s">
-        <v>166</v>
-      </c>
-      <c r="F13" t="s">
-        <v>171</v>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" s="39">
+        <v>2020</v>
+      </c>
+      <c r="B13" s="39">
+        <v>19</v>
+      </c>
+      <c r="C13" s="39">
+        <v>46</v>
+      </c>
+      <c r="D13" s="40">
+        <v>71</v>
+      </c>
+      <c r="E13" s="40">
+        <v>71</v>
+      </c>
+      <c r="F13" s="40">
+        <v>82</v>
       </c>
       <c r="J13">
         <v>2020</v>
@@ -6385,7 +6331,7 @@
         <v>19</v>
       </c>
       <c r="L13">
-        <v>6240</v>
+        <v>6239</v>
       </c>
       <c r="M13">
         <v>47</v>
@@ -6400,24 +6346,24 @@
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" t="s">
-        <v>107</v>
-      </c>
-      <c r="D14" t="s">
-        <v>166</v>
-      </c>
-      <c r="E14" t="s">
-        <v>168</v>
-      </c>
-      <c r="F14" t="s">
-        <v>156</v>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" s="39">
+        <v>2020</v>
+      </c>
+      <c r="B14" s="39">
+        <v>20</v>
+      </c>
+      <c r="C14" s="39">
+        <v>44</v>
+      </c>
+      <c r="D14" s="40">
+        <v>71</v>
+      </c>
+      <c r="E14" s="40">
+        <v>74</v>
+      </c>
+      <c r="F14" s="40">
+        <v>84</v>
       </c>
       <c r="J14">
         <v>2020</v>
@@ -6441,24 +6387,24 @@
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" t="s">
-        <v>61</v>
-      </c>
-      <c r="C15" t="s">
-        <v>101</v>
-      </c>
-      <c r="D15" t="s">
-        <v>164</v>
-      </c>
-      <c r="E15" t="s">
-        <v>155</v>
-      </c>
-      <c r="F15" t="s">
-        <v>156</v>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" s="39">
+        <v>2020</v>
+      </c>
+      <c r="B15" s="39">
+        <v>21</v>
+      </c>
+      <c r="C15" s="39">
+        <v>41</v>
+      </c>
+      <c r="D15" s="40">
+        <v>69</v>
+      </c>
+      <c r="E15" s="40">
+        <v>72</v>
+      </c>
+      <c r="F15" s="40">
+        <v>84</v>
       </c>
       <c r="J15">
         <v>2020</v>
@@ -6482,24 +6428,24 @@
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" t="s">
-        <v>63</v>
-      </c>
-      <c r="C16" t="s">
-        <v>99</v>
-      </c>
-      <c r="D16" t="s">
-        <v>172</v>
-      </c>
-      <c r="E16" t="s">
-        <v>165</v>
-      </c>
-      <c r="F16" t="s">
-        <v>162</v>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" s="39">
+        <v>2020</v>
+      </c>
+      <c r="B16" s="39">
+        <v>22</v>
+      </c>
+      <c r="C16" s="39">
+        <v>40</v>
+      </c>
+      <c r="D16" s="40">
+        <v>68</v>
+      </c>
+      <c r="E16" s="40">
+        <v>70</v>
+      </c>
+      <c r="F16" s="40">
+        <v>80</v>
       </c>
       <c r="J16">
         <v>2020</v>
@@ -6523,24 +6469,24 @@
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" t="s">
-        <v>65</v>
-      </c>
-      <c r="C17" t="s">
-        <v>91</v>
-      </c>
-      <c r="D17" t="s">
-        <v>173</v>
-      </c>
-      <c r="E17" t="s">
-        <v>174</v>
-      </c>
-      <c r="F17" t="s">
-        <v>162</v>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A17" s="39">
+        <v>2020</v>
+      </c>
+      <c r="B17" s="39">
+        <v>23</v>
+      </c>
+      <c r="C17" s="39">
+        <v>36</v>
+      </c>
+      <c r="D17" s="40">
+        <v>63</v>
+      </c>
+      <c r="E17" s="40">
+        <v>60</v>
+      </c>
+      <c r="F17" s="40">
+        <v>80</v>
       </c>
       <c r="J17">
         <v>2020</v>
@@ -6549,7 +6495,7 @@
         <v>23</v>
       </c>
       <c r="L17">
-        <v>2351</v>
+        <v>2352</v>
       </c>
       <c r="M17">
         <v>39</v>
@@ -6564,24 +6510,24 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" t="s">
-        <v>67</v>
-      </c>
-      <c r="C18" t="s">
-        <v>87</v>
-      </c>
-      <c r="D18" t="s">
-        <v>154</v>
-      </c>
-      <c r="E18" t="s">
-        <v>175</v>
-      </c>
-      <c r="F18" t="s">
-        <v>167</v>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A18" s="39">
+        <v>2020</v>
+      </c>
+      <c r="B18" s="39">
+        <v>24</v>
+      </c>
+      <c r="C18" s="39">
+        <v>34</v>
+      </c>
+      <c r="D18" s="40">
+        <v>59</v>
+      </c>
+      <c r="E18" s="40">
+        <v>61.5</v>
+      </c>
+      <c r="F18" s="40">
+        <v>83</v>
       </c>
       <c r="J18">
         <v>2020</v>
@@ -6590,7 +6536,7 @@
         <v>24</v>
       </c>
       <c r="L18">
-        <v>2340</v>
+        <v>2344</v>
       </c>
       <c r="M18">
         <v>37</v>
@@ -6605,24 +6551,24 @@
         <v>77</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" t="s">
-        <v>69</v>
-      </c>
-      <c r="C19" t="s">
-        <v>91</v>
-      </c>
-      <c r="D19" t="s">
-        <v>176</v>
-      </c>
-      <c r="E19" t="s">
-        <v>177</v>
-      </c>
-      <c r="F19" t="s">
-        <v>178</v>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A19" s="39">
+        <v>2020</v>
+      </c>
+      <c r="B19" s="39">
+        <v>25</v>
+      </c>
+      <c r="C19" s="39">
+        <v>36</v>
+      </c>
+      <c r="D19" s="40">
+        <v>55</v>
+      </c>
+      <c r="E19" s="40">
+        <v>62.5</v>
+      </c>
+      <c r="F19" s="40">
+        <v>76</v>
       </c>
       <c r="J19">
         <v>2020</v>
@@ -6631,7 +6577,7 @@
         <v>25</v>
       </c>
       <c r="L19">
-        <v>4121</v>
+        <v>4122</v>
       </c>
       <c r="M19">
         <v>36</v>
@@ -6646,24 +6592,24 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" t="s">
-        <v>71</v>
-      </c>
-      <c r="C20" t="s">
-        <v>91</v>
-      </c>
-      <c r="D20" t="s">
-        <v>179</v>
-      </c>
-      <c r="E20" t="s">
-        <v>180</v>
-      </c>
-      <c r="F20" t="s">
-        <v>181</v>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A20" s="39">
+        <v>2020</v>
+      </c>
+      <c r="B20" s="39">
+        <v>26</v>
+      </c>
+      <c r="C20" s="39">
+        <v>36</v>
+      </c>
+      <c r="D20" s="40">
+        <v>57</v>
+      </c>
+      <c r="E20" s="40">
+        <v>66</v>
+      </c>
+      <c r="F20" s="40">
+        <v>78</v>
       </c>
       <c r="J20">
         <v>2020</v>
@@ -6687,24 +6633,24 @@
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" t="s">
-        <v>73</v>
-      </c>
-      <c r="C21" t="s">
-        <v>89</v>
-      </c>
-      <c r="D21" t="s">
-        <v>125</v>
-      </c>
-      <c r="E21" t="s">
-        <v>180</v>
-      </c>
-      <c r="F21" t="s">
-        <v>182</v>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A21" s="39">
+        <v>2020</v>
+      </c>
+      <c r="B21" s="39">
+        <v>27</v>
+      </c>
+      <c r="C21" s="39">
+        <v>35</v>
+      </c>
+      <c r="D21" s="40">
+        <v>53</v>
+      </c>
+      <c r="E21" s="40">
+        <v>66</v>
+      </c>
+      <c r="F21" s="40">
+        <v>77.5</v>
       </c>
       <c r="J21">
         <v>2020</v>
@@ -6728,24 +6674,24 @@
         <v>72</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" t="s">
-        <v>75</v>
-      </c>
-      <c r="C22" t="s">
-        <v>87</v>
-      </c>
-      <c r="D22" t="s">
-        <v>183</v>
-      </c>
-      <c r="E22" t="s">
-        <v>173</v>
-      </c>
-      <c r="F22" t="s">
-        <v>159</v>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A22" s="39">
+        <v>2020</v>
+      </c>
+      <c r="B22" s="39">
+        <v>28</v>
+      </c>
+      <c r="C22" s="39">
+        <v>34</v>
+      </c>
+      <c r="D22" s="40">
+        <v>54</v>
+      </c>
+      <c r="E22" s="40">
+        <v>63</v>
+      </c>
+      <c r="F22" s="40">
+        <v>79</v>
       </c>
       <c r="J22">
         <v>2020</v>
@@ -6760,7 +6706,7 @@
         <v>35</v>
       </c>
       <c r="N22">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O22">
         <v>60</v>
@@ -6769,24 +6715,24 @@
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A23" s="39">
+        <v>2020</v>
+      </c>
+      <c r="B23" s="39">
         <v>29</v>
       </c>
-      <c r="B23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C23" t="s">
-        <v>87</v>
-      </c>
-      <c r="D23" t="s">
-        <v>125</v>
-      </c>
-      <c r="E23" t="s">
-        <v>157</v>
-      </c>
-      <c r="F23" t="s">
-        <v>184</v>
+      <c r="C23" s="39">
+        <v>34</v>
+      </c>
+      <c r="D23" s="40">
+        <v>53</v>
+      </c>
+      <c r="E23" s="40">
+        <v>65</v>
+      </c>
+      <c r="F23" s="40">
+        <v>81</v>
       </c>
       <c r="J23">
         <v>2020</v>
@@ -6795,7 +6741,7 @@
         <v>29</v>
       </c>
       <c r="L23">
-        <v>3019</v>
+        <v>3020</v>
       </c>
       <c r="M23">
         <v>36</v>
@@ -6810,24 +6756,24 @@
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" t="s">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A24" s="39">
+        <v>2020</v>
+      </c>
+      <c r="B24" s="39">
+        <v>30</v>
+      </c>
+      <c r="C24" s="39">
+        <v>35</v>
+      </c>
+      <c r="D24" s="40">
+        <v>56</v>
+      </c>
+      <c r="E24" s="40">
+        <v>64</v>
+      </c>
+      <c r="F24" s="40">
         <v>79</v>
-      </c>
-      <c r="C24" t="s">
-        <v>89</v>
-      </c>
-      <c r="D24" t="s">
-        <v>185</v>
-      </c>
-      <c r="E24" t="s">
-        <v>163</v>
-      </c>
-      <c r="F24" t="s">
-        <v>159</v>
       </c>
       <c r="J24">
         <v>2020</v>
@@ -6851,24 +6797,24 @@
         <v>77</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" t="s">
-        <v>81</v>
-      </c>
-      <c r="C25" t="s">
-        <v>87</v>
-      </c>
-      <c r="D25" t="s">
-        <v>160</v>
-      </c>
-      <c r="E25" t="s">
-        <v>154</v>
-      </c>
-      <c r="F25" t="s">
-        <v>186</v>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A25" s="39">
+        <v>2020</v>
+      </c>
+      <c r="B25" s="39">
+        <v>31</v>
+      </c>
+      <c r="C25" s="39">
+        <v>34</v>
+      </c>
+      <c r="D25" s="40">
+        <v>58</v>
+      </c>
+      <c r="E25" s="40">
+        <v>59</v>
+      </c>
+      <c r="F25" s="40">
+        <v>82.5</v>
       </c>
       <c r="J25">
         <v>2020</v>
@@ -6877,7 +6823,7 @@
         <v>31</v>
       </c>
       <c r="L25">
-        <v>4828</v>
+        <v>4827</v>
       </c>
       <c r="M25">
         <v>36</v>
@@ -6892,24 +6838,24 @@
         <v>79</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" t="s">
-        <v>83</v>
-      </c>
-      <c r="C26" t="s">
-        <v>83</v>
-      </c>
-      <c r="D26" t="s">
-        <v>185</v>
-      </c>
-      <c r="E26" t="s">
-        <v>155</v>
-      </c>
-      <c r="F26" t="s">
-        <v>187</v>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A26" s="39">
+        <v>2020</v>
+      </c>
+      <c r="B26" s="39">
+        <v>32</v>
+      </c>
+      <c r="C26" s="39">
+        <v>32</v>
+      </c>
+      <c r="D26" s="40">
+        <v>56</v>
+      </c>
+      <c r="E26" s="40">
+        <v>72</v>
+      </c>
+      <c r="F26" s="40">
+        <v>85</v>
       </c>
       <c r="J26">
         <v>2020</v>
@@ -6918,7 +6864,7 @@
         <v>32</v>
       </c>
       <c r="L26">
-        <v>6055</v>
+        <v>6057</v>
       </c>
       <c r="M26">
         <v>34</v>
@@ -6933,24 +6879,24 @@
         <v>81</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27" t="s">
-        <v>85</v>
-      </c>
-      <c r="C27" t="s">
-        <v>79</v>
-      </c>
-      <c r="D27" t="s">
-        <v>185</v>
-      </c>
-      <c r="E27" t="s">
-        <v>173</v>
-      </c>
-      <c r="F27" t="s">
-        <v>167</v>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A27" s="39">
+        <v>2020</v>
+      </c>
+      <c r="B27" s="39">
+        <v>33</v>
+      </c>
+      <c r="C27" s="39">
+        <v>30</v>
+      </c>
+      <c r="D27" s="40">
+        <v>56</v>
+      </c>
+      <c r="E27" s="40">
+        <v>63</v>
+      </c>
+      <c r="F27" s="40">
+        <v>83</v>
       </c>
       <c r="J27">
         <v>2020</v>
@@ -6959,7 +6905,7 @@
         <v>33</v>
       </c>
       <c r="L27">
-        <v>7950</v>
+        <v>7949</v>
       </c>
       <c r="M27">
         <v>32</v>
@@ -6974,24 +6920,24 @@
         <v>81</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A28" s="39">
+        <v>2020</v>
+      </c>
+      <c r="B28" s="39">
+        <v>34</v>
+      </c>
+      <c r="C28" s="39">
         <v>29</v>
       </c>
-      <c r="B28" t="s">
-        <v>87</v>
-      </c>
-      <c r="C28" t="s">
-        <v>77</v>
-      </c>
-      <c r="D28" t="s">
-        <v>121</v>
-      </c>
-      <c r="E28" t="s">
-        <v>173</v>
-      </c>
-      <c r="F28" t="s">
-        <v>170</v>
+      <c r="D28" s="40">
+        <v>50</v>
+      </c>
+      <c r="E28" s="40">
+        <v>63</v>
+      </c>
+      <c r="F28" s="40">
+        <v>75</v>
       </c>
       <c r="J28">
         <v>2020</v>
@@ -7000,13 +6946,13 @@
         <v>34</v>
       </c>
       <c r="L28">
-        <v>9599</v>
+        <v>9598</v>
       </c>
       <c r="M28">
         <v>32</v>
       </c>
       <c r="N28">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O28">
         <v>62</v>
@@ -7015,24 +6961,24 @@
         <v>71</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A29" s="39">
+        <v>2020</v>
+      </c>
+      <c r="B29" s="39">
+        <v>35</v>
+      </c>
+      <c r="C29" s="39">
         <v>29</v>
       </c>
-      <c r="B29" t="s">
-        <v>89</v>
-      </c>
-      <c r="C29" t="s">
-        <v>77</v>
-      </c>
-      <c r="D29" t="s">
-        <v>121</v>
-      </c>
-      <c r="E29" t="s">
-        <v>188</v>
-      </c>
-      <c r="F29" t="s">
-        <v>189</v>
+      <c r="D29" s="40">
+        <v>51.55</v>
+      </c>
+      <c r="E29" s="40">
+        <v>57.5</v>
+      </c>
+      <c r="F29" s="40">
+        <v>76.5</v>
       </c>
       <c r="J29">
         <v>2020</v>
@@ -7041,7 +6987,7 @@
         <v>35</v>
       </c>
       <c r="L29">
-        <v>8821</v>
+        <v>8820</v>
       </c>
       <c r="M29">
         <v>32</v>
@@ -7056,24 +7002,24 @@
         <v>74</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>91</v>
-      </c>
-      <c r="C30" t="s">
-        <v>79</v>
-      </c>
-      <c r="D30" t="s">
-        <v>176</v>
-      </c>
-      <c r="E30" t="s">
-        <v>163</v>
-      </c>
-      <c r="F30" t="s">
-        <v>190</v>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A30" s="39">
+        <v>2020</v>
+      </c>
+      <c r="B30" s="39">
+        <v>36</v>
+      </c>
+      <c r="C30" s="39">
+        <v>30</v>
+      </c>
+      <c r="D30" s="40">
+        <v>55</v>
+      </c>
+      <c r="E30" s="40">
+        <v>64</v>
+      </c>
+      <c r="F30" s="40">
+        <v>78.5</v>
       </c>
       <c r="J30">
         <v>2020</v>
@@ -7082,7 +7028,7 @@
         <v>36</v>
       </c>
       <c r="L30">
-        <v>8621</v>
+        <v>8622</v>
       </c>
       <c r="M30">
         <v>33</v>
@@ -7097,24 +7043,24 @@
         <v>75</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" t="s">
-        <v>93</v>
-      </c>
-      <c r="C31" t="s">
-        <v>83</v>
-      </c>
-      <c r="D31" t="s">
-        <v>174</v>
-      </c>
-      <c r="E31" t="s">
-        <v>166</v>
-      </c>
-      <c r="F31" t="s">
-        <v>184</v>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A31" s="39">
+        <v>2020</v>
+      </c>
+      <c r="B31" s="39">
+        <v>37</v>
+      </c>
+      <c r="C31" s="39">
+        <v>32</v>
+      </c>
+      <c r="D31" s="40">
+        <v>59</v>
+      </c>
+      <c r="E31" s="40">
+        <v>71</v>
+      </c>
+      <c r="F31" s="40">
+        <v>81</v>
       </c>
       <c r="J31">
         <v>2020</v>
@@ -7123,7 +7069,7 @@
         <v>37</v>
       </c>
       <c r="L31">
-        <v>9769</v>
+        <v>9767</v>
       </c>
       <c r="M31">
         <v>35</v>
@@ -7138,24 +7084,24 @@
         <v>78</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>29</v>
-      </c>
-      <c r="B32" t="s">
-        <v>95</v>
-      </c>
-      <c r="C32" t="s">
-        <v>85</v>
-      </c>
-      <c r="D32" t="s">
-        <v>174</v>
-      </c>
-      <c r="E32" t="s">
-        <v>191</v>
-      </c>
-      <c r="F32" t="s">
-        <v>184</v>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A32" s="39">
+        <v>2020</v>
+      </c>
+      <c r="B32" s="39">
+        <v>38</v>
+      </c>
+      <c r="C32" s="39">
+        <v>33</v>
+      </c>
+      <c r="D32" s="40">
+        <v>60</v>
+      </c>
+      <c r="E32" s="40">
+        <v>61</v>
+      </c>
+      <c r="F32" s="40">
+        <v>81</v>
       </c>
       <c r="J32">
         <v>2020</v>
@@ -7179,24 +7125,24 @@
         <v>79</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>29</v>
-      </c>
-      <c r="B33" t="s">
-        <v>97</v>
-      </c>
-      <c r="C33" t="s">
-        <v>87</v>
-      </c>
-      <c r="D33" t="s">
-        <v>191</v>
-      </c>
-      <c r="E33" t="s">
-        <v>192</v>
-      </c>
-      <c r="F33" t="s">
-        <v>186</v>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A33" s="39">
+        <v>2020</v>
+      </c>
+      <c r="B33" s="39">
+        <v>39</v>
+      </c>
+      <c r="C33" s="39">
+        <v>34</v>
+      </c>
+      <c r="D33" s="40">
+        <v>61</v>
+      </c>
+      <c r="E33" s="40">
+        <v>68.5</v>
+      </c>
+      <c r="F33" s="40">
+        <v>82.5</v>
       </c>
       <c r="J33">
         <v>2020</v>
@@ -7205,7 +7151,7 @@
         <v>39</v>
       </c>
       <c r="L33">
-        <v>13059</v>
+        <v>13060</v>
       </c>
       <c r="M33">
         <v>37</v>
@@ -7220,24 +7166,24 @@
         <v>80</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>29</v>
-      </c>
-      <c r="B34" t="s">
-        <v>99</v>
-      </c>
-      <c r="C34" t="s">
-        <v>89</v>
-      </c>
-      <c r="D34" t="s">
-        <v>191</v>
-      </c>
-      <c r="E34" t="s">
-        <v>172</v>
-      </c>
-      <c r="F34" t="s">
-        <v>171</v>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A34" s="39">
+        <v>2020</v>
+      </c>
+      <c r="B34" s="39">
+        <v>40</v>
+      </c>
+      <c r="C34" s="39">
+        <v>35</v>
+      </c>
+      <c r="D34" s="40">
+        <v>61</v>
+      </c>
+      <c r="E34" s="40">
+        <v>68</v>
+      </c>
+      <c r="F34" s="40">
+        <v>82</v>
       </c>
       <c r="J34">
         <v>2020</v>
@@ -7246,7 +7192,7 @@
         <v>40</v>
       </c>
       <c r="L34">
-        <v>15921</v>
+        <v>15924</v>
       </c>
       <c r="M34">
         <v>38</v>
@@ -7261,24 +7207,24 @@
         <v>78</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>29</v>
-      </c>
-      <c r="B35" t="s">
-        <v>101</v>
-      </c>
-      <c r="C35" t="s">
-        <v>93</v>
-      </c>
-      <c r="D35" t="s">
-        <v>193</v>
-      </c>
-      <c r="E35" t="s">
-        <v>164</v>
-      </c>
-      <c r="F35" t="s">
-        <v>171</v>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A35" s="39">
+        <v>2020</v>
+      </c>
+      <c r="B35" s="39">
+        <v>41</v>
+      </c>
+      <c r="C35" s="39">
+        <v>37</v>
+      </c>
+      <c r="D35" s="40">
+        <v>62</v>
+      </c>
+      <c r="E35" s="40">
+        <v>69</v>
+      </c>
+      <c r="F35" s="40">
+        <v>82</v>
       </c>
       <c r="J35">
         <v>2020</v>
@@ -7287,7 +7233,7 @@
         <v>41</v>
       </c>
       <c r="L35">
-        <v>26122</v>
+        <v>26119</v>
       </c>
       <c r="M35">
         <v>39</v>
@@ -7302,24 +7248,24 @@
         <v>80</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>29</v>
-      </c>
-      <c r="B36" t="s">
-        <v>103</v>
-      </c>
-      <c r="C36" t="s">
-        <v>93</v>
-      </c>
-      <c r="D36" t="s">
-        <v>163</v>
-      </c>
-      <c r="E36" t="s">
-        <v>192</v>
-      </c>
-      <c r="F36" t="s">
-        <v>167</v>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A36" s="39">
+        <v>2020</v>
+      </c>
+      <c r="B36" s="39">
+        <v>42</v>
+      </c>
+      <c r="C36" s="39">
+        <v>37</v>
+      </c>
+      <c r="D36" s="40">
+        <v>64</v>
+      </c>
+      <c r="E36" s="40">
+        <v>68</v>
+      </c>
+      <c r="F36" s="40">
+        <v>83</v>
       </c>
       <c r="J36">
         <v>2020</v>
@@ -7328,7 +7274,7 @@
         <v>42</v>
       </c>
       <c r="L36">
-        <v>42066</v>
+        <v>42062</v>
       </c>
       <c r="M36">
         <v>39</v>
@@ -7343,24 +7289,24 @@
         <v>81</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>29</v>
-      </c>
-      <c r="B37" t="s">
-        <v>105</v>
-      </c>
-      <c r="C37" t="s">
-        <v>97</v>
-      </c>
-      <c r="D37" t="s">
-        <v>161</v>
-      </c>
-      <c r="E37" t="s">
-        <v>155</v>
-      </c>
-      <c r="F37" t="s">
-        <v>167</v>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A37" s="39">
+        <v>2020</v>
+      </c>
+      <c r="B37" s="39">
+        <v>43</v>
+      </c>
+      <c r="C37" s="39">
+        <v>39</v>
+      </c>
+      <c r="D37" s="40">
+        <v>67</v>
+      </c>
+      <c r="E37" s="40">
+        <v>72</v>
+      </c>
+      <c r="F37" s="40">
+        <v>83</v>
       </c>
       <c r="J37">
         <v>2020</v>
@@ -7369,13 +7315,13 @@
         <v>43</v>
       </c>
       <c r="L37">
-        <v>74815</v>
+        <v>74826</v>
       </c>
       <c r="M37">
         <v>40</v>
       </c>
       <c r="N37">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O37">
         <v>68</v>
@@ -7384,24 +7330,24 @@
         <v>81</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>29</v>
-      </c>
-      <c r="B38" t="s">
-        <v>107</v>
-      </c>
-      <c r="C38" t="s">
-        <v>99</v>
-      </c>
-      <c r="D38" t="s">
-        <v>172</v>
-      </c>
-      <c r="E38" t="s">
-        <v>166</v>
-      </c>
-      <c r="F38" t="s">
-        <v>167</v>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A38" s="39">
+        <v>2020</v>
+      </c>
+      <c r="B38" s="39">
+        <v>44</v>
+      </c>
+      <c r="C38" s="39">
+        <v>40</v>
+      </c>
+      <c r="D38" s="40">
+        <v>68</v>
+      </c>
+      <c r="E38" s="40">
+        <v>71</v>
+      </c>
+      <c r="F38" s="40">
+        <v>83</v>
       </c>
       <c r="J38">
         <v>2020</v>
@@ -7410,7 +7356,7 @@
         <v>44</v>
       </c>
       <c r="L38">
-        <v>111062</v>
+        <v>111040</v>
       </c>
       <c r="M38">
         <v>41</v>
@@ -7425,24 +7371,24 @@
         <v>80</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>29</v>
-      </c>
-      <c r="B39" t="s">
-        <v>109</v>
-      </c>
-      <c r="C39" t="s">
-        <v>99</v>
-      </c>
-      <c r="D39" t="s">
-        <v>165</v>
-      </c>
-      <c r="E39" t="s">
-        <v>194</v>
-      </c>
-      <c r="F39" t="s">
-        <v>167</v>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A39" s="39">
+        <v>2020</v>
+      </c>
+      <c r="B39" s="39">
+        <v>45</v>
+      </c>
+      <c r="C39" s="39">
+        <v>40</v>
+      </c>
+      <c r="D39" s="40">
+        <v>70</v>
+      </c>
+      <c r="E39" s="40">
+        <v>73</v>
+      </c>
+      <c r="F39" s="40">
+        <v>83</v>
       </c>
       <c r="J39">
         <v>2020</v>
@@ -7451,7 +7397,7 @@
         <v>45</v>
       </c>
       <c r="L39">
-        <v>125770</v>
+        <v>125773</v>
       </c>
       <c r="M39">
         <v>41</v>
@@ -7466,24 +7412,24 @@
         <v>81</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B40" t="s">
-        <v>111</v>
-      </c>
-      <c r="C40" t="s">
-        <v>101</v>
-      </c>
-      <c r="D40" t="s">
-        <v>155</v>
-      </c>
-      <c r="E40" t="s">
-        <v>194</v>
-      </c>
-      <c r="F40" t="s">
-        <v>156</v>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A40" s="39">
+        <v>2020</v>
+      </c>
+      <c r="B40" s="39">
+        <v>46</v>
+      </c>
+      <c r="C40" s="39">
+        <v>41</v>
+      </c>
+      <c r="D40" s="40">
+        <v>72</v>
+      </c>
+      <c r="E40" s="40">
+        <v>73</v>
+      </c>
+      <c r="F40" s="40">
+        <v>84</v>
       </c>
       <c r="J40">
         <v>2020</v>
@@ -7492,7 +7438,7 @@
         <v>46</v>
       </c>
       <c r="L40">
-        <v>127805</v>
+        <v>127783</v>
       </c>
       <c r="M40">
         <v>42</v>
@@ -7507,24 +7453,24 @@
         <v>82</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>29</v>
-      </c>
-      <c r="B41" t="s">
-        <v>113</v>
-      </c>
-      <c r="C41" t="s">
-        <v>103</v>
-      </c>
-      <c r="D41" t="s">
-        <v>194</v>
-      </c>
-      <c r="E41" t="s">
-        <v>155</v>
-      </c>
-      <c r="F41" t="s">
-        <v>156</v>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A41" s="39">
+        <v>2020</v>
+      </c>
+      <c r="B41" s="39">
+        <v>47</v>
+      </c>
+      <c r="C41" s="39">
+        <v>42</v>
+      </c>
+      <c r="D41" s="40">
+        <v>73</v>
+      </c>
+      <c r="E41" s="40">
+        <v>72</v>
+      </c>
+      <c r="F41" s="40">
+        <v>84</v>
       </c>
       <c r="J41">
         <v>2020</v>
@@ -7533,7 +7479,7 @@
         <v>47</v>
       </c>
       <c r="L41">
-        <v>128424</v>
+        <v>128392</v>
       </c>
       <c r="M41">
         <v>43</v>
@@ -7548,24 +7494,24 @@
         <v>82</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>29</v>
-      </c>
-      <c r="B42" t="s">
-        <v>115</v>
-      </c>
-      <c r="C42" t="s">
-        <v>105</v>
-      </c>
-      <c r="D42" t="s">
-        <v>194</v>
-      </c>
-      <c r="E42" t="s">
-        <v>166</v>
-      </c>
-      <c r="F42" t="s">
-        <v>156</v>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A42" s="39">
+        <v>2020</v>
+      </c>
+      <c r="B42" s="39">
+        <v>48</v>
+      </c>
+      <c r="C42" s="39">
+        <v>43</v>
+      </c>
+      <c r="D42" s="40">
+        <v>73</v>
+      </c>
+      <c r="E42" s="40">
+        <v>71</v>
+      </c>
+      <c r="F42" s="40">
+        <v>84</v>
       </c>
       <c r="J42">
         <v>2020</v>
@@ -7574,7 +7520,7 @@
         <v>48</v>
       </c>
       <c r="L42">
-        <v>123254</v>
+        <v>123234</v>
       </c>
       <c r="M42">
         <v>44</v>
@@ -7589,24 +7535,24 @@
         <v>82</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>29</v>
-      </c>
-      <c r="B43" t="s">
-        <v>117</v>
-      </c>
-      <c r="C43" t="s">
-        <v>107</v>
-      </c>
-      <c r="D43" t="s">
-        <v>170</v>
-      </c>
-      <c r="E43" t="s">
-        <v>194</v>
-      </c>
-      <c r="F43" t="s">
-        <v>156</v>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A43" s="39">
+        <v>2020</v>
+      </c>
+      <c r="B43" s="39">
+        <v>49</v>
+      </c>
+      <c r="C43" s="39">
+        <v>44</v>
+      </c>
+      <c r="D43" s="40">
+        <v>75</v>
+      </c>
+      <c r="E43" s="40">
+        <v>73</v>
+      </c>
+      <c r="F43" s="40">
+        <v>84</v>
       </c>
       <c r="J43">
         <v>2020</v>
@@ -7615,7 +7561,7 @@
         <v>49</v>
       </c>
       <c r="L43">
-        <v>128447</v>
+        <v>128461</v>
       </c>
       <c r="M43">
         <v>45</v>
@@ -7630,24 +7576,24 @@
         <v>82</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>29</v>
-      </c>
-      <c r="B44" t="s">
-        <v>119</v>
-      </c>
-      <c r="C44" t="s">
-        <v>109</v>
-      </c>
-      <c r="D44" t="s">
-        <v>178</v>
-      </c>
-      <c r="E44" t="s">
-        <v>194</v>
-      </c>
-      <c r="F44" t="s">
-        <v>156</v>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A44" s="39">
+        <v>2020</v>
+      </c>
+      <c r="B44" s="39">
+        <v>50</v>
+      </c>
+      <c r="C44" s="39">
+        <v>45</v>
+      </c>
+      <c r="D44" s="40">
+        <v>76</v>
+      </c>
+      <c r="E44" s="40">
+        <v>73</v>
+      </c>
+      <c r="F44" s="40">
+        <v>84</v>
       </c>
       <c r="J44">
         <v>2020</v>
@@ -7656,7 +7602,7 @@
         <v>50</v>
       </c>
       <c r="L44">
-        <v>156392</v>
+        <v>156387</v>
       </c>
       <c r="M44">
         <v>46</v>
@@ -7671,24 +7617,24 @@
         <v>82</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>29</v>
-      </c>
-      <c r="B45" t="s">
-        <v>121</v>
-      </c>
-      <c r="C45" t="s">
-        <v>113</v>
-      </c>
-      <c r="D45" t="s">
-        <v>178</v>
-      </c>
-      <c r="E45" t="s">
-        <v>168</v>
-      </c>
-      <c r="F45" t="s">
-        <v>156</v>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A45" s="39">
+        <v>2020</v>
+      </c>
+      <c r="B45" s="39">
+        <v>51</v>
+      </c>
+      <c r="C45" s="39">
+        <v>47</v>
+      </c>
+      <c r="D45" s="40">
+        <v>76</v>
+      </c>
+      <c r="E45" s="40">
+        <v>74</v>
+      </c>
+      <c r="F45" s="40">
+        <v>84</v>
       </c>
       <c r="J45">
         <v>2020</v>
@@ -7697,7 +7643,7 @@
         <v>51</v>
       </c>
       <c r="L45">
-        <v>174799</v>
+        <v>174809</v>
       </c>
       <c r="M45">
         <v>46</v>
@@ -7712,24 +7658,24 @@
         <v>82</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>29</v>
-      </c>
-      <c r="B46" t="s">
-        <v>123</v>
-      </c>
-      <c r="C46" t="s">
-        <v>115</v>
-      </c>
-      <c r="D46" t="s">
-        <v>195</v>
-      </c>
-      <c r="E46" t="s">
-        <v>194</v>
-      </c>
-      <c r="F46" t="s">
-        <v>156</v>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A46" s="39">
+        <v>2020</v>
+      </c>
+      <c r="B46" s="39">
+        <v>52</v>
+      </c>
+      <c r="C46" s="39">
+        <v>48</v>
+      </c>
+      <c r="D46" s="40">
+        <v>77</v>
+      </c>
+      <c r="E46" s="40">
+        <v>73</v>
+      </c>
+      <c r="F46" s="40">
+        <v>84</v>
       </c>
       <c r="J46">
         <v>2020</v>
@@ -7738,7 +7684,7 @@
         <v>52</v>
       </c>
       <c r="L46">
-        <v>139065</v>
+        <v>139057</v>
       </c>
       <c r="M46">
         <v>48</v>
@@ -7753,24 +7699,24 @@
         <v>82</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>29</v>
-      </c>
-      <c r="B47" t="s">
-        <v>125</v>
-      </c>
-      <c r="C47" t="s">
-        <v>117</v>
-      </c>
-      <c r="D47" t="s">
-        <v>178</v>
-      </c>
-      <c r="E47" t="s">
-        <v>194</v>
-      </c>
-      <c r="F47" t="s">
-        <v>156</v>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A47" s="39">
+        <v>2020</v>
+      </c>
+      <c r="B47" s="39">
+        <v>53</v>
+      </c>
+      <c r="C47" s="39">
+        <v>49</v>
+      </c>
+      <c r="D47" s="40">
+        <v>76</v>
+      </c>
+      <c r="E47" s="40">
+        <v>73</v>
+      </c>
+      <c r="F47" s="40">
+        <v>84</v>
       </c>
       <c r="J47">
         <v>2020</v>
@@ -7779,7 +7725,7 @@
         <v>53</v>
       </c>
       <c r="L47">
-        <v>123106</v>
+        <v>123110</v>
       </c>
       <c r="M47">
         <v>49</v>
@@ -7794,24 +7740,24 @@
         <v>82</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>127</v>
-      </c>
-      <c r="B48" t="s">
-        <v>30</v>
-      </c>
-      <c r="C48" t="s">
-        <v>115</v>
-      </c>
-      <c r="D48" t="s">
-        <v>195</v>
-      </c>
-      <c r="E48" t="s">
-        <v>194</v>
-      </c>
-      <c r="F48" t="s">
-        <v>156</v>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A48" s="39">
+        <v>2021</v>
+      </c>
+      <c r="B48" s="39">
+        <v>1</v>
+      </c>
+      <c r="C48" s="39">
+        <v>48</v>
+      </c>
+      <c r="D48" s="40">
+        <v>77</v>
+      </c>
+      <c r="E48" s="40">
+        <v>73</v>
+      </c>
+      <c r="F48" s="40">
+        <v>84</v>
       </c>
       <c r="J48">
         <v>2021</v>
@@ -7820,7 +7766,7 @@
         <v>1</v>
       </c>
       <c r="L48">
-        <v>145490</v>
+        <v>145541</v>
       </c>
       <c r="M48">
         <v>48</v>
@@ -7835,24 +7781,24 @@
         <v>82</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>127</v>
-      </c>
-      <c r="B49" t="s">
-        <v>31</v>
-      </c>
-      <c r="C49" t="s">
-        <v>115</v>
-      </c>
-      <c r="D49" t="s">
-        <v>195</v>
-      </c>
-      <c r="E49" t="s">
-        <v>170</v>
-      </c>
-      <c r="F49" t="s">
-        <v>156</v>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A49" s="39">
+        <v>2021</v>
+      </c>
+      <c r="B49" s="39">
+        <v>2</v>
+      </c>
+      <c r="C49" s="39">
+        <v>48</v>
+      </c>
+      <c r="D49" s="40">
+        <v>77</v>
+      </c>
+      <c r="E49" s="40">
+        <v>75</v>
+      </c>
+      <c r="F49" s="40">
+        <v>84</v>
       </c>
       <c r="J49">
         <v>2021</v>
@@ -7861,7 +7807,7 @@
         <v>2</v>
       </c>
       <c r="L49">
-        <v>119080</v>
+        <v>119037</v>
       </c>
       <c r="M49">
         <v>48</v>
@@ -7876,24 +7822,24 @@
         <v>83</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>127</v>
-      </c>
-      <c r="B50" t="s">
-        <v>32</v>
-      </c>
-      <c r="C50" t="s">
-        <v>117</v>
-      </c>
-      <c r="D50" t="s">
-        <v>195</v>
-      </c>
-      <c r="E50" t="s">
-        <v>168</v>
-      </c>
-      <c r="F50" t="s">
-        <v>156</v>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A50" s="39">
+        <v>2021</v>
+      </c>
+      <c r="B50" s="39">
+        <v>3</v>
+      </c>
+      <c r="C50" s="39">
+        <v>49</v>
+      </c>
+      <c r="D50" s="40">
+        <v>77</v>
+      </c>
+      <c r="E50" s="40">
+        <v>74</v>
+      </c>
+      <c r="F50" s="40">
+        <v>84</v>
       </c>
       <c r="J50">
         <v>2021</v>
@@ -7902,7 +7848,7 @@
         <v>3</v>
       </c>
       <c r="L50">
-        <v>95599</v>
+        <v>95593</v>
       </c>
       <c r="M50">
         <v>48</v>
@@ -7917,24 +7863,24 @@
         <v>82</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>127</v>
-      </c>
-      <c r="B51" t="s">
-        <v>33</v>
-      </c>
-      <c r="C51" t="s">
-        <v>115</v>
-      </c>
-      <c r="D51" t="s">
-        <v>178</v>
-      </c>
-      <c r="E51" t="s">
-        <v>168</v>
-      </c>
-      <c r="F51" t="s">
-        <v>167</v>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A51" s="39">
+        <v>2021</v>
+      </c>
+      <c r="B51" s="39">
+        <v>4</v>
+      </c>
+      <c r="C51" s="39">
+        <v>48</v>
+      </c>
+      <c r="D51" s="40">
+        <v>76</v>
+      </c>
+      <c r="E51" s="40">
+        <v>74</v>
+      </c>
+      <c r="F51" s="40">
+        <v>83</v>
       </c>
       <c r="J51">
         <v>2021</v>
@@ -7943,7 +7889,7 @@
         <v>4</v>
       </c>
       <c r="L51">
-        <v>78191</v>
+        <v>78171</v>
       </c>
       <c r="M51">
         <v>48</v>
@@ -7958,24 +7904,24 @@
         <v>82</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>127</v>
-      </c>
-      <c r="B52" t="s">
-        <v>34</v>
-      </c>
-      <c r="C52" t="s">
-        <v>113</v>
-      </c>
-      <c r="D52" t="s">
-        <v>170</v>
-      </c>
-      <c r="E52" t="s">
-        <v>194</v>
-      </c>
-      <c r="F52" t="s">
-        <v>167</v>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A52" s="39">
+        <v>2021</v>
+      </c>
+      <c r="B52" s="39">
+        <v>5</v>
+      </c>
+      <c r="C52" s="39">
+        <v>47</v>
+      </c>
+      <c r="D52" s="40">
+        <v>75</v>
+      </c>
+      <c r="E52" s="40">
+        <v>73</v>
+      </c>
+      <c r="F52" s="40">
+        <v>83</v>
       </c>
       <c r="J52">
         <v>2021</v>
@@ -7984,7 +7930,7 @@
         <v>5</v>
       </c>
       <c r="L52">
-        <v>64633</v>
+        <v>64609</v>
       </c>
       <c r="M52">
         <v>46</v>
@@ -7999,24 +7945,24 @@
         <v>81</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>127</v>
-      </c>
-      <c r="B53" t="s">
-        <v>35</v>
-      </c>
-      <c r="C53" t="s">
-        <v>109</v>
-      </c>
-      <c r="D53" t="s">
-        <v>168</v>
-      </c>
-      <c r="E53" t="s">
-        <v>194</v>
-      </c>
-      <c r="F53" t="s">
-        <v>167</v>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A53" s="39">
+        <v>2021</v>
+      </c>
+      <c r="B53" s="39">
+        <v>6</v>
+      </c>
+      <c r="C53" s="39">
+        <v>45</v>
+      </c>
+      <c r="D53" s="40">
+        <v>74</v>
+      </c>
+      <c r="E53" s="40">
+        <v>73</v>
+      </c>
+      <c r="F53" s="40">
+        <v>83</v>
       </c>
       <c r="J53">
         <v>2021</v>
@@ -8025,7 +7971,7 @@
         <v>6</v>
       </c>
       <c r="L53">
-        <v>50844</v>
+        <v>50833</v>
       </c>
       <c r="M53">
         <v>45</v>
@@ -8040,24 +7986,24 @@
         <v>81</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>127</v>
-      </c>
-      <c r="B54" t="s">
-        <v>36</v>
-      </c>
-      <c r="C54" t="s">
-        <v>107</v>
-      </c>
-      <c r="D54" t="s">
-        <v>194</v>
-      </c>
-      <c r="E54" t="s">
-        <v>168</v>
-      </c>
-      <c r="F54" t="s">
-        <v>171</v>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A54" s="39">
+        <v>2021</v>
+      </c>
+      <c r="B54" s="39">
+        <v>7</v>
+      </c>
+      <c r="C54" s="39">
+        <v>44</v>
+      </c>
+      <c r="D54" s="40">
+        <v>73</v>
+      </c>
+      <c r="E54" s="40">
+        <v>74</v>
+      </c>
+      <c r="F54" s="40">
+        <v>82</v>
       </c>
       <c r="J54">
         <v>2021</v>
@@ -8066,7 +8012,7 @@
         <v>7</v>
       </c>
       <c r="L54">
-        <v>52468</v>
+        <v>52451</v>
       </c>
       <c r="M54">
         <v>44</v>
@@ -8075,30 +8021,30 @@
         <v>67</v>
       </c>
       <c r="O54">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P54">
         <v>80</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>127</v>
-      </c>
-      <c r="B55" t="s">
-        <v>37</v>
-      </c>
-      <c r="C55" t="s">
-        <v>103</v>
-      </c>
-      <c r="D55" t="s">
-        <v>166</v>
-      </c>
-      <c r="E55" t="s">
-        <v>165</v>
-      </c>
-      <c r="F55" t="s">
-        <v>171</v>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A55" s="39">
+        <v>2021</v>
+      </c>
+      <c r="B55" s="39">
+        <v>8</v>
+      </c>
+      <c r="C55" s="39">
+        <v>42</v>
+      </c>
+      <c r="D55" s="40">
+        <v>71</v>
+      </c>
+      <c r="E55" s="40">
+        <v>70</v>
+      </c>
+      <c r="F55" s="40">
+        <v>82</v>
       </c>
       <c r="J55">
         <v>2021</v>
@@ -8107,7 +8053,7 @@
         <v>8</v>
       </c>
       <c r="L55">
-        <v>56410</v>
+        <v>56393</v>
       </c>
       <c r="M55">
         <v>42</v>
@@ -8122,24 +8068,24 @@
         <v>79</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>127</v>
-      </c>
-      <c r="B56" t="s">
-        <v>38</v>
-      </c>
-      <c r="C56" t="s">
-        <v>99</v>
-      </c>
-      <c r="D56" t="s">
-        <v>164</v>
-      </c>
-      <c r="E56" t="s">
-        <v>172</v>
-      </c>
-      <c r="F56" t="s">
-        <v>184</v>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A56" s="39">
+        <v>2021</v>
+      </c>
+      <c r="B56" s="39">
+        <v>9</v>
+      </c>
+      <c r="C56" s="39">
+        <v>40</v>
+      </c>
+      <c r="D56" s="40">
+        <v>69</v>
+      </c>
+      <c r="E56" s="40">
+        <v>68</v>
+      </c>
+      <c r="F56" s="40">
+        <v>81</v>
       </c>
       <c r="J56">
         <v>2021</v>
@@ -8148,7 +8094,7 @@
         <v>9</v>
       </c>
       <c r="L56">
-        <v>58435</v>
+        <v>58421</v>
       </c>
       <c r="M56">
         <v>40</v>
@@ -8163,24 +8109,24 @@
         <v>78</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>127</v>
-      </c>
-      <c r="B57" t="s">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A57" s="39">
+        <v>2021</v>
+      </c>
+      <c r="B57" s="39">
+        <v>10</v>
+      </c>
+      <c r="C57" s="39">
         <v>39</v>
       </c>
-      <c r="C57" t="s">
-        <v>97</v>
-      </c>
-      <c r="D57" t="s">
-        <v>161</v>
-      </c>
-      <c r="E57" t="s">
-        <v>161</v>
-      </c>
-      <c r="F57" t="s">
-        <v>162</v>
+      <c r="D57" s="40">
+        <v>67</v>
+      </c>
+      <c r="E57" s="40">
+        <v>67</v>
+      </c>
+      <c r="F57" s="40">
+        <v>80</v>
       </c>
       <c r="J57">
         <v>2021</v>
@@ -8189,7 +8135,7 @@
         <v>10</v>
       </c>
       <c r="L57">
-        <v>71409</v>
+        <v>71391</v>
       </c>
       <c r="M57">
         <v>39</v>
@@ -8204,24 +8150,24 @@
         <v>77</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>127</v>
-      </c>
-      <c r="B58" t="s">
-        <v>41</v>
-      </c>
-      <c r="C58" t="s">
-        <v>95</v>
-      </c>
-      <c r="D58" t="s">
-        <v>157</v>
-      </c>
-      <c r="E58" t="s">
-        <v>180</v>
-      </c>
-      <c r="F58" t="s">
-        <v>159</v>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A58" s="39">
+        <v>2021</v>
+      </c>
+      <c r="B58" s="39">
+        <v>11</v>
+      </c>
+      <c r="C58" s="39">
+        <v>38</v>
+      </c>
+      <c r="D58" s="40">
+        <v>65</v>
+      </c>
+      <c r="E58" s="40">
+        <v>66</v>
+      </c>
+      <c r="F58" s="40">
+        <v>79</v>
       </c>
       <c r="J58">
         <v>2021</v>
@@ -8230,7 +8176,7 @@
         <v>11</v>
       </c>
       <c r="L58">
-        <v>92661</v>
+        <v>92642</v>
       </c>
       <c r="M58">
         <v>39</v>
@@ -8245,24 +8191,24 @@
         <v>76</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>127</v>
-      </c>
-      <c r="B59" t="s">
-        <v>43</v>
-      </c>
-      <c r="C59" t="s">
-        <v>95</v>
-      </c>
-      <c r="D59" t="s">
-        <v>157</v>
-      </c>
-      <c r="E59" t="s">
-        <v>161</v>
-      </c>
-      <c r="F59" t="s">
-        <v>159</v>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A59" s="39">
+        <v>2021</v>
+      </c>
+      <c r="B59" s="39">
+        <v>12</v>
+      </c>
+      <c r="C59" s="39">
+        <v>38</v>
+      </c>
+      <c r="D59" s="40">
+        <v>65</v>
+      </c>
+      <c r="E59" s="40">
+        <v>67</v>
+      </c>
+      <c r="F59" s="40">
+        <v>79</v>
       </c>
       <c r="J59">
         <v>2021</v>
@@ -8271,7 +8217,7 @@
         <v>12</v>
       </c>
       <c r="L59">
-        <v>116453</v>
+        <v>116436</v>
       </c>
       <c r="M59">
         <v>38</v>
@@ -8286,24 +8232,24 @@
         <v>76</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>127</v>
-      </c>
-      <c r="B60" t="s">
-        <v>45</v>
-      </c>
-      <c r="C60" t="s">
-        <v>97</v>
-      </c>
-      <c r="D60" t="s">
-        <v>157</v>
-      </c>
-      <c r="E60" t="s">
-        <v>161</v>
-      </c>
-      <c r="F60" t="s">
-        <v>181</v>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A60" s="39">
+        <v>2021</v>
+      </c>
+      <c r="B60" s="39">
+        <v>13</v>
+      </c>
+      <c r="C60" s="39">
+        <v>39</v>
+      </c>
+      <c r="D60" s="40">
+        <v>64</v>
+      </c>
+      <c r="E60" s="40">
+        <v>67</v>
+      </c>
+      <c r="F60" s="40">
+        <v>78</v>
       </c>
       <c r="J60">
         <v>2021</v>
@@ -8312,7 +8258,7 @@
         <v>13</v>
       </c>
       <c r="L60">
-        <v>110197</v>
+        <v>110169</v>
       </c>
       <c r="M60">
         <v>39</v>
@@ -8327,24 +8273,24 @@
         <v>76</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>127</v>
-      </c>
-      <c r="B61" t="s">
-        <v>47</v>
-      </c>
-      <c r="C61" t="s">
-        <v>97</v>
-      </c>
-      <c r="D61" t="s">
-        <v>173</v>
-      </c>
-      <c r="E61" t="s">
-        <v>180</v>
-      </c>
-      <c r="F61" t="s">
-        <v>181</v>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A61" s="39">
+        <v>2021</v>
+      </c>
+      <c r="B61" s="39">
+        <v>14</v>
+      </c>
+      <c r="C61" s="39">
+        <v>39</v>
+      </c>
+      <c r="D61" s="40">
+        <v>63</v>
+      </c>
+      <c r="E61" s="40">
+        <v>66</v>
+      </c>
+      <c r="F61" s="40">
+        <v>78</v>
       </c>
       <c r="J61">
         <v>2021</v>
@@ -8353,7 +8299,7 @@
         <v>14</v>
       </c>
       <c r="L61">
-        <v>118356</v>
+        <v>118317</v>
       </c>
       <c r="M61">
         <v>39</v>
@@ -8368,24 +8314,24 @@
         <v>75</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>127</v>
-      </c>
-      <c r="B62" t="s">
-        <v>49</v>
-      </c>
-      <c r="C62" t="s">
-        <v>93</v>
-      </c>
-      <c r="D62" t="s">
-        <v>163</v>
-      </c>
-      <c r="E62" t="s">
-        <v>161</v>
-      </c>
-      <c r="F62" t="s">
-        <v>181</v>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A62" s="39">
+        <v>2021</v>
+      </c>
+      <c r="B62" s="39">
+        <v>15</v>
+      </c>
+      <c r="C62" s="39">
+        <v>37</v>
+      </c>
+      <c r="D62" s="40">
+        <v>64</v>
+      </c>
+      <c r="E62" s="40">
+        <v>66.5</v>
+      </c>
+      <c r="F62" s="40">
+        <v>78</v>
       </c>
       <c r="J62">
         <v>2021</v>
@@ -8394,7 +8340,7 @@
         <v>15</v>
       </c>
       <c r="L62">
-        <v>142152</v>
+        <v>142116</v>
       </c>
       <c r="M62">
         <v>38</v>
@@ -8409,24 +8355,24 @@
         <v>75</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>127</v>
-      </c>
-      <c r="B63" t="s">
-        <v>51</v>
-      </c>
-      <c r="C63" t="s">
-        <v>93</v>
-      </c>
-      <c r="D63" t="s">
-        <v>193</v>
-      </c>
-      <c r="E63" t="s">
-        <v>180</v>
-      </c>
-      <c r="F63" t="s">
-        <v>181</v>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A63" s="39">
+        <v>2021</v>
+      </c>
+      <c r="B63" s="39">
+        <v>16</v>
+      </c>
+      <c r="C63" s="39">
+        <v>37</v>
+      </c>
+      <c r="D63" s="40">
+        <v>62</v>
+      </c>
+      <c r="E63" s="40">
+        <v>66</v>
+      </c>
+      <c r="F63" s="40">
+        <v>78</v>
       </c>
       <c r="J63">
         <v>2021</v>
@@ -8435,7 +8381,7 @@
         <v>16</v>
       </c>
       <c r="L63">
-        <v>145006</v>
+        <v>144976</v>
       </c>
       <c r="M63">
         <v>37</v>
@@ -8450,24 +8396,24 @@
         <v>75</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>127</v>
-      </c>
-      <c r="B64" t="s">
-        <v>53</v>
-      </c>
-      <c r="C64" t="s">
-        <v>93</v>
-      </c>
-      <c r="D64" t="s">
-        <v>193</v>
-      </c>
-      <c r="E64" t="s">
-        <v>157</v>
-      </c>
-      <c r="F64" t="s">
-        <v>190</v>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A64" s="39">
+        <v>2021</v>
+      </c>
+      <c r="B64" s="39">
+        <v>17</v>
+      </c>
+      <c r="C64" s="39">
+        <v>37</v>
+      </c>
+      <c r="D64" s="40">
+        <v>62</v>
+      </c>
+      <c r="E64" s="40">
+        <v>65.5</v>
+      </c>
+      <c r="F64" s="40">
+        <v>78</v>
       </c>
       <c r="J64">
         <v>2021</v>
@@ -8476,7 +8422,7 @@
         <v>17</v>
       </c>
       <c r="L64">
-        <v>124919</v>
+        <v>124905</v>
       </c>
       <c r="M64">
         <v>37</v>
@@ -8488,27 +8434,27 @@
         <v>63</v>
       </c>
       <c r="P64">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>127</v>
-      </c>
-      <c r="B65" t="s">
-        <v>55</v>
-      </c>
-      <c r="C65" t="s">
-        <v>93</v>
-      </c>
-      <c r="D65" t="s">
-        <v>173</v>
-      </c>
-      <c r="E65" t="s">
-        <v>180</v>
-      </c>
-      <c r="F65" t="s">
-        <v>159</v>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A65" s="39">
+        <v>2021</v>
+      </c>
+      <c r="B65" s="39">
+        <v>18</v>
+      </c>
+      <c r="C65" s="39">
+        <v>37</v>
+      </c>
+      <c r="D65" s="40">
+        <v>63</v>
+      </c>
+      <c r="E65" s="40">
+        <v>66</v>
+      </c>
+      <c r="F65" s="40">
+        <v>79</v>
       </c>
       <c r="J65">
         <v>2021</v>
@@ -8517,7 +8463,7 @@
         <v>18</v>
       </c>
       <c r="L65">
-        <v>101129</v>
+        <v>101112</v>
       </c>
       <c r="M65">
         <v>37</v>
@@ -8529,27 +8475,27 @@
         <v>64</v>
       </c>
       <c r="P65">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>127</v>
-      </c>
-      <c r="B66" t="s">
-        <v>57</v>
-      </c>
-      <c r="C66" t="s">
-        <v>91</v>
-      </c>
-      <c r="D66" t="s">
-        <v>193</v>
-      </c>
-      <c r="E66" t="s">
-        <v>163</v>
-      </c>
-      <c r="F66" t="s">
-        <v>159</v>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A66" s="39">
+        <v>2021</v>
+      </c>
+      <c r="B66" s="39">
+        <v>19</v>
+      </c>
+      <c r="C66" s="39">
+        <v>36</v>
+      </c>
+      <c r="D66" s="40">
+        <v>62</v>
+      </c>
+      <c r="E66" s="40">
+        <v>64</v>
+      </c>
+      <c r="F66" s="40">
+        <v>79</v>
       </c>
       <c r="J66">
         <v>2021</v>
@@ -8558,7 +8504,7 @@
         <v>19</v>
       </c>
       <c r="L66">
-        <v>70916</v>
+        <v>70908</v>
       </c>
       <c r="M66">
         <v>37</v>
@@ -8570,27 +8516,27 @@
         <v>63</v>
       </c>
       <c r="P66">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>127</v>
-      </c>
-      <c r="B67" t="s">
-        <v>59</v>
-      </c>
-      <c r="C67" t="s">
-        <v>89</v>
-      </c>
-      <c r="D67" t="s">
-        <v>191</v>
-      </c>
-      <c r="E67" t="s">
-        <v>180</v>
-      </c>
-      <c r="F67" t="s">
-        <v>196</v>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A67" s="39">
+        <v>2021</v>
+      </c>
+      <c r="B67" s="39">
+        <v>20</v>
+      </c>
+      <c r="C67" s="39">
+        <v>35</v>
+      </c>
+      <c r="D67" s="40">
+        <v>61</v>
+      </c>
+      <c r="E67" s="40">
+        <v>66</v>
+      </c>
+      <c r="F67" s="40">
+        <v>80</v>
       </c>
       <c r="J67">
         <v>2021</v>
@@ -8599,7 +8545,7 @@
         <v>20</v>
       </c>
       <c r="L67">
-        <v>52823</v>
+        <v>52844</v>
       </c>
       <c r="M67">
         <v>36</v>
@@ -8614,24 +8560,24 @@
         <v>77</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>127</v>
-      </c>
-      <c r="B68" t="s">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A68" s="39">
+        <v>2021</v>
+      </c>
+      <c r="B68" s="39">
+        <v>21</v>
+      </c>
+      <c r="C68" s="39">
+        <v>34</v>
+      </c>
+      <c r="D68" s="40">
         <v>61</v>
       </c>
-      <c r="C68" t="s">
-        <v>87</v>
-      </c>
-      <c r="D68" t="s">
-        <v>191</v>
-      </c>
-      <c r="E68" t="s">
-        <v>180</v>
-      </c>
-      <c r="F68" t="s">
-        <v>162</v>
+      <c r="E68" s="40">
+        <v>65</v>
+      </c>
+      <c r="F68" s="40">
+        <v>80</v>
       </c>
       <c r="J68">
         <v>2021</v>
@@ -8640,7 +8586,7 @@
         <v>21</v>
       </c>
       <c r="L68">
-        <v>29886</v>
+        <v>29935</v>
       </c>
       <c r="M68">
         <v>35</v>
@@ -8652,27 +8598,27 @@
         <v>61</v>
       </c>
       <c r="P68">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>127</v>
-      </c>
-      <c r="B69" t="s">
-        <v>63</v>
-      </c>
-      <c r="C69" t="s">
-        <v>85</v>
-      </c>
-      <c r="D69" t="s">
-        <v>191</v>
-      </c>
-      <c r="E69" t="s">
-        <v>173</v>
-      </c>
-      <c r="F69" t="s">
-        <v>184</v>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A69" s="39">
+        <v>2021</v>
+      </c>
+      <c r="B69" s="39">
+        <v>22</v>
+      </c>
+      <c r="C69" s="39">
+        <v>33</v>
+      </c>
+      <c r="D69" s="40">
+        <v>60</v>
+      </c>
+      <c r="E69" s="40">
+        <v>61.5</v>
+      </c>
+      <c r="F69" s="40">
+        <v>80</v>
       </c>
       <c r="J69">
         <v>2021</v>
@@ -8681,7 +8627,7 @@
         <v>22</v>
       </c>
       <c r="L69">
-        <v>20558</v>
+        <v>20729</v>
       </c>
       <c r="M69">
         <v>34</v>
@@ -8690,17 +8636,55 @@
         <v>58</v>
       </c>
       <c r="O69">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P69">
         <v>75</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A70" s="39">
+        <v>2021</v>
+      </c>
+      <c r="B70" s="39">
+        <v>23</v>
+      </c>
+      <c r="C70" s="39">
+        <v>31</v>
+      </c>
+      <c r="D70" s="40">
+        <v>60</v>
+      </c>
+      <c r="E70" s="40">
+        <v>68</v>
+      </c>
+      <c r="F70" s="40">
+        <v>80</v>
+      </c>
+      <c r="J70">
+        <v>2021</v>
+      </c>
+      <c r="K70">
+        <v>23</v>
+      </c>
+      <c r="L70">
+        <v>14029</v>
+      </c>
+      <c r="M70">
+        <v>33</v>
+      </c>
+      <c r="N70">
+        <v>57</v>
+      </c>
+      <c r="O70">
+        <v>65</v>
+      </c>
+      <c r="P70">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="A4:F69" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
--- a/data/klinische_aspekte.xlsx
+++ b/data/klinische_aspekte.xlsx
@@ -1,18 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20373"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B34A60E8-3779-4776-9A53-BAADEF92EFF8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11928" activeTab="2" xr2:uid="{FD8E6CFE-D9B9-40CD-8598-94DFDA62CC99}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15255" windowHeight="10710" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Klinische_Aspekte" sheetId="1" r:id="rId1"/>
     <sheet name="Fälle_Hospitalisierung_Alter" sheetId="2" r:id="rId2"/>
     <sheet name="Alter_Median_Mittelwert" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -510,7 +509,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
@@ -724,7 +723,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Standard 2 2" xfId="1" xr:uid="{5A7E78B2-F6E2-42C0-AD2A-1E39B5D40994}"/>
+    <cellStyle name="Standard 2 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1035,19 +1034,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C453F5ED-6EEE-40AE-A31F-8A2624984D94}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M69"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B68" sqref="B68"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="60" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="84" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1088,7 +1089,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2020</v>
       </c>
@@ -1129,7 +1130,7 @@
         <v>1.334816462E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11">
         <v>2020</v>
       </c>
@@ -1170,7 +1171,7 @@
         <v>1.306986152E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="17">
         <v>2020</v>
       </c>
@@ -1211,7 +1212,7 @@
         <v>2.111795696E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11">
         <v>2020</v>
       </c>
@@ -1252,7 +1253,7 @@
         <v>4.2945868769999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="17">
         <v>2020</v>
       </c>
@@ -1293,7 +1294,7 @@
         <v>6.2695924759999994E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11">
         <v>2020</v>
       </c>
@@ -1334,7 +1335,7 @@
         <v>6.912679998E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="17">
         <v>2020</v>
       </c>
@@ -1375,7 +1376,7 @@
         <v>7.0151148029999999E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11">
         <v>2020</v>
       </c>
@@ -1416,7 +1417,7 @@
         <v>5.8514082219999999E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="17">
         <v>2020</v>
       </c>
@@ -1457,7 +1458,7 @@
         <v>5.2030115619999998E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11">
         <v>2020</v>
       </c>
@@ -1498,7 +1499,7 @@
         <v>4.1192498789999997E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="17">
         <v>2020</v>
       </c>
@@ -1539,7 +1540,7 @@
         <v>3.4222128910000003E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="11">
         <v>2020</v>
       </c>
@@ -1580,7 +1581,7 @@
         <v>3.1128404660000001E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="17">
         <v>2020</v>
       </c>
@@ -1621,7 +1622,7 @@
         <v>2.028714107E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="11">
         <v>2020</v>
       </c>
@@ -1662,7 +1663,7 @@
         <v>1.9132653060000001E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="17">
         <v>2020</v>
       </c>
@@ -1703,7 +1704,7 @@
         <v>1.407849829E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="11">
         <v>2020</v>
       </c>
@@ -1744,7 +1745,7 @@
         <v>9.9466278500000005E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="17">
         <v>2020</v>
       </c>
@@ -1785,7 +1786,7 @@
         <v>7.1561916600000001E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11">
         <v>2020</v>
       </c>
@@ -1826,7 +1827,7 @@
         <v>9.6690219399999996E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="17">
         <v>2020</v>
       </c>
@@ -1867,7 +1868,7 @@
         <v>1.030502885E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="11">
         <v>2020</v>
       </c>
@@ -1908,7 +1909,7 @@
         <v>9.9337748300000004E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="17">
         <v>2020</v>
       </c>
@@ -1949,7 +1950,7 @@
         <v>8.4055017799999996E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="11">
         <v>2020</v>
       </c>
@@ -1990,7 +1991,7 @@
         <v>7.0437124499999997E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="17">
         <v>2020</v>
       </c>
@@ -2031,7 +2032,7 @@
         <v>5.1180452299999998E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="11">
         <v>2020</v>
       </c>
@@ -2072,7 +2073,7 @@
         <v>3.7740596299999998E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="17">
         <v>2020</v>
       </c>
@@ -2113,7 +2114,7 @@
         <v>3.1256511699999999E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="11">
         <v>2020</v>
       </c>
@@ -2154,7 +2155,7 @@
         <v>2.04081632E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="17">
         <v>2020</v>
       </c>
@@ -2195,7 +2196,7 @@
         <v>4.1753653399999998E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="11">
         <v>2020</v>
       </c>
@@ -2236,7 +2237,7 @@
         <v>6.7574485499999996E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="17">
         <v>2020</v>
       </c>
@@ -2277,7 +2278,7 @@
         <v>6.5093572000000004E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="11">
         <v>2020</v>
       </c>
@@ -2318,7 +2319,7 @@
         <v>8.2695252600000005E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="17">
         <v>2020</v>
       </c>
@@ -2359,7 +2360,7 @@
         <v>7.5985933100000003E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="18">
         <v>2020</v>
       </c>
@@ -2400,7 +2401,7 @@
         <v>9.30357211E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="17">
         <v>2020</v>
       </c>
@@ -2441,7 +2442,7 @@
         <v>1.098378583E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="18">
         <v>2020</v>
       </c>
@@ -2482,7 +2483,7 @@
         <v>1.336433859E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="17">
         <v>2020</v>
       </c>
@@ -2523,7 +2524,7 @@
         <v>1.4499279530000001E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="18">
         <v>2020</v>
       </c>
@@ -2564,7 +2565,7 @@
         <v>1.4899859269999999E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="17">
         <v>2020</v>
       </c>
@@ -2605,7 +2606,7 @@
         <v>1.9540940499999999E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="18">
         <v>2020</v>
       </c>
@@ -2646,7 +2647,7 @@
         <v>2.4760109660000001E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="17">
         <v>2020</v>
       </c>
@@ -2687,7 +2688,7 @@
         <v>2.8823214369999999E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="18">
         <v>2020</v>
       </c>
@@ -2728,7 +2729,7 @@
         <v>3.4337269669999997E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="17">
         <v>2020</v>
       </c>
@@ -2769,7 +2770,7 @@
         <v>3.6339337659999998E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="18">
         <v>2020</v>
       </c>
@@ -2810,7 +2811,7 @@
         <v>3.6348242930000003E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="17">
         <v>2020</v>
       </c>
@@ -2851,7 +2852,7 @@
         <v>4.0566098789999998E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="18">
         <v>2020</v>
       </c>
@@ -2892,7 +2893,7 @@
         <v>4.569084558E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="25">
         <v>2021</v>
       </c>
@@ -2933,7 +2934,7 @@
         <v>3.8676386719999997E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="18">
         <v>2021</v>
       </c>
@@ -2974,7 +2975,7 @@
         <v>4.2003746729999999E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="17">
         <v>2021</v>
       </c>
@@ -3015,7 +3016,7 @@
         <v>4.177084096E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="18">
         <v>2021</v>
       </c>
@@ -3056,7 +3057,7 @@
         <v>3.8889102090000002E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="17">
         <v>2021</v>
       </c>
@@ -3097,7 +3098,7 @@
         <v>3.4035505879999997E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="18">
         <v>2021</v>
       </c>
@@ -3138,7 +3139,7 @@
         <v>3.241988472E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="17">
         <v>2021</v>
       </c>
@@ -3179,7 +3180,7 @@
         <v>2.7511391579999999E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="18">
         <v>2021</v>
       </c>
@@ -3220,7 +3221,7 @@
         <v>2.1066444409999999E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="17">
         <v>2021</v>
       </c>
@@ -3261,7 +3262,7 @@
         <v>1.7391006649999999E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="18">
         <v>2021</v>
       </c>
@@ -3302,7 +3303,7 @@
         <v>1.5001890990000001E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="17">
         <v>2021</v>
       </c>
@@ -3343,7 +3344,7 @@
         <v>1.325532695E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="18">
         <v>2021</v>
       </c>
@@ -3384,7 +3385,7 @@
         <v>1.253048885E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="17">
         <v>2021</v>
       </c>
@@ -3425,7 +3426,7 @@
         <v>1.362452232E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="18">
         <v>2021</v>
       </c>
@@ -3466,7 +3467,7 @@
         <v>1.251722068E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="17">
         <v>2021</v>
       </c>
@@ -3507,7 +3508,7 @@
         <v>1.064623265E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="18">
         <v>2021</v>
       </c>
@@ -3548,7 +3549,7 @@
         <v>9.9740646699999994E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="17">
         <v>2021</v>
       </c>
@@ -3589,7 +3590,7 @@
         <v>9.1509547199999999E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="18">
         <v>2021</v>
       </c>
@@ -3630,7 +3631,7 @@
         <v>8.2482791299999993E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="17">
         <v>2021</v>
       </c>
@@ -3671,7 +3672,7 @@
         <v>7.3475489300000004E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="18">
         <v>2021</v>
       </c>
@@ -3712,7 +3713,7 @@
         <v>6.1501778799999997E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="17">
         <v>2021</v>
       </c>
@@ -3753,7 +3754,7 @@
         <v>5.2781025500000002E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="18">
         <v>2021</v>
       </c>
@@ -3794,9 +3795,9 @@
         <v>2.8944956300000001E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="17">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B69" s="17">
         <v>23</v>
@@ -3842,21 +3843,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A52A6F4-28A9-4D7F-8F28-545E4C7A120E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A55" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
         <v>158</v>
       </c>
@@ -3869,7 +3870,7 @@
       <c r="H4" s="33"/>
       <c r="I4" s="33"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="33"/>
       <c r="B5" s="33"/>
       <c r="C5" s="33"/>
@@ -3880,7 +3881,7 @@
       <c r="H5" s="33"/>
       <c r="I5" s="33"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="33"/>
       <c r="B6" s="33"/>
       <c r="C6" s="34" t="s">
@@ -3903,7 +3904,7 @@
       </c>
       <c r="I6" s="33"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="35" t="s">
         <v>0</v>
       </c>
@@ -3930,7 +3931,7 @@
       </c>
       <c r="I7" s="33"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="33" t="s">
         <v>26</v>
       </c>
@@ -3959,7 +3960,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="33" t="s">
         <v>26</v>
       </c>
@@ -3988,7 +3989,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="33" t="s">
         <v>26</v>
       </c>
@@ -4017,7 +4018,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="33" t="s">
         <v>26</v>
       </c>
@@ -4046,7 +4047,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="33" t="s">
         <v>26</v>
       </c>
@@ -4075,7 +4076,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="33" t="s">
         <v>26</v>
       </c>
@@ -4104,7 +4105,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="33" t="s">
         <v>26</v>
       </c>
@@ -4133,7 +4134,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="33" t="s">
         <v>26</v>
       </c>
@@ -4162,7 +4163,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="33" t="s">
         <v>26</v>
       </c>
@@ -4191,7 +4192,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="33" t="s">
         <v>26</v>
       </c>
@@ -4220,7 +4221,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="33" t="s">
         <v>26</v>
       </c>
@@ -4249,7 +4250,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="33" t="s">
         <v>26</v>
       </c>
@@ -4278,7 +4279,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="33" t="s">
         <v>26</v>
       </c>
@@ -4305,7 +4306,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="33" t="s">
         <v>26</v>
       </c>
@@ -4334,7 +4335,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="33" t="s">
         <v>26</v>
       </c>
@@ -4363,7 +4364,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="33" t="s">
         <v>26</v>
       </c>
@@ -4392,7 +4393,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="33" t="s">
         <v>26</v>
       </c>
@@ -4421,7 +4422,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="33" t="s">
         <v>26</v>
       </c>
@@ -4450,7 +4451,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="33" t="s">
         <v>26</v>
       </c>
@@ -4479,7 +4480,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="33" t="s">
         <v>26</v>
       </c>
@@ -4508,7 +4509,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="33" t="s">
         <v>26</v>
       </c>
@@ -4537,7 +4538,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="33" t="s">
         <v>26</v>
       </c>
@@ -4566,7 +4567,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="33" t="s">
         <v>26</v>
       </c>
@@ -4595,7 +4596,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="33" t="s">
         <v>26</v>
       </c>
@@ -4624,7 +4625,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="33" t="s">
         <v>26</v>
       </c>
@@ -4653,7 +4654,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="33" t="s">
         <v>26</v>
       </c>
@@ -4682,7 +4683,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="33" t="s">
         <v>26</v>
       </c>
@@ -4711,7 +4712,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="33" t="s">
         <v>26</v>
       </c>
@@ -4740,7 +4741,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="33" t="s">
         <v>26</v>
       </c>
@@ -4769,7 +4770,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="33" t="s">
         <v>26</v>
       </c>
@@ -4798,7 +4799,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="33" t="s">
         <v>26</v>
       </c>
@@ -4827,7 +4828,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="33" t="s">
         <v>26</v>
       </c>
@@ -4856,7 +4857,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="33" t="s">
         <v>26</v>
       </c>
@@ -4885,7 +4886,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="33" t="s">
         <v>26</v>
       </c>
@@ -4914,7 +4915,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="33" t="s">
         <v>26</v>
       </c>
@@ -4943,7 +4944,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="33" t="s">
         <v>26</v>
       </c>
@@ -4972,7 +4973,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="33" t="s">
         <v>26</v>
       </c>
@@ -5001,7 +5002,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="33" t="s">
         <v>26</v>
       </c>
@@ -5030,7 +5031,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="33" t="s">
         <v>26</v>
       </c>
@@ -5059,7 +5060,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="33" t="s">
         <v>26</v>
       </c>
@@ -5088,7 +5089,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="33" t="s">
         <v>26</v>
       </c>
@@ -5117,7 +5118,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="33" t="s">
         <v>26</v>
       </c>
@@ -5146,7 +5147,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="33" t="s">
         <v>26</v>
       </c>
@@ -5175,7 +5176,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="33" t="s">
         <v>26</v>
       </c>
@@ -5204,7 +5205,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="33" t="s">
         <v>124</v>
       </c>
@@ -5233,7 +5234,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="33" t="s">
         <v>124</v>
       </c>
@@ -5262,7 +5263,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="33" t="s">
         <v>124</v>
       </c>
@@ -5291,7 +5292,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="33" t="s">
         <v>124</v>
       </c>
@@ -5320,7 +5321,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="33" t="s">
         <v>124</v>
       </c>
@@ -5349,7 +5350,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="33" t="s">
         <v>124</v>
       </c>
@@ -5378,7 +5379,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="33" t="s">
         <v>124</v>
       </c>
@@ -5407,7 +5408,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="33" t="s">
         <v>124</v>
       </c>
@@ -5436,7 +5437,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="33" t="s">
         <v>124</v>
       </c>
@@ -5465,7 +5466,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="33" t="s">
         <v>124</v>
       </c>
@@ -5494,7 +5495,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="33" t="s">
         <v>124</v>
       </c>
@@ -5523,7 +5524,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="33" t="s">
         <v>124</v>
       </c>
@@ -5552,7 +5553,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="33" t="s">
         <v>124</v>
       </c>
@@ -5581,7 +5582,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="33" t="s">
         <v>124</v>
       </c>
@@ -5610,7 +5611,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="33" t="s">
         <v>124</v>
       </c>
@@ -5639,7 +5640,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="33" t="s">
         <v>124</v>
       </c>
@@ -5668,7 +5669,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="33" t="s">
         <v>124</v>
       </c>
@@ -5697,7 +5698,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="33" t="s">
         <v>124</v>
       </c>
@@ -5726,7 +5727,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="33" t="s">
         <v>124</v>
       </c>
@@ -5755,7 +5756,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="33" t="s">
         <v>124</v>
       </c>
@@ -5784,7 +5785,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="33" t="s">
         <v>124</v>
       </c>
@@ -5813,7 +5814,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="33" t="s">
         <v>124</v>
       </c>
@@ -5842,7 +5843,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="33" t="s">
         <v>124</v>
       </c>
@@ -5878,24 +5879,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{966505F7-57D9-403D-A39C-486A50D90732}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
       <selection activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="11" max="11" width="13.5546875" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="35" t="s">
         <v>0</v>
       </c>
@@ -5936,7 +5937,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="39">
         <v>2020</v>
       </c>
@@ -5977,7 +5978,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="39">
         <v>2020</v>
       </c>
@@ -6018,7 +6019,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="39">
         <v>2020</v>
       </c>
@@ -6059,7 +6060,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="39">
         <v>2020</v>
       </c>
@@ -6100,7 +6101,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="39">
         <v>2020</v>
       </c>
@@ -6141,7 +6142,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="39">
         <v>2020</v>
       </c>
@@ -6182,7 +6183,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="39">
         <v>2020</v>
       </c>
@@ -6223,7 +6224,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="39">
         <v>2020</v>
       </c>
@@ -6264,7 +6265,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="39">
         <v>2020</v>
       </c>
@@ -6305,7 +6306,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="39">
         <v>2020</v>
       </c>
@@ -6346,7 +6347,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="39">
         <v>2020</v>
       </c>
@@ -6387,7 +6388,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="39">
         <v>2020</v>
       </c>
@@ -6428,7 +6429,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="39">
         <v>2020</v>
       </c>
@@ -6469,7 +6470,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="39">
         <v>2020</v>
       </c>
@@ -6510,7 +6511,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="39">
         <v>2020</v>
       </c>
@@ -6551,7 +6552,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="39">
         <v>2020</v>
       </c>
@@ -6592,7 +6593,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="39">
         <v>2020</v>
       </c>
@@ -6633,7 +6634,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="39">
         <v>2020</v>
       </c>
@@ -6674,7 +6675,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="39">
         <v>2020</v>
       </c>
@@ -6715,7 +6716,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="39">
         <v>2020</v>
       </c>
@@ -6756,7 +6757,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="39">
         <v>2020</v>
       </c>
@@ -6797,7 +6798,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="39">
         <v>2020</v>
       </c>
@@ -6838,7 +6839,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="39">
         <v>2020</v>
       </c>
@@ -6879,7 +6880,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="39">
         <v>2020</v>
       </c>
@@ -6920,7 +6921,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="39">
         <v>2020</v>
       </c>
@@ -6961,7 +6962,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="39">
         <v>2020</v>
       </c>
@@ -7002,7 +7003,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="39">
         <v>2020</v>
       </c>
@@ -7043,7 +7044,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="39">
         <v>2020</v>
       </c>
@@ -7084,7 +7085,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="39">
         <v>2020</v>
       </c>
@@ -7125,7 +7126,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="39">
         <v>2020</v>
       </c>
@@ -7166,7 +7167,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="39">
         <v>2020</v>
       </c>
@@ -7207,7 +7208,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="39">
         <v>2020</v>
       </c>
@@ -7248,7 +7249,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="39">
         <v>2020</v>
       </c>
@@ -7289,7 +7290,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="39">
         <v>2020</v>
       </c>
@@ -7330,7 +7331,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="39">
         <v>2020</v>
       </c>
@@ -7371,7 +7372,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="39">
         <v>2020</v>
       </c>
@@ -7412,7 +7413,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="39">
         <v>2020</v>
       </c>
@@ -7453,7 +7454,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="39">
         <v>2020</v>
       </c>
@@ -7494,7 +7495,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="39">
         <v>2020</v>
       </c>
@@ -7535,7 +7536,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="39">
         <v>2020</v>
       </c>
@@ -7576,7 +7577,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="39">
         <v>2020</v>
       </c>
@@ -7617,7 +7618,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="39">
         <v>2020</v>
       </c>
@@ -7658,7 +7659,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="39">
         <v>2020</v>
       </c>
@@ -7699,7 +7700,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="39">
         <v>2020</v>
       </c>
@@ -7740,7 +7741,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="39">
         <v>2021</v>
       </c>
@@ -7781,7 +7782,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="39">
         <v>2021</v>
       </c>
@@ -7822,7 +7823,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="39">
         <v>2021</v>
       </c>
@@ -7863,7 +7864,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="39">
         <v>2021</v>
       </c>
@@ -7904,7 +7905,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="39">
         <v>2021</v>
       </c>
@@ -7945,7 +7946,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="39">
         <v>2021</v>
       </c>
@@ -7986,7 +7987,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="39">
         <v>2021</v>
       </c>
@@ -8027,7 +8028,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="39">
         <v>2021</v>
       </c>
@@ -8068,7 +8069,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="39">
         <v>2021</v>
       </c>
@@ -8109,7 +8110,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="39">
         <v>2021</v>
       </c>
@@ -8150,7 +8151,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="39">
         <v>2021</v>
       </c>
@@ -8191,7 +8192,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="39">
         <v>2021</v>
       </c>
@@ -8232,7 +8233,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="39">
         <v>2021</v>
       </c>
@@ -8273,7 +8274,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="39">
         <v>2021</v>
       </c>
@@ -8314,7 +8315,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" s="39">
         <v>2021</v>
       </c>
@@ -8355,7 +8356,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" s="39">
         <v>2021</v>
       </c>
@@ -8396,7 +8397,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" s="39">
         <v>2021</v>
       </c>
@@ -8437,7 +8438,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" s="39">
         <v>2021</v>
       </c>
@@ -8478,7 +8479,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="39">
         <v>2021</v>
       </c>
@@ -8519,7 +8520,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" s="39">
         <v>2021</v>
       </c>
@@ -8560,7 +8561,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" s="39">
         <v>2021</v>
       </c>
@@ -8601,7 +8602,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" s="39">
         <v>2021</v>
       </c>
@@ -8642,7 +8643,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" s="39">
         <v>2021</v>
       </c>

--- a/data/klinische_aspekte.xlsx
+++ b/data/klinische_aspekte.xlsx
@@ -1,18 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20373"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{108FBAE3-04E3-4551-B29C-738AED8D684A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6348" activeTab="2" xr2:uid="{C4A192D1-E849-41C8-B960-3798BF59C4C6}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Klinische_Aspekte" sheetId="1" r:id="rId1"/>
     <sheet name="Fälle_Hospitalisierung_Alter" sheetId="2" r:id="rId2"/>
     <sheet name="Alter_Median_Mittelwert" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -549,7 +548,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
@@ -770,7 +769,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Standard 2 2" xfId="1" xr:uid="{38225C7D-4390-45A9-9462-1E5661A35D56}"/>
+    <cellStyle name="Standard 2 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1081,24 +1080,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4DDF2D6-E269-435D-8028-54A87A5443DF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M70"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="9" max="9" width="12.33203125" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="60" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="84" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
@@ -1139,7 +1138,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
         <v>2020</v>
       </c>
@@ -1180,7 +1179,7 @@
         <v>1.334816462E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="17">
         <v>2020</v>
       </c>
@@ -1221,7 +1220,7 @@
         <v>1.306986152E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="23">
         <v>2020</v>
       </c>
@@ -1262,7 +1261,7 @@
         <v>2.1119842820000002E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="17">
         <v>2020</v>
       </c>
@@ -1303,7 +1302,7 @@
         <v>4.2975303909999998E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="23">
         <v>2020</v>
       </c>
@@ -1344,7 +1343,7 @@
         <v>6.2695924759999994E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="17">
         <v>2020</v>
       </c>
@@ -1385,7 +1384,7 @@
         <v>6.9136984779999994E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="23">
         <v>2020</v>
       </c>
@@ -1426,7 +1425,7 @@
         <v>7.015519529E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="17">
         <v>2020</v>
       </c>
@@ -1467,7 +1466,7 @@
         <v>5.8599757180000003E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="23">
         <v>2020</v>
       </c>
@@ -1508,7 +1507,7 @@
         <v>5.2030115619999998E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="17">
         <v>2020</v>
       </c>
@@ -1549,7 +1548,7 @@
         <v>4.1199102270000003E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="23">
         <v>2020</v>
       </c>
@@ -1590,7 +1589,7 @@
         <v>3.4222128910000003E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="17">
         <v>2020</v>
       </c>
@@ -1631,7 +1630,7 @@
         <v>3.111975548E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="23">
         <v>2020</v>
       </c>
@@ -1672,7 +1671,7 @@
         <v>2.028714107E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="17">
         <v>2020</v>
       </c>
@@ -1713,7 +1712,7 @@
         <v>1.9140791149999999E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="23">
         <v>2020</v>
       </c>
@@ -1754,7 +1753,7 @@
         <v>1.4084507039999999E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="17">
         <v>2020</v>
       </c>
@@ -1795,7 +1794,7 @@
         <v>9.9418040700000009E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="23">
         <v>2020</v>
       </c>
@@ -1836,7 +1835,7 @@
         <v>7.1561916600000001E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="17">
         <v>2020</v>
       </c>
@@ -1877,7 +1876,7 @@
         <v>9.6690219399999996E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="23">
         <v>2020</v>
       </c>
@@ -1918,7 +1917,7 @@
         <v>1.0300782850000001E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="17">
         <v>2020</v>
       </c>
@@ -1959,7 +1958,7 @@
         <v>9.9304865900000008E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="23">
         <v>2020</v>
       </c>
@@ -2000,7 +1999,7 @@
         <v>8.4012219900000008E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="17">
         <v>2020</v>
       </c>
@@ -2041,7 +2040,7 @@
         <v>7.0437124499999997E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="23">
         <v>2020</v>
       </c>
@@ -2082,7 +2081,7 @@
         <v>5.1180452299999998E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="17">
         <v>2020</v>
       </c>
@@ -2123,7 +2122,7 @@
         <v>3.8983903399999998E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="23">
         <v>2020</v>
       </c>
@@ -2164,7 +2163,7 @@
         <v>3.2308494000000002E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="17">
         <v>2020</v>
       </c>
@@ -2205,7 +2204,7 @@
         <v>2.0398911999999999E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="23">
         <v>2020</v>
       </c>
@@ -2246,7 +2245,7 @@
         <v>4.1753653399999998E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="17">
         <v>2020</v>
       </c>
@@ -2287,7 +2286,7 @@
         <v>6.75814048E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="23">
         <v>2020</v>
       </c>
@@ -2328,7 +2327,7 @@
         <v>6.5907241600000003E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="17">
         <v>2020</v>
       </c>
@@ -2369,7 +2368,7 @@
         <v>8.2707918500000005E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="23">
         <v>2020</v>
       </c>
@@ -2410,7 +2409,7 @@
         <v>7.5995477900000002E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="24">
         <v>2020</v>
       </c>
@@ -2451,7 +2450,7 @@
         <v>9.3440048999999994E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="23">
         <v>2020</v>
       </c>
@@ -2492,7 +2491,7 @@
         <v>1.100939246E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="24">
         <v>2020</v>
       </c>
@@ -2533,7 +2532,7 @@
         <v>1.339178316E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="23">
         <v>2020</v>
       </c>
@@ -2574,7 +2573,7 @@
         <v>1.453634988E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="24">
         <v>2020</v>
       </c>
@@ -2615,7 +2614,7 @@
         <v>1.493237494E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="23">
         <v>2020</v>
       </c>
@@ -2656,7 +2655,7 @@
         <v>1.9552132489999999E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="24">
         <v>2020</v>
       </c>
@@ -2697,7 +2696,7 @@
         <v>2.481868957E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="23">
         <v>2020</v>
       </c>
@@ -2738,7 +2737,7 @@
         <v>2.8928704739999998E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="24">
         <v>2020</v>
       </c>
@@ -2779,7 +2778,7 @@
         <v>3.4453225359999999E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="23">
         <v>2020</v>
       </c>
@@ -2820,7 +2819,7 @@
         <v>3.6486080279999999E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="24">
         <v>2020</v>
       </c>
@@ -2861,7 +2860,7 @@
         <v>3.6451838030000003E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="23">
         <v>2020</v>
       </c>
@@ -2902,7 +2901,7 @@
         <v>4.0650289530000001E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="24">
         <v>2020</v>
       </c>
@@ -2943,7 +2942,7 @@
         <v>4.5801216700000001E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="31">
         <v>2021</v>
       </c>
@@ -2984,7 +2983,7 @@
         <v>3.879319229E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="24">
         <v>2021</v>
       </c>
@@ -3025,7 +3024,7 @@
         <v>4.2101813959999998E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="23">
         <v>2021</v>
       </c>
@@ -3066,7 +3065,7 @@
         <v>4.1960895079999998E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="24">
         <v>2021</v>
       </c>
@@ -3107,7 +3106,7 @@
         <v>3.8943261049999997E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="23">
         <v>2021</v>
       </c>
@@ -3148,7 +3147,7 @@
         <v>3.4159327640000001E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="24">
         <v>2021</v>
       </c>
@@ -3189,7 +3188,7 @@
         <v>3.2663019949999997E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="23">
         <v>2021</v>
       </c>
@@ -3230,7 +3229,7 @@
         <v>2.7728512310000002E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="24">
         <v>2021</v>
       </c>
@@ -3271,7 +3270,7 @@
         <v>2.1176220199999998E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="23">
         <v>2021</v>
       </c>
@@ -3312,7 +3311,7 @@
         <v>1.744594155E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="24">
         <v>2021</v>
       </c>
@@ -3353,7 +3352,7 @@
         <v>1.507636261E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="23">
         <v>2021</v>
       </c>
@@ -3394,7 +3393,7 @@
         <v>1.3441730900000001E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="24">
         <v>2021</v>
       </c>
@@ -3435,7 +3434,7 @@
         <v>1.2592338079999999E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="23">
         <v>2021</v>
       </c>
@@ -3476,7 +3475,7 @@
         <v>1.374439421E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="24">
         <v>2021</v>
       </c>
@@ -3517,7 +3516,7 @@
         <v>1.267363899E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="23">
         <v>2021</v>
       </c>
@@ -3558,7 +3557,7 @@
         <v>1.078954406E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="24">
         <v>2021</v>
       </c>
@@ -3599,7 +3598,7 @@
         <v>1.0202673799999999E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="23">
         <v>2021</v>
       </c>
@@ -3640,7 +3639,7 @@
         <v>9.4573059800000005E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="24">
         <v>2021</v>
       </c>
@@ -3681,7 +3680,7 @@
         <v>8.5349209799999992E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="23">
         <v>2021</v>
       </c>
@@ -3722,7 +3721,7 @@
         <v>7.7859429800000001E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="24">
         <v>2021</v>
       </c>
@@ -3763,7 +3762,7 @@
         <v>6.8918509500000003E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="23">
         <v>2021</v>
       </c>
@@ -3804,7 +3803,7 @@
         <v>6.1823285600000003E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="24">
         <v>2021</v>
       </c>
@@ -3845,9 +3844,9 @@
         <v>4.0030867100000001E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="31">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B69" s="31">
         <v>23</v>
@@ -3886,9 +3885,9 @@
         <v>2.34308435E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="24">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B70" s="24">
         <v>24</v>
@@ -3934,25 +3933,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6725ADFF-2E18-489E-8328-56411AF74329}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I75"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="8" width="13.44140625" customWidth="1"/>
+    <col min="3" max="8" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>148</v>
       </c>
@@ -3965,7 +3964,7 @@
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -3976,7 +3975,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="6" t="s">
@@ -3999,7 +3998,7 @@
       </c>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
@@ -4026,7 +4025,7 @@
       </c>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>12</v>
       </c>
@@ -4055,7 +4054,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>12</v>
       </c>
@@ -4084,7 +4083,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>12</v>
       </c>
@@ -4113,7 +4112,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>12</v>
       </c>
@@ -4142,7 +4141,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>12</v>
       </c>
@@ -4171,7 +4170,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
@@ -4200,7 +4199,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
@@ -4229,7 +4228,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>12</v>
       </c>
@@ -4258,7 +4257,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>12</v>
       </c>
@@ -4287,7 +4286,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>12</v>
       </c>
@@ -4316,7 +4315,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>12</v>
       </c>
@@ -4345,7 +4344,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>12</v>
       </c>
@@ -4374,7 +4373,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>12</v>
       </c>
@@ -4401,7 +4400,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>12</v>
       </c>
@@ -4430,7 +4429,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>12</v>
       </c>
@@ -4459,7 +4458,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>12</v>
       </c>
@@ -4488,7 +4487,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>12</v>
       </c>
@@ -4517,7 +4516,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>12</v>
       </c>
@@ -4546,7 +4545,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>12</v>
       </c>
@@ -4575,7 +4574,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>12</v>
       </c>
@@ -4604,7 +4603,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>12</v>
       </c>
@@ -4633,7 +4632,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>12</v>
       </c>
@@ -4662,7 +4661,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>12</v>
       </c>
@@ -4691,7 +4690,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>12</v>
       </c>
@@ -4720,7 +4719,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>12</v>
       </c>
@@ -4749,7 +4748,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>12</v>
       </c>
@@ -4778,7 +4777,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>12</v>
       </c>
@@ -4807,7 +4806,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>12</v>
       </c>
@@ -4836,7 +4835,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>12</v>
       </c>
@@ -4865,7 +4864,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>12</v>
       </c>
@@ -4894,7 +4893,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>12</v>
       </c>
@@ -4923,7 +4922,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>12</v>
       </c>
@@ -4952,7 +4951,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>12</v>
       </c>
@@ -4981,7 +4980,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>12</v>
       </c>
@@ -5010,7 +5009,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>12</v>
       </c>
@@ -5039,7 +5038,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>12</v>
       </c>
@@ -5068,7 +5067,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>12</v>
       </c>
@@ -5097,7 +5096,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>12</v>
       </c>
@@ -5126,7 +5125,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>12</v>
       </c>
@@ -5155,7 +5154,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>12</v>
       </c>
@@ -5184,7 +5183,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>12</v>
       </c>
@@ -5213,7 +5212,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>12</v>
       </c>
@@ -5242,7 +5241,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>12</v>
       </c>
@@ -5271,7 +5270,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>12</v>
       </c>
@@ -5300,7 +5299,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>67</v>
       </c>
@@ -5329,7 +5328,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>67</v>
       </c>
@@ -5358,7 +5357,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>67</v>
       </c>
@@ -5387,7 +5386,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>67</v>
       </c>
@@ -5416,7 +5415,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>67</v>
       </c>
@@ -5445,7 +5444,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>67</v>
       </c>
@@ -5474,7 +5473,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>67</v>
       </c>
@@ -5503,7 +5502,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>67</v>
       </c>
@@ -5532,7 +5531,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>67</v>
       </c>
@@ -5561,7 +5560,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>67</v>
       </c>
@@ -5590,7 +5589,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>67</v>
       </c>
@@ -5619,7 +5618,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>67</v>
       </c>
@@ -5648,7 +5647,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>67</v>
       </c>
@@ -5677,7 +5676,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>67</v>
       </c>
@@ -5706,7 +5705,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>67</v>
       </c>
@@ -5735,7 +5734,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>67</v>
       </c>
@@ -5764,7 +5763,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>67</v>
       </c>
@@ -5793,7 +5792,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>67</v>
       </c>
@@ -5822,7 +5821,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>67</v>
       </c>
@@ -5851,7 +5850,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>67</v>
       </c>
@@ -5880,7 +5879,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
         <v>67</v>
       </c>
@@ -5909,7 +5908,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>67</v>
       </c>
@@ -5938,7 +5937,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>67</v>
       </c>
@@ -5967,7 +5966,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
         <v>67</v>
       </c>
@@ -6003,28 +6002,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0428355-D632-49E2-8D95-28031166C501}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5:F72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="6" width="14.6640625" customWidth="1"/>
-    <col min="11" max="11" width="12.88671875" customWidth="1"/>
-    <col min="12" max="14" width="13.6640625" customWidth="1"/>
-    <col min="15" max="15" width="14.88671875" customWidth="1"/>
-    <col min="16" max="16" width="14.5546875" customWidth="1"/>
+    <col min="2" max="6" width="14.7109375" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" customWidth="1"/>
+    <col min="12" max="14" width="13.7109375" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -6065,7 +6064,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="40">
         <v>2020</v>
       </c>
@@ -6106,7 +6105,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="40">
         <v>2020</v>
       </c>
@@ -6147,7 +6146,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="40">
         <v>2020</v>
       </c>
@@ -6188,7 +6187,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="40">
         <v>2020</v>
       </c>
@@ -6229,7 +6228,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="40">
         <v>2020</v>
       </c>
@@ -6270,7 +6269,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="40">
         <v>2020</v>
       </c>
@@ -6311,7 +6310,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>2020</v>
       </c>
@@ -6352,7 +6351,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>2020</v>
       </c>
@@ -6393,7 +6392,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>2020</v>
       </c>
@@ -6434,7 +6433,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>2020</v>
       </c>
@@ -6475,7 +6474,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>2020</v>
       </c>
@@ -6516,7 +6515,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>2020</v>
       </c>
@@ -6557,7 +6556,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>2020</v>
       </c>
@@ -6598,7 +6597,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>2020</v>
       </c>
@@ -6639,7 +6638,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>2020</v>
       </c>
@@ -6680,7 +6679,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>2020</v>
       </c>
@@ -6721,7 +6720,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>2020</v>
       </c>
@@ -6762,7 +6761,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>2020</v>
       </c>
@@ -6803,7 +6802,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>2020</v>
       </c>
@@ -6844,7 +6843,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>2020</v>
       </c>
@@ -6885,7 +6884,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>2020</v>
       </c>
@@ -6926,7 +6925,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>2020</v>
       </c>
@@ -6967,7 +6966,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>2020</v>
       </c>
@@ -7008,7 +7007,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>2020</v>
       </c>
@@ -7049,7 +7048,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>2020</v>
       </c>
@@ -7090,7 +7089,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>2020</v>
       </c>
@@ -7131,7 +7130,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>2020</v>
       </c>
@@ -7172,7 +7171,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>2020</v>
       </c>
@@ -7213,7 +7212,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>2020</v>
       </c>
@@ -7254,7 +7253,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>2020</v>
       </c>
@@ -7295,7 +7294,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>2020</v>
       </c>
@@ -7336,7 +7335,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <v>2020</v>
       </c>
@@ -7377,7 +7376,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>2020</v>
       </c>
@@ -7418,7 +7417,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>2020</v>
       </c>
@@ -7459,7 +7458,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>2020</v>
       </c>
@@ -7500,7 +7499,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>2020</v>
       </c>
@@ -7541,7 +7540,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>2020</v>
       </c>
@@ -7582,7 +7581,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>2020</v>
       </c>
@@ -7623,7 +7622,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>2020</v>
       </c>
@@ -7664,7 +7663,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>2020</v>
       </c>
@@ -7705,7 +7704,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>2020</v>
       </c>
@@ -7746,7 +7745,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>2020</v>
       </c>
@@ -7787,7 +7786,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>2020</v>
       </c>
@@ -7828,7 +7827,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>2020</v>
       </c>
@@ -7869,7 +7868,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <v>2021</v>
       </c>
@@ -7910,7 +7909,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>2021</v>
       </c>
@@ -7951,7 +7950,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>2021</v>
       </c>
@@ -7992,7 +7991,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>2021</v>
       </c>
@@ -8033,7 +8032,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>2021</v>
       </c>
@@ -8074,7 +8073,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>2021</v>
       </c>
@@ -8115,7 +8114,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>2021</v>
       </c>
@@ -8156,7 +8155,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>2021</v>
       </c>
@@ -8197,7 +8196,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>2021</v>
       </c>
@@ -8238,7 +8237,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>2021</v>
       </c>
@@ -8279,7 +8278,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>2021</v>
       </c>
@@ -8320,7 +8319,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>2021</v>
       </c>
@@ -8361,7 +8360,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>2021</v>
       </c>
@@ -8402,7 +8401,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <v>2021</v>
       </c>
@@ -8443,7 +8442,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>2021</v>
       </c>
@@ -8484,7 +8483,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>2021</v>
       </c>
@@ -8525,7 +8524,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>2021</v>
       </c>
@@ -8566,7 +8565,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>2021</v>
       </c>
@@ -8607,7 +8606,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>2021</v>
       </c>
@@ -8648,7 +8647,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>2021</v>
       </c>
@@ -8689,7 +8688,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>2021</v>
       </c>
@@ -8730,7 +8729,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>2021</v>
       </c>
@@ -8771,7 +8770,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>2021</v>
       </c>
@@ -8812,7 +8811,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>2021</v>
       </c>

--- a/data/klinische_aspekte.xlsx
+++ b/data/klinische_aspekte.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20382"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83EEBF15-6C83-45FC-8A6A-82F41821413E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE508BEA-B268-4CDF-BB20-09E297C82E59}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6650" xr2:uid="{761E707A-47B5-41DE-BE24-E63CCB2E0F5D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6650" activeTab="4" xr2:uid="{761E707A-47B5-41DE-BE24-E63CCB2E0F5D}"/>
   </bookViews>
   <sheets>
     <sheet name="Klinische_Aspekte" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
     <sheet name="7-Tage-Inzidenz_Hosp_Alter" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="AG10_Geschlecht_Todesfälle001_1" localSheetId="1">Todesfälle_Alter_Geschlecht!$A$6:$K$8</definedName>
+    <definedName name="AG10_Geschlecht_Todesfälle001" localSheetId="1">Todesfälle_Alter_Geschlecht!$A$6:$K$8</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,14 +28,14 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF05000000}" name="Verbindung121" type="1" refreshedVersion="6" savePassword="1" background="1" saveData="1">
+  <connection id="1" xr16:uid="{EE184986-4000-4515-8292-CD63FF81C750}" name="Verbindung1211" type="1" refreshedVersion="6" savePassword="1" background="1" saveData="1">
     <dbPr connection="DRIVER=ODBC Driver 13 for SQL Server;SERVER=SQLProd31;UID=prahmk;Trusted_Connection=yes;APP=Excel;WSID=WS;DATABASE=SurvNet3RKI2;" command="SELECT &quot;[Geschlecht].[SortGruppe].[SortGruppe].[MEMBER_CAPTION]&quot; as Geschlecht, _x000d__x000a_&quot;[Measures].[FallCount].[AlterPerson].[Standard12].[AgeGroupName12].&amp;[A00..09]&quot;+0 as '0-9',_x000d__x000a_&quot;[Measures].[FallCount].[AlterPerson].[Standard12].[AgeGroupName12].&amp;[A10..19]&quot;+0 as '10-19',_x000d__x000a_&quot;[Measures].[FallCount].[AlterPerson].[Standard12].[AgeGroupName12].&amp;[A20..29]&quot;+0 as '20-29',_x000d__x000a_&quot;[Measures].[FallCount].[AlterPerson].[Standard12].[AgeGroupName12].&amp;[A30..39]&quot;+0 as '30-39',_x000d__x000a_&quot;[Measures].[FallCount].[AlterPerson].[Standard12].[AgeGroupName12].&amp;[A40..49]&quot;+0 as '40-49',_x000d__x000a_&quot;[Measures].[FallCount].[AlterPerson].[Standard12].[AgeGroupName12].&amp;[A50..59]&quot;+0 as '50-59',_x000d__x000a_&quot;[Measures].[FallCount].[AlterPerson].[Standard12].[AgeGroupName12].&amp;[A60..69]&quot;+0 as '60-69',_x000d__x000a_&quot;[Measures].[FallCount].[AlterPerson].[Standard12].[AgeGroupName12].&amp;[A70..79]&quot;+0 as '70-79',_x000d__x000a_&quot;[Measures].[FallCount].[AlterPerson].[Standard12].[AgeGroupName12].&amp;[A80..89]&quot;+0 as '80-89',_x000d__x000a_&quot;[Measures].[FallCount].[AlterPerson].[Standard12].[Ab90]&quot;+0 as 'Ab90'_x000d__x000a_ FROM OPENQUERY(OLAP_SESQL19_CUBE4COVID19,'_x000d__x000a_ with member [AlterPerson].[Standard12].[Ab90] as [AlterPerson].[Standard12].[AgeGroupName12].&amp;[A90..99] + [AlterPerson].[Standard12].[AgeGroupName12].&amp;[Ab100]_x000d__x000a__x000d__x000a_            SELECT _x000d__x000a__x000d__x000a__x000d__x000a_([Measures].[FallCount], {[AlterPerson].[Standard12].[AgeGroupName12].&amp;[A00..09]:[AlterPerson].[Standard12].[AgeGroupName12].&amp;[A80..89],[AlterPerson].[Standard12].[Ab90]}) on 0,_x000d__x000a_[Geschlecht].[SortGruppe].&amp;[1]:[Geschlecht].[SortGruppe].&amp;[2]_x000d__x000a_ ON 1_x000d__x000a_FROM Cube4SurvNet _x000d__x000a_where ([ReferenzDefinition].[ID].&amp;[1],_x000d__x000a_[Datenstand].[Publikation].&amp;[-1],_x000d__x000a_[Aktiv].[ID].&amp;[1],_x000d__x000a_[Verstorben].[Hierarchy].[SortGruppe].&amp;[20]_x000d__x000a_)')_x000d__x000a_"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="181">
   <si>
     <t>Meldejahr</t>
   </si>
@@ -484,9 +484,6 @@
     <t>65</t>
   </si>
   <si>
-    <t>66.5</t>
-  </si>
-  <si>
     <t>78</t>
   </si>
   <si>
@@ -496,9 +493,6 @@
     <t>75.5</t>
   </si>
   <si>
-    <t>79.5</t>
-  </si>
-  <si>
     <t>56.5</t>
   </si>
   <si>
@@ -541,9 +535,6 @@
     <t>Inzidenz A80+</t>
   </si>
   <si>
-    <t>2021-KW52</t>
-  </si>
-  <si>
     <t>2022-KW01</t>
   </si>
   <si>
@@ -571,19 +562,22 @@
     <t>2022-KW09</t>
   </si>
   <si>
-    <t>Stand: 16.03.2022 08:59:21</t>
-  </si>
-  <si>
-    <t>Stand: 16.03.2022 08:59:22</t>
-  </si>
-  <si>
-    <t>Die dem RKI übermittelten COVID-19-Fälle nach Meldewoche, Altersgruppe und Angabe, dass eine Hospitalisierung vorlag für die Meldewochen KW 10 – 53/2020,  KW 01 – 52/2021 und KW 01 - 10/2022</t>
-  </si>
-  <si>
     <t>2022-KW10</t>
   </si>
   <si>
-    <t>Die 7-Tage-Inzidenz für hospitalisierte COVID-19-Fälle /100.000 Einwohner nach Meldedatum basierend auf der Verordnung vom 13.07.2021 zur Meldepflicht der Krankenhausaufnahme von COVID-19 Hospitalisierten ab KW52/2021.</t>
+    <t>Stand: 23.03.2022 08:58:15</t>
+  </si>
+  <si>
+    <t>Stand: 23.03.2022 08:58:16</t>
+  </si>
+  <si>
+    <t>Die dem RKI übermittelten COVID-19-Fälle nach Meldewoche, Altersgruppe und Angabe, dass eine Hospitalisierung vorlag für die Meldewochen KW 10 – 53/2020,  KW 01 – 52/2021 und KW 01 - 11/2022</t>
+  </si>
+  <si>
+    <t>Die 7-Tage-Inzidenz für hospitalisierte COVID-19-Fälle /100.000 Einwohner nach Meldedatum basierend auf der Verordnung vom 13.07.2021 zur Meldepflicht der Krankenhausaufnahme von COVID-19 Hospitalisierten ab KW01/2022.</t>
+  </si>
+  <si>
+    <t>2022-KW11</t>
   </si>
 </sst>
 </file>
@@ -788,7 +782,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -959,16 +953,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -998,7 +988,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="AG10-Geschlecht-Todesfälle001_1" fillFormulas="1" connectionId="1" xr16:uid="{00180BD4-251F-4715-A5CD-481F8653184D}" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="AG10-Geschlecht-Todesfälle001" fillFormulas="1" connectionId="1" xr16:uid="{9666F052-C69E-45C7-8E39-D7F6026D01FC}" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="12">
     <queryTableFields count="11">
       <queryTableField id="1" name="Geschlecht"/>
@@ -1314,15 +1304,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15B359AE-5507-4B64-BF3F-8A7ED4331CB9}">
-  <dimension ref="A1:M109"/>
+  <dimension ref="A1:M110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0"/>
+    <sheetView topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="B115" sqref="B115"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="60" x14ac:dyDescent="0.35">
@@ -1421,25 +1413,25 @@
         <v>45</v>
       </c>
       <c r="E5" s="14">
-        <v>0.5626069373152901</v>
+        <v>0.56276248250116656</v>
       </c>
       <c r="F5" s="14">
-        <v>0.4373930626847099</v>
+        <v>0.43723751749883338</v>
       </c>
       <c r="G5" s="12">
-        <v>5754</v>
+        <v>5753</v>
       </c>
       <c r="H5" s="15">
-        <v>5.3875564824469931E-2</v>
+        <v>5.388492960194681E-2</v>
       </c>
       <c r="I5" s="12">
-        <v>5531</v>
+        <v>5529</v>
       </c>
       <c r="J5" s="13">
         <v>524</v>
       </c>
       <c r="K5" s="14">
-        <v>9.4738745254022774E-2</v>
+        <v>9.4773015011756195E-2</v>
       </c>
       <c r="L5" s="13">
         <v>84</v>
@@ -1456,37 +1448,37 @@
         <v>12</v>
       </c>
       <c r="C6" s="7">
-        <v>22388</v>
+        <v>22389</v>
       </c>
       <c r="D6" s="5">
         <v>45</v>
       </c>
       <c r="E6" s="6">
-        <v>0.54947707160096537</v>
+        <v>0.54949720670391067</v>
       </c>
       <c r="F6" s="6">
-        <v>0.45052292839903457</v>
+        <v>0.45050279329608939</v>
       </c>
       <c r="G6" s="7">
-        <v>20045</v>
+        <v>20043</v>
       </c>
       <c r="H6" s="8">
-        <v>3.8663008231479175E-2</v>
+        <v>3.8666866237589186E-2</v>
       </c>
       <c r="I6" s="7">
-        <v>18958</v>
+        <v>18953</v>
       </c>
       <c r="J6" s="7">
         <v>2229</v>
       </c>
       <c r="K6" s="6">
-        <v>0.11757569363856947</v>
+        <v>0.11760671133857437</v>
       </c>
       <c r="L6" s="5">
         <v>476</v>
       </c>
       <c r="M6" s="10">
-        <v>2.1261390030000001E-2</v>
+        <v>2.126044039E-2</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1497,22 +1489,22 @@
         <v>13</v>
       </c>
       <c r="C7" s="12">
-        <v>33962</v>
+        <v>33961</v>
       </c>
       <c r="D7" s="13">
         <v>48</v>
       </c>
       <c r="E7" s="14">
-        <v>0.49493193470446106</v>
+        <v>0.49491705218493093</v>
       </c>
       <c r="F7" s="14">
-        <v>0.50506806529553894</v>
+        <v>0.50508294781506913</v>
       </c>
       <c r="G7" s="12">
         <v>30688</v>
       </c>
       <c r="H7" s="15">
-        <v>3.2814129301355577E-2</v>
+        <v>3.2846715328467155E-2</v>
       </c>
       <c r="I7" s="12">
         <v>29019</v>
@@ -1527,7 +1519,7 @@
         <v>1461</v>
       </c>
       <c r="M7" s="16">
-        <v>4.3018667920000003E-2</v>
+        <v>4.3019934629999999E-2</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1556,13 +1548,13 @@
         <v>5.4441170939635179E-2</v>
       </c>
       <c r="I8" s="7">
-        <v>31291</v>
+        <v>31290</v>
       </c>
       <c r="J8" s="7">
         <v>6105</v>
       </c>
       <c r="K8" s="6">
-        <v>0.19510402352114026</v>
+        <v>0.19511025886864813</v>
       </c>
       <c r="L8" s="7">
         <v>2270</v>
@@ -1579,37 +1571,37 @@
         <v>15</v>
       </c>
       <c r="C9" s="12">
-        <v>27126</v>
+        <v>27125</v>
       </c>
       <c r="D9" s="13">
         <v>52</v>
       </c>
       <c r="E9" s="14">
-        <v>0.43463979923235901</v>
+        <v>0.4346558405609891</v>
       </c>
       <c r="F9" s="14">
-        <v>0.56536020076764093</v>
+        <v>0.56534415943901084</v>
       </c>
       <c r="G9" s="12">
-        <v>23474</v>
+        <v>23473</v>
       </c>
       <c r="H9" s="15">
-        <v>8.3709636193235071E-2</v>
+        <v>8.3713202402760617E-2</v>
       </c>
       <c r="I9" s="12">
-        <v>23873</v>
+        <v>23870</v>
       </c>
       <c r="J9" s="12">
         <v>4733</v>
       </c>
       <c r="K9" s="14">
-        <v>0.19825744564989736</v>
+        <v>0.19828236279849182</v>
       </c>
       <c r="L9" s="12">
         <v>1877</v>
       </c>
       <c r="M9" s="16">
-        <v>6.9195605689999995E-2</v>
+        <v>6.9198156679999998E-2</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1620,16 +1612,16 @@
         <v>16</v>
       </c>
       <c r="C10" s="7">
-        <v>17328</v>
+        <v>17330</v>
       </c>
       <c r="D10" s="5">
         <v>51</v>
       </c>
       <c r="E10" s="6">
-        <v>0.44725592143269788</v>
+        <v>0.44726201478743066</v>
       </c>
       <c r="F10" s="6">
-        <v>0.55274407856730212</v>
+        <v>0.55273798521256934</v>
       </c>
       <c r="G10" s="7">
         <v>14776</v>
@@ -1650,7 +1642,7 @@
         <v>1222</v>
       </c>
       <c r="M10" s="10">
-        <v>7.0521698980000005E-2</v>
+        <v>7.05135603E-2</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1679,13 +1671,13 @@
         <v>0.13542688910696762</v>
       </c>
       <c r="I11" s="12">
-        <v>10758</v>
+        <v>10756</v>
       </c>
       <c r="J11" s="12">
         <v>2236</v>
       </c>
       <c r="K11" s="14">
-        <v>0.2078453244097416</v>
+        <v>0.20788397173670509</v>
       </c>
       <c r="L11" s="13">
         <v>727</v>
@@ -1702,37 +1694,37 @@
         <v>18</v>
       </c>
       <c r="C12" s="7">
-        <v>7433</v>
+        <v>7434</v>
       </c>
       <c r="D12" s="5">
         <v>48</v>
       </c>
       <c r="E12" s="6">
-        <v>0.47838965935101657</v>
+        <v>0.47845988152934843</v>
       </c>
       <c r="F12" s="6">
-        <v>0.52161034064898348</v>
+        <v>0.52154011847065163</v>
       </c>
       <c r="G12" s="7">
-        <v>6148</v>
+        <v>6149</v>
       </c>
       <c r="H12" s="8">
-        <v>0.16363044892648015</v>
+        <v>0.16376646609204748</v>
       </c>
       <c r="I12" s="7">
-        <v>6517</v>
+        <v>6518</v>
       </c>
       <c r="J12" s="7">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="K12" s="6">
-        <v>0.20899186742366119</v>
+        <v>0.20911322491561829</v>
       </c>
       <c r="L12" s="5">
         <v>387</v>
       </c>
       <c r="M12" s="10">
-        <v>5.2065115019999997E-2</v>
+        <v>5.2058111380000001E-2</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1764,10 +1756,10 @@
         <v>5548</v>
       </c>
       <c r="J13" s="12">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="K13" s="14">
-        <v>0.194844989185292</v>
+        <v>0.19502523431867338</v>
       </c>
       <c r="L13" s="13">
         <v>257</v>
@@ -1784,37 +1776,37 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>4759</v>
+        <v>4760</v>
       </c>
       <c r="D14" s="5">
         <v>45</v>
       </c>
       <c r="E14" s="6">
-        <v>0.49589732800336628</v>
+        <v>0.49600336558687419</v>
       </c>
       <c r="F14" s="6">
-        <v>0.50410267199663372</v>
+        <v>0.50399663441312581</v>
       </c>
       <c r="G14" s="7">
-        <v>3904</v>
+        <v>3905</v>
       </c>
       <c r="H14" s="8">
-        <v>0.22412909836065573</v>
+        <v>0.22432778489116517</v>
       </c>
       <c r="I14" s="7">
-        <v>4141</v>
+        <v>4142</v>
       </c>
       <c r="J14" s="5">
         <v>758</v>
       </c>
       <c r="K14" s="6">
-        <v>0.18304757304998792</v>
+        <v>0.18300338000965716</v>
       </c>
       <c r="L14" s="5">
         <v>164</v>
       </c>
       <c r="M14" s="10">
-        <v>3.4461021219999999E-2</v>
+        <v>3.4453781510000003E-2</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1825,16 +1817,16 @@
         <v>21</v>
       </c>
       <c r="C15" s="12">
-        <v>3600</v>
+        <v>3601</v>
       </c>
       <c r="D15" s="13">
         <v>44</v>
       </c>
       <c r="E15" s="14">
-        <v>0.50222841225626746</v>
+        <v>0.5020885547201337</v>
       </c>
       <c r="F15" s="14">
-        <v>0.49777158774373259</v>
+        <v>0.4979114452798663</v>
       </c>
       <c r="G15" s="12">
         <v>2807</v>
@@ -1855,7 +1847,7 @@
         <v>112</v>
       </c>
       <c r="M15" s="16">
-        <v>3.1111111109999999E-2</v>
+        <v>3.1102471529999998E-2</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1989,37 +1981,37 @@
         <v>25</v>
       </c>
       <c r="C19" s="12">
-        <v>4190</v>
+        <v>4185</v>
       </c>
       <c r="D19" s="13">
         <v>36</v>
       </c>
       <c r="E19" s="14">
-        <v>0.58905092039206308</v>
+        <v>0.58855911919578741</v>
       </c>
       <c r="F19" s="14">
-        <v>0.41094907960793686</v>
+        <v>0.41144088080421254</v>
       </c>
       <c r="G19" s="12">
-        <v>2954</v>
+        <v>2949</v>
       </c>
       <c r="H19" s="15">
-        <v>0.24813811780636424</v>
+        <v>0.24855883350288233</v>
       </c>
       <c r="I19" s="12">
-        <v>3818</v>
+        <v>3813</v>
       </c>
       <c r="J19" s="13">
         <v>324</v>
       </c>
       <c r="K19" s="14">
-        <v>8.4861183865898374E-2</v>
+        <v>8.4972462627852088E-2</v>
       </c>
       <c r="L19" s="13">
         <v>41</v>
       </c>
       <c r="M19" s="16">
-        <v>9.7852028599999998E-3</v>
+        <v>9.7968936600000001E-3</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2030,16 +2022,16 @@
         <v>26</v>
       </c>
       <c r="C20" s="7">
-        <v>3162</v>
+        <v>3163</v>
       </c>
       <c r="D20" s="5">
         <v>37</v>
       </c>
       <c r="E20" s="6">
-        <v>0.54908169727675749</v>
+        <v>0.549224438113327</v>
       </c>
       <c r="F20" s="6">
-        <v>0.45091830272324257</v>
+        <v>0.450775561886673</v>
       </c>
       <c r="G20" s="7">
         <v>2347</v>
@@ -2048,19 +2040,19 @@
         <v>0.23775031955688111</v>
       </c>
       <c r="I20" s="7">
-        <v>2813</v>
+        <v>2814</v>
       </c>
       <c r="J20" s="5">
         <v>296</v>
       </c>
       <c r="K20" s="6">
-        <v>0.1052257376466406</v>
+        <v>0.10518834399431415</v>
       </c>
       <c r="L20" s="5">
         <v>24</v>
       </c>
       <c r="M20" s="10">
-        <v>7.5901328199999996E-3</v>
+        <v>7.5877331600000004E-3</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2153,37 +2145,37 @@
         <v>29</v>
       </c>
       <c r="C23" s="12">
-        <v>3034</v>
+        <v>3040</v>
       </c>
       <c r="D23" s="13">
         <v>36</v>
       </c>
       <c r="E23" s="14">
-        <v>0.52344782034346105</v>
+        <v>0.52274225444957156</v>
       </c>
       <c r="F23" s="14">
-        <v>0.47655217965653895</v>
+        <v>0.47725774555042849</v>
       </c>
       <c r="G23" s="12">
-        <v>2369</v>
+        <v>2371</v>
       </c>
       <c r="H23" s="15">
-        <v>0.22752216124947236</v>
+        <v>0.22775200337410376</v>
       </c>
       <c r="I23" s="12">
-        <v>2626</v>
+        <v>2628</v>
       </c>
       <c r="J23" s="13">
         <v>322</v>
       </c>
       <c r="K23" s="14">
-        <v>0.12261995430312261</v>
+        <v>0.12252663622526636</v>
       </c>
       <c r="L23" s="13">
         <v>30</v>
       </c>
       <c r="M23" s="16">
-        <v>9.8879367099999997E-3</v>
+        <v>9.8684210499999994E-3</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2206,10 +2198,10 @@
         <v>0.47605705552725419</v>
       </c>
       <c r="G24" s="7">
-        <v>3152</v>
+        <v>3153</v>
       </c>
       <c r="H24" s="8">
-        <v>0.26491116751269034</v>
+        <v>0.26482714874722485</v>
       </c>
       <c r="I24" s="7">
         <v>3413</v>
@@ -2276,16 +2268,16 @@
         <v>32</v>
       </c>
       <c r="C26" s="7">
-        <v>6064</v>
+        <v>6063</v>
       </c>
       <c r="D26" s="5">
         <v>34</v>
       </c>
       <c r="E26" s="6">
-        <v>0.53665785997357995</v>
+        <v>0.53691164327002472</v>
       </c>
       <c r="F26" s="6">
-        <v>0.4633421400264201</v>
+        <v>0.46308835672997523</v>
       </c>
       <c r="G26" s="7">
         <v>4582</v>
@@ -2294,19 +2286,19 @@
         <v>0.30074203404626798</v>
       </c>
       <c r="I26" s="7">
-        <v>5285</v>
+        <v>5284</v>
       </c>
       <c r="J26" s="5">
         <v>405</v>
       </c>
       <c r="K26" s="6">
-        <v>7.6631977294228951E-2</v>
+        <v>7.6646479939439821E-2</v>
       </c>
       <c r="L26" s="5">
         <v>33</v>
       </c>
       <c r="M26" s="10">
-        <v>5.4419524999999996E-3</v>
+        <v>5.4428500699999997E-3</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2317,37 +2309,37 @@
         <v>33</v>
       </c>
       <c r="C27" s="12">
-        <v>7954</v>
+        <v>7956</v>
       </c>
       <c r="D27" s="13">
         <v>32</v>
       </c>
       <c r="E27" s="14">
-        <v>0.53362720403022668</v>
+        <v>0.53361873583480235</v>
       </c>
       <c r="F27" s="14">
-        <v>0.46637279596977332</v>
+        <v>0.46638126416519771</v>
       </c>
       <c r="G27" s="12">
-        <v>5860</v>
+        <v>5861</v>
       </c>
       <c r="H27" s="15">
-        <v>0.33071672354948806</v>
+        <v>0.3306602968776659</v>
       </c>
       <c r="I27" s="12">
-        <v>6927</v>
+        <v>6929</v>
       </c>
       <c r="J27" s="13">
         <v>446</v>
       </c>
       <c r="K27" s="14">
-        <v>6.438573697127184E-2</v>
+        <v>6.4367152547265119E-2</v>
       </c>
       <c r="L27" s="13">
         <v>31</v>
       </c>
       <c r="M27" s="16">
-        <v>3.8974101000000001E-3</v>
+        <v>3.8964303600000001E-3</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2370,10 +2362,10 @@
         <v>0.45286177670817201</v>
       </c>
       <c r="G28" s="7">
-        <v>7194</v>
+        <v>7195</v>
       </c>
       <c r="H28" s="8">
-        <v>0.34403669724770641</v>
+        <v>0.34398888116747739</v>
       </c>
       <c r="I28" s="7">
         <v>8210</v>
@@ -2411,19 +2403,19 @@
         <v>0.46963148316651504</v>
       </c>
       <c r="G29" s="12">
-        <v>6863</v>
+        <v>6864</v>
       </c>
       <c r="H29" s="15">
-        <v>0.30365729272912723</v>
+        <v>0.30375874125874125</v>
       </c>
       <c r="I29" s="12">
-        <v>7339</v>
+        <v>7337</v>
       </c>
       <c r="J29" s="13">
         <v>373</v>
       </c>
       <c r="K29" s="14">
-        <v>5.0824362992233273E-2</v>
+        <v>5.0838217255008859E-2</v>
       </c>
       <c r="L29" s="13">
         <v>18</v>
@@ -2440,16 +2432,16 @@
         <v>36</v>
       </c>
       <c r="C30" s="7">
-        <v>8613</v>
+        <v>8614</v>
       </c>
       <c r="D30" s="5">
         <v>33</v>
       </c>
       <c r="E30" s="6">
-        <v>0.53662234662934449</v>
+        <v>0.53667638483965019</v>
       </c>
       <c r="F30" s="6">
-        <v>0.46337765337065545</v>
+        <v>0.46332361516034987</v>
       </c>
       <c r="G30" s="7">
         <v>6664</v>
@@ -2458,19 +2450,19 @@
         <v>0.2662064825930372</v>
       </c>
       <c r="I30" s="7">
-        <v>7025</v>
+        <v>7026</v>
       </c>
       <c r="J30" s="5">
         <v>407</v>
       </c>
       <c r="K30" s="6">
-        <v>5.7935943060498221E-2</v>
+        <v>5.7927697124964421E-2</v>
       </c>
       <c r="L30" s="5">
         <v>36</v>
       </c>
       <c r="M30" s="10">
-        <v>4.1797283100000002E-3</v>
+        <v>4.1792430899999997E-3</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2481,22 +2473,22 @@
         <v>37</v>
       </c>
       <c r="C31" s="12">
-        <v>9761</v>
+        <v>9762</v>
       </c>
       <c r="D31" s="13">
         <v>35</v>
       </c>
       <c r="E31" s="14">
-        <v>0.51780568135034999</v>
+        <v>0.51785530513532985</v>
       </c>
       <c r="F31" s="14">
-        <v>0.48219431864965007</v>
+        <v>0.48214469486467015</v>
       </c>
       <c r="G31" s="12">
-        <v>7684</v>
+        <v>7685</v>
       </c>
       <c r="H31" s="15">
-        <v>0.1997657470067673</v>
+        <v>0.19973975276512687</v>
       </c>
       <c r="I31" s="12">
         <v>7922</v>
@@ -2511,7 +2503,7 @@
         <v>68</v>
       </c>
       <c r="M31" s="16">
-        <v>6.9664993299999997E-3</v>
+        <v>6.9657856900000002E-3</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2522,22 +2514,22 @@
         <v>38</v>
       </c>
       <c r="C32" s="7">
-        <v>12288</v>
+        <v>12290</v>
       </c>
       <c r="D32" s="5">
         <v>36</v>
       </c>
       <c r="E32" s="6">
-        <v>0.51131258678428493</v>
+        <v>0.51122907309105758</v>
       </c>
       <c r="F32" s="6">
-        <v>0.48868741321571513</v>
+        <v>0.48877092690894242</v>
       </c>
       <c r="G32" s="7">
         <v>9936</v>
       </c>
       <c r="H32" s="8">
-        <v>0.18105877616747182</v>
+        <v>0.18095813204508857</v>
       </c>
       <c r="I32" s="7">
         <v>10106</v>
@@ -2552,7 +2544,7 @@
         <v>82</v>
       </c>
       <c r="M32" s="10">
-        <v>6.6731770800000003E-3</v>
+        <v>6.6720911300000001E-3</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2563,16 +2555,16 @@
         <v>39</v>
       </c>
       <c r="C33" s="12">
-        <v>13067</v>
+        <v>13069</v>
       </c>
       <c r="D33" s="13">
         <v>37</v>
       </c>
       <c r="E33" s="14">
-        <v>0.51598524438979398</v>
+        <v>0.51590594744121721</v>
       </c>
       <c r="F33" s="14">
-        <v>0.48401475561020596</v>
+        <v>0.48409405255878285</v>
       </c>
       <c r="G33" s="12">
         <v>10477</v>
@@ -2581,19 +2573,19 @@
         <v>0.17858165505392765</v>
       </c>
       <c r="I33" s="12">
-        <v>10823</v>
+        <v>10825</v>
       </c>
       <c r="J33" s="13">
         <v>782</v>
       </c>
       <c r="K33" s="14">
-        <v>7.2253534140256856E-2</v>
+        <v>7.2240184757505779E-2</v>
       </c>
       <c r="L33" s="13">
         <v>110</v>
       </c>
       <c r="M33" s="16">
-        <v>8.4181525900000002E-3</v>
+        <v>8.4168643299999991E-3</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2604,37 +2596,37 @@
         <v>40</v>
       </c>
       <c r="C34" s="7">
-        <v>15927</v>
+        <v>15928</v>
       </c>
       <c r="D34" s="5">
         <v>38</v>
       </c>
       <c r="E34" s="6">
-        <v>0.5188542650299024</v>
+        <v>0.51882160392798693</v>
       </c>
       <c r="F34" s="6">
-        <v>0.48114573497009755</v>
+        <v>0.48117839607201307</v>
       </c>
       <c r="G34" s="7">
-        <v>12699</v>
+        <v>12703</v>
       </c>
       <c r="H34" s="8">
-        <v>0.17009213323883771</v>
+        <v>0.17003857356529953</v>
       </c>
       <c r="I34" s="7">
-        <v>13383</v>
+        <v>13386</v>
       </c>
       <c r="J34" s="5">
         <v>890</v>
       </c>
       <c r="K34" s="6">
-        <v>6.65022790106852E-2</v>
+        <v>6.6487374869266397E-2</v>
       </c>
       <c r="L34" s="5">
         <v>122</v>
       </c>
       <c r="M34" s="10">
-        <v>7.6599485100000003E-3</v>
+        <v>7.6594675999999999E-3</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2645,37 +2637,37 @@
         <v>41</v>
       </c>
       <c r="C35" s="19">
-        <v>26120</v>
+        <v>26122</v>
       </c>
       <c r="D35" s="20">
         <v>39</v>
       </c>
       <c r="E35" s="21">
-        <v>0.50976704916145377</v>
+        <v>0.50980467400897966</v>
       </c>
       <c r="F35" s="21">
-        <v>0.49023295083854629</v>
+        <v>0.49019532599102039</v>
       </c>
       <c r="G35" s="19">
-        <v>20206</v>
+        <v>20207</v>
       </c>
       <c r="H35" s="22">
-        <v>0.15970503810749281</v>
+        <v>0.15969713465630722</v>
       </c>
       <c r="I35" s="19">
-        <v>21368</v>
+        <v>21369</v>
       </c>
       <c r="J35" s="20">
         <v>1616</v>
       </c>
       <c r="K35" s="21">
-        <v>7.5627105952826651E-2</v>
+        <v>7.562356684917404E-2</v>
       </c>
       <c r="L35" s="20">
         <v>246</v>
       </c>
       <c r="M35" s="23">
-        <v>9.4180704400000006E-3</v>
+        <v>9.4173493600000005E-3</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2686,37 +2678,37 @@
         <v>42</v>
       </c>
       <c r="C36" s="7">
-        <v>42056</v>
+        <v>42057</v>
       </c>
       <c r="D36" s="5">
         <v>39</v>
       </c>
       <c r="E36" s="6">
-        <v>0.5081971125164062</v>
+        <v>0.50820884837493441</v>
       </c>
       <c r="F36" s="6">
-        <v>0.49180288748359385</v>
+        <v>0.49179115162506565</v>
       </c>
       <c r="G36" s="7">
-        <v>31306</v>
+        <v>31309</v>
       </c>
       <c r="H36" s="8">
-        <v>0.15632786047403055</v>
+        <v>0.15631288128014309</v>
       </c>
       <c r="I36" s="7">
-        <v>33814</v>
+        <v>33815</v>
       </c>
       <c r="J36" s="5">
         <v>2358</v>
       </c>
       <c r="K36" s="6">
-        <v>6.9734429526231739E-2</v>
+        <v>6.9732367292621611E-2</v>
       </c>
       <c r="L36" s="5">
         <v>463</v>
       </c>
       <c r="M36" s="10">
-        <v>1.100913068E-2</v>
+        <v>1.100886891E-2</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2733,10 +2725,10 @@
         <v>40</v>
       </c>
       <c r="E37" s="14">
-        <v>0.50146140026278385</v>
+        <v>0.50147480760464436</v>
       </c>
       <c r="F37" s="14">
-        <v>0.49853859973721609</v>
+        <v>0.4985251923953557</v>
       </c>
       <c r="G37" s="12">
         <v>53242</v>
@@ -2745,19 +2737,19 @@
         <v>0.15061417677773187</v>
       </c>
       <c r="I37" s="12">
-        <v>58298</v>
+        <v>58295</v>
       </c>
       <c r="J37" s="13">
         <v>4170</v>
       </c>
       <c r="K37" s="14">
-        <v>7.1529040447356682E-2</v>
+        <v>7.1532721502701777E-2</v>
       </c>
       <c r="L37" s="13">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="M37" s="16">
-        <v>1.3570732090000001E-2</v>
+        <v>1.3557375070000001E-2</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2768,37 +2760,37 @@
         <v>44</v>
       </c>
       <c r="C38" s="7">
-        <v>111002</v>
+        <v>111000</v>
       </c>
       <c r="D38" s="5">
         <v>41</v>
       </c>
       <c r="E38" s="6">
-        <v>0.49693618022682223</v>
+        <v>0.49694517609362698</v>
       </c>
       <c r="F38" s="6">
-        <v>0.50306381977317782</v>
+        <v>0.50305482390637302</v>
       </c>
       <c r="G38" s="7">
-        <v>76975</v>
+        <v>76973</v>
       </c>
       <c r="H38" s="8">
-        <v>0.15299772653458915</v>
+        <v>0.15297571875852572</v>
       </c>
       <c r="I38" s="7">
-        <v>84510</v>
+        <v>84508</v>
       </c>
       <c r="J38" s="5">
-        <v>6003</v>
+        <v>6002</v>
       </c>
       <c r="K38" s="6">
-        <v>7.1033013844515436E-2</v>
+        <v>7.1022861740900264E-2</v>
       </c>
       <c r="L38" s="5">
         <v>1620</v>
       </c>
       <c r="M38" s="10">
-        <v>1.459433163E-2</v>
+        <v>1.4594594589999999E-2</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2809,37 +2801,37 @@
         <v>45</v>
       </c>
       <c r="C39" s="19">
-        <v>125722</v>
+        <v>125718</v>
       </c>
       <c r="D39" s="20">
         <v>41</v>
       </c>
       <c r="E39" s="21">
-        <v>0.4909393476330296</v>
+        <v>0.49090705433365067</v>
       </c>
       <c r="F39" s="21">
-        <v>0.5090606523669704</v>
+        <v>0.50909294566634933</v>
       </c>
       <c r="G39" s="19">
-        <v>87206</v>
+        <v>87204</v>
       </c>
       <c r="H39" s="22">
-        <v>0.14997821250831364</v>
+        <v>0.14998165221778817</v>
       </c>
       <c r="I39" s="19">
-        <v>94159</v>
+        <v>94158</v>
       </c>
       <c r="J39" s="20">
-        <v>6920</v>
+        <v>6919</v>
       </c>
       <c r="K39" s="21">
-        <v>7.3492709140921209E-2</v>
+        <v>7.3482869219822E-2</v>
       </c>
       <c r="L39" s="20">
         <v>1898</v>
       </c>
       <c r="M39" s="23">
-        <v>1.509680087E-2</v>
+        <v>1.5097281210000001E-2</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2850,37 +2842,37 @@
         <v>46</v>
       </c>
       <c r="C40" s="7">
-        <v>127803</v>
+        <v>127810</v>
       </c>
       <c r="D40" s="5">
         <v>42</v>
       </c>
       <c r="E40" s="6">
-        <v>0.48444150193890095</v>
+        <v>0.48443841964644596</v>
       </c>
       <c r="F40" s="6">
-        <v>0.51555849806109899</v>
+        <v>0.51556158035355404</v>
       </c>
       <c r="G40" s="7">
-        <v>87610</v>
+        <v>87615</v>
       </c>
       <c r="H40" s="8">
-        <v>0.14622759958908801</v>
+        <v>0.14624208183530218</v>
       </c>
       <c r="I40" s="7">
-        <v>96474</v>
+        <v>96477</v>
       </c>
       <c r="J40" s="5">
-        <v>7619</v>
+        <v>7620</v>
       </c>
       <c r="K40" s="6">
-        <v>7.897464601861641E-2</v>
+        <v>7.8982555427718523E-2</v>
       </c>
       <c r="L40" s="5">
         <v>2530</v>
       </c>
       <c r="M40" s="10">
-        <v>1.9796092420000001E-2</v>
+        <v>1.9795008209999999E-2</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2897,25 +2889,25 @@
         <v>43</v>
       </c>
       <c r="E41" s="21">
-        <v>0.47413752603473386</v>
+        <v>0.47415318602502465</v>
       </c>
       <c r="F41" s="21">
-        <v>0.52586247396526609</v>
+        <v>0.52584681397497535</v>
       </c>
       <c r="G41" s="19">
-        <v>88553</v>
+        <v>88551</v>
       </c>
       <c r="H41" s="22">
-        <v>0.14695154314365408</v>
+        <v>0.14690969046086436</v>
       </c>
       <c r="I41" s="19">
-        <v>96475</v>
+        <v>96474</v>
       </c>
       <c r="J41" s="20">
         <v>8173</v>
       </c>
       <c r="K41" s="21">
-        <v>8.4716247732573205E-2</v>
+        <v>8.4717125857744061E-2</v>
       </c>
       <c r="L41" s="20">
         <v>3216</v>
@@ -2932,37 +2924,37 @@
         <v>48</v>
       </c>
       <c r="C42" s="7">
-        <v>123140</v>
+        <v>123143</v>
       </c>
       <c r="D42" s="5">
         <v>44</v>
       </c>
       <c r="E42" s="6">
-        <v>0.46522086911097327</v>
+        <v>0.4652176397130241</v>
       </c>
       <c r="F42" s="6">
-        <v>0.53477913088902673</v>
+        <v>0.5347823602869759</v>
       </c>
       <c r="G42" s="7">
-        <v>84472</v>
+        <v>84474</v>
       </c>
       <c r="H42" s="8">
-        <v>0.15357751681030402</v>
+        <v>0.1535857186826716</v>
       </c>
       <c r="I42" s="7">
-        <v>92279</v>
+        <v>92278</v>
       </c>
       <c r="J42" s="5">
-        <v>8396</v>
+        <v>8398</v>
       </c>
       <c r="K42" s="6">
-        <v>9.0984947821281109E-2</v>
+        <v>9.1007607447062142E-2</v>
       </c>
       <c r="L42" s="5">
         <v>3585</v>
       </c>
       <c r="M42" s="10">
-        <v>2.9113204480000002E-2</v>
+        <v>2.911249522E-2</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2973,37 +2965,37 @@
         <v>49</v>
       </c>
       <c r="C43" s="19">
-        <v>128362</v>
+        <v>128364</v>
       </c>
       <c r="D43" s="20">
         <v>45</v>
       </c>
       <c r="E43" s="21">
-        <v>0.45913112993863203</v>
+        <v>0.45912393313112787</v>
       </c>
       <c r="F43" s="21">
-        <v>0.54086887006136797</v>
+        <v>0.54087606686887213</v>
       </c>
       <c r="G43" s="19">
-        <v>89651</v>
+        <v>89650</v>
       </c>
       <c r="H43" s="22">
-        <v>0.14094655943603529</v>
+        <v>0.14093697713329614</v>
       </c>
       <c r="I43" s="19">
-        <v>96398</v>
+        <v>96397</v>
       </c>
       <c r="J43" s="20">
         <v>9255</v>
       </c>
       <c r="K43" s="21">
-        <v>9.6008215938090002E-2</v>
+        <v>9.6009211904934805E-2</v>
       </c>
       <c r="L43" s="20">
         <v>4466</v>
       </c>
       <c r="M43" s="23">
-        <v>3.4792228219999999E-2</v>
+        <v>3.479168614E-2</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3014,37 +3006,37 @@
         <v>50</v>
       </c>
       <c r="C44" s="7">
-        <v>156299</v>
+        <v>156306</v>
       </c>
       <c r="D44" s="5">
         <v>46</v>
       </c>
       <c r="E44" s="6">
-        <v>0.45374205665183048</v>
+        <v>0.45371519715981812</v>
       </c>
       <c r="F44" s="6">
-        <v>0.54625794334816946</v>
+        <v>0.54628480284018188</v>
       </c>
       <c r="G44" s="7">
-        <v>110389</v>
+        <v>110390</v>
       </c>
       <c r="H44" s="8">
-        <v>0.14512315538685919</v>
+        <v>0.14511278195488722</v>
       </c>
       <c r="I44" s="7">
         <v>117346</v>
       </c>
       <c r="J44" s="5">
-        <v>11345</v>
+        <v>11344</v>
       </c>
       <c r="K44" s="6">
-        <v>9.6679903874013595E-2</v>
+        <v>9.6671382066708708E-2</v>
       </c>
       <c r="L44" s="5">
         <v>5740</v>
       </c>
       <c r="M44" s="10">
-        <v>3.6724483199999998E-2</v>
+        <v>3.6722838530000003E-2</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3055,37 +3047,37 @@
         <v>51</v>
       </c>
       <c r="C45" s="19">
-        <v>174686</v>
+        <v>174685</v>
       </c>
       <c r="D45" s="20">
         <v>46</v>
       </c>
       <c r="E45" s="21">
-        <v>0.45166171833644042</v>
+        <v>0.45166431715526911</v>
       </c>
       <c r="F45" s="21">
-        <v>0.54833828166355958</v>
+        <v>0.54833568284473089</v>
       </c>
       <c r="G45" s="19">
-        <v>122327</v>
+        <v>122325</v>
       </c>
       <c r="H45" s="22">
-        <v>0.14419547606006849</v>
+        <v>0.14419783363989372</v>
       </c>
       <c r="I45" s="19">
         <v>129992</v>
       </c>
       <c r="J45" s="20">
-        <v>12649</v>
+        <v>12651</v>
       </c>
       <c r="K45" s="21">
-        <v>9.7305988060803747E-2</v>
+        <v>9.7321373622992188E-2</v>
       </c>
       <c r="L45" s="20">
         <v>6434</v>
       </c>
       <c r="M45" s="23">
-        <v>3.6831801060000002E-2</v>
+        <v>3.6832011900000003E-2</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3096,37 +3088,37 @@
         <v>52</v>
       </c>
       <c r="C46" s="7">
-        <v>138927</v>
+        <v>138928</v>
       </c>
       <c r="D46" s="5">
         <v>48</v>
       </c>
       <c r="E46" s="6">
-        <v>0.44479899279326213</v>
+        <v>0.44481024564957855</v>
       </c>
       <c r="F46" s="6">
-        <v>0.55520100720673782</v>
+        <v>0.5551897543504215</v>
       </c>
       <c r="G46" s="7">
-        <v>95490</v>
+        <v>95492</v>
       </c>
       <c r="H46" s="8">
-        <v>0.15771284951303802</v>
+        <v>0.15770954634943241</v>
       </c>
       <c r="I46" s="7">
-        <v>103165</v>
+        <v>103161</v>
       </c>
       <c r="J46" s="5">
         <v>11112</v>
       </c>
       <c r="K46" s="6">
-        <v>0.10771094848058935</v>
+        <v>0.10771512490185245</v>
       </c>
       <c r="L46" s="5">
         <v>5697</v>
       </c>
       <c r="M46" s="10">
-        <v>4.1007147629999997E-2</v>
+        <v>4.1006852470000001E-2</v>
       </c>
     </row>
     <row r="47" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3137,37 +3129,37 @@
         <v>53</v>
       </c>
       <c r="C47" s="19">
-        <v>123080</v>
+        <v>123078</v>
       </c>
       <c r="D47" s="20">
         <v>49</v>
       </c>
       <c r="E47" s="21">
-        <v>0.44094127651224019</v>
+        <v>0.44095666394112837</v>
       </c>
       <c r="F47" s="21">
-        <v>0.55905872348775976</v>
+        <v>0.55904333605887158</v>
       </c>
       <c r="G47" s="19">
-        <v>87503</v>
+        <v>87502</v>
       </c>
       <c r="H47" s="22">
-        <v>0.13377827045929855</v>
+        <v>0.13376837100866265</v>
       </c>
       <c r="I47" s="19">
-        <v>93472</v>
+        <v>93470</v>
       </c>
       <c r="J47" s="20">
         <v>11056</v>
       </c>
       <c r="K47" s="21">
-        <v>0.11828141047586443</v>
+        <v>0.11828394137156306</v>
       </c>
       <c r="L47" s="20">
-        <v>5704</v>
+        <v>5706</v>
       </c>
       <c r="M47" s="23">
-        <v>4.6343841400000002E-2</v>
+        <v>4.6360844339999999E-2</v>
       </c>
     </row>
     <row r="48" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3178,37 +3170,37 @@
         <v>1</v>
       </c>
       <c r="C48" s="27">
-        <v>145487</v>
+        <v>145491</v>
       </c>
       <c r="D48" s="28">
         <v>48</v>
       </c>
       <c r="E48" s="29">
-        <v>0.4502011029564208</v>
+        <v>0.45018865838320454</v>
       </c>
       <c r="F48" s="29">
-        <v>0.5497988970435792</v>
+        <v>0.54981134161679546</v>
       </c>
       <c r="G48" s="27">
-        <v>106568</v>
+        <v>106576</v>
       </c>
       <c r="H48" s="30">
-        <v>0.13118384505667743</v>
+        <v>0.13118338087374268</v>
       </c>
       <c r="I48" s="27">
-        <v>111543</v>
+        <v>111548</v>
       </c>
       <c r="J48" s="28">
-        <v>11254</v>
+        <v>11255</v>
       </c>
       <c r="K48" s="29">
-        <v>0.10089382569950602</v>
+        <v>0.10089826801018395</v>
       </c>
       <c r="L48" s="28">
         <v>5716</v>
       </c>
       <c r="M48" s="31">
-        <v>3.9288733700000002E-2</v>
+        <v>3.9287653530000001E-2</v>
       </c>
     </row>
     <row r="49" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3219,37 +3211,37 @@
         <v>2</v>
       </c>
       <c r="C49" s="19">
-        <v>118900</v>
+        <v>118905</v>
       </c>
       <c r="D49" s="20">
         <v>48</v>
       </c>
       <c r="E49" s="21">
-        <v>0.45341951203004977</v>
+        <v>0.45344263127173057</v>
       </c>
       <c r="F49" s="21">
-        <v>0.54658048796995029</v>
+        <v>0.54655736872826943</v>
       </c>
       <c r="G49" s="19">
-        <v>85997</v>
+        <v>86009</v>
       </c>
       <c r="H49" s="22">
-        <v>0.15859855576357315</v>
+        <v>0.1586113081189178</v>
       </c>
       <c r="I49" s="19">
-        <v>91549</v>
+        <v>91546</v>
       </c>
       <c r="J49" s="20">
         <v>9981</v>
       </c>
       <c r="K49" s="21">
-        <v>0.10902358299926815</v>
+        <v>0.10902715574683766</v>
       </c>
       <c r="L49" s="20">
         <v>5076</v>
       </c>
       <c r="M49" s="23">
-        <v>4.2691337250000003E-2</v>
+        <v>4.2689542070000003E-2</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3260,37 +3252,37 @@
         <v>3</v>
       </c>
       <c r="C50" s="7">
-        <v>95547</v>
+        <v>95545</v>
       </c>
       <c r="D50" s="5">
         <v>48</v>
       </c>
       <c r="E50" s="6">
-        <v>0.45761374871158417</v>
+        <v>0.4575966342361294</v>
       </c>
       <c r="F50" s="6">
-        <v>0.54238625128841578</v>
+        <v>0.5424033657638706</v>
       </c>
       <c r="G50" s="7">
-        <v>70996</v>
+        <v>70995</v>
       </c>
       <c r="H50" s="8">
-        <v>0.15981182038424699</v>
+        <v>0.15979998591450101</v>
       </c>
       <c r="I50" s="7">
-        <v>75882</v>
+        <v>75883</v>
       </c>
       <c r="J50" s="5">
         <v>8926</v>
       </c>
       <c r="K50" s="6">
-        <v>0.117630004480641</v>
+        <v>0.11762845433100957</v>
       </c>
       <c r="L50" s="5">
         <v>4079</v>
       </c>
       <c r="M50" s="10">
-        <v>4.2691031630000001E-2</v>
+        <v>4.269192527E-2</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3313,19 +3305,19 @@
         <v>0.53695518092105265</v>
       </c>
       <c r="G51" s="19">
-        <v>58785</v>
+        <v>58786</v>
       </c>
       <c r="H51" s="22">
-        <v>0.16061920557965467</v>
+        <v>0.16061647330997175</v>
       </c>
       <c r="I51" s="19">
-        <v>63997</v>
+        <v>63999</v>
       </c>
       <c r="J51" s="20">
         <v>7571</v>
       </c>
       <c r="K51" s="21">
-        <v>0.11830242042595747</v>
+        <v>0.1182987234175534</v>
       </c>
       <c r="L51" s="20">
         <v>3078</v>
@@ -3342,16 +3334,16 @@
         <v>5</v>
       </c>
       <c r="C52" s="7">
-        <v>64582</v>
+        <v>64585</v>
       </c>
       <c r="D52" s="5">
         <v>46</v>
       </c>
       <c r="E52" s="6">
-        <v>0.47302620311697208</v>
+        <v>0.47306638435670695</v>
       </c>
       <c r="F52" s="6">
-        <v>0.52697379688302792</v>
+        <v>0.52693361564329311</v>
       </c>
       <c r="G52" s="7">
         <v>49665</v>
@@ -3363,16 +3355,16 @@
         <v>53376</v>
       </c>
       <c r="J52" s="5">
-        <v>6511</v>
+        <v>6512</v>
       </c>
       <c r="K52" s="6">
-        <v>0.12198366306954436</v>
+        <v>0.12200239808153478</v>
       </c>
       <c r="L52" s="5">
-        <v>2245</v>
+        <v>2246</v>
       </c>
       <c r="M52" s="10">
-        <v>3.4762007980000002E-2</v>
+        <v>3.4775876749999997E-2</v>
       </c>
     </row>
     <row r="53" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3383,37 +3375,37 @@
         <v>6</v>
       </c>
       <c r="C53" s="19">
-        <v>50817</v>
+        <v>50814</v>
       </c>
       <c r="D53" s="20">
         <v>45</v>
       </c>
       <c r="E53" s="21">
-        <v>0.48351365785153388</v>
+        <v>0.48346322743996517</v>
       </c>
       <c r="F53" s="21">
-        <v>0.51648634214846612</v>
+        <v>0.51653677256003483</v>
       </c>
       <c r="G53" s="19">
-        <v>40045</v>
+        <v>40046</v>
       </c>
       <c r="H53" s="22">
-        <v>0.16578848795105505</v>
+        <v>0.16575937671677571</v>
       </c>
       <c r="I53" s="19">
-        <v>42413</v>
+        <v>42414</v>
       </c>
       <c r="J53" s="20">
-        <v>5238</v>
+        <v>5240</v>
       </c>
       <c r="K53" s="21">
-        <v>0.1234998703227784</v>
+        <v>0.12354411279294572</v>
       </c>
       <c r="L53" s="20">
         <v>1675</v>
       </c>
       <c r="M53" s="23">
-        <v>3.296141055E-2</v>
+        <v>3.2963356550000003E-2</v>
       </c>
     </row>
     <row r="54" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3430,25 +3422,25 @@
         <v>44</v>
       </c>
       <c r="E54" s="6">
-        <v>0.49093033501254624</v>
+        <v>0.49090142895452632</v>
       </c>
       <c r="F54" s="6">
-        <v>0.50906966498745376</v>
+        <v>0.50909857104547374</v>
       </c>
       <c r="G54" s="7">
-        <v>41713</v>
+        <v>41715</v>
       </c>
       <c r="H54" s="8">
-        <v>0.16270706973845084</v>
+        <v>0.16274721323265012</v>
       </c>
       <c r="I54" s="7">
         <v>43961</v>
       </c>
       <c r="J54" s="5">
-        <v>5153</v>
+        <v>5155</v>
       </c>
       <c r="K54" s="6">
-        <v>0.11721753372307273</v>
+        <v>0.11726302859352608</v>
       </c>
       <c r="L54" s="5">
         <v>1471</v>
@@ -3465,37 +3457,37 @@
         <v>8</v>
       </c>
       <c r="C55" s="19">
-        <v>56375</v>
+        <v>56383</v>
       </c>
       <c r="D55" s="20">
         <v>42</v>
       </c>
       <c r="E55" s="21">
-        <v>0.49628970548981227</v>
+        <v>0.4962724409729018</v>
       </c>
       <c r="F55" s="21">
-        <v>0.50371029451018778</v>
+        <v>0.5037275590270982</v>
       </c>
       <c r="G55" s="19">
-        <v>44943</v>
+        <v>44944</v>
       </c>
       <c r="H55" s="22">
-        <v>0.16087043588545491</v>
+        <v>0.16086685653257388</v>
       </c>
       <c r="I55" s="19">
-        <v>47174</v>
+        <v>47172</v>
       </c>
       <c r="J55" s="20">
-        <v>4853</v>
+        <v>4854</v>
       </c>
       <c r="K55" s="21">
-        <v>0.10287446474753043</v>
+        <v>0.10290002543881964</v>
       </c>
       <c r="L55" s="20">
         <v>1217</v>
       </c>
       <c r="M55" s="23">
-        <v>2.1587583140000002E-2</v>
+        <v>2.1584520150000001E-2</v>
       </c>
     </row>
     <row r="56" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3506,37 +3498,37 @@
         <v>9</v>
       </c>
       <c r="C56" s="7">
-        <v>58418</v>
+        <v>58427</v>
       </c>
       <c r="D56" s="5">
         <v>40</v>
       </c>
       <c r="E56" s="6">
-        <v>0.50608824085046455</v>
+        <v>0.50607871419740369</v>
       </c>
       <c r="F56" s="6">
-        <v>0.49391175914953545</v>
+        <v>0.49392128580259631</v>
       </c>
       <c r="G56" s="7">
-        <v>47203</v>
+        <v>47204</v>
       </c>
       <c r="H56" s="8">
-        <v>0.15956612927144462</v>
+        <v>0.15956274891958308</v>
       </c>
       <c r="I56" s="7">
-        <v>48718</v>
+        <v>48717</v>
       </c>
       <c r="J56" s="5">
-        <v>4445</v>
+        <v>4446</v>
       </c>
       <c r="K56" s="6">
-        <v>9.1239377642760369E-2</v>
+        <v>9.1261777203029748E-2</v>
       </c>
       <c r="L56" s="5">
         <v>1045</v>
       </c>
       <c r="M56" s="10">
-        <v>1.7888322089999999E-2</v>
+        <v>1.78855666E-2</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3547,37 +3539,37 @@
         <v>10</v>
       </c>
       <c r="C57" s="19">
-        <v>71365</v>
+        <v>71381</v>
       </c>
       <c r="D57" s="20">
         <v>39</v>
       </c>
       <c r="E57" s="21">
-        <v>0.50173696572481397</v>
+        <v>0.5017154588149273</v>
       </c>
       <c r="F57" s="21">
-        <v>0.49826303427518598</v>
+        <v>0.4982845411850727</v>
       </c>
       <c r="G57" s="19">
-        <v>57766</v>
+        <v>57771</v>
       </c>
       <c r="H57" s="22">
-        <v>0.16054426479243847</v>
+        <v>0.16053036990877775</v>
       </c>
       <c r="I57" s="19">
-        <v>58702</v>
+        <v>58700</v>
       </c>
       <c r="J57" s="32">
-        <v>4918</v>
+        <v>4919</v>
       </c>
       <c r="K57" s="21">
-        <v>8.3779087594971213E-2</v>
+        <v>8.3798977853492329E-2</v>
       </c>
       <c r="L57" s="32">
         <v>1095</v>
       </c>
       <c r="M57" s="23">
-        <v>1.534365585E-2</v>
+        <v>1.534021658E-2</v>
       </c>
     </row>
     <row r="58" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3588,37 +3580,37 @@
         <v>11</v>
       </c>
       <c r="C58" s="7">
-        <v>92622</v>
+        <v>92640</v>
       </c>
       <c r="D58" s="5">
         <v>39</v>
       </c>
       <c r="E58" s="6">
-        <v>0.50360787882727687</v>
+        <v>0.50355839119555446</v>
       </c>
       <c r="F58" s="6">
-        <v>0.49639212117272313</v>
+        <v>0.49644160880444554</v>
       </c>
       <c r="G58" s="7">
-        <v>74491</v>
+        <v>74493</v>
       </c>
       <c r="H58" s="8">
-        <v>0.15534762588769113</v>
+        <v>0.15534345508973998</v>
       </c>
       <c r="I58" s="7">
-        <v>75484</v>
+        <v>75483</v>
       </c>
       <c r="J58" s="5">
-        <v>5796</v>
+        <v>5797</v>
       </c>
       <c r="K58" s="6">
-        <v>7.6784484129086963E-2</v>
+        <v>7.679874938727925E-2</v>
       </c>
       <c r="L58" s="5">
         <v>1276</v>
       </c>
       <c r="M58" s="10">
-        <v>1.37764246E-2</v>
+        <v>1.3773747839999999E-2</v>
       </c>
     </row>
     <row r="59" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3629,37 +3621,37 @@
         <v>12</v>
       </c>
       <c r="C59" s="19">
-        <v>116294</v>
+        <v>116305</v>
       </c>
       <c r="D59" s="20">
         <v>38</v>
       </c>
       <c r="E59" s="21">
-        <v>0.50765180613698158</v>
+        <v>0.50762087238706777</v>
       </c>
       <c r="F59" s="21">
-        <v>0.49234819386301842</v>
+        <v>0.49237912761293218</v>
       </c>
       <c r="G59" s="19">
-        <v>91849</v>
+        <v>91850</v>
       </c>
       <c r="H59" s="22">
-        <v>0.16220100382148961</v>
+        <v>0.16219923788786064</v>
       </c>
       <c r="I59" s="19">
-        <v>94285</v>
+        <v>94286</v>
       </c>
       <c r="J59" s="32">
-        <v>6900</v>
+        <v>6901</v>
       </c>
       <c r="K59" s="21">
-        <v>7.3182372593731768E-2</v>
+        <v>7.3192202447871377E-2</v>
       </c>
       <c r="L59" s="32">
         <v>1520</v>
       </c>
       <c r="M59" s="23">
-        <v>1.3070321770000001E-2</v>
+        <v>1.306908559E-2</v>
       </c>
     </row>
     <row r="60" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3670,22 +3662,22 @@
         <v>13</v>
       </c>
       <c r="C60" s="7">
-        <v>110103</v>
+        <v>110107</v>
       </c>
       <c r="D60" s="5">
         <v>39</v>
       </c>
       <c r="E60" s="6">
-        <v>0.5113840486546124</v>
+        <v>0.5113698530216273</v>
       </c>
       <c r="F60" s="6">
-        <v>0.48861595134538754</v>
+        <v>0.48863014697837265</v>
       </c>
       <c r="G60" s="7">
-        <v>86381</v>
+        <v>86384</v>
       </c>
       <c r="H60" s="8">
-        <v>0.15702527176115119</v>
+        <v>0.15701981848490462</v>
       </c>
       <c r="I60" s="7">
         <v>89021</v>
@@ -3700,7 +3692,7 @@
         <v>1581</v>
       </c>
       <c r="M60" s="10">
-        <v>1.435928176E-2</v>
+        <v>1.435876011E-2</v>
       </c>
     </row>
     <row r="61" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3711,37 +3703,37 @@
         <v>14</v>
       </c>
       <c r="C61" s="19">
-        <v>118264</v>
+        <v>118255</v>
       </c>
       <c r="D61" s="20">
         <v>39</v>
       </c>
       <c r="E61" s="21">
-        <v>0.50714413060642338</v>
+        <v>0.50714031006435623</v>
       </c>
       <c r="F61" s="21">
-        <v>0.49285586939357667</v>
+        <v>0.49285968993564383</v>
       </c>
       <c r="G61" s="19">
-        <v>94364</v>
+        <v>94360</v>
       </c>
       <c r="H61" s="22">
-        <v>0.14063625959052181</v>
+        <v>0.14061042814752014</v>
       </c>
       <c r="I61" s="19">
-        <v>95114</v>
+        <v>95111</v>
       </c>
       <c r="J61" s="32">
         <v>7616</v>
       </c>
       <c r="K61" s="21">
-        <v>8.0072334251529736E-2</v>
+        <v>8.0074859900537268E-2</v>
       </c>
       <c r="L61" s="32">
         <v>1578</v>
       </c>
       <c r="M61" s="23">
-        <v>1.334302915E-2</v>
+        <v>1.334404464E-2</v>
       </c>
     </row>
     <row r="62" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3752,22 +3744,22 @@
         <v>15</v>
       </c>
       <c r="C62" s="7">
-        <v>142079</v>
+        <v>142081</v>
       </c>
       <c r="D62" s="5">
         <v>38</v>
       </c>
       <c r="E62" s="6">
-        <v>0.50963026837525882</v>
+        <v>0.5096406660823839</v>
       </c>
       <c r="F62" s="6">
-        <v>0.49036973162474112</v>
+        <v>0.4903593339176161</v>
       </c>
       <c r="G62" s="7">
-        <v>111839</v>
+        <v>111840</v>
       </c>
       <c r="H62" s="8">
-        <v>0.16122282924561199</v>
+        <v>0.16122138769670957</v>
       </c>
       <c r="I62" s="7">
         <v>114731</v>
@@ -3782,7 +3774,7 @@
         <v>1616</v>
       </c>
       <c r="M62" s="10">
-        <v>1.1373953920000001E-2</v>
+        <v>1.137379382E-2</v>
       </c>
     </row>
     <row r="63" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3793,22 +3785,22 @@
         <v>16</v>
       </c>
       <c r="C63" s="19">
-        <v>144777</v>
+        <v>144786</v>
       </c>
       <c r="D63" s="20">
         <v>37</v>
       </c>
       <c r="E63" s="21">
-        <v>0.51854524262144952</v>
+        <v>0.51854421334517353</v>
       </c>
       <c r="F63" s="21">
-        <v>0.48145475737855054</v>
+        <v>0.48145578665482647</v>
       </c>
       <c r="G63" s="19">
-        <v>113781</v>
+        <v>113784</v>
       </c>
       <c r="H63" s="22">
-        <v>0.17310447262724005</v>
+        <v>0.17309112001687407</v>
       </c>
       <c r="I63" s="19">
         <v>116953</v>
@@ -3823,7 +3815,7 @@
         <v>1608</v>
       </c>
       <c r="M63" s="23">
-        <v>1.110673656E-2</v>
+        <v>1.1106046160000001E-2</v>
       </c>
     </row>
     <row r="64" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3834,37 +3826,37 @@
         <v>17</v>
       </c>
       <c r="C64" s="7">
-        <v>124804</v>
+        <v>124807</v>
       </c>
       <c r="D64" s="5">
         <v>37</v>
       </c>
       <c r="E64" s="6">
-        <v>0.51960358097446302</v>
+        <v>0.51959908223644491</v>
       </c>
       <c r="F64" s="6">
-        <v>0.48039641902553698</v>
+        <v>0.48040091776355515</v>
       </c>
       <c r="G64" s="7">
         <v>99077</v>
       </c>
       <c r="H64" s="8">
-        <v>0.17461166567417261</v>
+        <v>0.17462175883403816</v>
       </c>
       <c r="I64" s="7">
-        <v>100369</v>
+        <v>100368</v>
       </c>
       <c r="J64" s="5">
         <v>6774</v>
       </c>
       <c r="K64" s="6">
-        <v>6.7490958363638179E-2</v>
+        <v>6.7491630798660926E-2</v>
       </c>
       <c r="L64" s="5">
         <v>1294</v>
       </c>
       <c r="M64" s="10">
-        <v>1.0368257420000001E-2</v>
+        <v>1.0368008200000001E-2</v>
       </c>
     </row>
     <row r="65" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3881,25 +3873,25 @@
         <v>37</v>
       </c>
       <c r="E65" s="21">
-        <v>0.51236545233879149</v>
+        <v>0.51237054943743099</v>
       </c>
       <c r="F65" s="21">
-        <v>0.48763454766120851</v>
+        <v>0.48762945056256901</v>
       </c>
       <c r="G65" s="19">
         <v>81632</v>
       </c>
       <c r="H65" s="22">
-        <v>0.17055811446491573</v>
+        <v>0.17054586436691493</v>
       </c>
       <c r="I65" s="19">
-        <v>82332</v>
+        <v>82330</v>
       </c>
       <c r="J65" s="32">
         <v>5530</v>
       </c>
       <c r="K65" s="21">
-        <v>6.7167079628819903E-2</v>
+        <v>6.7168711283857652E-2</v>
       </c>
       <c r="L65" s="32">
         <v>1003</v>
@@ -3922,25 +3914,25 @@
         <v>37</v>
       </c>
       <c r="E66" s="6">
-        <v>0.51044327146830126</v>
+        <v>0.51042183974913802</v>
       </c>
       <c r="F66" s="6">
-        <v>0.48955672853169874</v>
+        <v>0.48957816025086198</v>
       </c>
       <c r="G66" s="7">
         <v>57423</v>
       </c>
       <c r="H66" s="8">
-        <v>0.17458161363913413</v>
+        <v>0.17456419901433223</v>
       </c>
       <c r="I66" s="7">
-        <v>58129</v>
+        <v>58127</v>
       </c>
       <c r="J66" s="9">
         <v>4066</v>
       </c>
       <c r="K66" s="6">
-        <v>6.9947874554869338E-2</v>
+        <v>6.9950281280644108E-2</v>
       </c>
       <c r="L66" s="9">
         <v>665</v>
@@ -3957,37 +3949,37 @@
         <v>20</v>
       </c>
       <c r="C67" s="19">
-        <v>52698</v>
+        <v>52700</v>
       </c>
       <c r="D67" s="20">
         <v>36</v>
       </c>
       <c r="E67" s="21">
-        <v>0.50612906300638638</v>
+        <v>0.50610976609413427</v>
       </c>
       <c r="F67" s="21">
-        <v>0.49387093699361356</v>
+        <v>0.49389023390586578</v>
       </c>
       <c r="G67" s="19">
-        <v>42844</v>
+        <v>42845</v>
       </c>
       <c r="H67" s="22">
-        <v>0.1804920175520493</v>
+        <v>0.18048780487804877</v>
       </c>
       <c r="I67" s="19">
-        <v>43590</v>
+        <v>43593</v>
       </c>
       <c r="J67" s="32">
         <v>2795</v>
       </c>
       <c r="K67" s="21">
-        <v>6.4120211057582019E-2</v>
+        <v>6.4115798408001287E-2</v>
       </c>
       <c r="L67" s="32">
         <v>441</v>
       </c>
       <c r="M67" s="23">
-        <v>8.36843902E-3</v>
+        <v>8.3681214399999992E-3</v>
       </c>
     </row>
     <row r="68" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3998,16 +3990,16 @@
         <v>21</v>
       </c>
       <c r="C68" s="7">
-        <v>29894</v>
+        <v>29897</v>
       </c>
       <c r="D68" s="5">
         <v>35</v>
       </c>
       <c r="E68" s="6">
-        <v>0.51529926025554806</v>
+        <v>0.51529720279720281</v>
       </c>
       <c r="F68" s="6">
-        <v>0.48470073974445194</v>
+        <v>0.48470279720279719</v>
       </c>
       <c r="G68" s="7">
         <v>24296</v>
@@ -4016,19 +4008,19 @@
         <v>0.18661508067171551</v>
       </c>
       <c r="I68" s="7">
-        <v>24649</v>
+        <v>24647</v>
       </c>
       <c r="J68" s="5">
         <v>1721</v>
       </c>
       <c r="K68" s="6">
-        <v>6.9820276684652516E-2</v>
+        <v>6.9825942305351565E-2</v>
       </c>
       <c r="L68" s="5">
         <v>259</v>
       </c>
       <c r="M68" s="10">
-        <v>8.6639459400000007E-3</v>
+        <v>8.66307656E-3</v>
       </c>
     </row>
     <row r="69" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4039,16 +4031,16 @@
         <v>22</v>
       </c>
       <c r="C69" s="19">
-        <v>20685</v>
+        <v>20691</v>
       </c>
       <c r="D69" s="20">
         <v>34</v>
       </c>
       <c r="E69" s="21">
-        <v>0.50876086006892196</v>
+        <v>0.50870978698626812</v>
       </c>
       <c r="F69" s="21">
-        <v>0.49123913993107798</v>
+        <v>0.49129021301373188</v>
       </c>
       <c r="G69" s="19">
         <v>16663</v>
@@ -4057,19 +4049,19 @@
         <v>0.20020404488987578</v>
       </c>
       <c r="I69" s="19">
-        <v>17100</v>
+        <v>17103</v>
       </c>
       <c r="J69" s="32">
         <v>1142</v>
       </c>
       <c r="K69" s="21">
-        <v>6.6783625730994153E-2</v>
+        <v>6.6771911360580014E-2</v>
       </c>
       <c r="L69" s="32">
         <v>141</v>
       </c>
       <c r="M69" s="23">
-        <v>6.8165337200000002E-3</v>
+        <v>6.8145570500000004E-3</v>
       </c>
     </row>
     <row r="70" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4086,25 +4078,25 @@
         <v>33</v>
       </c>
       <c r="E70" s="29">
-        <v>0.51058806696236947</v>
+        <v>0.51044498497639146</v>
       </c>
       <c r="F70" s="29">
-        <v>0.48941193303763059</v>
+        <v>0.48955501502360854</v>
       </c>
       <c r="G70" s="27">
-        <v>11355</v>
+        <v>11356</v>
       </c>
       <c r="H70" s="30">
-        <v>0.22236900044033464</v>
+        <v>0.22234941880943995</v>
       </c>
       <c r="I70" s="27">
-        <v>11856</v>
+        <v>11854</v>
       </c>
       <c r="J70" s="33">
         <v>812</v>
       </c>
       <c r="K70" s="29">
-        <v>6.8488529014844798E-2</v>
+        <v>6.8500084359709806E-2</v>
       </c>
       <c r="L70" s="33">
         <v>66</v>
@@ -4162,16 +4154,16 @@
         <v>25</v>
       </c>
       <c r="C72" s="27">
-        <v>4844</v>
+        <v>4845</v>
       </c>
       <c r="D72" s="28">
         <v>32</v>
       </c>
       <c r="E72" s="29">
-        <v>0.53583264291632149</v>
+        <v>0.5357216815075585</v>
       </c>
       <c r="F72" s="29">
-        <v>0.46416735708367857</v>
+        <v>0.4642783184924415</v>
       </c>
       <c r="G72" s="27">
         <v>3946</v>
@@ -4180,19 +4172,19 @@
         <v>0.21363405980739991</v>
       </c>
       <c r="I72" s="27">
-        <v>4074</v>
+        <v>4075</v>
       </c>
       <c r="J72" s="33">
         <v>362</v>
       </c>
       <c r="K72" s="29">
-        <v>8.8856161021109478E-2</v>
+        <v>8.8834355828220857E-2</v>
       </c>
       <c r="L72" s="33">
         <v>30</v>
       </c>
       <c r="M72" s="31">
-        <v>6.19322873E-3</v>
+        <v>6.1919504599999998E-3</v>
       </c>
     </row>
     <row r="73" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4203,37 +4195,37 @@
         <v>26</v>
       </c>
       <c r="C73" s="19">
-        <v>4376</v>
+        <v>4377</v>
       </c>
       <c r="D73" s="20">
         <v>32</v>
       </c>
       <c r="E73" s="21">
-        <v>0.53266101306440528</v>
+        <v>0.53276810265811181</v>
       </c>
       <c r="F73" s="21">
-        <v>0.46733898693559478</v>
+        <v>0.46723189734188819</v>
       </c>
       <c r="G73" s="19">
-        <v>3667</v>
+        <v>3668</v>
       </c>
       <c r="H73" s="22">
-        <v>0.17207526588491956</v>
+        <v>0.17202835332606325</v>
       </c>
       <c r="I73" s="19">
-        <v>3729</v>
+        <v>3728</v>
       </c>
       <c r="J73" s="32">
         <v>318</v>
       </c>
       <c r="K73" s="21">
-        <v>8.527755430410297E-2</v>
+        <v>8.5300429184549359E-2</v>
       </c>
       <c r="L73" s="32">
         <v>24</v>
       </c>
       <c r="M73" s="23">
-        <v>5.4844606899999999E-3</v>
+        <v>5.4832076700000003E-3</v>
       </c>
     </row>
     <row r="74" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4244,16 +4236,16 @@
         <v>27</v>
       </c>
       <c r="C74" s="27">
-        <v>5580</v>
+        <v>5582</v>
       </c>
       <c r="D74" s="28">
         <v>32</v>
       </c>
       <c r="E74" s="29">
-        <v>0.53460363113428011</v>
+        <v>0.53441150044923624</v>
       </c>
       <c r="F74" s="29">
-        <v>0.46539636886571994</v>
+        <v>0.4655884995507637</v>
       </c>
       <c r="G74" s="27">
         <v>4781</v>
@@ -4271,10 +4263,10 @@
         <v>7.7481323372465313E-2</v>
       </c>
       <c r="L74" s="33">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M74" s="31">
-        <v>4.3010752600000004E-3</v>
+        <v>4.4786814699999998E-3</v>
       </c>
     </row>
     <row r="75" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4285,16 +4277,16 @@
         <v>28</v>
       </c>
       <c r="C75" s="19">
-        <v>9104</v>
+        <v>9107</v>
       </c>
       <c r="D75" s="20">
         <v>30</v>
       </c>
       <c r="E75" s="21">
-        <v>0.53687348200485763</v>
+        <v>0.53691645513740205</v>
       </c>
       <c r="F75" s="21">
-        <v>0.46312651799514243</v>
+        <v>0.46308354486259795</v>
       </c>
       <c r="G75" s="19">
         <v>7964</v>
@@ -4303,19 +4295,19 @@
         <v>0.12531391260673028</v>
       </c>
       <c r="I75" s="19">
-        <v>7609</v>
+        <v>7611</v>
       </c>
       <c r="J75" s="32">
         <v>413</v>
       </c>
       <c r="K75" s="21">
-        <v>5.4277828886844529E-2</v>
+        <v>5.4263565891472867E-2</v>
       </c>
       <c r="L75" s="32">
         <v>29</v>
       </c>
       <c r="M75" s="23">
-        <v>3.1854129999999998E-3</v>
+        <v>3.1843636699999999E-3</v>
       </c>
     </row>
     <row r="76" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4326,16 +4318,16 @@
         <v>29</v>
       </c>
       <c r="C76" s="27">
-        <v>12636</v>
+        <v>12637</v>
       </c>
       <c r="D76" s="28">
         <v>30</v>
       </c>
       <c r="E76" s="29">
-        <v>0.52214988885360436</v>
+        <v>0.52198761708207653</v>
       </c>
       <c r="F76" s="29">
-        <v>0.4778501111463957</v>
+        <v>0.47801238291792347</v>
       </c>
       <c r="G76" s="27">
         <v>11123</v>
@@ -4344,19 +4336,19 @@
         <v>0.1212802301537355</v>
       </c>
       <c r="I76" s="27">
-        <v>10383</v>
+        <v>10382</v>
       </c>
       <c r="J76" s="33">
         <v>586</v>
       </c>
       <c r="K76" s="29">
-        <v>5.6438408937686604E-2</v>
+        <v>5.6443845116547868E-2</v>
       </c>
       <c r="L76" s="33">
         <v>40</v>
       </c>
       <c r="M76" s="31">
-        <v>3.1655587199999999E-3</v>
+        <v>3.1653082199999999E-3</v>
       </c>
     </row>
     <row r="77" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4373,10 +4365,10 @@
         <v>31</v>
       </c>
       <c r="E77" s="21">
-        <v>0.52026152252718794</v>
+        <v>0.52016050741052355</v>
       </c>
       <c r="F77" s="21">
-        <v>0.47973847747281201</v>
+        <v>0.47983949258947639</v>
       </c>
       <c r="G77" s="19">
         <v>13658</v>
@@ -4408,22 +4400,22 @@
         <v>31</v>
       </c>
       <c r="C78" s="27">
-        <v>20417</v>
+        <v>20418</v>
       </c>
       <c r="D78" s="28">
         <v>30</v>
       </c>
       <c r="E78" s="29">
-        <v>0.51536910441154771</v>
+        <v>0.51534375922100917</v>
       </c>
       <c r="F78" s="29">
-        <v>0.48463089558845229</v>
+        <v>0.48465624077899083</v>
       </c>
       <c r="G78" s="27">
-        <v>17730</v>
+        <v>17733</v>
       </c>
       <c r="H78" s="30">
-        <v>0.12560631697687535</v>
+        <v>0.12564145942592905</v>
       </c>
       <c r="I78" s="27">
         <v>16160</v>
@@ -4435,10 +4427,10 @@
         <v>6.25E-2</v>
       </c>
       <c r="L78" s="33">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M78" s="31">
-        <v>4.2611549100000003E-3</v>
+        <v>4.30992261E-3</v>
       </c>
     </row>
     <row r="79" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4467,19 +4459,19 @@
         <v>0.12330362015644897</v>
       </c>
       <c r="I79" s="19">
-        <v>24872</v>
+        <v>24871</v>
       </c>
       <c r="J79" s="32">
         <v>1669</v>
       </c>
       <c r="K79" s="21">
-        <v>6.7103570279832742E-2</v>
+        <v>6.7106268344658437E-2</v>
       </c>
       <c r="L79" s="32">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M79" s="23">
-        <v>4.45899594E-3</v>
+        <v>4.4901777300000003E-3</v>
       </c>
     </row>
     <row r="80" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4490,16 +4482,16 @@
         <v>33</v>
       </c>
       <c r="C80" s="27">
-        <v>49645</v>
+        <v>49644</v>
       </c>
       <c r="D80" s="28">
         <v>29</v>
       </c>
       <c r="E80" s="29">
-        <v>0.51003446178795864</v>
+        <v>0.51002452918161734</v>
       </c>
       <c r="F80" s="29">
-        <v>0.48996553821204136</v>
+        <v>0.48997547081838272</v>
       </c>
       <c r="G80" s="27">
         <v>41105</v>
@@ -4508,19 +4500,19 @@
         <v>0.14925191582532538</v>
       </c>
       <c r="I80" s="27">
-        <v>38365</v>
+        <v>38366</v>
       </c>
       <c r="J80" s="33">
         <v>2354</v>
       </c>
       <c r="K80" s="29">
-        <v>6.1358008601589992E-2</v>
+        <v>6.1356409320752751E-2</v>
       </c>
       <c r="L80" s="33">
         <v>222</v>
       </c>
       <c r="M80" s="31">
-        <v>4.4717494199999997E-3</v>
+        <v>4.4718394899999998E-3</v>
       </c>
     </row>
     <row r="81" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4531,37 +4523,37 @@
         <v>34</v>
       </c>
       <c r="C81" s="19">
-        <v>66382</v>
+        <v>66380</v>
       </c>
       <c r="D81" s="20">
         <v>29</v>
       </c>
       <c r="E81" s="21">
-        <v>0.50956651038584677</v>
+        <v>0.50957453265355668</v>
       </c>
       <c r="F81" s="21">
-        <v>0.49043348961415328</v>
+        <v>0.49042546734644332</v>
       </c>
       <c r="G81" s="19">
-        <v>53342</v>
+        <v>53351</v>
       </c>
       <c r="H81" s="22">
-        <v>0.15801807206328972</v>
+        <v>0.15806639050814417</v>
       </c>
       <c r="I81" s="19">
-        <v>50866</v>
+        <v>50867</v>
       </c>
       <c r="J81" s="32">
-        <v>3189</v>
+        <v>3188</v>
       </c>
       <c r="K81" s="21">
-        <v>6.269413753784453E-2</v>
+        <v>6.2673245915819686E-2</v>
       </c>
       <c r="L81" s="32">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M81" s="23">
-        <v>5.1971919999999998E-3</v>
+        <v>5.2124133700000002E-3</v>
       </c>
     </row>
     <row r="82" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4572,37 +4564,37 @@
         <v>35</v>
       </c>
       <c r="C82" s="27">
-        <v>74742</v>
+        <v>74744</v>
       </c>
       <c r="D82" s="28">
         <v>30</v>
       </c>
       <c r="E82" s="29">
-        <v>0.50158520297343601</v>
+        <v>0.50158516020236088</v>
       </c>
       <c r="F82" s="29">
-        <v>0.49841479702656394</v>
+        <v>0.49841483979763912</v>
       </c>
       <c r="G82" s="27">
-        <v>58446</v>
+        <v>58448</v>
       </c>
       <c r="H82" s="30">
-        <v>0.16449372069944906</v>
+        <v>0.16448809197919517</v>
       </c>
       <c r="I82" s="27">
-        <v>56299</v>
+        <v>56301</v>
       </c>
       <c r="J82" s="33">
         <v>3265</v>
       </c>
       <c r="K82" s="29">
-        <v>5.7993925291745858E-2</v>
+        <v>5.7991865153372055E-2</v>
       </c>
       <c r="L82" s="33">
         <v>427</v>
       </c>
       <c r="M82" s="31">
-        <v>5.7129859999999998E-3</v>
+        <v>5.71283313E-3</v>
       </c>
     </row>
     <row r="83" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4613,37 +4605,37 @@
         <v>36</v>
       </c>
       <c r="C83" s="19">
-        <v>71675</v>
+        <v>71674</v>
       </c>
       <c r="D83" s="20">
         <v>30</v>
       </c>
       <c r="E83" s="21">
-        <v>0.50231126972306916</v>
+        <v>0.50228323333942193</v>
       </c>
       <c r="F83" s="21">
-        <v>0.49768873027693084</v>
+        <v>0.49771676666057807</v>
       </c>
       <c r="G83" s="19">
-        <v>56363</v>
+        <v>56368</v>
       </c>
       <c r="H83" s="22">
-        <v>0.15284849990241825</v>
+        <v>0.15285268237297758</v>
       </c>
       <c r="I83" s="19">
         <v>53945</v>
       </c>
       <c r="J83" s="32">
-        <v>3284</v>
+        <v>3286</v>
       </c>
       <c r="K83" s="21">
-        <v>6.0876818982296785E-2</v>
+        <v>6.0913893780702569E-2</v>
       </c>
       <c r="L83" s="32">
         <v>445</v>
       </c>
       <c r="M83" s="23">
-        <v>6.2085803900000002E-3</v>
+        <v>6.2086670200000001E-3</v>
       </c>
     </row>
     <row r="84" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4654,37 +4646,37 @@
         <v>37</v>
       </c>
       <c r="C84" s="27">
-        <v>61468</v>
+        <v>61472</v>
       </c>
       <c r="D84" s="28">
         <v>31</v>
       </c>
       <c r="E84" s="29">
-        <v>0.50609236816246317</v>
+        <v>0.50608368132318027</v>
       </c>
       <c r="F84" s="29">
-        <v>0.49390763183753683</v>
+        <v>0.49391631867681979</v>
       </c>
       <c r="G84" s="27">
-        <v>49169</v>
+        <v>49184</v>
       </c>
       <c r="H84" s="30">
-        <v>0.15373507697939759</v>
+        <v>0.15370852309694211</v>
       </c>
       <c r="I84" s="27">
-        <v>46607</v>
+        <v>46610</v>
       </c>
       <c r="J84" s="33">
         <v>2776</v>
       </c>
       <c r="K84" s="29">
-        <v>5.9561868388868622E-2</v>
+        <v>5.9558034756490026E-2</v>
       </c>
       <c r="L84" s="33">
         <v>383</v>
       </c>
       <c r="M84" s="31">
-        <v>6.2308843600000002E-3</v>
+        <v>6.2304789100000001E-3</v>
       </c>
     </row>
     <row r="85" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4695,22 +4687,22 @@
         <v>38</v>
       </c>
       <c r="C85" s="19">
-        <v>53609</v>
+        <v>53607</v>
       </c>
       <c r="D85" s="20">
         <v>31</v>
       </c>
       <c r="E85" s="21">
-        <v>0.49596335098193833</v>
+        <v>0.49594442358242585</v>
       </c>
       <c r="F85" s="21">
-        <v>0.50403664901806167</v>
+        <v>0.50405557641757415</v>
       </c>
       <c r="G85" s="19">
-        <v>42999</v>
+        <v>43000</v>
       </c>
       <c r="H85" s="22">
-        <v>0.145840600944208</v>
+        <v>0.14583720930232558</v>
       </c>
       <c r="I85" s="19">
         <v>40693</v>
@@ -4725,7 +4717,7 @@
         <v>350</v>
       </c>
       <c r="M85" s="23">
-        <v>6.5287545000000001E-3</v>
+        <v>6.52899807E-3</v>
       </c>
     </row>
     <row r="86" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4736,37 +4728,37 @@
         <v>39</v>
       </c>
       <c r="C86" s="27">
-        <v>56491</v>
+        <v>56490</v>
       </c>
       <c r="D86" s="28">
         <v>32</v>
       </c>
       <c r="E86" s="29">
-        <v>0.49975961966489202</v>
+        <v>0.49974181371414328</v>
       </c>
       <c r="F86" s="29">
-        <v>0.50024038033510798</v>
+        <v>0.50025818628585672</v>
       </c>
       <c r="G86" s="27">
-        <v>46281</v>
+        <v>46283</v>
       </c>
       <c r="H86" s="30">
-        <v>0.12765497720446836</v>
+        <v>0.1276494609251777</v>
       </c>
       <c r="I86" s="27">
-        <v>43418</v>
+        <v>43420</v>
       </c>
       <c r="J86" s="33">
-        <v>2542</v>
+        <v>2541</v>
       </c>
       <c r="K86" s="29">
-        <v>5.854714634483394E-2</v>
+        <v>5.8521418701059418E-2</v>
       </c>
       <c r="L86" s="33">
         <v>417</v>
       </c>
       <c r="M86" s="31">
-        <v>7.3817068200000002E-3</v>
+        <v>7.3818374900000002E-3</v>
       </c>
     </row>
     <row r="87" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4777,37 +4769,37 @@
         <v>40</v>
       </c>
       <c r="C87" s="19">
-        <v>58002</v>
+        <v>58004</v>
       </c>
       <c r="D87" s="20">
         <v>34</v>
       </c>
       <c r="E87" s="21">
-        <v>0.49862287585095877</v>
+        <v>0.49861428670408092</v>
       </c>
       <c r="F87" s="21">
-        <v>0.50137712414904123</v>
+        <v>0.50138571329591908</v>
       </c>
       <c r="G87" s="19">
-        <v>48378</v>
+        <v>48384</v>
       </c>
       <c r="H87" s="22">
-        <v>0.12356856422340734</v>
+        <v>0.12357390873015874</v>
       </c>
       <c r="I87" s="19">
-        <v>44488</v>
+        <v>44495</v>
       </c>
       <c r="J87" s="32">
         <v>2613</v>
       </c>
       <c r="K87" s="21">
-        <v>5.8734939759036146E-2</v>
+        <v>5.8725699516799637E-2</v>
       </c>
       <c r="L87" s="32">
         <v>482</v>
       </c>
       <c r="M87" s="23">
-        <v>8.3100582700000002E-3</v>
+        <v>8.3097717300000002E-3</v>
       </c>
     </row>
     <row r="88" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4818,37 +4810,37 @@
         <v>41</v>
       </c>
       <c r="C88" s="27">
-        <v>65352</v>
+        <v>65354</v>
       </c>
       <c r="D88" s="28">
         <v>34</v>
       </c>
       <c r="E88" s="29">
-        <v>0.49204641512333819</v>
+        <v>0.49204665959703076</v>
       </c>
       <c r="F88" s="29">
-        <v>0.50795358487666176</v>
+        <v>0.50795334040296924</v>
       </c>
       <c r="G88" s="27">
-        <v>54101</v>
+        <v>54125</v>
       </c>
       <c r="H88" s="30">
-        <v>0.10589453060017374</v>
+        <v>0.10584757505773672</v>
       </c>
       <c r="I88" s="27">
-        <v>49678</v>
+        <v>49683</v>
       </c>
       <c r="J88" s="33">
-        <v>3055</v>
+        <v>3056</v>
       </c>
       <c r="K88" s="29">
-        <v>6.1496034461934863E-2</v>
+        <v>6.1509973230279978E-2</v>
       </c>
       <c r="L88" s="33">
         <v>572</v>
       </c>
       <c r="M88" s="31">
-        <v>8.7526012900000002E-3</v>
+        <v>8.7523334399999993E-3</v>
       </c>
     </row>
     <row r="89" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4871,19 +4863,19 @@
         <v>0.50572028231033561</v>
       </c>
       <c r="G89" s="19">
-        <v>80260</v>
+        <v>80271</v>
       </c>
       <c r="H89" s="22">
-        <v>0.10043608273112385</v>
+        <v>0.10043477719226121</v>
       </c>
       <c r="I89" s="19">
-        <v>72841</v>
+        <v>72850</v>
       </c>
       <c r="J89" s="32">
         <v>4727</v>
       </c>
       <c r="K89" s="21">
-        <v>6.4894770802158122E-2</v>
+        <v>6.4886753603294448E-2</v>
       </c>
       <c r="L89" s="32">
         <v>1031</v>
@@ -4900,37 +4892,37 @@
         <v>43</v>
       </c>
       <c r="C90" s="27">
-        <v>137033</v>
+        <v>137031</v>
       </c>
       <c r="D90" s="28">
         <v>36</v>
       </c>
       <c r="E90" s="29">
-        <v>0.490245155607751</v>
+        <v>0.49023033221274537</v>
       </c>
       <c r="F90" s="29">
-        <v>0.50975484439224894</v>
+        <v>0.50976966778725463</v>
       </c>
       <c r="G90" s="27">
-        <v>109027</v>
+        <v>109106</v>
       </c>
       <c r="H90" s="30">
-        <v>0.10879873792730241</v>
+        <v>0.10874745660183674</v>
       </c>
       <c r="I90" s="27">
-        <v>99237</v>
+        <v>99264</v>
       </c>
       <c r="J90" s="33">
-        <v>5893</v>
+        <v>5896</v>
       </c>
       <c r="K90" s="29">
-        <v>5.9383092999586849E-2</v>
+        <v>5.9397163120567378E-2</v>
       </c>
       <c r="L90" s="33">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="M90" s="31">
-        <v>9.2021629799999994E-3</v>
+        <v>9.2095948999999996E-3</v>
       </c>
     </row>
     <row r="91" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4941,37 +4933,37 @@
         <v>44</v>
       </c>
       <c r="C91" s="19">
-        <v>177883</v>
+        <v>177881</v>
       </c>
       <c r="D91" s="20">
         <v>37</v>
       </c>
       <c r="E91" s="21">
-        <v>0.49176741898835058</v>
+        <v>0.4917504620758652</v>
       </c>
       <c r="F91" s="21">
-        <v>0.50823258101164936</v>
+        <v>0.50824953792413474</v>
       </c>
       <c r="G91" s="19">
-        <v>129396</v>
+        <v>129464</v>
       </c>
       <c r="H91" s="22">
-        <v>0.10389811122445826</v>
+        <v>0.10389760860161898</v>
       </c>
       <c r="I91" s="19">
-        <v>118929</v>
+        <v>118954</v>
       </c>
       <c r="J91" s="32">
-        <v>6987</v>
+        <v>6988</v>
       </c>
       <c r="K91" s="21">
-        <v>5.8749337840224E-2</v>
+        <v>5.8745397380500025E-2</v>
       </c>
       <c r="L91" s="32">
         <v>1649</v>
       </c>
       <c r="M91" s="23">
-        <v>9.2701382300000006E-3</v>
+        <v>9.2702424599999996E-3</v>
       </c>
     </row>
     <row r="92" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4982,37 +4974,37 @@
         <v>45</v>
       </c>
       <c r="C92" s="27">
-        <v>271298</v>
+        <v>271302</v>
       </c>
       <c r="D92" s="28">
         <v>36</v>
       </c>
       <c r="E92" s="29">
-        <v>0.49217019666329065</v>
+        <v>0.49218521032969398</v>
       </c>
       <c r="F92" s="29">
-        <v>0.50782980333670935</v>
+        <v>0.50781478967030602</v>
       </c>
       <c r="G92" s="27">
-        <v>170950</v>
+        <v>171402</v>
       </c>
       <c r="H92" s="30">
-        <v>0.10975723895875987</v>
+        <v>0.10954948016942626</v>
       </c>
       <c r="I92" s="27">
-        <v>167838</v>
+        <v>167898</v>
       </c>
       <c r="J92" s="33">
-        <v>8728</v>
+        <v>8727</v>
       </c>
       <c r="K92" s="29">
-        <v>5.2002526245546299E-2</v>
+        <v>5.1977986634742519E-2</v>
       </c>
       <c r="L92" s="33">
         <v>2239</v>
       </c>
       <c r="M92" s="31">
-        <v>8.2529174499999993E-3</v>
+        <v>8.2527957699999998E-3</v>
       </c>
     </row>
     <row r="93" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5023,37 +5015,37 @@
         <v>46</v>
       </c>
       <c r="C93" s="19">
-        <v>351730</v>
+        <v>351725</v>
       </c>
       <c r="D93" s="20">
         <v>36</v>
       </c>
       <c r="E93" s="21">
-        <v>0.49346933983201557</v>
+        <v>0.49345929816321971</v>
       </c>
       <c r="F93" s="21">
-        <v>0.50653066016798443</v>
+        <v>0.50654070183678024</v>
       </c>
       <c r="G93" s="19">
-        <v>197078</v>
+        <v>197740</v>
       </c>
       <c r="H93" s="22">
-        <v>0.11655791108089184</v>
+        <v>0.11634975219985839</v>
       </c>
       <c r="I93" s="19">
-        <v>203906</v>
+        <v>204079</v>
       </c>
       <c r="J93" s="32">
-        <v>10285</v>
+        <v>10293</v>
       </c>
       <c r="K93" s="21">
-        <v>5.0439908585328534E-2</v>
+        <v>5.0436350628923113E-2</v>
       </c>
       <c r="L93" s="32">
-        <v>2639</v>
+        <v>2640</v>
       </c>
       <c r="M93" s="23">
-        <v>7.5029141599999996E-3</v>
+        <v>7.5058639500000003E-3</v>
       </c>
     </row>
     <row r="94" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5064,37 +5056,37 @@
         <v>47</v>
       </c>
       <c r="C94" s="27">
-        <v>403343</v>
+        <v>403327</v>
       </c>
       <c r="D94" s="28">
         <v>36</v>
       </c>
       <c r="E94" s="29">
-        <v>0.49355455775925361</v>
+        <v>0.49354197466735927</v>
       </c>
       <c r="F94" s="29">
-        <v>0.50644544224074639</v>
+        <v>0.50645802533264073</v>
       </c>
       <c r="G94" s="27">
-        <v>205333</v>
+        <v>206517</v>
       </c>
       <c r="H94" s="30">
-        <v>0.11986383094777751</v>
+        <v>0.11971895776134653</v>
       </c>
       <c r="I94" s="27">
-        <v>218530</v>
+        <v>218935</v>
       </c>
       <c r="J94" s="33">
-        <v>10869</v>
+        <v>10880</v>
       </c>
       <c r="K94" s="29">
-        <v>4.973687823182172E-2</v>
+        <v>4.9695114988466897E-2</v>
       </c>
       <c r="L94" s="33">
-        <v>3009</v>
+        <v>3014</v>
       </c>
       <c r="M94" s="31">
-        <v>7.4601517800000003E-3</v>
+        <v>7.4728446100000004E-3</v>
       </c>
     </row>
     <row r="95" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5105,37 +5097,37 @@
         <v>48</v>
       </c>
       <c r="C95" s="19">
-        <v>388288</v>
+        <v>388278</v>
       </c>
       <c r="D95" s="20">
         <v>36</v>
       </c>
       <c r="E95" s="21">
-        <v>0.49572325934840006</v>
+        <v>0.49572984286132948</v>
       </c>
       <c r="F95" s="21">
-        <v>0.5042767406516</v>
+        <v>0.50427015713867052</v>
       </c>
       <c r="G95" s="19">
-        <v>187355</v>
+        <v>188033</v>
       </c>
       <c r="H95" s="22">
-        <v>0.12538763310293294</v>
+        <v>0.12522801848611681</v>
       </c>
       <c r="I95" s="19">
-        <v>206162</v>
+        <v>206479</v>
       </c>
       <c r="J95" s="32">
-        <v>10458</v>
+        <v>10470</v>
       </c>
       <c r="K95" s="21">
-        <v>5.0727098107313663E-2</v>
+        <v>5.070733585497799E-2</v>
       </c>
       <c r="L95" s="32">
-        <v>2787</v>
+        <v>2790</v>
       </c>
       <c r="M95" s="23">
-        <v>7.1776619399999998E-3</v>
+        <v>7.1855732199999998E-3</v>
       </c>
     </row>
     <row r="96" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5146,37 +5138,37 @@
         <v>49</v>
       </c>
       <c r="C96" s="27">
-        <v>338207</v>
+        <v>338199</v>
       </c>
       <c r="D96" s="28">
         <v>35</v>
       </c>
       <c r="E96" s="29">
-        <v>0.49206788909937926</v>
+        <v>0.49206178995466432</v>
       </c>
       <c r="F96" s="29">
-        <v>0.50793211090062074</v>
+        <v>0.50793821004533568</v>
       </c>
       <c r="G96" s="27">
-        <v>164852</v>
+        <v>165285</v>
       </c>
       <c r="H96" s="30">
-        <v>0.13236114818139907</v>
+        <v>0.13225035544665276</v>
       </c>
       <c r="I96" s="27">
-        <v>182763</v>
+        <v>182910</v>
       </c>
       <c r="J96" s="33">
-        <v>9604</v>
+        <v>9616</v>
       </c>
       <c r="K96" s="29">
-        <v>5.2548929487916042E-2</v>
+        <v>5.2572303318571975E-2</v>
       </c>
       <c r="L96" s="33">
-        <v>2435</v>
+        <v>2440</v>
       </c>
       <c r="M96" s="31">
-        <v>7.1997327000000002E-3</v>
+        <v>7.21468721E-3</v>
       </c>
     </row>
     <row r="97" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5187,37 +5179,37 @@
         <v>50</v>
       </c>
       <c r="C97" s="19">
-        <v>273618</v>
+        <v>273610</v>
       </c>
       <c r="D97" s="20">
         <v>34</v>
       </c>
       <c r="E97" s="21">
-        <v>0.49392201580940148</v>
+        <v>0.49392926206397708</v>
       </c>
       <c r="F97" s="21">
-        <v>0.50607798419059846</v>
+        <v>0.50607073793602286</v>
       </c>
       <c r="G97" s="19">
-        <v>135643</v>
+        <v>135928</v>
       </c>
       <c r="H97" s="22">
-        <v>0.1412973762007623</v>
+        <v>0.14105261609087164</v>
       </c>
       <c r="I97" s="19">
-        <v>151655</v>
+        <v>151688</v>
       </c>
       <c r="J97" s="32">
-        <v>7833</v>
+        <v>7835</v>
       </c>
       <c r="K97" s="21">
-        <v>5.165012693284099E-2</v>
+        <v>5.1652075312483517E-2</v>
       </c>
       <c r="L97" s="32">
-        <v>1906</v>
+        <v>1912</v>
       </c>
       <c r="M97" s="23">
-        <v>6.96591598E-3</v>
+        <v>6.9880486800000001E-3</v>
       </c>
     </row>
     <row r="98" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5228,37 +5220,37 @@
         <v>51</v>
       </c>
       <c r="C98" s="27">
-        <v>193939</v>
+        <v>193943</v>
       </c>
       <c r="D98" s="28">
         <v>34</v>
       </c>
       <c r="E98" s="29">
-        <v>0.49460920653770429</v>
+        <v>0.49459895833333334</v>
       </c>
       <c r="F98" s="29">
-        <v>0.50539079346229565</v>
+        <v>0.50540104166666666</v>
       </c>
       <c r="G98" s="27">
-        <v>97328</v>
+        <v>97501</v>
       </c>
       <c r="H98" s="30">
-        <v>0.15270014795331252</v>
+        <v>0.15257279412518845</v>
       </c>
       <c r="I98" s="27">
-        <v>107668</v>
+        <v>107690</v>
       </c>
       <c r="J98" s="33">
-        <v>5401</v>
+        <v>5404</v>
       </c>
       <c r="K98" s="29">
-        <v>5.0163465467919902E-2</v>
+        <v>5.0181075308756616E-2</v>
       </c>
       <c r="L98" s="33">
-        <v>1227</v>
+        <v>1229</v>
       </c>
       <c r="M98" s="31">
-        <v>6.3267315999999997E-3</v>
+        <v>6.3369134199999996E-3</v>
       </c>
     </row>
     <row r="99" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5269,37 +5261,37 @@
         <v>52</v>
       </c>
       <c r="C99" s="19">
-        <v>208739</v>
+        <v>208754</v>
       </c>
       <c r="D99" s="20">
         <v>35</v>
       </c>
       <c r="E99" s="21">
-        <v>0.48797566601705122</v>
+        <v>0.48798909154207687</v>
       </c>
       <c r="F99" s="21">
-        <v>0.51202433398294878</v>
+        <v>0.51201090845792319</v>
       </c>
       <c r="G99" s="19">
-        <v>103638</v>
+        <v>104043</v>
       </c>
       <c r="H99" s="22">
-        <v>0.12834095601999268</v>
+        <v>0.12833155522235998</v>
       </c>
       <c r="I99" s="19">
-        <v>115631</v>
+        <v>115832</v>
       </c>
       <c r="J99" s="32">
-        <v>5208</v>
+        <v>5218</v>
       </c>
       <c r="K99" s="21">
-        <v>4.5039824960434488E-2</v>
+        <v>4.5048000552524343E-2</v>
       </c>
       <c r="L99" s="32">
-        <v>973</v>
+        <v>976</v>
       </c>
       <c r="M99" s="23">
-        <v>4.6613234700000001E-3</v>
+        <v>4.6753595100000002E-3</v>
       </c>
     </row>
     <row r="100" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5310,37 +5302,37 @@
         <v>1</v>
       </c>
       <c r="C100" s="27">
-        <v>338137</v>
+        <v>338133</v>
       </c>
       <c r="D100" s="28">
         <v>33</v>
       </c>
       <c r="E100" s="29">
-        <v>0.49195657840725571</v>
+        <v>0.49196257089866396</v>
       </c>
       <c r="F100" s="29">
-        <v>0.50804342159274429</v>
+        <v>0.50803742910133598</v>
       </c>
       <c r="G100" s="27">
-        <v>152046</v>
+        <v>152546</v>
       </c>
       <c r="H100" s="30">
-        <v>0.13712955289846493</v>
+        <v>0.13721762615866689</v>
       </c>
       <c r="I100" s="27">
-        <v>183787</v>
+        <v>183973</v>
       </c>
       <c r="J100" s="33">
-        <v>5140</v>
+        <v>5152</v>
       </c>
       <c r="K100" s="29">
-        <v>2.7967157633564943E-2</v>
+        <v>2.8004109298647085E-2</v>
       </c>
       <c r="L100" s="33">
-        <v>800</v>
+        <v>804</v>
       </c>
       <c r="M100" s="31">
-        <v>2.36590494E-3</v>
+        <v>2.3777625900000001E-3</v>
       </c>
     </row>
     <row r="101" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5351,37 +5343,37 @@
         <v>2</v>
       </c>
       <c r="C101" s="37">
-        <v>486064</v>
+        <v>486069</v>
       </c>
       <c r="D101" s="38">
         <v>31</v>
       </c>
       <c r="E101" s="39">
-        <v>0.49718404717372583</v>
+        <v>0.49718310446491493</v>
       </c>
       <c r="F101" s="39">
-        <v>0.50281595282627412</v>
+        <v>0.50281689553508502</v>
       </c>
       <c r="G101" s="37">
-        <v>171876</v>
+        <v>173393</v>
       </c>
       <c r="H101" s="40">
-        <v>0.16292559752379623</v>
+        <v>0.16295352176846817</v>
       </c>
       <c r="I101" s="37">
-        <v>239017</v>
+        <v>240161</v>
       </c>
       <c r="J101" s="41">
-        <v>4972</v>
+        <v>4990</v>
       </c>
       <c r="K101" s="39">
-        <v>2.0801867649581411E-2</v>
+        <v>2.077772827394956E-2</v>
       </c>
       <c r="L101" s="41">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="M101" s="42">
-        <v>1.30435498E-3</v>
+        <v>1.31257084E-3</v>
       </c>
     </row>
     <row r="102" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5392,37 +5384,37 @@
         <v>3</v>
       </c>
       <c r="C102" s="7">
-        <v>796065</v>
+        <v>796101</v>
       </c>
       <c r="D102" s="5">
         <v>30</v>
       </c>
       <c r="E102" s="6">
-        <v>0.49626973895200044</v>
+        <v>0.49625979448353225</v>
       </c>
       <c r="F102" s="6">
-        <v>0.50373026104799956</v>
+        <v>0.50374020551646781</v>
       </c>
       <c r="G102" s="7">
-        <v>216574</v>
+        <v>217764</v>
       </c>
       <c r="H102" s="8">
-        <v>0.16141365076140257</v>
+        <v>0.16131683841222608</v>
       </c>
       <c r="I102" s="7">
-        <v>344014</v>
+        <v>344946</v>
       </c>
       <c r="J102" s="9">
-        <v>6533</v>
+        <v>6577</v>
       </c>
       <c r="K102" s="6">
-        <v>1.8990506200329056E-2</v>
+        <v>1.9066752477199328E-2</v>
       </c>
       <c r="L102" s="9">
-        <v>753</v>
+        <v>767</v>
       </c>
       <c r="M102" s="10">
-        <v>9.4590264999999999E-4</v>
+        <v>9.6344558999999998E-4</v>
       </c>
     </row>
     <row r="103" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5433,37 +5425,37 @@
         <v>4</v>
       </c>
       <c r="C103" s="37">
-        <v>1110168</v>
+        <v>1110543</v>
       </c>
       <c r="D103" s="38">
         <v>30</v>
       </c>
       <c r="E103" s="39">
-        <v>0.49029713812729364</v>
+        <v>0.49030329435368719</v>
       </c>
       <c r="F103" s="39">
-        <v>0.50970286187270641</v>
+        <v>0.50969670564631275</v>
       </c>
       <c r="G103" s="37">
-        <v>232802</v>
+        <v>234657</v>
       </c>
       <c r="H103" s="40">
-        <v>0.16285513011056607</v>
+        <v>0.16259476597757577</v>
       </c>
       <c r="I103" s="37">
-        <v>440071</v>
+        <v>441652</v>
       </c>
       <c r="J103" s="41">
-        <v>7813</v>
+        <v>7871</v>
       </c>
       <c r="K103" s="39">
-        <v>1.7753953339347515E-2</v>
+        <v>1.7821723891208462E-2</v>
       </c>
       <c r="L103" s="41">
-        <v>932</v>
+        <v>958</v>
       </c>
       <c r="M103" s="42">
-        <v>8.3951257000000005E-4</v>
+        <v>8.6264106000000001E-4</v>
       </c>
     </row>
     <row r="104" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5474,37 +5466,37 @@
         <v>5</v>
       </c>
       <c r="C104" s="7">
-        <v>1289190</v>
+        <v>1289467</v>
       </c>
       <c r="D104" s="5">
         <v>31</v>
       </c>
       <c r="E104" s="6">
-        <v>0.48599616346206154</v>
+        <v>0.48601055542464816</v>
       </c>
       <c r="F104" s="6">
-        <v>0.51400383653793846</v>
+        <v>0.51398944457535178</v>
       </c>
       <c r="G104" s="7">
-        <v>239721</v>
+        <v>241250</v>
       </c>
       <c r="H104" s="8">
-        <v>0.15530137117732698</v>
+        <v>0.15484766839378239</v>
       </c>
       <c r="I104" s="7">
-        <v>478093</v>
+        <v>479248</v>
       </c>
       <c r="J104" s="9">
-        <v>9406</v>
+        <v>9481</v>
       </c>
       <c r="K104" s="6">
-        <v>1.967399648185604E-2</v>
+        <v>1.9783076820351884E-2</v>
       </c>
       <c r="L104" s="9">
-        <v>1182</v>
+        <v>1224</v>
       </c>
       <c r="M104" s="10">
-        <v>9.1685476000000004E-4</v>
+        <v>9.4922940999999999E-4</v>
       </c>
     </row>
     <row r="105" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5515,37 +5507,37 @@
         <v>6</v>
       </c>
       <c r="C105" s="37">
-        <v>1306711</v>
+        <v>1306768</v>
       </c>
       <c r="D105" s="38">
         <v>32</v>
       </c>
       <c r="E105" s="39">
-        <v>0.48201979945430168</v>
+        <v>0.48202193543169441</v>
       </c>
       <c r="F105" s="39">
-        <v>0.51798020054569838</v>
+        <v>0.51797806456830564</v>
       </c>
       <c r="G105" s="37">
-        <v>246566</v>
+        <v>248530</v>
       </c>
       <c r="H105" s="40">
-        <v>0.14764403851301477</v>
+        <v>0.14712911922101959</v>
       </c>
       <c r="I105" s="37">
-        <v>500568</v>
+        <v>502031</v>
       </c>
       <c r="J105" s="41">
-        <v>9611</v>
+        <v>9744</v>
       </c>
       <c r="K105" s="39">
-        <v>1.9200188585766571E-2</v>
+        <v>1.9409159992112041E-2</v>
       </c>
       <c r="L105" s="41">
-        <v>1309</v>
+        <v>1370</v>
       </c>
       <c r="M105" s="42">
-        <v>1.0017517200000001E-3</v>
+        <v>1.04838808E-3</v>
       </c>
     </row>
     <row r="106" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5556,37 +5548,37 @@
         <v>7</v>
       </c>
       <c r="C106" s="7">
-        <v>1190075</v>
+        <v>1190319</v>
       </c>
       <c r="D106" s="5">
         <v>33</v>
       </c>
       <c r="E106" s="6">
-        <v>0.4804175227767245</v>
+        <v>0.48043045990254057</v>
       </c>
       <c r="F106" s="6">
-        <v>0.51958247722327544</v>
+        <v>0.51956954009745937</v>
       </c>
       <c r="G106" s="7">
-        <v>214666</v>
+        <v>217986</v>
       </c>
       <c r="H106" s="8">
-        <v>0.14510448790213634</v>
+        <v>0.14531667171286231</v>
       </c>
       <c r="I106" s="7">
-        <v>465128</v>
+        <v>466722</v>
       </c>
       <c r="J106" s="9">
-        <v>9523</v>
+        <v>9713</v>
       </c>
       <c r="K106" s="6">
-        <v>2.0473934056861768E-2</v>
+        <v>2.0811103826260599E-2</v>
       </c>
       <c r="L106" s="9">
-        <v>1195</v>
+        <v>1316</v>
       </c>
       <c r="M106" s="10">
-        <v>1.0041383900000001E-3</v>
+        <v>1.1055859800000001E-3</v>
       </c>
     </row>
     <row r="107" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5597,37 +5589,37 @@
         <v>8</v>
       </c>
       <c r="C107" s="19">
-        <v>1089658</v>
+        <v>1090173</v>
       </c>
       <c r="D107" s="20">
         <v>34</v>
       </c>
       <c r="E107" s="21">
-        <v>0.47659470583375646</v>
+        <v>0.47655147523401209</v>
       </c>
       <c r="F107" s="21">
-        <v>0.5234052941662436</v>
+        <v>0.52344852476598791</v>
       </c>
       <c r="G107" s="19">
-        <v>194629</v>
+        <v>198068</v>
       </c>
       <c r="H107" s="22">
-        <v>0.14045183400212713</v>
+        <v>0.14053254437869822</v>
       </c>
       <c r="I107" s="19">
-        <v>417703</v>
+        <v>424451</v>
       </c>
       <c r="J107" s="32">
-        <v>8801</v>
+        <v>9150</v>
       </c>
       <c r="K107" s="21">
-        <v>2.1069994709159379E-2</v>
+        <v>2.1557258670612155E-2</v>
       </c>
       <c r="L107" s="32">
-        <v>850</v>
+        <v>1033</v>
       </c>
       <c r="M107" s="23">
-        <v>7.8006126000000002E-4</v>
+        <v>9.4755602999999999E-4</v>
       </c>
     </row>
     <row r="108" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5638,37 +5630,37 @@
         <v>9</v>
       </c>
       <c r="C108" s="7">
-        <v>1122851</v>
+        <v>1124016</v>
       </c>
       <c r="D108" s="5">
         <v>35</v>
       </c>
       <c r="E108" s="6">
-        <v>0.47344956998921933</v>
+        <v>0.47346020425054158</v>
       </c>
       <c r="F108" s="6">
-        <v>0.52655043001078061</v>
+        <v>0.52653979574945842</v>
       </c>
       <c r="G108" s="7">
-        <v>185077</v>
+        <v>191782</v>
       </c>
       <c r="H108" s="8">
-        <v>0.13030252273378107</v>
+        <v>0.13142004984826522</v>
       </c>
       <c r="I108" s="7">
-        <v>433042</v>
+        <v>437983</v>
       </c>
       <c r="J108" s="9">
-        <v>7980</v>
+        <v>8502</v>
       </c>
       <c r="K108" s="6">
-        <v>1.8427773749428462E-2</v>
+        <v>1.9411712326734144E-2</v>
       </c>
       <c r="L108" s="9">
-        <v>589</v>
+        <v>838</v>
       </c>
       <c r="M108" s="10">
-        <v>5.2455757000000004E-4</v>
+        <v>7.4554098000000004E-4</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5679,42 +5671,83 @@
         <v>10</v>
       </c>
       <c r="C109" s="19">
-        <v>1373052</v>
+        <v>1393135</v>
       </c>
       <c r="D109" s="20">
         <v>35</v>
       </c>
       <c r="E109" s="21">
-        <v>0.47983549740282266</v>
+        <v>0.4799588133792797</v>
       </c>
       <c r="F109" s="21">
-        <v>0.52016450259717739</v>
+        <v>0.5200411866207203</v>
       </c>
       <c r="G109" s="19">
-        <v>160798</v>
+        <v>194410</v>
       </c>
       <c r="H109" s="22">
-        <v>0.12212838468140151</v>
+        <v>0.1326577850933594</v>
       </c>
       <c r="I109" s="19">
-        <v>484434</v>
+        <v>514788</v>
       </c>
       <c r="J109" s="32">
-        <v>7478</v>
+        <v>9171</v>
       </c>
       <c r="K109" s="21">
-        <v>1.5436571338923363E-2</v>
+        <v>1.7815100585095223E-2</v>
       </c>
       <c r="L109" s="32">
-        <v>275</v>
+        <v>619</v>
       </c>
       <c r="M109" s="23">
-        <v>2.0028373999999999E-4</v>
+        <v>4.4432161000000002E-4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A110" s="17">
+        <v>2022</v>
+      </c>
+      <c r="B110" s="4">
+        <v>11</v>
+      </c>
+      <c r="C110" s="7">
+        <v>1528376</v>
+      </c>
+      <c r="D110" s="5">
+        <v>36</v>
+      </c>
+      <c r="E110" s="6">
+        <v>0.48163589844935056</v>
+      </c>
+      <c r="F110" s="6">
+        <v>0.51836410155064938</v>
+      </c>
+      <c r="G110" s="7">
+        <v>145630</v>
+      </c>
+      <c r="H110" s="8">
+        <v>0.13463572066195151</v>
+      </c>
+      <c r="I110" s="7">
+        <v>518309</v>
+      </c>
+      <c r="J110" s="9">
+        <v>7884</v>
+      </c>
+      <c r="K110" s="6">
+        <v>1.5211003474761195E-2</v>
+      </c>
+      <c r="L110" s="9">
+        <v>298</v>
+      </c>
+      <c r="M110" s="10">
+        <v>1.9497819E-4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5723,7 +5756,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5735,7 +5768,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="43" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B3" s="43"/>
       <c r="C3" s="43"/>
@@ -5762,22 +5795,22 @@
       <c r="K4" s="43"/>
     </row>
     <row r="5" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="69"/>
-      <c r="K5" s="70"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="68"/>
     </row>
     <row r="6" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="66" t="s">
+      <c r="A6" s="65" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="46" t="s">
@@ -5816,34 +5849,34 @@
         <v>26</v>
       </c>
       <c r="B7" s="47">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C7" s="47">
         <v>14</v>
       </c>
       <c r="D7" s="47">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E7" s="47">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="F7" s="47">
-        <v>891</v>
+        <v>895</v>
       </c>
       <c r="G7" s="47">
-        <v>3548</v>
+        <v>3569</v>
       </c>
       <c r="H7" s="47">
-        <v>8584</v>
+        <v>8662</v>
       </c>
       <c r="I7" s="47">
-        <v>16507</v>
+        <v>16653</v>
       </c>
       <c r="J7" s="47">
-        <v>28183</v>
+        <v>28512</v>
       </c>
       <c r="K7" s="52">
-        <v>8995</v>
+        <v>9119</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5851,34 +5884,34 @@
         <v>27</v>
       </c>
       <c r="B8" s="48">
+        <v>23</v>
+      </c>
+      <c r="C8" s="48">
         <v>19</v>
       </c>
-      <c r="C8" s="48">
-        <v>18</v>
-      </c>
       <c r="D8" s="48">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E8" s="48">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="F8" s="48">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="G8" s="48">
-        <v>1466</v>
+        <v>1477</v>
       </c>
       <c r="H8" s="48">
-        <v>3914</v>
+        <v>3956</v>
       </c>
       <c r="I8" s="48">
-        <v>9523</v>
+        <v>9615</v>
       </c>
       <c r="J8" s="48">
-        <v>26611</v>
+        <v>26916</v>
       </c>
       <c r="K8" s="53">
-        <v>16584</v>
+        <v>16799</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5887,43 +5920,43 @@
       </c>
       <c r="B9" s="49">
         <f>B7+B8</f>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C9" s="49">
         <f t="shared" ref="C9:K9" si="0">C7+C8</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D9" s="49">
         <f t="shared" si="0"/>
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E9" s="49">
         <f t="shared" si="0"/>
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="F9" s="49">
         <f t="shared" si="0"/>
-        <v>1319</v>
+        <v>1325</v>
       </c>
       <c r="G9" s="49">
         <f t="shared" si="0"/>
-        <v>5014</v>
+        <v>5046</v>
       </c>
       <c r="H9" s="49">
         <f>H7+H8</f>
-        <v>12498</v>
+        <v>12618</v>
       </c>
       <c r="I9" s="49">
         <f t="shared" si="0"/>
-        <v>26030</v>
+        <v>26268</v>
       </c>
       <c r="J9" s="49">
         <f t="shared" si="0"/>
-        <v>54794</v>
+        <v>55428</v>
       </c>
       <c r="K9" s="54">
         <f t="shared" si="0"/>
-        <v>25579</v>
+        <v>25918</v>
       </c>
     </row>
   </sheetData>
@@ -5931,28 +5964,28 @@
     <mergeCell ref="A5:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AE40E1E-E7DF-4299-B33E-6C3A1582C179}">
-  <dimension ref="A1:H113"/>
+  <dimension ref="A1:H114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="55" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="56" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
@@ -6105,10 +6138,10 @@
         <v>16</v>
       </c>
       <c r="E11" s="56">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F11" s="56">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="G11" s="56">
         <v>2219</v>
@@ -6238,7 +6271,7 @@
         <v>107</v>
       </c>
       <c r="F16" s="56">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="G16" s="56">
         <v>513</v>
@@ -6264,7 +6297,7 @@
         <v>91</v>
       </c>
       <c r="F17" s="56">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G17" s="56">
         <v>383</v>
@@ -6909,10 +6942,10 @@
         <v>52</v>
       </c>
       <c r="E42" s="56">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="F42" s="56">
-        <v>1521</v>
+        <v>1519</v>
       </c>
       <c r="G42" s="56">
         <v>2111</v>
@@ -6938,7 +6971,7 @@
         <v>603</v>
       </c>
       <c r="F43" s="56">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="G43" s="56">
         <v>2416</v>
@@ -6967,7 +7000,7 @@
         <v>1744</v>
       </c>
       <c r="G44" s="56">
-        <v>2627</v>
+        <v>2628</v>
       </c>
       <c r="H44" s="56">
         <v>2519</v>
@@ -7013,10 +7046,10 @@
         <v>67</v>
       </c>
       <c r="E46" s="56">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="F46" s="56">
-        <v>1722</v>
+        <v>1723</v>
       </c>
       <c r="G46" s="56">
         <v>2876</v>
@@ -7042,13 +7075,13 @@
         <v>610</v>
       </c>
       <c r="F47" s="56">
-        <v>1688</v>
+        <v>1689</v>
       </c>
       <c r="G47" s="56">
         <v>3202</v>
       </c>
       <c r="H47" s="56">
-        <v>3629</v>
+        <v>3628</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.35">
@@ -7074,7 +7107,7 @@
         <v>3975</v>
       </c>
       <c r="H48" s="56">
-        <v>4561</v>
+        <v>4560</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.35">
@@ -7091,7 +7124,7 @@
         <v>84</v>
       </c>
       <c r="E49" s="56">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="F49" s="56">
         <v>2205</v>
@@ -7172,7 +7205,7 @@
         <v>595</v>
       </c>
       <c r="F52" s="56">
-        <v>1845</v>
+        <v>1846</v>
       </c>
       <c r="G52" s="56">
         <v>4008</v>
@@ -7201,7 +7234,7 @@
         <v>1614</v>
       </c>
       <c r="G53" s="56">
-        <v>3457</v>
+        <v>3458</v>
       </c>
       <c r="H53" s="56">
         <v>4266</v>
@@ -7279,7 +7312,7 @@
         <v>1153</v>
       </c>
       <c r="G56" s="56">
-        <v>2378</v>
+        <v>2379</v>
       </c>
       <c r="H56" s="56">
         <v>2540</v>
@@ -7302,13 +7335,13 @@
         <v>308</v>
       </c>
       <c r="F57" s="56">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="G57" s="56">
         <v>1972</v>
       </c>
       <c r="H57" s="56">
-        <v>1905</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.35">
@@ -7334,7 +7367,7 @@
         <v>2012</v>
       </c>
       <c r="H58" s="56">
-        <v>1705</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.35">
@@ -7354,7 +7387,7 @@
         <v>327</v>
       </c>
       <c r="F59" s="56">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="G59" s="56">
         <v>1823</v>
@@ -7377,7 +7410,7 @@
         <v>28</v>
       </c>
       <c r="E60" s="56">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="F60" s="56">
         <v>1067</v>
@@ -7406,7 +7439,7 @@
         <v>411</v>
       </c>
       <c r="F61" s="56">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="G61" s="56">
         <v>1747</v>
@@ -7435,7 +7468,7 @@
         <v>1647</v>
       </c>
       <c r="G62" s="56">
-        <v>2181</v>
+        <v>2182</v>
       </c>
       <c r="H62" s="56">
         <v>1319</v>
@@ -7455,7 +7488,7 @@
         <v>91</v>
       </c>
       <c r="E63" s="56">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="F63" s="56">
         <v>1997</v>
@@ -8030,13 +8063,13 @@
         <v>651</v>
       </c>
       <c r="F85" s="56">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="G85" s="56">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H85" s="56">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.35">
@@ -8079,10 +8112,10 @@
         <v>84</v>
       </c>
       <c r="E87" s="56">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="F87" s="56">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="G87" s="56">
         <v>793</v>
@@ -8157,7 +8190,7 @@
         <v>54</v>
       </c>
       <c r="E90" s="56">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F90" s="56">
         <v>799</v>
@@ -8218,7 +8251,7 @@
         <v>937</v>
       </c>
       <c r="H92" s="56">
-        <v>776</v>
+        <v>777</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.35">
@@ -8264,13 +8297,13 @@
         <v>543</v>
       </c>
       <c r="F94" s="56">
-        <v>1540</v>
+        <v>1541</v>
       </c>
       <c r="G94" s="56">
-        <v>1863</v>
+        <v>1864</v>
       </c>
       <c r="H94" s="56">
-        <v>1787</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.35">
@@ -8293,7 +8326,7 @@
         <v>1687</v>
       </c>
       <c r="G95" s="56">
-        <v>2250</v>
+        <v>2251</v>
       </c>
       <c r="H95" s="56">
         <v>2271</v>
@@ -8313,7 +8346,7 @@
         <v>152</v>
       </c>
       <c r="E96" s="56">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="F96" s="56">
         <v>2106</v>
@@ -8339,16 +8372,16 @@
         <v>219</v>
       </c>
       <c r="E97" s="56">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="F97" s="56">
-        <v>2489</v>
+        <v>2488</v>
       </c>
       <c r="G97" s="56">
-        <v>3508</v>
+        <v>3512</v>
       </c>
       <c r="H97" s="56">
-        <v>3149</v>
+        <v>3153</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.35">
@@ -8368,13 +8401,13 @@
         <v>782</v>
       </c>
       <c r="F98" s="56">
-        <v>2648</v>
+        <v>2653</v>
       </c>
       <c r="G98" s="56">
-        <v>3854</v>
+        <v>3857</v>
       </c>
       <c r="H98" s="56">
-        <v>3247</v>
+        <v>3250</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.35">
@@ -8388,19 +8421,19 @@
         <v>158</v>
       </c>
       <c r="D99" s="56">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E99" s="56">
         <v>793</v>
       </c>
       <c r="F99" s="56">
-        <v>2634</v>
+        <v>2636</v>
       </c>
       <c r="G99" s="56">
-        <v>3704</v>
+        <v>3707</v>
       </c>
       <c r="H99" s="56">
-        <v>2955</v>
+        <v>2960</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.35">
@@ -8414,19 +8447,19 @@
         <v>143</v>
       </c>
       <c r="D100" s="56">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E100" s="56">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="F100" s="56">
-        <v>2348</v>
+        <v>2351</v>
       </c>
       <c r="G100" s="56">
-        <v>3433</v>
+        <v>3435</v>
       </c>
       <c r="H100" s="56">
-        <v>2718</v>
+        <v>2723</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.35">
@@ -8437,7 +8470,7 @@
         <v>83</v>
       </c>
       <c r="C101" s="56">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D101" s="56">
         <v>153</v>
@@ -8446,13 +8479,13 @@
         <v>673</v>
       </c>
       <c r="F101" s="56">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="G101" s="56">
-        <v>2811</v>
+        <v>2813</v>
       </c>
       <c r="H101" s="56">
-        <v>2219</v>
+        <v>2221</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.35">
@@ -8472,13 +8505,13 @@
         <v>493</v>
       </c>
       <c r="F102" s="56">
-        <v>1353</v>
+        <v>1355</v>
       </c>
       <c r="G102" s="56">
         <v>1866</v>
       </c>
       <c r="H102" s="56">
-        <v>1468</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.35">
@@ -8489,22 +8522,22 @@
         <v>85</v>
       </c>
       <c r="C103" s="56">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D103" s="56">
         <v>67</v>
       </c>
       <c r="E103" s="56">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="F103" s="56">
-        <v>1363</v>
+        <v>1365</v>
       </c>
       <c r="G103" s="56">
-        <v>1725</v>
+        <v>1728</v>
       </c>
       <c r="H103" s="56">
-        <v>1320</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.35">
@@ -8524,13 +8557,13 @@
         <v>890</v>
       </c>
       <c r="F104" s="56">
-        <v>1266</v>
+        <v>1270</v>
       </c>
       <c r="G104" s="56">
-        <v>1514</v>
+        <v>1517</v>
       </c>
       <c r="H104" s="56">
-        <v>1187</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.35">
@@ -8547,16 +8580,16 @@
         <v>195</v>
       </c>
       <c r="E105" s="56">
-        <v>902</v>
+        <v>908</v>
       </c>
       <c r="F105" s="56">
-        <v>1333</v>
+        <v>1337</v>
       </c>
       <c r="G105" s="56">
-        <v>1241</v>
+        <v>1245</v>
       </c>
       <c r="H105" s="56">
-        <v>1062</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.35">
@@ -8567,22 +8600,22 @@
         <v>90</v>
       </c>
       <c r="C106" s="56">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="D106" s="56">
         <v>312</v>
       </c>
       <c r="E106" s="56">
-        <v>1219</v>
+        <v>1234</v>
       </c>
       <c r="F106" s="56">
-        <v>1649</v>
+        <v>1658</v>
       </c>
       <c r="G106" s="56">
-        <v>1585</v>
+        <v>1590</v>
       </c>
       <c r="H106" s="56">
-        <v>1451</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.35">
@@ -8593,22 +8626,22 @@
         <v>91</v>
       </c>
       <c r="C107" s="56">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="D107" s="56">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="E107" s="56">
-        <v>1325</v>
+        <v>1337</v>
       </c>
       <c r="F107" s="56">
-        <v>1865</v>
+        <v>1878</v>
       </c>
       <c r="G107" s="56">
-        <v>1952</v>
+        <v>1963</v>
       </c>
       <c r="H107" s="56">
-        <v>1904</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.35">
@@ -8619,22 +8652,22 @@
         <v>92</v>
       </c>
       <c r="C108" s="56">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D108" s="56">
         <v>412</v>
       </c>
       <c r="E108" s="56">
-        <v>1415</v>
+        <v>1427</v>
       </c>
       <c r="F108" s="56">
-        <v>2042</v>
+        <v>2056</v>
       </c>
       <c r="G108" s="56">
-        <v>2559</v>
+        <v>2583</v>
       </c>
       <c r="H108" s="56">
-        <v>2593</v>
+        <v>2616</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.35">
@@ -8645,22 +8678,22 @@
         <v>93</v>
       </c>
       <c r="C109" s="56">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="D109" s="56">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="E109" s="56">
-        <v>1299</v>
+        <v>1311</v>
       </c>
       <c r="F109" s="56">
-        <v>2021</v>
+        <v>2053</v>
       </c>
       <c r="G109" s="56">
-        <v>2613</v>
+        <v>2644</v>
       </c>
       <c r="H109" s="56">
-        <v>2931</v>
+        <v>2985</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.35">
@@ -8671,22 +8704,22 @@
         <v>94</v>
       </c>
       <c r="C110" s="56">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="D110" s="56">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="E110" s="56">
-        <v>1143</v>
+        <v>1157</v>
       </c>
       <c r="F110" s="56">
-        <v>1863</v>
+        <v>1903</v>
       </c>
       <c r="G110" s="56">
-        <v>2709</v>
+        <v>2758</v>
       </c>
       <c r="H110" s="56">
-        <v>3103</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.35">
@@ -8697,22 +8730,22 @@
         <v>95</v>
       </c>
       <c r="C111" s="56">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="D111" s="56">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="E111" s="56">
-        <v>1016</v>
+        <v>1051</v>
       </c>
       <c r="F111" s="56">
-        <v>1651</v>
+        <v>1725</v>
       </c>
       <c r="G111" s="56">
-        <v>2603</v>
+        <v>2700</v>
       </c>
       <c r="H111" s="56">
-        <v>2930</v>
+        <v>3064</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.35">
@@ -8723,22 +8756,22 @@
         <v>96</v>
       </c>
       <c r="C112" s="56">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="D112" s="56">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="E112" s="56">
-        <v>981</v>
+        <v>1020</v>
       </c>
       <c r="F112" s="56">
-        <v>1468</v>
+        <v>1553</v>
       </c>
       <c r="G112" s="56">
-        <v>2351</v>
+        <v>2505</v>
       </c>
       <c r="H112" s="56">
-        <v>2616</v>
+        <v>2848</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.35">
@@ -8749,43 +8782,69 @@
         <v>43</v>
       </c>
       <c r="C113" s="56">
-        <v>337</v>
+        <v>395</v>
       </c>
       <c r="D113" s="56">
-        <v>217</v>
+        <v>247</v>
       </c>
       <c r="E113" s="56">
-        <v>902</v>
+        <v>1089</v>
       </c>
       <c r="F113" s="56">
-        <v>1294</v>
+        <v>1583</v>
       </c>
       <c r="G113" s="56">
-        <v>2138</v>
+        <v>2623</v>
       </c>
       <c r="H113" s="56">
-        <v>2585</v>
+        <v>3229</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A114" s="56" t="s">
+        <v>97</v>
+      </c>
+      <c r="B114" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="C114" s="56">
+        <v>350</v>
+      </c>
+      <c r="D114" s="56">
+        <v>241</v>
+      </c>
+      <c r="E114" s="56">
+        <v>845</v>
+      </c>
+      <c r="F114" s="56">
+        <v>1335</v>
+      </c>
+      <c r="G114" s="56">
+        <v>2358</v>
+      </c>
+      <c r="H114" s="56">
+        <v>2747</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33ACCE60-F332-483C-B901-158EEAB41075}">
-  <dimension ref="A1:O109"/>
+  <dimension ref="A1:O110"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="C114" sqref="C114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
@@ -8937,7 +8996,7 @@
         <v>12</v>
       </c>
       <c r="K6">
-        <v>22388</v>
+        <v>22389</v>
       </c>
       <c r="L6">
         <v>45</v>
@@ -8978,7 +9037,7 @@
         <v>13</v>
       </c>
       <c r="K7">
-        <v>33962</v>
+        <v>33961</v>
       </c>
       <c r="L7">
         <v>48</v>
@@ -9060,7 +9119,7 @@
         <v>15</v>
       </c>
       <c r="K9">
-        <v>27126</v>
+        <v>27125</v>
       </c>
       <c r="L9">
         <v>52</v>
@@ -9101,7 +9160,7 @@
         <v>16</v>
       </c>
       <c r="K10">
-        <v>17328</v>
+        <v>17330</v>
       </c>
       <c r="L10">
         <v>51</v>
@@ -9183,7 +9242,7 @@
         <v>18</v>
       </c>
       <c r="K12">
-        <v>7433</v>
+        <v>7434</v>
       </c>
       <c r="L12">
         <v>48</v>
@@ -9265,7 +9324,7 @@
         <v>20</v>
       </c>
       <c r="K14">
-        <v>4759</v>
+        <v>4760</v>
       </c>
       <c r="L14">
         <v>45</v>
@@ -9306,7 +9365,7 @@
         <v>21</v>
       </c>
       <c r="K15">
-        <v>3600</v>
+        <v>3601</v>
       </c>
       <c r="L15">
         <v>44</v>
@@ -9470,7 +9529,7 @@
         <v>25</v>
       </c>
       <c r="K19">
-        <v>4190</v>
+        <v>4185</v>
       </c>
       <c r="L19">
         <v>36</v>
@@ -9511,7 +9570,7 @@
         <v>26</v>
       </c>
       <c r="K20">
-        <v>3162</v>
+        <v>3163</v>
       </c>
       <c r="L20">
         <v>37</v>
@@ -9634,7 +9693,7 @@
         <v>29</v>
       </c>
       <c r="K23">
-        <v>3034</v>
+        <v>3040</v>
       </c>
       <c r="L23">
         <v>36</v>
@@ -9757,7 +9816,7 @@
         <v>32</v>
       </c>
       <c r="K26">
-        <v>6064</v>
+        <v>6063</v>
       </c>
       <c r="L26">
         <v>34</v>
@@ -9798,7 +9857,7 @@
         <v>33</v>
       </c>
       <c r="K27">
-        <v>7954</v>
+        <v>7956</v>
       </c>
       <c r="L27">
         <v>32</v>
@@ -9921,7 +9980,7 @@
         <v>36</v>
       </c>
       <c r="K30">
-        <v>8613</v>
+        <v>8614</v>
       </c>
       <c r="L30">
         <v>33</v>
@@ -9962,7 +10021,7 @@
         <v>37</v>
       </c>
       <c r="K31">
-        <v>9761</v>
+        <v>9762</v>
       </c>
       <c r="L31">
         <v>35</v>
@@ -10003,7 +10062,7 @@
         <v>38</v>
       </c>
       <c r="K32">
-        <v>12288</v>
+        <v>12290</v>
       </c>
       <c r="L32">
         <v>36</v>
@@ -10044,7 +10103,7 @@
         <v>39</v>
       </c>
       <c r="K33">
-        <v>13067</v>
+        <v>13069</v>
       </c>
       <c r="L33">
         <v>37</v>
@@ -10085,7 +10144,7 @@
         <v>40</v>
       </c>
       <c r="K34">
-        <v>15927</v>
+        <v>15928</v>
       </c>
       <c r="L34">
         <v>38</v>
@@ -10126,7 +10185,7 @@
         <v>41</v>
       </c>
       <c r="K35">
-        <v>26120</v>
+        <v>26122</v>
       </c>
       <c r="L35">
         <v>39</v>
@@ -10167,7 +10226,7 @@
         <v>42</v>
       </c>
       <c r="K36">
-        <v>42056</v>
+        <v>42057</v>
       </c>
       <c r="L36">
         <v>39</v>
@@ -10249,7 +10308,7 @@
         <v>44</v>
       </c>
       <c r="K38">
-        <v>111002</v>
+        <v>111000</v>
       </c>
       <c r="L38">
         <v>41</v>
@@ -10290,7 +10349,7 @@
         <v>45</v>
       </c>
       <c r="K39">
-        <v>125722</v>
+        <v>125718</v>
       </c>
       <c r="L39">
         <v>41</v>
@@ -10331,7 +10390,7 @@
         <v>46</v>
       </c>
       <c r="K40">
-        <v>127803</v>
+        <v>127810</v>
       </c>
       <c r="L40">
         <v>42</v>
@@ -10413,7 +10472,7 @@
         <v>48</v>
       </c>
       <c r="K42">
-        <v>123140</v>
+        <v>123143</v>
       </c>
       <c r="L42">
         <v>44</v>
@@ -10454,7 +10513,7 @@
         <v>49</v>
       </c>
       <c r="K43">
-        <v>128362</v>
+        <v>128364</v>
       </c>
       <c r="L43">
         <v>45</v>
@@ -10495,7 +10554,7 @@
         <v>50</v>
       </c>
       <c r="K44">
-        <v>156299</v>
+        <v>156306</v>
       </c>
       <c r="L44">
         <v>46</v>
@@ -10536,7 +10595,7 @@
         <v>51</v>
       </c>
       <c r="K45">
-        <v>174686</v>
+        <v>174685</v>
       </c>
       <c r="L45">
         <v>46</v>
@@ -10577,7 +10636,7 @@
         <v>52</v>
       </c>
       <c r="K46">
-        <v>138927</v>
+        <v>138928</v>
       </c>
       <c r="L46">
         <v>48</v>
@@ -10618,7 +10677,7 @@
         <v>53</v>
       </c>
       <c r="K47">
-        <v>123080</v>
+        <v>123078</v>
       </c>
       <c r="L47">
         <v>49</v>
@@ -10659,7 +10718,7 @@
         <v>1</v>
       </c>
       <c r="K48">
-        <v>145487</v>
+        <v>145491</v>
       </c>
       <c r="L48">
         <v>48</v>
@@ -10700,7 +10759,7 @@
         <v>2</v>
       </c>
       <c r="K49">
-        <v>118900</v>
+        <v>118905</v>
       </c>
       <c r="L49">
         <v>48</v>
@@ -10741,7 +10800,7 @@
         <v>3</v>
       </c>
       <c r="K50">
-        <v>95547</v>
+        <v>95545</v>
       </c>
       <c r="L50">
         <v>48</v>
@@ -10823,7 +10882,7 @@
         <v>5</v>
       </c>
       <c r="K52">
-        <v>64582</v>
+        <v>64585</v>
       </c>
       <c r="L52">
         <v>46</v>
@@ -10864,7 +10923,7 @@
         <v>6</v>
       </c>
       <c r="K53">
-        <v>50817</v>
+        <v>50814</v>
       </c>
       <c r="L53">
         <v>45</v>
@@ -10946,7 +11005,7 @@
         <v>8</v>
       </c>
       <c r="K55">
-        <v>56375</v>
+        <v>56383</v>
       </c>
       <c r="L55">
         <v>42</v>
@@ -10987,7 +11046,7 @@
         <v>9</v>
       </c>
       <c r="K56">
-        <v>58418</v>
+        <v>58427</v>
       </c>
       <c r="L56">
         <v>40</v>
@@ -11028,7 +11087,7 @@
         <v>10</v>
       </c>
       <c r="K57">
-        <v>71365</v>
+        <v>71381</v>
       </c>
       <c r="L57">
         <v>39</v>
@@ -11069,7 +11128,7 @@
         <v>11</v>
       </c>
       <c r="K58">
-        <v>92622</v>
+        <v>92640</v>
       </c>
       <c r="L58">
         <v>39</v>
@@ -11098,7 +11157,7 @@
         <v>148</v>
       </c>
       <c r="E59" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="F59" t="s">
         <v>107</v>
@@ -11110,7 +11169,7 @@
         <v>12</v>
       </c>
       <c r="K59">
-        <v>116294</v>
+        <v>116305</v>
       </c>
       <c r="L59">
         <v>38</v>
@@ -11142,7 +11201,7 @@
         <v>109</v>
       </c>
       <c r="F60" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I60">
         <v>2021</v>
@@ -11151,7 +11210,7 @@
         <v>13</v>
       </c>
       <c r="K60">
-        <v>110103</v>
+        <v>110107</v>
       </c>
       <c r="L60">
         <v>39</v>
@@ -11183,7 +11242,7 @@
         <v>131</v>
       </c>
       <c r="F61" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I61">
         <v>2021</v>
@@ -11192,7 +11251,7 @@
         <v>14</v>
       </c>
       <c r="K61">
-        <v>118264</v>
+        <v>118255</v>
       </c>
       <c r="L61">
         <v>39</v>
@@ -11224,7 +11283,7 @@
         <v>131</v>
       </c>
       <c r="F62" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I62">
         <v>2021</v>
@@ -11233,7 +11292,7 @@
         <v>15</v>
       </c>
       <c r="K62">
-        <v>142079</v>
+        <v>142081</v>
       </c>
       <c r="L62">
         <v>38</v>
@@ -11274,7 +11333,7 @@
         <v>16</v>
       </c>
       <c r="K63">
-        <v>144777</v>
+        <v>144786</v>
       </c>
       <c r="L63">
         <v>37</v>
@@ -11306,7 +11365,7 @@
         <v>148</v>
       </c>
       <c r="F64" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I64">
         <v>2021</v>
@@ -11315,7 +11374,7 @@
         <v>17</v>
       </c>
       <c r="K64">
-        <v>124804</v>
+        <v>124807</v>
       </c>
       <c r="L64">
         <v>37</v>
@@ -11347,7 +11406,7 @@
         <v>131</v>
       </c>
       <c r="F65" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I65">
         <v>2021</v>
@@ -11388,7 +11447,7 @@
         <v>111</v>
       </c>
       <c r="F66" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I66">
         <v>2021</v>
@@ -11438,7 +11497,7 @@
         <v>20</v>
       </c>
       <c r="K67">
-        <v>52698</v>
+        <v>52700</v>
       </c>
       <c r="L67">
         <v>36</v>
@@ -11470,7 +11529,7 @@
         <v>148</v>
       </c>
       <c r="F68" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I68">
         <v>2021</v>
@@ -11479,7 +11538,7 @@
         <v>21</v>
       </c>
       <c r="K68">
-        <v>29894</v>
+        <v>29897</v>
       </c>
       <c r="L68">
         <v>35</v>
@@ -11511,7 +11570,7 @@
         <v>123</v>
       </c>
       <c r="F69" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I69">
         <v>2021</v>
@@ -11520,7 +11579,7 @@
         <v>22</v>
       </c>
       <c r="K69">
-        <v>20685</v>
+        <v>20691</v>
       </c>
       <c r="L69">
         <v>34</v>
@@ -11587,7 +11646,7 @@
         <v>63</v>
       </c>
       <c r="D71" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E71" t="s">
         <v>108</v>
@@ -11643,7 +11702,7 @@
         <v>25</v>
       </c>
       <c r="K72">
-        <v>4844</v>
+        <v>4845</v>
       </c>
       <c r="L72">
         <v>32</v>
@@ -11675,7 +11734,7 @@
         <v>141</v>
       </c>
       <c r="F73" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I73">
         <v>2021</v>
@@ -11684,7 +11743,7 @@
         <v>26</v>
       </c>
       <c r="K73">
-        <v>4376</v>
+        <v>4377</v>
       </c>
       <c r="L73">
         <v>32</v>
@@ -11716,7 +11775,7 @@
         <v>125</v>
       </c>
       <c r="F74" t="s">
-        <v>153</v>
+        <v>107</v>
       </c>
       <c r="I74">
         <v>2021</v>
@@ -11725,7 +11784,7 @@
         <v>27</v>
       </c>
       <c r="K74">
-        <v>5580</v>
+        <v>5582</v>
       </c>
       <c r="L74">
         <v>32</v>
@@ -11766,7 +11825,7 @@
         <v>28</v>
       </c>
       <c r="K75">
-        <v>9104</v>
+        <v>9107</v>
       </c>
       <c r="L75">
         <v>30</v>
@@ -11795,7 +11854,7 @@
         <v>81</v>
       </c>
       <c r="E76" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F76" t="s">
         <v>117</v>
@@ -11807,7 +11866,7 @@
         <v>29</v>
       </c>
       <c r="K76">
-        <v>12636</v>
+        <v>12637</v>
       </c>
       <c r="L76">
         <v>30</v>
@@ -11836,7 +11895,7 @@
         <v>83</v>
       </c>
       <c r="E77" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F77" t="s">
         <v>117</v>
@@ -11889,7 +11948,7 @@
         <v>31</v>
       </c>
       <c r="K78">
-        <v>20417</v>
+        <v>20418</v>
       </c>
       <c r="L78">
         <v>30</v>
@@ -11971,7 +12030,7 @@
         <v>33</v>
       </c>
       <c r="K80">
-        <v>49645</v>
+        <v>49644</v>
       </c>
       <c r="L80">
         <v>29</v>
@@ -12003,7 +12062,7 @@
         <v>140</v>
       </c>
       <c r="F81" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I81">
         <v>2021</v>
@@ -12012,7 +12071,7 @@
         <v>34</v>
       </c>
       <c r="K81">
-        <v>66382</v>
+        <v>66380</v>
       </c>
       <c r="L81">
         <v>29</v>
@@ -12024,7 +12083,7 @@
         <v>55</v>
       </c>
       <c r="O81">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.35">
@@ -12053,7 +12112,7 @@
         <v>35</v>
       </c>
       <c r="K82">
-        <v>74742</v>
+        <v>74744</v>
       </c>
       <c r="L82">
         <v>30</v>
@@ -12094,7 +12153,7 @@
         <v>36</v>
       </c>
       <c r="K83">
-        <v>71675</v>
+        <v>71674</v>
       </c>
       <c r="L83">
         <v>30</v>
@@ -12135,7 +12194,7 @@
         <v>37</v>
       </c>
       <c r="K84">
-        <v>61468</v>
+        <v>61472</v>
       </c>
       <c r="L84">
         <v>31</v>
@@ -12176,7 +12235,7 @@
         <v>38</v>
       </c>
       <c r="K85">
-        <v>53609</v>
+        <v>53607</v>
       </c>
       <c r="L85">
         <v>31</v>
@@ -12217,7 +12276,7 @@
         <v>39</v>
       </c>
       <c r="K86">
-        <v>56491</v>
+        <v>56490</v>
       </c>
       <c r="L86">
         <v>32</v>
@@ -12258,7 +12317,7 @@
         <v>40</v>
       </c>
       <c r="K87">
-        <v>58002</v>
+        <v>58004</v>
       </c>
       <c r="L87">
         <v>34</v>
@@ -12299,7 +12358,7 @@
         <v>41</v>
       </c>
       <c r="K88">
-        <v>65352</v>
+        <v>65354</v>
       </c>
       <c r="L88">
         <v>34</v>
@@ -12381,7 +12440,7 @@
         <v>43</v>
       </c>
       <c r="K90">
-        <v>137033</v>
+        <v>137031</v>
       </c>
       <c r="L90">
         <v>36</v>
@@ -12422,7 +12481,7 @@
         <v>44</v>
       </c>
       <c r="K91">
-        <v>177883</v>
+        <v>177881</v>
       </c>
       <c r="L91">
         <v>37</v>
@@ -12463,7 +12522,7 @@
         <v>45</v>
       </c>
       <c r="K92">
-        <v>271298</v>
+        <v>271302</v>
       </c>
       <c r="L92">
         <v>36</v>
@@ -12504,7 +12563,7 @@
         <v>46</v>
       </c>
       <c r="K93">
-        <v>351730</v>
+        <v>351725</v>
       </c>
       <c r="L93">
         <v>36</v>
@@ -12545,7 +12604,7 @@
         <v>47</v>
       </c>
       <c r="K94">
-        <v>403343</v>
+        <v>403327</v>
       </c>
       <c r="L94">
         <v>36</v>
@@ -12586,7 +12645,7 @@
         <v>48</v>
       </c>
       <c r="K95">
-        <v>388288</v>
+        <v>388278</v>
       </c>
       <c r="L95">
         <v>36</v>
@@ -12627,7 +12686,7 @@
         <v>49</v>
       </c>
       <c r="K96">
-        <v>338207</v>
+        <v>338199</v>
       </c>
       <c r="L96">
         <v>35</v>
@@ -12668,7 +12727,7 @@
         <v>50</v>
       </c>
       <c r="K97">
-        <v>273618</v>
+        <v>273610</v>
       </c>
       <c r="L97">
         <v>34</v>
@@ -12709,7 +12768,7 @@
         <v>51</v>
       </c>
       <c r="K98">
-        <v>193939</v>
+        <v>193943</v>
       </c>
       <c r="L98">
         <v>34</v>
@@ -12750,7 +12809,7 @@
         <v>52</v>
       </c>
       <c r="K99">
-        <v>208739</v>
+        <v>208754</v>
       </c>
       <c r="L99">
         <v>35</v>
@@ -12791,7 +12850,7 @@
         <v>1</v>
       </c>
       <c r="K100">
-        <v>338137</v>
+        <v>338133</v>
       </c>
       <c r="L100">
         <v>33</v>
@@ -12832,7 +12891,7 @@
         <v>2</v>
       </c>
       <c r="K101">
-        <v>486064</v>
+        <v>486069</v>
       </c>
       <c r="L101">
         <v>31</v>
@@ -12873,7 +12932,7 @@
         <v>3</v>
       </c>
       <c r="K102">
-        <v>796065</v>
+        <v>796101</v>
       </c>
       <c r="L102">
         <v>30</v>
@@ -12882,7 +12941,7 @@
         <v>53</v>
       </c>
       <c r="N102">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O102">
         <v>80</v>
@@ -12914,7 +12973,7 @@
         <v>4</v>
       </c>
       <c r="K103">
-        <v>1110168</v>
+        <v>1110543</v>
       </c>
       <c r="L103">
         <v>30</v>
@@ -12955,7 +13014,7 @@
         <v>5</v>
       </c>
       <c r="K104">
-        <v>1289190</v>
+        <v>1289467</v>
       </c>
       <c r="L104">
         <v>31</v>
@@ -12996,7 +13055,7 @@
         <v>6</v>
       </c>
       <c r="K105">
-        <v>1306711</v>
+        <v>1306768</v>
       </c>
       <c r="L105">
         <v>32</v>
@@ -13008,7 +13067,7 @@
         <v>69</v>
       </c>
       <c r="O105">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.35">
@@ -13037,13 +13096,13 @@
         <v>7</v>
       </c>
       <c r="K106">
-        <v>1190075</v>
+        <v>1190319</v>
       </c>
       <c r="L106">
         <v>33</v>
       </c>
       <c r="M106">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="N106">
         <v>68</v>
@@ -13078,7 +13137,7 @@
         <v>8</v>
       </c>
       <c r="K107">
-        <v>1089658</v>
+        <v>1090173</v>
       </c>
       <c r="L107">
         <v>34</v>
@@ -13104,7 +13163,7 @@
         <v>67</v>
       </c>
       <c r="D108" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E108" t="s">
         <v>117</v>
@@ -13119,7 +13178,7 @@
         <v>9</v>
       </c>
       <c r="K108">
-        <v>1122851</v>
+        <v>1124016</v>
       </c>
       <c r="L108">
         <v>35</v>
@@ -13131,7 +13190,7 @@
         <v>69</v>
       </c>
       <c r="O108">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.35">
@@ -13145,13 +13204,13 @@
         <v>67</v>
       </c>
       <c r="D109" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E109" t="s">
         <v>117</v>
       </c>
       <c r="F109" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="I109">
         <v>2022</v>
@@ -13160,24 +13219,65 @@
         <v>10</v>
       </c>
       <c r="K109">
-        <v>1373052</v>
+        <v>1393135</v>
       </c>
       <c r="L109">
         <v>35</v>
       </c>
       <c r="M109">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N109">
         <v>69</v>
       </c>
       <c r="O109">
-        <v>80</v>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>97</v>
+      </c>
+      <c r="B110" t="s">
+        <v>44</v>
+      </c>
+      <c r="C110" t="s">
+        <v>69</v>
+      </c>
+      <c r="D110" t="s">
+        <v>115</v>
+      </c>
+      <c r="E110" t="s">
+        <v>117</v>
+      </c>
+      <c r="F110" t="s">
+        <v>138</v>
+      </c>
+      <c r="I110">
+        <v>2022</v>
+      </c>
+      <c r="J110">
+        <v>11</v>
+      </c>
+      <c r="K110">
+        <v>1528376</v>
+      </c>
+      <c r="L110">
+        <v>36</v>
+      </c>
+      <c r="M110">
+        <v>62</v>
+      </c>
+      <c r="N110">
+        <v>69</v>
+      </c>
+      <c r="O110">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -13185,42 +13285,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A6BB280-4719-4575-ABFB-341129EF46BE}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="60" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="56" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="59"/>
       <c r="B5" s="59"/>
       <c r="C5" s="59" t="s">
+        <v>154</v>
+      </c>
+      <c r="D5" s="59" t="s">
+        <v>155</v>
+      </c>
+      <c r="E5" s="59" t="s">
         <v>156</v>
       </c>
-      <c r="D5" s="59" t="s">
+      <c r="F5" s="59" t="s">
         <v>157</v>
       </c>
-      <c r="E5" s="59" t="s">
+      <c r="G5" s="59" t="s">
         <v>158</v>
       </c>
-      <c r="F5" s="59" t="s">
+      <c r="H5" s="59" t="s">
         <v>159</v>
-      </c>
-      <c r="G5" s="59" t="s">
-        <v>160</v>
-      </c>
-      <c r="H5" s="59" t="s">
-        <v>161</v>
       </c>
       <c r="I5" s="59"/>
     </row>
@@ -13232,346 +13332,346 @@
         <v>35</v>
       </c>
       <c r="C6" s="61" t="s">
+        <v>160</v>
+      </c>
+      <c r="D6" s="62" t="s">
+        <v>161</v>
+      </c>
+      <c r="E6" s="62" t="s">
         <v>162</v>
       </c>
-      <c r="D6" s="62" t="s">
+      <c r="F6" s="62" t="s">
         <v>163</v>
       </c>
-      <c r="E6" s="62" t="s">
+      <c r="G6" s="62" t="s">
         <v>164</v>
       </c>
-      <c r="F6" s="62" t="s">
+      <c r="H6" s="62" t="s">
         <v>165</v>
       </c>
-      <c r="G6" s="62" t="s">
+      <c r="I6" s="62"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="56" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="63">
+        <v>4.2074626782999998</v>
+      </c>
+      <c r="D7" s="63">
+        <v>1.5315644785</v>
+      </c>
+      <c r="E7" s="63">
+        <v>4.7036957095999998</v>
+      </c>
+      <c r="F7" s="63">
+        <v>4.4303099340000003</v>
+      </c>
+      <c r="G7" s="63">
+        <v>8.3565893855999995</v>
+      </c>
+      <c r="H7" s="63">
+        <v>20.0793944648</v>
+      </c>
+      <c r="I7" s="64" t="s">
         <v>166</v>
       </c>
-      <c r="H6" s="62" t="s">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="56" t="s">
+        <v>97</v>
+      </c>
+      <c r="B8" s="56" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" s="63">
+        <v>5.9458754017000004</v>
+      </c>
+      <c r="D8" s="63">
+        <v>2.5970006373999999</v>
+      </c>
+      <c r="E8" s="63">
+        <v>4.7988266340000001</v>
+      </c>
+      <c r="F8" s="63">
+        <v>4.6640349463000002</v>
+      </c>
+      <c r="G8" s="63">
+        <v>6.8582424422999999</v>
+      </c>
+      <c r="H8" s="63">
+        <v>17.956908137100001</v>
+      </c>
+      <c r="I8" s="64" t="s">
         <v>167</v>
       </c>
-      <c r="I6" s="62"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="67">
-        <v>2021</v>
-      </c>
-      <c r="B7" s="67">
-        <v>52</v>
-      </c>
-      <c r="C7" s="63">
-        <v>2.7209938279000001</v>
-      </c>
-      <c r="D7" s="63">
-        <v>0.8923027831</v>
-      </c>
-      <c r="E7" s="63">
-        <v>3.2925869966999999</v>
-      </c>
-      <c r="F7" s="63">
-        <v>4.7547342048000001</v>
-      </c>
-      <c r="G7" s="63">
-        <v>9.5023841068999992</v>
-      </c>
-      <c r="H7" s="63">
-        <v>22.235571051600001</v>
-      </c>
-      <c r="I7" s="64" t="s">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="56" t="s">
+        <v>97</v>
+      </c>
+      <c r="B9" s="56" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" s="63">
+        <v>8.0370095472000003</v>
+      </c>
+      <c r="D9" s="63">
+        <v>4.1552010197999998</v>
+      </c>
+      <c r="E9" s="63">
+        <v>6.5217533770999996</v>
+      </c>
+      <c r="F9" s="63">
+        <v>5.7838219453999997</v>
+      </c>
+      <c r="G9" s="63">
+        <v>8.7587192636999998</v>
+      </c>
+      <c r="H9" s="63">
+        <v>24.610734322999999</v>
+      </c>
+      <c r="I9" s="64" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="67">
-        <v>2022</v>
-      </c>
-      <c r="B8" s="67">
-        <v>1</v>
-      </c>
-      <c r="C8" s="63">
-        <v>4.2074626782999998</v>
-      </c>
-      <c r="D8" s="63">
-        <v>1.5315644785</v>
-      </c>
-      <c r="E8" s="63">
-        <v>4.7036957095999998</v>
-      </c>
-      <c r="F8" s="63">
-        <v>4.4163562019000002</v>
-      </c>
-      <c r="G8" s="63">
-        <v>8.3400635001999994</v>
-      </c>
-      <c r="H8" s="63">
-        <v>19.9951688168</v>
-      </c>
-      <c r="I8" s="65" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="56" t="s">
+        <v>97</v>
+      </c>
+      <c r="B10" s="56" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" s="63">
+        <v>9.3219232991999998</v>
+      </c>
+      <c r="D10" s="63">
+        <v>5.2472730826999996</v>
+      </c>
+      <c r="E10" s="63">
+        <v>7.0661136670999998</v>
+      </c>
+      <c r="F10" s="63">
+        <v>6.5512772095000003</v>
+      </c>
+      <c r="G10" s="63">
+        <v>10.8134376822</v>
+      </c>
+      <c r="H10" s="63">
+        <v>32.275268283999999</v>
+      </c>
+      <c r="I10" s="64" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="67">
-        <v>2022</v>
-      </c>
-      <c r="B9" s="67">
-        <v>2</v>
-      </c>
-      <c r="C9" s="63">
-        <v>5.9458754017000004</v>
-      </c>
-      <c r="D9" s="63">
-        <v>2.5970006373999999</v>
-      </c>
-      <c r="E9" s="63">
-        <v>4.7671163259</v>
-      </c>
-      <c r="F9" s="63">
-        <v>4.6500812142000001</v>
-      </c>
-      <c r="G9" s="63">
-        <v>6.8362079285000004</v>
-      </c>
-      <c r="H9" s="63">
-        <v>17.889527618799999</v>
-      </c>
-      <c r="I9" s="65" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="56" t="s">
+        <v>97</v>
+      </c>
+      <c r="B11" s="56" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="63">
+        <v>9.6998391086000009</v>
+      </c>
+      <c r="D11" s="63">
+        <v>5.4869962184999999</v>
+      </c>
+      <c r="E11" s="63">
+        <v>7.5417682894000002</v>
+      </c>
+      <c r="F11" s="63">
+        <v>7.1722182868999997</v>
+      </c>
+      <c r="G11" s="63">
+        <v>14.2287873322</v>
+      </c>
+      <c r="H11" s="63">
+        <v>44.066858993099999</v>
+      </c>
+      <c r="I11" s="64" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="67">
-        <v>2022</v>
-      </c>
-      <c r="B10" s="67">
-        <v>3</v>
-      </c>
-      <c r="C10" s="63">
-        <v>7.9110376107000002</v>
-      </c>
-      <c r="D10" s="63">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" s="56" t="s">
+        <v>97</v>
+      </c>
+      <c r="B12" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="C12" s="63">
+        <v>9.5990615595000008</v>
+      </c>
+      <c r="D12" s="63">
+        <v>4.8743704270999997</v>
+      </c>
+      <c r="E12" s="63">
+        <v>6.9287023317000003</v>
+      </c>
+      <c r="F12" s="63">
+        <v>7.1617529877999999</v>
+      </c>
+      <c r="G12" s="63">
+        <v>14.564813668699999</v>
+      </c>
+      <c r="H12" s="63">
+        <v>50.282711809799999</v>
+      </c>
+      <c r="I12" s="64" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="56" t="s">
+        <v>97</v>
+      </c>
+      <c r="B13" s="56" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" s="63">
+        <v>10.052560530799999</v>
+      </c>
+      <c r="D13" s="63">
         <v>4.1552010197999998</v>
       </c>
-      <c r="E10" s="63">
-        <v>6.4424776066999998</v>
-      </c>
-      <c r="F10" s="63">
-        <v>5.7524260482000003</v>
-      </c>
-      <c r="G10" s="63">
-        <v>8.7311761214000008</v>
-      </c>
-      <c r="H10" s="63">
-        <v>24.442283027199998</v>
-      </c>
-      <c r="I10" s="65" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="67">
-        <v>2022</v>
-      </c>
-      <c r="B11" s="67">
-        <v>4</v>
-      </c>
-      <c r="C11" s="63">
-        <v>9.1959513627000007</v>
-      </c>
-      <c r="D11" s="63">
-        <v>5.1806833228000002</v>
-      </c>
-      <c r="E11" s="63">
-        <v>7.0026930507999996</v>
-      </c>
-      <c r="F11" s="63">
-        <v>6.5059275802999998</v>
-      </c>
-      <c r="G11" s="63">
-        <v>10.752842769000001</v>
-      </c>
-      <c r="H11" s="63">
-        <v>32.0731267289</v>
-      </c>
-      <c r="I11" s="65" t="s">
+      <c r="E13" s="63">
+        <v>6.1148044223999998</v>
+      </c>
+      <c r="F13" s="63">
+        <v>6.638488035</v>
+      </c>
+      <c r="G13" s="63">
+        <v>15.192797314</v>
+      </c>
+      <c r="H13" s="63">
+        <v>53.5675120788</v>
+      </c>
+      <c r="I13" s="64" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="67">
-        <v>2022</v>
-      </c>
-      <c r="B12" s="67">
-        <v>5</v>
-      </c>
-      <c r="C12" s="63">
-        <v>9.6494503341000009</v>
-      </c>
-      <c r="D12" s="63">
-        <v>5.4869962184999999</v>
-      </c>
-      <c r="E12" s="63">
-        <v>7.4783476731</v>
-      </c>
-      <c r="F12" s="63">
-        <v>7.1233802246</v>
-      </c>
-      <c r="G12" s="63">
-        <v>14.096580249000001</v>
-      </c>
-      <c r="H12" s="63">
-        <v>43.679421012699997</v>
-      </c>
-      <c r="I12" s="65" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" s="56" t="s">
+        <v>97</v>
+      </c>
+      <c r="B14" s="56" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14" s="63">
+        <v>8.9692018770999997</v>
+      </c>
+      <c r="D14" s="63">
+        <v>3.3161700447000002</v>
+      </c>
+      <c r="E14" s="63">
+        <v>5.5545889784</v>
+      </c>
+      <c r="F14" s="63">
+        <v>6.0175469575999996</v>
+      </c>
+      <c r="G14" s="63">
+        <v>14.8732968629</v>
+      </c>
+      <c r="H14" s="63">
+        <v>51.613477047000003</v>
+      </c>
+      <c r="I14" s="64" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="67">
-        <v>2022</v>
-      </c>
-      <c r="B13" s="67">
-        <v>6</v>
-      </c>
-      <c r="C13" s="63">
-        <v>9.5486727849000008</v>
-      </c>
-      <c r="D13" s="63">
-        <v>4.8477345230999997</v>
-      </c>
-      <c r="E13" s="63">
-        <v>6.8652817154000001</v>
-      </c>
-      <c r="F13" s="63">
-        <v>7.0501231312000003</v>
-      </c>
-      <c r="G13" s="63">
-        <v>14.394046186200001</v>
-      </c>
-      <c r="H13" s="63">
-        <v>49.373074812299997</v>
-      </c>
-      <c r="I13" s="65" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" s="56" t="s">
+        <v>97</v>
+      </c>
+      <c r="B15" s="56" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" s="63">
+        <v>8.6920636168000005</v>
+      </c>
+      <c r="D15" s="63">
+        <v>3.0498110049</v>
+      </c>
+      <c r="E15" s="63">
+        <v>5.3907523863</v>
+      </c>
+      <c r="F15" s="63">
+        <v>5.4175364783999997</v>
+      </c>
+      <c r="G15" s="63">
+        <v>13.7991143117</v>
+      </c>
+      <c r="H15" s="63">
+        <v>47.974929056699999</v>
+      </c>
+      <c r="I15" s="64" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="67">
-        <v>2022</v>
-      </c>
-      <c r="B14" s="67">
-        <v>7</v>
-      </c>
-      <c r="C14" s="63">
-        <v>9.9013942069999992</v>
-      </c>
-      <c r="D14" s="63">
-        <v>4.1019292118999999</v>
-      </c>
-      <c r="E14" s="63">
-        <v>6.0408137033999996</v>
-      </c>
-      <c r="F14" s="63">
-        <v>6.4989507142000003</v>
-      </c>
-      <c r="G14" s="63">
-        <v>14.922874519100001</v>
-      </c>
-      <c r="H14" s="63">
-        <v>52.270437100800002</v>
-      </c>
-      <c r="I14" s="65" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" s="56" t="s">
+        <v>97</v>
+      </c>
+      <c r="B16" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="63">
+        <v>9.9517829815999992</v>
+      </c>
+      <c r="D16" s="63">
+        <v>3.2895341406999998</v>
+      </c>
+      <c r="E16" s="63">
+        <v>5.7554209299999997</v>
+      </c>
+      <c r="F16" s="63">
+        <v>5.5221894688999997</v>
+      </c>
+      <c r="G16" s="63">
+        <v>14.4491324709</v>
+      </c>
+      <c r="H16" s="63">
+        <v>54.392923428400003</v>
+      </c>
+      <c r="I16" s="64" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" s="67">
-        <v>2022</v>
-      </c>
-      <c r="B15" s="67">
-        <v>8</v>
-      </c>
-      <c r="C15" s="63">
-        <v>8.8684243278999997</v>
-      </c>
-      <c r="D15" s="63">
-        <v>3.2495802846999999</v>
-      </c>
-      <c r="E15" s="63">
-        <v>5.3696121807999999</v>
-      </c>
-      <c r="F15" s="63">
-        <v>5.7594029141999998</v>
-      </c>
-      <c r="G15" s="63">
-        <v>14.338959901500001</v>
-      </c>
-      <c r="H15" s="63">
-        <v>49.356229682699997</v>
-      </c>
-      <c r="I15" s="65" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" s="67">
-        <v>2022</v>
-      </c>
-      <c r="B16" s="67">
-        <v>9</v>
-      </c>
-      <c r="C16" s="63">
-        <v>8.4905085185000004</v>
-      </c>
-      <c r="D16" s="63">
-        <v>2.9832212450000002</v>
-      </c>
-      <c r="E16" s="63">
-        <v>5.1846353831999998</v>
-      </c>
-      <c r="F16" s="63">
-        <v>5.1210196718000001</v>
-      </c>
-      <c r="G16" s="63">
-        <v>12.950785527700001</v>
-      </c>
-      <c r="H16" s="63">
-        <v>44.066858993099999</v>
-      </c>
-      <c r="I16" s="65" t="s">
-        <v>177</v>
-      </c>
-    </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="67">
-        <v>2022</v>
-      </c>
-      <c r="B17" s="56">
-        <v>10</v>
+      <c r="A17" s="56" t="s">
+        <v>97</v>
+      </c>
+      <c r="B17" s="56" t="s">
+        <v>44</v>
       </c>
       <c r="C17" s="63">
-        <v>8.4905085185000004</v>
+        <v>8.8180355532999997</v>
       </c>
       <c r="D17" s="63">
-        <v>2.8899955811</v>
+        <v>3.2096264288</v>
       </c>
       <c r="E17" s="63">
-        <v>4.7671163259</v>
+        <v>4.4658683983999996</v>
       </c>
       <c r="F17" s="63">
-        <v>4.5140323264999997</v>
+        <v>4.6570580801999997</v>
       </c>
       <c r="G17" s="63">
-        <v>11.777447664</v>
+        <v>12.9893459269</v>
       </c>
       <c r="H17" s="63">
-        <v>43.544659975999998</v>
-      </c>
-      <c r="I17" s="65" t="s">
-        <v>181</v>
+        <v>46.2735709687</v>
+      </c>
+      <c r="I17" s="64" t="s">
+        <v>180</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/klinische_aspekte.xlsx
+++ b/data/klinische_aspekte.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20382"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE508BEA-B268-4CDF-BB20-09E297C82E59}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9452D1BD-C749-4E72-9A59-08B0041316EB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6650" activeTab="4" xr2:uid="{761E707A-47B5-41DE-BE24-E63CCB2E0F5D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6648" activeTab="4" xr2:uid="{761E707A-47B5-41DE-BE24-E63CCB2E0F5D}"/>
   </bookViews>
   <sheets>
     <sheet name="Klinische_Aspekte" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
     <sheet name="7-Tage-Inzidenz_Hosp_Alter" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="AG10_Geschlecht_Todesfälle001" localSheetId="1">Todesfälle_Alter_Geschlecht!$A$6:$K$8</definedName>
+    <definedName name="AG10_Geschlecht_Todesfälle001_1" localSheetId="1">Todesfälle_Alter_Geschlecht!$A$6:$K$8</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,14 +28,14 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{EE184986-4000-4515-8292-CD63FF81C750}" name="Verbindung1211" type="1" refreshedVersion="6" savePassword="1" background="1" saveData="1">
-    <dbPr connection="DRIVER=ODBC Driver 13 for SQL Server;SERVER=SQLProd31;UID=prahmk;Trusted_Connection=yes;APP=Excel;WSID=WS;DATABASE=SurvNet3RKI2;" command="SELECT &quot;[Geschlecht].[SortGruppe].[SortGruppe].[MEMBER_CAPTION]&quot; as Geschlecht, _x000d__x000a_&quot;[Measures].[FallCount].[AlterPerson].[Standard12].[AgeGroupName12].&amp;[A00..09]&quot;+0 as '0-9',_x000d__x000a_&quot;[Measures].[FallCount].[AlterPerson].[Standard12].[AgeGroupName12].&amp;[A10..19]&quot;+0 as '10-19',_x000d__x000a_&quot;[Measures].[FallCount].[AlterPerson].[Standard12].[AgeGroupName12].&amp;[A20..29]&quot;+0 as '20-29',_x000d__x000a_&quot;[Measures].[FallCount].[AlterPerson].[Standard12].[AgeGroupName12].&amp;[A30..39]&quot;+0 as '30-39',_x000d__x000a_&quot;[Measures].[FallCount].[AlterPerson].[Standard12].[AgeGroupName12].&amp;[A40..49]&quot;+0 as '40-49',_x000d__x000a_&quot;[Measures].[FallCount].[AlterPerson].[Standard12].[AgeGroupName12].&amp;[A50..59]&quot;+0 as '50-59',_x000d__x000a_&quot;[Measures].[FallCount].[AlterPerson].[Standard12].[AgeGroupName12].&amp;[A60..69]&quot;+0 as '60-69',_x000d__x000a_&quot;[Measures].[FallCount].[AlterPerson].[Standard12].[AgeGroupName12].&amp;[A70..79]&quot;+0 as '70-79',_x000d__x000a_&quot;[Measures].[FallCount].[AlterPerson].[Standard12].[AgeGroupName12].&amp;[A80..89]&quot;+0 as '80-89',_x000d__x000a_&quot;[Measures].[FallCount].[AlterPerson].[Standard12].[Ab90]&quot;+0 as 'Ab90'_x000d__x000a_ FROM OPENQUERY(OLAP_SESQL19_CUBE4COVID19,'_x000d__x000a_ with member [AlterPerson].[Standard12].[Ab90] as [AlterPerson].[Standard12].[AgeGroupName12].&amp;[A90..99] + [AlterPerson].[Standard12].[AgeGroupName12].&amp;[Ab100]_x000d__x000a__x000d__x000a_            SELECT _x000d__x000a__x000d__x000a__x000d__x000a_([Measures].[FallCount], {[AlterPerson].[Standard12].[AgeGroupName12].&amp;[A00..09]:[AlterPerson].[Standard12].[AgeGroupName12].&amp;[A80..89],[AlterPerson].[Standard12].[Ab90]}) on 0,_x000d__x000a_[Geschlecht].[SortGruppe].&amp;[1]:[Geschlecht].[SortGruppe].&amp;[2]_x000d__x000a_ ON 1_x000d__x000a_FROM Cube4SurvNet _x000d__x000a_where ([ReferenzDefinition].[ID].&amp;[1],_x000d__x000a_[Datenstand].[Publikation].&amp;[-1],_x000d__x000a_[Aktiv].[ID].&amp;[1],_x000d__x000a_[Verstorben].[Hierarchy].[SortGruppe].&amp;[20]_x000d__x000a_)')_x000d__x000a_"/>
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF05000000}" name="Verbindung121" type="1" refreshedVersion="6" savePassword="1" background="1" saveData="1">
+    <dbPr connection="DRIVER=ODBC Driver 13 for SQL Server;SERVER=SQLProd31;UID=caiw;Trusted_Connection=yes;APP=Excel;WSID=WS;DATABASE=SurvNet3RKI2;" command="SELECT &quot;[Geschlecht].[SortGruppe].[SortGruppe].[MEMBER_CAPTION]&quot; as Geschlecht, _x000d__x000a_&quot;[Measures].[FallCount].[AlterPerson].[Standard12].[AgeGroupName12].&amp;[A00..09]&quot;+0 as '0-9',_x000d__x000a_&quot;[Measures].[FallCount].[AlterPerson].[Standard12].[AgeGroupName12].&amp;[A10..19]&quot;+0 as '10-19',_x000d__x000a_&quot;[Measures].[FallCount].[AlterPerson].[Standard12].[AgeGroupName12].&amp;[A20..29]&quot;+0 as '20-29',_x000d__x000a_&quot;[Measures].[FallCount].[AlterPerson].[Standard12].[AgeGroupName12].&amp;[A30..39]&quot;+0 as '30-39',_x000d__x000a_&quot;[Measures].[FallCount].[AlterPerson].[Standard12].[AgeGroupName12].&amp;[A40..49]&quot;+0 as '40-49',_x000d__x000a_&quot;[Measures].[FallCount].[AlterPerson].[Standard12].[AgeGroupName12].&amp;[A50..59]&quot;+0 as '50-59',_x000d__x000a_&quot;[Measures].[FallCount].[AlterPerson].[Standard12].[AgeGroupName12].&amp;[A60..69]&quot;+0 as '60-69',_x000d__x000a_&quot;[Measures].[FallCount].[AlterPerson].[Standard12].[AgeGroupName12].&amp;[A70..79]&quot;+0 as '70-79',_x000d__x000a_&quot;[Measures].[FallCount].[AlterPerson].[Standard12].[AgeGroupName12].&amp;[A80..89]&quot;+0 as '80-89',_x000d__x000a_&quot;[Measures].[FallCount].[AlterPerson].[Standard12].[Ab90]&quot;+0 as 'Ab90'_x000d__x000a_ FROM OPENQUERY(OLAP_SESQL19_CUBE4COVID19,'_x000d__x000a_ with member [AlterPerson].[Standard12].[Ab90] as [AlterPerson].[Standard12].[AgeGroupName12].&amp;[A90..99] + [AlterPerson].[Standard12].[AgeGroupName12].&amp;[Ab100]_x000d__x000a__x000d__x000a_            SELECT _x000d__x000a__x000d__x000a__x000d__x000a_([Measures].[FallCount], {[AlterPerson].[Standard12].[AgeGroupName12].&amp;[A00..09]:[AlterPerson].[Standard12].[AgeGroupName12].&amp;[A80..89],[AlterPerson].[Standard12].[Ab90]}) on 0,_x000d__x000a_[Geschlecht].[SortGruppe].&amp;[1]:[Geschlecht].[SortGruppe].&amp;[2]_x000d__x000a_ ON 1_x000d__x000a_FROM Cube4SurvNet _x000d__x000a_where ([ReferenzDefinition].[ID].&amp;[1],_x000d__x000a_[Datenstand].[Publikation].&amp;[-1],_x000d__x000a_[Aktiv].[ID].&amp;[1],_x000d__x000a_[Verstorben].[Hierarchy].[SortGruppe].&amp;[20]_x000d__x000a_)')_x000d__x000a_"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="182">
   <si>
     <t>Meldejahr</t>
   </si>
@@ -535,9 +535,6 @@
     <t>Inzidenz A80+</t>
   </si>
   <si>
-    <t>2022-KW01</t>
-  </si>
-  <si>
     <t>2022-KW02</t>
   </si>
   <si>
@@ -565,19 +562,25 @@
     <t>2022-KW10</t>
   </si>
   <si>
-    <t>Stand: 23.03.2022 08:58:15</t>
-  </si>
-  <si>
-    <t>Stand: 23.03.2022 08:58:16</t>
-  </si>
-  <si>
-    <t>Die dem RKI übermittelten COVID-19-Fälle nach Meldewoche, Altersgruppe und Angabe, dass eine Hospitalisierung vorlag für die Meldewochen KW 10 – 53/2020,  KW 01 – 52/2021 und KW 01 - 11/2022</t>
-  </si>
-  <si>
-    <t>Die 7-Tage-Inzidenz für hospitalisierte COVID-19-Fälle /100.000 Einwohner nach Meldedatum basierend auf der Verordnung vom 13.07.2021 zur Meldepflicht der Krankenhausaufnahme von COVID-19 Hospitalisierten ab KW01/2022.</t>
-  </si>
-  <si>
     <t>2022-KW11</t>
+  </si>
+  <si>
+    <t>Stand: 30.03.2022 07:12:01</t>
+  </si>
+  <si>
+    <t>67.5</t>
+  </si>
+  <si>
+    <t>Die dem RKI übermittelten COVID-19-Fälle nach Meldewoche, Altersgruppe und Angabe, dass eine Hospitalisierung vorlag für die Meldewochen KW 10 – 53/2020,  KW 01 – 52/2021 und KW 01 - 12/2022</t>
+  </si>
+  <si>
+    <t>Stand: 30.03.2022 07:12:02</t>
+  </si>
+  <si>
+    <t>2022-KW12</t>
+  </si>
+  <si>
+    <t>Die 7-Tage-Inzidenz für hospitalisierte COVID-19-Fälle /100.000 Einwohner nach Meldedatum basierend auf der Verordnung vom 13.07.2021 zur Meldepflicht der Krankenhausaufnahme von COVID-19 Hospitalisierten ab KW02/2022.</t>
   </si>
 </sst>
 </file>
@@ -782,7 +785,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -959,6 +962,7 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -988,7 +992,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="AG10-Geschlecht-Todesfälle001" fillFormulas="1" connectionId="1" xr16:uid="{9666F052-C69E-45C7-8E39-D7F6026D01FC}" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="AG10-Geschlecht-Todesfälle001_1" fillFormulas="1" connectionId="1" xr16:uid="{B5BF2388-D257-4F21-B724-918D97FBAB28}" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="12">
     <queryTableFields count="11">
       <queryTableField id="1" name="Geschlecht"/>
@@ -1304,20 +1308,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15B359AE-5507-4B64-BF3F-8A7ED4331CB9}">
-  <dimension ref="A1:M110"/>
+  <dimension ref="A1:M111"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="B115" sqref="B115"/>
-    </sheetView>
+    <sheetView topLeftCell="A16" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="60" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" ht="60" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1358,7 +1360,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>2020</v>
       </c>
@@ -1399,7 +1401,7 @@
         <v>1.331853496E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="11">
         <v>2020</v>
       </c>
@@ -1407,22 +1409,22 @@
         <v>11</v>
       </c>
       <c r="C5" s="12">
-        <v>6432</v>
+        <v>6431</v>
       </c>
       <c r="D5" s="13">
         <v>45</v>
       </c>
       <c r="E5" s="14">
-        <v>0.56276248250116656</v>
+        <v>0.56269446172993154</v>
       </c>
       <c r="F5" s="14">
-        <v>0.43723751749883338</v>
+        <v>0.43730553827006846</v>
       </c>
       <c r="G5" s="12">
-        <v>5753</v>
+        <v>5752</v>
       </c>
       <c r="H5" s="15">
-        <v>5.388492960194681E-2</v>
+        <v>5.3894297635605007E-2</v>
       </c>
       <c r="I5" s="12">
         <v>5529</v>
@@ -1437,10 +1439,10 @@
         <v>84</v>
       </c>
       <c r="M5" s="16">
-        <v>1.3059701490000001E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>1.3061732229999999E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="17">
         <v>2020</v>
       </c>
@@ -1448,40 +1450,40 @@
         <v>12</v>
       </c>
       <c r="C6" s="7">
-        <v>22389</v>
+        <v>22388</v>
       </c>
       <c r="D6" s="5">
         <v>45</v>
       </c>
       <c r="E6" s="6">
-        <v>0.54949720670391067</v>
+        <v>0.54947707160096537</v>
       </c>
       <c r="F6" s="6">
-        <v>0.45050279329608939</v>
+        <v>0.45052292839903457</v>
       </c>
       <c r="G6" s="7">
         <v>20043</v>
       </c>
       <c r="H6" s="8">
-        <v>3.8666866237589186E-2</v>
+        <v>3.8616973506960035E-2</v>
       </c>
       <c r="I6" s="7">
-        <v>18953</v>
+        <v>18949</v>
       </c>
       <c r="J6" s="7">
         <v>2229</v>
       </c>
       <c r="K6" s="6">
-        <v>0.11760671133857437</v>
+        <v>0.11763153728428941</v>
       </c>
       <c r="L6" s="5">
         <v>476</v>
       </c>
       <c r="M6" s="10">
-        <v>2.126044039E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>2.1261390030000001E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="11">
         <v>2020</v>
       </c>
@@ -1489,40 +1491,40 @@
         <v>13</v>
       </c>
       <c r="C7" s="12">
-        <v>33961</v>
+        <v>33966</v>
       </c>
       <c r="D7" s="13">
         <v>48</v>
       </c>
       <c r="E7" s="14">
-        <v>0.49491705218493093</v>
+        <v>0.49493253196629544</v>
       </c>
       <c r="F7" s="14">
-        <v>0.50508294781506913</v>
+        <v>0.5050674680337045</v>
       </c>
       <c r="G7" s="12">
-        <v>30688</v>
+        <v>30691</v>
       </c>
       <c r="H7" s="15">
-        <v>3.2846715328467155E-2</v>
+        <v>3.2973835977974E-2</v>
       </c>
       <c r="I7" s="12">
-        <v>29019</v>
+        <v>29017</v>
       </c>
       <c r="J7" s="12">
         <v>5145</v>
       </c>
       <c r="K7" s="14">
-        <v>0.1772976325855474</v>
+        <v>0.17730985284488404</v>
       </c>
       <c r="L7" s="12">
         <v>1461</v>
       </c>
       <c r="M7" s="16">
-        <v>4.3019934629999999E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>4.3013601829999998E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="17">
         <v>2020</v>
       </c>
@@ -1530,40 +1532,40 @@
         <v>14</v>
       </c>
       <c r="C8" s="7">
-        <v>36047</v>
+        <v>36049</v>
       </c>
       <c r="D8" s="5">
         <v>51</v>
       </c>
       <c r="E8" s="6">
-        <v>0.45079259320951665</v>
+        <v>0.45079532520889432</v>
       </c>
       <c r="F8" s="6">
-        <v>0.5492074067904833</v>
+        <v>0.54920467479110568</v>
       </c>
       <c r="G8" s="7">
-        <v>31906</v>
+        <v>31908</v>
       </c>
       <c r="H8" s="8">
-        <v>5.4441170939635179E-2</v>
+        <v>5.4469098658643599E-2</v>
       </c>
       <c r="I8" s="7">
-        <v>31290</v>
+        <v>31291</v>
       </c>
       <c r="J8" s="7">
         <v>6105</v>
       </c>
       <c r="K8" s="6">
-        <v>0.19511025886864813</v>
+        <v>0.19510402352114026</v>
       </c>
       <c r="L8" s="7">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="M8" s="10">
-        <v>6.2973340360000005E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>6.2942106570000003E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="11">
         <v>2020</v>
       </c>
@@ -1571,40 +1573,40 @@
         <v>15</v>
       </c>
       <c r="C9" s="12">
-        <v>27125</v>
+        <v>27124</v>
       </c>
       <c r="D9" s="13">
         <v>52</v>
       </c>
       <c r="E9" s="14">
-        <v>0.4346558405609891</v>
+        <v>0.43459806599247064</v>
       </c>
       <c r="F9" s="14">
-        <v>0.56534415943901084</v>
+        <v>0.56540193400752936</v>
       </c>
       <c r="G9" s="12">
-        <v>23473</v>
+        <v>23472</v>
       </c>
       <c r="H9" s="15">
-        <v>8.3713202402760617E-2</v>
+        <v>8.3716768916155412E-2</v>
       </c>
       <c r="I9" s="12">
-        <v>23870</v>
+        <v>23869</v>
       </c>
       <c r="J9" s="12">
-        <v>4733</v>
+        <v>4734</v>
       </c>
       <c r="K9" s="14">
-        <v>0.19828236279849182</v>
+        <v>0.19833256525200049</v>
       </c>
       <c r="L9" s="12">
         <v>1877</v>
       </c>
       <c r="M9" s="16">
-        <v>6.9198156679999998E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>6.9200707860000002E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="17">
         <v>2020</v>
       </c>
@@ -1612,16 +1614,16 @@
         <v>16</v>
       </c>
       <c r="C10" s="7">
-        <v>17330</v>
+        <v>17331</v>
       </c>
       <c r="D10" s="5">
         <v>51</v>
       </c>
       <c r="E10" s="6">
-        <v>0.44726201478743066</v>
+        <v>0.44729394096921388</v>
       </c>
       <c r="F10" s="6">
-        <v>0.55273798521256934</v>
+        <v>0.55270605903078607</v>
       </c>
       <c r="G10" s="7">
         <v>14776</v>
@@ -1630,22 +1632,22 @@
         <v>0.11281808337845155</v>
       </c>
       <c r="I10" s="7">
-        <v>15296</v>
+        <v>15294</v>
       </c>
       <c r="J10" s="7">
         <v>3380</v>
       </c>
       <c r="K10" s="6">
-        <v>0.22097280334728034</v>
+        <v>0.22100170001307703</v>
       </c>
       <c r="L10" s="7">
         <v>1222</v>
       </c>
       <c r="M10" s="10">
-        <v>7.05135603E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>7.0509491660000007E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="11">
         <v>2020</v>
       </c>
@@ -1653,16 +1655,16 @@
         <v>17</v>
       </c>
       <c r="C11" s="12">
-        <v>12349</v>
+        <v>12350</v>
       </c>
       <c r="D11" s="13">
         <v>50</v>
       </c>
       <c r="E11" s="14">
-        <v>0.44907557573791762</v>
+        <v>0.44903916322062759</v>
       </c>
       <c r="F11" s="14">
-        <v>0.55092442426208243</v>
+        <v>0.55096083677937246</v>
       </c>
       <c r="G11" s="12">
         <v>10190</v>
@@ -1683,10 +1685,10 @@
         <v>727</v>
       </c>
       <c r="M11" s="16">
-        <v>5.8871163650000002E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>5.8866396760000002E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="17">
         <v>2020</v>
       </c>
@@ -1706,10 +1708,10 @@
         <v>0.52154011847065163</v>
       </c>
       <c r="G12" s="7">
-        <v>6149</v>
+        <v>6150</v>
       </c>
       <c r="H12" s="8">
-        <v>0.16376646609204748</v>
+        <v>0.16357723577235772</v>
       </c>
       <c r="I12" s="7">
         <v>6518</v>
@@ -1727,7 +1729,7 @@
         <v>5.2058111380000001E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="11">
         <v>2020</v>
       </c>
@@ -1741,10 +1743,10 @@
         <v>47</v>
       </c>
       <c r="E13" s="14">
-        <v>0.48016064257028113</v>
+        <v>0.48</v>
       </c>
       <c r="F13" s="14">
-        <v>0.51983935742971887</v>
+        <v>0.52</v>
       </c>
       <c r="G13" s="12">
         <v>5211</v>
@@ -1768,7 +1770,7 @@
         <v>4.1245385969999999E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="17">
         <v>2020</v>
       </c>
@@ -1809,7 +1811,7 @@
         <v>3.4453781510000003E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="11">
         <v>2020</v>
       </c>
@@ -1850,7 +1852,7 @@
         <v>3.1102471529999998E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="17">
         <v>2020</v>
       </c>
@@ -1858,40 +1860,40 @@
         <v>22</v>
       </c>
       <c r="C16" s="7">
-        <v>3206</v>
+        <v>3207</v>
       </c>
       <c r="D16" s="5">
         <v>42</v>
       </c>
       <c r="E16" s="6">
-        <v>0.51471509079524103</v>
+        <v>0.51455399061032869</v>
       </c>
       <c r="F16" s="6">
-        <v>0.48528490920475892</v>
+        <v>0.48544600938967136</v>
       </c>
       <c r="G16" s="7">
-        <v>2578</v>
+        <v>2579</v>
       </c>
       <c r="H16" s="8">
-        <v>0.23855702094647013</v>
+        <v>0.23885226832105466</v>
       </c>
       <c r="I16" s="7">
-        <v>2727</v>
+        <v>2729</v>
       </c>
       <c r="J16" s="5">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="K16" s="6">
-        <v>0.15438210487715437</v>
+        <v>0.15463539758153169</v>
       </c>
       <c r="L16" s="5">
         <v>64</v>
       </c>
       <c r="M16" s="10">
-        <v>1.996257018E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>1.9956345489999999E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="11">
         <v>2020</v>
       </c>
@@ -1932,7 +1934,7 @@
         <v>1.9132653060000001E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="17">
         <v>2020</v>
       </c>
@@ -1958,13 +1960,13 @@
         <v>0.25642458100558657</v>
       </c>
       <c r="I18" s="7">
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="J18" s="5">
         <v>290</v>
       </c>
       <c r="K18" s="6">
-        <v>0.1388888888888889</v>
+        <v>0.13895543842836608</v>
       </c>
       <c r="L18" s="5">
         <v>33</v>
@@ -1973,7 +1975,7 @@
         <v>1.407849829E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="11">
         <v>2020</v>
       </c>
@@ -1993,19 +1995,19 @@
         <v>0.41144088080421254</v>
       </c>
       <c r="G19" s="12">
-        <v>2949</v>
+        <v>2950</v>
       </c>
       <c r="H19" s="15">
-        <v>0.24855883350288233</v>
+        <v>0.24847457627118644</v>
       </c>
       <c r="I19" s="12">
-        <v>3813</v>
+        <v>3812</v>
       </c>
       <c r="J19" s="13">
         <v>324</v>
       </c>
       <c r="K19" s="14">
-        <v>8.4972462627852088E-2</v>
+        <v>8.4994753410283314E-2</v>
       </c>
       <c r="L19" s="13">
         <v>41</v>
@@ -2014,7 +2016,7 @@
         <v>9.7968936600000001E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="17">
         <v>2020</v>
       </c>
@@ -2022,40 +2024,40 @@
         <v>26</v>
       </c>
       <c r="C20" s="7">
-        <v>3163</v>
+        <v>3165</v>
       </c>
       <c r="D20" s="5">
         <v>37</v>
       </c>
       <c r="E20" s="6">
-        <v>0.549224438113327</v>
+        <v>0.54919329326162603</v>
       </c>
       <c r="F20" s="6">
-        <v>0.450775561886673</v>
+        <v>0.45080670673837392</v>
       </c>
       <c r="G20" s="7">
-        <v>2347</v>
+        <v>2348</v>
       </c>
       <c r="H20" s="8">
-        <v>0.23775031955688111</v>
+        <v>0.23764906303236796</v>
       </c>
       <c r="I20" s="7">
-        <v>2814</v>
+        <v>2815</v>
       </c>
       <c r="J20" s="5">
         <v>296</v>
       </c>
       <c r="K20" s="6">
-        <v>0.10518834399431415</v>
+        <v>0.10515097690941386</v>
       </c>
       <c r="L20" s="5">
         <v>24</v>
       </c>
       <c r="M20" s="10">
-        <v>7.5877331600000004E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>7.5829383800000002E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="11">
         <v>2020</v>
       </c>
@@ -2096,7 +2098,7 @@
         <v>9.6690219399999996E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="17">
         <v>2020</v>
       </c>
@@ -2137,7 +2139,7 @@
         <v>1.0326311439999999E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="11">
         <v>2020</v>
       </c>
@@ -2178,7 +2180,7 @@
         <v>9.8684210499999994E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="17">
         <v>2020</v>
       </c>
@@ -2186,16 +2188,16 @@
         <v>30</v>
       </c>
       <c r="C24" s="7">
-        <v>3933</v>
+        <v>3934</v>
       </c>
       <c r="D24" s="5">
         <v>36</v>
       </c>
       <c r="E24" s="6">
-        <v>0.52394294447274581</v>
+        <v>0.52380952380952384</v>
       </c>
       <c r="F24" s="6">
-        <v>0.47605705552725419</v>
+        <v>0.47619047619047616</v>
       </c>
       <c r="G24" s="7">
         <v>3153</v>
@@ -2216,10 +2218,10 @@
         <v>33</v>
       </c>
       <c r="M24" s="10">
-        <v>8.3905415699999999E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>8.3884087400000005E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="11">
         <v>2020</v>
       </c>
@@ -2227,40 +2229,40 @@
         <v>31</v>
       </c>
       <c r="C25" s="12">
-        <v>4836</v>
+        <v>4838</v>
       </c>
       <c r="D25" s="13">
         <v>36</v>
       </c>
       <c r="E25" s="14">
-        <v>0.50113942407292311</v>
+        <v>0.50113895216400917</v>
       </c>
       <c r="F25" s="14">
-        <v>0.49886057592707683</v>
+        <v>0.49886104783599089</v>
       </c>
       <c r="G25" s="12">
-        <v>3795</v>
+        <v>3798</v>
       </c>
       <c r="H25" s="15">
-        <v>0.24927536231884059</v>
+        <v>0.2493417588204318</v>
       </c>
       <c r="I25" s="12">
-        <v>4204</v>
+        <v>4203</v>
       </c>
       <c r="J25" s="13">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="K25" s="14">
-        <v>9.1817316841103711E-2</v>
+        <v>9.2077087794432549E-2</v>
       </c>
       <c r="L25" s="13">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M25" s="16">
-        <v>7.6509511899999997E-3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>7.4410913599999998E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="17">
         <v>2020</v>
       </c>
@@ -2268,16 +2270,16 @@
         <v>32</v>
       </c>
       <c r="C26" s="7">
-        <v>6063</v>
+        <v>6065</v>
       </c>
       <c r="D26" s="5">
         <v>34</v>
       </c>
       <c r="E26" s="6">
-        <v>0.53691164327002472</v>
+        <v>0.5368994551758296</v>
       </c>
       <c r="F26" s="6">
-        <v>0.46308835672997523</v>
+        <v>0.4631005448241704</v>
       </c>
       <c r="G26" s="7">
         <v>4582</v>
@@ -2286,22 +2288,22 @@
         <v>0.30074203404626798</v>
       </c>
       <c r="I26" s="7">
-        <v>5284</v>
+        <v>5286</v>
       </c>
       <c r="J26" s="5">
         <v>405</v>
       </c>
       <c r="K26" s="6">
-        <v>7.6646479939439821E-2</v>
+        <v>7.6617480136208851E-2</v>
       </c>
       <c r="L26" s="5">
         <v>33</v>
       </c>
       <c r="M26" s="10">
-        <v>5.4428500699999997E-3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>5.4410552300000001E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="11">
         <v>2020</v>
       </c>
@@ -2309,7 +2311,7 @@
         <v>33</v>
       </c>
       <c r="C27" s="12">
-        <v>7956</v>
+        <v>7955</v>
       </c>
       <c r="D27" s="13">
         <v>32</v>
@@ -2339,10 +2341,10 @@
         <v>31</v>
       </c>
       <c r="M27" s="16">
-        <v>3.8964303600000001E-3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>3.8969201700000001E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="17">
         <v>2020</v>
       </c>
@@ -2350,40 +2352,40 @@
         <v>34</v>
       </c>
       <c r="C28" s="7">
-        <v>9595</v>
+        <v>9596</v>
       </c>
       <c r="D28" s="5">
         <v>32</v>
       </c>
       <c r="E28" s="6">
-        <v>0.54713822329182793</v>
+        <v>0.5471856036827788</v>
       </c>
       <c r="F28" s="6">
-        <v>0.45286177670817201</v>
+        <v>0.4528143963172212</v>
       </c>
       <c r="G28" s="7">
-        <v>7195</v>
+        <v>7197</v>
       </c>
       <c r="H28" s="8">
-        <v>0.34398888116747739</v>
+        <v>0.34403223565374463</v>
       </c>
       <c r="I28" s="7">
-        <v>8210</v>
+        <v>8211</v>
       </c>
       <c r="J28" s="5">
         <v>438</v>
       </c>
       <c r="K28" s="6">
-        <v>5.3349573690621196E-2</v>
+        <v>5.3343076360979173E-2</v>
       </c>
       <c r="L28" s="5">
         <v>31</v>
       </c>
       <c r="M28" s="10">
-        <v>3.2308494000000002E-3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>3.2305127099999998E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="11">
         <v>2020</v>
       </c>
@@ -2391,40 +2393,40 @@
         <v>35</v>
       </c>
       <c r="C29" s="12">
-        <v>8834</v>
+        <v>8833</v>
       </c>
       <c r="D29" s="13">
         <v>32</v>
       </c>
       <c r="E29" s="14">
-        <v>0.53036851683348496</v>
+        <v>0.53042884768513254</v>
       </c>
       <c r="F29" s="14">
-        <v>0.46963148316651504</v>
+        <v>0.46957115231486746</v>
       </c>
       <c r="G29" s="12">
-        <v>6864</v>
+        <v>6863</v>
       </c>
       <c r="H29" s="15">
-        <v>0.30375874125874125</v>
+        <v>0.30380300160279761</v>
       </c>
       <c r="I29" s="12">
-        <v>7337</v>
+        <v>7336</v>
       </c>
       <c r="J29" s="13">
         <v>373</v>
       </c>
       <c r="K29" s="14">
-        <v>5.0838217255008859E-2</v>
+        <v>5.0845147219193018E-2</v>
       </c>
       <c r="L29" s="13">
         <v>18</v>
       </c>
       <c r="M29" s="16">
-        <v>2.0375820600000002E-3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>2.03781274E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="17">
         <v>2020</v>
       </c>
@@ -2432,40 +2434,40 @@
         <v>36</v>
       </c>
       <c r="C30" s="7">
-        <v>8614</v>
+        <v>8616</v>
       </c>
       <c r="D30" s="5">
         <v>33</v>
       </c>
       <c r="E30" s="6">
-        <v>0.53667638483965019</v>
+        <v>0.53655124169289958</v>
       </c>
       <c r="F30" s="6">
-        <v>0.46332361516034987</v>
+        <v>0.46344875830710036</v>
       </c>
       <c r="G30" s="7">
-        <v>6664</v>
+        <v>6665</v>
       </c>
       <c r="H30" s="8">
-        <v>0.2662064825930372</v>
+        <v>0.26616654163540887</v>
       </c>
       <c r="I30" s="7">
-        <v>7026</v>
+        <v>7027</v>
       </c>
       <c r="J30" s="5">
         <v>407</v>
       </c>
       <c r="K30" s="6">
-        <v>5.7927697124964421E-2</v>
+        <v>5.7919453536359758E-2</v>
       </c>
       <c r="L30" s="5">
         <v>36</v>
       </c>
       <c r="M30" s="10">
-        <v>4.1792430899999997E-3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>4.1782729799999998E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="11">
         <v>2020</v>
       </c>
@@ -2485,10 +2487,10 @@
         <v>0.48214469486467015</v>
       </c>
       <c r="G31" s="12">
-        <v>7685</v>
+        <v>7686</v>
       </c>
       <c r="H31" s="15">
-        <v>0.19973975276512687</v>
+        <v>0.19971376528753579</v>
       </c>
       <c r="I31" s="12">
         <v>7922</v>
@@ -2506,7 +2508,7 @@
         <v>6.9657856900000002E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="17">
         <v>2020</v>
       </c>
@@ -2514,16 +2516,16 @@
         <v>38</v>
       </c>
       <c r="C32" s="7">
-        <v>12290</v>
+        <v>12291</v>
       </c>
       <c r="D32" s="5">
         <v>36</v>
       </c>
       <c r="E32" s="6">
-        <v>0.51122907309105758</v>
+        <v>0.51118732647395071</v>
       </c>
       <c r="F32" s="6">
-        <v>0.48877092690894242</v>
+        <v>0.48881267352604935</v>
       </c>
       <c r="G32" s="7">
         <v>9936</v>
@@ -2532,22 +2534,22 @@
         <v>0.18095813204508857</v>
       </c>
       <c r="I32" s="7">
-        <v>10106</v>
+        <v>10107</v>
       </c>
       <c r="J32" s="5">
         <v>686</v>
       </c>
       <c r="K32" s="6">
-        <v>6.7880467049277651E-2</v>
+        <v>6.7873750865736618E-2</v>
       </c>
       <c r="L32" s="5">
         <v>82</v>
       </c>
       <c r="M32" s="10">
-        <v>6.6720911300000001E-3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>6.67154828E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="11">
         <v>2020</v>
       </c>
@@ -2561,10 +2563,10 @@
         <v>37</v>
       </c>
       <c r="E33" s="14">
-        <v>0.51590594744121721</v>
+        <v>0.51582910711541419</v>
       </c>
       <c r="F33" s="14">
-        <v>0.48409405255878285</v>
+        <v>0.48417089288458581</v>
       </c>
       <c r="G33" s="12">
         <v>10477</v>
@@ -2588,7 +2590,7 @@
         <v>8.4168643299999991E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="17">
         <v>2020</v>
       </c>
@@ -2596,40 +2598,40 @@
         <v>40</v>
       </c>
       <c r="C34" s="7">
-        <v>15928</v>
+        <v>15931</v>
       </c>
       <c r="D34" s="5">
         <v>38</v>
       </c>
       <c r="E34" s="6">
-        <v>0.51882160392798693</v>
+        <v>0.51878658191201465</v>
       </c>
       <c r="F34" s="6">
-        <v>0.48117839607201307</v>
+        <v>0.4812134180879854</v>
       </c>
       <c r="G34" s="7">
-        <v>12703</v>
+        <v>12705</v>
       </c>
       <c r="H34" s="8">
-        <v>0.17003857356529953</v>
+        <v>0.17001180637544275</v>
       </c>
       <c r="I34" s="7">
-        <v>13386</v>
+        <v>13388</v>
       </c>
       <c r="J34" s="5">
         <v>890</v>
       </c>
       <c r="K34" s="6">
-        <v>6.6487374869266397E-2</v>
+        <v>6.6477442485808183E-2</v>
       </c>
       <c r="L34" s="5">
         <v>122</v>
       </c>
       <c r="M34" s="10">
-        <v>7.6594675999999999E-3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>7.6580252299999997E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="18">
         <v>2020</v>
       </c>
@@ -2637,40 +2639,40 @@
         <v>41</v>
       </c>
       <c r="C35" s="19">
-        <v>26122</v>
+        <v>26123</v>
       </c>
       <c r="D35" s="20">
         <v>39</v>
       </c>
       <c r="E35" s="21">
-        <v>0.50980467400897966</v>
+        <v>0.50986185725249422</v>
       </c>
       <c r="F35" s="21">
-        <v>0.49019532599102039</v>
+        <v>0.49013814274750578</v>
       </c>
       <c r="G35" s="19">
-        <v>20207</v>
+        <v>20213</v>
       </c>
       <c r="H35" s="22">
-        <v>0.15969713465630722</v>
+        <v>0.15964973037154306</v>
       </c>
       <c r="I35" s="19">
-        <v>21369</v>
+        <v>21375</v>
       </c>
       <c r="J35" s="20">
-        <v>1616</v>
+        <v>1617</v>
       </c>
       <c r="K35" s="21">
-        <v>7.562356684917404E-2</v>
+        <v>7.5649122807017549E-2</v>
       </c>
       <c r="L35" s="20">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="M35" s="23">
-        <v>9.4173493600000005E-3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>9.3787084100000005E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="17">
         <v>2020</v>
       </c>
@@ -2690,19 +2692,19 @@
         <v>0.49179115162506565</v>
       </c>
       <c r="G36" s="7">
-        <v>31309</v>
+        <v>31315</v>
       </c>
       <c r="H36" s="8">
-        <v>0.15631288128014309</v>
+        <v>0.15631486508063228</v>
       </c>
       <c r="I36" s="7">
-        <v>33815</v>
+        <v>33816</v>
       </c>
       <c r="J36" s="5">
         <v>2358</v>
       </c>
       <c r="K36" s="6">
-        <v>6.9732367292621611E-2</v>
+        <v>6.9730305180979418E-2</v>
       </c>
       <c r="L36" s="5">
         <v>463</v>
@@ -2711,7 +2713,7 @@
         <v>1.100886891E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="18">
         <v>2020</v>
       </c>
@@ -2719,40 +2721,40 @@
         <v>43</v>
       </c>
       <c r="C37" s="12">
-        <v>74867</v>
+        <v>74871</v>
       </c>
       <c r="D37" s="13">
         <v>40</v>
       </c>
       <c r="E37" s="14">
-        <v>0.50147480760464436</v>
+        <v>0.50148813513875856</v>
       </c>
       <c r="F37" s="14">
-        <v>0.4985251923953557</v>
+        <v>0.49851186486124144</v>
       </c>
       <c r="G37" s="12">
-        <v>53242</v>
+        <v>53246</v>
       </c>
       <c r="H37" s="15">
-        <v>0.15061417677773187</v>
+        <v>0.15062164294031477</v>
       </c>
       <c r="I37" s="12">
-        <v>58295</v>
+        <v>58296</v>
       </c>
       <c r="J37" s="13">
         <v>4170</v>
       </c>
       <c r="K37" s="14">
-        <v>7.1532721502701777E-2</v>
+        <v>7.153149444215727E-2</v>
       </c>
       <c r="L37" s="13">
         <v>1015</v>
       </c>
       <c r="M37" s="16">
-        <v>1.3557375070000001E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>1.3556650769999999E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="17">
         <v>2020</v>
       </c>
@@ -2766,34 +2768,34 @@
         <v>41</v>
       </c>
       <c r="E38" s="6">
-        <v>0.49694517609362698</v>
+        <v>0.49697233008390584</v>
       </c>
       <c r="F38" s="6">
-        <v>0.50305482390637302</v>
+        <v>0.50302766991609416</v>
       </c>
       <c r="G38" s="7">
-        <v>76973</v>
+        <v>76974</v>
       </c>
       <c r="H38" s="8">
-        <v>0.15297571875852572</v>
+        <v>0.15296073999012655</v>
       </c>
       <c r="I38" s="7">
-        <v>84508</v>
+        <v>84509</v>
       </c>
       <c r="J38" s="5">
         <v>6002</v>
       </c>
       <c r="K38" s="6">
-        <v>7.1022861740900264E-2</v>
+        <v>7.1022021323172674E-2</v>
       </c>
       <c r="L38" s="5">
-        <v>1620</v>
+        <v>1621</v>
       </c>
       <c r="M38" s="10">
-        <v>1.4594594589999999E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>1.4603603600000001E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="18">
         <v>2020</v>
       </c>
@@ -2801,40 +2803,40 @@
         <v>45</v>
       </c>
       <c r="C39" s="19">
-        <v>125718</v>
+        <v>125715</v>
       </c>
       <c r="D39" s="20">
         <v>41</v>
       </c>
       <c r="E39" s="21">
-        <v>0.49090705433365067</v>
+        <v>0.49090283556295206</v>
       </c>
       <c r="F39" s="21">
-        <v>0.50909294566634933</v>
+        <v>0.50909716443704789</v>
       </c>
       <c r="G39" s="19">
-        <v>87204</v>
+        <v>87245</v>
       </c>
       <c r="H39" s="22">
-        <v>0.14998165221778817</v>
+        <v>0.14989970771964009</v>
       </c>
       <c r="I39" s="19">
-        <v>94158</v>
+        <v>94194</v>
       </c>
       <c r="J39" s="20">
         <v>6919</v>
       </c>
       <c r="K39" s="21">
-        <v>7.3482869219822E-2</v>
+        <v>7.3454784805826276E-2</v>
       </c>
       <c r="L39" s="20">
         <v>1898</v>
       </c>
       <c r="M39" s="23">
-        <v>1.5097281210000001E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>1.5097641490000001E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="17">
         <v>2020</v>
       </c>
@@ -2842,40 +2844,40 @@
         <v>46</v>
       </c>
       <c r="C40" s="7">
-        <v>127810</v>
+        <v>127809</v>
       </c>
       <c r="D40" s="5">
         <v>42</v>
       </c>
       <c r="E40" s="6">
-        <v>0.48443841964644596</v>
+        <v>0.48446181855439346</v>
       </c>
       <c r="F40" s="6">
-        <v>0.51556158035355404</v>
+        <v>0.51553818144560648</v>
       </c>
       <c r="G40" s="7">
-        <v>87615</v>
+        <v>87616</v>
       </c>
       <c r="H40" s="8">
-        <v>0.14624208183530218</v>
+        <v>0.1462518261504748</v>
       </c>
       <c r="I40" s="7">
-        <v>96477</v>
+        <v>96474</v>
       </c>
       <c r="J40" s="5">
         <v>7620</v>
       </c>
       <c r="K40" s="6">
-        <v>7.8982555427718523E-2</v>
+        <v>7.898501150569065E-2</v>
       </c>
       <c r="L40" s="5">
         <v>2530</v>
       </c>
       <c r="M40" s="10">
-        <v>1.9795008209999999E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>1.9795163090000002E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="18">
         <v>2020</v>
       </c>
@@ -2883,40 +2885,40 @@
         <v>47</v>
       </c>
       <c r="C41" s="19">
-        <v>128395</v>
+        <v>128396</v>
       </c>
       <c r="D41" s="20">
         <v>43</v>
       </c>
       <c r="E41" s="21">
-        <v>0.47415318602502465</v>
+        <v>0.47414164350311239</v>
       </c>
       <c r="F41" s="21">
-        <v>0.52584681397497535</v>
+        <v>0.52585835649688761</v>
       </c>
       <c r="G41" s="19">
-        <v>88551</v>
+        <v>88550</v>
       </c>
       <c r="H41" s="22">
-        <v>0.14690969046086436</v>
+        <v>0.14691134952004517</v>
       </c>
       <c r="I41" s="19">
-        <v>96474</v>
+        <v>96473</v>
       </c>
       <c r="J41" s="20">
         <v>8173</v>
       </c>
       <c r="K41" s="21">
-        <v>8.4717125857744061E-2</v>
+        <v>8.4718004001119479E-2</v>
       </c>
       <c r="L41" s="20">
         <v>3216</v>
       </c>
       <c r="M41" s="23">
-        <v>2.5047704340000001E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>2.504750926E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="17">
         <v>2020</v>
       </c>
@@ -2924,22 +2926,22 @@
         <v>48</v>
       </c>
       <c r="C42" s="7">
-        <v>123143</v>
+        <v>123146</v>
       </c>
       <c r="D42" s="5">
         <v>44</v>
       </c>
       <c r="E42" s="6">
-        <v>0.4652176397130241</v>
+        <v>0.46523073407224824</v>
       </c>
       <c r="F42" s="6">
-        <v>0.5347823602869759</v>
+        <v>0.53476926592775176</v>
       </c>
       <c r="G42" s="7">
-        <v>84474</v>
+        <v>84472</v>
       </c>
       <c r="H42" s="8">
-        <v>0.1535857186826716</v>
+        <v>0.15357751681030402</v>
       </c>
       <c r="I42" s="7">
         <v>92278</v>
@@ -2954,10 +2956,10 @@
         <v>3585</v>
       </c>
       <c r="M42" s="10">
-        <v>2.911249522E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>2.9111786010000001E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="18">
         <v>2020</v>
       </c>
@@ -2965,40 +2967,40 @@
         <v>49</v>
       </c>
       <c r="C43" s="19">
-        <v>128364</v>
+        <v>128369</v>
       </c>
       <c r="D43" s="20">
         <v>45</v>
       </c>
       <c r="E43" s="21">
-        <v>0.45912393313112787</v>
+        <v>0.45912945343970907</v>
       </c>
       <c r="F43" s="21">
-        <v>0.54087606686887213</v>
+        <v>0.54087054656029088</v>
       </c>
       <c r="G43" s="19">
-        <v>89650</v>
+        <v>89652</v>
       </c>
       <c r="H43" s="22">
-        <v>0.14093697713329614</v>
+        <v>0.14093383304332308</v>
       </c>
       <c r="I43" s="19">
-        <v>96397</v>
+        <v>96399</v>
       </c>
       <c r="J43" s="20">
-        <v>9255</v>
+        <v>9256</v>
       </c>
       <c r="K43" s="21">
-        <v>9.6009211904934805E-2</v>
+        <v>9.6017593543501492E-2</v>
       </c>
       <c r="L43" s="20">
         <v>4466</v>
       </c>
       <c r="M43" s="23">
-        <v>3.479168614E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>3.479033099E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="17">
         <v>2020</v>
       </c>
@@ -3012,25 +3014,25 @@
         <v>46</v>
       </c>
       <c r="E44" s="6">
-        <v>0.45371519715981812</v>
+        <v>0.45370525205490025</v>
       </c>
       <c r="F44" s="6">
-        <v>0.54628480284018188</v>
+        <v>0.5462947479450998</v>
       </c>
       <c r="G44" s="7">
-        <v>110390</v>
+        <v>110391</v>
       </c>
       <c r="H44" s="8">
-        <v>0.14511278195488722</v>
+        <v>0.1451114674203513</v>
       </c>
       <c r="I44" s="7">
-        <v>117346</v>
+        <v>117343</v>
       </c>
       <c r="J44" s="5">
-        <v>11344</v>
+        <v>11343</v>
       </c>
       <c r="K44" s="6">
-        <v>9.6671382066708708E-2</v>
+        <v>9.6665331549389402E-2</v>
       </c>
       <c r="L44" s="5">
         <v>5740</v>
@@ -3039,7 +3041,7 @@
         <v>3.6722838530000003E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="18">
         <v>2020</v>
       </c>
@@ -3047,40 +3049,40 @@
         <v>51</v>
       </c>
       <c r="C45" s="19">
-        <v>174685</v>
+        <v>174693</v>
       </c>
       <c r="D45" s="20">
         <v>46</v>
       </c>
       <c r="E45" s="21">
-        <v>0.45166431715526911</v>
+        <v>0.45168380292630161</v>
       </c>
       <c r="F45" s="21">
-        <v>0.54833568284473089</v>
+        <v>0.54831619707369839</v>
       </c>
       <c r="G45" s="19">
-        <v>122325</v>
+        <v>122328</v>
       </c>
       <c r="H45" s="22">
-        <v>0.14419783363989372</v>
+        <v>0.1441942972990648</v>
       </c>
       <c r="I45" s="19">
-        <v>129992</v>
+        <v>129993</v>
       </c>
       <c r="J45" s="20">
-        <v>12651</v>
+        <v>12653</v>
       </c>
       <c r="K45" s="21">
-        <v>9.7321373622992188E-2</v>
+        <v>9.733601040056003E-2</v>
       </c>
       <c r="L45" s="20">
         <v>6434</v>
       </c>
       <c r="M45" s="23">
-        <v>3.6832011900000003E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>3.6830325189999999E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="17">
         <v>2020</v>
       </c>
@@ -3100,19 +3102,19 @@
         <v>0.5551897543504215</v>
       </c>
       <c r="G46" s="7">
-        <v>95492</v>
+        <v>95493</v>
       </c>
       <c r="H46" s="8">
-        <v>0.15770954634943241</v>
+        <v>0.15770789481951555</v>
       </c>
       <c r="I46" s="7">
-        <v>103161</v>
+        <v>103158</v>
       </c>
       <c r="J46" s="5">
         <v>11112</v>
       </c>
       <c r="K46" s="6">
-        <v>0.10771512490185245</v>
+        <v>0.10771825743034956</v>
       </c>
       <c r="L46" s="5">
         <v>5697</v>
@@ -3121,7 +3123,7 @@
         <v>4.1006852470000001E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="18">
         <v>2020</v>
       </c>
@@ -3129,40 +3131,40 @@
         <v>53</v>
       </c>
       <c r="C47" s="19">
-        <v>123078</v>
+        <v>123077</v>
       </c>
       <c r="D47" s="20">
         <v>49</v>
       </c>
       <c r="E47" s="21">
-        <v>0.44095666394112837</v>
+        <v>0.44096026950343009</v>
       </c>
       <c r="F47" s="21">
-        <v>0.55904333605887158</v>
+        <v>0.55903973049656985</v>
       </c>
       <c r="G47" s="19">
-        <v>87502</v>
+        <v>87503</v>
       </c>
       <c r="H47" s="22">
-        <v>0.13376837100866265</v>
+        <v>0.13376684227969327</v>
       </c>
       <c r="I47" s="19">
-        <v>93470</v>
+        <v>93469</v>
       </c>
       <c r="J47" s="20">
         <v>11056</v>
       </c>
       <c r="K47" s="21">
-        <v>0.11828394137156306</v>
+        <v>0.11828520686002846</v>
       </c>
       <c r="L47" s="20">
         <v>5706</v>
       </c>
       <c r="M47" s="23">
-        <v>4.6360844339999999E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>4.6361221020000003E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="25">
         <v>2021</v>
       </c>
@@ -3176,25 +3178,25 @@
         <v>48</v>
       </c>
       <c r="E48" s="29">
-        <v>0.45018865838320454</v>
+        <v>0.45019556894669194</v>
       </c>
       <c r="F48" s="29">
-        <v>0.54981134161679546</v>
+        <v>0.54980443105330812</v>
       </c>
       <c r="G48" s="27">
-        <v>106576</v>
+        <v>106575</v>
       </c>
       <c r="H48" s="30">
-        <v>0.13118338087374268</v>
+        <v>0.13118461177574478</v>
       </c>
       <c r="I48" s="27">
-        <v>111548</v>
+        <v>111545</v>
       </c>
       <c r="J48" s="28">
-        <v>11255</v>
+        <v>11259</v>
       </c>
       <c r="K48" s="29">
-        <v>0.10089826801018395</v>
+        <v>0.1009368416334215</v>
       </c>
       <c r="L48" s="28">
         <v>5716</v>
@@ -3203,7 +3205,7 @@
         <v>3.9287653530000001E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="18">
         <v>2021</v>
       </c>
@@ -3211,40 +3213,40 @@
         <v>2</v>
       </c>
       <c r="C49" s="19">
-        <v>118905</v>
+        <v>118904</v>
       </c>
       <c r="D49" s="20">
         <v>48</v>
       </c>
       <c r="E49" s="21">
-        <v>0.45344263127173057</v>
+        <v>0.45342954791553869</v>
       </c>
       <c r="F49" s="21">
-        <v>0.54655736872826943</v>
+        <v>0.54657045208446131</v>
       </c>
       <c r="G49" s="19">
-        <v>86009</v>
+        <v>86010</v>
       </c>
       <c r="H49" s="22">
-        <v>0.1586113081189178</v>
+        <v>0.15860946401581211</v>
       </c>
       <c r="I49" s="19">
-        <v>91546</v>
+        <v>91540</v>
       </c>
       <c r="J49" s="20">
-        <v>9981</v>
+        <v>9983</v>
       </c>
       <c r="K49" s="21">
-        <v>0.10902715574683766</v>
+        <v>0.1090561503168014</v>
       </c>
       <c r="L49" s="20">
-        <v>5076</v>
+        <v>5077</v>
       </c>
       <c r="M49" s="23">
-        <v>4.2689542070000003E-2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>4.2698311240000002E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="17">
         <v>2021</v>
       </c>
@@ -3252,40 +3254,40 @@
         <v>3</v>
       </c>
       <c r="C50" s="7">
-        <v>95545</v>
+        <v>95550</v>
       </c>
       <c r="D50" s="5">
         <v>48</v>
       </c>
       <c r="E50" s="6">
-        <v>0.4575966342361294</v>
+        <v>0.45762034475867946</v>
       </c>
       <c r="F50" s="6">
-        <v>0.5424033657638706</v>
+        <v>0.54237965524132059</v>
       </c>
       <c r="G50" s="7">
-        <v>70995</v>
+        <v>70998</v>
       </c>
       <c r="H50" s="8">
-        <v>0.15979998591450101</v>
+        <v>0.15979323361221442</v>
       </c>
       <c r="I50" s="7">
         <v>75883</v>
       </c>
       <c r="J50" s="5">
-        <v>8926</v>
+        <v>8930</v>
       </c>
       <c r="K50" s="6">
-        <v>0.11762845433100957</v>
+        <v>0.11768116705981577</v>
       </c>
       <c r="L50" s="5">
         <v>4079</v>
       </c>
       <c r="M50" s="10">
-        <v>4.269192527E-2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>4.2689691260000003E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="18">
         <v>2021</v>
       </c>
@@ -3293,40 +3295,40 @@
         <v>4</v>
       </c>
       <c r="C51" s="19">
-        <v>78177</v>
+        <v>78180</v>
       </c>
       <c r="D51" s="20">
         <v>48</v>
       </c>
       <c r="E51" s="21">
-        <v>0.46304481907894735</v>
+        <v>0.46303291958985426</v>
       </c>
       <c r="F51" s="21">
-        <v>0.53695518092105265</v>
+        <v>0.53696708041014574</v>
       </c>
       <c r="G51" s="19">
-        <v>58786</v>
+        <v>58788</v>
       </c>
       <c r="H51" s="22">
-        <v>0.16061647330997175</v>
+        <v>0.16061100904946587</v>
       </c>
       <c r="I51" s="19">
         <v>63999</v>
       </c>
       <c r="J51" s="20">
-        <v>7571</v>
+        <v>7576</v>
       </c>
       <c r="K51" s="21">
-        <v>0.1182987234175534</v>
+        <v>0.11837684963827559</v>
       </c>
       <c r="L51" s="20">
-        <v>3078</v>
+        <v>3079</v>
       </c>
       <c r="M51" s="23">
-        <v>3.9372193860000002E-2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>3.9383474029999997E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="17">
         <v>2021</v>
       </c>
@@ -3334,40 +3336,40 @@
         <v>5</v>
       </c>
       <c r="C52" s="7">
-        <v>64585</v>
+        <v>64587</v>
       </c>
       <c r="D52" s="5">
         <v>46</v>
       </c>
       <c r="E52" s="6">
-        <v>0.47306638435670695</v>
+        <v>0.47308279104524081</v>
       </c>
       <c r="F52" s="6">
-        <v>0.52693361564329311</v>
+        <v>0.52691720895475913</v>
       </c>
       <c r="G52" s="7">
-        <v>49665</v>
+        <v>49666</v>
       </c>
       <c r="H52" s="8">
-        <v>0.16198530152018525</v>
+        <v>0.16198204002738292</v>
       </c>
       <c r="I52" s="7">
-        <v>53376</v>
+        <v>53377</v>
       </c>
       <c r="J52" s="5">
-        <v>6512</v>
+        <v>6517</v>
       </c>
       <c r="K52" s="6">
-        <v>0.12200239808153478</v>
+        <v>0.12209378571294753</v>
       </c>
       <c r="L52" s="5">
         <v>2246</v>
       </c>
       <c r="M52" s="10">
-        <v>3.4775876749999997E-2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>3.4774799879999999E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="18">
         <v>2021</v>
       </c>
@@ -3375,16 +3377,16 @@
         <v>6</v>
       </c>
       <c r="C53" s="19">
-        <v>50814</v>
+        <v>50815</v>
       </c>
       <c r="D53" s="20">
         <v>45</v>
       </c>
       <c r="E53" s="21">
-        <v>0.48346322743996517</v>
+        <v>0.48345366432598158</v>
       </c>
       <c r="F53" s="21">
-        <v>0.51653677256003483</v>
+        <v>0.51654633567401842</v>
       </c>
       <c r="G53" s="19">
         <v>40046</v>
@@ -3393,22 +3395,22 @@
         <v>0.16575937671677571</v>
       </c>
       <c r="I53" s="19">
-        <v>42414</v>
+        <v>42415</v>
       </c>
       <c r="J53" s="20">
         <v>5240</v>
       </c>
       <c r="K53" s="21">
-        <v>0.12354411279294572</v>
+        <v>0.12354120004715313</v>
       </c>
       <c r="L53" s="20">
         <v>1675</v>
       </c>
       <c r="M53" s="23">
-        <v>3.2963356550000003E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>3.2962707860000003E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="17">
         <v>2021</v>
       </c>
@@ -3416,40 +3418,40 @@
         <v>7</v>
       </c>
       <c r="C54" s="7">
-        <v>52428</v>
+        <v>52432</v>
       </c>
       <c r="D54" s="5">
         <v>44</v>
       </c>
       <c r="E54" s="6">
-        <v>0.49090142895452632</v>
+        <v>0.49088297261061098</v>
       </c>
       <c r="F54" s="6">
-        <v>0.50909857104547374</v>
+        <v>0.50911702738938902</v>
       </c>
       <c r="G54" s="7">
-        <v>41715</v>
+        <v>41716</v>
       </c>
       <c r="H54" s="8">
-        <v>0.16274721323265012</v>
+        <v>0.16274331191868827</v>
       </c>
       <c r="I54" s="7">
-        <v>43961</v>
+        <v>43959</v>
       </c>
       <c r="J54" s="5">
         <v>5155</v>
       </c>
       <c r="K54" s="6">
-        <v>0.11726302859352608</v>
+        <v>0.117268363702541</v>
       </c>
       <c r="L54" s="5">
         <v>1471</v>
       </c>
       <c r="M54" s="10">
-        <v>2.805752651E-2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>2.805538602E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="18">
         <v>2021</v>
       </c>
@@ -3457,40 +3459,40 @@
         <v>8</v>
       </c>
       <c r="C55" s="19">
-        <v>56383</v>
+        <v>56386</v>
       </c>
       <c r="D55" s="20">
         <v>42</v>
       </c>
       <c r="E55" s="21">
-        <v>0.4962724409729018</v>
+        <v>0.49626374408426149</v>
       </c>
       <c r="F55" s="21">
-        <v>0.5037275590270982</v>
+        <v>0.50373625591573856</v>
       </c>
       <c r="G55" s="19">
-        <v>44944</v>
+        <v>44943</v>
       </c>
       <c r="H55" s="22">
-        <v>0.16086685653257388</v>
+        <v>0.16082593507331508</v>
       </c>
       <c r="I55" s="19">
-        <v>47172</v>
+        <v>47170</v>
       </c>
       <c r="J55" s="20">
         <v>4854</v>
       </c>
       <c r="K55" s="21">
-        <v>0.10290002543881964</v>
+        <v>0.10290438838244648</v>
       </c>
       <c r="L55" s="20">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="M55" s="23">
-        <v>2.1584520150000001E-2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>2.160110665E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="17">
         <v>2021</v>
       </c>
@@ -3498,40 +3500,40 @@
         <v>9</v>
       </c>
       <c r="C56" s="7">
-        <v>58427</v>
+        <v>58433</v>
       </c>
       <c r="D56" s="5">
         <v>40</v>
       </c>
       <c r="E56" s="6">
-        <v>0.50607871419740369</v>
+        <v>0.50608656834297683</v>
       </c>
       <c r="F56" s="6">
-        <v>0.49392128580259631</v>
+        <v>0.49391343165702317</v>
       </c>
       <c r="G56" s="7">
-        <v>47204</v>
+        <v>47208</v>
       </c>
       <c r="H56" s="8">
-        <v>0.15956274891958308</v>
+        <v>0.15959159464497544</v>
       </c>
       <c r="I56" s="7">
-        <v>48717</v>
+        <v>48715</v>
       </c>
       <c r="J56" s="5">
         <v>4446</v>
       </c>
       <c r="K56" s="6">
-        <v>9.1261777203029748E-2</v>
+        <v>9.1265523965924258E-2</v>
       </c>
       <c r="L56" s="5">
         <v>1045</v>
       </c>
       <c r="M56" s="10">
-        <v>1.78855666E-2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>1.788373008E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="18">
         <v>2021</v>
       </c>
@@ -3539,40 +3541,40 @@
         <v>10</v>
       </c>
       <c r="C57" s="19">
-        <v>71381</v>
+        <v>71393</v>
       </c>
       <c r="D57" s="20">
         <v>39</v>
       </c>
       <c r="E57" s="21">
-        <v>0.5017154588149273</v>
+        <v>0.50168705187684526</v>
       </c>
       <c r="F57" s="21">
-        <v>0.4982845411850727</v>
+        <v>0.4983129481231548</v>
       </c>
       <c r="G57" s="19">
-        <v>57771</v>
+        <v>57778</v>
       </c>
       <c r="H57" s="22">
-        <v>0.16053036990877775</v>
+        <v>0.16056284398906159</v>
       </c>
       <c r="I57" s="19">
-        <v>58700</v>
+        <v>58705</v>
       </c>
       <c r="J57" s="32">
         <v>4919</v>
       </c>
       <c r="K57" s="21">
-        <v>8.3798977853492329E-2</v>
+        <v>8.3791840558725836E-2</v>
       </c>
       <c r="L57" s="32">
         <v>1095</v>
       </c>
       <c r="M57" s="23">
-        <v>1.534021658E-2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>1.533763814E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="17">
         <v>2021</v>
       </c>
@@ -3580,40 +3582,40 @@
         <v>11</v>
       </c>
       <c r="C58" s="7">
-        <v>92640</v>
+        <v>92653</v>
       </c>
       <c r="D58" s="5">
         <v>39</v>
       </c>
       <c r="E58" s="6">
-        <v>0.50355839119555446</v>
+        <v>0.50353081338676486</v>
       </c>
       <c r="F58" s="6">
-        <v>0.49644160880444554</v>
+        <v>0.49646918661323514</v>
       </c>
       <c r="G58" s="7">
-        <v>74493</v>
+        <v>74498</v>
       </c>
       <c r="H58" s="8">
-        <v>0.15534345508973998</v>
+        <v>0.15537329861204327</v>
       </c>
       <c r="I58" s="7">
-        <v>75483</v>
+        <v>75477</v>
       </c>
       <c r="J58" s="5">
-        <v>5797</v>
+        <v>5798</v>
       </c>
       <c r="K58" s="6">
-        <v>7.679874938727925E-2</v>
+        <v>7.6818103528227141E-2</v>
       </c>
       <c r="L58" s="5">
         <v>1276</v>
       </c>
       <c r="M58" s="10">
-        <v>1.3773747839999999E-2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>1.377181526E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="18">
         <v>2021</v>
       </c>
@@ -3621,40 +3623,40 @@
         <v>12</v>
       </c>
       <c r="C59" s="19">
-        <v>116305</v>
+        <v>116324</v>
       </c>
       <c r="D59" s="20">
         <v>38</v>
       </c>
       <c r="E59" s="21">
-        <v>0.50762087238706777</v>
+        <v>0.50758504047080755</v>
       </c>
       <c r="F59" s="21">
-        <v>0.49237912761293218</v>
+        <v>0.49241495952919251</v>
       </c>
       <c r="G59" s="19">
-        <v>91850</v>
+        <v>91848</v>
       </c>
       <c r="H59" s="22">
-        <v>0.16219923788786064</v>
+        <v>0.16220276979357198</v>
       </c>
       <c r="I59" s="19">
-        <v>94286</v>
+        <v>94291</v>
       </c>
       <c r="J59" s="32">
         <v>6901</v>
       </c>
       <c r="K59" s="21">
-        <v>7.3192202447871377E-2</v>
+        <v>7.3188321260777803E-2</v>
       </c>
       <c r="L59" s="32">
         <v>1520</v>
       </c>
       <c r="M59" s="23">
-        <v>1.306908559E-2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>1.306695093E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="17">
         <v>2021</v>
       </c>
@@ -3668,25 +3670,25 @@
         <v>39</v>
       </c>
       <c r="E60" s="6">
-        <v>0.5113698530216273</v>
+        <v>0.51137430819588425</v>
       </c>
       <c r="F60" s="6">
-        <v>0.48863014697837265</v>
+        <v>0.48862569180411575</v>
       </c>
       <c r="G60" s="7">
-        <v>86384</v>
+        <v>86383</v>
       </c>
       <c r="H60" s="8">
-        <v>0.15701981848490462</v>
+        <v>0.15702163620156745</v>
       </c>
       <c r="I60" s="7">
-        <v>89021</v>
+        <v>89023</v>
       </c>
       <c r="J60" s="5">
         <v>6958</v>
       </c>
       <c r="K60" s="6">
-        <v>7.8161332719246024E-2</v>
+        <v>7.8159576738595637E-2</v>
       </c>
       <c r="L60" s="5">
         <v>1581</v>
@@ -3695,7 +3697,7 @@
         <v>1.435876011E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="18">
         <v>2021</v>
       </c>
@@ -3709,25 +3711,25 @@
         <v>39</v>
       </c>
       <c r="E61" s="21">
-        <v>0.50714031006435623</v>
+        <v>0.50713181980268629</v>
       </c>
       <c r="F61" s="21">
-        <v>0.49285968993564383</v>
+        <v>0.49286818019731365</v>
       </c>
       <c r="G61" s="19">
-        <v>94360</v>
+        <v>94358</v>
       </c>
       <c r="H61" s="22">
-        <v>0.14061042814752014</v>
+        <v>0.14060281057250049</v>
       </c>
       <c r="I61" s="19">
-        <v>95111</v>
+        <v>95110</v>
       </c>
       <c r="J61" s="32">
         <v>7616</v>
       </c>
       <c r="K61" s="21">
-        <v>8.0074859900537268E-2</v>
+        <v>8.0075701818946479E-2</v>
       </c>
       <c r="L61" s="32">
         <v>1578</v>
@@ -3736,7 +3738,7 @@
         <v>1.334404464E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="17">
         <v>2021</v>
       </c>
@@ -3744,40 +3746,40 @@
         <v>15</v>
       </c>
       <c r="C62" s="7">
-        <v>142081</v>
+        <v>142079</v>
       </c>
       <c r="D62" s="5">
         <v>38</v>
       </c>
       <c r="E62" s="6">
-        <v>0.5096406660823839</v>
+        <v>0.50961253021585784</v>
       </c>
       <c r="F62" s="6">
-        <v>0.4903593339176161</v>
+        <v>0.49038746978414216</v>
       </c>
       <c r="G62" s="7">
-        <v>111840</v>
+        <v>111843</v>
       </c>
       <c r="H62" s="8">
-        <v>0.16122138769670957</v>
+        <v>0.16123494541455433</v>
       </c>
       <c r="I62" s="7">
         <v>114731</v>
       </c>
       <c r="J62" s="9">
-        <v>7847</v>
+        <v>7849</v>
       </c>
       <c r="K62" s="6">
-        <v>6.8394766889506756E-2</v>
+        <v>6.8412198969764054E-2</v>
       </c>
       <c r="L62" s="9">
         <v>1616</v>
       </c>
       <c r="M62" s="10">
-        <v>1.137379382E-2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>1.1373953920000001E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="18">
         <v>2021</v>
       </c>
@@ -3785,40 +3787,40 @@
         <v>16</v>
       </c>
       <c r="C63" s="19">
-        <v>144786</v>
+        <v>144791</v>
       </c>
       <c r="D63" s="20">
         <v>37</v>
       </c>
       <c r="E63" s="21">
-        <v>0.51854421334517353</v>
+        <v>0.51856785087445456</v>
       </c>
       <c r="F63" s="21">
-        <v>0.48145578665482647</v>
+        <v>0.48143214912554544</v>
       </c>
       <c r="G63" s="19">
-        <v>113784</v>
+        <v>113786</v>
       </c>
       <c r="H63" s="22">
-        <v>0.17309112001687407</v>
+        <v>0.1730880776193908</v>
       </c>
       <c r="I63" s="19">
-        <v>116953</v>
+        <v>116955</v>
       </c>
       <c r="J63" s="32">
-        <v>8021</v>
+        <v>8024</v>
       </c>
       <c r="K63" s="21">
-        <v>6.8583106034047867E-2</v>
+        <v>6.8607584113547948E-2</v>
       </c>
       <c r="L63" s="32">
         <v>1608</v>
       </c>
       <c r="M63" s="23">
-        <v>1.1106046160000001E-2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>1.110566264E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="17">
         <v>2021</v>
       </c>
@@ -3826,40 +3828,40 @@
         <v>17</v>
       </c>
       <c r="C64" s="7">
-        <v>124807</v>
+        <v>124813</v>
       </c>
       <c r="D64" s="5">
         <v>37</v>
       </c>
       <c r="E64" s="6">
-        <v>0.51959908223644491</v>
+        <v>0.51957816776686527</v>
       </c>
       <c r="F64" s="6">
-        <v>0.48040091776355515</v>
+        <v>0.48042183223313478</v>
       </c>
       <c r="G64" s="7">
-        <v>99077</v>
+        <v>99082</v>
       </c>
       <c r="H64" s="8">
-        <v>0.17462175883403816</v>
+        <v>0.17463313215316606</v>
       </c>
       <c r="I64" s="7">
-        <v>100368</v>
+        <v>100373</v>
       </c>
       <c r="J64" s="5">
-        <v>6774</v>
+        <v>6777</v>
       </c>
       <c r="K64" s="6">
-        <v>6.7491630798660926E-2</v>
+        <v>6.7518157273370322E-2</v>
       </c>
       <c r="L64" s="5">
         <v>1294</v>
       </c>
       <c r="M64" s="10">
-        <v>1.0368008200000001E-2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>1.036750979E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="18">
         <v>2021</v>
       </c>
@@ -3867,22 +3869,22 @@
         <v>18</v>
       </c>
       <c r="C65" s="19">
-        <v>100984</v>
+        <v>100981</v>
       </c>
       <c r="D65" s="20">
         <v>37</v>
       </c>
       <c r="E65" s="21">
-        <v>0.51237054943743099</v>
+        <v>0.51234095046707584</v>
       </c>
       <c r="F65" s="21">
-        <v>0.48762945056256901</v>
+        <v>0.4876590495329241</v>
       </c>
       <c r="G65" s="19">
-        <v>81632</v>
+        <v>81635</v>
       </c>
       <c r="H65" s="22">
-        <v>0.17054586436691493</v>
+        <v>0.17053959698658663</v>
       </c>
       <c r="I65" s="19">
         <v>82330</v>
@@ -3897,10 +3899,10 @@
         <v>1003</v>
       </c>
       <c r="M65" s="23">
-        <v>9.9322664899999993E-3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>9.9325615699999998E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="17">
         <v>2021</v>
       </c>
@@ -3908,40 +3910,40 @@
         <v>19</v>
       </c>
       <c r="C66" s="7">
-        <v>70810</v>
+        <v>70811</v>
       </c>
       <c r="D66" s="5">
         <v>37</v>
       </c>
       <c r="E66" s="6">
-        <v>0.51042183974913802</v>
+        <v>0.51044992125313926</v>
       </c>
       <c r="F66" s="6">
-        <v>0.48957816025086198</v>
+        <v>0.48955007874686074</v>
       </c>
       <c r="G66" s="7">
-        <v>57423</v>
+        <v>57422</v>
       </c>
       <c r="H66" s="8">
-        <v>0.17456419901433223</v>
+        <v>0.17454982410922643</v>
       </c>
       <c r="I66" s="7">
         <v>58127</v>
       </c>
       <c r="J66" s="9">
-        <v>4066</v>
+        <v>4065</v>
       </c>
       <c r="K66" s="6">
-        <v>6.9950281280644108E-2</v>
+        <v>6.9933077571524421E-2</v>
       </c>
       <c r="L66" s="9">
         <v>665</v>
       </c>
       <c r="M66" s="10">
-        <v>9.3913289000000007E-3</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>9.3911962799999998E-3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="18">
         <v>2021</v>
       </c>
@@ -3955,25 +3957,25 @@
         <v>36</v>
       </c>
       <c r="E67" s="21">
-        <v>0.50610976609413427</v>
+        <v>0.50612882932687731</v>
       </c>
       <c r="F67" s="21">
-        <v>0.49389023390586578</v>
+        <v>0.49387117067312275</v>
       </c>
       <c r="G67" s="19">
-        <v>42845</v>
+        <v>42846</v>
       </c>
       <c r="H67" s="22">
-        <v>0.18048780487804877</v>
+        <v>0.18046025299911311</v>
       </c>
       <c r="I67" s="19">
         <v>43593</v>
       </c>
       <c r="J67" s="32">
-        <v>2795</v>
+        <v>2794</v>
       </c>
       <c r="K67" s="21">
-        <v>6.4115798408001287E-2</v>
+        <v>6.4092858945243497E-2</v>
       </c>
       <c r="L67" s="32">
         <v>441</v>
@@ -3982,7 +3984,7 @@
         <v>8.3681214399999992E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="17">
         <v>2021</v>
       </c>
@@ -3990,40 +3992,40 @@
         <v>21</v>
       </c>
       <c r="C68" s="7">
-        <v>29897</v>
+        <v>29898</v>
       </c>
       <c r="D68" s="5">
         <v>35</v>
       </c>
       <c r="E68" s="6">
-        <v>0.51529720279720281</v>
+        <v>0.51529514589216086</v>
       </c>
       <c r="F68" s="6">
-        <v>0.48470279720279719</v>
+        <v>0.4847048541078392</v>
       </c>
       <c r="G68" s="7">
-        <v>24296</v>
+        <v>24297</v>
       </c>
       <c r="H68" s="8">
-        <v>0.18661508067171551</v>
+        <v>0.1866485574350743</v>
       </c>
       <c r="I68" s="7">
-        <v>24647</v>
+        <v>24648</v>
       </c>
       <c r="J68" s="5">
         <v>1721</v>
       </c>
       <c r="K68" s="6">
-        <v>6.9825942305351565E-2</v>
+        <v>6.9823109380071399E-2</v>
       </c>
       <c r="L68" s="5">
         <v>259</v>
       </c>
       <c r="M68" s="10">
-        <v>8.66307656E-3</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>8.6627868000000007E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="18">
         <v>2021</v>
       </c>
@@ -4031,7 +4033,7 @@
         <v>22</v>
       </c>
       <c r="C69" s="19">
-        <v>20691</v>
+        <v>20690</v>
       </c>
       <c r="D69" s="20">
         <v>34</v>
@@ -4061,10 +4063,10 @@
         <v>141</v>
       </c>
       <c r="M69" s="23">
-        <v>6.8145570500000004E-3</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>6.8148864100000001E-3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="25">
         <v>2021</v>
       </c>
@@ -4072,16 +4074,16 @@
         <v>23</v>
       </c>
       <c r="C70" s="27">
-        <v>14055</v>
+        <v>14058</v>
       </c>
       <c r="D70" s="28">
         <v>33</v>
       </c>
       <c r="E70" s="29">
-        <v>0.51044498497639146</v>
+        <v>0.51040698090265357</v>
       </c>
       <c r="F70" s="29">
-        <v>0.48955501502360854</v>
+        <v>0.48959301909734637</v>
       </c>
       <c r="G70" s="27">
         <v>11356</v>
@@ -4090,22 +4092,22 @@
         <v>0.22234941880943995</v>
       </c>
       <c r="I70" s="27">
-        <v>11854</v>
+        <v>11856</v>
       </c>
       <c r="J70" s="33">
         <v>812</v>
       </c>
       <c r="K70" s="29">
-        <v>6.8500084359709806E-2</v>
+        <v>6.8488529014844798E-2</v>
       </c>
       <c r="L70" s="33">
         <v>66</v>
       </c>
       <c r="M70" s="31">
-        <v>4.6958377799999999E-3</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>4.6948356800000004E-3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="18">
         <v>2021</v>
       </c>
@@ -4146,7 +4148,7 @@
         <v>6.3204176899999999E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="25">
         <v>2021</v>
       </c>
@@ -4187,7 +4189,7 @@
         <v>6.1919504599999998E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="18">
         <v>2021</v>
       </c>
@@ -4201,10 +4203,10 @@
         <v>32</v>
       </c>
       <c r="E73" s="21">
-        <v>0.53276810265811181</v>
+        <v>0.53253895508707605</v>
       </c>
       <c r="F73" s="21">
-        <v>0.46723189734188819</v>
+        <v>0.4674610449129239</v>
       </c>
       <c r="G73" s="19">
         <v>3668</v>
@@ -4213,13 +4215,13 @@
         <v>0.17202835332606325</v>
       </c>
       <c r="I73" s="19">
-        <v>3728</v>
+        <v>3729</v>
       </c>
       <c r="J73" s="32">
         <v>318</v>
       </c>
       <c r="K73" s="21">
-        <v>8.5300429184549359E-2</v>
+        <v>8.527755430410297E-2</v>
       </c>
       <c r="L73" s="32">
         <v>24</v>
@@ -4228,7 +4230,7 @@
         <v>5.4832076700000003E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="25">
         <v>2021</v>
       </c>
@@ -4269,7 +4271,7 @@
         <v>4.4786814699999998E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="18">
         <v>2021</v>
       </c>
@@ -4277,40 +4279,40 @@
         <v>28</v>
       </c>
       <c r="C75" s="19">
-        <v>9107</v>
+        <v>9108</v>
       </c>
       <c r="D75" s="20">
         <v>30</v>
       </c>
       <c r="E75" s="21">
-        <v>0.53691645513740205</v>
+        <v>0.5367979697671853</v>
       </c>
       <c r="F75" s="21">
-        <v>0.46308354486259795</v>
+        <v>0.46320203023281475</v>
       </c>
       <c r="G75" s="19">
-        <v>7964</v>
+        <v>7965</v>
       </c>
       <c r="H75" s="22">
-        <v>0.12531391260673028</v>
+        <v>0.12542372881355932</v>
       </c>
       <c r="I75" s="19">
-        <v>7611</v>
+        <v>7613</v>
       </c>
       <c r="J75" s="32">
         <v>413</v>
       </c>
       <c r="K75" s="21">
-        <v>5.4263565891472867E-2</v>
+        <v>5.4249310390122159E-2</v>
       </c>
       <c r="L75" s="32">
         <v>29</v>
       </c>
       <c r="M75" s="23">
-        <v>3.1843636699999999E-3</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>3.18401405E-3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="25">
         <v>2021</v>
       </c>
@@ -4318,16 +4320,16 @@
         <v>29</v>
       </c>
       <c r="C76" s="27">
-        <v>12637</v>
+        <v>12639</v>
       </c>
       <c r="D76" s="28">
         <v>30</v>
       </c>
       <c r="E76" s="29">
-        <v>0.52198761708207653</v>
+        <v>0.52198412698412699</v>
       </c>
       <c r="F76" s="29">
-        <v>0.47801238291792347</v>
+        <v>0.47801587301587301</v>
       </c>
       <c r="G76" s="27">
         <v>11123</v>
@@ -4348,10 +4350,10 @@
         <v>40</v>
       </c>
       <c r="M76" s="31">
-        <v>3.1653082199999999E-3</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>3.1648073399999999E-3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="18">
         <v>2021</v>
       </c>
@@ -4359,16 +4361,16 @@
         <v>30</v>
       </c>
       <c r="C77" s="19">
-        <v>15511</v>
+        <v>15512</v>
       </c>
       <c r="D77" s="20">
         <v>31</v>
       </c>
       <c r="E77" s="21">
-        <v>0.52016050741052355</v>
+        <v>0.52019156096298214</v>
       </c>
       <c r="F77" s="21">
-        <v>0.47983949258947639</v>
+        <v>0.47980843903701786</v>
       </c>
       <c r="G77" s="19">
         <v>13658</v>
@@ -4389,10 +4391,10 @@
         <v>70</v>
       </c>
       <c r="M77" s="23">
-        <v>4.5129263100000001E-3</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>4.5126353700000003E-3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="25">
         <v>2021</v>
       </c>
@@ -4400,40 +4402,40 @@
         <v>31</v>
       </c>
       <c r="C78" s="27">
-        <v>20418</v>
+        <v>20417</v>
       </c>
       <c r="D78" s="28">
         <v>30</v>
       </c>
       <c r="E78" s="29">
-        <v>0.51534375922100917</v>
+        <v>0.51536910441154771</v>
       </c>
       <c r="F78" s="29">
-        <v>0.48465624077899083</v>
+        <v>0.48463089558845229</v>
       </c>
       <c r="G78" s="27">
-        <v>17733</v>
+        <v>17735</v>
       </c>
       <c r="H78" s="30">
-        <v>0.12564145942592905</v>
+        <v>0.12568367634620806</v>
       </c>
       <c r="I78" s="27">
-        <v>16160</v>
+        <v>16162</v>
       </c>
       <c r="J78" s="33">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="K78" s="29">
-        <v>6.25E-2</v>
+        <v>6.2554139339190698E-2</v>
       </c>
       <c r="L78" s="33">
         <v>88</v>
       </c>
       <c r="M78" s="31">
-        <v>4.30992261E-3</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>4.3101337099999996E-3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="18">
         <v>2021</v>
       </c>
@@ -4447,25 +4449,25 @@
         <v>30</v>
       </c>
       <c r="E79" s="21">
-        <v>0.51119391301625072</v>
+        <v>0.51116260137145009</v>
       </c>
       <c r="F79" s="21">
-        <v>0.48880608698374928</v>
+        <v>0.48883739862854997</v>
       </c>
       <c r="G79" s="19">
-        <v>27485</v>
+        <v>27486</v>
       </c>
       <c r="H79" s="22">
-        <v>0.12330362015644897</v>
+        <v>0.12329913410463508</v>
       </c>
       <c r="I79" s="19">
-        <v>24871</v>
+        <v>24872</v>
       </c>
       <c r="J79" s="32">
-        <v>1669</v>
+        <v>1670</v>
       </c>
       <c r="K79" s="21">
-        <v>6.7106268344658437E-2</v>
+        <v>6.714377613380508E-2</v>
       </c>
       <c r="L79" s="32">
         <v>144</v>
@@ -4474,7 +4476,7 @@
         <v>4.4901777300000003E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="25">
         <v>2021</v>
       </c>
@@ -4482,40 +4484,40 @@
         <v>33</v>
       </c>
       <c r="C80" s="27">
-        <v>49644</v>
+        <v>49646</v>
       </c>
       <c r="D80" s="28">
         <v>29</v>
       </c>
       <c r="E80" s="29">
-        <v>0.51002452918161734</v>
+        <v>0.51002412276256315</v>
       </c>
       <c r="F80" s="29">
-        <v>0.48997547081838272</v>
+        <v>0.48997587723743691</v>
       </c>
       <c r="G80" s="27">
-        <v>41105</v>
+        <v>41107</v>
       </c>
       <c r="H80" s="30">
-        <v>0.14925191582532538</v>
+        <v>0.14924465419514923</v>
       </c>
       <c r="I80" s="27">
-        <v>38366</v>
+        <v>38369</v>
       </c>
       <c r="J80" s="33">
         <v>2354</v>
       </c>
       <c r="K80" s="29">
-        <v>6.1356409320752751E-2</v>
+        <v>6.1351611978420081E-2</v>
       </c>
       <c r="L80" s="33">
         <v>222</v>
       </c>
       <c r="M80" s="31">
-        <v>4.4718394899999998E-3</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>4.4716593399999997E-3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="18">
         <v>2021</v>
       </c>
@@ -4523,16 +4525,16 @@
         <v>34</v>
       </c>
       <c r="C81" s="19">
-        <v>66380</v>
+        <v>66382</v>
       </c>
       <c r="D81" s="20">
         <v>29</v>
       </c>
       <c r="E81" s="21">
-        <v>0.50957453265355668</v>
+        <v>0.5095212806312116</v>
       </c>
       <c r="F81" s="21">
-        <v>0.49042546734644332</v>
+        <v>0.4904787193687884</v>
       </c>
       <c r="G81" s="19">
         <v>53351</v>
@@ -4541,22 +4543,22 @@
         <v>0.15806639050814417</v>
       </c>
       <c r="I81" s="19">
-        <v>50867</v>
+        <v>50868</v>
       </c>
       <c r="J81" s="32">
-        <v>3188</v>
+        <v>3189</v>
       </c>
       <c r="K81" s="21">
-        <v>6.2673245915819686E-2</v>
+        <v>6.2691672564284026E-2</v>
       </c>
       <c r="L81" s="32">
         <v>346</v>
       </c>
       <c r="M81" s="23">
-        <v>5.2124133700000002E-3</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>5.2122563299999997E-3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="25">
         <v>2021</v>
       </c>
@@ -4564,40 +4566,40 @@
         <v>35</v>
       </c>
       <c r="C82" s="27">
-        <v>74744</v>
+        <v>74749</v>
       </c>
       <c r="D82" s="28">
         <v>30</v>
       </c>
       <c r="E82" s="29">
-        <v>0.50158516020236088</v>
+        <v>0.50159856466430142</v>
       </c>
       <c r="F82" s="29">
-        <v>0.49841483979763912</v>
+        <v>0.49840143533569858</v>
       </c>
       <c r="G82" s="27">
-        <v>58448</v>
+        <v>58453</v>
       </c>
       <c r="H82" s="30">
-        <v>0.16448809197919517</v>
+        <v>0.1644911296255111</v>
       </c>
       <c r="I82" s="27">
-        <v>56301</v>
+        <v>56303</v>
       </c>
       <c r="J82" s="33">
         <v>3265</v>
       </c>
       <c r="K82" s="29">
-        <v>5.7991865153372055E-2</v>
+        <v>5.7989805161359077E-2</v>
       </c>
       <c r="L82" s="33">
         <v>427</v>
       </c>
       <c r="M82" s="31">
-        <v>5.71283313E-3</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>5.7124510000000003E-3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="18">
         <v>2021</v>
       </c>
@@ -4605,40 +4607,40 @@
         <v>36</v>
       </c>
       <c r="C83" s="19">
-        <v>71674</v>
+        <v>71675</v>
       </c>
       <c r="D83" s="20">
         <v>30</v>
       </c>
       <c r="E83" s="21">
-        <v>0.50228323333942193</v>
+        <v>0.50229721945119643</v>
       </c>
       <c r="F83" s="21">
-        <v>0.49771676666057807</v>
+        <v>0.49770278054880362</v>
       </c>
       <c r="G83" s="19">
-        <v>56368</v>
+        <v>56371</v>
       </c>
       <c r="H83" s="22">
-        <v>0.15285268237297758</v>
+        <v>0.15284454772844194</v>
       </c>
       <c r="I83" s="19">
-        <v>53945</v>
+        <v>53947</v>
       </c>
       <c r="J83" s="32">
         <v>3286</v>
       </c>
       <c r="K83" s="21">
-        <v>6.0913893780702569E-2</v>
+        <v>6.0911635494096054E-2</v>
       </c>
       <c r="L83" s="32">
         <v>445</v>
       </c>
       <c r="M83" s="23">
-        <v>6.2086670200000001E-3</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>6.2085803900000002E-3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="25">
         <v>2021</v>
       </c>
@@ -4646,40 +4648,40 @@
         <v>37</v>
       </c>
       <c r="C84" s="27">
-        <v>61472</v>
+        <v>61475</v>
       </c>
       <c r="D84" s="28">
         <v>31</v>
       </c>
       <c r="E84" s="29">
-        <v>0.50608368132318027</v>
+        <v>0.50606710662059706</v>
       </c>
       <c r="F84" s="29">
-        <v>0.49391631867681979</v>
+        <v>0.49393289337940294</v>
       </c>
       <c r="G84" s="27">
-        <v>49184</v>
+        <v>49186</v>
       </c>
       <c r="H84" s="30">
-        <v>0.15370852309694211</v>
+        <v>0.15368194201602081</v>
       </c>
       <c r="I84" s="27">
-        <v>46610</v>
+        <v>46617</v>
       </c>
       <c r="J84" s="33">
         <v>2776</v>
       </c>
       <c r="K84" s="29">
-        <v>5.9558034756490026E-2</v>
+        <v>5.954909153313169E-2</v>
       </c>
       <c r="L84" s="33">
         <v>383</v>
       </c>
       <c r="M84" s="31">
-        <v>6.2304789100000001E-3</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>6.2301748599999998E-3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="18">
         <v>2021</v>
       </c>
@@ -4687,16 +4689,16 @@
         <v>38</v>
       </c>
       <c r="C85" s="19">
-        <v>53607</v>
+        <v>53610</v>
       </c>
       <c r="D85" s="20">
         <v>31</v>
       </c>
       <c r="E85" s="21">
-        <v>0.49594442358242585</v>
+        <v>0.49595403938944482</v>
       </c>
       <c r="F85" s="21">
-        <v>0.50405557641757415</v>
+        <v>0.50404596061055518</v>
       </c>
       <c r="G85" s="19">
         <v>43000</v>
@@ -4705,22 +4707,22 @@
         <v>0.14583720930232558</v>
       </c>
       <c r="I85" s="19">
-        <v>40693</v>
+        <v>40700</v>
       </c>
       <c r="J85" s="32">
-        <v>2471</v>
+        <v>2470</v>
       </c>
       <c r="K85" s="21">
-        <v>6.0722974467353107E-2</v>
+        <v>6.0687960687960688E-2</v>
       </c>
       <c r="L85" s="32">
         <v>350</v>
       </c>
       <c r="M85" s="23">
-        <v>6.52899807E-3</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>6.5286327100000001E-3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="25">
         <v>2021</v>
       </c>
@@ -4734,25 +4736,25 @@
         <v>32</v>
       </c>
       <c r="E86" s="29">
-        <v>0.49974181371414328</v>
+        <v>0.49969730422705744</v>
       </c>
       <c r="F86" s="29">
-        <v>0.50025818628585672</v>
+        <v>0.50030269577294251</v>
       </c>
       <c r="G86" s="27">
-        <v>46283</v>
+        <v>46287</v>
       </c>
       <c r="H86" s="30">
-        <v>0.1276494609251777</v>
+        <v>0.12763842979670317</v>
       </c>
       <c r="I86" s="27">
-        <v>43420</v>
+        <v>43423</v>
       </c>
       <c r="J86" s="33">
         <v>2541</v>
       </c>
       <c r="K86" s="29">
-        <v>5.8521418701059418E-2</v>
+        <v>5.8517375584367731E-2</v>
       </c>
       <c r="L86" s="33">
         <v>417</v>
@@ -4761,7 +4763,7 @@
         <v>7.3818374900000002E-3</v>
       </c>
     </row>
-    <row r="87" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="18">
         <v>2021</v>
       </c>
@@ -4769,40 +4771,40 @@
         <v>40</v>
       </c>
       <c r="C87" s="19">
-        <v>58004</v>
+        <v>58006</v>
       </c>
       <c r="D87" s="20">
         <v>34</v>
       </c>
       <c r="E87" s="21">
-        <v>0.49861428670408092</v>
+        <v>0.49859701389129457</v>
       </c>
       <c r="F87" s="21">
-        <v>0.50138571329591908</v>
+        <v>0.50140298610870548</v>
       </c>
       <c r="G87" s="19">
-        <v>48384</v>
+        <v>48389</v>
       </c>
       <c r="H87" s="22">
-        <v>0.12357390873015874</v>
+        <v>0.12354047407468639</v>
       </c>
       <c r="I87" s="19">
-        <v>44495</v>
+        <v>44501</v>
       </c>
       <c r="J87" s="32">
         <v>2613</v>
       </c>
       <c r="K87" s="21">
-        <v>5.8725699516799637E-2</v>
+        <v>5.8717781622884879E-2</v>
       </c>
       <c r="L87" s="32">
         <v>482</v>
       </c>
       <c r="M87" s="23">
-        <v>8.3097717300000002E-3</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>8.3094852199999993E-3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="25">
         <v>2021</v>
       </c>
@@ -4816,25 +4818,25 @@
         <v>34</v>
       </c>
       <c r="E88" s="29">
-        <v>0.49204665959703076</v>
+        <v>0.49201592204957967</v>
       </c>
       <c r="F88" s="29">
-        <v>0.50795334040296924</v>
+        <v>0.50798407795042033</v>
       </c>
       <c r="G88" s="27">
-        <v>54125</v>
+        <v>54132</v>
       </c>
       <c r="H88" s="30">
-        <v>0.10584757505773672</v>
+        <v>0.10583388753417572</v>
       </c>
       <c r="I88" s="27">
-        <v>49683</v>
+        <v>49694</v>
       </c>
       <c r="J88" s="33">
         <v>3056</v>
       </c>
       <c r="K88" s="29">
-        <v>6.1509973230279978E-2</v>
+        <v>6.1496357709180181E-2</v>
       </c>
       <c r="L88" s="33">
         <v>572</v>
@@ -4843,7 +4845,7 @@
         <v>8.7523334399999993E-3</v>
       </c>
     </row>
-    <row r="89" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="18">
         <v>2021</v>
       </c>
@@ -4851,40 +4853,40 @@
         <v>42</v>
       </c>
       <c r="C89" s="19">
-        <v>97729</v>
+        <v>97726</v>
       </c>
       <c r="D89" s="20">
         <v>36</v>
       </c>
       <c r="E89" s="21">
-        <v>0.49427971768966439</v>
+        <v>0.49425381964092802</v>
       </c>
       <c r="F89" s="21">
-        <v>0.50572028231033561</v>
+        <v>0.50574618035907193</v>
       </c>
       <c r="G89" s="19">
-        <v>80271</v>
+        <v>80279</v>
       </c>
       <c r="H89" s="22">
-        <v>0.10043477719226121</v>
+        <v>0.1004621382927042</v>
       </c>
       <c r="I89" s="19">
-        <v>72850</v>
+        <v>72857</v>
       </c>
       <c r="J89" s="32">
         <v>4727</v>
       </c>
       <c r="K89" s="21">
-        <v>6.4886753603294448E-2</v>
+        <v>6.4880519373567397E-2</v>
       </c>
       <c r="L89" s="32">
         <v>1031</v>
       </c>
       <c r="M89" s="23">
-        <v>1.0549580980000001E-2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>1.054990483E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="25">
         <v>2021</v>
       </c>
@@ -4892,40 +4894,40 @@
         <v>43</v>
       </c>
       <c r="C90" s="27">
-        <v>137031</v>
+        <v>137032</v>
       </c>
       <c r="D90" s="28">
         <v>36</v>
       </c>
       <c r="E90" s="29">
-        <v>0.49023033221274537</v>
+        <v>0.49021579565472695</v>
       </c>
       <c r="F90" s="29">
-        <v>0.50976966778725463</v>
+        <v>0.50978420434527305</v>
       </c>
       <c r="G90" s="27">
-        <v>109106</v>
+        <v>109215</v>
       </c>
       <c r="H90" s="30">
-        <v>0.10874745660183674</v>
+        <v>0.10869386073341573</v>
       </c>
       <c r="I90" s="27">
-        <v>99264</v>
+        <v>99364</v>
       </c>
       <c r="J90" s="33">
-        <v>5896</v>
+        <v>5897</v>
       </c>
       <c r="K90" s="29">
-        <v>5.9397163120567378E-2</v>
+        <v>5.9347449780604647E-2</v>
       </c>
       <c r="L90" s="33">
         <v>1262</v>
       </c>
       <c r="M90" s="31">
-        <v>9.2095948999999996E-3</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>9.2095276999999993E-3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="18">
         <v>2021</v>
       </c>
@@ -4933,40 +4935,40 @@
         <v>44</v>
       </c>
       <c r="C91" s="19">
-        <v>177881</v>
+        <v>177882</v>
       </c>
       <c r="D91" s="20">
         <v>37</v>
       </c>
       <c r="E91" s="21">
-        <v>0.4917504620758652</v>
+        <v>0.49176463938503279</v>
       </c>
       <c r="F91" s="21">
-        <v>0.50824953792413474</v>
+        <v>0.50823536061496721</v>
       </c>
       <c r="G91" s="19">
-        <v>129464</v>
+        <v>129628</v>
       </c>
       <c r="H91" s="22">
-        <v>0.10389760860161898</v>
+        <v>0.10388187737217268</v>
       </c>
       <c r="I91" s="19">
-        <v>118954</v>
+        <v>119016</v>
       </c>
       <c r="J91" s="32">
-        <v>6988</v>
+        <v>6993</v>
       </c>
       <c r="K91" s="21">
-        <v>5.8745397380500025E-2</v>
+        <v>5.8756805807622506E-2</v>
       </c>
       <c r="L91" s="32">
-        <v>1649</v>
+        <v>1650</v>
       </c>
       <c r="M91" s="23">
-        <v>9.2702424599999996E-3</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>9.2758120500000003E-3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="25">
         <v>2021</v>
       </c>
@@ -4974,40 +4976,40 @@
         <v>45</v>
       </c>
       <c r="C92" s="27">
-        <v>271302</v>
+        <v>271300</v>
       </c>
       <c r="D92" s="28">
         <v>36</v>
       </c>
       <c r="E92" s="29">
-        <v>0.49218521032969398</v>
+        <v>0.49217602279303746</v>
       </c>
       <c r="F92" s="29">
-        <v>0.50781478967030602</v>
+        <v>0.5078239772069626</v>
       </c>
       <c r="G92" s="27">
-        <v>171402</v>
+        <v>171782</v>
       </c>
       <c r="H92" s="30">
-        <v>0.10954948016942626</v>
+        <v>0.10940610774120688</v>
       </c>
       <c r="I92" s="27">
-        <v>167898</v>
+        <v>168046</v>
       </c>
       <c r="J92" s="33">
-        <v>8727</v>
+        <v>8731</v>
       </c>
       <c r="K92" s="29">
-        <v>5.1977986634742519E-2</v>
+        <v>5.1956012044321195E-2</v>
       </c>
       <c r="L92" s="33">
-        <v>2239</v>
+        <v>2242</v>
       </c>
       <c r="M92" s="31">
-        <v>8.2527957699999998E-3</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>8.2639144800000005E-3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="18">
         <v>2021</v>
       </c>
@@ -5015,40 +5017,40 @@
         <v>46</v>
       </c>
       <c r="C93" s="19">
-        <v>351725</v>
+        <v>351722</v>
       </c>
       <c r="D93" s="20">
         <v>36</v>
       </c>
       <c r="E93" s="21">
-        <v>0.49345929816321971</v>
+        <v>0.49345204514408936</v>
       </c>
       <c r="F93" s="21">
-        <v>0.50654070183678024</v>
+        <v>0.50654795485591064</v>
       </c>
       <c r="G93" s="19">
-        <v>197740</v>
+        <v>198105</v>
       </c>
       <c r="H93" s="22">
-        <v>0.11634975219985839</v>
+        <v>0.11623633931500972</v>
       </c>
       <c r="I93" s="19">
-        <v>204079</v>
+        <v>204221</v>
       </c>
       <c r="J93" s="32">
-        <v>10293</v>
+        <v>10294</v>
       </c>
       <c r="K93" s="21">
-        <v>5.0436350628923113E-2</v>
+        <v>5.0406177621302416E-2</v>
       </c>
       <c r="L93" s="32">
-        <v>2640</v>
+        <v>2647</v>
       </c>
       <c r="M93" s="23">
-        <v>7.5058639500000003E-3</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>7.5258300499999996E-3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="25">
         <v>2021</v>
       </c>
@@ -5056,40 +5058,40 @@
         <v>47</v>
       </c>
       <c r="C94" s="27">
-        <v>403327</v>
+        <v>403326</v>
       </c>
       <c r="D94" s="28">
         <v>36</v>
       </c>
       <c r="E94" s="29">
-        <v>0.49354197466735927</v>
+        <v>0.49353954189932975</v>
       </c>
       <c r="F94" s="29">
-        <v>0.50645802533264073</v>
+        <v>0.50646045810067031</v>
       </c>
       <c r="G94" s="27">
-        <v>206517</v>
+        <v>207012</v>
       </c>
       <c r="H94" s="30">
-        <v>0.11971895776134653</v>
+        <v>0.11963557668154504</v>
       </c>
       <c r="I94" s="27">
-        <v>218935</v>
+        <v>219100</v>
       </c>
       <c r="J94" s="33">
-        <v>10880</v>
+        <v>10886</v>
       </c>
       <c r="K94" s="29">
-        <v>4.9695114988466897E-2</v>
+        <v>4.9685075308078502E-2</v>
       </c>
       <c r="L94" s="33">
-        <v>3014</v>
+        <v>3023</v>
       </c>
       <c r="M94" s="31">
-        <v>7.4728446100000004E-3</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>7.4951775899999998E-3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="18">
         <v>2021</v>
       </c>
@@ -5097,40 +5099,40 @@
         <v>48</v>
       </c>
       <c r="C95" s="19">
-        <v>388278</v>
+        <v>388265</v>
       </c>
       <c r="D95" s="20">
         <v>36</v>
       </c>
       <c r="E95" s="21">
-        <v>0.49572984286132948</v>
+        <v>0.49570264480556869</v>
       </c>
       <c r="F95" s="21">
-        <v>0.50427015713867052</v>
+        <v>0.50429735519443131</v>
       </c>
       <c r="G95" s="19">
-        <v>188033</v>
+        <v>188826</v>
       </c>
       <c r="H95" s="22">
-        <v>0.12522801848611681</v>
+        <v>0.12514696069397221</v>
       </c>
       <c r="I95" s="19">
-        <v>206479</v>
+        <v>206901</v>
       </c>
       <c r="J95" s="32">
-        <v>10470</v>
+        <v>10480</v>
       </c>
       <c r="K95" s="21">
-        <v>5.070733585497799E-2</v>
+        <v>5.0652244310080669E-2</v>
       </c>
       <c r="L95" s="32">
-        <v>2790</v>
+        <v>2794</v>
       </c>
       <c r="M95" s="23">
-        <v>7.1855732199999998E-3</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>7.1961160499999996E-3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="25">
         <v>2021</v>
       </c>
@@ -5138,40 +5140,40 @@
         <v>49</v>
       </c>
       <c r="C96" s="27">
-        <v>338199</v>
+        <v>338200</v>
       </c>
       <c r="D96" s="28">
         <v>35</v>
       </c>
       <c r="E96" s="29">
-        <v>0.49206178995466432</v>
+        <v>0.49206216826416149</v>
       </c>
       <c r="F96" s="29">
-        <v>0.50793821004533568</v>
+        <v>0.50793783173583851</v>
       </c>
       <c r="G96" s="27">
-        <v>165285</v>
+        <v>165849</v>
       </c>
       <c r="H96" s="30">
-        <v>0.13225035544665276</v>
+        <v>0.13201767873185849</v>
       </c>
       <c r="I96" s="27">
-        <v>182910</v>
+        <v>183180</v>
       </c>
       <c r="J96" s="33">
-        <v>9616</v>
+        <v>9626</v>
       </c>
       <c r="K96" s="29">
-        <v>5.2572303318571975E-2</v>
+        <v>5.2549404956873019E-2</v>
       </c>
       <c r="L96" s="33">
-        <v>2440</v>
+        <v>2445</v>
       </c>
       <c r="M96" s="31">
-        <v>7.21468721E-3</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>7.22945002E-3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="18">
         <v>2021</v>
       </c>
@@ -5185,34 +5187,34 @@
         <v>34</v>
       </c>
       <c r="E97" s="21">
-        <v>0.49392926206397708</v>
+        <v>0.49394037804364993</v>
       </c>
       <c r="F97" s="21">
-        <v>0.50607073793602286</v>
+        <v>0.50605962195635001</v>
       </c>
       <c r="G97" s="19">
-        <v>135928</v>
+        <v>136090</v>
       </c>
       <c r="H97" s="22">
-        <v>0.14105261609087164</v>
+        <v>0.14100227790432801</v>
       </c>
       <c r="I97" s="19">
-        <v>151688</v>
+        <v>151806</v>
       </c>
       <c r="J97" s="32">
-        <v>7835</v>
+        <v>7840</v>
       </c>
       <c r="K97" s="21">
-        <v>5.1652075312483517E-2</v>
+        <v>5.1644862521902958E-2</v>
       </c>
       <c r="L97" s="32">
-        <v>1912</v>
+        <v>1920</v>
       </c>
       <c r="M97" s="23">
-        <v>6.9880486800000001E-3</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>7.0172873699999999E-3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="25">
         <v>2021</v>
       </c>
@@ -5220,40 +5222,40 @@
         <v>51</v>
       </c>
       <c r="C98" s="27">
-        <v>193943</v>
+        <v>193934</v>
       </c>
       <c r="D98" s="28">
         <v>34</v>
       </c>
       <c r="E98" s="29">
-        <v>0.49459895833333334</v>
+        <v>0.49460651801386524</v>
       </c>
       <c r="F98" s="29">
-        <v>0.50540104166666666</v>
+        <v>0.50539348198613476</v>
       </c>
       <c r="G98" s="27">
-        <v>97501</v>
+        <v>97765</v>
       </c>
       <c r="H98" s="30">
-        <v>0.15257279412518845</v>
+        <v>0.15230399427197872</v>
       </c>
       <c r="I98" s="27">
-        <v>107690</v>
+        <v>107786</v>
       </c>
       <c r="J98" s="33">
-        <v>5404</v>
+        <v>5419</v>
       </c>
       <c r="K98" s="29">
-        <v>5.0181075308756616E-2</v>
+        <v>5.0275545989275042E-2</v>
       </c>
       <c r="L98" s="33">
-        <v>1229</v>
+        <v>1235</v>
       </c>
       <c r="M98" s="31">
-        <v>6.3369134199999996E-3</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>6.3681458599999996E-3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="34">
         <v>2021</v>
       </c>
@@ -5261,40 +5263,40 @@
         <v>52</v>
       </c>
       <c r="C99" s="19">
-        <v>208754</v>
+        <v>208751</v>
       </c>
       <c r="D99" s="20">
         <v>35</v>
       </c>
       <c r="E99" s="21">
-        <v>0.48798909154207687</v>
+        <v>0.48799628646445303</v>
       </c>
       <c r="F99" s="21">
-        <v>0.51201090845792319</v>
+        <v>0.51200371353554697</v>
       </c>
       <c r="G99" s="19">
-        <v>104043</v>
+        <v>104466</v>
       </c>
       <c r="H99" s="22">
-        <v>0.12833155522235998</v>
+        <v>0.12819481936706681</v>
       </c>
       <c r="I99" s="19">
-        <v>115832</v>
+        <v>115947</v>
       </c>
       <c r="J99" s="32">
-        <v>5218</v>
+        <v>5221</v>
       </c>
       <c r="K99" s="21">
-        <v>4.5048000552524343E-2</v>
+        <v>4.5029194373291247E-2</v>
       </c>
       <c r="L99" s="32">
-        <v>976</v>
+        <v>982</v>
       </c>
       <c r="M99" s="23">
-        <v>4.6753595100000002E-3</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>4.7041690799999999E-3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="25">
         <v>2022</v>
       </c>
@@ -5302,40 +5304,40 @@
         <v>1</v>
       </c>
       <c r="C100" s="27">
-        <v>338133</v>
+        <v>338131</v>
       </c>
       <c r="D100" s="28">
         <v>33</v>
       </c>
       <c r="E100" s="29">
-        <v>0.49196257089866396</v>
+        <v>0.49196418940783088</v>
       </c>
       <c r="F100" s="29">
-        <v>0.50803742910133598</v>
+        <v>0.50803581059216918</v>
       </c>
       <c r="G100" s="27">
-        <v>152546</v>
+        <v>152713</v>
       </c>
       <c r="H100" s="30">
-        <v>0.13721762615866689</v>
+        <v>0.1372509216635126</v>
       </c>
       <c r="I100" s="27">
-        <v>183973</v>
+        <v>184226</v>
       </c>
       <c r="J100" s="33">
-        <v>5152</v>
+        <v>5154</v>
       </c>
       <c r="K100" s="29">
-        <v>2.8004109298647085E-2</v>
+        <v>2.7976507116259378E-2</v>
       </c>
       <c r="L100" s="33">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="M100" s="31">
-        <v>2.3777625900000001E-3</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>2.3807340899999999E-3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="35">
         <v>2022</v>
       </c>
@@ -5343,40 +5345,40 @@
         <v>2</v>
       </c>
       <c r="C101" s="37">
-        <v>486069</v>
+        <v>486050</v>
       </c>
       <c r="D101" s="38">
         <v>31</v>
       </c>
       <c r="E101" s="39">
-        <v>0.49718310446491493</v>
+        <v>0.49717999453721679</v>
       </c>
       <c r="F101" s="39">
-        <v>0.50281689553508502</v>
+        <v>0.50282000546278327</v>
       </c>
       <c r="G101" s="37">
-        <v>173393</v>
+        <v>174342</v>
       </c>
       <c r="H101" s="40">
-        <v>0.16295352176846817</v>
+        <v>0.16276628695322987</v>
       </c>
       <c r="I101" s="37">
-        <v>240161</v>
+        <v>241055</v>
       </c>
       <c r="J101" s="41">
-        <v>4990</v>
+        <v>5006</v>
       </c>
       <c r="K101" s="39">
-        <v>2.077772827394956E-2</v>
+        <v>2.0767044865279707E-2</v>
       </c>
       <c r="L101" s="41">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="M101" s="42">
-        <v>1.31257084E-3</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>1.3187943599999999E-3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="17">
         <v>2022</v>
       </c>
@@ -5384,40 +5386,40 @@
         <v>3</v>
       </c>
       <c r="C102" s="7">
-        <v>796101</v>
+        <v>796100</v>
       </c>
       <c r="D102" s="5">
         <v>30</v>
       </c>
       <c r="E102" s="6">
-        <v>0.49625979448353225</v>
+        <v>0.49624280115079383</v>
       </c>
       <c r="F102" s="6">
-        <v>0.50374020551646781</v>
+        <v>0.50375719884920611</v>
       </c>
       <c r="G102" s="7">
-        <v>217764</v>
+        <v>219051</v>
       </c>
       <c r="H102" s="8">
-        <v>0.16131683841222608</v>
+        <v>0.16118620777809733</v>
       </c>
       <c r="I102" s="7">
-        <v>344946</v>
+        <v>346265</v>
       </c>
       <c r="J102" s="9">
-        <v>6577</v>
+        <v>6617</v>
       </c>
       <c r="K102" s="6">
-        <v>1.9066752477199328E-2</v>
+        <v>1.910964145957576E-2</v>
       </c>
       <c r="L102" s="9">
-        <v>767</v>
+        <v>784</v>
       </c>
       <c r="M102" s="10">
-        <v>9.6344558999999998E-4</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>9.8480089999999996E-4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="35">
         <v>2022</v>
       </c>
@@ -5425,40 +5427,40 @@
         <v>4</v>
       </c>
       <c r="C103" s="37">
-        <v>1110543</v>
+        <v>1110623</v>
       </c>
       <c r="D103" s="38">
         <v>30</v>
       </c>
       <c r="E103" s="39">
-        <v>0.49030329435368719</v>
+        <v>0.49031232468515401</v>
       </c>
       <c r="F103" s="39">
-        <v>0.50969670564631275</v>
+        <v>0.50968767531484604</v>
       </c>
       <c r="G103" s="37">
-        <v>234657</v>
+        <v>235839</v>
       </c>
       <c r="H103" s="40">
-        <v>0.16259476597757577</v>
+        <v>0.16249644884857892</v>
       </c>
       <c r="I103" s="37">
-        <v>441652</v>
+        <v>443106</v>
       </c>
       <c r="J103" s="41">
-        <v>7871</v>
+        <v>7896</v>
       </c>
       <c r="K103" s="39">
-        <v>1.7821723891208462E-2</v>
+        <v>1.7819663917888723E-2</v>
       </c>
       <c r="L103" s="41">
-        <v>958</v>
+        <v>981</v>
       </c>
       <c r="M103" s="42">
-        <v>8.6264106000000001E-4</v>
-      </c>
-    </row>
-    <row r="104" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>8.8328802000000001E-4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="17">
         <v>2022</v>
       </c>
@@ -5466,40 +5468,40 @@
         <v>5</v>
       </c>
       <c r="C104" s="7">
-        <v>1289467</v>
+        <v>1289587</v>
       </c>
       <c r="D104" s="5">
         <v>31</v>
       </c>
       <c r="E104" s="6">
-        <v>0.48601055542464816</v>
+        <v>0.48599294998967868</v>
       </c>
       <c r="F104" s="6">
-        <v>0.51398944457535178</v>
+        <v>0.51400705001032132</v>
       </c>
       <c r="G104" s="7">
-        <v>241250</v>
+        <v>242445</v>
       </c>
       <c r="H104" s="8">
-        <v>0.15484766839378239</v>
+        <v>0.15479799542164202</v>
       </c>
       <c r="I104" s="7">
-        <v>479248</v>
+        <v>480160</v>
       </c>
       <c r="J104" s="9">
-        <v>9481</v>
+        <v>9532</v>
       </c>
       <c r="K104" s="6">
-        <v>1.9783076820351884E-2</v>
+        <v>1.9851716094635121E-2</v>
       </c>
       <c r="L104" s="9">
-        <v>1224</v>
+        <v>1254</v>
       </c>
       <c r="M104" s="10">
-        <v>9.4922940999999999E-4</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>9.7240434000000001E-4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" s="35">
         <v>2022</v>
       </c>
@@ -5507,40 +5509,40 @@
         <v>6</v>
       </c>
       <c r="C105" s="37">
-        <v>1306768</v>
+        <v>1306992</v>
       </c>
       <c r="D105" s="38">
         <v>32</v>
       </c>
       <c r="E105" s="39">
-        <v>0.48202193543169441</v>
+        <v>0.4820133425694203</v>
       </c>
       <c r="F105" s="39">
-        <v>0.51797806456830564</v>
+        <v>0.5179866574305797</v>
       </c>
       <c r="G105" s="37">
-        <v>248530</v>
+        <v>249439</v>
       </c>
       <c r="H105" s="40">
-        <v>0.14712911922101959</v>
+        <v>0.14698583621646977</v>
       </c>
       <c r="I105" s="37">
-        <v>502031</v>
+        <v>503323</v>
       </c>
       <c r="J105" s="41">
-        <v>9744</v>
+        <v>9798</v>
       </c>
       <c r="K105" s="39">
-        <v>1.9409159992112041E-2</v>
+        <v>1.9466624811502752E-2</v>
       </c>
       <c r="L105" s="41">
-        <v>1370</v>
+        <v>1418</v>
       </c>
       <c r="M105" s="42">
-        <v>1.04838808E-3</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>1.0849339500000001E-3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="17">
         <v>2022</v>
       </c>
@@ -5548,40 +5550,40 @@
         <v>7</v>
       </c>
       <c r="C106" s="7">
-        <v>1190319</v>
+        <v>1190422</v>
       </c>
       <c r="D106" s="5">
         <v>33</v>
       </c>
       <c r="E106" s="6">
-        <v>0.48043045990254057</v>
+        <v>0.48042077562586877</v>
       </c>
       <c r="F106" s="6">
-        <v>0.51956954009745937</v>
+        <v>0.51957922437413129</v>
       </c>
       <c r="G106" s="7">
-        <v>217986</v>
+        <v>219612</v>
       </c>
       <c r="H106" s="8">
-        <v>0.14531667171286231</v>
+        <v>0.14501029087663697</v>
       </c>
       <c r="I106" s="7">
-        <v>466722</v>
+        <v>468259</v>
       </c>
       <c r="J106" s="9">
-        <v>9713</v>
+        <v>9824</v>
       </c>
       <c r="K106" s="6">
-        <v>2.0811103826260599E-2</v>
+        <v>2.0979842352202519E-2</v>
       </c>
       <c r="L106" s="9">
-        <v>1316</v>
+        <v>1388</v>
       </c>
       <c r="M106" s="10">
-        <v>1.1055859800000001E-3</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>1.16597307E-3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" s="18">
         <v>2022</v>
       </c>
@@ -5589,40 +5591,40 @@
         <v>8</v>
       </c>
       <c r="C107" s="19">
-        <v>1090173</v>
+        <v>1090236</v>
       </c>
       <c r="D107" s="20">
         <v>34</v>
       </c>
       <c r="E107" s="21">
-        <v>0.47655147523401209</v>
+        <v>0.47652723275166292</v>
       </c>
       <c r="F107" s="21">
-        <v>0.52344852476598791</v>
+        <v>0.52347276724833713</v>
       </c>
       <c r="G107" s="19">
-        <v>198068</v>
+        <v>199609</v>
       </c>
       <c r="H107" s="22">
-        <v>0.14053254437869822</v>
+        <v>0.1406650000751469</v>
       </c>
       <c r="I107" s="19">
-        <v>424451</v>
+        <v>427200</v>
       </c>
       <c r="J107" s="32">
-        <v>9150</v>
+        <v>9328</v>
       </c>
       <c r="K107" s="21">
-        <v>2.1557258670612155E-2</v>
+        <v>2.1835205992509363E-2</v>
       </c>
       <c r="L107" s="32">
-        <v>1033</v>
+        <v>1153</v>
       </c>
       <c r="M107" s="23">
-        <v>9.4755602999999999E-4</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>1.0575691800000001E-3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" s="17">
         <v>2022</v>
       </c>
@@ -5630,40 +5632,40 @@
         <v>9</v>
       </c>
       <c r="C108" s="7">
-        <v>1124016</v>
+        <v>1124280</v>
       </c>
       <c r="D108" s="5">
         <v>35</v>
       </c>
       <c r="E108" s="6">
-        <v>0.47346020425054158</v>
+        <v>0.47343746346482102</v>
       </c>
       <c r="F108" s="6">
-        <v>0.52653979574945842</v>
+        <v>0.52656253653517904</v>
       </c>
       <c r="G108" s="7">
-        <v>191782</v>
+        <v>196039</v>
       </c>
       <c r="H108" s="8">
-        <v>0.13142004984826522</v>
+        <v>0.13186151735113932</v>
       </c>
       <c r="I108" s="7">
-        <v>437983</v>
+        <v>444677</v>
       </c>
       <c r="J108" s="9">
-        <v>8502</v>
+        <v>8822</v>
       </c>
       <c r="K108" s="6">
-        <v>1.9411712326734144E-2</v>
+        <v>1.9839119180888602E-2</v>
       </c>
       <c r="L108" s="9">
-        <v>838</v>
+        <v>1021</v>
       </c>
       <c r="M108" s="10">
-        <v>7.4554098000000004E-4</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>9.0813676000000003E-4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A109" s="18">
         <v>2022</v>
       </c>
@@ -5671,40 +5673,40 @@
         <v>10</v>
       </c>
       <c r="C109" s="19">
-        <v>1393135</v>
+        <v>1396931</v>
       </c>
       <c r="D109" s="20">
         <v>35</v>
       </c>
       <c r="E109" s="21">
-        <v>0.4799588133792797</v>
+        <v>0.48002056244941516</v>
       </c>
       <c r="F109" s="21">
-        <v>0.5200411866207203</v>
+        <v>0.51997943755058484</v>
       </c>
       <c r="G109" s="19">
-        <v>194410</v>
+        <v>205846</v>
       </c>
       <c r="H109" s="22">
-        <v>0.1326577850933594</v>
+        <v>0.13319180358131807</v>
       </c>
       <c r="I109" s="19">
-        <v>514788</v>
+        <v>523199</v>
       </c>
       <c r="J109" s="32">
-        <v>9171</v>
+        <v>9844</v>
       </c>
       <c r="K109" s="21">
-        <v>1.7815100585095223E-2</v>
+        <v>1.8815020670911068E-2</v>
       </c>
       <c r="L109" s="32">
-        <v>619</v>
+        <v>947</v>
       </c>
       <c r="M109" s="23">
-        <v>4.4432161000000002E-4</v>
-      </c>
-    </row>
-    <row r="110" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>6.7791464999999995E-4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" s="17">
         <v>2022</v>
       </c>
@@ -5712,37 +5714,78 @@
         <v>11</v>
       </c>
       <c r="C110" s="7">
-        <v>1528376</v>
+        <v>1562024</v>
       </c>
       <c r="D110" s="5">
         <v>36</v>
       </c>
       <c r="E110" s="6">
-        <v>0.48163589844935056</v>
+        <v>0.48176388564764566</v>
       </c>
       <c r="F110" s="6">
-        <v>0.51836410155064938</v>
+        <v>0.51823611435235439</v>
       </c>
       <c r="G110" s="7">
-        <v>145630</v>
+        <v>179860</v>
       </c>
       <c r="H110" s="8">
-        <v>0.13463572066195151</v>
+        <v>0.13072945624374513</v>
       </c>
       <c r="I110" s="7">
-        <v>518309</v>
+        <v>560011</v>
       </c>
       <c r="J110" s="9">
-        <v>7884</v>
+        <v>9864</v>
       </c>
       <c r="K110" s="6">
-        <v>1.5211003474761195E-2</v>
+        <v>1.7613939726183948E-2</v>
       </c>
       <c r="L110" s="9">
-        <v>298</v>
+        <v>670</v>
       </c>
       <c r="M110" s="10">
-        <v>1.9497819E-4</v>
+        <v>4.2893066000000002E-4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A111" s="18">
+        <v>2022</v>
+      </c>
+      <c r="B111" s="24">
+        <v>12</v>
+      </c>
+      <c r="C111" s="19">
+        <v>1537193</v>
+      </c>
+      <c r="D111" s="20">
+        <v>37</v>
+      </c>
+      <c r="E111" s="21">
+        <v>0.48000645494873917</v>
+      </c>
+      <c r="F111" s="21">
+        <v>0.51999354505126083</v>
+      </c>
+      <c r="G111" s="19">
+        <v>127048</v>
+      </c>
+      <c r="H111" s="22">
+        <v>0.12880171273849253</v>
+      </c>
+      <c r="I111" s="19">
+        <v>515218</v>
+      </c>
+      <c r="J111" s="32">
+        <v>7785</v>
+      </c>
+      <c r="K111" s="21">
+        <v>1.5110108730673229E-2</v>
+      </c>
+      <c r="L111" s="32">
+        <v>337</v>
+      </c>
+      <c r="M111" s="23">
+        <v>2.1923076E-4</v>
       </c>
     </row>
   </sheetData>
@@ -5756,19 +5799,19 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="43" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B3" s="43"/>
       <c r="C3" s="43"/>
@@ -5781,7 +5824,7 @@
       <c r="J3" s="43"/>
       <c r="K3" s="43"/>
     </row>
-    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="43"/>
       <c r="B4" s="43"/>
       <c r="C4" s="43"/>
@@ -5794,22 +5837,22 @@
       <c r="J4" s="43"/>
       <c r="K4" s="43"/>
     </row>
-    <row r="5" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="66" t="s">
+    <row r="5" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="67"/>
-      <c r="K5" s="68"/>
-    </row>
-    <row r="6" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="69"/>
+    </row>
+    <row r="6" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="65" t="s">
         <v>15</v>
       </c>
@@ -5844,119 +5887,119 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="44" t="s">
         <v>26</v>
       </c>
       <c r="B7" s="47">
+        <v>17</v>
+      </c>
+      <c r="C7" s="47">
         <v>16</v>
-      </c>
-      <c r="C7" s="47">
-        <v>14</v>
       </c>
       <c r="D7" s="47">
         <v>88</v>
       </c>
       <c r="E7" s="47">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="F7" s="47">
-        <v>895</v>
+        <v>902</v>
       </c>
       <c r="G7" s="47">
-        <v>3569</v>
+        <v>3610</v>
       </c>
       <c r="H7" s="47">
-        <v>8662</v>
+        <v>8746</v>
       </c>
       <c r="I7" s="47">
-        <v>16653</v>
+        <v>16838</v>
       </c>
       <c r="J7" s="47">
-        <v>28512</v>
+        <v>28875</v>
       </c>
       <c r="K7" s="52">
-        <v>9119</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>9264</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="45" t="s">
         <v>27</v>
       </c>
       <c r="B8" s="48">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C8" s="48">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8" s="48">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E8" s="48">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F8" s="48">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="G8" s="48">
-        <v>1477</v>
+        <v>1493</v>
       </c>
       <c r="H8" s="48">
-        <v>3956</v>
+        <v>4006</v>
       </c>
       <c r="I8" s="48">
-        <v>9615</v>
+        <v>9724</v>
       </c>
       <c r="J8" s="48">
-        <v>26916</v>
+        <v>27257</v>
       </c>
       <c r="K8" s="53">
-        <v>16799</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>17028</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="44" t="s">
         <v>28</v>
       </c>
       <c r="B9" s="49">
         <f>B7+B8</f>
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C9" s="49">
         <f t="shared" ref="C9:K9" si="0">C7+C8</f>
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D9" s="49">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E9" s="49">
         <f t="shared" si="0"/>
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="F9" s="49">
         <f t="shared" si="0"/>
-        <v>1325</v>
+        <v>1335</v>
       </c>
       <c r="G9" s="49">
         <f t="shared" si="0"/>
-        <v>5046</v>
+        <v>5103</v>
       </c>
       <c r="H9" s="49">
         <f>H7+H8</f>
-        <v>12618</v>
+        <v>12752</v>
       </c>
       <c r="I9" s="49">
         <f t="shared" si="0"/>
-        <v>26268</v>
+        <v>26562</v>
       </c>
       <c r="J9" s="49">
         <f t="shared" si="0"/>
-        <v>55428</v>
+        <v>56132</v>
       </c>
       <c r="K9" s="54">
         <f t="shared" si="0"/>
-        <v>25918</v>
+        <v>26292</v>
       </c>
     </row>
   </sheetData>
@@ -5970,25 +6013,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AE40E1E-E7DF-4299-B33E-6C3A1582C179}">
-  <dimension ref="A1:H114"/>
+  <dimension ref="A1:H115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="55" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="56" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="56"/>
       <c r="B5" s="56"/>
       <c r="C5" s="56"/>
@@ -5998,7 +6041,7 @@
       <c r="G5" s="56"/>
       <c r="H5" s="56"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="56"/>
       <c r="B6" s="56"/>
       <c r="C6" s="57" t="s">
@@ -6020,7 +6063,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="58" t="s">
         <v>0</v>
       </c>
@@ -6046,7 +6089,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="56" t="s">
         <v>42</v>
       </c>
@@ -6065,14 +6108,14 @@
       <c r="F8" s="56">
         <v>84</v>
       </c>
-      <c r="G8" s="56">
+      <c r="G8" s="60">
         <v>37</v>
       </c>
       <c r="H8" s="56">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="56" t="s">
         <v>42</v>
       </c>
@@ -6091,14 +6134,14 @@
       <c r="F9" s="56">
         <v>237</v>
       </c>
-      <c r="G9" s="56">
+      <c r="G9" s="60">
         <v>152</v>
       </c>
       <c r="H9" s="56">
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="56" t="s">
         <v>42</v>
       </c>
@@ -6117,14 +6160,14 @@
       <c r="F10" s="56">
         <v>724</v>
       </c>
-      <c r="G10" s="56">
+      <c r="G10" s="60">
         <v>861</v>
       </c>
       <c r="H10" s="56">
         <v>472</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="56" t="s">
         <v>42</v>
       </c>
@@ -6143,14 +6186,14 @@
       <c r="F11" s="56">
         <v>1359</v>
       </c>
-      <c r="G11" s="56">
+      <c r="G11" s="60">
         <v>2219</v>
       </c>
       <c r="H11" s="56">
         <v>1258</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="56" t="s">
         <v>42</v>
       </c>
@@ -6169,14 +6212,14 @@
       <c r="F12" s="56">
         <v>1348</v>
       </c>
-      <c r="G12" s="56">
+      <c r="G12" s="60">
         <v>2484</v>
       </c>
       <c r="H12" s="56">
         <v>1924</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="56" t="s">
         <v>42</v>
       </c>
@@ -6193,16 +6236,16 @@
         <v>226</v>
       </c>
       <c r="F13" s="56">
-        <v>983</v>
-      </c>
-      <c r="G13" s="56">
+        <v>984</v>
+      </c>
+      <c r="G13" s="60">
         <v>1761</v>
       </c>
       <c r="H13" s="56">
         <v>1731</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="56" t="s">
         <v>42</v>
       </c>
@@ -6221,14 +6264,14 @@
       <c r="F14" s="56">
         <v>636</v>
       </c>
-      <c r="G14" s="56">
+      <c r="G14" s="60">
         <v>1280</v>
       </c>
       <c r="H14" s="56">
         <v>1251</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="56" t="s">
         <v>42</v>
       </c>
@@ -6247,14 +6290,14 @@
       <c r="F15" s="56">
         <v>418</v>
       </c>
-      <c r="G15" s="56">
+      <c r="G15" s="60">
         <v>768</v>
       </c>
       <c r="H15" s="56">
         <v>832</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="56" t="s">
         <v>42</v>
       </c>
@@ -6273,14 +6316,14 @@
       <c r="F16" s="56">
         <v>287</v>
       </c>
-      <c r="G16" s="56">
+      <c r="G16" s="60">
         <v>513</v>
       </c>
       <c r="H16" s="56">
         <v>429</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="56" t="s">
         <v>42</v>
       </c>
@@ -6299,14 +6342,14 @@
       <c r="F17" s="56">
         <v>241</v>
       </c>
-      <c r="G17" s="56">
+      <c r="G17" s="60">
         <v>383</v>
       </c>
       <c r="H17" s="56">
         <v>350</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="56" t="s">
         <v>42</v>
       </c>
@@ -6325,14 +6368,14 @@
       <c r="F18" s="56">
         <v>180</v>
       </c>
-      <c r="G18" s="56">
+      <c r="G18" s="60">
         <v>231</v>
       </c>
       <c r="H18" s="56">
         <v>248</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="56" t="s">
         <v>42</v>
       </c>
@@ -6351,14 +6394,14 @@
       <c r="F19" s="56">
         <v>120</v>
       </c>
-      <c r="G19" s="56">
+      <c r="G19" s="60">
         <v>170</v>
       </c>
       <c r="H19" s="56">
         <v>166</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="56" t="s">
         <v>42</v>
       </c>
@@ -6375,14 +6418,14 @@
       <c r="F20" s="56">
         <v>124</v>
       </c>
-      <c r="G20" s="56">
+      <c r="G20" s="60">
         <v>138</v>
       </c>
       <c r="H20" s="56">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="56" t="s">
         <v>42</v>
       </c>
@@ -6401,14 +6444,14 @@
       <c r="F21" s="56">
         <v>94</v>
       </c>
-      <c r="G21" s="56">
+      <c r="G21" s="60">
         <v>90</v>
       </c>
       <c r="H21" s="56">
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="56" t="s">
         <v>42</v>
       </c>
@@ -6427,14 +6470,14 @@
       <c r="F22" s="56">
         <v>83</v>
       </c>
-      <c r="G22" s="56">
+      <c r="G22" s="60">
         <v>70</v>
       </c>
       <c r="H22" s="56">
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="56" t="s">
         <v>42</v>
       </c>
@@ -6453,14 +6496,14 @@
       <c r="F23" s="56">
         <v>121</v>
       </c>
-      <c r="G23" s="56">
+      <c r="G23" s="60">
         <v>81</v>
       </c>
       <c r="H23" s="56">
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="56" t="s">
         <v>42</v>
       </c>
@@ -6479,14 +6522,14 @@
       <c r="F24" s="56">
         <v>103</v>
       </c>
-      <c r="G24" s="56">
+      <c r="G24" s="60">
         <v>79</v>
       </c>
       <c r="H24" s="56">
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="56" t="s">
         <v>42</v>
       </c>
@@ -6505,14 +6548,14 @@
       <c r="F25" s="56">
         <v>93</v>
       </c>
-      <c r="G25" s="56">
+      <c r="G25" s="60">
         <v>57</v>
       </c>
       <c r="H25" s="56">
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="56" t="s">
         <v>42</v>
       </c>
@@ -6531,14 +6574,14 @@
       <c r="F26" s="56">
         <v>97</v>
       </c>
-      <c r="G26" s="56">
+      <c r="G26" s="60">
         <v>79</v>
       </c>
       <c r="H26" s="56">
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="56" t="s">
         <v>42</v>
       </c>
@@ -6557,14 +6600,14 @@
       <c r="F27" s="56">
         <v>106</v>
       </c>
-      <c r="G27" s="56">
+      <c r="G27" s="60">
         <v>92</v>
       </c>
       <c r="H27" s="56">
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="56" t="s">
         <v>42</v>
       </c>
@@ -6583,14 +6626,14 @@
       <c r="F28" s="56">
         <v>112</v>
       </c>
-      <c r="G28" s="56">
+      <c r="G28" s="60">
         <v>105</v>
       </c>
       <c r="H28" s="56">
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="56" t="s">
         <v>42</v>
       </c>
@@ -6609,14 +6652,14 @@
       <c r="F29" s="56">
         <v>147</v>
       </c>
-      <c r="G29" s="56">
-        <v>106</v>
+      <c r="G29" s="60">
+        <v>107</v>
       </c>
       <c r="H29" s="56">
         <v>76</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="56" t="s">
         <v>42</v>
       </c>
@@ -6635,14 +6678,14 @@
       <c r="F30" s="56">
         <v>148</v>
       </c>
-      <c r="G30" s="56">
+      <c r="G30" s="60">
         <v>114</v>
       </c>
       <c r="H30" s="56">
         <v>66</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="56" t="s">
         <v>42</v>
       </c>
@@ -6661,14 +6704,14 @@
       <c r="F31" s="56">
         <v>151</v>
       </c>
-      <c r="G31" s="56">
+      <c r="G31" s="60">
         <v>116</v>
       </c>
       <c r="H31" s="56">
         <v>78</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="56" t="s">
         <v>42</v>
       </c>
@@ -6687,14 +6730,14 @@
       <c r="F32" s="56">
         <v>171</v>
       </c>
-      <c r="G32" s="56">
+      <c r="G32" s="60">
         <v>107</v>
       </c>
       <c r="H32" s="56">
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="56" t="s">
         <v>42</v>
       </c>
@@ -6713,14 +6756,14 @@
       <c r="F33" s="56">
         <v>151</v>
       </c>
-      <c r="G33" s="56">
+      <c r="G33" s="60">
         <v>101</v>
       </c>
       <c r="H33" s="56">
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="56" t="s">
         <v>42</v>
       </c>
@@ -6739,14 +6782,14 @@
       <c r="F34" s="56">
         <v>147</v>
       </c>
-      <c r="G34" s="56">
+      <c r="G34" s="60">
         <v>122</v>
       </c>
       <c r="H34" s="56">
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="56" t="s">
         <v>42</v>
       </c>
@@ -6765,14 +6808,14 @@
       <c r="F35" s="56">
         <v>162</v>
       </c>
-      <c r="G35" s="56">
+      <c r="G35" s="60">
         <v>141</v>
       </c>
       <c r="H35" s="56">
         <v>98</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="56" t="s">
         <v>42</v>
       </c>
@@ -6791,14 +6834,14 @@
       <c r="F36" s="56">
         <v>238</v>
       </c>
-      <c r="G36" s="56">
+      <c r="G36" s="60">
         <v>211</v>
       </c>
       <c r="H36" s="56">
         <v>136</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="56" t="s">
         <v>42</v>
       </c>
@@ -6817,14 +6860,14 @@
       <c r="F37" s="56">
         <v>242</v>
       </c>
-      <c r="G37" s="56">
+      <c r="G37" s="60">
         <v>259</v>
       </c>
       <c r="H37" s="56">
         <v>154</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="56" t="s">
         <v>42</v>
       </c>
@@ -6843,14 +6886,14 @@
       <c r="F38" s="56">
         <v>283</v>
       </c>
-      <c r="G38" s="56">
+      <c r="G38" s="60">
         <v>288</v>
       </c>
       <c r="H38" s="56">
         <v>176</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="56" t="s">
         <v>42</v>
       </c>
@@ -6869,14 +6912,14 @@
       <c r="F39" s="56">
         <v>497</v>
       </c>
-      <c r="G39" s="56">
-        <v>514</v>
+      <c r="G39" s="60">
+        <v>515</v>
       </c>
       <c r="H39" s="56">
         <v>361</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="56" t="s">
         <v>42</v>
       </c>
@@ -6895,14 +6938,14 @@
       <c r="F40" s="56">
         <v>684</v>
       </c>
-      <c r="G40" s="56">
+      <c r="G40" s="60">
         <v>788</v>
       </c>
       <c r="H40" s="56">
         <v>558</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="56" t="s">
         <v>42</v>
       </c>
@@ -6921,14 +6964,14 @@
       <c r="F41" s="56">
         <v>1074</v>
       </c>
-      <c r="G41" s="56">
+      <c r="G41" s="60">
         <v>1433</v>
       </c>
       <c r="H41" s="56">
         <v>1143</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="56" t="s">
         <v>42</v>
       </c>
@@ -6947,14 +6990,14 @@
       <c r="F42" s="56">
         <v>1519</v>
       </c>
-      <c r="G42" s="56">
+      <c r="G42" s="60">
         <v>2111</v>
       </c>
       <c r="H42" s="56">
         <v>1696</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="56" t="s">
         <v>42</v>
       </c>
@@ -6965,7 +7008,7 @@
         <v>65</v>
       </c>
       <c r="D43" s="56">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E43" s="56">
         <v>603</v>
@@ -6973,14 +7016,14 @@
       <c r="F43" s="56">
         <v>1706</v>
       </c>
-      <c r="G43" s="56">
-        <v>2416</v>
+      <c r="G43" s="60">
+        <v>2417</v>
       </c>
       <c r="H43" s="56">
         <v>2068</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="56" t="s">
         <v>42</v>
       </c>
@@ -6999,14 +7042,14 @@
       <c r="F44" s="56">
         <v>1744</v>
       </c>
-      <c r="G44" s="56">
+      <c r="G44" s="60">
         <v>2628</v>
       </c>
       <c r="H44" s="56">
         <v>2519</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="56" t="s">
         <v>42</v>
       </c>
@@ -7025,14 +7068,14 @@
       <c r="F45" s="56">
         <v>1698</v>
       </c>
-      <c r="G45" s="56">
+      <c r="G45" s="60">
         <v>2901</v>
       </c>
       <c r="H45" s="56">
         <v>2847</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="56" t="s">
         <v>42</v>
       </c>
@@ -7051,14 +7094,14 @@
       <c r="F46" s="56">
         <v>1723</v>
       </c>
-      <c r="G46" s="56">
+      <c r="G46" s="60">
         <v>2876</v>
       </c>
       <c r="H46" s="56">
         <v>3096</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="56" t="s">
         <v>42</v>
       </c>
@@ -7077,14 +7120,14 @@
       <c r="F47" s="56">
         <v>1689</v>
       </c>
-      <c r="G47" s="56">
-        <v>3202</v>
+      <c r="G47" s="60">
+        <v>3203</v>
       </c>
       <c r="H47" s="56">
         <v>3628</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="56" t="s">
         <v>42</v>
       </c>
@@ -7101,16 +7144,16 @@
         <v>680</v>
       </c>
       <c r="F48" s="56">
-        <v>1985</v>
-      </c>
-      <c r="G48" s="56">
+        <v>1984</v>
+      </c>
+      <c r="G48" s="60">
         <v>3975</v>
       </c>
       <c r="H48" s="56">
         <v>4560</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="56" t="s">
         <v>42</v>
       </c>
@@ -7129,14 +7172,14 @@
       <c r="F49" s="56">
         <v>2205</v>
       </c>
-      <c r="G49" s="56">
-        <v>4427</v>
+      <c r="G49" s="60">
+        <v>4428</v>
       </c>
       <c r="H49" s="56">
-        <v>5135</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+        <v>5136</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="56" t="s">
         <v>42</v>
       </c>
@@ -7155,14 +7198,14 @@
       <c r="F50" s="56">
         <v>1869</v>
       </c>
-      <c r="G50" s="56">
+      <c r="G50" s="60">
         <v>3935</v>
       </c>
       <c r="H50" s="56">
         <v>4609</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="56" t="s">
         <v>42</v>
       </c>
@@ -7181,14 +7224,14 @@
       <c r="F51" s="56">
         <v>1929</v>
       </c>
-      <c r="G51" s="56">
+      <c r="G51" s="60">
         <v>3876</v>
       </c>
       <c r="H51" s="56">
         <v>4498</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="56" t="s">
         <v>87</v>
       </c>
@@ -7202,19 +7245,19 @@
         <v>34</v>
       </c>
       <c r="E52" s="56">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="F52" s="56">
         <v>1846</v>
       </c>
-      <c r="G52" s="56">
-        <v>4008</v>
+      <c r="G52" s="60">
+        <v>4009</v>
       </c>
       <c r="H52" s="56">
-        <v>4704</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+        <v>4706</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="56" t="s">
         <v>87</v>
       </c>
@@ -7231,16 +7274,16 @@
         <v>533</v>
       </c>
       <c r="F53" s="56">
-        <v>1614</v>
-      </c>
-      <c r="G53" s="56">
-        <v>3458</v>
+        <v>1615</v>
+      </c>
+      <c r="G53" s="60">
+        <v>3459</v>
       </c>
       <c r="H53" s="56">
         <v>4266</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="56" t="s">
         <v>87</v>
       </c>
@@ -7254,19 +7297,19 @@
         <v>35</v>
       </c>
       <c r="E54" s="56">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="F54" s="56">
-        <v>1509</v>
-      </c>
-      <c r="G54" s="56">
+        <v>1510</v>
+      </c>
+      <c r="G54" s="60">
         <v>3194</v>
       </c>
       <c r="H54" s="56">
-        <v>3732</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+        <v>3734</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="56" t="s">
         <v>87</v>
       </c>
@@ -7283,16 +7326,16 @@
         <v>408</v>
       </c>
       <c r="F55" s="56">
-        <v>1260</v>
-      </c>
-      <c r="G55" s="56">
-        <v>2814</v>
+        <v>1261</v>
+      </c>
+      <c r="G55" s="60">
+        <v>2816</v>
       </c>
       <c r="H55" s="56">
-        <v>3019</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+        <v>3021</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="56" t="s">
         <v>87</v>
       </c>
@@ -7309,16 +7352,16 @@
         <v>358</v>
       </c>
       <c r="F56" s="56">
-        <v>1153</v>
-      </c>
-      <c r="G56" s="56">
+        <v>1154</v>
+      </c>
+      <c r="G56" s="60">
         <v>2379</v>
       </c>
       <c r="H56" s="56">
-        <v>2540</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+        <v>2544</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="56" t="s">
         <v>87</v>
       </c>
@@ -7337,14 +7380,14 @@
       <c r="F57" s="56">
         <v>987</v>
       </c>
-      <c r="G57" s="56">
+      <c r="G57" s="60">
         <v>1972</v>
       </c>
       <c r="H57" s="56">
         <v>1906</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="56" t="s">
         <v>87</v>
       </c>
@@ -7363,14 +7406,14 @@
       <c r="F58" s="56">
         <v>1064</v>
       </c>
-      <c r="G58" s="56">
+      <c r="G58" s="60">
         <v>2012</v>
       </c>
       <c r="H58" s="56">
         <v>1707</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="56" t="s">
         <v>87</v>
       </c>
@@ -7389,14 +7432,14 @@
       <c r="F59" s="56">
         <v>1121</v>
       </c>
-      <c r="G59" s="56">
+      <c r="G59" s="60">
         <v>1823</v>
       </c>
       <c r="H59" s="56">
         <v>1505</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="56" t="s">
         <v>87</v>
       </c>
@@ -7415,14 +7458,14 @@
       <c r="F60" s="56">
         <v>1067</v>
       </c>
-      <c r="G60" s="56">
+      <c r="G60" s="60">
         <v>1674</v>
       </c>
       <c r="H60" s="56">
         <v>1270</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="56" t="s">
         <v>87</v>
       </c>
@@ -7441,14 +7484,14 @@
       <c r="F61" s="56">
         <v>1375</v>
       </c>
-      <c r="G61" s="56">
+      <c r="G61" s="60">
         <v>1747</v>
       </c>
       <c r="H61" s="56">
         <v>1297</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="56" t="s">
         <v>87</v>
       </c>
@@ -7465,16 +7508,16 @@
         <v>492</v>
       </c>
       <c r="F62" s="56">
-        <v>1647</v>
-      </c>
-      <c r="G62" s="56">
+        <v>1648</v>
+      </c>
+      <c r="G62" s="60">
         <v>2182</v>
       </c>
       <c r="H62" s="56">
         <v>1319</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="56" t="s">
         <v>87</v>
       </c>
@@ -7493,14 +7536,14 @@
       <c r="F63" s="56">
         <v>1997</v>
       </c>
-      <c r="G63" s="56">
+      <c r="G63" s="60">
         <v>2552</v>
       </c>
       <c r="H63" s="56">
         <v>1541</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="56" t="s">
         <v>87</v>
       </c>
@@ -7519,14 +7562,14 @@
       <c r="F64" s="56">
         <v>2072</v>
       </c>
-      <c r="G64" s="56">
+      <c r="G64" s="60">
         <v>2649</v>
       </c>
       <c r="H64" s="56">
         <v>1428</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="56" t="s">
         <v>87</v>
       </c>
@@ -7545,14 +7588,14 @@
       <c r="F65" s="56">
         <v>2382</v>
       </c>
-      <c r="G65" s="56">
+      <c r="G65" s="60">
         <v>2854</v>
       </c>
       <c r="H65" s="56">
         <v>1439</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="56" t="s">
         <v>87</v>
       </c>
@@ -7569,16 +7612,16 @@
         <v>768</v>
       </c>
       <c r="F66" s="56">
-        <v>2394</v>
-      </c>
-      <c r="G66" s="56">
+        <v>2396</v>
+      </c>
+      <c r="G66" s="60">
         <v>3048</v>
       </c>
       <c r="H66" s="56">
         <v>1458</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="56" t="s">
         <v>87</v>
       </c>
@@ -7595,16 +7638,16 @@
         <v>806</v>
       </c>
       <c r="F67" s="56">
-        <v>2571</v>
-      </c>
-      <c r="G67" s="56">
-        <v>3030</v>
+        <v>2572</v>
+      </c>
+      <c r="G67" s="60">
+        <v>3031</v>
       </c>
       <c r="H67" s="56">
-        <v>1427</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="56" t="s">
         <v>87</v>
       </c>
@@ -7621,16 +7664,16 @@
         <v>659</v>
       </c>
       <c r="F68" s="56">
-        <v>2183</v>
-      </c>
-      <c r="G68" s="56">
+        <v>2186</v>
+      </c>
+      <c r="G68" s="60">
         <v>2567</v>
       </c>
       <c r="H68" s="56">
         <v>1182</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="56" t="s">
         <v>87</v>
       </c>
@@ -7649,14 +7692,14 @@
       <c r="F69" s="56">
         <v>1749</v>
       </c>
-      <c r="G69" s="56">
+      <c r="G69" s="60">
         <v>2095</v>
       </c>
       <c r="H69" s="56">
         <v>966</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="56" t="s">
         <v>87</v>
       </c>
@@ -7675,14 +7718,14 @@
       <c r="F70" s="56">
         <v>1274</v>
       </c>
-      <c r="G70" s="56">
+      <c r="G70" s="60">
         <v>1509</v>
       </c>
       <c r="H70" s="56">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="56" t="s">
         <v>87</v>
       </c>
@@ -7699,16 +7742,16 @@
         <v>360</v>
       </c>
       <c r="F71" s="56">
-        <v>865</v>
-      </c>
-      <c r="G71" s="56">
+        <v>864</v>
+      </c>
+      <c r="G71" s="60">
         <v>972</v>
       </c>
       <c r="H71" s="56">
         <v>507</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="56" t="s">
         <v>87</v>
       </c>
@@ -7727,14 +7770,14 @@
       <c r="F72" s="56">
         <v>570</v>
       </c>
-      <c r="G72" s="56">
+      <c r="G72" s="60">
         <v>580</v>
       </c>
       <c r="H72" s="56">
         <v>303</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="56" t="s">
         <v>87</v>
       </c>
@@ -7753,14 +7796,14 @@
       <c r="F73" s="56">
         <v>397</v>
       </c>
-      <c r="G73" s="56">
+      <c r="G73" s="60">
         <v>349</v>
       </c>
       <c r="H73" s="56">
         <v>203</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="56" t="s">
         <v>87</v>
       </c>
@@ -7779,14 +7822,14 @@
       <c r="F74" s="56">
         <v>277</v>
       </c>
-      <c r="G74" s="56">
+      <c r="G74" s="60">
         <v>241</v>
       </c>
       <c r="H74" s="56">
         <v>128</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="56" t="s">
         <v>87</v>
       </c>
@@ -7805,14 +7848,14 @@
       <c r="F75" s="56">
         <v>203</v>
       </c>
-      <c r="G75" s="56">
+      <c r="G75" s="60">
         <v>135</v>
       </c>
       <c r="H75" s="56">
         <v>79</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="56" t="s">
         <v>87</v>
       </c>
@@ -7831,14 +7874,14 @@
       <c r="F76" s="56">
         <v>117</v>
       </c>
-      <c r="G76" s="56">
+      <c r="G76" s="60">
         <v>88</v>
       </c>
       <c r="H76" s="56">
         <v>50</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="56" t="s">
         <v>87</v>
       </c>
@@ -7857,14 +7900,14 @@
       <c r="F77" s="56">
         <v>111</v>
       </c>
-      <c r="G77" s="56">
+      <c r="G77" s="60">
         <v>89</v>
       </c>
       <c r="H77" s="56">
         <v>37</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="56" t="s">
         <v>87</v>
       </c>
@@ -7883,14 +7926,14 @@
       <c r="F78" s="56">
         <v>130</v>
       </c>
-      <c r="G78" s="56">
+      <c r="G78" s="60">
         <v>91</v>
       </c>
       <c r="H78" s="56">
         <v>54</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="56" t="s">
         <v>87</v>
       </c>
@@ -7909,14 +7952,14 @@
       <c r="F79" s="56">
         <v>159</v>
       </c>
-      <c r="G79" s="56">
+      <c r="G79" s="60">
         <v>91</v>
       </c>
       <c r="H79" s="56">
         <v>48</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="56" t="s">
         <v>87</v>
       </c>
@@ -7935,14 +7978,14 @@
       <c r="F80" s="56">
         <v>209</v>
       </c>
-      <c r="G80" s="56">
+      <c r="G80" s="60">
         <v>125</v>
       </c>
       <c r="H80" s="56">
         <v>65</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="56" t="s">
         <v>87</v>
       </c>
@@ -7961,14 +8004,14 @@
       <c r="F81" s="56">
         <v>297</v>
       </c>
-      <c r="G81" s="56">
+      <c r="G81" s="60">
         <v>176</v>
       </c>
       <c r="H81" s="56">
         <v>98</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="56" t="s">
         <v>87</v>
       </c>
@@ -7982,19 +8025,19 @@
         <v>22</v>
       </c>
       <c r="E82" s="56">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F82" s="56">
         <v>386</v>
       </c>
-      <c r="G82" s="56">
+      <c r="G82" s="60">
         <v>195</v>
       </c>
       <c r="H82" s="56">
         <v>128</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="56" t="s">
         <v>87</v>
       </c>
@@ -8008,19 +8051,19 @@
         <v>39</v>
       </c>
       <c r="E83" s="56">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F83" s="56">
         <v>678</v>
       </c>
-      <c r="G83" s="56">
+      <c r="G83" s="60">
         <v>341</v>
       </c>
       <c r="H83" s="56">
         <v>174</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="56" t="s">
         <v>87</v>
       </c>
@@ -8039,14 +8082,14 @@
       <c r="F84" s="56">
         <v>985</v>
       </c>
-      <c r="G84" s="56">
+      <c r="G84" s="60">
         <v>454</v>
       </c>
       <c r="H84" s="56">
         <v>245</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="56" t="s">
         <v>87</v>
       </c>
@@ -8063,16 +8106,16 @@
         <v>651</v>
       </c>
       <c r="F85" s="56">
-        <v>1348</v>
-      </c>
-      <c r="G85" s="56">
+        <v>1349</v>
+      </c>
+      <c r="G85" s="60">
         <v>650</v>
       </c>
       <c r="H85" s="56">
         <v>377</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="56" t="s">
         <v>87</v>
       </c>
@@ -8091,14 +8134,14 @@
       <c r="F86" s="56">
         <v>1294</v>
       </c>
-      <c r="G86" s="56">
+      <c r="G86" s="60">
         <v>724</v>
       </c>
       <c r="H86" s="56">
         <v>475</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="56" t="s">
         <v>87</v>
       </c>
@@ -8117,14 +8160,14 @@
       <c r="F87" s="56">
         <v>1179</v>
       </c>
-      <c r="G87" s="56">
+      <c r="G87" s="60">
         <v>793</v>
       </c>
       <c r="H87" s="56">
         <v>553</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="56" t="s">
         <v>87</v>
       </c>
@@ -8143,14 +8186,14 @@
       <c r="F88" s="56">
         <v>984</v>
       </c>
-      <c r="G88" s="56">
+      <c r="G88" s="60">
         <v>659</v>
       </c>
       <c r="H88" s="56">
         <v>530</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="56" t="s">
         <v>87</v>
       </c>
@@ -8169,14 +8212,14 @@
       <c r="F89" s="56">
         <v>822</v>
       </c>
-      <c r="G89" s="56">
+      <c r="G89" s="60">
         <v>663</v>
       </c>
       <c r="H89" s="56">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="56" t="s">
         <v>87</v>
       </c>
@@ -8195,14 +8238,14 @@
       <c r="F90" s="56">
         <v>799</v>
       </c>
-      <c r="G90" s="56">
+      <c r="G90" s="60">
         <v>653</v>
       </c>
       <c r="H90" s="56">
         <v>585</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="56" t="s">
         <v>87</v>
       </c>
@@ -8221,14 +8264,14 @@
       <c r="F91" s="56">
         <v>781</v>
       </c>
-      <c r="G91" s="56">
+      <c r="G91" s="60">
         <v>777</v>
       </c>
       <c r="H91" s="56">
         <v>653</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="56" t="s">
         <v>87</v>
       </c>
@@ -8247,14 +8290,14 @@
       <c r="F92" s="56">
         <v>859</v>
       </c>
-      <c r="G92" s="56">
+      <c r="G92" s="60">
         <v>937</v>
       </c>
       <c r="H92" s="56">
         <v>777</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="56" t="s">
         <v>87</v>
       </c>
@@ -8273,14 +8316,14 @@
       <c r="F93" s="56">
         <v>1201</v>
       </c>
-      <c r="G93" s="56">
+      <c r="G93" s="60">
         <v>1506</v>
       </c>
       <c r="H93" s="56">
         <v>1371</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="56" t="s">
         <v>87</v>
       </c>
@@ -8299,14 +8342,14 @@
       <c r="F94" s="56">
         <v>1541</v>
       </c>
-      <c r="G94" s="56">
+      <c r="G94" s="60">
         <v>1864</v>
       </c>
       <c r="H94" s="56">
-        <v>1788</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
+        <v>1789</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="56" t="s">
         <v>87</v>
       </c>
@@ -8317,22 +8360,22 @@
         <v>95</v>
       </c>
       <c r="D95" s="56">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E95" s="56">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="F95" s="56">
-        <v>1687</v>
-      </c>
-      <c r="G95" s="56">
-        <v>2251</v>
+        <v>1689</v>
+      </c>
+      <c r="G95" s="60">
+        <v>2253</v>
       </c>
       <c r="H95" s="56">
-        <v>2271</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
+        <v>2272</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="56" t="s">
         <v>87</v>
       </c>
@@ -8349,16 +8392,16 @@
         <v>701</v>
       </c>
       <c r="F96" s="56">
-        <v>2106</v>
-      </c>
-      <c r="G96" s="56">
-        <v>3003</v>
+        <v>2107</v>
+      </c>
+      <c r="G96" s="60">
+        <v>3005</v>
       </c>
       <c r="H96" s="56">
-        <v>2657</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
+        <v>2658</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="56" t="s">
         <v>87</v>
       </c>
@@ -8375,16 +8418,16 @@
         <v>776</v>
       </c>
       <c r="F97" s="56">
-        <v>2488</v>
-      </c>
-      <c r="G97" s="56">
+        <v>2489</v>
+      </c>
+      <c r="G97" s="60">
         <v>3512</v>
       </c>
       <c r="H97" s="56">
         <v>3153</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="56" t="s">
         <v>87</v>
       </c>
@@ -8398,19 +8441,19 @@
         <v>187</v>
       </c>
       <c r="E98" s="56">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F98" s="56">
-        <v>2653</v>
-      </c>
-      <c r="G98" s="56">
-        <v>3857</v>
+        <v>2655</v>
+      </c>
+      <c r="G98" s="60">
+        <v>3858</v>
       </c>
       <c r="H98" s="56">
-        <v>3250</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
+        <v>3251</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="56" t="s">
         <v>87</v>
       </c>
@@ -8424,19 +8467,19 @@
         <v>214</v>
       </c>
       <c r="E99" s="56">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="F99" s="56">
         <v>2636</v>
       </c>
-      <c r="G99" s="56">
-        <v>3707</v>
+      <c r="G99" s="60">
+        <v>3712</v>
       </c>
       <c r="H99" s="56">
-        <v>2960</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
+        <v>2964</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="56" t="s">
         <v>87</v>
       </c>
@@ -8453,16 +8496,16 @@
         <v>779</v>
       </c>
       <c r="F100" s="56">
-        <v>2351</v>
-      </c>
-      <c r="G100" s="56">
-        <v>3435</v>
+        <v>2354</v>
+      </c>
+      <c r="G100" s="60">
+        <v>3438</v>
       </c>
       <c r="H100" s="56">
-        <v>2723</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
+        <v>2727</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="56" t="s">
         <v>87</v>
       </c>
@@ -8479,16 +8522,16 @@
         <v>673</v>
       </c>
       <c r="F101" s="56">
-        <v>1843</v>
-      </c>
-      <c r="G101" s="56">
-        <v>2813</v>
+        <v>1844</v>
+      </c>
+      <c r="G101" s="60">
+        <v>2815</v>
       </c>
       <c r="H101" s="56">
-        <v>2221</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
+        <v>2223</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="56" t="s">
         <v>87</v>
       </c>
@@ -8496,25 +8539,25 @@
         <v>84</v>
       </c>
       <c r="C102" s="56">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D102" s="56">
         <v>112</v>
       </c>
       <c r="E102" s="56">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="F102" s="56">
-        <v>1355</v>
-      </c>
-      <c r="G102" s="56">
-        <v>1866</v>
+        <v>1362</v>
+      </c>
+      <c r="G102" s="60">
+        <v>1869</v>
       </c>
       <c r="H102" s="56">
-        <v>1469</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="56" t="s">
         <v>87</v>
       </c>
@@ -8533,14 +8576,14 @@
       <c r="F103" s="56">
         <v>1365</v>
       </c>
-      <c r="G103" s="56">
-        <v>1728</v>
+      <c r="G103" s="60">
+        <v>1732</v>
       </c>
       <c r="H103" s="56">
-        <v>1323</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="56" t="s">
         <v>97</v>
       </c>
@@ -8554,19 +8597,19 @@
         <v>115</v>
       </c>
       <c r="E104" s="56">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="F104" s="56">
-        <v>1270</v>
-      </c>
-      <c r="G104" s="56">
+        <v>1271</v>
+      </c>
+      <c r="G104" s="60">
         <v>1517</v>
       </c>
       <c r="H104" s="56">
         <v>1192</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="56" t="s">
         <v>97</v>
       </c>
@@ -8577,22 +8620,22 @@
         <v>236</v>
       </c>
       <c r="D105" s="56">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E105" s="56">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="F105" s="56">
-        <v>1337</v>
-      </c>
-      <c r="G105" s="56">
-        <v>1245</v>
+        <v>1344</v>
+      </c>
+      <c r="G105" s="60">
+        <v>1249</v>
       </c>
       <c r="H105" s="56">
-        <v>1066</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="56" t="s">
         <v>97</v>
       </c>
@@ -8600,25 +8643,25 @@
         <v>90</v>
       </c>
       <c r="C106" s="56">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D106" s="56">
         <v>312</v>
       </c>
       <c r="E106" s="56">
-        <v>1234</v>
+        <v>1241</v>
       </c>
       <c r="F106" s="56">
-        <v>1658</v>
-      </c>
-      <c r="G106" s="56">
-        <v>1590</v>
+        <v>1666</v>
+      </c>
+      <c r="G106" s="60">
+        <v>1604</v>
       </c>
       <c r="H106" s="56">
-        <v>1461</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="56" t="s">
         <v>97</v>
       </c>
@@ -8626,25 +8669,25 @@
         <v>91</v>
       </c>
       <c r="C107" s="56">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D107" s="56">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="E107" s="56">
-        <v>1337</v>
+        <v>1340</v>
       </c>
       <c r="F107" s="56">
-        <v>1878</v>
-      </c>
-      <c r="G107" s="56">
-        <v>1963</v>
+        <v>1889</v>
+      </c>
+      <c r="G107" s="60">
+        <v>1970</v>
       </c>
       <c r="H107" s="56">
-        <v>1916</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
+        <v>1918</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="56" t="s">
         <v>97</v>
       </c>
@@ -8655,22 +8698,22 @@
         <v>385</v>
       </c>
       <c r="D108" s="56">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="E108" s="56">
-        <v>1427</v>
+        <v>1434</v>
       </c>
       <c r="F108" s="56">
-        <v>2056</v>
-      </c>
-      <c r="G108" s="56">
-        <v>2583</v>
+        <v>2069</v>
+      </c>
+      <c r="G108" s="60">
+        <v>2598</v>
       </c>
       <c r="H108" s="56">
-        <v>2616</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
+        <v>2630</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="56" t="s">
         <v>97</v>
       </c>
@@ -8678,25 +8721,25 @@
         <v>93</v>
       </c>
       <c r="C109" s="56">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D109" s="56">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="E109" s="56">
-        <v>1311</v>
+        <v>1317</v>
       </c>
       <c r="F109" s="56">
-        <v>2053</v>
-      </c>
-      <c r="G109" s="56">
-        <v>2644</v>
+        <v>2066</v>
+      </c>
+      <c r="G109" s="60">
+        <v>2654</v>
       </c>
       <c r="H109" s="56">
-        <v>2985</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
+        <v>3006</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="56" t="s">
         <v>97</v>
       </c>
@@ -8704,25 +8747,25 @@
         <v>94</v>
       </c>
       <c r="C110" s="56">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D110" s="56">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="E110" s="56">
-        <v>1157</v>
+        <v>1168</v>
       </c>
       <c r="F110" s="56">
-        <v>1903</v>
-      </c>
-      <c r="G110" s="56">
-        <v>2758</v>
+        <v>1922</v>
+      </c>
+      <c r="G110" s="60">
+        <v>2790</v>
       </c>
       <c r="H110" s="56">
-        <v>3180</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
+        <v>3226</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="56" t="s">
         <v>97</v>
       </c>
@@ -8730,25 +8773,25 @@
         <v>95</v>
       </c>
       <c r="C111" s="56">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="D111" s="56">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="E111" s="56">
-        <v>1051</v>
+        <v>1065</v>
       </c>
       <c r="F111" s="56">
-        <v>1725</v>
-      </c>
-      <c r="G111" s="56">
-        <v>2700</v>
+        <v>1762</v>
+      </c>
+      <c r="G111" s="60">
+        <v>2751</v>
       </c>
       <c r="H111" s="56">
-        <v>3064</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
+        <v>3133</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="56" t="s">
         <v>97</v>
       </c>
@@ -8756,25 +8799,25 @@
         <v>96</v>
       </c>
       <c r="C112" s="56">
-        <v>345</v>
+        <v>361</v>
       </c>
       <c r="D112" s="56">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="E112" s="56">
-        <v>1020</v>
+        <v>1067</v>
       </c>
       <c r="F112" s="56">
-        <v>1553</v>
-      </c>
-      <c r="G112" s="56">
-        <v>2505</v>
+        <v>1626</v>
+      </c>
+      <c r="G112" s="60">
+        <v>2574</v>
       </c>
       <c r="H112" s="56">
-        <v>2848</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
+        <v>2960</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="56" t="s">
         <v>97</v>
       </c>
@@ -8782,25 +8825,25 @@
         <v>43</v>
       </c>
       <c r="C113" s="56">
-        <v>395</v>
+        <v>415</v>
       </c>
       <c r="D113" s="56">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="E113" s="56">
-        <v>1089</v>
+        <v>1159</v>
       </c>
       <c r="F113" s="56">
-        <v>1583</v>
-      </c>
-      <c r="G113" s="56">
-        <v>2623</v>
+        <v>1673</v>
+      </c>
+      <c r="G113" s="60">
+        <v>2837</v>
       </c>
       <c r="H113" s="56">
-        <v>3229</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
+        <v>3501</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="56" t="s">
         <v>97</v>
       </c>
@@ -8808,46 +8851,75 @@
         <v>44</v>
       </c>
       <c r="C114" s="56">
-        <v>350</v>
+        <v>410</v>
       </c>
       <c r="D114" s="56">
-        <v>241</v>
+        <v>276</v>
       </c>
       <c r="E114" s="56">
-        <v>845</v>
+        <v>1011</v>
       </c>
       <c r="F114" s="56">
-        <v>1335</v>
-      </c>
-      <c r="G114" s="56">
-        <v>2358</v>
+        <v>1645</v>
+      </c>
+      <c r="G114" s="60">
+        <v>3015</v>
       </c>
       <c r="H114" s="56">
-        <v>2747</v>
+        <v>3499</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A115" s="56" t="s">
+        <v>97</v>
+      </c>
+      <c r="B115" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="C115" s="56">
+        <v>314</v>
+      </c>
+      <c r="D115" s="56">
+        <v>171</v>
+      </c>
+      <c r="E115" s="56">
+        <v>834</v>
+      </c>
+      <c r="F115" s="56">
+        <v>1327</v>
+      </c>
+      <c r="G115" s="60">
+        <v>2374</v>
+      </c>
+      <c r="H115" s="56">
+        <v>2758</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="A8:H115" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33ACCE60-F332-483C-B901-158EEAB41075}">
-  <dimension ref="A1:O110"/>
+  <dimension ref="A1:O111"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="C114" sqref="C114"/>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="D111" sqref="D111"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="59" t="s">
         <v>0</v>
       </c>
@@ -8888,7 +8960,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>42</v>
       </c>
@@ -8929,7 +9001,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -8955,7 +9027,7 @@
         <v>11</v>
       </c>
       <c r="K5">
-        <v>6432</v>
+        <v>6431</v>
       </c>
       <c r="L5">
         <v>45</v>
@@ -8970,7 +9042,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>42</v>
       </c>
@@ -8996,7 +9068,7 @@
         <v>12</v>
       </c>
       <c r="K6">
-        <v>22389</v>
+        <v>22388</v>
       </c>
       <c r="L6">
         <v>45</v>
@@ -9011,7 +9083,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>42</v>
       </c>
@@ -9037,7 +9109,7 @@
         <v>13</v>
       </c>
       <c r="K7">
-        <v>33961</v>
+        <v>33966</v>
       </c>
       <c r="L7">
         <v>48</v>
@@ -9052,7 +9124,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>42</v>
       </c>
@@ -9078,7 +9150,7 @@
         <v>14</v>
       </c>
       <c r="K8">
-        <v>36047</v>
+        <v>36049</v>
       </c>
       <c r="L8">
         <v>51</v>
@@ -9093,7 +9165,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>42</v>
       </c>
@@ -9119,7 +9191,7 @@
         <v>15</v>
       </c>
       <c r="K9">
-        <v>27125</v>
+        <v>27124</v>
       </c>
       <c r="L9">
         <v>52</v>
@@ -9134,7 +9206,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>42</v>
       </c>
@@ -9160,7 +9232,7 @@
         <v>16</v>
       </c>
       <c r="K10">
-        <v>17330</v>
+        <v>17331</v>
       </c>
       <c r="L10">
         <v>51</v>
@@ -9175,7 +9247,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>42</v>
       </c>
@@ -9201,7 +9273,7 @@
         <v>17</v>
       </c>
       <c r="K11">
-        <v>12349</v>
+        <v>12350</v>
       </c>
       <c r="L11">
         <v>50</v>
@@ -9216,7 +9288,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>42</v>
       </c>
@@ -9257,7 +9329,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>42</v>
       </c>
@@ -9298,7 +9370,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>42</v>
       </c>
@@ -9339,7 +9411,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>42</v>
       </c>
@@ -9380,7 +9452,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>42</v>
       </c>
@@ -9391,7 +9463,7 @@
         <v>73</v>
       </c>
       <c r="D16" t="s">
-        <v>109</v>
+        <v>177</v>
       </c>
       <c r="E16" t="s">
         <v>113</v>
@@ -9406,7 +9478,7 @@
         <v>22</v>
       </c>
       <c r="K16">
-        <v>3206</v>
+        <v>3207</v>
       </c>
       <c r="L16">
         <v>42</v>
@@ -9421,7 +9493,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -9462,7 +9534,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>42</v>
       </c>
@@ -9503,7 +9575,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>42</v>
       </c>
@@ -9544,7 +9616,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>42</v>
       </c>
@@ -9570,7 +9642,7 @@
         <v>26</v>
       </c>
       <c r="K20">
-        <v>3163</v>
+        <v>3165</v>
       </c>
       <c r="L20">
         <v>37</v>
@@ -9585,7 +9657,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>42</v>
       </c>
@@ -9626,7 +9698,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -9667,7 +9739,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>42</v>
       </c>
@@ -9708,7 +9780,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>42</v>
       </c>
@@ -9734,7 +9806,7 @@
         <v>30</v>
       </c>
       <c r="K24">
-        <v>3933</v>
+        <v>3934</v>
       </c>
       <c r="L24">
         <v>36</v>
@@ -9749,7 +9821,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>42</v>
       </c>
@@ -9760,7 +9832,7 @@
         <v>67</v>
       </c>
       <c r="D25" t="s">
-        <v>137</v>
+        <v>108</v>
       </c>
       <c r="E25" t="s">
         <v>125</v>
@@ -9775,7 +9847,7 @@
         <v>31</v>
       </c>
       <c r="K25">
-        <v>4836</v>
+        <v>4838</v>
       </c>
       <c r="L25">
         <v>36</v>
@@ -9787,10 +9859,10 @@
         <v>60</v>
       </c>
       <c r="O25">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>42</v>
       </c>
@@ -9816,7 +9888,7 @@
         <v>32</v>
       </c>
       <c r="K26">
-        <v>6063</v>
+        <v>6065</v>
       </c>
       <c r="L26">
         <v>34</v>
@@ -9831,7 +9903,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>42</v>
       </c>
@@ -9857,7 +9929,7 @@
         <v>33</v>
       </c>
       <c r="K27">
-        <v>7956</v>
+        <v>7955</v>
       </c>
       <c r="L27">
         <v>32</v>
@@ -9872,7 +9944,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>42</v>
       </c>
@@ -9898,7 +9970,7 @@
         <v>34</v>
       </c>
       <c r="K28">
-        <v>9595</v>
+        <v>9596</v>
       </c>
       <c r="L28">
         <v>32</v>
@@ -9913,7 +9985,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>42</v>
       </c>
@@ -9939,7 +10011,7 @@
         <v>35</v>
       </c>
       <c r="K29">
-        <v>8834</v>
+        <v>8833</v>
       </c>
       <c r="L29">
         <v>32</v>
@@ -9954,7 +10026,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>42</v>
       </c>
@@ -9980,7 +10052,7 @@
         <v>36</v>
       </c>
       <c r="K30">
-        <v>8614</v>
+        <v>8616</v>
       </c>
       <c r="L30">
         <v>33</v>
@@ -9995,7 +10067,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>42</v>
       </c>
@@ -10036,7 +10108,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>42</v>
       </c>
@@ -10062,7 +10134,7 @@
         <v>38</v>
       </c>
       <c r="K32">
-        <v>12290</v>
+        <v>12291</v>
       </c>
       <c r="L32">
         <v>36</v>
@@ -10077,7 +10149,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>42</v>
       </c>
@@ -10118,7 +10190,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>42</v>
       </c>
@@ -10144,7 +10216,7 @@
         <v>40</v>
       </c>
       <c r="K34">
-        <v>15928</v>
+        <v>15931</v>
       </c>
       <c r="L34">
         <v>38</v>
@@ -10159,7 +10231,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>42</v>
       </c>
@@ -10185,7 +10257,7 @@
         <v>41</v>
       </c>
       <c r="K35">
-        <v>26122</v>
+        <v>26123</v>
       </c>
       <c r="L35">
         <v>39</v>
@@ -10200,7 +10272,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>42</v>
       </c>
@@ -10241,7 +10313,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>42</v>
       </c>
@@ -10267,7 +10339,7 @@
         <v>43</v>
       </c>
       <c r="K37">
-        <v>74867</v>
+        <v>74871</v>
       </c>
       <c r="L37">
         <v>40</v>
@@ -10282,7 +10354,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>42</v>
       </c>
@@ -10323,7 +10395,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>42</v>
       </c>
@@ -10349,7 +10421,7 @@
         <v>45</v>
       </c>
       <c r="K39">
-        <v>125718</v>
+        <v>125715</v>
       </c>
       <c r="L39">
         <v>41</v>
@@ -10364,7 +10436,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>42</v>
       </c>
@@ -10390,7 +10462,7 @@
         <v>46</v>
       </c>
       <c r="K40">
-        <v>127810</v>
+        <v>127809</v>
       </c>
       <c r="L40">
         <v>42</v>
@@ -10405,7 +10477,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>42</v>
       </c>
@@ -10431,7 +10503,7 @@
         <v>47</v>
       </c>
       <c r="K41">
-        <v>128395</v>
+        <v>128396</v>
       </c>
       <c r="L41">
         <v>43</v>
@@ -10446,7 +10518,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -10472,7 +10544,7 @@
         <v>48</v>
       </c>
       <c r="K42">
-        <v>123143</v>
+        <v>123146</v>
       </c>
       <c r="L42">
         <v>44</v>
@@ -10487,7 +10559,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -10513,7 +10585,7 @@
         <v>49</v>
       </c>
       <c r="K43">
-        <v>128364</v>
+        <v>128369</v>
       </c>
       <c r="L43">
         <v>45</v>
@@ -10528,7 +10600,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -10569,7 +10641,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>42</v>
       </c>
@@ -10595,7 +10667,7 @@
         <v>51</v>
       </c>
       <c r="K45">
-        <v>174685</v>
+        <v>174693</v>
       </c>
       <c r="L45">
         <v>46</v>
@@ -10610,7 +10682,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>42</v>
       </c>
@@ -10651,7 +10723,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>42</v>
       </c>
@@ -10677,7 +10749,7 @@
         <v>53</v>
       </c>
       <c r="K47">
-        <v>123078</v>
+        <v>123077</v>
       </c>
       <c r="L47">
         <v>49</v>
@@ -10692,7 +10764,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>87</v>
       </c>
@@ -10733,7 +10805,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>87</v>
       </c>
@@ -10759,7 +10831,7 @@
         <v>2</v>
       </c>
       <c r="K49">
-        <v>118905</v>
+        <v>118904</v>
       </c>
       <c r="L49">
         <v>48</v>
@@ -10774,7 +10846,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>87</v>
       </c>
@@ -10800,7 +10872,7 @@
         <v>3</v>
       </c>
       <c r="K50">
-        <v>95545</v>
+        <v>95550</v>
       </c>
       <c r="L50">
         <v>48</v>
@@ -10815,7 +10887,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>87</v>
       </c>
@@ -10841,7 +10913,7 @@
         <v>4</v>
       </c>
       <c r="K51">
-        <v>78177</v>
+        <v>78180</v>
       </c>
       <c r="L51">
         <v>48</v>
@@ -10856,7 +10928,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>87</v>
       </c>
@@ -10882,7 +10954,7 @@
         <v>5</v>
       </c>
       <c r="K52">
-        <v>64585</v>
+        <v>64587</v>
       </c>
       <c r="L52">
         <v>46</v>
@@ -10897,7 +10969,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>87</v>
       </c>
@@ -10923,7 +10995,7 @@
         <v>6</v>
       </c>
       <c r="K53">
-        <v>50814</v>
+        <v>50815</v>
       </c>
       <c r="L53">
         <v>45</v>
@@ -10938,7 +11010,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>87</v>
       </c>
@@ -10964,7 +11036,7 @@
         <v>7</v>
       </c>
       <c r="K54">
-        <v>52428</v>
+        <v>52432</v>
       </c>
       <c r="L54">
         <v>44</v>
@@ -10979,7 +11051,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>87</v>
       </c>
@@ -11005,7 +11077,7 @@
         <v>8</v>
       </c>
       <c r="K55">
-        <v>56383</v>
+        <v>56386</v>
       </c>
       <c r="L55">
         <v>42</v>
@@ -11020,7 +11092,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>87</v>
       </c>
@@ -11046,7 +11118,7 @@
         <v>9</v>
       </c>
       <c r="K56">
-        <v>58427</v>
+        <v>58433</v>
       </c>
       <c r="L56">
         <v>40</v>
@@ -11061,7 +11133,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>87</v>
       </c>
@@ -11087,7 +11159,7 @@
         <v>10</v>
       </c>
       <c r="K57">
-        <v>71381</v>
+        <v>71393</v>
       </c>
       <c r="L57">
         <v>39</v>
@@ -11102,7 +11174,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>87</v>
       </c>
@@ -11128,7 +11200,7 @@
         <v>11</v>
       </c>
       <c r="K58">
-        <v>92640</v>
+        <v>92653</v>
       </c>
       <c r="L58">
         <v>39</v>
@@ -11143,7 +11215,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>87</v>
       </c>
@@ -11169,7 +11241,7 @@
         <v>12</v>
       </c>
       <c r="K59">
-        <v>116305</v>
+        <v>116324</v>
       </c>
       <c r="L59">
         <v>38</v>
@@ -11184,7 +11256,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>87</v>
       </c>
@@ -11225,7 +11297,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>87</v>
       </c>
@@ -11266,7 +11338,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>87</v>
       </c>
@@ -11292,7 +11364,7 @@
         <v>15</v>
       </c>
       <c r="K62">
-        <v>142081</v>
+        <v>142079</v>
       </c>
       <c r="L62">
         <v>38</v>
@@ -11307,7 +11379,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>87</v>
       </c>
@@ -11333,7 +11405,7 @@
         <v>16</v>
       </c>
       <c r="K63">
-        <v>144786</v>
+        <v>144791</v>
       </c>
       <c r="L63">
         <v>37</v>
@@ -11348,7 +11420,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>87</v>
       </c>
@@ -11374,7 +11446,7 @@
         <v>17</v>
       </c>
       <c r="K64">
-        <v>124807</v>
+        <v>124813</v>
       </c>
       <c r="L64">
         <v>37</v>
@@ -11389,7 +11461,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>87</v>
       </c>
@@ -11415,7 +11487,7 @@
         <v>18</v>
       </c>
       <c r="K65">
-        <v>100984</v>
+        <v>100981</v>
       </c>
       <c r="L65">
         <v>37</v>
@@ -11430,7 +11502,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>87</v>
       </c>
@@ -11456,7 +11528,7 @@
         <v>19</v>
       </c>
       <c r="K66">
-        <v>70810</v>
+        <v>70811</v>
       </c>
       <c r="L66">
         <v>37</v>
@@ -11471,7 +11543,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>87</v>
       </c>
@@ -11512,7 +11584,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>87</v>
       </c>
@@ -11538,7 +11610,7 @@
         <v>21</v>
       </c>
       <c r="K68">
-        <v>29897</v>
+        <v>29898</v>
       </c>
       <c r="L68">
         <v>35</v>
@@ -11553,7 +11625,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>87</v>
       </c>
@@ -11579,7 +11651,7 @@
         <v>22</v>
       </c>
       <c r="K69">
-        <v>20691</v>
+        <v>20690</v>
       </c>
       <c r="L69">
         <v>34</v>
@@ -11594,7 +11666,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>87</v>
       </c>
@@ -11620,7 +11692,7 @@
         <v>23</v>
       </c>
       <c r="K70">
-        <v>14055</v>
+        <v>14058</v>
       </c>
       <c r="L70">
         <v>33</v>
@@ -11635,7 +11707,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>87</v>
       </c>
@@ -11676,7 +11748,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>87</v>
       </c>
@@ -11717,7 +11789,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>87</v>
       </c>
@@ -11758,7 +11830,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>87</v>
       </c>
@@ -11799,7 +11871,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>87</v>
       </c>
@@ -11825,7 +11897,7 @@
         <v>28</v>
       </c>
       <c r="K75">
-        <v>9107</v>
+        <v>9108</v>
       </c>
       <c r="L75">
         <v>30</v>
@@ -11840,7 +11912,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>87</v>
       </c>
@@ -11866,7 +11938,7 @@
         <v>29</v>
       </c>
       <c r="K76">
-        <v>12637</v>
+        <v>12639</v>
       </c>
       <c r="L76">
         <v>30</v>
@@ -11881,7 +11953,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>87</v>
       </c>
@@ -11907,7 +11979,7 @@
         <v>30</v>
       </c>
       <c r="K77">
-        <v>15511</v>
+        <v>15512</v>
       </c>
       <c r="L77">
         <v>31</v>
@@ -11922,7 +11994,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>87</v>
       </c>
@@ -11948,7 +12020,7 @@
         <v>31</v>
       </c>
       <c r="K78">
-        <v>20418</v>
+        <v>20417</v>
       </c>
       <c r="L78">
         <v>30</v>
@@ -11963,7 +12035,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>87</v>
       </c>
@@ -12004,7 +12076,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>87</v>
       </c>
@@ -12030,7 +12102,7 @@
         <v>33</v>
       </c>
       <c r="K80">
-        <v>49644</v>
+        <v>49646</v>
       </c>
       <c r="L80">
         <v>29</v>
@@ -12045,7 +12117,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>87</v>
       </c>
@@ -12071,7 +12143,7 @@
         <v>34</v>
       </c>
       <c r="K81">
-        <v>66380</v>
+        <v>66382</v>
       </c>
       <c r="L81">
         <v>29</v>
@@ -12086,7 +12158,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>87</v>
       </c>
@@ -12112,7 +12184,7 @@
         <v>35</v>
       </c>
       <c r="K82">
-        <v>74744</v>
+        <v>74749</v>
       </c>
       <c r="L82">
         <v>30</v>
@@ -12127,7 +12199,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>87</v>
       </c>
@@ -12153,7 +12225,7 @@
         <v>36</v>
       </c>
       <c r="K83">
-        <v>71674</v>
+        <v>71675</v>
       </c>
       <c r="L83">
         <v>30</v>
@@ -12168,7 +12240,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>87</v>
       </c>
@@ -12194,7 +12266,7 @@
         <v>37</v>
       </c>
       <c r="K84">
-        <v>61472</v>
+        <v>61475</v>
       </c>
       <c r="L84">
         <v>31</v>
@@ -12209,7 +12281,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>87</v>
       </c>
@@ -12235,7 +12307,7 @@
         <v>38</v>
       </c>
       <c r="K85">
-        <v>53607</v>
+        <v>53610</v>
       </c>
       <c r="L85">
         <v>31</v>
@@ -12250,7 +12322,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>87</v>
       </c>
@@ -12291,7 +12363,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>87</v>
       </c>
@@ -12317,7 +12389,7 @@
         <v>40</v>
       </c>
       <c r="K87">
-        <v>58004</v>
+        <v>58006</v>
       </c>
       <c r="L87">
         <v>34</v>
@@ -12332,7 +12404,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>87</v>
       </c>
@@ -12373,7 +12445,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>87</v>
       </c>
@@ -12399,7 +12471,7 @@
         <v>42</v>
       </c>
       <c r="K89">
-        <v>97729</v>
+        <v>97726</v>
       </c>
       <c r="L89">
         <v>36</v>
@@ -12414,7 +12486,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>87</v>
       </c>
@@ -12440,7 +12512,7 @@
         <v>43</v>
       </c>
       <c r="K90">
-        <v>137031</v>
+        <v>137032</v>
       </c>
       <c r="L90">
         <v>36</v>
@@ -12455,7 +12527,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>87</v>
       </c>
@@ -12481,7 +12553,7 @@
         <v>44</v>
       </c>
       <c r="K91">
-        <v>177881</v>
+        <v>177882</v>
       </c>
       <c r="L91">
         <v>37</v>
@@ -12496,7 +12568,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>87</v>
       </c>
@@ -12522,7 +12594,7 @@
         <v>45</v>
       </c>
       <c r="K92">
-        <v>271302</v>
+        <v>271300</v>
       </c>
       <c r="L92">
         <v>36</v>
@@ -12537,7 +12609,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>87</v>
       </c>
@@ -12563,7 +12635,7 @@
         <v>46</v>
       </c>
       <c r="K93">
-        <v>351725</v>
+        <v>351722</v>
       </c>
       <c r="L93">
         <v>36</v>
@@ -12578,7 +12650,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>87</v>
       </c>
@@ -12604,7 +12676,7 @@
         <v>47</v>
       </c>
       <c r="K94">
-        <v>403327</v>
+        <v>403326</v>
       </c>
       <c r="L94">
         <v>36</v>
@@ -12619,7 +12691,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>87</v>
       </c>
@@ -12645,7 +12717,7 @@
         <v>48</v>
       </c>
       <c r="K95">
-        <v>388278</v>
+        <v>388265</v>
       </c>
       <c r="L95">
         <v>36</v>
@@ -12660,7 +12732,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>87</v>
       </c>
@@ -12686,7 +12758,7 @@
         <v>49</v>
       </c>
       <c r="K96">
-        <v>338199</v>
+        <v>338200</v>
       </c>
       <c r="L96">
         <v>35</v>
@@ -12701,7 +12773,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>87</v>
       </c>
@@ -12742,7 +12814,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>87</v>
       </c>
@@ -12756,7 +12828,7 @@
         <v>109</v>
       </c>
       <c r="E98" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="F98" t="s">
         <v>135</v>
@@ -12768,7 +12840,7 @@
         <v>51</v>
       </c>
       <c r="K98">
-        <v>193943</v>
+        <v>193934</v>
       </c>
       <c r="L98">
         <v>34</v>
@@ -12783,7 +12855,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>87</v>
       </c>
@@ -12809,7 +12881,7 @@
         <v>52</v>
       </c>
       <c r="K99">
-        <v>208754</v>
+        <v>208751</v>
       </c>
       <c r="L99">
         <v>35</v>
@@ -12824,7 +12896,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>97</v>
       </c>
@@ -12850,7 +12922,7 @@
         <v>1</v>
       </c>
       <c r="K100">
-        <v>338133</v>
+        <v>338131</v>
       </c>
       <c r="L100">
         <v>33</v>
@@ -12865,7 +12937,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>97</v>
       </c>
@@ -12891,7 +12963,7 @@
         <v>2</v>
       </c>
       <c r="K101">
-        <v>486069</v>
+        <v>486050</v>
       </c>
       <c r="L101">
         <v>31</v>
@@ -12906,7 +12978,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>97</v>
       </c>
@@ -12932,7 +13004,7 @@
         <v>3</v>
       </c>
       <c r="K102">
-        <v>796101</v>
+        <v>796100</v>
       </c>
       <c r="L102">
         <v>30</v>
@@ -12941,13 +13013,13 @@
         <v>53</v>
       </c>
       <c r="N102">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O102">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.35">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>97</v>
       </c>
@@ -12973,7 +13045,7 @@
         <v>4</v>
       </c>
       <c r="K103">
-        <v>1110543</v>
+        <v>1110623</v>
       </c>
       <c r="L103">
         <v>30</v>
@@ -12988,7 +13060,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>97</v>
       </c>
@@ -13014,7 +13086,7 @@
         <v>5</v>
       </c>
       <c r="K104">
-        <v>1289467</v>
+        <v>1289587</v>
       </c>
       <c r="L104">
         <v>31</v>
@@ -13029,7 +13101,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>97</v>
       </c>
@@ -13055,7 +13127,7 @@
         <v>6</v>
       </c>
       <c r="K105">
-        <v>1306768</v>
+        <v>1306992</v>
       </c>
       <c r="L105">
         <v>32</v>
@@ -13070,7 +13142,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>97</v>
       </c>
@@ -13096,7 +13168,7 @@
         <v>7</v>
       </c>
       <c r="K106">
-        <v>1190319</v>
+        <v>1190422</v>
       </c>
       <c r="L106">
         <v>33</v>
@@ -13111,7 +13183,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>97</v>
       </c>
@@ -13137,7 +13209,7 @@
         <v>8</v>
       </c>
       <c r="K107">
-        <v>1090173</v>
+        <v>1090236</v>
       </c>
       <c r="L107">
         <v>34</v>
@@ -13152,7 +13224,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>97</v>
       </c>
@@ -13178,7 +13250,7 @@
         <v>9</v>
       </c>
       <c r="K108">
-        <v>1124016</v>
+        <v>1124280</v>
       </c>
       <c r="L108">
         <v>35</v>
@@ -13193,7 +13265,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>97</v>
       </c>
@@ -13219,7 +13291,7 @@
         <v>10</v>
       </c>
       <c r="K109">
-        <v>1393135</v>
+        <v>1396931</v>
       </c>
       <c r="L109">
         <v>35</v>
@@ -13234,7 +13306,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>97</v>
       </c>
@@ -13245,10 +13317,10 @@
         <v>69</v>
       </c>
       <c r="D110" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E110" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F110" t="s">
         <v>138</v>
@@ -13260,24 +13332,68 @@
         <v>11</v>
       </c>
       <c r="K110">
-        <v>1528376</v>
+        <v>1562024</v>
       </c>
       <c r="L110">
         <v>36</v>
       </c>
       <c r="M110">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N110">
+        <v>70</v>
+      </c>
+      <c r="O110">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>97</v>
+      </c>
+      <c r="B111" t="s">
+        <v>45</v>
+      </c>
+      <c r="C111" t="s">
         <v>69</v>
       </c>
-      <c r="O110">
+      <c r="D111" t="s">
+        <v>114</v>
+      </c>
+      <c r="E111" t="s">
+        <v>117</v>
+      </c>
+      <c r="F111" t="s">
+        <v>138</v>
+      </c>
+      <c r="I111">
+        <v>2022</v>
+      </c>
+      <c r="J111">
+        <v>12</v>
+      </c>
+      <c r="K111">
+        <v>1537193</v>
+      </c>
+      <c r="L111">
+        <v>37</v>
+      </c>
+      <c r="M111">
+        <v>63</v>
+      </c>
+      <c r="N111">
+        <v>70</v>
+      </c>
+      <c r="O111">
         <v>81</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="A4:F111" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -13285,23 +13401,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A6BB280-4719-4575-ABFB-341129EF46BE}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="60" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="56" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="56" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="59"/>
       <c r="B5" s="59"/>
       <c r="C5" s="59" t="s">
@@ -13324,7 +13440,7 @@
       </c>
       <c r="I5" s="59"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="61" t="s">
         <v>0</v>
       </c>
@@ -13351,320 +13467,320 @@
       </c>
       <c r="I6" s="62"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="56" t="s">
         <v>97</v>
       </c>
       <c r="B7" s="56" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C7" s="63">
-        <v>4.2074626782999998</v>
+        <v>5.9458754017000004</v>
       </c>
       <c r="D7" s="63">
-        <v>1.5315644785</v>
+        <v>2.6103185893999998</v>
       </c>
       <c r="E7" s="63">
-        <v>4.7036957095999998</v>
+        <v>4.8093967368000001</v>
       </c>
       <c r="F7" s="63">
-        <v>4.4303099340000003</v>
-      </c>
-      <c r="G7" s="63">
-        <v>8.3565893855999995</v>
+        <v>4.6884539774</v>
+      </c>
+      <c r="G7" s="66">
+        <v>6.8802769562000003</v>
       </c>
       <c r="H7" s="63">
-        <v>20.0793944648</v>
+        <v>17.990598396300001</v>
       </c>
       <c r="I7" s="64" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="56" t="s">
         <v>97</v>
       </c>
       <c r="B8" s="56" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C8" s="63">
-        <v>5.9458754017000004</v>
+        <v>8.0873983218000003</v>
       </c>
       <c r="D8" s="63">
-        <v>2.5970006373999999</v>
+        <v>4.1552010197999998</v>
       </c>
       <c r="E8" s="63">
-        <v>4.7988266340000001</v>
+        <v>6.5587487366000001</v>
       </c>
       <c r="F8" s="63">
-        <v>4.6640349463000002</v>
-      </c>
-      <c r="G8" s="63">
-        <v>6.8582424422999999</v>
+        <v>5.8117294094999998</v>
+      </c>
+      <c r="G8" s="66">
+        <v>8.8358400623000009</v>
       </c>
       <c r="H8" s="63">
-        <v>17.956908137100001</v>
+        <v>24.762340489300001</v>
       </c>
       <c r="I8" s="64" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="56" t="s">
         <v>97</v>
       </c>
       <c r="B9" s="56" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C9" s="63">
-        <v>8.0370095472000003</v>
+        <v>9.3471176865000007</v>
       </c>
       <c r="D9" s="63">
-        <v>4.1552010197999998</v>
+        <v>5.2739089867000004</v>
       </c>
       <c r="E9" s="63">
-        <v>6.5217533770999996</v>
+        <v>7.0819688212000003</v>
       </c>
       <c r="F9" s="63">
-        <v>5.7838219453999997</v>
-      </c>
-      <c r="G9" s="63">
-        <v>8.7587192636999998</v>
+        <v>6.5896499727000002</v>
+      </c>
+      <c r="G9" s="66">
+        <v>10.8519980815</v>
       </c>
       <c r="H9" s="63">
-        <v>24.610734322999999</v>
+        <v>32.308958543099997</v>
       </c>
       <c r="I9" s="64" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="56" t="s">
         <v>97</v>
       </c>
       <c r="B10" s="56" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C10" s="63">
-        <v>9.3219232991999998</v>
+        <v>9.6998391086000009</v>
       </c>
       <c r="D10" s="63">
-        <v>5.2472730826999996</v>
+        <v>5.5136321224999998</v>
       </c>
       <c r="E10" s="63">
-        <v>7.0661136670999998</v>
+        <v>7.5787636488999999</v>
       </c>
       <c r="F10" s="63">
-        <v>6.5512772095000003</v>
-      </c>
-      <c r="G10" s="63">
-        <v>10.8134376822</v>
+        <v>7.2175679161000001</v>
+      </c>
+      <c r="G10" s="66">
+        <v>14.3114167592</v>
       </c>
       <c r="H10" s="63">
-        <v>32.275268283999999</v>
+        <v>44.302690807300003</v>
       </c>
       <c r="I10" s="64" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="56" t="s">
         <v>97</v>
       </c>
       <c r="B11" s="56" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C11" s="63">
-        <v>9.6998391086000009</v>
+        <v>9.6494503341000009</v>
       </c>
       <c r="D11" s="63">
-        <v>5.4869962184999999</v>
+        <v>4.9010063310999996</v>
       </c>
       <c r="E11" s="63">
-        <v>7.5417682894000002</v>
+        <v>6.9604126399000004</v>
       </c>
       <c r="F11" s="63">
-        <v>7.1722182868999997</v>
-      </c>
-      <c r="G11" s="63">
-        <v>14.2287873322</v>
+        <v>7.2071026171000003</v>
+      </c>
+      <c r="G11" s="66">
+        <v>14.619899953399999</v>
       </c>
       <c r="H11" s="63">
-        <v>44.066858993099999</v>
+        <v>50.636459531100002</v>
       </c>
       <c r="I11" s="64" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="56" t="s">
         <v>97</v>
       </c>
       <c r="B12" s="56" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C12" s="63">
-        <v>9.5990615595000008</v>
+        <v>10.0777549181</v>
       </c>
       <c r="D12" s="63">
-        <v>4.8743704270999997</v>
+        <v>4.1818369237999997</v>
       </c>
       <c r="E12" s="63">
-        <v>6.9287023317000003</v>
+        <v>6.1729399874000004</v>
       </c>
       <c r="F12" s="63">
-        <v>7.1617529877999999</v>
-      </c>
-      <c r="G12" s="63">
-        <v>14.564813668699999</v>
+        <v>6.7047682623</v>
+      </c>
+      <c r="G12" s="66">
+        <v>15.369073425</v>
       </c>
       <c r="H12" s="63">
-        <v>50.282711809799999</v>
+        <v>54.342388039699998</v>
       </c>
       <c r="I12" s="64" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="56" t="s">
         <v>97</v>
       </c>
       <c r="B13" s="56" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C13" s="63">
-        <v>10.052560530799999</v>
+        <v>9.0447850390000006</v>
       </c>
       <c r="D13" s="63">
-        <v>4.1552010197999998</v>
+        <v>3.3694418526000001</v>
       </c>
       <c r="E13" s="63">
-        <v>6.1148044223999998</v>
+        <v>5.6285796974000002</v>
       </c>
       <c r="F13" s="63">
-        <v>6.638488035</v>
-      </c>
-      <c r="G13" s="63">
-        <v>15.192797314</v>
+        <v>6.1466189793000003</v>
+      </c>
+      <c r="G13" s="66">
+        <v>15.1542369148</v>
       </c>
       <c r="H13" s="63">
-        <v>53.5675120788</v>
+        <v>52.775790988300002</v>
       </c>
       <c r="I13" s="64" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="56" t="s">
         <v>97</v>
       </c>
       <c r="B14" s="56" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C14" s="63">
-        <v>8.9692018770999997</v>
+        <v>9.0951738136000007</v>
       </c>
       <c r="D14" s="63">
-        <v>3.3161700447000002</v>
+        <v>3.0897648608999999</v>
       </c>
       <c r="E14" s="63">
-        <v>5.5545889784</v>
+        <v>5.6391498001000002</v>
       </c>
       <c r="F14" s="63">
-        <v>6.0175469575999996</v>
-      </c>
-      <c r="G14" s="63">
-        <v>14.8732968629</v>
+        <v>5.6721920888000001</v>
+      </c>
+      <c r="G14" s="66">
+        <v>14.179209675999999</v>
       </c>
       <c r="H14" s="63">
-        <v>51.613477047000003</v>
+        <v>49.861583570199997</v>
       </c>
       <c r="I14" s="64" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="56" t="s">
         <v>97</v>
       </c>
       <c r="B15" s="56" t="s">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="C15" s="63">
-        <v>8.6920636168000005</v>
+        <v>10.455670727499999</v>
       </c>
       <c r="D15" s="63">
-        <v>3.0498110049</v>
+        <v>3.3827598046</v>
       </c>
       <c r="E15" s="63">
-        <v>5.3907523863</v>
+        <v>6.1253745251999998</v>
       </c>
       <c r="F15" s="63">
-        <v>5.4175364783999997</v>
-      </c>
-      <c r="G15" s="63">
-        <v>13.7991143117</v>
+        <v>5.8361484405999997</v>
+      </c>
+      <c r="G15" s="66">
+        <v>15.627978963</v>
       </c>
       <c r="H15" s="63">
-        <v>47.974929056699999</v>
+        <v>58.974798675400002</v>
       </c>
       <c r="I15" s="64" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="56" t="s">
         <v>97</v>
       </c>
       <c r="B16" s="56" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C16" s="63">
-        <v>9.9517829815999992</v>
+        <v>10.329698791</v>
       </c>
       <c r="D16" s="63">
-        <v>3.2895341406999998</v>
+        <v>3.6757547483000002</v>
       </c>
       <c r="E16" s="63">
-        <v>5.7554209299999997</v>
+        <v>5.3431869240000003</v>
       </c>
       <c r="F16" s="63">
-        <v>5.5221894688999997</v>
-      </c>
-      <c r="G16" s="63">
-        <v>14.4491324709</v>
+        <v>5.7384723161000002</v>
+      </c>
+      <c r="G16" s="66">
+        <v>16.608514830200001</v>
       </c>
       <c r="H16" s="63">
-        <v>54.392923428400003</v>
+        <v>58.941108416299997</v>
       </c>
       <c r="I16" s="64" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="56" t="s">
         <v>97</v>
       </c>
       <c r="B17" s="56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C17" s="63">
-        <v>8.8180355532999997</v>
+        <v>7.9110376107000002</v>
       </c>
       <c r="D17" s="63">
-        <v>3.2096264288</v>
+        <v>2.2773697896999998</v>
       </c>
       <c r="E17" s="63">
-        <v>4.4658683983999996</v>
+        <v>4.4077328334999999</v>
       </c>
       <c r="F17" s="63">
-        <v>4.6570580801999997</v>
-      </c>
-      <c r="G17" s="63">
-        <v>12.9893459269</v>
+        <v>4.6291506160999996</v>
+      </c>
+      <c r="G17" s="66">
+        <v>13.0774839824</v>
       </c>
       <c r="H17" s="63">
-        <v>46.2735709687</v>
+        <v>46.458867394099997</v>
       </c>
       <c r="I17" s="64" t="s">
         <v>180</v>
@@ -13673,5 +13789,8 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="A7:B17" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/data/klinische_aspekte.xlsx
+++ b/data/klinische_aspekte.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20382"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9452D1BD-C749-4E72-9A59-08B0041316EB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8CCDE0B-5452-4B90-A875-E40726D4326E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6648" activeTab="4" xr2:uid="{761E707A-47B5-41DE-BE24-E63CCB2E0F5D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6650" firstSheet="2" activeTab="4" xr2:uid="{761E707A-47B5-41DE-BE24-E63CCB2E0F5D}"/>
   </bookViews>
   <sheets>
     <sheet name="Klinische_Aspekte" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="182">
   <si>
     <t>Meldejahr</t>
   </si>
@@ -535,12 +535,6 @@
     <t>Inzidenz A80+</t>
   </si>
   <si>
-    <t>2022-KW02</t>
-  </si>
-  <si>
-    <t>2022-KW03</t>
-  </si>
-  <si>
     <t>2022-KW04</t>
   </si>
   <si>
@@ -565,22 +559,28 @@
     <t>2022-KW11</t>
   </si>
   <si>
-    <t>Stand: 30.03.2022 07:12:01</t>
-  </si>
-  <si>
     <t>67.5</t>
   </si>
   <si>
-    <t>Die dem RKI übermittelten COVID-19-Fälle nach Meldewoche, Altersgruppe und Angabe, dass eine Hospitalisierung vorlag für die Meldewochen KW 10 – 53/2020,  KW 01 – 52/2021 und KW 01 - 12/2022</t>
-  </si>
-  <si>
-    <t>Stand: 30.03.2022 07:12:02</t>
-  </si>
-  <si>
     <t>2022-KW12</t>
   </si>
   <si>
     <t>Die 7-Tage-Inzidenz für hospitalisierte COVID-19-Fälle /100.000 Einwohner nach Meldedatum basierend auf der Verordnung vom 13.07.2021 zur Meldepflicht der Krankenhausaufnahme von COVID-19 Hospitalisierten ab KW02/2022.</t>
+  </si>
+  <si>
+    <t>Stand: 06.04.2022 07:14:13</t>
+  </si>
+  <si>
+    <t>Die dem RKI übermittelten COVID-19-Fälle nach Meldewoche, Altersgruppe und Angabe, dass eine Hospitalisierung vorlag für die Meldewochen KW 10 – 53/2020,  KW 01 – 52/2021 und KW 01 - 14/2022</t>
+  </si>
+  <si>
+    <t>83.5</t>
+  </si>
+  <si>
+    <t>2022-KW13</t>
+  </si>
+  <si>
+    <t>2022-KW14</t>
   </si>
 </sst>
 </file>
@@ -962,7 +962,7 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1308,18 +1308,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15B359AE-5507-4B64-BF3F-8A7ED4331CB9}">
-  <dimension ref="A1:M111"/>
+  <dimension ref="A1:M113"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="60" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="60" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1360,7 +1360,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
         <v>2020</v>
       </c>
@@ -1401,7 +1401,7 @@
         <v>1.331853496E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="11">
         <v>2020</v>
       </c>
@@ -1442,7 +1442,7 @@
         <v>1.3061732229999999E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="17">
         <v>2020</v>
       </c>
@@ -1483,7 +1483,7 @@
         <v>2.1261390030000001E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="11">
         <v>2020</v>
       </c>
@@ -1524,7 +1524,7 @@
         <v>4.3013601829999998E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="17">
         <v>2020</v>
       </c>
@@ -1565,7 +1565,7 @@
         <v>6.2942106570000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="11">
         <v>2020</v>
       </c>
@@ -1606,7 +1606,7 @@
         <v>6.9200707860000002E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="17">
         <v>2020</v>
       </c>
@@ -1647,7 +1647,7 @@
         <v>7.0509491660000007E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="11">
         <v>2020</v>
       </c>
@@ -1688,7 +1688,7 @@
         <v>5.8866396760000002E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="17">
         <v>2020</v>
       </c>
@@ -1729,7 +1729,7 @@
         <v>5.2058111380000001E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="11">
         <v>2020</v>
       </c>
@@ -1770,7 +1770,7 @@
         <v>4.1245385969999999E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="17">
         <v>2020</v>
       </c>
@@ -1811,7 +1811,7 @@
         <v>3.4453781510000003E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="11">
         <v>2020</v>
       </c>
@@ -1852,7 +1852,7 @@
         <v>3.1102471529999998E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="17">
         <v>2020</v>
       </c>
@@ -1893,7 +1893,7 @@
         <v>1.9956345489999999E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="11">
         <v>2020</v>
       </c>
@@ -1934,7 +1934,7 @@
         <v>1.9132653060000001E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="17">
         <v>2020</v>
       </c>
@@ -1975,7 +1975,7 @@
         <v>1.407849829E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="11">
         <v>2020</v>
       </c>
@@ -2016,7 +2016,7 @@
         <v>9.7968936600000001E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="17">
         <v>2020</v>
       </c>
@@ -2057,7 +2057,7 @@
         <v>7.5829383800000002E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="11">
         <v>2020</v>
       </c>
@@ -2098,7 +2098,7 @@
         <v>9.6690219399999996E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="17">
         <v>2020</v>
       </c>
@@ -2139,7 +2139,7 @@
         <v>1.0326311439999999E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="11">
         <v>2020</v>
       </c>
@@ -2180,7 +2180,7 @@
         <v>9.8684210499999994E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="17">
         <v>2020</v>
       </c>
@@ -2221,7 +2221,7 @@
         <v>8.3884087400000005E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="11">
         <v>2020</v>
       </c>
@@ -2262,7 +2262,7 @@
         <v>7.4410913599999998E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="17">
         <v>2020</v>
       </c>
@@ -2303,7 +2303,7 @@
         <v>5.4410552300000001E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="11">
         <v>2020</v>
       </c>
@@ -2344,7 +2344,7 @@
         <v>3.8969201700000001E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="17">
         <v>2020</v>
       </c>
@@ -2385,7 +2385,7 @@
         <v>3.2305127099999998E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="11">
         <v>2020</v>
       </c>
@@ -2426,7 +2426,7 @@
         <v>2.03781274E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="17">
         <v>2020</v>
       </c>
@@ -2467,7 +2467,7 @@
         <v>4.1782729799999998E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="11">
         <v>2020</v>
       </c>
@@ -2508,7 +2508,7 @@
         <v>6.9657856900000002E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="17">
         <v>2020</v>
       </c>
@@ -2549,7 +2549,7 @@
         <v>6.67154828E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="11">
         <v>2020</v>
       </c>
@@ -2590,7 +2590,7 @@
         <v>8.4168643299999991E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="17">
         <v>2020</v>
       </c>
@@ -2631,7 +2631,7 @@
         <v>7.6580252299999997E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="18">
         <v>2020</v>
       </c>
@@ -2672,7 +2672,7 @@
         <v>9.3787084100000005E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="17">
         <v>2020</v>
       </c>
@@ -2713,7 +2713,7 @@
         <v>1.100886891E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="18">
         <v>2020</v>
       </c>
@@ -2754,7 +2754,7 @@
         <v>1.3556650769999999E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="17">
         <v>2020</v>
       </c>
@@ -2795,7 +2795,7 @@
         <v>1.4603603600000001E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="18">
         <v>2020</v>
       </c>
@@ -2836,7 +2836,7 @@
         <v>1.5097641490000001E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="17">
         <v>2020</v>
       </c>
@@ -2877,7 +2877,7 @@
         <v>1.9795163090000002E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="18">
         <v>2020</v>
       </c>
@@ -2918,7 +2918,7 @@
         <v>2.504750926E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="17">
         <v>2020</v>
       </c>
@@ -2959,7 +2959,7 @@
         <v>2.9111786010000001E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="18">
         <v>2020</v>
       </c>
@@ -3000,7 +3000,7 @@
         <v>3.479033099E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="17">
         <v>2020</v>
       </c>
@@ -3041,7 +3041,7 @@
         <v>3.6722838530000003E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="18">
         <v>2020</v>
       </c>
@@ -3082,7 +3082,7 @@
         <v>3.6830325189999999E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="17">
         <v>2020</v>
       </c>
@@ -3123,7 +3123,7 @@
         <v>4.1006852470000001E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="18">
         <v>2020</v>
       </c>
@@ -3164,7 +3164,7 @@
         <v>4.6361221020000003E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="25">
         <v>2021</v>
       </c>
@@ -3205,7 +3205,7 @@
         <v>3.9287653530000001E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="18">
         <v>2021</v>
       </c>
@@ -3246,7 +3246,7 @@
         <v>4.2698311240000002E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="17">
         <v>2021</v>
       </c>
@@ -3287,7 +3287,7 @@
         <v>4.2689691260000003E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="18">
         <v>2021</v>
       </c>
@@ -3328,7 +3328,7 @@
         <v>3.9383474029999997E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52" s="17">
         <v>2021</v>
       </c>
@@ -3369,7 +3369,7 @@
         <v>3.4774799879999999E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="18">
         <v>2021</v>
       </c>
@@ -3410,7 +3410,7 @@
         <v>3.2962707860000003E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A54" s="17">
         <v>2021</v>
       </c>
@@ -3451,7 +3451,7 @@
         <v>2.805538602E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A55" s="18">
         <v>2021</v>
       </c>
@@ -3492,7 +3492,7 @@
         <v>2.160110665E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" s="17">
         <v>2021</v>
       </c>
@@ -3533,7 +3533,7 @@
         <v>1.788373008E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57" s="18">
         <v>2021</v>
       </c>
@@ -3574,7 +3574,7 @@
         <v>1.533763814E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A58" s="17">
         <v>2021</v>
       </c>
@@ -3615,7 +3615,7 @@
         <v>1.377181526E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A59" s="18">
         <v>2021</v>
       </c>
@@ -3656,7 +3656,7 @@
         <v>1.306695093E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="17">
         <v>2021</v>
       </c>
@@ -3697,7 +3697,7 @@
         <v>1.435876011E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="18">
         <v>2021</v>
       </c>
@@ -3738,7 +3738,7 @@
         <v>1.334404464E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="17">
         <v>2021</v>
       </c>
@@ -3779,7 +3779,7 @@
         <v>1.1373953920000001E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="18">
         <v>2021</v>
       </c>
@@ -3820,7 +3820,7 @@
         <v>1.110566264E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A64" s="17">
         <v>2021</v>
       </c>
@@ -3861,7 +3861,7 @@
         <v>1.036750979E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A65" s="18">
         <v>2021</v>
       </c>
@@ -3902,7 +3902,7 @@
         <v>9.9325615699999998E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="17">
         <v>2021</v>
       </c>
@@ -3943,7 +3943,7 @@
         <v>9.3911962799999998E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A67" s="18">
         <v>2021</v>
       </c>
@@ -3984,7 +3984,7 @@
         <v>8.3681214399999992E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A68" s="17">
         <v>2021</v>
       </c>
@@ -4025,7 +4025,7 @@
         <v>8.6627868000000007E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A69" s="18">
         <v>2021</v>
       </c>
@@ -4066,7 +4066,7 @@
         <v>6.8148864100000001E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A70" s="25">
         <v>2021</v>
       </c>
@@ -4107,7 +4107,7 @@
         <v>4.6948356800000004E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A71" s="18">
         <v>2021</v>
       </c>
@@ -4148,7 +4148,7 @@
         <v>6.3204176899999999E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A72" s="25">
         <v>2021</v>
       </c>
@@ -4189,7 +4189,7 @@
         <v>6.1919504599999998E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A73" s="18">
         <v>2021</v>
       </c>
@@ -4230,7 +4230,7 @@
         <v>5.4832076700000003E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A74" s="25">
         <v>2021</v>
       </c>
@@ -4271,7 +4271,7 @@
         <v>4.4786814699999998E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="18">
         <v>2021</v>
       </c>
@@ -4312,7 +4312,7 @@
         <v>3.18401405E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A76" s="25">
         <v>2021</v>
       </c>
@@ -4353,7 +4353,7 @@
         <v>3.1648073399999999E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A77" s="18">
         <v>2021</v>
       </c>
@@ -4394,7 +4394,7 @@
         <v>4.5126353700000003E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A78" s="25">
         <v>2021</v>
       </c>
@@ -4435,7 +4435,7 @@
         <v>4.3101337099999996E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="18">
         <v>2021</v>
       </c>
@@ -4476,7 +4476,7 @@
         <v>4.4901777300000003E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A80" s="25">
         <v>2021</v>
       </c>
@@ -4517,7 +4517,7 @@
         <v>4.4716593399999997E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A81" s="18">
         <v>2021</v>
       </c>
@@ -4558,7 +4558,7 @@
         <v>5.2122563299999997E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A82" s="25">
         <v>2021</v>
       </c>
@@ -4599,7 +4599,7 @@
         <v>5.7124510000000003E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="18">
         <v>2021</v>
       </c>
@@ -4640,7 +4640,7 @@
         <v>6.2085803900000002E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A84" s="25">
         <v>2021</v>
       </c>
@@ -4681,7 +4681,7 @@
         <v>6.2301748599999998E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A85" s="18">
         <v>2021</v>
       </c>
@@ -4722,7 +4722,7 @@
         <v>6.5286327100000001E-3</v>
       </c>
     </row>
-    <row r="86" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A86" s="25">
         <v>2021</v>
       </c>
@@ -4763,7 +4763,7 @@
         <v>7.3818374900000002E-3</v>
       </c>
     </row>
-    <row r="87" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A87" s="18">
         <v>2021</v>
       </c>
@@ -4804,7 +4804,7 @@
         <v>8.3094852199999993E-3</v>
       </c>
     </row>
-    <row r="88" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A88" s="25">
         <v>2021</v>
       </c>
@@ -4845,7 +4845,7 @@
         <v>8.7523334399999993E-3</v>
       </c>
     </row>
-    <row r="89" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A89" s="18">
         <v>2021</v>
       </c>
@@ -4886,7 +4886,7 @@
         <v>1.054990483E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="25">
         <v>2021</v>
       </c>
@@ -4927,7 +4927,7 @@
         <v>9.2095276999999993E-3</v>
       </c>
     </row>
-    <row r="91" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A91" s="18">
         <v>2021</v>
       </c>
@@ -4968,7 +4968,7 @@
         <v>9.2758120500000003E-3</v>
       </c>
     </row>
-    <row r="92" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A92" s="25">
         <v>2021</v>
       </c>
@@ -5009,7 +5009,7 @@
         <v>8.2639144800000005E-3</v>
       </c>
     </row>
-    <row r="93" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A93" s="18">
         <v>2021</v>
       </c>
@@ -5050,7 +5050,7 @@
         <v>7.5258300499999996E-3</v>
       </c>
     </row>
-    <row r="94" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A94" s="25">
         <v>2021</v>
       </c>
@@ -5091,7 +5091,7 @@
         <v>7.4951775899999998E-3</v>
       </c>
     </row>
-    <row r="95" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A95" s="18">
         <v>2021</v>
       </c>
@@ -5132,7 +5132,7 @@
         <v>7.1961160499999996E-3</v>
       </c>
     </row>
-    <row r="96" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="25">
         <v>2021</v>
       </c>
@@ -5173,7 +5173,7 @@
         <v>7.22945002E-3</v>
       </c>
     </row>
-    <row r="97" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A97" s="18">
         <v>2021</v>
       </c>
@@ -5214,7 +5214,7 @@
         <v>7.0172873699999999E-3</v>
       </c>
     </row>
-    <row r="98" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A98" s="25">
         <v>2021</v>
       </c>
@@ -5255,7 +5255,7 @@
         <v>6.3681458599999996E-3</v>
       </c>
     </row>
-    <row r="99" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A99" s="34">
         <v>2021</v>
       </c>
@@ -5296,7 +5296,7 @@
         <v>4.7041690799999999E-3</v>
       </c>
     </row>
-    <row r="100" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A100" s="25">
         <v>2022</v>
       </c>
@@ -5337,455 +5337,537 @@
         <v>2.3807340899999999E-3</v>
       </c>
     </row>
-    <row r="101" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A101" s="35">
         <v>2022</v>
       </c>
       <c r="B101" s="36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C101" s="37">
-        <v>486050</v>
+        <v>338136</v>
       </c>
       <c r="D101" s="38">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E101" s="39">
-        <v>0.49717999453721679</v>
+        <v>0.49196600043742827</v>
       </c>
       <c r="F101" s="39">
-        <v>0.50282000546278327</v>
+        <v>0.50803399956257167</v>
       </c>
       <c r="G101" s="37">
-        <v>174342</v>
+        <v>153068</v>
       </c>
       <c r="H101" s="40">
-        <v>0.16276628695322987</v>
+        <v>0.13725272427940524</v>
       </c>
       <c r="I101" s="37">
-        <v>241055</v>
+        <v>184460</v>
       </c>
       <c r="J101" s="41">
-        <v>5006</v>
+        <v>5168</v>
       </c>
       <c r="K101" s="39">
-        <v>2.0767044865279707E-2</v>
+        <v>2.8016914236148757E-2</v>
       </c>
       <c r="L101" s="41">
-        <v>641</v>
+        <v>808</v>
       </c>
       <c r="M101" s="42">
-        <v>1.3187943599999999E-3</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>2.3895710599999998E-3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A102" s="17">
         <v>2022</v>
       </c>
       <c r="B102" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C102" s="7">
-        <v>796100</v>
+        <v>486043</v>
       </c>
       <c r="D102" s="5">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E102" s="6">
-        <v>0.49624280115079383</v>
+        <v>0.49717482319188683</v>
       </c>
       <c r="F102" s="6">
-        <v>0.50375719884920611</v>
+        <v>0.50282517680811312</v>
       </c>
       <c r="G102" s="7">
-        <v>219051</v>
+        <v>175302</v>
       </c>
       <c r="H102" s="8">
-        <v>0.16118620777809733</v>
+        <v>0.16279905534449121</v>
       </c>
       <c r="I102" s="7">
-        <v>346265</v>
+        <v>241729</v>
       </c>
       <c r="J102" s="9">
-        <v>6617</v>
+        <v>5024</v>
       </c>
       <c r="K102" s="6">
-        <v>1.910964145957576E-2</v>
+        <v>2.0783604780560048E-2</v>
       </c>
       <c r="L102" s="9">
-        <v>784</v>
+        <v>648</v>
       </c>
       <c r="M102" s="10">
-        <v>9.8480089999999996E-4</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>1.33321537E-3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A103" s="35">
         <v>2022</v>
       </c>
       <c r="B103" s="36">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C103" s="37">
-        <v>1110623</v>
+        <v>796077</v>
       </c>
       <c r="D103" s="38">
         <v>30</v>
       </c>
       <c r="E103" s="39">
-        <v>0.49031232468515401</v>
+        <v>0.4962423208060327</v>
       </c>
       <c r="F103" s="39">
-        <v>0.50968767531484604</v>
+        <v>0.5037576791939673</v>
       </c>
       <c r="G103" s="37">
-        <v>235839</v>
+        <v>219877</v>
       </c>
       <c r="H103" s="40">
-        <v>0.16249644884857892</v>
+        <v>0.16105368001200671</v>
       </c>
       <c r="I103" s="37">
-        <v>443106</v>
+        <v>346914</v>
       </c>
       <c r="J103" s="41">
-        <v>7896</v>
+        <v>6637</v>
       </c>
       <c r="K103" s="39">
-        <v>1.7819663917888723E-2</v>
+        <v>1.9131542687813117E-2</v>
       </c>
       <c r="L103" s="41">
-        <v>981</v>
+        <v>790</v>
       </c>
       <c r="M103" s="42">
-        <v>8.8328802000000001E-4</v>
-      </c>
-    </row>
-    <row r="104" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>9.9236631000000001E-4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A104" s="17">
         <v>2022</v>
       </c>
       <c r="B104" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C104" s="7">
-        <v>1289587</v>
+        <v>1110624</v>
       </c>
       <c r="D104" s="5">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E104" s="6">
-        <v>0.48599294998967868</v>
+        <v>0.4903115459796622</v>
       </c>
       <c r="F104" s="6">
-        <v>0.51400705001032132</v>
+        <v>0.5096884540203378</v>
       </c>
       <c r="G104" s="7">
-        <v>242445</v>
+        <v>236849</v>
       </c>
       <c r="H104" s="8">
-        <v>0.15479799542164202</v>
+        <v>0.16242416054110426</v>
       </c>
       <c r="I104" s="7">
-        <v>480160</v>
+        <v>443981</v>
       </c>
       <c r="J104" s="9">
-        <v>9532</v>
+        <v>7924</v>
       </c>
       <c r="K104" s="6">
-        <v>1.9851716094635121E-2</v>
+        <v>1.7847610595948925E-2</v>
       </c>
       <c r="L104" s="9">
-        <v>1254</v>
+        <v>1000</v>
       </c>
       <c r="M104" s="10">
-        <v>9.7240434000000001E-4</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>9.0039473000000001E-4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A105" s="35">
         <v>2022</v>
       </c>
       <c r="B105" s="36">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C105" s="37">
-        <v>1306992</v>
+        <v>1289567</v>
       </c>
       <c r="D105" s="38">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E105" s="39">
-        <v>0.4820133425694203</v>
+        <v>0.48600326480190592</v>
       </c>
       <c r="F105" s="39">
-        <v>0.5179866574305797</v>
+        <v>0.51399673519809408</v>
       </c>
       <c r="G105" s="37">
-        <v>249439</v>
+        <v>243961</v>
       </c>
       <c r="H105" s="40">
-        <v>0.14698583621646977</v>
+        <v>0.15437713405011458</v>
       </c>
       <c r="I105" s="37">
-        <v>503323</v>
+        <v>481298</v>
       </c>
       <c r="J105" s="41">
-        <v>9798</v>
+        <v>9577</v>
       </c>
       <c r="K105" s="39">
-        <v>1.9466624811502752E-2</v>
+        <v>1.9898275081134766E-2</v>
       </c>
       <c r="L105" s="41">
-        <v>1418</v>
+        <v>1280</v>
       </c>
       <c r="M105" s="42">
-        <v>1.0849339500000001E-3</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>9.9258122999999992E-4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A106" s="17">
         <v>2022</v>
       </c>
       <c r="B106" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C106" s="7">
-        <v>1190422</v>
+        <v>1307261</v>
       </c>
       <c r="D106" s="5">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E106" s="6">
-        <v>0.48042077562586877</v>
+        <v>0.48200580570700219</v>
       </c>
       <c r="F106" s="6">
-        <v>0.51957922437413129</v>
+        <v>0.51799419429299776</v>
       </c>
       <c r="G106" s="7">
-        <v>219612</v>
+        <v>250541</v>
       </c>
       <c r="H106" s="8">
-        <v>0.14501029087663697</v>
+        <v>0.14667459617387973</v>
       </c>
       <c r="I106" s="7">
-        <v>468259</v>
+        <v>503909</v>
       </c>
       <c r="J106" s="9">
-        <v>9824</v>
+        <v>9856</v>
       </c>
       <c r="K106" s="6">
-        <v>2.0979842352202519E-2</v>
+        <v>1.955908705738536E-2</v>
       </c>
       <c r="L106" s="9">
-        <v>1388</v>
+        <v>1451</v>
       </c>
       <c r="M106" s="10">
-        <v>1.16597307E-3</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>1.10995432E-3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A107" s="18">
         <v>2022</v>
       </c>
       <c r="B107" s="24">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C107" s="19">
-        <v>1090236</v>
+        <v>1190570</v>
       </c>
       <c r="D107" s="20">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E107" s="21">
-        <v>0.47652723275166292</v>
+        <v>0.48042023366220071</v>
       </c>
       <c r="F107" s="21">
-        <v>0.52347276724833713</v>
+        <v>0.51957976633779923</v>
       </c>
       <c r="G107" s="19">
-        <v>199609</v>
+        <v>221643</v>
       </c>
       <c r="H107" s="22">
-        <v>0.1406650000751469</v>
+        <v>0.14434924631050833</v>
       </c>
       <c r="I107" s="19">
-        <v>427200</v>
+        <v>469642</v>
       </c>
       <c r="J107" s="32">
-        <v>9328</v>
+        <v>9906</v>
       </c>
       <c r="K107" s="21">
-        <v>2.1835205992509363E-2</v>
+        <v>2.109266207025777E-2</v>
       </c>
       <c r="L107" s="32">
-        <v>1153</v>
+        <v>1439</v>
       </c>
       <c r="M107" s="23">
-        <v>1.0575691800000001E-3</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>1.20866475E-3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A108" s="17">
         <v>2022</v>
       </c>
       <c r="B108" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C108" s="7">
-        <v>1124280</v>
+        <v>1090497</v>
       </c>
       <c r="D108" s="5">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E108" s="6">
-        <v>0.47343746346482102</v>
+        <v>0.47653665634485426</v>
       </c>
       <c r="F108" s="6">
-        <v>0.52656253653517904</v>
+        <v>0.5234633436551458</v>
       </c>
       <c r="G108" s="7">
-        <v>196039</v>
+        <v>200535</v>
       </c>
       <c r="H108" s="8">
-        <v>0.13186151735113932</v>
+        <v>0.14058892462662378</v>
       </c>
       <c r="I108" s="7">
-        <v>444677</v>
+        <v>428480</v>
       </c>
       <c r="J108" s="9">
-        <v>8822</v>
+        <v>9455</v>
       </c>
       <c r="K108" s="6">
-        <v>1.9839119180888602E-2</v>
+        <v>2.2066374159820761E-2</v>
       </c>
       <c r="L108" s="9">
-        <v>1021</v>
+        <v>1212</v>
       </c>
       <c r="M108" s="10">
-        <v>9.0813676000000003E-4</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>1.1114198299999999E-3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A109" s="18">
         <v>2022</v>
       </c>
       <c r="B109" s="24">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C109" s="19">
-        <v>1396931</v>
+        <v>1124923</v>
       </c>
       <c r="D109" s="20">
         <v>35</v>
       </c>
       <c r="E109" s="21">
-        <v>0.48002056244941516</v>
+        <v>0.47342603984768405</v>
       </c>
       <c r="F109" s="21">
-        <v>0.51997943755058484</v>
+        <v>0.52657396015231595</v>
       </c>
       <c r="G109" s="19">
-        <v>205846</v>
+        <v>199423</v>
       </c>
       <c r="H109" s="22">
-        <v>0.13319180358131807</v>
+        <v>0.13174007010224498</v>
       </c>
       <c r="I109" s="19">
-        <v>523199</v>
+        <v>448009</v>
       </c>
       <c r="J109" s="32">
-        <v>9844</v>
+        <v>9029</v>
       </c>
       <c r="K109" s="21">
-        <v>1.8815020670911068E-2</v>
+        <v>2.0153612985453418E-2</v>
       </c>
       <c r="L109" s="32">
-        <v>947</v>
+        <v>1128</v>
       </c>
       <c r="M109" s="23">
-        <v>6.7791464999999995E-4</v>
-      </c>
-    </row>
-    <row r="110" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>1.00273529E-3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A110" s="17">
         <v>2022</v>
       </c>
       <c r="B110" s="4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C110" s="7">
-        <v>1562024</v>
+        <v>1398785</v>
       </c>
       <c r="D110" s="5">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E110" s="6">
-        <v>0.48176388564764566</v>
+        <v>0.4800490833284668</v>
       </c>
       <c r="F110" s="6">
-        <v>0.51823611435235439</v>
+        <v>0.51995091667153315</v>
       </c>
       <c r="G110" s="7">
-        <v>179860</v>
+        <v>213356</v>
       </c>
       <c r="H110" s="8">
-        <v>0.13072945624374513</v>
+        <v>0.13347175612591161</v>
       </c>
       <c r="I110" s="7">
-        <v>560011</v>
+        <v>527832</v>
       </c>
       <c r="J110" s="9">
-        <v>9864</v>
+        <v>10277</v>
       </c>
       <c r="K110" s="6">
-        <v>1.7613939726183948E-2</v>
+        <v>1.9470210218402825E-2</v>
       </c>
       <c r="L110" s="9">
-        <v>670</v>
+        <v>1173</v>
       </c>
       <c r="M110" s="10">
-        <v>4.2893066000000002E-4</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>8.3858491000000002E-4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A111" s="18">
         <v>2022</v>
       </c>
       <c r="B111" s="24">
+        <v>11</v>
+      </c>
+      <c r="C111" s="19">
+        <v>1565894</v>
+      </c>
+      <c r="D111" s="20">
+        <v>36</v>
+      </c>
+      <c r="E111" s="21">
+        <v>0.4817939866901006</v>
+      </c>
+      <c r="F111" s="21">
+        <v>0.51820601330989935</v>
+      </c>
+      <c r="G111" s="19">
+        <v>196564</v>
+      </c>
+      <c r="H111" s="22">
+        <v>0.12987627439409047</v>
+      </c>
+      <c r="I111" s="19">
+        <v>568479</v>
+      </c>
+      <c r="J111" s="32">
+        <v>10706</v>
+      </c>
+      <c r="K111" s="21">
+        <v>1.8832709739497851E-2</v>
+      </c>
+      <c r="L111" s="32">
+        <v>971</v>
+      </c>
+      <c r="M111" s="23">
+        <v>6.2009304999999996E-4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A112" s="17">
+        <v>2022</v>
+      </c>
+      <c r="B112" s="4">
         <v>12</v>
       </c>
-      <c r="C111" s="19">
-        <v>1537193</v>
-      </c>
-      <c r="D111" s="20">
+      <c r="C112" s="7">
+        <v>1565494</v>
+      </c>
+      <c r="D112" s="5">
         <v>37</v>
       </c>
-      <c r="E111" s="21">
-        <v>0.48000645494873917</v>
-      </c>
-      <c r="F111" s="21">
-        <v>0.51999354505126083</v>
-      </c>
-      <c r="G111" s="19">
-        <v>127048</v>
-      </c>
-      <c r="H111" s="22">
-        <v>0.12880171273849253</v>
-      </c>
-      <c r="I111" s="19">
-        <v>515218</v>
-      </c>
-      <c r="J111" s="32">
-        <v>7785</v>
-      </c>
-      <c r="K111" s="21">
-        <v>1.5110108730673229E-2</v>
-      </c>
-      <c r="L111" s="32">
-        <v>337</v>
-      </c>
-      <c r="M111" s="23">
-        <v>2.1923076E-4</v>
+      <c r="E112" s="6">
+        <v>0.48003703155375427</v>
+      </c>
+      <c r="F112" s="6">
+        <v>0.51996296844624579</v>
+      </c>
+      <c r="G112" s="7">
+        <v>165611</v>
+      </c>
+      <c r="H112" s="8">
+        <v>0.13080652855184741</v>
+      </c>
+      <c r="I112" s="7">
+        <v>550797</v>
+      </c>
+      <c r="J112" s="9">
+        <v>9753</v>
+      </c>
+      <c r="K112" s="6">
+        <v>1.7707068121286064E-2</v>
+      </c>
+      <c r="L112" s="9">
+        <v>720</v>
+      </c>
+      <c r="M112" s="10">
+        <v>4.5991872000000002E-4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A113" s="18">
+        <v>2022</v>
+      </c>
+      <c r="B113" s="24">
+        <v>13</v>
+      </c>
+      <c r="C113" s="19">
+        <v>1274428</v>
+      </c>
+      <c r="D113" s="20">
+        <v>38</v>
+      </c>
+      <c r="E113" s="21">
+        <v>0.48003142782314706</v>
+      </c>
+      <c r="F113" s="21">
+        <v>0.51996857217685288</v>
+      </c>
+      <c r="G113" s="19">
+        <v>112668</v>
+      </c>
+      <c r="H113" s="22">
+        <v>0.11921752405296979</v>
+      </c>
+      <c r="I113" s="19">
+        <v>441039</v>
+      </c>
+      <c r="J113" s="32">
+        <v>7234</v>
+      </c>
+      <c r="K113" s="21">
+        <v>1.6402177585202217E-2</v>
+      </c>
+      <c r="L113" s="32">
+        <v>303</v>
+      </c>
+      <c r="M113" s="23">
+        <v>2.3775371999999999E-4</v>
       </c>
     </row>
   </sheetData>
@@ -5799,19 +5881,19 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="43" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B3" s="43"/>
       <c r="C3" s="43"/>
@@ -5824,7 +5906,7 @@
       <c r="J3" s="43"/>
       <c r="K3" s="43"/>
     </row>
-    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="43"/>
       <c r="B4" s="43"/>
       <c r="C4" s="43"/>
@@ -5837,7 +5919,7 @@
       <c r="J4" s="43"/>
       <c r="K4" s="43"/>
     </row>
-    <row r="5" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="67" t="s">
         <v>14</v>
       </c>
@@ -5852,7 +5934,7 @@
       <c r="J5" s="68"/>
       <c r="K5" s="69"/>
     </row>
-    <row r="6" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="65" t="s">
         <v>15</v>
       </c>
@@ -5887,7 +5969,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="44" t="s">
         <v>26</v>
       </c>
@@ -5901,28 +5983,28 @@
         <v>88</v>
       </c>
       <c r="E7" s="47">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="F7" s="47">
-        <v>902</v>
+        <v>912</v>
       </c>
       <c r="G7" s="47">
-        <v>3610</v>
+        <v>3636</v>
       </c>
       <c r="H7" s="47">
-        <v>8746</v>
+        <v>8847</v>
       </c>
       <c r="I7" s="47">
-        <v>16838</v>
+        <v>17034</v>
       </c>
       <c r="J7" s="47">
-        <v>28875</v>
+        <v>29260</v>
       </c>
       <c r="K7" s="52">
-        <v>9264</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>9400</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="45" t="s">
         <v>27</v>
       </c>
@@ -5930,34 +6012,34 @@
         <v>21</v>
       </c>
       <c r="C8" s="48">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D8" s="48">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E8" s="48">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="F8" s="48">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="G8" s="48">
-        <v>1493</v>
+        <v>1515</v>
       </c>
       <c r="H8" s="48">
-        <v>4006</v>
+        <v>4065</v>
       </c>
       <c r="I8" s="48">
-        <v>9724</v>
+        <v>9838</v>
       </c>
       <c r="J8" s="48">
-        <v>27257</v>
+        <v>27548</v>
       </c>
       <c r="K8" s="53">
-        <v>17028</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>17270</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="44" t="s">
         <v>28</v>
       </c>
@@ -5967,39 +6049,39 @@
       </c>
       <c r="C9" s="49">
         <f t="shared" ref="C9:K9" si="0">C7+C8</f>
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D9" s="49">
         <f t="shared" si="0"/>
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E9" s="49">
         <f t="shared" si="0"/>
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="F9" s="49">
         <f t="shared" si="0"/>
-        <v>1335</v>
+        <v>1350</v>
       </c>
       <c r="G9" s="49">
         <f t="shared" si="0"/>
-        <v>5103</v>
+        <v>5151</v>
       </c>
       <c r="H9" s="49">
         <f>H7+H8</f>
-        <v>12752</v>
+        <v>12912</v>
       </c>
       <c r="I9" s="49">
         <f t="shared" si="0"/>
-        <v>26562</v>
+        <v>26872</v>
       </c>
       <c r="J9" s="49">
         <f t="shared" si="0"/>
-        <v>56132</v>
+        <v>56808</v>
       </c>
       <c r="K9" s="54">
         <f t="shared" si="0"/>
-        <v>26292</v>
+        <v>26670</v>
       </c>
     </row>
   </sheetData>
@@ -6013,25 +6095,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AE40E1E-E7DF-4299-B33E-6C3A1582C179}">
-  <dimension ref="A1:H115"/>
+  <dimension ref="A1:H117"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="55" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="56" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="56"/>
       <c r="B5" s="56"/>
       <c r="C5" s="56"/>
@@ -6041,7 +6121,7 @@
       <c r="G5" s="56"/>
       <c r="H5" s="56"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="56"/>
       <c r="B6" s="56"/>
       <c r="C6" s="57" t="s">
@@ -6063,7 +6143,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="58" t="s">
         <v>0</v>
       </c>
@@ -6089,12 +6169,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="56" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" s="56" t="s">
-        <v>43</v>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="66">
+        <v>2020</v>
+      </c>
+      <c r="B8" s="66">
+        <v>10</v>
       </c>
       <c r="C8" s="56">
         <v>2</v>
@@ -6108,19 +6188,19 @@
       <c r="F8" s="56">
         <v>84</v>
       </c>
-      <c r="G8" s="60">
+      <c r="G8" s="56">
         <v>37</v>
       </c>
       <c r="H8" s="56">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="56" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" s="56" t="s">
-        <v>44</v>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="66">
+        <v>2020</v>
+      </c>
+      <c r="B9" s="66">
+        <v>11</v>
       </c>
       <c r="C9" s="56">
         <v>2</v>
@@ -6134,19 +6214,19 @@
       <c r="F9" s="56">
         <v>237</v>
       </c>
-      <c r="G9" s="60">
+      <c r="G9" s="56">
         <v>152</v>
       </c>
       <c r="H9" s="56">
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="56" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" s="56" t="s">
-        <v>45</v>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="66">
+        <v>2020</v>
+      </c>
+      <c r="B10" s="66">
+        <v>12</v>
       </c>
       <c r="C10" s="56">
         <v>14</v>
@@ -6160,19 +6240,19 @@
       <c r="F10" s="56">
         <v>724</v>
       </c>
-      <c r="G10" s="60">
+      <c r="G10" s="56">
         <v>861</v>
       </c>
       <c r="H10" s="56">
         <v>472</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="56" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" s="56" t="s">
-        <v>46</v>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="66">
+        <v>2020</v>
+      </c>
+      <c r="B11" s="66">
+        <v>13</v>
       </c>
       <c r="C11" s="56">
         <v>33</v>
@@ -6186,19 +6266,19 @@
       <c r="F11" s="56">
         <v>1359</v>
       </c>
-      <c r="G11" s="60">
-        <v>2219</v>
+      <c r="G11" s="56">
+        <v>2218</v>
       </c>
       <c r="H11" s="56">
         <v>1258</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="56" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="56" t="s">
-        <v>47</v>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="66">
+        <v>2020</v>
+      </c>
+      <c r="B12" s="66">
+        <v>14</v>
       </c>
       <c r="C12" s="56">
         <v>27</v>
@@ -6212,19 +6292,19 @@
       <c r="F12" s="56">
         <v>1348</v>
       </c>
-      <c r="G12" s="60">
+      <c r="G12" s="56">
         <v>2484</v>
       </c>
       <c r="H12" s="56">
         <v>1924</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="56" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" s="56" t="s">
-        <v>48</v>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="66">
+        <v>2020</v>
+      </c>
+      <c r="B13" s="66">
+        <v>15</v>
       </c>
       <c r="C13" s="56">
         <v>22</v>
@@ -6238,19 +6318,19 @@
       <c r="F13" s="56">
         <v>984</v>
       </c>
-      <c r="G13" s="60">
+      <c r="G13" s="56">
         <v>1761</v>
       </c>
       <c r="H13" s="56">
         <v>1731</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="56" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="56" t="s">
-        <v>49</v>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="66">
+        <v>2020</v>
+      </c>
+      <c r="B14" s="66">
+        <v>16</v>
       </c>
       <c r="C14" s="56">
         <v>9</v>
@@ -6264,19 +6344,19 @@
       <c r="F14" s="56">
         <v>636</v>
       </c>
-      <c r="G14" s="60">
+      <c r="G14" s="56">
         <v>1280</v>
       </c>
       <c r="H14" s="56">
         <v>1251</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="56" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" s="56" t="s">
-        <v>50</v>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="66">
+        <v>2020</v>
+      </c>
+      <c r="B15" s="66">
+        <v>17</v>
       </c>
       <c r="C15" s="56">
         <v>20</v>
@@ -6290,19 +6370,19 @@
       <c r="F15" s="56">
         <v>418</v>
       </c>
-      <c r="G15" s="60">
+      <c r="G15" s="56">
         <v>768</v>
       </c>
       <c r="H15" s="56">
         <v>832</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="56" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" s="56" t="s">
-        <v>51</v>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" s="66">
+        <v>2020</v>
+      </c>
+      <c r="B16" s="66">
+        <v>18</v>
       </c>
       <c r="C16" s="56">
         <v>19</v>
@@ -6316,19 +6396,19 @@
       <c r="F16" s="56">
         <v>287</v>
       </c>
-      <c r="G16" s="60">
+      <c r="G16" s="56">
         <v>513</v>
       </c>
       <c r="H16" s="56">
         <v>429</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="56" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" s="56" t="s">
-        <v>52</v>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" s="66">
+        <v>2020</v>
+      </c>
+      <c r="B17" s="66">
+        <v>19</v>
       </c>
       <c r="C17" s="56">
         <v>10</v>
@@ -6342,19 +6422,19 @@
       <c r="F17" s="56">
         <v>241</v>
       </c>
-      <c r="G17" s="60">
+      <c r="G17" s="56">
         <v>383</v>
       </c>
       <c r="H17" s="56">
         <v>350</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="56" t="s">
-        <v>42</v>
-      </c>
-      <c r="B18" s="56" t="s">
-        <v>53</v>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" s="66">
+        <v>2020</v>
+      </c>
+      <c r="B18" s="66">
+        <v>20</v>
       </c>
       <c r="C18" s="56">
         <v>7</v>
@@ -6368,19 +6448,19 @@
       <c r="F18" s="56">
         <v>180</v>
       </c>
-      <c r="G18" s="60">
+      <c r="G18" s="56">
         <v>231</v>
       </c>
       <c r="H18" s="56">
         <v>248</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="56" t="s">
-        <v>42</v>
-      </c>
-      <c r="B19" s="56" t="s">
-        <v>54</v>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19" s="66">
+        <v>2020</v>
+      </c>
+      <c r="B19" s="66">
+        <v>21</v>
       </c>
       <c r="C19" s="56">
         <v>4</v>
@@ -6394,19 +6474,19 @@
       <c r="F19" s="56">
         <v>120</v>
       </c>
-      <c r="G19" s="60">
+      <c r="G19" s="56">
         <v>170</v>
       </c>
       <c r="H19" s="56">
         <v>166</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="56" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" s="56" t="s">
-        <v>55</v>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" s="66">
+        <v>2020</v>
+      </c>
+      <c r="B20" s="66">
+        <v>22</v>
       </c>
       <c r="C20" s="56">
         <v>4</v>
@@ -6418,19 +6498,19 @@
       <c r="F20" s="56">
         <v>124</v>
       </c>
-      <c r="G20" s="60">
+      <c r="G20" s="56">
         <v>138</v>
       </c>
       <c r="H20" s="56">
         <v>118</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="56" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" s="56" t="s">
-        <v>56</v>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21" s="66">
+        <v>2020</v>
+      </c>
+      <c r="B21" s="66">
+        <v>23</v>
       </c>
       <c r="C21" s="56">
         <v>3</v>
@@ -6444,19 +6524,19 @@
       <c r="F21" s="56">
         <v>94</v>
       </c>
-      <c r="G21" s="60">
+      <c r="G21" s="56">
         <v>90</v>
       </c>
       <c r="H21" s="56">
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="56" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" s="56" t="s">
-        <v>57</v>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22" s="66">
+        <v>2020</v>
+      </c>
+      <c r="B22" s="66">
+        <v>24</v>
       </c>
       <c r="C22" s="56">
         <v>11</v>
@@ -6470,19 +6550,19 @@
       <c r="F22" s="56">
         <v>83</v>
       </c>
-      <c r="G22" s="60">
+      <c r="G22" s="56">
         <v>70</v>
       </c>
       <c r="H22" s="56">
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="56" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="56" t="s">
-        <v>58</v>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23" s="66">
+        <v>2020</v>
+      </c>
+      <c r="B23" s="66">
+        <v>25</v>
       </c>
       <c r="C23" s="56">
         <v>5</v>
@@ -6496,19 +6576,19 @@
       <c r="F23" s="56">
         <v>121</v>
       </c>
-      <c r="G23" s="60">
+      <c r="G23" s="56">
         <v>81</v>
       </c>
       <c r="H23" s="56">
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="56" t="s">
-        <v>42</v>
-      </c>
-      <c r="B24" s="56" t="s">
-        <v>59</v>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24" s="66">
+        <v>2020</v>
+      </c>
+      <c r="B24" s="66">
+        <v>26</v>
       </c>
       <c r="C24" s="56">
         <v>3</v>
@@ -6522,19 +6602,19 @@
       <c r="F24" s="56">
         <v>103</v>
       </c>
-      <c r="G24" s="60">
+      <c r="G24" s="56">
         <v>79</v>
       </c>
       <c r="H24" s="56">
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="56" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" s="56" t="s">
-        <v>60</v>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25" s="66">
+        <v>2020</v>
+      </c>
+      <c r="B25" s="66">
+        <v>27</v>
       </c>
       <c r="C25" s="56">
         <v>3</v>
@@ -6548,19 +6628,19 @@
       <c r="F25" s="56">
         <v>93</v>
       </c>
-      <c r="G25" s="60">
+      <c r="G25" s="56">
         <v>57</v>
       </c>
       <c r="H25" s="56">
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="56" t="s">
-        <v>42</v>
-      </c>
-      <c r="B26" s="56" t="s">
-        <v>61</v>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26" s="66">
+        <v>2020</v>
+      </c>
+      <c r="B26" s="66">
+        <v>28</v>
       </c>
       <c r="C26" s="56">
         <v>7</v>
@@ -6574,19 +6654,19 @@
       <c r="F26" s="56">
         <v>97</v>
       </c>
-      <c r="G26" s="60">
+      <c r="G26" s="56">
         <v>79</v>
       </c>
       <c r="H26" s="56">
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="56" t="s">
-        <v>42</v>
-      </c>
-      <c r="B27" s="56" t="s">
-        <v>62</v>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27" s="66">
+        <v>2020</v>
+      </c>
+      <c r="B27" s="66">
+        <v>29</v>
       </c>
       <c r="C27" s="56">
         <v>9</v>
@@ -6600,19 +6680,19 @@
       <c r="F27" s="56">
         <v>106</v>
       </c>
-      <c r="G27" s="60">
+      <c r="G27" s="56">
         <v>92</v>
       </c>
       <c r="H27" s="56">
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="56" t="s">
-        <v>42</v>
-      </c>
-      <c r="B28" s="56" t="s">
-        <v>63</v>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A28" s="66">
+        <v>2020</v>
+      </c>
+      <c r="B28" s="66">
+        <v>30</v>
       </c>
       <c r="C28" s="56">
         <v>10</v>
@@ -6626,19 +6706,19 @@
       <c r="F28" s="56">
         <v>112</v>
       </c>
-      <c r="G28" s="60">
+      <c r="G28" s="56">
         <v>105</v>
       </c>
       <c r="H28" s="56">
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="56" t="s">
-        <v>42</v>
-      </c>
-      <c r="B29" s="56" t="s">
-        <v>64</v>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A29" s="66">
+        <v>2020</v>
+      </c>
+      <c r="B29" s="66">
+        <v>31</v>
       </c>
       <c r="C29" s="56">
         <v>2</v>
@@ -6652,19 +6732,19 @@
       <c r="F29" s="56">
         <v>147</v>
       </c>
-      <c r="G29" s="60">
+      <c r="G29" s="56">
         <v>107</v>
       </c>
       <c r="H29" s="56">
         <v>76</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="56" t="s">
-        <v>42</v>
-      </c>
-      <c r="B30" s="56" t="s">
-        <v>65</v>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A30" s="66">
+        <v>2020</v>
+      </c>
+      <c r="B30" s="66">
+        <v>32</v>
       </c>
       <c r="C30" s="56">
         <v>4</v>
@@ -6678,19 +6758,19 @@
       <c r="F30" s="56">
         <v>148</v>
       </c>
-      <c r="G30" s="60">
+      <c r="G30" s="56">
         <v>114</v>
       </c>
       <c r="H30" s="56">
         <v>66</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="56" t="s">
-        <v>42</v>
-      </c>
-      <c r="B31" s="56" t="s">
-        <v>66</v>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A31" s="66">
+        <v>2020</v>
+      </c>
+      <c r="B31" s="66">
+        <v>33</v>
       </c>
       <c r="C31" s="56">
         <v>11</v>
@@ -6704,19 +6784,19 @@
       <c r="F31" s="56">
         <v>151</v>
       </c>
-      <c r="G31" s="60">
+      <c r="G31" s="56">
         <v>116</v>
       </c>
       <c r="H31" s="56">
         <v>78</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="56" t="s">
-        <v>42</v>
-      </c>
-      <c r="B32" s="56" t="s">
-        <v>67</v>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A32" s="66">
+        <v>2020</v>
+      </c>
+      <c r="B32" s="66">
+        <v>34</v>
       </c>
       <c r="C32" s="56">
         <v>9</v>
@@ -6730,19 +6810,19 @@
       <c r="F32" s="56">
         <v>171</v>
       </c>
-      <c r="G32" s="60">
+      <c r="G32" s="56">
         <v>107</v>
       </c>
       <c r="H32" s="56">
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="56" t="s">
-        <v>42</v>
-      </c>
-      <c r="B33" s="56" t="s">
-        <v>68</v>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A33" s="66">
+        <v>2020</v>
+      </c>
+      <c r="B33" s="66">
+        <v>35</v>
       </c>
       <c r="C33" s="56">
         <v>6</v>
@@ -6756,19 +6836,19 @@
       <c r="F33" s="56">
         <v>151</v>
       </c>
-      <c r="G33" s="60">
+      <c r="G33" s="56">
         <v>101</v>
       </c>
       <c r="H33" s="56">
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="56" t="s">
-        <v>42</v>
-      </c>
-      <c r="B34" s="56" t="s">
-        <v>69</v>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A34" s="66">
+        <v>2020</v>
+      </c>
+      <c r="B34" s="66">
+        <v>36</v>
       </c>
       <c r="C34" s="56">
         <v>4</v>
@@ -6782,19 +6862,19 @@
       <c r="F34" s="56">
         <v>147</v>
       </c>
-      <c r="G34" s="60">
+      <c r="G34" s="56">
         <v>122</v>
       </c>
       <c r="H34" s="56">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="56" t="s">
-        <v>42</v>
-      </c>
-      <c r="B35" s="56" t="s">
-        <v>70</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A35" s="66">
+        <v>2020</v>
+      </c>
+      <c r="B35" s="66">
+        <v>37</v>
       </c>
       <c r="C35" s="56">
         <v>12</v>
@@ -6808,19 +6888,19 @@
       <c r="F35" s="56">
         <v>162</v>
       </c>
-      <c r="G35" s="60">
+      <c r="G35" s="56">
         <v>141</v>
       </c>
       <c r="H35" s="56">
         <v>98</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="56" t="s">
-        <v>42</v>
-      </c>
-      <c r="B36" s="56" t="s">
-        <v>71</v>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A36" s="66">
+        <v>2020</v>
+      </c>
+      <c r="B36" s="66">
+        <v>38</v>
       </c>
       <c r="C36" s="56">
         <v>8</v>
@@ -6834,19 +6914,19 @@
       <c r="F36" s="56">
         <v>238</v>
       </c>
-      <c r="G36" s="60">
+      <c r="G36" s="56">
         <v>211</v>
       </c>
       <c r="H36" s="56">
         <v>136</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="56" t="s">
-        <v>42</v>
-      </c>
-      <c r="B37" s="56" t="s">
-        <v>72</v>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A37" s="66">
+        <v>2020</v>
+      </c>
+      <c r="B37" s="66">
+        <v>39</v>
       </c>
       <c r="C37" s="56">
         <v>9</v>
@@ -6860,19 +6940,19 @@
       <c r="F37" s="56">
         <v>242</v>
       </c>
-      <c r="G37" s="60">
-        <v>259</v>
+      <c r="G37" s="56">
+        <v>260</v>
       </c>
       <c r="H37" s="56">
         <v>154</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="56" t="s">
-        <v>42</v>
-      </c>
-      <c r="B38" s="56" t="s">
-        <v>73</v>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A38" s="66">
+        <v>2020</v>
+      </c>
+      <c r="B38" s="66">
+        <v>40</v>
       </c>
       <c r="C38" s="56">
         <v>15</v>
@@ -6886,19 +6966,19 @@
       <c r="F38" s="56">
         <v>283</v>
       </c>
-      <c r="G38" s="60">
+      <c r="G38" s="56">
         <v>288</v>
       </c>
       <c r="H38" s="56">
         <v>176</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="56" t="s">
-        <v>42</v>
-      </c>
-      <c r="B39" s="56" t="s">
-        <v>74</v>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A39" s="66">
+        <v>2020</v>
+      </c>
+      <c r="B39" s="66">
+        <v>41</v>
       </c>
       <c r="C39" s="56">
         <v>21</v>
@@ -6912,19 +6992,19 @@
       <c r="F39" s="56">
         <v>497</v>
       </c>
-      <c r="G39" s="60">
+      <c r="G39" s="56">
         <v>515</v>
       </c>
       <c r="H39" s="56">
         <v>361</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="56" t="s">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A40" s="66">
+        <v>2020</v>
+      </c>
+      <c r="B40" s="66">
         <v>42</v>
-      </c>
-      <c r="B40" s="56" t="s">
-        <v>75</v>
       </c>
       <c r="C40" s="56">
         <v>24</v>
@@ -6936,21 +7016,21 @@
         <v>275</v>
       </c>
       <c r="F40" s="56">
-        <v>684</v>
-      </c>
-      <c r="G40" s="60">
+        <v>685</v>
+      </c>
+      <c r="G40" s="56">
         <v>788</v>
       </c>
       <c r="H40" s="56">
         <v>558</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="56" t="s">
-        <v>42</v>
-      </c>
-      <c r="B41" s="56" t="s">
-        <v>76</v>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A41" s="66">
+        <v>2020</v>
+      </c>
+      <c r="B41" s="66">
+        <v>43</v>
       </c>
       <c r="C41" s="56">
         <v>50</v>
@@ -6964,19 +7044,19 @@
       <c r="F41" s="56">
         <v>1074</v>
       </c>
-      <c r="G41" s="60">
-        <v>1433</v>
+      <c r="G41" s="56">
+        <v>1432</v>
       </c>
       <c r="H41" s="56">
         <v>1143</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="56" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42" s="56" t="s">
-        <v>77</v>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A42" s="66">
+        <v>2020</v>
+      </c>
+      <c r="B42" s="66">
+        <v>44</v>
       </c>
       <c r="C42" s="56">
         <v>63</v>
@@ -6990,19 +7070,19 @@
       <c r="F42" s="56">
         <v>1519</v>
       </c>
-      <c r="G42" s="60">
+      <c r="G42" s="56">
         <v>2111</v>
       </c>
       <c r="H42" s="56">
         <v>1696</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="56" t="s">
-        <v>42</v>
-      </c>
-      <c r="B43" s="56" t="s">
-        <v>78</v>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A43" s="66">
+        <v>2020</v>
+      </c>
+      <c r="B43" s="66">
+        <v>45</v>
       </c>
       <c r="C43" s="56">
         <v>65</v>
@@ -7016,19 +7096,19 @@
       <c r="F43" s="56">
         <v>1706</v>
       </c>
-      <c r="G43" s="60">
+      <c r="G43" s="56">
         <v>2417</v>
       </c>
       <c r="H43" s="56">
         <v>2068</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="56" t="s">
-        <v>42</v>
-      </c>
-      <c r="B44" s="56" t="s">
-        <v>79</v>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A44" s="66">
+        <v>2020</v>
+      </c>
+      <c r="B44" s="66">
+        <v>46</v>
       </c>
       <c r="C44" s="56">
         <v>66</v>
@@ -7042,19 +7122,19 @@
       <c r="F44" s="56">
         <v>1744</v>
       </c>
-      <c r="G44" s="60">
-        <v>2628</v>
+      <c r="G44" s="56">
+        <v>2629</v>
       </c>
       <c r="H44" s="56">
         <v>2519</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="56" t="s">
-        <v>42</v>
-      </c>
-      <c r="B45" s="56" t="s">
-        <v>80</v>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A45" s="66">
+        <v>2020</v>
+      </c>
+      <c r="B45" s="66">
+        <v>47</v>
       </c>
       <c r="C45" s="56">
         <v>54</v>
@@ -7063,24 +7143,24 @@
         <v>60</v>
       </c>
       <c r="E45" s="56">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="F45" s="56">
-        <v>1698</v>
-      </c>
-      <c r="G45" s="60">
+        <v>1699</v>
+      </c>
+      <c r="G45" s="56">
         <v>2901</v>
       </c>
       <c r="H45" s="56">
         <v>2847</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="56" t="s">
-        <v>42</v>
-      </c>
-      <c r="B46" s="56" t="s">
-        <v>81</v>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A46" s="66">
+        <v>2020</v>
+      </c>
+      <c r="B46" s="66">
+        <v>48</v>
       </c>
       <c r="C46" s="56">
         <v>60</v>
@@ -7094,19 +7174,19 @@
       <c r="F46" s="56">
         <v>1723</v>
       </c>
-      <c r="G46" s="60">
+      <c r="G46" s="56">
         <v>2876</v>
       </c>
       <c r="H46" s="56">
         <v>3096</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="56" t="s">
-        <v>42</v>
-      </c>
-      <c r="B47" s="56" t="s">
-        <v>82</v>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A47" s="66">
+        <v>2020</v>
+      </c>
+      <c r="B47" s="66">
+        <v>49</v>
       </c>
       <c r="C47" s="56">
         <v>58</v>
@@ -7118,21 +7198,21 @@
         <v>610</v>
       </c>
       <c r="F47" s="56">
-        <v>1689</v>
-      </c>
-      <c r="G47" s="60">
-        <v>3203</v>
+        <v>1690</v>
+      </c>
+      <c r="G47" s="56">
+        <v>3204</v>
       </c>
       <c r="H47" s="56">
         <v>3628</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="56" t="s">
-        <v>42</v>
-      </c>
-      <c r="B48" s="56" t="s">
-        <v>83</v>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A48" s="66">
+        <v>2020</v>
+      </c>
+      <c r="B48" s="66">
+        <v>50</v>
       </c>
       <c r="C48" s="56">
         <v>69</v>
@@ -7141,24 +7221,24 @@
         <v>67</v>
       </c>
       <c r="E48" s="56">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="F48" s="56">
-        <v>1984</v>
-      </c>
-      <c r="G48" s="60">
-        <v>3975</v>
+        <v>1986</v>
+      </c>
+      <c r="G48" s="56">
+        <v>3977</v>
       </c>
       <c r="H48" s="56">
-        <v>4560</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="56" t="s">
-        <v>42</v>
-      </c>
-      <c r="B49" s="56" t="s">
-        <v>84</v>
+        <v>4563</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A49" s="66">
+        <v>2020</v>
+      </c>
+      <c r="B49" s="66">
+        <v>51</v>
       </c>
       <c r="C49" s="56">
         <v>77</v>
@@ -7170,21 +7250,21 @@
         <v>721</v>
       </c>
       <c r="F49" s="56">
-        <v>2205</v>
-      </c>
-      <c r="G49" s="60">
-        <v>4428</v>
+        <v>2209</v>
+      </c>
+      <c r="G49" s="56">
+        <v>4429</v>
       </c>
       <c r="H49" s="56">
         <v>5136</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="56" t="s">
-        <v>42</v>
-      </c>
-      <c r="B50" s="56" t="s">
-        <v>85</v>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A50" s="66">
+        <v>2020</v>
+      </c>
+      <c r="B50" s="66">
+        <v>52</v>
       </c>
       <c r="C50" s="56">
         <v>52</v>
@@ -7198,19 +7278,19 @@
       <c r="F50" s="56">
         <v>1869</v>
       </c>
-      <c r="G50" s="60">
-        <v>3935</v>
+      <c r="G50" s="56">
+        <v>3936</v>
       </c>
       <c r="H50" s="56">
-        <v>4609</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" s="56" t="s">
-        <v>42</v>
-      </c>
-      <c r="B51" s="56" t="s">
-        <v>86</v>
+        <v>4610</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A51" s="66">
+        <v>2020</v>
+      </c>
+      <c r="B51" s="66">
+        <v>53</v>
       </c>
       <c r="C51" s="56">
         <v>73</v>
@@ -7219,24 +7299,24 @@
         <v>51</v>
       </c>
       <c r="E51" s="56">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F51" s="56">
         <v>1929</v>
       </c>
-      <c r="G51" s="60">
+      <c r="G51" s="56">
         <v>3876</v>
       </c>
       <c r="H51" s="56">
         <v>4498</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" s="56" t="s">
-        <v>87</v>
-      </c>
-      <c r="B52" s="56" t="s">
-        <v>88</v>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A52" s="66">
+        <v>2021</v>
+      </c>
+      <c r="B52" s="66">
+        <v>1</v>
       </c>
       <c r="C52" s="56">
         <v>68</v>
@@ -7250,19 +7330,19 @@
       <c r="F52" s="56">
         <v>1846</v>
       </c>
-      <c r="G52" s="60">
+      <c r="G52" s="56">
         <v>4009</v>
       </c>
       <c r="H52" s="56">
-        <v>4706</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" s="56" t="s">
-        <v>87</v>
-      </c>
-      <c r="B53" s="56" t="s">
-        <v>89</v>
+        <v>4705</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A53" s="66">
+        <v>2021</v>
+      </c>
+      <c r="B53" s="66">
+        <v>2</v>
       </c>
       <c r="C53" s="56">
         <v>60</v>
@@ -7276,19 +7356,19 @@
       <c r="F53" s="56">
         <v>1615</v>
       </c>
-      <c r="G53" s="60">
+      <c r="G53" s="56">
         <v>3459</v>
       </c>
       <c r="H53" s="56">
         <v>4266</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" s="56" t="s">
-        <v>87</v>
-      </c>
-      <c r="B54" s="56" t="s">
-        <v>90</v>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A54" s="66">
+        <v>2021</v>
+      </c>
+      <c r="B54" s="66">
+        <v>3</v>
       </c>
       <c r="C54" s="56">
         <v>41</v>
@@ -7302,19 +7382,19 @@
       <c r="F54" s="56">
         <v>1510</v>
       </c>
-      <c r="G54" s="60">
+      <c r="G54" s="56">
         <v>3194</v>
       </c>
       <c r="H54" s="56">
         <v>3734</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55" s="56" t="s">
-        <v>87</v>
-      </c>
-      <c r="B55" s="56" t="s">
-        <v>91</v>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A55" s="66">
+        <v>2021</v>
+      </c>
+      <c r="B55" s="66">
+        <v>4</v>
       </c>
       <c r="C55" s="56">
         <v>34</v>
@@ -7328,19 +7408,19 @@
       <c r="F55" s="56">
         <v>1261</v>
       </c>
-      <c r="G55" s="60">
+      <c r="G55" s="56">
         <v>2816</v>
       </c>
       <c r="H55" s="56">
         <v>3021</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" s="56" t="s">
-        <v>87</v>
-      </c>
-      <c r="B56" s="56" t="s">
-        <v>92</v>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A56" s="66">
+        <v>2021</v>
+      </c>
+      <c r="B56" s="66">
+        <v>5</v>
       </c>
       <c r="C56" s="56">
         <v>45</v>
@@ -7352,21 +7432,21 @@
         <v>358</v>
       </c>
       <c r="F56" s="56">
-        <v>1154</v>
-      </c>
-      <c r="G56" s="60">
-        <v>2379</v>
+        <v>1153</v>
+      </c>
+      <c r="G56" s="56">
+        <v>2380</v>
       </c>
       <c r="H56" s="56">
         <v>2544</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="56" t="s">
-        <v>87</v>
-      </c>
-      <c r="B57" s="56" t="s">
-        <v>93</v>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A57" s="66">
+        <v>2021</v>
+      </c>
+      <c r="B57" s="66">
+        <v>6</v>
       </c>
       <c r="C57" s="56">
         <v>42</v>
@@ -7380,19 +7460,19 @@
       <c r="F57" s="56">
         <v>987</v>
       </c>
-      <c r="G57" s="60">
+      <c r="G57" s="56">
         <v>1972</v>
       </c>
       <c r="H57" s="56">
         <v>1906</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" s="56" t="s">
-        <v>87</v>
-      </c>
-      <c r="B58" s="56" t="s">
-        <v>94</v>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A58" s="66">
+        <v>2021</v>
+      </c>
+      <c r="B58" s="66">
+        <v>7</v>
       </c>
       <c r="C58" s="56">
         <v>37</v>
@@ -7406,19 +7486,19 @@
       <c r="F58" s="56">
         <v>1064</v>
       </c>
-      <c r="G58" s="60">
+      <c r="G58" s="56">
         <v>2012</v>
       </c>
       <c r="H58" s="56">
         <v>1707</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A59" s="56" t="s">
-        <v>87</v>
-      </c>
-      <c r="B59" s="56" t="s">
-        <v>95</v>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A59" s="66">
+        <v>2021</v>
+      </c>
+      <c r="B59" s="66">
+        <v>8</v>
       </c>
       <c r="C59" s="56">
         <v>48</v>
@@ -7432,19 +7512,19 @@
       <c r="F59" s="56">
         <v>1121</v>
       </c>
-      <c r="G59" s="60">
+      <c r="G59" s="56">
         <v>1823</v>
       </c>
       <c r="H59" s="56">
         <v>1505</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A60" s="56" t="s">
-        <v>87</v>
-      </c>
-      <c r="B60" s="56" t="s">
-        <v>96</v>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A60" s="66">
+        <v>2021</v>
+      </c>
+      <c r="B60" s="66">
+        <v>9</v>
       </c>
       <c r="C60" s="56">
         <v>53</v>
@@ -7456,21 +7536,21 @@
         <v>354</v>
       </c>
       <c r="F60" s="56">
-        <v>1067</v>
-      </c>
-      <c r="G60" s="60">
+        <v>1068</v>
+      </c>
+      <c r="G60" s="56">
         <v>1674</v>
       </c>
       <c r="H60" s="56">
         <v>1270</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A61" s="56" t="s">
-        <v>87</v>
-      </c>
-      <c r="B61" s="56" t="s">
-        <v>43</v>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A61" s="66">
+        <v>2021</v>
+      </c>
+      <c r="B61" s="66">
+        <v>10</v>
       </c>
       <c r="C61" s="56">
         <v>52</v>
@@ -7484,19 +7564,19 @@
       <c r="F61" s="56">
         <v>1375</v>
       </c>
-      <c r="G61" s="60">
+      <c r="G61" s="56">
         <v>1747</v>
       </c>
       <c r="H61" s="56">
         <v>1297</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A62" s="56" t="s">
-        <v>87</v>
-      </c>
-      <c r="B62" s="56" t="s">
-        <v>44</v>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A62" s="66">
+        <v>2021</v>
+      </c>
+      <c r="B62" s="66">
+        <v>11</v>
       </c>
       <c r="C62" s="56">
         <v>85</v>
@@ -7505,24 +7585,24 @@
         <v>71</v>
       </c>
       <c r="E62" s="56">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="F62" s="56">
         <v>1648</v>
       </c>
-      <c r="G62" s="60">
-        <v>2182</v>
+      <c r="G62" s="56">
+        <v>2183</v>
       </c>
       <c r="H62" s="56">
         <v>1319</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A63" s="56" t="s">
-        <v>87</v>
-      </c>
-      <c r="B63" s="56" t="s">
-        <v>45</v>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A63" s="66">
+        <v>2021</v>
+      </c>
+      <c r="B63" s="66">
+        <v>12</v>
       </c>
       <c r="C63" s="56">
         <v>94</v>
@@ -7536,19 +7616,19 @@
       <c r="F63" s="56">
         <v>1997</v>
       </c>
-      <c r="G63" s="60">
+      <c r="G63" s="56">
         <v>2552</v>
       </c>
       <c r="H63" s="56">
         <v>1541</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A64" s="56" t="s">
-        <v>87</v>
-      </c>
-      <c r="B64" s="56" t="s">
-        <v>46</v>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A64" s="66">
+        <v>2021</v>
+      </c>
+      <c r="B64" s="66">
+        <v>13</v>
       </c>
       <c r="C64" s="56">
         <v>95</v>
@@ -7562,19 +7642,19 @@
       <c r="F64" s="56">
         <v>2072</v>
       </c>
-      <c r="G64" s="60">
+      <c r="G64" s="56">
         <v>2649</v>
       </c>
       <c r="H64" s="56">
         <v>1428</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A65" s="56" t="s">
-        <v>87</v>
-      </c>
-      <c r="B65" s="56" t="s">
-        <v>47</v>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A65" s="66">
+        <v>2021</v>
+      </c>
+      <c r="B65" s="66">
+        <v>14</v>
       </c>
       <c r="C65" s="56">
         <v>112</v>
@@ -7588,19 +7668,19 @@
       <c r="F65" s="56">
         <v>2382</v>
       </c>
-      <c r="G65" s="60">
+      <c r="G65" s="56">
         <v>2854</v>
       </c>
       <c r="H65" s="56">
         <v>1439</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A66" s="56" t="s">
-        <v>87</v>
-      </c>
-      <c r="B66" s="56" t="s">
-        <v>48</v>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A66" s="66">
+        <v>2021</v>
+      </c>
+      <c r="B66" s="66">
+        <v>15</v>
       </c>
       <c r="C66" s="56">
         <v>93</v>
@@ -7614,19 +7694,19 @@
       <c r="F66" s="56">
         <v>2396</v>
       </c>
-      <c r="G66" s="60">
+      <c r="G66" s="56">
         <v>3048</v>
       </c>
       <c r="H66" s="56">
-        <v>1458</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A67" s="56" t="s">
-        <v>87</v>
-      </c>
-      <c r="B67" s="56" t="s">
-        <v>49</v>
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A67" s="66">
+        <v>2021</v>
+      </c>
+      <c r="B67" s="66">
+        <v>16</v>
       </c>
       <c r="C67" s="56">
         <v>96</v>
@@ -7638,21 +7718,21 @@
         <v>806</v>
       </c>
       <c r="F67" s="56">
-        <v>2572</v>
-      </c>
-      <c r="G67" s="60">
+        <v>2571</v>
+      </c>
+      <c r="G67" s="56">
         <v>3031</v>
       </c>
       <c r="H67" s="56">
         <v>1428</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A68" s="56" t="s">
-        <v>87</v>
-      </c>
-      <c r="B68" s="56" t="s">
-        <v>50</v>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A68" s="66">
+        <v>2021</v>
+      </c>
+      <c r="B68" s="66">
+        <v>17</v>
       </c>
       <c r="C68" s="56">
         <v>79</v>
@@ -7666,19 +7746,19 @@
       <c r="F68" s="56">
         <v>2186</v>
       </c>
-      <c r="G68" s="60">
+      <c r="G68" s="56">
         <v>2567</v>
       </c>
       <c r="H68" s="56">
         <v>1182</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A69" s="56" t="s">
-        <v>87</v>
-      </c>
-      <c r="B69" s="56" t="s">
-        <v>51</v>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A69" s="66">
+        <v>2021</v>
+      </c>
+      <c r="B69" s="66">
+        <v>18</v>
       </c>
       <c r="C69" s="56">
         <v>81</v>
@@ -7692,19 +7772,19 @@
       <c r="F69" s="56">
         <v>1749</v>
       </c>
-      <c r="G69" s="60">
+      <c r="G69" s="56">
         <v>2095</v>
       </c>
       <c r="H69" s="56">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A70" s="56" t="s">
-        <v>87</v>
-      </c>
-      <c r="B70" s="56" t="s">
-        <v>52</v>
+        <v>965</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A70" s="66">
+        <v>2021</v>
+      </c>
+      <c r="B70" s="66">
+        <v>19</v>
       </c>
       <c r="C70" s="56">
         <v>67</v>
@@ -7718,19 +7798,19 @@
       <c r="F70" s="56">
         <v>1274</v>
       </c>
-      <c r="G70" s="60">
+      <c r="G70" s="56">
         <v>1509</v>
       </c>
       <c r="H70" s="56">
         <v>712</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A71" s="56" t="s">
-        <v>87</v>
-      </c>
-      <c r="B71" s="56" t="s">
-        <v>53</v>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A71" s="66">
+        <v>2021</v>
+      </c>
+      <c r="B71" s="66">
+        <v>20</v>
       </c>
       <c r="C71" s="56">
         <v>49</v>
@@ -7744,19 +7824,19 @@
       <c r="F71" s="56">
         <v>864</v>
       </c>
-      <c r="G71" s="60">
+      <c r="G71" s="56">
         <v>972</v>
       </c>
       <c r="H71" s="56">
         <v>507</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A72" s="56" t="s">
-        <v>87</v>
-      </c>
-      <c r="B72" s="56" t="s">
-        <v>54</v>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A72" s="66">
+        <v>2021</v>
+      </c>
+      <c r="B72" s="66">
+        <v>21</v>
       </c>
       <c r="C72" s="56">
         <v>28</v>
@@ -7770,19 +7850,19 @@
       <c r="F72" s="56">
         <v>570</v>
       </c>
-      <c r="G72" s="60">
+      <c r="G72" s="56">
         <v>580</v>
       </c>
       <c r="H72" s="56">
         <v>303</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A73" s="56" t="s">
-        <v>87</v>
-      </c>
-      <c r="B73" s="56" t="s">
-        <v>55</v>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A73" s="66">
+        <v>2021</v>
+      </c>
+      <c r="B73" s="66">
+        <v>22</v>
       </c>
       <c r="C73" s="56">
         <v>13</v>
@@ -7796,19 +7876,19 @@
       <c r="F73" s="56">
         <v>397</v>
       </c>
-      <c r="G73" s="60">
+      <c r="G73" s="56">
         <v>349</v>
       </c>
       <c r="H73" s="56">
         <v>203</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A74" s="56" t="s">
-        <v>87</v>
-      </c>
-      <c r="B74" s="56" t="s">
-        <v>56</v>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A74" s="66">
+        <v>2021</v>
+      </c>
+      <c r="B74" s="66">
+        <v>23</v>
       </c>
       <c r="C74" s="56">
         <v>19</v>
@@ -7822,19 +7902,19 @@
       <c r="F74" s="56">
         <v>277</v>
       </c>
-      <c r="G74" s="60">
+      <c r="G74" s="56">
         <v>241</v>
       </c>
       <c r="H74" s="56">
         <v>128</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A75" s="56" t="s">
-        <v>87</v>
-      </c>
-      <c r="B75" s="56" t="s">
-        <v>57</v>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A75" s="66">
+        <v>2021</v>
+      </c>
+      <c r="B75" s="66">
+        <v>24</v>
       </c>
       <c r="C75" s="56">
         <v>16</v>
@@ -7848,19 +7928,19 @@
       <c r="F75" s="56">
         <v>203</v>
       </c>
-      <c r="G75" s="60">
+      <c r="G75" s="56">
         <v>135</v>
       </c>
       <c r="H75" s="56">
         <v>79</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A76" s="56" t="s">
-        <v>87</v>
-      </c>
-      <c r="B76" s="56" t="s">
-        <v>58</v>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A76" s="66">
+        <v>2021</v>
+      </c>
+      <c r="B76" s="66">
+        <v>25</v>
       </c>
       <c r="C76" s="56">
         <v>12</v>
@@ -7874,19 +7954,19 @@
       <c r="F76" s="56">
         <v>117</v>
       </c>
-      <c r="G76" s="60">
+      <c r="G76" s="56">
         <v>88</v>
       </c>
       <c r="H76" s="56">
         <v>50</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A77" s="56" t="s">
-        <v>87</v>
-      </c>
-      <c r="B77" s="56" t="s">
-        <v>59</v>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A77" s="66">
+        <v>2021</v>
+      </c>
+      <c r="B77" s="66">
+        <v>26</v>
       </c>
       <c r="C77" s="56">
         <v>6</v>
@@ -7900,19 +7980,19 @@
       <c r="F77" s="56">
         <v>111</v>
       </c>
-      <c r="G77" s="60">
+      <c r="G77" s="56">
         <v>89</v>
       </c>
       <c r="H77" s="56">
         <v>37</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A78" s="56" t="s">
-        <v>87</v>
-      </c>
-      <c r="B78" s="56" t="s">
-        <v>60</v>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A78" s="66">
+        <v>2021</v>
+      </c>
+      <c r="B78" s="66">
+        <v>27</v>
       </c>
       <c r="C78" s="56">
         <v>6</v>
@@ -7926,19 +8006,19 @@
       <c r="F78" s="56">
         <v>130</v>
       </c>
-      <c r="G78" s="60">
+      <c r="G78" s="56">
         <v>91</v>
       </c>
       <c r="H78" s="56">
         <v>54</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A79" s="56" t="s">
-        <v>87</v>
-      </c>
-      <c r="B79" s="56" t="s">
-        <v>61</v>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A79" s="66">
+        <v>2021</v>
+      </c>
+      <c r="B79" s="66">
+        <v>28</v>
       </c>
       <c r="C79" s="56">
         <v>11</v>
@@ -7952,19 +8032,19 @@
       <c r="F79" s="56">
         <v>159</v>
       </c>
-      <c r="G79" s="60">
+      <c r="G79" s="56">
         <v>91</v>
       </c>
       <c r="H79" s="56">
         <v>48</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A80" s="56" t="s">
-        <v>87</v>
-      </c>
-      <c r="B80" s="56" t="s">
-        <v>62</v>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A80" s="66">
+        <v>2021</v>
+      </c>
+      <c r="B80" s="66">
+        <v>29</v>
       </c>
       <c r="C80" s="56">
         <v>16</v>
@@ -7978,19 +8058,19 @@
       <c r="F80" s="56">
         <v>209</v>
       </c>
-      <c r="G80" s="60">
+      <c r="G80" s="56">
         <v>125</v>
       </c>
       <c r="H80" s="56">
         <v>65</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A81" s="56" t="s">
-        <v>87</v>
-      </c>
-      <c r="B81" s="56" t="s">
-        <v>63</v>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A81" s="66">
+        <v>2021</v>
+      </c>
+      <c r="B81" s="66">
+        <v>30</v>
       </c>
       <c r="C81" s="56">
         <v>20</v>
@@ -8004,19 +8084,19 @@
       <c r="F81" s="56">
         <v>297</v>
       </c>
-      <c r="G81" s="60">
+      <c r="G81" s="56">
         <v>176</v>
       </c>
       <c r="H81" s="56">
         <v>98</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A82" s="56" t="s">
-        <v>87</v>
-      </c>
-      <c r="B82" s="56" t="s">
-        <v>64</v>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A82" s="66">
+        <v>2021</v>
+      </c>
+      <c r="B82" s="66">
+        <v>31</v>
       </c>
       <c r="C82" s="56">
         <v>22</v>
@@ -8030,19 +8110,19 @@
       <c r="F82" s="56">
         <v>386</v>
       </c>
-      <c r="G82" s="60">
+      <c r="G82" s="56">
         <v>195</v>
       </c>
       <c r="H82" s="56">
         <v>128</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A83" s="56" t="s">
-        <v>87</v>
-      </c>
-      <c r="B83" s="56" t="s">
-        <v>65</v>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A83" s="66">
+        <v>2021</v>
+      </c>
+      <c r="B83" s="66">
+        <v>32</v>
       </c>
       <c r="C83" s="56">
         <v>57</v>
@@ -8056,19 +8136,19 @@
       <c r="F83" s="56">
         <v>678</v>
       </c>
-      <c r="G83" s="60">
+      <c r="G83" s="56">
         <v>341</v>
       </c>
       <c r="H83" s="56">
         <v>174</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A84" s="56" t="s">
-        <v>87</v>
-      </c>
-      <c r="B84" s="56" t="s">
-        <v>66</v>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A84" s="66">
+        <v>2021</v>
+      </c>
+      <c r="B84" s="66">
+        <v>33</v>
       </c>
       <c r="C84" s="56">
         <v>75</v>
@@ -8082,19 +8162,19 @@
       <c r="F84" s="56">
         <v>985</v>
       </c>
-      <c r="G84" s="60">
+      <c r="G84" s="56">
         <v>454</v>
       </c>
       <c r="H84" s="56">
         <v>245</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A85" s="56" t="s">
-        <v>87</v>
-      </c>
-      <c r="B85" s="56" t="s">
-        <v>67</v>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A85" s="66">
+        <v>2021</v>
+      </c>
+      <c r="B85" s="66">
+        <v>34</v>
       </c>
       <c r="C85" s="56">
         <v>86</v>
@@ -8108,19 +8188,19 @@
       <c r="F85" s="56">
         <v>1349</v>
       </c>
-      <c r="G85" s="60">
+      <c r="G85" s="56">
         <v>650</v>
       </c>
       <c r="H85" s="56">
         <v>377</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A86" s="56" t="s">
-        <v>87</v>
-      </c>
-      <c r="B86" s="56" t="s">
-        <v>68</v>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A86" s="66">
+        <v>2021</v>
+      </c>
+      <c r="B86" s="66">
+        <v>35</v>
       </c>
       <c r="C86" s="56">
         <v>78</v>
@@ -8134,19 +8214,19 @@
       <c r="F86" s="56">
         <v>1294</v>
       </c>
-      <c r="G86" s="60">
+      <c r="G86" s="56">
         <v>724</v>
       </c>
       <c r="H86" s="56">
         <v>475</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A87" s="56" t="s">
-        <v>87</v>
-      </c>
-      <c r="B87" s="56" t="s">
-        <v>69</v>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A87" s="66">
+        <v>2021</v>
+      </c>
+      <c r="B87" s="66">
+        <v>36</v>
       </c>
       <c r="C87" s="56">
         <v>96</v>
@@ -8160,19 +8240,19 @@
       <c r="F87" s="56">
         <v>1179</v>
       </c>
-      <c r="G87" s="60">
+      <c r="G87" s="56">
         <v>793</v>
       </c>
       <c r="H87" s="56">
         <v>553</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A88" s="56" t="s">
-        <v>87</v>
-      </c>
-      <c r="B88" s="56" t="s">
-        <v>70</v>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A88" s="66">
+        <v>2021</v>
+      </c>
+      <c r="B88" s="66">
+        <v>37</v>
       </c>
       <c r="C88" s="56">
         <v>79</v>
@@ -8186,19 +8266,19 @@
       <c r="F88" s="56">
         <v>984</v>
       </c>
-      <c r="G88" s="60">
+      <c r="G88" s="56">
         <v>659</v>
       </c>
       <c r="H88" s="56">
         <v>530</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A89" s="56" t="s">
-        <v>87</v>
-      </c>
-      <c r="B89" s="56" t="s">
-        <v>71</v>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A89" s="66">
+        <v>2021</v>
+      </c>
+      <c r="B89" s="66">
+        <v>38</v>
       </c>
       <c r="C89" s="56">
         <v>71</v>
@@ -8212,19 +8292,19 @@
       <c r="F89" s="56">
         <v>822</v>
       </c>
-      <c r="G89" s="60">
+      <c r="G89" s="56">
         <v>663</v>
       </c>
       <c r="H89" s="56">
         <v>467</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A90" s="56" t="s">
-        <v>87</v>
-      </c>
-      <c r="B90" s="56" t="s">
-        <v>72</v>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A90" s="66">
+        <v>2021</v>
+      </c>
+      <c r="B90" s="66">
+        <v>39</v>
       </c>
       <c r="C90" s="56">
         <v>67</v>
@@ -8238,19 +8318,19 @@
       <c r="F90" s="56">
         <v>799</v>
       </c>
-      <c r="G90" s="60">
-        <v>653</v>
+      <c r="G90" s="56">
+        <v>654</v>
       </c>
       <c r="H90" s="56">
         <v>585</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A91" s="56" t="s">
-        <v>87</v>
-      </c>
-      <c r="B91" s="56" t="s">
-        <v>73</v>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A91" s="66">
+        <v>2021</v>
+      </c>
+      <c r="B91" s="66">
+        <v>40</v>
       </c>
       <c r="C91" s="56">
         <v>50</v>
@@ -8264,19 +8344,19 @@
       <c r="F91" s="56">
         <v>781</v>
       </c>
-      <c r="G91" s="60">
+      <c r="G91" s="56">
         <v>777</v>
       </c>
       <c r="H91" s="56">
         <v>653</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A92" s="56" t="s">
-        <v>87</v>
-      </c>
-      <c r="B92" s="56" t="s">
-        <v>74</v>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A92" s="66">
+        <v>2021</v>
+      </c>
+      <c r="B92" s="66">
+        <v>41</v>
       </c>
       <c r="C92" s="56">
         <v>47</v>
@@ -8290,19 +8370,19 @@
       <c r="F92" s="56">
         <v>859</v>
       </c>
-      <c r="G92" s="60">
+      <c r="G92" s="56">
         <v>937</v>
       </c>
       <c r="H92" s="56">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A93" s="56" t="s">
-        <v>87</v>
-      </c>
-      <c r="B93" s="56" t="s">
-        <v>75</v>
+        <v>778</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A93" s="66">
+        <v>2021</v>
+      </c>
+      <c r="B93" s="66">
+        <v>42</v>
       </c>
       <c r="C93" s="56">
         <v>83</v>
@@ -8316,19 +8396,19 @@
       <c r="F93" s="56">
         <v>1201</v>
       </c>
-      <c r="G93" s="60">
+      <c r="G93" s="56">
         <v>1506</v>
       </c>
       <c r="H93" s="56">
         <v>1371</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A94" s="56" t="s">
-        <v>87</v>
-      </c>
-      <c r="B94" s="56" t="s">
-        <v>76</v>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A94" s="66">
+        <v>2021</v>
+      </c>
+      <c r="B94" s="66">
+        <v>43</v>
       </c>
       <c r="C94" s="56">
         <v>87</v>
@@ -8337,24 +8417,24 @@
         <v>73</v>
       </c>
       <c r="E94" s="56">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="F94" s="56">
-        <v>1541</v>
-      </c>
-      <c r="G94" s="60">
+        <v>1542</v>
+      </c>
+      <c r="G94" s="56">
         <v>1864</v>
       </c>
       <c r="H94" s="56">
         <v>1789</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A95" s="56" t="s">
-        <v>87</v>
-      </c>
-      <c r="B95" s="56" t="s">
-        <v>77</v>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A95" s="66">
+        <v>2021</v>
+      </c>
+      <c r="B95" s="66">
+        <v>44</v>
       </c>
       <c r="C95" s="56">
         <v>95</v>
@@ -8363,24 +8443,24 @@
         <v>107</v>
       </c>
       <c r="E95" s="56">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="F95" s="56">
-        <v>1689</v>
-      </c>
-      <c r="G95" s="60">
-        <v>2253</v>
+        <v>1690</v>
+      </c>
+      <c r="G95" s="56">
+        <v>2254</v>
       </c>
       <c r="H95" s="56">
         <v>2272</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A96" s="56" t="s">
-        <v>87</v>
-      </c>
-      <c r="B96" s="56" t="s">
-        <v>78</v>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A96" s="66">
+        <v>2021</v>
+      </c>
+      <c r="B96" s="66">
+        <v>45</v>
       </c>
       <c r="C96" s="56">
         <v>106</v>
@@ -8389,24 +8469,24 @@
         <v>152</v>
       </c>
       <c r="E96" s="56">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="F96" s="56">
-        <v>2107</v>
-      </c>
-      <c r="G96" s="60">
+        <v>2106</v>
+      </c>
+      <c r="G96" s="56">
         <v>3005</v>
       </c>
       <c r="H96" s="56">
         <v>2658</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A97" s="56" t="s">
-        <v>87</v>
-      </c>
-      <c r="B97" s="56" t="s">
-        <v>79</v>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A97" s="66">
+        <v>2021</v>
+      </c>
+      <c r="B97" s="66">
+        <v>46</v>
       </c>
       <c r="C97" s="56">
         <v>142</v>
@@ -8415,24 +8495,24 @@
         <v>219</v>
       </c>
       <c r="E97" s="56">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="F97" s="56">
-        <v>2489</v>
-      </c>
-      <c r="G97" s="60">
+        <v>2490</v>
+      </c>
+      <c r="G97" s="56">
         <v>3512</v>
       </c>
       <c r="H97" s="56">
         <v>3153</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A98" s="56" t="s">
-        <v>87</v>
-      </c>
-      <c r="B98" s="56" t="s">
-        <v>80</v>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A98" s="66">
+        <v>2021</v>
+      </c>
+      <c r="B98" s="66">
+        <v>47</v>
       </c>
       <c r="C98" s="56">
         <v>148</v>
@@ -8441,24 +8521,24 @@
         <v>187</v>
       </c>
       <c r="E98" s="56">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="F98" s="56">
-        <v>2655</v>
-      </c>
-      <c r="G98" s="60">
+        <v>2657</v>
+      </c>
+      <c r="G98" s="56">
         <v>3858</v>
       </c>
       <c r="H98" s="56">
         <v>3251</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A99" s="56" t="s">
-        <v>87</v>
-      </c>
-      <c r="B99" s="56" t="s">
-        <v>81</v>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A99" s="66">
+        <v>2021</v>
+      </c>
+      <c r="B99" s="66">
+        <v>48</v>
       </c>
       <c r="C99" s="56">
         <v>158</v>
@@ -8467,50 +8547,50 @@
         <v>214</v>
       </c>
       <c r="E99" s="56">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="F99" s="56">
         <v>2636</v>
       </c>
-      <c r="G99" s="60">
-        <v>3712</v>
+      <c r="G99" s="56">
+        <v>3715</v>
       </c>
       <c r="H99" s="56">
-        <v>2964</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A100" s="56" t="s">
-        <v>87</v>
-      </c>
-      <c r="B100" s="56" t="s">
-        <v>82</v>
+        <v>2970</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A100" s="66">
+        <v>2021</v>
+      </c>
+      <c r="B100" s="66">
+        <v>49</v>
       </c>
       <c r="C100" s="56">
         <v>143</v>
       </c>
       <c r="D100" s="56">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E100" s="56">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="F100" s="56">
-        <v>2354</v>
-      </c>
-      <c r="G100" s="60">
-        <v>3438</v>
+        <v>2360</v>
+      </c>
+      <c r="G100" s="56">
+        <v>3449</v>
       </c>
       <c r="H100" s="56">
-        <v>2727</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A101" s="56" t="s">
-        <v>87</v>
-      </c>
-      <c r="B101" s="56" t="s">
-        <v>83</v>
+        <v>2739</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A101" s="66">
+        <v>2021</v>
+      </c>
+      <c r="B101" s="66">
+        <v>50</v>
       </c>
       <c r="C101" s="56">
         <v>130</v>
@@ -8519,24 +8599,24 @@
         <v>153</v>
       </c>
       <c r="E101" s="56">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="F101" s="56">
-        <v>1844</v>
-      </c>
-      <c r="G101" s="60">
-        <v>2815</v>
+        <v>1847</v>
+      </c>
+      <c r="G101" s="56">
+        <v>2816</v>
       </c>
       <c r="H101" s="56">
-        <v>2223</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A102" s="56" t="s">
-        <v>87</v>
-      </c>
-      <c r="B102" s="56" t="s">
-        <v>84</v>
+        <v>2224</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A102" s="66">
+        <v>2021</v>
+      </c>
+      <c r="B102" s="66">
+        <v>51</v>
       </c>
       <c r="C102" s="56">
         <v>104</v>
@@ -8548,24 +8628,24 @@
         <v>494</v>
       </c>
       <c r="F102" s="56">
-        <v>1362</v>
-      </c>
-      <c r="G102" s="60">
-        <v>1869</v>
+        <v>1364</v>
+      </c>
+      <c r="G102" s="56">
+        <v>1871</v>
       </c>
       <c r="H102" s="56">
         <v>1472</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A103" s="56" t="s">
-        <v>87</v>
-      </c>
-      <c r="B103" s="56" t="s">
-        <v>85</v>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A103" s="66">
+        <v>2021</v>
+      </c>
+      <c r="B103" s="66">
+        <v>52</v>
       </c>
       <c r="C103" s="56">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D103" s="56">
         <v>67</v>
@@ -8574,352 +8654,399 @@
         <v>624</v>
       </c>
       <c r="F103" s="56">
-        <v>1365</v>
-      </c>
-      <c r="G103" s="60">
-        <v>1732</v>
+        <v>1366</v>
+      </c>
+      <c r="G103" s="56">
+        <v>1736</v>
       </c>
       <c r="H103" s="56">
-        <v>1322</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A104" s="56" t="s">
-        <v>97</v>
-      </c>
-      <c r="B104" s="56" t="s">
-        <v>88</v>
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A104" s="66">
+        <v>2022</v>
+      </c>
+      <c r="B104" s="66">
+        <v>1</v>
       </c>
       <c r="C104" s="56">
         <v>167</v>
       </c>
       <c r="D104" s="56">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E104" s="56">
-        <v>891</v>
+        <v>894</v>
       </c>
       <c r="F104" s="56">
-        <v>1271</v>
-      </c>
-      <c r="G104" s="60">
-        <v>1517</v>
+        <v>1274</v>
+      </c>
+      <c r="G104" s="56">
+        <v>1522</v>
       </c>
       <c r="H104" s="56">
-        <v>1192</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A105" s="56" t="s">
-        <v>97</v>
-      </c>
-      <c r="B105" s="56" t="s">
-        <v>89</v>
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A105" s="66">
+        <v>2022</v>
+      </c>
+      <c r="B105" s="66">
+        <v>2</v>
       </c>
       <c r="C105" s="56">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D105" s="56">
         <v>196</v>
       </c>
       <c r="E105" s="56">
-        <v>910</v>
+        <v>918</v>
       </c>
       <c r="F105" s="56">
-        <v>1344</v>
-      </c>
-      <c r="G105" s="60">
-        <v>1249</v>
+        <v>1349</v>
+      </c>
+      <c r="G105" s="56">
+        <v>1250</v>
       </c>
       <c r="H105" s="56">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A106" s="56" t="s">
-        <v>97</v>
-      </c>
-      <c r="B106" s="56" t="s">
-        <v>90</v>
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A106" s="66">
+        <v>2022</v>
+      </c>
+      <c r="B106" s="66">
+        <v>3</v>
       </c>
       <c r="C106" s="56">
         <v>321</v>
       </c>
       <c r="D106" s="56">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E106" s="56">
-        <v>1241</v>
+        <v>1247</v>
       </c>
       <c r="F106" s="56">
-        <v>1666</v>
-      </c>
-      <c r="G106" s="60">
-        <v>1604</v>
+        <v>1671</v>
+      </c>
+      <c r="G106" s="56">
+        <v>1608</v>
       </c>
       <c r="H106" s="56">
-        <v>1470</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A107" s="56" t="s">
-        <v>97</v>
-      </c>
-      <c r="B107" s="56" t="s">
-        <v>91</v>
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A107" s="66">
+        <v>2022</v>
+      </c>
+      <c r="B107" s="66">
+        <v>4</v>
       </c>
       <c r="C107" s="56">
+        <v>375</v>
+      </c>
+      <c r="D107" s="56">
+        <v>398</v>
+      </c>
+      <c r="E107" s="56">
+        <v>1343</v>
+      </c>
+      <c r="F107" s="56">
+        <v>1893</v>
+      </c>
+      <c r="G107" s="56">
+        <v>1977</v>
+      </c>
+      <c r="H107" s="56">
+        <v>1926</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A108" s="66">
+        <v>2022</v>
+      </c>
+      <c r="B108" s="66">
+        <v>5</v>
+      </c>
+      <c r="C108" s="56">
+        <v>389</v>
+      </c>
+      <c r="D108" s="56">
+        <v>418</v>
+      </c>
+      <c r="E108" s="56">
+        <v>1437</v>
+      </c>
+      <c r="F108" s="56">
+        <v>2076</v>
+      </c>
+      <c r="G108" s="56">
+        <v>2609</v>
+      </c>
+      <c r="H108" s="56">
+        <v>2646</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A109" s="66">
+        <v>2022</v>
+      </c>
+      <c r="B109" s="66">
+        <v>6</v>
+      </c>
+      <c r="C109" s="56">
+        <v>384</v>
+      </c>
+      <c r="D109" s="56">
         <v>371</v>
       </c>
-      <c r="D107" s="56">
-        <v>396</v>
-      </c>
-      <c r="E107" s="56">
-        <v>1340</v>
-      </c>
-      <c r="F107" s="56">
-        <v>1889</v>
-      </c>
-      <c r="G107" s="60">
-        <v>1970</v>
-      </c>
-      <c r="H107" s="56">
-        <v>1918</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A108" s="56" t="s">
-        <v>97</v>
-      </c>
-      <c r="B108" s="56" t="s">
-        <v>92</v>
-      </c>
-      <c r="C108" s="56">
-        <v>385</v>
-      </c>
-      <c r="D108" s="56">
-        <v>414</v>
-      </c>
-      <c r="E108" s="56">
-        <v>1434</v>
-      </c>
-      <c r="F108" s="56">
-        <v>2069</v>
-      </c>
-      <c r="G108" s="60">
-        <v>2598</v>
-      </c>
-      <c r="H108" s="56">
-        <v>2630</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A109" s="56" t="s">
-        <v>97</v>
-      </c>
-      <c r="B109" s="56" t="s">
-        <v>93</v>
-      </c>
-      <c r="C109" s="56">
-        <v>383</v>
-      </c>
-      <c r="D109" s="56">
-        <v>368</v>
-      </c>
       <c r="E109" s="56">
-        <v>1317</v>
+        <v>1322</v>
       </c>
       <c r="F109" s="56">
-        <v>2066</v>
-      </c>
-      <c r="G109" s="60">
-        <v>2654</v>
+        <v>2074</v>
+      </c>
+      <c r="G109" s="56">
+        <v>2672</v>
       </c>
       <c r="H109" s="56">
-        <v>3006</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A110" s="56" t="s">
-        <v>97</v>
-      </c>
-      <c r="B110" s="56" t="s">
-        <v>94</v>
+        <v>3029</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A110" s="66">
+        <v>2022</v>
+      </c>
+      <c r="B110" s="66">
+        <v>7</v>
       </c>
       <c r="C110" s="56">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D110" s="56">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="E110" s="56">
-        <v>1168</v>
+        <v>1181</v>
       </c>
       <c r="F110" s="56">
-        <v>1922</v>
-      </c>
-      <c r="G110" s="60">
-        <v>2790</v>
+        <v>1931</v>
+      </c>
+      <c r="G110" s="56">
+        <v>2811</v>
       </c>
       <c r="H110" s="56">
-        <v>3226</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A111" s="56" t="s">
-        <v>97</v>
-      </c>
-      <c r="B111" s="56" t="s">
-        <v>95</v>
+        <v>3259</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A111" s="66">
+        <v>2022</v>
+      </c>
+      <c r="B111" s="66">
+        <v>8</v>
       </c>
       <c r="C111" s="56">
+        <v>362</v>
+      </c>
+      <c r="D111" s="56">
+        <v>258</v>
+      </c>
+      <c r="E111" s="56">
+        <v>1080</v>
+      </c>
+      <c r="F111" s="56">
+        <v>1778</v>
+      </c>
+      <c r="G111" s="56">
+        <v>2791</v>
+      </c>
+      <c r="H111" s="56">
+        <v>3181</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A112" s="66">
+        <v>2022</v>
+      </c>
+      <c r="B112" s="66">
+        <v>9</v>
+      </c>
+      <c r="C112" s="56">
         <v>359</v>
-      </c>
-      <c r="D111" s="56">
-        <v>253</v>
-      </c>
-      <c r="E111" s="56">
-        <v>1065</v>
-      </c>
-      <c r="F111" s="56">
-        <v>1762</v>
-      </c>
-      <c r="G111" s="60">
-        <v>2751</v>
-      </c>
-      <c r="H111" s="56">
-        <v>3133</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A112" s="56" t="s">
-        <v>97</v>
-      </c>
-      <c r="B112" s="56" t="s">
-        <v>96</v>
-      </c>
-      <c r="C112" s="56">
-        <v>361</v>
       </c>
       <c r="D112" s="56">
         <v>232</v>
       </c>
       <c r="E112" s="56">
-        <v>1067</v>
+        <v>1077</v>
       </c>
       <c r="F112" s="56">
-        <v>1626</v>
-      </c>
-      <c r="G112" s="60">
-        <v>2574</v>
+        <v>1675</v>
+      </c>
+      <c r="G112" s="56">
+        <v>2637</v>
       </c>
       <c r="H112" s="56">
-        <v>2960</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A113" s="56" t="s">
-        <v>97</v>
-      </c>
-      <c r="B113" s="56" t="s">
-        <v>43</v>
+        <v>3047</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A113" s="66">
+        <v>2022</v>
+      </c>
+      <c r="B113" s="66">
+        <v>10</v>
       </c>
       <c r="C113" s="56">
-        <v>415</v>
+        <v>426</v>
       </c>
       <c r="D113" s="56">
+        <v>260</v>
+      </c>
+      <c r="E113" s="56">
+        <v>1191</v>
+      </c>
+      <c r="F113" s="56">
+        <v>1747</v>
+      </c>
+      <c r="G113" s="56">
+        <v>2985</v>
+      </c>
+      <c r="H113" s="56">
+        <v>3662</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A114" s="66">
+        <v>2022</v>
+      </c>
+      <c r="B114" s="66">
+        <v>11</v>
+      </c>
+      <c r="C114" s="56">
+        <v>426</v>
+      </c>
+      <c r="D114" s="56">
+        <v>291</v>
+      </c>
+      <c r="E114" s="56">
+        <v>1071</v>
+      </c>
+      <c r="F114" s="56">
+        <v>1785</v>
+      </c>
+      <c r="G114" s="56">
+        <v>3284</v>
+      </c>
+      <c r="H114" s="56">
+        <v>3843</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A115" s="66">
+        <v>2022</v>
+      </c>
+      <c r="B115" s="66">
+        <v>12</v>
+      </c>
+      <c r="C115" s="56">
+        <v>357</v>
+      </c>
+      <c r="D115" s="56">
+        <v>208</v>
+      </c>
+      <c r="E115" s="56">
+        <v>1020</v>
+      </c>
+      <c r="F115" s="56">
+        <v>1658</v>
+      </c>
+      <c r="G115" s="56">
+        <v>3007</v>
+      </c>
+      <c r="H115" s="56">
+        <v>3497</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A116" s="66">
+        <v>2022</v>
+      </c>
+      <c r="B116" s="66">
+        <v>13</v>
+      </c>
+      <c r="C116" s="56">
+        <v>300</v>
+      </c>
+      <c r="D116" s="56">
+        <v>173</v>
+      </c>
+      <c r="E116" s="56">
+        <v>731</v>
+      </c>
+      <c r="F116" s="56">
+        <v>1230</v>
+      </c>
+      <c r="G116" s="56">
+        <v>2216</v>
+      </c>
+      <c r="H116" s="56">
+        <v>2578</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A117" s="66">
+        <v>2022</v>
+      </c>
+      <c r="B117" s="66">
+        <v>14</v>
+      </c>
+      <c r="C117" s="56">
+        <v>57</v>
+      </c>
+      <c r="D117" s="56">
+        <v>47</v>
+      </c>
+      <c r="E117" s="56">
+        <v>160</v>
+      </c>
+      <c r="F117" s="56">
         <v>254</v>
       </c>
-      <c r="E113" s="56">
-        <v>1159</v>
-      </c>
-      <c r="F113" s="56">
-        <v>1673</v>
-      </c>
-      <c r="G113" s="60">
-        <v>2837</v>
-      </c>
-      <c r="H113" s="56">
-        <v>3501</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A114" s="56" t="s">
-        <v>97</v>
-      </c>
-      <c r="B114" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="C114" s="56">
-        <v>410</v>
-      </c>
-      <c r="D114" s="56">
-        <v>276</v>
-      </c>
-      <c r="E114" s="56">
-        <v>1011</v>
-      </c>
-      <c r="F114" s="56">
-        <v>1645</v>
-      </c>
-      <c r="G114" s="60">
-        <v>3015</v>
-      </c>
-      <c r="H114" s="56">
-        <v>3499</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A115" s="56" t="s">
-        <v>97</v>
-      </c>
-      <c r="B115" s="56" t="s">
-        <v>45</v>
-      </c>
-      <c r="C115" s="56">
-        <v>314</v>
-      </c>
-      <c r="D115" s="56">
-        <v>171</v>
-      </c>
-      <c r="E115" s="56">
-        <v>834</v>
-      </c>
-      <c r="F115" s="56">
-        <v>1327</v>
-      </c>
-      <c r="G115" s="60">
-        <v>2374</v>
-      </c>
-      <c r="H115" s="56">
-        <v>2758</v>
+      <c r="G117" s="56">
+        <v>461</v>
+      </c>
+      <c r="H117" s="56">
+        <v>568</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="A8:H115" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33ACCE60-F332-483C-B901-158EEAB41075}">
-  <dimension ref="A1:O111"/>
+  <dimension ref="A1:O113"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="D111" sqref="D111"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="59" t="s">
         <v>0</v>
       </c>
@@ -8960,7 +9087,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>42</v>
       </c>
@@ -9001,7 +9128,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -9042,7 +9169,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>42</v>
       </c>
@@ -9068,7 +9195,7 @@
         <v>12</v>
       </c>
       <c r="K6">
-        <v>22388</v>
+        <v>22389</v>
       </c>
       <c r="L6">
         <v>45</v>
@@ -9083,7 +9210,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>42</v>
       </c>
@@ -9109,7 +9236,7 @@
         <v>13</v>
       </c>
       <c r="K7">
-        <v>33966</v>
+        <v>33964</v>
       </c>
       <c r="L7">
         <v>48</v>
@@ -9124,7 +9251,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>42</v>
       </c>
@@ -9150,7 +9277,7 @@
         <v>14</v>
       </c>
       <c r="K8">
-        <v>36049</v>
+        <v>36052</v>
       </c>
       <c r="L8">
         <v>51</v>
@@ -9165,7 +9292,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>42</v>
       </c>
@@ -9191,7 +9318,7 @@
         <v>15</v>
       </c>
       <c r="K9">
-        <v>27124</v>
+        <v>27125</v>
       </c>
       <c r="L9">
         <v>52</v>
@@ -9206,7 +9333,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>42</v>
       </c>
@@ -9232,7 +9359,7 @@
         <v>16</v>
       </c>
       <c r="K10">
-        <v>17331</v>
+        <v>17332</v>
       </c>
       <c r="L10">
         <v>51</v>
@@ -9247,7 +9374,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>42</v>
       </c>
@@ -9273,7 +9400,7 @@
         <v>17</v>
       </c>
       <c r="K11">
-        <v>12350</v>
+        <v>12351</v>
       </c>
       <c r="L11">
         <v>50</v>
@@ -9288,7 +9415,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>42</v>
       </c>
@@ -9314,7 +9441,7 @@
         <v>18</v>
       </c>
       <c r="K12">
-        <v>7434</v>
+        <v>7435</v>
       </c>
       <c r="L12">
         <v>48</v>
@@ -9329,7 +9456,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>42</v>
       </c>
@@ -9355,7 +9482,7 @@
         <v>19</v>
       </c>
       <c r="K13">
-        <v>6231</v>
+        <v>6230</v>
       </c>
       <c r="L13">
         <v>47</v>
@@ -9370,7 +9497,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>42</v>
       </c>
@@ -9396,7 +9523,7 @@
         <v>20</v>
       </c>
       <c r="K14">
-        <v>4760</v>
+        <v>4759</v>
       </c>
       <c r="L14">
         <v>45</v>
@@ -9411,7 +9538,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>42</v>
       </c>
@@ -9437,7 +9564,7 @@
         <v>21</v>
       </c>
       <c r="K15">
-        <v>3601</v>
+        <v>3602</v>
       </c>
       <c r="L15">
         <v>44</v>
@@ -9452,7 +9579,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>42</v>
       </c>
@@ -9463,7 +9590,7 @@
         <v>73</v>
       </c>
       <c r="D16" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E16" t="s">
         <v>113</v>
@@ -9493,7 +9620,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -9519,7 +9646,7 @@
         <v>23</v>
       </c>
       <c r="K17">
-        <v>2352</v>
+        <v>2354</v>
       </c>
       <c r="L17">
         <v>39</v>
@@ -9534,7 +9661,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>42</v>
       </c>
@@ -9575,7 +9702,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>42</v>
       </c>
@@ -9616,7 +9743,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>42</v>
       </c>
@@ -9642,7 +9769,7 @@
         <v>26</v>
       </c>
       <c r="K20">
-        <v>3165</v>
+        <v>3166</v>
       </c>
       <c r="L20">
         <v>37</v>
@@ -9657,7 +9784,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>42</v>
       </c>
@@ -9683,7 +9810,7 @@
         <v>27</v>
       </c>
       <c r="K21">
-        <v>2689</v>
+        <v>2690</v>
       </c>
       <c r="L21">
         <v>36</v>
@@ -9698,7 +9825,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -9724,7 +9851,7 @@
         <v>28</v>
       </c>
       <c r="K22">
-        <v>2421</v>
+        <v>2422</v>
       </c>
       <c r="L22">
         <v>36</v>
@@ -9739,7 +9866,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>42</v>
       </c>
@@ -9780,7 +9907,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>42</v>
       </c>
@@ -9806,7 +9933,7 @@
         <v>30</v>
       </c>
       <c r="K24">
-        <v>3934</v>
+        <v>3935</v>
       </c>
       <c r="L24">
         <v>36</v>
@@ -9821,7 +9948,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>42</v>
       </c>
@@ -9847,7 +9974,7 @@
         <v>31</v>
       </c>
       <c r="K25">
-        <v>4838</v>
+        <v>4841</v>
       </c>
       <c r="L25">
         <v>36</v>
@@ -9862,7 +9989,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>42</v>
       </c>
@@ -9888,7 +10015,7 @@
         <v>32</v>
       </c>
       <c r="K26">
-        <v>6065</v>
+        <v>6068</v>
       </c>
       <c r="L26">
         <v>34</v>
@@ -9903,7 +10030,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>42</v>
       </c>
@@ -9944,7 +10071,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>42</v>
       </c>
@@ -9985,7 +10112,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>42</v>
       </c>
@@ -10026,7 +10153,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>42</v>
       </c>
@@ -10043,7 +10170,7 @@
         <v>111</v>
       </c>
       <c r="F30" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="I30">
         <v>2020</v>
@@ -10067,7 +10194,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>42</v>
       </c>
@@ -10108,7 +10235,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>42</v>
       </c>
@@ -10134,7 +10261,7 @@
         <v>38</v>
       </c>
       <c r="K32">
-        <v>12291</v>
+        <v>12292</v>
       </c>
       <c r="L32">
         <v>36</v>
@@ -10149,7 +10276,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>42</v>
       </c>
@@ -10175,7 +10302,7 @@
         <v>39</v>
       </c>
       <c r="K33">
-        <v>13069</v>
+        <v>13070</v>
       </c>
       <c r="L33">
         <v>37</v>
@@ -10190,7 +10317,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>42</v>
       </c>
@@ -10231,7 +10358,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>42</v>
       </c>
@@ -10257,7 +10384,7 @@
         <v>41</v>
       </c>
       <c r="K35">
-        <v>26123</v>
+        <v>26124</v>
       </c>
       <c r="L35">
         <v>39</v>
@@ -10272,7 +10399,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>42</v>
       </c>
@@ -10313,7 +10440,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>42</v>
       </c>
@@ -10339,7 +10466,7 @@
         <v>43</v>
       </c>
       <c r="K37">
-        <v>74871</v>
+        <v>74868</v>
       </c>
       <c r="L37">
         <v>40</v>
@@ -10354,7 +10481,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>42</v>
       </c>
@@ -10380,7 +10507,7 @@
         <v>44</v>
       </c>
       <c r="K38">
-        <v>111000</v>
+        <v>110998</v>
       </c>
       <c r="L38">
         <v>41</v>
@@ -10395,7 +10522,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>42</v>
       </c>
@@ -10421,7 +10548,7 @@
         <v>45</v>
       </c>
       <c r="K39">
-        <v>125715</v>
+        <v>125718</v>
       </c>
       <c r="L39">
         <v>41</v>
@@ -10436,7 +10563,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>42</v>
       </c>
@@ -10462,7 +10589,7 @@
         <v>46</v>
       </c>
       <c r="K40">
-        <v>127809</v>
+        <v>127815</v>
       </c>
       <c r="L40">
         <v>42</v>
@@ -10477,7 +10604,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>42</v>
       </c>
@@ -10503,7 +10630,7 @@
         <v>47</v>
       </c>
       <c r="K41">
-        <v>128396</v>
+        <v>128399</v>
       </c>
       <c r="L41">
         <v>43</v>
@@ -10518,7 +10645,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -10544,7 +10671,7 @@
         <v>48</v>
       </c>
       <c r="K42">
-        <v>123146</v>
+        <v>123144</v>
       </c>
       <c r="L42">
         <v>44</v>
@@ -10559,7 +10686,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -10585,7 +10712,7 @@
         <v>49</v>
       </c>
       <c r="K43">
-        <v>128369</v>
+        <v>128375</v>
       </c>
       <c r="L43">
         <v>45</v>
@@ -10600,7 +10727,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -10641,7 +10768,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>42</v>
       </c>
@@ -10667,7 +10794,7 @@
         <v>51</v>
       </c>
       <c r="K45">
-        <v>174693</v>
+        <v>174701</v>
       </c>
       <c r="L45">
         <v>46</v>
@@ -10676,13 +10803,13 @@
         <v>69</v>
       </c>
       <c r="N45">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O45">
         <v>82</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>42</v>
       </c>
@@ -10708,7 +10835,7 @@
         <v>52</v>
       </c>
       <c r="K46">
-        <v>138928</v>
+        <v>138923</v>
       </c>
       <c r="L46">
         <v>48</v>
@@ -10723,7 +10850,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>42</v>
       </c>
@@ -10749,7 +10876,7 @@
         <v>53</v>
       </c>
       <c r="K47">
-        <v>123077</v>
+        <v>123079</v>
       </c>
       <c r="L47">
         <v>49</v>
@@ -10764,7 +10891,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>87</v>
       </c>
@@ -10790,7 +10917,7 @@
         <v>1</v>
       </c>
       <c r="K48">
-        <v>145491</v>
+        <v>145493</v>
       </c>
       <c r="L48">
         <v>48</v>
@@ -10805,7 +10932,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>87</v>
       </c>
@@ -10831,7 +10958,7 @@
         <v>2</v>
       </c>
       <c r="K49">
-        <v>118904</v>
+        <v>118906</v>
       </c>
       <c r="L49">
         <v>48</v>
@@ -10846,7 +10973,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>87</v>
       </c>
@@ -10887,7 +11014,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>87</v>
       </c>
@@ -10913,7 +11040,7 @@
         <v>4</v>
       </c>
       <c r="K51">
-        <v>78180</v>
+        <v>78179</v>
       </c>
       <c r="L51">
         <v>48</v>
@@ -10928,7 +11055,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>87</v>
       </c>
@@ -10954,7 +11081,7 @@
         <v>5</v>
       </c>
       <c r="K52">
-        <v>64587</v>
+        <v>64588</v>
       </c>
       <c r="L52">
         <v>46</v>
@@ -10969,7 +11096,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>87</v>
       </c>
@@ -10995,7 +11122,7 @@
         <v>6</v>
       </c>
       <c r="K53">
-        <v>50815</v>
+        <v>50817</v>
       </c>
       <c r="L53">
         <v>45</v>
@@ -11010,7 +11137,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>87</v>
       </c>
@@ -11036,7 +11163,7 @@
         <v>7</v>
       </c>
       <c r="K54">
-        <v>52432</v>
+        <v>52431</v>
       </c>
       <c r="L54">
         <v>44</v>
@@ -11051,7 +11178,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>87</v>
       </c>
@@ -11077,7 +11204,7 @@
         <v>8</v>
       </c>
       <c r="K55">
-        <v>56386</v>
+        <v>56390</v>
       </c>
       <c r="L55">
         <v>42</v>
@@ -11092,7 +11219,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>87</v>
       </c>
@@ -11118,7 +11245,7 @@
         <v>9</v>
       </c>
       <c r="K56">
-        <v>58433</v>
+        <v>58436</v>
       </c>
       <c r="L56">
         <v>40</v>
@@ -11133,7 +11260,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>87</v>
       </c>
@@ -11159,7 +11286,7 @@
         <v>10</v>
       </c>
       <c r="K57">
-        <v>71393</v>
+        <v>71397</v>
       </c>
       <c r="L57">
         <v>39</v>
@@ -11174,7 +11301,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>87</v>
       </c>
@@ -11200,7 +11327,7 @@
         <v>11</v>
       </c>
       <c r="K58">
-        <v>92653</v>
+        <v>92663</v>
       </c>
       <c r="L58">
         <v>39</v>
@@ -11215,7 +11342,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>87</v>
       </c>
@@ -11241,7 +11368,7 @@
         <v>12</v>
       </c>
       <c r="K59">
-        <v>116324</v>
+        <v>116341</v>
       </c>
       <c r="L59">
         <v>38</v>
@@ -11256,7 +11383,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>87</v>
       </c>
@@ -11282,7 +11409,7 @@
         <v>13</v>
       </c>
       <c r="K60">
-        <v>110107</v>
+        <v>110126</v>
       </c>
       <c r="L60">
         <v>39</v>
@@ -11297,7 +11424,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>87</v>
       </c>
@@ -11323,7 +11450,7 @@
         <v>14</v>
       </c>
       <c r="K61">
-        <v>118255</v>
+        <v>118257</v>
       </c>
       <c r="L61">
         <v>39</v>
@@ -11338,7 +11465,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>87</v>
       </c>
@@ -11364,7 +11491,7 @@
         <v>15</v>
       </c>
       <c r="K62">
-        <v>142079</v>
+        <v>142078</v>
       </c>
       <c r="L62">
         <v>38</v>
@@ -11379,7 +11506,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>87</v>
       </c>
@@ -11405,7 +11532,7 @@
         <v>16</v>
       </c>
       <c r="K63">
-        <v>144791</v>
+        <v>144796</v>
       </c>
       <c r="L63">
         <v>37</v>
@@ -11420,7 +11547,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>87</v>
       </c>
@@ -11446,7 +11573,7 @@
         <v>17</v>
       </c>
       <c r="K64">
-        <v>124813</v>
+        <v>124816</v>
       </c>
       <c r="L64">
         <v>37</v>
@@ -11461,7 +11588,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>87</v>
       </c>
@@ -11487,7 +11614,7 @@
         <v>18</v>
       </c>
       <c r="K65">
-        <v>100981</v>
+        <v>100982</v>
       </c>
       <c r="L65">
         <v>37</v>
@@ -11502,7 +11629,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>87</v>
       </c>
@@ -11528,7 +11655,7 @@
         <v>19</v>
       </c>
       <c r="K66">
-        <v>70811</v>
+        <v>70812</v>
       </c>
       <c r="L66">
         <v>37</v>
@@ -11543,7 +11670,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>87</v>
       </c>
@@ -11569,7 +11696,7 @@
         <v>20</v>
       </c>
       <c r="K67">
-        <v>52700</v>
+        <v>52703</v>
       </c>
       <c r="L67">
         <v>36</v>
@@ -11584,7 +11711,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>87</v>
       </c>
@@ -11625,7 +11752,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>87</v>
       </c>
@@ -11666,7 +11793,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>87</v>
       </c>
@@ -11692,7 +11819,7 @@
         <v>23</v>
       </c>
       <c r="K70">
-        <v>14058</v>
+        <v>14060</v>
       </c>
       <c r="L70">
         <v>33</v>
@@ -11707,7 +11834,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>87</v>
       </c>
@@ -11748,7 +11875,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>87</v>
       </c>
@@ -11774,7 +11901,7 @@
         <v>25</v>
       </c>
       <c r="K72">
-        <v>4845</v>
+        <v>4847</v>
       </c>
       <c r="L72">
         <v>32</v>
@@ -11789,7 +11916,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>87</v>
       </c>
@@ -11815,7 +11942,7 @@
         <v>26</v>
       </c>
       <c r="K73">
-        <v>4377</v>
+        <v>4378</v>
       </c>
       <c r="L73">
         <v>32</v>
@@ -11830,7 +11957,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>87</v>
       </c>
@@ -11856,7 +11983,7 @@
         <v>27</v>
       </c>
       <c r="K74">
-        <v>5582</v>
+        <v>5583</v>
       </c>
       <c r="L74">
         <v>32</v>
@@ -11871,7 +11998,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>87</v>
       </c>
@@ -11897,7 +12024,7 @@
         <v>28</v>
       </c>
       <c r="K75">
-        <v>9108</v>
+        <v>9109</v>
       </c>
       <c r="L75">
         <v>30</v>
@@ -11912,7 +12039,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>87</v>
       </c>
@@ -11938,7 +12065,7 @@
         <v>29</v>
       </c>
       <c r="K76">
-        <v>12639</v>
+        <v>12638</v>
       </c>
       <c r="L76">
         <v>30</v>
@@ -11953,7 +12080,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>87</v>
       </c>
@@ -11979,7 +12106,7 @@
         <v>30</v>
       </c>
       <c r="K77">
-        <v>15512</v>
+        <v>15513</v>
       </c>
       <c r="L77">
         <v>31</v>
@@ -11994,7 +12121,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>87</v>
       </c>
@@ -12020,7 +12147,7 @@
         <v>31</v>
       </c>
       <c r="K78">
-        <v>20417</v>
+        <v>20420</v>
       </c>
       <c r="L78">
         <v>30</v>
@@ -12035,7 +12162,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>87</v>
       </c>
@@ -12061,7 +12188,7 @@
         <v>32</v>
       </c>
       <c r="K79">
-        <v>32070</v>
+        <v>32071</v>
       </c>
       <c r="L79">
         <v>30</v>
@@ -12076,7 +12203,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>87</v>
       </c>
@@ -12102,7 +12229,7 @@
         <v>33</v>
       </c>
       <c r="K80">
-        <v>49646</v>
+        <v>49647</v>
       </c>
       <c r="L80">
         <v>29</v>
@@ -12117,7 +12244,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>87</v>
       </c>
@@ -12143,7 +12270,7 @@
         <v>34</v>
       </c>
       <c r="K81">
-        <v>66382</v>
+        <v>66381</v>
       </c>
       <c r="L81">
         <v>29</v>
@@ -12158,7 +12285,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>87</v>
       </c>
@@ -12184,7 +12311,7 @@
         <v>35</v>
       </c>
       <c r="K82">
-        <v>74749</v>
+        <v>74748</v>
       </c>
       <c r="L82">
         <v>30</v>
@@ -12199,7 +12326,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>87</v>
       </c>
@@ -12225,7 +12352,7 @@
         <v>36</v>
       </c>
       <c r="K83">
-        <v>71675</v>
+        <v>71676</v>
       </c>
       <c r="L83">
         <v>30</v>
@@ -12240,7 +12367,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>87</v>
       </c>
@@ -12281,7 +12408,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>87</v>
       </c>
@@ -12307,7 +12434,7 @@
         <v>38</v>
       </c>
       <c r="K85">
-        <v>53610</v>
+        <v>53609</v>
       </c>
       <c r="L85">
         <v>31</v>
@@ -12322,7 +12449,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>87</v>
       </c>
@@ -12348,7 +12475,7 @@
         <v>39</v>
       </c>
       <c r="K86">
-        <v>56490</v>
+        <v>56488</v>
       </c>
       <c r="L86">
         <v>32</v>
@@ -12363,7 +12490,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>87</v>
       </c>
@@ -12389,7 +12516,7 @@
         <v>40</v>
       </c>
       <c r="K87">
-        <v>58006</v>
+        <v>58008</v>
       </c>
       <c r="L87">
         <v>34</v>
@@ -12404,7 +12531,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>87</v>
       </c>
@@ -12445,7 +12572,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>87</v>
       </c>
@@ -12471,7 +12598,7 @@
         <v>42</v>
       </c>
       <c r="K89">
-        <v>97726</v>
+        <v>97723</v>
       </c>
       <c r="L89">
         <v>36</v>
@@ -12486,7 +12613,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>87</v>
       </c>
@@ -12512,7 +12639,7 @@
         <v>43</v>
       </c>
       <c r="K90">
-        <v>137032</v>
+        <v>137033</v>
       </c>
       <c r="L90">
         <v>36</v>
@@ -12527,7 +12654,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>87</v>
       </c>
@@ -12553,7 +12680,7 @@
         <v>44</v>
       </c>
       <c r="K91">
-        <v>177882</v>
+        <v>177889</v>
       </c>
       <c r="L91">
         <v>37</v>
@@ -12568,7 +12695,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>87</v>
       </c>
@@ -12594,7 +12721,7 @@
         <v>45</v>
       </c>
       <c r="K92">
-        <v>271300</v>
+        <v>271299</v>
       </c>
       <c r="L92">
         <v>36</v>
@@ -12609,7 +12736,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>87</v>
       </c>
@@ -12650,7 +12777,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>87</v>
       </c>
@@ -12676,7 +12803,7 @@
         <v>47</v>
       </c>
       <c r="K94">
-        <v>403326</v>
+        <v>403327</v>
       </c>
       <c r="L94">
         <v>36</v>
@@ -12691,7 +12818,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>87</v>
       </c>
@@ -12717,7 +12844,7 @@
         <v>48</v>
       </c>
       <c r="K95">
-        <v>388265</v>
+        <v>388263</v>
       </c>
       <c r="L95">
         <v>36</v>
@@ -12732,7 +12859,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>87</v>
       </c>
@@ -12758,7 +12885,7 @@
         <v>49</v>
       </c>
       <c r="K96">
-        <v>338200</v>
+        <v>338202</v>
       </c>
       <c r="L96">
         <v>35</v>
@@ -12773,7 +12900,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>87</v>
       </c>
@@ -12799,7 +12926,7 @@
         <v>50</v>
       </c>
       <c r="K97">
-        <v>273610</v>
+        <v>273607</v>
       </c>
       <c r="L97">
         <v>34</v>
@@ -12814,7 +12941,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>87</v>
       </c>
@@ -12840,7 +12967,7 @@
         <v>51</v>
       </c>
       <c r="K98">
-        <v>193934</v>
+        <v>193933</v>
       </c>
       <c r="L98">
         <v>34</v>
@@ -12855,7 +12982,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>87</v>
       </c>
@@ -12881,7 +13008,7 @@
         <v>52</v>
       </c>
       <c r="K99">
-        <v>208751</v>
+        <v>208764</v>
       </c>
       <c r="L99">
         <v>35</v>
@@ -12896,7 +13023,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>97</v>
       </c>
@@ -12922,7 +13049,7 @@
         <v>1</v>
       </c>
       <c r="K100">
-        <v>338131</v>
+        <v>338136</v>
       </c>
       <c r="L100">
         <v>33</v>
@@ -12937,7 +13064,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>97</v>
       </c>
@@ -12963,7 +13090,7 @@
         <v>2</v>
       </c>
       <c r="K101">
-        <v>486050</v>
+        <v>486043</v>
       </c>
       <c r="L101">
         <v>31</v>
@@ -12978,7 +13105,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>97</v>
       </c>
@@ -13004,7 +13131,7 @@
         <v>3</v>
       </c>
       <c r="K102">
-        <v>796100</v>
+        <v>796077</v>
       </c>
       <c r="L102">
         <v>30</v>
@@ -13019,7 +13146,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>97</v>
       </c>
@@ -13045,7 +13172,7 @@
         <v>4</v>
       </c>
       <c r="K103">
-        <v>1110623</v>
+        <v>1110624</v>
       </c>
       <c r="L103">
         <v>30</v>
@@ -13060,7 +13187,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>97</v>
       </c>
@@ -13086,7 +13213,7 @@
         <v>5</v>
       </c>
       <c r="K104">
-        <v>1289587</v>
+        <v>1289567</v>
       </c>
       <c r="L104">
         <v>31</v>
@@ -13101,7 +13228,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>97</v>
       </c>
@@ -13127,7 +13254,7 @@
         <v>6</v>
       </c>
       <c r="K105">
-        <v>1306992</v>
+        <v>1307261</v>
       </c>
       <c r="L105">
         <v>32</v>
@@ -13142,7 +13269,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>97</v>
       </c>
@@ -13168,7 +13295,7 @@
         <v>7</v>
       </c>
       <c r="K106">
-        <v>1190422</v>
+        <v>1190570</v>
       </c>
       <c r="L106">
         <v>33</v>
@@ -13183,7 +13310,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>97</v>
       </c>
@@ -13209,13 +13336,13 @@
         <v>8</v>
       </c>
       <c r="K107">
-        <v>1090236</v>
+        <v>1090497</v>
       </c>
       <c r="L107">
         <v>34</v>
       </c>
       <c r="M107">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N107">
         <v>68</v>
@@ -13224,7 +13351,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>97</v>
       </c>
@@ -13250,7 +13377,7 @@
         <v>9</v>
       </c>
       <c r="K108">
-        <v>1124280</v>
+        <v>1124923</v>
       </c>
       <c r="L108">
         <v>35</v>
@@ -13265,7 +13392,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>97</v>
       </c>
@@ -13291,7 +13418,7 @@
         <v>10</v>
       </c>
       <c r="K109">
-        <v>1396931</v>
+        <v>1398785</v>
       </c>
       <c r="L109">
         <v>35</v>
@@ -13303,10 +13430,10 @@
         <v>69</v>
       </c>
       <c r="O109">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>97</v>
       </c>
@@ -13323,7 +13450,7 @@
         <v>119</v>
       </c>
       <c r="F110" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="I110">
         <v>2022</v>
@@ -13332,7 +13459,7 @@
         <v>11</v>
       </c>
       <c r="K110">
-        <v>1562024</v>
+        <v>1565894</v>
       </c>
       <c r="L110">
         <v>36</v>
@@ -13347,7 +13474,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>97</v>
       </c>
@@ -13364,7 +13491,7 @@
         <v>117</v>
       </c>
       <c r="F111" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="I111">
         <v>2022</v>
@@ -13373,7 +13500,7 @@
         <v>12</v>
       </c>
       <c r="K111">
-        <v>1537193</v>
+        <v>1565494</v>
       </c>
       <c r="L111">
         <v>37</v>
@@ -13386,38 +13513,115 @@
       </c>
       <c r="O111">
         <v>81</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>97</v>
+      </c>
+      <c r="B112" t="s">
+        <v>46</v>
+      </c>
+      <c r="C112" t="s">
+        <v>70</v>
+      </c>
+      <c r="D112" t="s">
+        <v>114</v>
+      </c>
+      <c r="E112" t="s">
+        <v>117</v>
+      </c>
+      <c r="F112" t="s">
+        <v>121</v>
+      </c>
+      <c r="I112">
+        <v>2022</v>
+      </c>
+      <c r="J112">
+        <v>13</v>
+      </c>
+      <c r="K112">
+        <v>1274428</v>
+      </c>
+      <c r="L112">
+        <v>38</v>
+      </c>
+      <c r="M112">
+        <v>63</v>
+      </c>
+      <c r="N112">
+        <v>69</v>
+      </c>
+      <c r="O112">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>97</v>
+      </c>
+      <c r="B113" t="s">
+        <v>47</v>
+      </c>
+      <c r="C113" t="s">
+        <v>71</v>
+      </c>
+      <c r="D113" t="s">
+        <v>146</v>
+      </c>
+      <c r="E113" t="s">
+        <v>119</v>
+      </c>
+      <c r="F113" t="s">
+        <v>179</v>
+      </c>
+      <c r="I113">
+        <v>2022</v>
+      </c>
+      <c r="J113">
+        <v>14</v>
+      </c>
+      <c r="K113">
+        <v>300809</v>
+      </c>
+      <c r="L113">
+        <v>38</v>
+      </c>
+      <c r="M113">
+        <v>63</v>
+      </c>
+      <c r="N113">
+        <v>71</v>
+      </c>
+      <c r="O113">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="A4:F111" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A6BB280-4719-4575-ABFB-341129EF46BE}">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="60" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="56" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="59"/>
       <c r="B5" s="59"/>
       <c r="C5" s="59" t="s">
@@ -13440,7 +13644,7 @@
       </c>
       <c r="I5" s="59"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="61" t="s">
         <v>0</v>
       </c>
@@ -13467,330 +13671,333 @@
       </c>
       <c r="I6" s="62"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="56" t="s">
         <v>97</v>
       </c>
       <c r="B7" s="56" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C7" s="63">
-        <v>5.9458754017000004</v>
+        <v>9.4478952357000008</v>
       </c>
       <c r="D7" s="63">
-        <v>2.6103185893999998</v>
+        <v>5.3005448907000003</v>
       </c>
       <c r="E7" s="63">
-        <v>4.8093967368000001</v>
+        <v>7.0978239751999999</v>
       </c>
       <c r="F7" s="63">
-        <v>4.6884539774</v>
-      </c>
-      <c r="G7" s="66">
-        <v>6.8802769562000003</v>
+        <v>6.6036037048000003</v>
+      </c>
+      <c r="G7" s="63">
+        <v>10.890558480699999</v>
       </c>
       <c r="H7" s="63">
-        <v>17.990598396300001</v>
+        <v>32.443719579800003</v>
       </c>
       <c r="I7" s="64" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="56" t="s">
         <v>97</v>
       </c>
       <c r="B8" s="56" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C8" s="63">
-        <v>8.0873983218000003</v>
+        <v>9.8006166577999991</v>
       </c>
       <c r="D8" s="63">
-        <v>4.1552010197999998</v>
+        <v>5.5669039303999996</v>
       </c>
       <c r="E8" s="63">
-        <v>6.5587487366000001</v>
+        <v>7.5946188030000004</v>
       </c>
       <c r="F8" s="63">
-        <v>5.8117294094999998</v>
-      </c>
-      <c r="G8" s="66">
-        <v>8.8358400623000009</v>
+        <v>7.2419869473</v>
+      </c>
+      <c r="G8" s="63">
+        <v>14.372011672299999</v>
       </c>
       <c r="H8" s="63">
-        <v>24.762340489300001</v>
+        <v>44.5722128807</v>
       </c>
       <c r="I8" s="64" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="56" t="s">
         <v>97</v>
       </c>
       <c r="B9" s="56" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C9" s="63">
-        <v>9.3471176865000007</v>
+        <v>9.6746447213</v>
       </c>
       <c r="D9" s="63">
-        <v>5.2739089867000004</v>
+        <v>4.9409601869999999</v>
       </c>
       <c r="E9" s="63">
-        <v>7.0819688212000003</v>
+        <v>6.9868378967</v>
       </c>
       <c r="F9" s="63">
-        <v>6.5896499727000002</v>
-      </c>
-      <c r="G9" s="66">
-        <v>10.8519980815</v>
+        <v>7.2350100812000004</v>
+      </c>
+      <c r="G9" s="63">
+        <v>14.7190552658</v>
       </c>
       <c r="H9" s="63">
-        <v>32.308958543099997</v>
+        <v>51.023897511500003</v>
       </c>
       <c r="I9" s="64" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="56" t="s">
         <v>97</v>
       </c>
       <c r="B10" s="56" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C10" s="63">
-        <v>9.6998391086000009</v>
+        <v>10.102949305399999</v>
       </c>
       <c r="D10" s="63">
-        <v>5.5136321224999998</v>
+        <v>4.2484266837</v>
       </c>
       <c r="E10" s="63">
-        <v>7.5787636488999999</v>
+        <v>6.2416456551000001</v>
       </c>
       <c r="F10" s="63">
-        <v>7.2175679161000001</v>
-      </c>
-      <c r="G10" s="66">
-        <v>14.3114167592</v>
+        <v>6.7361641595000004</v>
+      </c>
+      <c r="G10" s="63">
+        <v>15.484754622800001</v>
       </c>
       <c r="H10" s="63">
-        <v>44.302690807300003</v>
+        <v>54.898277315999998</v>
       </c>
       <c r="I10" s="64" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="56" t="s">
         <v>97</v>
       </c>
       <c r="B11" s="56" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C11" s="63">
-        <v>9.6494503341000009</v>
+        <v>9.1203682008999998</v>
       </c>
       <c r="D11" s="63">
-        <v>4.9010063310999996</v>
+        <v>3.4360316125999999</v>
       </c>
       <c r="E11" s="63">
-        <v>6.9604126399000004</v>
+        <v>5.7078554678</v>
       </c>
       <c r="F11" s="63">
-        <v>7.2071026171000003</v>
-      </c>
-      <c r="G11" s="66">
-        <v>14.619899953399999</v>
+        <v>6.2024339075999997</v>
+      </c>
+      <c r="G11" s="63">
+        <v>15.374582053499999</v>
       </c>
       <c r="H11" s="63">
-        <v>50.636459531100002</v>
+        <v>53.5843572084</v>
       </c>
       <c r="I11" s="64" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="56" t="s">
         <v>97</v>
       </c>
       <c r="B12" s="56" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C12" s="63">
-        <v>10.0777549181</v>
+        <v>9.0447850390000006</v>
       </c>
       <c r="D12" s="63">
-        <v>4.1818369237999997</v>
+        <v>3.0897648608999999</v>
       </c>
       <c r="E12" s="63">
-        <v>6.1729399874000004</v>
+        <v>5.6920003137000004</v>
       </c>
       <c r="F12" s="63">
-        <v>6.7047682623</v>
-      </c>
-      <c r="G12" s="66">
-        <v>15.369073425</v>
+        <v>5.8431253067000002</v>
+      </c>
+      <c r="G12" s="63">
+        <v>14.5262532694</v>
       </c>
       <c r="H12" s="63">
-        <v>54.342388039699998</v>
+        <v>51.327109844100001</v>
       </c>
       <c r="I12" s="64" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="56" t="s">
         <v>97</v>
       </c>
       <c r="B13" s="56" t="s">
-        <v>95</v>
+        <v>43</v>
       </c>
       <c r="C13" s="63">
-        <v>9.0447850390000006</v>
+        <v>10.7328089877</v>
       </c>
       <c r="D13" s="63">
-        <v>3.3694418526000001</v>
+        <v>3.4626675164999998</v>
       </c>
       <c r="E13" s="63">
-        <v>5.6285796974000002</v>
+        <v>6.2944961687000003</v>
       </c>
       <c r="F13" s="63">
-        <v>6.1466189793000003</v>
-      </c>
-      <c r="G13" s="66">
-        <v>15.1542369148</v>
+        <v>6.0942924840000003</v>
+      </c>
+      <c r="G13" s="63">
+        <v>16.4432559762</v>
       </c>
       <c r="H13" s="63">
-        <v>52.775790988300002</v>
+        <v>61.686864538499997</v>
       </c>
       <c r="I13" s="64" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="56" t="s">
         <v>97</v>
       </c>
       <c r="B14" s="56" t="s">
-        <v>96</v>
+        <v>44</v>
       </c>
       <c r="C14" s="63">
-        <v>9.0951738136000007</v>
+        <v>10.7328089877</v>
       </c>
       <c r="D14" s="63">
-        <v>3.0897648608999999</v>
+        <v>3.8755240281000001</v>
       </c>
       <c r="E14" s="63">
-        <v>5.6391498001000002</v>
+        <v>5.6602900056000003</v>
       </c>
       <c r="F14" s="63">
-        <v>5.6721920888000001</v>
-      </c>
-      <c r="G14" s="66">
-        <v>14.179209675999999</v>
+        <v>6.2268529387999996</v>
+      </c>
+      <c r="G14" s="63">
+        <v>18.0903358881</v>
       </c>
       <c r="H14" s="63">
-        <v>49.861583570199997</v>
+        <v>64.735832993299994</v>
       </c>
       <c r="I14" s="64" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="56" t="s">
         <v>97</v>
       </c>
       <c r="B15" s="56" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C15" s="63">
-        <v>10.455670727499999</v>
+        <v>8.9943962644000006</v>
       </c>
       <c r="D15" s="63">
-        <v>3.3827598046</v>
+        <v>2.7701340131999999</v>
       </c>
       <c r="E15" s="63">
-        <v>6.1253745251999998</v>
+        <v>5.3907523863</v>
       </c>
       <c r="F15" s="63">
-        <v>5.8361484405999997</v>
-      </c>
-      <c r="G15" s="66">
-        <v>15.627978963</v>
+        <v>5.7838219453999997</v>
+      </c>
+      <c r="G15" s="63">
+        <v>16.5644458025</v>
       </c>
       <c r="H15" s="63">
-        <v>58.974798675400002</v>
+        <v>58.907418157099997</v>
       </c>
       <c r="I15" s="64" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="56" t="s">
         <v>97</v>
       </c>
       <c r="B16" s="56" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C16" s="63">
-        <v>10.329698791</v>
+        <v>7.5583161886000001</v>
       </c>
       <c r="D16" s="63">
-        <v>3.6757547483000002</v>
+        <v>2.3040056937000002</v>
       </c>
       <c r="E16" s="63">
-        <v>5.3431869240000003</v>
+        <v>3.8633725435000001</v>
       </c>
       <c r="F16" s="63">
-        <v>5.7384723161000002</v>
-      </c>
-      <c r="G16" s="66">
-        <v>16.608514830200001</v>
+        <v>4.2907726132999997</v>
+      </c>
+      <c r="G16" s="63">
+        <v>12.2071206845</v>
       </c>
       <c r="H16" s="63">
-        <v>58.941108416299997</v>
+        <v>43.4267440689</v>
       </c>
       <c r="I16" s="64" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="56" t="s">
         <v>97</v>
       </c>
       <c r="B17" s="56" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C17" s="63">
-        <v>7.9110376107000002</v>
+        <v>1.4360800758000001</v>
       </c>
       <c r="D17" s="63">
-        <v>2.2773697896999998</v>
+        <v>0.62594374340000003</v>
       </c>
       <c r="E17" s="63">
-        <v>4.4077328334999999</v>
+        <v>0.84560821750000004</v>
       </c>
       <c r="F17" s="63">
-        <v>4.6291506160999996</v>
-      </c>
-      <c r="G17" s="66">
-        <v>13.0774839824</v>
+        <v>0.88606198680000003</v>
+      </c>
+      <c r="G17" s="63">
+        <v>2.5394777236000001</v>
       </c>
       <c r="H17" s="63">
-        <v>46.458867394099997</v>
+        <v>9.568033604</v>
       </c>
       <c r="I17" s="64" t="s">
-        <v>180</v>
-      </c>
+        <v>181</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I18" s="64"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A7:B17" numberStoredAsText="1"/>
+    <ignoredError sqref="A7 A8:A17" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/klinische_aspekte.xlsx
+++ b/data/klinische_aspekte.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20382"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8CCDE0B-5452-4B90-A875-E40726D4326E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07C8BEC2-9569-44A6-AD7F-2969301FDDC3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6650" firstSheet="2" activeTab="4" xr2:uid="{761E707A-47B5-41DE-BE24-E63CCB2E0F5D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6650" xr2:uid="{761E707A-47B5-41DE-BE24-E63CCB2E0F5D}"/>
   </bookViews>
   <sheets>
     <sheet name="Klinische_Aspekte" sheetId="1" r:id="rId1"/>
@@ -662,7 +662,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -684,12 +684,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -785,7 +779,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -889,30 +883,6 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -963,6 +933,31 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1308,9 +1303,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15B359AE-5507-4B64-BF3F-8A7ED4331CB9}">
-  <dimension ref="A1:M113"/>
+  <dimension ref="A1:M114"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O103" sqref="O103"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -1450,37 +1447,37 @@
         <v>12</v>
       </c>
       <c r="C6" s="7">
-        <v>22388</v>
+        <v>22389</v>
       </c>
       <c r="D6" s="5">
         <v>45</v>
       </c>
       <c r="E6" s="6">
-        <v>0.54947707160096537</v>
+        <v>0.54949720670391067</v>
       </c>
       <c r="F6" s="6">
-        <v>0.45052292839903457</v>
+        <v>0.45050279329608939</v>
       </c>
       <c r="G6" s="7">
-        <v>20043</v>
+        <v>20044</v>
       </c>
       <c r="H6" s="8">
-        <v>3.8616973506960035E-2</v>
+        <v>3.8664937138295746E-2</v>
       </c>
       <c r="I6" s="7">
-        <v>18949</v>
+        <v>18948</v>
       </c>
       <c r="J6" s="7">
         <v>2229</v>
       </c>
       <c r="K6" s="6">
-        <v>0.11763153728428941</v>
+        <v>0.11763774540848639</v>
       </c>
       <c r="L6" s="5">
         <v>476</v>
       </c>
       <c r="M6" s="10">
-        <v>2.1261390030000001E-2</v>
+        <v>2.126044039E-2</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1491,37 +1488,37 @@
         <v>13</v>
       </c>
       <c r="C7" s="12">
-        <v>33966</v>
+        <v>33964</v>
       </c>
       <c r="D7" s="13">
         <v>48</v>
       </c>
       <c r="E7" s="14">
-        <v>0.49493253196629544</v>
+        <v>0.49487330583382438</v>
       </c>
       <c r="F7" s="14">
-        <v>0.5050674680337045</v>
+        <v>0.50512669416617562</v>
       </c>
       <c r="G7" s="12">
-        <v>30691</v>
+        <v>30688</v>
       </c>
       <c r="H7" s="15">
-        <v>3.2973835977974E-2</v>
+        <v>3.2879301355578726E-2</v>
       </c>
       <c r="I7" s="12">
         <v>29017</v>
       </c>
       <c r="J7" s="12">
-        <v>5145</v>
+        <v>5144</v>
       </c>
       <c r="K7" s="14">
-        <v>0.17730985284488404</v>
+        <v>0.1772753902884516</v>
       </c>
       <c r="L7" s="12">
         <v>1461</v>
       </c>
       <c r="M7" s="16">
-        <v>4.3013601829999998E-2</v>
+        <v>4.3016134730000002E-2</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1532,22 +1529,22 @@
         <v>14</v>
       </c>
       <c r="C8" s="7">
-        <v>36049</v>
+        <v>36052</v>
       </c>
       <c r="D8" s="5">
         <v>51</v>
       </c>
       <c r="E8" s="6">
-        <v>0.45079532520889432</v>
+        <v>0.45081330150446902</v>
       </c>
       <c r="F8" s="6">
-        <v>0.54920467479110568</v>
+        <v>0.54918669849553103</v>
       </c>
       <c r="G8" s="7">
-        <v>31908</v>
+        <v>31910</v>
       </c>
       <c r="H8" s="8">
-        <v>5.4469098658643599E-2</v>
+        <v>5.4465684738326546E-2</v>
       </c>
       <c r="I8" s="7">
         <v>31291</v>
@@ -1559,10 +1556,10 @@
         <v>0.19510402352114026</v>
       </c>
       <c r="L8" s="7">
-        <v>2269</v>
+        <v>2270</v>
       </c>
       <c r="M8" s="10">
-        <v>6.2942106570000003E-2</v>
+        <v>6.2964606670000006E-2</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1573,22 +1570,22 @@
         <v>15</v>
       </c>
       <c r="C9" s="12">
-        <v>27124</v>
+        <v>27125</v>
       </c>
       <c r="D9" s="13">
         <v>52</v>
       </c>
       <c r="E9" s="14">
-        <v>0.43459806599247064</v>
+        <v>0.43461893338254293</v>
       </c>
       <c r="F9" s="14">
-        <v>0.56540193400752936</v>
+        <v>0.56538106661745713</v>
       </c>
       <c r="G9" s="12">
-        <v>23472</v>
+        <v>23471</v>
       </c>
       <c r="H9" s="15">
-        <v>8.3716768916155412E-2</v>
+        <v>8.3635124195816118E-2</v>
       </c>
       <c r="I9" s="12">
         <v>23869</v>
@@ -1603,7 +1600,7 @@
         <v>1877</v>
       </c>
       <c r="M9" s="16">
-        <v>6.9200707860000002E-2</v>
+        <v>6.9198156679999998E-2</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1614,16 +1611,16 @@
         <v>16</v>
       </c>
       <c r="C10" s="7">
-        <v>17331</v>
+        <v>17332</v>
       </c>
       <c r="D10" s="5">
         <v>51</v>
       </c>
       <c r="E10" s="6">
-        <v>0.44729394096921388</v>
+        <v>0.44726810673443457</v>
       </c>
       <c r="F10" s="6">
-        <v>0.55270605903078607</v>
+        <v>0.55273189326556549</v>
       </c>
       <c r="G10" s="7">
         <v>14776</v>
@@ -1644,7 +1641,7 @@
         <v>1222</v>
       </c>
       <c r="M10" s="10">
-        <v>7.0509491660000007E-2</v>
+        <v>7.0505423489999997E-2</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1655,37 +1652,37 @@
         <v>17</v>
       </c>
       <c r="C11" s="12">
-        <v>12350</v>
+        <v>12351</v>
       </c>
       <c r="D11" s="13">
         <v>50</v>
       </c>
       <c r="E11" s="14">
-        <v>0.44903916322062759</v>
+        <v>0.44908383330630774</v>
       </c>
       <c r="F11" s="14">
-        <v>0.55096083677937246</v>
+        <v>0.55091616669369226</v>
       </c>
       <c r="G11" s="12">
-        <v>10190</v>
+        <v>10189</v>
       </c>
       <c r="H11" s="15">
-        <v>0.13542688910696762</v>
+        <v>0.13544018058690746</v>
       </c>
       <c r="I11" s="12">
-        <v>10756</v>
+        <v>10757</v>
       </c>
       <c r="J11" s="12">
         <v>2236</v>
       </c>
       <c r="K11" s="14">
-        <v>0.20788397173670509</v>
+        <v>0.20786464627684298</v>
       </c>
       <c r="L11" s="13">
         <v>727</v>
       </c>
       <c r="M11" s="16">
-        <v>5.8866396760000002E-2</v>
+        <v>5.8861630630000002E-2</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1696,16 +1693,16 @@
         <v>18</v>
       </c>
       <c r="C12" s="7">
-        <v>7434</v>
+        <v>7435</v>
       </c>
       <c r="D12" s="5">
         <v>48</v>
       </c>
       <c r="E12" s="6">
-        <v>0.47845988152934843</v>
+        <v>0.4783954771840086</v>
       </c>
       <c r="F12" s="6">
-        <v>0.52154011847065163</v>
+        <v>0.52160452281599134</v>
       </c>
       <c r="G12" s="7">
         <v>6150</v>
@@ -1726,7 +1723,7 @@
         <v>387</v>
       </c>
       <c r="M12" s="10">
-        <v>5.2058111380000001E-2</v>
+        <v>5.205110961E-2</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1737,37 +1734,37 @@
         <v>19</v>
       </c>
       <c r="C13" s="12">
-        <v>6231</v>
+        <v>6230</v>
       </c>
       <c r="D13" s="13">
         <v>47</v>
       </c>
       <c r="E13" s="14">
-        <v>0.48</v>
+        <v>0.47991645244215936</v>
       </c>
       <c r="F13" s="14">
-        <v>0.52</v>
+        <v>0.52008354755784059</v>
       </c>
       <c r="G13" s="12">
-        <v>5211</v>
+        <v>5210</v>
       </c>
       <c r="H13" s="15">
-        <v>0.19017463058913836</v>
+        <v>0.19021113243761997</v>
       </c>
       <c r="I13" s="12">
-        <v>5548</v>
+        <v>5547</v>
       </c>
       <c r="J13" s="12">
         <v>1082</v>
       </c>
       <c r="K13" s="14">
-        <v>0.19502523431867338</v>
+        <v>0.19506039300522804</v>
       </c>
       <c r="L13" s="13">
         <v>257</v>
       </c>
       <c r="M13" s="16">
-        <v>4.1245385969999999E-2</v>
+        <v>4.1252006420000001E-2</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1778,16 +1775,16 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>4760</v>
+        <v>4759</v>
       </c>
       <c r="D14" s="5">
         <v>45</v>
       </c>
       <c r="E14" s="6">
-        <v>0.49600336558687419</v>
+        <v>0.4961077214390911</v>
       </c>
       <c r="F14" s="6">
-        <v>0.50399663441312581</v>
+        <v>0.5038922785609089</v>
       </c>
       <c r="G14" s="7">
         <v>3905</v>
@@ -1796,19 +1793,19 @@
         <v>0.22432778489116517</v>
       </c>
       <c r="I14" s="7">
-        <v>4142</v>
+        <v>4141</v>
       </c>
       <c r="J14" s="5">
         <v>758</v>
       </c>
       <c r="K14" s="6">
-        <v>0.18300338000965716</v>
+        <v>0.18304757304998792</v>
       </c>
       <c r="L14" s="5">
         <v>164</v>
       </c>
       <c r="M14" s="10">
-        <v>3.4453781510000003E-2</v>
+        <v>3.4461021219999999E-2</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1819,37 +1816,37 @@
         <v>21</v>
       </c>
       <c r="C15" s="12">
-        <v>3601</v>
+        <v>3602</v>
       </c>
       <c r="D15" s="13">
         <v>44</v>
       </c>
       <c r="E15" s="14">
-        <v>0.5020885547201337</v>
+        <v>0.50194877505567925</v>
       </c>
       <c r="F15" s="14">
-        <v>0.4979114452798663</v>
+        <v>0.49805122494432069</v>
       </c>
       <c r="G15" s="12">
-        <v>2807</v>
+        <v>2808</v>
       </c>
       <c r="H15" s="15">
-        <v>0.25757035981474885</v>
+        <v>0.25747863247863245</v>
       </c>
       <c r="I15" s="12">
-        <v>3084</v>
+        <v>3085</v>
       </c>
       <c r="J15" s="13">
         <v>512</v>
       </c>
       <c r="K15" s="14">
-        <v>0.16601815823605706</v>
+        <v>0.16596434359805509</v>
       </c>
       <c r="L15" s="13">
         <v>112</v>
       </c>
       <c r="M15" s="16">
-        <v>3.1102471529999998E-2</v>
+        <v>3.1093836749999999E-2</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1866,10 +1863,10 @@
         <v>42</v>
       </c>
       <c r="E16" s="6">
-        <v>0.51455399061032869</v>
+        <v>0.51424100156494523</v>
       </c>
       <c r="F16" s="6">
-        <v>0.48544600938967136</v>
+        <v>0.48575899843505477</v>
       </c>
       <c r="G16" s="7">
         <v>2579</v>
@@ -1901,16 +1898,16 @@
         <v>23</v>
       </c>
       <c r="C17" s="12">
-        <v>2352</v>
+        <v>2354</v>
       </c>
       <c r="D17" s="13">
         <v>39</v>
       </c>
       <c r="E17" s="14">
-        <v>0.50575202386024709</v>
+        <v>0.50532141336739034</v>
       </c>
       <c r="F17" s="14">
-        <v>0.49424797613975285</v>
+        <v>0.49467858663260961</v>
       </c>
       <c r="G17" s="12">
         <v>1860</v>
@@ -1919,19 +1916,19 @@
         <v>0.23870967741935484</v>
       </c>
       <c r="I17" s="12">
-        <v>2078</v>
+        <v>2079</v>
       </c>
       <c r="J17" s="13">
         <v>307</v>
       </c>
       <c r="K17" s="14">
-        <v>0.14773820981713184</v>
+        <v>0.14766714766714767</v>
       </c>
       <c r="L17" s="13">
         <v>45</v>
       </c>
       <c r="M17" s="16">
-        <v>1.9132653060000001E-2</v>
+        <v>1.911639762E-2</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2024,16 +2021,16 @@
         <v>26</v>
       </c>
       <c r="C20" s="7">
-        <v>3165</v>
+        <v>3166</v>
       </c>
       <c r="D20" s="5">
         <v>37</v>
       </c>
       <c r="E20" s="6">
-        <v>0.54919329326162603</v>
+        <v>0.5490196078431373</v>
       </c>
       <c r="F20" s="6">
-        <v>0.45080670673837392</v>
+        <v>0.45098039215686275</v>
       </c>
       <c r="G20" s="7">
         <v>2348</v>
@@ -2054,7 +2051,7 @@
         <v>24</v>
       </c>
       <c r="M20" s="10">
-        <v>7.5829383800000002E-3</v>
+        <v>7.5805432700000001E-3</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2065,16 +2062,16 @@
         <v>27</v>
       </c>
       <c r="C21" s="12">
-        <v>2689</v>
+        <v>2690</v>
       </c>
       <c r="D21" s="13">
         <v>36</v>
       </c>
       <c r="E21" s="14">
-        <v>0.51971726190476186</v>
+        <v>0.51970260223048326</v>
       </c>
       <c r="F21" s="14">
-        <v>0.48028273809523808</v>
+        <v>0.48029739776951674</v>
       </c>
       <c r="G21" s="12">
         <v>2065</v>
@@ -2095,7 +2092,7 @@
         <v>26</v>
       </c>
       <c r="M21" s="16">
-        <v>9.6690219399999996E-3</v>
+        <v>9.6654275000000005E-3</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2106,16 +2103,16 @@
         <v>28</v>
       </c>
       <c r="C22" s="7">
-        <v>2421</v>
+        <v>2422</v>
       </c>
       <c r="D22" s="5">
         <v>36</v>
       </c>
       <c r="E22" s="6">
-        <v>0.55812991311543236</v>
+        <v>0.55789909015715466</v>
       </c>
       <c r="F22" s="6">
-        <v>0.44187008688456764</v>
+        <v>0.44210090984284534</v>
       </c>
       <c r="G22" s="7">
         <v>1906</v>
@@ -2124,19 +2121,19 @@
         <v>0.236096537250787</v>
       </c>
       <c r="I22" s="7">
-        <v>2156</v>
+        <v>2157</v>
       </c>
       <c r="J22" s="5">
         <v>257</v>
       </c>
       <c r="K22" s="6">
-        <v>0.11920222634508348</v>
+        <v>0.11914696337505795</v>
       </c>
       <c r="L22" s="5">
         <v>25</v>
       </c>
       <c r="M22" s="10">
-        <v>1.0326311439999999E-2</v>
+        <v>1.032204789E-2</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2162,7 +2159,7 @@
         <v>2371</v>
       </c>
       <c r="H23" s="15">
-        <v>0.22775200337410376</v>
+        <v>0.22733024040489244</v>
       </c>
       <c r="I23" s="12">
         <v>2628</v>
@@ -2188,16 +2185,16 @@
         <v>30</v>
       </c>
       <c r="C24" s="7">
-        <v>3934</v>
+        <v>3935</v>
       </c>
       <c r="D24" s="5">
         <v>36</v>
       </c>
       <c r="E24" s="6">
-        <v>0.52380952380952384</v>
+        <v>0.52367617107942976</v>
       </c>
       <c r="F24" s="6">
-        <v>0.47619047619047616</v>
+        <v>0.47632382892057029</v>
       </c>
       <c r="G24" s="7">
         <v>3153</v>
@@ -2206,19 +2203,19 @@
         <v>0.26482714874722485</v>
       </c>
       <c r="I24" s="7">
-        <v>3413</v>
+        <v>3414</v>
       </c>
       <c r="J24" s="5">
         <v>335</v>
       </c>
       <c r="K24" s="6">
-        <v>9.8154116612950482E-2</v>
+        <v>9.8125366139425893E-2</v>
       </c>
       <c r="L24" s="5">
         <v>33</v>
       </c>
       <c r="M24" s="10">
-        <v>8.3884087400000005E-3</v>
+        <v>8.3862769999999993E-3</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2229,16 +2226,16 @@
         <v>31</v>
       </c>
       <c r="C25" s="12">
-        <v>4838</v>
+        <v>4841</v>
       </c>
       <c r="D25" s="13">
         <v>36</v>
       </c>
       <c r="E25" s="14">
-        <v>0.50113895216400917</v>
+        <v>0.5014486754966887</v>
       </c>
       <c r="F25" s="14">
-        <v>0.49886104783599089</v>
+        <v>0.49855132450331124</v>
       </c>
       <c r="G25" s="12">
         <v>3798</v>
@@ -2259,7 +2256,7 @@
         <v>36</v>
       </c>
       <c r="M25" s="16">
-        <v>7.4410913599999998E-3</v>
+        <v>7.4364800600000003E-3</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2270,16 +2267,16 @@
         <v>32</v>
       </c>
       <c r="C26" s="7">
-        <v>6065</v>
+        <v>6068</v>
       </c>
       <c r="D26" s="5">
         <v>34</v>
       </c>
       <c r="E26" s="6">
-        <v>0.5368994551758296</v>
+        <v>0.53679867986798679</v>
       </c>
       <c r="F26" s="6">
-        <v>0.4631005448241704</v>
+        <v>0.46320132013201321</v>
       </c>
       <c r="G26" s="7">
         <v>4582</v>
@@ -2288,19 +2285,19 @@
         <v>0.30074203404626798</v>
       </c>
       <c r="I26" s="7">
-        <v>5286</v>
+        <v>5288</v>
       </c>
       <c r="J26" s="5">
         <v>405</v>
       </c>
       <c r="K26" s="6">
-        <v>7.6617480136208851E-2</v>
+        <v>7.6588502269288955E-2</v>
       </c>
       <c r="L26" s="5">
         <v>33</v>
       </c>
       <c r="M26" s="10">
-        <v>5.4410552300000001E-3</v>
+        <v>5.4383651899999998E-3</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2323,19 +2320,19 @@
         <v>0.46638126416519771</v>
       </c>
       <c r="G27" s="12">
-        <v>5861</v>
+        <v>5860</v>
       </c>
       <c r="H27" s="15">
-        <v>0.3306602968776659</v>
+        <v>0.33054607508532424</v>
       </c>
       <c r="I27" s="12">
-        <v>6929</v>
+        <v>6928</v>
       </c>
       <c r="J27" s="13">
         <v>446</v>
       </c>
       <c r="K27" s="14">
-        <v>6.4367152547265119E-2</v>
+        <v>6.4376443418013851E-2</v>
       </c>
       <c r="L27" s="13">
         <v>31</v>
@@ -2440,31 +2437,31 @@
         <v>33</v>
       </c>
       <c r="E30" s="6">
-        <v>0.53655124169289958</v>
+        <v>0.53666783257549255</v>
       </c>
       <c r="F30" s="6">
-        <v>0.46344875830710036</v>
+        <v>0.46333216742450739</v>
       </c>
       <c r="G30" s="7">
-        <v>6665</v>
+        <v>6664</v>
       </c>
       <c r="H30" s="8">
-        <v>0.26616654163540887</v>
+        <v>0.26605642256902762</v>
       </c>
       <c r="I30" s="7">
-        <v>7027</v>
+        <v>7026</v>
       </c>
       <c r="J30" s="5">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="K30" s="6">
-        <v>5.7919453536359758E-2</v>
+        <v>5.7785368630799888E-2</v>
       </c>
       <c r="L30" s="5">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M30" s="10">
-        <v>4.1782729799999998E-3</v>
+        <v>4.0622098399999999E-3</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2516,16 +2513,16 @@
         <v>38</v>
       </c>
       <c r="C32" s="7">
-        <v>12291</v>
+        <v>12292</v>
       </c>
       <c r="D32" s="5">
         <v>36</v>
       </c>
       <c r="E32" s="6">
-        <v>0.51118732647395071</v>
+        <v>0.51106393402465911</v>
       </c>
       <c r="F32" s="6">
-        <v>0.48881267352604935</v>
+        <v>0.48893606597534089</v>
       </c>
       <c r="G32" s="7">
         <v>9936</v>
@@ -2534,19 +2531,19 @@
         <v>0.18095813204508857</v>
       </c>
       <c r="I32" s="7">
-        <v>10107</v>
+        <v>10109</v>
       </c>
       <c r="J32" s="5">
         <v>686</v>
       </c>
       <c r="K32" s="6">
-        <v>6.7873750865736618E-2</v>
+        <v>6.7860322484914429E-2</v>
       </c>
       <c r="L32" s="5">
         <v>82</v>
       </c>
       <c r="M32" s="10">
-        <v>6.67154828E-3</v>
+        <v>6.6710055300000003E-3</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2557,37 +2554,37 @@
         <v>39</v>
       </c>
       <c r="C33" s="12">
-        <v>13069</v>
+        <v>13070</v>
       </c>
       <c r="D33" s="13">
         <v>37</v>
       </c>
       <c r="E33" s="14">
-        <v>0.51582910711541419</v>
+        <v>0.51578947368421058</v>
       </c>
       <c r="F33" s="14">
-        <v>0.48417089288458581</v>
+        <v>0.48421052631578948</v>
       </c>
       <c r="G33" s="12">
-        <v>10477</v>
+        <v>10481</v>
       </c>
       <c r="H33" s="15">
-        <v>0.17858165505392765</v>
+        <v>0.17851350062016982</v>
       </c>
       <c r="I33" s="12">
-        <v>10825</v>
+        <v>10830</v>
       </c>
       <c r="J33" s="13">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="K33" s="14">
-        <v>7.2240184757505779E-2</v>
+        <v>7.2299168975069258E-2</v>
       </c>
       <c r="L33" s="13">
         <v>110</v>
       </c>
       <c r="M33" s="16">
-        <v>8.4168643299999991E-3</v>
+        <v>8.4162203499999998E-3</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2604,25 +2601,25 @@
         <v>38</v>
       </c>
       <c r="E34" s="6">
-        <v>0.51878658191201465</v>
+        <v>0.5188168659534298</v>
       </c>
       <c r="F34" s="6">
-        <v>0.4812134180879854</v>
+        <v>0.48118313404657015</v>
       </c>
       <c r="G34" s="7">
-        <v>12705</v>
+        <v>12707</v>
       </c>
       <c r="H34" s="8">
-        <v>0.17001180637544275</v>
+        <v>0.1699850476115527</v>
       </c>
       <c r="I34" s="7">
-        <v>13388</v>
+        <v>13389</v>
       </c>
       <c r="J34" s="5">
         <v>890</v>
       </c>
       <c r="K34" s="6">
-        <v>6.6477442485808183E-2</v>
+        <v>6.6472477406826505E-2</v>
       </c>
       <c r="L34" s="5">
         <v>122</v>
@@ -2639,16 +2636,16 @@
         <v>41</v>
       </c>
       <c r="C35" s="19">
-        <v>26123</v>
+        <v>26124</v>
       </c>
       <c r="D35" s="20">
         <v>39</v>
       </c>
       <c r="E35" s="21">
-        <v>0.50986185725249422</v>
+        <v>0.50984229308161622</v>
       </c>
       <c r="F35" s="21">
-        <v>0.49013814274750578</v>
+        <v>0.49015770691838378</v>
       </c>
       <c r="G35" s="19">
         <v>20213</v>
@@ -2669,7 +2666,7 @@
         <v>245</v>
       </c>
       <c r="M35" s="23">
-        <v>9.3787084100000005E-3</v>
+        <v>9.3783494100000003E-3</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2686,25 +2683,25 @@
         <v>39</v>
       </c>
       <c r="E36" s="6">
-        <v>0.50820884837493441</v>
+        <v>0.50823271130625691</v>
       </c>
       <c r="F36" s="6">
-        <v>0.49179115162506565</v>
+        <v>0.49176728869374314</v>
       </c>
       <c r="G36" s="7">
-        <v>31315</v>
+        <v>31322</v>
       </c>
       <c r="H36" s="8">
-        <v>0.15631486508063228</v>
+        <v>0.1562799310388864</v>
       </c>
       <c r="I36" s="7">
-        <v>33816</v>
+        <v>33825</v>
       </c>
       <c r="J36" s="5">
-        <v>2358</v>
+        <v>2359</v>
       </c>
       <c r="K36" s="6">
-        <v>6.9730305180979418E-2</v>
+        <v>6.9741315594974138E-2</v>
       </c>
       <c r="L36" s="5">
         <v>463</v>
@@ -2721,37 +2718,37 @@
         <v>43</v>
       </c>
       <c r="C37" s="12">
-        <v>74871</v>
+        <v>74868</v>
       </c>
       <c r="D37" s="13">
         <v>40</v>
       </c>
       <c r="E37" s="14">
-        <v>0.50148813513875856</v>
+        <v>0.50145467708850067</v>
       </c>
       <c r="F37" s="14">
-        <v>0.49851186486124144</v>
+        <v>0.49854532291149933</v>
       </c>
       <c r="G37" s="12">
-        <v>53246</v>
+        <v>53247</v>
       </c>
       <c r="H37" s="15">
-        <v>0.15062164294031477</v>
+        <v>0.15060003380472139</v>
       </c>
       <c r="I37" s="12">
-        <v>58296</v>
+        <v>58293</v>
       </c>
       <c r="J37" s="13">
-        <v>4170</v>
+        <v>4169</v>
       </c>
       <c r="K37" s="14">
-        <v>7.153149444215727E-2</v>
+        <v>7.1518021031684767E-2</v>
       </c>
       <c r="L37" s="13">
         <v>1015</v>
       </c>
       <c r="M37" s="16">
-        <v>1.3556650769999999E-2</v>
+        <v>1.3557193990000001E-2</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2762,37 +2759,37 @@
         <v>44</v>
       </c>
       <c r="C38" s="7">
-        <v>111000</v>
+        <v>110998</v>
       </c>
       <c r="D38" s="5">
         <v>41</v>
       </c>
       <c r="E38" s="6">
-        <v>0.49697233008390584</v>
+        <v>0.4969858797972484</v>
       </c>
       <c r="F38" s="6">
-        <v>0.50302766991609416</v>
+        <v>0.5030141202027516</v>
       </c>
       <c r="G38" s="7">
-        <v>76974</v>
+        <v>76981</v>
       </c>
       <c r="H38" s="8">
-        <v>0.15296073999012655</v>
+        <v>0.15294683103622972</v>
       </c>
       <c r="I38" s="7">
-        <v>84509</v>
+        <v>84518</v>
       </c>
       <c r="J38" s="5">
         <v>6002</v>
       </c>
       <c r="K38" s="6">
-        <v>7.1022021323172674E-2</v>
+        <v>7.1014458458553212E-2</v>
       </c>
       <c r="L38" s="5">
         <v>1621</v>
       </c>
       <c r="M38" s="10">
-        <v>1.4603603600000001E-2</v>
+        <v>1.460386673E-2</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2803,37 +2800,37 @@
         <v>45</v>
       </c>
       <c r="C39" s="19">
-        <v>125715</v>
+        <v>125718</v>
       </c>
       <c r="D39" s="20">
         <v>41</v>
       </c>
       <c r="E39" s="21">
-        <v>0.49090283556295206</v>
+        <v>0.49089105266947763</v>
       </c>
       <c r="F39" s="21">
-        <v>0.50909716443704789</v>
+        <v>0.50910894733052237</v>
       </c>
       <c r="G39" s="19">
-        <v>87245</v>
+        <v>87256</v>
       </c>
       <c r="H39" s="22">
-        <v>0.14989970771964009</v>
+        <v>0.14988081048867699</v>
       </c>
       <c r="I39" s="19">
-        <v>94194</v>
+        <v>94200</v>
       </c>
       <c r="J39" s="20">
         <v>6919</v>
       </c>
       <c r="K39" s="21">
-        <v>7.3454784805826276E-2</v>
+        <v>7.3450106157112532E-2</v>
       </c>
       <c r="L39" s="20">
-        <v>1898</v>
+        <v>1899</v>
       </c>
       <c r="M39" s="23">
-        <v>1.5097641490000001E-2</v>
+        <v>1.5105235519999999E-2</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2844,37 +2841,37 @@
         <v>46</v>
       </c>
       <c r="C40" s="7">
-        <v>127809</v>
+        <v>127815</v>
       </c>
       <c r="D40" s="5">
         <v>42</v>
       </c>
       <c r="E40" s="6">
-        <v>0.48446181855439346</v>
+        <v>0.48446255329545185</v>
       </c>
       <c r="F40" s="6">
-        <v>0.51553818144560648</v>
+        <v>0.51553744670454815</v>
       </c>
       <c r="G40" s="7">
-        <v>87616</v>
+        <v>87623</v>
       </c>
       <c r="H40" s="8">
-        <v>0.1462518261504748</v>
+        <v>0.14624014242835784</v>
       </c>
       <c r="I40" s="7">
-        <v>96474</v>
+        <v>96481</v>
       </c>
       <c r="J40" s="5">
-        <v>7620</v>
+        <v>7621</v>
       </c>
       <c r="K40" s="6">
-        <v>7.898501150569065E-2</v>
+        <v>7.8989645629709476E-2</v>
       </c>
       <c r="L40" s="5">
-        <v>2530</v>
+        <v>2529</v>
       </c>
       <c r="M40" s="10">
-        <v>1.9795163090000002E-2</v>
+        <v>1.9786410040000001E-2</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2885,37 +2882,37 @@
         <v>47</v>
       </c>
       <c r="C41" s="19">
-        <v>128396</v>
+        <v>128399</v>
       </c>
       <c r="D41" s="20">
         <v>43</v>
       </c>
       <c r="E41" s="21">
-        <v>0.47414164350311239</v>
+        <v>0.47413833602154748</v>
       </c>
       <c r="F41" s="21">
-        <v>0.52585835649688761</v>
+        <v>0.52586166397845258</v>
       </c>
       <c r="G41" s="19">
-        <v>88550</v>
+        <v>88554</v>
       </c>
       <c r="H41" s="22">
-        <v>0.14691134952004517</v>
+        <v>0.14691600605280394</v>
       </c>
       <c r="I41" s="19">
-        <v>96473</v>
+        <v>96477</v>
       </c>
       <c r="J41" s="20">
-        <v>8173</v>
+        <v>8175</v>
       </c>
       <c r="K41" s="21">
-        <v>8.4718004001119479E-2</v>
+        <v>8.4735221866351559E-2</v>
       </c>
       <c r="L41" s="20">
         <v>3216</v>
       </c>
       <c r="M41" s="23">
-        <v>2.504750926E-2</v>
+        <v>2.5046924040000001E-2</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2926,16 +2923,16 @@
         <v>48</v>
       </c>
       <c r="C42" s="7">
-        <v>123146</v>
+        <v>123144</v>
       </c>
       <c r="D42" s="5">
         <v>44</v>
       </c>
       <c r="E42" s="6">
-        <v>0.46523073407224824</v>
+        <v>0.46524649036891935</v>
       </c>
       <c r="F42" s="6">
-        <v>0.53476926592775176</v>
+        <v>0.53475350963108059</v>
       </c>
       <c r="G42" s="7">
         <v>84472</v>
@@ -2944,19 +2941,19 @@
         <v>0.15357751681030402</v>
       </c>
       <c r="I42" s="7">
-        <v>92278</v>
+        <v>92282</v>
       </c>
       <c r="J42" s="5">
         <v>8398</v>
       </c>
       <c r="K42" s="6">
-        <v>9.1007607447062142E-2</v>
+        <v>9.1003662686114303E-2</v>
       </c>
       <c r="L42" s="5">
         <v>3585</v>
       </c>
       <c r="M42" s="10">
-        <v>2.9111786010000001E-2</v>
+        <v>2.911225881E-2</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2967,37 +2964,37 @@
         <v>49</v>
       </c>
       <c r="C43" s="19">
-        <v>128369</v>
+        <v>128375</v>
       </c>
       <c r="D43" s="20">
         <v>45</v>
       </c>
       <c r="E43" s="21">
-        <v>0.45912945343970907</v>
+        <v>0.45911146289664034</v>
       </c>
       <c r="F43" s="21">
-        <v>0.54087054656029088</v>
+        <v>0.5408885371033596</v>
       </c>
       <c r="G43" s="19">
-        <v>89652</v>
+        <v>89654</v>
       </c>
       <c r="H43" s="22">
-        <v>0.14093383304332308</v>
+        <v>0.1409306890936266</v>
       </c>
       <c r="I43" s="19">
-        <v>96399</v>
+        <v>96401</v>
       </c>
       <c r="J43" s="20">
-        <v>9256</v>
+        <v>9258</v>
       </c>
       <c r="K43" s="21">
-        <v>9.6017593543501492E-2</v>
+        <v>9.6036348170662131E-2</v>
       </c>
       <c r="L43" s="20">
         <v>4466</v>
       </c>
       <c r="M43" s="23">
-        <v>3.479033099E-2</v>
+        <v>3.478870496E-2</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3014,25 +3011,25 @@
         <v>46</v>
       </c>
       <c r="E44" s="6">
-        <v>0.45370525205490025</v>
+        <v>0.45372454689288794</v>
       </c>
       <c r="F44" s="6">
-        <v>0.5462947479450998</v>
+        <v>0.54627545310711212</v>
       </c>
       <c r="G44" s="7">
-        <v>110391</v>
+        <v>110393</v>
       </c>
       <c r="H44" s="8">
-        <v>0.1451114674203513</v>
+        <v>0.14511789696810487</v>
       </c>
       <c r="I44" s="7">
-        <v>117343</v>
+        <v>117341</v>
       </c>
       <c r="J44" s="5">
-        <v>11343</v>
+        <v>11351</v>
       </c>
       <c r="K44" s="6">
-        <v>9.6665331549389402E-2</v>
+        <v>9.6735156509659886E-2</v>
       </c>
       <c r="L44" s="5">
         <v>5740</v>
@@ -3049,37 +3046,37 @@
         <v>51</v>
       </c>
       <c r="C45" s="19">
-        <v>174693</v>
+        <v>174701</v>
       </c>
       <c r="D45" s="20">
         <v>46</v>
       </c>
       <c r="E45" s="21">
-        <v>0.45168380292630161</v>
+        <v>0.45168027340041772</v>
       </c>
       <c r="F45" s="21">
-        <v>0.54831619707369839</v>
+        <v>0.54831972659958228</v>
       </c>
       <c r="G45" s="19">
-        <v>122328</v>
+        <v>122331</v>
       </c>
       <c r="H45" s="22">
-        <v>0.1441942972990648</v>
+        <v>0.14419076113168372</v>
       </c>
       <c r="I45" s="19">
-        <v>129993</v>
+        <v>129998</v>
       </c>
       <c r="J45" s="20">
-        <v>12653</v>
+        <v>12658</v>
       </c>
       <c r="K45" s="21">
-        <v>9.733601040056003E-2</v>
+        <v>9.737072878044277E-2</v>
       </c>
       <c r="L45" s="20">
         <v>6434</v>
       </c>
       <c r="M45" s="23">
-        <v>3.6830325189999999E-2</v>
+        <v>3.6828638640000001E-2</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3090,37 +3087,37 @@
         <v>52</v>
       </c>
       <c r="C46" s="7">
-        <v>138928</v>
+        <v>138923</v>
       </c>
       <c r="D46" s="5">
         <v>48</v>
       </c>
       <c r="E46" s="6">
-        <v>0.44481024564957855</v>
+        <v>0.44480463096960926</v>
       </c>
       <c r="F46" s="6">
-        <v>0.5551897543504215</v>
+        <v>0.55519536903039068</v>
       </c>
       <c r="G46" s="7">
-        <v>95493</v>
+        <v>95489</v>
       </c>
       <c r="H46" s="8">
-        <v>0.15770789481951555</v>
+        <v>0.15771450114672894</v>
       </c>
       <c r="I46" s="7">
-        <v>103158</v>
+        <v>103156</v>
       </c>
       <c r="J46" s="5">
-        <v>11112</v>
+        <v>11114</v>
       </c>
       <c r="K46" s="6">
-        <v>0.10771825743034956</v>
+        <v>0.10773973399511419</v>
       </c>
       <c r="L46" s="5">
-        <v>5697</v>
+        <v>5700</v>
       </c>
       <c r="M46" s="10">
-        <v>4.1006852470000001E-2</v>
+        <v>4.102992305E-2</v>
       </c>
     </row>
     <row r="47" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3131,37 +3128,37 @@
         <v>53</v>
       </c>
       <c r="C47" s="19">
-        <v>123077</v>
+        <v>123079</v>
       </c>
       <c r="D47" s="20">
         <v>49</v>
       </c>
       <c r="E47" s="21">
-        <v>0.44096026950343009</v>
+        <v>0.44096123498581369</v>
       </c>
       <c r="F47" s="21">
-        <v>0.55903973049656985</v>
+        <v>0.55903876501418626</v>
       </c>
       <c r="G47" s="19">
-        <v>87503</v>
+        <v>87501</v>
       </c>
       <c r="H47" s="22">
-        <v>0.13376684227969327</v>
+        <v>0.13376989977257403</v>
       </c>
       <c r="I47" s="19">
-        <v>93469</v>
+        <v>93471</v>
       </c>
       <c r="J47" s="20">
-        <v>11056</v>
+        <v>11055</v>
       </c>
       <c r="K47" s="21">
-        <v>0.11828520686002846</v>
+        <v>0.11827197740475656</v>
       </c>
       <c r="L47" s="20">
-        <v>5706</v>
+        <v>5709</v>
       </c>
       <c r="M47" s="23">
-        <v>4.6361221020000003E-2</v>
+        <v>4.6384842250000002E-2</v>
       </c>
     </row>
     <row r="48" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3172,37 +3169,37 @@
         <v>1</v>
       </c>
       <c r="C48" s="27">
-        <v>145491</v>
+        <v>145493</v>
       </c>
       <c r="D48" s="28">
         <v>48</v>
       </c>
       <c r="E48" s="29">
-        <v>0.45019556894669194</v>
+        <v>0.45019245786313034</v>
       </c>
       <c r="F48" s="29">
-        <v>0.54980443105330812</v>
+        <v>0.54980754213686966</v>
       </c>
       <c r="G48" s="27">
-        <v>106575</v>
+        <v>106576</v>
       </c>
       <c r="H48" s="30">
-        <v>0.13118461177574478</v>
+        <v>0.13115523194715509</v>
       </c>
       <c r="I48" s="27">
-        <v>111545</v>
+        <v>111539</v>
       </c>
       <c r="J48" s="28">
         <v>11259</v>
       </c>
       <c r="K48" s="29">
-        <v>0.1009368416334215</v>
+        <v>0.10094227131317297</v>
       </c>
       <c r="L48" s="28">
-        <v>5716</v>
+        <v>5718</v>
       </c>
       <c r="M48" s="31">
-        <v>3.9287653530000001E-2</v>
+        <v>3.930085983E-2</v>
       </c>
     </row>
     <row r="49" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3213,37 +3210,37 @@
         <v>2</v>
       </c>
       <c r="C49" s="19">
-        <v>118904</v>
+        <v>118906</v>
       </c>
       <c r="D49" s="20">
         <v>48</v>
       </c>
       <c r="E49" s="21">
-        <v>0.45342954791553869</v>
+        <v>0.45343417167897537</v>
       </c>
       <c r="F49" s="21">
-        <v>0.54657045208446131</v>
+        <v>0.54656582832102463</v>
       </c>
       <c r="G49" s="19">
-        <v>86010</v>
+        <v>86012</v>
       </c>
       <c r="H49" s="22">
-        <v>0.15860946401581211</v>
+        <v>0.15860577593824118</v>
       </c>
       <c r="I49" s="19">
-        <v>91540</v>
+        <v>91538</v>
       </c>
       <c r="J49" s="20">
         <v>9983</v>
       </c>
       <c r="K49" s="21">
-        <v>0.1090561503168014</v>
+        <v>0.10905853306823396</v>
       </c>
       <c r="L49" s="20">
-        <v>5077</v>
+        <v>5080</v>
       </c>
       <c r="M49" s="23">
-        <v>4.2698311240000002E-2</v>
+        <v>4.2722823069999999E-2</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3266,10 +3263,10 @@
         <v>0.54237965524132059</v>
       </c>
       <c r="G50" s="7">
-        <v>70998</v>
+        <v>70997</v>
       </c>
       <c r="H50" s="8">
-        <v>0.15979323361221442</v>
+        <v>0.15980956941842614</v>
       </c>
       <c r="I50" s="7">
         <v>75883</v>
@@ -3281,10 +3278,10 @@
         <v>0.11768116705981577</v>
       </c>
       <c r="L50" s="5">
-        <v>4079</v>
+        <v>4082</v>
       </c>
       <c r="M50" s="10">
-        <v>4.2689691260000003E-2</v>
+        <v>4.2721088429999998E-2</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3295,16 +3292,16 @@
         <v>4</v>
       </c>
       <c r="C51" s="19">
-        <v>78180</v>
+        <v>78179</v>
       </c>
       <c r="D51" s="20">
         <v>48</v>
       </c>
       <c r="E51" s="21">
-        <v>0.46303291958985426</v>
+        <v>0.46303886925795051</v>
       </c>
       <c r="F51" s="21">
-        <v>0.53696708041014574</v>
+        <v>0.53696113074204943</v>
       </c>
       <c r="G51" s="19">
         <v>58788</v>
@@ -3313,19 +3310,19 @@
         <v>0.16061100904946587</v>
       </c>
       <c r="I51" s="19">
-        <v>63999</v>
+        <v>63997</v>
       </c>
       <c r="J51" s="20">
         <v>7576</v>
       </c>
       <c r="K51" s="21">
-        <v>0.11837684963827559</v>
+        <v>0.11838054908823852</v>
       </c>
       <c r="L51" s="20">
-        <v>3079</v>
+        <v>3080</v>
       </c>
       <c r="M51" s="23">
-        <v>3.9383474029999997E-2</v>
+        <v>3.9396768950000001E-2</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3336,16 +3333,16 @@
         <v>5</v>
       </c>
       <c r="C52" s="7">
-        <v>64587</v>
+        <v>64588</v>
       </c>
       <c r="D52" s="5">
         <v>46</v>
       </c>
       <c r="E52" s="6">
-        <v>0.47308279104524081</v>
+        <v>0.4730762644581783</v>
       </c>
       <c r="F52" s="6">
-        <v>0.52691720895475913</v>
+        <v>0.5269237355418217</v>
       </c>
       <c r="G52" s="7">
         <v>49666</v>
@@ -3363,10 +3360,10 @@
         <v>0.12209378571294753</v>
       </c>
       <c r="L52" s="5">
-        <v>2246</v>
+        <v>2248</v>
       </c>
       <c r="M52" s="10">
-        <v>3.4774799879999999E-2</v>
+        <v>3.4805226969999999E-2</v>
       </c>
     </row>
     <row r="53" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3377,22 +3374,22 @@
         <v>6</v>
       </c>
       <c r="C53" s="19">
-        <v>50815</v>
+        <v>50817</v>
       </c>
       <c r="D53" s="20">
         <v>45</v>
       </c>
       <c r="E53" s="21">
-        <v>0.48345366432598158</v>
+        <v>0.48345431888759222</v>
       </c>
       <c r="F53" s="21">
-        <v>0.51654633567401842</v>
+        <v>0.51654568111240773</v>
       </c>
       <c r="G53" s="19">
-        <v>40046</v>
+        <v>40044</v>
       </c>
       <c r="H53" s="22">
-        <v>0.16575937671677571</v>
+        <v>0.16576765557886325</v>
       </c>
       <c r="I53" s="19">
         <v>42415</v>
@@ -3404,10 +3401,10 @@
         <v>0.12354120004715313</v>
       </c>
       <c r="L53" s="20">
-        <v>1675</v>
+        <v>1676</v>
       </c>
       <c r="M53" s="23">
-        <v>3.2962707860000003E-2</v>
+        <v>3.2981088999999998E-2</v>
       </c>
     </row>
     <row r="54" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3418,22 +3415,22 @@
         <v>7</v>
       </c>
       <c r="C54" s="7">
-        <v>52432</v>
+        <v>52431</v>
       </c>
       <c r="D54" s="5">
         <v>44</v>
       </c>
       <c r="E54" s="6">
-        <v>0.49088297261061098</v>
+        <v>0.49091152866364035</v>
       </c>
       <c r="F54" s="6">
-        <v>0.50911702738938902</v>
+        <v>0.50908847133635959</v>
       </c>
       <c r="G54" s="7">
         <v>41716</v>
       </c>
       <c r="H54" s="8">
-        <v>0.16274331191868827</v>
+        <v>0.16276728353629302</v>
       </c>
       <c r="I54" s="7">
         <v>43959</v>
@@ -3445,10 +3442,10 @@
         <v>0.117268363702541</v>
       </c>
       <c r="L54" s="5">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="M54" s="10">
-        <v>2.805538602E-2</v>
+        <v>2.80749938E-2</v>
       </c>
     </row>
     <row r="55" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3459,37 +3456,37 @@
         <v>8</v>
       </c>
       <c r="C55" s="19">
-        <v>56386</v>
+        <v>56390</v>
       </c>
       <c r="D55" s="20">
         <v>42</v>
       </c>
       <c r="E55" s="21">
-        <v>0.49626374408426149</v>
+        <v>0.49626400996264008</v>
       </c>
       <c r="F55" s="21">
-        <v>0.50373625591573856</v>
+        <v>0.50373599003735992</v>
       </c>
       <c r="G55" s="19">
-        <v>44943</v>
+        <v>44944</v>
       </c>
       <c r="H55" s="22">
-        <v>0.16082593507331508</v>
+        <v>0.16082235671057316</v>
       </c>
       <c r="I55" s="19">
-        <v>47170</v>
+        <v>47172</v>
       </c>
       <c r="J55" s="20">
         <v>4854</v>
       </c>
       <c r="K55" s="21">
-        <v>0.10290438838244648</v>
+        <v>0.10290002543881964</v>
       </c>
       <c r="L55" s="20">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="M55" s="23">
-        <v>2.160110665E-2</v>
+        <v>2.1617308030000001E-2</v>
       </c>
     </row>
     <row r="56" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3500,37 +3497,37 @@
         <v>9</v>
       </c>
       <c r="C56" s="7">
-        <v>58433</v>
+        <v>58436</v>
       </c>
       <c r="D56" s="5">
         <v>40</v>
       </c>
       <c r="E56" s="6">
-        <v>0.50608656834297683</v>
+        <v>0.5060433334477904</v>
       </c>
       <c r="F56" s="6">
-        <v>0.49391343165702317</v>
+        <v>0.4939566665522096</v>
       </c>
       <c r="G56" s="7">
-        <v>47208</v>
+        <v>47209</v>
       </c>
       <c r="H56" s="8">
-        <v>0.15959159464497544</v>
+        <v>0.15958821411171598</v>
       </c>
       <c r="I56" s="7">
-        <v>48715</v>
+        <v>48717</v>
       </c>
       <c r="J56" s="5">
-        <v>4446</v>
+        <v>4447</v>
       </c>
       <c r="K56" s="6">
-        <v>9.1265523965924258E-2</v>
+        <v>9.1282303918549995E-2</v>
       </c>
       <c r="L56" s="5">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="M56" s="10">
-        <v>1.788373008E-2</v>
+        <v>1.78999247E-2</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3541,37 +3538,37 @@
         <v>10</v>
       </c>
       <c r="C57" s="19">
-        <v>71393</v>
+        <v>71397</v>
       </c>
       <c r="D57" s="20">
         <v>39</v>
       </c>
       <c r="E57" s="21">
-        <v>0.50168705187684526</v>
+        <v>0.5016588410605336</v>
       </c>
       <c r="F57" s="21">
-        <v>0.4983129481231548</v>
+        <v>0.49834115893946634</v>
       </c>
       <c r="G57" s="19">
-        <v>57778</v>
+        <v>57779</v>
       </c>
       <c r="H57" s="22">
-        <v>0.16056284398906159</v>
+        <v>0.16054275774935531</v>
       </c>
       <c r="I57" s="19">
-        <v>58705</v>
+        <v>58699</v>
       </c>
       <c r="J57" s="32">
         <v>4919</v>
       </c>
       <c r="K57" s="21">
-        <v>8.3791840558725836E-2</v>
+        <v>8.3800405458355334E-2</v>
       </c>
       <c r="L57" s="32">
         <v>1095</v>
       </c>
       <c r="M57" s="23">
-        <v>1.533763814E-2</v>
+        <v>1.533677885E-2</v>
       </c>
     </row>
     <row r="58" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3582,37 +3579,37 @@
         <v>11</v>
       </c>
       <c r="C58" s="7">
-        <v>92653</v>
+        <v>92663</v>
       </c>
       <c r="D58" s="5">
         <v>39</v>
       </c>
       <c r="E58" s="6">
-        <v>0.50353081338676486</v>
+        <v>0.50354126055880444</v>
       </c>
       <c r="F58" s="6">
-        <v>0.49646918661323514</v>
+        <v>0.49645873944119556</v>
       </c>
       <c r="G58" s="7">
-        <v>74498</v>
+        <v>74503</v>
       </c>
       <c r="H58" s="8">
-        <v>0.15537329861204327</v>
+        <v>0.15537629357207092</v>
       </c>
       <c r="I58" s="7">
-        <v>75477</v>
+        <v>75474</v>
       </c>
       <c r="J58" s="5">
-        <v>5798</v>
+        <v>5800</v>
       </c>
       <c r="K58" s="6">
-        <v>7.6818103528227141E-2</v>
+        <v>7.6847656146487531E-2</v>
       </c>
       <c r="L58" s="5">
         <v>1276</v>
       </c>
       <c r="M58" s="10">
-        <v>1.377181526E-2</v>
+        <v>1.3770329039999999E-2</v>
       </c>
     </row>
     <row r="59" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3623,37 +3620,37 @@
         <v>12</v>
       </c>
       <c r="C59" s="19">
-        <v>116324</v>
+        <v>116341</v>
       </c>
       <c r="D59" s="20">
         <v>38</v>
       </c>
       <c r="E59" s="21">
-        <v>0.50758504047080755</v>
+        <v>0.50759249033683052</v>
       </c>
       <c r="F59" s="21">
-        <v>0.49241495952919251</v>
+        <v>0.49240750966316954</v>
       </c>
       <c r="G59" s="19">
-        <v>91848</v>
+        <v>91847</v>
       </c>
       <c r="H59" s="22">
-        <v>0.16220276979357198</v>
+        <v>0.16220453580410901</v>
       </c>
       <c r="I59" s="19">
-        <v>94291</v>
+        <v>94288</v>
       </c>
       <c r="J59" s="32">
         <v>6901</v>
       </c>
       <c r="K59" s="21">
-        <v>7.3188321260777803E-2</v>
+        <v>7.3190649923638218E-2</v>
       </c>
       <c r="L59" s="32">
         <v>1520</v>
       </c>
       <c r="M59" s="23">
-        <v>1.306695093E-2</v>
+        <v>1.306504155E-2</v>
       </c>
     </row>
     <row r="60" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3664,22 +3661,22 @@
         <v>13</v>
       </c>
       <c r="C60" s="7">
-        <v>110107</v>
+        <v>110126</v>
       </c>
       <c r="D60" s="5">
         <v>39</v>
       </c>
       <c r="E60" s="6">
-        <v>0.51137430819588425</v>
+        <v>0.51134954784130693</v>
       </c>
       <c r="F60" s="6">
-        <v>0.48862569180411575</v>
+        <v>0.48865045215869313</v>
       </c>
       <c r="G60" s="7">
-        <v>86383</v>
+        <v>86388</v>
       </c>
       <c r="H60" s="8">
-        <v>0.15702163620156745</v>
+        <v>0.15701254803907949</v>
       </c>
       <c r="I60" s="7">
         <v>89023</v>
@@ -3691,10 +3688,10 @@
         <v>7.8159576738595637E-2</v>
       </c>
       <c r="L60" s="5">
-        <v>1581</v>
+        <v>1582</v>
       </c>
       <c r="M60" s="10">
-        <v>1.435876011E-2</v>
+        <v>1.436536331E-2</v>
       </c>
     </row>
     <row r="61" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3705,37 +3702,37 @@
         <v>14</v>
       </c>
       <c r="C61" s="19">
-        <v>118255</v>
+        <v>118257</v>
       </c>
       <c r="D61" s="20">
         <v>39</v>
       </c>
       <c r="E61" s="21">
-        <v>0.50713181980268629</v>
+        <v>0.50714867893771653</v>
       </c>
       <c r="F61" s="21">
-        <v>0.49286818019731365</v>
+        <v>0.49285132106228352</v>
       </c>
       <c r="G61" s="19">
-        <v>94358</v>
+        <v>94363</v>
       </c>
       <c r="H61" s="22">
-        <v>0.14060281057250049</v>
+        <v>0.14060595784364635</v>
       </c>
       <c r="I61" s="19">
-        <v>95110</v>
+        <v>95111</v>
       </c>
       <c r="J61" s="32">
         <v>7616</v>
       </c>
       <c r="K61" s="21">
-        <v>8.0075701818946479E-2</v>
+        <v>8.0074859900537268E-2</v>
       </c>
       <c r="L61" s="32">
-        <v>1578</v>
+        <v>1579</v>
       </c>
       <c r="M61" s="23">
-        <v>1.334404464E-2</v>
+        <v>1.335227512E-2</v>
       </c>
     </row>
     <row r="62" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3746,37 +3743,37 @@
         <v>15</v>
       </c>
       <c r="C62" s="7">
-        <v>142079</v>
+        <v>142078</v>
       </c>
       <c r="D62" s="5">
         <v>38</v>
       </c>
       <c r="E62" s="6">
-        <v>0.50961253021585784</v>
+        <v>0.50959492794085426</v>
       </c>
       <c r="F62" s="6">
-        <v>0.49038746978414216</v>
+        <v>0.49040507205914574</v>
       </c>
       <c r="G62" s="7">
-        <v>111843</v>
+        <v>111847</v>
       </c>
       <c r="H62" s="8">
-        <v>0.16123494541455433</v>
+        <v>0.1612202383613329</v>
       </c>
       <c r="I62" s="7">
-        <v>114731</v>
+        <v>114733</v>
       </c>
       <c r="J62" s="9">
-        <v>7849</v>
+        <v>7850</v>
       </c>
       <c r="K62" s="6">
-        <v>6.8412198969764054E-2</v>
+        <v>6.8419722311802184E-2</v>
       </c>
       <c r="L62" s="9">
-        <v>1616</v>
+        <v>1617</v>
       </c>
       <c r="M62" s="10">
-        <v>1.1373953920000001E-2</v>
+        <v>1.1381072359999999E-2</v>
       </c>
     </row>
     <row r="63" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3787,37 +3784,37 @@
         <v>16</v>
       </c>
       <c r="C63" s="19">
-        <v>144791</v>
+        <v>144796</v>
       </c>
       <c r="D63" s="20">
         <v>37</v>
       </c>
       <c r="E63" s="21">
-        <v>0.51856785087445456</v>
+        <v>0.51857067539819079</v>
       </c>
       <c r="F63" s="21">
-        <v>0.48143214912554544</v>
+        <v>0.48142932460180921</v>
       </c>
       <c r="G63" s="19">
-        <v>113786</v>
+        <v>113797</v>
       </c>
       <c r="H63" s="22">
-        <v>0.1730880776193908</v>
+        <v>0.17308892150056679</v>
       </c>
       <c r="I63" s="19">
-        <v>116955</v>
+        <v>116958</v>
       </c>
       <c r="J63" s="32">
-        <v>8024</v>
+        <v>8023</v>
       </c>
       <c r="K63" s="21">
-        <v>6.8607584113547948E-2</v>
+        <v>6.8597274235195543E-2</v>
       </c>
       <c r="L63" s="32">
         <v>1608</v>
       </c>
       <c r="M63" s="23">
-        <v>1.110566264E-2</v>
+        <v>1.1105279149999999E-2</v>
       </c>
     </row>
     <row r="64" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3828,37 +3825,37 @@
         <v>17</v>
       </c>
       <c r="C64" s="7">
-        <v>124813</v>
+        <v>124816</v>
       </c>
       <c r="D64" s="5">
         <v>37</v>
       </c>
       <c r="E64" s="6">
-        <v>0.51957816776686527</v>
+        <v>0.51956561989325645</v>
       </c>
       <c r="F64" s="6">
-        <v>0.48042183223313478</v>
+        <v>0.4804343801067435</v>
       </c>
       <c r="G64" s="7">
-        <v>99082</v>
+        <v>99092</v>
       </c>
       <c r="H64" s="8">
-        <v>0.17463313215316606</v>
+        <v>0.17464578371614256</v>
       </c>
       <c r="I64" s="7">
-        <v>100373</v>
+        <v>100382</v>
       </c>
       <c r="J64" s="5">
         <v>6777</v>
       </c>
       <c r="K64" s="6">
-        <v>6.7518157273370322E-2</v>
+        <v>6.751210376362296E-2</v>
       </c>
       <c r="L64" s="5">
-        <v>1294</v>
+        <v>1296</v>
       </c>
       <c r="M64" s="10">
-        <v>1.036750979E-2</v>
+        <v>1.038328419E-2</v>
       </c>
     </row>
     <row r="65" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3869,37 +3866,37 @@
         <v>18</v>
       </c>
       <c r="C65" s="19">
-        <v>100981</v>
+        <v>100982</v>
       </c>
       <c r="D65" s="20">
         <v>37</v>
       </c>
       <c r="E65" s="21">
-        <v>0.51234095046707584</v>
+        <v>0.51234580183048151</v>
       </c>
       <c r="F65" s="21">
-        <v>0.4876590495329241</v>
+        <v>0.48765419816951849</v>
       </c>
       <c r="G65" s="19">
-        <v>81635</v>
+        <v>81638</v>
       </c>
       <c r="H65" s="22">
-        <v>0.17053959698658663</v>
+        <v>0.17054557926455818</v>
       </c>
       <c r="I65" s="19">
-        <v>82330</v>
+        <v>82327</v>
       </c>
       <c r="J65" s="32">
-        <v>5530</v>
+        <v>5529</v>
       </c>
       <c r="K65" s="21">
-        <v>6.7168711283857652E-2</v>
+        <v>6.7159012231710127E-2</v>
       </c>
       <c r="L65" s="32">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="M65" s="23">
-        <v>9.9325615699999998E-3</v>
+        <v>9.9522687200000008E-3</v>
       </c>
     </row>
     <row r="66" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3910,37 +3907,37 @@
         <v>19</v>
       </c>
       <c r="C66" s="7">
-        <v>70811</v>
+        <v>70812</v>
       </c>
       <c r="D66" s="5">
         <v>37</v>
       </c>
       <c r="E66" s="6">
-        <v>0.51044992125313926</v>
+        <v>0.51045686719636774</v>
       </c>
       <c r="F66" s="6">
-        <v>0.48955007874686074</v>
+        <v>0.48954313280363221</v>
       </c>
       <c r="G66" s="7">
-        <v>57422</v>
+        <v>57424</v>
       </c>
       <c r="H66" s="8">
-        <v>0.17454982410922643</v>
+        <v>0.17456115909724157</v>
       </c>
       <c r="I66" s="7">
-        <v>58127</v>
+        <v>58128</v>
       </c>
       <c r="J66" s="9">
         <v>4065</v>
       </c>
       <c r="K66" s="6">
-        <v>6.9933077571524421E-2</v>
+        <v>6.9931874483897608E-2</v>
       </c>
       <c r="L66" s="9">
         <v>665</v>
       </c>
       <c r="M66" s="10">
-        <v>9.3911962799999998E-3</v>
+        <v>9.3910636600000007E-3</v>
       </c>
     </row>
     <row r="67" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3951,22 +3948,22 @@
         <v>20</v>
       </c>
       <c r="C67" s="19">
-        <v>52700</v>
+        <v>52703</v>
       </c>
       <c r="D67" s="20">
         <v>36</v>
       </c>
       <c r="E67" s="21">
-        <v>0.50612882932687731</v>
+        <v>0.50611894776972932</v>
       </c>
       <c r="F67" s="21">
-        <v>0.49387117067312275</v>
+        <v>0.49388105223027068</v>
       </c>
       <c r="G67" s="19">
         <v>42846</v>
       </c>
       <c r="H67" s="22">
-        <v>0.18046025299911311</v>
+        <v>0.18043691359753536</v>
       </c>
       <c r="I67" s="19">
         <v>43593</v>
@@ -3978,10 +3975,10 @@
         <v>6.4092858945243497E-2</v>
       </c>
       <c r="L67" s="32">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="M67" s="23">
-        <v>8.3681214399999992E-3</v>
+        <v>8.4055936000000005E-3</v>
       </c>
     </row>
     <row r="68" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4004,19 +4001,19 @@
         <v>0.4847048541078392</v>
       </c>
       <c r="G68" s="7">
-        <v>24297</v>
+        <v>24299</v>
       </c>
       <c r="H68" s="8">
-        <v>0.1866485574350743</v>
+        <v>0.18663319478167825</v>
       </c>
       <c r="I68" s="7">
-        <v>24648</v>
+        <v>24647</v>
       </c>
       <c r="J68" s="5">
         <v>1721</v>
       </c>
       <c r="K68" s="6">
-        <v>6.9823109380071399E-2</v>
+        <v>6.9825942305351565E-2</v>
       </c>
       <c r="L68" s="5">
         <v>259</v>
@@ -4039,16 +4036,16 @@
         <v>34</v>
       </c>
       <c r="E69" s="21">
-        <v>0.50870978698626812</v>
+        <v>0.50875830947644229</v>
       </c>
       <c r="F69" s="21">
-        <v>0.49129021301373188</v>
+        <v>0.49124169052355765</v>
       </c>
       <c r="G69" s="19">
-        <v>16663</v>
+        <v>16662</v>
       </c>
       <c r="H69" s="22">
-        <v>0.20020404488987578</v>
+        <v>0.20015604369223383</v>
       </c>
       <c r="I69" s="19">
         <v>17103</v>
@@ -4074,16 +4071,16 @@
         <v>23</v>
       </c>
       <c r="C70" s="27">
-        <v>14058</v>
+        <v>14060</v>
       </c>
       <c r="D70" s="28">
         <v>33</v>
       </c>
       <c r="E70" s="29">
-        <v>0.51040698090265357</v>
+        <v>0.51040549238360866</v>
       </c>
       <c r="F70" s="29">
-        <v>0.48959301909734637</v>
+        <v>0.48959450761639134</v>
       </c>
       <c r="G70" s="27">
         <v>11356</v>
@@ -4092,19 +4089,19 @@
         <v>0.22234941880943995</v>
       </c>
       <c r="I70" s="27">
-        <v>11856</v>
+        <v>11858</v>
       </c>
       <c r="J70" s="33">
         <v>812</v>
       </c>
       <c r="K70" s="29">
-        <v>6.8488529014844798E-2</v>
+        <v>6.8476977567886663E-2</v>
       </c>
       <c r="L70" s="33">
         <v>66</v>
       </c>
       <c r="M70" s="31">
-        <v>4.6948356800000004E-3</v>
+        <v>4.69416785E-3</v>
       </c>
     </row>
     <row r="71" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4127,10 +4124,10 @@
         <v>0.48515398425631817</v>
       </c>
       <c r="G71" s="19">
-        <v>5849</v>
+        <v>5850</v>
       </c>
       <c r="H71" s="22">
-        <v>0.22567960335100018</v>
+        <v>0.2258119658119658</v>
       </c>
       <c r="I71" s="19">
         <v>6146</v>
@@ -4156,16 +4153,16 @@
         <v>25</v>
       </c>
       <c r="C72" s="27">
-        <v>4845</v>
+        <v>4847</v>
       </c>
       <c r="D72" s="28">
         <v>32</v>
       </c>
       <c r="E72" s="29">
-        <v>0.5357216815075585</v>
+        <v>0.53549989650175944</v>
       </c>
       <c r="F72" s="29">
-        <v>0.4642783184924415</v>
+        <v>0.46450010349824056</v>
       </c>
       <c r="G72" s="27">
         <v>3946</v>
@@ -4186,7 +4183,7 @@
         <v>30</v>
       </c>
       <c r="M72" s="31">
-        <v>6.1919504599999998E-3</v>
+        <v>6.1893955E-3</v>
       </c>
     </row>
     <row r="73" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4197,16 +4194,16 @@
         <v>26</v>
       </c>
       <c r="C73" s="19">
-        <v>4377</v>
+        <v>4378</v>
       </c>
       <c r="D73" s="20">
         <v>32</v>
       </c>
       <c r="E73" s="21">
-        <v>0.53253895508707605</v>
+        <v>0.53241695303550973</v>
       </c>
       <c r="F73" s="21">
-        <v>0.4674610449129239</v>
+        <v>0.46758304696449027</v>
       </c>
       <c r="G73" s="19">
         <v>3668</v>
@@ -4227,7 +4224,7 @@
         <v>24</v>
       </c>
       <c r="M73" s="23">
-        <v>5.4832076700000003E-3</v>
+        <v>5.4819552300000001E-3</v>
       </c>
     </row>
     <row r="74" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4238,16 +4235,16 @@
         <v>27</v>
       </c>
       <c r="C74" s="27">
-        <v>5582</v>
+        <v>5583</v>
       </c>
       <c r="D74" s="28">
         <v>32</v>
       </c>
       <c r="E74" s="29">
-        <v>0.53441150044923624</v>
+        <v>0.5343154868846568</v>
       </c>
       <c r="F74" s="29">
-        <v>0.4655884995507637</v>
+        <v>0.46568451311534315</v>
       </c>
       <c r="G74" s="27">
         <v>4781</v>
@@ -4268,7 +4265,7 @@
         <v>25</v>
       </c>
       <c r="M74" s="31">
-        <v>4.4786814699999998E-3</v>
+        <v>4.4778792700000004E-3</v>
       </c>
     </row>
     <row r="75" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4279,37 +4276,37 @@
         <v>28</v>
       </c>
       <c r="C75" s="19">
-        <v>9108</v>
+        <v>9109</v>
       </c>
       <c r="D75" s="20">
         <v>30</v>
       </c>
       <c r="E75" s="21">
-        <v>0.5367979697671853</v>
+        <v>0.53684907325684028</v>
       </c>
       <c r="F75" s="21">
-        <v>0.46320203023281475</v>
+        <v>0.46315092674315977</v>
       </c>
       <c r="G75" s="19">
-        <v>7965</v>
+        <v>7964</v>
       </c>
       <c r="H75" s="22">
-        <v>0.12542372881355932</v>
+        <v>0.1254394776494224</v>
       </c>
       <c r="I75" s="19">
-        <v>7613</v>
+        <v>7614</v>
       </c>
       <c r="J75" s="32">
         <v>413</v>
       </c>
       <c r="K75" s="21">
-        <v>5.4249310390122159E-2</v>
+        <v>5.4242185447859206E-2</v>
       </c>
       <c r="L75" s="32">
         <v>29</v>
       </c>
       <c r="M75" s="23">
-        <v>3.18401405E-3</v>
+        <v>3.1836644999999998E-3</v>
       </c>
     </row>
     <row r="76" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4320,16 +4317,16 @@
         <v>29</v>
       </c>
       <c r="C76" s="27">
-        <v>12639</v>
+        <v>12638</v>
       </c>
       <c r="D76" s="28">
         <v>30</v>
       </c>
       <c r="E76" s="29">
-        <v>0.52198412698412699</v>
+        <v>0.52194618620525435</v>
       </c>
       <c r="F76" s="29">
-        <v>0.47801587301587301</v>
+        <v>0.4780538137947456</v>
       </c>
       <c r="G76" s="27">
         <v>11123</v>
@@ -4338,19 +4335,19 @@
         <v>0.1212802301537355</v>
       </c>
       <c r="I76" s="27">
-        <v>10382</v>
+        <v>10381</v>
       </c>
       <c r="J76" s="33">
         <v>586</v>
       </c>
       <c r="K76" s="29">
-        <v>5.6443845116547868E-2</v>
+        <v>5.6449282342741547E-2</v>
       </c>
       <c r="L76" s="33">
         <v>40</v>
       </c>
       <c r="M76" s="31">
-        <v>3.1648073399999999E-3</v>
+        <v>3.1650577600000002E-3</v>
       </c>
     </row>
     <row r="77" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4361,16 +4358,16 @@
         <v>30</v>
       </c>
       <c r="C77" s="19">
-        <v>15512</v>
+        <v>15513</v>
       </c>
       <c r="D77" s="20">
         <v>31</v>
       </c>
       <c r="E77" s="21">
-        <v>0.52019156096298214</v>
+        <v>0.52022261049634377</v>
       </c>
       <c r="F77" s="21">
-        <v>0.47980843903701786</v>
+        <v>0.47977738950365623</v>
       </c>
       <c r="G77" s="19">
         <v>13658</v>
@@ -4391,7 +4388,7 @@
         <v>70</v>
       </c>
       <c r="M77" s="23">
-        <v>4.5126353700000003E-3</v>
+        <v>4.5123444800000004E-3</v>
       </c>
     </row>
     <row r="78" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4402,37 +4399,37 @@
         <v>31</v>
       </c>
       <c r="C78" s="27">
-        <v>20417</v>
+        <v>20420</v>
       </c>
       <c r="D78" s="28">
         <v>30</v>
       </c>
       <c r="E78" s="29">
-        <v>0.51536910441154771</v>
+        <v>0.51534225019669555</v>
       </c>
       <c r="F78" s="29">
-        <v>0.48463089558845229</v>
+        <v>0.48465774980330451</v>
       </c>
       <c r="G78" s="27">
-        <v>17735</v>
+        <v>17736</v>
       </c>
       <c r="H78" s="30">
-        <v>0.12568367634620806</v>
+        <v>0.12567658998646819</v>
       </c>
       <c r="I78" s="27">
-        <v>16162</v>
+        <v>16164</v>
       </c>
       <c r="J78" s="33">
         <v>1011</v>
       </c>
       <c r="K78" s="29">
-        <v>6.2554139339190698E-2</v>
+        <v>6.2546399406087597E-2</v>
       </c>
       <c r="L78" s="33">
         <v>88</v>
       </c>
       <c r="M78" s="31">
-        <v>4.3101337099999996E-3</v>
+        <v>4.3095004799999998E-3</v>
       </c>
     </row>
     <row r="79" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4443,22 +4440,22 @@
         <v>32</v>
       </c>
       <c r="C79" s="19">
-        <v>32070</v>
+        <v>32071</v>
       </c>
       <c r="D79" s="20">
         <v>30</v>
       </c>
       <c r="E79" s="21">
-        <v>0.51116260137145009</v>
+        <v>0.51117790719519063</v>
       </c>
       <c r="F79" s="21">
-        <v>0.48883739862854997</v>
+        <v>0.48882209280480932</v>
       </c>
       <c r="G79" s="19">
-        <v>27486</v>
+        <v>27487</v>
       </c>
       <c r="H79" s="22">
-        <v>0.12329913410463508</v>
+        <v>0.12329464837923382</v>
       </c>
       <c r="I79" s="19">
         <v>24872</v>
@@ -4473,7 +4470,7 @@
         <v>144</v>
       </c>
       <c r="M79" s="23">
-        <v>4.4901777300000003E-3</v>
+        <v>4.4900377200000003E-3</v>
       </c>
     </row>
     <row r="80" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4484,37 +4481,37 @@
         <v>33</v>
       </c>
       <c r="C80" s="27">
-        <v>49646</v>
+        <v>49647</v>
       </c>
       <c r="D80" s="28">
         <v>29</v>
       </c>
       <c r="E80" s="29">
-        <v>0.51002412276256315</v>
+        <v>0.51001378415632859</v>
       </c>
       <c r="F80" s="29">
-        <v>0.48997587723743691</v>
+        <v>0.48998621584367147</v>
       </c>
       <c r="G80" s="27">
-        <v>41107</v>
+        <v>41108</v>
       </c>
       <c r="H80" s="30">
-        <v>0.14924465419514923</v>
+        <v>0.14924102364503258</v>
       </c>
       <c r="I80" s="27">
-        <v>38369</v>
+        <v>38370</v>
       </c>
       <c r="J80" s="33">
         <v>2354</v>
       </c>
       <c r="K80" s="29">
-        <v>6.1351611978420081E-2</v>
+        <v>6.1350013031013811E-2</v>
       </c>
       <c r="L80" s="33">
         <v>222</v>
       </c>
       <c r="M80" s="31">
-        <v>4.4716593399999997E-3</v>
+        <v>4.4715692699999997E-3</v>
       </c>
     </row>
     <row r="81" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4525,37 +4522,37 @@
         <v>34</v>
       </c>
       <c r="C81" s="19">
-        <v>66382</v>
+        <v>66381</v>
       </c>
       <c r="D81" s="20">
         <v>29</v>
       </c>
       <c r="E81" s="21">
-        <v>0.5095212806312116</v>
+        <v>0.50946831755280408</v>
       </c>
       <c r="F81" s="21">
-        <v>0.4904787193687884</v>
+        <v>0.49053168244719592</v>
       </c>
       <c r="G81" s="19">
-        <v>53351</v>
+        <v>53350</v>
       </c>
       <c r="H81" s="22">
-        <v>0.15806639050814417</v>
+        <v>0.15803186504217431</v>
       </c>
       <c r="I81" s="19">
-        <v>50868</v>
+        <v>50867</v>
       </c>
       <c r="J81" s="32">
         <v>3189</v>
       </c>
       <c r="K81" s="21">
-        <v>6.2691672564284026E-2</v>
+        <v>6.269290502683468E-2</v>
       </c>
       <c r="L81" s="32">
         <v>346</v>
       </c>
       <c r="M81" s="23">
-        <v>5.2122563299999997E-3</v>
+        <v>5.21233485E-3</v>
       </c>
     </row>
     <row r="82" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4566,16 +4563,16 @@
         <v>35</v>
       </c>
       <c r="C82" s="27">
-        <v>74749</v>
+        <v>74748</v>
       </c>
       <c r="D82" s="28">
         <v>30</v>
       </c>
       <c r="E82" s="29">
-        <v>0.50159856466430142</v>
+        <v>0.50160533131879992</v>
       </c>
       <c r="F82" s="29">
-        <v>0.49840143533569858</v>
+        <v>0.49839466868120008</v>
       </c>
       <c r="G82" s="27">
         <v>58453</v>
@@ -4584,19 +4581,19 @@
         <v>0.1644911296255111</v>
       </c>
       <c r="I82" s="27">
-        <v>56303</v>
+        <v>56301</v>
       </c>
       <c r="J82" s="33">
         <v>3265</v>
       </c>
       <c r="K82" s="29">
-        <v>5.7989805161359077E-2</v>
+        <v>5.7991865153372055E-2</v>
       </c>
       <c r="L82" s="33">
         <v>427</v>
       </c>
       <c r="M82" s="31">
-        <v>5.7124510000000003E-3</v>
+        <v>5.7125274200000003E-3</v>
       </c>
     </row>
     <row r="83" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4607,22 +4604,22 @@
         <v>36</v>
       </c>
       <c r="C83" s="19">
-        <v>71675</v>
+        <v>71676</v>
       </c>
       <c r="D83" s="20">
         <v>30</v>
       </c>
       <c r="E83" s="21">
-        <v>0.50229721945119643</v>
+        <v>0.50229715489989457</v>
       </c>
       <c r="F83" s="21">
-        <v>0.49770278054880362</v>
+        <v>0.49770284510010537</v>
       </c>
       <c r="G83" s="19">
-        <v>56371</v>
+        <v>56374</v>
       </c>
       <c r="H83" s="22">
-        <v>0.15284454772844194</v>
+        <v>0.15283641394969313</v>
       </c>
       <c r="I83" s="19">
         <v>53947</v>
@@ -4637,7 +4634,7 @@
         <v>445</v>
       </c>
       <c r="M83" s="23">
-        <v>6.2085803900000002E-3</v>
+        <v>6.2084937700000002E-3</v>
       </c>
     </row>
     <row r="84" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4654,16 +4651,16 @@
         <v>31</v>
       </c>
       <c r="E84" s="29">
-        <v>0.50606710662059706</v>
+        <v>0.50608348207706289</v>
       </c>
       <c r="F84" s="29">
-        <v>0.49393289337940294</v>
+        <v>0.49391651792293711</v>
       </c>
       <c r="G84" s="27">
-        <v>49186</v>
+        <v>49187</v>
       </c>
       <c r="H84" s="30">
-        <v>0.15368194201602081</v>
+        <v>0.15367881757374915</v>
       </c>
       <c r="I84" s="27">
         <v>46617</v>
@@ -4689,16 +4686,16 @@
         <v>38</v>
       </c>
       <c r="C85" s="19">
-        <v>53610</v>
+        <v>53609</v>
       </c>
       <c r="D85" s="20">
         <v>31</v>
       </c>
       <c r="E85" s="21">
-        <v>0.49595403938944482</v>
+        <v>0.49594457587022645</v>
       </c>
       <c r="F85" s="21">
-        <v>0.50404596061055518</v>
+        <v>0.50405542412977355</v>
       </c>
       <c r="G85" s="19">
         <v>43000</v>
@@ -4707,19 +4704,19 @@
         <v>0.14583720930232558</v>
       </c>
       <c r="I85" s="19">
-        <v>40700</v>
+        <v>40698</v>
       </c>
       <c r="J85" s="32">
         <v>2470</v>
       </c>
       <c r="K85" s="21">
-        <v>6.0687960687960688E-2</v>
+        <v>6.069094304388422E-2</v>
       </c>
       <c r="L85" s="32">
         <v>350</v>
       </c>
       <c r="M85" s="23">
-        <v>6.5286327100000001E-3</v>
+        <v>6.5287545000000001E-3</v>
       </c>
     </row>
     <row r="86" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4730,37 +4727,37 @@
         <v>39</v>
       </c>
       <c r="C86" s="27">
-        <v>56490</v>
+        <v>56488</v>
       </c>
       <c r="D86" s="28">
         <v>32</v>
       </c>
       <c r="E86" s="29">
-        <v>0.49969730422705744</v>
+        <v>0.49969729344729347</v>
       </c>
       <c r="F86" s="29">
-        <v>0.50030269577294251</v>
+        <v>0.50030270655270659</v>
       </c>
       <c r="G86" s="27">
-        <v>46287</v>
+        <v>46290</v>
       </c>
       <c r="H86" s="30">
-        <v>0.12763842979670317</v>
+        <v>0.12763015770144739</v>
       </c>
       <c r="I86" s="27">
-        <v>43423</v>
+        <v>43426</v>
       </c>
       <c r="J86" s="33">
-        <v>2541</v>
+        <v>2542</v>
       </c>
       <c r="K86" s="29">
-        <v>5.8517375584367731E-2</v>
+        <v>5.8536360705568093E-2</v>
       </c>
       <c r="L86" s="33">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="M86" s="31">
-        <v>7.3818374900000002E-3</v>
+        <v>7.3998017199999998E-3</v>
       </c>
     </row>
     <row r="87" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4771,37 +4768,37 @@
         <v>40</v>
       </c>
       <c r="C87" s="19">
-        <v>58006</v>
+        <v>58008</v>
       </c>
       <c r="D87" s="20">
         <v>34</v>
       </c>
       <c r="E87" s="21">
-        <v>0.49859701389129457</v>
+        <v>0.49862306666435735</v>
       </c>
       <c r="F87" s="21">
-        <v>0.50140298610870548</v>
+        <v>0.5013769333356427</v>
       </c>
       <c r="G87" s="19">
-        <v>48389</v>
+        <v>48395</v>
       </c>
       <c r="H87" s="22">
-        <v>0.12354047407468639</v>
+        <v>0.12356648414092365</v>
       </c>
       <c r="I87" s="19">
-        <v>44501</v>
+        <v>44503</v>
       </c>
       <c r="J87" s="32">
         <v>2613</v>
       </c>
       <c r="K87" s="21">
-        <v>5.8717781622884879E-2</v>
+        <v>5.8715142799361839E-2</v>
       </c>
       <c r="L87" s="32">
         <v>482</v>
       </c>
       <c r="M87" s="23">
-        <v>8.3094852199999993E-3</v>
+        <v>8.30919873E-3</v>
       </c>
     </row>
     <row r="88" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4818,25 +4815,25 @@
         <v>34</v>
       </c>
       <c r="E88" s="29">
-        <v>0.49201592204957967</v>
+        <v>0.49203909755947622</v>
       </c>
       <c r="F88" s="29">
-        <v>0.50798407795042033</v>
+        <v>0.50796090244052372</v>
       </c>
       <c r="G88" s="27">
-        <v>54132</v>
+        <v>54135</v>
       </c>
       <c r="H88" s="30">
-        <v>0.10583388753417572</v>
+        <v>0.10582802253625197</v>
       </c>
       <c r="I88" s="27">
-        <v>49694</v>
+        <v>49695</v>
       </c>
       <c r="J88" s="33">
-        <v>3056</v>
+        <v>3057</v>
       </c>
       <c r="K88" s="29">
-        <v>6.1496357709180181E-2</v>
+        <v>6.1515242982191368E-2</v>
       </c>
       <c r="L88" s="33">
         <v>572</v>
@@ -4853,37 +4850,37 @@
         <v>42</v>
       </c>
       <c r="C89" s="19">
-        <v>97726</v>
+        <v>97723</v>
       </c>
       <c r="D89" s="20">
         <v>36</v>
       </c>
       <c r="E89" s="21">
-        <v>0.49425381964092802</v>
+        <v>0.49425878673141821</v>
       </c>
       <c r="F89" s="21">
-        <v>0.50574618035907193</v>
+        <v>0.50574121326858179</v>
       </c>
       <c r="G89" s="19">
-        <v>80279</v>
+        <v>80280</v>
       </c>
       <c r="H89" s="22">
-        <v>0.1004621382927042</v>
+        <v>0.10046088689586448</v>
       </c>
       <c r="I89" s="19">
-        <v>72857</v>
+        <v>72856</v>
       </c>
       <c r="J89" s="32">
         <v>4727</v>
       </c>
       <c r="K89" s="21">
-        <v>6.4880519373567397E-2</v>
+        <v>6.4881409904469084E-2</v>
       </c>
       <c r="L89" s="32">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="M89" s="23">
-        <v>1.054990483E-2</v>
+        <v>1.056046171E-2</v>
       </c>
     </row>
     <row r="90" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4894,37 +4891,37 @@
         <v>43</v>
       </c>
       <c r="C90" s="27">
-        <v>137032</v>
+        <v>137033</v>
       </c>
       <c r="D90" s="28">
         <v>36</v>
       </c>
       <c r="E90" s="29">
-        <v>0.49021579565472695</v>
+        <v>0.49022327916501518</v>
       </c>
       <c r="F90" s="29">
-        <v>0.50978420434527305</v>
+        <v>0.50977672083498482</v>
       </c>
       <c r="G90" s="27">
-        <v>109215</v>
+        <v>109224</v>
       </c>
       <c r="H90" s="30">
-        <v>0.10869386073341573</v>
+        <v>0.1086940599135721</v>
       </c>
       <c r="I90" s="27">
-        <v>99364</v>
+        <v>99371</v>
       </c>
       <c r="J90" s="33">
-        <v>5897</v>
+        <v>5899</v>
       </c>
       <c r="K90" s="29">
-        <v>5.9347449780604647E-2</v>
+        <v>5.9363395759326164E-2</v>
       </c>
       <c r="L90" s="33">
         <v>1262</v>
       </c>
       <c r="M90" s="31">
-        <v>9.2095276999999993E-3</v>
+        <v>9.2094604899999998E-3</v>
       </c>
     </row>
     <row r="91" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4935,37 +4932,37 @@
         <v>44</v>
       </c>
       <c r="C91" s="19">
-        <v>177882</v>
+        <v>177889</v>
       </c>
       <c r="D91" s="20">
         <v>37</v>
       </c>
       <c r="E91" s="21">
-        <v>0.49176463938503279</v>
+        <v>0.49175092833848605</v>
       </c>
       <c r="F91" s="21">
-        <v>0.50823536061496721</v>
+        <v>0.5082490716615139</v>
       </c>
       <c r="G91" s="19">
-        <v>129628</v>
+        <v>129648</v>
       </c>
       <c r="H91" s="22">
-        <v>0.10388187737217268</v>
+        <v>0.10385813896087868</v>
       </c>
       <c r="I91" s="19">
-        <v>119016</v>
+        <v>119054</v>
       </c>
       <c r="J91" s="32">
-        <v>6993</v>
+        <v>6996</v>
       </c>
       <c r="K91" s="21">
-        <v>5.8756805807622506E-2</v>
+        <v>5.876325028978447E-2</v>
       </c>
       <c r="L91" s="32">
         <v>1650</v>
       </c>
       <c r="M91" s="23">
-        <v>9.2758120500000003E-3</v>
+        <v>9.2754470400000007E-3</v>
       </c>
     </row>
     <row r="92" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4976,37 +4973,37 @@
         <v>45</v>
       </c>
       <c r="C92" s="27">
-        <v>271300</v>
+        <v>271299</v>
       </c>
       <c r="D92" s="28">
         <v>36</v>
       </c>
       <c r="E92" s="29">
-        <v>0.49217602279303746</v>
+        <v>0.49218715220584963</v>
       </c>
       <c r="F92" s="29">
-        <v>0.5078239772069626</v>
+        <v>0.50781284779415037</v>
       </c>
       <c r="G92" s="27">
-        <v>171782</v>
+        <v>171815</v>
       </c>
       <c r="H92" s="30">
-        <v>0.10940610774120688</v>
+        <v>0.10941419550097489</v>
       </c>
       <c r="I92" s="27">
-        <v>168046</v>
+        <v>168060</v>
       </c>
       <c r="J92" s="33">
-        <v>8731</v>
+        <v>8729</v>
       </c>
       <c r="K92" s="29">
-        <v>5.1956012044321195E-2</v>
+        <v>5.1939783410686662E-2</v>
       </c>
       <c r="L92" s="33">
-        <v>2242</v>
+        <v>2247</v>
       </c>
       <c r="M92" s="31">
-        <v>8.2639144800000005E-3</v>
+        <v>8.2823747899999998E-3</v>
       </c>
     </row>
     <row r="93" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5023,31 +5020,31 @@
         <v>36</v>
       </c>
       <c r="E93" s="21">
-        <v>0.49345204514408936</v>
+        <v>0.49345781010610118</v>
       </c>
       <c r="F93" s="21">
-        <v>0.50654795485591064</v>
+        <v>0.50654218989389888</v>
       </c>
       <c r="G93" s="19">
-        <v>198105</v>
+        <v>198748</v>
       </c>
       <c r="H93" s="22">
-        <v>0.11623633931500972</v>
+        <v>0.11605651377623925</v>
       </c>
       <c r="I93" s="19">
-        <v>204221</v>
+        <v>204326</v>
       </c>
       <c r="J93" s="32">
-        <v>10294</v>
+        <v>10296</v>
       </c>
       <c r="K93" s="21">
-        <v>5.0406177621302416E-2</v>
+        <v>5.0390062938637278E-2</v>
       </c>
       <c r="L93" s="32">
-        <v>2647</v>
+        <v>2657</v>
       </c>
       <c r="M93" s="23">
-        <v>7.5258300499999996E-3</v>
+        <v>7.5542615999999998E-3</v>
       </c>
     </row>
     <row r="94" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5058,37 +5055,37 @@
         <v>47</v>
       </c>
       <c r="C94" s="27">
-        <v>403326</v>
+        <v>403327</v>
       </c>
       <c r="D94" s="28">
         <v>36</v>
       </c>
       <c r="E94" s="29">
-        <v>0.49353954189932975</v>
+        <v>0.49354336843629898</v>
       </c>
       <c r="F94" s="29">
-        <v>0.50646045810067031</v>
+        <v>0.50645663156370102</v>
       </c>
       <c r="G94" s="27">
-        <v>207012</v>
+        <v>207462</v>
       </c>
       <c r="H94" s="30">
-        <v>0.11963557668154504</v>
+        <v>0.11963636714193443</v>
       </c>
       <c r="I94" s="27">
-        <v>219100</v>
+        <v>219222</v>
       </c>
       <c r="J94" s="33">
-        <v>10886</v>
+        <v>10887</v>
       </c>
       <c r="K94" s="29">
-        <v>4.9685075308078502E-2</v>
+        <v>4.9661986479459179E-2</v>
       </c>
       <c r="L94" s="33">
-        <v>3023</v>
+        <v>3027</v>
       </c>
       <c r="M94" s="31">
-        <v>7.4951775899999998E-3</v>
+        <v>7.5050765199999999E-3</v>
       </c>
     </row>
     <row r="95" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5099,37 +5096,37 @@
         <v>48</v>
       </c>
       <c r="C95" s="19">
-        <v>388265</v>
+        <v>388263</v>
       </c>
       <c r="D95" s="20">
         <v>36</v>
       </c>
       <c r="E95" s="21">
-        <v>0.49570264480556869</v>
+        <v>0.49570913957161417</v>
       </c>
       <c r="F95" s="21">
-        <v>0.50429735519443131</v>
+        <v>0.50429086042838578</v>
       </c>
       <c r="G95" s="19">
-        <v>188826</v>
+        <v>189453</v>
       </c>
       <c r="H95" s="22">
-        <v>0.12514696069397221</v>
+        <v>0.12492280407277795</v>
       </c>
       <c r="I95" s="19">
-        <v>206901</v>
+        <v>207020</v>
       </c>
       <c r="J95" s="32">
-        <v>10480</v>
+        <v>10490</v>
       </c>
       <c r="K95" s="21">
-        <v>5.0652244310080669E-2</v>
+        <v>5.0671432711815283E-2</v>
       </c>
       <c r="L95" s="32">
-        <v>2794</v>
+        <v>2797</v>
       </c>
       <c r="M95" s="23">
-        <v>7.1961160499999996E-3</v>
+        <v>7.20387984E-3</v>
       </c>
     </row>
     <row r="96" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5140,37 +5137,37 @@
         <v>49</v>
       </c>
       <c r="C96" s="27">
-        <v>338200</v>
+        <v>338202</v>
       </c>
       <c r="D96" s="28">
         <v>35</v>
       </c>
       <c r="E96" s="29">
-        <v>0.49206216826416149</v>
+        <v>0.49207299457038101</v>
       </c>
       <c r="F96" s="29">
-        <v>0.50793783173583851</v>
+        <v>0.50792700542961899</v>
       </c>
       <c r="G96" s="27">
-        <v>165849</v>
+        <v>167000</v>
       </c>
       <c r="H96" s="30">
-        <v>0.13201767873185849</v>
+        <v>0.13164071856287426</v>
       </c>
       <c r="I96" s="27">
-        <v>183180</v>
+        <v>183669</v>
       </c>
       <c r="J96" s="33">
-        <v>9626</v>
+        <v>9655</v>
       </c>
       <c r="K96" s="29">
-        <v>5.2549404956873019E-2</v>
+        <v>5.2567390250940552E-2</v>
       </c>
       <c r="L96" s="33">
-        <v>2445</v>
+        <v>2453</v>
       </c>
       <c r="M96" s="31">
-        <v>7.22945002E-3</v>
+        <v>7.2530617700000003E-3</v>
       </c>
     </row>
     <row r="97" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5181,37 +5178,37 @@
         <v>50</v>
       </c>
       <c r="C97" s="19">
-        <v>273610</v>
+        <v>273607</v>
       </c>
       <c r="D97" s="20">
         <v>34</v>
       </c>
       <c r="E97" s="21">
-        <v>0.49394037804364993</v>
+        <v>0.49393704564744084</v>
       </c>
       <c r="F97" s="21">
-        <v>0.50605962195635001</v>
+        <v>0.5060629543525591</v>
       </c>
       <c r="G97" s="19">
-        <v>136090</v>
+        <v>136566</v>
       </c>
       <c r="H97" s="22">
-        <v>0.14100227790432801</v>
+        <v>0.14081835888874245</v>
       </c>
       <c r="I97" s="19">
-        <v>151806</v>
+        <v>151869</v>
       </c>
       <c r="J97" s="32">
-        <v>7840</v>
+        <v>7847</v>
       </c>
       <c r="K97" s="21">
-        <v>5.1644862521902958E-2</v>
+        <v>5.1669530977355486E-2</v>
       </c>
       <c r="L97" s="32">
-        <v>1920</v>
+        <v>1925</v>
       </c>
       <c r="M97" s="23">
-        <v>7.0172873699999999E-3</v>
+        <v>7.0356387000000001E-3</v>
       </c>
     </row>
     <row r="98" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5222,37 +5219,37 @@
         <v>51</v>
       </c>
       <c r="C98" s="27">
-        <v>193934</v>
+        <v>193933</v>
       </c>
       <c r="D98" s="28">
         <v>34</v>
       </c>
       <c r="E98" s="29">
-        <v>0.49460651801386524</v>
+        <v>0.49458305120058338</v>
       </c>
       <c r="F98" s="29">
-        <v>0.50539348198613476</v>
+        <v>0.50541694879941668</v>
       </c>
       <c r="G98" s="27">
-        <v>97765</v>
+        <v>97955</v>
       </c>
       <c r="H98" s="30">
-        <v>0.15230399427197872</v>
+        <v>0.1522433770608953</v>
       </c>
       <c r="I98" s="27">
-        <v>107786</v>
+        <v>107830</v>
       </c>
       <c r="J98" s="33">
-        <v>5419</v>
+        <v>5423</v>
       </c>
       <c r="K98" s="29">
-        <v>5.0275545989275042E-2</v>
+        <v>5.0292126495409442E-2</v>
       </c>
       <c r="L98" s="33">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="M98" s="31">
-        <v>6.3681458599999996E-3</v>
+        <v>6.3733351200000003E-3</v>
       </c>
     </row>
     <row r="99" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5263,37 +5260,37 @@
         <v>52</v>
       </c>
       <c r="C99" s="19">
-        <v>208751</v>
+        <v>208764</v>
       </c>
       <c r="D99" s="20">
         <v>35</v>
       </c>
       <c r="E99" s="21">
-        <v>0.48799628646445303</v>
+        <v>0.48798023459332968</v>
       </c>
       <c r="F99" s="21">
-        <v>0.51200371353554697</v>
+        <v>0.51201976540667038</v>
       </c>
       <c r="G99" s="19">
-        <v>104466</v>
+        <v>104614</v>
       </c>
       <c r="H99" s="22">
-        <v>0.12819481936706681</v>
+        <v>0.12810904850211252</v>
       </c>
       <c r="I99" s="19">
-        <v>115947</v>
+        <v>116012</v>
       </c>
       <c r="J99" s="32">
-        <v>5221</v>
+        <v>5228</v>
       </c>
       <c r="K99" s="21">
-        <v>4.5029194373291247E-2</v>
+        <v>4.5064303692721443E-2</v>
       </c>
       <c r="L99" s="32">
-        <v>982</v>
+        <v>986</v>
       </c>
       <c r="M99" s="23">
-        <v>4.7041690799999999E-3</v>
+        <v>4.7230365300000004E-3</v>
       </c>
     </row>
     <row r="100" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5304,78 +5301,78 @@
         <v>1</v>
       </c>
       <c r="C100" s="27">
-        <v>338131</v>
+        <v>338136</v>
       </c>
       <c r="D100" s="28">
         <v>33</v>
       </c>
       <c r="E100" s="29">
-        <v>0.49196418940783088</v>
+        <v>0.49196600043742827</v>
       </c>
       <c r="F100" s="29">
-        <v>0.50803581059216918</v>
+        <v>0.50803399956257167</v>
       </c>
       <c r="G100" s="27">
-        <v>152713</v>
+        <v>153068</v>
       </c>
       <c r="H100" s="30">
-        <v>0.1372509216635126</v>
+        <v>0.13725272427940524</v>
       </c>
       <c r="I100" s="27">
-        <v>184226</v>
+        <v>184460</v>
       </c>
       <c r="J100" s="33">
-        <v>5154</v>
+        <v>5168</v>
       </c>
       <c r="K100" s="29">
-        <v>2.7976507116259378E-2</v>
+        <v>2.8016914236148757E-2</v>
       </c>
       <c r="L100" s="33">
-        <v>805</v>
+        <v>808</v>
       </c>
       <c r="M100" s="31">
-        <v>2.3807340899999999E-3</v>
+        <v>2.3895710599999998E-3</v>
       </c>
     </row>
     <row r="101" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A101" s="35">
+      <c r="A101" s="34">
         <v>2022</v>
       </c>
-      <c r="B101" s="36">
-        <v>1</v>
-      </c>
-      <c r="C101" s="37">
-        <v>338136</v>
-      </c>
-      <c r="D101" s="38">
-        <v>33</v>
-      </c>
-      <c r="E101" s="39">
-        <v>0.49196600043742827</v>
-      </c>
-      <c r="F101" s="39">
-        <v>0.50803399956257167</v>
-      </c>
-      <c r="G101" s="37">
-        <v>153068</v>
-      </c>
-      <c r="H101" s="40">
-        <v>0.13725272427940524</v>
-      </c>
-      <c r="I101" s="37">
-        <v>184460</v>
-      </c>
-      <c r="J101" s="41">
-        <v>5168</v>
-      </c>
-      <c r="K101" s="39">
-        <v>2.8016914236148757E-2</v>
-      </c>
-      <c r="L101" s="41">
-        <v>808</v>
-      </c>
-      <c r="M101" s="42">
-        <v>2.3895710599999998E-3</v>
+      <c r="B101" s="24">
+        <v>2</v>
+      </c>
+      <c r="C101" s="19">
+        <v>486043</v>
+      </c>
+      <c r="D101" s="20">
+        <v>31</v>
+      </c>
+      <c r="E101" s="21">
+        <v>0.49717482319188683</v>
+      </c>
+      <c r="F101" s="21">
+        <v>0.50282517680811312</v>
+      </c>
+      <c r="G101" s="19">
+        <v>175302</v>
+      </c>
+      <c r="H101" s="22">
+        <v>0.16279905534449121</v>
+      </c>
+      <c r="I101" s="19">
+        <v>241729</v>
+      </c>
+      <c r="J101" s="32">
+        <v>5024</v>
+      </c>
+      <c r="K101" s="21">
+        <v>2.0783604780560048E-2</v>
+      </c>
+      <c r="L101" s="32">
+        <v>648</v>
+      </c>
+      <c r="M101" s="23">
+        <v>1.33321537E-3</v>
       </c>
     </row>
     <row r="102" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5383,81 +5380,81 @@
         <v>2022</v>
       </c>
       <c r="B102" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C102" s="7">
-        <v>486043</v>
+        <v>796077</v>
       </c>
       <c r="D102" s="5">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E102" s="6">
-        <v>0.49717482319188683</v>
+        <v>0.4962423208060327</v>
       </c>
       <c r="F102" s="6">
-        <v>0.50282517680811312</v>
+        <v>0.5037576791939673</v>
       </c>
       <c r="G102" s="7">
-        <v>175302</v>
+        <v>219877</v>
       </c>
       <c r="H102" s="8">
-        <v>0.16279905534449121</v>
+        <v>0.16105368001200671</v>
       </c>
       <c r="I102" s="7">
-        <v>241729</v>
+        <v>346914</v>
       </c>
       <c r="J102" s="9">
-        <v>5024</v>
+        <v>6637</v>
       </c>
       <c r="K102" s="6">
-        <v>2.0783604780560048E-2</v>
+        <v>1.9131542687813117E-2</v>
       </c>
       <c r="L102" s="9">
-        <v>648</v>
+        <v>790</v>
       </c>
       <c r="M102" s="10">
-        <v>1.33321537E-3</v>
+        <v>9.9236631000000001E-4</v>
       </c>
     </row>
     <row r="103" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A103" s="35">
+      <c r="A103" s="18">
         <v>2022</v>
       </c>
-      <c r="B103" s="36">
-        <v>3</v>
-      </c>
-      <c r="C103" s="37">
-        <v>796077</v>
-      </c>
-      <c r="D103" s="38">
+      <c r="B103" s="24">
+        <v>4</v>
+      </c>
+      <c r="C103" s="19">
+        <v>1110624</v>
+      </c>
+      <c r="D103" s="20">
         <v>30</v>
       </c>
-      <c r="E103" s="39">
-        <v>0.4962423208060327</v>
-      </c>
-      <c r="F103" s="39">
-        <v>0.5037576791939673</v>
-      </c>
-      <c r="G103" s="37">
-        <v>219877</v>
-      </c>
-      <c r="H103" s="40">
-        <v>0.16105368001200671</v>
-      </c>
-      <c r="I103" s="37">
-        <v>346914</v>
-      </c>
-      <c r="J103" s="41">
-        <v>6637</v>
-      </c>
-      <c r="K103" s="39">
-        <v>1.9131542687813117E-2</v>
-      </c>
-      <c r="L103" s="41">
-        <v>790</v>
-      </c>
-      <c r="M103" s="42">
-        <v>9.9236631000000001E-4</v>
+      <c r="E103" s="21">
+        <v>0.4903115459796622</v>
+      </c>
+      <c r="F103" s="21">
+        <v>0.5096884540203378</v>
+      </c>
+      <c r="G103" s="19">
+        <v>236849</v>
+      </c>
+      <c r="H103" s="22">
+        <v>0.16242416054110426</v>
+      </c>
+      <c r="I103" s="19">
+        <v>443981</v>
+      </c>
+      <c r="J103" s="32">
+        <v>7924</v>
+      </c>
+      <c r="K103" s="21">
+        <v>1.7847610595948925E-2</v>
+      </c>
+      <c r="L103" s="32">
+        <v>1000</v>
+      </c>
+      <c r="M103" s="23">
+        <v>9.0039473000000001E-4</v>
       </c>
     </row>
     <row r="104" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5465,81 +5462,81 @@
         <v>2022</v>
       </c>
       <c r="B104" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C104" s="7">
-        <v>1110624</v>
+        <v>1289567</v>
       </c>
       <c r="D104" s="5">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E104" s="6">
-        <v>0.4903115459796622</v>
+        <v>0.48600326480190592</v>
       </c>
       <c r="F104" s="6">
-        <v>0.5096884540203378</v>
+        <v>0.51399673519809408</v>
       </c>
       <c r="G104" s="7">
-        <v>236849</v>
+        <v>243961</v>
       </c>
       <c r="H104" s="8">
-        <v>0.16242416054110426</v>
+        <v>0.15437713405011458</v>
       </c>
       <c r="I104" s="7">
-        <v>443981</v>
+        <v>481298</v>
       </c>
       <c r="J104" s="9">
-        <v>7924</v>
+        <v>9577</v>
       </c>
       <c r="K104" s="6">
-        <v>1.7847610595948925E-2</v>
+        <v>1.9898275081134766E-2</v>
       </c>
       <c r="L104" s="9">
-        <v>1000</v>
+        <v>1280</v>
       </c>
       <c r="M104" s="10">
-        <v>9.0039473000000001E-4</v>
+        <v>9.9258122999999992E-4</v>
       </c>
     </row>
     <row r="105" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A105" s="35">
+      <c r="A105" s="18">
         <v>2022</v>
       </c>
-      <c r="B105" s="36">
-        <v>5</v>
-      </c>
-      <c r="C105" s="37">
-        <v>1289567</v>
-      </c>
-      <c r="D105" s="38">
-        <v>31</v>
-      </c>
-      <c r="E105" s="39">
-        <v>0.48600326480190592</v>
-      </c>
-      <c r="F105" s="39">
-        <v>0.51399673519809408</v>
-      </c>
-      <c r="G105" s="37">
-        <v>243961</v>
-      </c>
-      <c r="H105" s="40">
-        <v>0.15437713405011458</v>
-      </c>
-      <c r="I105" s="37">
-        <v>481298</v>
-      </c>
-      <c r="J105" s="41">
-        <v>9577</v>
-      </c>
-      <c r="K105" s="39">
-        <v>1.9898275081134766E-2</v>
-      </c>
-      <c r="L105" s="41">
-        <v>1280</v>
-      </c>
-      <c r="M105" s="42">
-        <v>9.9258122999999992E-4</v>
+      <c r="B105" s="24">
+        <v>6</v>
+      </c>
+      <c r="C105" s="19">
+        <v>1307261</v>
+      </c>
+      <c r="D105" s="20">
+        <v>32</v>
+      </c>
+      <c r="E105" s="21">
+        <v>0.48200580570700219</v>
+      </c>
+      <c r="F105" s="21">
+        <v>0.51799419429299776</v>
+      </c>
+      <c r="G105" s="19">
+        <v>250541</v>
+      </c>
+      <c r="H105" s="22">
+        <v>0.14667459617387973</v>
+      </c>
+      <c r="I105" s="19">
+        <v>503909</v>
+      </c>
+      <c r="J105" s="32">
+        <v>9856</v>
+      </c>
+      <c r="K105" s="21">
+        <v>1.955908705738536E-2</v>
+      </c>
+      <c r="L105" s="32">
+        <v>1451</v>
+      </c>
+      <c r="M105" s="23">
+        <v>1.10995432E-3</v>
       </c>
     </row>
     <row r="106" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5547,40 +5544,40 @@
         <v>2022</v>
       </c>
       <c r="B106" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C106" s="7">
-        <v>1307261</v>
+        <v>1190570</v>
       </c>
       <c r="D106" s="5">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E106" s="6">
-        <v>0.48200580570700219</v>
+        <v>0.48042023366220071</v>
       </c>
       <c r="F106" s="6">
-        <v>0.51799419429299776</v>
+        <v>0.51957976633779923</v>
       </c>
       <c r="G106" s="7">
-        <v>250541</v>
+        <v>221643</v>
       </c>
       <c r="H106" s="8">
-        <v>0.14667459617387973</v>
+        <v>0.14434924631050833</v>
       </c>
       <c r="I106" s="7">
-        <v>503909</v>
+        <v>469642</v>
       </c>
       <c r="J106" s="9">
-        <v>9856</v>
+        <v>9906</v>
       </c>
       <c r="K106" s="6">
-        <v>1.955908705738536E-2</v>
+        <v>2.109266207025777E-2</v>
       </c>
       <c r="L106" s="9">
-        <v>1451</v>
+        <v>1439</v>
       </c>
       <c r="M106" s="10">
-        <v>1.10995432E-3</v>
+        <v>1.20866475E-3</v>
       </c>
     </row>
     <row r="107" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5588,40 +5585,40 @@
         <v>2022</v>
       </c>
       <c r="B107" s="24">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" s="19">
-        <v>1190570</v>
+        <v>1090497</v>
       </c>
       <c r="D107" s="20">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E107" s="21">
-        <v>0.48042023366220071</v>
+        <v>0.47653665634485426</v>
       </c>
       <c r="F107" s="21">
-        <v>0.51957976633779923</v>
+        <v>0.5234633436551458</v>
       </c>
       <c r="G107" s="19">
-        <v>221643</v>
+        <v>200535</v>
       </c>
       <c r="H107" s="22">
-        <v>0.14434924631050833</v>
+        <v>0.14058892462662378</v>
       </c>
       <c r="I107" s="19">
-        <v>469642</v>
+        <v>428480</v>
       </c>
       <c r="J107" s="32">
-        <v>9906</v>
+        <v>9455</v>
       </c>
       <c r="K107" s="21">
-        <v>2.109266207025777E-2</v>
+        <v>2.2066374159820761E-2</v>
       </c>
       <c r="L107" s="32">
-        <v>1439</v>
+        <v>1212</v>
       </c>
       <c r="M107" s="23">
-        <v>1.20866475E-3</v>
+        <v>1.1114198299999999E-3</v>
       </c>
     </row>
     <row r="108" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5629,40 +5626,40 @@
         <v>2022</v>
       </c>
       <c r="B108" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" s="7">
-        <v>1090497</v>
+        <v>1124923</v>
       </c>
       <c r="D108" s="5">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E108" s="6">
-        <v>0.47653665634485426</v>
+        <v>0.47342603984768405</v>
       </c>
       <c r="F108" s="6">
-        <v>0.5234633436551458</v>
+        <v>0.52657396015231595</v>
       </c>
       <c r="G108" s="7">
-        <v>200535</v>
+        <v>199423</v>
       </c>
       <c r="H108" s="8">
-        <v>0.14058892462662378</v>
+        <v>0.13174007010224498</v>
       </c>
       <c r="I108" s="7">
-        <v>428480</v>
+        <v>448009</v>
       </c>
       <c r="J108" s="9">
-        <v>9455</v>
+        <v>9029</v>
       </c>
       <c r="K108" s="6">
-        <v>2.2066374159820761E-2</v>
+        <v>2.0153612985453418E-2</v>
       </c>
       <c r="L108" s="9">
-        <v>1212</v>
+        <v>1128</v>
       </c>
       <c r="M108" s="10">
-        <v>1.1114198299999999E-3</v>
+        <v>1.00273529E-3</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5670,40 +5667,40 @@
         <v>2022</v>
       </c>
       <c r="B109" s="24">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C109" s="19">
-        <v>1124923</v>
+        <v>1398785</v>
       </c>
       <c r="D109" s="20">
         <v>35</v>
       </c>
       <c r="E109" s="21">
-        <v>0.47342603984768405</v>
+        <v>0.4800490833284668</v>
       </c>
       <c r="F109" s="21">
-        <v>0.52657396015231595</v>
+        <v>0.51995091667153315</v>
       </c>
       <c r="G109" s="19">
-        <v>199423</v>
+        <v>213356</v>
       </c>
       <c r="H109" s="22">
-        <v>0.13174007010224498</v>
+        <v>0.13347175612591161</v>
       </c>
       <c r="I109" s="19">
-        <v>448009</v>
+        <v>527832</v>
       </c>
       <c r="J109" s="32">
-        <v>9029</v>
+        <v>10277</v>
       </c>
       <c r="K109" s="21">
-        <v>2.0153612985453418E-2</v>
+        <v>1.9470210218402825E-2</v>
       </c>
       <c r="L109" s="32">
-        <v>1128</v>
+        <v>1173</v>
       </c>
       <c r="M109" s="23">
-        <v>1.00273529E-3</v>
+        <v>8.3858491000000002E-4</v>
       </c>
     </row>
     <row r="110" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5711,40 +5708,40 @@
         <v>2022</v>
       </c>
       <c r="B110" s="4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C110" s="7">
-        <v>1398785</v>
+        <v>1565894</v>
       </c>
       <c r="D110" s="5">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E110" s="6">
-        <v>0.4800490833284668</v>
+        <v>0.4817939866901006</v>
       </c>
       <c r="F110" s="6">
-        <v>0.51995091667153315</v>
+        <v>0.51820601330989935</v>
       </c>
       <c r="G110" s="7">
-        <v>213356</v>
+        <v>196564</v>
       </c>
       <c r="H110" s="8">
-        <v>0.13347175612591161</v>
+        <v>0.12987627439409047</v>
       </c>
       <c r="I110" s="7">
-        <v>527832</v>
+        <v>568479</v>
       </c>
       <c r="J110" s="9">
-        <v>10277</v>
+        <v>10706</v>
       </c>
       <c r="K110" s="6">
-        <v>1.9470210218402825E-2</v>
+        <v>1.8832709739497851E-2</v>
       </c>
       <c r="L110" s="9">
-        <v>1173</v>
+        <v>971</v>
       </c>
       <c r="M110" s="10">
-        <v>8.3858491000000002E-4</v>
+        <v>6.2009304999999996E-4</v>
       </c>
     </row>
     <row r="111" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5752,40 +5749,40 @@
         <v>2022</v>
       </c>
       <c r="B111" s="24">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C111" s="19">
-        <v>1565894</v>
+        <v>1565494</v>
       </c>
       <c r="D111" s="20">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E111" s="21">
-        <v>0.4817939866901006</v>
+        <v>0.48003703155375427</v>
       </c>
       <c r="F111" s="21">
-        <v>0.51820601330989935</v>
+        <v>0.51996296844624579</v>
       </c>
       <c r="G111" s="19">
-        <v>196564</v>
+        <v>165611</v>
       </c>
       <c r="H111" s="22">
-        <v>0.12987627439409047</v>
+        <v>0.13080652855184741</v>
       </c>
       <c r="I111" s="19">
-        <v>568479</v>
+        <v>550797</v>
       </c>
       <c r="J111" s="32">
-        <v>10706</v>
+        <v>9753</v>
       </c>
       <c r="K111" s="21">
-        <v>1.8832709739497851E-2</v>
+        <v>1.7707068121286064E-2</v>
       </c>
       <c r="L111" s="32">
-        <v>971</v>
+        <v>720</v>
       </c>
       <c r="M111" s="23">
-        <v>6.2009304999999996E-4</v>
+        <v>4.5991872000000002E-4</v>
       </c>
     </row>
     <row r="112" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5793,86 +5790,75 @@
         <v>2022</v>
       </c>
       <c r="B112" s="4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C112" s="7">
-        <v>1565494</v>
+        <v>1274428</v>
       </c>
       <c r="D112" s="5">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E112" s="6">
-        <v>0.48003703155375427</v>
+        <v>0.48003142782314706</v>
       </c>
       <c r="F112" s="6">
-        <v>0.51996296844624579</v>
+        <v>0.51996857217685288</v>
       </c>
       <c r="G112" s="7">
-        <v>165611</v>
+        <v>112668</v>
       </c>
       <c r="H112" s="8">
-        <v>0.13080652855184741</v>
+        <v>0.11921752405296979</v>
       </c>
       <c r="I112" s="7">
-        <v>550797</v>
+        <v>441039</v>
       </c>
       <c r="J112" s="9">
-        <v>9753</v>
+        <v>7234</v>
       </c>
       <c r="K112" s="6">
-        <v>1.7707068121286064E-2</v>
+        <v>1.6402177585202217E-2</v>
       </c>
       <c r="L112" s="9">
-        <v>720</v>
+        <v>303</v>
       </c>
       <c r="M112" s="10">
-        <v>4.5991872000000002E-4</v>
-      </c>
-    </row>
-    <row r="113" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A113" s="18">
-        <v>2022</v>
-      </c>
-      <c r="B113" s="24">
-        <v>13</v>
-      </c>
-      <c r="C113" s="19">
-        <v>1274428</v>
-      </c>
-      <c r="D113" s="20">
-        <v>38</v>
-      </c>
-      <c r="E113" s="21">
-        <v>0.48003142782314706</v>
-      </c>
-      <c r="F113" s="21">
-        <v>0.51996857217685288</v>
-      </c>
-      <c r="G113" s="19">
-        <v>112668</v>
-      </c>
-      <c r="H113" s="22">
-        <v>0.11921752405296979</v>
-      </c>
-      <c r="I113" s="19">
-        <v>441039</v>
-      </c>
-      <c r="J113" s="32">
-        <v>7234</v>
-      </c>
-      <c r="K113" s="21">
-        <v>1.6402177585202217E-2</v>
-      </c>
-      <c r="L113" s="32">
-        <v>303</v>
-      </c>
-      <c r="M113" s="23">
         <v>2.3775371999999999E-4</v>
       </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A113" s="59"/>
+      <c r="B113" s="60"/>
+      <c r="C113" s="61"/>
+      <c r="D113" s="62"/>
+      <c r="E113" s="63"/>
+      <c r="F113" s="63"/>
+      <c r="G113" s="61"/>
+      <c r="H113" s="64"/>
+      <c r="I113" s="61"/>
+      <c r="J113" s="65"/>
+      <c r="K113" s="63"/>
+      <c r="L113" s="65"/>
+      <c r="M113" s="66"/>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A114" s="67"/>
+      <c r="B114" s="67"/>
+      <c r="C114" s="67"/>
+      <c r="D114" s="67"/>
+      <c r="E114" s="67"/>
+      <c r="F114" s="67"/>
+      <c r="G114" s="67"/>
+      <c r="H114" s="67"/>
+      <c r="I114" s="67"/>
+      <c r="J114" s="67"/>
+      <c r="K114" s="67"/>
+      <c r="L114" s="67"/>
+      <c r="M114" s="67"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5892,194 +5878,194 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="35" t="s">
         <v>177</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
     </row>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="43"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
+      <c r="A4" s="35"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
     </row>
     <row r="5" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="68"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
-      <c r="G5" s="68"/>
-      <c r="H5" s="68"/>
-      <c r="I5" s="68"/>
-      <c r="J5" s="68"/>
-      <c r="K5" s="69"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="69"/>
+      <c r="K5" s="70"/>
     </row>
     <row r="6" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="65" t="s">
+      <c r="A6" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="50" t="s">
+      <c r="C6" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="46" t="s">
+      <c r="D6" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="46" t="s">
+      <c r="E6" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="46" t="s">
+      <c r="F6" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="46" t="s">
+      <c r="G6" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="46" t="s">
+      <c r="H6" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="46" t="s">
+      <c r="I6" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="J6" s="46" t="s">
+      <c r="J6" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="K6" s="51" t="s">
+      <c r="K6" s="43" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="47">
+      <c r="B7" s="39">
         <v>17</v>
       </c>
-      <c r="C7" s="47">
+      <c r="C7" s="39">
         <v>16</v>
       </c>
-      <c r="D7" s="47">
+      <c r="D7" s="39">
         <v>88</v>
       </c>
-      <c r="E7" s="47">
+      <c r="E7" s="39">
         <v>323</v>
       </c>
-      <c r="F7" s="47">
+      <c r="F7" s="39">
         <v>912</v>
       </c>
-      <c r="G7" s="47">
+      <c r="G7" s="39">
         <v>3636</v>
       </c>
-      <c r="H7" s="47">
+      <c r="H7" s="39">
         <v>8847</v>
       </c>
-      <c r="I7" s="47">
+      <c r="I7" s="39">
         <v>17034</v>
       </c>
-      <c r="J7" s="47">
+      <c r="J7" s="39">
         <v>29260</v>
       </c>
-      <c r="K7" s="52">
+      <c r="K7" s="44">
         <v>9400</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="48">
+      <c r="B8" s="40">
         <v>21</v>
       </c>
-      <c r="C8" s="48">
+      <c r="C8" s="40">
         <v>24</v>
       </c>
-      <c r="D8" s="48">
+      <c r="D8" s="40">
         <v>62</v>
       </c>
-      <c r="E8" s="48">
+      <c r="E8" s="40">
         <v>167</v>
       </c>
-      <c r="F8" s="48">
+      <c r="F8" s="40">
         <v>438</v>
       </c>
-      <c r="G8" s="48">
+      <c r="G8" s="40">
         <v>1515</v>
       </c>
-      <c r="H8" s="48">
+      <c r="H8" s="40">
         <v>4065</v>
       </c>
-      <c r="I8" s="48">
+      <c r="I8" s="40">
         <v>9838</v>
       </c>
-      <c r="J8" s="48">
+      <c r="J8" s="40">
         <v>27548</v>
       </c>
-      <c r="K8" s="53">
+      <c r="K8" s="45">
         <v>17270</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="49">
+      <c r="B9" s="41">
         <f>B7+B8</f>
         <v>38</v>
       </c>
-      <c r="C9" s="49">
+      <c r="C9" s="41">
         <f t="shared" ref="C9:K9" si="0">C7+C8</f>
         <v>40</v>
       </c>
-      <c r="D9" s="49">
+      <c r="D9" s="41">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="E9" s="49">
+      <c r="E9" s="41">
         <f t="shared" si="0"/>
         <v>490</v>
       </c>
-      <c r="F9" s="49">
+      <c r="F9" s="41">
         <f t="shared" si="0"/>
         <v>1350</v>
       </c>
-      <c r="G9" s="49">
+      <c r="G9" s="41">
         <f t="shared" si="0"/>
         <v>5151</v>
       </c>
-      <c r="H9" s="49">
+      <c r="H9" s="41">
         <f>H7+H8</f>
         <v>12912</v>
       </c>
-      <c r="I9" s="49">
+      <c r="I9" s="41">
         <f t="shared" si="0"/>
         <v>26872</v>
       </c>
-      <c r="J9" s="49">
+      <c r="J9" s="41">
         <f t="shared" si="0"/>
         <v>56808</v>
       </c>
-      <c r="K9" s="54">
+      <c r="K9" s="46">
         <f t="shared" si="0"/>
         <v>26670</v>
       </c>
@@ -6089,7 +6075,7 @@
     <mergeCell ref="A5:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6102,2934 +6088,2934 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="47" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="48" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="56"/>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
+      <c r="A5" s="48"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="56"/>
-      <c r="B6" s="56"/>
-      <c r="C6" s="57" t="s">
+      <c r="A6" s="48"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="57" t="s">
+      <c r="D6" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="57" t="s">
+      <c r="E6" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="57" t="s">
+      <c r="F6" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="57" t="s">
+      <c r="G6" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="57" t="s">
+      <c r="H6" s="49" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="58" t="s">
+      <c r="A7" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="58" t="s">
+      <c r="B7" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="58" t="s">
+      <c r="D7" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="58" t="s">
+      <c r="E7" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="58" t="s">
+      <c r="F7" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="58" t="s">
+      <c r="G7" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="H7" s="58" t="s">
+      <c r="H7" s="50" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="66">
+      <c r="A8" s="58">
         <v>2020</v>
       </c>
-      <c r="B8" s="66">
+      <c r="B8" s="58">
         <v>10</v>
       </c>
-      <c r="C8" s="56">
+      <c r="C8" s="48">
         <v>2</v>
       </c>
-      <c r="D8" s="56">
+      <c r="D8" s="48">
         <v>3</v>
       </c>
-      <c r="E8" s="56">
+      <c r="E8" s="48">
         <v>23</v>
       </c>
-      <c r="F8" s="56">
+      <c r="F8" s="48">
         <v>84</v>
       </c>
-      <c r="G8" s="56">
+      <c r="G8" s="48">
         <v>37</v>
       </c>
-      <c r="H8" s="56">
+      <c r="H8" s="48">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="66">
+      <c r="A9" s="58">
         <v>2020</v>
       </c>
-      <c r="B9" s="66">
+      <c r="B9" s="58">
         <v>11</v>
       </c>
-      <c r="C9" s="56">
+      <c r="C9" s="48">
         <v>2</v>
       </c>
-      <c r="D9" s="56">
+      <c r="D9" s="48">
         <v>2</v>
       </c>
-      <c r="E9" s="56">
+      <c r="E9" s="48">
         <v>54</v>
       </c>
-      <c r="F9" s="56">
+      <c r="F9" s="48">
         <v>237</v>
       </c>
-      <c r="G9" s="56">
+      <c r="G9" s="48">
         <v>152</v>
       </c>
-      <c r="H9" s="56">
+      <c r="H9" s="48">
         <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="66">
+      <c r="A10" s="58">
         <v>2020</v>
       </c>
-      <c r="B10" s="66">
+      <c r="B10" s="58">
         <v>12</v>
       </c>
-      <c r="C10" s="56">
+      <c r="C10" s="48">
         <v>14</v>
       </c>
-      <c r="D10" s="56">
+      <c r="D10" s="48">
         <v>6</v>
       </c>
-      <c r="E10" s="56">
+      <c r="E10" s="48">
         <v>152</v>
       </c>
-      <c r="F10" s="56">
+      <c r="F10" s="48">
         <v>724</v>
       </c>
-      <c r="G10" s="56">
+      <c r="G10" s="48">
         <v>861</v>
       </c>
-      <c r="H10" s="56">
+      <c r="H10" s="48">
         <v>472</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="66">
+      <c r="A11" s="58">
         <v>2020</v>
       </c>
-      <c r="B11" s="66">
+      <c r="B11" s="58">
         <v>13</v>
       </c>
-      <c r="C11" s="56">
+      <c r="C11" s="48">
         <v>33</v>
       </c>
-      <c r="D11" s="56">
+      <c r="D11" s="48">
         <v>16</v>
       </c>
-      <c r="E11" s="56">
+      <c r="E11" s="48">
         <v>260</v>
       </c>
-      <c r="F11" s="56">
+      <c r="F11" s="48">
         <v>1359</v>
       </c>
-      <c r="G11" s="56">
+      <c r="G11" s="48">
         <v>2218</v>
       </c>
-      <c r="H11" s="56">
+      <c r="H11" s="48">
         <v>1258</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="66">
+      <c r="A12" s="58">
         <v>2020</v>
       </c>
-      <c r="B12" s="66">
+      <c r="B12" s="58">
         <v>14</v>
       </c>
-      <c r="C12" s="56">
+      <c r="C12" s="48">
         <v>27</v>
       </c>
-      <c r="D12" s="56">
+      <c r="D12" s="48">
         <v>17</v>
       </c>
-      <c r="E12" s="56">
+      <c r="E12" s="48">
         <v>305</v>
       </c>
-      <c r="F12" s="56">
+      <c r="F12" s="48">
         <v>1348</v>
       </c>
-      <c r="G12" s="56">
+      <c r="G12" s="48">
         <v>2484</v>
       </c>
-      <c r="H12" s="56">
+      <c r="H12" s="48">
         <v>1924</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="66">
+      <c r="A13" s="58">
         <v>2020</v>
       </c>
-      <c r="B13" s="66">
+      <c r="B13" s="58">
         <v>15</v>
       </c>
-      <c r="C13" s="56">
+      <c r="C13" s="48">
         <v>22</v>
       </c>
-      <c r="D13" s="56">
+      <c r="D13" s="48">
         <v>8</v>
       </c>
-      <c r="E13" s="56">
+      <c r="E13" s="48">
         <v>226</v>
       </c>
-      <c r="F13" s="56">
+      <c r="F13" s="48">
         <v>984</v>
       </c>
-      <c r="G13" s="56">
+      <c r="G13" s="48">
         <v>1761</v>
       </c>
-      <c r="H13" s="56">
+      <c r="H13" s="48">
         <v>1731</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="66">
+      <c r="A14" s="58">
         <v>2020</v>
       </c>
-      <c r="B14" s="66">
+      <c r="B14" s="58">
         <v>16</v>
       </c>
-      <c r="C14" s="56">
+      <c r="C14" s="48">
         <v>9</v>
       </c>
-      <c r="D14" s="56">
+      <c r="D14" s="48">
         <v>12</v>
       </c>
-      <c r="E14" s="56">
+      <c r="E14" s="48">
         <v>192</v>
       </c>
-      <c r="F14" s="56">
+      <c r="F14" s="48">
         <v>636</v>
       </c>
-      <c r="G14" s="56">
+      <c r="G14" s="48">
         <v>1280</v>
       </c>
-      <c r="H14" s="56">
+      <c r="H14" s="48">
         <v>1251</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="66">
+      <c r="A15" s="58">
         <v>2020</v>
       </c>
-      <c r="B15" s="66">
+      <c r="B15" s="58">
         <v>17</v>
       </c>
-      <c r="C15" s="56">
+      <c r="C15" s="48">
         <v>20</v>
       </c>
-      <c r="D15" s="56">
+      <c r="D15" s="48">
         <v>15</v>
       </c>
-      <c r="E15" s="56">
+      <c r="E15" s="48">
         <v>183</v>
       </c>
-      <c r="F15" s="56">
+      <c r="F15" s="48">
         <v>418</v>
       </c>
-      <c r="G15" s="56">
+      <c r="G15" s="48">
         <v>768</v>
       </c>
-      <c r="H15" s="56">
+      <c r="H15" s="48">
         <v>832</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="66">
+      <c r="A16" s="58">
         <v>2020</v>
       </c>
-      <c r="B16" s="66">
+      <c r="B16" s="58">
         <v>18</v>
       </c>
-      <c r="C16" s="56">
+      <c r="C16" s="48">
         <v>19</v>
       </c>
-      <c r="D16" s="56">
+      <c r="D16" s="48">
         <v>8</v>
       </c>
-      <c r="E16" s="56">
+      <c r="E16" s="48">
         <v>107</v>
       </c>
-      <c r="F16" s="56">
+      <c r="F16" s="48">
         <v>287</v>
       </c>
-      <c r="G16" s="56">
+      <c r="G16" s="48">
         <v>513</v>
       </c>
-      <c r="H16" s="56">
+      <c r="H16" s="48">
         <v>429</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" s="66">
+      <c r="A17" s="58">
         <v>2020</v>
       </c>
-      <c r="B17" s="66">
+      <c r="B17" s="58">
         <v>19</v>
       </c>
-      <c r="C17" s="56">
+      <c r="C17" s="48">
         <v>10</v>
       </c>
-      <c r="D17" s="56">
+      <c r="D17" s="48">
         <v>7</v>
       </c>
-      <c r="E17" s="56">
+      <c r="E17" s="48">
         <v>91</v>
       </c>
-      <c r="F17" s="56">
+      <c r="F17" s="48">
         <v>241</v>
       </c>
-      <c r="G17" s="56">
+      <c r="G17" s="48">
         <v>383</v>
       </c>
-      <c r="H17" s="56">
+      <c r="H17" s="48">
         <v>350</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18" s="66">
+      <c r="A18" s="58">
         <v>2020</v>
       </c>
-      <c r="B18" s="66">
+      <c r="B18" s="58">
         <v>20</v>
       </c>
-      <c r="C18" s="56">
+      <c r="C18" s="48">
         <v>7</v>
       </c>
-      <c r="D18" s="56">
+      <c r="D18" s="48">
         <v>18</v>
       </c>
-      <c r="E18" s="56">
+      <c r="E18" s="48">
         <v>74</v>
       </c>
-      <c r="F18" s="56">
+      <c r="F18" s="48">
         <v>180</v>
       </c>
-      <c r="G18" s="56">
+      <c r="G18" s="48">
         <v>231</v>
       </c>
-      <c r="H18" s="56">
+      <c r="H18" s="48">
         <v>248</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" s="66">
+      <c r="A19" s="58">
         <v>2020</v>
       </c>
-      <c r="B19" s="66">
+      <c r="B19" s="58">
         <v>21</v>
       </c>
-      <c r="C19" s="56">
+      <c r="C19" s="48">
         <v>4</v>
       </c>
-      <c r="D19" s="56">
+      <c r="D19" s="48">
         <v>2</v>
       </c>
-      <c r="E19" s="56">
+      <c r="E19" s="48">
         <v>50</v>
       </c>
-      <c r="F19" s="56">
+      <c r="F19" s="48">
         <v>120</v>
       </c>
-      <c r="G19" s="56">
+      <c r="G19" s="48">
         <v>170</v>
       </c>
-      <c r="H19" s="56">
+      <c r="H19" s="48">
         <v>166</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" s="66">
+      <c r="A20" s="58">
         <v>2020</v>
       </c>
-      <c r="B20" s="66">
+      <c r="B20" s="58">
         <v>22</v>
       </c>
-      <c r="C20" s="56">
+      <c r="C20" s="48">
         <v>4</v>
       </c>
-      <c r="D20" s="56"/>
-      <c r="E20" s="56">
+      <c r="D20" s="48"/>
+      <c r="E20" s="48">
         <v>38</v>
       </c>
-      <c r="F20" s="56">
+      <c r="F20" s="48">
         <v>124</v>
       </c>
-      <c r="G20" s="56">
+      <c r="G20" s="48">
         <v>138</v>
       </c>
-      <c r="H20" s="56">
+      <c r="H20" s="48">
         <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A21" s="66">
+      <c r="A21" s="58">
         <v>2020</v>
       </c>
-      <c r="B21" s="66">
+      <c r="B21" s="58">
         <v>23</v>
       </c>
-      <c r="C21" s="56">
+      <c r="C21" s="48">
         <v>3</v>
       </c>
-      <c r="D21" s="56">
+      <c r="D21" s="48">
         <v>5</v>
       </c>
-      <c r="E21" s="56">
+      <c r="E21" s="48">
         <v>40</v>
       </c>
-      <c r="F21" s="56">
+      <c r="F21" s="48">
         <v>94</v>
       </c>
-      <c r="G21" s="56">
+      <c r="G21" s="48">
         <v>90</v>
       </c>
-      <c r="H21" s="56">
+      <c r="H21" s="48">
         <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A22" s="66">
+      <c r="A22" s="58">
         <v>2020</v>
       </c>
-      <c r="B22" s="66">
+      <c r="B22" s="58">
         <v>24</v>
       </c>
-      <c r="C22" s="56">
+      <c r="C22" s="48">
         <v>11</v>
       </c>
-      <c r="D22" s="56">
+      <c r="D22" s="48">
         <v>5</v>
       </c>
-      <c r="E22" s="56">
+      <c r="E22" s="48">
         <v>48</v>
       </c>
-      <c r="F22" s="56">
+      <c r="F22" s="48">
         <v>83</v>
       </c>
-      <c r="G22" s="56">
+      <c r="G22" s="48">
         <v>70</v>
       </c>
-      <c r="H22" s="56">
+      <c r="H22" s="48">
         <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A23" s="66">
+      <c r="A23" s="58">
         <v>2020</v>
       </c>
-      <c r="B23" s="66">
+      <c r="B23" s="58">
         <v>25</v>
       </c>
-      <c r="C23" s="56">
+      <c r="C23" s="48">
         <v>5</v>
       </c>
-      <c r="D23" s="56">
+      <c r="D23" s="48">
         <v>3</v>
       </c>
-      <c r="E23" s="56">
+      <c r="E23" s="48">
         <v>52</v>
       </c>
-      <c r="F23" s="56">
+      <c r="F23" s="48">
         <v>121</v>
       </c>
-      <c r="G23" s="56">
+      <c r="G23" s="48">
         <v>81</v>
       </c>
-      <c r="H23" s="56">
+      <c r="H23" s="48">
         <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A24" s="66">
+      <c r="A24" s="58">
         <v>2020</v>
       </c>
-      <c r="B24" s="66">
+      <c r="B24" s="58">
         <v>26</v>
       </c>
-      <c r="C24" s="56">
+      <c r="C24" s="48">
         <v>3</v>
       </c>
-      <c r="D24" s="56">
+      <c r="D24" s="48">
         <v>7</v>
       </c>
-      <c r="E24" s="56">
+      <c r="E24" s="48">
         <v>46</v>
       </c>
-      <c r="F24" s="56">
+      <c r="F24" s="48">
         <v>103</v>
       </c>
-      <c r="G24" s="56">
+      <c r="G24" s="48">
         <v>79</v>
       </c>
-      <c r="H24" s="56">
+      <c r="H24" s="48">
         <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A25" s="66">
+      <c r="A25" s="58">
         <v>2020</v>
       </c>
-      <c r="B25" s="66">
+      <c r="B25" s="58">
         <v>27</v>
       </c>
-      <c r="C25" s="56">
+      <c r="C25" s="48">
         <v>3</v>
       </c>
-      <c r="D25" s="56">
+      <c r="D25" s="48">
         <v>4</v>
       </c>
-      <c r="E25" s="56">
+      <c r="E25" s="48">
         <v>54</v>
       </c>
-      <c r="F25" s="56">
+      <c r="F25" s="48">
         <v>93</v>
       </c>
-      <c r="G25" s="56">
+      <c r="G25" s="48">
         <v>57</v>
       </c>
-      <c r="H25" s="56">
+      <c r="H25" s="48">
         <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A26" s="66">
+      <c r="A26" s="58">
         <v>2020</v>
       </c>
-      <c r="B26" s="66">
+      <c r="B26" s="58">
         <v>28</v>
       </c>
-      <c r="C26" s="56">
+      <c r="C26" s="48">
         <v>7</v>
       </c>
-      <c r="D26" s="56">
+      <c r="D26" s="48">
         <v>6</v>
       </c>
-      <c r="E26" s="56">
+      <c r="E26" s="48">
         <v>36</v>
       </c>
-      <c r="F26" s="56">
+      <c r="F26" s="48">
         <v>97</v>
       </c>
-      <c r="G26" s="56">
+      <c r="G26" s="48">
         <v>79</v>
       </c>
-      <c r="H26" s="56">
+      <c r="H26" s="48">
         <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A27" s="66">
+      <c r="A27" s="58">
         <v>2020</v>
       </c>
-      <c r="B27" s="66">
+      <c r="B27" s="58">
         <v>29</v>
       </c>
-      <c r="C27" s="56">
+      <c r="C27" s="48">
         <v>9</v>
       </c>
-      <c r="D27" s="56">
+      <c r="D27" s="48">
         <v>5</v>
       </c>
-      <c r="E27" s="56">
+      <c r="E27" s="48">
         <v>61</v>
       </c>
-      <c r="F27" s="56">
+      <c r="F27" s="48">
         <v>106</v>
       </c>
-      <c r="G27" s="56">
+      <c r="G27" s="48">
         <v>92</v>
       </c>
-      <c r="H27" s="56">
+      <c r="H27" s="48">
         <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A28" s="66">
+      <c r="A28" s="58">
         <v>2020</v>
       </c>
-      <c r="B28" s="66">
+      <c r="B28" s="58">
         <v>30</v>
       </c>
-      <c r="C28" s="56">
+      <c r="C28" s="48">
         <v>10</v>
       </c>
-      <c r="D28" s="56">
+      <c r="D28" s="48">
         <v>8</v>
       </c>
-      <c r="E28" s="56">
+      <c r="E28" s="48">
         <v>54</v>
       </c>
-      <c r="F28" s="56">
+      <c r="F28" s="48">
         <v>112</v>
       </c>
-      <c r="G28" s="56">
+      <c r="G28" s="48">
         <v>105</v>
       </c>
-      <c r="H28" s="56">
+      <c r="H28" s="48">
         <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A29" s="66">
+      <c r="A29" s="58">
         <v>2020</v>
       </c>
-      <c r="B29" s="66">
+      <c r="B29" s="58">
         <v>31</v>
       </c>
-      <c r="C29" s="56">
+      <c r="C29" s="48">
         <v>2</v>
       </c>
-      <c r="D29" s="56">
+      <c r="D29" s="48">
         <v>5</v>
       </c>
-      <c r="E29" s="56">
+      <c r="E29" s="48">
         <v>50</v>
       </c>
-      <c r="F29" s="56">
+      <c r="F29" s="48">
         <v>147</v>
       </c>
-      <c r="G29" s="56">
+      <c r="G29" s="48">
         <v>107</v>
       </c>
-      <c r="H29" s="56">
+      <c r="H29" s="48">
         <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A30" s="66">
+      <c r="A30" s="58">
         <v>2020</v>
       </c>
-      <c r="B30" s="66">
+      <c r="B30" s="58">
         <v>32</v>
       </c>
-      <c r="C30" s="56">
+      <c r="C30" s="48">
         <v>4</v>
       </c>
-      <c r="D30" s="56">
+      <c r="D30" s="48">
         <v>3</v>
       </c>
-      <c r="E30" s="56">
+      <c r="E30" s="48">
         <v>70</v>
       </c>
-      <c r="F30" s="56">
+      <c r="F30" s="48">
         <v>148</v>
       </c>
-      <c r="G30" s="56">
+      <c r="G30" s="48">
         <v>114</v>
       </c>
-      <c r="H30" s="56">
+      <c r="H30" s="48">
         <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A31" s="66">
+      <c r="A31" s="58">
         <v>2020</v>
       </c>
-      <c r="B31" s="66">
+      <c r="B31" s="58">
         <v>33</v>
       </c>
-      <c r="C31" s="56">
+      <c r="C31" s="48">
         <v>11</v>
       </c>
-      <c r="D31" s="56">
+      <c r="D31" s="48">
         <v>13</v>
       </c>
-      <c r="E31" s="56">
+      <c r="E31" s="48">
         <v>75</v>
       </c>
-      <c r="F31" s="56">
+      <c r="F31" s="48">
         <v>151</v>
       </c>
-      <c r="G31" s="56">
+      <c r="G31" s="48">
         <v>116</v>
       </c>
-      <c r="H31" s="56">
+      <c r="H31" s="48">
         <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A32" s="66">
+      <c r="A32" s="58">
         <v>2020</v>
       </c>
-      <c r="B32" s="66">
+      <c r="B32" s="58">
         <v>34</v>
       </c>
-      <c r="C32" s="56">
+      <c r="C32" s="48">
         <v>9</v>
       </c>
-      <c r="D32" s="56">
+      <c r="D32" s="48">
         <v>11</v>
       </c>
-      <c r="E32" s="56">
+      <c r="E32" s="48">
         <v>95</v>
       </c>
-      <c r="F32" s="56">
+      <c r="F32" s="48">
         <v>171</v>
       </c>
-      <c r="G32" s="56">
+      <c r="G32" s="48">
         <v>107</v>
       </c>
-      <c r="H32" s="56">
+      <c r="H32" s="48">
         <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A33" s="66">
+      <c r="A33" s="58">
         <v>2020</v>
       </c>
-      <c r="B33" s="66">
+      <c r="B33" s="58">
         <v>35</v>
       </c>
-      <c r="C33" s="56">
+      <c r="C33" s="48">
         <v>6</v>
       </c>
-      <c r="D33" s="56">
+      <c r="D33" s="48">
         <v>8</v>
       </c>
-      <c r="E33" s="56">
+      <c r="E33" s="48">
         <v>67</v>
       </c>
-      <c r="F33" s="56">
+      <c r="F33" s="48">
         <v>151</v>
       </c>
-      <c r="G33" s="56">
+      <c r="G33" s="48">
         <v>101</v>
       </c>
-      <c r="H33" s="56">
+      <c r="H33" s="48">
         <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A34" s="66">
+      <c r="A34" s="58">
         <v>2020</v>
       </c>
-      <c r="B34" s="66">
+      <c r="B34" s="58">
         <v>36</v>
       </c>
-      <c r="C34" s="56">
+      <c r="C34" s="48">
         <v>4</v>
       </c>
-      <c r="D34" s="56">
+      <c r="D34" s="48">
         <v>7</v>
       </c>
-      <c r="E34" s="56">
+      <c r="E34" s="48">
         <v>76</v>
       </c>
-      <c r="F34" s="56">
+      <c r="F34" s="48">
         <v>147</v>
       </c>
-      <c r="G34" s="56">
+      <c r="G34" s="48">
         <v>122</v>
       </c>
-      <c r="H34" s="56">
+      <c r="H34" s="48">
         <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A35" s="66">
+      <c r="A35" s="58">
         <v>2020</v>
       </c>
-      <c r="B35" s="66">
+      <c r="B35" s="58">
         <v>37</v>
       </c>
-      <c r="C35" s="56">
+      <c r="C35" s="48">
         <v>12</v>
       </c>
-      <c r="D35" s="56">
+      <c r="D35" s="48">
         <v>12</v>
       </c>
-      <c r="E35" s="56">
+      <c r="E35" s="48">
         <v>50</v>
       </c>
-      <c r="F35" s="56">
+      <c r="F35" s="48">
         <v>162</v>
       </c>
-      <c r="G35" s="56">
+      <c r="G35" s="48">
         <v>141</v>
       </c>
-      <c r="H35" s="56">
+      <c r="H35" s="48">
         <v>98</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A36" s="66">
+      <c r="A36" s="58">
         <v>2020</v>
       </c>
-      <c r="B36" s="66">
+      <c r="B36" s="58">
         <v>38</v>
       </c>
-      <c r="C36" s="56">
+      <c r="C36" s="48">
         <v>8</v>
       </c>
-      <c r="D36" s="56">
+      <c r="D36" s="48">
         <v>11</v>
       </c>
-      <c r="E36" s="56">
+      <c r="E36" s="48">
         <v>81</v>
       </c>
-      <c r="F36" s="56">
+      <c r="F36" s="48">
         <v>238</v>
       </c>
-      <c r="G36" s="56">
+      <c r="G36" s="48">
         <v>211</v>
       </c>
-      <c r="H36" s="56">
+      <c r="H36" s="48">
         <v>136</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A37" s="66">
+      <c r="A37" s="58">
         <v>2020</v>
       </c>
-      <c r="B37" s="66">
+      <c r="B37" s="58">
         <v>39</v>
       </c>
-      <c r="C37" s="56">
+      <c r="C37" s="48">
         <v>9</v>
       </c>
-      <c r="D37" s="56">
+      <c r="D37" s="48">
         <v>7</v>
       </c>
-      <c r="E37" s="56">
+      <c r="E37" s="48">
         <v>111</v>
       </c>
-      <c r="F37" s="56">
+      <c r="F37" s="48">
         <v>242</v>
       </c>
-      <c r="G37" s="56">
+      <c r="G37" s="48">
         <v>260</v>
       </c>
-      <c r="H37" s="56">
+      <c r="H37" s="48">
         <v>154</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A38" s="66">
+      <c r="A38" s="58">
         <v>2020</v>
       </c>
-      <c r="B38" s="66">
+      <c r="B38" s="58">
         <v>40</v>
       </c>
-      <c r="C38" s="56">
+      <c r="C38" s="48">
         <v>15</v>
       </c>
-      <c r="D38" s="56">
+      <c r="D38" s="48">
         <v>10</v>
       </c>
-      <c r="E38" s="56">
+      <c r="E38" s="48">
         <v>118</v>
       </c>
-      <c r="F38" s="56">
+      <c r="F38" s="48">
         <v>283</v>
       </c>
-      <c r="G38" s="56">
+      <c r="G38" s="48">
         <v>288</v>
       </c>
-      <c r="H38" s="56">
+      <c r="H38" s="48">
         <v>176</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A39" s="66">
+      <c r="A39" s="58">
         <v>2020</v>
       </c>
-      <c r="B39" s="66">
+      <c r="B39" s="58">
         <v>41</v>
       </c>
-      <c r="C39" s="56">
+      <c r="C39" s="48">
         <v>21</v>
       </c>
-      <c r="D39" s="56">
+      <c r="D39" s="48">
         <v>17</v>
       </c>
-      <c r="E39" s="56">
+      <c r="E39" s="48">
         <v>205</v>
       </c>
-      <c r="F39" s="56">
+      <c r="F39" s="48">
         <v>497</v>
       </c>
-      <c r="G39" s="56">
+      <c r="G39" s="48">
         <v>515</v>
       </c>
-      <c r="H39" s="56">
+      <c r="H39" s="48">
         <v>361</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A40" s="66">
+      <c r="A40" s="58">
         <v>2020</v>
       </c>
-      <c r="B40" s="66">
+      <c r="B40" s="58">
         <v>42</v>
       </c>
-      <c r="C40" s="56">
+      <c r="C40" s="48">
         <v>24</v>
       </c>
-      <c r="D40" s="56">
+      <c r="D40" s="48">
         <v>26</v>
       </c>
-      <c r="E40" s="56">
+      <c r="E40" s="48">
         <v>275</v>
       </c>
-      <c r="F40" s="56">
+      <c r="F40" s="48">
         <v>685</v>
       </c>
-      <c r="G40" s="56">
+      <c r="G40" s="48">
         <v>788</v>
       </c>
-      <c r="H40" s="56">
+      <c r="H40" s="48">
         <v>558</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A41" s="66">
+      <c r="A41" s="58">
         <v>2020</v>
       </c>
-      <c r="B41" s="66">
+      <c r="B41" s="58">
         <v>43</v>
       </c>
-      <c r="C41" s="56">
+      <c r="C41" s="48">
         <v>50</v>
       </c>
-      <c r="D41" s="56">
+      <c r="D41" s="48">
         <v>30</v>
       </c>
-      <c r="E41" s="56">
+      <c r="E41" s="48">
         <v>433</v>
       </c>
-      <c r="F41" s="56">
+      <c r="F41" s="48">
         <v>1074</v>
       </c>
-      <c r="G41" s="56">
+      <c r="G41" s="48">
         <v>1432</v>
       </c>
-      <c r="H41" s="56">
+      <c r="H41" s="48">
         <v>1143</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A42" s="66">
+      <c r="A42" s="58">
         <v>2020</v>
       </c>
-      <c r="B42" s="66">
+      <c r="B42" s="58">
         <v>44</v>
       </c>
-      <c r="C42" s="56">
+      <c r="C42" s="48">
         <v>63</v>
       </c>
-      <c r="D42" s="56">
+      <c r="D42" s="48">
         <v>52</v>
       </c>
-      <c r="E42" s="56">
+      <c r="E42" s="48">
         <v>556</v>
       </c>
-      <c r="F42" s="56">
+      <c r="F42" s="48">
         <v>1519</v>
       </c>
-      <c r="G42" s="56">
+      <c r="G42" s="48">
         <v>2111</v>
       </c>
-      <c r="H42" s="56">
+      <c r="H42" s="48">
         <v>1696</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A43" s="66">
+      <c r="A43" s="58">
         <v>2020</v>
       </c>
-      <c r="B43" s="66">
+      <c r="B43" s="58">
         <v>45</v>
       </c>
-      <c r="C43" s="56">
+      <c r="C43" s="48">
         <v>65</v>
       </c>
-      <c r="D43" s="56">
+      <c r="D43" s="48">
         <v>58</v>
       </c>
-      <c r="E43" s="56">
+      <c r="E43" s="48">
         <v>603</v>
       </c>
-      <c r="F43" s="56">
+      <c r="F43" s="48">
         <v>1706</v>
       </c>
-      <c r="G43" s="56">
+      <c r="G43" s="48">
         <v>2417</v>
       </c>
-      <c r="H43" s="56">
+      <c r="H43" s="48">
         <v>2068</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A44" s="66">
+      <c r="A44" s="58">
         <v>2020</v>
       </c>
-      <c r="B44" s="66">
+      <c r="B44" s="58">
         <v>46</v>
       </c>
-      <c r="C44" s="56">
+      <c r="C44" s="48">
         <v>66</v>
       </c>
-      <c r="D44" s="56">
+      <c r="D44" s="48">
         <v>70</v>
       </c>
-      <c r="E44" s="56">
+      <c r="E44" s="48">
         <v>583</v>
       </c>
-      <c r="F44" s="56">
+      <c r="F44" s="48">
         <v>1744</v>
       </c>
-      <c r="G44" s="56">
+      <c r="G44" s="48">
         <v>2629</v>
       </c>
-      <c r="H44" s="56">
+      <c r="H44" s="48">
         <v>2519</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A45" s="66">
+      <c r="A45" s="58">
         <v>2020</v>
       </c>
-      <c r="B45" s="66">
+      <c r="B45" s="58">
         <v>47</v>
       </c>
-      <c r="C45" s="56">
+      <c r="C45" s="48">
         <v>54</v>
       </c>
-      <c r="D45" s="56">
+      <c r="D45" s="48">
         <v>60</v>
       </c>
-      <c r="E45" s="56">
+      <c r="E45" s="48">
         <v>611</v>
       </c>
-      <c r="F45" s="56">
+      <c r="F45" s="48">
         <v>1699</v>
       </c>
-      <c r="G45" s="56">
+      <c r="G45" s="48">
         <v>2901</v>
       </c>
-      <c r="H45" s="56">
+      <c r="H45" s="48">
         <v>2847</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A46" s="66">
+      <c r="A46" s="58">
         <v>2020</v>
       </c>
-      <c r="B46" s="66">
+      <c r="B46" s="58">
         <v>48</v>
       </c>
-      <c r="C46" s="56">
+      <c r="C46" s="48">
         <v>60</v>
       </c>
-      <c r="D46" s="56">
+      <c r="D46" s="48">
         <v>67</v>
       </c>
-      <c r="E46" s="56">
+      <c r="E46" s="48">
         <v>573</v>
       </c>
-      <c r="F46" s="56">
+      <c r="F46" s="48">
         <v>1723</v>
       </c>
-      <c r="G46" s="56">
+      <c r="G46" s="48">
         <v>2876</v>
       </c>
-      <c r="H46" s="56">
+      <c r="H46" s="48">
         <v>3096</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A47" s="66">
+      <c r="A47" s="58">
         <v>2020</v>
       </c>
-      <c r="B47" s="66">
+      <c r="B47" s="58">
         <v>49</v>
       </c>
-      <c r="C47" s="56">
+      <c r="C47" s="48">
         <v>58</v>
       </c>
-      <c r="D47" s="56">
+      <c r="D47" s="48">
         <v>62</v>
       </c>
-      <c r="E47" s="56">
+      <c r="E47" s="48">
         <v>610</v>
       </c>
-      <c r="F47" s="56">
+      <c r="F47" s="48">
         <v>1690</v>
       </c>
-      <c r="G47" s="56">
+      <c r="G47" s="48">
         <v>3204</v>
       </c>
-      <c r="H47" s="56">
+      <c r="H47" s="48">
         <v>3628</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A48" s="66">
+      <c r="A48" s="58">
         <v>2020</v>
       </c>
-      <c r="B48" s="66">
+      <c r="B48" s="58">
         <v>50</v>
       </c>
-      <c r="C48" s="56">
+      <c r="C48" s="48">
         <v>69</v>
       </c>
-      <c r="D48" s="56">
+      <c r="D48" s="48">
         <v>67</v>
       </c>
-      <c r="E48" s="56">
+      <c r="E48" s="48">
         <v>681</v>
       </c>
-      <c r="F48" s="56">
+      <c r="F48" s="48">
         <v>1986</v>
       </c>
-      <c r="G48" s="56">
+      <c r="G48" s="48">
         <v>3977</v>
       </c>
-      <c r="H48" s="56">
+      <c r="H48" s="48">
         <v>4563</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A49" s="66">
+      <c r="A49" s="58">
         <v>2020</v>
       </c>
-      <c r="B49" s="66">
+      <c r="B49" s="58">
         <v>51</v>
       </c>
-      <c r="C49" s="56">
+      <c r="C49" s="48">
         <v>77</v>
       </c>
-      <c r="D49" s="56">
+      <c r="D49" s="48">
         <v>84</v>
       </c>
-      <c r="E49" s="56">
+      <c r="E49" s="48">
         <v>721</v>
       </c>
-      <c r="F49" s="56">
+      <c r="F49" s="48">
         <v>2209</v>
       </c>
-      <c r="G49" s="56">
+      <c r="G49" s="48">
         <v>4429</v>
       </c>
-      <c r="H49" s="56">
+      <c r="H49" s="48">
         <v>5136</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A50" s="66">
+      <c r="A50" s="58">
         <v>2020</v>
       </c>
-      <c r="B50" s="66">
+      <c r="B50" s="58">
         <v>52</v>
       </c>
-      <c r="C50" s="56">
+      <c r="C50" s="48">
         <v>52</v>
       </c>
-      <c r="D50" s="56">
+      <c r="D50" s="48">
         <v>50</v>
       </c>
-      <c r="E50" s="56">
+      <c r="E50" s="48">
         <v>585</v>
       </c>
-      <c r="F50" s="56">
+      <c r="F50" s="48">
         <v>1869</v>
       </c>
-      <c r="G50" s="56">
+      <c r="G50" s="48">
         <v>3936</v>
       </c>
-      <c r="H50" s="56">
+      <c r="H50" s="48">
         <v>4610</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A51" s="66">
+      <c r="A51" s="58">
         <v>2020</v>
       </c>
-      <c r="B51" s="66">
+      <c r="B51" s="58">
         <v>53</v>
       </c>
-      <c r="C51" s="56">
+      <c r="C51" s="48">
         <v>73</v>
       </c>
-      <c r="D51" s="56">
+      <c r="D51" s="48">
         <v>51</v>
       </c>
-      <c r="E51" s="56">
+      <c r="E51" s="48">
         <v>614</v>
       </c>
-      <c r="F51" s="56">
+      <c r="F51" s="48">
         <v>1929</v>
       </c>
-      <c r="G51" s="56">
+      <c r="G51" s="48">
         <v>3876</v>
       </c>
-      <c r="H51" s="56">
+      <c r="H51" s="48">
         <v>4498</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A52" s="66">
-        <v>2021</v>
-      </c>
-      <c r="B52" s="66">
+      <c r="A52" s="58">
+        <v>2021</v>
+      </c>
+      <c r="B52" s="58">
         <v>1</v>
       </c>
-      <c r="C52" s="56">
+      <c r="C52" s="48">
         <v>68</v>
       </c>
-      <c r="D52" s="56">
+      <c r="D52" s="48">
         <v>34</v>
       </c>
-      <c r="E52" s="56">
+      <c r="E52" s="48">
         <v>596</v>
       </c>
-      <c r="F52" s="56">
+      <c r="F52" s="48">
         <v>1846</v>
       </c>
-      <c r="G52" s="56">
+      <c r="G52" s="48">
         <v>4009</v>
       </c>
-      <c r="H52" s="56">
+      <c r="H52" s="48">
         <v>4705</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A53" s="66">
-        <v>2021</v>
-      </c>
-      <c r="B53" s="66">
+      <c r="A53" s="58">
+        <v>2021</v>
+      </c>
+      <c r="B53" s="58">
         <v>2</v>
       </c>
-      <c r="C53" s="56">
+      <c r="C53" s="48">
         <v>60</v>
       </c>
-      <c r="D53" s="56">
+      <c r="D53" s="48">
         <v>47</v>
       </c>
-      <c r="E53" s="56">
+      <c r="E53" s="48">
         <v>533</v>
       </c>
-      <c r="F53" s="56">
+      <c r="F53" s="48">
         <v>1615</v>
       </c>
-      <c r="G53" s="56">
+      <c r="G53" s="48">
         <v>3459</v>
       </c>
-      <c r="H53" s="56">
+      <c r="H53" s="48">
         <v>4266</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A54" s="66">
-        <v>2021</v>
-      </c>
-      <c r="B54" s="66">
+      <c r="A54" s="58">
+        <v>2021</v>
+      </c>
+      <c r="B54" s="58">
         <v>3</v>
       </c>
-      <c r="C54" s="56">
+      <c r="C54" s="48">
         <v>41</v>
       </c>
-      <c r="D54" s="56">
+      <c r="D54" s="48">
         <v>35</v>
       </c>
-      <c r="E54" s="56">
+      <c r="E54" s="48">
         <v>414</v>
       </c>
-      <c r="F54" s="56">
+      <c r="F54" s="48">
         <v>1510</v>
       </c>
-      <c r="G54" s="56">
+      <c r="G54" s="48">
         <v>3194</v>
       </c>
-      <c r="H54" s="56">
+      <c r="H54" s="48">
         <v>3734</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A55" s="66">
-        <v>2021</v>
-      </c>
-      <c r="B55" s="66">
+      <c r="A55" s="58">
+        <v>2021</v>
+      </c>
+      <c r="B55" s="58">
         <v>4</v>
       </c>
-      <c r="C55" s="56">
+      <c r="C55" s="48">
         <v>34</v>
       </c>
-      <c r="D55" s="56">
+      <c r="D55" s="48">
         <v>34</v>
       </c>
-      <c r="E55" s="56">
+      <c r="E55" s="48">
         <v>408</v>
       </c>
-      <c r="F55" s="56">
+      <c r="F55" s="48">
         <v>1261</v>
       </c>
-      <c r="G55" s="56">
+      <c r="G55" s="48">
         <v>2816</v>
       </c>
-      <c r="H55" s="56">
+      <c r="H55" s="48">
         <v>3021</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A56" s="66">
-        <v>2021</v>
-      </c>
-      <c r="B56" s="66">
+      <c r="A56" s="58">
+        <v>2021</v>
+      </c>
+      <c r="B56" s="58">
         <v>5</v>
       </c>
-      <c r="C56" s="56">
+      <c r="C56" s="48">
         <v>45</v>
       </c>
-      <c r="D56" s="56">
+      <c r="D56" s="48">
         <v>36</v>
       </c>
-      <c r="E56" s="56">
+      <c r="E56" s="48">
         <v>358</v>
       </c>
-      <c r="F56" s="56">
+      <c r="F56" s="48">
         <v>1153</v>
       </c>
-      <c r="G56" s="56">
+      <c r="G56" s="48">
         <v>2380</v>
       </c>
-      <c r="H56" s="56">
+      <c r="H56" s="48">
         <v>2544</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A57" s="66">
-        <v>2021</v>
-      </c>
-      <c r="B57" s="66">
+      <c r="A57" s="58">
+        <v>2021</v>
+      </c>
+      <c r="B57" s="58">
         <v>6</v>
       </c>
-      <c r="C57" s="56">
+      <c r="C57" s="48">
         <v>42</v>
       </c>
-      <c r="D57" s="56">
+      <c r="D57" s="48">
         <v>25</v>
       </c>
-      <c r="E57" s="56">
+      <c r="E57" s="48">
         <v>308</v>
       </c>
-      <c r="F57" s="56">
+      <c r="F57" s="48">
         <v>987</v>
       </c>
-      <c r="G57" s="56">
+      <c r="G57" s="48">
         <v>1972</v>
       </c>
-      <c r="H57" s="56">
+      <c r="H57" s="48">
         <v>1906</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A58" s="66">
-        <v>2021</v>
-      </c>
-      <c r="B58" s="66">
+      <c r="A58" s="58">
+        <v>2021</v>
+      </c>
+      <c r="B58" s="58">
         <v>7</v>
       </c>
-      <c r="C58" s="56">
+      <c r="C58" s="48">
         <v>37</v>
       </c>
-      <c r="D58" s="56">
+      <c r="D58" s="48">
         <v>23</v>
       </c>
-      <c r="E58" s="56">
+      <c r="E58" s="48">
         <v>311</v>
       </c>
-      <c r="F58" s="56">
+      <c r="F58" s="48">
         <v>1064</v>
       </c>
-      <c r="G58" s="56">
+      <c r="G58" s="48">
         <v>2012</v>
       </c>
-      <c r="H58" s="56">
+      <c r="H58" s="48">
         <v>1707</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A59" s="66">
-        <v>2021</v>
-      </c>
-      <c r="B59" s="66">
+      <c r="A59" s="58">
+        <v>2021</v>
+      </c>
+      <c r="B59" s="58">
         <v>8</v>
       </c>
-      <c r="C59" s="56">
+      <c r="C59" s="48">
         <v>48</v>
       </c>
-      <c r="D59" s="56">
+      <c r="D59" s="48">
         <v>30</v>
       </c>
-      <c r="E59" s="56">
+      <c r="E59" s="48">
         <v>327</v>
       </c>
-      <c r="F59" s="56">
+      <c r="F59" s="48">
         <v>1121</v>
       </c>
-      <c r="G59" s="56">
+      <c r="G59" s="48">
         <v>1823</v>
       </c>
-      <c r="H59" s="56">
+      <c r="H59" s="48">
         <v>1505</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A60" s="66">
-        <v>2021</v>
-      </c>
-      <c r="B60" s="66">
+      <c r="A60" s="58">
+        <v>2021</v>
+      </c>
+      <c r="B60" s="58">
         <v>9</v>
       </c>
-      <c r="C60" s="56">
+      <c r="C60" s="48">
         <v>53</v>
       </c>
-      <c r="D60" s="56">
+      <c r="D60" s="48">
         <v>28</v>
       </c>
-      <c r="E60" s="56">
+      <c r="E60" s="48">
         <v>354</v>
       </c>
-      <c r="F60" s="56">
+      <c r="F60" s="48">
         <v>1068</v>
       </c>
-      <c r="G60" s="56">
+      <c r="G60" s="48">
         <v>1674</v>
       </c>
-      <c r="H60" s="56">
+      <c r="H60" s="48">
         <v>1270</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A61" s="66">
-        <v>2021</v>
-      </c>
-      <c r="B61" s="66">
+      <c r="A61" s="58">
+        <v>2021</v>
+      </c>
+      <c r="B61" s="58">
         <v>10</v>
       </c>
-      <c r="C61" s="56">
+      <c r="C61" s="48">
         <v>52</v>
       </c>
-      <c r="D61" s="56">
+      <c r="D61" s="48">
         <v>37</v>
       </c>
-      <c r="E61" s="56">
+      <c r="E61" s="48">
         <v>411</v>
       </c>
-      <c r="F61" s="5